--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 17 October 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 31 October 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A6AF5B-2578-4348-A7D7-F851EFC57A4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBBE84-D9A6-46D8-AE00-9C14E78B3CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'2995e12c-7f92-4103-a2d1-a1d598d57c6f'"</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t xml:space="preserve">            Australian Bureau of Statistics</t>
   </si>
@@ -68,6 +68,12 @@
     <t>© Commonwealth of Australia 2020</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Business size</t>
+  </si>
+  <si>
     <t>0. Australia</t>
   </si>
   <si>
@@ -98,31 +104,25 @@
     <t>8. ACT</t>
   </si>
   <si>
+    <t>Payroll jobs index by Employment size</t>
+  </si>
+  <si>
     <t>Under 20 employees</t>
   </si>
   <si>
     <t>200 employees and over</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 4 November 2020</t>
+    <t>Week ending Saturday 31 October 2020</t>
   </si>
   <si>
-    <t>Week ending Saturday 17 October 2020</t>
+    <t>Released at 11.30am (Canberra time) 17 November 2020</t>
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment Size</t>
   </si>
   <si>
-    <t>Payroll Jobs Index by Employment Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
-  </si>
-  <si>
-    <t>Employment size</t>
-  </si>
-  <si>
-    <t>State or Territory</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment  Size</t>
   </si>
 </sst>
 </file>
@@ -282,7 +282,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -359,10 +359,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1125,12 +1121,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1329,7 +1325,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1411,7 +1407,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1573,13 +1569,15 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>24</v>
+    <row r="5" spans="1:78" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="str">
+        <f>"** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic."&amp;CHAR(10)&amp;"**Care should be exercised when focusing on the most recent movements in payroll jobs. For more information, please see the Reporting variability section in Data limitations and revisions."</f>
+        <v>** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic.
+**Care should be exercised when focusing on the most recent movements in payroll jobs. For more information, please see the Reporting variability section in Data limitations and revisions.</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1657,10 +1655,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1788,8 +1786,12 @@
       <c r="AR6" s="24">
         <v>44121</v>
       </c>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
+      <c r="AS6" s="24">
+        <v>44128</v>
+      </c>
+      <c r="AT6" s="24">
+        <v>44135</v>
+      </c>
       <c r="AU6" s="24"/>
       <c r="AV6" s="24"/>
       <c r="AW6" s="24"/>
@@ -1825,37 +1827,37 @@
     </row>
     <row r="7" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="25">
-        <v>87.26</v>
+        <v>87.29</v>
       </c>
       <c r="D7" s="25">
-        <v>91.83</v>
+        <v>91.85</v>
       </c>
       <c r="E7" s="25">
-        <v>94.39</v>
+        <v>94.41</v>
       </c>
       <c r="F7" s="25">
-        <v>95.46</v>
+        <v>95.47</v>
       </c>
       <c r="G7" s="25">
-        <v>96.2</v>
+        <v>96.22</v>
       </c>
       <c r="H7" s="25">
-        <v>97.42</v>
+        <v>97.43</v>
       </c>
       <c r="I7" s="25">
-        <v>97.83</v>
+        <v>97.84</v>
       </c>
       <c r="J7" s="25">
         <v>98.35</v>
       </c>
       <c r="K7" s="25">
-        <v>98.86</v>
+        <v>98.87</v>
       </c>
       <c r="L7" s="25">
         <v>99.94</v>
@@ -1867,97 +1869,101 @@
         <v>99.21</v>
       </c>
       <c r="O7" s="25">
-        <v>95.27</v>
+        <v>95.26</v>
       </c>
       <c r="P7" s="25">
         <v>91.9</v>
       </c>
       <c r="Q7" s="25">
-        <v>89.42</v>
+        <v>89.44</v>
       </c>
       <c r="R7" s="25">
-        <v>88.68</v>
+        <v>88.72</v>
       </c>
       <c r="S7" s="25">
-        <v>89.19</v>
+        <v>89.22</v>
       </c>
       <c r="T7" s="25">
-        <v>90.23</v>
+        <v>90.27</v>
       </c>
       <c r="U7" s="25">
-        <v>91.33</v>
+        <v>91.38</v>
       </c>
       <c r="V7" s="25">
-        <v>92.41</v>
+        <v>92.46</v>
       </c>
       <c r="W7" s="25">
-        <v>92.97</v>
+        <v>93.02</v>
       </c>
       <c r="X7" s="25">
-        <v>93.51</v>
+        <v>93.55</v>
       </c>
       <c r="Y7" s="25">
-        <v>94.75</v>
+        <v>94.81</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.29</v>
+        <v>95.35</v>
       </c>
       <c r="AA7" s="25">
-        <v>95.88</v>
+        <v>95.95</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.05</v>
+        <v>97.14</v>
       </c>
       <c r="AC7" s="25">
-        <v>98.69</v>
+        <v>98.92</v>
       </c>
       <c r="AD7" s="25">
-        <v>98.28</v>
+        <v>98.66</v>
       </c>
       <c r="AE7" s="25">
-        <v>98.12</v>
+        <v>98.54</v>
       </c>
       <c r="AF7" s="25">
-        <v>98.36</v>
+        <v>98.82</v>
       </c>
       <c r="AG7" s="25">
-        <v>98.24</v>
+        <v>98.76</v>
       </c>
       <c r="AH7" s="25">
-        <v>97.96</v>
+        <v>98.56</v>
       </c>
       <c r="AI7" s="25">
-        <v>97.82</v>
+        <v>98.46</v>
       </c>
       <c r="AJ7" s="25">
-        <v>97.77</v>
+        <v>98.45</v>
       </c>
       <c r="AK7" s="25">
-        <v>97.91</v>
+        <v>98.62</v>
       </c>
       <c r="AL7" s="25">
-        <v>97.94</v>
+        <v>98.79</v>
       </c>
       <c r="AM7" s="25">
-        <v>98.17</v>
+        <v>99.18</v>
       </c>
       <c r="AN7" s="25">
-        <v>98.06</v>
+        <v>99.16</v>
       </c>
       <c r="AO7" s="25">
-        <v>97.88</v>
+        <v>99.05</v>
       </c>
       <c r="AP7" s="25">
-        <v>96.1</v>
+        <v>97.86</v>
       </c>
       <c r="AQ7" s="25">
-        <v>92.9</v>
+        <v>96.21</v>
       </c>
       <c r="AR7" s="25">
-        <v>90.98</v>
-      </c>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
+        <v>95.37</v>
+      </c>
+      <c r="AS7" s="25">
+        <v>94.58</v>
+      </c>
+      <c r="AT7" s="25">
+        <v>94.18</v>
+      </c>
       <c r="AU7" s="25"/>
       <c r="AV7" s="25"/>
       <c r="AW7" s="25"/>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="8" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="25">
-        <v>91.89</v>
+        <v>91.9</v>
       </c>
       <c r="D8" s="25">
         <v>95.3</v>
       </c>
       <c r="E8" s="25">
-        <v>97.1</v>
+        <v>97.11</v>
       </c>
       <c r="F8" s="25">
         <v>97.84</v>
@@ -2014,10 +2020,10 @@
         <v>98.29</v>
       </c>
       <c r="H8" s="25">
-        <v>99.24</v>
+        <v>99.25</v>
       </c>
       <c r="I8" s="25">
-        <v>99.53</v>
+        <v>99.54</v>
       </c>
       <c r="J8" s="25">
         <v>99.87</v>
@@ -2026,106 +2032,110 @@
         <v>100.09</v>
       </c>
       <c r="L8" s="25">
-        <v>100.13</v>
+        <v>100.12</v>
       </c>
       <c r="M8" s="25">
         <v>100</v>
       </c>
       <c r="N8" s="25">
-        <v>98.74</v>
+        <v>98.73</v>
       </c>
       <c r="O8" s="25">
-        <v>94.15</v>
+        <v>94.12</v>
       </c>
       <c r="P8" s="25">
-        <v>90.48</v>
+        <v>90.46</v>
       </c>
       <c r="Q8" s="25">
-        <v>88.42</v>
+        <v>88.41</v>
       </c>
       <c r="R8" s="25">
         <v>87.69</v>
       </c>
       <c r="S8" s="25">
-        <v>88.24</v>
+        <v>88.25</v>
       </c>
       <c r="T8" s="25">
-        <v>88.74</v>
+        <v>88.75</v>
       </c>
       <c r="U8" s="25">
-        <v>89.24</v>
+        <v>89.25</v>
       </c>
       <c r="V8" s="25">
-        <v>89.84</v>
+        <v>89.86</v>
       </c>
       <c r="W8" s="25">
-        <v>90.12</v>
+        <v>90.14</v>
       </c>
       <c r="X8" s="25">
-        <v>90.58</v>
+        <v>90.59</v>
       </c>
       <c r="Y8" s="25">
-        <v>91.39</v>
+        <v>91.41</v>
       </c>
       <c r="Z8" s="25">
-        <v>92.2</v>
+        <v>92.21</v>
       </c>
       <c r="AA8" s="25">
-        <v>92.53</v>
+        <v>92.54</v>
       </c>
       <c r="AB8" s="25">
         <v>92.5</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.15</v>
+        <v>93.16</v>
       </c>
       <c r="AD8" s="25">
         <v>93.38</v>
       </c>
       <c r="AE8" s="25">
-        <v>93.42</v>
+        <v>93.4</v>
       </c>
       <c r="AF8" s="25">
-        <v>93.78</v>
+        <v>93.8</v>
       </c>
       <c r="AG8" s="25">
-        <v>93.86</v>
+        <v>93.89</v>
       </c>
       <c r="AH8" s="25">
-        <v>93.61</v>
+        <v>93.63</v>
       </c>
       <c r="AI8" s="25">
+        <v>93.54</v>
+      </c>
+      <c r="AJ8" s="25">
         <v>93.53</v>
       </c>
-      <c r="AJ8" s="25">
-        <v>93.51</v>
-      </c>
       <c r="AK8" s="25">
-        <v>93.55</v>
+        <v>93.6</v>
       </c>
       <c r="AL8" s="25">
-        <v>93.82</v>
+        <v>93.92</v>
       </c>
       <c r="AM8" s="25">
-        <v>94.36</v>
+        <v>94.47</v>
       </c>
       <c r="AN8" s="25">
-        <v>94.48</v>
+        <v>94.58</v>
       </c>
       <c r="AO8" s="25">
-        <v>94.34</v>
+        <v>94.41</v>
       </c>
       <c r="AP8" s="25">
-        <v>93.63</v>
+        <v>93.87</v>
       </c>
       <c r="AQ8" s="25">
-        <v>92.99</v>
+        <v>93.75</v>
       </c>
       <c r="AR8" s="25">
-        <v>92.9</v>
-      </c>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
+        <v>94.21</v>
+      </c>
+      <c r="AS8" s="25">
+        <v>94.29</v>
+      </c>
+      <c r="AT8" s="25">
+        <v>94.6</v>
+      </c>
       <c r="AU8" s="25"/>
       <c r="AV8" s="25"/>
       <c r="AW8" s="25"/>
@@ -2161,10 +2171,10 @@
     </row>
     <row r="9" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="25">
         <v>96.05</v>
@@ -2176,10 +2186,10 @@
         <v>97.72</v>
       </c>
       <c r="F9" s="25">
-        <v>98.43</v>
+        <v>98.42</v>
       </c>
       <c r="G9" s="25">
-        <v>98.82</v>
+        <v>98.81</v>
       </c>
       <c r="H9" s="25">
         <v>99.16</v>
@@ -2194,7 +2204,7 @@
         <v>99.09</v>
       </c>
       <c r="L9" s="25">
-        <v>99.65</v>
+        <v>99.64</v>
       </c>
       <c r="M9" s="25">
         <v>100</v>
@@ -2203,52 +2213,52 @@
         <v>99.54</v>
       </c>
       <c r="O9" s="25">
-        <v>97.8</v>
+        <v>97.81</v>
       </c>
       <c r="P9" s="25">
-        <v>95.98</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.85</v>
+        <v>94.88</v>
       </c>
       <c r="R9" s="25">
-        <v>94.69</v>
+        <v>94.72</v>
       </c>
       <c r="S9" s="25">
-        <v>94.84</v>
+        <v>94.88</v>
       </c>
       <c r="T9" s="25">
-        <v>94.87</v>
+        <v>94.91</v>
       </c>
       <c r="U9" s="25">
-        <v>95.17</v>
+        <v>95.21</v>
       </c>
       <c r="V9" s="25">
-        <v>95.39</v>
+        <v>95.43</v>
       </c>
       <c r="W9" s="25">
-        <v>95.57</v>
+        <v>95.62</v>
       </c>
       <c r="X9" s="25">
-        <v>96.08</v>
+        <v>96.12</v>
       </c>
       <c r="Y9" s="25">
-        <v>96.89</v>
+        <v>96.92</v>
       </c>
       <c r="Z9" s="25">
-        <v>97.14</v>
+        <v>97.26</v>
       </c>
       <c r="AA9" s="25">
-        <v>96.99</v>
+        <v>97.11</v>
       </c>
       <c r="AB9" s="25">
-        <v>96.32</v>
+        <v>96.42</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.79</v>
+        <v>96.88</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.63</v>
+        <v>97.64</v>
       </c>
       <c r="AE9" s="25">
         <v>97.52</v>
@@ -2257,43 +2267,47 @@
         <v>97.37</v>
       </c>
       <c r="AG9" s="25">
-        <v>97.56</v>
+        <v>97.57</v>
       </c>
       <c r="AH9" s="25">
-        <v>97.57</v>
+        <v>97.58</v>
       </c>
       <c r="AI9" s="25">
-        <v>97.47</v>
+        <v>97.48</v>
       </c>
       <c r="AJ9" s="25">
-        <v>97.51</v>
+        <v>97.49</v>
       </c>
       <c r="AK9" s="25">
         <v>97.39</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.53</v>
+        <v>97.5</v>
       </c>
       <c r="AM9" s="25">
-        <v>97.76</v>
+        <v>97.73</v>
       </c>
       <c r="AN9" s="25">
-        <v>98.1</v>
+        <v>97.97</v>
       </c>
       <c r="AO9" s="25">
-        <v>98.01</v>
+        <v>97.78</v>
       </c>
       <c r="AP9" s="25">
-        <v>97.8</v>
+        <v>97.29</v>
       </c>
       <c r="AQ9" s="25">
-        <v>98.03</v>
+        <v>97.48</v>
       </c>
       <c r="AR9" s="25">
-        <v>99.16</v>
-      </c>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
+        <v>98.15</v>
+      </c>
+      <c r="AS9" s="25">
+        <v>98.27</v>
+      </c>
+      <c r="AT9" s="25">
+        <v>99.45</v>
+      </c>
       <c r="AU9" s="25"/>
       <c r="AV9" s="25"/>
       <c r="AW9" s="25"/>
@@ -2329,13 +2343,13 @@
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="25">
-        <v>87.01</v>
+        <v>87.02</v>
       </c>
       <c r="D10" s="25">
         <v>91.51</v>
@@ -2344,25 +2358,25 @@
         <v>94.15</v>
       </c>
       <c r="F10" s="25">
-        <v>95.33</v>
+        <v>95.34</v>
       </c>
       <c r="G10" s="25">
-        <v>96.22</v>
+        <v>96.23</v>
       </c>
       <c r="H10" s="25">
-        <v>97.34</v>
+        <v>97.35</v>
       </c>
       <c r="I10" s="25">
-        <v>97.67</v>
+        <v>97.68</v>
       </c>
       <c r="J10" s="25">
-        <v>98.27</v>
+        <v>98.28</v>
       </c>
       <c r="K10" s="25">
         <v>98.8</v>
       </c>
       <c r="L10" s="25">
-        <v>99.94</v>
+        <v>99.95</v>
       </c>
       <c r="M10" s="25">
         <v>100</v>
@@ -2371,97 +2385,101 @@
         <v>99.08</v>
       </c>
       <c r="O10" s="25">
-        <v>95.25</v>
+        <v>95.23</v>
       </c>
       <c r="P10" s="25">
-        <v>91.95</v>
+        <v>91.93</v>
       </c>
       <c r="Q10" s="25">
         <v>89.57</v>
       </c>
       <c r="R10" s="25">
-        <v>88.85</v>
+        <v>88.86</v>
       </c>
       <c r="S10" s="25">
-        <v>89.28</v>
+        <v>89.29</v>
       </c>
       <c r="T10" s="25">
-        <v>90.36</v>
+        <v>90.37</v>
       </c>
       <c r="U10" s="25">
-        <v>91.72</v>
+        <v>91.75</v>
       </c>
       <c r="V10" s="25">
-        <v>93.52</v>
+        <v>93.56</v>
       </c>
       <c r="W10" s="25">
-        <v>94.01</v>
+        <v>94.04</v>
       </c>
       <c r="X10" s="25">
-        <v>94.6</v>
+        <v>94.63</v>
       </c>
       <c r="Y10" s="25">
-        <v>95.88</v>
+        <v>95.93</v>
       </c>
       <c r="Z10" s="25">
-        <v>95.58</v>
+        <v>95.64</v>
       </c>
       <c r="AA10" s="25">
-        <v>95.92</v>
+        <v>95.99</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.15</v>
+        <v>97.26</v>
       </c>
       <c r="AC10" s="25">
-        <v>98.91</v>
+        <v>99.23</v>
       </c>
       <c r="AD10" s="25">
-        <v>98.48</v>
+        <v>99.02</v>
       </c>
       <c r="AE10" s="25">
-        <v>98.27</v>
+        <v>98.87</v>
       </c>
       <c r="AF10" s="25">
-        <v>98.71</v>
+        <v>99.33</v>
       </c>
       <c r="AG10" s="25">
-        <v>98.48</v>
+        <v>99.17</v>
       </c>
       <c r="AH10" s="25">
-        <v>98.25</v>
+        <v>99.06</v>
       </c>
       <c r="AI10" s="25">
-        <v>98.3</v>
+        <v>99.14</v>
       </c>
       <c r="AJ10" s="25">
-        <v>98.44</v>
+        <v>99.32</v>
       </c>
       <c r="AK10" s="25">
-        <v>98.52</v>
+        <v>99.45</v>
       </c>
       <c r="AL10" s="25">
-        <v>98.61</v>
+        <v>99.7</v>
       </c>
       <c r="AM10" s="25">
-        <v>98.75</v>
+        <v>100.01</v>
       </c>
       <c r="AN10" s="25">
-        <v>98.6</v>
+        <v>99.94</v>
       </c>
       <c r="AO10" s="25">
-        <v>98.46</v>
+        <v>99.91</v>
       </c>
       <c r="AP10" s="25">
-        <v>96.21</v>
+        <v>98.26</v>
       </c>
       <c r="AQ10" s="25">
-        <v>91.99</v>
+        <v>95.78</v>
       </c>
       <c r="AR10" s="25">
-        <v>89.85</v>
-      </c>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
+        <v>94.82</v>
+      </c>
+      <c r="AS10" s="25">
+        <v>93.99</v>
+      </c>
+      <c r="AT10" s="25">
+        <v>93.27</v>
+      </c>
       <c r="AU10" s="25"/>
       <c r="AV10" s="25"/>
       <c r="AW10" s="25"/>
@@ -2497,13 +2515,13 @@
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="25">
-        <v>92.16</v>
+        <v>92.15</v>
       </c>
       <c r="D11" s="25">
         <v>95.54</v>
@@ -2527,7 +2545,7 @@
         <v>99.99</v>
       </c>
       <c r="K11" s="25">
-        <v>100.17</v>
+        <v>100.16</v>
       </c>
       <c r="L11" s="25">
         <v>100.1</v>
@@ -2536,100 +2554,104 @@
         <v>100</v>
       </c>
       <c r="N11" s="25">
-        <v>98.49</v>
+        <v>98.47</v>
       </c>
       <c r="O11" s="25">
-        <v>93.64</v>
+        <v>93.62</v>
       </c>
       <c r="P11" s="25">
-        <v>89.95</v>
+        <v>89.93</v>
       </c>
       <c r="Q11" s="25">
-        <v>88.09</v>
+        <v>88.08</v>
       </c>
       <c r="R11" s="25">
-        <v>87.68</v>
+        <v>87.67</v>
       </c>
       <c r="S11" s="25">
         <v>88.06</v>
       </c>
       <c r="T11" s="25">
-        <v>88.56</v>
+        <v>88.57</v>
       </c>
       <c r="U11" s="25">
-        <v>89.05</v>
+        <v>89.06</v>
       </c>
       <c r="V11" s="25">
-        <v>89.53</v>
+        <v>89.55</v>
       </c>
       <c r="W11" s="25">
-        <v>89.97</v>
+        <v>89.99</v>
       </c>
       <c r="X11" s="25">
-        <v>90.51</v>
+        <v>90.53</v>
       </c>
       <c r="Y11" s="25">
-        <v>91.48</v>
+        <v>91.5</v>
       </c>
       <c r="Z11" s="25">
-        <v>92.17</v>
+        <v>92.19</v>
       </c>
       <c r="AA11" s="25">
-        <v>92.42</v>
+        <v>92.43</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.49</v>
+        <v>92.5</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.2</v>
+        <v>93.21</v>
       </c>
       <c r="AD11" s="25">
-        <v>93.86</v>
+        <v>93.89</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.11</v>
+        <v>94.15</v>
       </c>
       <c r="AF11" s="25">
-        <v>94.46</v>
+        <v>94.52</v>
       </c>
       <c r="AG11" s="25">
-        <v>94.5</v>
+        <v>94.56</v>
       </c>
       <c r="AH11" s="25">
-        <v>94.5</v>
+        <v>94.54</v>
       </c>
       <c r="AI11" s="25">
+        <v>94.65</v>
+      </c>
+      <c r="AJ11" s="25">
+        <v>94.92</v>
+      </c>
+      <c r="AK11" s="25">
+        <v>95.04</v>
+      </c>
+      <c r="AL11" s="25">
+        <v>95.28</v>
+      </c>
+      <c r="AM11" s="25">
+        <v>95.58</v>
+      </c>
+      <c r="AN11" s="25">
+        <v>95.62</v>
+      </c>
+      <c r="AO11" s="25">
+        <v>95.65</v>
+      </c>
+      <c r="AP11" s="25">
+        <v>95.07</v>
+      </c>
+      <c r="AQ11" s="25">
         <v>94.6</v>
       </c>
-      <c r="AJ11" s="25">
-        <v>94.86</v>
-      </c>
-      <c r="AK11" s="25">
-        <v>94.97</v>
-      </c>
-      <c r="AL11" s="25">
-        <v>95.19</v>
-      </c>
-      <c r="AM11" s="25">
-        <v>95.49</v>
-      </c>
-      <c r="AN11" s="25">
-        <v>95.5</v>
-      </c>
-      <c r="AO11" s="25">
-        <v>95.54</v>
-      </c>
-      <c r="AP11" s="25">
-        <v>94.75</v>
-      </c>
-      <c r="AQ11" s="25">
-        <v>93.55</v>
-      </c>
       <c r="AR11" s="25">
-        <v>93.52</v>
-      </c>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
+        <v>95.01</v>
+      </c>
+      <c r="AS11" s="25">
+        <v>95.01</v>
+      </c>
+      <c r="AT11" s="25">
+        <v>95.04</v>
+      </c>
       <c r="AU11" s="25"/>
       <c r="AV11" s="25"/>
       <c r="AW11" s="25"/>
@@ -2665,10 +2687,10 @@
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="25">
         <v>96.26</v>
@@ -2680,7 +2702,7 @@
         <v>97.26</v>
       </c>
       <c r="F12" s="25">
-        <v>98.06</v>
+        <v>98.07</v>
       </c>
       <c r="G12" s="25">
         <v>98.86</v>
@@ -2707,13 +2729,13 @@
         <v>99.63</v>
       </c>
       <c r="O12" s="25">
-        <v>97.93</v>
+        <v>97.91</v>
       </c>
       <c r="P12" s="25">
-        <v>96.23</v>
+        <v>96.21</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.26</v>
+        <v>95.25</v>
       </c>
       <c r="R12" s="25">
         <v>94.71</v>
@@ -2728,76 +2750,80 @@
         <v>95.29</v>
       </c>
       <c r="V12" s="25">
-        <v>95.55</v>
+        <v>95.56</v>
       </c>
       <c r="W12" s="25">
-        <v>95.94</v>
+        <v>95.95</v>
       </c>
       <c r="X12" s="25">
-        <v>96.65</v>
+        <v>96.66</v>
       </c>
       <c r="Y12" s="25">
-        <v>97.67</v>
+        <v>97.66</v>
       </c>
       <c r="Z12" s="25">
-        <v>97.53</v>
+        <v>97.52</v>
       </c>
       <c r="AA12" s="25">
-        <v>97.52</v>
+        <v>97.5</v>
       </c>
       <c r="AB12" s="25">
-        <v>97.31</v>
+        <v>97.29</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.41</v>
+        <v>97.4</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.09</v>
+        <v>98.08</v>
       </c>
       <c r="AE12" s="25">
-        <v>97.73</v>
+        <v>97.71</v>
       </c>
       <c r="AF12" s="25">
-        <v>97.76</v>
+        <v>97.75</v>
       </c>
       <c r="AG12" s="25">
+        <v>98.28</v>
+      </c>
+      <c r="AH12" s="25">
         <v>98.29</v>
       </c>
-      <c r="AH12" s="25">
-        <v>98.3</v>
-      </c>
       <c r="AI12" s="25">
-        <v>98.27</v>
+        <v>98.25</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.28</v>
+        <v>98.24</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.32</v>
+        <v>98.26</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.34</v>
+        <v>98.13</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.63</v>
+        <v>98.44</v>
       </c>
       <c r="AN12" s="25">
-        <v>98.96</v>
+        <v>98.73</v>
       </c>
       <c r="AO12" s="25">
-        <v>99.04</v>
+        <v>98.72</v>
       </c>
       <c r="AP12" s="25">
-        <v>98.9</v>
+        <v>98.08</v>
       </c>
       <c r="AQ12" s="25">
-        <v>99.29</v>
+        <v>98.22</v>
       </c>
       <c r="AR12" s="25">
-        <v>100.22</v>
-      </c>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
+        <v>99.17</v>
+      </c>
+      <c r="AS12" s="25">
+        <v>99.47</v>
+      </c>
+      <c r="AT12" s="25">
+        <v>100.62</v>
+      </c>
       <c r="AU12" s="25"/>
       <c r="AV12" s="25"/>
       <c r="AW12" s="25"/>
@@ -2833,40 +2859,40 @@
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="25">
-        <v>87.31</v>
+        <v>87.33</v>
       </c>
       <c r="D13" s="25">
-        <v>90.67</v>
+        <v>90.69</v>
       </c>
       <c r="E13" s="25">
-        <v>93.39</v>
+        <v>93.4</v>
       </c>
       <c r="F13" s="25">
-        <v>94.78</v>
+        <v>94.79</v>
       </c>
       <c r="G13" s="25">
-        <v>95.71</v>
+        <v>95.72</v>
       </c>
       <c r="H13" s="25">
-        <v>97.24</v>
+        <v>97.25</v>
       </c>
       <c r="I13" s="25">
-        <v>97.71</v>
+        <v>97.72</v>
       </c>
       <c r="J13" s="25">
-        <v>98.24</v>
+        <v>98.25</v>
       </c>
       <c r="K13" s="25">
-        <v>98.77</v>
+        <v>98.78</v>
       </c>
       <c r="L13" s="25">
-        <v>99.95</v>
+        <v>99.96</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
@@ -2875,97 +2901,101 @@
         <v>99.3</v>
       </c>
       <c r="O13" s="25">
-        <v>95.3</v>
+        <v>95.27</v>
       </c>
       <c r="P13" s="25">
-        <v>91.81</v>
+        <v>91.78</v>
       </c>
       <c r="Q13" s="25">
-        <v>89.34</v>
+        <v>89.35</v>
       </c>
       <c r="R13" s="25">
-        <v>88.53</v>
+        <v>88.54</v>
       </c>
       <c r="S13" s="25">
-        <v>89.01</v>
+        <v>89.03</v>
       </c>
       <c r="T13" s="25">
-        <v>90.03</v>
+        <v>90.04</v>
       </c>
       <c r="U13" s="25">
-        <v>90.81</v>
+        <v>90.83</v>
       </c>
       <c r="V13" s="25">
-        <v>91.34</v>
+        <v>91.37</v>
       </c>
       <c r="W13" s="25">
-        <v>91.74</v>
+        <v>91.77</v>
       </c>
       <c r="X13" s="25">
-        <v>92.34</v>
+        <v>92.37</v>
       </c>
       <c r="Y13" s="25">
-        <v>93.62</v>
+        <v>93.67</v>
       </c>
       <c r="Z13" s="25">
-        <v>94.4</v>
+        <v>94.45</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.02</v>
+        <v>95.08</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.18</v>
+        <v>96.25</v>
       </c>
       <c r="AC13" s="25">
-        <v>97.78</v>
+        <v>97.97</v>
       </c>
       <c r="AD13" s="25">
-        <v>96.91</v>
+        <v>97.19</v>
       </c>
       <c r="AE13" s="25">
-        <v>96.38</v>
+        <v>96.65</v>
       </c>
       <c r="AF13" s="25">
-        <v>96.05</v>
+        <v>96.43</v>
       </c>
       <c r="AG13" s="25">
-        <v>95.57</v>
+        <v>96.02</v>
       </c>
       <c r="AH13" s="25">
-        <v>94.6</v>
+        <v>95.09</v>
       </c>
       <c r="AI13" s="25">
-        <v>93.82</v>
+        <v>94.33</v>
       </c>
       <c r="AJ13" s="25">
-        <v>93.08</v>
+        <v>93.67</v>
       </c>
       <c r="AK13" s="25">
-        <v>93.09</v>
+        <v>93.74</v>
       </c>
       <c r="AL13" s="25">
-        <v>92.89</v>
+        <v>93.7</v>
       </c>
       <c r="AM13" s="25">
-        <v>93.04</v>
+        <v>93.99</v>
       </c>
       <c r="AN13" s="25">
-        <v>93</v>
+        <v>94.07</v>
       </c>
       <c r="AO13" s="25">
-        <v>92.94</v>
+        <v>94.07</v>
       </c>
       <c r="AP13" s="25">
-        <v>91.39</v>
+        <v>93.19</v>
       </c>
       <c r="AQ13" s="25">
-        <v>88.59</v>
+        <v>92.02</v>
       </c>
       <c r="AR13" s="25">
-        <v>86.71</v>
-      </c>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
+        <v>91.37</v>
+      </c>
+      <c r="AS13" s="25">
+        <v>90.59</v>
+      </c>
+      <c r="AT13" s="25">
+        <v>90.57</v>
+      </c>
       <c r="AU13" s="25"/>
       <c r="AV13" s="25"/>
       <c r="AW13" s="25"/>
@@ -3001,139 +3031,143 @@
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="25">
-        <v>90.34</v>
+        <v>90.35</v>
       </c>
       <c r="D14" s="25">
-        <v>93.33</v>
+        <v>93.34</v>
       </c>
       <c r="E14" s="25">
-        <v>95.59</v>
+        <v>95.6</v>
       </c>
       <c r="F14" s="25">
-        <v>96.64</v>
+        <v>96.65</v>
       </c>
       <c r="G14" s="25">
-        <v>97.45</v>
+        <v>97.46</v>
       </c>
       <c r="H14" s="25">
-        <v>99.05</v>
+        <v>99.07</v>
       </c>
       <c r="I14" s="25">
-        <v>99.19</v>
+        <v>99.2</v>
       </c>
       <c r="J14" s="25">
-        <v>99.7</v>
+        <v>99.71</v>
       </c>
       <c r="K14" s="25">
-        <v>99.86</v>
+        <v>99.87</v>
       </c>
       <c r="L14" s="25">
-        <v>100.08</v>
+        <v>100.05</v>
       </c>
       <c r="M14" s="25">
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.96</v>
+        <v>98.94</v>
       </c>
       <c r="O14" s="25">
-        <v>94.66</v>
+        <v>94.6</v>
       </c>
       <c r="P14" s="25">
-        <v>90.8</v>
+        <v>90.75</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.73</v>
+        <v>88.71</v>
       </c>
       <c r="R14" s="25">
-        <v>87.46</v>
+        <v>87.45</v>
       </c>
       <c r="S14" s="25">
         <v>87.95</v>
       </c>
       <c r="T14" s="25">
-        <v>88.54</v>
+        <v>88.55</v>
       </c>
       <c r="U14" s="25">
-        <v>88.66</v>
+        <v>88.67</v>
       </c>
       <c r="V14" s="25">
-        <v>89.12</v>
+        <v>89.13</v>
       </c>
       <c r="W14" s="25">
-        <v>89.31</v>
+        <v>89.32</v>
       </c>
       <c r="X14" s="25">
-        <v>89.81</v>
+        <v>89.83</v>
       </c>
       <c r="Y14" s="25">
-        <v>90.31</v>
+        <v>90.32</v>
       </c>
       <c r="Z14" s="25">
-        <v>91.15</v>
+        <v>91.16</v>
       </c>
       <c r="AA14" s="25">
         <v>91.34</v>
       </c>
       <c r="AB14" s="25">
-        <v>91.3</v>
+        <v>91.28</v>
       </c>
       <c r="AC14" s="25">
-        <v>91.75</v>
+        <v>91.72</v>
       </c>
       <c r="AD14" s="25">
-        <v>90.81</v>
+        <v>90.72</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.26</v>
+        <v>90.13</v>
       </c>
       <c r="AF14" s="25">
-        <v>90.57</v>
+        <v>90.53</v>
       </c>
       <c r="AG14" s="25">
-        <v>90.43</v>
+        <v>90.42</v>
       </c>
       <c r="AH14" s="25">
-        <v>89.33</v>
+        <v>89.27</v>
       </c>
       <c r="AI14" s="25">
-        <v>88.59</v>
+        <v>88.52</v>
       </c>
       <c r="AJ14" s="25">
-        <v>88</v>
+        <v>87.94</v>
       </c>
       <c r="AK14" s="25">
         <v>87.94</v>
       </c>
       <c r="AL14" s="25">
-        <v>88.26</v>
+        <v>88.36</v>
       </c>
       <c r="AM14" s="25">
-        <v>88.92</v>
+        <v>89.05</v>
       </c>
       <c r="AN14" s="25">
-        <v>89.17</v>
+        <v>89.33</v>
       </c>
       <c r="AO14" s="25">
-        <v>88.9</v>
+        <v>89.08</v>
       </c>
       <c r="AP14" s="25">
-        <v>88.14</v>
+        <v>88.46</v>
       </c>
       <c r="AQ14" s="25">
-        <v>87.89</v>
+        <v>88.57</v>
       </c>
       <c r="AR14" s="25">
-        <v>88.34</v>
-      </c>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
+        <v>89.47</v>
+      </c>
+      <c r="AS14" s="25">
+        <v>89.8</v>
+      </c>
+      <c r="AT14" s="25">
+        <v>90.75</v>
+      </c>
       <c r="AU14" s="25"/>
       <c r="AV14" s="25"/>
       <c r="AW14" s="25"/>
@@ -3169,10 +3203,10 @@
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" s="25">
         <v>95.77</v>
@@ -3202,34 +3236,34 @@
         <v>99.5</v>
       </c>
       <c r="L15" s="25">
-        <v>99.67</v>
+        <v>99.62</v>
       </c>
       <c r="M15" s="25">
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>99.01</v>
+        <v>99</v>
       </c>
       <c r="O15" s="25">
-        <v>97.53</v>
+        <v>97.5</v>
       </c>
       <c r="P15" s="25">
-        <v>95.27</v>
+        <v>95.24</v>
       </c>
       <c r="Q15" s="25">
-        <v>94.39</v>
+        <v>94.38</v>
       </c>
       <c r="R15" s="25">
-        <v>94.46</v>
+        <v>94.44</v>
       </c>
       <c r="S15" s="25">
-        <v>95.02</v>
+        <v>95.01</v>
       </c>
       <c r="T15" s="25">
-        <v>94.46</v>
+        <v>94.45</v>
       </c>
       <c r="U15" s="25">
-        <v>94.39</v>
+        <v>94.38</v>
       </c>
       <c r="V15" s="25">
         <v>94.27</v>
@@ -3244,64 +3278,68 @@
         <v>95.86</v>
       </c>
       <c r="Z15" s="25">
-        <v>96.8</v>
+        <v>97.15</v>
       </c>
       <c r="AA15" s="25">
-        <v>96.88</v>
+        <v>97.2</v>
       </c>
       <c r="AB15" s="25">
-        <v>95.49</v>
+        <v>95.76</v>
       </c>
       <c r="AC15" s="25">
+        <v>96.31</v>
+      </c>
+      <c r="AD15" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>96.97</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>96.08</v>
+      </c>
+      <c r="AG15" s="25">
         <v>96.1</v>
       </c>
-      <c r="AD15" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="AE15" s="25">
-        <v>97.06</v>
-      </c>
-      <c r="AF15" s="25">
-        <v>96.17</v>
-      </c>
-      <c r="AG15" s="25">
-        <v>96.16</v>
-      </c>
       <c r="AH15" s="25">
-        <v>95.72</v>
+        <v>95.63</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.28</v>
+        <v>95.15</v>
       </c>
       <c r="AJ15" s="25">
-        <v>95.03</v>
+        <v>94.89</v>
       </c>
       <c r="AK15" s="25">
-        <v>95.06</v>
+        <v>94.94</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.15</v>
+        <v>95.07</v>
       </c>
       <c r="AM15" s="25">
+        <v>95.2</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>95.26</v>
+      </c>
+      <c r="AO15" s="25">
         <v>95.25</v>
       </c>
-      <c r="AN15" s="25">
-        <v>95.4</v>
-      </c>
-      <c r="AO15" s="25">
-        <v>95.55</v>
-      </c>
       <c r="AP15" s="25">
-        <v>95.12</v>
+        <v>94.8</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.61</v>
+        <v>95.39</v>
       </c>
       <c r="AR15" s="25">
-        <v>96.61</v>
-      </c>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
+        <v>95.74</v>
+      </c>
+      <c r="AS15" s="25">
+        <v>96.18</v>
+      </c>
+      <c r="AT15" s="25">
+        <v>97.34</v>
+      </c>
       <c r="AU15" s="25"/>
       <c r="AV15" s="25"/>
       <c r="AW15" s="25"/>
@@ -3337,40 +3375,40 @@
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="25">
-        <v>86.22</v>
+        <v>86.23</v>
       </c>
       <c r="D16" s="25">
-        <v>92.28</v>
+        <v>92.3</v>
       </c>
       <c r="E16" s="25">
         <v>95.15</v>
       </c>
       <c r="F16" s="25">
-        <v>96.23</v>
+        <v>96.24</v>
       </c>
       <c r="G16" s="25">
-        <v>96.93</v>
+        <v>96.94</v>
       </c>
       <c r="H16" s="25">
         <v>97.7</v>
       </c>
       <c r="I16" s="25">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="J16" s="25">
         <v>98.5</v>
       </c>
       <c r="K16" s="25">
-        <v>99</v>
+        <v>99.01</v>
       </c>
       <c r="L16" s="25">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
       <c r="M16" s="25">
         <v>100</v>
@@ -3379,97 +3417,101 @@
         <v>99.32</v>
       </c>
       <c r="O16" s="25">
-        <v>95.54</v>
+        <v>95.52</v>
       </c>
       <c r="P16" s="25">
-        <v>92.07</v>
+        <v>92.06</v>
       </c>
       <c r="Q16" s="25">
         <v>89.37</v>
       </c>
       <c r="R16" s="25">
-        <v>88.81</v>
+        <v>88.82</v>
       </c>
       <c r="S16" s="25">
-        <v>89.53</v>
+        <v>89.54</v>
       </c>
       <c r="T16" s="25">
-        <v>90.56</v>
+        <v>90.57</v>
       </c>
       <c r="U16" s="25">
-        <v>91.65</v>
+        <v>91.67</v>
       </c>
       <c r="V16" s="25">
-        <v>92.56</v>
+        <v>92.58</v>
       </c>
       <c r="W16" s="25">
-        <v>93.23</v>
+        <v>93.25</v>
       </c>
       <c r="X16" s="25">
-        <v>93.5</v>
+        <v>93.51</v>
       </c>
       <c r="Y16" s="25">
-        <v>94.66</v>
+        <v>94.68</v>
       </c>
       <c r="Z16" s="25">
-        <v>95.51</v>
+        <v>95.54</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.27</v>
+        <v>96.3</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.55</v>
+        <v>97.61</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.18</v>
+        <v>99.36</v>
       </c>
       <c r="AD16" s="25">
-        <v>99.07</v>
+        <v>99.37</v>
       </c>
       <c r="AE16" s="25">
-        <v>99.36</v>
+        <v>99.71</v>
       </c>
       <c r="AF16" s="25">
-        <v>99.66</v>
+        <v>100.02</v>
       </c>
       <c r="AG16" s="25">
-        <v>99.81</v>
+        <v>100.2</v>
       </c>
       <c r="AH16" s="25">
-        <v>100.03</v>
+        <v>100.48</v>
       </c>
       <c r="AI16" s="25">
-        <v>100.05</v>
+        <v>100.54</v>
       </c>
       <c r="AJ16" s="25">
-        <v>100.31</v>
+        <v>100.83</v>
       </c>
       <c r="AK16" s="25">
-        <v>100.49</v>
+        <v>101.04</v>
       </c>
       <c r="AL16" s="25">
-        <v>100.56</v>
+        <v>101.2</v>
       </c>
       <c r="AM16" s="25">
-        <v>100.94</v>
+        <v>101.74</v>
       </c>
       <c r="AN16" s="25">
-        <v>100.76</v>
+        <v>101.63</v>
       </c>
       <c r="AO16" s="25">
-        <v>100.26</v>
+        <v>101.17</v>
       </c>
       <c r="AP16" s="25">
-        <v>98.74</v>
+        <v>100.16</v>
       </c>
       <c r="AQ16" s="25">
-        <v>96.19</v>
+        <v>99.01</v>
       </c>
       <c r="AR16" s="25">
-        <v>94.21</v>
-      </c>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
+        <v>97.87</v>
+      </c>
+      <c r="AS16" s="25">
+        <v>96.97</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>96.65</v>
+      </c>
       <c r="AU16" s="25"/>
       <c r="AV16" s="25"/>
       <c r="AW16" s="25"/>
@@ -3505,19 +3547,19 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="25">
-        <v>91.55</v>
+        <v>91.56</v>
       </c>
       <c r="D17" s="25">
-        <v>95.89</v>
+        <v>95.9</v>
       </c>
       <c r="E17" s="25">
-        <v>97.87</v>
+        <v>97.88</v>
       </c>
       <c r="F17" s="25">
         <v>98.59</v>
@@ -3526,16 +3568,16 @@
         <v>98.95</v>
       </c>
       <c r="H17" s="25">
-        <v>99.23</v>
+        <v>99.22</v>
       </c>
       <c r="I17" s="25">
         <v>99.66</v>
       </c>
       <c r="J17" s="25">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="K17" s="25">
-        <v>100.2</v>
+        <v>100.19</v>
       </c>
       <c r="L17" s="25">
         <v>100.25</v>
@@ -3547,97 +3589,101 @@
         <v>98.75</v>
       </c>
       <c r="O17" s="25">
-        <v>94.14</v>
+        <v>94.12</v>
       </c>
       <c r="P17" s="25">
-        <v>90.38</v>
+        <v>90.37</v>
       </c>
       <c r="Q17" s="25">
         <v>87.99</v>
       </c>
       <c r="R17" s="25">
-        <v>87.52</v>
+        <v>87.53</v>
       </c>
       <c r="S17" s="25">
-        <v>88.71</v>
+        <v>88.73</v>
       </c>
       <c r="T17" s="25">
-        <v>88.99</v>
+        <v>89.01</v>
       </c>
       <c r="U17" s="25">
-        <v>89.68</v>
+        <v>89.69</v>
       </c>
       <c r="V17" s="25">
-        <v>90.21</v>
+        <v>90.22</v>
       </c>
       <c r="W17" s="25">
-        <v>90.39</v>
+        <v>90.41</v>
       </c>
       <c r="X17" s="25">
-        <v>90.76</v>
+        <v>90.78</v>
       </c>
       <c r="Y17" s="25">
-        <v>91.81</v>
+        <v>91.82</v>
       </c>
       <c r="Z17" s="25">
-        <v>92.73</v>
+        <v>92.75</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.34</v>
+        <v>93.35</v>
       </c>
       <c r="AB17" s="25">
         <v>93.37</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.03</v>
+        <v>94.04</v>
       </c>
       <c r="AD17" s="25">
-        <v>94.63</v>
+        <v>94.66</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.31</v>
+        <v>95.34</v>
       </c>
       <c r="AF17" s="25">
-        <v>95.68</v>
+        <v>95.71</v>
       </c>
       <c r="AG17" s="25">
-        <v>95.74</v>
+        <v>95.78</v>
       </c>
       <c r="AH17" s="25">
-        <v>95.87</v>
+        <v>95.9</v>
       </c>
       <c r="AI17" s="25">
-        <v>95.97</v>
+        <v>96.04</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.17</v>
+        <v>96.23</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.22</v>
+        <v>96.32</v>
       </c>
       <c r="AL17" s="25">
-        <v>96.48</v>
+        <v>96.64</v>
       </c>
       <c r="AM17" s="25">
-        <v>97.22</v>
+        <v>97.41</v>
       </c>
       <c r="AN17" s="25">
-        <v>97.37</v>
+        <v>97.48</v>
       </c>
       <c r="AO17" s="25">
-        <v>96.81</v>
+        <v>96.93</v>
       </c>
       <c r="AP17" s="25">
-        <v>96.17</v>
+        <v>96.39</v>
       </c>
       <c r="AQ17" s="25">
-        <v>95.79</v>
+        <v>96.55</v>
       </c>
       <c r="AR17" s="25">
-        <v>95.49</v>
-      </c>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="25"/>
+        <v>96.7</v>
+      </c>
+      <c r="AS17" s="25">
+        <v>96.59</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>96.76</v>
+      </c>
       <c r="AU17" s="25"/>
       <c r="AV17" s="25"/>
       <c r="AW17" s="25"/>
@@ -3673,13 +3719,13 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" s="25">
-        <v>95.89</v>
+        <v>95.9</v>
       </c>
       <c r="D18" s="25">
         <v>97.2</v>
@@ -3700,7 +3746,7 @@
         <v>99.49</v>
       </c>
       <c r="J18" s="25">
-        <v>99.59</v>
+        <v>99.6</v>
       </c>
       <c r="K18" s="25">
         <v>98.72</v>
@@ -3718,10 +3764,10 @@
         <v>97.67</v>
       </c>
       <c r="P18" s="25">
-        <v>96.26</v>
+        <v>96.25</v>
       </c>
       <c r="Q18" s="25">
-        <v>94.49</v>
+        <v>94.48</v>
       </c>
       <c r="R18" s="25">
         <v>94.52</v>
@@ -3736,10 +3782,10 @@
         <v>95.54</v>
       </c>
       <c r="V18" s="25">
-        <v>95.98</v>
+        <v>95.97</v>
       </c>
       <c r="W18" s="25">
-        <v>95.87</v>
+        <v>95.88</v>
       </c>
       <c r="X18" s="25">
         <v>96.07</v>
@@ -3751,61 +3797,65 @@
         <v>96.82</v>
       </c>
       <c r="AA18" s="25">
-        <v>96.43</v>
+        <v>96.42</v>
       </c>
       <c r="AB18" s="25">
-        <v>95.97</v>
+        <v>95.96</v>
       </c>
       <c r="AC18" s="25">
-        <v>96.3</v>
+        <v>96.29</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.17</v>
+        <v>97.16</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.31</v>
+        <v>97.3</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.78</v>
+        <v>97.76</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.65</v>
+        <v>97.62</v>
       </c>
       <c r="AH18" s="25">
-        <v>98.15</v>
+        <v>98.13</v>
       </c>
       <c r="AI18" s="25">
-        <v>98.07</v>
+        <v>98.13</v>
       </c>
       <c r="AJ18" s="25">
         <v>98.45</v>
       </c>
       <c r="AK18" s="25">
-        <v>97.7</v>
+        <v>97.79</v>
       </c>
       <c r="AL18" s="25">
-        <v>98.27</v>
+        <v>98.46</v>
       </c>
       <c r="AM18" s="25">
-        <v>98.44</v>
+        <v>98.54</v>
       </c>
       <c r="AN18" s="25">
-        <v>98.91</v>
+        <v>98.95</v>
       </c>
       <c r="AO18" s="25">
-        <v>98.02</v>
+        <v>98.03</v>
       </c>
       <c r="AP18" s="25">
-        <v>97.74</v>
+        <v>97.57</v>
       </c>
       <c r="AQ18" s="25">
-        <v>97.3</v>
+        <v>97.51</v>
       </c>
       <c r="AR18" s="25">
-        <v>99.2</v>
-      </c>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
+        <v>98.43</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>97.59</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>99.25</v>
+      </c>
       <c r="AU18" s="25"/>
       <c r="AV18" s="25"/>
       <c r="AW18" s="25"/>
@@ -3841,37 +3891,37 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="25">
-        <v>87.54</v>
+        <v>87.86</v>
       </c>
       <c r="D19" s="25">
-        <v>92.87</v>
+        <v>93</v>
       </c>
       <c r="E19" s="25">
-        <v>95.23</v>
+        <v>95.29</v>
       </c>
       <c r="F19" s="25">
-        <v>96.2</v>
+        <v>96.25</v>
       </c>
       <c r="G19" s="25">
-        <v>96.69</v>
+        <v>96.73</v>
       </c>
       <c r="H19" s="25">
-        <v>97.84</v>
+        <v>97.86</v>
       </c>
       <c r="I19" s="25">
-        <v>98.62</v>
+        <v>98.61</v>
       </c>
       <c r="J19" s="25">
-        <v>98.83</v>
+        <v>98.85</v>
       </c>
       <c r="K19" s="25">
-        <v>99.22</v>
+        <v>99.24</v>
       </c>
       <c r="L19" s="25">
         <v>100.1</v>
@@ -3880,100 +3930,104 @@
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>99.17</v>
+        <v>99.2</v>
       </c>
       <c r="O19" s="25">
-        <v>94.41</v>
+        <v>94.64</v>
       </c>
       <c r="P19" s="25">
-        <v>91.83</v>
+        <v>92.16</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.86</v>
+        <v>90.27</v>
       </c>
       <c r="R19" s="25">
-        <v>89.11</v>
+        <v>89.57</v>
       </c>
       <c r="S19" s="25">
-        <v>89.8</v>
+        <v>90.24</v>
       </c>
       <c r="T19" s="25">
-        <v>90.89</v>
+        <v>91.31</v>
       </c>
       <c r="U19" s="25">
-        <v>91.98</v>
+        <v>92.38</v>
       </c>
       <c r="V19" s="25">
-        <v>92.58</v>
+        <v>92.97</v>
       </c>
       <c r="W19" s="25">
-        <v>93.04</v>
+        <v>93.43</v>
       </c>
       <c r="X19" s="25">
-        <v>93.63</v>
+        <v>94</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.23</v>
+        <v>95.55</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.11</v>
+        <v>96.41</v>
       </c>
       <c r="AA19" s="25">
-        <v>96.75</v>
+        <v>97.05</v>
       </c>
       <c r="AB19" s="25">
-        <v>97.94</v>
+        <v>98.22</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.31</v>
+        <v>99.65</v>
       </c>
       <c r="AD19" s="25">
-        <v>99.32</v>
+        <v>99.82</v>
       </c>
       <c r="AE19" s="25">
-        <v>99.33</v>
+        <v>99.88</v>
       </c>
       <c r="AF19" s="25">
-        <v>99.83</v>
+        <v>100.4</v>
       </c>
       <c r="AG19" s="25">
-        <v>100.17</v>
+        <v>100.77</v>
       </c>
       <c r="AH19" s="25">
-        <v>100.14</v>
+        <v>100.81</v>
       </c>
       <c r="AI19" s="25">
-        <v>100.3</v>
+        <v>100.99</v>
       </c>
       <c r="AJ19" s="25">
-        <v>100.44</v>
+        <v>101.13</v>
       </c>
       <c r="AK19" s="25">
-        <v>100.96</v>
+        <v>101.66</v>
       </c>
       <c r="AL19" s="25">
-        <v>101.11</v>
+        <v>101.91</v>
       </c>
       <c r="AM19" s="25">
-        <v>101.38</v>
+        <v>102.32</v>
       </c>
       <c r="AN19" s="25">
-        <v>101.05</v>
+        <v>102.17</v>
       </c>
       <c r="AO19" s="25">
-        <v>100.99</v>
+        <v>102.23</v>
       </c>
       <c r="AP19" s="25">
-        <v>99.66</v>
+        <v>101.6</v>
       </c>
       <c r="AQ19" s="25">
-        <v>97.12</v>
+        <v>100.34</v>
       </c>
       <c r="AR19" s="25">
-        <v>95.77</v>
-      </c>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
+        <v>99.64</v>
+      </c>
+      <c r="AS19" s="25">
+        <v>98.95</v>
+      </c>
+      <c r="AT19" s="25">
+        <v>99.11</v>
+      </c>
       <c r="AU19" s="25"/>
       <c r="AV19" s="25"/>
       <c r="AW19" s="25"/>
@@ -4009,40 +4063,40 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="25">
-        <v>91.63</v>
+        <v>91.67</v>
       </c>
       <c r="D20" s="25">
-        <v>95.19</v>
+        <v>95.21</v>
       </c>
       <c r="E20" s="25">
-        <v>96.91</v>
+        <v>96.92</v>
       </c>
       <c r="F20" s="25">
-        <v>97.69</v>
+        <v>97.71</v>
       </c>
       <c r="G20" s="25">
-        <v>97.86</v>
+        <v>97.88</v>
       </c>
       <c r="H20" s="25">
-        <v>98.93</v>
+        <v>98.94</v>
       </c>
       <c r="I20" s="25">
-        <v>99.4</v>
+        <v>99.42</v>
       </c>
       <c r="J20" s="25">
-        <v>99.79</v>
+        <v>99.81</v>
       </c>
       <c r="K20" s="25">
-        <v>99.8</v>
+        <v>99.81</v>
       </c>
       <c r="L20" s="25">
-        <v>100.06</v>
+        <v>100.07</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
@@ -4054,94 +4108,98 @@
         <v>93.55</v>
       </c>
       <c r="P20" s="25">
-        <v>90.11</v>
+        <v>90.13</v>
       </c>
       <c r="Q20" s="25">
-        <v>88.12</v>
+        <v>88.16</v>
       </c>
       <c r="R20" s="25">
-        <v>87.86</v>
+        <v>87.91</v>
       </c>
       <c r="S20" s="25">
-        <v>88.68</v>
+        <v>88.74</v>
       </c>
       <c r="T20" s="25">
-        <v>89.18</v>
+        <v>89.25</v>
       </c>
       <c r="U20" s="25">
-        <v>90.18</v>
+        <v>90.25</v>
       </c>
       <c r="V20" s="25">
-        <v>91.73</v>
+        <v>91.79</v>
       </c>
       <c r="W20" s="25">
-        <v>91.78</v>
+        <v>91.84</v>
       </c>
       <c r="X20" s="25">
-        <v>92.05</v>
+        <v>92.11</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.58</v>
+        <v>92.64</v>
       </c>
       <c r="Z20" s="25">
-        <v>92.71</v>
+        <v>92.78</v>
       </c>
       <c r="AA20" s="25">
-        <v>92.69</v>
+        <v>92.75</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.48</v>
+        <v>92.53</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.32</v>
+        <v>93.35</v>
       </c>
       <c r="AD20" s="25">
-        <v>93.79</v>
+        <v>93.84</v>
       </c>
       <c r="AE20" s="25">
-        <v>93.78</v>
+        <v>93.8</v>
       </c>
       <c r="AF20" s="25">
-        <v>94.56</v>
+        <v>94.58</v>
       </c>
       <c r="AG20" s="25">
-        <v>94.93</v>
+        <v>95.01</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.12</v>
+        <v>95.18</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.59</v>
+        <v>95.63</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.34</v>
+        <v>95.37</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.61</v>
+        <v>95.62</v>
       </c>
       <c r="AL20" s="25">
-        <v>95.86</v>
+        <v>95.88</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.27</v>
+        <v>96.3</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.43</v>
+        <v>96.49</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.35</v>
+        <v>96.49</v>
       </c>
       <c r="AP20" s="25">
-        <v>95.64</v>
+        <v>96.07</v>
       </c>
       <c r="AQ20" s="25">
-        <v>95.21</v>
+        <v>95.84</v>
       </c>
       <c r="AR20" s="25">
-        <v>95.32</v>
-      </c>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="25"/>
+        <v>96.08</v>
+      </c>
+      <c r="AS20" s="25">
+        <v>95.98</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>96.48</v>
+      </c>
       <c r="AU20" s="25"/>
       <c r="AV20" s="25"/>
       <c r="AW20" s="25"/>
@@ -4177,37 +4235,37 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" s="25">
-        <v>96.4</v>
+        <v>96.33</v>
       </c>
       <c r="D21" s="25">
-        <v>97.29</v>
+        <v>97.19</v>
       </c>
       <c r="E21" s="25">
-        <v>98.29</v>
+        <v>98.13</v>
       </c>
       <c r="F21" s="25">
-        <v>98.73</v>
+        <v>98.56</v>
       </c>
       <c r="G21" s="25">
-        <v>98.42</v>
+        <v>98.31</v>
       </c>
       <c r="H21" s="25">
-        <v>99.48</v>
+        <v>99.39</v>
       </c>
       <c r="I21" s="25">
-        <v>100.27</v>
+        <v>100.15</v>
       </c>
       <c r="J21" s="25">
-        <v>99.3</v>
+        <v>99.31</v>
       </c>
       <c r="K21" s="25">
-        <v>98.79</v>
+        <v>98.88</v>
       </c>
       <c r="L21" s="25">
         <v>99.89</v>
@@ -4216,100 +4274,104 @@
         <v>100</v>
       </c>
       <c r="N21" s="25">
-        <v>99.57</v>
+        <v>99.63</v>
       </c>
       <c r="O21" s="25">
+        <v>98.42</v>
+      </c>
+      <c r="P21" s="25">
+        <v>96.93</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>95.69</v>
+      </c>
+      <c r="R21" s="25">
+        <v>95.43</v>
+      </c>
+      <c r="S21" s="25">
+        <v>95.22</v>
+      </c>
+      <c r="T21" s="25">
+        <v>95.46</v>
+      </c>
+      <c r="U21" s="25">
+        <v>95.77</v>
+      </c>
+      <c r="V21" s="25">
+        <v>96.44</v>
+      </c>
+      <c r="W21" s="25">
+        <v>96.63</v>
+      </c>
+      <c r="X21" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>97.48</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>97.32</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>96.32</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>94.76</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>95.22</v>
+      </c>
+      <c r="AD21" s="25">
+        <v>96.47</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>97.36</v>
+      </c>
+      <c r="AF21" s="25">
+        <v>97.51</v>
+      </c>
+      <c r="AG21" s="25">
+        <v>97.03</v>
+      </c>
+      <c r="AH21" s="25">
+        <v>97.62</v>
+      </c>
+      <c r="AI21" s="25">
+        <v>97.81</v>
+      </c>
+      <c r="AJ21" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="AK21" s="25">
         <v>98.18</v>
       </c>
-      <c r="P21" s="25">
-        <v>96.49</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>95.05</v>
-      </c>
-      <c r="R21" s="25">
-        <v>94.73</v>
-      </c>
-      <c r="S21" s="25">
-        <v>94.47</v>
-      </c>
-      <c r="T21" s="25">
-        <v>94.71</v>
-      </c>
-      <c r="U21" s="25">
-        <v>95.03</v>
-      </c>
-      <c r="V21" s="25">
-        <v>95.77</v>
-      </c>
-      <c r="W21" s="25">
-        <v>95.95</v>
-      </c>
-      <c r="X21" s="25">
-        <v>96.46</v>
-      </c>
-      <c r="Y21" s="25">
-        <v>96.87</v>
-      </c>
-      <c r="Z21" s="25">
-        <v>96.69</v>
-      </c>
-      <c r="AA21" s="25">
-        <v>95.56</v>
-      </c>
-      <c r="AB21" s="25">
-        <v>93.81</v>
-      </c>
-      <c r="AC21" s="25">
-        <v>94.31</v>
-      </c>
-      <c r="AD21" s="25">
-        <v>95.7</v>
-      </c>
-      <c r="AE21" s="25">
-        <v>96.67</v>
-      </c>
-      <c r="AF21" s="25">
-        <v>96.84</v>
-      </c>
-      <c r="AG21" s="25">
-        <v>96.28</v>
-      </c>
-      <c r="AH21" s="25">
-        <v>96.9</v>
-      </c>
-      <c r="AI21" s="25">
-        <v>97.11</v>
-      </c>
-      <c r="AJ21" s="25">
-        <v>97.92</v>
-      </c>
-      <c r="AK21" s="25">
-        <v>97.57</v>
-      </c>
       <c r="AL21" s="25">
-        <v>97.68</v>
+        <v>98.35</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.09</v>
+        <v>98.73</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.58</v>
+        <v>98.98</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.78</v>
+        <v>99.08</v>
       </c>
       <c r="AP21" s="25">
-        <v>99.1</v>
+        <v>98.83</v>
       </c>
       <c r="AQ21" s="25">
-        <v>99.67</v>
+        <v>99.44</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.91</v>
-      </c>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="25"/>
+        <v>99.84</v>
+      </c>
+      <c r="AS21" s="25">
+        <v>99.75</v>
+      </c>
+      <c r="AT21" s="25">
+        <v>100.62</v>
+      </c>
       <c r="AU21" s="25"/>
       <c r="AV21" s="25"/>
       <c r="AW21" s="25"/>
@@ -4345,22 +4407,22 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" s="25">
-        <v>89.29</v>
+        <v>89.28</v>
       </c>
       <c r="D22" s="25">
-        <v>93.97</v>
+        <v>93.96</v>
       </c>
       <c r="E22" s="25">
         <v>95.45</v>
       </c>
       <c r="F22" s="25">
-        <v>95.4</v>
+        <v>95.39</v>
       </c>
       <c r="G22" s="25">
         <v>95.5</v>
@@ -4372,37 +4434,37 @@
         <v>97.63</v>
       </c>
       <c r="J22" s="25">
-        <v>98.01</v>
+        <v>98</v>
       </c>
       <c r="K22" s="25">
-        <v>98.63</v>
+        <v>98.62</v>
       </c>
       <c r="L22" s="25">
-        <v>99.63</v>
+        <v>99.64</v>
       </c>
       <c r="M22" s="25">
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>99.15</v>
+        <v>99.14</v>
       </c>
       <c r="O22" s="25">
-        <v>95.21</v>
+        <v>95.19</v>
       </c>
       <c r="P22" s="25">
-        <v>91.74</v>
+        <v>91.71</v>
       </c>
       <c r="Q22" s="25">
-        <v>89.03</v>
+        <v>89</v>
       </c>
       <c r="R22" s="25">
-        <v>88.16</v>
+        <v>88.14</v>
       </c>
       <c r="S22" s="25">
-        <v>88.49</v>
+        <v>88.48</v>
       </c>
       <c r="T22" s="25">
-        <v>89.61</v>
+        <v>89.6</v>
       </c>
       <c r="U22" s="25">
         <v>90.77</v>
@@ -4417,67 +4479,71 @@
         <v>93.32</v>
       </c>
       <c r="Y22" s="25">
-        <v>94.4</v>
+        <v>94.41</v>
       </c>
       <c r="Z22" s="25">
         <v>96.1</v>
       </c>
       <c r="AA22" s="25">
-        <v>97</v>
+        <v>97.02</v>
       </c>
       <c r="AB22" s="25">
-        <v>97.79</v>
+        <v>97.83</v>
       </c>
       <c r="AC22" s="25">
-        <v>99.46</v>
+        <v>99.61</v>
       </c>
       <c r="AD22" s="25">
-        <v>99.4</v>
+        <v>99.66</v>
       </c>
       <c r="AE22" s="25">
-        <v>99.38</v>
+        <v>99.68</v>
       </c>
       <c r="AF22" s="25">
-        <v>100.15</v>
+        <v>100.46</v>
       </c>
       <c r="AG22" s="25">
-        <v>100.25</v>
+        <v>100.61</v>
       </c>
       <c r="AH22" s="25">
-        <v>100.41</v>
+        <v>100.84</v>
       </c>
       <c r="AI22" s="25">
-        <v>100.69</v>
+        <v>101.17</v>
       </c>
       <c r="AJ22" s="25">
-        <v>100.93</v>
+        <v>101.45</v>
       </c>
       <c r="AK22" s="25">
-        <v>101.24</v>
+        <v>101.78</v>
       </c>
       <c r="AL22" s="25">
-        <v>101.51</v>
+        <v>102.14</v>
       </c>
       <c r="AM22" s="25">
-        <v>102.03</v>
+        <v>102.73</v>
       </c>
       <c r="AN22" s="25">
-        <v>101.94</v>
+        <v>102.69</v>
       </c>
       <c r="AO22" s="25">
-        <v>101.86</v>
+        <v>102.66</v>
       </c>
       <c r="AP22" s="25">
-        <v>100.15</v>
+        <v>101.47</v>
       </c>
       <c r="AQ22" s="25">
-        <v>97.48</v>
+        <v>100.18</v>
       </c>
       <c r="AR22" s="25">
-        <v>95.73</v>
-      </c>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
+        <v>99.61</v>
+      </c>
+      <c r="AS22" s="25">
+        <v>99.14</v>
+      </c>
+      <c r="AT22" s="25">
+        <v>98.44</v>
+      </c>
       <c r="AU22" s="25"/>
       <c r="AV22" s="25"/>
       <c r="AW22" s="25"/>
@@ -4513,31 +4579,31 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" s="25">
         <v>95.48</v>
       </c>
       <c r="D23" s="25">
-        <v>98.66</v>
+        <v>98.67</v>
       </c>
       <c r="E23" s="25">
-        <v>99.35</v>
+        <v>99.36</v>
       </c>
       <c r="F23" s="25">
-        <v>99.06</v>
+        <v>99.07</v>
       </c>
       <c r="G23" s="25">
-        <v>98.3</v>
+        <v>98.31</v>
       </c>
       <c r="H23" s="25">
         <v>99.34</v>
       </c>
       <c r="I23" s="25">
-        <v>100.07</v>
+        <v>100.08</v>
       </c>
       <c r="J23" s="25">
         <v>100.03</v>
@@ -4555,25 +4621,25 @@
         <v>98.96</v>
       </c>
       <c r="O23" s="25">
-        <v>94.43</v>
+        <v>94.41</v>
       </c>
       <c r="P23" s="25">
-        <v>91.13</v>
+        <v>91.09</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.32</v>
+        <v>89.28</v>
       </c>
       <c r="R23" s="25">
-        <v>88.2</v>
+        <v>88.17</v>
       </c>
       <c r="S23" s="25">
-        <v>88.31</v>
+        <v>88.3</v>
       </c>
       <c r="T23" s="25">
-        <v>89.02</v>
+        <v>89.01</v>
       </c>
       <c r="U23" s="25">
-        <v>89.79</v>
+        <v>89.78</v>
       </c>
       <c r="V23" s="25">
         <v>90.64</v>
@@ -4591,61 +4657,65 @@
         <v>93.64</v>
       </c>
       <c r="AA23" s="25">
-        <v>94.22</v>
+        <v>94.23</v>
       </c>
       <c r="AB23" s="25">
-        <v>93.8</v>
+        <v>93.82</v>
       </c>
       <c r="AC23" s="25">
-        <v>94.93</v>
+        <v>94.96</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.2</v>
+        <v>96.24</v>
       </c>
       <c r="AE23" s="25">
-        <v>96.13</v>
+        <v>96.16</v>
       </c>
       <c r="AF23" s="25">
-        <v>96.53</v>
+        <v>96.57</v>
       </c>
       <c r="AG23" s="25">
-        <v>97.05</v>
+        <v>97.09</v>
       </c>
       <c r="AH23" s="25">
-        <v>96.99</v>
+        <v>97.02</v>
       </c>
       <c r="AI23" s="25">
-        <v>97.21</v>
+        <v>97.23</v>
       </c>
       <c r="AJ23" s="25">
-        <v>97.58</v>
+        <v>97.6</v>
       </c>
       <c r="AK23" s="25">
-        <v>97.69</v>
+        <v>97.75</v>
       </c>
       <c r="AL23" s="25">
-        <v>97.86</v>
+        <v>97.94</v>
       </c>
       <c r="AM23" s="25">
-        <v>98.5</v>
+        <v>98.55</v>
       </c>
       <c r="AN23" s="25">
-        <v>98.57</v>
+        <v>98.42</v>
       </c>
       <c r="AO23" s="25">
-        <v>98.86</v>
+        <v>98.47</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.24</v>
+        <v>98.15</v>
       </c>
       <c r="AQ23" s="25">
-        <v>97.62</v>
+        <v>98.09</v>
       </c>
       <c r="AR23" s="25">
-        <v>96.45</v>
-      </c>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
+        <v>98.49</v>
+      </c>
+      <c r="AS23" s="25">
+        <v>98.61</v>
+      </c>
+      <c r="AT23" s="25">
+        <v>98.35</v>
+      </c>
       <c r="AU23" s="25"/>
       <c r="AV23" s="25"/>
       <c r="AW23" s="25"/>
@@ -4681,13 +4751,13 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C24" s="25">
-        <v>95.91</v>
+        <v>95.92</v>
       </c>
       <c r="D24" s="25">
         <v>97.02</v>
@@ -4702,13 +4772,13 @@
         <v>98.97</v>
       </c>
       <c r="H24" s="25">
-        <v>99.68</v>
+        <v>99.69</v>
       </c>
       <c r="I24" s="25">
-        <v>100.43</v>
+        <v>100.44</v>
       </c>
       <c r="J24" s="25">
-        <v>99.78</v>
+        <v>99.79</v>
       </c>
       <c r="K24" s="25">
         <v>98.8</v>
@@ -4720,16 +4790,16 @@
         <v>100</v>
       </c>
       <c r="N24" s="25">
-        <v>99.59</v>
+        <v>99.58</v>
       </c>
       <c r="O24" s="25">
-        <v>98.06</v>
+        <v>98.05</v>
       </c>
       <c r="P24" s="25">
-        <v>95.99</v>
+        <v>95.98</v>
       </c>
       <c r="Q24" s="25">
-        <v>94.83</v>
+        <v>94.82</v>
       </c>
       <c r="R24" s="25">
         <v>94.92</v>
@@ -4738,16 +4808,16 @@
         <v>94.75</v>
       </c>
       <c r="T24" s="25">
-        <v>95.17</v>
+        <v>95.16</v>
       </c>
       <c r="U24" s="25">
         <v>95.68</v>
       </c>
       <c r="V24" s="25">
-        <v>96.08</v>
+        <v>96.07</v>
       </c>
       <c r="W24" s="25">
-        <v>96.38</v>
+        <v>96.37</v>
       </c>
       <c r="X24" s="25">
         <v>96.6</v>
@@ -4765,55 +4835,59 @@
         <v>97.38</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.67</v>
+        <v>98.66</v>
       </c>
       <c r="AD24" s="25">
+        <v>99.26</v>
+      </c>
+      <c r="AE24" s="25">
+        <v>98.73</v>
+      </c>
+      <c r="AF24" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="AG24" s="25">
+        <v>99.08</v>
+      </c>
+      <c r="AH24" s="25">
+        <v>99.01</v>
+      </c>
+      <c r="AI24" s="25">
+        <v>99.19</v>
+      </c>
+      <c r="AJ24" s="25">
+        <v>99.1</v>
+      </c>
+      <c r="AK24" s="25">
         <v>99.28</v>
       </c>
-      <c r="AE24" s="25">
-        <v>98.79</v>
-      </c>
-      <c r="AF24" s="25">
-        <v>98.62</v>
-      </c>
-      <c r="AG24" s="25">
+      <c r="AL24" s="25">
+        <v>99.09</v>
+      </c>
+      <c r="AM24" s="25">
+        <v>99.34</v>
+      </c>
+      <c r="AN24" s="25">
+        <v>99.53</v>
+      </c>
+      <c r="AO24" s="25">
+        <v>99.45</v>
+      </c>
+      <c r="AP24" s="25">
         <v>99.1</v>
       </c>
-      <c r="AH24" s="25">
-        <v>99.02</v>
-      </c>
-      <c r="AI24" s="25">
-        <v>99.21</v>
-      </c>
-      <c r="AJ24" s="25">
-        <v>99.14</v>
-      </c>
-      <c r="AK24" s="25">
-        <v>99.34</v>
-      </c>
-      <c r="AL24" s="25">
-        <v>99.16</v>
-      </c>
-      <c r="AM24" s="25">
-        <v>99.43</v>
-      </c>
-      <c r="AN24" s="25">
-        <v>99.9</v>
-      </c>
-      <c r="AO24" s="25">
-        <v>100.06</v>
-      </c>
-      <c r="AP24" s="25">
-        <v>99.96</v>
-      </c>
       <c r="AQ24" s="25">
-        <v>100.17</v>
+        <v>98.78</v>
       </c>
       <c r="AR24" s="25">
-        <v>100.83</v>
-      </c>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
+        <v>99.17</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>99.72</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>100.58</v>
+      </c>
       <c r="AU24" s="25"/>
       <c r="AV24" s="25"/>
       <c r="AW24" s="25"/>
@@ -4849,34 +4923,34 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C25" s="25">
-        <v>91.4</v>
+        <v>91.39</v>
       </c>
       <c r="D25" s="25">
-        <v>95.69</v>
+        <v>95.68</v>
       </c>
       <c r="E25" s="25">
-        <v>97.52</v>
+        <v>97.51</v>
       </c>
       <c r="F25" s="25">
-        <v>98.07</v>
+        <v>98.06</v>
       </c>
       <c r="G25" s="25">
-        <v>98.44</v>
+        <v>98.45</v>
       </c>
       <c r="H25" s="25">
-        <v>99.33</v>
+        <v>99.34</v>
       </c>
       <c r="I25" s="25">
-        <v>99.52</v>
+        <v>99.51</v>
       </c>
       <c r="J25" s="25">
-        <v>99.63</v>
+        <v>99.62</v>
       </c>
       <c r="K25" s="25">
         <v>99.7</v>
@@ -4888,100 +4962,104 @@
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>99.34</v>
+        <v>99.33</v>
       </c>
       <c r="O25" s="25">
-        <v>94.63</v>
+        <v>94.62</v>
       </c>
       <c r="P25" s="25">
-        <v>91.05</v>
+        <v>91.02</v>
       </c>
       <c r="Q25" s="25">
-        <v>88.42</v>
+        <v>88.41</v>
       </c>
       <c r="R25" s="25">
         <v>87.42</v>
       </c>
       <c r="S25" s="25">
-        <v>87.73</v>
+        <v>87.71</v>
       </c>
       <c r="T25" s="25">
-        <v>88.49</v>
+        <v>88.5</v>
       </c>
       <c r="U25" s="25">
         <v>89.26</v>
       </c>
       <c r="V25" s="25">
-        <v>89.61</v>
+        <v>89.6</v>
       </c>
       <c r="W25" s="25">
         <v>90.24</v>
       </c>
       <c r="X25" s="25">
-        <v>90.65</v>
+        <v>90.66</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.55</v>
+        <v>91.56</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.48</v>
+        <v>92.5</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.18</v>
+        <v>93.19</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.3</v>
+        <v>94.31</v>
       </c>
       <c r="AC25" s="25">
-        <v>95</v>
+        <v>95.07</v>
       </c>
       <c r="AD25" s="25">
-        <v>94.94</v>
+        <v>95.12</v>
       </c>
       <c r="AE25" s="25">
-        <v>95.07</v>
+        <v>95.33</v>
       </c>
       <c r="AF25" s="25">
-        <v>95.44</v>
+        <v>95.7</v>
       </c>
       <c r="AG25" s="25">
-        <v>95.72</v>
+        <v>96.02</v>
       </c>
       <c r="AH25" s="25">
-        <v>95.52</v>
+        <v>96.01</v>
       </c>
       <c r="AI25" s="25">
-        <v>95.96</v>
+        <v>96.41</v>
       </c>
       <c r="AJ25" s="25">
-        <v>96.33</v>
+        <v>96.85</v>
       </c>
       <c r="AK25" s="25">
-        <v>96.45</v>
+        <v>96.97</v>
       </c>
       <c r="AL25" s="25">
-        <v>96.81</v>
+        <v>97.41</v>
       </c>
       <c r="AM25" s="25">
-        <v>97.02</v>
+        <v>97.9</v>
       </c>
       <c r="AN25" s="25">
-        <v>97.23</v>
+        <v>98.26</v>
       </c>
       <c r="AO25" s="25">
-        <v>97.06</v>
+        <v>98.23</v>
       </c>
       <c r="AP25" s="25">
-        <v>95.97</v>
+        <v>97.07</v>
       </c>
       <c r="AQ25" s="25">
-        <v>93.79</v>
+        <v>95.62</v>
       </c>
       <c r="AR25" s="25">
-        <v>92.94</v>
-      </c>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
+        <v>94.77</v>
+      </c>
+      <c r="AS25" s="25">
+        <v>94.03</v>
+      </c>
+      <c r="AT25" s="25">
+        <v>93.86</v>
+      </c>
       <c r="AU25" s="25"/>
       <c r="AV25" s="25"/>
       <c r="AW25" s="25"/>
@@ -5017,37 +5095,37 @@
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" s="25">
-        <v>94.75</v>
+        <v>94.77</v>
       </c>
       <c r="D26" s="25">
-        <v>97.13</v>
+        <v>97.14</v>
       </c>
       <c r="E26" s="25">
-        <v>97.42</v>
+        <v>97.43</v>
       </c>
       <c r="F26" s="25">
-        <v>98.66</v>
+        <v>98.67</v>
       </c>
       <c r="G26" s="25">
-        <v>99.97</v>
+        <v>99.99</v>
       </c>
       <c r="H26" s="25">
-        <v>100.82</v>
+        <v>100.83</v>
       </c>
       <c r="I26" s="25">
-        <v>100.18</v>
+        <v>100.19</v>
       </c>
       <c r="J26" s="25">
-        <v>100.05</v>
+        <v>100.07</v>
       </c>
       <c r="K26" s="25">
-        <v>99.66</v>
+        <v>99.67</v>
       </c>
       <c r="L26" s="25">
         <v>100.03</v>
@@ -5056,25 +5134,25 @@
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.85</v>
+        <v>98.81</v>
       </c>
       <c r="O26" s="25">
-        <v>95.29</v>
+        <v>95.24</v>
       </c>
       <c r="P26" s="25">
-        <v>92.2</v>
+        <v>92.14</v>
       </c>
       <c r="Q26" s="25">
-        <v>89.25</v>
+        <v>89.21</v>
       </c>
       <c r="R26" s="25">
-        <v>88.58</v>
+        <v>88.55</v>
       </c>
       <c r="S26" s="25">
-        <v>88.75</v>
+        <v>88.72</v>
       </c>
       <c r="T26" s="25">
-        <v>89.01</v>
+        <v>88.98</v>
       </c>
       <c r="U26" s="25">
         <v>89.58</v>
@@ -5083,73 +5161,77 @@
         <v>89.44</v>
       </c>
       <c r="W26" s="25">
-        <v>89.41</v>
+        <v>89.4</v>
       </c>
       <c r="X26" s="25">
-        <v>89.5</v>
+        <v>89.49</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.47</v>
+        <v>90.46</v>
       </c>
       <c r="Z26" s="25">
         <v>91.74</v>
       </c>
       <c r="AA26" s="25">
-        <v>92.27</v>
+        <v>92.26</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.19</v>
+        <v>92.18</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.36</v>
+        <v>92.39</v>
       </c>
       <c r="AD26" s="25">
         <v>91.84</v>
       </c>
       <c r="AE26" s="25">
-        <v>92.22</v>
+        <v>92.06</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.08</v>
+        <v>92.01</v>
       </c>
       <c r="AG26" s="25">
-        <v>92.51</v>
+        <v>92.53</v>
       </c>
       <c r="AH26" s="25">
-        <v>92.69</v>
+        <v>92.87</v>
       </c>
       <c r="AI26" s="25">
-        <v>92.86</v>
+        <v>93</v>
       </c>
       <c r="AJ26" s="25">
-        <v>93.26</v>
+        <v>93.49</v>
       </c>
       <c r="AK26" s="25">
-        <v>93.14</v>
+        <v>93.35</v>
       </c>
       <c r="AL26" s="25">
-        <v>94.1</v>
+        <v>94.22</v>
       </c>
       <c r="AM26" s="25">
-        <v>94.76</v>
+        <v>95.12</v>
       </c>
       <c r="AN26" s="25">
-        <v>95.07</v>
+        <v>95.34</v>
       </c>
       <c r="AO26" s="25">
-        <v>94.8</v>
+        <v>95.11</v>
       </c>
       <c r="AP26" s="25">
-        <v>93.94</v>
+        <v>94.05</v>
       </c>
       <c r="AQ26" s="25">
-        <v>92.46</v>
+        <v>93.39</v>
       </c>
       <c r="AR26" s="25">
-        <v>92.08</v>
-      </c>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
+        <v>93.17</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>93.03</v>
+      </c>
+      <c r="AT26" s="25">
+        <v>92.74</v>
+      </c>
       <c r="AU26" s="25"/>
       <c r="AV26" s="25"/>
       <c r="AW26" s="25"/>
@@ -5185,19 +5267,19 @@
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C27" s="25">
-        <v>98.08</v>
+        <v>98.07</v>
       </c>
       <c r="D27" s="25">
-        <v>98.93</v>
+        <v>98.91</v>
       </c>
       <c r="E27" s="25">
-        <v>100.37</v>
+        <v>100.36</v>
       </c>
       <c r="F27" s="25">
         <v>100.35</v>
@@ -5209,10 +5291,10 @@
         <v>100.61</v>
       </c>
       <c r="I27" s="25">
-        <v>101.24</v>
+        <v>101.25</v>
       </c>
       <c r="J27" s="25">
-        <v>100.44</v>
+        <v>100.45</v>
       </c>
       <c r="K27" s="25">
         <v>98.56</v>
@@ -5224,100 +5306,104 @@
         <v>100</v>
       </c>
       <c r="N27" s="25">
-        <v>99.61</v>
+        <v>99.62</v>
       </c>
       <c r="O27" s="25">
-        <v>98.31</v>
+        <v>98.3</v>
       </c>
       <c r="P27" s="25">
         <v>96.22</v>
       </c>
       <c r="Q27" s="25">
-        <v>95.25</v>
+        <v>95.26</v>
       </c>
       <c r="R27" s="25">
         <v>95.74</v>
       </c>
       <c r="S27" s="25">
-        <v>95.89</v>
+        <v>95.9</v>
       </c>
       <c r="T27" s="25">
-        <v>95.3</v>
+        <v>95.31</v>
       </c>
       <c r="U27" s="25">
-        <v>95.73</v>
+        <v>95.74</v>
       </c>
       <c r="V27" s="25">
-        <v>94.85</v>
+        <v>94.87</v>
       </c>
       <c r="W27" s="25">
-        <v>95.89</v>
+        <v>95.91</v>
       </c>
       <c r="X27" s="25">
-        <v>95.69</v>
+        <v>95.7</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="Z27" s="25">
         <v>96.59</v>
       </c>
       <c r="AA27" s="25">
-        <v>95.33</v>
+        <v>95.35</v>
       </c>
       <c r="AB27" s="25">
-        <v>95.03</v>
+        <v>95.04</v>
       </c>
       <c r="AC27" s="25">
-        <v>95.82</v>
+        <v>95.83</v>
       </c>
       <c r="AD27" s="25">
-        <v>96.11</v>
+        <v>96.12</v>
       </c>
       <c r="AE27" s="25">
-        <v>96.98</v>
+        <v>96.94</v>
       </c>
       <c r="AF27" s="25">
-        <v>96.31</v>
+        <v>96.27</v>
       </c>
       <c r="AG27" s="25">
-        <v>97.27</v>
+        <v>97.24</v>
       </c>
       <c r="AH27" s="25">
-        <v>96.17</v>
+        <v>96.23</v>
       </c>
       <c r="AI27" s="25">
-        <v>96.72</v>
+        <v>96.71</v>
       </c>
       <c r="AJ27" s="25">
-        <v>96.5</v>
+        <v>96.54</v>
       </c>
       <c r="AK27" s="25">
-        <v>96.34</v>
+        <v>96.37</v>
       </c>
       <c r="AL27" s="25">
-        <v>97.12</v>
+        <v>96.91</v>
       </c>
       <c r="AM27" s="25">
-        <v>97.71</v>
+        <v>97.64</v>
       </c>
       <c r="AN27" s="25">
-        <v>98.39</v>
+        <v>98.47</v>
       </c>
       <c r="AO27" s="25">
-        <v>97.54</v>
+        <v>97.81</v>
       </c>
       <c r="AP27" s="25">
-        <v>97.14</v>
+        <v>97.05</v>
       </c>
       <c r="AQ27" s="25">
-        <v>96.81</v>
+        <v>96.87</v>
       </c>
       <c r="AR27" s="25">
-        <v>98.37</v>
-      </c>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
+        <v>97.51</v>
+      </c>
+      <c r="AS27" s="25">
+        <v>97.66</v>
+      </c>
+      <c r="AT27" s="25">
+        <v>98.07</v>
+      </c>
       <c r="AU27" s="25"/>
       <c r="AV27" s="25"/>
       <c r="AW27" s="25"/>
@@ -5353,40 +5439,40 @@
     </row>
     <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" s="25">
-        <v>86.18</v>
+        <v>86.2</v>
       </c>
       <c r="D28" s="25">
-        <v>89.91</v>
+        <v>89.92</v>
       </c>
       <c r="E28" s="25">
-        <v>92.59</v>
+        <v>92.58</v>
       </c>
       <c r="F28" s="25">
         <v>93.99</v>
       </c>
       <c r="G28" s="25">
-        <v>95.23</v>
+        <v>95.24</v>
       </c>
       <c r="H28" s="25">
-        <v>96.46</v>
+        <v>96.44</v>
       </c>
       <c r="I28" s="25">
-        <v>97.61</v>
+        <v>97.55</v>
       </c>
       <c r="J28" s="25">
-        <v>98.05</v>
+        <v>97.99</v>
       </c>
       <c r="K28" s="25">
-        <v>98.64</v>
+        <v>98.59</v>
       </c>
       <c r="L28" s="25">
-        <v>99.65</v>
+        <v>99.62</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
@@ -5398,13 +5484,13 @@
         <v>96.2</v>
       </c>
       <c r="P28" s="25">
-        <v>93.01</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="25">
-        <v>90.22</v>
+        <v>90.23</v>
       </c>
       <c r="R28" s="25">
-        <v>89.34</v>
+        <v>89.38</v>
       </c>
       <c r="S28" s="25">
         <v>90.36</v>
@@ -5413,79 +5499,83 @@
         <v>91.01</v>
       </c>
       <c r="U28" s="25">
-        <v>92.31</v>
+        <v>92.3</v>
       </c>
       <c r="V28" s="25">
-        <v>93.62</v>
+        <v>93.61</v>
       </c>
       <c r="W28" s="25">
         <v>94.83</v>
       </c>
       <c r="X28" s="25">
-        <v>95.47</v>
+        <v>95.49</v>
       </c>
       <c r="Y28" s="25">
-        <v>96.63</v>
+        <v>96.61</v>
       </c>
       <c r="Z28" s="25">
-        <v>97.61</v>
+        <v>97.64</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.31</v>
+        <v>98.35</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.04</v>
+        <v>99.12</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.01</v>
+        <v>101.22</v>
       </c>
       <c r="AD28" s="25">
-        <v>100.69</v>
+        <v>100.98</v>
       </c>
       <c r="AE28" s="25">
-        <v>100.45</v>
+        <v>100.76</v>
       </c>
       <c r="AF28" s="25">
-        <v>100.54</v>
+        <v>100.88</v>
       </c>
       <c r="AG28" s="25">
-        <v>100.93</v>
+        <v>101.26</v>
       </c>
       <c r="AH28" s="25">
-        <v>101.25</v>
+        <v>101.55</v>
       </c>
       <c r="AI28" s="25">
-        <v>101.53</v>
+        <v>101.87</v>
       </c>
       <c r="AJ28" s="25">
-        <v>101.52</v>
+        <v>101.93</v>
       </c>
       <c r="AK28" s="25">
-        <v>101.67</v>
+        <v>102.2</v>
       </c>
       <c r="AL28" s="25">
-        <v>101.71</v>
+        <v>102.26</v>
       </c>
       <c r="AM28" s="25">
-        <v>102.01</v>
+        <v>102.76</v>
       </c>
       <c r="AN28" s="25">
-        <v>102.35</v>
+        <v>103.33</v>
       </c>
       <c r="AO28" s="25">
-        <v>102.13</v>
+        <v>103.18</v>
       </c>
       <c r="AP28" s="25">
-        <v>100.97</v>
+        <v>101.93</v>
       </c>
       <c r="AQ28" s="25">
-        <v>98.15</v>
+        <v>100.21</v>
       </c>
       <c r="AR28" s="25">
-        <v>96.06</v>
-      </c>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
+        <v>99.39</v>
+      </c>
+      <c r="AS28" s="25">
+        <v>98.61</v>
+      </c>
+      <c r="AT28" s="25">
+        <v>97.66</v>
+      </c>
       <c r="AU28" s="25"/>
       <c r="AV28" s="25"/>
       <c r="AW28" s="25"/>
@@ -5521,34 +5611,34 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C29" s="25">
-        <v>92.97</v>
+        <v>92.86</v>
       </c>
       <c r="D29" s="25">
-        <v>94.87</v>
+        <v>94.79</v>
       </c>
       <c r="E29" s="25">
-        <v>96.12</v>
+        <v>96.11</v>
       </c>
       <c r="F29" s="25">
         <v>97.46</v>
       </c>
       <c r="G29" s="25">
-        <v>98.51</v>
+        <v>98.42</v>
       </c>
       <c r="H29" s="25">
-        <v>99.53</v>
+        <v>99.42</v>
       </c>
       <c r="I29" s="25">
+        <v>99.8</v>
+      </c>
+      <c r="J29" s="25">
         <v>99.9</v>
-      </c>
-      <c r="J29" s="25">
-        <v>99.99</v>
       </c>
       <c r="K29" s="25">
         <v>100.11</v>
@@ -5560,7 +5650,7 @@
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.58</v>
+        <v>98.59</v>
       </c>
       <c r="O29" s="25">
         <v>94.41</v>
@@ -5569,31 +5659,31 @@
         <v>91.75</v>
       </c>
       <c r="Q29" s="25">
-        <v>90.27</v>
+        <v>90.31</v>
       </c>
       <c r="R29" s="25">
-        <v>89.65</v>
+        <v>89.66</v>
       </c>
       <c r="S29" s="25">
-        <v>89.8</v>
+        <v>89.83</v>
       </c>
       <c r="T29" s="25">
-        <v>90.44</v>
+        <v>90.45</v>
       </c>
       <c r="U29" s="25">
-        <v>91.26</v>
+        <v>91.28</v>
       </c>
       <c r="V29" s="25">
-        <v>92.63</v>
+        <v>92.65</v>
       </c>
       <c r="W29" s="25">
-        <v>93.1</v>
+        <v>93.11</v>
       </c>
       <c r="X29" s="25">
         <v>93.21</v>
       </c>
       <c r="Y29" s="25">
-        <v>93.85</v>
+        <v>93.87</v>
       </c>
       <c r="Z29" s="25">
         <v>94.45</v>
@@ -5602,58 +5692,62 @@
         <v>95.41</v>
       </c>
       <c r="AB29" s="25">
-        <v>95.86</v>
+        <v>95.83</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.38</v>
+        <v>96.36</v>
       </c>
       <c r="AD29" s="25">
         <v>95.87</v>
       </c>
       <c r="AE29" s="25">
-        <v>94.98</v>
+        <v>94.95</v>
       </c>
       <c r="AF29" s="25">
-        <v>94.87</v>
+        <v>94.88</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.13</v>
+        <v>95.25</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.25</v>
+        <v>96.35</v>
       </c>
       <c r="AI29" s="25">
-        <v>96.88</v>
+        <v>96.91</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.03</v>
+        <v>97.08</v>
       </c>
       <c r="AK29" s="25">
-        <v>96.93</v>
+        <v>97.01</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.19</v>
+        <v>97.24</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.23</v>
+        <v>97.3</v>
       </c>
       <c r="AN29" s="25">
-        <v>97.68</v>
+        <v>97.65</v>
       </c>
       <c r="AO29" s="25">
-        <v>97.77</v>
+        <v>97.59</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.66</v>
+        <v>97.42</v>
       </c>
       <c r="AQ29" s="25">
-        <v>97.47</v>
+        <v>97.25</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.77</v>
-      </c>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
+        <v>96.94</v>
+      </c>
+      <c r="AS29" s="25">
+        <v>96.73</v>
+      </c>
+      <c r="AT29" s="25">
+        <v>96.32</v>
+      </c>
       <c r="AU29" s="25"/>
       <c r="AV29" s="25"/>
       <c r="AW29" s="25"/>
@@ -5689,22 +5783,22 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C30" s="25">
-        <v>95.34</v>
+        <v>95.32</v>
       </c>
       <c r="D30" s="25">
-        <v>95.72</v>
+        <v>95.71</v>
       </c>
       <c r="E30" s="25">
         <v>95.93</v>
       </c>
       <c r="F30" s="25">
-        <v>96.94</v>
+        <v>96.92</v>
       </c>
       <c r="G30" s="25">
         <v>97.44</v>
@@ -5731,97 +5825,101 @@
         <v>98.9</v>
       </c>
       <c r="O30" s="25">
-        <v>97.54</v>
+        <v>97.52</v>
       </c>
       <c r="P30" s="25">
         <v>96.97</v>
       </c>
       <c r="Q30" s="25">
-        <v>95.97</v>
+        <v>95.99</v>
       </c>
       <c r="R30" s="25">
-        <v>95.68</v>
+        <v>95.7</v>
       </c>
       <c r="S30" s="25">
-        <v>95.83</v>
+        <v>95.85</v>
       </c>
       <c r="T30" s="25">
-        <v>96.25</v>
+        <v>96.27</v>
       </c>
       <c r="U30" s="25">
-        <v>96.42</v>
+        <v>96.44</v>
       </c>
       <c r="V30" s="25">
-        <v>96.65</v>
+        <v>96.67</v>
       </c>
       <c r="W30" s="25">
-        <v>97.27</v>
+        <v>97.31</v>
       </c>
       <c r="X30" s="25">
-        <v>97.41</v>
+        <v>97.43</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.39</v>
+        <v>96.43</v>
       </c>
       <c r="Z30" s="25">
-        <v>97.49</v>
+        <v>97.54</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.17</v>
+        <v>98.2</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.92</v>
+        <v>97.94</v>
       </c>
       <c r="AD30" s="25">
         <v>98.36</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.06</v>
+        <v>98.05</v>
       </c>
       <c r="AF30" s="25">
-        <v>97.94</v>
+        <v>97.96</v>
       </c>
       <c r="AG30" s="25">
-        <v>98.48</v>
+        <v>98.49</v>
       </c>
       <c r="AH30" s="25">
-        <v>99.87</v>
+        <v>99.84</v>
       </c>
       <c r="AI30" s="25">
-        <v>99.61</v>
+        <v>99.6</v>
       </c>
       <c r="AJ30" s="25">
-        <v>99.87</v>
+        <v>99.91</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.02</v>
+        <v>99.88</v>
       </c>
       <c r="AL30" s="25">
-        <v>99.83</v>
+        <v>99.39</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.89</v>
+        <v>99.4</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.67</v>
+        <v>99.96</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.78</v>
+        <v>100.17</v>
       </c>
       <c r="AP30" s="25">
-        <v>100.76</v>
+        <v>100.13</v>
       </c>
       <c r="AQ30" s="25">
-        <v>100.56</v>
+        <v>99.62</v>
       </c>
       <c r="AR30" s="25">
-        <v>101.24</v>
-      </c>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
+        <v>99.82</v>
+      </c>
+      <c r="AS30" s="25">
+        <v>100.74</v>
+      </c>
+      <c r="AT30" s="25">
+        <v>101.86</v>
+      </c>
       <c r="AU30" s="25"/>
       <c r="AV30" s="25"/>
       <c r="AW30" s="25"/>
@@ -5857,61 +5955,61 @@
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C31" s="25">
-        <v>84.99</v>
+        <v>84.97</v>
       </c>
       <c r="D31" s="25">
         <v>89.88</v>
       </c>
       <c r="E31" s="25">
-        <v>93.5</v>
+        <v>93.48</v>
       </c>
       <c r="F31" s="25">
-        <v>94.64</v>
+        <v>94.63</v>
       </c>
       <c r="G31" s="25">
         <v>95.23</v>
       </c>
       <c r="H31" s="25">
-        <v>96.92</v>
+        <v>96.93</v>
       </c>
       <c r="I31" s="25">
-        <v>98</v>
+        <v>98.01</v>
       </c>
       <c r="J31" s="25">
-        <v>98.53</v>
+        <v>98.52</v>
       </c>
       <c r="K31" s="25">
-        <v>99.16</v>
+        <v>99.15</v>
       </c>
       <c r="L31" s="25">
-        <v>100.13</v>
+        <v>100.12</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.57</v>
+        <v>99.54</v>
       </c>
       <c r="O31" s="25">
-        <v>95.85</v>
+        <v>95.81</v>
       </c>
       <c r="P31" s="25">
-        <v>92.18</v>
+        <v>92.15</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.8</v>
+        <v>89.79</v>
       </c>
       <c r="R31" s="25">
-        <v>89.34</v>
+        <v>89.31</v>
       </c>
       <c r="S31" s="25">
-        <v>89.48</v>
+        <v>89.46</v>
       </c>
       <c r="T31" s="25">
         <v>90.42</v>
@@ -5920,76 +6018,80 @@
         <v>91.64</v>
       </c>
       <c r="V31" s="25">
-        <v>92.21</v>
+        <v>92.23</v>
       </c>
       <c r="W31" s="25">
-        <v>92.68</v>
+        <v>92.67</v>
       </c>
       <c r="X31" s="25">
         <v>93.8</v>
       </c>
       <c r="Y31" s="25">
-        <v>94.83</v>
+        <v>94.81</v>
       </c>
       <c r="Z31" s="25">
         <v>95.64</v>
       </c>
       <c r="AA31" s="25">
-        <v>96.6</v>
+        <v>96.53</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.09</v>
+        <v>98.12</v>
       </c>
       <c r="AC31" s="25">
-        <v>99.55</v>
+        <v>99.72</v>
       </c>
       <c r="AD31" s="25">
-        <v>99.1</v>
+        <v>99.5</v>
       </c>
       <c r="AE31" s="25">
-        <v>98.84</v>
+        <v>99.3</v>
       </c>
       <c r="AF31" s="25">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="AG31" s="25">
-        <v>99.9</v>
+        <v>100.41</v>
       </c>
       <c r="AH31" s="25">
-        <v>99.98</v>
+        <v>100.61</v>
       </c>
       <c r="AI31" s="25">
-        <v>99.84</v>
+        <v>100.5</v>
       </c>
       <c r="AJ31" s="25">
-        <v>100.03</v>
+        <v>100.7</v>
       </c>
       <c r="AK31" s="25">
-        <v>100.1</v>
+        <v>100.81</v>
       </c>
       <c r="AL31" s="25">
-        <v>100.01</v>
+        <v>101.01</v>
       </c>
       <c r="AM31" s="25">
-        <v>100</v>
+        <v>101.25</v>
       </c>
       <c r="AN31" s="25">
-        <v>99.84</v>
+        <v>101.13</v>
       </c>
       <c r="AO31" s="25">
-        <v>99.81</v>
+        <v>101.07</v>
       </c>
       <c r="AP31" s="25">
-        <v>97.32</v>
+        <v>99.45</v>
       </c>
       <c r="AQ31" s="25">
-        <v>93.21</v>
+        <v>97.19</v>
       </c>
       <c r="AR31" s="25">
-        <v>91.13</v>
-      </c>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="25"/>
+        <v>96.61</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>95.72</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>93.82</v>
+      </c>
       <c r="AU31" s="25"/>
       <c r="AV31" s="25"/>
       <c r="AW31" s="25"/>
@@ -6025,40 +6127,40 @@
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" s="25">
-        <v>91.05</v>
+        <v>91.06</v>
       </c>
       <c r="D32" s="25">
-        <v>94.42</v>
+        <v>94.44</v>
       </c>
       <c r="E32" s="25">
-        <v>96.91</v>
+        <v>96.94</v>
       </c>
       <c r="F32" s="25">
         <v>97.04</v>
       </c>
       <c r="G32" s="25">
-        <v>97.68</v>
+        <v>97.69</v>
       </c>
       <c r="H32" s="25">
         <v>99.34</v>
       </c>
       <c r="I32" s="25">
-        <v>99.74</v>
+        <v>99.75</v>
       </c>
       <c r="J32" s="25">
-        <v>100.79</v>
+        <v>100.8</v>
       </c>
       <c r="K32" s="25">
-        <v>101.82</v>
+        <v>101.81</v>
       </c>
       <c r="L32" s="25">
-        <v>101.66</v>
+        <v>101.67</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
@@ -6067,97 +6169,101 @@
         <v>99.09</v>
       </c>
       <c r="O32" s="25">
-        <v>94.59</v>
+        <v>94.54</v>
       </c>
       <c r="P32" s="25">
-        <v>90.77</v>
+        <v>90.73</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.58</v>
+        <v>87.55</v>
       </c>
       <c r="R32" s="25">
-        <v>87.15</v>
+        <v>87.13</v>
       </c>
       <c r="S32" s="25">
-        <v>87.07</v>
+        <v>87.06</v>
       </c>
       <c r="T32" s="25">
-        <v>86.98</v>
+        <v>86.99</v>
       </c>
       <c r="U32" s="25">
-        <v>88.02</v>
+        <v>88.01</v>
       </c>
       <c r="V32" s="25">
         <v>88.79</v>
       </c>
       <c r="W32" s="25">
-        <v>89.79</v>
+        <v>89.81</v>
       </c>
       <c r="X32" s="25">
         <v>90.45</v>
       </c>
       <c r="Y32" s="25">
-        <v>90.96</v>
+        <v>90.95</v>
       </c>
       <c r="Z32" s="25">
-        <v>91.72</v>
+        <v>91.71</v>
       </c>
       <c r="AA32" s="25">
-        <v>92.06</v>
+        <v>92.01</v>
       </c>
       <c r="AB32" s="25">
-        <v>92.24</v>
+        <v>92.21</v>
       </c>
       <c r="AC32" s="25">
-        <v>92.58</v>
+        <v>92.62</v>
       </c>
       <c r="AD32" s="25">
-        <v>93.78</v>
+        <v>93.82</v>
       </c>
       <c r="AE32" s="25">
-        <v>93.25</v>
+        <v>93.24</v>
       </c>
       <c r="AF32" s="25">
-        <v>93.52</v>
+        <v>93.56</v>
       </c>
       <c r="AG32" s="25">
-        <v>93.83</v>
+        <v>93.89</v>
       </c>
       <c r="AH32" s="25">
-        <v>94.16</v>
+        <v>94.2</v>
       </c>
       <c r="AI32" s="25">
-        <v>94.35</v>
+        <v>94.37</v>
       </c>
       <c r="AJ32" s="25">
-        <v>94.36</v>
+        <v>94.37</v>
       </c>
       <c r="AK32" s="25">
-        <v>93.51</v>
+        <v>93.46</v>
       </c>
       <c r="AL32" s="25">
-        <v>93.75</v>
+        <v>93.89</v>
       </c>
       <c r="AM32" s="25">
-        <v>94.4</v>
+        <v>94.56</v>
       </c>
       <c r="AN32" s="25">
-        <v>94.12</v>
+        <v>94.28</v>
       </c>
       <c r="AO32" s="25">
-        <v>94.42</v>
+        <v>94.2</v>
       </c>
       <c r="AP32" s="25">
+        <v>94.04</v>
+      </c>
+      <c r="AQ32" s="25">
         <v>94.31</v>
       </c>
-      <c r="AQ32" s="25">
-        <v>94.12</v>
-      </c>
       <c r="AR32" s="25">
-        <v>93.26</v>
-      </c>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
+        <v>94.58</v>
+      </c>
+      <c r="AS32" s="25">
+        <v>95.2</v>
+      </c>
+      <c r="AT32" s="25">
+        <v>95.43</v>
+      </c>
       <c r="AU32" s="25"/>
       <c r="AV32" s="25"/>
       <c r="AW32" s="25"/>
@@ -6193,40 +6299,40 @@
     </row>
     <row r="33" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" s="25">
-        <v>96.51</v>
+        <v>96.52</v>
       </c>
       <c r="D33" s="25">
-        <v>96.9</v>
+        <v>96.91</v>
       </c>
       <c r="E33" s="25">
-        <v>98.1</v>
+        <v>98.12</v>
       </c>
       <c r="F33" s="25">
-        <v>98.34</v>
+        <v>98.35</v>
       </c>
       <c r="G33" s="25">
+        <v>98.7</v>
+      </c>
+      <c r="H33" s="25">
+        <v>99.5</v>
+      </c>
+      <c r="I33" s="25">
+        <v>101.29</v>
+      </c>
+      <c r="J33" s="25">
+        <v>99.42</v>
+      </c>
+      <c r="K33" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="L33" s="25">
         <v>98.69</v>
-      </c>
-      <c r="H33" s="25">
-        <v>99.49</v>
-      </c>
-      <c r="I33" s="25">
-        <v>101.28</v>
-      </c>
-      <c r="J33" s="25">
-        <v>99.4</v>
-      </c>
-      <c r="K33" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="L33" s="25">
-        <v>98.68</v>
       </c>
       <c r="M33" s="25">
         <v>100</v>
@@ -6238,40 +6344,40 @@
         <v>97.68</v>
       </c>
       <c r="P33" s="25">
+        <v>96.42</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>96.15</v>
+      </c>
+      <c r="R33" s="25">
+        <v>95.88</v>
+      </c>
+      <c r="S33" s="25">
+        <v>96.15</v>
+      </c>
+      <c r="T33" s="25">
+        <v>96.45</v>
+      </c>
+      <c r="U33" s="25">
+        <v>96.1</v>
+      </c>
+      <c r="V33" s="25">
         <v>96.43</v>
       </c>
-      <c r="Q33" s="25">
-        <v>96.14</v>
-      </c>
-      <c r="R33" s="25">
-        <v>95.87</v>
-      </c>
-      <c r="S33" s="25">
-        <v>96.14</v>
-      </c>
-      <c r="T33" s="25">
-        <v>96.44</v>
-      </c>
-      <c r="U33" s="25">
-        <v>96.09</v>
-      </c>
-      <c r="V33" s="25">
+      <c r="W33" s="25">
+        <v>96.73</v>
+      </c>
+      <c r="X33" s="25">
         <v>96.42</v>
-      </c>
-      <c r="W33" s="25">
-        <v>96.71</v>
-      </c>
-      <c r="X33" s="25">
-        <v>96.4</v>
       </c>
       <c r="Y33" s="25">
         <v>96.23</v>
       </c>
       <c r="Z33" s="25">
-        <v>96.08</v>
+        <v>96.1</v>
       </c>
       <c r="AA33" s="25">
-        <v>95.78</v>
+        <v>95.8</v>
       </c>
       <c r="AB33" s="25">
         <v>96.13</v>
@@ -6280,52 +6386,56 @@
         <v>96.97</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.65</v>
+        <v>97.63</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.59</v>
+        <v>97.58</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.33</v>
+        <v>97.32</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.71</v>
+        <v>97.7</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.71</v>
+        <v>97.7</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.48</v>
+        <v>97.47</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.21</v>
+        <v>97.19</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.46</v>
+        <v>97.41</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.48</v>
+        <v>97.42</v>
       </c>
       <c r="AM33" s="25">
-        <v>97.9</v>
+        <v>97.86</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.09</v>
+        <v>97.96</v>
       </c>
       <c r="AO33" s="25">
-        <v>97.98</v>
+        <v>97.89</v>
       </c>
       <c r="AP33" s="25">
-        <v>98.12</v>
+        <v>97.73</v>
       </c>
       <c r="AQ33" s="25">
-        <v>98.91</v>
+        <v>98.01</v>
       </c>
       <c r="AR33" s="25">
-        <v>99.72</v>
-      </c>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
+        <v>98.49</v>
+      </c>
+      <c r="AS33" s="25">
+        <v>98.79</v>
+      </c>
+      <c r="AT33" s="25">
+        <v>99.74</v>
+      </c>
       <c r="AU33" s="25"/>
       <c r="AV33" s="25"/>
       <c r="AW33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 31 October 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 14 November 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBBE84-D9A6-46D8-AE00-9C14E78B3CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497A3F5-9AB6-4C13-83E1-EA3B5C9983A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,12 +68,6 @@
     <t>© Commonwealth of Australia 2020</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Business size</t>
-  </si>
-  <si>
     <t>0. Australia</t>
   </si>
   <si>
@@ -113,16 +107,22 @@
     <t>200 employees and over</t>
   </si>
   <si>
-    <t>Week ending Saturday 31 October 2020</t>
+    <t>Released at 11.30am (Canberra time) 1 December 2020</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 17 November 2020</t>
+    <t>Week ending Saturday 14 November 2020</t>
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment Size</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment  Size</t>
+    <t>Employment size</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by employment size</t>
+  </si>
+  <si>
+    <t>State or territory</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:B1"/>
       <selection pane="bottomLeft"/>
@@ -1121,12 +1121,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1569,7 +1569,7 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="str">
         <f>"** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic."&amp;CHAR(10)&amp;"**Care should be exercised when focusing on the most recent movements in payroll jobs. For more information, please see the Reporting variability section in Data limitations and revisions."</f>
         <v>** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic.
@@ -1655,10 +1655,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1792,8 +1792,12 @@
       <c r="AT6" s="24">
         <v>44135</v>
       </c>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
+      <c r="AU6" s="24">
+        <v>44142</v>
+      </c>
+      <c r="AV6" s="24">
+        <v>44149</v>
+      </c>
       <c r="AW6" s="24"/>
       <c r="AX6" s="24"/>
       <c r="AY6" s="24"/>
@@ -1827,22 +1831,22 @@
     </row>
     <row r="7" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="25">
-        <v>87.29</v>
+        <v>87.3</v>
       </c>
       <c r="D7" s="25">
-        <v>91.85</v>
+        <v>91.86</v>
       </c>
       <c r="E7" s="25">
         <v>94.41</v>
       </c>
       <c r="F7" s="25">
-        <v>95.47</v>
+        <v>95.48</v>
       </c>
       <c r="G7" s="25">
         <v>96.22</v>
@@ -1851,10 +1855,10 @@
         <v>97.43</v>
       </c>
       <c r="I7" s="25">
-        <v>97.84</v>
+        <v>97.85</v>
       </c>
       <c r="J7" s="25">
-        <v>98.35</v>
+        <v>98.36</v>
       </c>
       <c r="K7" s="25">
         <v>98.87</v>
@@ -1866,106 +1870,110 @@
         <v>100</v>
       </c>
       <c r="N7" s="25">
-        <v>99.21</v>
+        <v>99.2</v>
       </c>
       <c r="O7" s="25">
-        <v>95.26</v>
+        <v>95.22</v>
       </c>
       <c r="P7" s="25">
-        <v>91.9</v>
+        <v>91.87</v>
       </c>
       <c r="Q7" s="25">
-        <v>89.44</v>
+        <v>89.43</v>
       </c>
       <c r="R7" s="25">
         <v>88.72</v>
       </c>
       <c r="S7" s="25">
-        <v>89.22</v>
+        <v>89.23</v>
       </c>
       <c r="T7" s="25">
         <v>90.27</v>
       </c>
       <c r="U7" s="25">
-        <v>91.38</v>
+        <v>91.39</v>
       </c>
       <c r="V7" s="25">
-        <v>92.46</v>
+        <v>92.48</v>
       </c>
       <c r="W7" s="25">
-        <v>93.02</v>
+        <v>93.04</v>
       </c>
       <c r="X7" s="25">
-        <v>93.55</v>
+        <v>93.57</v>
       </c>
       <c r="Y7" s="25">
-        <v>94.81</v>
+        <v>94.84</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.35</v>
+        <v>95.39</v>
       </c>
       <c r="AA7" s="25">
-        <v>95.95</v>
+        <v>95.99</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.14</v>
+        <v>97.2</v>
       </c>
       <c r="AC7" s="25">
+        <v>99.11</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>98.98</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>98.89</v>
+      </c>
+      <c r="AF7" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>99.19</v>
+      </c>
+      <c r="AH7" s="25">
+        <v>99.06</v>
+      </c>
+      <c r="AI7" s="25">
+        <v>98.97</v>
+      </c>
+      <c r="AJ7" s="25">
+        <v>98.98</v>
+      </c>
+      <c r="AK7" s="25">
+        <v>99.19</v>
+      </c>
+      <c r="AL7" s="25">
+        <v>99.42</v>
+      </c>
+      <c r="AM7" s="25">
+        <v>99.9</v>
+      </c>
+      <c r="AN7" s="25">
+        <v>99.94</v>
+      </c>
+      <c r="AO7" s="25">
+        <v>99.87</v>
+      </c>
+      <c r="AP7" s="25">
         <v>98.92</v>
       </c>
-      <c r="AD7" s="25">
-        <v>98.66</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>98.54</v>
-      </c>
-      <c r="AF7" s="25">
-        <v>98.82</v>
-      </c>
-      <c r="AG7" s="25">
-        <v>98.76</v>
-      </c>
-      <c r="AH7" s="25">
-        <v>98.56</v>
-      </c>
-      <c r="AI7" s="25">
-        <v>98.46</v>
-      </c>
-      <c r="AJ7" s="25">
-        <v>98.45</v>
-      </c>
-      <c r="AK7" s="25">
-        <v>98.62</v>
-      </c>
-      <c r="AL7" s="25">
-        <v>98.79</v>
-      </c>
-      <c r="AM7" s="25">
-        <v>99.18</v>
-      </c>
-      <c r="AN7" s="25">
-        <v>99.16</v>
-      </c>
-      <c r="AO7" s="25">
-        <v>99.05</v>
-      </c>
-      <c r="AP7" s="25">
-        <v>97.86</v>
-      </c>
       <c r="AQ7" s="25">
-        <v>96.21</v>
+        <v>97.83</v>
       </c>
       <c r="AR7" s="25">
-        <v>95.37</v>
+        <v>97.56</v>
       </c>
       <c r="AS7" s="25">
-        <v>94.58</v>
+        <v>97.39</v>
       </c>
       <c r="AT7" s="25">
-        <v>94.18</v>
-      </c>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
+        <v>96.91</v>
+      </c>
+      <c r="AU7" s="25">
+        <v>94.72</v>
+      </c>
+      <c r="AV7" s="25">
+        <v>94.04</v>
+      </c>
       <c r="AW7" s="25"/>
       <c r="AX7" s="25"/>
       <c r="AY7" s="25"/>
@@ -1999,25 +2007,25 @@
     </row>
     <row r="8" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="25">
         <v>91.9</v>
       </c>
       <c r="D8" s="25">
-        <v>95.3</v>
+        <v>95.31</v>
       </c>
       <c r="E8" s="25">
         <v>97.11</v>
       </c>
       <c r="F8" s="25">
-        <v>97.84</v>
+        <v>97.85</v>
       </c>
       <c r="G8" s="25">
-        <v>98.29</v>
+        <v>98.3</v>
       </c>
       <c r="H8" s="25">
         <v>99.25</v>
@@ -2026,7 +2034,7 @@
         <v>99.54</v>
       </c>
       <c r="J8" s="25">
-        <v>99.87</v>
+        <v>99.88</v>
       </c>
       <c r="K8" s="25">
         <v>100.09</v>
@@ -2038,106 +2046,110 @@
         <v>100</v>
       </c>
       <c r="N8" s="25">
-        <v>98.73</v>
+        <v>98.71</v>
       </c>
       <c r="O8" s="25">
-        <v>94.12</v>
+        <v>94.07</v>
       </c>
       <c r="P8" s="25">
-        <v>90.46</v>
+        <v>90.43</v>
       </c>
       <c r="Q8" s="25">
-        <v>88.41</v>
+        <v>88.39</v>
       </c>
       <c r="R8" s="25">
         <v>87.69</v>
       </c>
       <c r="S8" s="25">
-        <v>88.25</v>
+        <v>88.26</v>
       </c>
       <c r="T8" s="25">
-        <v>88.75</v>
+        <v>88.76</v>
       </c>
       <c r="U8" s="25">
-        <v>89.25</v>
+        <v>89.26</v>
       </c>
       <c r="V8" s="25">
-        <v>89.86</v>
+        <v>89.87</v>
       </c>
       <c r="W8" s="25">
-        <v>90.14</v>
+        <v>90.15</v>
       </c>
       <c r="X8" s="25">
-        <v>90.59</v>
+        <v>90.6</v>
       </c>
       <c r="Y8" s="25">
-        <v>91.41</v>
+        <v>91.43</v>
       </c>
       <c r="Z8" s="25">
-        <v>92.21</v>
+        <v>92.23</v>
       </c>
       <c r="AA8" s="25">
-        <v>92.54</v>
+        <v>92.55</v>
       </c>
       <c r="AB8" s="25">
-        <v>92.5</v>
+        <v>92.51</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.16</v>
+        <v>93.17</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.38</v>
+        <v>93.39</v>
       </c>
       <c r="AE8" s="25">
         <v>93.4</v>
       </c>
       <c r="AF8" s="25">
-        <v>93.8</v>
+        <v>93.83</v>
       </c>
       <c r="AG8" s="25">
-        <v>93.89</v>
+        <v>93.92</v>
       </c>
       <c r="AH8" s="25">
-        <v>93.63</v>
+        <v>93.65</v>
       </c>
       <c r="AI8" s="25">
         <v>93.54</v>
       </c>
       <c r="AJ8" s="25">
-        <v>93.53</v>
+        <v>93.55</v>
       </c>
       <c r="AK8" s="25">
-        <v>93.6</v>
+        <v>93.65</v>
       </c>
       <c r="AL8" s="25">
-        <v>93.92</v>
+        <v>93.93</v>
       </c>
       <c r="AM8" s="25">
-        <v>94.47</v>
+        <v>94.49</v>
       </c>
       <c r="AN8" s="25">
-        <v>94.58</v>
+        <v>94.6</v>
       </c>
       <c r="AO8" s="25">
-        <v>94.41</v>
+        <v>94.46</v>
       </c>
       <c r="AP8" s="25">
-        <v>93.87</v>
+        <v>93.89</v>
       </c>
       <c r="AQ8" s="25">
-        <v>93.75</v>
+        <v>93.86</v>
       </c>
       <c r="AR8" s="25">
-        <v>94.21</v>
+        <v>94.59</v>
       </c>
       <c r="AS8" s="25">
-        <v>94.29</v>
+        <v>94.96</v>
       </c>
       <c r="AT8" s="25">
-        <v>94.6</v>
-      </c>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
+        <v>95.06</v>
+      </c>
+      <c r="AU8" s="25">
+        <v>94.72</v>
+      </c>
+      <c r="AV8" s="25">
+        <v>95.05</v>
+      </c>
       <c r="AW8" s="25"/>
       <c r="AX8" s="25"/>
       <c r="AY8" s="25"/>
@@ -2171,10 +2183,10 @@
     </row>
     <row r="9" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="25">
         <v>96.05</v>
@@ -2183,7 +2195,7 @@
         <v>96.93</v>
       </c>
       <c r="E9" s="25">
-        <v>97.72</v>
+        <v>97.71</v>
       </c>
       <c r="F9" s="25">
         <v>98.42</v>
@@ -2210,16 +2222,16 @@
         <v>100</v>
       </c>
       <c r="N9" s="25">
-        <v>99.54</v>
+        <v>99.53</v>
       </c>
       <c r="O9" s="25">
-        <v>97.81</v>
+        <v>97.79</v>
       </c>
       <c r="P9" s="25">
-        <v>96</v>
+        <v>95.98</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.88</v>
+        <v>94.86</v>
       </c>
       <c r="R9" s="25">
         <v>94.72</v>
@@ -2231,85 +2243,89 @@
         <v>94.91</v>
       </c>
       <c r="U9" s="25">
-        <v>95.21</v>
+        <v>95.2</v>
       </c>
       <c r="V9" s="25">
-        <v>95.43</v>
+        <v>95.42</v>
       </c>
       <c r="W9" s="25">
-        <v>95.62</v>
+        <v>95.61</v>
       </c>
       <c r="X9" s="25">
         <v>96.12</v>
       </c>
       <c r="Y9" s="25">
-        <v>96.92</v>
+        <v>96.91</v>
       </c>
       <c r="Z9" s="25">
+        <v>97.25</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>96.4</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>96.84</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>97.46</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>97.32</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>97.49</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.44</v>
+      </c>
+      <c r="AI9" s="25">
+        <v>97.27</v>
+      </c>
+      <c r="AJ9" s="25">
+        <v>97.29</v>
+      </c>
+      <c r="AK9" s="25">
+        <v>97.22</v>
+      </c>
+      <c r="AL9" s="25">
         <v>97.26</v>
       </c>
-      <c r="AA9" s="25">
-        <v>97.11</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>96.42</v>
-      </c>
-      <c r="AC9" s="25">
-        <v>96.88</v>
-      </c>
-      <c r="AD9" s="25">
-        <v>97.64</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>97.37</v>
-      </c>
-      <c r="AG9" s="25">
-        <v>97.57</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>97.58</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>97.48</v>
-      </c>
-      <c r="AJ9" s="25">
-        <v>97.49</v>
-      </c>
-      <c r="AK9" s="25">
-        <v>97.39</v>
-      </c>
-      <c r="AL9" s="25">
-        <v>97.5</v>
-      </c>
       <c r="AM9" s="25">
-        <v>97.73</v>
+        <v>97.53</v>
       </c>
       <c r="AN9" s="25">
-        <v>97.97</v>
+        <v>97.72</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.78</v>
+        <v>97.54</v>
       </c>
       <c r="AP9" s="25">
-        <v>97.29</v>
+        <v>96.93</v>
       </c>
       <c r="AQ9" s="25">
-        <v>97.48</v>
+        <v>97.08</v>
       </c>
       <c r="AR9" s="25">
-        <v>98.15</v>
+        <v>97.72</v>
       </c>
       <c r="AS9" s="25">
-        <v>98.27</v>
+        <v>97.86</v>
       </c>
       <c r="AT9" s="25">
-        <v>99.45</v>
-      </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
+        <v>98.04</v>
+      </c>
+      <c r="AU9" s="25">
+        <v>98.36</v>
+      </c>
+      <c r="AV9" s="25">
+        <v>99.67</v>
+      </c>
       <c r="AW9" s="25"/>
       <c r="AX9" s="25"/>
       <c r="AY9" s="25"/>
@@ -2343,25 +2359,25 @@
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="25">
         <v>87.02</v>
       </c>
       <c r="D10" s="25">
-        <v>91.51</v>
+        <v>91.52</v>
       </c>
       <c r="E10" s="25">
-        <v>94.15</v>
+        <v>94.16</v>
       </c>
       <c r="F10" s="25">
         <v>95.34</v>
       </c>
       <c r="G10" s="25">
-        <v>96.23</v>
+        <v>96.24</v>
       </c>
       <c r="H10" s="25">
         <v>97.35</v>
@@ -2370,10 +2386,10 @@
         <v>97.68</v>
       </c>
       <c r="J10" s="25">
-        <v>98.28</v>
+        <v>98.29</v>
       </c>
       <c r="K10" s="25">
-        <v>98.8</v>
+        <v>98.81</v>
       </c>
       <c r="L10" s="25">
         <v>99.95</v>
@@ -2382,16 +2398,16 @@
         <v>100</v>
       </c>
       <c r="N10" s="25">
-        <v>99.08</v>
+        <v>99.07</v>
       </c>
       <c r="O10" s="25">
-        <v>95.23</v>
+        <v>95.22</v>
       </c>
       <c r="P10" s="25">
-        <v>91.93</v>
+        <v>91.92</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.57</v>
+        <v>89.56</v>
       </c>
       <c r="R10" s="25">
         <v>88.86</v>
@@ -2403,85 +2419,89 @@
         <v>90.37</v>
       </c>
       <c r="U10" s="25">
-        <v>91.75</v>
+        <v>91.77</v>
       </c>
       <c r="V10" s="25">
-        <v>93.56</v>
+        <v>93.58</v>
       </c>
       <c r="W10" s="25">
-        <v>94.04</v>
+        <v>94.07</v>
       </c>
       <c r="X10" s="25">
-        <v>94.63</v>
+        <v>94.66</v>
       </c>
       <c r="Y10" s="25">
-        <v>95.93</v>
+        <v>95.96</v>
       </c>
       <c r="Z10" s="25">
-        <v>95.64</v>
+        <v>95.68</v>
       </c>
       <c r="AA10" s="25">
-        <v>95.99</v>
+        <v>96.04</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.26</v>
+        <v>97.33</v>
       </c>
       <c r="AC10" s="25">
-        <v>99.23</v>
+        <v>99.5</v>
       </c>
       <c r="AD10" s="25">
-        <v>99.02</v>
+        <v>99.5</v>
       </c>
       <c r="AE10" s="25">
-        <v>98.87</v>
+        <v>99.4</v>
       </c>
       <c r="AF10" s="25">
-        <v>99.33</v>
+        <v>99.89</v>
       </c>
       <c r="AG10" s="25">
-        <v>99.17</v>
+        <v>99.8</v>
       </c>
       <c r="AH10" s="25">
-        <v>99.06</v>
+        <v>99.78</v>
       </c>
       <c r="AI10" s="25">
-        <v>99.14</v>
+        <v>99.89</v>
       </c>
       <c r="AJ10" s="25">
-        <v>99.32</v>
+        <v>100.1</v>
       </c>
       <c r="AK10" s="25">
-        <v>99.45</v>
+        <v>100.25</v>
       </c>
       <c r="AL10" s="25">
-        <v>99.7</v>
+        <v>100.58</v>
       </c>
       <c r="AM10" s="25">
-        <v>100.01</v>
+        <v>101.01</v>
       </c>
       <c r="AN10" s="25">
-        <v>99.94</v>
+        <v>101.01</v>
       </c>
       <c r="AO10" s="25">
-        <v>99.91</v>
+        <v>101.01</v>
       </c>
       <c r="AP10" s="25">
-        <v>98.26</v>
+        <v>99.62</v>
       </c>
       <c r="AQ10" s="25">
-        <v>95.78</v>
+        <v>97.82</v>
       </c>
       <c r="AR10" s="25">
-        <v>94.82</v>
+        <v>97.53</v>
       </c>
       <c r="AS10" s="25">
-        <v>93.99</v>
+        <v>97.33</v>
       </c>
       <c r="AT10" s="25">
-        <v>93.27</v>
-      </c>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
+        <v>96.37</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>93.39</v>
+      </c>
+      <c r="AV10" s="25">
+        <v>92.47</v>
+      </c>
       <c r="AW10" s="25"/>
       <c r="AX10" s="25"/>
       <c r="AY10" s="25"/>
@@ -2515,10 +2535,10 @@
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="25">
         <v>92.15</v>
@@ -2536,10 +2556,10 @@
         <v>98.63</v>
       </c>
       <c r="H11" s="25">
-        <v>99.34</v>
+        <v>99.35</v>
       </c>
       <c r="I11" s="25">
-        <v>99.54</v>
+        <v>99.55</v>
       </c>
       <c r="J11" s="25">
         <v>99.99</v>
@@ -2554,106 +2574,110 @@
         <v>100</v>
       </c>
       <c r="N11" s="25">
-        <v>98.47</v>
+        <v>98.46</v>
       </c>
       <c r="O11" s="25">
-        <v>93.62</v>
+        <v>93.6</v>
       </c>
       <c r="P11" s="25">
-        <v>89.93</v>
+        <v>89.92</v>
       </c>
       <c r="Q11" s="25">
-        <v>88.08</v>
+        <v>88.07</v>
       </c>
       <c r="R11" s="25">
         <v>87.67</v>
       </c>
       <c r="S11" s="25">
-        <v>88.06</v>
+        <v>88.07</v>
       </c>
       <c r="T11" s="25">
-        <v>88.57</v>
+        <v>88.58</v>
       </c>
       <c r="U11" s="25">
-        <v>89.06</v>
+        <v>89.07</v>
       </c>
       <c r="V11" s="25">
-        <v>89.55</v>
+        <v>89.56</v>
       </c>
       <c r="W11" s="25">
-        <v>89.99</v>
+        <v>90</v>
       </c>
       <c r="X11" s="25">
-        <v>90.53</v>
+        <v>90.54</v>
       </c>
       <c r="Y11" s="25">
-        <v>91.5</v>
+        <v>91.52</v>
       </c>
       <c r="Z11" s="25">
-        <v>92.19</v>
+        <v>92.21</v>
       </c>
       <c r="AA11" s="25">
-        <v>92.43</v>
+        <v>92.45</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.5</v>
+        <v>92.51</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.21</v>
+        <v>93.24</v>
       </c>
       <c r="AD11" s="25">
-        <v>93.89</v>
+        <v>93.96</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.15</v>
+        <v>94.22</v>
       </c>
       <c r="AF11" s="25">
-        <v>94.52</v>
+        <v>94.6</v>
       </c>
       <c r="AG11" s="25">
-        <v>94.56</v>
+        <v>94.64</v>
       </c>
       <c r="AH11" s="25">
-        <v>94.54</v>
+        <v>94.61</v>
       </c>
       <c r="AI11" s="25">
-        <v>94.65</v>
+        <v>94.73</v>
       </c>
       <c r="AJ11" s="25">
-        <v>94.92</v>
+        <v>95.01</v>
       </c>
       <c r="AK11" s="25">
-        <v>95.04</v>
+        <v>95.14</v>
       </c>
       <c r="AL11" s="25">
-        <v>95.28</v>
+        <v>95.34</v>
       </c>
       <c r="AM11" s="25">
-        <v>95.58</v>
+        <v>95.64</v>
       </c>
       <c r="AN11" s="25">
-        <v>95.62</v>
+        <v>95.7</v>
       </c>
       <c r="AO11" s="25">
-        <v>95.65</v>
+        <v>95.71</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.07</v>
+        <v>95.14</v>
       </c>
       <c r="AQ11" s="25">
-        <v>94.6</v>
+        <v>94.77</v>
       </c>
       <c r="AR11" s="25">
-        <v>95.01</v>
+        <v>95.44</v>
       </c>
       <c r="AS11" s="25">
-        <v>95.01</v>
+        <v>95.67</v>
       </c>
       <c r="AT11" s="25">
-        <v>95.04</v>
-      </c>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
+        <v>95.36</v>
+      </c>
+      <c r="AU11" s="25">
+        <v>94.75</v>
+      </c>
+      <c r="AV11" s="25">
+        <v>95.2</v>
+      </c>
       <c r="AW11" s="25"/>
       <c r="AX11" s="25"/>
       <c r="AY11" s="25"/>
@@ -2687,10 +2711,10 @@
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="25">
         <v>96.26</v>
@@ -2708,13 +2732,13 @@
         <v>98.86</v>
       </c>
       <c r="H12" s="25">
-        <v>99.06</v>
+        <v>99.07</v>
       </c>
       <c r="I12" s="25">
-        <v>100</v>
+        <v>100.01</v>
       </c>
       <c r="J12" s="25">
-        <v>99.58</v>
+        <v>99.59</v>
       </c>
       <c r="K12" s="25">
         <v>99.3</v>
@@ -2726,22 +2750,22 @@
         <v>100</v>
       </c>
       <c r="N12" s="25">
-        <v>99.63</v>
+        <v>99.62</v>
       </c>
       <c r="O12" s="25">
         <v>97.91</v>
       </c>
       <c r="P12" s="25">
-        <v>96.21</v>
+        <v>96.2</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.25</v>
+        <v>95.24</v>
       </c>
       <c r="R12" s="25">
         <v>94.71</v>
       </c>
       <c r="S12" s="25">
-        <v>94.64</v>
+        <v>94.65</v>
       </c>
       <c r="T12" s="25">
         <v>94.82</v>
@@ -2768,64 +2792,68 @@
         <v>97.5</v>
       </c>
       <c r="AB12" s="25">
-        <v>97.29</v>
+        <v>97.28</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.4</v>
+        <v>97.39</v>
       </c>
       <c r="AD12" s="25">
         <v>98.08</v>
       </c>
       <c r="AE12" s="25">
-        <v>97.71</v>
+        <v>97.69</v>
       </c>
       <c r="AF12" s="25">
-        <v>97.75</v>
+        <v>97.73</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.28</v>
+        <v>98.26</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.29</v>
+        <v>98.25</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.25</v>
+        <v>98.21</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.24</v>
+        <v>98.2</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.26</v>
+        <v>98.22</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.13</v>
+        <v>98.08</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.44</v>
+        <v>98.38</v>
       </c>
       <c r="AN12" s="25">
-        <v>98.73</v>
+        <v>98.64</v>
       </c>
       <c r="AO12" s="25">
-        <v>98.72</v>
+        <v>98.59</v>
       </c>
       <c r="AP12" s="25">
-        <v>98.08</v>
+        <v>97.87</v>
       </c>
       <c r="AQ12" s="25">
-        <v>98.22</v>
+        <v>97.78</v>
       </c>
       <c r="AR12" s="25">
-        <v>99.17</v>
+        <v>98.55</v>
       </c>
       <c r="AS12" s="25">
-        <v>99.47</v>
+        <v>98.71</v>
       </c>
       <c r="AT12" s="25">
-        <v>100.62</v>
-      </c>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
+        <v>98.95</v>
+      </c>
+      <c r="AU12" s="25">
+        <v>99.37</v>
+      </c>
+      <c r="AV12" s="25">
+        <v>100.43</v>
+      </c>
       <c r="AW12" s="25"/>
       <c r="AX12" s="25"/>
       <c r="AY12" s="25"/>
@@ -2859,55 +2887,55 @@
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="25">
-        <v>87.33</v>
+        <v>87.34</v>
       </c>
       <c r="D13" s="25">
-        <v>90.69</v>
+        <v>90.7</v>
       </c>
       <c r="E13" s="25">
-        <v>93.4</v>
+        <v>93.41</v>
       </c>
       <c r="F13" s="25">
-        <v>94.79</v>
+        <v>94.8</v>
       </c>
       <c r="G13" s="25">
-        <v>95.72</v>
+        <v>95.74</v>
       </c>
       <c r="H13" s="25">
-        <v>97.25</v>
+        <v>97.26</v>
       </c>
       <c r="I13" s="25">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="J13" s="25">
-        <v>98.25</v>
+        <v>98.26</v>
       </c>
       <c r="K13" s="25">
-        <v>98.78</v>
+        <v>98.79</v>
       </c>
       <c r="L13" s="25">
-        <v>99.96</v>
+        <v>99.97</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
       </c>
       <c r="N13" s="25">
-        <v>99.3</v>
+        <v>99.27</v>
       </c>
       <c r="O13" s="25">
-        <v>95.27</v>
+        <v>95.18</v>
       </c>
       <c r="P13" s="25">
-        <v>91.78</v>
+        <v>91.72</v>
       </c>
       <c r="Q13" s="25">
-        <v>89.35</v>
+        <v>89.32</v>
       </c>
       <c r="R13" s="25">
         <v>88.54</v>
@@ -2916,88 +2944,92 @@
         <v>89.03</v>
       </c>
       <c r="T13" s="25">
-        <v>90.04</v>
+        <v>90.05</v>
       </c>
       <c r="U13" s="25">
-        <v>90.83</v>
+        <v>90.84</v>
       </c>
       <c r="V13" s="25">
-        <v>91.37</v>
+        <v>91.38</v>
       </c>
       <c r="W13" s="25">
-        <v>91.77</v>
+        <v>91.79</v>
       </c>
       <c r="X13" s="25">
-        <v>92.37</v>
+        <v>92.38</v>
       </c>
       <c r="Y13" s="25">
-        <v>93.67</v>
+        <v>93.7</v>
       </c>
       <c r="Z13" s="25">
-        <v>94.45</v>
+        <v>94.48</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.08</v>
+        <v>95.11</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.25</v>
+        <v>96.3</v>
       </c>
       <c r="AC13" s="25">
-        <v>97.97</v>
+        <v>98.14</v>
       </c>
       <c r="AD13" s="25">
-        <v>97.19</v>
+        <v>97.43</v>
       </c>
       <c r="AE13" s="25">
-        <v>96.65</v>
+        <v>96.91</v>
       </c>
       <c r="AF13" s="25">
-        <v>96.43</v>
+        <v>96.76</v>
       </c>
       <c r="AG13" s="25">
-        <v>96.02</v>
+        <v>96.41</v>
       </c>
       <c r="AH13" s="25">
-        <v>95.09</v>
+        <v>95.55</v>
       </c>
       <c r="AI13" s="25">
+        <v>94.8</v>
+      </c>
+      <c r="AJ13" s="25">
+        <v>94.18</v>
+      </c>
+      <c r="AK13" s="25">
+        <v>94.31</v>
+      </c>
+      <c r="AL13" s="25">
         <v>94.33</v>
       </c>
-      <c r="AJ13" s="25">
-        <v>93.67</v>
-      </c>
-      <c r="AK13" s="25">
-        <v>93.74</v>
-      </c>
-      <c r="AL13" s="25">
-        <v>93.7</v>
-      </c>
       <c r="AM13" s="25">
-        <v>93.99</v>
+        <v>94.71</v>
       </c>
       <c r="AN13" s="25">
-        <v>94.07</v>
+        <v>94.84</v>
       </c>
       <c r="AO13" s="25">
-        <v>94.07</v>
+        <v>94.89</v>
       </c>
       <c r="AP13" s="25">
-        <v>93.19</v>
+        <v>94.29</v>
       </c>
       <c r="AQ13" s="25">
-        <v>92.02</v>
+        <v>93.65</v>
       </c>
       <c r="AR13" s="25">
-        <v>91.37</v>
+        <v>93.53</v>
       </c>
       <c r="AS13" s="25">
-        <v>90.59</v>
+        <v>93.38</v>
       </c>
       <c r="AT13" s="25">
-        <v>90.57</v>
-      </c>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
+        <v>93.58</v>
+      </c>
+      <c r="AU13" s="25">
+        <v>91.71</v>
+      </c>
+      <c r="AV13" s="25">
+        <v>91.09</v>
+      </c>
       <c r="AW13" s="25"/>
       <c r="AX13" s="25"/>
       <c r="AY13" s="25"/>
@@ -3031,145 +3063,149 @@
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="25">
         <v>90.35</v>
       </c>
       <c r="D14" s="25">
-        <v>93.34</v>
+        <v>93.35</v>
       </c>
       <c r="E14" s="25">
-        <v>95.6</v>
+        <v>95.61</v>
       </c>
       <c r="F14" s="25">
-        <v>96.65</v>
+        <v>96.66</v>
       </c>
       <c r="G14" s="25">
-        <v>97.46</v>
+        <v>97.48</v>
       </c>
       <c r="H14" s="25">
-        <v>99.07</v>
+        <v>99.08</v>
       </c>
       <c r="I14" s="25">
-        <v>99.2</v>
+        <v>99.22</v>
       </c>
       <c r="J14" s="25">
-        <v>99.71</v>
+        <v>99.72</v>
       </c>
       <c r="K14" s="25">
         <v>99.87</v>
       </c>
       <c r="L14" s="25">
-        <v>100.05</v>
+        <v>100.06</v>
       </c>
       <c r="M14" s="25">
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.94</v>
+        <v>98.91</v>
       </c>
       <c r="O14" s="25">
-        <v>94.6</v>
+        <v>94.49</v>
       </c>
       <c r="P14" s="25">
-        <v>90.75</v>
+        <v>90.68</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.71</v>
+        <v>88.68</v>
       </c>
       <c r="R14" s="25">
-        <v>87.45</v>
+        <v>87.46</v>
       </c>
       <c r="S14" s="25">
-        <v>87.95</v>
+        <v>87.97</v>
       </c>
       <c r="T14" s="25">
-        <v>88.55</v>
+        <v>88.57</v>
       </c>
       <c r="U14" s="25">
-        <v>88.67</v>
+        <v>88.68</v>
       </c>
       <c r="V14" s="25">
-        <v>89.13</v>
+        <v>89.15</v>
       </c>
       <c r="W14" s="25">
-        <v>89.32</v>
+        <v>89.33</v>
       </c>
       <c r="X14" s="25">
-        <v>89.83</v>
+        <v>89.84</v>
       </c>
       <c r="Y14" s="25">
-        <v>90.32</v>
+        <v>90.34</v>
       </c>
       <c r="Z14" s="25">
-        <v>91.16</v>
+        <v>91.17</v>
       </c>
       <c r="AA14" s="25">
-        <v>91.34</v>
+        <v>91.33</v>
       </c>
       <c r="AB14" s="25">
         <v>91.28</v>
       </c>
       <c r="AC14" s="25">
-        <v>91.72</v>
+        <v>91.71</v>
       </c>
       <c r="AD14" s="25">
-        <v>90.72</v>
+        <v>90.66</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.13</v>
+        <v>90.04</v>
       </c>
       <c r="AF14" s="25">
         <v>90.53</v>
       </c>
       <c r="AG14" s="25">
-        <v>90.42</v>
+        <v>90.43</v>
       </c>
       <c r="AH14" s="25">
         <v>89.27</v>
       </c>
       <c r="AI14" s="25">
-        <v>88.52</v>
+        <v>88.5</v>
       </c>
       <c r="AJ14" s="25">
         <v>87.94</v>
       </c>
       <c r="AK14" s="25">
-        <v>87.94</v>
+        <v>87.97</v>
       </c>
       <c r="AL14" s="25">
-        <v>88.36</v>
+        <v>88.39</v>
       </c>
       <c r="AM14" s="25">
-        <v>89.05</v>
+        <v>89.06</v>
       </c>
       <c r="AN14" s="25">
-        <v>89.33</v>
+        <v>89.32</v>
       </c>
       <c r="AO14" s="25">
-        <v>89.08</v>
+        <v>89.18</v>
       </c>
       <c r="AP14" s="25">
-        <v>88.46</v>
+        <v>88.57</v>
       </c>
       <c r="AQ14" s="25">
-        <v>88.57</v>
+        <v>88.73</v>
       </c>
       <c r="AR14" s="25">
-        <v>89.47</v>
+        <v>89.92</v>
       </c>
       <c r="AS14" s="25">
-        <v>89.8</v>
+        <v>90.56</v>
       </c>
       <c r="AT14" s="25">
-        <v>90.75</v>
-      </c>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
+        <v>91.36</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>91.18</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>91.73</v>
+      </c>
       <c r="AW14" s="25"/>
       <c r="AX14" s="25"/>
       <c r="AY14" s="25"/>
@@ -3203,10 +3239,10 @@
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="25">
         <v>95.77</v>
@@ -3230,7 +3266,7 @@
         <v>98.92</v>
       </c>
       <c r="J15" s="25">
-        <v>99.27</v>
+        <v>99.28</v>
       </c>
       <c r="K15" s="25">
         <v>99.5</v>
@@ -3242,106 +3278,110 @@
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>99</v>
+        <v>98.99</v>
       </c>
       <c r="O15" s="25">
-        <v>97.5</v>
+        <v>97.46</v>
       </c>
       <c r="P15" s="25">
-        <v>95.24</v>
+        <v>95.2</v>
       </c>
       <c r="Q15" s="25">
-        <v>94.38</v>
+        <v>94.35</v>
       </c>
       <c r="R15" s="25">
         <v>94.44</v>
       </c>
       <c r="S15" s="25">
-        <v>95.01</v>
+        <v>95</v>
       </c>
       <c r="T15" s="25">
-        <v>94.45</v>
+        <v>94.44</v>
       </c>
       <c r="U15" s="25">
-        <v>94.38</v>
+        <v>94.37</v>
       </c>
       <c r="V15" s="25">
-        <v>94.27</v>
+        <v>94.22</v>
       </c>
       <c r="W15" s="25">
-        <v>94.27</v>
+        <v>94.26</v>
       </c>
       <c r="X15" s="25">
-        <v>95.01</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="25">
         <v>95.86</v>
       </c>
       <c r="Z15" s="25">
-        <v>97.15</v>
+        <v>97.14</v>
       </c>
       <c r="AA15" s="25">
-        <v>97.2</v>
+        <v>97.17</v>
       </c>
       <c r="AB15" s="25">
-        <v>95.76</v>
+        <v>95.72</v>
       </c>
       <c r="AC15" s="25">
-        <v>96.31</v>
+        <v>96.25</v>
       </c>
       <c r="AD15" s="25">
-        <v>97.09</v>
+        <v>97.01</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.97</v>
+        <v>96.87</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.08</v>
+        <v>95.98</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.1</v>
+        <v>96.02</v>
       </c>
       <c r="AH15" s="25">
-        <v>95.63</v>
+        <v>95.55</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.15</v>
+        <v>95.06</v>
       </c>
       <c r="AJ15" s="25">
-        <v>94.89</v>
+        <v>94.8</v>
       </c>
       <c r="AK15" s="25">
-        <v>94.94</v>
+        <v>94.87</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.07</v>
+        <v>95</v>
       </c>
       <c r="AM15" s="25">
-        <v>95.2</v>
+        <v>95.12</v>
       </c>
       <c r="AN15" s="25">
-        <v>95.26</v>
+        <v>95.11</v>
       </c>
       <c r="AO15" s="25">
-        <v>95.25</v>
+        <v>95.03</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.8</v>
+        <v>94.47</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.39</v>
+        <v>94.98</v>
       </c>
       <c r="AR15" s="25">
+        <v>95.47</v>
+      </c>
+      <c r="AS15" s="25">
         <v>95.74</v>
       </c>
-      <c r="AS15" s="25">
-        <v>96.18</v>
-      </c>
       <c r="AT15" s="25">
-        <v>97.34</v>
-      </c>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
+        <v>95.9</v>
+      </c>
+      <c r="AU15" s="25">
+        <v>96.34</v>
+      </c>
+      <c r="AV15" s="25">
+        <v>97.84</v>
+      </c>
       <c r="AW15" s="25"/>
       <c r="AX15" s="25"/>
       <c r="AY15" s="25"/>
@@ -3375,16 +3415,16 @@
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25">
         <v>86.23</v>
       </c>
       <c r="D16" s="25">
-        <v>92.3</v>
+        <v>92.29</v>
       </c>
       <c r="E16" s="25">
         <v>95.15</v>
@@ -3393,13 +3433,13 @@
         <v>96.24</v>
       </c>
       <c r="G16" s="25">
-        <v>96.94</v>
+        <v>96.93</v>
       </c>
       <c r="H16" s="25">
         <v>97.7</v>
       </c>
       <c r="I16" s="25">
-        <v>97.94</v>
+        <v>97.93</v>
       </c>
       <c r="J16" s="25">
         <v>98.5</v>
@@ -3414,106 +3454,110 @@
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>99.32</v>
+        <v>99.31</v>
       </c>
       <c r="O16" s="25">
-        <v>95.52</v>
+        <v>95.51</v>
       </c>
       <c r="P16" s="25">
-        <v>92.06</v>
+        <v>92.05</v>
       </c>
       <c r="Q16" s="25">
         <v>89.37</v>
       </c>
       <c r="R16" s="25">
-        <v>88.82</v>
+        <v>88.84</v>
       </c>
       <c r="S16" s="25">
-        <v>89.54</v>
+        <v>89.55</v>
       </c>
       <c r="T16" s="25">
         <v>90.57</v>
       </c>
       <c r="U16" s="25">
-        <v>91.67</v>
+        <v>91.68</v>
       </c>
       <c r="V16" s="25">
-        <v>92.58</v>
+        <v>92.59</v>
       </c>
       <c r="W16" s="25">
-        <v>93.25</v>
+        <v>93.26</v>
       </c>
       <c r="X16" s="25">
-        <v>93.51</v>
+        <v>93.52</v>
       </c>
       <c r="Y16" s="25">
-        <v>94.68</v>
+        <v>94.71</v>
       </c>
       <c r="Z16" s="25">
-        <v>95.54</v>
+        <v>95.57</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.3</v>
+        <v>96.33</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.61</v>
+        <v>97.65</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.36</v>
+        <v>99.5</v>
       </c>
       <c r="AD16" s="25">
-        <v>99.37</v>
+        <v>99.64</v>
       </c>
       <c r="AE16" s="25">
-        <v>99.71</v>
+        <v>100</v>
       </c>
       <c r="AF16" s="25">
-        <v>100.02</v>
+        <v>100.34</v>
       </c>
       <c r="AG16" s="25">
-        <v>100.2</v>
+        <v>100.52</v>
       </c>
       <c r="AH16" s="25">
-        <v>100.48</v>
+        <v>100.85</v>
       </c>
       <c r="AI16" s="25">
-        <v>100.54</v>
+        <v>100.9</v>
       </c>
       <c r="AJ16" s="25">
-        <v>100.83</v>
+        <v>101.21</v>
       </c>
       <c r="AK16" s="25">
-        <v>101.04</v>
+        <v>101.44</v>
       </c>
       <c r="AL16" s="25">
-        <v>101.2</v>
+        <v>101.63</v>
       </c>
       <c r="AM16" s="25">
-        <v>101.74</v>
+        <v>102.29</v>
       </c>
       <c r="AN16" s="25">
-        <v>101.63</v>
+        <v>102.24</v>
       </c>
       <c r="AO16" s="25">
-        <v>101.17</v>
+        <v>101.82</v>
       </c>
       <c r="AP16" s="25">
-        <v>100.16</v>
+        <v>101.03</v>
       </c>
       <c r="AQ16" s="25">
+        <v>100.37</v>
+      </c>
+      <c r="AR16" s="25">
+        <v>99.8</v>
+      </c>
+      <c r="AS16" s="25">
+        <v>99.55</v>
+      </c>
+      <c r="AT16" s="25">
         <v>99.01</v>
       </c>
-      <c r="AR16" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AS16" s="25">
-        <v>96.97</v>
-      </c>
-      <c r="AT16" s="25">
-        <v>96.65</v>
-      </c>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
+      <c r="AU16" s="25">
+        <v>97.27</v>
+      </c>
+      <c r="AV16" s="25">
+        <v>96.72</v>
+      </c>
       <c r="AW16" s="25"/>
       <c r="AX16" s="25"/>
       <c r="AY16" s="25"/>
@@ -3547,10 +3591,10 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="25">
         <v>91.56</v>
@@ -3559,7 +3603,7 @@
         <v>95.9</v>
       </c>
       <c r="E17" s="25">
-        <v>97.88</v>
+        <v>97.87</v>
       </c>
       <c r="F17" s="25">
         <v>98.59</v>
@@ -3568,40 +3612,40 @@
         <v>98.95</v>
       </c>
       <c r="H17" s="25">
-        <v>99.22</v>
+        <v>99.23</v>
       </c>
       <c r="I17" s="25">
         <v>99.66</v>
       </c>
       <c r="J17" s="25">
-        <v>99.76</v>
+        <v>99.77</v>
       </c>
       <c r="K17" s="25">
-        <v>100.19</v>
+        <v>100.18</v>
       </c>
       <c r="L17" s="25">
-        <v>100.25</v>
+        <v>100.26</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
       </c>
       <c r="N17" s="25">
-        <v>98.75</v>
+        <v>98.74</v>
       </c>
       <c r="O17" s="25">
-        <v>94.12</v>
+        <v>94.09</v>
       </c>
       <c r="P17" s="25">
-        <v>90.37</v>
+        <v>90.35</v>
       </c>
       <c r="Q17" s="25">
         <v>87.99</v>
       </c>
       <c r="R17" s="25">
-        <v>87.53</v>
+        <v>87.52</v>
       </c>
       <c r="S17" s="25">
-        <v>88.73</v>
+        <v>88.72</v>
       </c>
       <c r="T17" s="25">
         <v>89.01</v>
@@ -3610,82 +3654,86 @@
         <v>89.69</v>
       </c>
       <c r="V17" s="25">
-        <v>90.22</v>
+        <v>90.23</v>
       </c>
       <c r="W17" s="25">
-        <v>90.41</v>
+        <v>90.42</v>
       </c>
       <c r="X17" s="25">
-        <v>90.78</v>
+        <v>90.79</v>
       </c>
       <c r="Y17" s="25">
-        <v>91.82</v>
+        <v>91.83</v>
       </c>
       <c r="Z17" s="25">
-        <v>92.75</v>
+        <v>92.76</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.35</v>
+        <v>93.36</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.37</v>
+        <v>93.38</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.04</v>
+        <v>94.06</v>
       </c>
       <c r="AD17" s="25">
-        <v>94.66</v>
+        <v>94.71</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.34</v>
+        <v>95.37</v>
       </c>
       <c r="AF17" s="25">
-        <v>95.71</v>
+        <v>95.77</v>
       </c>
       <c r="AG17" s="25">
         <v>95.78</v>
       </c>
       <c r="AH17" s="25">
-        <v>95.9</v>
+        <v>95.86</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.04</v>
+        <v>95.93</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.23</v>
+        <v>96.15</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.32</v>
+        <v>96.3</v>
       </c>
       <c r="AL17" s="25">
-        <v>96.64</v>
+        <v>96.54</v>
       </c>
       <c r="AM17" s="25">
-        <v>97.41</v>
+        <v>97.4</v>
       </c>
       <c r="AN17" s="25">
-        <v>97.48</v>
+        <v>97.47</v>
       </c>
       <c r="AO17" s="25">
-        <v>96.93</v>
+        <v>96.97</v>
       </c>
       <c r="AP17" s="25">
-        <v>96.39</v>
+        <v>96.33</v>
       </c>
       <c r="AQ17" s="25">
-        <v>96.55</v>
+        <v>96.54</v>
       </c>
       <c r="AR17" s="25">
-        <v>96.7</v>
+        <v>97.1</v>
       </c>
       <c r="AS17" s="25">
-        <v>96.59</v>
+        <v>97.37</v>
       </c>
       <c r="AT17" s="25">
-        <v>96.76</v>
-      </c>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25"/>
+        <v>97.16</v>
+      </c>
+      <c r="AU17" s="25">
+        <v>97.07</v>
+      </c>
+      <c r="AV17" s="25">
+        <v>97.43</v>
+      </c>
       <c r="AW17" s="25"/>
       <c r="AX17" s="25"/>
       <c r="AY17" s="25"/>
@@ -3719,19 +3767,19 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="25">
-        <v>95.9</v>
+        <v>95.89</v>
       </c>
       <c r="D18" s="25">
-        <v>97.2</v>
+        <v>97.19</v>
       </c>
       <c r="E18" s="25">
-        <v>97.76</v>
+        <v>97.75</v>
       </c>
       <c r="F18" s="25">
         <v>98.26</v>
@@ -3740,124 +3788,128 @@
         <v>98.23</v>
       </c>
       <c r="H18" s="25">
-        <v>98.7</v>
+        <v>98.69</v>
       </c>
       <c r="I18" s="25">
         <v>99.49</v>
       </c>
       <c r="J18" s="25">
-        <v>99.6</v>
+        <v>99.59</v>
       </c>
       <c r="K18" s="25">
-        <v>98.72</v>
+        <v>98.71</v>
       </c>
       <c r="L18" s="25">
-        <v>99.44</v>
+        <v>99.43</v>
       </c>
       <c r="M18" s="25">
         <v>100</v>
       </c>
       <c r="N18" s="25">
-        <v>100.1</v>
+        <v>100.09</v>
       </c>
       <c r="O18" s="25">
-        <v>97.67</v>
+        <v>97.65</v>
       </c>
       <c r="P18" s="25">
-        <v>96.25</v>
+        <v>96.23</v>
       </c>
       <c r="Q18" s="25">
-        <v>94.48</v>
+        <v>94.47</v>
       </c>
       <c r="R18" s="25">
-        <v>94.52</v>
+        <v>94.51</v>
       </c>
       <c r="S18" s="25">
-        <v>94.82</v>
+        <v>94.81</v>
       </c>
       <c r="T18" s="25">
-        <v>95.11</v>
+        <v>95.1</v>
       </c>
       <c r="U18" s="25">
-        <v>95.54</v>
+        <v>95.53</v>
       </c>
       <c r="V18" s="25">
         <v>95.97</v>
       </c>
       <c r="W18" s="25">
-        <v>95.88</v>
+        <v>95.87</v>
       </c>
       <c r="X18" s="25">
-        <v>96.07</v>
+        <v>96.06</v>
       </c>
       <c r="Y18" s="25">
-        <v>96.58</v>
+        <v>96.54</v>
       </c>
       <c r="Z18" s="25">
-        <v>96.82</v>
+        <v>96.79</v>
       </c>
       <c r="AA18" s="25">
-        <v>96.42</v>
+        <v>96.39</v>
       </c>
       <c r="AB18" s="25">
-        <v>95.96</v>
+        <v>95.93</v>
       </c>
       <c r="AC18" s="25">
-        <v>96.29</v>
+        <v>96.27</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.16</v>
+        <v>97.14</v>
       </c>
       <c r="AE18" s="25">
+        <v>97.22</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AG18" s="25">
         <v>97.3</v>
       </c>
-      <c r="AF18" s="25">
-        <v>97.76</v>
-      </c>
-      <c r="AG18" s="25">
+      <c r="AH18" s="25">
+        <v>97.55</v>
+      </c>
+      <c r="AI18" s="25">
+        <v>97.25</v>
+      </c>
+      <c r="AJ18" s="25">
         <v>97.62</v>
       </c>
-      <c r="AH18" s="25">
-        <v>98.13</v>
-      </c>
-      <c r="AI18" s="25">
-        <v>98.13</v>
-      </c>
-      <c r="AJ18" s="25">
-        <v>98.45</v>
-      </c>
       <c r="AK18" s="25">
+        <v>97.13</v>
+      </c>
+      <c r="AL18" s="25">
+        <v>97.49</v>
+      </c>
+      <c r="AM18" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AN18" s="25">
+        <v>98.19</v>
+      </c>
+      <c r="AO18" s="25">
+        <v>97.53</v>
+      </c>
+      <c r="AP18" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="AQ18" s="25">
+        <v>97.03</v>
+      </c>
+      <c r="AR18" s="25">
+        <v>97.96</v>
+      </c>
+      <c r="AS18" s="25">
         <v>97.79</v>
       </c>
-      <c r="AL18" s="25">
-        <v>98.46</v>
-      </c>
-      <c r="AM18" s="25">
-        <v>98.54</v>
-      </c>
-      <c r="AN18" s="25">
-        <v>98.95</v>
-      </c>
-      <c r="AO18" s="25">
-        <v>98.03</v>
-      </c>
-      <c r="AP18" s="25">
-        <v>97.57</v>
-      </c>
-      <c r="AQ18" s="25">
-        <v>97.51</v>
-      </c>
-      <c r="AR18" s="25">
-        <v>98.43</v>
-      </c>
-      <c r="AS18" s="25">
-        <v>97.59</v>
-      </c>
       <c r="AT18" s="25">
-        <v>99.25</v>
-      </c>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="25"/>
+        <v>98.12</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>99.83</v>
+      </c>
       <c r="AW18" s="25"/>
       <c r="AX18" s="25"/>
       <c r="AY18" s="25"/>
@@ -3891,40 +3943,40 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="25">
-        <v>87.86</v>
+        <v>87.85</v>
       </c>
       <c r="D19" s="25">
-        <v>93</v>
+        <v>93.01</v>
       </c>
       <c r="E19" s="25">
-        <v>95.29</v>
+        <v>95.31</v>
       </c>
       <c r="F19" s="25">
-        <v>96.25</v>
+        <v>96.28</v>
       </c>
       <c r="G19" s="25">
-        <v>96.73</v>
+        <v>96.75</v>
       </c>
       <c r="H19" s="25">
-        <v>97.86</v>
+        <v>97.88</v>
       </c>
       <c r="I19" s="25">
-        <v>98.61</v>
+        <v>98.63</v>
       </c>
       <c r="J19" s="25">
-        <v>98.85</v>
+        <v>98.87</v>
       </c>
       <c r="K19" s="25">
-        <v>99.24</v>
+        <v>99.25</v>
       </c>
       <c r="L19" s="25">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="M19" s="25">
         <v>100</v>
@@ -3933,13 +3985,13 @@
         <v>99.2</v>
       </c>
       <c r="O19" s="25">
-        <v>94.64</v>
+        <v>94.62</v>
       </c>
       <c r="P19" s="25">
-        <v>92.16</v>
+        <v>92.15</v>
       </c>
       <c r="Q19" s="25">
-        <v>90.27</v>
+        <v>90.26</v>
       </c>
       <c r="R19" s="25">
         <v>89.57</v>
@@ -3948,7 +4000,7 @@
         <v>90.24</v>
       </c>
       <c r="T19" s="25">
-        <v>91.31</v>
+        <v>91.3</v>
       </c>
       <c r="U19" s="25">
         <v>92.38</v>
@@ -3966,70 +4018,74 @@
         <v>95.55</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.41</v>
+        <v>96.43</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.05</v>
+        <v>97.07</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.22</v>
+        <v>98.25</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.65</v>
+        <v>99.76</v>
       </c>
       <c r="AD19" s="25">
-        <v>99.82</v>
+        <v>100.03</v>
       </c>
       <c r="AE19" s="25">
-        <v>99.88</v>
+        <v>100.16</v>
       </c>
       <c r="AF19" s="25">
-        <v>100.4</v>
+        <v>100.72</v>
       </c>
       <c r="AG19" s="25">
-        <v>100.77</v>
+        <v>101.1</v>
       </c>
       <c r="AH19" s="25">
-        <v>100.81</v>
+        <v>101.17</v>
       </c>
       <c r="AI19" s="25">
-        <v>100.99</v>
+        <v>101.36</v>
       </c>
       <c r="AJ19" s="25">
-        <v>101.13</v>
+        <v>101.51</v>
       </c>
       <c r="AK19" s="25">
-        <v>101.66</v>
+        <v>102.08</v>
       </c>
       <c r="AL19" s="25">
-        <v>101.91</v>
+        <v>102.38</v>
       </c>
       <c r="AM19" s="25">
-        <v>102.32</v>
+        <v>102.86</v>
       </c>
       <c r="AN19" s="25">
-        <v>102.17</v>
+        <v>102.75</v>
       </c>
       <c r="AO19" s="25">
-        <v>102.23</v>
+        <v>102.86</v>
       </c>
       <c r="AP19" s="25">
-        <v>101.6</v>
+        <v>102.37</v>
       </c>
       <c r="AQ19" s="25">
-        <v>100.34</v>
+        <v>101.48</v>
       </c>
       <c r="AR19" s="25">
-        <v>99.64</v>
+        <v>101.21</v>
       </c>
       <c r="AS19" s="25">
-        <v>98.95</v>
+        <v>100.94</v>
       </c>
       <c r="AT19" s="25">
-        <v>99.11</v>
-      </c>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
+        <v>100.63</v>
+      </c>
+      <c r="AU19" s="25">
+        <v>99.3</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>99.03</v>
+      </c>
       <c r="AW19" s="25"/>
       <c r="AX19" s="25"/>
       <c r="AY19" s="25"/>
@@ -4063,22 +4119,22 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="25">
-        <v>91.67</v>
+        <v>91.68</v>
       </c>
       <c r="D20" s="25">
-        <v>95.21</v>
+        <v>95.22</v>
       </c>
       <c r="E20" s="25">
-        <v>96.92</v>
+        <v>96.93</v>
       </c>
       <c r="F20" s="25">
-        <v>97.71</v>
+        <v>97.72</v>
       </c>
       <c r="G20" s="25">
         <v>97.88</v>
@@ -4096,22 +4152,22 @@
         <v>99.81</v>
       </c>
       <c r="L20" s="25">
-        <v>100.07</v>
+        <v>100.06</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
       </c>
       <c r="N20" s="25">
-        <v>98.55</v>
+        <v>98.53</v>
       </c>
       <c r="O20" s="25">
-        <v>93.55</v>
+        <v>93.52</v>
       </c>
       <c r="P20" s="25">
-        <v>90.13</v>
+        <v>90.11</v>
       </c>
       <c r="Q20" s="25">
-        <v>88.16</v>
+        <v>88.15</v>
       </c>
       <c r="R20" s="25">
         <v>87.91</v>
@@ -4132,10 +4188,10 @@
         <v>91.84</v>
       </c>
       <c r="X20" s="25">
-        <v>92.11</v>
+        <v>92.1</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.64</v>
+        <v>92.63</v>
       </c>
       <c r="Z20" s="25">
         <v>92.78</v>
@@ -4144,64 +4200,68 @@
         <v>92.75</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.53</v>
+        <v>92.54</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.35</v>
+        <v>93.37</v>
       </c>
       <c r="AD20" s="25">
-        <v>93.84</v>
+        <v>93.86</v>
       </c>
       <c r="AE20" s="25">
-        <v>93.8</v>
+        <v>93.83</v>
       </c>
       <c r="AF20" s="25">
-        <v>94.58</v>
+        <v>94.6</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.01</v>
+        <v>95.04</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.18</v>
+        <v>95.22</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.63</v>
+        <v>95.66</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.37</v>
+        <v>95.4</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.62</v>
+        <v>95.69</v>
       </c>
       <c r="AL20" s="25">
-        <v>95.88</v>
+        <v>96.01</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.3</v>
+        <v>96.44</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.49</v>
+        <v>96.61</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.49</v>
+        <v>96.54</v>
       </c>
       <c r="AP20" s="25">
-        <v>96.07</v>
+        <v>96.15</v>
       </c>
       <c r="AQ20" s="25">
-        <v>95.84</v>
+        <v>95.96</v>
       </c>
       <c r="AR20" s="25">
-        <v>96.08</v>
+        <v>96.27</v>
       </c>
       <c r="AS20" s="25">
-        <v>95.98</v>
+        <v>96.53</v>
       </c>
       <c r="AT20" s="25">
-        <v>96.48</v>
-      </c>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25"/>
+        <v>96.84</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>96.61</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>96.88</v>
+      </c>
       <c r="AW20" s="25"/>
       <c r="AX20" s="25"/>
       <c r="AY20" s="25"/>
@@ -4235,10 +4295,10 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="25">
         <v>96.33</v>
@@ -4250,130 +4310,134 @@
         <v>98.13</v>
       </c>
       <c r="F21" s="25">
-        <v>98.56</v>
+        <v>98.55</v>
       </c>
       <c r="G21" s="25">
-        <v>98.31</v>
+        <v>98.3</v>
       </c>
       <c r="H21" s="25">
         <v>99.39</v>
       </c>
       <c r="I21" s="25">
-        <v>100.15</v>
+        <v>100.14</v>
       </c>
       <c r="J21" s="25">
-        <v>99.31</v>
+        <v>99.3</v>
       </c>
       <c r="K21" s="25">
-        <v>98.88</v>
+        <v>98.87</v>
       </c>
       <c r="L21" s="25">
-        <v>99.89</v>
+        <v>99.88</v>
       </c>
       <c r="M21" s="25">
         <v>100</v>
       </c>
       <c r="N21" s="25">
-        <v>99.63</v>
+        <v>99.6</v>
       </c>
       <c r="O21" s="25">
-        <v>98.42</v>
+        <v>98.41</v>
       </c>
       <c r="P21" s="25">
-        <v>96.93</v>
+        <v>96.92</v>
       </c>
       <c r="Q21" s="25">
-        <v>95.69</v>
+        <v>95.67</v>
       </c>
       <c r="R21" s="25">
-        <v>95.43</v>
+        <v>95.42</v>
       </c>
       <c r="S21" s="25">
-        <v>95.22</v>
+        <v>95.2</v>
       </c>
       <c r="T21" s="25">
-        <v>95.46</v>
+        <v>95.44</v>
       </c>
       <c r="U21" s="25">
-        <v>95.77</v>
+        <v>95.75</v>
       </c>
       <c r="V21" s="25">
-        <v>96.44</v>
+        <v>96.43</v>
       </c>
       <c r="W21" s="25">
-        <v>96.63</v>
+        <v>96.61</v>
       </c>
       <c r="X21" s="25">
-        <v>97.09</v>
+        <v>97.08</v>
       </c>
       <c r="Y21" s="25">
-        <v>97.48</v>
+        <v>97.46</v>
       </c>
       <c r="Z21" s="25">
-        <v>97.32</v>
+        <v>97.31</v>
       </c>
       <c r="AA21" s="25">
-        <v>96.32</v>
+        <v>96.3</v>
       </c>
       <c r="AB21" s="25">
-        <v>94.76</v>
+        <v>94.65</v>
       </c>
       <c r="AC21" s="25">
-        <v>95.22</v>
+        <v>95.13</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.47</v>
+        <v>96.45</v>
       </c>
       <c r="AE21" s="25">
-        <v>97.36</v>
+        <v>97.33</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.51</v>
+        <v>97.49</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.03</v>
+        <v>97</v>
       </c>
       <c r="AH21" s="25">
-        <v>97.62</v>
+        <v>97.57</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.81</v>
+        <v>97.76</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.45</v>
+        <v>98.4</v>
       </c>
       <c r="AK21" s="25">
-        <v>98.18</v>
+        <v>98.12</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.35</v>
+        <v>98.31</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.73</v>
+        <v>98.67</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.98</v>
+        <v>98.91</v>
       </c>
       <c r="AO21" s="25">
-        <v>99.08</v>
+        <v>98.97</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.83</v>
+        <v>98.63</v>
       </c>
       <c r="AQ21" s="25">
-        <v>99.44</v>
+        <v>99.22</v>
       </c>
       <c r="AR21" s="25">
-        <v>99.84</v>
+        <v>99.6</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.75</v>
+        <v>99.36</v>
       </c>
       <c r="AT21" s="25">
-        <v>100.62</v>
-      </c>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25"/>
+        <v>98.86</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>99.22</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>100.44</v>
+      </c>
       <c r="AW21" s="25"/>
       <c r="AX21" s="25"/>
       <c r="AY21" s="25"/>
@@ -4407,34 +4471,34 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="25">
-        <v>89.28</v>
+        <v>89.3</v>
       </c>
       <c r="D22" s="25">
-        <v>93.96</v>
+        <v>93.98</v>
       </c>
       <c r="E22" s="25">
-        <v>95.45</v>
+        <v>95.47</v>
       </c>
       <c r="F22" s="25">
-        <v>95.39</v>
+        <v>95.41</v>
       </c>
       <c r="G22" s="25">
-        <v>95.5</v>
+        <v>95.51</v>
       </c>
       <c r="H22" s="25">
-        <v>97.1</v>
+        <v>97.12</v>
       </c>
       <c r="I22" s="25">
-        <v>97.63</v>
+        <v>97.64</v>
       </c>
       <c r="J22" s="25">
-        <v>98</v>
+        <v>98.02</v>
       </c>
       <c r="K22" s="25">
         <v>98.62</v>
@@ -4446,106 +4510,110 @@
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>99.14</v>
+        <v>99.13</v>
       </c>
       <c r="O22" s="25">
-        <v>95.19</v>
+        <v>95.17</v>
       </c>
       <c r="P22" s="25">
-        <v>91.71</v>
+        <v>91.7</v>
       </c>
       <c r="Q22" s="25">
-        <v>89</v>
+        <v>89.01</v>
       </c>
       <c r="R22" s="25">
-        <v>88.14</v>
+        <v>88.15</v>
       </c>
       <c r="S22" s="25">
-        <v>88.48</v>
+        <v>88.5</v>
       </c>
       <c r="T22" s="25">
-        <v>89.6</v>
+        <v>89.62</v>
       </c>
       <c r="U22" s="25">
-        <v>90.77</v>
+        <v>90.8</v>
       </c>
       <c r="V22" s="25">
-        <v>91.7</v>
+        <v>91.73</v>
       </c>
       <c r="W22" s="25">
-        <v>92.74</v>
+        <v>92.76</v>
       </c>
       <c r="X22" s="25">
-        <v>93.32</v>
+        <v>93.35</v>
       </c>
       <c r="Y22" s="25">
-        <v>94.41</v>
+        <v>94.44</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.1</v>
+        <v>96.13</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.02</v>
+        <v>97.05</v>
       </c>
       <c r="AB22" s="25">
-        <v>97.83</v>
+        <v>97.89</v>
       </c>
       <c r="AC22" s="25">
-        <v>99.61</v>
+        <v>99.77</v>
       </c>
       <c r="AD22" s="25">
-        <v>99.66</v>
+        <v>99.89</v>
       </c>
       <c r="AE22" s="25">
-        <v>99.68</v>
+        <v>99.91</v>
       </c>
       <c r="AF22" s="25">
-        <v>100.46</v>
+        <v>100.7</v>
       </c>
       <c r="AG22" s="25">
-        <v>100.61</v>
+        <v>100.9</v>
       </c>
       <c r="AH22" s="25">
-        <v>100.84</v>
+        <v>101.17</v>
       </c>
       <c r="AI22" s="25">
-        <v>101.17</v>
+        <v>101.53</v>
       </c>
       <c r="AJ22" s="25">
-        <v>101.45</v>
+        <v>101.84</v>
       </c>
       <c r="AK22" s="25">
-        <v>101.78</v>
+        <v>102.18</v>
       </c>
       <c r="AL22" s="25">
+        <v>102.58</v>
+      </c>
+      <c r="AM22" s="25">
+        <v>103.21</v>
+      </c>
+      <c r="AN22" s="25">
+        <v>103.22</v>
+      </c>
+      <c r="AO22" s="25">
+        <v>103.19</v>
+      </c>
+      <c r="AP22" s="25">
         <v>102.14</v>
       </c>
-      <c r="AM22" s="25">
-        <v>102.73</v>
-      </c>
-      <c r="AN22" s="25">
-        <v>102.69</v>
-      </c>
-      <c r="AO22" s="25">
-        <v>102.66</v>
-      </c>
-      <c r="AP22" s="25">
-        <v>101.47</v>
-      </c>
       <c r="AQ22" s="25">
-        <v>100.18</v>
+        <v>101.27</v>
       </c>
       <c r="AR22" s="25">
-        <v>99.61</v>
+        <v>101.29</v>
       </c>
       <c r="AS22" s="25">
-        <v>99.14</v>
+        <v>101.42</v>
       </c>
       <c r="AT22" s="25">
-        <v>98.44</v>
-      </c>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
+        <v>100.77</v>
+      </c>
+      <c r="AU22" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="AV22" s="25">
+        <v>98.05</v>
+      </c>
       <c r="AW22" s="25"/>
       <c r="AX22" s="25"/>
       <c r="AY22" s="25"/>
@@ -4579,37 +4647,37 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="25">
-        <v>95.48</v>
+        <v>95.49</v>
       </c>
       <c r="D23" s="25">
         <v>98.67</v>
       </c>
       <c r="E23" s="25">
+        <v>99.37</v>
+      </c>
+      <c r="F23" s="25">
+        <v>99.08</v>
+      </c>
+      <c r="G23" s="25">
+        <v>98.32</v>
+      </c>
+      <c r="H23" s="25">
         <v>99.36</v>
       </c>
-      <c r="F23" s="25">
-        <v>99.07</v>
-      </c>
-      <c r="G23" s="25">
-        <v>98.31</v>
-      </c>
-      <c r="H23" s="25">
-        <v>99.34</v>
-      </c>
       <c r="I23" s="25">
-        <v>100.08</v>
+        <v>100.1</v>
       </c>
       <c r="J23" s="25">
-        <v>100.03</v>
+        <v>100.05</v>
       </c>
       <c r="K23" s="25">
-        <v>100.26</v>
+        <v>100.28</v>
       </c>
       <c r="L23" s="25">
         <v>99.96</v>
@@ -4618,106 +4686,110 @@
         <v>100</v>
       </c>
       <c r="N23" s="25">
-        <v>98.96</v>
+        <v>98.94</v>
       </c>
       <c r="O23" s="25">
-        <v>94.41</v>
+        <v>94.39</v>
       </c>
       <c r="P23" s="25">
-        <v>91.09</v>
+        <v>91.07</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.28</v>
+        <v>89.27</v>
       </c>
       <c r="R23" s="25">
-        <v>88.17</v>
+        <v>88.18</v>
       </c>
       <c r="S23" s="25">
-        <v>88.3</v>
+        <v>88.31</v>
       </c>
       <c r="T23" s="25">
-        <v>89.01</v>
+        <v>89.02</v>
       </c>
       <c r="U23" s="25">
-        <v>89.78</v>
+        <v>89.79</v>
       </c>
       <c r="V23" s="25">
-        <v>90.64</v>
+        <v>90.65</v>
       </c>
       <c r="W23" s="25">
-        <v>90.98</v>
+        <v>90.99</v>
       </c>
       <c r="X23" s="25">
-        <v>91.4</v>
+        <v>91.41</v>
       </c>
       <c r="Y23" s="25">
-        <v>92.46</v>
+        <v>92.49</v>
       </c>
       <c r="Z23" s="25">
-        <v>93.64</v>
+        <v>93.66</v>
       </c>
       <c r="AA23" s="25">
-        <v>94.23</v>
+        <v>94.25</v>
       </c>
       <c r="AB23" s="25">
-        <v>93.82</v>
+        <v>93.84</v>
       </c>
       <c r="AC23" s="25">
-        <v>94.96</v>
+        <v>94.93</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.24</v>
+        <v>96.2</v>
       </c>
       <c r="AE23" s="25">
         <v>96.16</v>
       </c>
       <c r="AF23" s="25">
-        <v>96.57</v>
+        <v>96.56</v>
       </c>
       <c r="AG23" s="25">
-        <v>97.09</v>
+        <v>97.11</v>
       </c>
       <c r="AH23" s="25">
-        <v>97.02</v>
+        <v>97.1</v>
       </c>
       <c r="AI23" s="25">
-        <v>97.23</v>
+        <v>97.31</v>
       </c>
       <c r="AJ23" s="25">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="AK23" s="25">
-        <v>97.75</v>
+        <v>97.81</v>
       </c>
       <c r="AL23" s="25">
-        <v>97.94</v>
+        <v>98</v>
       </c>
       <c r="AM23" s="25">
-        <v>98.55</v>
+        <v>98.62</v>
       </c>
       <c r="AN23" s="25">
-        <v>98.42</v>
+        <v>98.49</v>
       </c>
       <c r="AO23" s="25">
-        <v>98.47</v>
+        <v>98.49</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.15</v>
+        <v>98.16</v>
       </c>
       <c r="AQ23" s="25">
-        <v>98.09</v>
+        <v>98.21</v>
       </c>
       <c r="AR23" s="25">
-        <v>98.49</v>
+        <v>98.72</v>
       </c>
       <c r="AS23" s="25">
-        <v>98.61</v>
+        <v>99.02</v>
       </c>
       <c r="AT23" s="25">
-        <v>98.35</v>
-      </c>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
+        <v>99</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>98.39</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>97.87</v>
+      </c>
       <c r="AW23" s="25"/>
       <c r="AX23" s="25"/>
       <c r="AY23" s="25"/>
@@ -4751,34 +4823,34 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="25">
-        <v>95.92</v>
+        <v>95.91</v>
       </c>
       <c r="D24" s="25">
         <v>97.02</v>
       </c>
       <c r="E24" s="25">
-        <v>98.05</v>
+        <v>98.04</v>
       </c>
       <c r="F24" s="25">
-        <v>98.74</v>
+        <v>98.73</v>
       </c>
       <c r="G24" s="25">
         <v>98.97</v>
       </c>
       <c r="H24" s="25">
-        <v>99.69</v>
+        <v>99.68</v>
       </c>
       <c r="I24" s="25">
-        <v>100.44</v>
+        <v>100.43</v>
       </c>
       <c r="J24" s="25">
-        <v>99.79</v>
+        <v>99.78</v>
       </c>
       <c r="K24" s="25">
         <v>98.8</v>
@@ -4793,10 +4865,10 @@
         <v>99.58</v>
       </c>
       <c r="O24" s="25">
-        <v>98.05</v>
+        <v>98.04</v>
       </c>
       <c r="P24" s="25">
-        <v>95.98</v>
+        <v>95.97</v>
       </c>
       <c r="Q24" s="25">
         <v>94.82</v>
@@ -4811,16 +4883,16 @@
         <v>95.16</v>
       </c>
       <c r="U24" s="25">
-        <v>95.68</v>
+        <v>95.67</v>
       </c>
       <c r="V24" s="25">
         <v>96.07</v>
       </c>
       <c r="W24" s="25">
-        <v>96.37</v>
+        <v>96.36</v>
       </c>
       <c r="X24" s="25">
-        <v>96.6</v>
+        <v>96.59</v>
       </c>
       <c r="Y24" s="25">
         <v>97.54</v>
@@ -4835,61 +4907,65 @@
         <v>97.38</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.66</v>
+        <v>98.6</v>
       </c>
       <c r="AD24" s="25">
+        <v>99.18</v>
+      </c>
+      <c r="AE24" s="25">
+        <v>98.69</v>
+      </c>
+      <c r="AF24" s="25">
+        <v>98.52</v>
+      </c>
+      <c r="AG24" s="25">
+        <v>99.12</v>
+      </c>
+      <c r="AH24" s="25">
+        <v>99.05</v>
+      </c>
+      <c r="AI24" s="25">
+        <v>99.22</v>
+      </c>
+      <c r="AJ24" s="25">
+        <v>99.12</v>
+      </c>
+      <c r="AK24" s="25">
+        <v>99.24</v>
+      </c>
+      <c r="AL24" s="25">
+        <v>99.03</v>
+      </c>
+      <c r="AM24" s="25">
         <v>99.26</v>
       </c>
-      <c r="AE24" s="25">
-        <v>98.73</v>
-      </c>
-      <c r="AF24" s="25">
-        <v>98.57</v>
-      </c>
-      <c r="AG24" s="25">
-        <v>99.08</v>
-      </c>
-      <c r="AH24" s="25">
-        <v>99.01</v>
-      </c>
-      <c r="AI24" s="25">
-        <v>99.19</v>
-      </c>
-      <c r="AJ24" s="25">
-        <v>99.1</v>
-      </c>
-      <c r="AK24" s="25">
-        <v>99.28</v>
-      </c>
-      <c r="AL24" s="25">
-        <v>99.09</v>
-      </c>
-      <c r="AM24" s="25">
-        <v>99.34</v>
-      </c>
       <c r="AN24" s="25">
-        <v>99.53</v>
+        <v>99.4</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.45</v>
+        <v>99.27</v>
       </c>
       <c r="AP24" s="25">
-        <v>99.1</v>
+        <v>98.9</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.78</v>
+        <v>98.51</v>
       </c>
       <c r="AR24" s="25">
-        <v>99.17</v>
+        <v>98.84</v>
       </c>
       <c r="AS24" s="25">
-        <v>99.72</v>
+        <v>99.18</v>
       </c>
       <c r="AT24" s="25">
-        <v>100.58</v>
-      </c>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
+        <v>99.48</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>100.04</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>101.09</v>
+      </c>
       <c r="AW24" s="25"/>
       <c r="AX24" s="25"/>
       <c r="AY24" s="25"/>
@@ -4923,37 +4999,37 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="25">
         <v>91.39</v>
       </c>
       <c r="D25" s="25">
-        <v>95.68</v>
+        <v>95.7</v>
       </c>
       <c r="E25" s="25">
-        <v>97.51</v>
+        <v>97.53</v>
       </c>
       <c r="F25" s="25">
         <v>98.06</v>
       </c>
       <c r="G25" s="25">
-        <v>98.45</v>
+        <v>98.44</v>
       </c>
       <c r="H25" s="25">
-        <v>99.34</v>
+        <v>99.32</v>
       </c>
       <c r="I25" s="25">
-        <v>99.51</v>
+        <v>99.5</v>
       </c>
       <c r="J25" s="25">
-        <v>99.62</v>
+        <v>99.59</v>
       </c>
       <c r="K25" s="25">
-        <v>99.7</v>
+        <v>99.68</v>
       </c>
       <c r="L25" s="25">
         <v>99.69</v>
@@ -4962,106 +5038,110 @@
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>99.33</v>
+        <v>99.32</v>
       </c>
       <c r="O25" s="25">
-        <v>94.62</v>
+        <v>94.59</v>
       </c>
       <c r="P25" s="25">
-        <v>91.02</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="25">
-        <v>88.41</v>
+        <v>88.36</v>
       </c>
       <c r="R25" s="25">
-        <v>87.42</v>
+        <v>87.38</v>
       </c>
       <c r="S25" s="25">
-        <v>87.71</v>
+        <v>87.7</v>
       </c>
       <c r="T25" s="25">
-        <v>88.5</v>
+        <v>88.48</v>
       </c>
       <c r="U25" s="25">
-        <v>89.26</v>
+        <v>89.24</v>
       </c>
       <c r="V25" s="25">
-        <v>89.6</v>
+        <v>89.58</v>
       </c>
       <c r="W25" s="25">
-        <v>90.24</v>
+        <v>90.22</v>
       </c>
       <c r="X25" s="25">
-        <v>90.66</v>
+        <v>90.64</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.56</v>
+        <v>91.54</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.5</v>
+        <v>92.48</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.19</v>
+        <v>93.18</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.31</v>
+        <v>94.32</v>
       </c>
       <c r="AC25" s="25">
-        <v>95.07</v>
+        <v>95.18</v>
       </c>
       <c r="AD25" s="25">
-        <v>95.12</v>
+        <v>95.27</v>
       </c>
       <c r="AE25" s="25">
-        <v>95.33</v>
+        <v>95.41</v>
       </c>
       <c r="AF25" s="25">
-        <v>95.7</v>
+        <v>95.81</v>
       </c>
       <c r="AG25" s="25">
         <v>96.02</v>
       </c>
       <c r="AH25" s="25">
-        <v>96.01</v>
+        <v>96.14</v>
       </c>
       <c r="AI25" s="25">
-        <v>96.41</v>
+        <v>96.42</v>
       </c>
       <c r="AJ25" s="25">
-        <v>96.85</v>
+        <v>96.61</v>
       </c>
       <c r="AK25" s="25">
-        <v>96.97</v>
+        <v>96.82</v>
       </c>
       <c r="AL25" s="25">
-        <v>97.41</v>
+        <v>97.21</v>
       </c>
       <c r="AM25" s="25">
-        <v>97.9</v>
+        <v>97.66</v>
       </c>
       <c r="AN25" s="25">
-        <v>98.26</v>
+        <v>98.02</v>
       </c>
       <c r="AO25" s="25">
-        <v>98.23</v>
+        <v>98.19</v>
       </c>
       <c r="AP25" s="25">
-        <v>97.07</v>
+        <v>97.31</v>
       </c>
       <c r="AQ25" s="25">
-        <v>95.62</v>
+        <v>96.64</v>
       </c>
       <c r="AR25" s="25">
-        <v>94.77</v>
+        <v>96.09</v>
       </c>
       <c r="AS25" s="25">
-        <v>94.03</v>
+        <v>95.78</v>
       </c>
       <c r="AT25" s="25">
-        <v>93.86</v>
-      </c>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
+        <v>95.31</v>
+      </c>
+      <c r="AU25" s="25">
+        <v>94.47</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>94.93</v>
+      </c>
       <c r="AW25" s="25"/>
       <c r="AX25" s="25"/>
       <c r="AY25" s="25"/>
@@ -5095,25 +5175,25 @@
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="25">
-        <v>94.77</v>
+        <v>94.79</v>
       </c>
       <c r="D26" s="25">
-        <v>97.14</v>
+        <v>97.15</v>
       </c>
       <c r="E26" s="25">
-        <v>97.43</v>
+        <v>97.45</v>
       </c>
       <c r="F26" s="25">
-        <v>98.67</v>
+        <v>98.69</v>
       </c>
       <c r="G26" s="25">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="H26" s="25">
         <v>100.83</v>
@@ -5122,118 +5202,122 @@
         <v>100.19</v>
       </c>
       <c r="J26" s="25">
-        <v>100.07</v>
+        <v>100.06</v>
       </c>
       <c r="K26" s="25">
         <v>99.67</v>
       </c>
       <c r="L26" s="25">
-        <v>100.03</v>
+        <v>100.02</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.81</v>
+        <v>98.8</v>
       </c>
       <c r="O26" s="25">
-        <v>95.24</v>
+        <v>95.22</v>
       </c>
       <c r="P26" s="25">
-        <v>92.14</v>
+        <v>92.11</v>
       </c>
       <c r="Q26" s="25">
-        <v>89.21</v>
+        <v>89.2</v>
       </c>
       <c r="R26" s="25">
-        <v>88.55</v>
+        <v>88.56</v>
       </c>
       <c r="S26" s="25">
-        <v>88.72</v>
+        <v>88.74</v>
       </c>
       <c r="T26" s="25">
-        <v>88.98</v>
+        <v>89.01</v>
       </c>
       <c r="U26" s="25">
-        <v>89.58</v>
+        <v>89.59</v>
       </c>
       <c r="V26" s="25">
-        <v>89.44</v>
+        <v>89.45</v>
       </c>
       <c r="W26" s="25">
-        <v>89.4</v>
+        <v>89.42</v>
       </c>
       <c r="X26" s="25">
         <v>89.49</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.46</v>
+        <v>90.48</v>
       </c>
       <c r="Z26" s="25">
-        <v>91.74</v>
+        <v>91.75</v>
       </c>
       <c r="AA26" s="25">
-        <v>92.26</v>
+        <v>92.28</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.18</v>
+        <v>92.17</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.39</v>
+        <v>92.37</v>
       </c>
       <c r="AD26" s="25">
-        <v>91.84</v>
+        <v>91.86</v>
       </c>
       <c r="AE26" s="25">
-        <v>92.06</v>
+        <v>91.93</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.01</v>
+        <v>92.02</v>
       </c>
       <c r="AG26" s="25">
-        <v>92.53</v>
+        <v>92.51</v>
       </c>
       <c r="AH26" s="25">
-        <v>92.87</v>
+        <v>92.95</v>
       </c>
       <c r="AI26" s="25">
-        <v>93</v>
+        <v>92.83</v>
       </c>
       <c r="AJ26" s="25">
-        <v>93.49</v>
+        <v>93.14</v>
       </c>
       <c r="AK26" s="25">
-        <v>93.35</v>
+        <v>93.1</v>
       </c>
       <c r="AL26" s="25">
-        <v>94.22</v>
+        <v>93.78</v>
       </c>
       <c r="AM26" s="25">
-        <v>95.12</v>
+        <v>94.34</v>
       </c>
       <c r="AN26" s="25">
-        <v>95.34</v>
+        <v>94.7</v>
       </c>
       <c r="AO26" s="25">
-        <v>95.11</v>
+        <v>94.41</v>
       </c>
       <c r="AP26" s="25">
-        <v>94.05</v>
+        <v>93.09</v>
       </c>
       <c r="AQ26" s="25">
-        <v>93.39</v>
+        <v>93.18</v>
       </c>
       <c r="AR26" s="25">
-        <v>93.17</v>
+        <v>92.92</v>
       </c>
       <c r="AS26" s="25">
-        <v>93.03</v>
+        <v>92.91</v>
       </c>
       <c r="AT26" s="25">
         <v>92.74</v>
       </c>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
+      <c r="AU26" s="25">
+        <v>92.88</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>92.71</v>
+      </c>
       <c r="AW26" s="25"/>
       <c r="AX26" s="25"/>
       <c r="AY26" s="25"/>
@@ -5267,16 +5351,16 @@
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="25">
-        <v>98.07</v>
+        <v>98.08</v>
       </c>
       <c r="D27" s="25">
-        <v>98.91</v>
+        <v>98.92</v>
       </c>
       <c r="E27" s="25">
         <v>100.36</v>
@@ -5297,10 +5381,10 @@
         <v>100.45</v>
       </c>
       <c r="K27" s="25">
-        <v>98.56</v>
+        <v>98.57</v>
       </c>
       <c r="L27" s="25">
-        <v>99.09</v>
+        <v>99.1</v>
       </c>
       <c r="M27" s="25">
         <v>100</v>
@@ -5309,13 +5393,13 @@
         <v>99.62</v>
       </c>
       <c r="O27" s="25">
-        <v>98.3</v>
+        <v>98.28</v>
       </c>
       <c r="P27" s="25">
-        <v>96.22</v>
+        <v>96.21</v>
       </c>
       <c r="Q27" s="25">
-        <v>95.26</v>
+        <v>95.24</v>
       </c>
       <c r="R27" s="25">
         <v>95.74</v>
@@ -5324,88 +5408,92 @@
         <v>95.9</v>
       </c>
       <c r="T27" s="25">
-        <v>95.31</v>
+        <v>95.29</v>
       </c>
       <c r="U27" s="25">
-        <v>95.74</v>
+        <v>95.73</v>
       </c>
       <c r="V27" s="25">
-        <v>94.87</v>
+        <v>94.85</v>
       </c>
       <c r="W27" s="25">
-        <v>95.91</v>
+        <v>95.86</v>
       </c>
       <c r="X27" s="25">
-        <v>95.7</v>
+        <v>95.65</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.98</v>
+        <v>97.97</v>
       </c>
       <c r="Z27" s="25">
         <v>96.59</v>
       </c>
       <c r="AA27" s="25">
-        <v>95.35</v>
+        <v>95.34</v>
       </c>
       <c r="AB27" s="25">
-        <v>95.04</v>
+        <v>95.03</v>
       </c>
       <c r="AC27" s="25">
-        <v>95.83</v>
+        <v>95.73</v>
       </c>
       <c r="AD27" s="25">
-        <v>96.12</v>
+        <v>95.98</v>
       </c>
       <c r="AE27" s="25">
-        <v>96.94</v>
+        <v>96.61</v>
       </c>
       <c r="AF27" s="25">
-        <v>96.27</v>
+        <v>96.15</v>
       </c>
       <c r="AG27" s="25">
-        <v>97.24</v>
+        <v>97.27</v>
       </c>
       <c r="AH27" s="25">
-        <v>96.23</v>
+        <v>96.41</v>
       </c>
       <c r="AI27" s="25">
-        <v>96.71</v>
+        <v>96.61</v>
       </c>
       <c r="AJ27" s="25">
-        <v>96.54</v>
+        <v>96.32</v>
       </c>
       <c r="AK27" s="25">
-        <v>96.37</v>
+        <v>96.26</v>
       </c>
       <c r="AL27" s="25">
-        <v>96.91</v>
+        <v>96.51</v>
       </c>
       <c r="AM27" s="25">
-        <v>97.64</v>
+        <v>96.79</v>
       </c>
       <c r="AN27" s="25">
-        <v>98.47</v>
+        <v>97.42</v>
       </c>
       <c r="AO27" s="25">
-        <v>97.81</v>
+        <v>97.54</v>
       </c>
       <c r="AP27" s="25">
+        <v>96.42</v>
+      </c>
+      <c r="AQ27" s="25">
         <v>97.05</v>
       </c>
-      <c r="AQ27" s="25">
-        <v>96.87</v>
-      </c>
       <c r="AR27" s="25">
-        <v>97.51</v>
+        <v>97.65</v>
       </c>
       <c r="AS27" s="25">
-        <v>97.66</v>
+        <v>97.73</v>
       </c>
       <c r="AT27" s="25">
-        <v>98.07</v>
-      </c>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25"/>
+        <v>97.11</v>
+      </c>
+      <c r="AU27" s="25">
+        <v>98.24</v>
+      </c>
+      <c r="AV27" s="25">
+        <v>99.26</v>
+      </c>
       <c r="AW27" s="25"/>
       <c r="AX27" s="25"/>
       <c r="AY27" s="25"/>
@@ -5439,145 +5527,149 @@
     </row>
     <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="25">
-        <v>86.2</v>
+        <v>86.14</v>
       </c>
       <c r="D28" s="25">
-        <v>89.92</v>
+        <v>89.89</v>
       </c>
       <c r="E28" s="25">
-        <v>92.58</v>
+        <v>92.55</v>
       </c>
       <c r="F28" s="25">
-        <v>93.99</v>
+        <v>93.95</v>
       </c>
       <c r="G28" s="25">
-        <v>95.24</v>
+        <v>95.19</v>
       </c>
       <c r="H28" s="25">
-        <v>96.44</v>
+        <v>96.42</v>
       </c>
       <c r="I28" s="25">
-        <v>97.55</v>
+        <v>97.5</v>
       </c>
       <c r="J28" s="25">
-        <v>97.99</v>
+        <v>97.95</v>
       </c>
       <c r="K28" s="25">
-        <v>98.59</v>
+        <v>98.55</v>
       </c>
       <c r="L28" s="25">
-        <v>99.62</v>
+        <v>99.61</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>99.12</v>
+        <v>99.07</v>
       </c>
       <c r="O28" s="25">
-        <v>96.2</v>
+        <v>96.15</v>
       </c>
       <c r="P28" s="25">
-        <v>93</v>
+        <v>92.97</v>
       </c>
       <c r="Q28" s="25">
         <v>90.23</v>
       </c>
       <c r="R28" s="25">
-        <v>89.38</v>
+        <v>89.36</v>
       </c>
       <c r="S28" s="25">
-        <v>90.36</v>
+        <v>90.28</v>
       </c>
       <c r="T28" s="25">
-        <v>91.01</v>
+        <v>90.95</v>
       </c>
       <c r="U28" s="25">
-        <v>92.3</v>
+        <v>92.26</v>
       </c>
       <c r="V28" s="25">
-        <v>93.61</v>
+        <v>93.57</v>
       </c>
       <c r="W28" s="25">
-        <v>94.83</v>
+        <v>94.76</v>
       </c>
       <c r="X28" s="25">
-        <v>95.49</v>
+        <v>95.45</v>
       </c>
       <c r="Y28" s="25">
-        <v>96.61</v>
+        <v>96.59</v>
       </c>
       <c r="Z28" s="25">
-        <v>97.64</v>
+        <v>97.61</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.35</v>
+        <v>98.33</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.12</v>
+        <v>99.07</v>
       </c>
       <c r="AC28" s="25">
         <v>101.22</v>
       </c>
       <c r="AD28" s="25">
-        <v>100.98</v>
+        <v>101.03</v>
       </c>
       <c r="AE28" s="25">
-        <v>100.76</v>
+        <v>100.82</v>
       </c>
       <c r="AF28" s="25">
-        <v>100.88</v>
+        <v>100.97</v>
       </c>
       <c r="AG28" s="25">
-        <v>101.26</v>
+        <v>101.41</v>
       </c>
       <c r="AH28" s="25">
-        <v>101.55</v>
+        <v>101.72</v>
       </c>
       <c r="AI28" s="25">
-        <v>101.87</v>
+        <v>102.07</v>
       </c>
       <c r="AJ28" s="25">
-        <v>101.93</v>
+        <v>102.16</v>
       </c>
       <c r="AK28" s="25">
-        <v>102.2</v>
+        <v>102.44</v>
       </c>
       <c r="AL28" s="25">
-        <v>102.26</v>
+        <v>102.5</v>
       </c>
       <c r="AM28" s="25">
-        <v>102.76</v>
+        <v>103.03</v>
       </c>
       <c r="AN28" s="25">
-        <v>103.33</v>
+        <v>103.7</v>
       </c>
       <c r="AO28" s="25">
-        <v>103.18</v>
+        <v>103.57</v>
       </c>
       <c r="AP28" s="25">
-        <v>101.93</v>
+        <v>102.47</v>
       </c>
       <c r="AQ28" s="25">
-        <v>100.21</v>
+        <v>101.28</v>
       </c>
       <c r="AR28" s="25">
-        <v>99.39</v>
+        <v>101.11</v>
       </c>
       <c r="AS28" s="25">
-        <v>98.61</v>
+        <v>100.96</v>
       </c>
       <c r="AT28" s="25">
-        <v>97.66</v>
-      </c>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
+        <v>100.65</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>99.1</v>
+      </c>
+      <c r="AV28" s="25">
+        <v>98.5</v>
+      </c>
       <c r="AW28" s="25"/>
       <c r="AX28" s="25"/>
       <c r="AY28" s="25"/>
@@ -5611,145 +5703,149 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="25">
-        <v>92.86</v>
+        <v>92.85</v>
       </c>
       <c r="D29" s="25">
-        <v>94.79</v>
+        <v>94.8</v>
       </c>
       <c r="E29" s="25">
-        <v>96.11</v>
+        <v>96.13</v>
       </c>
       <c r="F29" s="25">
-        <v>97.46</v>
+        <v>97.47</v>
       </c>
       <c r="G29" s="25">
-        <v>98.42</v>
+        <v>98.41</v>
       </c>
       <c r="H29" s="25">
-        <v>99.42</v>
+        <v>99.41</v>
       </c>
       <c r="I29" s="25">
-        <v>99.8</v>
+        <v>99.77</v>
       </c>
       <c r="J29" s="25">
-        <v>99.9</v>
+        <v>99.88</v>
       </c>
       <c r="K29" s="25">
-        <v>100.11</v>
+        <v>100.08</v>
       </c>
       <c r="L29" s="25">
-        <v>99.96</v>
+        <v>99.93</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.59</v>
+        <v>98.58</v>
       </c>
       <c r="O29" s="25">
-        <v>94.41</v>
+        <v>94.38</v>
       </c>
       <c r="P29" s="25">
-        <v>91.75</v>
+        <v>91.72</v>
       </c>
       <c r="Q29" s="25">
-        <v>90.31</v>
+        <v>90.28</v>
       </c>
       <c r="R29" s="25">
-        <v>89.66</v>
+        <v>89.64</v>
       </c>
       <c r="S29" s="25">
-        <v>89.83</v>
+        <v>89.8</v>
       </c>
       <c r="T29" s="25">
-        <v>90.45</v>
+        <v>90.41</v>
       </c>
       <c r="U29" s="25">
-        <v>91.28</v>
+        <v>91.26</v>
       </c>
       <c r="V29" s="25">
-        <v>92.65</v>
+        <v>92.63</v>
       </c>
       <c r="W29" s="25">
-        <v>93.11</v>
+        <v>93.09</v>
       </c>
       <c r="X29" s="25">
-        <v>93.21</v>
+        <v>93.19</v>
       </c>
       <c r="Y29" s="25">
-        <v>93.87</v>
+        <v>93.84</v>
       </c>
       <c r="Z29" s="25">
-        <v>94.45</v>
+        <v>94.44</v>
       </c>
       <c r="AA29" s="25">
-        <v>95.41</v>
+        <v>95.4</v>
       </c>
       <c r="AB29" s="25">
-        <v>95.83</v>
+        <v>95.81</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.36</v>
+        <v>96.32</v>
       </c>
       <c r="AD29" s="25">
         <v>95.87</v>
       </c>
       <c r="AE29" s="25">
-        <v>94.95</v>
+        <v>94.91</v>
       </c>
       <c r="AF29" s="25">
-        <v>94.88</v>
+        <v>94.83</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.25</v>
+        <v>95.12</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.35</v>
+        <v>96.21</v>
       </c>
       <c r="AI29" s="25">
-        <v>96.91</v>
+        <v>96.82</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.08</v>
+        <v>96.99</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.01</v>
+        <v>96.96</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.24</v>
+        <v>97.17</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AN29" s="25">
-        <v>97.65</v>
+        <v>97.54</v>
       </c>
       <c r="AO29" s="25">
-        <v>97.59</v>
+        <v>97.47</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.42</v>
+        <v>96.99</v>
       </c>
       <c r="AQ29" s="25">
-        <v>97.25</v>
+        <v>96.41</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.94</v>
+        <v>96.64</v>
       </c>
       <c r="AS29" s="25">
-        <v>96.73</v>
+        <v>97.27</v>
       </c>
       <c r="AT29" s="25">
-        <v>96.32</v>
-      </c>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
+        <v>97.73</v>
+      </c>
+      <c r="AU29" s="25">
+        <v>98.19</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>98.4</v>
+      </c>
       <c r="AW29" s="25"/>
       <c r="AX29" s="25"/>
       <c r="AY29" s="25"/>
@@ -5783,16 +5879,16 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="25">
         <v>95.32</v>
       </c>
       <c r="D30" s="25">
-        <v>95.71</v>
+        <v>95.73</v>
       </c>
       <c r="E30" s="25">
         <v>95.93</v>
@@ -5804,16 +5900,16 @@
         <v>97.44</v>
       </c>
       <c r="H30" s="25">
-        <v>99.8</v>
+        <v>99.78</v>
       </c>
       <c r="I30" s="25">
-        <v>100.08</v>
+        <v>100.07</v>
       </c>
       <c r="J30" s="25">
         <v>98.54</v>
       </c>
       <c r="K30" s="25">
-        <v>97.95</v>
+        <v>97.96</v>
       </c>
       <c r="L30" s="25">
         <v>99.02</v>
@@ -5822,106 +5918,110 @@
         <v>100</v>
       </c>
       <c r="N30" s="25">
-        <v>98.9</v>
+        <v>98.89</v>
       </c>
       <c r="O30" s="25">
-        <v>97.52</v>
+        <v>97.5</v>
       </c>
       <c r="P30" s="25">
-        <v>96.97</v>
+        <v>96.96</v>
       </c>
       <c r="Q30" s="25">
         <v>95.99</v>
       </c>
       <c r="R30" s="25">
-        <v>95.7</v>
+        <v>95.69</v>
       </c>
       <c r="S30" s="25">
-        <v>95.85</v>
+        <v>95.86</v>
       </c>
       <c r="T30" s="25">
         <v>96.27</v>
       </c>
       <c r="U30" s="25">
-        <v>96.44</v>
+        <v>96.45</v>
       </c>
       <c r="V30" s="25">
         <v>96.67</v>
       </c>
       <c r="W30" s="25">
-        <v>97.31</v>
+        <v>97.3</v>
       </c>
       <c r="X30" s="25">
         <v>97.43</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.43</v>
+        <v>96.42</v>
       </c>
       <c r="Z30" s="25">
-        <v>97.54</v>
+        <v>97.53</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.2</v>
+        <v>98.19</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.95</v>
+        <v>96.94</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.94</v>
+        <v>97.84</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.36</v>
+        <v>98.18</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.05</v>
+        <v>97.9</v>
       </c>
       <c r="AF30" s="25">
-        <v>97.96</v>
+        <v>97.79</v>
       </c>
       <c r="AG30" s="25">
-        <v>98.49</v>
+        <v>98.31</v>
       </c>
       <c r="AH30" s="25">
-        <v>99.84</v>
+        <v>99.65</v>
       </c>
       <c r="AI30" s="25">
-        <v>99.6</v>
+        <v>99.38</v>
       </c>
       <c r="AJ30" s="25">
-        <v>99.91</v>
+        <v>99.72</v>
       </c>
       <c r="AK30" s="25">
-        <v>99.88</v>
+        <v>99.68</v>
       </c>
       <c r="AL30" s="25">
-        <v>99.39</v>
+        <v>99.16</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.4</v>
+        <v>99.18</v>
       </c>
       <c r="AN30" s="25">
-        <v>99.96</v>
+        <v>99.71</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.17</v>
+        <v>99.85</v>
       </c>
       <c r="AP30" s="25">
-        <v>100.13</v>
+        <v>99.37</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.62</v>
+        <v>98.73</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.82</v>
+        <v>99.24</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.74</v>
+        <v>100.36</v>
       </c>
       <c r="AT30" s="25">
+        <v>101.09</v>
+      </c>
+      <c r="AU30" s="25">
         <v>101.86</v>
       </c>
-      <c r="AU30" s="25"/>
-      <c r="AV30" s="25"/>
+      <c r="AV30" s="25">
+        <v>102.23</v>
+      </c>
       <c r="AW30" s="25"/>
       <c r="AX30" s="25"/>
       <c r="AY30" s="25"/>
@@ -5955,37 +6055,37 @@
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
         <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
       </c>
       <c r="C31" s="25">
         <v>84.97</v>
       </c>
       <c r="D31" s="25">
-        <v>89.88</v>
+        <v>89.89</v>
       </c>
       <c r="E31" s="25">
-        <v>93.48</v>
+        <v>93.51</v>
       </c>
       <c r="F31" s="25">
-        <v>94.63</v>
+        <v>94.64</v>
       </c>
       <c r="G31" s="25">
-        <v>95.23</v>
+        <v>95.22</v>
       </c>
       <c r="H31" s="25">
-        <v>96.93</v>
+        <v>96.95</v>
       </c>
       <c r="I31" s="25">
-        <v>98.01</v>
+        <v>98.03</v>
       </c>
       <c r="J31" s="25">
-        <v>98.52</v>
+        <v>98.57</v>
       </c>
       <c r="K31" s="25">
-        <v>99.15</v>
+        <v>99.17</v>
       </c>
       <c r="L31" s="25">
         <v>100.12</v>
@@ -5994,7 +6094,7 @@
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.54</v>
+        <v>99.55</v>
       </c>
       <c r="O31" s="25">
         <v>95.81</v>
@@ -6003,97 +6103,101 @@
         <v>92.15</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.79</v>
+        <v>89.81</v>
       </c>
       <c r="R31" s="25">
-        <v>89.31</v>
+        <v>89.34</v>
       </c>
       <c r="S31" s="25">
-        <v>89.46</v>
+        <v>89.48</v>
       </c>
       <c r="T31" s="25">
-        <v>90.42</v>
+        <v>90.43</v>
       </c>
       <c r="U31" s="25">
-        <v>91.64</v>
+        <v>91.67</v>
       </c>
       <c r="V31" s="25">
-        <v>92.23</v>
+        <v>92.27</v>
       </c>
       <c r="W31" s="25">
-        <v>92.67</v>
+        <v>92.72</v>
       </c>
       <c r="X31" s="25">
-        <v>93.8</v>
+        <v>93.85</v>
       </c>
       <c r="Y31" s="25">
-        <v>94.81</v>
+        <v>94.89</v>
       </c>
       <c r="Z31" s="25">
-        <v>95.64</v>
+        <v>95.72</v>
       </c>
       <c r="AA31" s="25">
-        <v>96.53</v>
+        <v>96.61</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.12</v>
+        <v>98.17</v>
       </c>
       <c r="AC31" s="25">
-        <v>99.72</v>
+        <v>99.89</v>
       </c>
       <c r="AD31" s="25">
-        <v>99.5</v>
+        <v>99.84</v>
       </c>
       <c r="AE31" s="25">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="AF31" s="25">
-        <v>99.7</v>
+        <v>100.11</v>
       </c>
       <c r="AG31" s="25">
-        <v>100.41</v>
+        <v>100.84</v>
       </c>
       <c r="AH31" s="25">
-        <v>100.61</v>
+        <v>101.04</v>
       </c>
       <c r="AI31" s="25">
-        <v>100.5</v>
+        <v>101.01</v>
       </c>
       <c r="AJ31" s="25">
-        <v>100.7</v>
+        <v>101.23</v>
       </c>
       <c r="AK31" s="25">
-        <v>100.81</v>
+        <v>101.4</v>
       </c>
       <c r="AL31" s="25">
-        <v>101.01</v>
+        <v>101.67</v>
       </c>
       <c r="AM31" s="25">
-        <v>101.25</v>
+        <v>102.1</v>
       </c>
       <c r="AN31" s="25">
-        <v>101.13</v>
+        <v>102</v>
       </c>
       <c r="AO31" s="25">
-        <v>101.07</v>
+        <v>102.01</v>
       </c>
       <c r="AP31" s="25">
-        <v>99.45</v>
+        <v>100.84</v>
       </c>
       <c r="AQ31" s="25">
-        <v>97.19</v>
+        <v>99.12</v>
       </c>
       <c r="AR31" s="25">
-        <v>96.61</v>
+        <v>99.24</v>
       </c>
       <c r="AS31" s="25">
-        <v>95.72</v>
+        <v>98.75</v>
       </c>
       <c r="AT31" s="25">
-        <v>93.82</v>
-      </c>
-      <c r="AU31" s="25"/>
-      <c r="AV31" s="25"/>
+        <v>97.67</v>
+      </c>
+      <c r="AU31" s="25">
+        <v>94.27</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>93.51</v>
+      </c>
       <c r="AW31" s="25"/>
       <c r="AX31" s="25"/>
       <c r="AY31" s="25"/>
@@ -6127,10 +6231,10 @@
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="25">
         <v>91.06</v>
@@ -6139,37 +6243,37 @@
         <v>94.44</v>
       </c>
       <c r="E32" s="25">
-        <v>96.94</v>
+        <v>96.93</v>
       </c>
       <c r="F32" s="25">
         <v>97.04</v>
       </c>
       <c r="G32" s="25">
-        <v>97.69</v>
+        <v>97.71</v>
       </c>
       <c r="H32" s="25">
-        <v>99.34</v>
+        <v>99.35</v>
       </c>
       <c r="I32" s="25">
-        <v>99.75</v>
+        <v>99.76</v>
       </c>
       <c r="J32" s="25">
-        <v>100.8</v>
+        <v>100.81</v>
       </c>
       <c r="K32" s="25">
-        <v>101.81</v>
+        <v>101.8</v>
       </c>
       <c r="L32" s="25">
-        <v>101.67</v>
+        <v>101.68</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>99.09</v>
+        <v>99.07</v>
       </c>
       <c r="O32" s="25">
-        <v>94.54</v>
+        <v>94.51</v>
       </c>
       <c r="P32" s="25">
         <v>90.73</v>
@@ -6178,94 +6282,98 @@
         <v>87.55</v>
       </c>
       <c r="R32" s="25">
-        <v>87.13</v>
+        <v>87.14</v>
       </c>
       <c r="S32" s="25">
-        <v>87.06</v>
+        <v>87.08</v>
       </c>
       <c r="T32" s="25">
-        <v>86.99</v>
+        <v>87</v>
       </c>
       <c r="U32" s="25">
-        <v>88.01</v>
+        <v>88.02</v>
       </c>
       <c r="V32" s="25">
-        <v>88.79</v>
+        <v>88.8</v>
       </c>
       <c r="W32" s="25">
-        <v>89.81</v>
+        <v>89.82</v>
       </c>
       <c r="X32" s="25">
         <v>90.45</v>
       </c>
       <c r="Y32" s="25">
-        <v>90.95</v>
+        <v>91.04</v>
       </c>
       <c r="Z32" s="25">
-        <v>91.71</v>
+        <v>91.92</v>
       </c>
       <c r="AA32" s="25">
-        <v>92.01</v>
+        <v>92.11</v>
       </c>
       <c r="AB32" s="25">
-        <v>92.21</v>
+        <v>92.24</v>
       </c>
       <c r="AC32" s="25">
-        <v>92.62</v>
+        <v>92.67</v>
       </c>
       <c r="AD32" s="25">
-        <v>93.82</v>
+        <v>93.81</v>
       </c>
       <c r="AE32" s="25">
         <v>93.24</v>
       </c>
       <c r="AF32" s="25">
-        <v>93.56</v>
+        <v>93.66</v>
       </c>
       <c r="AG32" s="25">
-        <v>93.89</v>
+        <v>93.87</v>
       </c>
       <c r="AH32" s="25">
-        <v>94.2</v>
+        <v>94.14</v>
       </c>
       <c r="AI32" s="25">
-        <v>94.37</v>
+        <v>94.27</v>
       </c>
       <c r="AJ32" s="25">
-        <v>94.37</v>
+        <v>94.24</v>
       </c>
       <c r="AK32" s="25">
-        <v>93.46</v>
+        <v>93.59</v>
       </c>
       <c r="AL32" s="25">
-        <v>93.89</v>
+        <v>94</v>
       </c>
       <c r="AM32" s="25">
-        <v>94.56</v>
+        <v>94.59</v>
       </c>
       <c r="AN32" s="25">
-        <v>94.28</v>
+        <v>94.4</v>
       </c>
       <c r="AO32" s="25">
-        <v>94.2</v>
+        <v>94.32</v>
       </c>
       <c r="AP32" s="25">
-        <v>94.04</v>
+        <v>94.32</v>
       </c>
       <c r="AQ32" s="25">
-        <v>94.31</v>
+        <v>94.86</v>
       </c>
       <c r="AR32" s="25">
-        <v>94.58</v>
+        <v>95.45</v>
       </c>
       <c r="AS32" s="25">
-        <v>95.2</v>
+        <v>96.27</v>
       </c>
       <c r="AT32" s="25">
-        <v>95.43</v>
-      </c>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
+        <v>96.04</v>
+      </c>
+      <c r="AU32" s="25">
+        <v>95.25</v>
+      </c>
+      <c r="AV32" s="25">
+        <v>95.14</v>
+      </c>
       <c r="AW32" s="25"/>
       <c r="AX32" s="25"/>
       <c r="AY32" s="25"/>
@@ -6299,25 +6407,25 @@
     </row>
     <row r="33" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="25">
-        <v>96.52</v>
+        <v>96.5</v>
       </c>
       <c r="D33" s="25">
-        <v>96.91</v>
+        <v>96.9</v>
       </c>
       <c r="E33" s="25">
-        <v>98.12</v>
+        <v>98.11</v>
       </c>
       <c r="F33" s="25">
-        <v>98.35</v>
+        <v>98.34</v>
       </c>
       <c r="G33" s="25">
-        <v>98.7</v>
+        <v>98.69</v>
       </c>
       <c r="H33" s="25">
         <v>99.5</v>
@@ -6326,13 +6434,13 @@
         <v>101.29</v>
       </c>
       <c r="J33" s="25">
-        <v>99.42</v>
+        <v>99.41</v>
       </c>
       <c r="K33" s="25">
         <v>97.57</v>
       </c>
       <c r="L33" s="25">
-        <v>98.69</v>
+        <v>98.68</v>
       </c>
       <c r="M33" s="25">
         <v>100</v>
@@ -6341,40 +6449,40 @@
         <v>99.27</v>
       </c>
       <c r="O33" s="25">
-        <v>97.68</v>
+        <v>97.67</v>
       </c>
       <c r="P33" s="25">
-        <v>96.42</v>
+        <v>96.4</v>
       </c>
       <c r="Q33" s="25">
-        <v>96.15</v>
+        <v>96.12</v>
       </c>
       <c r="R33" s="25">
-        <v>95.88</v>
+        <v>95.87</v>
       </c>
       <c r="S33" s="25">
-        <v>96.15</v>
+        <v>96.14</v>
       </c>
       <c r="T33" s="25">
         <v>96.45</v>
       </c>
       <c r="U33" s="25">
-        <v>96.1</v>
+        <v>96.09</v>
       </c>
       <c r="V33" s="25">
         <v>96.43</v>
       </c>
       <c r="W33" s="25">
-        <v>96.73</v>
+        <v>96.72</v>
       </c>
       <c r="X33" s="25">
-        <v>96.42</v>
+        <v>96.41</v>
       </c>
       <c r="Y33" s="25">
-        <v>96.23</v>
+        <v>96.22</v>
       </c>
       <c r="Z33" s="25">
-        <v>96.1</v>
+        <v>96.09</v>
       </c>
       <c r="AA33" s="25">
         <v>95.8</v>
@@ -6383,61 +6491,65 @@
         <v>96.13</v>
       </c>
       <c r="AC33" s="25">
-        <v>96.97</v>
+        <v>96.95</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.63</v>
+        <v>97.62</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.58</v>
+        <v>97.57</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.32</v>
+        <v>97.31</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.7</v>
+        <v>97.69</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.7</v>
+        <v>97.68</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.47</v>
+        <v>97.45</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.19</v>
+        <v>97.17</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.41</v>
+        <v>97.39</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.42</v>
+        <v>97.38</v>
       </c>
       <c r="AM33" s="25">
-        <v>97.86</v>
+        <v>97.8</v>
       </c>
       <c r="AN33" s="25">
-        <v>97.96</v>
+        <v>97.88</v>
       </c>
       <c r="AO33" s="25">
-        <v>97.89</v>
+        <v>97.66</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.73</v>
+        <v>97.5</v>
       </c>
       <c r="AQ33" s="25">
-        <v>98.01</v>
+        <v>97.74</v>
       </c>
       <c r="AR33" s="25">
-        <v>98.49</v>
+        <v>98.3</v>
       </c>
       <c r="AS33" s="25">
-        <v>98.79</v>
+        <v>98.62</v>
       </c>
       <c r="AT33" s="25">
-        <v>99.74</v>
-      </c>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="25"/>
+        <v>98.75</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>98.27</v>
+      </c>
       <c r="AW33" s="25"/>
       <c r="AX33" s="25"/>
       <c r="AY33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 14 November 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 28 November 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497A3F5-9AB6-4C13-83E1-EA3B5C9983A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD18DA7-FAFA-4E8F-B12C-198738D29EE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
-    <sheet name="Employment Size" sheetId="5" r:id="rId2"/>
+    <sheet name="Employment size" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'2995e12c-7f92-4103-a2d1-a1d598d57c6f'"</definedName>
@@ -107,10 +107,10 @@
     <t>200 employees and over</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 1 December 2020</t>
+    <t>Released at 11.30am (Canberra time) 15 December 2020</t>
   </si>
   <si>
-    <t>Week ending Saturday 14 November 2020</t>
+    <t>Week ending Saturday 28 November 2020</t>
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment Size</t>
@@ -119,10 +119,10 @@
     <t>Employment size</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by employment size</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
   </si>
   <si>
-    <t>State or territory</t>
+    <t>State or Territory</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:B1"/>
       <selection pane="bottomLeft"/>
@@ -1569,7 +1569,7 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="str">
         <f>"** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic."&amp;CHAR(10)&amp;"**Care should be exercised when focusing on the most recent movements in payroll jobs. For more information, please see the Reporting variability section in Data limitations and revisions."</f>
         <v>** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic.
@@ -1798,8 +1798,12 @@
       <c r="AV6" s="24">
         <v>44149</v>
       </c>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="24"/>
+      <c r="AW6" s="24">
+        <v>44156</v>
+      </c>
+      <c r="AX6" s="24">
+        <v>44163</v>
+      </c>
       <c r="AY6" s="24"/>
       <c r="AZ6" s="24"/>
       <c r="BA6" s="24"/>
@@ -1843,16 +1847,16 @@
         <v>91.86</v>
       </c>
       <c r="E7" s="25">
-        <v>94.41</v>
+        <v>94.42</v>
       </c>
       <c r="F7" s="25">
         <v>95.48</v>
       </c>
       <c r="G7" s="25">
-        <v>96.22</v>
+        <v>96.23</v>
       </c>
       <c r="H7" s="25">
-        <v>97.43</v>
+        <v>97.44</v>
       </c>
       <c r="I7" s="25">
         <v>97.85</v>
@@ -1861,7 +1865,7 @@
         <v>98.36</v>
       </c>
       <c r="K7" s="25">
-        <v>98.87</v>
+        <v>98.88</v>
       </c>
       <c r="L7" s="25">
         <v>99.94</v>
@@ -1870,112 +1874,116 @@
         <v>100</v>
       </c>
       <c r="N7" s="25">
-        <v>99.2</v>
+        <v>99.19</v>
       </c>
       <c r="O7" s="25">
-        <v>95.22</v>
+        <v>95.2</v>
       </c>
       <c r="P7" s="25">
-        <v>91.87</v>
+        <v>91.86</v>
       </c>
       <c r="Q7" s="25">
         <v>89.43</v>
       </c>
       <c r="R7" s="25">
-        <v>88.72</v>
+        <v>88.73</v>
       </c>
       <c r="S7" s="25">
-        <v>89.23</v>
+        <v>89.24</v>
       </c>
       <c r="T7" s="25">
-        <v>90.27</v>
+        <v>90.29</v>
       </c>
       <c r="U7" s="25">
-        <v>91.39</v>
+        <v>91.42</v>
       </c>
       <c r="V7" s="25">
-        <v>92.48</v>
+        <v>92.5</v>
       </c>
       <c r="W7" s="25">
-        <v>93.04</v>
+        <v>93.06</v>
       </c>
       <c r="X7" s="25">
-        <v>93.57</v>
+        <v>93.59</v>
       </c>
       <c r="Y7" s="25">
-        <v>94.84</v>
+        <v>94.86</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.39</v>
+        <v>95.42</v>
       </c>
       <c r="AA7" s="25">
-        <v>95.99</v>
+        <v>96.02</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.2</v>
+        <v>97.24</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.11</v>
+        <v>99.24</v>
       </c>
       <c r="AD7" s="25">
-        <v>98.98</v>
+        <v>99.19</v>
       </c>
       <c r="AE7" s="25">
-        <v>98.89</v>
+        <v>99.12</v>
       </c>
       <c r="AF7" s="25">
-        <v>99.21</v>
+        <v>99.45</v>
       </c>
       <c r="AG7" s="25">
-        <v>99.19</v>
+        <v>99.45</v>
       </c>
       <c r="AH7" s="25">
-        <v>99.06</v>
+        <v>99.36</v>
       </c>
       <c r="AI7" s="25">
-        <v>98.97</v>
+        <v>99.27</v>
       </c>
       <c r="AJ7" s="25">
-        <v>98.98</v>
+        <v>99.3</v>
       </c>
       <c r="AK7" s="25">
-        <v>99.19</v>
+        <v>99.51</v>
       </c>
       <c r="AL7" s="25">
-        <v>99.42</v>
+        <v>99.8</v>
       </c>
       <c r="AM7" s="25">
-        <v>99.9</v>
+        <v>100.33</v>
       </c>
       <c r="AN7" s="25">
-        <v>99.94</v>
+        <v>100.39</v>
       </c>
       <c r="AO7" s="25">
-        <v>99.87</v>
+        <v>100.34</v>
       </c>
       <c r="AP7" s="25">
-        <v>98.92</v>
+        <v>99.47</v>
       </c>
       <c r="AQ7" s="25">
-        <v>97.83</v>
+        <v>98.57</v>
       </c>
       <c r="AR7" s="25">
-        <v>97.56</v>
+        <v>98.47</v>
       </c>
       <c r="AS7" s="25">
-        <v>97.39</v>
+        <v>98.43</v>
       </c>
       <c r="AT7" s="25">
-        <v>96.91</v>
+        <v>98.29</v>
       </c>
       <c r="AU7" s="25">
-        <v>94.72</v>
+        <v>97.52</v>
       </c>
       <c r="AV7" s="25">
-        <v>94.04</v>
-      </c>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
+        <v>97.19</v>
+      </c>
+      <c r="AW7" s="25">
+        <v>96.51</v>
+      </c>
+      <c r="AX7" s="25">
+        <v>96.33</v>
+      </c>
       <c r="AY7" s="25"/>
       <c r="AZ7" s="25"/>
       <c r="BA7" s="25"/>
@@ -2013,145 +2021,149 @@
         <v>9</v>
       </c>
       <c r="C8" s="25">
-        <v>91.9</v>
+        <v>91.89</v>
       </c>
       <c r="D8" s="25">
         <v>95.31</v>
       </c>
       <c r="E8" s="25">
-        <v>97.11</v>
+        <v>97.12</v>
       </c>
       <c r="F8" s="25">
-        <v>97.85</v>
+        <v>97.86</v>
       </c>
       <c r="G8" s="25">
         <v>98.3</v>
       </c>
       <c r="H8" s="25">
-        <v>99.25</v>
+        <v>99.26</v>
       </c>
       <c r="I8" s="25">
-        <v>99.54</v>
+        <v>99.55</v>
       </c>
       <c r="J8" s="25">
         <v>99.88</v>
       </c>
       <c r="K8" s="25">
-        <v>100.09</v>
+        <v>100.08</v>
       </c>
       <c r="L8" s="25">
-        <v>100.12</v>
+        <v>100.13</v>
       </c>
       <c r="M8" s="25">
         <v>100</v>
       </c>
       <c r="N8" s="25">
-        <v>98.71</v>
+        <v>98.69</v>
       </c>
       <c r="O8" s="25">
-        <v>94.07</v>
+        <v>94.04</v>
       </c>
       <c r="P8" s="25">
-        <v>90.43</v>
+        <v>90.41</v>
       </c>
       <c r="Q8" s="25">
         <v>88.39</v>
       </c>
       <c r="R8" s="25">
-        <v>87.69</v>
+        <v>87.7</v>
       </c>
       <c r="S8" s="25">
-        <v>88.26</v>
+        <v>88.27</v>
       </c>
       <c r="T8" s="25">
-        <v>88.76</v>
+        <v>88.78</v>
       </c>
       <c r="U8" s="25">
-        <v>89.26</v>
+        <v>89.28</v>
       </c>
       <c r="V8" s="25">
-        <v>89.87</v>
+        <v>89.89</v>
       </c>
       <c r="W8" s="25">
-        <v>90.15</v>
+        <v>90.17</v>
       </c>
       <c r="X8" s="25">
-        <v>90.6</v>
+        <v>90.62</v>
       </c>
       <c r="Y8" s="25">
-        <v>91.43</v>
+        <v>91.45</v>
       </c>
       <c r="Z8" s="25">
-        <v>92.23</v>
+        <v>92.25</v>
       </c>
       <c r="AA8" s="25">
-        <v>92.55</v>
+        <v>92.57</v>
       </c>
       <c r="AB8" s="25">
-        <v>92.51</v>
+        <v>92.53</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.17</v>
+        <v>93.19</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.39</v>
+        <v>93.4</v>
       </c>
       <c r="AE8" s="25">
-        <v>93.4</v>
+        <v>93.41</v>
       </c>
       <c r="AF8" s="25">
-        <v>93.83</v>
+        <v>93.84</v>
       </c>
       <c r="AG8" s="25">
-        <v>93.92</v>
+        <v>93.93</v>
       </c>
       <c r="AH8" s="25">
-        <v>93.65</v>
+        <v>93.66</v>
       </c>
       <c r="AI8" s="25">
-        <v>93.54</v>
+        <v>93.55</v>
       </c>
       <c r="AJ8" s="25">
         <v>93.55</v>
       </c>
       <c r="AK8" s="25">
-        <v>93.65</v>
+        <v>93.66</v>
       </c>
       <c r="AL8" s="25">
-        <v>93.93</v>
+        <v>93.96</v>
       </c>
       <c r="AM8" s="25">
-        <v>94.49</v>
+        <v>94.51</v>
       </c>
       <c r="AN8" s="25">
-        <v>94.6</v>
+        <v>94.63</v>
       </c>
       <c r="AO8" s="25">
-        <v>94.46</v>
+        <v>94.48</v>
       </c>
       <c r="AP8" s="25">
-        <v>93.89</v>
+        <v>93.94</v>
       </c>
       <c r="AQ8" s="25">
-        <v>93.86</v>
+        <v>93.96</v>
       </c>
       <c r="AR8" s="25">
-        <v>94.59</v>
+        <v>94.71</v>
       </c>
       <c r="AS8" s="25">
-        <v>94.96</v>
+        <v>95.03</v>
       </c>
       <c r="AT8" s="25">
-        <v>95.06</v>
+        <v>95.18</v>
       </c>
       <c r="AU8" s="25">
-        <v>94.72</v>
+        <v>95.46</v>
       </c>
       <c r="AV8" s="25">
-        <v>95.05</v>
-      </c>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
+        <v>95.76</v>
+      </c>
+      <c r="AW8" s="25">
+        <v>95.8</v>
+      </c>
+      <c r="AX8" s="25">
+        <v>95.98</v>
+      </c>
       <c r="AY8" s="25"/>
       <c r="AZ8" s="25"/>
       <c r="BA8" s="25"/>
@@ -2189,31 +2201,31 @@
         <v>20</v>
       </c>
       <c r="C9" s="25">
-        <v>96.05</v>
+        <v>95.99</v>
       </c>
       <c r="D9" s="25">
-        <v>96.93</v>
+        <v>96.86</v>
       </c>
       <c r="E9" s="25">
-        <v>97.71</v>
+        <v>97.64</v>
       </c>
       <c r="F9" s="25">
-        <v>98.42</v>
+        <v>98.36</v>
       </c>
       <c r="G9" s="25">
-        <v>98.81</v>
+        <v>98.79</v>
       </c>
       <c r="H9" s="25">
-        <v>99.16</v>
+        <v>99.14</v>
       </c>
       <c r="I9" s="25">
-        <v>99.73</v>
+        <v>99.72</v>
       </c>
       <c r="J9" s="25">
-        <v>99.51</v>
+        <v>99.52</v>
       </c>
       <c r="K9" s="25">
-        <v>99.09</v>
+        <v>99.1</v>
       </c>
       <c r="L9" s="25">
         <v>99.64</v>
@@ -2228,106 +2240,110 @@
         <v>97.79</v>
       </c>
       <c r="P9" s="25">
-        <v>95.98</v>
+        <v>95.99</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.86</v>
+        <v>94.88</v>
       </c>
       <c r="R9" s="25">
-        <v>94.72</v>
+        <v>94.74</v>
       </c>
       <c r="S9" s="25">
-        <v>94.88</v>
+        <v>94.91</v>
       </c>
       <c r="T9" s="25">
-        <v>94.91</v>
+        <v>94.94</v>
       </c>
       <c r="U9" s="25">
-        <v>95.2</v>
+        <v>95.24</v>
       </c>
       <c r="V9" s="25">
-        <v>95.42</v>
+        <v>95.45</v>
       </c>
       <c r="W9" s="25">
-        <v>95.61</v>
+        <v>95.65</v>
       </c>
       <c r="X9" s="25">
-        <v>96.12</v>
+        <v>96.15</v>
       </c>
       <c r="Y9" s="25">
-        <v>96.91</v>
+        <v>96.94</v>
       </c>
       <c r="Z9" s="25">
-        <v>97.25</v>
+        <v>97.28</v>
       </c>
       <c r="AA9" s="25">
-        <v>97.09</v>
+        <v>97.11</v>
       </c>
       <c r="AB9" s="25">
-        <v>96.4</v>
+        <v>96.33</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.84</v>
+        <v>96.79</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.6</v>
+        <v>97.62</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.46</v>
+        <v>97.49</v>
       </c>
       <c r="AF9" s="25">
         <v>97.32</v>
       </c>
       <c r="AG9" s="25">
-        <v>97.49</v>
+        <v>97.48</v>
       </c>
       <c r="AH9" s="25">
-        <v>97.44</v>
+        <v>97.43</v>
       </c>
       <c r="AI9" s="25">
-        <v>97.27</v>
+        <v>97.25</v>
       </c>
       <c r="AJ9" s="25">
-        <v>97.29</v>
+        <v>97.28</v>
       </c>
       <c r="AK9" s="25">
-        <v>97.22</v>
+        <v>97.19</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.26</v>
+        <v>97.21</v>
       </c>
       <c r="AM9" s="25">
-        <v>97.53</v>
+        <v>97.47</v>
       </c>
       <c r="AN9" s="25">
-        <v>97.72</v>
+        <v>97.65</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.54</v>
+        <v>97.47</v>
       </c>
       <c r="AP9" s="25">
-        <v>96.93</v>
+        <v>96.88</v>
       </c>
       <c r="AQ9" s="25">
-        <v>97.08</v>
+        <v>96.99</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.72</v>
+        <v>97.57</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.86</v>
+        <v>97.67</v>
       </c>
       <c r="AT9" s="25">
-        <v>98.04</v>
+        <v>97.8</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.36</v>
+        <v>98.11</v>
       </c>
       <c r="AV9" s="25">
-        <v>99.67</v>
-      </c>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
+        <v>98.66</v>
+      </c>
+      <c r="AW9" s="25">
+        <v>98.92</v>
+      </c>
+      <c r="AX9" s="25">
+        <v>99.69</v>
+      </c>
       <c r="AY9" s="25"/>
       <c r="AZ9" s="25"/>
       <c r="BA9" s="25"/>
@@ -2365,25 +2381,25 @@
         <v>19</v>
       </c>
       <c r="C10" s="25">
-        <v>87.02</v>
+        <v>87.04</v>
       </c>
       <c r="D10" s="25">
-        <v>91.52</v>
+        <v>91.53</v>
       </c>
       <c r="E10" s="25">
-        <v>94.16</v>
+        <v>94.17</v>
       </c>
       <c r="F10" s="25">
-        <v>95.34</v>
+        <v>95.35</v>
       </c>
       <c r="G10" s="25">
-        <v>96.24</v>
+        <v>96.25</v>
       </c>
       <c r="H10" s="25">
-        <v>97.35</v>
+        <v>97.36</v>
       </c>
       <c r="I10" s="25">
-        <v>97.68</v>
+        <v>97.69</v>
       </c>
       <c r="J10" s="25">
         <v>98.29</v>
@@ -2401,109 +2417,113 @@
         <v>99.07</v>
       </c>
       <c r="O10" s="25">
-        <v>95.22</v>
+        <v>95.21</v>
       </c>
       <c r="P10" s="25">
-        <v>91.92</v>
+        <v>91.91</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.56</v>
+        <v>89.58</v>
       </c>
       <c r="R10" s="25">
-        <v>88.86</v>
+        <v>88.88</v>
       </c>
       <c r="S10" s="25">
-        <v>89.29</v>
+        <v>89.32</v>
       </c>
       <c r="T10" s="25">
-        <v>90.37</v>
+        <v>90.4</v>
       </c>
       <c r="U10" s="25">
-        <v>91.77</v>
+        <v>91.8</v>
       </c>
       <c r="V10" s="25">
-        <v>93.58</v>
+        <v>93.61</v>
       </c>
       <c r="W10" s="25">
-        <v>94.07</v>
+        <v>94.1</v>
       </c>
       <c r="X10" s="25">
-        <v>94.66</v>
+        <v>94.69</v>
       </c>
       <c r="Y10" s="25">
-        <v>95.96</v>
+        <v>96.01</v>
       </c>
       <c r="Z10" s="25">
-        <v>95.68</v>
+        <v>95.73</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.04</v>
+        <v>96.09</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.33</v>
+        <v>97.39</v>
       </c>
       <c r="AC10" s="25">
-        <v>99.5</v>
+        <v>99.69</v>
       </c>
       <c r="AD10" s="25">
-        <v>99.5</v>
+        <v>99.81</v>
       </c>
       <c r="AE10" s="25">
-        <v>99.4</v>
+        <v>99.74</v>
       </c>
       <c r="AF10" s="25">
-        <v>99.89</v>
+        <v>100.25</v>
       </c>
       <c r="AG10" s="25">
-        <v>99.8</v>
+        <v>100.19</v>
       </c>
       <c r="AH10" s="25">
-        <v>99.78</v>
+        <v>100.23</v>
       </c>
       <c r="AI10" s="25">
-        <v>99.89</v>
+        <v>100.35</v>
       </c>
       <c r="AJ10" s="25">
-        <v>100.1</v>
+        <v>100.58</v>
       </c>
       <c r="AK10" s="25">
-        <v>100.25</v>
+        <v>100.73</v>
       </c>
       <c r="AL10" s="25">
-        <v>100.58</v>
+        <v>101.14</v>
       </c>
       <c r="AM10" s="25">
-        <v>101.01</v>
+        <v>101.63</v>
       </c>
       <c r="AN10" s="25">
-        <v>101.01</v>
+        <v>101.66</v>
       </c>
       <c r="AO10" s="25">
-        <v>101.01</v>
+        <v>101.67</v>
       </c>
       <c r="AP10" s="25">
-        <v>99.62</v>
+        <v>100.37</v>
       </c>
       <c r="AQ10" s="25">
-        <v>97.82</v>
+        <v>98.82</v>
       </c>
       <c r="AR10" s="25">
-        <v>97.53</v>
+        <v>98.71</v>
       </c>
       <c r="AS10" s="25">
-        <v>97.33</v>
+        <v>98.67</v>
       </c>
       <c r="AT10" s="25">
-        <v>96.37</v>
+        <v>98.12</v>
       </c>
       <c r="AU10" s="25">
-        <v>93.39</v>
+        <v>96.83</v>
       </c>
       <c r="AV10" s="25">
-        <v>92.47</v>
-      </c>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
+        <v>96.2</v>
+      </c>
+      <c r="AW10" s="25">
+        <v>95.44</v>
+      </c>
+      <c r="AX10" s="25">
+        <v>95.32</v>
+      </c>
       <c r="AY10" s="25"/>
       <c r="AZ10" s="25"/>
       <c r="BA10" s="25"/>
@@ -2550,7 +2570,7 @@
         <v>97.3</v>
       </c>
       <c r="F11" s="25">
-        <v>98.08</v>
+        <v>98.09</v>
       </c>
       <c r="G11" s="25">
         <v>98.63</v>
@@ -2562,28 +2582,28 @@
         <v>99.55</v>
       </c>
       <c r="J11" s="25">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="K11" s="25">
-        <v>100.16</v>
+        <v>100.17</v>
       </c>
       <c r="L11" s="25">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="M11" s="25">
         <v>100</v>
       </c>
       <c r="N11" s="25">
-        <v>98.46</v>
+        <v>98.45</v>
       </c>
       <c r="O11" s="25">
-        <v>93.6</v>
+        <v>93.58</v>
       </c>
       <c r="P11" s="25">
-        <v>89.92</v>
+        <v>89.91</v>
       </c>
       <c r="Q11" s="25">
-        <v>88.07</v>
+        <v>88.06</v>
       </c>
       <c r="R11" s="25">
         <v>87.67</v>
@@ -2592,94 +2612,98 @@
         <v>88.07</v>
       </c>
       <c r="T11" s="25">
-        <v>88.58</v>
+        <v>88.59</v>
       </c>
       <c r="U11" s="25">
-        <v>89.07</v>
+        <v>89.08</v>
       </c>
       <c r="V11" s="25">
         <v>89.56</v>
       </c>
       <c r="W11" s="25">
-        <v>90</v>
+        <v>90.01</v>
       </c>
       <c r="X11" s="25">
-        <v>90.54</v>
+        <v>90.55</v>
       </c>
       <c r="Y11" s="25">
-        <v>91.52</v>
+        <v>91.53</v>
       </c>
       <c r="Z11" s="25">
-        <v>92.21</v>
+        <v>92.23</v>
       </c>
       <c r="AA11" s="25">
-        <v>92.45</v>
+        <v>92.47</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.51</v>
+        <v>92.53</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.24</v>
+        <v>93.26</v>
       </c>
       <c r="AD11" s="25">
-        <v>93.96</v>
+        <v>93.98</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.22</v>
+        <v>94.25</v>
       </c>
       <c r="AF11" s="25">
-        <v>94.6</v>
+        <v>94.62</v>
       </c>
       <c r="AG11" s="25">
-        <v>94.64</v>
+        <v>94.66</v>
       </c>
       <c r="AH11" s="25">
-        <v>94.61</v>
+        <v>94.65</v>
       </c>
       <c r="AI11" s="25">
-        <v>94.73</v>
+        <v>94.76</v>
       </c>
       <c r="AJ11" s="25">
-        <v>95.01</v>
+        <v>95.04</v>
       </c>
       <c r="AK11" s="25">
-        <v>95.14</v>
+        <v>95.17</v>
       </c>
       <c r="AL11" s="25">
-        <v>95.34</v>
+        <v>95.37</v>
       </c>
       <c r="AM11" s="25">
-        <v>95.64</v>
+        <v>95.66</v>
       </c>
       <c r="AN11" s="25">
-        <v>95.7</v>
+        <v>95.72</v>
       </c>
       <c r="AO11" s="25">
-        <v>95.71</v>
+        <v>95.76</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.14</v>
+        <v>95.2</v>
       </c>
       <c r="AQ11" s="25">
-        <v>94.77</v>
+        <v>94.86</v>
       </c>
       <c r="AR11" s="25">
-        <v>95.44</v>
+        <v>95.55</v>
       </c>
       <c r="AS11" s="25">
-        <v>95.67</v>
+        <v>95.78</v>
       </c>
       <c r="AT11" s="25">
-        <v>95.36</v>
+        <v>95.51</v>
       </c>
       <c r="AU11" s="25">
-        <v>94.75</v>
+        <v>95.59</v>
       </c>
       <c r="AV11" s="25">
-        <v>95.2</v>
-      </c>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
+        <v>95.81</v>
+      </c>
+      <c r="AW11" s="25">
+        <v>95.98</v>
+      </c>
+      <c r="AX11" s="25">
+        <v>96.44</v>
+      </c>
       <c r="AY11" s="25"/>
       <c r="AZ11" s="25"/>
       <c r="BA11" s="25"/>
@@ -2717,28 +2741,28 @@
         <v>20</v>
       </c>
       <c r="C12" s="25">
-        <v>96.26</v>
+        <v>96.27</v>
       </c>
       <c r="D12" s="25">
-        <v>96.85</v>
+        <v>96.86</v>
       </c>
       <c r="E12" s="25">
-        <v>97.26</v>
+        <v>97.27</v>
       </c>
       <c r="F12" s="25">
-        <v>98.07</v>
+        <v>98.08</v>
       </c>
       <c r="G12" s="25">
-        <v>98.86</v>
+        <v>98.87</v>
       </c>
       <c r="H12" s="25">
         <v>99.07</v>
       </c>
       <c r="I12" s="25">
-        <v>100.01</v>
+        <v>100.02</v>
       </c>
       <c r="J12" s="25">
-        <v>99.59</v>
+        <v>99.6</v>
       </c>
       <c r="K12" s="25">
         <v>99.3</v>
@@ -2753,7 +2777,7 @@
         <v>99.62</v>
       </c>
       <c r="O12" s="25">
-        <v>97.91</v>
+        <v>97.9</v>
       </c>
       <c r="P12" s="25">
         <v>96.2</v>
@@ -2774,19 +2798,19 @@
         <v>95.29</v>
       </c>
       <c r="V12" s="25">
-        <v>95.56</v>
+        <v>95.57</v>
       </c>
       <c r="W12" s="25">
         <v>95.95</v>
       </c>
       <c r="X12" s="25">
-        <v>96.66</v>
+        <v>96.67</v>
       </c>
       <c r="Y12" s="25">
-        <v>97.66</v>
+        <v>97.67</v>
       </c>
       <c r="Z12" s="25">
-        <v>97.52</v>
+        <v>97.53</v>
       </c>
       <c r="AA12" s="25">
         <v>97.5</v>
@@ -2798,7 +2822,7 @@
         <v>97.39</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.08</v>
+        <v>98.07</v>
       </c>
       <c r="AE12" s="25">
         <v>97.69</v>
@@ -2807,55 +2831,59 @@
         <v>97.73</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.26</v>
+        <v>98.25</v>
       </c>
       <c r="AH12" s="25">
         <v>98.25</v>
       </c>
       <c r="AI12" s="25">
+        <v>98.2</v>
+      </c>
+      <c r="AJ12" s="25">
+        <v>98.19</v>
+      </c>
+      <c r="AK12" s="25">
         <v>98.21</v>
       </c>
-      <c r="AJ12" s="25">
-        <v>98.2</v>
-      </c>
-      <c r="AK12" s="25">
-        <v>98.22</v>
-      </c>
       <c r="AL12" s="25">
-        <v>98.08</v>
+        <v>98.04</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.38</v>
+        <v>98.32</v>
       </c>
       <c r="AN12" s="25">
+        <v>98.58</v>
+      </c>
+      <c r="AO12" s="25">
+        <v>98.52</v>
+      </c>
+      <c r="AP12" s="25">
+        <v>97.69</v>
+      </c>
+      <c r="AQ12" s="25">
+        <v>97.56</v>
+      </c>
+      <c r="AR12" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="AS12" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="AT12" s="25">
         <v>98.64</v>
       </c>
-      <c r="AO12" s="25">
-        <v>98.59</v>
-      </c>
-      <c r="AP12" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>97.78</v>
-      </c>
-      <c r="AR12" s="25">
-        <v>98.55</v>
-      </c>
-      <c r="AS12" s="25">
-        <v>98.71</v>
-      </c>
-      <c r="AT12" s="25">
-        <v>98.95</v>
-      </c>
       <c r="AU12" s="25">
-        <v>99.37</v>
+        <v>98.99</v>
       </c>
       <c r="AV12" s="25">
-        <v>100.43</v>
-      </c>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
+        <v>99.3</v>
+      </c>
+      <c r="AW12" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="AX12" s="25">
+        <v>100.65</v>
+      </c>
       <c r="AY12" s="25"/>
       <c r="AZ12" s="25"/>
       <c r="BA12" s="25"/>
@@ -2893,145 +2921,149 @@
         <v>19</v>
       </c>
       <c r="C13" s="25">
-        <v>87.34</v>
+        <v>87.35</v>
       </c>
       <c r="D13" s="25">
-        <v>90.7</v>
+        <v>90.71</v>
       </c>
       <c r="E13" s="25">
-        <v>93.41</v>
+        <v>93.42</v>
       </c>
       <c r="F13" s="25">
-        <v>94.8</v>
+        <v>94.82</v>
       </c>
       <c r="G13" s="25">
-        <v>95.74</v>
+        <v>95.75</v>
       </c>
       <c r="H13" s="25">
-        <v>97.26</v>
+        <v>97.27</v>
       </c>
       <c r="I13" s="25">
-        <v>97.74</v>
+        <v>97.75</v>
       </c>
       <c r="J13" s="25">
-        <v>98.26</v>
+        <v>98.27</v>
       </c>
       <c r="K13" s="25">
-        <v>98.79</v>
+        <v>98.81</v>
       </c>
       <c r="L13" s="25">
-        <v>99.97</v>
+        <v>99.98</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
       </c>
       <c r="N13" s="25">
-        <v>99.27</v>
+        <v>99.25</v>
       </c>
       <c r="O13" s="25">
-        <v>95.18</v>
+        <v>95.13</v>
       </c>
       <c r="P13" s="25">
-        <v>91.72</v>
+        <v>91.68</v>
       </c>
       <c r="Q13" s="25">
-        <v>89.32</v>
+        <v>89.31</v>
       </c>
       <c r="R13" s="25">
-        <v>88.54</v>
+        <v>88.55</v>
       </c>
       <c r="S13" s="25">
-        <v>89.03</v>
+        <v>89.05</v>
       </c>
       <c r="T13" s="25">
-        <v>90.05</v>
+        <v>90.07</v>
       </c>
       <c r="U13" s="25">
-        <v>90.84</v>
+        <v>90.87</v>
       </c>
       <c r="V13" s="25">
-        <v>91.38</v>
+        <v>91.42</v>
       </c>
       <c r="W13" s="25">
-        <v>91.79</v>
+        <v>91.82</v>
       </c>
       <c r="X13" s="25">
-        <v>92.38</v>
+        <v>92.42</v>
       </c>
       <c r="Y13" s="25">
-        <v>93.7</v>
+        <v>93.74</v>
       </c>
       <c r="Z13" s="25">
-        <v>94.48</v>
+        <v>94.52</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.11</v>
+        <v>95.15</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.3</v>
+        <v>96.34</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.14</v>
+        <v>98.24</v>
       </c>
       <c r="AD13" s="25">
-        <v>97.43</v>
+        <v>97.59</v>
       </c>
       <c r="AE13" s="25">
-        <v>96.91</v>
+        <v>97.07</v>
       </c>
       <c r="AF13" s="25">
-        <v>96.76</v>
+        <v>96.94</v>
       </c>
       <c r="AG13" s="25">
-        <v>96.41</v>
+        <v>96.62</v>
       </c>
       <c r="AH13" s="25">
-        <v>95.55</v>
+        <v>95.78</v>
       </c>
       <c r="AI13" s="25">
+        <v>95.03</v>
+      </c>
+      <c r="AJ13" s="25">
+        <v>94.44</v>
+      </c>
+      <c r="AK13" s="25">
+        <v>94.59</v>
+      </c>
+      <c r="AL13" s="25">
+        <v>94.68</v>
+      </c>
+      <c r="AM13" s="25">
+        <v>95.08</v>
+      </c>
+      <c r="AN13" s="25">
+        <v>95.24</v>
+      </c>
+      <c r="AO13" s="25">
+        <v>95.3</v>
+      </c>
+      <c r="AP13" s="25">
         <v>94.8</v>
       </c>
-      <c r="AJ13" s="25">
-        <v>94.18</v>
-      </c>
-      <c r="AK13" s="25">
-        <v>94.31</v>
-      </c>
-      <c r="AL13" s="25">
-        <v>94.33</v>
-      </c>
-      <c r="AM13" s="25">
-        <v>94.71</v>
-      </c>
-      <c r="AN13" s="25">
-        <v>94.84</v>
-      </c>
-      <c r="AO13" s="25">
-        <v>94.89</v>
-      </c>
-      <c r="AP13" s="25">
-        <v>94.29</v>
-      </c>
       <c r="AQ13" s="25">
-        <v>93.65</v>
+        <v>94.34</v>
       </c>
       <c r="AR13" s="25">
-        <v>93.53</v>
+        <v>94.34</v>
       </c>
       <c r="AS13" s="25">
-        <v>93.38</v>
+        <v>94.3</v>
       </c>
       <c r="AT13" s="25">
-        <v>93.58</v>
+        <v>94.85</v>
       </c>
       <c r="AU13" s="25">
-        <v>91.71</v>
+        <v>94.46</v>
       </c>
       <c r="AV13" s="25">
-        <v>91.09</v>
-      </c>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
+        <v>94.5</v>
+      </c>
+      <c r="AW13" s="25">
+        <v>94.08</v>
+      </c>
+      <c r="AX13" s="25">
+        <v>93.88</v>
+      </c>
       <c r="AY13" s="25"/>
       <c r="AZ13" s="25"/>
       <c r="BA13" s="25"/>
@@ -3069,25 +3101,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="25">
-        <v>90.35</v>
+        <v>90.34</v>
       </c>
       <c r="D14" s="25">
-        <v>93.35</v>
+        <v>93.36</v>
       </c>
       <c r="E14" s="25">
-        <v>95.61</v>
+        <v>95.62</v>
       </c>
       <c r="F14" s="25">
-        <v>96.66</v>
+        <v>96.68</v>
       </c>
       <c r="G14" s="25">
-        <v>97.48</v>
+        <v>97.49</v>
       </c>
       <c r="H14" s="25">
-        <v>99.08</v>
+        <v>99.11</v>
       </c>
       <c r="I14" s="25">
-        <v>99.22</v>
+        <v>99.24</v>
       </c>
       <c r="J14" s="25">
         <v>99.72</v>
@@ -3096,64 +3128,64 @@
         <v>99.87</v>
       </c>
       <c r="L14" s="25">
-        <v>100.06</v>
+        <v>100.07</v>
       </c>
       <c r="M14" s="25">
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.91</v>
+        <v>98.87</v>
       </c>
       <c r="O14" s="25">
-        <v>94.49</v>
+        <v>94.41</v>
       </c>
       <c r="P14" s="25">
-        <v>90.68</v>
+        <v>90.66</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.68</v>
+        <v>88.69</v>
       </c>
       <c r="R14" s="25">
-        <v>87.46</v>
+        <v>87.49</v>
       </c>
       <c r="S14" s="25">
-        <v>87.97</v>
+        <v>88.01</v>
       </c>
       <c r="T14" s="25">
-        <v>88.57</v>
+        <v>88.62</v>
       </c>
       <c r="U14" s="25">
-        <v>88.68</v>
+        <v>88.74</v>
       </c>
       <c r="V14" s="25">
-        <v>89.15</v>
+        <v>89.21</v>
       </c>
       <c r="W14" s="25">
-        <v>89.33</v>
+        <v>89.39</v>
       </c>
       <c r="X14" s="25">
-        <v>89.84</v>
+        <v>89.89</v>
       </c>
       <c r="Y14" s="25">
-        <v>90.34</v>
+        <v>90.38</v>
       </c>
       <c r="Z14" s="25">
-        <v>91.17</v>
+        <v>91.21</v>
       </c>
       <c r="AA14" s="25">
+        <v>91.37</v>
+      </c>
+      <c r="AB14" s="25">
         <v>91.33</v>
       </c>
-      <c r="AB14" s="25">
-        <v>91.28</v>
-      </c>
       <c r="AC14" s="25">
-        <v>91.71</v>
+        <v>91.75</v>
       </c>
       <c r="AD14" s="25">
-        <v>90.66</v>
+        <v>90.64</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.04</v>
+        <v>90</v>
       </c>
       <c r="AF14" s="25">
         <v>90.53</v>
@@ -3162,52 +3194,56 @@
         <v>90.43</v>
       </c>
       <c r="AH14" s="25">
-        <v>89.27</v>
+        <v>89.29</v>
       </c>
       <c r="AI14" s="25">
-        <v>88.5</v>
+        <v>88.51</v>
       </c>
       <c r="AJ14" s="25">
         <v>87.94</v>
       </c>
       <c r="AK14" s="25">
-        <v>87.97</v>
+        <v>88</v>
       </c>
       <c r="AL14" s="25">
-        <v>88.39</v>
+        <v>88.46</v>
       </c>
       <c r="AM14" s="25">
-        <v>89.06</v>
+        <v>89.12</v>
       </c>
       <c r="AN14" s="25">
-        <v>89.32</v>
+        <v>89.38</v>
       </c>
       <c r="AO14" s="25">
-        <v>89.18</v>
+        <v>89.23</v>
       </c>
       <c r="AP14" s="25">
-        <v>88.57</v>
+        <v>88.58</v>
       </c>
       <c r="AQ14" s="25">
-        <v>88.73</v>
+        <v>88.77</v>
       </c>
       <c r="AR14" s="25">
-        <v>89.92</v>
+        <v>90.01</v>
       </c>
       <c r="AS14" s="25">
-        <v>90.56</v>
+        <v>90.59</v>
       </c>
       <c r="AT14" s="25">
-        <v>91.36</v>
+        <v>91.52</v>
       </c>
       <c r="AU14" s="25">
-        <v>91.18</v>
+        <v>92.11</v>
       </c>
       <c r="AV14" s="25">
-        <v>91.73</v>
-      </c>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
+        <v>92.73</v>
+      </c>
+      <c r="AW14" s="25">
+        <v>92.85</v>
+      </c>
+      <c r="AX14" s="25">
+        <v>93.32</v>
+      </c>
       <c r="AY14" s="25"/>
       <c r="AZ14" s="25"/>
       <c r="BA14" s="25"/>
@@ -3245,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="25">
-        <v>95.77</v>
+        <v>95.78</v>
       </c>
       <c r="D15" s="25">
         <v>96.63</v>
@@ -3254,43 +3290,43 @@
         <v>97.87</v>
       </c>
       <c r="F15" s="25">
-        <v>98.74</v>
+        <v>98.75</v>
       </c>
       <c r="G15" s="25">
-        <v>99.17</v>
+        <v>99.18</v>
       </c>
       <c r="H15" s="25">
-        <v>99.19</v>
+        <v>99.16</v>
       </c>
       <c r="I15" s="25">
-        <v>98.92</v>
+        <v>98.9</v>
       </c>
       <c r="J15" s="25">
-        <v>99.28</v>
+        <v>99.29</v>
       </c>
       <c r="K15" s="25">
-        <v>99.5</v>
+        <v>99.51</v>
       </c>
       <c r="L15" s="25">
-        <v>99.62</v>
+        <v>99.63</v>
       </c>
       <c r="M15" s="25">
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>98.99</v>
+        <v>98.97</v>
       </c>
       <c r="O15" s="25">
-        <v>97.46</v>
+        <v>97.43</v>
       </c>
       <c r="P15" s="25">
-        <v>95.2</v>
+        <v>95.16</v>
       </c>
       <c r="Q15" s="25">
-        <v>94.35</v>
+        <v>94.31</v>
       </c>
       <c r="R15" s="25">
-        <v>94.44</v>
+        <v>94.43</v>
       </c>
       <c r="S15" s="25">
         <v>95</v>
@@ -3302,13 +3338,13 @@
         <v>94.37</v>
       </c>
       <c r="V15" s="25">
-        <v>94.22</v>
+        <v>94.21</v>
       </c>
       <c r="W15" s="25">
         <v>94.26</v>
       </c>
       <c r="X15" s="25">
-        <v>95</v>
+        <v>95.01</v>
       </c>
       <c r="Y15" s="25">
         <v>95.86</v>
@@ -3317,73 +3353,77 @@
         <v>97.14</v>
       </c>
       <c r="AA15" s="25">
-        <v>97.17</v>
+        <v>97.16</v>
       </c>
       <c r="AB15" s="25">
-        <v>95.72</v>
+        <v>95.36</v>
       </c>
       <c r="AC15" s="25">
-        <v>96.25</v>
+        <v>95.94</v>
       </c>
       <c r="AD15" s="25">
-        <v>97.01</v>
+        <v>96.98</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.87</v>
+        <v>96.84</v>
       </c>
       <c r="AF15" s="25">
-        <v>95.98</v>
+        <v>95.93</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.02</v>
+        <v>95.97</v>
       </c>
       <c r="AH15" s="25">
-        <v>95.55</v>
+        <v>95.51</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.06</v>
+        <v>95.02</v>
       </c>
       <c r="AJ15" s="25">
-        <v>94.8</v>
+        <v>94.76</v>
       </c>
       <c r="AK15" s="25">
-        <v>94.87</v>
+        <v>94.81</v>
       </c>
       <c r="AL15" s="25">
-        <v>95</v>
+        <v>94.92</v>
       </c>
       <c r="AM15" s="25">
-        <v>95.12</v>
+        <v>95.08</v>
       </c>
       <c r="AN15" s="25">
-        <v>95.11</v>
+        <v>95.07</v>
       </c>
       <c r="AO15" s="25">
-        <v>95.03</v>
+        <v>94.97</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.47</v>
+        <v>94.38</v>
       </c>
       <c r="AQ15" s="25">
-        <v>94.98</v>
+        <v>94.9</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.47</v>
+        <v>95.29</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.74</v>
+        <v>95.51</v>
       </c>
       <c r="AT15" s="25">
-        <v>95.9</v>
+        <v>95.91</v>
       </c>
       <c r="AU15" s="25">
-        <v>96.34</v>
+        <v>96.14</v>
       </c>
       <c r="AV15" s="25">
-        <v>97.84</v>
-      </c>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
+        <v>97.03</v>
+      </c>
+      <c r="AW15" s="25">
+        <v>97.33</v>
+      </c>
+      <c r="AX15" s="25">
+        <v>97.9</v>
+      </c>
       <c r="AY15" s="25"/>
       <c r="AZ15" s="25"/>
       <c r="BA15" s="25"/>
@@ -3421,22 +3461,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="25">
-        <v>86.23</v>
+        <v>86.22</v>
       </c>
       <c r="D16" s="25">
         <v>92.29</v>
       </c>
       <c r="E16" s="25">
-        <v>95.15</v>
+        <v>95.14</v>
       </c>
       <c r="F16" s="25">
-        <v>96.24</v>
+        <v>96.23</v>
       </c>
       <c r="G16" s="25">
-        <v>96.93</v>
+        <v>96.92</v>
       </c>
       <c r="H16" s="25">
-        <v>97.7</v>
+        <v>97.69</v>
       </c>
       <c r="I16" s="25">
         <v>97.93</v>
@@ -3445,10 +3485,10 @@
         <v>98.5</v>
       </c>
       <c r="K16" s="25">
-        <v>99.01</v>
+        <v>99</v>
       </c>
       <c r="L16" s="25">
-        <v>100.03</v>
+        <v>100.02</v>
       </c>
       <c r="M16" s="25">
         <v>100</v>
@@ -3457,10 +3497,10 @@
         <v>99.31</v>
       </c>
       <c r="O16" s="25">
-        <v>95.51</v>
+        <v>95.49</v>
       </c>
       <c r="P16" s="25">
-        <v>92.05</v>
+        <v>92.03</v>
       </c>
       <c r="Q16" s="25">
         <v>89.37</v>
@@ -3469,7 +3509,7 @@
         <v>88.84</v>
       </c>
       <c r="S16" s="25">
-        <v>89.55</v>
+        <v>89.54</v>
       </c>
       <c r="T16" s="25">
         <v>90.57</v>
@@ -3478,88 +3518,92 @@
         <v>91.68</v>
       </c>
       <c r="V16" s="25">
-        <v>92.59</v>
+        <v>92.6</v>
       </c>
       <c r="W16" s="25">
-        <v>93.26</v>
+        <v>93.27</v>
       </c>
       <c r="X16" s="25">
-        <v>93.52</v>
+        <v>93.53</v>
       </c>
       <c r="Y16" s="25">
         <v>94.71</v>
       </c>
       <c r="Z16" s="25">
-        <v>95.57</v>
+        <v>95.58</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.33</v>
+        <v>96.35</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.65</v>
+        <v>97.68</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="AD16" s="25">
-        <v>99.64</v>
+        <v>99.82</v>
       </c>
       <c r="AE16" s="25">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AF16" s="25">
-        <v>100.34</v>
+        <v>100.55</v>
       </c>
       <c r="AG16" s="25">
-        <v>100.52</v>
+        <v>100.74</v>
       </c>
       <c r="AH16" s="25">
-        <v>100.85</v>
+        <v>101.07</v>
       </c>
       <c r="AI16" s="25">
-        <v>100.9</v>
+        <v>101.13</v>
       </c>
       <c r="AJ16" s="25">
-        <v>101.21</v>
+        <v>101.44</v>
       </c>
       <c r="AK16" s="25">
-        <v>101.44</v>
+        <v>101.67</v>
       </c>
       <c r="AL16" s="25">
-        <v>101.63</v>
+        <v>101.9</v>
       </c>
       <c r="AM16" s="25">
-        <v>102.29</v>
+        <v>102.63</v>
       </c>
       <c r="AN16" s="25">
-        <v>102.24</v>
+        <v>102.61</v>
       </c>
       <c r="AO16" s="25">
-        <v>101.82</v>
+        <v>102.19</v>
       </c>
       <c r="AP16" s="25">
-        <v>101.03</v>
+        <v>101.48</v>
       </c>
       <c r="AQ16" s="25">
-        <v>100.37</v>
+        <v>100.97</v>
       </c>
       <c r="AR16" s="25">
-        <v>99.8</v>
+        <v>100.59</v>
       </c>
       <c r="AS16" s="25">
-        <v>99.55</v>
+        <v>100.5</v>
       </c>
       <c r="AT16" s="25">
-        <v>99.01</v>
+        <v>100.24</v>
       </c>
       <c r="AU16" s="25">
-        <v>97.27</v>
+        <v>99.58</v>
       </c>
       <c r="AV16" s="25">
-        <v>96.72</v>
-      </c>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
+        <v>99.2</v>
+      </c>
+      <c r="AW16" s="25">
+        <v>98.53</v>
+      </c>
+      <c r="AX16" s="25">
+        <v>98.24</v>
+      </c>
       <c r="AY16" s="25"/>
       <c r="AZ16" s="25"/>
       <c r="BA16" s="25"/>
@@ -3597,13 +3641,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="25">
-        <v>91.56</v>
+        <v>91.55</v>
       </c>
       <c r="D17" s="25">
         <v>95.9</v>
       </c>
       <c r="E17" s="25">
-        <v>97.87</v>
+        <v>97.88</v>
       </c>
       <c r="F17" s="25">
         <v>98.59</v>
@@ -3615,10 +3659,10 @@
         <v>99.23</v>
       </c>
       <c r="I17" s="25">
-        <v>99.66</v>
+        <v>99.65</v>
       </c>
       <c r="J17" s="25">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="K17" s="25">
         <v>100.18</v>
@@ -3630,112 +3674,116 @@
         <v>100</v>
       </c>
       <c r="N17" s="25">
-        <v>98.74</v>
+        <v>98.73</v>
       </c>
       <c r="O17" s="25">
-        <v>94.09</v>
+        <v>94.08</v>
       </c>
       <c r="P17" s="25">
-        <v>90.35</v>
+        <v>90.33</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.99</v>
+        <v>87.98</v>
       </c>
       <c r="R17" s="25">
         <v>87.52</v>
       </c>
       <c r="S17" s="25">
-        <v>88.72</v>
+        <v>88.73</v>
       </c>
       <c r="T17" s="25">
         <v>89.01</v>
       </c>
       <c r="U17" s="25">
-        <v>89.69</v>
+        <v>89.7</v>
       </c>
       <c r="V17" s="25">
-        <v>90.23</v>
+        <v>90.24</v>
       </c>
       <c r="W17" s="25">
-        <v>90.42</v>
+        <v>90.43</v>
       </c>
       <c r="X17" s="25">
-        <v>90.79</v>
+        <v>90.8</v>
       </c>
       <c r="Y17" s="25">
-        <v>91.83</v>
+        <v>91.84</v>
       </c>
       <c r="Z17" s="25">
-        <v>92.76</v>
+        <v>92.77</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.36</v>
+        <v>93.37</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.38</v>
+        <v>93.4</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.06</v>
+        <v>94.07</v>
       </c>
       <c r="AD17" s="25">
-        <v>94.71</v>
+        <v>94.72</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.37</v>
+        <v>95.4</v>
       </c>
       <c r="AF17" s="25">
-        <v>95.77</v>
+        <v>95.76</v>
       </c>
       <c r="AG17" s="25">
-        <v>95.78</v>
+        <v>95.76</v>
       </c>
       <c r="AH17" s="25">
-        <v>95.86</v>
+        <v>95.82</v>
       </c>
       <c r="AI17" s="25">
-        <v>95.93</v>
+        <v>95.89</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.15</v>
+        <v>96.12</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.3</v>
+        <v>96.27</v>
       </c>
       <c r="AL17" s="25">
-        <v>96.54</v>
+        <v>96.49</v>
       </c>
       <c r="AM17" s="25">
-        <v>97.4</v>
+        <v>97.35</v>
       </c>
       <c r="AN17" s="25">
-        <v>97.47</v>
+        <v>97.43</v>
       </c>
       <c r="AO17" s="25">
-        <v>96.97</v>
+        <v>96.93</v>
       </c>
       <c r="AP17" s="25">
-        <v>96.33</v>
+        <v>96.37</v>
       </c>
       <c r="AQ17" s="25">
-        <v>96.54</v>
+        <v>96.66</v>
       </c>
       <c r="AR17" s="25">
-        <v>97.1</v>
+        <v>97.18</v>
       </c>
       <c r="AS17" s="25">
-        <v>97.37</v>
+        <v>97.36</v>
       </c>
       <c r="AT17" s="25">
-        <v>97.16</v>
+        <v>97.12</v>
       </c>
       <c r="AU17" s="25">
-        <v>97.07</v>
+        <v>97.49</v>
       </c>
       <c r="AV17" s="25">
-        <v>97.43</v>
-      </c>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
+        <v>97.63</v>
+      </c>
+      <c r="AW17" s="25">
+        <v>97.66</v>
+      </c>
+      <c r="AX17" s="25">
+        <v>97.26</v>
+      </c>
       <c r="AY17" s="25"/>
       <c r="AZ17" s="25"/>
       <c r="BA17" s="25"/>
@@ -3776,7 +3824,7 @@
         <v>95.89</v>
       </c>
       <c r="D18" s="25">
-        <v>97.19</v>
+        <v>97.2</v>
       </c>
       <c r="E18" s="25">
         <v>97.75</v>
@@ -3794,10 +3842,10 @@
         <v>99.49</v>
       </c>
       <c r="J18" s="25">
-        <v>99.59</v>
+        <v>99.6</v>
       </c>
       <c r="K18" s="25">
-        <v>98.71</v>
+        <v>98.72</v>
       </c>
       <c r="L18" s="25">
         <v>99.43</v>
@@ -3812,7 +3860,7 @@
         <v>97.65</v>
       </c>
       <c r="P18" s="25">
-        <v>96.23</v>
+        <v>96.22</v>
       </c>
       <c r="Q18" s="25">
         <v>94.47</v>
@@ -3821,10 +3869,10 @@
         <v>94.51</v>
       </c>
       <c r="S18" s="25">
-        <v>94.81</v>
+        <v>94.82</v>
       </c>
       <c r="T18" s="25">
-        <v>95.1</v>
+        <v>95.11</v>
       </c>
       <c r="U18" s="25">
         <v>95.53</v>
@@ -3839,16 +3887,16 @@
         <v>96.06</v>
       </c>
       <c r="Y18" s="25">
-        <v>96.54</v>
+        <v>96.55</v>
       </c>
       <c r="Z18" s="25">
-        <v>96.79</v>
+        <v>96.78</v>
       </c>
       <c r="AA18" s="25">
         <v>96.39</v>
       </c>
       <c r="AB18" s="25">
-        <v>95.93</v>
+        <v>95.92</v>
       </c>
       <c r="AC18" s="25">
         <v>96.27</v>
@@ -3857,61 +3905,65 @@
         <v>97.14</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.22</v>
+        <v>97.3</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.73</v>
+        <v>97.61</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.3</v>
+        <v>97.15</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.55</v>
+        <v>97.36</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.25</v>
+        <v>97.04</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.62</v>
+        <v>97.43</v>
       </c>
       <c r="AK18" s="25">
-        <v>97.13</v>
+        <v>96.93</v>
       </c>
       <c r="AL18" s="25">
-        <v>97.49</v>
+        <v>97.24</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.87</v>
+        <v>97.6</v>
       </c>
       <c r="AN18" s="25">
-        <v>98.19</v>
+        <v>97.92</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.53</v>
+        <v>97.26</v>
       </c>
       <c r="AP18" s="25">
         <v>96.81</v>
       </c>
       <c r="AQ18" s="25">
-        <v>97.03</v>
+        <v>96.97</v>
       </c>
       <c r="AR18" s="25">
-        <v>97.96</v>
+        <v>97.61</v>
       </c>
       <c r="AS18" s="25">
-        <v>97.79</v>
+        <v>97.43</v>
       </c>
       <c r="AT18" s="25">
-        <v>98.12</v>
+        <v>97.62</v>
       </c>
       <c r="AU18" s="25">
-        <v>97.87</v>
+        <v>97.77</v>
       </c>
       <c r="AV18" s="25">
-        <v>99.83</v>
-      </c>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="25"/>
+        <v>98.39</v>
+      </c>
+      <c r="AW18" s="25">
+        <v>98.01</v>
+      </c>
+      <c r="AX18" s="25">
+        <v>99.05</v>
+      </c>
       <c r="AY18" s="25"/>
       <c r="AZ18" s="25"/>
       <c r="BA18" s="25"/>
@@ -3949,52 +4001,52 @@
         <v>19</v>
       </c>
       <c r="C19" s="25">
-        <v>87.85</v>
+        <v>87.84</v>
       </c>
       <c r="D19" s="25">
-        <v>93.01</v>
+        <v>93</v>
       </c>
       <c r="E19" s="25">
-        <v>95.31</v>
+        <v>95.3</v>
       </c>
       <c r="F19" s="25">
-        <v>96.28</v>
+        <v>96.27</v>
       </c>
       <c r="G19" s="25">
         <v>96.75</v>
       </c>
       <c r="H19" s="25">
-        <v>97.88</v>
+        <v>97.87</v>
       </c>
       <c r="I19" s="25">
-        <v>98.63</v>
+        <v>98.62</v>
       </c>
       <c r="J19" s="25">
-        <v>98.87</v>
+        <v>98.86</v>
       </c>
       <c r="K19" s="25">
-        <v>99.25</v>
+        <v>99.23</v>
       </c>
       <c r="L19" s="25">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
       <c r="M19" s="25">
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>99.2</v>
+        <v>99.19</v>
       </c>
       <c r="O19" s="25">
-        <v>94.62</v>
+        <v>94.6</v>
       </c>
       <c r="P19" s="25">
-        <v>92.15</v>
+        <v>92.13</v>
       </c>
       <c r="Q19" s="25">
-        <v>90.26</v>
+        <v>90.25</v>
       </c>
       <c r="R19" s="25">
-        <v>89.57</v>
+        <v>89.56</v>
       </c>
       <c r="S19" s="25">
         <v>90.24</v>
@@ -4003,91 +4055,95 @@
         <v>91.3</v>
       </c>
       <c r="U19" s="25">
-        <v>92.38</v>
+        <v>92.37</v>
       </c>
       <c r="V19" s="25">
-        <v>92.97</v>
+        <v>92.95</v>
       </c>
       <c r="W19" s="25">
-        <v>93.43</v>
+        <v>93.42</v>
       </c>
       <c r="X19" s="25">
-        <v>94</v>
+        <v>93.99</v>
       </c>
       <c r="Y19" s="25">
         <v>95.55</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.43</v>
+        <v>96.42</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.07</v>
+        <v>97.06</v>
       </c>
       <c r="AB19" s="25">
         <v>98.25</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.76</v>
+        <v>99.83</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.03</v>
+        <v>100.16</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.16</v>
+        <v>100.31</v>
       </c>
       <c r="AF19" s="25">
-        <v>100.72</v>
+        <v>100.86</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="AH19" s="25">
-        <v>101.17</v>
+        <v>101.36</v>
       </c>
       <c r="AI19" s="25">
-        <v>101.36</v>
+        <v>101.57</v>
       </c>
       <c r="AJ19" s="25">
-        <v>101.51</v>
+        <v>101.75</v>
       </c>
       <c r="AK19" s="25">
-        <v>102.08</v>
+        <v>102.32</v>
       </c>
       <c r="AL19" s="25">
-        <v>102.38</v>
+        <v>102.67</v>
       </c>
       <c r="AM19" s="25">
-        <v>102.86</v>
+        <v>103.18</v>
       </c>
       <c r="AN19" s="25">
-        <v>102.75</v>
+        <v>103.12</v>
       </c>
       <c r="AO19" s="25">
-        <v>102.86</v>
+        <v>103.28</v>
       </c>
       <c r="AP19" s="25">
-        <v>102.37</v>
+        <v>102.87</v>
       </c>
       <c r="AQ19" s="25">
-        <v>101.48</v>
+        <v>102.09</v>
       </c>
       <c r="AR19" s="25">
-        <v>101.21</v>
+        <v>101.96</v>
       </c>
       <c r="AS19" s="25">
-        <v>100.94</v>
+        <v>101.82</v>
       </c>
       <c r="AT19" s="25">
-        <v>100.63</v>
+        <v>101.74</v>
       </c>
       <c r="AU19" s="25">
-        <v>99.3</v>
+        <v>101.22</v>
       </c>
       <c r="AV19" s="25">
-        <v>99.03</v>
-      </c>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
+        <v>100.8</v>
+      </c>
+      <c r="AW19" s="25">
+        <v>98.76</v>
+      </c>
+      <c r="AX19" s="25">
+        <v>99</v>
+      </c>
       <c r="AY19" s="25"/>
       <c r="AZ19" s="25"/>
       <c r="BA19" s="25"/>
@@ -4125,13 +4181,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="25">
-        <v>91.68</v>
+        <v>91.67</v>
       </c>
       <c r="D20" s="25">
-        <v>95.22</v>
+        <v>95.21</v>
       </c>
       <c r="E20" s="25">
-        <v>96.93</v>
+        <v>96.92</v>
       </c>
       <c r="F20" s="25">
         <v>97.72</v>
@@ -4143,127 +4199,131 @@
         <v>98.94</v>
       </c>
       <c r="I20" s="25">
-        <v>99.42</v>
+        <v>99.41</v>
       </c>
       <c r="J20" s="25">
-        <v>99.81</v>
+        <v>99.8</v>
       </c>
       <c r="K20" s="25">
-        <v>99.81</v>
+        <v>99.8</v>
       </c>
       <c r="L20" s="25">
-        <v>100.06</v>
+        <v>100.05</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
       </c>
       <c r="N20" s="25">
-        <v>98.53</v>
+        <v>98.51</v>
       </c>
       <c r="O20" s="25">
-        <v>93.52</v>
+        <v>93.5</v>
       </c>
       <c r="P20" s="25">
-        <v>90.11</v>
+        <v>90.12</v>
       </c>
       <c r="Q20" s="25">
-        <v>88.15</v>
+        <v>88.16</v>
       </c>
       <c r="R20" s="25">
-        <v>87.91</v>
+        <v>87.93</v>
       </c>
       <c r="S20" s="25">
-        <v>88.74</v>
+        <v>88.76</v>
       </c>
       <c r="T20" s="25">
-        <v>89.25</v>
+        <v>89.28</v>
       </c>
       <c r="U20" s="25">
-        <v>90.25</v>
+        <v>90.27</v>
       </c>
       <c r="V20" s="25">
-        <v>91.79</v>
+        <v>91.82</v>
       </c>
       <c r="W20" s="25">
-        <v>91.84</v>
+        <v>91.87</v>
       </c>
       <c r="X20" s="25">
-        <v>92.1</v>
+        <v>92.12</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.63</v>
+        <v>92.65</v>
       </c>
       <c r="Z20" s="25">
-        <v>92.78</v>
+        <v>92.8</v>
       </c>
       <c r="AA20" s="25">
-        <v>92.75</v>
+        <v>92.77</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.54</v>
+        <v>92.55</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.37</v>
+        <v>93.38</v>
       </c>
       <c r="AD20" s="25">
-        <v>93.86</v>
+        <v>93.88</v>
       </c>
       <c r="AE20" s="25">
-        <v>93.83</v>
+        <v>93.85</v>
       </c>
       <c r="AF20" s="25">
         <v>94.6</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.04</v>
+        <v>95.01</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.22</v>
+        <v>95.23</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.66</v>
+        <v>95.68</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.4</v>
+        <v>95.41</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.69</v>
+        <v>95.71</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.01</v>
+        <v>96</v>
       </c>
       <c r="AM20" s="25">
+        <v>96.4</v>
+      </c>
+      <c r="AN20" s="25">
+        <v>96.7</v>
+      </c>
+      <c r="AO20" s="25">
+        <v>96.63</v>
+      </c>
+      <c r="AP20" s="25">
+        <v>96.29</v>
+      </c>
+      <c r="AQ20" s="25">
+        <v>96.16</v>
+      </c>
+      <c r="AR20" s="25">
         <v>96.44</v>
       </c>
-      <c r="AN20" s="25">
-        <v>96.61</v>
-      </c>
-      <c r="AO20" s="25">
-        <v>96.54</v>
-      </c>
-      <c r="AP20" s="25">
-        <v>96.15</v>
-      </c>
-      <c r="AQ20" s="25">
-        <v>95.96</v>
-      </c>
-      <c r="AR20" s="25">
-        <v>96.27</v>
-      </c>
       <c r="AS20" s="25">
+        <v>96.62</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>96.88</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>96.99</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>97.14</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>96.28</v>
+      </c>
+      <c r="AX20" s="25">
         <v>96.53</v>
       </c>
-      <c r="AT20" s="25">
-        <v>96.84</v>
-      </c>
-      <c r="AU20" s="25">
-        <v>96.61</v>
-      </c>
-      <c r="AV20" s="25">
-        <v>96.88</v>
-      </c>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
       <c r="AY20" s="25"/>
       <c r="AZ20" s="25"/>
       <c r="BA20" s="25"/>
@@ -4301,145 +4361,149 @@
         <v>20</v>
       </c>
       <c r="C21" s="25">
-        <v>96.33</v>
+        <v>95.28</v>
       </c>
       <c r="D21" s="25">
-        <v>97.19</v>
+        <v>96.09</v>
       </c>
       <c r="E21" s="25">
-        <v>98.13</v>
+        <v>96.97</v>
       </c>
       <c r="F21" s="25">
-        <v>98.55</v>
+        <v>97.68</v>
       </c>
       <c r="G21" s="25">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="H21" s="25">
-        <v>99.39</v>
+        <v>99.2</v>
       </c>
       <c r="I21" s="25">
-        <v>100.14</v>
+        <v>100.01</v>
       </c>
       <c r="J21" s="25">
-        <v>99.3</v>
+        <v>99.28</v>
       </c>
       <c r="K21" s="25">
-        <v>98.87</v>
+        <v>98.91</v>
       </c>
       <c r="L21" s="25">
-        <v>99.88</v>
+        <v>99.87</v>
       </c>
       <c r="M21" s="25">
         <v>100</v>
       </c>
       <c r="N21" s="25">
-        <v>99.6</v>
+        <v>99.65</v>
       </c>
       <c r="O21" s="25">
-        <v>98.41</v>
+        <v>98.55</v>
       </c>
       <c r="P21" s="25">
+        <v>97.17</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>96.02</v>
+      </c>
+      <c r="R21" s="25">
+        <v>95.78</v>
+      </c>
+      <c r="S21" s="25">
+        <v>95.59</v>
+      </c>
+      <c r="T21" s="25">
+        <v>95.91</v>
+      </c>
+      <c r="U21" s="25">
+        <v>96.22</v>
+      </c>
+      <c r="V21" s="25">
+        <v>96.86</v>
+      </c>
+      <c r="W21" s="25">
+        <v>97.04</v>
+      </c>
+      <c r="X21" s="25">
+        <v>97.48</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>97.85</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>97.71</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>96.78</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>95.25</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>95.7</v>
+      </c>
+      <c r="AD21" s="25">
         <v>96.92</v>
       </c>
-      <c r="Q21" s="25">
-        <v>95.67</v>
-      </c>
-      <c r="R21" s="25">
-        <v>95.42</v>
-      </c>
-      <c r="S21" s="25">
-        <v>95.2</v>
-      </c>
-      <c r="T21" s="25">
-        <v>95.44</v>
-      </c>
-      <c r="U21" s="25">
-        <v>95.75</v>
-      </c>
-      <c r="V21" s="25">
-        <v>96.43</v>
-      </c>
-      <c r="W21" s="25">
-        <v>96.61</v>
-      </c>
-      <c r="X21" s="25">
-        <v>97.08</v>
-      </c>
-      <c r="Y21" s="25">
-        <v>97.46</v>
-      </c>
-      <c r="Z21" s="25">
-        <v>97.31</v>
-      </c>
-      <c r="AA21" s="25">
-        <v>96.3</v>
-      </c>
-      <c r="AB21" s="25">
-        <v>94.65</v>
-      </c>
-      <c r="AC21" s="25">
-        <v>95.13</v>
-      </c>
-      <c r="AD21" s="25">
-        <v>96.45</v>
-      </c>
       <c r="AE21" s="25">
-        <v>97.33</v>
+        <v>97.75</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.49</v>
+        <v>98.05</v>
       </c>
       <c r="AG21" s="25">
-        <v>97</v>
+        <v>97.63</v>
       </c>
       <c r="AH21" s="25">
-        <v>97.57</v>
+        <v>98.17</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.76</v>
+        <v>98.36</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.4</v>
+        <v>98.96</v>
       </c>
       <c r="AK21" s="25">
-        <v>98.12</v>
+        <v>98.7</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.31</v>
+        <v>98.87</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.67</v>
+        <v>99.19</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.91</v>
+        <v>99.4</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.97</v>
+        <v>99.46</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.63</v>
+        <v>99.14</v>
       </c>
       <c r="AQ21" s="25">
-        <v>99.22</v>
+        <v>99.65</v>
       </c>
       <c r="AR21" s="25">
-        <v>99.6</v>
+        <v>100.02</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.36</v>
+        <v>99.72</v>
       </c>
       <c r="AT21" s="25">
-        <v>98.86</v>
+        <v>99.39</v>
       </c>
       <c r="AU21" s="25">
-        <v>99.22</v>
+        <v>99.79</v>
       </c>
       <c r="AV21" s="25">
-        <v>100.44</v>
-      </c>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
+        <v>100.3</v>
+      </c>
+      <c r="AW21" s="25">
+        <v>100.3</v>
+      </c>
+      <c r="AX21" s="25">
+        <v>100.82</v>
+      </c>
       <c r="AY21" s="25"/>
       <c r="AZ21" s="25"/>
       <c r="BA21" s="25"/>
@@ -4477,28 +4541,28 @@
         <v>19</v>
       </c>
       <c r="C22" s="25">
-        <v>89.3</v>
+        <v>89.29</v>
       </c>
       <c r="D22" s="25">
-        <v>93.98</v>
+        <v>93.97</v>
       </c>
       <c r="E22" s="25">
-        <v>95.47</v>
+        <v>95.46</v>
       </c>
       <c r="F22" s="25">
         <v>95.41</v>
       </c>
       <c r="G22" s="25">
-        <v>95.51</v>
+        <v>95.52</v>
       </c>
       <c r="H22" s="25">
-        <v>97.12</v>
+        <v>97.11</v>
       </c>
       <c r="I22" s="25">
-        <v>97.64</v>
+        <v>97.63</v>
       </c>
       <c r="J22" s="25">
-        <v>98.02</v>
+        <v>98.01</v>
       </c>
       <c r="K22" s="25">
         <v>98.62</v>
@@ -4513,109 +4577,113 @@
         <v>99.13</v>
       </c>
       <c r="O22" s="25">
-        <v>95.17</v>
+        <v>95.16</v>
       </c>
       <c r="P22" s="25">
-        <v>91.7</v>
+        <v>91.69</v>
       </c>
       <c r="Q22" s="25">
         <v>89.01</v>
       </c>
       <c r="R22" s="25">
-        <v>88.15</v>
+        <v>88.17</v>
       </c>
       <c r="S22" s="25">
-        <v>88.5</v>
+        <v>88.52</v>
       </c>
       <c r="T22" s="25">
-        <v>89.62</v>
+        <v>89.65</v>
       </c>
       <c r="U22" s="25">
-        <v>90.8</v>
+        <v>90.82</v>
       </c>
       <c r="V22" s="25">
-        <v>91.73</v>
+        <v>91.75</v>
       </c>
       <c r="W22" s="25">
-        <v>92.76</v>
+        <v>92.78</v>
       </c>
       <c r="X22" s="25">
-        <v>93.35</v>
+        <v>93.36</v>
       </c>
       <c r="Y22" s="25">
-        <v>94.44</v>
+        <v>94.45</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.13</v>
+        <v>96.14</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="AB22" s="25">
-        <v>97.89</v>
+        <v>97.92</v>
       </c>
       <c r="AC22" s="25">
-        <v>99.77</v>
+        <v>99.86</v>
       </c>
       <c r="AD22" s="25">
-        <v>99.89</v>
+        <v>100</v>
       </c>
       <c r="AE22" s="25">
-        <v>99.91</v>
+        <v>100.04</v>
       </c>
       <c r="AF22" s="25">
-        <v>100.7</v>
+        <v>100.83</v>
       </c>
       <c r="AG22" s="25">
-        <v>100.9</v>
+        <v>101.04</v>
       </c>
       <c r="AH22" s="25">
-        <v>101.17</v>
+        <v>101.35</v>
       </c>
       <c r="AI22" s="25">
-        <v>101.53</v>
+        <v>101.73</v>
       </c>
       <c r="AJ22" s="25">
-        <v>101.84</v>
+        <v>102.03</v>
       </c>
       <c r="AK22" s="25">
-        <v>102.18</v>
+        <v>102.37</v>
       </c>
       <c r="AL22" s="25">
-        <v>102.58</v>
+        <v>102.83</v>
       </c>
       <c r="AM22" s="25">
-        <v>103.21</v>
+        <v>103.49</v>
       </c>
       <c r="AN22" s="25">
-        <v>103.22</v>
+        <v>103.52</v>
       </c>
       <c r="AO22" s="25">
-        <v>103.19</v>
+        <v>103.52</v>
       </c>
       <c r="AP22" s="25">
-        <v>102.14</v>
+        <v>102.47</v>
       </c>
       <c r="AQ22" s="25">
-        <v>101.27</v>
+        <v>101.79</v>
       </c>
       <c r="AR22" s="25">
-        <v>101.29</v>
+        <v>101.93</v>
       </c>
       <c r="AS22" s="25">
-        <v>101.42</v>
+        <v>102.17</v>
       </c>
       <c r="AT22" s="25">
-        <v>100.77</v>
+        <v>101.78</v>
       </c>
       <c r="AU22" s="25">
-        <v>98.82</v>
+        <v>101.2</v>
       </c>
       <c r="AV22" s="25">
-        <v>98.05</v>
-      </c>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
+        <v>100.87</v>
+      </c>
+      <c r="AW22" s="25">
+        <v>100.52</v>
+      </c>
+      <c r="AX22" s="25">
+        <v>100.04</v>
+      </c>
       <c r="AY22" s="25"/>
       <c r="AZ22" s="25"/>
       <c r="BA22" s="25"/>
@@ -4656,19 +4724,19 @@
         <v>95.49</v>
       </c>
       <c r="D23" s="25">
-        <v>98.67</v>
+        <v>98.68</v>
       </c>
       <c r="E23" s="25">
-        <v>99.37</v>
+        <v>99.38</v>
       </c>
       <c r="F23" s="25">
-        <v>99.08</v>
+        <v>99.09</v>
       </c>
       <c r="G23" s="25">
         <v>98.32</v>
       </c>
       <c r="H23" s="25">
-        <v>99.36</v>
+        <v>99.35</v>
       </c>
       <c r="I23" s="25">
         <v>100.1</v>
@@ -4677,7 +4745,7 @@
         <v>100.05</v>
       </c>
       <c r="K23" s="25">
-        <v>100.28</v>
+        <v>100.27</v>
       </c>
       <c r="L23" s="25">
         <v>99.96</v>
@@ -4689,109 +4757,113 @@
         <v>98.94</v>
       </c>
       <c r="O23" s="25">
-        <v>94.39</v>
+        <v>94.38</v>
       </c>
       <c r="P23" s="25">
         <v>91.07</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.27</v>
+        <v>89.28</v>
       </c>
       <c r="R23" s="25">
-        <v>88.18</v>
+        <v>88.19</v>
       </c>
       <c r="S23" s="25">
-        <v>88.31</v>
+        <v>88.33</v>
       </c>
       <c r="T23" s="25">
-        <v>89.02</v>
+        <v>89.03</v>
       </c>
       <c r="U23" s="25">
-        <v>89.79</v>
+        <v>89.8</v>
       </c>
       <c r="V23" s="25">
-        <v>90.65</v>
+        <v>90.67</v>
       </c>
       <c r="W23" s="25">
-        <v>90.99</v>
+        <v>91</v>
       </c>
       <c r="X23" s="25">
-        <v>91.41</v>
+        <v>91.43</v>
       </c>
       <c r="Y23" s="25">
-        <v>92.49</v>
+        <v>92.53</v>
       </c>
       <c r="Z23" s="25">
-        <v>93.66</v>
+        <v>93.69</v>
       </c>
       <c r="AA23" s="25">
-        <v>94.25</v>
+        <v>94.26</v>
       </c>
       <c r="AB23" s="25">
-        <v>93.84</v>
+        <v>93.87</v>
       </c>
       <c r="AC23" s="25">
-        <v>94.93</v>
+        <v>94.97</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.2</v>
+        <v>96.26</v>
       </c>
       <c r="AE23" s="25">
-        <v>96.16</v>
+        <v>96.22</v>
       </c>
       <c r="AF23" s="25">
-        <v>96.56</v>
+        <v>96.62</v>
       </c>
       <c r="AG23" s="25">
-        <v>97.11</v>
+        <v>97.16</v>
       </c>
       <c r="AH23" s="25">
-        <v>97.1</v>
+        <v>97.12</v>
       </c>
       <c r="AI23" s="25">
-        <v>97.31</v>
+        <v>97.33</v>
       </c>
       <c r="AJ23" s="25">
-        <v>97.7</v>
+        <v>97.72</v>
       </c>
       <c r="AK23" s="25">
-        <v>97.81</v>
+        <v>97.92</v>
       </c>
       <c r="AL23" s="25">
-        <v>98</v>
+        <v>98.16</v>
       </c>
       <c r="AM23" s="25">
-        <v>98.62</v>
+        <v>98.77</v>
       </c>
       <c r="AN23" s="25">
-        <v>98.49</v>
+        <v>98.66</v>
       </c>
       <c r="AO23" s="25">
-        <v>98.49</v>
+        <v>98.61</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.16</v>
+        <v>98.27</v>
       </c>
       <c r="AQ23" s="25">
-        <v>98.21</v>
+        <v>98.45</v>
       </c>
       <c r="AR23" s="25">
-        <v>98.72</v>
+        <v>98.97</v>
       </c>
       <c r="AS23" s="25">
-        <v>99.02</v>
+        <v>99.16</v>
       </c>
       <c r="AT23" s="25">
-        <v>99</v>
+        <v>99.19</v>
       </c>
       <c r="AU23" s="25">
-        <v>98.39</v>
+        <v>99.3</v>
       </c>
       <c r="AV23" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="25"/>
+        <v>99.47</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>99.33</v>
+      </c>
+      <c r="AX23" s="25">
+        <v>99.11</v>
+      </c>
       <c r="AY23" s="25"/>
       <c r="AZ23" s="25"/>
       <c r="BA23" s="25"/>
@@ -4829,19 +4901,19 @@
         <v>20</v>
       </c>
       <c r="C24" s="25">
-        <v>95.91</v>
+        <v>95.92</v>
       </c>
       <c r="D24" s="25">
         <v>97.02</v>
       </c>
       <c r="E24" s="25">
-        <v>98.04</v>
+        <v>98.05</v>
       </c>
       <c r="F24" s="25">
-        <v>98.73</v>
+        <v>98.74</v>
       </c>
       <c r="G24" s="25">
-        <v>98.97</v>
+        <v>98.96</v>
       </c>
       <c r="H24" s="25">
         <v>99.68</v>
@@ -4868,10 +4940,10 @@
         <v>98.04</v>
       </c>
       <c r="P24" s="25">
-        <v>95.97</v>
+        <v>95.96</v>
       </c>
       <c r="Q24" s="25">
-        <v>94.82</v>
+        <v>94.81</v>
       </c>
       <c r="R24" s="25">
         <v>94.92</v>
@@ -4889,85 +4961,89 @@
         <v>96.07</v>
       </c>
       <c r="W24" s="25">
-        <v>96.36</v>
+        <v>96.37</v>
       </c>
       <c r="X24" s="25">
         <v>96.59</v>
       </c>
       <c r="Y24" s="25">
-        <v>97.54</v>
+        <v>97.53</v>
       </c>
       <c r="Z24" s="25">
-        <v>97.79</v>
+        <v>97.78</v>
       </c>
       <c r="AA24" s="25">
-        <v>97.78</v>
+        <v>97.77</v>
       </c>
       <c r="AB24" s="25">
-        <v>97.38</v>
+        <v>97.37</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.6</v>
+        <v>98.59</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.18</v>
+        <v>99.17</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.69</v>
+        <v>98.68</v>
       </c>
       <c r="AF24" s="25">
         <v>98.52</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.12</v>
+        <v>99.11</v>
       </c>
       <c r="AH24" s="25">
+        <v>99.03</v>
+      </c>
+      <c r="AI24" s="25">
+        <v>99.2</v>
+      </c>
+      <c r="AJ24" s="25">
+        <v>99.1</v>
+      </c>
+      <c r="AK24" s="25">
+        <v>99.2</v>
+      </c>
+      <c r="AL24" s="25">
+        <v>98.99</v>
+      </c>
+      <c r="AM24" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="AN24" s="25">
+        <v>99.35</v>
+      </c>
+      <c r="AO24" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="AP24" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="AQ24" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="AR24" s="25">
+        <v>98.56</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>98.97</v>
+      </c>
+      <c r="AT24" s="25">
         <v>99.05</v>
       </c>
-      <c r="AI24" s="25">
-        <v>99.22</v>
-      </c>
-      <c r="AJ24" s="25">
-        <v>99.12</v>
-      </c>
-      <c r="AK24" s="25">
-        <v>99.24</v>
-      </c>
-      <c r="AL24" s="25">
-        <v>99.03</v>
-      </c>
-      <c r="AM24" s="25">
-        <v>99.26</v>
-      </c>
-      <c r="AN24" s="25">
-        <v>99.4</v>
-      </c>
-      <c r="AO24" s="25">
-        <v>99.27</v>
-      </c>
-      <c r="AP24" s="25">
-        <v>98.9</v>
-      </c>
-      <c r="AQ24" s="25">
-        <v>98.51</v>
-      </c>
-      <c r="AR24" s="25">
-        <v>98.84</v>
-      </c>
-      <c r="AS24" s="25">
-        <v>99.18</v>
-      </c>
-      <c r="AT24" s="25">
-        <v>99.48</v>
-      </c>
       <c r="AU24" s="25">
-        <v>100.04</v>
+        <v>99.6</v>
       </c>
       <c r="AV24" s="25">
-        <v>101.09</v>
-      </c>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="25"/>
+        <v>100.25</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>100.65</v>
+      </c>
+      <c r="AX24" s="25">
+        <v>101.59</v>
+      </c>
       <c r="AY24" s="25"/>
       <c r="AZ24" s="25"/>
       <c r="BA24" s="25"/>
@@ -5005,34 +5081,34 @@
         <v>19</v>
       </c>
       <c r="C25" s="25">
-        <v>91.39</v>
+        <v>91.41</v>
       </c>
       <c r="D25" s="25">
         <v>95.7</v>
       </c>
       <c r="E25" s="25">
-        <v>97.53</v>
+        <v>97.54</v>
       </c>
       <c r="F25" s="25">
-        <v>98.06</v>
+        <v>98.05</v>
       </c>
       <c r="G25" s="25">
-        <v>98.44</v>
+        <v>98.43</v>
       </c>
       <c r="H25" s="25">
         <v>99.32</v>
       </c>
       <c r="I25" s="25">
-        <v>99.5</v>
+        <v>99.49</v>
       </c>
       <c r="J25" s="25">
-        <v>99.59</v>
+        <v>99.6</v>
       </c>
       <c r="K25" s="25">
-        <v>99.68</v>
+        <v>99.67</v>
       </c>
       <c r="L25" s="25">
-        <v>99.69</v>
+        <v>99.7</v>
       </c>
       <c r="M25" s="25">
         <v>100</v>
@@ -5041,109 +5117,113 @@
         <v>99.32</v>
       </c>
       <c r="O25" s="25">
-        <v>94.59</v>
+        <v>94.55</v>
       </c>
       <c r="P25" s="25">
-        <v>91</v>
+        <v>90.98</v>
       </c>
       <c r="Q25" s="25">
-        <v>88.36</v>
+        <v>88.37</v>
       </c>
       <c r="R25" s="25">
-        <v>87.38</v>
+        <v>87.4</v>
       </c>
       <c r="S25" s="25">
         <v>87.7</v>
       </c>
       <c r="T25" s="25">
-        <v>88.48</v>
+        <v>88.49</v>
       </c>
       <c r="U25" s="25">
-        <v>89.24</v>
+        <v>89.26</v>
       </c>
       <c r="V25" s="25">
-        <v>89.58</v>
+        <v>89.6</v>
       </c>
       <c r="W25" s="25">
-        <v>90.22</v>
+        <v>90.24</v>
       </c>
       <c r="X25" s="25">
-        <v>90.64</v>
+        <v>90.66</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.54</v>
+        <v>91.57</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.48</v>
+        <v>92.51</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.18</v>
+        <v>93.2</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.32</v>
+        <v>94.35</v>
       </c>
       <c r="AC25" s="25">
-        <v>95.18</v>
+        <v>95.24</v>
       </c>
       <c r="AD25" s="25">
-        <v>95.27</v>
+        <v>95.4</v>
       </c>
       <c r="AE25" s="25">
-        <v>95.41</v>
+        <v>95.58</v>
       </c>
       <c r="AF25" s="25">
-        <v>95.81</v>
+        <v>95.97</v>
       </c>
       <c r="AG25" s="25">
-        <v>96.02</v>
+        <v>96.13</v>
       </c>
       <c r="AH25" s="25">
-        <v>96.14</v>
+        <v>96.23</v>
       </c>
       <c r="AI25" s="25">
-        <v>96.42</v>
+        <v>96.4</v>
       </c>
       <c r="AJ25" s="25">
-        <v>96.61</v>
+        <v>96.57</v>
       </c>
       <c r="AK25" s="25">
-        <v>96.82</v>
+        <v>96.73</v>
       </c>
       <c r="AL25" s="25">
-        <v>97.21</v>
+        <v>97.07</v>
       </c>
       <c r="AM25" s="25">
-        <v>97.66</v>
+        <v>97.46</v>
       </c>
       <c r="AN25" s="25">
-        <v>98.02</v>
+        <v>97.82</v>
       </c>
       <c r="AO25" s="25">
-        <v>98.19</v>
+        <v>98.06</v>
       </c>
       <c r="AP25" s="25">
-        <v>97.31</v>
+        <v>97.42</v>
       </c>
       <c r="AQ25" s="25">
-        <v>96.64</v>
+        <v>96.78</v>
       </c>
       <c r="AR25" s="25">
-        <v>96.09</v>
+        <v>96.38</v>
       </c>
       <c r="AS25" s="25">
-        <v>95.78</v>
+        <v>96.3</v>
       </c>
       <c r="AT25" s="25">
-        <v>95.31</v>
+        <v>96.08</v>
       </c>
       <c r="AU25" s="25">
-        <v>94.47</v>
+        <v>96.05</v>
       </c>
       <c r="AV25" s="25">
-        <v>94.93</v>
-      </c>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="25"/>
+        <v>96.41</v>
+      </c>
+      <c r="AW25" s="25">
+        <v>96.41</v>
+      </c>
+      <c r="AX25" s="25">
+        <v>96.8</v>
+      </c>
       <c r="AY25" s="25"/>
       <c r="AZ25" s="25"/>
       <c r="BA25" s="25"/>
@@ -5181,25 +5261,25 @@
         <v>9</v>
       </c>
       <c r="C26" s="25">
-        <v>94.79</v>
+        <v>94.8</v>
       </c>
       <c r="D26" s="25">
-        <v>97.15</v>
+        <v>97.17</v>
       </c>
       <c r="E26" s="25">
-        <v>97.45</v>
+        <v>97.47</v>
       </c>
       <c r="F26" s="25">
-        <v>98.69</v>
+        <v>98.71</v>
       </c>
       <c r="G26" s="25">
-        <v>100</v>
+        <v>100.01</v>
       </c>
       <c r="H26" s="25">
-        <v>100.83</v>
+        <v>100.82</v>
       </c>
       <c r="I26" s="25">
-        <v>100.19</v>
+        <v>100.18</v>
       </c>
       <c r="J26" s="25">
         <v>100.06</v>
@@ -5214,112 +5294,116 @@
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.8</v>
+        <v>98.79</v>
       </c>
       <c r="O26" s="25">
-        <v>95.22</v>
+        <v>95.19</v>
       </c>
       <c r="P26" s="25">
-        <v>92.11</v>
+        <v>92.07</v>
       </c>
       <c r="Q26" s="25">
         <v>89.2</v>
       </c>
       <c r="R26" s="25">
-        <v>88.56</v>
+        <v>88.54</v>
       </c>
       <c r="S26" s="25">
-        <v>88.74</v>
+        <v>88.75</v>
       </c>
       <c r="T26" s="25">
-        <v>89.01</v>
+        <v>89</v>
       </c>
       <c r="U26" s="25">
-        <v>89.59</v>
+        <v>89.6</v>
       </c>
       <c r="V26" s="25">
-        <v>89.45</v>
+        <v>89.47</v>
       </c>
       <c r="W26" s="25">
-        <v>89.42</v>
+        <v>89.43</v>
       </c>
       <c r="X26" s="25">
-        <v>89.49</v>
+        <v>89.51</v>
       </c>
       <c r="Y26" s="25">
         <v>90.48</v>
       </c>
       <c r="Z26" s="25">
-        <v>91.75</v>
+        <v>91.71</v>
       </c>
       <c r="AA26" s="25">
         <v>92.28</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.17</v>
+        <v>92.15</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.37</v>
+        <v>92.36</v>
       </c>
       <c r="AD26" s="25">
-        <v>91.86</v>
+        <v>91.85</v>
       </c>
       <c r="AE26" s="25">
-        <v>91.93</v>
+        <v>91.81</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.02</v>
+        <v>91.95</v>
       </c>
       <c r="AG26" s="25">
-        <v>92.51</v>
+        <v>92.55</v>
       </c>
       <c r="AH26" s="25">
+        <v>92.93</v>
+      </c>
+      <c r="AI26" s="25">
+        <v>92.77</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>93.06</v>
+      </c>
+      <c r="AK26" s="25">
         <v>92.95</v>
       </c>
-      <c r="AI26" s="25">
-        <v>92.83</v>
-      </c>
-      <c r="AJ26" s="25">
-        <v>93.14</v>
-      </c>
-      <c r="AK26" s="25">
-        <v>93.1</v>
-      </c>
       <c r="AL26" s="25">
-        <v>93.78</v>
+        <v>93.53</v>
       </c>
       <c r="AM26" s="25">
-        <v>94.34</v>
+        <v>94.02</v>
       </c>
       <c r="AN26" s="25">
-        <v>94.7</v>
+        <v>94.07</v>
       </c>
       <c r="AO26" s="25">
-        <v>94.41</v>
+        <v>93.76</v>
       </c>
       <c r="AP26" s="25">
-        <v>93.09</v>
+        <v>93.08</v>
       </c>
       <c r="AQ26" s="25">
-        <v>93.18</v>
+        <v>93.04</v>
       </c>
       <c r="AR26" s="25">
-        <v>92.92</v>
+        <v>93.07</v>
       </c>
       <c r="AS26" s="25">
-        <v>92.91</v>
+        <v>93.15</v>
       </c>
       <c r="AT26" s="25">
-        <v>92.74</v>
+        <v>93.08</v>
       </c>
       <c r="AU26" s="25">
-        <v>92.88</v>
+        <v>93.43</v>
       </c>
       <c r="AV26" s="25">
-        <v>92.71</v>
-      </c>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
+        <v>92.95</v>
+      </c>
+      <c r="AW26" s="25">
+        <v>93.37</v>
+      </c>
+      <c r="AX26" s="25">
+        <v>93.77</v>
+      </c>
       <c r="AY26" s="25"/>
       <c r="AZ26" s="25"/>
       <c r="BA26" s="25"/>
@@ -5357,19 +5441,19 @@
         <v>20</v>
       </c>
       <c r="C27" s="25">
-        <v>98.08</v>
+        <v>98.07</v>
       </c>
       <c r="D27" s="25">
-        <v>98.92</v>
+        <v>98.91</v>
       </c>
       <c r="E27" s="25">
-        <v>100.36</v>
+        <v>100.35</v>
       </c>
       <c r="F27" s="25">
         <v>100.35</v>
       </c>
       <c r="G27" s="25">
-        <v>100.7</v>
+        <v>100.69</v>
       </c>
       <c r="H27" s="25">
         <v>100.61</v>
@@ -5378,13 +5462,13 @@
         <v>101.25</v>
       </c>
       <c r="J27" s="25">
-        <v>100.45</v>
+        <v>100.44</v>
       </c>
       <c r="K27" s="25">
         <v>98.57</v>
       </c>
       <c r="L27" s="25">
-        <v>99.1</v>
+        <v>99.09</v>
       </c>
       <c r="M27" s="25">
         <v>100</v>
@@ -5393,109 +5477,113 @@
         <v>99.62</v>
       </c>
       <c r="O27" s="25">
-        <v>98.28</v>
+        <v>98.27</v>
       </c>
       <c r="P27" s="25">
-        <v>96.21</v>
+        <v>96.19</v>
       </c>
       <c r="Q27" s="25">
-        <v>95.24</v>
+        <v>95.23</v>
       </c>
       <c r="R27" s="25">
-        <v>95.74</v>
+        <v>95.73</v>
       </c>
       <c r="S27" s="25">
-        <v>95.9</v>
+        <v>95.89</v>
       </c>
       <c r="T27" s="25">
-        <v>95.29</v>
+        <v>95.28</v>
       </c>
       <c r="U27" s="25">
-        <v>95.73</v>
+        <v>95.72</v>
       </c>
       <c r="V27" s="25">
         <v>94.85</v>
       </c>
       <c r="W27" s="25">
-        <v>95.86</v>
+        <v>95.85</v>
       </c>
       <c r="X27" s="25">
-        <v>95.65</v>
+        <v>95.63</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.97</v>
+        <v>97.95</v>
       </c>
       <c r="Z27" s="25">
-        <v>96.59</v>
+        <v>96.54</v>
       </c>
       <c r="AA27" s="25">
-        <v>95.34</v>
+        <v>95.3</v>
       </c>
       <c r="AB27" s="25">
-        <v>95.03</v>
+        <v>94.99</v>
       </c>
       <c r="AC27" s="25">
-        <v>95.73</v>
+        <v>95.7</v>
       </c>
       <c r="AD27" s="25">
-        <v>95.98</v>
+        <v>95.97</v>
       </c>
       <c r="AE27" s="25">
-        <v>96.61</v>
+        <v>96.56</v>
       </c>
       <c r="AF27" s="25">
-        <v>96.15</v>
+        <v>96.2</v>
       </c>
       <c r="AG27" s="25">
-        <v>97.27</v>
+        <v>97.31</v>
       </c>
       <c r="AH27" s="25">
-        <v>96.41</v>
+        <v>96.38</v>
       </c>
       <c r="AI27" s="25">
-        <v>96.61</v>
+        <v>96.62</v>
       </c>
       <c r="AJ27" s="25">
         <v>96.32</v>
       </c>
       <c r="AK27" s="25">
-        <v>96.26</v>
+        <v>96.12</v>
       </c>
       <c r="AL27" s="25">
-        <v>96.51</v>
+        <v>96.11</v>
       </c>
       <c r="AM27" s="25">
-        <v>96.79</v>
+        <v>96.33</v>
       </c>
       <c r="AN27" s="25">
+        <v>96.9</v>
+      </c>
+      <c r="AO27" s="25">
+        <v>96.93</v>
+      </c>
+      <c r="AP27" s="25">
+        <v>96.24</v>
+      </c>
+      <c r="AQ27" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="AR27" s="25">
+        <v>97.34</v>
+      </c>
+      <c r="AS27" s="25">
+        <v>97.28</v>
+      </c>
+      <c r="AT27" s="25">
+        <v>96.53</v>
+      </c>
+      <c r="AU27" s="25">
         <v>97.42</v>
       </c>
-      <c r="AO27" s="25">
-        <v>97.54</v>
-      </c>
-      <c r="AP27" s="25">
-        <v>96.42</v>
-      </c>
-      <c r="AQ27" s="25">
-        <v>97.05</v>
-      </c>
-      <c r="AR27" s="25">
-        <v>97.65</v>
-      </c>
-      <c r="AS27" s="25">
-        <v>97.73</v>
-      </c>
-      <c r="AT27" s="25">
-        <v>97.11</v>
-      </c>
-      <c r="AU27" s="25">
-        <v>98.24</v>
-      </c>
       <c r="AV27" s="25">
-        <v>99.26</v>
-      </c>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="25"/>
+        <v>97.84</v>
+      </c>
+      <c r="AW27" s="25">
+        <v>99.1</v>
+      </c>
+      <c r="AX27" s="25">
+        <v>99.49</v>
+      </c>
       <c r="AY27" s="25"/>
       <c r="AZ27" s="25"/>
       <c r="BA27" s="25"/>
@@ -5533,31 +5621,31 @@
         <v>19</v>
       </c>
       <c r="C28" s="25">
-        <v>86.14</v>
+        <v>86.16</v>
       </c>
       <c r="D28" s="25">
         <v>89.89</v>
       </c>
       <c r="E28" s="25">
-        <v>92.55</v>
+        <v>92.53</v>
       </c>
       <c r="F28" s="25">
-        <v>93.95</v>
+        <v>93.94</v>
       </c>
       <c r="G28" s="25">
         <v>95.19</v>
       </c>
       <c r="H28" s="25">
-        <v>96.42</v>
+        <v>96.43</v>
       </c>
       <c r="I28" s="25">
-        <v>97.5</v>
+        <v>97.48</v>
       </c>
       <c r="J28" s="25">
-        <v>97.95</v>
+        <v>97.93</v>
       </c>
       <c r="K28" s="25">
-        <v>98.55</v>
+        <v>98.53</v>
       </c>
       <c r="L28" s="25">
         <v>99.61</v>
@@ -5566,112 +5654,116 @@
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>99.07</v>
+        <v>99.06</v>
       </c>
       <c r="O28" s="25">
-        <v>96.15</v>
+        <v>96.14</v>
       </c>
       <c r="P28" s="25">
-        <v>92.97</v>
+        <v>92.96</v>
       </c>
       <c r="Q28" s="25">
-        <v>90.23</v>
+        <v>90.27</v>
       </c>
       <c r="R28" s="25">
-        <v>89.36</v>
+        <v>89.43</v>
       </c>
       <c r="S28" s="25">
-        <v>90.28</v>
+        <v>90.33</v>
       </c>
       <c r="T28" s="25">
-        <v>90.95</v>
+        <v>91</v>
       </c>
       <c r="U28" s="25">
-        <v>92.26</v>
+        <v>92.29</v>
       </c>
       <c r="V28" s="25">
-        <v>93.57</v>
+        <v>93.59</v>
       </c>
       <c r="W28" s="25">
-        <v>94.76</v>
+        <v>94.79</v>
       </c>
       <c r="X28" s="25">
-        <v>95.45</v>
+        <v>95.46</v>
       </c>
       <c r="Y28" s="25">
-        <v>96.59</v>
+        <v>96.62</v>
       </c>
       <c r="Z28" s="25">
-        <v>97.61</v>
+        <v>97.63</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.33</v>
+        <v>98.32</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.07</v>
+        <v>99.08</v>
       </c>
       <c r="AC28" s="25">
+        <v>101.3</v>
+      </c>
+      <c r="AD28" s="25">
+        <v>101.15</v>
+      </c>
+      <c r="AE28" s="25">
+        <v>100.99</v>
+      </c>
+      <c r="AF28" s="25">
+        <v>101.21</v>
+      </c>
+      <c r="AG28" s="25">
+        <v>101.61</v>
+      </c>
+      <c r="AH28" s="25">
+        <v>101.98</v>
+      </c>
+      <c r="AI28" s="25">
+        <v>102.33</v>
+      </c>
+      <c r="AJ28" s="25">
+        <v>102.39</v>
+      </c>
+      <c r="AK28" s="25">
+        <v>102.74</v>
+      </c>
+      <c r="AL28" s="25">
+        <v>102.75</v>
+      </c>
+      <c r="AM28" s="25">
+        <v>103.35</v>
+      </c>
+      <c r="AN28" s="25">
+        <v>104.09</v>
+      </c>
+      <c r="AO28" s="25">
+        <v>103.98</v>
+      </c>
+      <c r="AP28" s="25">
+        <v>102.97</v>
+      </c>
+      <c r="AQ28" s="25">
+        <v>102.03</v>
+      </c>
+      <c r="AR28" s="25">
+        <v>101.98</v>
+      </c>
+      <c r="AS28" s="25">
+        <v>101.89</v>
+      </c>
+      <c r="AT28" s="25">
+        <v>102.05</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>101.8</v>
+      </c>
+      <c r="AV28" s="25">
         <v>101.22</v>
       </c>
-      <c r="AD28" s="25">
-        <v>101.03</v>
-      </c>
-      <c r="AE28" s="25">
-        <v>100.82</v>
-      </c>
-      <c r="AF28" s="25">
-        <v>100.97</v>
-      </c>
-      <c r="AG28" s="25">
-        <v>101.41</v>
-      </c>
-      <c r="AH28" s="25">
-        <v>101.72</v>
-      </c>
-      <c r="AI28" s="25">
-        <v>102.07</v>
-      </c>
-      <c r="AJ28" s="25">
-        <v>102.16</v>
-      </c>
-      <c r="AK28" s="25">
-        <v>102.44</v>
-      </c>
-      <c r="AL28" s="25">
-        <v>102.5</v>
-      </c>
-      <c r="AM28" s="25">
-        <v>103.03</v>
-      </c>
-      <c r="AN28" s="25">
-        <v>103.7</v>
-      </c>
-      <c r="AO28" s="25">
-        <v>103.57</v>
-      </c>
-      <c r="AP28" s="25">
-        <v>102.47</v>
-      </c>
-      <c r="AQ28" s="25">
-        <v>101.28</v>
-      </c>
-      <c r="AR28" s="25">
-        <v>101.11</v>
-      </c>
-      <c r="AS28" s="25">
-        <v>100.96</v>
-      </c>
-      <c r="AT28" s="25">
-        <v>100.65</v>
-      </c>
-      <c r="AU28" s="25">
-        <v>99.1</v>
-      </c>
-      <c r="AV28" s="25">
-        <v>98.5</v>
-      </c>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="25"/>
+      <c r="AW28" s="25">
+        <v>100.44</v>
+      </c>
+      <c r="AX28" s="25">
+        <v>99.92</v>
+      </c>
       <c r="AY28" s="25"/>
       <c r="AZ28" s="25"/>
       <c r="BA28" s="25"/>
@@ -5709,145 +5801,149 @@
         <v>9</v>
       </c>
       <c r="C29" s="25">
-        <v>92.85</v>
+        <v>92.82</v>
       </c>
       <c r="D29" s="25">
-        <v>94.8</v>
+        <v>94.78</v>
       </c>
       <c r="E29" s="25">
         <v>96.13</v>
       </c>
       <c r="F29" s="25">
-        <v>97.47</v>
+        <v>97.45</v>
       </c>
       <c r="G29" s="25">
-        <v>98.41</v>
+        <v>98.38</v>
       </c>
       <c r="H29" s="25">
-        <v>99.41</v>
+        <v>99.37</v>
       </c>
       <c r="I29" s="25">
-        <v>99.77</v>
+        <v>99.73</v>
       </c>
       <c r="J29" s="25">
-        <v>99.88</v>
+        <v>99.85</v>
       </c>
       <c r="K29" s="25">
-        <v>100.08</v>
+        <v>100.06</v>
       </c>
       <c r="L29" s="25">
-        <v>99.93</v>
+        <v>99.91</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.58</v>
+        <v>98.55</v>
       </c>
       <c r="O29" s="25">
-        <v>94.38</v>
+        <v>94.36</v>
       </c>
       <c r="P29" s="25">
-        <v>91.72</v>
+        <v>91.67</v>
       </c>
       <c r="Q29" s="25">
-        <v>90.28</v>
+        <v>90.24</v>
       </c>
       <c r="R29" s="25">
-        <v>89.64</v>
+        <v>89.62</v>
       </c>
       <c r="S29" s="25">
-        <v>89.8</v>
+        <v>89.78</v>
       </c>
       <c r="T29" s="25">
-        <v>90.41</v>
+        <v>90.39</v>
       </c>
       <c r="U29" s="25">
-        <v>91.26</v>
+        <v>91.23</v>
       </c>
       <c r="V29" s="25">
-        <v>92.63</v>
+        <v>92.61</v>
       </c>
       <c r="W29" s="25">
-        <v>93.09</v>
+        <v>93.08</v>
       </c>
       <c r="X29" s="25">
-        <v>93.19</v>
+        <v>93.18</v>
       </c>
       <c r="Y29" s="25">
-        <v>93.84</v>
+        <v>93.83</v>
       </c>
       <c r="Z29" s="25">
         <v>94.44</v>
       </c>
       <c r="AA29" s="25">
-        <v>95.4</v>
+        <v>95.39</v>
       </c>
       <c r="AB29" s="25">
-        <v>95.81</v>
+        <v>95.79</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.32</v>
+        <v>96.33</v>
       </c>
       <c r="AD29" s="25">
-        <v>95.87</v>
+        <v>95.86</v>
       </c>
       <c r="AE29" s="25">
-        <v>94.91</v>
+        <v>94.9</v>
       </c>
       <c r="AF29" s="25">
         <v>94.83</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.12</v>
+        <v>95.15</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.21</v>
+        <v>96.22</v>
       </c>
       <c r="AI29" s="25">
-        <v>96.82</v>
+        <v>96.78</v>
       </c>
       <c r="AJ29" s="25">
-        <v>96.99</v>
+        <v>96.96</v>
       </c>
       <c r="AK29" s="25">
-        <v>96.96</v>
+        <v>96.92</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.17</v>
+        <v>97.1</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.2</v>
+        <v>97.16</v>
       </c>
       <c r="AN29" s="25">
-        <v>97.54</v>
+        <v>97.57</v>
       </c>
       <c r="AO29" s="25">
-        <v>97.47</v>
+        <v>97.53</v>
       </c>
       <c r="AP29" s="25">
-        <v>96.99</v>
+        <v>97.08</v>
       </c>
       <c r="AQ29" s="25">
-        <v>96.41</v>
+        <v>96.53</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.64</v>
+        <v>96.74</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.27</v>
+        <v>97.32</v>
       </c>
       <c r="AT29" s="25">
-        <v>97.73</v>
+        <v>97.77</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.19</v>
+        <v>98.35</v>
       </c>
       <c r="AV29" s="25">
-        <v>98.4</v>
-      </c>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="25"/>
+        <v>98.74</v>
+      </c>
+      <c r="AW29" s="25">
+        <v>98.93</v>
+      </c>
+      <c r="AX29" s="25">
+        <v>98.64</v>
+      </c>
       <c r="AY29" s="25"/>
       <c r="AZ29" s="25"/>
       <c r="BA29" s="25"/>
@@ -5885,22 +5981,22 @@
         <v>20</v>
       </c>
       <c r="C30" s="25">
-        <v>95.32</v>
+        <v>95.29</v>
       </c>
       <c r="D30" s="25">
-        <v>95.73</v>
+        <v>95.68</v>
       </c>
       <c r="E30" s="25">
-        <v>95.93</v>
+        <v>95.87</v>
       </c>
       <c r="F30" s="25">
-        <v>96.92</v>
+        <v>96.87</v>
       </c>
       <c r="G30" s="25">
-        <v>97.44</v>
+        <v>97.42</v>
       </c>
       <c r="H30" s="25">
-        <v>99.78</v>
+        <v>99.77</v>
       </c>
       <c r="I30" s="25">
         <v>100.07</v>
@@ -5918,13 +6014,13 @@
         <v>100</v>
       </c>
       <c r="N30" s="25">
-        <v>98.89</v>
+        <v>98.9</v>
       </c>
       <c r="O30" s="25">
-        <v>97.5</v>
+        <v>97.49</v>
       </c>
       <c r="P30" s="25">
-        <v>96.96</v>
+        <v>96.97</v>
       </c>
       <c r="Q30" s="25">
         <v>95.99</v>
@@ -5933,13 +6029,13 @@
         <v>95.69</v>
       </c>
       <c r="S30" s="25">
-        <v>95.86</v>
+        <v>95.85</v>
       </c>
       <c r="T30" s="25">
         <v>96.27</v>
       </c>
       <c r="U30" s="25">
-        <v>96.45</v>
+        <v>96.46</v>
       </c>
       <c r="V30" s="25">
         <v>96.67</v>
@@ -5948,7 +6044,7 @@
         <v>97.3</v>
       </c>
       <c r="X30" s="25">
-        <v>97.43</v>
+        <v>97.45</v>
       </c>
       <c r="Y30" s="25">
         <v>96.42</v>
@@ -5957,73 +6053,77 @@
         <v>97.53</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.19</v>
+        <v>98.18</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.94</v>
+        <v>96.9</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.84</v>
+        <v>97.82</v>
       </c>
       <c r="AD30" s="25">
         <v>98.18</v>
       </c>
       <c r="AE30" s="25">
-        <v>97.9</v>
+        <v>97.89</v>
       </c>
       <c r="AF30" s="25">
-        <v>97.79</v>
+        <v>97.78</v>
       </c>
       <c r="AG30" s="25">
         <v>98.31</v>
       </c>
       <c r="AH30" s="25">
+        <v>99.63</v>
+      </c>
+      <c r="AI30" s="25">
+        <v>99.35</v>
+      </c>
+      <c r="AJ30" s="25">
+        <v>99.7</v>
+      </c>
+      <c r="AK30" s="25">
         <v>99.65</v>
       </c>
-      <c r="AI30" s="25">
-        <v>99.38</v>
-      </c>
-      <c r="AJ30" s="25">
-        <v>99.72</v>
-      </c>
-      <c r="AK30" s="25">
-        <v>99.68</v>
-      </c>
       <c r="AL30" s="25">
-        <v>99.16</v>
+        <v>98.89</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.18</v>
+        <v>98.62</v>
       </c>
       <c r="AN30" s="25">
-        <v>99.71</v>
+        <v>99.12</v>
       </c>
       <c r="AO30" s="25">
-        <v>99.85</v>
+        <v>99.25</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.37</v>
+        <v>98.98</v>
       </c>
       <c r="AQ30" s="25">
-        <v>98.73</v>
+        <v>98.6</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.24</v>
+        <v>98.88</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.36</v>
+        <v>99.61</v>
       </c>
       <c r="AT30" s="25">
-        <v>101.09</v>
+        <v>100.01</v>
       </c>
       <c r="AU30" s="25">
-        <v>101.86</v>
+        <v>100.56</v>
       </c>
       <c r="AV30" s="25">
-        <v>102.23</v>
-      </c>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="25"/>
+        <v>101.01</v>
+      </c>
+      <c r="AW30" s="25">
+        <v>101.37</v>
+      </c>
+      <c r="AX30" s="25">
+        <v>102.07</v>
+      </c>
       <c r="AY30" s="25"/>
       <c r="AZ30" s="25"/>
       <c r="BA30" s="25"/>
@@ -6061,145 +6161,149 @@
         <v>19</v>
       </c>
       <c r="C31" s="25">
-        <v>84.97</v>
+        <v>84.98</v>
       </c>
       <c r="D31" s="25">
-        <v>89.89</v>
+        <v>89.85</v>
       </c>
       <c r="E31" s="25">
-        <v>93.51</v>
+        <v>93.46</v>
       </c>
       <c r="F31" s="25">
-        <v>94.64</v>
+        <v>94.63</v>
       </c>
       <c r="G31" s="25">
-        <v>95.22</v>
+        <v>95.26</v>
       </c>
       <c r="H31" s="25">
-        <v>96.95</v>
+        <v>96.97</v>
       </c>
       <c r="I31" s="25">
-        <v>98.03</v>
+        <v>98.05</v>
       </c>
       <c r="J31" s="25">
-        <v>98.57</v>
+        <v>98.58</v>
       </c>
       <c r="K31" s="25">
-        <v>99.17</v>
+        <v>99.19</v>
       </c>
       <c r="L31" s="25">
-        <v>100.12</v>
+        <v>100.13</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.55</v>
+        <v>99.57</v>
       </c>
       <c r="O31" s="25">
-        <v>95.81</v>
+        <v>95.82</v>
       </c>
       <c r="P31" s="25">
         <v>92.15</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.81</v>
+        <v>89.83</v>
       </c>
       <c r="R31" s="25">
-        <v>89.34</v>
+        <v>89.36</v>
       </c>
       <c r="S31" s="25">
-        <v>89.48</v>
+        <v>89.5</v>
       </c>
       <c r="T31" s="25">
-        <v>90.43</v>
+        <v>90.45</v>
       </c>
       <c r="U31" s="25">
-        <v>91.67</v>
+        <v>91.65</v>
       </c>
       <c r="V31" s="25">
-        <v>92.27</v>
+        <v>92.23</v>
       </c>
       <c r="W31" s="25">
-        <v>92.72</v>
+        <v>92.7</v>
       </c>
       <c r="X31" s="25">
-        <v>93.85</v>
+        <v>93.83</v>
       </c>
       <c r="Y31" s="25">
-        <v>94.89</v>
+        <v>94.94</v>
       </c>
       <c r="Z31" s="25">
-        <v>95.72</v>
+        <v>95.77</v>
       </c>
       <c r="AA31" s="25">
-        <v>96.61</v>
+        <v>96.63</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.17</v>
+        <v>98.22</v>
       </c>
       <c r="AC31" s="25">
-        <v>99.89</v>
+        <v>100.05</v>
       </c>
       <c r="AD31" s="25">
-        <v>99.84</v>
+        <v>100.08</v>
       </c>
       <c r="AE31" s="25">
-        <v>99.7</v>
+        <v>99.94</v>
       </c>
       <c r="AF31" s="25">
-        <v>100.11</v>
+        <v>100.39</v>
       </c>
       <c r="AG31" s="25">
-        <v>100.84</v>
+        <v>101.11</v>
       </c>
       <c r="AH31" s="25">
-        <v>101.04</v>
+        <v>101.4</v>
       </c>
       <c r="AI31" s="25">
-        <v>101.01</v>
+        <v>101.4</v>
       </c>
       <c r="AJ31" s="25">
-        <v>101.23</v>
+        <v>101.61</v>
       </c>
       <c r="AK31" s="25">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="AL31" s="25">
-        <v>101.67</v>
+        <v>102.18</v>
       </c>
       <c r="AM31" s="25">
-        <v>102.1</v>
+        <v>102.65</v>
       </c>
       <c r="AN31" s="25">
-        <v>102</v>
+        <v>102.59</v>
       </c>
       <c r="AO31" s="25">
-        <v>102.01</v>
+        <v>102.72</v>
       </c>
       <c r="AP31" s="25">
-        <v>100.84</v>
+        <v>101.56</v>
       </c>
       <c r="AQ31" s="25">
-        <v>99.12</v>
+        <v>100.18</v>
       </c>
       <c r="AR31" s="25">
-        <v>99.24</v>
+        <v>100.55</v>
       </c>
       <c r="AS31" s="25">
-        <v>98.75</v>
+        <v>100.39</v>
       </c>
       <c r="AT31" s="25">
-        <v>97.67</v>
+        <v>99.85</v>
       </c>
       <c r="AU31" s="25">
-        <v>94.27</v>
+        <v>98.48</v>
       </c>
       <c r="AV31" s="25">
-        <v>93.51</v>
-      </c>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="25"/>
+        <v>98.25</v>
+      </c>
+      <c r="AW31" s="25">
+        <v>97.31</v>
+      </c>
+      <c r="AX31" s="25">
+        <v>97.18</v>
+      </c>
       <c r="AY31" s="25"/>
       <c r="AZ31" s="25"/>
       <c r="BA31" s="25"/>
@@ -6243,46 +6347,46 @@
         <v>94.44</v>
       </c>
       <c r="E32" s="25">
-        <v>96.93</v>
+        <v>96.94</v>
       </c>
       <c r="F32" s="25">
         <v>97.04</v>
       </c>
       <c r="G32" s="25">
-        <v>97.71</v>
+        <v>97.72</v>
       </c>
       <c r="H32" s="25">
         <v>99.35</v>
       </c>
       <c r="I32" s="25">
-        <v>99.76</v>
+        <v>99.77</v>
       </c>
       <c r="J32" s="25">
         <v>100.81</v>
       </c>
       <c r="K32" s="25">
-        <v>101.8</v>
+        <v>101.81</v>
       </c>
       <c r="L32" s="25">
-        <v>101.68</v>
+        <v>101.69</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>99.07</v>
+        <v>99.05</v>
       </c>
       <c r="O32" s="25">
-        <v>94.51</v>
+        <v>94.5</v>
       </c>
       <c r="P32" s="25">
-        <v>90.73</v>
+        <v>90.72</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.55</v>
+        <v>87.54</v>
       </c>
       <c r="R32" s="25">
-        <v>87.14</v>
+        <v>87.13</v>
       </c>
       <c r="S32" s="25">
         <v>87.08</v>
@@ -6291,7 +6395,7 @@
         <v>87</v>
       </c>
       <c r="U32" s="25">
-        <v>88.02</v>
+        <v>88.01</v>
       </c>
       <c r="V32" s="25">
         <v>88.8</v>
@@ -6300,82 +6404,86 @@
         <v>89.82</v>
       </c>
       <c r="X32" s="25">
-        <v>90.45</v>
+        <v>90.44</v>
       </c>
       <c r="Y32" s="25">
         <v>91.04</v>
       </c>
       <c r="Z32" s="25">
-        <v>91.92</v>
+        <v>91.94</v>
       </c>
       <c r="AA32" s="25">
-        <v>92.11</v>
+        <v>92.16</v>
       </c>
       <c r="AB32" s="25">
-        <v>92.24</v>
+        <v>92.31</v>
       </c>
       <c r="AC32" s="25">
-        <v>92.67</v>
+        <v>92.7</v>
       </c>
       <c r="AD32" s="25">
-        <v>93.81</v>
+        <v>93.83</v>
       </c>
       <c r="AE32" s="25">
-        <v>93.24</v>
+        <v>93.25</v>
       </c>
       <c r="AF32" s="25">
-        <v>93.66</v>
+        <v>93.65</v>
       </c>
       <c r="AG32" s="25">
-        <v>93.87</v>
+        <v>93.92</v>
       </c>
       <c r="AH32" s="25">
-        <v>94.14</v>
+        <v>94.16</v>
       </c>
       <c r="AI32" s="25">
+        <v>94.31</v>
+      </c>
+      <c r="AJ32" s="25">
+        <v>94.32</v>
+      </c>
+      <c r="AK32" s="25">
+        <v>93.64</v>
+      </c>
+      <c r="AL32" s="25">
+        <v>94.05</v>
+      </c>
+      <c r="AM32" s="25">
+        <v>94.63</v>
+      </c>
+      <c r="AN32" s="25">
+        <v>94.39</v>
+      </c>
+      <c r="AO32" s="25">
         <v>94.27</v>
       </c>
-      <c r="AJ32" s="25">
-        <v>94.24</v>
-      </c>
-      <c r="AK32" s="25">
-        <v>93.59</v>
-      </c>
-      <c r="AL32" s="25">
-        <v>94</v>
-      </c>
-      <c r="AM32" s="25">
-        <v>94.59</v>
-      </c>
-      <c r="AN32" s="25">
-        <v>94.4</v>
-      </c>
-      <c r="AO32" s="25">
-        <v>94.32</v>
-      </c>
       <c r="AP32" s="25">
-        <v>94.32</v>
+        <v>94.35</v>
       </c>
       <c r="AQ32" s="25">
-        <v>94.86</v>
+        <v>94.91</v>
       </c>
       <c r="AR32" s="25">
-        <v>95.45</v>
+        <v>95.61</v>
       </c>
       <c r="AS32" s="25">
-        <v>96.27</v>
+        <v>96.51</v>
       </c>
       <c r="AT32" s="25">
-        <v>96.04</v>
+        <v>96.06</v>
       </c>
       <c r="AU32" s="25">
-        <v>95.25</v>
+        <v>95.93</v>
       </c>
       <c r="AV32" s="25">
-        <v>95.14</v>
-      </c>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="25"/>
+        <v>96.1</v>
+      </c>
+      <c r="AW32" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="AX32" s="25">
+        <v>96.39</v>
+      </c>
       <c r="AY32" s="25"/>
       <c r="AZ32" s="25"/>
       <c r="BA32" s="25"/>
@@ -6413,13 +6521,13 @@
         <v>20</v>
       </c>
       <c r="C33" s="25">
-        <v>96.5</v>
+        <v>96.51</v>
       </c>
       <c r="D33" s="25">
-        <v>96.9</v>
+        <v>96.91</v>
       </c>
       <c r="E33" s="25">
-        <v>98.11</v>
+        <v>98.1</v>
       </c>
       <c r="F33" s="25">
         <v>98.34</v>
@@ -6428,31 +6536,31 @@
         <v>98.69</v>
       </c>
       <c r="H33" s="25">
-        <v>99.5</v>
+        <v>99.49</v>
       </c>
       <c r="I33" s="25">
-        <v>101.29</v>
+        <v>101.28</v>
       </c>
       <c r="J33" s="25">
-        <v>99.41</v>
+        <v>99.42</v>
       </c>
       <c r="K33" s="25">
-        <v>97.57</v>
+        <v>97.58</v>
       </c>
       <c r="L33" s="25">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="M33" s="25">
         <v>100</v>
       </c>
       <c r="N33" s="25">
-        <v>99.27</v>
+        <v>99.26</v>
       </c>
       <c r="O33" s="25">
-        <v>97.67</v>
+        <v>97.66</v>
       </c>
       <c r="P33" s="25">
-        <v>96.4</v>
+        <v>96.39</v>
       </c>
       <c r="Q33" s="25">
         <v>96.12</v>
@@ -6461,97 +6569,101 @@
         <v>95.87</v>
       </c>
       <c r="S33" s="25">
-        <v>96.14</v>
+        <v>96.15</v>
       </c>
       <c r="T33" s="25">
         <v>96.45</v>
       </c>
       <c r="U33" s="25">
-        <v>96.09</v>
+        <v>96.1</v>
       </c>
       <c r="V33" s="25">
         <v>96.43</v>
       </c>
       <c r="W33" s="25">
-        <v>96.72</v>
+        <v>96.73</v>
       </c>
       <c r="X33" s="25">
-        <v>96.41</v>
+        <v>96.42</v>
       </c>
       <c r="Y33" s="25">
-        <v>96.22</v>
+        <v>96.23</v>
       </c>
       <c r="Z33" s="25">
-        <v>96.09</v>
+        <v>96.1</v>
       </c>
       <c r="AA33" s="25">
-        <v>95.8</v>
+        <v>95.81</v>
       </c>
       <c r="AB33" s="25">
-        <v>96.13</v>
+        <v>96.12</v>
       </c>
       <c r="AC33" s="25">
         <v>96.95</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.62</v>
+        <v>97.61</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.57</v>
+        <v>97.56</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.31</v>
+        <v>97.3</v>
       </c>
       <c r="AG33" s="25">
         <v>97.69</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.68</v>
+        <v>97.67</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.45</v>
+        <v>97.43</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.17</v>
+        <v>97.16</v>
       </c>
       <c r="AK33" s="25">
         <v>97.39</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.38</v>
+        <v>97.36</v>
       </c>
       <c r="AM33" s="25">
-        <v>97.8</v>
+        <v>97.78</v>
       </c>
       <c r="AN33" s="25">
-        <v>97.88</v>
+        <v>97.87</v>
       </c>
       <c r="AO33" s="25">
-        <v>97.66</v>
+        <v>97.79</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.5</v>
+        <v>97.58</v>
       </c>
       <c r="AQ33" s="25">
-        <v>97.74</v>
+        <v>97.65</v>
       </c>
       <c r="AR33" s="25">
+        <v>98.14</v>
+      </c>
+      <c r="AS33" s="25">
         <v>98.3</v>
       </c>
-      <c r="AS33" s="25">
-        <v>98.62</v>
-      </c>
       <c r="AT33" s="25">
-        <v>98.75</v>
+        <v>97.89</v>
       </c>
       <c r="AU33" s="25">
-        <v>98.82</v>
+        <v>98.06</v>
       </c>
       <c r="AV33" s="25">
-        <v>98.27</v>
-      </c>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="25"/>
+        <v>97.2</v>
+      </c>
+      <c r="AW33" s="25">
+        <v>97.53</v>
+      </c>
+      <c r="AX33" s="25">
+        <v>98.03</v>
+      </c>
       <c r="AY33" s="25"/>
       <c r="AZ33" s="25"/>
       <c r="BA33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 28 November 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 2 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD18DA7-FAFA-4E8F-B12C-198738D29EE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D12343-CD71-43BA-8226-B3AA6EDC71D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
-    <sheet name="Employment size" sheetId="5" r:id="rId2"/>
+    <sheet name="Employment Size" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'2995e12c-7f92-4103-a2d1-a1d598d57c6f'"</definedName>
@@ -65,9 +65,6 @@
     <t>Further information about these and related statistics is available from the ABS website www.abs.gov.au, or contact the National Information and Referral Service on 1300 135 070.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia 2020</t>
-  </si>
-  <si>
     <t>0. Australia</t>
   </si>
   <si>
@@ -107,19 +104,22 @@
     <t>200 employees and over</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 15 December 2020</t>
+    <t>Released at 11.30am (Canberra time) 19 January 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 28 November 2020</t>
+    <t>Week ending Saturday 02 January 2021</t>
+  </si>
+  <si>
+    <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment Size</t>
   </si>
   <si>
-    <t>Employment size</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment size</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
+    <t>Employment size</t>
   </si>
   <si>
     <t>State or Territory</t>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C19" s="29"/>
     </row>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1569,7 +1569,7 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="str">
         <f>"** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic."&amp;CHAR(10)&amp;"**Care should be exercised when focusing on the most recent movements in payroll jobs. For more information, please see the Reporting variability section in Data limitations and revisions."</f>
         <v>** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic.
@@ -1658,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1804,11 +1804,21 @@
       <c r="AX6" s="24">
         <v>44163</v>
       </c>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="24"/>
+      <c r="AY6" s="24">
+        <v>44170</v>
+      </c>
+      <c r="AZ6" s="24">
+        <v>44177</v>
+      </c>
+      <c r="BA6" s="24">
+        <v>44184</v>
+      </c>
+      <c r="BB6" s="24">
+        <v>44191</v>
+      </c>
+      <c r="BC6" s="24">
+        <v>44198</v>
+      </c>
       <c r="BD6" s="24"/>
       <c r="BE6" s="24"/>
       <c r="BF6" s="24"/>
@@ -1835,160 +1845,170 @@
     </row>
     <row r="7" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="25">
-        <v>87.3</v>
+        <v>87.26</v>
       </c>
       <c r="D7" s="25">
-        <v>91.86</v>
+        <v>91.85</v>
       </c>
       <c r="E7" s="25">
-        <v>94.42</v>
+        <v>94.43</v>
       </c>
       <c r="F7" s="25">
-        <v>95.48</v>
+        <v>95.5</v>
       </c>
       <c r="G7" s="25">
-        <v>96.23</v>
+        <v>96.24</v>
       </c>
       <c r="H7" s="25">
-        <v>97.44</v>
+        <v>97.45</v>
       </c>
       <c r="I7" s="25">
-        <v>97.85</v>
+        <v>97.87</v>
       </c>
       <c r="J7" s="25">
-        <v>98.36</v>
+        <v>98.38</v>
       </c>
       <c r="K7" s="25">
-        <v>98.88</v>
+        <v>98.89</v>
       </c>
       <c r="L7" s="25">
-        <v>99.94</v>
+        <v>99.95</v>
       </c>
       <c r="M7" s="25">
         <v>100</v>
       </c>
       <c r="N7" s="25">
-        <v>99.19</v>
+        <v>99.16</v>
       </c>
       <c r="O7" s="25">
-        <v>95.2</v>
+        <v>95.12</v>
       </c>
       <c r="P7" s="25">
-        <v>91.86</v>
+        <v>91.76</v>
       </c>
       <c r="Q7" s="25">
-        <v>89.43</v>
+        <v>89.33</v>
       </c>
       <c r="R7" s="25">
-        <v>88.73</v>
+        <v>88.63</v>
       </c>
       <c r="S7" s="25">
-        <v>89.24</v>
+        <v>89.15</v>
       </c>
       <c r="T7" s="25">
-        <v>90.29</v>
+        <v>90.22</v>
       </c>
       <c r="U7" s="25">
-        <v>91.42</v>
+        <v>91.36</v>
       </c>
       <c r="V7" s="25">
-        <v>92.5</v>
+        <v>92.45</v>
       </c>
       <c r="W7" s="25">
-        <v>93.06</v>
+        <v>93.01</v>
       </c>
       <c r="X7" s="25">
-        <v>93.59</v>
+        <v>93.54</v>
       </c>
       <c r="Y7" s="25">
-        <v>94.86</v>
+        <v>94.82</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.42</v>
+        <v>95.37</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.02</v>
+        <v>95.98</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.24</v>
+        <v>97.21</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.24</v>
+        <v>99.69</v>
       </c>
       <c r="AD7" s="25">
-        <v>99.19</v>
+        <v>99.99</v>
       </c>
       <c r="AE7" s="25">
-        <v>99.12</v>
+        <v>99.93</v>
       </c>
       <c r="AF7" s="25">
-        <v>99.45</v>
+        <v>100.27</v>
       </c>
       <c r="AG7" s="25">
-        <v>99.45</v>
+        <v>100.28</v>
       </c>
       <c r="AH7" s="25">
-        <v>99.36</v>
+        <v>100.22</v>
       </c>
       <c r="AI7" s="25">
-        <v>99.27</v>
+        <v>100.15</v>
       </c>
       <c r="AJ7" s="25">
-        <v>99.3</v>
+        <v>100.2</v>
       </c>
       <c r="AK7" s="25">
-        <v>99.51</v>
+        <v>100.42</v>
       </c>
       <c r="AL7" s="25">
-        <v>99.8</v>
+        <v>100.74</v>
       </c>
       <c r="AM7" s="25">
-        <v>100.33</v>
+        <v>101.29</v>
       </c>
       <c r="AN7" s="25">
-        <v>100.39</v>
+        <v>101.36</v>
       </c>
       <c r="AO7" s="25">
-        <v>100.34</v>
+        <v>101.32</v>
       </c>
       <c r="AP7" s="25">
-        <v>99.47</v>
+        <v>100.51</v>
       </c>
       <c r="AQ7" s="25">
-        <v>98.57</v>
+        <v>99.82</v>
       </c>
       <c r="AR7" s="25">
-        <v>98.47</v>
+        <v>99.91</v>
       </c>
       <c r="AS7" s="25">
-        <v>98.43</v>
+        <v>100.03</v>
       </c>
       <c r="AT7" s="25">
-        <v>98.29</v>
+        <v>100.07</v>
       </c>
       <c r="AU7" s="25">
-        <v>97.52</v>
+        <v>100.02</v>
       </c>
       <c r="AV7" s="25">
-        <v>97.19</v>
+        <v>100.45</v>
       </c>
       <c r="AW7" s="25">
-        <v>96.51</v>
+        <v>100.61</v>
       </c>
       <c r="AX7" s="25">
-        <v>96.33</v>
-      </c>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
+        <v>100.75</v>
+      </c>
+      <c r="AY7" s="25">
+        <v>100.37</v>
+      </c>
+      <c r="AZ7" s="25">
+        <v>99.57</v>
+      </c>
+      <c r="BA7" s="25">
+        <v>97.39</v>
+      </c>
+      <c r="BB7" s="25">
+        <v>91.8</v>
+      </c>
+      <c r="BC7" s="25">
+        <v>86.75</v>
+      </c>
       <c r="BD7" s="25"/>
       <c r="BE7" s="25"/>
       <c r="BF7" s="25"/>
@@ -2015,160 +2035,170 @@
     </row>
     <row r="8" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="25">
-        <v>91.89</v>
+        <v>91.9</v>
       </c>
       <c r="D8" s="25">
-        <v>95.31</v>
+        <v>95.33</v>
       </c>
       <c r="E8" s="25">
-        <v>97.12</v>
+        <v>97.14</v>
       </c>
       <c r="F8" s="25">
-        <v>97.86</v>
+        <v>97.88</v>
       </c>
       <c r="G8" s="25">
-        <v>98.3</v>
+        <v>98.32</v>
       </c>
       <c r="H8" s="25">
-        <v>99.26</v>
+        <v>99.28</v>
       </c>
       <c r="I8" s="25">
-        <v>99.55</v>
+        <v>99.58</v>
       </c>
       <c r="J8" s="25">
-        <v>99.88</v>
+        <v>99.91</v>
       </c>
       <c r="K8" s="25">
-        <v>100.08</v>
+        <v>100.11</v>
       </c>
       <c r="L8" s="25">
-        <v>100.13</v>
+        <v>100.14</v>
       </c>
       <c r="M8" s="25">
         <v>100</v>
       </c>
       <c r="N8" s="25">
-        <v>98.69</v>
+        <v>98.66</v>
       </c>
       <c r="O8" s="25">
-        <v>94.04</v>
+        <v>93.97</v>
       </c>
       <c r="P8" s="25">
-        <v>90.41</v>
+        <v>90.34</v>
       </c>
       <c r="Q8" s="25">
-        <v>88.39</v>
+        <v>88.34</v>
       </c>
       <c r="R8" s="25">
-        <v>87.7</v>
+        <v>87.66</v>
       </c>
       <c r="S8" s="25">
-        <v>88.27</v>
+        <v>88.24</v>
       </c>
       <c r="T8" s="25">
-        <v>88.78</v>
+        <v>88.75</v>
       </c>
       <c r="U8" s="25">
-        <v>89.28</v>
+        <v>89.26</v>
       </c>
       <c r="V8" s="25">
-        <v>89.89</v>
+        <v>89.87</v>
       </c>
       <c r="W8" s="25">
-        <v>90.17</v>
+        <v>90.15</v>
       </c>
       <c r="X8" s="25">
-        <v>90.62</v>
+        <v>90.6</v>
       </c>
       <c r="Y8" s="25">
-        <v>91.45</v>
+        <v>91.43</v>
       </c>
       <c r="Z8" s="25">
         <v>92.25</v>
       </c>
       <c r="AA8" s="25">
-        <v>92.57</v>
+        <v>92.56</v>
       </c>
       <c r="AB8" s="25">
-        <v>92.53</v>
+        <v>92.51</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.19</v>
+        <v>93.33</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.4</v>
+        <v>93.69</v>
       </c>
       <c r="AE8" s="25">
-        <v>93.41</v>
+        <v>93.69</v>
       </c>
       <c r="AF8" s="25">
+        <v>94.11</v>
+      </c>
+      <c r="AG8" s="25">
+        <v>94.2</v>
+      </c>
+      <c r="AH8" s="25">
+        <v>93.96</v>
+      </c>
+      <c r="AI8" s="25">
         <v>93.84</v>
       </c>
-      <c r="AG8" s="25">
-        <v>93.93</v>
-      </c>
-      <c r="AH8" s="25">
-        <v>93.66</v>
-      </c>
-      <c r="AI8" s="25">
-        <v>93.55</v>
-      </c>
       <c r="AJ8" s="25">
-        <v>93.55</v>
+        <v>93.84</v>
       </c>
       <c r="AK8" s="25">
-        <v>93.66</v>
+        <v>93.95</v>
       </c>
       <c r="AL8" s="25">
-        <v>93.96</v>
+        <v>94.28</v>
       </c>
       <c r="AM8" s="25">
-        <v>94.51</v>
+        <v>94.84</v>
       </c>
       <c r="AN8" s="25">
-        <v>94.63</v>
+        <v>94.97</v>
       </c>
       <c r="AO8" s="25">
-        <v>94.48</v>
+        <v>94.82</v>
       </c>
       <c r="AP8" s="25">
-        <v>93.94</v>
+        <v>94.26</v>
       </c>
       <c r="AQ8" s="25">
-        <v>93.96</v>
+        <v>94.26</v>
       </c>
       <c r="AR8" s="25">
-        <v>94.71</v>
+        <v>95.08</v>
       </c>
       <c r="AS8" s="25">
-        <v>95.03</v>
+        <v>95.44</v>
       </c>
       <c r="AT8" s="25">
-        <v>95.18</v>
+        <v>95.57</v>
       </c>
       <c r="AU8" s="25">
-        <v>95.46</v>
+        <v>96.07</v>
       </c>
       <c r="AV8" s="25">
-        <v>95.76</v>
+        <v>96.58</v>
       </c>
       <c r="AW8" s="25">
-        <v>95.8</v>
+        <v>96.85</v>
       </c>
       <c r="AX8" s="25">
-        <v>95.98</v>
-      </c>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
+        <v>97.19</v>
+      </c>
+      <c r="AY8" s="25">
+        <v>97.47</v>
+      </c>
+      <c r="AZ8" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>96.46</v>
+      </c>
+      <c r="BB8" s="25">
+        <v>92.9</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>89.98</v>
+      </c>
       <c r="BD8" s="25"/>
       <c r="BE8" s="25"/>
       <c r="BF8" s="25"/>
@@ -2195,160 +2225,170 @@
     </row>
     <row r="9" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="25">
-        <v>95.99</v>
+        <v>96.07</v>
       </c>
       <c r="D9" s="25">
-        <v>96.86</v>
+        <v>96.95</v>
       </c>
       <c r="E9" s="25">
-        <v>97.64</v>
+        <v>97.74</v>
       </c>
       <c r="F9" s="25">
-        <v>98.36</v>
+        <v>98.45</v>
       </c>
       <c r="G9" s="25">
-        <v>98.79</v>
+        <v>98.84</v>
       </c>
       <c r="H9" s="25">
-        <v>99.14</v>
+        <v>99.16</v>
       </c>
       <c r="I9" s="25">
-        <v>99.72</v>
+        <v>99.74</v>
       </c>
       <c r="J9" s="25">
-        <v>99.52</v>
+        <v>99.53</v>
       </c>
       <c r="K9" s="25">
         <v>99.1</v>
       </c>
       <c r="L9" s="25">
-        <v>99.64</v>
+        <v>99.65</v>
       </c>
       <c r="M9" s="25">
         <v>100</v>
       </c>
       <c r="N9" s="25">
-        <v>99.53</v>
+        <v>99.49</v>
       </c>
       <c r="O9" s="25">
-        <v>97.79</v>
+        <v>97.7</v>
       </c>
       <c r="P9" s="25">
-        <v>95.99</v>
+        <v>95.87</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.88</v>
+        <v>94.74</v>
       </c>
       <c r="R9" s="25">
-        <v>94.74</v>
+        <v>94.63</v>
       </c>
       <c r="S9" s="25">
-        <v>94.91</v>
+        <v>94.81</v>
       </c>
       <c r="T9" s="25">
-        <v>94.94</v>
+        <v>94.84</v>
       </c>
       <c r="U9" s="25">
-        <v>95.24</v>
+        <v>95.14</v>
       </c>
       <c r="V9" s="25">
-        <v>95.45</v>
+        <v>95.35</v>
       </c>
       <c r="W9" s="25">
-        <v>95.65</v>
+        <v>95.55</v>
       </c>
       <c r="X9" s="25">
-        <v>96.15</v>
+        <v>96.05</v>
       </c>
       <c r="Y9" s="25">
-        <v>96.94</v>
+        <v>96.84</v>
       </c>
       <c r="Z9" s="25">
-        <v>97.28</v>
+        <v>97.17</v>
       </c>
       <c r="AA9" s="25">
-        <v>97.11</v>
+        <v>97.01</v>
       </c>
       <c r="AB9" s="25">
-        <v>96.33</v>
+        <v>96.19</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.79</v>
+        <v>96.75</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.62</v>
+        <v>97.69</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.49</v>
+        <v>97.51</v>
       </c>
       <c r="AF9" s="25">
+        <v>97.35</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.51</v>
+      </c>
+      <c r="AI9" s="25">
         <v>97.32</v>
       </c>
-      <c r="AG9" s="25">
-        <v>97.48</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>97.43</v>
-      </c>
-      <c r="AI9" s="25">
+      <c r="AJ9" s="25">
+        <v>97.3</v>
+      </c>
+      <c r="AK9" s="25">
+        <v>97.23</v>
+      </c>
+      <c r="AL9" s="25">
         <v>97.25</v>
       </c>
-      <c r="AJ9" s="25">
-        <v>97.28</v>
-      </c>
-      <c r="AK9" s="25">
-        <v>97.19</v>
-      </c>
-      <c r="AL9" s="25">
-        <v>97.21</v>
-      </c>
       <c r="AM9" s="25">
-        <v>97.47</v>
+        <v>97.51</v>
       </c>
       <c r="AN9" s="25">
-        <v>97.65</v>
+        <v>97.7</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.47</v>
+        <v>97.5</v>
       </c>
       <c r="AP9" s="25">
-        <v>96.88</v>
+        <v>96.84</v>
       </c>
       <c r="AQ9" s="25">
-        <v>96.99</v>
+        <v>96.87</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.57</v>
+        <v>97.5</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.67</v>
+        <v>97.56</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.8</v>
+        <v>97.58</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.11</v>
+        <v>97.95</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.66</v>
+        <v>98.63</v>
       </c>
       <c r="AW9" s="25">
-        <v>98.92</v>
+        <v>98.82</v>
       </c>
       <c r="AX9" s="25">
-        <v>99.69</v>
-      </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="25"/>
+        <v>99</v>
+      </c>
+      <c r="AY9" s="25">
+        <v>99.66</v>
+      </c>
+      <c r="AZ9" s="25">
+        <v>100.06</v>
+      </c>
+      <c r="BA9" s="25">
+        <v>100.05</v>
+      </c>
+      <c r="BB9" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="BC9" s="25">
+        <v>97.95</v>
+      </c>
       <c r="BD9" s="25"/>
       <c r="BE9" s="25"/>
       <c r="BF9" s="25"/>
@@ -2375,37 +2415,37 @@
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="25">
-        <v>87.04</v>
+        <v>87</v>
       </c>
       <c r="D10" s="25">
-        <v>91.53</v>
+        <v>91.52</v>
       </c>
       <c r="E10" s="25">
-        <v>94.17</v>
+        <v>94.18</v>
       </c>
       <c r="F10" s="25">
-        <v>95.35</v>
+        <v>95.36</v>
       </c>
       <c r="G10" s="25">
-        <v>96.25</v>
+        <v>96.26</v>
       </c>
       <c r="H10" s="25">
-        <v>97.36</v>
+        <v>97.37</v>
       </c>
       <c r="I10" s="25">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="J10" s="25">
-        <v>98.29</v>
+        <v>98.3</v>
       </c>
       <c r="K10" s="25">
-        <v>98.81</v>
+        <v>98.82</v>
       </c>
       <c r="L10" s="25">
         <v>99.95</v>
@@ -2414,121 +2454,131 @@
         <v>100</v>
       </c>
       <c r="N10" s="25">
-        <v>99.07</v>
+        <v>99.04</v>
       </c>
       <c r="O10" s="25">
-        <v>95.21</v>
+        <v>95.16</v>
       </c>
       <c r="P10" s="25">
-        <v>91.91</v>
+        <v>91.84</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.58</v>
+        <v>89.5</v>
       </c>
       <c r="R10" s="25">
-        <v>88.88</v>
+        <v>88.8</v>
       </c>
       <c r="S10" s="25">
-        <v>89.32</v>
+        <v>89.26</v>
       </c>
       <c r="T10" s="25">
-        <v>90.4</v>
+        <v>90.33</v>
       </c>
       <c r="U10" s="25">
-        <v>91.8</v>
+        <v>91.74</v>
       </c>
       <c r="V10" s="25">
-        <v>93.61</v>
+        <v>93.56</v>
       </c>
       <c r="W10" s="25">
-        <v>94.1</v>
+        <v>94.05</v>
       </c>
       <c r="X10" s="25">
-        <v>94.69</v>
+        <v>94.64</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.01</v>
+        <v>95.97</v>
       </c>
       <c r="Z10" s="25">
-        <v>95.73</v>
+        <v>95.69</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.09</v>
+        <v>96.05</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.39</v>
+        <v>97.37</v>
       </c>
       <c r="AC10" s="25">
-        <v>99.69</v>
+        <v>100.25</v>
       </c>
       <c r="AD10" s="25">
-        <v>99.81</v>
+        <v>100.8</v>
       </c>
       <c r="AE10" s="25">
-        <v>99.74</v>
+        <v>100.75</v>
       </c>
       <c r="AF10" s="25">
-        <v>100.25</v>
+        <v>101.27</v>
       </c>
       <c r="AG10" s="25">
-        <v>100.19</v>
+        <v>101.25</v>
       </c>
       <c r="AH10" s="25">
-        <v>100.23</v>
+        <v>101.33</v>
       </c>
       <c r="AI10" s="25">
-        <v>100.35</v>
+        <v>101.47</v>
       </c>
       <c r="AJ10" s="25">
+        <v>101.7</v>
+      </c>
+      <c r="AK10" s="25">
+        <v>101.86</v>
+      </c>
+      <c r="AL10" s="25">
+        <v>102.3</v>
+      </c>
+      <c r="AM10" s="25">
+        <v>102.83</v>
+      </c>
+      <c r="AN10" s="25">
+        <v>102.88</v>
+      </c>
+      <c r="AO10" s="25">
+        <v>102.91</v>
+      </c>
+      <c r="AP10" s="25">
+        <v>101.67</v>
+      </c>
+      <c r="AQ10" s="25">
+        <v>100.4</v>
+      </c>
+      <c r="AR10" s="25">
+        <v>100.48</v>
+      </c>
+      <c r="AS10" s="25">
+        <v>100.54</v>
+      </c>
+      <c r="AT10" s="25">
+        <v>100.22</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="AV10" s="25">
+        <v>100.26</v>
+      </c>
+      <c r="AW10" s="25">
+        <v>100.62</v>
+      </c>
+      <c r="AX10" s="25">
         <v>100.58</v>
       </c>
-      <c r="AK10" s="25">
-        <v>100.73</v>
-      </c>
-      <c r="AL10" s="25">
-        <v>101.14</v>
-      </c>
-      <c r="AM10" s="25">
-        <v>101.63</v>
-      </c>
-      <c r="AN10" s="25">
-        <v>101.66</v>
-      </c>
-      <c r="AO10" s="25">
-        <v>101.67</v>
-      </c>
-      <c r="AP10" s="25">
-        <v>100.37</v>
-      </c>
-      <c r="AQ10" s="25">
-        <v>98.82</v>
-      </c>
-      <c r="AR10" s="25">
-        <v>98.71</v>
-      </c>
-      <c r="AS10" s="25">
-        <v>98.67</v>
-      </c>
-      <c r="AT10" s="25">
-        <v>98.12</v>
-      </c>
-      <c r="AU10" s="25">
-        <v>96.83</v>
-      </c>
-      <c r="AV10" s="25">
-        <v>96.2</v>
-      </c>
-      <c r="AW10" s="25">
-        <v>95.44</v>
-      </c>
-      <c r="AX10" s="25">
-        <v>95.32</v>
-      </c>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
+      <c r="AY10" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="AZ10" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="BA10" s="25">
+        <v>96.4</v>
+      </c>
+      <c r="BB10" s="25">
+        <v>90.72</v>
+      </c>
+      <c r="BC10" s="25">
+        <v>85</v>
+      </c>
       <c r="BD10" s="25"/>
       <c r="BE10" s="25"/>
       <c r="BF10" s="25"/>
@@ -2555,160 +2605,170 @@
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="25">
         <v>92.15</v>
       </c>
       <c r="D11" s="25">
-        <v>95.54</v>
+        <v>95.55</v>
       </c>
       <c r="E11" s="25">
-        <v>97.3</v>
+        <v>97.31</v>
       </c>
       <c r="F11" s="25">
-        <v>98.09</v>
+        <v>98.1</v>
       </c>
       <c r="G11" s="25">
-        <v>98.63</v>
+        <v>98.64</v>
       </c>
       <c r="H11" s="25">
-        <v>99.35</v>
+        <v>99.36</v>
       </c>
       <c r="I11" s="25">
-        <v>99.55</v>
+        <v>99.57</v>
       </c>
       <c r="J11" s="25">
-        <v>100</v>
+        <v>100.01</v>
       </c>
       <c r="K11" s="25">
-        <v>100.17</v>
+        <v>100.18</v>
       </c>
       <c r="L11" s="25">
-        <v>100.11</v>
+        <v>100.12</v>
       </c>
       <c r="M11" s="25">
         <v>100</v>
       </c>
       <c r="N11" s="25">
-        <v>98.45</v>
+        <v>98.43</v>
       </c>
       <c r="O11" s="25">
-        <v>93.58</v>
+        <v>93.53</v>
       </c>
       <c r="P11" s="25">
-        <v>89.91</v>
+        <v>89.86</v>
       </c>
       <c r="Q11" s="25">
-        <v>88.06</v>
+        <v>88.02</v>
       </c>
       <c r="R11" s="25">
-        <v>87.67</v>
+        <v>87.64</v>
       </c>
       <c r="S11" s="25">
-        <v>88.07</v>
+        <v>88.05</v>
       </c>
       <c r="T11" s="25">
-        <v>88.59</v>
+        <v>88.57</v>
       </c>
       <c r="U11" s="25">
-        <v>89.08</v>
+        <v>89.06</v>
       </c>
       <c r="V11" s="25">
-        <v>89.56</v>
+        <v>89.54</v>
       </c>
       <c r="W11" s="25">
-        <v>90.01</v>
+        <v>89.99</v>
       </c>
       <c r="X11" s="25">
-        <v>90.55</v>
+        <v>90.53</v>
       </c>
       <c r="Y11" s="25">
-        <v>91.53</v>
+        <v>91.52</v>
       </c>
       <c r="Z11" s="25">
-        <v>92.23</v>
+        <v>92.22</v>
       </c>
       <c r="AA11" s="25">
-        <v>92.47</v>
+        <v>92.46</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.53</v>
+        <v>92.49</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.26</v>
+        <v>93.39</v>
       </c>
       <c r="AD11" s="25">
-        <v>93.98</v>
+        <v>94.26</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.25</v>
+        <v>94.53</v>
       </c>
       <c r="AF11" s="25">
-        <v>94.62</v>
+        <v>94.9</v>
       </c>
       <c r="AG11" s="25">
-        <v>94.66</v>
+        <v>94.95</v>
       </c>
       <c r="AH11" s="25">
-        <v>94.65</v>
+        <v>94.94</v>
       </c>
       <c r="AI11" s="25">
-        <v>94.76</v>
+        <v>95.06</v>
       </c>
       <c r="AJ11" s="25">
-        <v>95.04</v>
+        <v>95.34</v>
       </c>
       <c r="AK11" s="25">
-        <v>95.17</v>
+        <v>95.46</v>
       </c>
       <c r="AL11" s="25">
-        <v>95.37</v>
+        <v>95.67</v>
       </c>
       <c r="AM11" s="25">
-        <v>95.66</v>
+        <v>95.97</v>
       </c>
       <c r="AN11" s="25">
-        <v>95.72</v>
+        <v>96.05</v>
       </c>
       <c r="AO11" s="25">
-        <v>95.76</v>
+        <v>96.09</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.2</v>
+        <v>95.48</v>
       </c>
       <c r="AQ11" s="25">
-        <v>94.86</v>
+        <v>95.1</v>
       </c>
       <c r="AR11" s="25">
-        <v>95.55</v>
+        <v>95.85</v>
       </c>
       <c r="AS11" s="25">
-        <v>95.78</v>
+        <v>96.12</v>
       </c>
       <c r="AT11" s="25">
-        <v>95.51</v>
+        <v>95.87</v>
       </c>
       <c r="AU11" s="25">
-        <v>95.59</v>
+        <v>96.16</v>
       </c>
       <c r="AV11" s="25">
-        <v>95.81</v>
+        <v>96.63</v>
       </c>
       <c r="AW11" s="25">
-        <v>95.98</v>
+        <v>97.08</v>
       </c>
       <c r="AX11" s="25">
-        <v>96.44</v>
-      </c>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
+        <v>97.31</v>
+      </c>
+      <c r="AY11" s="25">
+        <v>97.31</v>
+      </c>
+      <c r="AZ11" s="25">
+        <v>97.18</v>
+      </c>
+      <c r="BA11" s="25">
+        <v>96.11</v>
+      </c>
+      <c r="BB11" s="25">
+        <v>92.77</v>
+      </c>
+      <c r="BC11" s="25">
+        <v>89.64</v>
+      </c>
       <c r="BD11" s="25"/>
       <c r="BE11" s="25"/>
       <c r="BF11" s="25"/>
@@ -2735,160 +2795,170 @@
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="25">
-        <v>96.27</v>
+        <v>96.29</v>
       </c>
       <c r="D12" s="25">
-        <v>96.86</v>
+        <v>96.88</v>
       </c>
       <c r="E12" s="25">
-        <v>97.27</v>
+        <v>97.28</v>
       </c>
       <c r="F12" s="25">
-        <v>98.08</v>
+        <v>98.09</v>
       </c>
       <c r="G12" s="25">
         <v>98.87</v>
       </c>
       <c r="H12" s="25">
-        <v>99.07</v>
+        <v>99.06</v>
       </c>
       <c r="I12" s="25">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="J12" s="25">
         <v>99.6</v>
       </c>
       <c r="K12" s="25">
-        <v>99.3</v>
+        <v>99.31</v>
       </c>
       <c r="L12" s="25">
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
       <c r="M12" s="25">
         <v>100</v>
       </c>
       <c r="N12" s="25">
-        <v>99.62</v>
+        <v>99.61</v>
       </c>
       <c r="O12" s="25">
-        <v>97.9</v>
+        <v>97.88</v>
       </c>
       <c r="P12" s="25">
-        <v>96.2</v>
+        <v>96.17</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.24</v>
+        <v>95.21</v>
       </c>
       <c r="R12" s="25">
-        <v>94.71</v>
+        <v>94.72</v>
       </c>
       <c r="S12" s="25">
-        <v>94.65</v>
+        <v>94.67</v>
       </c>
       <c r="T12" s="25">
-        <v>94.82</v>
+        <v>94.84</v>
       </c>
       <c r="U12" s="25">
-        <v>95.29</v>
+        <v>95.31</v>
       </c>
       <c r="V12" s="25">
-        <v>95.57</v>
+        <v>95.59</v>
       </c>
       <c r="W12" s="25">
-        <v>95.95</v>
+        <v>95.99</v>
       </c>
       <c r="X12" s="25">
-        <v>96.67</v>
+        <v>96.69</v>
       </c>
       <c r="Y12" s="25">
-        <v>97.67</v>
+        <v>97.68</v>
       </c>
       <c r="Z12" s="25">
+        <v>97.52</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>97.49</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>97.24</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>97.43</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>98.21</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>97.82</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>97.86</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>98.44</v>
+      </c>
+      <c r="AI12" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="AJ12" s="25">
+        <v>98.35</v>
+      </c>
+      <c r="AK12" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AL12" s="25">
+        <v>98.23</v>
+      </c>
+      <c r="AM12" s="25">
+        <v>98.51</v>
+      </c>
+      <c r="AN12" s="25">
+        <v>98.76</v>
+      </c>
+      <c r="AO12" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="AP12" s="25">
+        <v>97.78</v>
+      </c>
+      <c r="AQ12" s="25">
         <v>97.53</v>
       </c>
-      <c r="AA12" s="25">
-        <v>97.5</v>
-      </c>
-      <c r="AB12" s="25">
-        <v>97.28</v>
-      </c>
-      <c r="AC12" s="25">
-        <v>97.39</v>
-      </c>
-      <c r="AD12" s="25">
-        <v>98.07</v>
-      </c>
-      <c r="AE12" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>97.73</v>
-      </c>
-      <c r="AG12" s="25">
-        <v>98.25</v>
-      </c>
-      <c r="AH12" s="25">
-        <v>98.25</v>
-      </c>
-      <c r="AI12" s="25">
-        <v>98.2</v>
-      </c>
-      <c r="AJ12" s="25">
-        <v>98.19</v>
-      </c>
-      <c r="AK12" s="25">
-        <v>98.21</v>
-      </c>
-      <c r="AL12" s="25">
-        <v>98.04</v>
-      </c>
-      <c r="AM12" s="25">
-        <v>98.32</v>
-      </c>
-      <c r="AN12" s="25">
-        <v>98.58</v>
-      </c>
-      <c r="AO12" s="25">
-        <v>98.52</v>
-      </c>
-      <c r="AP12" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>97.56</v>
-      </c>
       <c r="AR12" s="25">
-        <v>98.45</v>
+        <v>98.43</v>
       </c>
       <c r="AS12" s="25">
-        <v>98.57</v>
+        <v>98.53</v>
       </c>
       <c r="AT12" s="25">
-        <v>98.64</v>
+        <v>98.43</v>
       </c>
       <c r="AU12" s="25">
-        <v>98.99</v>
+        <v>98.7</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.3</v>
+        <v>99.1</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.85</v>
+        <v>99.56</v>
       </c>
       <c r="AX12" s="25">
-        <v>100.65</v>
-      </c>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="25"/>
-      <c r="BB12" s="25"/>
-      <c r="BC12" s="25"/>
+        <v>99.78</v>
+      </c>
+      <c r="AY12" s="25">
+        <v>100.45</v>
+      </c>
+      <c r="AZ12" s="25">
+        <v>100.83</v>
+      </c>
+      <c r="BA12" s="25">
+        <v>101.1</v>
+      </c>
+      <c r="BB12" s="25">
+        <v>99.88</v>
+      </c>
+      <c r="BC12" s="25">
+        <v>99.46</v>
+      </c>
       <c r="BD12" s="25"/>
       <c r="BE12" s="25"/>
       <c r="BF12" s="25"/>
@@ -2915,160 +2985,170 @@
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="25">
-        <v>87.35</v>
+        <v>87.34</v>
       </c>
       <c r="D13" s="25">
-        <v>90.71</v>
+        <v>90.72</v>
       </c>
       <c r="E13" s="25">
-        <v>93.42</v>
+        <v>93.45</v>
       </c>
       <c r="F13" s="25">
-        <v>94.82</v>
+        <v>94.84</v>
       </c>
       <c r="G13" s="25">
-        <v>95.75</v>
+        <v>95.77</v>
       </c>
       <c r="H13" s="25">
-        <v>97.27</v>
+        <v>97.3</v>
       </c>
       <c r="I13" s="25">
-        <v>97.75</v>
+        <v>97.77</v>
       </c>
       <c r="J13" s="25">
-        <v>98.27</v>
+        <v>98.3</v>
       </c>
       <c r="K13" s="25">
-        <v>98.81</v>
+        <v>98.83</v>
       </c>
       <c r="L13" s="25">
-        <v>99.98</v>
+        <v>100</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
       </c>
       <c r="N13" s="25">
-        <v>99.25</v>
+        <v>99.21</v>
       </c>
       <c r="O13" s="25">
-        <v>95.13</v>
+        <v>95.03</v>
       </c>
       <c r="P13" s="25">
-        <v>91.68</v>
+        <v>91.58</v>
       </c>
       <c r="Q13" s="25">
-        <v>89.31</v>
+        <v>89.23</v>
       </c>
       <c r="R13" s="25">
-        <v>88.55</v>
+        <v>88.48</v>
       </c>
       <c r="S13" s="25">
-        <v>89.05</v>
+        <v>88.99</v>
       </c>
       <c r="T13" s="25">
-        <v>90.07</v>
+        <v>90.08</v>
       </c>
       <c r="U13" s="25">
-        <v>90.87</v>
+        <v>90.9</v>
       </c>
       <c r="V13" s="25">
-        <v>91.42</v>
+        <v>91.45</v>
       </c>
       <c r="W13" s="25">
-        <v>91.82</v>
+        <v>91.85</v>
       </c>
       <c r="X13" s="25">
-        <v>92.42</v>
+        <v>92.45</v>
       </c>
       <c r="Y13" s="25">
-        <v>93.74</v>
+        <v>93.79</v>
       </c>
       <c r="Z13" s="25">
-        <v>94.52</v>
+        <v>94.58</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.15</v>
+        <v>95.2</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.34</v>
+        <v>96.41</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.24</v>
+        <v>98.74</v>
       </c>
       <c r="AD13" s="25">
-        <v>97.59</v>
+        <v>98.4</v>
       </c>
       <c r="AE13" s="25">
-        <v>97.07</v>
+        <v>97.88</v>
       </c>
       <c r="AF13" s="25">
-        <v>96.94</v>
+        <v>97.77</v>
       </c>
       <c r="AG13" s="25">
-        <v>96.62</v>
+        <v>97.47</v>
       </c>
       <c r="AH13" s="25">
+        <v>96.64</v>
+      </c>
+      <c r="AI13" s="25">
+        <v>95.9</v>
+      </c>
+      <c r="AJ13" s="25">
+        <v>95.33</v>
+      </c>
+      <c r="AK13" s="25">
+        <v>95.49</v>
+      </c>
+      <c r="AL13" s="25">
+        <v>95.63</v>
+      </c>
+      <c r="AM13" s="25">
+        <v>96.06</v>
+      </c>
+      <c r="AN13" s="25">
+        <v>96.23</v>
+      </c>
+      <c r="AO13" s="25">
+        <v>96.29</v>
+      </c>
+      <c r="AP13" s="25">
+        <v>95.86</v>
+      </c>
+      <c r="AQ13" s="25">
+        <v>95.59</v>
+      </c>
+      <c r="AR13" s="25">
+        <v>95.77</v>
+      </c>
+      <c r="AS13" s="25">
+        <v>95.9</v>
+      </c>
+      <c r="AT13" s="25">
+        <v>96.65</v>
+      </c>
+      <c r="AU13" s="25">
+        <v>96.99</v>
+      </c>
+      <c r="AV13" s="25">
+        <v>97.84</v>
+      </c>
+      <c r="AW13" s="25">
+        <v>98.32</v>
+      </c>
+      <c r="AX13" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="AY13" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AZ13" s="25">
+        <v>97.69</v>
+      </c>
+      <c r="BA13" s="25">
         <v>95.78</v>
       </c>
-      <c r="AI13" s="25">
-        <v>95.03</v>
-      </c>
-      <c r="AJ13" s="25">
-        <v>94.44</v>
-      </c>
-      <c r="AK13" s="25">
-        <v>94.59</v>
-      </c>
-      <c r="AL13" s="25">
-        <v>94.68</v>
-      </c>
-      <c r="AM13" s="25">
-        <v>95.08</v>
-      </c>
-      <c r="AN13" s="25">
-        <v>95.24</v>
-      </c>
-      <c r="AO13" s="25">
-        <v>95.3</v>
-      </c>
-      <c r="AP13" s="25">
-        <v>94.8</v>
-      </c>
-      <c r="AQ13" s="25">
-        <v>94.34</v>
-      </c>
-      <c r="AR13" s="25">
-        <v>94.34</v>
-      </c>
-      <c r="AS13" s="25">
-        <v>94.3</v>
-      </c>
-      <c r="AT13" s="25">
-        <v>94.85</v>
-      </c>
-      <c r="AU13" s="25">
-        <v>94.46</v>
-      </c>
-      <c r="AV13" s="25">
-        <v>94.5</v>
-      </c>
-      <c r="AW13" s="25">
-        <v>94.08</v>
-      </c>
-      <c r="AX13" s="25">
-        <v>93.88</v>
-      </c>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="25"/>
+      <c r="BB13" s="25">
+        <v>91.02</v>
+      </c>
+      <c r="BC13" s="25">
+        <v>86.13</v>
+      </c>
       <c r="BD13" s="25"/>
       <c r="BE13" s="25"/>
       <c r="BF13" s="25"/>
@@ -3095,67 +3175,67 @@
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.34</v>
+        <v>90.36</v>
       </c>
       <c r="D14" s="25">
-        <v>93.36</v>
+        <v>93.39</v>
       </c>
       <c r="E14" s="25">
-        <v>95.62</v>
+        <v>95.66</v>
       </c>
       <c r="F14" s="25">
-        <v>96.68</v>
+        <v>96.71</v>
       </c>
       <c r="G14" s="25">
-        <v>97.49</v>
+        <v>97.51</v>
       </c>
       <c r="H14" s="25">
-        <v>99.11</v>
+        <v>99.14</v>
       </c>
       <c r="I14" s="25">
-        <v>99.24</v>
+        <v>99.27</v>
       </c>
       <c r="J14" s="25">
-        <v>99.72</v>
+        <v>99.77</v>
       </c>
       <c r="K14" s="25">
-        <v>99.87</v>
+        <v>99.91</v>
       </c>
       <c r="L14" s="25">
-        <v>100.07</v>
+        <v>100.09</v>
       </c>
       <c r="M14" s="25">
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.87</v>
+        <v>98.82</v>
       </c>
       <c r="O14" s="25">
-        <v>94.41</v>
+        <v>94.29</v>
       </c>
       <c r="P14" s="25">
-        <v>90.66</v>
+        <v>90.57</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.69</v>
+        <v>88.64</v>
       </c>
       <c r="R14" s="25">
-        <v>87.49</v>
+        <v>87.47</v>
       </c>
       <c r="S14" s="25">
-        <v>88.01</v>
+        <v>87.99</v>
       </c>
       <c r="T14" s="25">
         <v>88.62</v>
       </c>
       <c r="U14" s="25">
-        <v>88.74</v>
+        <v>88.75</v>
       </c>
       <c r="V14" s="25">
         <v>89.21</v>
@@ -3164,91 +3244,101 @@
         <v>89.39</v>
       </c>
       <c r="X14" s="25">
-        <v>89.89</v>
+        <v>89.9</v>
       </c>
       <c r="Y14" s="25">
-        <v>90.38</v>
+        <v>90.39</v>
       </c>
       <c r="Z14" s="25">
-        <v>91.21</v>
+        <v>91.22</v>
       </c>
       <c r="AA14" s="25">
-        <v>91.37</v>
+        <v>91.38</v>
       </c>
       <c r="AB14" s="25">
         <v>91.33</v>
       </c>
       <c r="AC14" s="25">
-        <v>91.75</v>
+        <v>91.9</v>
       </c>
       <c r="AD14" s="25">
-        <v>90.64</v>
+        <v>90.91</v>
       </c>
       <c r="AE14" s="25">
-        <v>90</v>
+        <v>90.26</v>
       </c>
       <c r="AF14" s="25">
-        <v>90.53</v>
+        <v>90.8</v>
       </c>
       <c r="AG14" s="25">
-        <v>90.43</v>
+        <v>90.73</v>
       </c>
       <c r="AH14" s="25">
-        <v>89.29</v>
+        <v>89.64</v>
       </c>
       <c r="AI14" s="25">
-        <v>88.51</v>
+        <v>88.85</v>
       </c>
       <c r="AJ14" s="25">
-        <v>87.94</v>
+        <v>88.27</v>
       </c>
       <c r="AK14" s="25">
-        <v>88</v>
+        <v>88.33</v>
       </c>
       <c r="AL14" s="25">
-        <v>88.46</v>
+        <v>88.8</v>
       </c>
       <c r="AM14" s="25">
+        <v>89.46</v>
+      </c>
+      <c r="AN14" s="25">
+        <v>89.74</v>
+      </c>
+      <c r="AO14" s="25">
+        <v>89.58</v>
+      </c>
+      <c r="AP14" s="25">
+        <v>88.94</v>
+      </c>
+      <c r="AQ14" s="25">
         <v>89.12</v>
       </c>
-      <c r="AN14" s="25">
-        <v>89.38</v>
-      </c>
-      <c r="AO14" s="25">
-        <v>89.23</v>
-      </c>
-      <c r="AP14" s="25">
-        <v>88.58</v>
-      </c>
-      <c r="AQ14" s="25">
-        <v>88.77</v>
-      </c>
       <c r="AR14" s="25">
-        <v>90.01</v>
+        <v>90.4</v>
       </c>
       <c r="AS14" s="25">
-        <v>90.59</v>
+        <v>91</v>
       </c>
       <c r="AT14" s="25">
-        <v>91.52</v>
+        <v>91.89</v>
       </c>
       <c r="AU14" s="25">
-        <v>92.11</v>
+        <v>92.77</v>
       </c>
       <c r="AV14" s="25">
-        <v>92.73</v>
+        <v>93.75</v>
       </c>
       <c r="AW14" s="25">
-        <v>92.85</v>
+        <v>94.14</v>
       </c>
       <c r="AX14" s="25">
-        <v>93.32</v>
-      </c>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
+        <v>94.89</v>
+      </c>
+      <c r="AY14" s="25">
+        <v>95.15</v>
+      </c>
+      <c r="AZ14" s="25">
+        <v>95.55</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>94.6</v>
+      </c>
+      <c r="BB14" s="25">
+        <v>91.19</v>
+      </c>
+      <c r="BC14" s="25">
+        <v>88.19</v>
+      </c>
       <c r="BD14" s="25"/>
       <c r="BE14" s="25"/>
       <c r="BF14" s="25"/>
@@ -3275,160 +3365,170 @@
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="25">
-        <v>95.78</v>
+        <v>95.81</v>
       </c>
       <c r="D15" s="25">
-        <v>96.63</v>
+        <v>96.66</v>
       </c>
       <c r="E15" s="25">
-        <v>97.87</v>
+        <v>97.91</v>
       </c>
       <c r="F15" s="25">
-        <v>98.75</v>
+        <v>98.78</v>
       </c>
       <c r="G15" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="H15" s="25">
         <v>99.18</v>
       </c>
-      <c r="H15" s="25">
-        <v>99.16</v>
-      </c>
       <c r="I15" s="25">
-        <v>98.9</v>
+        <v>98.92</v>
       </c>
       <c r="J15" s="25">
-        <v>99.29</v>
+        <v>99.31</v>
       </c>
       <c r="K15" s="25">
         <v>99.51</v>
       </c>
       <c r="L15" s="25">
-        <v>99.63</v>
+        <v>99.64</v>
       </c>
       <c r="M15" s="25">
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>98.97</v>
+        <v>98.88</v>
       </c>
       <c r="O15" s="25">
-        <v>97.43</v>
+        <v>97.31</v>
       </c>
       <c r="P15" s="25">
-        <v>95.16</v>
+        <v>95.08</v>
       </c>
       <c r="Q15" s="25">
-        <v>94.31</v>
+        <v>94.24</v>
       </c>
       <c r="R15" s="25">
-        <v>94.43</v>
+        <v>94.39</v>
       </c>
       <c r="S15" s="25">
-        <v>95</v>
+        <v>94.98</v>
       </c>
       <c r="T15" s="25">
-        <v>94.44</v>
+        <v>94.42</v>
       </c>
       <c r="U15" s="25">
-        <v>94.37</v>
+        <v>94.35</v>
       </c>
       <c r="V15" s="25">
-        <v>94.21</v>
+        <v>94.18</v>
       </c>
       <c r="W15" s="25">
         <v>94.26</v>
       </c>
       <c r="X15" s="25">
-        <v>95.01</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="25">
-        <v>95.86</v>
+        <v>95.85</v>
       </c>
       <c r="Z15" s="25">
-        <v>97.14</v>
+        <v>97.13</v>
       </c>
       <c r="AA15" s="25">
         <v>97.16</v>
       </c>
       <c r="AB15" s="25">
-        <v>95.36</v>
+        <v>95.3</v>
       </c>
       <c r="AC15" s="25">
         <v>95.94</v>
       </c>
       <c r="AD15" s="25">
-        <v>96.98</v>
+        <v>97.07</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.84</v>
+        <v>96.92</v>
       </c>
       <c r="AF15" s="25">
-        <v>95.93</v>
+        <v>96.03</v>
       </c>
       <c r="AG15" s="25">
-        <v>95.97</v>
+        <v>96.07</v>
       </c>
       <c r="AH15" s="25">
-        <v>95.51</v>
+        <v>95.63</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.02</v>
+        <v>95.13</v>
       </c>
       <c r="AJ15" s="25">
-        <v>94.76</v>
+        <v>94.89</v>
       </c>
       <c r="AK15" s="25">
-        <v>94.81</v>
+        <v>94.94</v>
       </c>
       <c r="AL15" s="25">
-        <v>94.92</v>
+        <v>95.07</v>
       </c>
       <c r="AM15" s="25">
-        <v>95.08</v>
+        <v>95.23</v>
       </c>
       <c r="AN15" s="25">
-        <v>95.07</v>
+        <v>95.21</v>
       </c>
       <c r="AO15" s="25">
-        <v>94.97</v>
+        <v>95.1</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.38</v>
+        <v>94.46</v>
       </c>
       <c r="AQ15" s="25">
-        <v>94.9</v>
+        <v>94.96</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.29</v>
+        <v>95.34</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.51</v>
+        <v>95.44</v>
       </c>
       <c r="AT15" s="25">
-        <v>95.91</v>
+        <v>95.95</v>
       </c>
       <c r="AU15" s="25">
-        <v>96.14</v>
+        <v>96.35</v>
       </c>
       <c r="AV15" s="25">
-        <v>97.03</v>
+        <v>97.25</v>
       </c>
       <c r="AW15" s="25">
-        <v>97.33</v>
+        <v>97.38</v>
       </c>
       <c r="AX15" s="25">
-        <v>97.9</v>
-      </c>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
+        <v>97.7</v>
+      </c>
+      <c r="AY15" s="25">
+        <v>98.56</v>
+      </c>
+      <c r="AZ15" s="25">
+        <v>98.67</v>
+      </c>
+      <c r="BA15" s="25">
+        <v>98.49</v>
+      </c>
+      <c r="BB15" s="25">
+        <v>97.26</v>
+      </c>
+      <c r="BC15" s="25">
+        <v>96.26</v>
+      </c>
       <c r="BD15" s="25"/>
       <c r="BE15" s="25"/>
       <c r="BF15" s="25"/>
@@ -3455,160 +3555,170 @@
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="25">
-        <v>86.22</v>
+        <v>86.18</v>
       </c>
       <c r="D16" s="25">
-        <v>92.29</v>
+        <v>92.27</v>
       </c>
       <c r="E16" s="25">
-        <v>95.14</v>
+        <v>95.15</v>
       </c>
       <c r="F16" s="25">
-        <v>96.23</v>
+        <v>96.24</v>
       </c>
       <c r="G16" s="25">
         <v>96.92</v>
       </c>
       <c r="H16" s="25">
-        <v>97.69</v>
+        <v>97.71</v>
       </c>
       <c r="I16" s="25">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="J16" s="25">
-        <v>98.5</v>
+        <v>98.51</v>
       </c>
       <c r="K16" s="25">
-        <v>99</v>
+        <v>99.01</v>
       </c>
       <c r="L16" s="25">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
       <c r="M16" s="25">
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>99.31</v>
+        <v>99.29</v>
       </c>
       <c r="O16" s="25">
-        <v>95.49</v>
+        <v>95.44</v>
       </c>
       <c r="P16" s="25">
-        <v>92.03</v>
+        <v>91.96</v>
       </c>
       <c r="Q16" s="25">
-        <v>89.37</v>
+        <v>89.29</v>
       </c>
       <c r="R16" s="25">
-        <v>88.84</v>
+        <v>88.77</v>
       </c>
       <c r="S16" s="25">
-        <v>89.54</v>
+        <v>89.48</v>
       </c>
       <c r="T16" s="25">
-        <v>90.57</v>
+        <v>90.51</v>
       </c>
       <c r="U16" s="25">
-        <v>91.68</v>
+        <v>91.63</v>
       </c>
       <c r="V16" s="25">
-        <v>92.6</v>
+        <v>92.55</v>
       </c>
       <c r="W16" s="25">
-        <v>93.27</v>
+        <v>93.21</v>
       </c>
       <c r="X16" s="25">
-        <v>93.53</v>
+        <v>93.48</v>
       </c>
       <c r="Y16" s="25">
-        <v>94.71</v>
+        <v>94.67</v>
       </c>
       <c r="Z16" s="25">
-        <v>95.58</v>
+        <v>95.55</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.35</v>
+        <v>96.32</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.68</v>
+        <v>97.67</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.6</v>
+        <v>100.01</v>
       </c>
       <c r="AD16" s="25">
-        <v>99.82</v>
+        <v>100.54</v>
       </c>
       <c r="AE16" s="25">
-        <v>100.2</v>
+        <v>100.93</v>
       </c>
       <c r="AF16" s="25">
-        <v>100.55</v>
+        <v>101.3</v>
       </c>
       <c r="AG16" s="25">
-        <v>100.74</v>
+        <v>101.52</v>
       </c>
       <c r="AH16" s="25">
-        <v>101.07</v>
+        <v>101.87</v>
       </c>
       <c r="AI16" s="25">
-        <v>101.13</v>
+        <v>101.94</v>
       </c>
       <c r="AJ16" s="25">
-        <v>101.44</v>
+        <v>102.27</v>
       </c>
       <c r="AK16" s="25">
-        <v>101.67</v>
+        <v>102.5</v>
       </c>
       <c r="AL16" s="25">
+        <v>102.73</v>
+      </c>
+      <c r="AM16" s="25">
+        <v>103.47</v>
+      </c>
+      <c r="AN16" s="25">
+        <v>103.49</v>
+      </c>
+      <c r="AO16" s="25">
+        <v>103.09</v>
+      </c>
+      <c r="AP16" s="25">
+        <v>102.44</v>
+      </c>
+      <c r="AQ16" s="25">
+        <v>102.08</v>
+      </c>
+      <c r="AR16" s="25">
         <v>101.9</v>
       </c>
-      <c r="AM16" s="25">
-        <v>102.63</v>
-      </c>
-      <c r="AN16" s="25">
-        <v>102.61</v>
-      </c>
-      <c r="AO16" s="25">
-        <v>102.19</v>
-      </c>
-      <c r="AP16" s="25">
-        <v>101.48</v>
-      </c>
-      <c r="AQ16" s="25">
-        <v>100.97</v>
-      </c>
-      <c r="AR16" s="25">
-        <v>100.59</v>
-      </c>
       <c r="AS16" s="25">
-        <v>100.5</v>
+        <v>101.97</v>
       </c>
       <c r="AT16" s="25">
-        <v>100.24</v>
+        <v>101.93</v>
       </c>
       <c r="AU16" s="25">
-        <v>99.58</v>
+        <v>101.81</v>
       </c>
       <c r="AV16" s="25">
-        <v>99.2</v>
+        <v>101.95</v>
       </c>
       <c r="AW16" s="25">
-        <v>98.53</v>
+        <v>101.92</v>
       </c>
       <c r="AX16" s="25">
-        <v>98.24</v>
-      </c>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
+        <v>101.94</v>
+      </c>
+      <c r="AY16" s="25">
+        <v>101.69</v>
+      </c>
+      <c r="AZ16" s="25">
+        <v>100.82</v>
+      </c>
+      <c r="BA16" s="25">
+        <v>98.37</v>
+      </c>
+      <c r="BB16" s="25">
+        <v>91.75</v>
+      </c>
+      <c r="BC16" s="25">
+        <v>86.74</v>
+      </c>
       <c r="BD16" s="25"/>
       <c r="BE16" s="25"/>
       <c r="BF16" s="25"/>
@@ -3635,13 +3745,13 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.55</v>
+        <v>91.53</v>
       </c>
       <c r="D17" s="25">
         <v>95.9</v>
@@ -3650,145 +3760,155 @@
         <v>97.88</v>
       </c>
       <c r="F17" s="25">
-        <v>98.59</v>
+        <v>98.6</v>
       </c>
       <c r="G17" s="25">
-        <v>98.95</v>
+        <v>98.96</v>
       </c>
       <c r="H17" s="25">
         <v>99.23</v>
       </c>
       <c r="I17" s="25">
-        <v>99.65</v>
+        <v>99.68</v>
       </c>
       <c r="J17" s="25">
-        <v>99.76</v>
+        <v>99.79</v>
       </c>
       <c r="K17" s="25">
-        <v>100.18</v>
+        <v>100.2</v>
       </c>
       <c r="L17" s="25">
-        <v>100.26</v>
+        <v>100.28</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
       </c>
       <c r="N17" s="25">
-        <v>98.73</v>
+        <v>98.71</v>
       </c>
       <c r="O17" s="25">
-        <v>94.08</v>
+        <v>94.04</v>
       </c>
       <c r="P17" s="25">
-        <v>90.33</v>
+        <v>90.29</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.98</v>
+        <v>87.94</v>
       </c>
       <c r="R17" s="25">
-        <v>87.52</v>
+        <v>87.49</v>
       </c>
       <c r="S17" s="25">
-        <v>88.73</v>
+        <v>88.7</v>
       </c>
       <c r="T17" s="25">
-        <v>89.01</v>
+        <v>88.99</v>
       </c>
       <c r="U17" s="25">
-        <v>89.7</v>
+        <v>89.69</v>
       </c>
       <c r="V17" s="25">
-        <v>90.24</v>
+        <v>90.22</v>
       </c>
       <c r="W17" s="25">
-        <v>90.43</v>
+        <v>90.4</v>
       </c>
       <c r="X17" s="25">
-        <v>90.8</v>
+        <v>90.78</v>
       </c>
       <c r="Y17" s="25">
-        <v>91.84</v>
+        <v>91.83</v>
       </c>
       <c r="Z17" s="25">
-        <v>92.77</v>
+        <v>92.76</v>
       </c>
       <c r="AA17" s="25">
+        <v>93.35</v>
+      </c>
+      <c r="AB17" s="25">
         <v>93.37</v>
       </c>
-      <c r="AB17" s="25">
+      <c r="AC17" s="25">
+        <v>94.21</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>94.97</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>95.62</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>95.99</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>96.05</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>96.11</v>
+      </c>
+      <c r="AI17" s="25">
+        <v>96.17</v>
+      </c>
+      <c r="AJ17" s="25">
+        <v>96.41</v>
+      </c>
+      <c r="AK17" s="25">
+        <v>96.57</v>
+      </c>
+      <c r="AL17" s="25">
+        <v>96.85</v>
+      </c>
+      <c r="AM17" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AN17" s="25">
+        <v>97.84</v>
+      </c>
+      <c r="AO17" s="25">
+        <v>97.32</v>
+      </c>
+      <c r="AP17" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="AQ17" s="25">
+        <v>97.1</v>
+      </c>
+      <c r="AR17" s="25">
+        <v>97.66</v>
+      </c>
+      <c r="AS17" s="25">
+        <v>97.83</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>97.59</v>
+      </c>
+      <c r="AU17" s="25">
+        <v>98.16</v>
+      </c>
+      <c r="AV17" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="AW17" s="25">
+        <v>98.75</v>
+      </c>
+      <c r="AX17" s="25">
+        <v>98.66</v>
+      </c>
+      <c r="AY17" s="25">
+        <v>99.09</v>
+      </c>
+      <c r="AZ17" s="25">
+        <v>98.86</v>
+      </c>
+      <c r="BA17" s="25">
+        <v>97.43</v>
+      </c>
+      <c r="BB17" s="25">
         <v>93.4</v>
       </c>
-      <c r="AC17" s="25">
-        <v>94.07</v>
-      </c>
-      <c r="AD17" s="25">
-        <v>94.72</v>
-      </c>
-      <c r="AE17" s="25">
-        <v>95.4</v>
-      </c>
-      <c r="AF17" s="25">
-        <v>95.76</v>
-      </c>
-      <c r="AG17" s="25">
-        <v>95.76</v>
-      </c>
-      <c r="AH17" s="25">
-        <v>95.82</v>
-      </c>
-      <c r="AI17" s="25">
-        <v>95.89</v>
-      </c>
-      <c r="AJ17" s="25">
-        <v>96.12</v>
-      </c>
-      <c r="AK17" s="25">
-        <v>96.27</v>
-      </c>
-      <c r="AL17" s="25">
-        <v>96.49</v>
-      </c>
-      <c r="AM17" s="25">
-        <v>97.35</v>
-      </c>
-      <c r="AN17" s="25">
-        <v>97.43</v>
-      </c>
-      <c r="AO17" s="25">
-        <v>96.93</v>
-      </c>
-      <c r="AP17" s="25">
-        <v>96.37</v>
-      </c>
-      <c r="AQ17" s="25">
-        <v>96.66</v>
-      </c>
-      <c r="AR17" s="25">
-        <v>97.18</v>
-      </c>
-      <c r="AS17" s="25">
-        <v>97.36</v>
-      </c>
-      <c r="AT17" s="25">
-        <v>97.12</v>
-      </c>
-      <c r="AU17" s="25">
-        <v>97.49</v>
-      </c>
-      <c r="AV17" s="25">
-        <v>97.63</v>
-      </c>
-      <c r="AW17" s="25">
-        <v>97.66</v>
-      </c>
-      <c r="AX17" s="25">
-        <v>97.26</v>
-      </c>
-      <c r="AY17" s="25"/>
-      <c r="AZ17" s="25"/>
-      <c r="BA17" s="25"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="25"/>
+      <c r="BC17" s="25">
+        <v>90.61</v>
+      </c>
       <c r="BD17" s="25"/>
       <c r="BE17" s="25"/>
       <c r="BF17" s="25"/>
@@ -3815,40 +3935,40 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="25">
-        <v>95.89</v>
+        <v>95.92</v>
       </c>
       <c r="D18" s="25">
-        <v>97.2</v>
+        <v>97.22</v>
       </c>
       <c r="E18" s="25">
-        <v>97.75</v>
+        <v>97.77</v>
       </c>
       <c r="F18" s="25">
-        <v>98.26</v>
+        <v>98.29</v>
       </c>
       <c r="G18" s="25">
-        <v>98.23</v>
+        <v>98.25</v>
       </c>
       <c r="H18" s="25">
-        <v>98.69</v>
+        <v>98.71</v>
       </c>
       <c r="I18" s="25">
-        <v>99.49</v>
+        <v>99.52</v>
       </c>
       <c r="J18" s="25">
-        <v>99.6</v>
+        <v>99.62</v>
       </c>
       <c r="K18" s="25">
-        <v>98.72</v>
+        <v>98.74</v>
       </c>
       <c r="L18" s="25">
-        <v>99.43</v>
+        <v>99.45</v>
       </c>
       <c r="M18" s="25">
         <v>100</v>
@@ -3857,118 +3977,128 @@
         <v>100.09</v>
       </c>
       <c r="O18" s="25">
-        <v>97.65</v>
+        <v>97.63</v>
       </c>
       <c r="P18" s="25">
-        <v>96.22</v>
+        <v>96.18</v>
       </c>
       <c r="Q18" s="25">
-        <v>94.47</v>
+        <v>94.43</v>
       </c>
       <c r="R18" s="25">
-        <v>94.51</v>
+        <v>94.49</v>
       </c>
       <c r="S18" s="25">
-        <v>94.82</v>
+        <v>94.79</v>
       </c>
       <c r="T18" s="25">
-        <v>95.11</v>
+        <v>95.08</v>
       </c>
       <c r="U18" s="25">
-        <v>95.53</v>
+        <v>95.51</v>
       </c>
       <c r="V18" s="25">
-        <v>95.97</v>
+        <v>95.95</v>
       </c>
       <c r="W18" s="25">
-        <v>95.87</v>
+        <v>95.84</v>
       </c>
       <c r="X18" s="25">
-        <v>96.06</v>
+        <v>96.03</v>
       </c>
       <c r="Y18" s="25">
-        <v>96.55</v>
+        <v>96.52</v>
       </c>
       <c r="Z18" s="25">
-        <v>96.78</v>
+        <v>96.77</v>
       </c>
       <c r="AA18" s="25">
-        <v>96.39</v>
+        <v>96.37</v>
       </c>
       <c r="AB18" s="25">
-        <v>95.92</v>
+        <v>95.88</v>
       </c>
       <c r="AC18" s="25">
-        <v>96.27</v>
+        <v>96.25</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.14</v>
+        <v>97.16</v>
       </c>
       <c r="AE18" s="25">
+        <v>97.33</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>97.63</v>
+      </c>
+      <c r="AG18" s="25">
+        <v>97.18</v>
+      </c>
+      <c r="AH18" s="25">
+        <v>97.4</v>
+      </c>
+      <c r="AI18" s="25">
+        <v>97.08</v>
+      </c>
+      <c r="AJ18" s="25">
+        <v>97.44</v>
+      </c>
+      <c r="AK18" s="25">
+        <v>96.96</v>
+      </c>
+      <c r="AL18" s="25">
         <v>97.3</v>
       </c>
-      <c r="AF18" s="25">
-        <v>97.61</v>
-      </c>
-      <c r="AG18" s="25">
-        <v>97.15</v>
-      </c>
-      <c r="AH18" s="25">
-        <v>97.36</v>
-      </c>
-      <c r="AI18" s="25">
-        <v>97.04</v>
-      </c>
-      <c r="AJ18" s="25">
-        <v>97.43</v>
-      </c>
-      <c r="AK18" s="25">
-        <v>96.93</v>
-      </c>
-      <c r="AL18" s="25">
-        <v>97.24</v>
-      </c>
       <c r="AM18" s="25">
-        <v>97.6</v>
+        <v>97.67</v>
       </c>
       <c r="AN18" s="25">
-        <v>97.92</v>
+        <v>97.97</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.26</v>
+        <v>97.34</v>
       </c>
       <c r="AP18" s="25">
-        <v>96.81</v>
+        <v>96.77</v>
       </c>
       <c r="AQ18" s="25">
-        <v>96.97</v>
+        <v>96.83</v>
       </c>
       <c r="AR18" s="25">
-        <v>97.61</v>
+        <v>97.46</v>
       </c>
       <c r="AS18" s="25">
-        <v>97.43</v>
+        <v>97.23</v>
       </c>
       <c r="AT18" s="25">
-        <v>97.62</v>
+        <v>97.22</v>
       </c>
       <c r="AU18" s="25">
-        <v>97.77</v>
+        <v>97.44</v>
       </c>
       <c r="AV18" s="25">
-        <v>98.39</v>
+        <v>98.27</v>
       </c>
       <c r="AW18" s="25">
-        <v>98.01</v>
+        <v>98.17</v>
       </c>
       <c r="AX18" s="25">
-        <v>99.05</v>
-      </c>
-      <c r="AY18" s="25"/>
-      <c r="AZ18" s="25"/>
-      <c r="BA18" s="25"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="25"/>
+        <v>98.41</v>
+      </c>
+      <c r="AY18" s="25">
+        <v>98.55</v>
+      </c>
+      <c r="AZ18" s="25">
+        <v>99.01</v>
+      </c>
+      <c r="BA18" s="25">
+        <v>98.67</v>
+      </c>
+      <c r="BB18" s="25">
+        <v>97.02</v>
+      </c>
+      <c r="BC18" s="25">
+        <v>96.21</v>
+      </c>
       <c r="BD18" s="25"/>
       <c r="BE18" s="25"/>
       <c r="BF18" s="25"/>
@@ -3995,160 +4125,170 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="25">
-        <v>87.84</v>
+        <v>87.53</v>
       </c>
       <c r="D19" s="25">
-        <v>93</v>
+        <v>92.9</v>
       </c>
       <c r="E19" s="25">
-        <v>95.3</v>
+        <v>95.28</v>
       </c>
       <c r="F19" s="25">
-        <v>96.27</v>
+        <v>96.26</v>
       </c>
       <c r="G19" s="25">
         <v>96.75</v>
       </c>
       <c r="H19" s="25">
-        <v>97.87</v>
+        <v>97.88</v>
       </c>
       <c r="I19" s="25">
-        <v>98.62</v>
+        <v>98.66</v>
       </c>
       <c r="J19" s="25">
-        <v>98.86</v>
+        <v>98.88</v>
       </c>
       <c r="K19" s="25">
-        <v>99.23</v>
+        <v>99.26</v>
       </c>
       <c r="L19" s="25">
-        <v>100.1</v>
+        <v>100.12</v>
       </c>
       <c r="M19" s="25">
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>99.19</v>
+        <v>99.14</v>
       </c>
       <c r="O19" s="25">
-        <v>94.6</v>
+        <v>94.33</v>
       </c>
       <c r="P19" s="25">
-        <v>92.13</v>
+        <v>91.72</v>
       </c>
       <c r="Q19" s="25">
-        <v>90.25</v>
+        <v>89.76</v>
       </c>
       <c r="R19" s="25">
-        <v>89.56</v>
+        <v>89.06</v>
       </c>
       <c r="S19" s="25">
-        <v>90.24</v>
+        <v>89.75</v>
       </c>
       <c r="T19" s="25">
-        <v>91.3</v>
+        <v>90.85</v>
       </c>
       <c r="U19" s="25">
-        <v>92.37</v>
+        <v>91.97</v>
       </c>
       <c r="V19" s="25">
-        <v>92.95</v>
+        <v>92.56</v>
       </c>
       <c r="W19" s="25">
-        <v>93.42</v>
+        <v>93.04</v>
       </c>
       <c r="X19" s="25">
-        <v>93.99</v>
+        <v>93.61</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.55</v>
+        <v>95.14</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.42</v>
+        <v>95.97</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.06</v>
+        <v>96.64</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.25</v>
+        <v>97.83</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.83</v>
+        <v>99.48</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.16</v>
+        <v>100.01</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.31</v>
+        <v>100.09</v>
       </c>
       <c r="AF19" s="25">
-        <v>100.86</v>
+        <v>100.56</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.25</v>
+        <v>100.84</v>
       </c>
       <c r="AH19" s="25">
-        <v>101.36</v>
+        <v>101.12</v>
       </c>
       <c r="AI19" s="25">
-        <v>101.57</v>
+        <v>101.4</v>
       </c>
       <c r="AJ19" s="25">
-        <v>101.75</v>
+        <v>101.69</v>
       </c>
       <c r="AK19" s="25">
-        <v>102.32</v>
+        <v>102.27</v>
       </c>
       <c r="AL19" s="25">
-        <v>102.67</v>
+        <v>102.63</v>
       </c>
       <c r="AM19" s="25">
-        <v>103.18</v>
+        <v>103.05</v>
       </c>
       <c r="AN19" s="25">
-        <v>103.12</v>
+        <v>102.99</v>
       </c>
       <c r="AO19" s="25">
-        <v>103.28</v>
+        <v>103.06</v>
       </c>
       <c r="AP19" s="25">
-        <v>102.87</v>
+        <v>102.69</v>
       </c>
       <c r="AQ19" s="25">
-        <v>102.09</v>
+        <v>102.03</v>
       </c>
       <c r="AR19" s="25">
-        <v>101.96</v>
+        <v>102.38</v>
       </c>
       <c r="AS19" s="25">
-        <v>101.82</v>
+        <v>102.4</v>
       </c>
       <c r="AT19" s="25">
-        <v>101.74</v>
+        <v>102.35</v>
       </c>
       <c r="AU19" s="25">
-        <v>101.22</v>
+        <v>102.2</v>
       </c>
       <c r="AV19" s="25">
-        <v>100.8</v>
+        <v>102.2</v>
       </c>
       <c r="AW19" s="25">
-        <v>98.76</v>
+        <v>100.27</v>
       </c>
       <c r="AX19" s="25">
-        <v>99</v>
-      </c>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="25"/>
+        <v>101.09</v>
+      </c>
+      <c r="AY19" s="25">
+        <v>101.71</v>
+      </c>
+      <c r="AZ19" s="25">
+        <v>101.71</v>
+      </c>
+      <c r="BA19" s="25">
+        <v>99.89</v>
+      </c>
+      <c r="BB19" s="25">
+        <v>94.48</v>
+      </c>
+      <c r="BC19" s="25">
+        <v>90.7</v>
+      </c>
       <c r="BD19" s="25"/>
       <c r="BE19" s="25"/>
       <c r="BF19" s="25"/>
@@ -4175,34 +4315,34 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>91.67</v>
+        <v>91.65</v>
       </c>
       <c r="D20" s="25">
-        <v>95.21</v>
+        <v>95.22</v>
       </c>
       <c r="E20" s="25">
-        <v>96.92</v>
+        <v>96.94</v>
       </c>
       <c r="F20" s="25">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="G20" s="25">
         <v>97.88</v>
       </c>
       <c r="H20" s="25">
-        <v>98.94</v>
+        <v>98.95</v>
       </c>
       <c r="I20" s="25">
-        <v>99.41</v>
+        <v>99.42</v>
       </c>
       <c r="J20" s="25">
-        <v>99.8</v>
+        <v>99.81</v>
       </c>
       <c r="K20" s="25">
         <v>99.8</v>
@@ -4214,121 +4354,131 @@
         <v>100</v>
       </c>
       <c r="N20" s="25">
-        <v>98.51</v>
+        <v>98.49</v>
       </c>
       <c r="O20" s="25">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="P20" s="25">
-        <v>90.12</v>
+        <v>89.98</v>
       </c>
       <c r="Q20" s="25">
-        <v>88.16</v>
+        <v>88.02</v>
       </c>
       <c r="R20" s="25">
-        <v>87.93</v>
+        <v>87.8</v>
       </c>
       <c r="S20" s="25">
-        <v>88.76</v>
+        <v>88.62</v>
       </c>
       <c r="T20" s="25">
-        <v>89.28</v>
+        <v>89.11</v>
       </c>
       <c r="U20" s="25">
-        <v>90.27</v>
+        <v>90.11</v>
       </c>
       <c r="V20" s="25">
-        <v>91.82</v>
+        <v>91.66</v>
       </c>
       <c r="W20" s="25">
-        <v>91.87</v>
+        <v>91.7</v>
       </c>
       <c r="X20" s="25">
-        <v>92.12</v>
+        <v>91.94</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.65</v>
+        <v>92.43</v>
       </c>
       <c r="Z20" s="25">
-        <v>92.8</v>
+        <v>92.78</v>
       </c>
       <c r="AA20" s="25">
-        <v>92.77</v>
+        <v>92.64</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.55</v>
+        <v>92.35</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.38</v>
+        <v>93.39</v>
       </c>
       <c r="AD20" s="25">
-        <v>93.88</v>
+        <v>94.07</v>
       </c>
       <c r="AE20" s="25">
-        <v>93.85</v>
+        <v>94.1</v>
       </c>
       <c r="AF20" s="25">
-        <v>94.6</v>
+        <v>94.56</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.01</v>
+        <v>94.7</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.23</v>
+        <v>94.99</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.68</v>
+        <v>95.33</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.41</v>
+        <v>95.11</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.71</v>
+        <v>95.34</v>
       </c>
       <c r="AL20" s="25">
-        <v>96</v>
+        <v>95.79</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.4</v>
+        <v>96.16</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.7</v>
+        <v>96.28</v>
       </c>
       <c r="AO20" s="25">
+        <v>96.34</v>
+      </c>
+      <c r="AP20" s="25">
+        <v>95.92</v>
+      </c>
+      <c r="AQ20" s="25">
+        <v>95.73</v>
+      </c>
+      <c r="AR20" s="25">
         <v>96.63</v>
       </c>
-      <c r="AP20" s="25">
-        <v>96.29</v>
-      </c>
-      <c r="AQ20" s="25">
-        <v>96.16</v>
-      </c>
-      <c r="AR20" s="25">
-        <v>96.44</v>
-      </c>
       <c r="AS20" s="25">
-        <v>96.62</v>
+        <v>96.87</v>
       </c>
       <c r="AT20" s="25">
-        <v>96.88</v>
+        <v>97.09</v>
       </c>
       <c r="AU20" s="25">
-        <v>96.99</v>
+        <v>97.32</v>
       </c>
       <c r="AV20" s="25">
-        <v>97.14</v>
+        <v>97.61</v>
       </c>
       <c r="AW20" s="25">
-        <v>96.28</v>
+        <v>96.48</v>
       </c>
       <c r="AX20" s="25">
-        <v>96.53</v>
-      </c>
-      <c r="AY20" s="25"/>
-      <c r="AZ20" s="25"/>
-      <c r="BA20" s="25"/>
-      <c r="BB20" s="25"/>
-      <c r="BC20" s="25"/>
+        <v>96.96</v>
+      </c>
+      <c r="AY20" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="AZ20" s="25">
+        <v>97.92</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>97.03</v>
+      </c>
+      <c r="BB20" s="25">
+        <v>94.13</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>92.36</v>
+      </c>
       <c r="BD20" s="25"/>
       <c r="BE20" s="25"/>
       <c r="BF20" s="25"/>
@@ -4355,160 +4505,170 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="25">
-        <v>95.28</v>
+        <v>96.31</v>
       </c>
       <c r="D21" s="25">
-        <v>96.09</v>
+        <v>97.26</v>
       </c>
       <c r="E21" s="25">
-        <v>96.97</v>
+        <v>98.31</v>
       </c>
       <c r="F21" s="25">
-        <v>97.68</v>
+        <v>98.77</v>
       </c>
       <c r="G21" s="25">
-        <v>98</v>
+        <v>98.42</v>
       </c>
       <c r="H21" s="25">
-        <v>99.2</v>
+        <v>99.53</v>
       </c>
       <c r="I21" s="25">
-        <v>100.01</v>
+        <v>100.36</v>
       </c>
       <c r="J21" s="25">
-        <v>99.28</v>
+        <v>99.3</v>
       </c>
       <c r="K21" s="25">
-        <v>98.91</v>
+        <v>98.73</v>
       </c>
       <c r="L21" s="25">
-        <v>99.87</v>
+        <v>99.9</v>
       </c>
       <c r="M21" s="25">
         <v>100</v>
       </c>
       <c r="N21" s="25">
-        <v>99.65</v>
+        <v>99.47</v>
       </c>
       <c r="O21" s="25">
-        <v>98.55</v>
+        <v>98.01</v>
       </c>
       <c r="P21" s="25">
-        <v>97.17</v>
+        <v>96.18</v>
       </c>
       <c r="Q21" s="25">
-        <v>96.02</v>
+        <v>94.63</v>
       </c>
       <c r="R21" s="25">
-        <v>95.78</v>
+        <v>94.29</v>
       </c>
       <c r="S21" s="25">
-        <v>95.59</v>
+        <v>94</v>
       </c>
       <c r="T21" s="25">
-        <v>95.91</v>
+        <v>94.26</v>
       </c>
       <c r="U21" s="25">
-        <v>96.22</v>
+        <v>94.59</v>
       </c>
       <c r="V21" s="25">
-        <v>96.86</v>
+        <v>95.36</v>
       </c>
       <c r="W21" s="25">
-        <v>97.04</v>
+        <v>95.56</v>
       </c>
       <c r="X21" s="25">
-        <v>97.48</v>
+        <v>96.09</v>
       </c>
       <c r="Y21" s="25">
-        <v>97.85</v>
+        <v>96.48</v>
       </c>
       <c r="Z21" s="25">
-        <v>97.71</v>
+        <v>96.23</v>
       </c>
       <c r="AA21" s="25">
-        <v>96.78</v>
+        <v>95.19</v>
       </c>
       <c r="AB21" s="25">
-        <v>95.25</v>
+        <v>93.44</v>
       </c>
       <c r="AC21" s="25">
-        <v>95.7</v>
+        <v>94.59</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.92</v>
+        <v>96.47</v>
       </c>
       <c r="AE21" s="25">
-        <v>97.75</v>
+        <v>96.65</v>
       </c>
       <c r="AF21" s="25">
-        <v>98.05</v>
+        <v>97.26</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.63</v>
+        <v>97.03</v>
       </c>
       <c r="AH21" s="25">
-        <v>98.17</v>
+        <v>97.4</v>
       </c>
       <c r="AI21" s="25">
-        <v>98.36</v>
+        <v>97.37</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.96</v>
+        <v>97.78</v>
       </c>
       <c r="AK21" s="25">
-        <v>98.7</v>
+        <v>97.5</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.87</v>
+        <v>97.6</v>
       </c>
       <c r="AM21" s="25">
-        <v>99.19</v>
+        <v>98.1</v>
       </c>
       <c r="AN21" s="25">
-        <v>99.4</v>
+        <v>98.44</v>
       </c>
       <c r="AO21" s="25">
-        <v>99.46</v>
+        <v>98.41</v>
       </c>
       <c r="AP21" s="25">
-        <v>99.14</v>
+        <v>98.03</v>
       </c>
       <c r="AQ21" s="25">
-        <v>99.65</v>
+        <v>98.6</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.02</v>
+        <v>99.93</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.72</v>
+        <v>99.6</v>
       </c>
       <c r="AT21" s="25">
-        <v>99.39</v>
+        <v>98.89</v>
       </c>
       <c r="AU21" s="25">
-        <v>99.79</v>
+        <v>99.68</v>
       </c>
       <c r="AV21" s="25">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="AW21" s="25">
-        <v>100.3</v>
+        <v>100.04</v>
       </c>
       <c r="AX21" s="25">
-        <v>100.82</v>
-      </c>
-      <c r="AY21" s="25"/>
-      <c r="AZ21" s="25"/>
-      <c r="BA21" s="25"/>
-      <c r="BB21" s="25"/>
-      <c r="BC21" s="25"/>
+        <v>99.83</v>
+      </c>
+      <c r="AY21" s="25">
+        <v>100.83</v>
+      </c>
+      <c r="AZ21" s="25">
+        <v>101.58</v>
+      </c>
+      <c r="BA21" s="25">
+        <v>101.25</v>
+      </c>
+      <c r="BB21" s="25">
+        <v>99.58</v>
+      </c>
+      <c r="BC21" s="25">
+        <v>99.02</v>
+      </c>
       <c r="BD21" s="25"/>
       <c r="BE21" s="25"/>
       <c r="BF21" s="25"/>
@@ -4535,160 +4695,170 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="25">
-        <v>89.29</v>
+        <v>89.32</v>
       </c>
       <c r="D22" s="25">
-        <v>93.97</v>
+        <v>94.02</v>
       </c>
       <c r="E22" s="25">
+        <v>95.51</v>
+      </c>
+      <c r="F22" s="25">
         <v>95.46</v>
       </c>
-      <c r="F22" s="25">
-        <v>95.41</v>
-      </c>
       <c r="G22" s="25">
-        <v>95.52</v>
+        <v>95.57</v>
       </c>
       <c r="H22" s="25">
-        <v>97.11</v>
+        <v>97.15</v>
       </c>
       <c r="I22" s="25">
-        <v>97.63</v>
+        <v>97.67</v>
       </c>
       <c r="J22" s="25">
-        <v>98.01</v>
+        <v>98.04</v>
       </c>
       <c r="K22" s="25">
-        <v>98.62</v>
+        <v>98.64</v>
       </c>
       <c r="L22" s="25">
-        <v>99.64</v>
+        <v>99.65</v>
       </c>
       <c r="M22" s="25">
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>99.13</v>
+        <v>99.11</v>
       </c>
       <c r="O22" s="25">
-        <v>95.16</v>
+        <v>95.11</v>
       </c>
       <c r="P22" s="25">
-        <v>91.69</v>
+        <v>91.62</v>
       </c>
       <c r="Q22" s="25">
-        <v>89.01</v>
+        <v>88.93</v>
       </c>
       <c r="R22" s="25">
-        <v>88.17</v>
+        <v>88.08</v>
       </c>
       <c r="S22" s="25">
-        <v>88.52</v>
+        <v>88.44</v>
       </c>
       <c r="T22" s="25">
-        <v>89.65</v>
+        <v>89.59</v>
       </c>
       <c r="U22" s="25">
-        <v>90.82</v>
+        <v>90.77</v>
       </c>
       <c r="V22" s="25">
-        <v>91.75</v>
+        <v>91.71</v>
       </c>
       <c r="W22" s="25">
-        <v>92.78</v>
+        <v>92.73</v>
       </c>
       <c r="X22" s="25">
-        <v>93.36</v>
+        <v>93.31</v>
       </c>
       <c r="Y22" s="25">
-        <v>94.45</v>
+        <v>94.39</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.14</v>
+        <v>96.07</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.06</v>
+        <v>96.98</v>
       </c>
       <c r="AB22" s="25">
-        <v>97.92</v>
+        <v>97.86</v>
       </c>
       <c r="AC22" s="25">
-        <v>99.86</v>
+        <v>100.32</v>
       </c>
       <c r="AD22" s="25">
-        <v>100</v>
+        <v>100.84</v>
       </c>
       <c r="AE22" s="25">
-        <v>100.04</v>
+        <v>100.9</v>
       </c>
       <c r="AF22" s="25">
-        <v>100.83</v>
+        <v>101.7</v>
       </c>
       <c r="AG22" s="25">
-        <v>101.04</v>
+        <v>101.92</v>
       </c>
       <c r="AH22" s="25">
-        <v>101.35</v>
+        <v>102.28</v>
       </c>
       <c r="AI22" s="25">
-        <v>101.73</v>
+        <v>102.67</v>
       </c>
       <c r="AJ22" s="25">
-        <v>102.03</v>
+        <v>102.97</v>
       </c>
       <c r="AK22" s="25">
-        <v>102.37</v>
+        <v>103.32</v>
       </c>
       <c r="AL22" s="25">
-        <v>102.83</v>
+        <v>103.8</v>
       </c>
       <c r="AM22" s="25">
-        <v>103.49</v>
+        <v>104.49</v>
       </c>
       <c r="AN22" s="25">
-        <v>103.52</v>
+        <v>104.51</v>
       </c>
       <c r="AO22" s="25">
-        <v>103.52</v>
+        <v>104.52</v>
       </c>
       <c r="AP22" s="25">
-        <v>102.47</v>
+        <v>103.51</v>
       </c>
       <c r="AQ22" s="25">
-        <v>101.79</v>
+        <v>103</v>
       </c>
       <c r="AR22" s="25">
-        <v>101.93</v>
+        <v>103.29</v>
       </c>
       <c r="AS22" s="25">
-        <v>102.17</v>
+        <v>103.7</v>
       </c>
       <c r="AT22" s="25">
-        <v>101.78</v>
+        <v>103.42</v>
       </c>
       <c r="AU22" s="25">
-        <v>101.2</v>
+        <v>103.57</v>
       </c>
       <c r="AV22" s="25">
+        <v>103.77</v>
+      </c>
+      <c r="AW22" s="25">
+        <v>104.11</v>
+      </c>
+      <c r="AX22" s="25">
+        <v>103.93</v>
+      </c>
+      <c r="AY22" s="25">
+        <v>103.62</v>
+      </c>
+      <c r="AZ22" s="25">
+        <v>103.12</v>
+      </c>
+      <c r="BA22" s="25">
         <v>100.87</v>
       </c>
-      <c r="AW22" s="25">
-        <v>100.52</v>
-      </c>
-      <c r="AX22" s="25">
-        <v>100.04</v>
-      </c>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="25"/>
+      <c r="BB22" s="25">
+        <v>95.24</v>
+      </c>
+      <c r="BC22" s="25">
+        <v>91.15</v>
+      </c>
       <c r="BD22" s="25"/>
       <c r="BE22" s="25"/>
       <c r="BF22" s="25"/>
@@ -4715,160 +4885,170 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>95.49</v>
+        <v>95.56</v>
       </c>
       <c r="D23" s="25">
-        <v>98.68</v>
+        <v>98.76</v>
       </c>
       <c r="E23" s="25">
-        <v>99.38</v>
+        <v>99.46</v>
       </c>
       <c r="F23" s="25">
-        <v>99.09</v>
+        <v>99.15</v>
       </c>
       <c r="G23" s="25">
-        <v>98.32</v>
+        <v>98.38</v>
       </c>
       <c r="H23" s="25">
-        <v>99.35</v>
+        <v>99.43</v>
       </c>
       <c r="I23" s="25">
-        <v>100.1</v>
+        <v>100.16</v>
       </c>
       <c r="J23" s="25">
-        <v>100.05</v>
+        <v>100.11</v>
       </c>
       <c r="K23" s="25">
-        <v>100.27</v>
+        <v>100.33</v>
       </c>
       <c r="L23" s="25">
-        <v>99.96</v>
+        <v>99.97</v>
       </c>
       <c r="M23" s="25">
         <v>100</v>
       </c>
       <c r="N23" s="25">
-        <v>98.94</v>
+        <v>98.93</v>
       </c>
       <c r="O23" s="25">
-        <v>94.38</v>
+        <v>94.35</v>
       </c>
       <c r="P23" s="25">
-        <v>91.07</v>
+        <v>91.04</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.28</v>
+        <v>89.26</v>
       </c>
       <c r="R23" s="25">
-        <v>88.19</v>
+        <v>88.18</v>
       </c>
       <c r="S23" s="25">
-        <v>88.33</v>
+        <v>88.32</v>
       </c>
       <c r="T23" s="25">
-        <v>89.03</v>
+        <v>89.05</v>
       </c>
       <c r="U23" s="25">
-        <v>89.8</v>
+        <v>89.83</v>
       </c>
       <c r="V23" s="25">
-        <v>90.67</v>
+        <v>90.72</v>
       </c>
       <c r="W23" s="25">
-        <v>91</v>
+        <v>91.03</v>
       </c>
       <c r="X23" s="25">
-        <v>91.43</v>
+        <v>91.49</v>
       </c>
       <c r="Y23" s="25">
-        <v>92.53</v>
+        <v>92.57</v>
       </c>
       <c r="Z23" s="25">
-        <v>93.69</v>
+        <v>93.73</v>
       </c>
       <c r="AA23" s="25">
-        <v>94.26</v>
+        <v>94.3</v>
       </c>
       <c r="AB23" s="25">
-        <v>93.87</v>
+        <v>93.91</v>
       </c>
       <c r="AC23" s="25">
-        <v>94.97</v>
+        <v>95.2</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.26</v>
+        <v>96.63</v>
       </c>
       <c r="AE23" s="25">
-        <v>96.22</v>
+        <v>96.6</v>
       </c>
       <c r="AF23" s="25">
-        <v>96.62</v>
+        <v>97.01</v>
       </c>
       <c r="AG23" s="25">
-        <v>97.16</v>
+        <v>97.58</v>
       </c>
       <c r="AH23" s="25">
-        <v>97.12</v>
+        <v>97.56</v>
       </c>
       <c r="AI23" s="25">
-        <v>97.33</v>
+        <v>97.77</v>
       </c>
       <c r="AJ23" s="25">
-        <v>97.72</v>
+        <v>98.13</v>
       </c>
       <c r="AK23" s="25">
-        <v>97.92</v>
+        <v>98.37</v>
       </c>
       <c r="AL23" s="25">
-        <v>98.16</v>
+        <v>98.64</v>
       </c>
       <c r="AM23" s="25">
-        <v>98.77</v>
+        <v>99.26</v>
       </c>
       <c r="AN23" s="25">
-        <v>98.66</v>
+        <v>99.2</v>
       </c>
       <c r="AO23" s="25">
-        <v>98.61</v>
+        <v>99.15</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.27</v>
+        <v>98.78</v>
       </c>
       <c r="AQ23" s="25">
-        <v>98.45</v>
+        <v>98.91</v>
       </c>
       <c r="AR23" s="25">
-        <v>98.97</v>
+        <v>99.42</v>
       </c>
       <c r="AS23" s="25">
-        <v>99.16</v>
+        <v>99.67</v>
       </c>
       <c r="AT23" s="25">
-        <v>99.19</v>
+        <v>99.73</v>
       </c>
       <c r="AU23" s="25">
-        <v>99.3</v>
+        <v>99.93</v>
       </c>
       <c r="AV23" s="25">
-        <v>99.47</v>
+        <v>100.12</v>
       </c>
       <c r="AW23" s="25">
-        <v>99.33</v>
+        <v>100.14</v>
       </c>
       <c r="AX23" s="25">
-        <v>99.11</v>
-      </c>
-      <c r="AY23" s="25"/>
-      <c r="AZ23" s="25"/>
-      <c r="BA23" s="25"/>
-      <c r="BB23" s="25"/>
-      <c r="BC23" s="25"/>
+        <v>100.48</v>
+      </c>
+      <c r="AY23" s="25">
+        <v>101.14</v>
+      </c>
+      <c r="AZ23" s="25">
+        <v>101.24</v>
+      </c>
+      <c r="BA23" s="25">
+        <v>100.1</v>
+      </c>
+      <c r="BB23" s="25">
+        <v>96</v>
+      </c>
+      <c r="BC23" s="25">
+        <v>92.73</v>
+      </c>
       <c r="BD23" s="25"/>
       <c r="BE23" s="25"/>
       <c r="BF23" s="25"/>
@@ -4895,34 +5075,34 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="25">
-        <v>95.92</v>
+        <v>95.93</v>
       </c>
       <c r="D24" s="25">
-        <v>97.02</v>
+        <v>97.04</v>
       </c>
       <c r="E24" s="25">
-        <v>98.05</v>
+        <v>98.07</v>
       </c>
       <c r="F24" s="25">
-        <v>98.74</v>
+        <v>98.76</v>
       </c>
       <c r="G24" s="25">
-        <v>98.96</v>
+        <v>98.98</v>
       </c>
       <c r="H24" s="25">
-        <v>99.68</v>
+        <v>99.7</v>
       </c>
       <c r="I24" s="25">
-        <v>100.43</v>
+        <v>100.44</v>
       </c>
       <c r="J24" s="25">
-        <v>99.78</v>
+        <v>99.79</v>
       </c>
       <c r="K24" s="25">
         <v>98.8</v>
@@ -4934,121 +5114,131 @@
         <v>100</v>
       </c>
       <c r="N24" s="25">
-        <v>99.58</v>
+        <v>99.57</v>
       </c>
       <c r="O24" s="25">
-        <v>98.04</v>
+        <v>98.01</v>
       </c>
       <c r="P24" s="25">
-        <v>95.96</v>
+        <v>95.93</v>
       </c>
       <c r="Q24" s="25">
-        <v>94.81</v>
+        <v>94.79</v>
       </c>
       <c r="R24" s="25">
-        <v>94.92</v>
+        <v>94.93</v>
       </c>
       <c r="S24" s="25">
-        <v>94.75</v>
+        <v>94.79</v>
       </c>
       <c r="T24" s="25">
-        <v>95.16</v>
+        <v>95.22</v>
       </c>
       <c r="U24" s="25">
-        <v>95.67</v>
+        <v>95.73</v>
       </c>
       <c r="V24" s="25">
-        <v>96.07</v>
+        <v>96.16</v>
       </c>
       <c r="W24" s="25">
-        <v>96.37</v>
+        <v>96.44</v>
       </c>
       <c r="X24" s="25">
-        <v>96.59</v>
+        <v>96.63</v>
       </c>
       <c r="Y24" s="25">
-        <v>97.53</v>
+        <v>97.56</v>
       </c>
       <c r="Z24" s="25">
         <v>97.78</v>
       </c>
       <c r="AA24" s="25">
-        <v>97.77</v>
+        <v>97.75</v>
       </c>
       <c r="AB24" s="25">
-        <v>97.37</v>
+        <v>97.35</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.59</v>
+        <v>98.69</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.17</v>
+        <v>99.37</v>
       </c>
       <c r="AE24" s="25">
+        <v>98.86</v>
+      </c>
+      <c r="AF24" s="25">
         <v>98.68</v>
       </c>
-      <c r="AF24" s="25">
-        <v>98.52</v>
-      </c>
       <c r="AG24" s="25">
-        <v>99.11</v>
+        <v>99.33</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.03</v>
+        <v>99.37</v>
       </c>
       <c r="AI24" s="25">
-        <v>99.2</v>
+        <v>99.51</v>
       </c>
       <c r="AJ24" s="25">
-        <v>99.1</v>
+        <v>99.38</v>
       </c>
       <c r="AK24" s="25">
-        <v>99.2</v>
+        <v>99.47</v>
       </c>
       <c r="AL24" s="25">
-        <v>98.99</v>
+        <v>99.18</v>
       </c>
       <c r="AM24" s="25">
-        <v>99.21</v>
+        <v>99.39</v>
       </c>
       <c r="AN24" s="25">
-        <v>99.35</v>
+        <v>99.53</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.21</v>
+        <v>99.4</v>
       </c>
       <c r="AP24" s="25">
-        <v>98.82</v>
+        <v>98.96</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.3</v>
+        <v>98.36</v>
       </c>
       <c r="AR24" s="25">
-        <v>98.56</v>
+        <v>98.62</v>
       </c>
       <c r="AS24" s="25">
+        <v>99.07</v>
+      </c>
+      <c r="AT24" s="25">
         <v>98.97</v>
       </c>
-      <c r="AT24" s="25">
-        <v>99.05</v>
-      </c>
       <c r="AU24" s="25">
-        <v>99.6</v>
+        <v>99.54</v>
       </c>
       <c r="AV24" s="25">
-        <v>100.25</v>
+        <v>100.18</v>
       </c>
       <c r="AW24" s="25">
-        <v>100.65</v>
+        <v>100.52</v>
       </c>
       <c r="AX24" s="25">
-        <v>101.59</v>
-      </c>
-      <c r="AY24" s="25"/>
-      <c r="AZ24" s="25"/>
-      <c r="BA24" s="25"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="25"/>
+        <v>100.39</v>
+      </c>
+      <c r="AY24" s="25">
+        <v>101.33</v>
+      </c>
+      <c r="AZ24" s="25">
+        <v>102.2</v>
+      </c>
+      <c r="BA24" s="25">
+        <v>102.32</v>
+      </c>
+      <c r="BB24" s="25">
+        <v>100.81</v>
+      </c>
+      <c r="BC24" s="25">
+        <v>99.78</v>
+      </c>
       <c r="BD24" s="25"/>
       <c r="BE24" s="25"/>
       <c r="BF24" s="25"/>
@@ -5075,160 +5265,170 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="25">
-        <v>91.41</v>
+        <v>91.39</v>
       </c>
       <c r="D25" s="25">
-        <v>95.7</v>
+        <v>95.71</v>
       </c>
       <c r="E25" s="25">
-        <v>97.54</v>
+        <v>97.55</v>
       </c>
       <c r="F25" s="25">
         <v>98.05</v>
       </c>
       <c r="G25" s="25">
-        <v>98.43</v>
+        <v>98.44</v>
       </c>
       <c r="H25" s="25">
-        <v>99.32</v>
+        <v>99.27</v>
       </c>
       <c r="I25" s="25">
-        <v>99.49</v>
+        <v>99.51</v>
       </c>
       <c r="J25" s="25">
-        <v>99.6</v>
+        <v>99.55</v>
       </c>
       <c r="K25" s="25">
-        <v>99.67</v>
+        <v>99.63</v>
       </c>
       <c r="L25" s="25">
-        <v>99.7</v>
+        <v>99.71</v>
       </c>
       <c r="M25" s="25">
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>99.32</v>
+        <v>99.27</v>
       </c>
       <c r="O25" s="25">
-        <v>94.55</v>
+        <v>94.43</v>
       </c>
       <c r="P25" s="25">
-        <v>90.98</v>
+        <v>90.9</v>
       </c>
       <c r="Q25" s="25">
-        <v>88.37</v>
+        <v>88.32</v>
       </c>
       <c r="R25" s="25">
-        <v>87.4</v>
+        <v>87.39</v>
       </c>
       <c r="S25" s="25">
-        <v>87.7</v>
+        <v>87.66</v>
       </c>
       <c r="T25" s="25">
-        <v>88.49</v>
+        <v>88.46</v>
       </c>
       <c r="U25" s="25">
-        <v>89.26</v>
+        <v>89.23</v>
       </c>
       <c r="V25" s="25">
-        <v>89.6</v>
+        <v>89.58</v>
       </c>
       <c r="W25" s="25">
-        <v>90.24</v>
+        <v>90.26</v>
       </c>
       <c r="X25" s="25">
-        <v>90.66</v>
+        <v>90.64</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.57</v>
+        <v>91.58</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.51</v>
+        <v>92.53</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.2</v>
+        <v>93.21</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.35</v>
+        <v>94.34</v>
       </c>
       <c r="AC25" s="25">
-        <v>95.24</v>
+        <v>95.97</v>
       </c>
       <c r="AD25" s="25">
-        <v>95.4</v>
+        <v>96.37</v>
       </c>
       <c r="AE25" s="25">
-        <v>95.58</v>
+        <v>96.57</v>
       </c>
       <c r="AF25" s="25">
-        <v>95.97</v>
+        <v>96.82</v>
       </c>
       <c r="AG25" s="25">
-        <v>96.13</v>
+        <v>96.93</v>
       </c>
       <c r="AH25" s="25">
-        <v>96.23</v>
+        <v>97.05</v>
       </c>
       <c r="AI25" s="25">
-        <v>96.4</v>
+        <v>97.29</v>
       </c>
       <c r="AJ25" s="25">
-        <v>96.57</v>
+        <v>97.42</v>
       </c>
       <c r="AK25" s="25">
-        <v>96.73</v>
+        <v>97.65</v>
       </c>
       <c r="AL25" s="25">
-        <v>97.07</v>
+        <v>98.03</v>
       </c>
       <c r="AM25" s="25">
-        <v>97.46</v>
+        <v>98.45</v>
       </c>
       <c r="AN25" s="25">
-        <v>97.82</v>
+        <v>98.81</v>
       </c>
       <c r="AO25" s="25">
-        <v>98.06</v>
+        <v>99.06</v>
       </c>
       <c r="AP25" s="25">
-        <v>97.42</v>
+        <v>98.45</v>
       </c>
       <c r="AQ25" s="25">
-        <v>96.78</v>
+        <v>97.94</v>
       </c>
       <c r="AR25" s="25">
-        <v>96.38</v>
+        <v>97.65</v>
       </c>
       <c r="AS25" s="25">
-        <v>96.3</v>
+        <v>97.65</v>
       </c>
       <c r="AT25" s="25">
-        <v>96.08</v>
+        <v>97.45</v>
       </c>
       <c r="AU25" s="25">
-        <v>96.05</v>
+        <v>97.64</v>
       </c>
       <c r="AV25" s="25">
-        <v>96.41</v>
+        <v>98.41</v>
       </c>
       <c r="AW25" s="25">
-        <v>96.41</v>
+        <v>98.76</v>
       </c>
       <c r="AX25" s="25">
-        <v>96.8</v>
-      </c>
-      <c r="AY25" s="25"/>
-      <c r="AZ25" s="25"/>
-      <c r="BA25" s="25"/>
-      <c r="BB25" s="25"/>
-      <c r="BC25" s="25"/>
+        <v>98.84</v>
+      </c>
+      <c r="AY25" s="25">
+        <v>99.16</v>
+      </c>
+      <c r="AZ25" s="25">
+        <v>99.12</v>
+      </c>
+      <c r="BA25" s="25">
+        <v>97.61</v>
+      </c>
+      <c r="BB25" s="25">
+        <v>92.46</v>
+      </c>
+      <c r="BC25" s="25">
+        <v>89.47</v>
+      </c>
       <c r="BD25" s="25"/>
       <c r="BE25" s="25"/>
       <c r="BF25" s="25"/>
@@ -5255,55 +5455,55 @@
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.8</v>
+        <v>94.85</v>
       </c>
       <c r="D26" s="25">
-        <v>97.17</v>
+        <v>97.22</v>
       </c>
       <c r="E26" s="25">
-        <v>97.47</v>
+        <v>97.53</v>
       </c>
       <c r="F26" s="25">
-        <v>98.71</v>
+        <v>98.74</v>
       </c>
       <c r="G26" s="25">
-        <v>100.01</v>
+        <v>100</v>
       </c>
       <c r="H26" s="25">
-        <v>100.82</v>
+        <v>100.78</v>
       </c>
       <c r="I26" s="25">
-        <v>100.18</v>
+        <v>100.15</v>
       </c>
       <c r="J26" s="25">
         <v>100.06</v>
       </c>
       <c r="K26" s="25">
-        <v>99.67</v>
+        <v>99.69</v>
       </c>
       <c r="L26" s="25">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.79</v>
+        <v>98.8</v>
       </c>
       <c r="O26" s="25">
-        <v>95.19</v>
+        <v>95.12</v>
       </c>
       <c r="P26" s="25">
-        <v>92.07</v>
+        <v>92.01</v>
       </c>
       <c r="Q26" s="25">
-        <v>89.2</v>
+        <v>89.17</v>
       </c>
       <c r="R26" s="25">
         <v>88.54</v>
@@ -5312,103 +5512,113 @@
         <v>88.75</v>
       </c>
       <c r="T26" s="25">
-        <v>89</v>
+        <v>89.02</v>
       </c>
       <c r="U26" s="25">
-        <v>89.6</v>
+        <v>89.61</v>
       </c>
       <c r="V26" s="25">
         <v>89.47</v>
       </c>
       <c r="W26" s="25">
-        <v>89.43</v>
+        <v>89.39</v>
       </c>
       <c r="X26" s="25">
-        <v>89.51</v>
+        <v>89.48</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.48</v>
+        <v>90.41</v>
       </c>
       <c r="Z26" s="25">
-        <v>91.71</v>
+        <v>91.59</v>
       </c>
       <c r="AA26" s="25">
-        <v>92.28</v>
+        <v>92.35</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.15</v>
+        <v>92.34</v>
       </c>
       <c r="AC26" s="25">
         <v>92.36</v>
       </c>
       <c r="AD26" s="25">
-        <v>91.85</v>
+        <v>92.32</v>
       </c>
       <c r="AE26" s="25">
-        <v>91.81</v>
+        <v>92.35</v>
       </c>
       <c r="AF26" s="25">
-        <v>91.95</v>
+        <v>92.41</v>
       </c>
       <c r="AG26" s="25">
-        <v>92.55</v>
+        <v>93</v>
       </c>
       <c r="AH26" s="25">
-        <v>92.93</v>
+        <v>93.41</v>
       </c>
       <c r="AI26" s="25">
-        <v>92.77</v>
+        <v>93.27</v>
       </c>
       <c r="AJ26" s="25">
-        <v>93.06</v>
+        <v>93.37</v>
       </c>
       <c r="AK26" s="25">
-        <v>92.95</v>
+        <v>93.4</v>
       </c>
       <c r="AL26" s="25">
-        <v>93.53</v>
+        <v>93.96</v>
       </c>
       <c r="AM26" s="25">
-        <v>94.02</v>
+        <v>94.43</v>
       </c>
       <c r="AN26" s="25">
-        <v>94.07</v>
+        <v>94.66</v>
       </c>
       <c r="AO26" s="25">
-        <v>93.76</v>
+        <v>94.32</v>
       </c>
       <c r="AP26" s="25">
-        <v>93.08</v>
+        <v>93.63</v>
       </c>
       <c r="AQ26" s="25">
-        <v>93.04</v>
+        <v>93.51</v>
       </c>
       <c r="AR26" s="25">
-        <v>93.07</v>
+        <v>93.5</v>
       </c>
       <c r="AS26" s="25">
-        <v>93.15</v>
+        <v>93.55</v>
       </c>
       <c r="AT26" s="25">
-        <v>93.08</v>
+        <v>93.26</v>
       </c>
       <c r="AU26" s="25">
-        <v>93.43</v>
+        <v>93.95</v>
       </c>
       <c r="AV26" s="25">
-        <v>92.95</v>
+        <v>93.93</v>
       </c>
       <c r="AW26" s="25">
-        <v>93.37</v>
+        <v>94.41</v>
       </c>
       <c r="AX26" s="25">
-        <v>93.77</v>
-      </c>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
-      <c r="BA26" s="25"/>
-      <c r="BB26" s="25"/>
-      <c r="BC26" s="25"/>
+        <v>95.19</v>
+      </c>
+      <c r="AY26" s="25">
+        <v>96.03</v>
+      </c>
+      <c r="AZ26" s="25">
+        <v>96.17</v>
+      </c>
+      <c r="BA26" s="25">
+        <v>95.47</v>
+      </c>
+      <c r="BB26" s="25">
+        <v>92.08</v>
+      </c>
+      <c r="BC26" s="25">
+        <v>90.4</v>
+      </c>
       <c r="BD26" s="25"/>
       <c r="BE26" s="25"/>
       <c r="BF26" s="25"/>
@@ -5435,160 +5645,170 @@
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="25">
         <v>98.07</v>
       </c>
       <c r="D27" s="25">
-        <v>98.91</v>
+        <v>98.96</v>
       </c>
       <c r="E27" s="25">
-        <v>100.35</v>
+        <v>100.5</v>
       </c>
       <c r="F27" s="25">
-        <v>100.35</v>
+        <v>100.47</v>
       </c>
       <c r="G27" s="25">
-        <v>100.69</v>
+        <v>100.83</v>
       </c>
       <c r="H27" s="25">
-        <v>100.61</v>
+        <v>100.71</v>
       </c>
       <c r="I27" s="25">
-        <v>101.25</v>
+        <v>101.35</v>
       </c>
       <c r="J27" s="25">
-        <v>100.44</v>
+        <v>100.48</v>
       </c>
       <c r="K27" s="25">
-        <v>98.57</v>
+        <v>98.47</v>
       </c>
       <c r="L27" s="25">
-        <v>99.09</v>
+        <v>99.04</v>
       </c>
       <c r="M27" s="25">
         <v>100</v>
       </c>
       <c r="N27" s="25">
-        <v>99.62</v>
+        <v>99.59</v>
       </c>
       <c r="O27" s="25">
-        <v>98.27</v>
+        <v>98.13</v>
       </c>
       <c r="P27" s="25">
-        <v>96.19</v>
+        <v>95.88</v>
       </c>
       <c r="Q27" s="25">
-        <v>95.23</v>
+        <v>94.86</v>
       </c>
       <c r="R27" s="25">
-        <v>95.73</v>
+        <v>95.44</v>
       </c>
       <c r="S27" s="25">
-        <v>95.89</v>
+        <v>95.61</v>
       </c>
       <c r="T27" s="25">
-        <v>95.28</v>
+        <v>94.94</v>
       </c>
       <c r="U27" s="25">
-        <v>95.72</v>
+        <v>95.38</v>
       </c>
       <c r="V27" s="25">
-        <v>94.85</v>
+        <v>94.45</v>
       </c>
       <c r="W27" s="25">
-        <v>95.85</v>
+        <v>95.51</v>
       </c>
       <c r="X27" s="25">
-        <v>95.63</v>
+        <v>95.22</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.95</v>
+        <v>96.84</v>
       </c>
       <c r="Z27" s="25">
-        <v>96.54</v>
+        <v>95.44</v>
       </c>
       <c r="AA27" s="25">
-        <v>95.3</v>
+        <v>94.31</v>
       </c>
       <c r="AB27" s="25">
+        <v>93.66</v>
+      </c>
+      <c r="AC27" s="25">
+        <v>94.22</v>
+      </c>
+      <c r="AD27" s="25">
+        <v>94.74</v>
+      </c>
+      <c r="AE27" s="25">
+        <v>95.44</v>
+      </c>
+      <c r="AF27" s="25">
+        <v>95.1</v>
+      </c>
+      <c r="AG27" s="25">
+        <v>96.06</v>
+      </c>
+      <c r="AH27" s="25">
+        <v>95.05</v>
+      </c>
+      <c r="AI27" s="25">
+        <v>95.32</v>
+      </c>
+      <c r="AJ27" s="25">
+        <v>94.96</v>
+      </c>
+      <c r="AK27" s="25">
+        <v>94.91</v>
+      </c>
+      <c r="AL27" s="25">
+        <v>94.86</v>
+      </c>
+      <c r="AM27" s="25">
+        <v>95.09</v>
+      </c>
+      <c r="AN27" s="25">
+        <v>95.69</v>
+      </c>
+      <c r="AO27" s="25">
+        <v>95.69</v>
+      </c>
+      <c r="AP27" s="25">
         <v>94.99</v>
       </c>
-      <c r="AC27" s="25">
-        <v>95.7</v>
-      </c>
-      <c r="AD27" s="25">
-        <v>95.97</v>
-      </c>
-      <c r="AE27" s="25">
-        <v>96.56</v>
-      </c>
-      <c r="AF27" s="25">
-        <v>96.2</v>
-      </c>
-      <c r="AG27" s="25">
-        <v>97.31</v>
-      </c>
-      <c r="AH27" s="25">
-        <v>96.38</v>
-      </c>
-      <c r="AI27" s="25">
-        <v>96.62</v>
-      </c>
-      <c r="AJ27" s="25">
-        <v>96.32</v>
-      </c>
-      <c r="AK27" s="25">
-        <v>96.12</v>
-      </c>
-      <c r="AL27" s="25">
+      <c r="AQ27" s="25">
+        <v>95.61</v>
+      </c>
+      <c r="AR27" s="25">
         <v>96.11</v>
       </c>
-      <c r="AM27" s="25">
-        <v>96.33</v>
-      </c>
-      <c r="AN27" s="25">
-        <v>96.9</v>
-      </c>
-      <c r="AO27" s="25">
-        <v>96.93</v>
-      </c>
-      <c r="AP27" s="25">
-        <v>96.24</v>
-      </c>
-      <c r="AQ27" s="25">
-        <v>96.81</v>
-      </c>
-      <c r="AR27" s="25">
-        <v>97.34</v>
-      </c>
       <c r="AS27" s="25">
-        <v>97.28</v>
+        <v>95.91</v>
       </c>
       <c r="AT27" s="25">
-        <v>96.53</v>
+        <v>95.07</v>
       </c>
       <c r="AU27" s="25">
-        <v>97.42</v>
+        <v>95.99</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.84</v>
+        <v>96.78</v>
       </c>
       <c r="AW27" s="25">
-        <v>99.1</v>
+        <v>98.1</v>
       </c>
       <c r="AX27" s="25">
-        <v>99.49</v>
-      </c>
-      <c r="AY27" s="25"/>
-      <c r="AZ27" s="25"/>
-      <c r="BA27" s="25"/>
-      <c r="BB27" s="25"/>
-      <c r="BC27" s="25"/>
+        <v>97.86</v>
+      </c>
+      <c r="AY27" s="25">
+        <v>98.36</v>
+      </c>
+      <c r="AZ27" s="25">
+        <v>99.24</v>
+      </c>
+      <c r="BA27" s="25">
+        <v>99.83</v>
+      </c>
+      <c r="BB27" s="25">
+        <v>98.8</v>
+      </c>
+      <c r="BC27" s="25">
+        <v>98.66</v>
+      </c>
       <c r="BD27" s="25"/>
       <c r="BE27" s="25"/>
       <c r="BF27" s="25"/>
@@ -5615,160 +5835,170 @@
     </row>
     <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="25">
-        <v>86.16</v>
+        <v>86.21</v>
       </c>
       <c r="D28" s="25">
-        <v>89.89</v>
+        <v>89.95</v>
       </c>
       <c r="E28" s="25">
-        <v>92.53</v>
+        <v>92.64</v>
       </c>
       <c r="F28" s="25">
-        <v>93.94</v>
+        <v>94</v>
       </c>
       <c r="G28" s="25">
-        <v>95.19</v>
+        <v>95.27</v>
       </c>
       <c r="H28" s="25">
-        <v>96.43</v>
+        <v>96.48</v>
       </c>
       <c r="I28" s="25">
-        <v>97.48</v>
+        <v>97.55</v>
       </c>
       <c r="J28" s="25">
-        <v>97.93</v>
+        <v>98.01</v>
       </c>
       <c r="K28" s="25">
-        <v>98.53</v>
+        <v>98.59</v>
       </c>
       <c r="L28" s="25">
-        <v>99.61</v>
+        <v>99.56</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>99.06</v>
+        <v>99</v>
       </c>
       <c r="O28" s="25">
-        <v>96.14</v>
+        <v>96.08</v>
       </c>
       <c r="P28" s="25">
-        <v>92.96</v>
+        <v>92.87</v>
       </c>
       <c r="Q28" s="25">
-        <v>90.27</v>
+        <v>90.16</v>
       </c>
       <c r="R28" s="25">
-        <v>89.43</v>
+        <v>89.3</v>
       </c>
       <c r="S28" s="25">
-        <v>90.33</v>
+        <v>90.24</v>
       </c>
       <c r="T28" s="25">
-        <v>91</v>
+        <v>90.86</v>
       </c>
       <c r="U28" s="25">
-        <v>92.29</v>
+        <v>92.18</v>
       </c>
       <c r="V28" s="25">
-        <v>93.59</v>
+        <v>93.43</v>
       </c>
       <c r="W28" s="25">
-        <v>94.79</v>
+        <v>94.7</v>
       </c>
       <c r="X28" s="25">
-        <v>95.46</v>
+        <v>95.34</v>
       </c>
       <c r="Y28" s="25">
-        <v>96.62</v>
+        <v>96.54</v>
       </c>
       <c r="Z28" s="25">
-        <v>97.63</v>
+        <v>97.52</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.32</v>
+        <v>98.21</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.08</v>
+        <v>99.01</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.3</v>
+        <v>101.82</v>
       </c>
       <c r="AD28" s="25">
-        <v>101.15</v>
+        <v>102.2</v>
       </c>
       <c r="AE28" s="25">
-        <v>100.99</v>
+        <v>102.09</v>
       </c>
       <c r="AF28" s="25">
-        <v>101.21</v>
+        <v>102.2</v>
       </c>
       <c r="AG28" s="25">
-        <v>101.61</v>
+        <v>102.61</v>
       </c>
       <c r="AH28" s="25">
-        <v>101.98</v>
+        <v>103.01</v>
       </c>
       <c r="AI28" s="25">
-        <v>102.33</v>
+        <v>103.47</v>
       </c>
       <c r="AJ28" s="25">
-        <v>102.39</v>
+        <v>103.56</v>
       </c>
       <c r="AK28" s="25">
-        <v>102.74</v>
+        <v>103.94</v>
       </c>
       <c r="AL28" s="25">
-        <v>102.75</v>
+        <v>103.96</v>
       </c>
       <c r="AM28" s="25">
-        <v>103.35</v>
+        <v>104.57</v>
       </c>
       <c r="AN28" s="25">
-        <v>104.09</v>
+        <v>105.35</v>
       </c>
       <c r="AO28" s="25">
-        <v>103.98</v>
+        <v>105.23</v>
       </c>
       <c r="AP28" s="25">
-        <v>102.97</v>
+        <v>104.26</v>
       </c>
       <c r="AQ28" s="25">
-        <v>102.03</v>
+        <v>103.55</v>
       </c>
       <c r="AR28" s="25">
-        <v>101.98</v>
+        <v>103.7</v>
       </c>
       <c r="AS28" s="25">
-        <v>101.89</v>
+        <v>103.75</v>
       </c>
       <c r="AT28" s="25">
-        <v>102.05</v>
+        <v>104.08</v>
       </c>
       <c r="AU28" s="25">
-        <v>101.8</v>
+        <v>104.18</v>
       </c>
       <c r="AV28" s="25">
-        <v>101.22</v>
+        <v>104.2</v>
       </c>
       <c r="AW28" s="25">
-        <v>100.44</v>
+        <v>104.41</v>
       </c>
       <c r="AX28" s="25">
-        <v>99.92</v>
-      </c>
-      <c r="AY28" s="25"/>
-      <c r="AZ28" s="25"/>
-      <c r="BA28" s="25"/>
-      <c r="BB28" s="25"/>
-      <c r="BC28" s="25"/>
+        <v>104.5</v>
+      </c>
+      <c r="AY28" s="25">
+        <v>104.1</v>
+      </c>
+      <c r="AZ28" s="25">
+        <v>103.31</v>
+      </c>
+      <c r="BA28" s="25">
+        <v>100.7</v>
+      </c>
+      <c r="BB28" s="25">
+        <v>95.07</v>
+      </c>
+      <c r="BC28" s="25">
+        <v>89.4</v>
+      </c>
       <c r="BD28" s="25"/>
       <c r="BE28" s="25"/>
       <c r="BF28" s="25"/>
@@ -5795,160 +6025,170 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>92.82</v>
+        <v>92.79</v>
       </c>
       <c r="D29" s="25">
-        <v>94.78</v>
+        <v>94.71</v>
       </c>
       <c r="E29" s="25">
-        <v>96.13</v>
+        <v>96.1</v>
       </c>
       <c r="F29" s="25">
-        <v>97.45</v>
+        <v>97.43</v>
       </c>
       <c r="G29" s="25">
-        <v>98.38</v>
+        <v>98.36</v>
       </c>
       <c r="H29" s="25">
-        <v>99.37</v>
+        <v>99.36</v>
       </c>
       <c r="I29" s="25">
-        <v>99.73</v>
+        <v>99.72</v>
       </c>
       <c r="J29" s="25">
-        <v>99.85</v>
+        <v>99.82</v>
       </c>
       <c r="K29" s="25">
-        <v>100.06</v>
+        <v>100.02</v>
       </c>
       <c r="L29" s="25">
-        <v>99.91</v>
+        <v>99.88</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.55</v>
+        <v>98.51</v>
       </c>
       <c r="O29" s="25">
-        <v>94.36</v>
+        <v>94.28</v>
       </c>
       <c r="P29" s="25">
-        <v>91.67</v>
+        <v>91.58</v>
       </c>
       <c r="Q29" s="25">
-        <v>90.24</v>
+        <v>90.13</v>
       </c>
       <c r="R29" s="25">
-        <v>89.62</v>
+        <v>89.54</v>
       </c>
       <c r="S29" s="25">
-        <v>89.78</v>
+        <v>89.69</v>
       </c>
       <c r="T29" s="25">
-        <v>90.39</v>
+        <v>90.32</v>
       </c>
       <c r="U29" s="25">
-        <v>91.23</v>
+        <v>91.16</v>
       </c>
       <c r="V29" s="25">
-        <v>92.61</v>
+        <v>92.55</v>
       </c>
       <c r="W29" s="25">
-        <v>93.08</v>
+        <v>92.99</v>
       </c>
       <c r="X29" s="25">
-        <v>93.18</v>
+        <v>93.11</v>
       </c>
       <c r="Y29" s="25">
-        <v>93.83</v>
+        <v>93.8</v>
       </c>
       <c r="Z29" s="25">
-        <v>94.44</v>
+        <v>94.41</v>
       </c>
       <c r="AA29" s="25">
-        <v>95.39</v>
+        <v>95.32</v>
       </c>
       <c r="AB29" s="25">
-        <v>95.79</v>
+        <v>95.76</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.33</v>
+        <v>96.4</v>
       </c>
       <c r="AD29" s="25">
-        <v>95.86</v>
+        <v>96.02</v>
       </c>
       <c r="AE29" s="25">
-        <v>94.9</v>
+        <v>95.05</v>
       </c>
       <c r="AF29" s="25">
-        <v>94.83</v>
+        <v>94.97</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.15</v>
+        <v>95.29</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.22</v>
+        <v>96.38</v>
       </c>
       <c r="AI29" s="25">
-        <v>96.78</v>
+        <v>96.92</v>
       </c>
       <c r="AJ29" s="25">
-        <v>96.96</v>
+        <v>97.15</v>
       </c>
       <c r="AK29" s="25">
-        <v>96.92</v>
+        <v>97.07</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.1</v>
+        <v>97.25</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.16</v>
+        <v>97.26</v>
       </c>
       <c r="AN29" s="25">
-        <v>97.57</v>
+        <v>97.74</v>
       </c>
       <c r="AO29" s="25">
-        <v>97.53</v>
+        <v>97.68</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.08</v>
+        <v>97.23</v>
       </c>
       <c r="AQ29" s="25">
-        <v>96.53</v>
+        <v>96.74</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.74</v>
+        <v>96.93</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.32</v>
+        <v>97.41</v>
       </c>
       <c r="AT29" s="25">
-        <v>97.77</v>
+        <v>97.84</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.35</v>
+        <v>98.44</v>
       </c>
       <c r="AV29" s="25">
-        <v>98.74</v>
+        <v>98.84</v>
       </c>
       <c r="AW29" s="25">
-        <v>98.93</v>
+        <v>99.49</v>
       </c>
       <c r="AX29" s="25">
-        <v>98.64</v>
-      </c>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="25"/>
-      <c r="BC29" s="25"/>
+        <v>99.52</v>
+      </c>
+      <c r="AY29" s="25">
+        <v>99.47</v>
+      </c>
+      <c r="AZ29" s="25">
+        <v>99.64</v>
+      </c>
+      <c r="BA29" s="25">
+        <v>99.09</v>
+      </c>
+      <c r="BB29" s="25">
+        <v>96.04</v>
+      </c>
+      <c r="BC29" s="25">
+        <v>93.32</v>
+      </c>
       <c r="BD29" s="25"/>
       <c r="BE29" s="25"/>
       <c r="BF29" s="25"/>
@@ -5975,37 +6215,37 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="25">
-        <v>95.29</v>
+        <v>95.38</v>
       </c>
       <c r="D30" s="25">
-        <v>95.68</v>
+        <v>95.76</v>
       </c>
       <c r="E30" s="25">
-        <v>95.87</v>
+        <v>95.96</v>
       </c>
       <c r="F30" s="25">
-        <v>96.87</v>
+        <v>96.95</v>
       </c>
       <c r="G30" s="25">
-        <v>97.42</v>
+        <v>97.48</v>
       </c>
       <c r="H30" s="25">
-        <v>99.77</v>
+        <v>99.81</v>
       </c>
       <c r="I30" s="25">
-        <v>100.07</v>
+        <v>100.08</v>
       </c>
       <c r="J30" s="25">
-        <v>98.54</v>
+        <v>98.53</v>
       </c>
       <c r="K30" s="25">
-        <v>97.96</v>
+        <v>97.95</v>
       </c>
       <c r="L30" s="25">
         <v>99.02</v>
@@ -6014,121 +6254,131 @@
         <v>100</v>
       </c>
       <c r="N30" s="25">
-        <v>98.9</v>
+        <v>98.87</v>
       </c>
       <c r="O30" s="25">
-        <v>97.49</v>
+        <v>97.46</v>
       </c>
       <c r="P30" s="25">
-        <v>96.97</v>
+        <v>96.94</v>
       </c>
       <c r="Q30" s="25">
-        <v>95.99</v>
+        <v>95.94</v>
       </c>
       <c r="R30" s="25">
-        <v>95.69</v>
+        <v>95.64</v>
       </c>
       <c r="S30" s="25">
-        <v>95.85</v>
+        <v>95.81</v>
       </c>
       <c r="T30" s="25">
-        <v>96.27</v>
+        <v>96.22</v>
       </c>
       <c r="U30" s="25">
-        <v>96.46</v>
+        <v>96.39</v>
       </c>
       <c r="V30" s="25">
-        <v>96.67</v>
+        <v>96.62</v>
       </c>
       <c r="W30" s="25">
-        <v>97.3</v>
+        <v>97.22</v>
       </c>
       <c r="X30" s="25">
-        <v>97.45</v>
+        <v>97.4</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.42</v>
+        <v>96.35</v>
       </c>
       <c r="Z30" s="25">
-        <v>97.53</v>
+        <v>97.46</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.18</v>
+        <v>98.14</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.82</v>
+        <v>98.12</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.18</v>
+        <v>98.8</v>
       </c>
       <c r="AE30" s="25">
-        <v>97.89</v>
+        <v>98.5</v>
       </c>
       <c r="AF30" s="25">
-        <v>97.78</v>
+        <v>98.4</v>
       </c>
       <c r="AG30" s="25">
-        <v>98.31</v>
+        <v>98.93</v>
       </c>
       <c r="AH30" s="25">
-        <v>99.63</v>
+        <v>100.43</v>
       </c>
       <c r="AI30" s="25">
-        <v>99.35</v>
+        <v>100.13</v>
       </c>
       <c r="AJ30" s="25">
+        <v>100.49</v>
+      </c>
+      <c r="AK30" s="25">
+        <v>100.43</v>
+      </c>
+      <c r="AL30" s="25">
+        <v>99.68</v>
+      </c>
+      <c r="AM30" s="25">
+        <v>99.39</v>
+      </c>
+      <c r="AN30" s="25">
+        <v>99.92</v>
+      </c>
+      <c r="AO30" s="25">
+        <v>100.02</v>
+      </c>
+      <c r="AP30" s="25">
         <v>99.7</v>
       </c>
-      <c r="AK30" s="25">
-        <v>99.65</v>
-      </c>
-      <c r="AL30" s="25">
-        <v>98.89</v>
-      </c>
-      <c r="AM30" s="25">
-        <v>98.62</v>
-      </c>
-      <c r="AN30" s="25">
-        <v>99.12</v>
-      </c>
-      <c r="AO30" s="25">
-        <v>99.25</v>
-      </c>
-      <c r="AP30" s="25">
-        <v>98.98</v>
-      </c>
       <c r="AQ30" s="25">
-        <v>98.6</v>
+        <v>99.24</v>
       </c>
       <c r="AR30" s="25">
-        <v>98.88</v>
+        <v>99.51</v>
       </c>
       <c r="AS30" s="25">
-        <v>99.61</v>
+        <v>100.2</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.01</v>
+        <v>100.46</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.56</v>
+        <v>101.2</v>
       </c>
       <c r="AV30" s="25">
-        <v>101.01</v>
+        <v>101.2</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.37</v>
+        <v>101.64</v>
       </c>
       <c r="AX30" s="25">
-        <v>102.07</v>
-      </c>
-      <c r="AY30" s="25"/>
-      <c r="AZ30" s="25"/>
-      <c r="BA30" s="25"/>
-      <c r="BB30" s="25"/>
-      <c r="BC30" s="25"/>
+        <v>101.97</v>
+      </c>
+      <c r="AY30" s="25">
+        <v>102.66</v>
+      </c>
+      <c r="AZ30" s="25">
+        <v>103.08</v>
+      </c>
+      <c r="BA30" s="25">
+        <v>102.72</v>
+      </c>
+      <c r="BB30" s="25">
+        <v>101.12</v>
+      </c>
+      <c r="BC30" s="25">
+        <v>100.88</v>
+      </c>
       <c r="BD30" s="25"/>
       <c r="BE30" s="25"/>
       <c r="BF30" s="25"/>
@@ -6155,31 +6405,31 @@
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="25">
-        <v>84.98</v>
+        <v>84.93</v>
       </c>
       <c r="D31" s="25">
         <v>89.85</v>
       </c>
       <c r="E31" s="25">
-        <v>93.46</v>
+        <v>93.5</v>
       </c>
       <c r="F31" s="25">
-        <v>94.63</v>
+        <v>94.65</v>
       </c>
       <c r="G31" s="25">
-        <v>95.26</v>
+        <v>95.27</v>
       </c>
       <c r="H31" s="25">
-        <v>96.97</v>
+        <v>96.98</v>
       </c>
       <c r="I31" s="25">
-        <v>98.05</v>
+        <v>98.03</v>
       </c>
       <c r="J31" s="25">
         <v>98.58</v>
@@ -6194,121 +6444,131 @@
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.57</v>
+        <v>99.52</v>
       </c>
       <c r="O31" s="25">
-        <v>95.82</v>
+        <v>95.76</v>
       </c>
       <c r="P31" s="25">
-        <v>92.15</v>
+        <v>92.11</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.83</v>
+        <v>89.8</v>
       </c>
       <c r="R31" s="25">
-        <v>89.36</v>
+        <v>89.27</v>
       </c>
       <c r="S31" s="25">
-        <v>89.5</v>
+        <v>89.43</v>
       </c>
       <c r="T31" s="25">
-        <v>90.45</v>
+        <v>90.36</v>
       </c>
       <c r="U31" s="25">
-        <v>91.65</v>
+        <v>91.6</v>
       </c>
       <c r="V31" s="25">
-        <v>92.23</v>
+        <v>92.18</v>
       </c>
       <c r="W31" s="25">
-        <v>92.7</v>
+        <v>92.65</v>
       </c>
       <c r="X31" s="25">
-        <v>93.83</v>
+        <v>93.81</v>
       </c>
       <c r="Y31" s="25">
-        <v>94.94</v>
+        <v>94.88</v>
       </c>
       <c r="Z31" s="25">
-        <v>95.77</v>
+        <v>95.71</v>
       </c>
       <c r="AA31" s="25">
-        <v>96.63</v>
+        <v>96.58</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.22</v>
+        <v>98.18</v>
       </c>
       <c r="AC31" s="25">
-        <v>100.05</v>
+        <v>100.63</v>
       </c>
       <c r="AD31" s="25">
-        <v>100.08</v>
+        <v>101.1</v>
       </c>
       <c r="AE31" s="25">
-        <v>99.94</v>
+        <v>100.9</v>
       </c>
       <c r="AF31" s="25">
-        <v>100.39</v>
+        <v>101.44</v>
       </c>
       <c r="AG31" s="25">
-        <v>101.11</v>
+        <v>102.18</v>
       </c>
       <c r="AH31" s="25">
-        <v>101.4</v>
+        <v>102.55</v>
       </c>
       <c r="AI31" s="25">
-        <v>101.4</v>
+        <v>102.57</v>
       </c>
       <c r="AJ31" s="25">
+        <v>102.77</v>
+      </c>
+      <c r="AK31" s="25">
+        <v>102.96</v>
+      </c>
+      <c r="AL31" s="25">
+        <v>103.45</v>
+      </c>
+      <c r="AM31" s="25">
+        <v>103.93</v>
+      </c>
+      <c r="AN31" s="25">
+        <v>103.84</v>
+      </c>
+      <c r="AO31" s="25">
+        <v>103.98</v>
+      </c>
+      <c r="AP31" s="25">
+        <v>102.89</v>
+      </c>
+      <c r="AQ31" s="25">
+        <v>101.9</v>
+      </c>
+      <c r="AR31" s="25">
+        <v>102.48</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>102.57</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>102.34</v>
+      </c>
+      <c r="AU31" s="25">
         <v>101.61</v>
       </c>
-      <c r="AK31" s="25">
-        <v>101.8</v>
-      </c>
-      <c r="AL31" s="25">
-        <v>102.18</v>
-      </c>
-      <c r="AM31" s="25">
-        <v>102.65</v>
-      </c>
-      <c r="AN31" s="25">
-        <v>102.59</v>
-      </c>
-      <c r="AO31" s="25">
-        <v>102.72</v>
-      </c>
-      <c r="AP31" s="25">
-        <v>101.56</v>
-      </c>
-      <c r="AQ31" s="25">
-        <v>100.18</v>
-      </c>
-      <c r="AR31" s="25">
-        <v>100.55</v>
-      </c>
-      <c r="AS31" s="25">
-        <v>100.39</v>
-      </c>
-      <c r="AT31" s="25">
-        <v>99.85</v>
-      </c>
-      <c r="AU31" s="25">
-        <v>98.48</v>
-      </c>
       <c r="AV31" s="25">
-        <v>98.25</v>
+        <v>101.97</v>
       </c>
       <c r="AW31" s="25">
-        <v>97.31</v>
+        <v>101.95</v>
       </c>
       <c r="AX31" s="25">
-        <v>97.18</v>
-      </c>
-      <c r="AY31" s="25"/>
-      <c r="AZ31" s="25"/>
-      <c r="BA31" s="25"/>
-      <c r="BB31" s="25"/>
-      <c r="BC31" s="25"/>
+        <v>102.23</v>
+      </c>
+      <c r="AY31" s="25">
+        <v>101.65</v>
+      </c>
+      <c r="AZ31" s="25">
+        <v>100.89</v>
+      </c>
+      <c r="BA31" s="25">
+        <v>98.67</v>
+      </c>
+      <c r="BB31" s="25">
+        <v>92.52</v>
+      </c>
+      <c r="BC31" s="25">
+        <v>84.78</v>
+      </c>
       <c r="BD31" s="25"/>
       <c r="BE31" s="25"/>
       <c r="BF31" s="25"/>
@@ -6335,160 +6595,170 @@
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.06</v>
+        <v>91.02</v>
       </c>
       <c r="D32" s="25">
-        <v>94.44</v>
+        <v>94.43</v>
       </c>
       <c r="E32" s="25">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="F32" s="25">
-        <v>97.04</v>
+        <v>97.05</v>
       </c>
       <c r="G32" s="25">
-        <v>97.72</v>
+        <v>97.73</v>
       </c>
       <c r="H32" s="25">
-        <v>99.35</v>
+        <v>99.39</v>
       </c>
       <c r="I32" s="25">
-        <v>99.77</v>
+        <v>99.8</v>
       </c>
       <c r="J32" s="25">
-        <v>100.81</v>
+        <v>100.83</v>
       </c>
       <c r="K32" s="25">
-        <v>101.81</v>
+        <v>101.84</v>
       </c>
       <c r="L32" s="25">
-        <v>101.69</v>
+        <v>101.72</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>99.05</v>
+        <v>99</v>
       </c>
       <c r="O32" s="25">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="P32" s="25">
-        <v>90.72</v>
+        <v>90.59</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.54</v>
+        <v>87.39</v>
       </c>
       <c r="R32" s="25">
-        <v>87.13</v>
+        <v>87.02</v>
       </c>
       <c r="S32" s="25">
-        <v>87.08</v>
+        <v>86.96</v>
       </c>
       <c r="T32" s="25">
-        <v>87</v>
+        <v>86.87</v>
       </c>
       <c r="U32" s="25">
-        <v>88.01</v>
+        <v>87.91</v>
       </c>
       <c r="V32" s="25">
-        <v>88.8</v>
+        <v>88.71</v>
       </c>
       <c r="W32" s="25">
-        <v>89.82</v>
+        <v>89.73</v>
       </c>
       <c r="X32" s="25">
-        <v>90.44</v>
+        <v>90.36</v>
       </c>
       <c r="Y32" s="25">
-        <v>91.04</v>
+        <v>90.97</v>
       </c>
       <c r="Z32" s="25">
-        <v>91.94</v>
+        <v>91.89</v>
       </c>
       <c r="AA32" s="25">
-        <v>92.16</v>
+        <v>92.13</v>
       </c>
       <c r="AB32" s="25">
-        <v>92.31</v>
+        <v>92.27</v>
       </c>
       <c r="AC32" s="25">
-        <v>92.7</v>
+        <v>93.24</v>
       </c>
       <c r="AD32" s="25">
-        <v>93.83</v>
+        <v>94.81</v>
       </c>
       <c r="AE32" s="25">
-        <v>93.25</v>
+        <v>94.26</v>
       </c>
       <c r="AF32" s="25">
-        <v>93.65</v>
+        <v>94.65</v>
       </c>
       <c r="AG32" s="25">
-        <v>93.92</v>
+        <v>94.93</v>
       </c>
       <c r="AH32" s="25">
-        <v>94.16</v>
+        <v>95.18</v>
       </c>
       <c r="AI32" s="25">
-        <v>94.31</v>
+        <v>95.35</v>
       </c>
       <c r="AJ32" s="25">
-        <v>94.32</v>
+        <v>95.35</v>
       </c>
       <c r="AK32" s="25">
-        <v>93.64</v>
+        <v>94.72</v>
       </c>
       <c r="AL32" s="25">
-        <v>94.05</v>
+        <v>95.14</v>
       </c>
       <c r="AM32" s="25">
-        <v>94.63</v>
+        <v>95.71</v>
       </c>
       <c r="AN32" s="25">
-        <v>94.39</v>
+        <v>95.47</v>
       </c>
       <c r="AO32" s="25">
-        <v>94.27</v>
+        <v>95.34</v>
       </c>
       <c r="AP32" s="25">
-        <v>94.35</v>
+        <v>95.4</v>
       </c>
       <c r="AQ32" s="25">
-        <v>94.91</v>
+        <v>95.85</v>
       </c>
       <c r="AR32" s="25">
-        <v>95.61</v>
+        <v>96.54</v>
       </c>
       <c r="AS32" s="25">
-        <v>96.51</v>
+        <v>97.49</v>
       </c>
       <c r="AT32" s="25">
-        <v>96.06</v>
+        <v>97.01</v>
       </c>
       <c r="AU32" s="25">
-        <v>95.93</v>
+        <v>96.8</v>
       </c>
       <c r="AV32" s="25">
-        <v>96.1</v>
+        <v>96.9</v>
       </c>
       <c r="AW32" s="25">
-        <v>96.77</v>
+        <v>97.84</v>
       </c>
       <c r="AX32" s="25">
-        <v>96.39</v>
-      </c>
-      <c r="AY32" s="25"/>
-      <c r="AZ32" s="25"/>
-      <c r="BA32" s="25"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="25"/>
+        <v>97.92</v>
+      </c>
+      <c r="AY32" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AZ32" s="25">
+        <v>97.85</v>
+      </c>
+      <c r="BA32" s="25">
+        <v>96.91</v>
+      </c>
+      <c r="BB32" s="25">
+        <v>92.22</v>
+      </c>
+      <c r="BC32" s="25">
+        <v>88.64</v>
+      </c>
       <c r="BD32" s="25"/>
       <c r="BE32" s="25"/>
       <c r="BF32" s="25"/>
@@ -6515,31 +6785,31 @@
     </row>
     <row r="33" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="25">
-        <v>96.51</v>
+        <v>96.54</v>
       </c>
       <c r="D33" s="25">
-        <v>96.91</v>
+        <v>96.94</v>
       </c>
       <c r="E33" s="25">
-        <v>98.1</v>
+        <v>98.14</v>
       </c>
       <c r="F33" s="25">
-        <v>98.34</v>
+        <v>98.38</v>
       </c>
       <c r="G33" s="25">
-        <v>98.69</v>
+        <v>98.72</v>
       </c>
       <c r="H33" s="25">
-        <v>99.49</v>
+        <v>99.51</v>
       </c>
       <c r="I33" s="25">
-        <v>101.28</v>
+        <v>101.3</v>
       </c>
       <c r="J33" s="25">
         <v>99.42</v>
@@ -6557,118 +6827,128 @@
         <v>99.26</v>
       </c>
       <c r="O33" s="25">
+        <v>97.64</v>
+      </c>
+      <c r="P33" s="25">
+        <v>96.37</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>96.1</v>
+      </c>
+      <c r="R33" s="25">
+        <v>95.86</v>
+      </c>
+      <c r="S33" s="25">
+        <v>96.14</v>
+      </c>
+      <c r="T33" s="25">
+        <v>96.44</v>
+      </c>
+      <c r="U33" s="25">
+        <v>96.09</v>
+      </c>
+      <c r="V33" s="25">
+        <v>96.42</v>
+      </c>
+      <c r="W33" s="25">
+        <v>96.7</v>
+      </c>
+      <c r="X33" s="25">
+        <v>96.41</v>
+      </c>
+      <c r="Y33" s="25">
+        <v>96.2</v>
+      </c>
+      <c r="Z33" s="25">
+        <v>96.08</v>
+      </c>
+      <c r="AA33" s="25">
+        <v>95.77</v>
+      </c>
+      <c r="AB33" s="25">
+        <v>96.09</v>
+      </c>
+      <c r="AC33" s="25">
+        <v>97.06</v>
+      </c>
+      <c r="AD33" s="25">
+        <v>97.83</v>
+      </c>
+      <c r="AE33" s="25">
+        <v>97.78</v>
+      </c>
+      <c r="AF33" s="25">
+        <v>97.52</v>
+      </c>
+      <c r="AG33" s="25">
+        <v>97.91</v>
+      </c>
+      <c r="AH33" s="25">
+        <v>97.95</v>
+      </c>
+      <c r="AI33" s="25">
+        <v>97.69</v>
+      </c>
+      <c r="AJ33" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="AK33" s="25">
+        <v>97.65</v>
+      </c>
+      <c r="AL33" s="25">
         <v>97.66</v>
       </c>
-      <c r="P33" s="25">
-        <v>96.39</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>96.12</v>
-      </c>
-      <c r="R33" s="25">
-        <v>95.87</v>
-      </c>
-      <c r="S33" s="25">
-        <v>96.15</v>
-      </c>
-      <c r="T33" s="25">
-        <v>96.45</v>
-      </c>
-      <c r="U33" s="25">
-        <v>96.1</v>
-      </c>
-      <c r="V33" s="25">
-        <v>96.43</v>
-      </c>
-      <c r="W33" s="25">
-        <v>96.73</v>
-      </c>
-      <c r="X33" s="25">
-        <v>96.42</v>
-      </c>
-      <c r="Y33" s="25">
-        <v>96.23</v>
-      </c>
-      <c r="Z33" s="25">
-        <v>96.1</v>
-      </c>
-      <c r="AA33" s="25">
-        <v>95.81</v>
-      </c>
-      <c r="AB33" s="25">
-        <v>96.12</v>
-      </c>
-      <c r="AC33" s="25">
-        <v>96.95</v>
-      </c>
-      <c r="AD33" s="25">
-        <v>97.61</v>
-      </c>
-      <c r="AE33" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="AF33" s="25">
-        <v>97.3</v>
-      </c>
-      <c r="AG33" s="25">
+      <c r="AM33" s="25">
+        <v>98.08</v>
+      </c>
+      <c r="AN33" s="25">
+        <v>98.19</v>
+      </c>
+      <c r="AO33" s="25">
+        <v>98.05</v>
+      </c>
+      <c r="AP33" s="25">
+        <v>97.81</v>
+      </c>
+      <c r="AQ33" s="25">
+        <v>97.77</v>
+      </c>
+      <c r="AR33" s="25">
+        <v>98.28</v>
+      </c>
+      <c r="AS33" s="25">
+        <v>98.44</v>
+      </c>
+      <c r="AT33" s="25">
+        <v>97.58</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>97.83</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>98.19</v>
+      </c>
+      <c r="AW33" s="25">
+        <v>98.22</v>
+      </c>
+      <c r="AX33" s="25">
+        <v>98.22</v>
+      </c>
+      <c r="AY33" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="AZ33" s="25">
+        <v>98.91</v>
+      </c>
+      <c r="BA33" s="25">
+        <v>99.49</v>
+      </c>
+      <c r="BB33" s="25">
         <v>97.69</v>
       </c>
-      <c r="AH33" s="25">
-        <v>97.67</v>
-      </c>
-      <c r="AI33" s="25">
-        <v>97.43</v>
-      </c>
-      <c r="AJ33" s="25">
-        <v>97.16</v>
-      </c>
-      <c r="AK33" s="25">
-        <v>97.39</v>
-      </c>
-      <c r="AL33" s="25">
-        <v>97.36</v>
-      </c>
-      <c r="AM33" s="25">
-        <v>97.78</v>
-      </c>
-      <c r="AN33" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AO33" s="25">
-        <v>97.79</v>
-      </c>
-      <c r="AP33" s="25">
-        <v>97.58</v>
-      </c>
-      <c r="AQ33" s="25">
-        <v>97.65</v>
-      </c>
-      <c r="AR33" s="25">
-        <v>98.14</v>
-      </c>
-      <c r="AS33" s="25">
-        <v>98.3</v>
-      </c>
-      <c r="AT33" s="25">
-        <v>97.89</v>
-      </c>
-      <c r="AU33" s="25">
-        <v>98.06</v>
-      </c>
-      <c r="AV33" s="25">
-        <v>97.2</v>
-      </c>
-      <c r="AW33" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="AX33" s="25">
-        <v>98.03</v>
-      </c>
-      <c r="AY33" s="25"/>
-      <c r="AZ33" s="25"/>
-      <c r="BA33" s="25"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="25"/>
+      <c r="BC33" s="25">
+        <v>97.26</v>
+      </c>
       <c r="BD33" s="25"/>
       <c r="BE33" s="25"/>
       <c r="BF33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 2 January 2021\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 16 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D12343-CD71-43BA-8226-B3AA6EDC71D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADD81B-74B4-4B38-B6A5-63061C79A4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t xml:space="preserve">            Australian Bureau of Statistics</t>
   </si>
@@ -104,25 +104,25 @@
     <t>200 employees and over</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 19 January 2021</t>
-  </si>
-  <si>
-    <t>Week ending Saturday 02 January 2021</t>
-  </si>
-  <si>
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment Size</t>
+    <t>Released at 11.30am (Canberra time) 2 February 2021</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment size</t>
+    <t>Week ending Saturday 16 January 2021</t>
   </si>
   <si>
     <t>Employment size</t>
   </si>
   <si>
     <t>State or Territory</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
 </sst>
 </file>
@@ -282,7 +282,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -351,6 +351,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1121,12 +1125,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1186,24 +1190,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="29"/>
+      <c r="B19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1325,7 +1329,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1407,7 +1411,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1569,15 +1573,13 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="str">
-        <f>"** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic."&amp;CHAR(10)&amp;"**Care should be exercised when focusing on the most recent movements in payroll jobs. For more information, please see the Reporting variability section in Data limitations and revisions."</f>
-        <v>** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic.
-**Care should be exercised when focusing on the most recent movements in payroll jobs. For more information, please see the Reporting variability section in Data limitations and revisions.</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+    <row r="5" spans="1:78" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1655,10 +1657,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1819,8 +1821,12 @@
       <c r="BC6" s="24">
         <v>44198</v>
       </c>
-      <c r="BD6" s="24"/>
-      <c r="BE6" s="24"/>
+      <c r="BD6" s="24">
+        <v>44205</v>
+      </c>
+      <c r="BE6" s="24">
+        <v>44212</v>
+      </c>
       <c r="BF6" s="24"/>
       <c r="BG6" s="24"/>
       <c r="BH6" s="24"/>
@@ -1854,7 +1860,7 @@
         <v>87.26</v>
       </c>
       <c r="D7" s="25">
-        <v>91.85</v>
+        <v>91.86</v>
       </c>
       <c r="E7" s="25">
         <v>94.43</v>
@@ -1863,10 +1869,10 @@
         <v>95.5</v>
       </c>
       <c r="G7" s="25">
-        <v>96.24</v>
+        <v>96.25</v>
       </c>
       <c r="H7" s="25">
-        <v>97.45</v>
+        <v>97.46</v>
       </c>
       <c r="I7" s="25">
         <v>97.87</v>
@@ -1878,7 +1884,7 @@
         <v>98.89</v>
       </c>
       <c r="L7" s="25">
-        <v>99.95</v>
+        <v>99.96</v>
       </c>
       <c r="M7" s="25">
         <v>100</v>
@@ -1887,130 +1893,134 @@
         <v>99.16</v>
       </c>
       <c r="O7" s="25">
-        <v>95.12</v>
+        <v>95.11</v>
       </c>
       <c r="P7" s="25">
-        <v>91.76</v>
+        <v>91.74</v>
       </c>
       <c r="Q7" s="25">
-        <v>89.33</v>
+        <v>89.32</v>
       </c>
       <c r="R7" s="25">
-        <v>88.63</v>
+        <v>88.62</v>
       </c>
       <c r="S7" s="25">
-        <v>89.15</v>
+        <v>89.14</v>
       </c>
       <c r="T7" s="25">
-        <v>90.22</v>
+        <v>90.2</v>
       </c>
       <c r="U7" s="25">
-        <v>91.36</v>
+        <v>91.34</v>
       </c>
       <c r="V7" s="25">
-        <v>92.45</v>
+        <v>92.44</v>
       </c>
       <c r="W7" s="25">
-        <v>93.01</v>
+        <v>93</v>
       </c>
       <c r="X7" s="25">
-        <v>93.54</v>
+        <v>93.53</v>
       </c>
       <c r="Y7" s="25">
-        <v>94.82</v>
+        <v>94.81</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.37</v>
+        <v>95.36</v>
       </c>
       <c r="AA7" s="25">
-        <v>95.98</v>
+        <v>95.96</v>
       </c>
       <c r="AB7" s="25">
         <v>97.21</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.69</v>
+        <v>99.75</v>
       </c>
       <c r="AD7" s="25">
-        <v>99.99</v>
+        <v>100.1</v>
       </c>
       <c r="AE7" s="25">
-        <v>99.93</v>
+        <v>100.05</v>
       </c>
       <c r="AF7" s="25">
-        <v>100.27</v>
+        <v>100.39</v>
       </c>
       <c r="AG7" s="25">
-        <v>100.28</v>
+        <v>100.41</v>
       </c>
       <c r="AH7" s="25">
-        <v>100.22</v>
+        <v>100.36</v>
       </c>
       <c r="AI7" s="25">
-        <v>100.15</v>
+        <v>100.29</v>
       </c>
       <c r="AJ7" s="25">
-        <v>100.2</v>
+        <v>100.35</v>
       </c>
       <c r="AK7" s="25">
-        <v>100.42</v>
+        <v>100.58</v>
       </c>
       <c r="AL7" s="25">
-        <v>100.74</v>
+        <v>100.9</v>
       </c>
       <c r="AM7" s="25">
-        <v>101.29</v>
+        <v>101.47</v>
       </c>
       <c r="AN7" s="25">
-        <v>101.36</v>
+        <v>101.56</v>
       </c>
       <c r="AO7" s="25">
-        <v>101.32</v>
+        <v>101.52</v>
       </c>
       <c r="AP7" s="25">
-        <v>100.51</v>
+        <v>100.76</v>
       </c>
       <c r="AQ7" s="25">
-        <v>99.82</v>
+        <v>100.24</v>
       </c>
       <c r="AR7" s="25">
-        <v>99.91</v>
+        <v>100.45</v>
       </c>
       <c r="AS7" s="25">
-        <v>100.03</v>
+        <v>100.62</v>
       </c>
       <c r="AT7" s="25">
-        <v>100.07</v>
+        <v>100.75</v>
       </c>
       <c r="AU7" s="25">
-        <v>100.02</v>
+        <v>100.93</v>
       </c>
       <c r="AV7" s="25">
-        <v>100.45</v>
+        <v>101.48</v>
       </c>
       <c r="AW7" s="25">
-        <v>100.61</v>
+        <v>101.75</v>
       </c>
       <c r="AX7" s="25">
-        <v>100.75</v>
+        <v>102.03</v>
       </c>
       <c r="AY7" s="25">
-        <v>100.37</v>
+        <v>102.16</v>
       </c>
       <c r="AZ7" s="25">
-        <v>99.57</v>
+        <v>101.96</v>
       </c>
       <c r="BA7" s="25">
-        <v>97.39</v>
+        <v>100.79</v>
       </c>
       <c r="BB7" s="25">
-        <v>91.8</v>
+        <v>96.16</v>
       </c>
       <c r="BC7" s="25">
-        <v>86.75</v>
-      </c>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
+        <v>90.94</v>
+      </c>
+      <c r="BD7" s="25">
+        <v>90.15</v>
+      </c>
+      <c r="BE7" s="25">
+        <v>91.57</v>
+      </c>
       <c r="BF7" s="25"/>
       <c r="BG7" s="25"/>
       <c r="BH7" s="25"/>
@@ -2041,16 +2051,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="25">
-        <v>91.9</v>
+        <v>91.91</v>
       </c>
       <c r="D8" s="25">
-        <v>95.33</v>
+        <v>95.34</v>
       </c>
       <c r="E8" s="25">
-        <v>97.14</v>
+        <v>97.15</v>
       </c>
       <c r="F8" s="25">
-        <v>97.88</v>
+        <v>97.89</v>
       </c>
       <c r="G8" s="25">
         <v>98.32</v>
@@ -2077,13 +2087,13 @@
         <v>98.66</v>
       </c>
       <c r="O8" s="25">
-        <v>93.97</v>
+        <v>93.96</v>
       </c>
       <c r="P8" s="25">
-        <v>90.34</v>
+        <v>90.33</v>
       </c>
       <c r="Q8" s="25">
-        <v>88.34</v>
+        <v>88.33</v>
       </c>
       <c r="R8" s="25">
         <v>87.66</v>
@@ -2113,94 +2123,98 @@
         <v>92.25</v>
       </c>
       <c r="AA8" s="25">
-        <v>92.56</v>
+        <v>92.57</v>
       </c>
       <c r="AB8" s="25">
         <v>92.51</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.33</v>
+        <v>93.34</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.69</v>
+        <v>93.71</v>
       </c>
       <c r="AE8" s="25">
-        <v>93.69</v>
+        <v>93.72</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.11</v>
+        <v>94.14</v>
       </c>
       <c r="AG8" s="25">
-        <v>94.2</v>
+        <v>94.24</v>
       </c>
       <c r="AH8" s="25">
-        <v>93.96</v>
+        <v>93.99</v>
       </c>
       <c r="AI8" s="25">
-        <v>93.84</v>
+        <v>93.88</v>
       </c>
       <c r="AJ8" s="25">
-        <v>93.84</v>
+        <v>93.88</v>
       </c>
       <c r="AK8" s="25">
-        <v>93.95</v>
+        <v>94</v>
       </c>
       <c r="AL8" s="25">
-        <v>94.28</v>
+        <v>94.32</v>
       </c>
       <c r="AM8" s="25">
-        <v>94.84</v>
+        <v>94.88</v>
       </c>
       <c r="AN8" s="25">
-        <v>94.97</v>
+        <v>95.01</v>
       </c>
       <c r="AO8" s="25">
-        <v>94.82</v>
+        <v>94.86</v>
       </c>
       <c r="AP8" s="25">
-        <v>94.26</v>
+        <v>94.31</v>
       </c>
       <c r="AQ8" s="25">
-        <v>94.26</v>
+        <v>94.32</v>
       </c>
       <c r="AR8" s="25">
-        <v>95.08</v>
+        <v>95.17</v>
       </c>
       <c r="AS8" s="25">
-        <v>95.44</v>
+        <v>95.54</v>
       </c>
       <c r="AT8" s="25">
-        <v>95.57</v>
+        <v>95.66</v>
       </c>
       <c r="AU8" s="25">
-        <v>96.07</v>
+        <v>96.15</v>
       </c>
       <c r="AV8" s="25">
-        <v>96.58</v>
+        <v>96.74</v>
       </c>
       <c r="AW8" s="25">
-        <v>96.85</v>
+        <v>97.04</v>
       </c>
       <c r="AX8" s="25">
-        <v>97.19</v>
+        <v>97.4</v>
       </c>
       <c r="AY8" s="25">
-        <v>97.47</v>
+        <v>97.81</v>
       </c>
       <c r="AZ8" s="25">
-        <v>97.54</v>
+        <v>98.03</v>
       </c>
       <c r="BA8" s="25">
-        <v>96.46</v>
+        <v>97.08</v>
       </c>
       <c r="BB8" s="25">
-        <v>92.9</v>
+        <v>93.31</v>
       </c>
       <c r="BC8" s="25">
-        <v>89.98</v>
-      </c>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="25"/>
+        <v>90.38</v>
+      </c>
+      <c r="BD8" s="25">
+        <v>91.09</v>
+      </c>
+      <c r="BE8" s="25">
+        <v>92.76</v>
+      </c>
       <c r="BF8" s="25"/>
       <c r="BG8" s="25"/>
       <c r="BH8" s="25"/>
@@ -2240,7 +2254,7 @@
         <v>97.74</v>
       </c>
       <c r="F9" s="25">
-        <v>98.45</v>
+        <v>98.46</v>
       </c>
       <c r="G9" s="25">
         <v>98.84</v>
@@ -2270,31 +2284,31 @@
         <v>97.7</v>
       </c>
       <c r="P9" s="25">
-        <v>95.87</v>
+        <v>95.86</v>
       </c>
       <c r="Q9" s="25">
         <v>94.74</v>
       </c>
       <c r="R9" s="25">
-        <v>94.63</v>
+        <v>94.62</v>
       </c>
       <c r="S9" s="25">
-        <v>94.81</v>
+        <v>94.8</v>
       </c>
       <c r="T9" s="25">
-        <v>94.84</v>
+        <v>94.83</v>
       </c>
       <c r="U9" s="25">
-        <v>95.14</v>
+        <v>95.13</v>
       </c>
       <c r="V9" s="25">
         <v>95.35</v>
       </c>
       <c r="W9" s="25">
-        <v>95.55</v>
+        <v>95.56</v>
       </c>
       <c r="X9" s="25">
-        <v>96.05</v>
+        <v>96.06</v>
       </c>
       <c r="Y9" s="25">
         <v>96.84</v>
@@ -2309,88 +2323,92 @@
         <v>96.19</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.75</v>
+        <v>96.76</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.51</v>
+        <v>97.52</v>
       </c>
       <c r="AF9" s="25">
+        <v>97.37</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.55</v>
+      </c>
+      <c r="AI9" s="25">
         <v>97.35</v>
       </c>
-      <c r="AG9" s="25">
-        <v>97.54</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>97.51</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>97.32</v>
-      </c>
       <c r="AJ9" s="25">
-        <v>97.3</v>
+        <v>97.35</v>
       </c>
       <c r="AK9" s="25">
-        <v>97.23</v>
+        <v>97.29</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.25</v>
+        <v>97.34</v>
       </c>
       <c r="AM9" s="25">
-        <v>97.51</v>
+        <v>97.62</v>
       </c>
       <c r="AN9" s="25">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="AP9" s="25">
-        <v>96.84</v>
+        <v>96.94</v>
       </c>
       <c r="AQ9" s="25">
-        <v>96.87</v>
+        <v>96.97</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.5</v>
+        <v>97.61</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.56</v>
+        <v>97.68</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.58</v>
+        <v>97.71</v>
       </c>
       <c r="AU9" s="25">
-        <v>97.95</v>
+        <v>98.05</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.63</v>
+        <v>98.72</v>
       </c>
       <c r="AW9" s="25">
-        <v>98.82</v>
+        <v>98.9</v>
       </c>
       <c r="AX9" s="25">
-        <v>99</v>
+        <v>99.04</v>
       </c>
       <c r="AY9" s="25">
-        <v>99.66</v>
+        <v>99.7</v>
       </c>
       <c r="AZ9" s="25">
         <v>100.06</v>
       </c>
       <c r="BA9" s="25">
-        <v>100.05</v>
+        <v>99.79</v>
       </c>
       <c r="BB9" s="25">
-        <v>98.68</v>
+        <v>98.01</v>
       </c>
       <c r="BC9" s="25">
-        <v>97.95</v>
-      </c>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
+        <v>96.46</v>
+      </c>
+      <c r="BD9" s="25">
+        <v>96.16</v>
+      </c>
+      <c r="BE9" s="25">
+        <v>97.42</v>
+      </c>
       <c r="BF9" s="25"/>
       <c r="BG9" s="25"/>
       <c r="BH9" s="25"/>
@@ -2457,28 +2475,28 @@
         <v>99.04</v>
       </c>
       <c r="O10" s="25">
-        <v>95.16</v>
+        <v>95.15</v>
       </c>
       <c r="P10" s="25">
-        <v>91.84</v>
+        <v>91.83</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.5</v>
+        <v>89.49</v>
       </c>
       <c r="R10" s="25">
-        <v>88.8</v>
+        <v>88.79</v>
       </c>
       <c r="S10" s="25">
-        <v>89.26</v>
+        <v>89.24</v>
       </c>
       <c r="T10" s="25">
-        <v>90.33</v>
+        <v>90.32</v>
       </c>
       <c r="U10" s="25">
         <v>91.74</v>
       </c>
       <c r="V10" s="25">
-        <v>93.56</v>
+        <v>93.57</v>
       </c>
       <c r="W10" s="25">
         <v>94.05</v>
@@ -2496,91 +2514,95 @@
         <v>96.05</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.37</v>
+        <v>97.38</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.25</v>
+        <v>100.35</v>
       </c>
       <c r="AD10" s="25">
-        <v>100.8</v>
+        <v>100.97</v>
       </c>
       <c r="AE10" s="25">
-        <v>100.75</v>
+        <v>100.93</v>
       </c>
       <c r="AF10" s="25">
-        <v>101.27</v>
+        <v>101.45</v>
       </c>
       <c r="AG10" s="25">
-        <v>101.25</v>
+        <v>101.44</v>
       </c>
       <c r="AH10" s="25">
-        <v>101.33</v>
+        <v>101.53</v>
       </c>
       <c r="AI10" s="25">
-        <v>101.47</v>
+        <v>101.67</v>
       </c>
       <c r="AJ10" s="25">
-        <v>101.7</v>
+        <v>101.92</v>
       </c>
       <c r="AK10" s="25">
-        <v>101.86</v>
+        <v>102.08</v>
       </c>
       <c r="AL10" s="25">
-        <v>102.3</v>
+        <v>102.53</v>
       </c>
       <c r="AM10" s="25">
-        <v>102.83</v>
+        <v>103.08</v>
       </c>
       <c r="AN10" s="25">
-        <v>102.88</v>
+        <v>103.14</v>
       </c>
       <c r="AO10" s="25">
-        <v>102.91</v>
+        <v>103.17</v>
       </c>
       <c r="AP10" s="25">
-        <v>101.67</v>
+        <v>102</v>
       </c>
       <c r="AQ10" s="25">
-        <v>100.4</v>
+        <v>100.94</v>
       </c>
       <c r="AR10" s="25">
-        <v>100.48</v>
+        <v>101.16</v>
       </c>
       <c r="AS10" s="25">
-        <v>100.54</v>
+        <v>101.28</v>
       </c>
       <c r="AT10" s="25">
-        <v>100.22</v>
+        <v>101.06</v>
       </c>
       <c r="AU10" s="25">
-        <v>99.85</v>
+        <v>101.01</v>
       </c>
       <c r="AV10" s="25">
-        <v>100.26</v>
+        <v>101.54</v>
       </c>
       <c r="AW10" s="25">
-        <v>100.62</v>
+        <v>102.02</v>
       </c>
       <c r="AX10" s="25">
-        <v>100.58</v>
+        <v>102.11</v>
       </c>
       <c r="AY10" s="25">
-        <v>99.85</v>
+        <v>101.95</v>
       </c>
       <c r="AZ10" s="25">
-        <v>98.72</v>
+        <v>101.45</v>
       </c>
       <c r="BA10" s="25">
-        <v>96.4</v>
+        <v>100.17</v>
       </c>
       <c r="BB10" s="25">
-        <v>90.72</v>
+        <v>95.46</v>
       </c>
       <c r="BC10" s="25">
-        <v>85</v>
-      </c>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
+        <v>89.81</v>
+      </c>
+      <c r="BD10" s="25">
+        <v>88.25</v>
+      </c>
+      <c r="BE10" s="25">
+        <v>89.46</v>
+      </c>
       <c r="BF10" s="25"/>
       <c r="BG10" s="25"/>
       <c r="BH10" s="25"/>
@@ -2617,7 +2639,7 @@
         <v>95.55</v>
       </c>
       <c r="E11" s="25">
-        <v>97.31</v>
+        <v>97.32</v>
       </c>
       <c r="F11" s="25">
         <v>98.1</v>
@@ -2638,43 +2660,43 @@
         <v>100.18</v>
       </c>
       <c r="L11" s="25">
-        <v>100.12</v>
+        <v>100.11</v>
       </c>
       <c r="M11" s="25">
         <v>100</v>
       </c>
       <c r="N11" s="25">
-        <v>98.43</v>
+        <v>98.42</v>
       </c>
       <c r="O11" s="25">
-        <v>93.53</v>
+        <v>93.52</v>
       </c>
       <c r="P11" s="25">
-        <v>89.86</v>
+        <v>89.84</v>
       </c>
       <c r="Q11" s="25">
-        <v>88.02</v>
+        <v>88.01</v>
       </c>
       <c r="R11" s="25">
-        <v>87.64</v>
+        <v>87.63</v>
       </c>
       <c r="S11" s="25">
-        <v>88.05</v>
+        <v>88.04</v>
       </c>
       <c r="T11" s="25">
-        <v>88.57</v>
+        <v>88.56</v>
       </c>
       <c r="U11" s="25">
-        <v>89.06</v>
+        <v>89.05</v>
       </c>
       <c r="V11" s="25">
         <v>89.54</v>
       </c>
       <c r="W11" s="25">
-        <v>89.99</v>
+        <v>89.98</v>
       </c>
       <c r="X11" s="25">
-        <v>90.53</v>
+        <v>90.52</v>
       </c>
       <c r="Y11" s="25">
         <v>91.52</v>
@@ -2683,94 +2705,98 @@
         <v>92.22</v>
       </c>
       <c r="AA11" s="25">
-        <v>92.46</v>
+        <v>92.45</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.49</v>
+        <v>92.5</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.39</v>
+        <v>93.4</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.26</v>
+        <v>94.29</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.53</v>
+        <v>94.56</v>
       </c>
       <c r="AF11" s="25">
-        <v>94.9</v>
+        <v>94.93</v>
       </c>
       <c r="AG11" s="25">
-        <v>94.95</v>
+        <v>94.98</v>
       </c>
       <c r="AH11" s="25">
-        <v>94.94</v>
+        <v>94.98</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.06</v>
+        <v>95.11</v>
       </c>
       <c r="AJ11" s="25">
-        <v>95.34</v>
+        <v>95.39</v>
       </c>
       <c r="AK11" s="25">
-        <v>95.46</v>
+        <v>95.52</v>
       </c>
       <c r="AL11" s="25">
-        <v>95.67</v>
+        <v>95.73</v>
       </c>
       <c r="AM11" s="25">
-        <v>95.97</v>
+        <v>96.03</v>
       </c>
       <c r="AN11" s="25">
-        <v>96.05</v>
+        <v>96.1</v>
       </c>
       <c r="AO11" s="25">
-        <v>96.09</v>
+        <v>96.14</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.48</v>
+        <v>95.55</v>
       </c>
       <c r="AQ11" s="25">
-        <v>95.1</v>
+        <v>95.19</v>
       </c>
       <c r="AR11" s="25">
-        <v>95.85</v>
+        <v>95.95</v>
       </c>
       <c r="AS11" s="25">
-        <v>96.12</v>
+        <v>96.24</v>
       </c>
       <c r="AT11" s="25">
-        <v>95.87</v>
+        <v>96</v>
       </c>
       <c r="AU11" s="25">
-        <v>96.16</v>
+        <v>96.31</v>
       </c>
       <c r="AV11" s="25">
-        <v>96.63</v>
+        <v>96.8</v>
       </c>
       <c r="AW11" s="25">
-        <v>97.08</v>
+        <v>97.23</v>
       </c>
       <c r="AX11" s="25">
-        <v>97.31</v>
+        <v>97.45</v>
       </c>
       <c r="AY11" s="25">
-        <v>97.31</v>
+        <v>97.7</v>
       </c>
       <c r="AZ11" s="25">
-        <v>97.18</v>
+        <v>97.84</v>
       </c>
       <c r="BA11" s="25">
-        <v>96.11</v>
+        <v>96.94</v>
       </c>
       <c r="BB11" s="25">
-        <v>92.77</v>
+        <v>93.22</v>
       </c>
       <c r="BC11" s="25">
-        <v>89.64</v>
-      </c>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
+        <v>89.97</v>
+      </c>
+      <c r="BD11" s="25">
+        <v>90.78</v>
+      </c>
+      <c r="BE11" s="25">
+        <v>92.54</v>
+      </c>
       <c r="BF11" s="25"/>
       <c r="BG11" s="25"/>
       <c r="BH11" s="25"/>
@@ -2801,13 +2827,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="25">
-        <v>96.29</v>
+        <v>96.27</v>
       </c>
       <c r="D12" s="25">
         <v>96.88</v>
       </c>
       <c r="E12" s="25">
-        <v>97.28</v>
+        <v>97.29</v>
       </c>
       <c r="F12" s="25">
         <v>98.09</v>
@@ -2843,19 +2869,19 @@
         <v>96.17</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.21</v>
+        <v>95.2</v>
       </c>
       <c r="R12" s="25">
-        <v>94.72</v>
+        <v>94.7</v>
       </c>
       <c r="S12" s="25">
-        <v>94.67</v>
+        <v>94.65</v>
       </c>
       <c r="T12" s="25">
-        <v>94.84</v>
+        <v>94.82</v>
       </c>
       <c r="U12" s="25">
-        <v>95.31</v>
+        <v>95.29</v>
       </c>
       <c r="V12" s="25">
         <v>95.59</v>
@@ -2876,7 +2902,7 @@
         <v>97.49</v>
       </c>
       <c r="AB12" s="25">
-        <v>97.24</v>
+        <v>97.23</v>
       </c>
       <c r="AC12" s="25">
         <v>97.43</v>
@@ -2888,79 +2914,83 @@
         <v>97.82</v>
       </c>
       <c r="AF12" s="25">
-        <v>97.86</v>
+        <v>97.87</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.38</v>
+        <v>98.4</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.44</v>
+        <v>98.5</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.4</v>
+        <v>98.45</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.35</v>
+        <v>98.43</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.38</v>
+        <v>98.46</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.23</v>
+        <v>98.37</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.51</v>
+        <v>98.66</v>
       </c>
       <c r="AN12" s="25">
-        <v>98.76</v>
+        <v>98.91</v>
       </c>
       <c r="AO12" s="25">
-        <v>98.68</v>
+        <v>98.82</v>
       </c>
       <c r="AP12" s="25">
-        <v>97.78</v>
+        <v>97.92</v>
       </c>
       <c r="AQ12" s="25">
-        <v>97.53</v>
+        <v>97.66</v>
       </c>
       <c r="AR12" s="25">
-        <v>98.43</v>
+        <v>98.56</v>
       </c>
       <c r="AS12" s="25">
-        <v>98.53</v>
+        <v>98.66</v>
       </c>
       <c r="AT12" s="25">
-        <v>98.43</v>
+        <v>98.56</v>
       </c>
       <c r="AU12" s="25">
-        <v>98.7</v>
+        <v>98.82</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.1</v>
+        <v>99.24</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.56</v>
+        <v>99.64</v>
       </c>
       <c r="AX12" s="25">
-        <v>99.78</v>
+        <v>99.84</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.45</v>
+        <v>100.52</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.83</v>
+        <v>100.87</v>
       </c>
       <c r="BA12" s="25">
-        <v>101.1</v>
+        <v>100.69</v>
       </c>
       <c r="BB12" s="25">
-        <v>99.88</v>
+        <v>99.19</v>
       </c>
       <c r="BC12" s="25">
-        <v>99.46</v>
-      </c>
-      <c r="BD12" s="25"/>
-      <c r="BE12" s="25"/>
+        <v>97.58</v>
+      </c>
+      <c r="BD12" s="25">
+        <v>96.85</v>
+      </c>
+      <c r="BE12" s="25">
+        <v>97.91</v>
+      </c>
       <c r="BF12" s="25"/>
       <c r="BG12" s="25"/>
       <c r="BH12" s="25"/>
@@ -2991,16 +3021,16 @@
         <v>18</v>
       </c>
       <c r="C13" s="25">
-        <v>87.34</v>
+        <v>87.36</v>
       </c>
       <c r="D13" s="25">
-        <v>90.72</v>
+        <v>90.74</v>
       </c>
       <c r="E13" s="25">
-        <v>93.45</v>
+        <v>93.46</v>
       </c>
       <c r="F13" s="25">
-        <v>94.84</v>
+        <v>94.85</v>
       </c>
       <c r="G13" s="25">
         <v>95.77</v>
@@ -3009,13 +3039,13 @@
         <v>97.3</v>
       </c>
       <c r="I13" s="25">
-        <v>97.77</v>
+        <v>97.78</v>
       </c>
       <c r="J13" s="25">
         <v>98.3</v>
       </c>
       <c r="K13" s="25">
-        <v>98.83</v>
+        <v>98.84</v>
       </c>
       <c r="L13" s="25">
         <v>100</v>
@@ -3024,133 +3054,137 @@
         <v>100</v>
       </c>
       <c r="N13" s="25">
-        <v>99.21</v>
+        <v>99.2</v>
       </c>
       <c r="O13" s="25">
-        <v>95.03</v>
+        <v>95.01</v>
       </c>
       <c r="P13" s="25">
-        <v>91.58</v>
+        <v>91.56</v>
       </c>
       <c r="Q13" s="25">
-        <v>89.23</v>
+        <v>89.21</v>
       </c>
       <c r="R13" s="25">
-        <v>88.48</v>
+        <v>88.47</v>
       </c>
       <c r="S13" s="25">
-        <v>88.99</v>
+        <v>88.98</v>
       </c>
       <c r="T13" s="25">
-        <v>90.08</v>
+        <v>90.02</v>
       </c>
       <c r="U13" s="25">
-        <v>90.9</v>
+        <v>90.84</v>
       </c>
       <c r="V13" s="25">
-        <v>91.45</v>
+        <v>91.38</v>
       </c>
       <c r="W13" s="25">
-        <v>91.85</v>
+        <v>91.79</v>
       </c>
       <c r="X13" s="25">
-        <v>92.45</v>
+        <v>92.39</v>
       </c>
       <c r="Y13" s="25">
-        <v>93.79</v>
+        <v>93.73</v>
       </c>
       <c r="Z13" s="25">
-        <v>94.58</v>
+        <v>94.52</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.2</v>
+        <v>95.14</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.41</v>
+        <v>96.35</v>
       </c>
       <c r="AC13" s="25">
         <v>98.74</v>
       </c>
       <c r="AD13" s="25">
-        <v>98.4</v>
+        <v>98.43</v>
       </c>
       <c r="AE13" s="25">
-        <v>97.88</v>
+        <v>97.92</v>
       </c>
       <c r="AF13" s="25">
-        <v>97.77</v>
+        <v>97.81</v>
       </c>
       <c r="AG13" s="25">
-        <v>97.47</v>
+        <v>97.53</v>
       </c>
       <c r="AH13" s="25">
-        <v>96.64</v>
+        <v>96.69</v>
       </c>
       <c r="AI13" s="25">
-        <v>95.9</v>
+        <v>95.95</v>
       </c>
       <c r="AJ13" s="25">
-        <v>95.33</v>
+        <v>95.39</v>
       </c>
       <c r="AK13" s="25">
-        <v>95.49</v>
+        <v>95.56</v>
       </c>
       <c r="AL13" s="25">
-        <v>95.63</v>
+        <v>95.71</v>
       </c>
       <c r="AM13" s="25">
-        <v>96.06</v>
+        <v>96.15</v>
       </c>
       <c r="AN13" s="25">
-        <v>96.23</v>
+        <v>96.33</v>
       </c>
       <c r="AO13" s="25">
-        <v>96.29</v>
+        <v>96.4</v>
       </c>
       <c r="AP13" s="25">
-        <v>95.86</v>
+        <v>96.03</v>
       </c>
       <c r="AQ13" s="25">
-        <v>95.59</v>
+        <v>95.92</v>
       </c>
       <c r="AR13" s="25">
-        <v>95.77</v>
+        <v>96.18</v>
       </c>
       <c r="AS13" s="25">
-        <v>95.9</v>
+        <v>96.37</v>
       </c>
       <c r="AT13" s="25">
-        <v>96.65</v>
+        <v>97.23</v>
       </c>
       <c r="AU13" s="25">
-        <v>96.99</v>
+        <v>97.81</v>
       </c>
       <c r="AV13" s="25">
-        <v>97.84</v>
+        <v>98.79</v>
       </c>
       <c r="AW13" s="25">
-        <v>98.32</v>
+        <v>99.37</v>
       </c>
       <c r="AX13" s="25">
-        <v>98.72</v>
+        <v>99.93</v>
       </c>
       <c r="AY13" s="25">
-        <v>98.38</v>
+        <v>100.17</v>
       </c>
       <c r="AZ13" s="25">
-        <v>97.69</v>
+        <v>100.22</v>
       </c>
       <c r="BA13" s="25">
-        <v>95.78</v>
+        <v>99.42</v>
       </c>
       <c r="BB13" s="25">
-        <v>91.02</v>
+        <v>95.76</v>
       </c>
       <c r="BC13" s="25">
-        <v>86.13</v>
-      </c>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="25"/>
+        <v>90.95</v>
+      </c>
+      <c r="BD13" s="25">
+        <v>88.9</v>
+      </c>
+      <c r="BE13" s="25">
+        <v>89.67</v>
+      </c>
       <c r="BF13" s="25"/>
       <c r="BG13" s="25"/>
       <c r="BH13" s="25"/>
@@ -3181,25 +3215,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.36</v>
+        <v>90.39</v>
       </c>
       <c r="D14" s="25">
-        <v>93.39</v>
+        <v>93.42</v>
       </c>
       <c r="E14" s="25">
-        <v>95.66</v>
+        <v>95.68</v>
       </c>
       <c r="F14" s="25">
-        <v>96.71</v>
+        <v>96.73</v>
       </c>
       <c r="G14" s="25">
-        <v>97.51</v>
+        <v>97.53</v>
       </c>
       <c r="H14" s="25">
         <v>99.14</v>
       </c>
       <c r="I14" s="25">
-        <v>99.27</v>
+        <v>99.28</v>
       </c>
       <c r="J14" s="25">
         <v>99.77</v>
@@ -3214,16 +3248,16 @@
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.82</v>
+        <v>98.8</v>
       </c>
       <c r="O14" s="25">
-        <v>94.29</v>
+        <v>94.27</v>
       </c>
       <c r="P14" s="25">
-        <v>90.57</v>
+        <v>90.55</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.64</v>
+        <v>88.62</v>
       </c>
       <c r="R14" s="25">
         <v>87.47</v>
@@ -3250,10 +3284,10 @@
         <v>90.39</v>
       </c>
       <c r="Z14" s="25">
-        <v>91.22</v>
+        <v>91.23</v>
       </c>
       <c r="AA14" s="25">
-        <v>91.38</v>
+        <v>91.39</v>
       </c>
       <c r="AB14" s="25">
         <v>91.33</v>
@@ -3262,85 +3296,89 @@
         <v>91.9</v>
       </c>
       <c r="AD14" s="25">
-        <v>90.91</v>
+        <v>90.92</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.26</v>
+        <v>90.28</v>
       </c>
       <c r="AF14" s="25">
-        <v>90.8</v>
+        <v>90.82</v>
       </c>
       <c r="AG14" s="25">
-        <v>90.73</v>
+        <v>90.75</v>
       </c>
       <c r="AH14" s="25">
-        <v>89.64</v>
+        <v>89.65</v>
       </c>
       <c r="AI14" s="25">
-        <v>88.85</v>
+        <v>88.88</v>
       </c>
       <c r="AJ14" s="25">
-        <v>88.27</v>
+        <v>88.31</v>
       </c>
       <c r="AK14" s="25">
-        <v>88.33</v>
+        <v>88.36</v>
       </c>
       <c r="AL14" s="25">
-        <v>88.8</v>
+        <v>88.84</v>
       </c>
       <c r="AM14" s="25">
-        <v>89.46</v>
+        <v>89.5</v>
       </c>
       <c r="AN14" s="25">
-        <v>89.74</v>
+        <v>89.77</v>
       </c>
       <c r="AO14" s="25">
-        <v>89.58</v>
+        <v>89.6</v>
       </c>
       <c r="AP14" s="25">
-        <v>88.94</v>
+        <v>88.98</v>
       </c>
       <c r="AQ14" s="25">
-        <v>89.12</v>
+        <v>89.18</v>
       </c>
       <c r="AR14" s="25">
-        <v>90.4</v>
+        <v>90.45</v>
       </c>
       <c r="AS14" s="25">
-        <v>91</v>
+        <v>91.05</v>
       </c>
       <c r="AT14" s="25">
-        <v>91.89</v>
+        <v>91.91</v>
       </c>
       <c r="AU14" s="25">
-        <v>92.77</v>
+        <v>92.74</v>
       </c>
       <c r="AV14" s="25">
-        <v>93.75</v>
+        <v>93.85</v>
       </c>
       <c r="AW14" s="25">
-        <v>94.14</v>
+        <v>94.27</v>
       </c>
       <c r="AX14" s="25">
-        <v>94.89</v>
+        <v>95.05</v>
       </c>
       <c r="AY14" s="25">
-        <v>95.15</v>
+        <v>95.46</v>
       </c>
       <c r="AZ14" s="25">
-        <v>95.55</v>
+        <v>96.08</v>
       </c>
       <c r="BA14" s="25">
-        <v>94.6</v>
+        <v>95.33</v>
       </c>
       <c r="BB14" s="25">
-        <v>91.19</v>
+        <v>91.78</v>
       </c>
       <c r="BC14" s="25">
-        <v>88.19</v>
-      </c>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
+        <v>89.03</v>
+      </c>
+      <c r="BD14" s="25">
+        <v>88.98</v>
+      </c>
+      <c r="BE14" s="25">
+        <v>90.66</v>
+      </c>
       <c r="BF14" s="25"/>
       <c r="BG14" s="25"/>
       <c r="BH14" s="25"/>
@@ -3374,28 +3412,28 @@
         <v>95.81</v>
       </c>
       <c r="D15" s="25">
-        <v>96.66</v>
+        <v>96.67</v>
       </c>
       <c r="E15" s="25">
-        <v>97.91</v>
+        <v>97.92</v>
       </c>
       <c r="F15" s="25">
-        <v>98.78</v>
+        <v>98.79</v>
       </c>
       <c r="G15" s="25">
-        <v>99.21</v>
+        <v>99.22</v>
       </c>
       <c r="H15" s="25">
-        <v>99.18</v>
+        <v>99.19</v>
       </c>
       <c r="I15" s="25">
-        <v>98.92</v>
+        <v>98.93</v>
       </c>
       <c r="J15" s="25">
         <v>99.31</v>
       </c>
       <c r="K15" s="25">
-        <v>99.51</v>
+        <v>99.52</v>
       </c>
       <c r="L15" s="25">
         <v>99.64</v>
@@ -3404,31 +3442,31 @@
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>98.88</v>
+        <v>98.87</v>
       </c>
       <c r="O15" s="25">
-        <v>97.31</v>
+        <v>97.3</v>
       </c>
       <c r="P15" s="25">
-        <v>95.08</v>
+        <v>95.07</v>
       </c>
       <c r="Q15" s="25">
         <v>94.24</v>
       </c>
       <c r="R15" s="25">
-        <v>94.39</v>
+        <v>94.38</v>
       </c>
       <c r="S15" s="25">
-        <v>94.98</v>
+        <v>94.96</v>
       </c>
       <c r="T15" s="25">
-        <v>94.42</v>
+        <v>94.41</v>
       </c>
       <c r="U15" s="25">
-        <v>94.35</v>
+        <v>94.34</v>
       </c>
       <c r="V15" s="25">
-        <v>94.18</v>
+        <v>94.17</v>
       </c>
       <c r="W15" s="25">
         <v>94.26</v>
@@ -3452,85 +3490,89 @@
         <v>95.94</v>
       </c>
       <c r="AD15" s="25">
-        <v>97.07</v>
+        <v>97.08</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.92</v>
+        <v>96.94</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.03</v>
+        <v>96.07</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.07</v>
+        <v>96.1</v>
       </c>
       <c r="AH15" s="25">
-        <v>95.63</v>
+        <v>95.68</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.13</v>
+        <v>95.17</v>
       </c>
       <c r="AJ15" s="25">
-        <v>94.89</v>
+        <v>94.93</v>
       </c>
       <c r="AK15" s="25">
-        <v>94.94</v>
+        <v>94.98</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.07</v>
+        <v>95.14</v>
       </c>
       <c r="AM15" s="25">
-        <v>95.23</v>
+        <v>95.3</v>
       </c>
       <c r="AN15" s="25">
-        <v>95.21</v>
+        <v>95.28</v>
       </c>
       <c r="AO15" s="25">
-        <v>95.1</v>
+        <v>95.16</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.46</v>
+        <v>94.51</v>
       </c>
       <c r="AQ15" s="25">
-        <v>94.96</v>
+        <v>95.02</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.34</v>
+        <v>95.39</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.44</v>
+        <v>95.49</v>
       </c>
       <c r="AT15" s="25">
-        <v>95.95</v>
+        <v>96.1</v>
       </c>
       <c r="AU15" s="25">
-        <v>96.35</v>
+        <v>96.5</v>
       </c>
       <c r="AV15" s="25">
-        <v>97.25</v>
+        <v>97.29</v>
       </c>
       <c r="AW15" s="25">
-        <v>97.38</v>
+        <v>97.39</v>
       </c>
       <c r="AX15" s="25">
-        <v>97.7</v>
+        <v>97.68</v>
       </c>
       <c r="AY15" s="25">
-        <v>98.56</v>
+        <v>98.5</v>
       </c>
       <c r="AZ15" s="25">
-        <v>98.67</v>
+        <v>98.57</v>
       </c>
       <c r="BA15" s="25">
-        <v>98.49</v>
+        <v>98.34</v>
       </c>
       <c r="BB15" s="25">
-        <v>97.26</v>
+        <v>96.79</v>
       </c>
       <c r="BC15" s="25">
-        <v>96.26</v>
-      </c>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="25"/>
+        <v>95.47</v>
+      </c>
+      <c r="BD15" s="25">
+        <v>95.38</v>
+      </c>
+      <c r="BE15" s="25">
+        <v>96.67</v>
+      </c>
       <c r="BF15" s="25"/>
       <c r="BG15" s="25"/>
       <c r="BH15" s="25"/>
@@ -3567,10 +3609,10 @@
         <v>92.27</v>
       </c>
       <c r="E16" s="25">
-        <v>95.15</v>
+        <v>95.14</v>
       </c>
       <c r="F16" s="25">
-        <v>96.24</v>
+        <v>96.23</v>
       </c>
       <c r="G16" s="25">
         <v>96.92</v>
@@ -3582,7 +3624,7 @@
         <v>97.94</v>
       </c>
       <c r="J16" s="25">
-        <v>98.51</v>
+        <v>98.5</v>
       </c>
       <c r="K16" s="25">
         <v>99.01</v>
@@ -3594,13 +3636,13 @@
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>99.29</v>
+        <v>99.3</v>
       </c>
       <c r="O16" s="25">
         <v>95.44</v>
       </c>
       <c r="P16" s="25">
-        <v>91.96</v>
+        <v>91.95</v>
       </c>
       <c r="Q16" s="25">
         <v>89.29</v>
@@ -3609,7 +3651,7 @@
         <v>88.77</v>
       </c>
       <c r="S16" s="25">
-        <v>89.48</v>
+        <v>89.47</v>
       </c>
       <c r="T16" s="25">
         <v>90.51</v>
@@ -3621,106 +3663,110 @@
         <v>92.55</v>
       </c>
       <c r="W16" s="25">
-        <v>93.21</v>
+        <v>93.22</v>
       </c>
       <c r="X16" s="25">
-        <v>93.48</v>
+        <v>93.49</v>
       </c>
       <c r="Y16" s="25">
-        <v>94.67</v>
+        <v>94.68</v>
       </c>
       <c r="Z16" s="25">
-        <v>95.55</v>
+        <v>95.56</v>
       </c>
       <c r="AA16" s="25">
         <v>96.32</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.67</v>
+        <v>97.69</v>
       </c>
       <c r="AC16" s="25">
-        <v>100.01</v>
+        <v>100.08</v>
       </c>
       <c r="AD16" s="25">
-        <v>100.54</v>
+        <v>100.65</v>
       </c>
       <c r="AE16" s="25">
-        <v>100.93</v>
+        <v>101.05</v>
       </c>
       <c r="AF16" s="25">
-        <v>101.3</v>
+        <v>101.42</v>
       </c>
       <c r="AG16" s="25">
-        <v>101.52</v>
+        <v>101.65</v>
       </c>
       <c r="AH16" s="25">
-        <v>101.87</v>
+        <v>102</v>
       </c>
       <c r="AI16" s="25">
-        <v>101.94</v>
+        <v>102.08</v>
       </c>
       <c r="AJ16" s="25">
-        <v>102.27</v>
+        <v>102.41</v>
       </c>
       <c r="AK16" s="25">
-        <v>102.5</v>
+        <v>102.65</v>
       </c>
       <c r="AL16" s="25">
-        <v>102.73</v>
+        <v>102.88</v>
       </c>
       <c r="AM16" s="25">
-        <v>103.47</v>
+        <v>103.65</v>
       </c>
       <c r="AN16" s="25">
-        <v>103.49</v>
+        <v>103.67</v>
       </c>
       <c r="AO16" s="25">
-        <v>103.09</v>
+        <v>103.27</v>
       </c>
       <c r="AP16" s="25">
+        <v>102.66</v>
+      </c>
+      <c r="AQ16" s="25">
         <v>102.44</v>
       </c>
-      <c r="AQ16" s="25">
-        <v>102.08</v>
-      </c>
       <c r="AR16" s="25">
-        <v>101.9</v>
+        <v>102.36</v>
       </c>
       <c r="AS16" s="25">
-        <v>101.97</v>
+        <v>102.48</v>
       </c>
       <c r="AT16" s="25">
-        <v>101.93</v>
+        <v>102.51</v>
       </c>
       <c r="AU16" s="25">
-        <v>101.81</v>
+        <v>102.57</v>
       </c>
       <c r="AV16" s="25">
-        <v>101.95</v>
+        <v>102.84</v>
       </c>
       <c r="AW16" s="25">
-        <v>101.92</v>
+        <v>102.92</v>
       </c>
       <c r="AX16" s="25">
-        <v>101.94</v>
+        <v>103.07</v>
       </c>
       <c r="AY16" s="25">
-        <v>101.69</v>
+        <v>103.21</v>
       </c>
       <c r="AZ16" s="25">
-        <v>100.82</v>
+        <v>102.86</v>
       </c>
       <c r="BA16" s="25">
-        <v>98.37</v>
+        <v>101.28</v>
       </c>
       <c r="BB16" s="25">
-        <v>91.75</v>
+        <v>95.54</v>
       </c>
       <c r="BC16" s="25">
-        <v>86.74</v>
-      </c>
-      <c r="BD16" s="25"/>
-      <c r="BE16" s="25"/>
+        <v>89.87</v>
+      </c>
+      <c r="BD16" s="25">
+        <v>90.88</v>
+      </c>
+      <c r="BE16" s="25">
+        <v>93.46</v>
+      </c>
       <c r="BF16" s="25"/>
       <c r="BG16" s="25"/>
       <c r="BH16" s="25"/>
@@ -3751,19 +3797,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.53</v>
+        <v>91.55</v>
       </c>
       <c r="D17" s="25">
-        <v>95.9</v>
+        <v>95.92</v>
       </c>
       <c r="E17" s="25">
-        <v>97.88</v>
+        <v>97.89</v>
       </c>
       <c r="F17" s="25">
         <v>98.6</v>
       </c>
       <c r="G17" s="25">
-        <v>98.96</v>
+        <v>98.95</v>
       </c>
       <c r="H17" s="25">
         <v>99.23</v>
@@ -3784,16 +3830,16 @@
         <v>100</v>
       </c>
       <c r="N17" s="25">
-        <v>98.71</v>
+        <v>98.72</v>
       </c>
       <c r="O17" s="25">
-        <v>94.04</v>
+        <v>94.03</v>
       </c>
       <c r="P17" s="25">
-        <v>90.29</v>
+        <v>90.28</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.94</v>
+        <v>87.93</v>
       </c>
       <c r="R17" s="25">
         <v>87.49</v>
@@ -3808,10 +3854,10 @@
         <v>89.69</v>
       </c>
       <c r="V17" s="25">
-        <v>90.22</v>
+        <v>90.23</v>
       </c>
       <c r="W17" s="25">
-        <v>90.4</v>
+        <v>90.41</v>
       </c>
       <c r="X17" s="25">
         <v>90.78</v>
@@ -3826,91 +3872,95 @@
         <v>93.35</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.37</v>
+        <v>93.38</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.21</v>
+        <v>94.22</v>
       </c>
       <c r="AD17" s="25">
-        <v>94.97</v>
+        <v>94.99</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.62</v>
+        <v>95.64</v>
       </c>
       <c r="AF17" s="25">
-        <v>95.99</v>
+        <v>96.01</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.05</v>
+        <v>96.07</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.11</v>
+        <v>96.15</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.17</v>
+        <v>96.21</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.41</v>
+        <v>96.45</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.57</v>
+        <v>96.58</v>
       </c>
       <c r="AL17" s="25">
-        <v>96.85</v>
+        <v>96.86</v>
       </c>
       <c r="AM17" s="25">
-        <v>97.73</v>
+        <v>97.79</v>
       </c>
       <c r="AN17" s="25">
-        <v>97.84</v>
+        <v>97.91</v>
       </c>
       <c r="AO17" s="25">
-        <v>97.32</v>
+        <v>97.39</v>
       </c>
       <c r="AP17" s="25">
-        <v>96.77</v>
+        <v>96.83</v>
       </c>
       <c r="AQ17" s="25">
-        <v>97.1</v>
+        <v>97.16</v>
       </c>
       <c r="AR17" s="25">
-        <v>97.66</v>
+        <v>97.77</v>
       </c>
       <c r="AS17" s="25">
-        <v>97.83</v>
+        <v>97.96</v>
       </c>
       <c r="AT17" s="25">
-        <v>97.59</v>
+        <v>97.72</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.16</v>
+        <v>98.32</v>
       </c>
       <c r="AV17" s="25">
-        <v>98.45</v>
+        <v>98.66</v>
       </c>
       <c r="AW17" s="25">
-        <v>98.75</v>
+        <v>98.96</v>
       </c>
       <c r="AX17" s="25">
-        <v>98.66</v>
+        <v>98.87</v>
       </c>
       <c r="AY17" s="25">
-        <v>99.09</v>
+        <v>99.38</v>
       </c>
       <c r="AZ17" s="25">
-        <v>98.86</v>
+        <v>99.22</v>
       </c>
       <c r="BA17" s="25">
-        <v>97.43</v>
+        <v>97.96</v>
       </c>
       <c r="BB17" s="25">
-        <v>93.4</v>
+        <v>93.6</v>
       </c>
       <c r="BC17" s="25">
-        <v>90.61</v>
-      </c>
-      <c r="BD17" s="25"/>
-      <c r="BE17" s="25"/>
+        <v>90.5</v>
+      </c>
+      <c r="BD17" s="25">
+        <v>92.17</v>
+      </c>
+      <c r="BE17" s="25">
+        <v>94.15</v>
+      </c>
       <c r="BF17" s="25"/>
       <c r="BG17" s="25"/>
       <c r="BH17" s="25"/>
@@ -3941,28 +3991,28 @@
         <v>19</v>
       </c>
       <c r="C18" s="25">
-        <v>95.92</v>
+        <v>95.91</v>
       </c>
       <c r="D18" s="25">
-        <v>97.22</v>
+        <v>97.21</v>
       </c>
       <c r="E18" s="25">
-        <v>97.77</v>
+        <v>97.76</v>
       </c>
       <c r="F18" s="25">
-        <v>98.29</v>
+        <v>98.28</v>
       </c>
       <c r="G18" s="25">
-        <v>98.25</v>
+        <v>98.24</v>
       </c>
       <c r="H18" s="25">
         <v>98.71</v>
       </c>
       <c r="I18" s="25">
-        <v>99.52</v>
+        <v>99.51</v>
       </c>
       <c r="J18" s="25">
-        <v>99.62</v>
+        <v>99.61</v>
       </c>
       <c r="K18" s="25">
         <v>98.74</v>
@@ -3986,22 +4036,22 @@
         <v>94.43</v>
       </c>
       <c r="R18" s="25">
-        <v>94.49</v>
+        <v>94.48</v>
       </c>
       <c r="S18" s="25">
-        <v>94.79</v>
+        <v>94.78</v>
       </c>
       <c r="T18" s="25">
         <v>95.08</v>
       </c>
       <c r="U18" s="25">
-        <v>95.51</v>
+        <v>95.5</v>
       </c>
       <c r="V18" s="25">
         <v>95.95</v>
       </c>
       <c r="W18" s="25">
-        <v>95.84</v>
+        <v>95.85</v>
       </c>
       <c r="X18" s="25">
         <v>96.03</v>
@@ -4019,88 +4069,92 @@
         <v>95.88</v>
       </c>
       <c r="AC18" s="25">
-        <v>96.25</v>
+        <v>96.26</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.16</v>
+        <v>97.17</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.33</v>
+        <v>97.34</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.63</v>
+        <v>97.64</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.18</v>
+        <v>97.2</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.4</v>
+        <v>97.43</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.08</v>
+        <v>97.11</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.44</v>
+        <v>97.46</v>
       </c>
       <c r="AK18" s="25">
-        <v>96.96</v>
+        <v>96.98</v>
       </c>
       <c r="AL18" s="25">
-        <v>97.3</v>
+        <v>97.35</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.67</v>
+        <v>97.72</v>
       </c>
       <c r="AN18" s="25">
-        <v>97.97</v>
+        <v>98.02</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.34</v>
+        <v>97.38</v>
       </c>
       <c r="AP18" s="25">
-        <v>96.77</v>
+        <v>96.81</v>
       </c>
       <c r="AQ18" s="25">
-        <v>96.83</v>
+        <v>96.88</v>
       </c>
       <c r="AR18" s="25">
-        <v>97.46</v>
+        <v>97.5</v>
       </c>
       <c r="AS18" s="25">
-        <v>97.23</v>
+        <v>97.27</v>
       </c>
       <c r="AT18" s="25">
-        <v>97.22</v>
+        <v>97.26</v>
       </c>
       <c r="AU18" s="25">
-        <v>97.44</v>
+        <v>97.47</v>
       </c>
       <c r="AV18" s="25">
-        <v>98.27</v>
+        <v>98.3</v>
       </c>
       <c r="AW18" s="25">
-        <v>98.17</v>
+        <v>98.22</v>
       </c>
       <c r="AX18" s="25">
-        <v>98.41</v>
+        <v>98.38</v>
       </c>
       <c r="AY18" s="25">
-        <v>98.55</v>
+        <v>98.59</v>
       </c>
       <c r="AZ18" s="25">
-        <v>99.01</v>
+        <v>98.96</v>
       </c>
       <c r="BA18" s="25">
-        <v>98.67</v>
+        <v>98.35</v>
       </c>
       <c r="BB18" s="25">
-        <v>97.02</v>
+        <v>96.12</v>
       </c>
       <c r="BC18" s="25">
-        <v>96.21</v>
-      </c>
-      <c r="BD18" s="25"/>
-      <c r="BE18" s="25"/>
+        <v>94.52</v>
+      </c>
+      <c r="BD18" s="25">
+        <v>94.69</v>
+      </c>
+      <c r="BE18" s="25">
+        <v>95.96</v>
+      </c>
       <c r="BF18" s="25"/>
       <c r="BG18" s="25"/>
       <c r="BH18" s="25"/>
@@ -4131,25 +4185,25 @@
         <v>18</v>
       </c>
       <c r="C19" s="25">
-        <v>87.53</v>
+        <v>87.54</v>
       </c>
       <c r="D19" s="25">
-        <v>92.9</v>
+        <v>92.92</v>
       </c>
       <c r="E19" s="25">
-        <v>95.28</v>
+        <v>95.3</v>
       </c>
       <c r="F19" s="25">
-        <v>96.26</v>
+        <v>96.27</v>
       </c>
       <c r="G19" s="25">
-        <v>96.75</v>
+        <v>96.76</v>
       </c>
       <c r="H19" s="25">
-        <v>97.88</v>
+        <v>97.87</v>
       </c>
       <c r="I19" s="25">
-        <v>98.66</v>
+        <v>98.65</v>
       </c>
       <c r="J19" s="25">
         <v>98.88</v>
@@ -4158,31 +4212,31 @@
         <v>99.26</v>
       </c>
       <c r="L19" s="25">
-        <v>100.12</v>
+        <v>100.13</v>
       </c>
       <c r="M19" s="25">
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>99.14</v>
+        <v>99.13</v>
       </c>
       <c r="O19" s="25">
-        <v>94.33</v>
+        <v>94.31</v>
       </c>
       <c r="P19" s="25">
-        <v>91.72</v>
+        <v>91.7</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.76</v>
+        <v>89.74</v>
       </c>
       <c r="R19" s="25">
-        <v>89.06</v>
+        <v>89.05</v>
       </c>
       <c r="S19" s="25">
-        <v>89.75</v>
+        <v>89.73</v>
       </c>
       <c r="T19" s="25">
-        <v>90.85</v>
+        <v>90.84</v>
       </c>
       <c r="U19" s="25">
         <v>91.97</v>
@@ -4191,7 +4245,7 @@
         <v>92.56</v>
       </c>
       <c r="W19" s="25">
-        <v>93.04</v>
+        <v>93.05</v>
       </c>
       <c r="X19" s="25">
         <v>93.61</v>
@@ -4200,97 +4254,101 @@
         <v>95.14</v>
       </c>
       <c r="Z19" s="25">
-        <v>95.97</v>
+        <v>95.98</v>
       </c>
       <c r="AA19" s="25">
-        <v>96.64</v>
+        <v>96.66</v>
       </c>
       <c r="AB19" s="25">
-        <v>97.83</v>
+        <v>97.84</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.48</v>
+        <v>99.54</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.01</v>
+        <v>100.1</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.09</v>
+        <v>100.19</v>
       </c>
       <c r="AF19" s="25">
-        <v>100.56</v>
+        <v>100.68</v>
       </c>
       <c r="AG19" s="25">
-        <v>100.84</v>
+        <v>100.95</v>
       </c>
       <c r="AH19" s="25">
-        <v>101.12</v>
+        <v>101.24</v>
       </c>
       <c r="AI19" s="25">
-        <v>101.4</v>
+        <v>101.52</v>
       </c>
       <c r="AJ19" s="25">
-        <v>101.69</v>
+        <v>101.83</v>
       </c>
       <c r="AK19" s="25">
-        <v>102.27</v>
+        <v>102.41</v>
       </c>
       <c r="AL19" s="25">
-        <v>102.63</v>
+        <v>102.79</v>
       </c>
       <c r="AM19" s="25">
-        <v>103.05</v>
+        <v>103.2</v>
       </c>
       <c r="AN19" s="25">
-        <v>102.99</v>
+        <v>103.13</v>
       </c>
       <c r="AO19" s="25">
-        <v>103.06</v>
+        <v>103.21</v>
       </c>
       <c r="AP19" s="25">
-        <v>102.69</v>
+        <v>102.89</v>
       </c>
       <c r="AQ19" s="25">
-        <v>102.03</v>
+        <v>102.37</v>
       </c>
       <c r="AR19" s="25">
-        <v>102.38</v>
+        <v>102.93</v>
       </c>
       <c r="AS19" s="25">
-        <v>102.4</v>
+        <v>103.02</v>
       </c>
       <c r="AT19" s="25">
-        <v>102.35</v>
+        <v>102.91</v>
       </c>
       <c r="AU19" s="25">
-        <v>102.2</v>
+        <v>102.91</v>
       </c>
       <c r="AV19" s="25">
-        <v>102.2</v>
+        <v>103.08</v>
       </c>
       <c r="AW19" s="25">
-        <v>100.27</v>
+        <v>101.37</v>
       </c>
       <c r="AX19" s="25">
-        <v>101.09</v>
+        <v>102.34</v>
       </c>
       <c r="AY19" s="25">
-        <v>101.71</v>
+        <v>103.32</v>
       </c>
       <c r="AZ19" s="25">
-        <v>101.71</v>
+        <v>103.71</v>
       </c>
       <c r="BA19" s="25">
-        <v>99.89</v>
+        <v>102.72</v>
       </c>
       <c r="BB19" s="25">
-        <v>94.48</v>
+        <v>98.19</v>
       </c>
       <c r="BC19" s="25">
-        <v>90.7</v>
-      </c>
-      <c r="BD19" s="25"/>
-      <c r="BE19" s="25"/>
+        <v>93.18</v>
+      </c>
+      <c r="BD19" s="25">
+        <v>93.92</v>
+      </c>
+      <c r="BE19" s="25">
+        <v>96.22</v>
+      </c>
       <c r="BF19" s="25"/>
       <c r="BG19" s="25"/>
       <c r="BH19" s="25"/>
@@ -4321,16 +4379,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>91.65</v>
+        <v>91.66</v>
       </c>
       <c r="D20" s="25">
         <v>95.22</v>
       </c>
       <c r="E20" s="25">
-        <v>96.94</v>
+        <v>96.93</v>
       </c>
       <c r="F20" s="25">
-        <v>97.74</v>
+        <v>97.73</v>
       </c>
       <c r="G20" s="25">
         <v>97.88</v>
@@ -4342,7 +4400,7 @@
         <v>99.42</v>
       </c>
       <c r="J20" s="25">
-        <v>99.81</v>
+        <v>99.82</v>
       </c>
       <c r="K20" s="25">
         <v>99.8</v>
@@ -4357,19 +4415,19 @@
         <v>98.49</v>
       </c>
       <c r="O20" s="25">
-        <v>93.4</v>
+        <v>93.38</v>
       </c>
       <c r="P20" s="25">
         <v>89.98</v>
       </c>
       <c r="Q20" s="25">
-        <v>88.02</v>
+        <v>88.03</v>
       </c>
       <c r="R20" s="25">
-        <v>87.8</v>
+        <v>87.81</v>
       </c>
       <c r="S20" s="25">
-        <v>88.62</v>
+        <v>88.63</v>
       </c>
       <c r="T20" s="25">
         <v>89.11</v>
@@ -4378,109 +4436,113 @@
         <v>90.11</v>
       </c>
       <c r="V20" s="25">
-        <v>91.66</v>
+        <v>91.67</v>
       </c>
       <c r="W20" s="25">
         <v>91.7</v>
       </c>
       <c r="X20" s="25">
-        <v>91.94</v>
+        <v>91.95</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.43</v>
+        <v>92.44</v>
       </c>
       <c r="Z20" s="25">
-        <v>92.78</v>
+        <v>92.79</v>
       </c>
       <c r="AA20" s="25">
-        <v>92.64</v>
+        <v>92.67</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.35</v>
+        <v>92.36</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.39</v>
+        <v>93.4</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.07</v>
+        <v>94.1</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.1</v>
+        <v>94.14</v>
       </c>
       <c r="AF20" s="25">
-        <v>94.56</v>
+        <v>94.59</v>
       </c>
       <c r="AG20" s="25">
-        <v>94.7</v>
+        <v>94.74</v>
       </c>
       <c r="AH20" s="25">
-        <v>94.99</v>
+        <v>95.03</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.33</v>
+        <v>95.37</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.11</v>
+        <v>95.19</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.34</v>
+        <v>95.45</v>
       </c>
       <c r="AL20" s="25">
-        <v>95.79</v>
+        <v>95.81</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.16</v>
+        <v>96.12</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.28</v>
+        <v>96.25</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.34</v>
+        <v>96.31</v>
       </c>
       <c r="AP20" s="25">
-        <v>95.92</v>
+        <v>95.87</v>
       </c>
       <c r="AQ20" s="25">
         <v>95.73</v>
       </c>
       <c r="AR20" s="25">
-        <v>96.63</v>
+        <v>96.81</v>
       </c>
       <c r="AS20" s="25">
-        <v>96.87</v>
+        <v>97.08</v>
       </c>
       <c r="AT20" s="25">
-        <v>97.09</v>
+        <v>97.11</v>
       </c>
       <c r="AU20" s="25">
-        <v>97.32</v>
+        <v>97.38</v>
       </c>
       <c r="AV20" s="25">
-        <v>97.61</v>
+        <v>97.96</v>
       </c>
       <c r="AW20" s="25">
-        <v>96.48</v>
+        <v>97.37</v>
       </c>
       <c r="AX20" s="25">
-        <v>96.96</v>
+        <v>97.81</v>
       </c>
       <c r="AY20" s="25">
-        <v>97.54</v>
+        <v>98.36</v>
       </c>
       <c r="AZ20" s="25">
-        <v>97.92</v>
+        <v>98.65</v>
       </c>
       <c r="BA20" s="25">
-        <v>97.03</v>
+        <v>97.29</v>
       </c>
       <c r="BB20" s="25">
-        <v>94.13</v>
+        <v>94.11</v>
       </c>
       <c r="BC20" s="25">
-        <v>92.36</v>
-      </c>
-      <c r="BD20" s="25"/>
-      <c r="BE20" s="25"/>
+        <v>91.52</v>
+      </c>
+      <c r="BD20" s="25">
+        <v>92.19</v>
+      </c>
+      <c r="BE20" s="25">
+        <v>94.11</v>
+      </c>
       <c r="BF20" s="25"/>
       <c r="BG20" s="25"/>
       <c r="BH20" s="25"/>
@@ -4511,7 +4573,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="25">
-        <v>96.31</v>
+        <v>96.32</v>
       </c>
       <c r="D21" s="25">
         <v>97.26</v>
@@ -4523,19 +4585,19 @@
         <v>98.77</v>
       </c>
       <c r="G21" s="25">
-        <v>98.42</v>
+        <v>98.43</v>
       </c>
       <c r="H21" s="25">
-        <v>99.53</v>
+        <v>99.54</v>
       </c>
       <c r="I21" s="25">
         <v>100.36</v>
       </c>
       <c r="J21" s="25">
-        <v>99.3</v>
+        <v>99.31</v>
       </c>
       <c r="K21" s="25">
-        <v>98.73</v>
+        <v>98.74</v>
       </c>
       <c r="L21" s="25">
         <v>99.9</v>
@@ -4547,16 +4609,16 @@
         <v>99.47</v>
       </c>
       <c r="O21" s="25">
-        <v>98.01</v>
+        <v>98</v>
       </c>
       <c r="P21" s="25">
-        <v>96.18</v>
+        <v>96.16</v>
       </c>
       <c r="Q21" s="25">
-        <v>94.63</v>
+        <v>94.62</v>
       </c>
       <c r="R21" s="25">
-        <v>94.29</v>
+        <v>94.3</v>
       </c>
       <c r="S21" s="25">
         <v>94</v>
@@ -4565,7 +4627,7 @@
         <v>94.26</v>
       </c>
       <c r="U21" s="25">
-        <v>94.59</v>
+        <v>94.6</v>
       </c>
       <c r="V21" s="25">
         <v>95.36</v>
@@ -4577,7 +4639,7 @@
         <v>96.09</v>
       </c>
       <c r="Y21" s="25">
-        <v>96.48</v>
+        <v>96.49</v>
       </c>
       <c r="Z21" s="25">
         <v>96.23</v>
@@ -4592,85 +4654,89 @@
         <v>94.59</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.47</v>
+        <v>96.48</v>
       </c>
       <c r="AE21" s="25">
-        <v>96.65</v>
+        <v>96.66</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.26</v>
+        <v>97.29</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.03</v>
+        <v>97.06</v>
       </c>
       <c r="AH21" s="25">
+        <v>97.43</v>
+      </c>
+      <c r="AI21" s="25">
         <v>97.4</v>
       </c>
-      <c r="AI21" s="25">
-        <v>97.37</v>
-      </c>
       <c r="AJ21" s="25">
-        <v>97.78</v>
+        <v>97.81</v>
       </c>
       <c r="AK21" s="25">
-        <v>97.5</v>
+        <v>97.52</v>
       </c>
       <c r="AL21" s="25">
-        <v>97.6</v>
+        <v>97.64</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.1</v>
+        <v>98.15</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.44</v>
+        <v>98.49</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.41</v>
+        <v>98.45</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.03</v>
+        <v>98.06</v>
       </c>
       <c r="AQ21" s="25">
-        <v>98.6</v>
+        <v>98.61</v>
       </c>
       <c r="AR21" s="25">
-        <v>99.93</v>
+        <v>100.2</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.6</v>
+        <v>99.96</v>
       </c>
       <c r="AT21" s="25">
-        <v>98.89</v>
+        <v>98.98</v>
       </c>
       <c r="AU21" s="25">
-        <v>99.68</v>
+        <v>99.71</v>
       </c>
       <c r="AV21" s="25">
-        <v>100.8</v>
+        <v>101.02</v>
       </c>
       <c r="AW21" s="25">
-        <v>100.04</v>
+        <v>100.67</v>
       </c>
       <c r="AX21" s="25">
-        <v>99.83</v>
+        <v>100.44</v>
       </c>
       <c r="AY21" s="25">
-        <v>100.83</v>
+        <v>101.34</v>
       </c>
       <c r="AZ21" s="25">
-        <v>101.58</v>
+        <v>101.95</v>
       </c>
       <c r="BA21" s="25">
-        <v>101.25</v>
+        <v>101.08</v>
       </c>
       <c r="BB21" s="25">
-        <v>99.58</v>
+        <v>98.74</v>
       </c>
       <c r="BC21" s="25">
-        <v>99.02</v>
-      </c>
-      <c r="BD21" s="25"/>
-      <c r="BE21" s="25"/>
+        <v>97.08</v>
+      </c>
+      <c r="BD21" s="25">
+        <v>96.64</v>
+      </c>
+      <c r="BE21" s="25">
+        <v>98.59</v>
+      </c>
       <c r="BF21" s="25"/>
       <c r="BG21" s="25"/>
       <c r="BH21" s="25"/>
@@ -4704,13 +4770,13 @@
         <v>89.32</v>
       </c>
       <c r="D22" s="25">
-        <v>94.02</v>
+        <v>94.03</v>
       </c>
       <c r="E22" s="25">
-        <v>95.51</v>
+        <v>95.52</v>
       </c>
       <c r="F22" s="25">
-        <v>95.46</v>
+        <v>95.47</v>
       </c>
       <c r="G22" s="25">
         <v>95.57</v>
@@ -4725,10 +4791,10 @@
         <v>98.04</v>
       </c>
       <c r="K22" s="25">
-        <v>98.64</v>
+        <v>98.65</v>
       </c>
       <c r="L22" s="25">
-        <v>99.65</v>
+        <v>99.66</v>
       </c>
       <c r="M22" s="25">
         <v>100</v>
@@ -4737,7 +4803,7 @@
         <v>99.11</v>
       </c>
       <c r="O22" s="25">
-        <v>95.11</v>
+        <v>95.1</v>
       </c>
       <c r="P22" s="25">
         <v>91.62</v>
@@ -4746,121 +4812,125 @@
         <v>88.93</v>
       </c>
       <c r="R22" s="25">
-        <v>88.08</v>
+        <v>88.09</v>
       </c>
       <c r="S22" s="25">
         <v>88.44</v>
       </c>
       <c r="T22" s="25">
-        <v>89.59</v>
+        <v>89.62</v>
       </c>
       <c r="U22" s="25">
-        <v>90.77</v>
+        <v>90.81</v>
       </c>
       <c r="V22" s="25">
-        <v>91.71</v>
+        <v>91.74</v>
       </c>
       <c r="W22" s="25">
-        <v>92.73</v>
+        <v>92.76</v>
       </c>
       <c r="X22" s="25">
-        <v>93.31</v>
+        <v>93.35</v>
       </c>
       <c r="Y22" s="25">
-        <v>94.39</v>
+        <v>94.41</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.07</v>
+        <v>96.11</v>
       </c>
       <c r="AA22" s="25">
-        <v>96.98</v>
+        <v>97.01</v>
       </c>
       <c r="AB22" s="25">
-        <v>97.86</v>
+        <v>97.89</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.32</v>
+        <v>100.4</v>
       </c>
       <c r="AD22" s="25">
-        <v>100.84</v>
+        <v>100.98</v>
       </c>
       <c r="AE22" s="25">
-        <v>100.9</v>
+        <v>101.05</v>
       </c>
       <c r="AF22" s="25">
-        <v>101.7</v>
+        <v>101.84</v>
       </c>
       <c r="AG22" s="25">
-        <v>101.92</v>
+        <v>102.06</v>
       </c>
       <c r="AH22" s="25">
-        <v>102.28</v>
+        <v>102.41</v>
       </c>
       <c r="AI22" s="25">
-        <v>102.67</v>
+        <v>102.8</v>
       </c>
       <c r="AJ22" s="25">
-        <v>102.97</v>
+        <v>103.13</v>
       </c>
       <c r="AK22" s="25">
-        <v>103.32</v>
+        <v>103.49</v>
       </c>
       <c r="AL22" s="25">
+        <v>103.99</v>
+      </c>
+      <c r="AM22" s="25">
+        <v>104.71</v>
+      </c>
+      <c r="AN22" s="25">
+        <v>104.74</v>
+      </c>
+      <c r="AO22" s="25">
+        <v>104.77</v>
+      </c>
+      <c r="AP22" s="25">
         <v>103.8</v>
       </c>
-      <c r="AM22" s="25">
-        <v>104.49</v>
-      </c>
-      <c r="AN22" s="25">
-        <v>104.51</v>
-      </c>
-      <c r="AO22" s="25">
-        <v>104.52</v>
-      </c>
-      <c r="AP22" s="25">
-        <v>103.51</v>
-      </c>
       <c r="AQ22" s="25">
-        <v>103</v>
+        <v>103.43</v>
       </c>
       <c r="AR22" s="25">
-        <v>103.29</v>
+        <v>103.82</v>
       </c>
       <c r="AS22" s="25">
-        <v>103.7</v>
+        <v>104.27</v>
       </c>
       <c r="AT22" s="25">
-        <v>103.42</v>
+        <v>104.06</v>
       </c>
       <c r="AU22" s="25">
-        <v>103.57</v>
+        <v>104.41</v>
       </c>
       <c r="AV22" s="25">
-        <v>103.77</v>
+        <v>104.68</v>
       </c>
       <c r="AW22" s="25">
-        <v>104.11</v>
+        <v>105.06</v>
       </c>
       <c r="AX22" s="25">
-        <v>103.93</v>
+        <v>105.07</v>
       </c>
       <c r="AY22" s="25">
-        <v>103.62</v>
+        <v>105.23</v>
       </c>
       <c r="AZ22" s="25">
-        <v>103.12</v>
+        <v>105.18</v>
       </c>
       <c r="BA22" s="25">
-        <v>100.87</v>
+        <v>104.02</v>
       </c>
       <c r="BB22" s="25">
-        <v>95.24</v>
+        <v>99.24</v>
       </c>
       <c r="BC22" s="25">
-        <v>91.15</v>
-      </c>
-      <c r="BD22" s="25"/>
-      <c r="BE22" s="25"/>
+        <v>94.9</v>
+      </c>
+      <c r="BD22" s="25">
+        <v>95.1</v>
+      </c>
+      <c r="BE22" s="25">
+        <v>96.29</v>
+      </c>
       <c r="BF22" s="25"/>
       <c r="BG22" s="25"/>
       <c r="BH22" s="25"/>
@@ -4891,28 +4961,28 @@
         <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>95.56</v>
+        <v>95.57</v>
       </c>
       <c r="D23" s="25">
-        <v>98.76</v>
+        <v>98.75</v>
       </c>
       <c r="E23" s="25">
         <v>99.46</v>
       </c>
       <c r="F23" s="25">
-        <v>99.15</v>
+        <v>99.16</v>
       </c>
       <c r="G23" s="25">
-        <v>98.38</v>
+        <v>98.39</v>
       </c>
       <c r="H23" s="25">
-        <v>99.43</v>
+        <v>99.44</v>
       </c>
       <c r="I23" s="25">
-        <v>100.16</v>
+        <v>100.18</v>
       </c>
       <c r="J23" s="25">
-        <v>100.11</v>
+        <v>100.12</v>
       </c>
       <c r="K23" s="25">
         <v>100.33</v>
@@ -4930,25 +5000,25 @@
         <v>94.35</v>
       </c>
       <c r="P23" s="25">
-        <v>91.04</v>
+        <v>91.03</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.26</v>
+        <v>89.24</v>
       </c>
       <c r="R23" s="25">
-        <v>88.18</v>
+        <v>88.17</v>
       </c>
       <c r="S23" s="25">
-        <v>88.32</v>
+        <v>88.3</v>
       </c>
       <c r="T23" s="25">
-        <v>89.05</v>
+        <v>89.04</v>
       </c>
       <c r="U23" s="25">
-        <v>89.83</v>
+        <v>89.82</v>
       </c>
       <c r="V23" s="25">
-        <v>90.72</v>
+        <v>90.71</v>
       </c>
       <c r="W23" s="25">
         <v>91.03</v>
@@ -4960,97 +5030,101 @@
         <v>92.57</v>
       </c>
       <c r="Z23" s="25">
-        <v>93.73</v>
+        <v>93.72</v>
       </c>
       <c r="AA23" s="25">
-        <v>94.3</v>
+        <v>94.31</v>
       </c>
       <c r="AB23" s="25">
-        <v>93.91</v>
+        <v>93.89</v>
       </c>
       <c r="AC23" s="25">
         <v>95.2</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.63</v>
+        <v>96.66</v>
       </c>
       <c r="AE23" s="25">
-        <v>96.6</v>
+        <v>96.64</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.01</v>
+        <v>97.05</v>
       </c>
       <c r="AG23" s="25">
-        <v>97.58</v>
+        <v>97.62</v>
       </c>
       <c r="AH23" s="25">
-        <v>97.56</v>
+        <v>97.6</v>
       </c>
       <c r="AI23" s="25">
-        <v>97.77</v>
+        <v>97.8</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.13</v>
+        <v>98.17</v>
       </c>
       <c r="AK23" s="25">
-        <v>98.37</v>
+        <v>98.41</v>
       </c>
       <c r="AL23" s="25">
-        <v>98.64</v>
+        <v>98.68</v>
       </c>
       <c r="AM23" s="25">
-        <v>99.26</v>
+        <v>99.27</v>
       </c>
       <c r="AN23" s="25">
         <v>99.2</v>
       </c>
       <c r="AO23" s="25">
-        <v>99.15</v>
+        <v>99.18</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.78</v>
+        <v>98.81</v>
       </c>
       <c r="AQ23" s="25">
-        <v>98.91</v>
+        <v>98.94</v>
       </c>
       <c r="AR23" s="25">
-        <v>99.42</v>
+        <v>99.48</v>
       </c>
       <c r="AS23" s="25">
-        <v>99.67</v>
+        <v>99.75</v>
       </c>
       <c r="AT23" s="25">
-        <v>99.73</v>
+        <v>99.85</v>
       </c>
       <c r="AU23" s="25">
-        <v>99.93</v>
+        <v>100</v>
       </c>
       <c r="AV23" s="25">
-        <v>100.12</v>
+        <v>100.2</v>
       </c>
       <c r="AW23" s="25">
-        <v>100.14</v>
+        <v>100.2</v>
       </c>
       <c r="AX23" s="25">
-        <v>100.48</v>
+        <v>100.53</v>
       </c>
       <c r="AY23" s="25">
-        <v>101.14</v>
+        <v>101.23</v>
       </c>
       <c r="AZ23" s="25">
-        <v>101.24</v>
+        <v>101.35</v>
       </c>
       <c r="BA23" s="25">
-        <v>100.1</v>
+        <v>100.44</v>
       </c>
       <c r="BB23" s="25">
-        <v>96</v>
+        <v>96.48</v>
       </c>
       <c r="BC23" s="25">
-        <v>92.73</v>
-      </c>
-      <c r="BD23" s="25"/>
-      <c r="BE23" s="25"/>
+        <v>93.91</v>
+      </c>
+      <c r="BD23" s="25">
+        <v>94.85</v>
+      </c>
+      <c r="BE23" s="25">
+        <v>95.94</v>
+      </c>
       <c r="BF23" s="25"/>
       <c r="BG23" s="25"/>
       <c r="BH23" s="25"/>
@@ -5081,7 +5155,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="25">
-        <v>95.93</v>
+        <v>95.94</v>
       </c>
       <c r="D24" s="25">
         <v>97.04</v>
@@ -5090,19 +5164,19 @@
         <v>98.07</v>
       </c>
       <c r="F24" s="25">
-        <v>98.76</v>
+        <v>98.75</v>
       </c>
       <c r="G24" s="25">
         <v>98.98</v>
       </c>
       <c r="H24" s="25">
-        <v>99.7</v>
+        <v>99.69</v>
       </c>
       <c r="I24" s="25">
-        <v>100.44</v>
+        <v>100.43</v>
       </c>
       <c r="J24" s="25">
-        <v>99.79</v>
+        <v>99.78</v>
       </c>
       <c r="K24" s="25">
         <v>98.8</v>
@@ -5126,16 +5200,16 @@
         <v>94.79</v>
       </c>
       <c r="R24" s="25">
-        <v>94.93</v>
+        <v>94.94</v>
       </c>
       <c r="S24" s="25">
-        <v>94.79</v>
+        <v>94.81</v>
       </c>
       <c r="T24" s="25">
-        <v>95.22</v>
+        <v>95.23</v>
       </c>
       <c r="U24" s="25">
-        <v>95.73</v>
+        <v>95.74</v>
       </c>
       <c r="V24" s="25">
         <v>96.16</v>
@@ -5144,7 +5218,7 @@
         <v>96.44</v>
       </c>
       <c r="X24" s="25">
-        <v>96.63</v>
+        <v>96.64</v>
       </c>
       <c r="Y24" s="25">
         <v>97.56</v>
@@ -5156,91 +5230,95 @@
         <v>97.75</v>
       </c>
       <c r="AB24" s="25">
-        <v>97.35</v>
+        <v>97.34</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.69</v>
+        <v>98.7</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.37</v>
+        <v>99.38</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.86</v>
+        <v>98.85</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.68</v>
+        <v>98.71</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.33</v>
+        <v>99.38</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.37</v>
+        <v>99.39</v>
       </c>
       <c r="AI24" s="25">
         <v>99.51</v>
       </c>
       <c r="AJ24" s="25">
+        <v>99.41</v>
+      </c>
+      <c r="AK24" s="25">
+        <v>99.55</v>
+      </c>
+      <c r="AL24" s="25">
+        <v>99.34</v>
+      </c>
+      <c r="AM24" s="25">
+        <v>99.57</v>
+      </c>
+      <c r="AN24" s="25">
+        <v>99.7</v>
+      </c>
+      <c r="AO24" s="25">
+        <v>99.59</v>
+      </c>
+      <c r="AP24" s="25">
+        <v>99.18</v>
+      </c>
+      <c r="AQ24" s="25">
+        <v>98.65</v>
+      </c>
+      <c r="AR24" s="25">
+        <v>98.89</v>
+      </c>
+      <c r="AS24" s="25">
         <v>99.38</v>
       </c>
-      <c r="AK24" s="25">
-        <v>99.47</v>
-      </c>
-      <c r="AL24" s="25">
-        <v>99.18</v>
-      </c>
-      <c r="AM24" s="25">
-        <v>99.39</v>
-      </c>
-      <c r="AN24" s="25">
-        <v>99.53</v>
-      </c>
-      <c r="AO24" s="25">
-        <v>99.4</v>
-      </c>
-      <c r="AP24" s="25">
-        <v>98.96</v>
-      </c>
-      <c r="AQ24" s="25">
-        <v>98.36</v>
-      </c>
-      <c r="AR24" s="25">
-        <v>98.62</v>
-      </c>
-      <c r="AS24" s="25">
-        <v>99.07</v>
-      </c>
       <c r="AT24" s="25">
-        <v>98.97</v>
+        <v>99.24</v>
       </c>
       <c r="AU24" s="25">
-        <v>99.54</v>
+        <v>99.68</v>
       </c>
       <c r="AV24" s="25">
-        <v>100.18</v>
+        <v>100.3</v>
       </c>
       <c r="AW24" s="25">
         <v>100.52</v>
       </c>
       <c r="AX24" s="25">
-        <v>100.39</v>
+        <v>100.36</v>
       </c>
       <c r="AY24" s="25">
-        <v>101.33</v>
+        <v>101.32</v>
       </c>
       <c r="AZ24" s="25">
-        <v>102.2</v>
+        <v>102.17</v>
       </c>
       <c r="BA24" s="25">
-        <v>102.32</v>
+        <v>102.15</v>
       </c>
       <c r="BB24" s="25">
-        <v>100.81</v>
+        <v>100.03</v>
       </c>
       <c r="BC24" s="25">
-        <v>99.78</v>
-      </c>
-      <c r="BD24" s="25"/>
-      <c r="BE24" s="25"/>
+        <v>98.32</v>
+      </c>
+      <c r="BD24" s="25">
+        <v>98.01</v>
+      </c>
+      <c r="BE24" s="25">
+        <v>99.34</v>
+      </c>
       <c r="BF24" s="25"/>
       <c r="BG24" s="25"/>
       <c r="BH24" s="25"/>
@@ -5271,31 +5349,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="25">
-        <v>91.39</v>
+        <v>91.35</v>
       </c>
       <c r="D25" s="25">
-        <v>95.71</v>
+        <v>95.7</v>
       </c>
       <c r="E25" s="25">
-        <v>97.55</v>
+        <v>97.58</v>
       </c>
       <c r="F25" s="25">
-        <v>98.05</v>
+        <v>98.09</v>
       </c>
       <c r="G25" s="25">
-        <v>98.44</v>
+        <v>98.43</v>
       </c>
       <c r="H25" s="25">
-        <v>99.27</v>
+        <v>99.26</v>
       </c>
       <c r="I25" s="25">
-        <v>99.51</v>
+        <v>99.45</v>
       </c>
       <c r="J25" s="25">
-        <v>99.55</v>
+        <v>99.49</v>
       </c>
       <c r="K25" s="25">
-        <v>99.63</v>
+        <v>99.57</v>
       </c>
       <c r="L25" s="25">
         <v>99.71</v>
@@ -5307,130 +5385,134 @@
         <v>99.27</v>
       </c>
       <c r="O25" s="25">
-        <v>94.43</v>
+        <v>94.45</v>
       </c>
       <c r="P25" s="25">
-        <v>90.9</v>
+        <v>90.87</v>
       </c>
       <c r="Q25" s="25">
-        <v>88.32</v>
+        <v>88.26</v>
       </c>
       <c r="R25" s="25">
-        <v>87.39</v>
+        <v>87.36</v>
       </c>
       <c r="S25" s="25">
-        <v>87.66</v>
+        <v>87.65</v>
       </c>
       <c r="T25" s="25">
-        <v>88.46</v>
+        <v>88.43</v>
       </c>
       <c r="U25" s="25">
-        <v>89.23</v>
+        <v>89.2</v>
       </c>
       <c r="V25" s="25">
-        <v>89.58</v>
+        <v>89.56</v>
       </c>
       <c r="W25" s="25">
-        <v>90.26</v>
+        <v>90.23</v>
       </c>
       <c r="X25" s="25">
-        <v>90.64</v>
+        <v>90.63</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.58</v>
+        <v>91.53</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.53</v>
+        <v>92.49</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.21</v>
+        <v>93.23</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.34</v>
+        <v>94.38</v>
       </c>
       <c r="AC25" s="25">
-        <v>95.97</v>
+        <v>96.07</v>
       </c>
       <c r="AD25" s="25">
-        <v>96.37</v>
+        <v>96.56</v>
       </c>
       <c r="AE25" s="25">
-        <v>96.57</v>
+        <v>96.77</v>
       </c>
       <c r="AF25" s="25">
-        <v>96.82</v>
+        <v>97</v>
       </c>
       <c r="AG25" s="25">
-        <v>96.93</v>
+        <v>97.14</v>
       </c>
       <c r="AH25" s="25">
-        <v>97.05</v>
+        <v>97.27</v>
       </c>
       <c r="AI25" s="25">
-        <v>97.29</v>
+        <v>97.48</v>
       </c>
       <c r="AJ25" s="25">
-        <v>97.42</v>
+        <v>97.6</v>
       </c>
       <c r="AK25" s="25">
-        <v>97.65</v>
+        <v>97.85</v>
       </c>
       <c r="AL25" s="25">
-        <v>98.03</v>
+        <v>98.23</v>
       </c>
       <c r="AM25" s="25">
-        <v>98.45</v>
+        <v>98.65</v>
       </c>
       <c r="AN25" s="25">
-        <v>98.81</v>
+        <v>99.04</v>
       </c>
       <c r="AO25" s="25">
-        <v>99.06</v>
+        <v>99.3</v>
       </c>
       <c r="AP25" s="25">
-        <v>98.45</v>
+        <v>98.74</v>
       </c>
       <c r="AQ25" s="25">
-        <v>97.94</v>
+        <v>98.29</v>
       </c>
       <c r="AR25" s="25">
-        <v>97.65</v>
+        <v>98.02</v>
       </c>
       <c r="AS25" s="25">
-        <v>97.65</v>
+        <v>98.07</v>
       </c>
       <c r="AT25" s="25">
-        <v>97.45</v>
+        <v>97.98</v>
       </c>
       <c r="AU25" s="25">
-        <v>97.64</v>
+        <v>98.25</v>
       </c>
       <c r="AV25" s="25">
-        <v>98.41</v>
+        <v>99.05</v>
       </c>
       <c r="AW25" s="25">
-        <v>98.76</v>
+        <v>99.38</v>
       </c>
       <c r="AX25" s="25">
-        <v>98.84</v>
+        <v>99.63</v>
       </c>
       <c r="AY25" s="25">
-        <v>99.16</v>
+        <v>100.33</v>
       </c>
       <c r="AZ25" s="25">
-        <v>99.12</v>
+        <v>100.61</v>
       </c>
       <c r="BA25" s="25">
-        <v>97.61</v>
+        <v>99.87</v>
       </c>
       <c r="BB25" s="25">
-        <v>92.46</v>
+        <v>96.04</v>
       </c>
       <c r="BC25" s="25">
-        <v>89.47</v>
-      </c>
-      <c r="BD25" s="25"/>
-      <c r="BE25" s="25"/>
+        <v>92.12</v>
+      </c>
+      <c r="BD25" s="25">
+        <v>93.18</v>
+      </c>
+      <c r="BE25" s="25">
+        <v>94.31</v>
+      </c>
       <c r="BF25" s="25"/>
       <c r="BG25" s="25"/>
       <c r="BH25" s="25"/>
@@ -5461,76 +5543,76 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.85</v>
+        <v>94.84</v>
       </c>
       <c r="D26" s="25">
         <v>97.22</v>
       </c>
       <c r="E26" s="25">
-        <v>97.53</v>
+        <v>97.52</v>
       </c>
       <c r="F26" s="25">
-        <v>98.74</v>
+        <v>98.75</v>
       </c>
       <c r="G26" s="25">
+        <v>99.98</v>
+      </c>
+      <c r="H26" s="25">
+        <v>100.77</v>
+      </c>
+      <c r="I26" s="25">
+        <v>100.12</v>
+      </c>
+      <c r="J26" s="25">
+        <v>100.05</v>
+      </c>
+      <c r="K26" s="25">
+        <v>99.67</v>
+      </c>
+      <c r="L26" s="25">
         <v>100</v>
-      </c>
-      <c r="H26" s="25">
-        <v>100.78</v>
-      </c>
-      <c r="I26" s="25">
-        <v>100.15</v>
-      </c>
-      <c r="J26" s="25">
-        <v>100.06</v>
-      </c>
-      <c r="K26" s="25">
-        <v>99.69</v>
-      </c>
-      <c r="L26" s="25">
-        <v>100.03</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.8</v>
+        <v>98.79</v>
       </c>
       <c r="O26" s="25">
-        <v>95.12</v>
+        <v>95.08</v>
       </c>
       <c r="P26" s="25">
         <v>92.01</v>
       </c>
       <c r="Q26" s="25">
-        <v>89.17</v>
+        <v>89.12</v>
       </c>
       <c r="R26" s="25">
         <v>88.54</v>
       </c>
       <c r="S26" s="25">
-        <v>88.75</v>
+        <v>88.77</v>
       </c>
       <c r="T26" s="25">
-        <v>89.02</v>
+        <v>89.05</v>
       </c>
       <c r="U26" s="25">
         <v>89.61</v>
       </c>
       <c r="V26" s="25">
-        <v>89.47</v>
+        <v>89.46</v>
       </c>
       <c r="W26" s="25">
         <v>89.39</v>
       </c>
       <c r="X26" s="25">
-        <v>89.48</v>
+        <v>89.49</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.41</v>
+        <v>90.43</v>
       </c>
       <c r="Z26" s="25">
-        <v>91.59</v>
+        <v>91.61</v>
       </c>
       <c r="AA26" s="25">
         <v>92.35</v>
@@ -5539,88 +5621,92 @@
         <v>92.34</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.36</v>
+        <v>92.4</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.32</v>
+        <v>92.43</v>
       </c>
       <c r="AE26" s="25">
-        <v>92.35</v>
+        <v>92.43</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.41</v>
+        <v>92.51</v>
       </c>
       <c r="AG26" s="25">
-        <v>93</v>
+        <v>93.12</v>
       </c>
       <c r="AH26" s="25">
-        <v>93.41</v>
+        <v>93.53</v>
       </c>
       <c r="AI26" s="25">
-        <v>93.27</v>
+        <v>93.38</v>
       </c>
       <c r="AJ26" s="25">
-        <v>93.37</v>
+        <v>93.48</v>
       </c>
       <c r="AK26" s="25">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="AL26" s="25">
-        <v>93.96</v>
+        <v>94.06</v>
       </c>
       <c r="AM26" s="25">
+        <v>94.53</v>
+      </c>
+      <c r="AN26" s="25">
+        <v>94.75</v>
+      </c>
+      <c r="AO26" s="25">
         <v>94.43</v>
       </c>
-      <c r="AN26" s="25">
-        <v>94.66</v>
-      </c>
-      <c r="AO26" s="25">
-        <v>94.32</v>
-      </c>
       <c r="AP26" s="25">
-        <v>93.63</v>
+        <v>93.73</v>
       </c>
       <c r="AQ26" s="25">
-        <v>93.51</v>
+        <v>93.61</v>
       </c>
       <c r="AR26" s="25">
-        <v>93.5</v>
+        <v>93.58</v>
       </c>
       <c r="AS26" s="25">
-        <v>93.55</v>
+        <v>93.64</v>
       </c>
       <c r="AT26" s="25">
-        <v>93.26</v>
+        <v>93.42</v>
       </c>
       <c r="AU26" s="25">
-        <v>93.95</v>
+        <v>94.16</v>
       </c>
       <c r="AV26" s="25">
-        <v>93.93</v>
+        <v>94.14</v>
       </c>
       <c r="AW26" s="25">
-        <v>94.41</v>
+        <v>94.77</v>
       </c>
       <c r="AX26" s="25">
-        <v>95.19</v>
+        <v>95.67</v>
       </c>
       <c r="AY26" s="25">
-        <v>96.03</v>
+        <v>96.54</v>
       </c>
       <c r="AZ26" s="25">
-        <v>96.17</v>
+        <v>96.58</v>
       </c>
       <c r="BA26" s="25">
-        <v>95.47</v>
+        <v>96.08</v>
       </c>
       <c r="BB26" s="25">
-        <v>92.08</v>
+        <v>93.49</v>
       </c>
       <c r="BC26" s="25">
-        <v>90.4</v>
-      </c>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="25"/>
+        <v>91.19</v>
+      </c>
+      <c r="BD26" s="25">
+        <v>91.65</v>
+      </c>
+      <c r="BE26" s="25">
+        <v>92.26</v>
+      </c>
       <c r="BF26" s="25"/>
       <c r="BG26" s="25"/>
       <c r="BH26" s="25"/>
@@ -5651,31 +5737,31 @@
         <v>19</v>
       </c>
       <c r="C27" s="25">
-        <v>98.07</v>
+        <v>98.06</v>
       </c>
       <c r="D27" s="25">
-        <v>98.96</v>
+        <v>98.95</v>
       </c>
       <c r="E27" s="25">
-        <v>100.5</v>
+        <v>100.49</v>
       </c>
       <c r="F27" s="25">
+        <v>100.46</v>
+      </c>
+      <c r="G27" s="25">
+        <v>100.81</v>
+      </c>
+      <c r="H27" s="25">
+        <v>100.7</v>
+      </c>
+      <c r="I27" s="25">
+        <v>101.33</v>
+      </c>
+      <c r="J27" s="25">
         <v>100.47</v>
       </c>
-      <c r="G27" s="25">
-        <v>100.83</v>
-      </c>
-      <c r="H27" s="25">
-        <v>100.71</v>
-      </c>
-      <c r="I27" s="25">
-        <v>101.35</v>
-      </c>
-      <c r="J27" s="25">
-        <v>100.48</v>
-      </c>
       <c r="K27" s="25">
-        <v>98.47</v>
+        <v>98.46</v>
       </c>
       <c r="L27" s="25">
         <v>99.04</v>
@@ -5693,13 +5779,13 @@
         <v>95.88</v>
       </c>
       <c r="Q27" s="25">
-        <v>94.86</v>
+        <v>94.84</v>
       </c>
       <c r="R27" s="25">
-        <v>95.44</v>
+        <v>95.43</v>
       </c>
       <c r="S27" s="25">
-        <v>95.61</v>
+        <v>95.6</v>
       </c>
       <c r="T27" s="25">
         <v>94.94</v>
@@ -5708,109 +5794,113 @@
         <v>95.38</v>
       </c>
       <c r="V27" s="25">
-        <v>94.45</v>
+        <v>94.43</v>
       </c>
       <c r="W27" s="25">
-        <v>95.51</v>
+        <v>95.5</v>
       </c>
       <c r="X27" s="25">
-        <v>95.22</v>
+        <v>95.23</v>
       </c>
       <c r="Y27" s="25">
-        <v>96.84</v>
+        <v>96.86</v>
       </c>
       <c r="Z27" s="25">
         <v>95.44</v>
       </c>
       <c r="AA27" s="25">
-        <v>94.31</v>
+        <v>94.32</v>
       </c>
       <c r="AB27" s="25">
-        <v>93.66</v>
+        <v>93.68</v>
       </c>
       <c r="AC27" s="25">
-        <v>94.22</v>
+        <v>94.23</v>
       </c>
       <c r="AD27" s="25">
         <v>94.74</v>
       </c>
       <c r="AE27" s="25">
-        <v>95.44</v>
+        <v>95.45</v>
       </c>
       <c r="AF27" s="25">
+        <v>95.12</v>
+      </c>
+      <c r="AG27" s="25">
+        <v>96.1</v>
+      </c>
+      <c r="AH27" s="25">
         <v>95.1</v>
       </c>
-      <c r="AG27" s="25">
-        <v>96.06</v>
-      </c>
-      <c r="AH27" s="25">
-        <v>95.05</v>
-      </c>
       <c r="AI27" s="25">
-        <v>95.32</v>
+        <v>95.36</v>
       </c>
       <c r="AJ27" s="25">
-        <v>94.96</v>
+        <v>94.98</v>
       </c>
       <c r="AK27" s="25">
-        <v>94.91</v>
+        <v>94.92</v>
       </c>
       <c r="AL27" s="25">
-        <v>94.86</v>
+        <v>94.87</v>
       </c>
       <c r="AM27" s="25">
-        <v>95.09</v>
+        <v>95.11</v>
       </c>
       <c r="AN27" s="25">
-        <v>95.69</v>
+        <v>95.7</v>
       </c>
       <c r="AO27" s="25">
-        <v>95.69</v>
+        <v>95.7</v>
       </c>
       <c r="AP27" s="25">
-        <v>94.99</v>
+        <v>95.01</v>
       </c>
       <c r="AQ27" s="25">
-        <v>95.61</v>
+        <v>95.62</v>
       </c>
       <c r="AR27" s="25">
-        <v>96.11</v>
+        <v>96.12</v>
       </c>
       <c r="AS27" s="25">
-        <v>95.91</v>
+        <v>95.93</v>
       </c>
       <c r="AT27" s="25">
-        <v>95.07</v>
+        <v>95.1</v>
       </c>
       <c r="AU27" s="25">
-        <v>95.99</v>
+        <v>96.01</v>
       </c>
       <c r="AV27" s="25">
-        <v>96.78</v>
+        <v>96.79</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.1</v>
+        <v>98.11</v>
       </c>
       <c r="AX27" s="25">
-        <v>97.86</v>
+        <v>97.84</v>
       </c>
       <c r="AY27" s="25">
+        <v>98.35</v>
+      </c>
+      <c r="AZ27" s="25">
+        <v>99.15</v>
+      </c>
+      <c r="BA27" s="25">
+        <v>99.53</v>
+      </c>
+      <c r="BB27" s="25">
         <v>98.36</v>
       </c>
-      <c r="AZ27" s="25">
-        <v>99.24</v>
-      </c>
-      <c r="BA27" s="25">
-        <v>99.83</v>
-      </c>
-      <c r="BB27" s="25">
-        <v>98.8</v>
-      </c>
       <c r="BC27" s="25">
-        <v>98.66</v>
-      </c>
-      <c r="BD27" s="25"/>
-      <c r="BE27" s="25"/>
+        <v>96.24</v>
+      </c>
+      <c r="BD27" s="25">
+        <v>96.95</v>
+      </c>
+      <c r="BE27" s="25">
+        <v>98.29</v>
+      </c>
       <c r="BF27" s="25"/>
       <c r="BG27" s="25"/>
       <c r="BH27" s="25"/>
@@ -5841,34 +5931,34 @@
         <v>18</v>
       </c>
       <c r="C28" s="25">
-        <v>86.21</v>
+        <v>86.18</v>
       </c>
       <c r="D28" s="25">
-        <v>89.95</v>
+        <v>90.01</v>
       </c>
       <c r="E28" s="25">
-        <v>92.64</v>
+        <v>92.58</v>
       </c>
       <c r="F28" s="25">
-        <v>94</v>
+        <v>94.06</v>
       </c>
       <c r="G28" s="25">
         <v>95.27</v>
       </c>
       <c r="H28" s="25">
-        <v>96.48</v>
+        <v>96.49</v>
       </c>
       <c r="I28" s="25">
-        <v>97.55</v>
+        <v>97.53</v>
       </c>
       <c r="J28" s="25">
         <v>98.01</v>
       </c>
       <c r="K28" s="25">
-        <v>98.59</v>
+        <v>98.63</v>
       </c>
       <c r="L28" s="25">
-        <v>99.56</v>
+        <v>99.58</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
@@ -5877,130 +5967,134 @@
         <v>99</v>
       </c>
       <c r="O28" s="25">
-        <v>96.08</v>
+        <v>96.02</v>
       </c>
       <c r="P28" s="25">
         <v>92.87</v>
       </c>
       <c r="Q28" s="25">
-        <v>90.16</v>
+        <v>90.14</v>
       </c>
       <c r="R28" s="25">
-        <v>89.3</v>
+        <v>89.28</v>
       </c>
       <c r="S28" s="25">
-        <v>90.24</v>
+        <v>90.27</v>
       </c>
       <c r="T28" s="25">
-        <v>90.86</v>
+        <v>90.85</v>
       </c>
       <c r="U28" s="25">
-        <v>92.18</v>
+        <v>92.15</v>
       </c>
       <c r="V28" s="25">
-        <v>93.43</v>
+        <v>93.47</v>
       </c>
       <c r="W28" s="25">
-        <v>94.7</v>
+        <v>94.67</v>
       </c>
       <c r="X28" s="25">
-        <v>95.34</v>
+        <v>95.31</v>
       </c>
       <c r="Y28" s="25">
-        <v>96.54</v>
+        <v>96.55</v>
       </c>
       <c r="Z28" s="25">
-        <v>97.52</v>
+        <v>97.55</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.21</v>
+        <v>98.26</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.01</v>
+        <v>98.99</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.82</v>
+        <v>101.92</v>
       </c>
       <c r="AD28" s="25">
+        <v>102.28</v>
+      </c>
+      <c r="AE28" s="25">
         <v>102.2</v>
       </c>
-      <c r="AE28" s="25">
-        <v>102.09</v>
-      </c>
       <c r="AF28" s="25">
-        <v>102.2</v>
+        <v>102.37</v>
       </c>
       <c r="AG28" s="25">
-        <v>102.61</v>
+        <v>102.85</v>
       </c>
       <c r="AH28" s="25">
-        <v>103.01</v>
+        <v>103.17</v>
       </c>
       <c r="AI28" s="25">
-        <v>103.47</v>
+        <v>103.64</v>
       </c>
       <c r="AJ28" s="25">
-        <v>103.56</v>
+        <v>103.76</v>
       </c>
       <c r="AK28" s="25">
-        <v>103.94</v>
+        <v>104.18</v>
       </c>
       <c r="AL28" s="25">
-        <v>103.96</v>
+        <v>104.18</v>
       </c>
       <c r="AM28" s="25">
-        <v>104.57</v>
+        <v>104.83</v>
       </c>
       <c r="AN28" s="25">
-        <v>105.35</v>
+        <v>105.7</v>
       </c>
       <c r="AO28" s="25">
-        <v>105.23</v>
+        <v>105.67</v>
       </c>
       <c r="AP28" s="25">
-        <v>104.26</v>
+        <v>104.74</v>
       </c>
       <c r="AQ28" s="25">
-        <v>103.55</v>
+        <v>104.03</v>
       </c>
       <c r="AR28" s="25">
-        <v>103.7</v>
+        <v>104.19</v>
       </c>
       <c r="AS28" s="25">
-        <v>103.75</v>
+        <v>104.25</v>
       </c>
       <c r="AT28" s="25">
-        <v>104.08</v>
+        <v>104.65</v>
       </c>
       <c r="AU28" s="25">
-        <v>104.18</v>
+        <v>104.94</v>
       </c>
       <c r="AV28" s="25">
-        <v>104.2</v>
+        <v>105.13</v>
       </c>
       <c r="AW28" s="25">
-        <v>104.41</v>
+        <v>105.33</v>
       </c>
       <c r="AX28" s="25">
-        <v>104.5</v>
+        <v>105.5</v>
       </c>
       <c r="AY28" s="25">
-        <v>104.1</v>
+        <v>105.42</v>
       </c>
       <c r="AZ28" s="25">
-        <v>103.31</v>
+        <v>104.89</v>
       </c>
       <c r="BA28" s="25">
-        <v>100.7</v>
+        <v>103.28</v>
       </c>
       <c r="BB28" s="25">
-        <v>95.07</v>
+        <v>97.62</v>
       </c>
       <c r="BC28" s="25">
-        <v>89.4</v>
-      </c>
-      <c r="BD28" s="25"/>
-      <c r="BE28" s="25"/>
+        <v>92.55</v>
+      </c>
+      <c r="BD28" s="25">
+        <v>92.53</v>
+      </c>
+      <c r="BE28" s="25">
+        <v>93.74</v>
+      </c>
       <c r="BF28" s="25"/>
       <c r="BG28" s="25"/>
       <c r="BH28" s="25"/>
@@ -6031,166 +6125,170 @@
         <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>92.79</v>
+        <v>92.83</v>
       </c>
       <c r="D29" s="25">
-        <v>94.71</v>
+        <v>94.73</v>
       </c>
       <c r="E29" s="25">
-        <v>96.1</v>
+        <v>96.13</v>
       </c>
       <c r="F29" s="25">
-        <v>97.43</v>
+        <v>97.48</v>
       </c>
       <c r="G29" s="25">
-        <v>98.36</v>
+        <v>98.35</v>
       </c>
       <c r="H29" s="25">
-        <v>99.36</v>
+        <v>99.33</v>
       </c>
       <c r="I29" s="25">
         <v>99.72</v>
       </c>
       <c r="J29" s="25">
-        <v>99.82</v>
+        <v>99.8</v>
       </c>
       <c r="K29" s="25">
-        <v>100.02</v>
+        <v>100.01</v>
       </c>
       <c r="L29" s="25">
-        <v>99.88</v>
+        <v>99.87</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.51</v>
+        <v>98.54</v>
       </c>
       <c r="O29" s="25">
-        <v>94.28</v>
+        <v>94.34</v>
       </c>
       <c r="P29" s="25">
-        <v>91.58</v>
+        <v>91.61</v>
       </c>
       <c r="Q29" s="25">
-        <v>90.13</v>
+        <v>90.12</v>
       </c>
       <c r="R29" s="25">
-        <v>89.54</v>
+        <v>89.57</v>
       </c>
       <c r="S29" s="25">
-        <v>89.69</v>
+        <v>89.7</v>
       </c>
       <c r="T29" s="25">
         <v>90.32</v>
       </c>
       <c r="U29" s="25">
-        <v>91.16</v>
+        <v>91.14</v>
       </c>
       <c r="V29" s="25">
-        <v>92.55</v>
+        <v>92.54</v>
       </c>
       <c r="W29" s="25">
-        <v>92.99</v>
+        <v>93.01</v>
       </c>
       <c r="X29" s="25">
-        <v>93.11</v>
+        <v>93.1</v>
       </c>
       <c r="Y29" s="25">
-        <v>93.8</v>
+        <v>93.79</v>
       </c>
       <c r="Z29" s="25">
-        <v>94.41</v>
+        <v>94.38</v>
       </c>
       <c r="AA29" s="25">
-        <v>95.32</v>
+        <v>95.31</v>
       </c>
       <c r="AB29" s="25">
-        <v>95.76</v>
+        <v>95.75</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.4</v>
+        <v>96.43</v>
       </c>
       <c r="AD29" s="25">
-        <v>96.02</v>
+        <v>96</v>
       </c>
       <c r="AE29" s="25">
-        <v>95.05</v>
+        <v>95.04</v>
       </c>
       <c r="AF29" s="25">
-        <v>94.97</v>
+        <v>95</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.29</v>
+        <v>95.31</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.38</v>
+        <v>96.39</v>
       </c>
       <c r="AI29" s="25">
-        <v>96.92</v>
+        <v>96.94</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.15</v>
+        <v>97.17</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.07</v>
+        <v>97.09</v>
       </c>
       <c r="AL29" s="25">
         <v>97.25</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.26</v>
+        <v>97.27</v>
       </c>
       <c r="AN29" s="25">
-        <v>97.74</v>
+        <v>97.73</v>
       </c>
       <c r="AO29" s="25">
-        <v>97.68</v>
+        <v>97.67</v>
       </c>
       <c r="AP29" s="25">
         <v>97.23</v>
       </c>
       <c r="AQ29" s="25">
-        <v>96.74</v>
+        <v>96.73</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.93</v>
+        <v>96.95</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.41</v>
+        <v>97.44</v>
       </c>
       <c r="AT29" s="25">
-        <v>97.84</v>
+        <v>97.85</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.44</v>
+        <v>98.5</v>
       </c>
       <c r="AV29" s="25">
-        <v>98.84</v>
+        <v>98.98</v>
       </c>
       <c r="AW29" s="25">
-        <v>99.49</v>
+        <v>99.55</v>
       </c>
       <c r="AX29" s="25">
-        <v>99.52</v>
+        <v>99.48</v>
       </c>
       <c r="AY29" s="25">
-        <v>99.47</v>
+        <v>99.48</v>
       </c>
       <c r="AZ29" s="25">
-        <v>99.64</v>
+        <v>99.18</v>
       </c>
       <c r="BA29" s="25">
-        <v>99.09</v>
+        <v>98.53</v>
       </c>
       <c r="BB29" s="25">
-        <v>96.04</v>
+        <v>95.44</v>
       </c>
       <c r="BC29" s="25">
-        <v>93.32</v>
-      </c>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
+        <v>93.25</v>
+      </c>
+      <c r="BD29" s="25">
+        <v>93.07</v>
+      </c>
+      <c r="BE29" s="25">
+        <v>93.81</v>
+      </c>
       <c r="BF29" s="25"/>
       <c r="BG29" s="25"/>
       <c r="BH29" s="25"/>
@@ -6224,163 +6322,167 @@
         <v>95.38</v>
       </c>
       <c r="D30" s="25">
-        <v>95.76</v>
+        <v>95.77</v>
       </c>
       <c r="E30" s="25">
-        <v>95.96</v>
+        <v>96</v>
       </c>
       <c r="F30" s="25">
-        <v>96.95</v>
+        <v>96.99</v>
       </c>
       <c r="G30" s="25">
-        <v>97.48</v>
+        <v>97.51</v>
       </c>
       <c r="H30" s="25">
-        <v>99.81</v>
+        <v>99.85</v>
       </c>
       <c r="I30" s="25">
-        <v>100.08</v>
+        <v>100.1</v>
       </c>
       <c r="J30" s="25">
-        <v>98.53</v>
+        <v>98.54</v>
       </c>
       <c r="K30" s="25">
-        <v>97.95</v>
+        <v>97.97</v>
       </c>
       <c r="L30" s="25">
-        <v>99.02</v>
+        <v>99.05</v>
       </c>
       <c r="M30" s="25">
         <v>100</v>
       </c>
       <c r="N30" s="25">
-        <v>98.87</v>
+        <v>98.9</v>
       </c>
       <c r="O30" s="25">
-        <v>97.46</v>
+        <v>97.48</v>
       </c>
       <c r="P30" s="25">
-        <v>96.94</v>
+        <v>96.99</v>
       </c>
       <c r="Q30" s="25">
-        <v>95.94</v>
+        <v>95.97</v>
       </c>
       <c r="R30" s="25">
-        <v>95.64</v>
+        <v>95.67</v>
       </c>
       <c r="S30" s="25">
-        <v>95.81</v>
+        <v>95.85</v>
       </c>
       <c r="T30" s="25">
-        <v>96.22</v>
+        <v>96.25</v>
       </c>
       <c r="U30" s="25">
+        <v>96.43</v>
+      </c>
+      <c r="V30" s="25">
+        <v>96.65</v>
+      </c>
+      <c r="W30" s="25">
+        <v>97.25</v>
+      </c>
+      <c r="X30" s="25">
+        <v>97.41</v>
+      </c>
+      <c r="Y30" s="25">
         <v>96.39</v>
       </c>
-      <c r="V30" s="25">
-        <v>96.62</v>
-      </c>
-      <c r="W30" s="25">
-        <v>97.22</v>
-      </c>
-      <c r="X30" s="25">
-        <v>97.4</v>
-      </c>
-      <c r="Y30" s="25">
-        <v>96.35</v>
-      </c>
       <c r="Z30" s="25">
-        <v>97.46</v>
+        <v>97.5</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.14</v>
+        <v>98.17</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.8</v>
+        <v>96.84</v>
       </c>
       <c r="AC30" s="25">
-        <v>98.12</v>
+        <v>98.17</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.8</v>
+        <v>98.86</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.5</v>
+        <v>98.55</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.4</v>
+        <v>98.47</v>
       </c>
       <c r="AG30" s="25">
-        <v>98.93</v>
+        <v>99</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.43</v>
+        <v>100.51</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.13</v>
+        <v>100.2</v>
       </c>
       <c r="AJ30" s="25">
+        <v>100.53</v>
+      </c>
+      <c r="AK30" s="25">
         <v>100.49</v>
       </c>
-      <c r="AK30" s="25">
-        <v>100.43</v>
-      </c>
       <c r="AL30" s="25">
-        <v>99.68</v>
+        <v>99.78</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.39</v>
+        <v>99.5</v>
       </c>
       <c r="AN30" s="25">
-        <v>99.92</v>
+        <v>100.03</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.02</v>
+        <v>100.15</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.7</v>
+        <v>99.81</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.24</v>
+        <v>99.34</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.51</v>
+        <v>99.61</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.2</v>
+        <v>100.31</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.46</v>
+        <v>100.56</v>
       </c>
       <c r="AU30" s="25">
-        <v>101.2</v>
+        <v>101.27</v>
       </c>
       <c r="AV30" s="25">
-        <v>101.2</v>
+        <v>101.24</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.64</v>
+        <v>101.72</v>
       </c>
       <c r="AX30" s="25">
-        <v>101.97</v>
+        <v>102.03</v>
       </c>
       <c r="AY30" s="25">
-        <v>102.66</v>
+        <v>102.7</v>
       </c>
       <c r="AZ30" s="25">
-        <v>103.08</v>
+        <v>103.07</v>
       </c>
       <c r="BA30" s="25">
-        <v>102.72</v>
+        <v>102.44</v>
       </c>
       <c r="BB30" s="25">
-        <v>101.12</v>
+        <v>100.52</v>
       </c>
       <c r="BC30" s="25">
-        <v>100.88</v>
-      </c>
-      <c r="BD30" s="25"/>
-      <c r="BE30" s="25"/>
+        <v>99.86</v>
+      </c>
+      <c r="BD30" s="25">
+        <v>99.56</v>
+      </c>
+      <c r="BE30" s="25">
+        <v>99.94</v>
+      </c>
       <c r="BF30" s="25"/>
       <c r="BG30" s="25"/>
       <c r="BH30" s="25"/>
@@ -6411,34 +6513,34 @@
         <v>18</v>
       </c>
       <c r="C31" s="25">
-        <v>84.93</v>
+        <v>84.94</v>
       </c>
       <c r="D31" s="25">
-        <v>89.85</v>
+        <v>89.89</v>
       </c>
       <c r="E31" s="25">
-        <v>93.5</v>
+        <v>93.51</v>
       </c>
       <c r="F31" s="25">
         <v>94.65</v>
       </c>
       <c r="G31" s="25">
-        <v>95.27</v>
+        <v>95.28</v>
       </c>
       <c r="H31" s="25">
-        <v>96.98</v>
+        <v>96.99</v>
       </c>
       <c r="I31" s="25">
-        <v>98.03</v>
+        <v>98.08</v>
       </c>
       <c r="J31" s="25">
         <v>98.58</v>
       </c>
       <c r="K31" s="25">
-        <v>99.19</v>
+        <v>99.22</v>
       </c>
       <c r="L31" s="25">
-        <v>100.13</v>
+        <v>100.14</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
@@ -6447,130 +6549,134 @@
         <v>99.52</v>
       </c>
       <c r="O31" s="25">
-        <v>95.76</v>
+        <v>95.74</v>
       </c>
       <c r="P31" s="25">
-        <v>92.11</v>
+        <v>92.06</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.8</v>
+        <v>89.77</v>
       </c>
       <c r="R31" s="25">
-        <v>89.27</v>
+        <v>89.26</v>
       </c>
       <c r="S31" s="25">
-        <v>89.43</v>
+        <v>89.42</v>
       </c>
       <c r="T31" s="25">
-        <v>90.36</v>
+        <v>90.35</v>
       </c>
       <c r="U31" s="25">
-        <v>91.6</v>
+        <v>91.63</v>
       </c>
       <c r="V31" s="25">
         <v>92.18</v>
       </c>
       <c r="W31" s="25">
-        <v>92.65</v>
+        <v>92.66</v>
       </c>
       <c r="X31" s="25">
-        <v>93.81</v>
+        <v>93.85</v>
       </c>
       <c r="Y31" s="25">
-        <v>94.88</v>
+        <v>94.91</v>
       </c>
       <c r="Z31" s="25">
-        <v>95.71</v>
+        <v>95.73</v>
       </c>
       <c r="AA31" s="25">
-        <v>96.58</v>
+        <v>96.61</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.18</v>
+        <v>98.22</v>
       </c>
       <c r="AC31" s="25">
-        <v>100.63</v>
+        <v>100.74</v>
       </c>
       <c r="AD31" s="25">
-        <v>101.1</v>
+        <v>101.22</v>
       </c>
       <c r="AE31" s="25">
-        <v>100.9</v>
+        <v>101.02</v>
       </c>
       <c r="AF31" s="25">
-        <v>101.44</v>
+        <v>101.6</v>
       </c>
       <c r="AG31" s="25">
-        <v>102.18</v>
+        <v>102.34</v>
       </c>
       <c r="AH31" s="25">
-        <v>102.55</v>
+        <v>102.76</v>
       </c>
       <c r="AI31" s="25">
-        <v>102.57</v>
+        <v>102.78</v>
       </c>
       <c r="AJ31" s="25">
-        <v>102.77</v>
+        <v>103</v>
       </c>
       <c r="AK31" s="25">
+        <v>103.18</v>
+      </c>
+      <c r="AL31" s="25">
+        <v>103.7</v>
+      </c>
+      <c r="AM31" s="25">
+        <v>104.19</v>
+      </c>
+      <c r="AN31" s="25">
+        <v>104.12</v>
+      </c>
+      <c r="AO31" s="25">
+        <v>104.24</v>
+      </c>
+      <c r="AP31" s="25">
+        <v>103.23</v>
+      </c>
+      <c r="AQ31" s="25">
+        <v>102.43</v>
+      </c>
+      <c r="AR31" s="25">
+        <v>103.09</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>103.23</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>103.09</v>
+      </c>
+      <c r="AU31" s="25">
+        <v>102.51</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>102.86</v>
+      </c>
+      <c r="AW31" s="25">
         <v>102.96</v>
       </c>
-      <c r="AL31" s="25">
-        <v>103.45</v>
-      </c>
-      <c r="AM31" s="25">
-        <v>103.93</v>
-      </c>
-      <c r="AN31" s="25">
-        <v>103.84</v>
-      </c>
-      <c r="AO31" s="25">
-        <v>103.98</v>
-      </c>
-      <c r="AP31" s="25">
-        <v>102.89</v>
-      </c>
-      <c r="AQ31" s="25">
-        <v>101.9</v>
-      </c>
-      <c r="AR31" s="25">
-        <v>102.48</v>
-      </c>
-      <c r="AS31" s="25">
-        <v>102.57</v>
-      </c>
-      <c r="AT31" s="25">
-        <v>102.34</v>
-      </c>
-      <c r="AU31" s="25">
-        <v>101.61</v>
-      </c>
-      <c r="AV31" s="25">
-        <v>101.97</v>
-      </c>
-      <c r="AW31" s="25">
-        <v>101.95</v>
-      </c>
       <c r="AX31" s="25">
-        <v>102.23</v>
+        <v>103.32</v>
       </c>
       <c r="AY31" s="25">
-        <v>101.65</v>
+        <v>103.3</v>
       </c>
       <c r="AZ31" s="25">
-        <v>100.89</v>
+        <v>103.15</v>
       </c>
       <c r="BA31" s="25">
-        <v>98.67</v>
+        <v>101.99</v>
       </c>
       <c r="BB31" s="25">
-        <v>92.52</v>
+        <v>96.54</v>
       </c>
       <c r="BC31" s="25">
-        <v>84.78</v>
-      </c>
-      <c r="BD31" s="25"/>
-      <c r="BE31" s="25"/>
+        <v>90.5</v>
+      </c>
+      <c r="BD31" s="25">
+        <v>89.49</v>
+      </c>
+      <c r="BE31" s="25">
+        <v>90.29</v>
+      </c>
       <c r="BF31" s="25"/>
       <c r="BG31" s="25"/>
       <c r="BH31" s="25"/>
@@ -6604,163 +6710,167 @@
         <v>91.02</v>
       </c>
       <c r="D32" s="25">
-        <v>94.43</v>
+        <v>94.46</v>
       </c>
       <c r="E32" s="25">
         <v>96.95</v>
       </c>
       <c r="F32" s="25">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="G32" s="25">
-        <v>97.73</v>
+        <v>97.76</v>
       </c>
       <c r="H32" s="25">
         <v>99.39</v>
       </c>
       <c r="I32" s="25">
-        <v>99.8</v>
+        <v>99.81</v>
       </c>
       <c r="J32" s="25">
         <v>100.83</v>
       </c>
       <c r="K32" s="25">
-        <v>101.84</v>
+        <v>101.9</v>
       </c>
       <c r="L32" s="25">
-        <v>101.72</v>
+        <v>101.74</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>99</v>
+        <v>98.99</v>
       </c>
       <c r="O32" s="25">
-        <v>94.4</v>
+        <v>94.44</v>
       </c>
       <c r="P32" s="25">
-        <v>90.59</v>
+        <v>90.6</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.39</v>
+        <v>87.4</v>
       </c>
       <c r="R32" s="25">
-        <v>87.02</v>
+        <v>87.01</v>
       </c>
       <c r="S32" s="25">
-        <v>86.96</v>
+        <v>86.99</v>
       </c>
       <c r="T32" s="25">
-        <v>86.87</v>
+        <v>86.89</v>
       </c>
       <c r="U32" s="25">
-        <v>87.91</v>
+        <v>87.9</v>
       </c>
       <c r="V32" s="25">
-        <v>88.71</v>
+        <v>88.7</v>
       </c>
       <c r="W32" s="25">
         <v>89.73</v>
       </c>
       <c r="X32" s="25">
-        <v>90.36</v>
+        <v>90.35</v>
       </c>
       <c r="Y32" s="25">
-        <v>90.97</v>
+        <v>91</v>
       </c>
       <c r="Z32" s="25">
         <v>91.89</v>
       </c>
       <c r="AA32" s="25">
-        <v>92.13</v>
+        <v>92.18</v>
       </c>
       <c r="AB32" s="25">
-        <v>92.27</v>
+        <v>92.3</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.24</v>
+        <v>93.31</v>
       </c>
       <c r="AD32" s="25">
-        <v>94.81</v>
+        <v>94.93</v>
       </c>
       <c r="AE32" s="25">
-        <v>94.26</v>
+        <v>94.37</v>
       </c>
       <c r="AF32" s="25">
-        <v>94.65</v>
+        <v>94.79</v>
       </c>
       <c r="AG32" s="25">
-        <v>94.93</v>
+        <v>95.03</v>
       </c>
       <c r="AH32" s="25">
-        <v>95.18</v>
+        <v>95.3</v>
       </c>
       <c r="AI32" s="25">
-        <v>95.35</v>
+        <v>95.48</v>
       </c>
       <c r="AJ32" s="25">
-        <v>95.35</v>
+        <v>95.46</v>
       </c>
       <c r="AK32" s="25">
-        <v>94.72</v>
+        <v>94.84</v>
       </c>
       <c r="AL32" s="25">
-        <v>95.14</v>
+        <v>95.26</v>
       </c>
       <c r="AM32" s="25">
-        <v>95.71</v>
+        <v>95.84</v>
       </c>
       <c r="AN32" s="25">
-        <v>95.47</v>
+        <v>95.59</v>
       </c>
       <c r="AO32" s="25">
-        <v>95.34</v>
+        <v>95.48</v>
       </c>
       <c r="AP32" s="25">
-        <v>95.4</v>
+        <v>95.54</v>
       </c>
       <c r="AQ32" s="25">
-        <v>95.85</v>
+        <v>95.98</v>
       </c>
       <c r="AR32" s="25">
-        <v>96.54</v>
+        <v>96.68</v>
       </c>
       <c r="AS32" s="25">
-        <v>97.49</v>
+        <v>97.61</v>
       </c>
       <c r="AT32" s="25">
-        <v>97.01</v>
+        <v>97.1</v>
       </c>
       <c r="AU32" s="25">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="AV32" s="25">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="AW32" s="25">
-        <v>97.84</v>
+        <v>97.89</v>
       </c>
       <c r="AX32" s="25">
-        <v>97.92</v>
+        <v>97.98</v>
       </c>
       <c r="AY32" s="25">
-        <v>97.87</v>
+        <v>98.04</v>
       </c>
       <c r="AZ32" s="25">
-        <v>97.85</v>
+        <v>98.16</v>
       </c>
       <c r="BA32" s="25">
-        <v>96.91</v>
+        <v>96.93</v>
       </c>
       <c r="BB32" s="25">
-        <v>92.22</v>
+        <v>92.26</v>
       </c>
       <c r="BC32" s="25">
-        <v>88.64</v>
-      </c>
-      <c r="BD32" s="25"/>
-      <c r="BE32" s="25"/>
+        <v>89.25</v>
+      </c>
+      <c r="BD32" s="25">
+        <v>89.53</v>
+      </c>
+      <c r="BE32" s="25">
+        <v>90.16</v>
+      </c>
       <c r="BF32" s="25"/>
       <c r="BG32" s="25"/>
       <c r="BH32" s="25"/>
@@ -6791,25 +6901,25 @@
         <v>19</v>
       </c>
       <c r="C33" s="25">
-        <v>96.54</v>
+        <v>96.49</v>
       </c>
       <c r="D33" s="25">
-        <v>96.94</v>
+        <v>96.91</v>
       </c>
       <c r="E33" s="25">
-        <v>98.14</v>
+        <v>98.11</v>
       </c>
       <c r="F33" s="25">
-        <v>98.38</v>
+        <v>98.35</v>
       </c>
       <c r="G33" s="25">
-        <v>98.72</v>
+        <v>98.71</v>
       </c>
       <c r="H33" s="25">
-        <v>99.51</v>
+        <v>99.5</v>
       </c>
       <c r="I33" s="25">
-        <v>101.3</v>
+        <v>101.28</v>
       </c>
       <c r="J33" s="25">
         <v>99.42</v>
@@ -6818,139 +6928,143 @@
         <v>97.58</v>
       </c>
       <c r="L33" s="25">
-        <v>98.69</v>
+        <v>98.68</v>
       </c>
       <c r="M33" s="25">
         <v>100</v>
       </c>
       <c r="N33" s="25">
-        <v>99.26</v>
+        <v>99.25</v>
       </c>
       <c r="O33" s="25">
-        <v>97.64</v>
+        <v>97.63</v>
       </c>
       <c r="P33" s="25">
-        <v>96.37</v>
+        <v>96.35</v>
       </c>
       <c r="Q33" s="25">
-        <v>96.1</v>
+        <v>96.08</v>
       </c>
       <c r="R33" s="25">
-        <v>95.86</v>
+        <v>95.84</v>
       </c>
       <c r="S33" s="25">
-        <v>96.14</v>
+        <v>96.12</v>
       </c>
       <c r="T33" s="25">
-        <v>96.44</v>
+        <v>96.42</v>
       </c>
       <c r="U33" s="25">
-        <v>96.09</v>
+        <v>96.06</v>
       </c>
       <c r="V33" s="25">
-        <v>96.42</v>
+        <v>96.4</v>
       </c>
       <c r="W33" s="25">
-        <v>96.7</v>
+        <v>96.69</v>
       </c>
       <c r="X33" s="25">
         <v>96.41</v>
       </c>
       <c r="Y33" s="25">
-        <v>96.2</v>
+        <v>96.21</v>
       </c>
       <c r="Z33" s="25">
+        <v>96.07</v>
+      </c>
+      <c r="AA33" s="25">
+        <v>95.76</v>
+      </c>
+      <c r="AB33" s="25">
         <v>96.08</v>
-      </c>
-      <c r="AA33" s="25">
-        <v>95.77</v>
-      </c>
-      <c r="AB33" s="25">
-        <v>96.09</v>
       </c>
       <c r="AC33" s="25">
         <v>97.06</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.83</v>
+        <v>97.84</v>
       </c>
       <c r="AE33" s="25">
         <v>97.78</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.52</v>
+        <v>97.53</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.91</v>
+        <v>97.92</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.95</v>
+        <v>97.94</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.69</v>
+        <v>97.68</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.42</v>
+        <v>97.41</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.65</v>
+        <v>97.64</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.66</v>
+        <v>97.7</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.08</v>
+        <v>98.14</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.19</v>
+        <v>98.21</v>
       </c>
       <c r="AO33" s="25">
-        <v>98.05</v>
+        <v>97.97</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.81</v>
+        <v>97.77</v>
       </c>
       <c r="AQ33" s="25">
-        <v>97.77</v>
+        <v>97.82</v>
       </c>
       <c r="AR33" s="25">
-        <v>98.28</v>
+        <v>98.33</v>
       </c>
       <c r="AS33" s="25">
-        <v>98.44</v>
+        <v>98.47</v>
       </c>
       <c r="AT33" s="25">
-        <v>97.58</v>
+        <v>97.62</v>
       </c>
       <c r="AU33" s="25">
-        <v>97.83</v>
+        <v>97.87</v>
       </c>
       <c r="AV33" s="25">
-        <v>98.19</v>
+        <v>98.23</v>
       </c>
       <c r="AW33" s="25">
-        <v>98.22</v>
+        <v>98.32</v>
       </c>
       <c r="AX33" s="25">
-        <v>98.22</v>
+        <v>98.35</v>
       </c>
       <c r="AY33" s="25">
-        <v>98.72</v>
+        <v>98.9</v>
       </c>
       <c r="AZ33" s="25">
-        <v>98.91</v>
+        <v>98.9</v>
       </c>
       <c r="BA33" s="25">
-        <v>99.49</v>
+        <v>99.67</v>
       </c>
       <c r="BB33" s="25">
-        <v>97.69</v>
+        <v>97.97</v>
       </c>
       <c r="BC33" s="25">
-        <v>97.26</v>
-      </c>
-      <c r="BD33" s="25"/>
-      <c r="BE33" s="25"/>
+        <v>96.17</v>
+      </c>
+      <c r="BD33" s="25">
+        <v>95.41</v>
+      </c>
+      <c r="BE33" s="25">
+        <v>97.44</v>
+      </c>
       <c r="BF33" s="25"/>
       <c r="BG33" s="25"/>
       <c r="BH33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 16 January 2021\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 30 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADD81B-74B4-4B38-B6A5-63061C79A4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E535B9A3-109F-497B-BF20-CB714DEF08E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t xml:space="preserve">            Australian Bureau of Statistics</t>
   </si>
@@ -95,9 +95,6 @@
     <t>8. ACT</t>
   </si>
   <si>
-    <t>Payroll jobs index by Employment size</t>
-  </si>
-  <si>
     <t>Under 20 employees</t>
   </si>
   <si>
@@ -107,22 +104,28 @@
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 2 February 2021</t>
+    <t>Released at 11.30am (Canberra time) 16 February 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 16 January 2021</t>
+    <t>Week ending Saturday 30 January 2021</t>
   </si>
   <si>
     <t>Employment size</t>
   </si>
   <si>
-    <t>State or Territory</t>
+    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment size</t>
   </si>
   <si>
-    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+    <t>Payroll jobs Index by Employment size</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs Index by Employment size</t>
+  </si>
+  <si>
+    <t>State or Territory</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -351,10 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1125,12 +1124,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1190,24 +1189,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="30"/>
+      <c r="B19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1329,7 +1328,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1411,7 +1410,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1573,13 +1572,13 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+    <row r="5" spans="1:78" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1657,10 +1656,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1827,8 +1826,12 @@
       <c r="BE6" s="24">
         <v>44212</v>
       </c>
-      <c r="BF6" s="24"/>
-      <c r="BG6" s="24"/>
+      <c r="BF6" s="24">
+        <v>44219</v>
+      </c>
+      <c r="BG6" s="24">
+        <v>44226</v>
+      </c>
       <c r="BH6" s="24"/>
       <c r="BI6" s="24"/>
       <c r="BJ6" s="24"/>
@@ -1854,175 +1857,179 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="25">
-        <v>87.26</v>
+        <v>87.32</v>
       </c>
       <c r="D7" s="25">
-        <v>91.86</v>
+        <v>92.05</v>
       </c>
       <c r="E7" s="25">
-        <v>94.43</v>
+        <v>94.7</v>
       </c>
       <c r="F7" s="25">
-        <v>95.5</v>
+        <v>95.75</v>
       </c>
       <c r="G7" s="25">
-        <v>96.25</v>
+        <v>96.47</v>
       </c>
       <c r="H7" s="25">
-        <v>97.46</v>
+        <v>97.62</v>
       </c>
       <c r="I7" s="25">
-        <v>97.87</v>
+        <v>98.1</v>
       </c>
       <c r="J7" s="25">
-        <v>98.38</v>
+        <v>98.61</v>
       </c>
       <c r="K7" s="25">
-        <v>98.89</v>
+        <v>99.09</v>
       </c>
       <c r="L7" s="25">
-        <v>99.96</v>
+        <v>99.98</v>
       </c>
       <c r="M7" s="25">
         <v>100</v>
       </c>
       <c r="N7" s="25">
-        <v>99.16</v>
+        <v>98.82</v>
       </c>
       <c r="O7" s="25">
-        <v>95.11</v>
+        <v>93.88</v>
       </c>
       <c r="P7" s="25">
-        <v>91.74</v>
+        <v>90.54</v>
       </c>
       <c r="Q7" s="25">
-        <v>89.32</v>
+        <v>88.71</v>
       </c>
       <c r="R7" s="25">
-        <v>88.62</v>
+        <v>88.52</v>
       </c>
       <c r="S7" s="25">
-        <v>89.14</v>
+        <v>89.28</v>
       </c>
       <c r="T7" s="25">
-        <v>90.2</v>
+        <v>90.45</v>
       </c>
       <c r="U7" s="25">
-        <v>91.34</v>
+        <v>91.8</v>
       </c>
       <c r="V7" s="25">
-        <v>92.44</v>
+        <v>92.97</v>
       </c>
       <c r="W7" s="25">
-        <v>93</v>
+        <v>93.57</v>
       </c>
       <c r="X7" s="25">
-        <v>93.53</v>
+        <v>94.09</v>
       </c>
       <c r="Y7" s="25">
-        <v>94.81</v>
+        <v>95.39</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.36</v>
+        <v>95.91</v>
       </c>
       <c r="AA7" s="25">
-        <v>95.96</v>
+        <v>96.47</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.21</v>
+        <v>97.33</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="AE7" s="25">
-        <v>100.05</v>
+        <v>100.28</v>
       </c>
       <c r="AF7" s="25">
-        <v>100.39</v>
+        <v>100.7</v>
       </c>
       <c r="AG7" s="25">
-        <v>100.41</v>
+        <v>100.84</v>
       </c>
       <c r="AH7" s="25">
-        <v>100.36</v>
+        <v>100.88</v>
       </c>
       <c r="AI7" s="25">
-        <v>100.29</v>
+        <v>100.88</v>
       </c>
       <c r="AJ7" s="25">
-        <v>100.35</v>
+        <v>101.01</v>
       </c>
       <c r="AK7" s="25">
-        <v>100.58</v>
+        <v>101.27</v>
       </c>
       <c r="AL7" s="25">
-        <v>100.9</v>
+        <v>101.52</v>
       </c>
       <c r="AM7" s="25">
-        <v>101.47</v>
+        <v>102.06</v>
       </c>
       <c r="AN7" s="25">
-        <v>101.56</v>
+        <v>102.11</v>
       </c>
       <c r="AO7" s="25">
-        <v>101.52</v>
+        <v>101.84</v>
       </c>
       <c r="AP7" s="25">
-        <v>100.76</v>
+        <v>100.21</v>
       </c>
       <c r="AQ7" s="25">
-        <v>100.24</v>
+        <v>99.67</v>
       </c>
       <c r="AR7" s="25">
-        <v>100.45</v>
+        <v>100.37</v>
       </c>
       <c r="AS7" s="25">
-        <v>100.62</v>
+        <v>100.7</v>
       </c>
       <c r="AT7" s="25">
-        <v>100.75</v>
+        <v>100.93</v>
       </c>
       <c r="AU7" s="25">
-        <v>100.93</v>
+        <v>101.23</v>
       </c>
       <c r="AV7" s="25">
-        <v>101.48</v>
+        <v>101.93</v>
       </c>
       <c r="AW7" s="25">
-        <v>101.75</v>
+        <v>102.26</v>
       </c>
       <c r="AX7" s="25">
-        <v>102.03</v>
+        <v>102.53</v>
       </c>
       <c r="AY7" s="25">
-        <v>102.16</v>
+        <v>103</v>
       </c>
       <c r="AZ7" s="25">
-        <v>101.96</v>
+        <v>103</v>
       </c>
       <c r="BA7" s="25">
-        <v>100.79</v>
+        <v>101.59</v>
       </c>
       <c r="BB7" s="25">
-        <v>96.16</v>
+        <v>95.89</v>
       </c>
       <c r="BC7" s="25">
-        <v>90.94</v>
+        <v>90.67</v>
       </c>
       <c r="BD7" s="25">
-        <v>90.15</v>
+        <v>92.7</v>
       </c>
       <c r="BE7" s="25">
-        <v>91.57</v>
-      </c>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
+        <v>95.56</v>
+      </c>
+      <c r="BF7" s="25">
+        <v>95.52</v>
+      </c>
+      <c r="BG7" s="25">
+        <v>96.1</v>
+      </c>
       <c r="BH7" s="25"/>
       <c r="BI7" s="25"/>
       <c r="BJ7" s="25"/>
@@ -2051,172 +2058,176 @@
         <v>8</v>
       </c>
       <c r="C8" s="25">
-        <v>91.91</v>
+        <v>92.04</v>
       </c>
       <c r="D8" s="25">
-        <v>95.34</v>
+        <v>95.47</v>
       </c>
       <c r="E8" s="25">
-        <v>97.15</v>
+        <v>97.25</v>
       </c>
       <c r="F8" s="25">
-        <v>97.89</v>
+        <v>98.08</v>
       </c>
       <c r="G8" s="25">
-        <v>98.32</v>
+        <v>98.56</v>
       </c>
       <c r="H8" s="25">
-        <v>99.28</v>
+        <v>99.47</v>
       </c>
       <c r="I8" s="25">
-        <v>99.58</v>
+        <v>99.77</v>
       </c>
       <c r="J8" s="25">
-        <v>99.91</v>
+        <v>100.14</v>
       </c>
       <c r="K8" s="25">
-        <v>100.11</v>
+        <v>100.3</v>
       </c>
       <c r="L8" s="25">
-        <v>100.14</v>
+        <v>100.15</v>
       </c>
       <c r="M8" s="25">
         <v>100</v>
       </c>
       <c r="N8" s="25">
-        <v>98.66</v>
+        <v>98.24</v>
       </c>
       <c r="O8" s="25">
-        <v>93.96</v>
+        <v>92.82</v>
       </c>
       <c r="P8" s="25">
-        <v>90.33</v>
+        <v>89.41</v>
       </c>
       <c r="Q8" s="25">
-        <v>88.33</v>
+        <v>87.94</v>
       </c>
       <c r="R8" s="25">
-        <v>87.66</v>
+        <v>87.79</v>
       </c>
       <c r="S8" s="25">
-        <v>88.24</v>
+        <v>88.58</v>
       </c>
       <c r="T8" s="25">
-        <v>88.75</v>
+        <v>89.23</v>
       </c>
       <c r="U8" s="25">
-        <v>89.26</v>
+        <v>89.89</v>
       </c>
       <c r="V8" s="25">
-        <v>89.87</v>
+        <v>90.55</v>
       </c>
       <c r="W8" s="25">
-        <v>90.15</v>
+        <v>90.83</v>
       </c>
       <c r="X8" s="25">
-        <v>90.6</v>
+        <v>91.27</v>
       </c>
       <c r="Y8" s="25">
-        <v>91.43</v>
+        <v>92.17</v>
       </c>
       <c r="Z8" s="25">
-        <v>92.25</v>
+        <v>92.99</v>
       </c>
       <c r="AA8" s="25">
-        <v>92.57</v>
+        <v>93.23</v>
       </c>
       <c r="AB8" s="25">
-        <v>92.51</v>
+        <v>92.86</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.34</v>
+        <v>93.31</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.71</v>
+        <v>93.78</v>
       </c>
       <c r="AE8" s="25">
-        <v>93.72</v>
+        <v>94</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.14</v>
+        <v>94.48</v>
       </c>
       <c r="AG8" s="25">
-        <v>94.24</v>
+        <v>94.62</v>
       </c>
       <c r="AH8" s="25">
-        <v>93.99</v>
+        <v>94.41</v>
       </c>
       <c r="AI8" s="25">
-        <v>93.88</v>
+        <v>94.31</v>
       </c>
       <c r="AJ8" s="25">
-        <v>93.88</v>
+        <v>94.34</v>
       </c>
       <c r="AK8" s="25">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="AL8" s="25">
-        <v>94.32</v>
+        <v>94.83</v>
       </c>
       <c r="AM8" s="25">
-        <v>94.88</v>
+        <v>95.37</v>
       </c>
       <c r="AN8" s="25">
-        <v>95.01</v>
+        <v>95.5</v>
       </c>
       <c r="AO8" s="25">
-        <v>94.86</v>
+        <v>95.25</v>
       </c>
       <c r="AP8" s="25">
-        <v>94.31</v>
+        <v>94.39</v>
       </c>
       <c r="AQ8" s="25">
-        <v>94.32</v>
+        <v>94.35</v>
       </c>
       <c r="AR8" s="25">
-        <v>95.17</v>
+        <v>95.34</v>
       </c>
       <c r="AS8" s="25">
-        <v>95.54</v>
+        <v>95.77</v>
       </c>
       <c r="AT8" s="25">
-        <v>95.66</v>
+        <v>95.88</v>
       </c>
       <c r="AU8" s="25">
-        <v>96.15</v>
+        <v>96.22</v>
       </c>
       <c r="AV8" s="25">
-        <v>96.74</v>
+        <v>96.84</v>
       </c>
       <c r="AW8" s="25">
-        <v>97.04</v>
+        <v>97.11</v>
       </c>
       <c r="AX8" s="25">
-        <v>97.4</v>
+        <v>97.39</v>
       </c>
       <c r="AY8" s="25">
-        <v>97.81</v>
+        <v>97.87</v>
       </c>
       <c r="AZ8" s="25">
-        <v>98.03</v>
+        <v>97.88</v>
       </c>
       <c r="BA8" s="25">
-        <v>97.08</v>
+        <v>96.71</v>
       </c>
       <c r="BB8" s="25">
-        <v>93.31</v>
+        <v>92.05</v>
       </c>
       <c r="BC8" s="25">
-        <v>90.38</v>
+        <v>89.29</v>
       </c>
       <c r="BD8" s="25">
-        <v>91.09</v>
+        <v>91.83</v>
       </c>
       <c r="BE8" s="25">
-        <v>92.76</v>
-      </c>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="25"/>
+        <v>94.28</v>
+      </c>
+      <c r="BF8" s="25">
+        <v>94.8</v>
+      </c>
+      <c r="BG8" s="25">
+        <v>95.57</v>
+      </c>
       <c r="BH8" s="25"/>
       <c r="BI8" s="25"/>
       <c r="BJ8" s="25"/>
@@ -2242,175 +2253,179 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="25">
-        <v>96.07</v>
+        <v>96.2</v>
       </c>
       <c r="D9" s="25">
-        <v>96.95</v>
+        <v>97.04</v>
       </c>
       <c r="E9" s="25">
-        <v>97.74</v>
+        <v>97.82</v>
       </c>
       <c r="F9" s="25">
-        <v>98.46</v>
+        <v>98.5</v>
       </c>
       <c r="G9" s="25">
-        <v>98.84</v>
+        <v>98.86</v>
       </c>
       <c r="H9" s="25">
-        <v>99.16</v>
+        <v>99.09</v>
       </c>
       <c r="I9" s="25">
-        <v>99.74</v>
+        <v>99.62</v>
       </c>
       <c r="J9" s="25">
-        <v>99.53</v>
+        <v>99.51</v>
       </c>
       <c r="K9" s="25">
-        <v>99.1</v>
+        <v>99.11</v>
       </c>
       <c r="L9" s="25">
-        <v>99.65</v>
+        <v>99.63</v>
       </c>
       <c r="M9" s="25">
         <v>100</v>
       </c>
       <c r="N9" s="25">
-        <v>99.49</v>
+        <v>99.34</v>
       </c>
       <c r="O9" s="25">
-        <v>97.7</v>
+        <v>97.39</v>
       </c>
       <c r="P9" s="25">
+        <v>95.54</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>94.59</v>
+      </c>
+      <c r="R9" s="25">
+        <v>94.7</v>
+      </c>
+      <c r="S9" s="25">
+        <v>94.97</v>
+      </c>
+      <c r="T9" s="25">
+        <v>95.03</v>
+      </c>
+      <c r="U9" s="25">
+        <v>95.36</v>
+      </c>
+      <c r="V9" s="25">
+        <v>95.61</v>
+      </c>
+      <c r="W9" s="25">
         <v>95.86</v>
       </c>
-      <c r="Q9" s="25">
-        <v>94.74</v>
-      </c>
-      <c r="R9" s="25">
-        <v>94.62</v>
-      </c>
-      <c r="S9" s="25">
-        <v>94.8</v>
-      </c>
-      <c r="T9" s="25">
-        <v>94.83</v>
-      </c>
-      <c r="U9" s="25">
-        <v>95.13</v>
-      </c>
-      <c r="V9" s="25">
-        <v>95.35</v>
-      </c>
-      <c r="W9" s="25">
-        <v>95.56</v>
-      </c>
       <c r="X9" s="25">
-        <v>96.06</v>
+        <v>96.38</v>
       </c>
       <c r="Y9" s="25">
-        <v>96.84</v>
+        <v>97.19</v>
       </c>
       <c r="Z9" s="25">
-        <v>97.17</v>
+        <v>97.51</v>
       </c>
       <c r="AA9" s="25">
-        <v>97.01</v>
+        <v>97.13</v>
       </c>
       <c r="AB9" s="25">
-        <v>96.19</v>
+        <v>95.88</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.76</v>
+        <v>96.41</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.7</v>
+        <v>97.57</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.52</v>
+        <v>97.51</v>
       </c>
       <c r="AF9" s="25">
-        <v>97.37</v>
+        <v>97.44</v>
       </c>
       <c r="AG9" s="25">
-        <v>97.57</v>
+        <v>97.67</v>
       </c>
       <c r="AH9" s="25">
-        <v>97.55</v>
+        <v>97.68</v>
       </c>
       <c r="AI9" s="25">
-        <v>97.35</v>
+        <v>97.47</v>
       </c>
       <c r="AJ9" s="25">
-        <v>97.35</v>
+        <v>97.46</v>
       </c>
       <c r="AK9" s="25">
-        <v>97.29</v>
+        <v>97.48</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.34</v>
+        <v>97.45</v>
       </c>
       <c r="AM9" s="25">
-        <v>97.62</v>
+        <v>97.65</v>
       </c>
       <c r="AN9" s="25">
         <v>97.8</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.6</v>
+        <v>97.49</v>
       </c>
       <c r="AP9" s="25">
-        <v>96.94</v>
+        <v>96.8</v>
       </c>
       <c r="AQ9" s="25">
-        <v>96.97</v>
+        <v>96.9</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.61</v>
+        <v>97.46</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.68</v>
+        <v>97.52</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.71</v>
+        <v>97.66</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.05</v>
+        <v>97.79</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.72</v>
+        <v>98.37</v>
       </c>
       <c r="AW9" s="25">
-        <v>98.9</v>
+        <v>98.54</v>
       </c>
       <c r="AX9" s="25">
-        <v>99.04</v>
+        <v>98.67</v>
       </c>
       <c r="AY9" s="25">
-        <v>99.7</v>
+        <v>99.33</v>
       </c>
       <c r="AZ9" s="25">
-        <v>100.06</v>
+        <v>99.35</v>
       </c>
       <c r="BA9" s="25">
-        <v>99.79</v>
+        <v>98.87</v>
       </c>
       <c r="BB9" s="25">
-        <v>98.01</v>
+        <v>96.27</v>
       </c>
       <c r="BC9" s="25">
-        <v>96.46</v>
+        <v>94.18</v>
       </c>
       <c r="BD9" s="25">
-        <v>96.16</v>
+        <v>95.1</v>
       </c>
       <c r="BE9" s="25">
-        <v>97.42</v>
-      </c>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="25"/>
+        <v>96.74</v>
+      </c>
+      <c r="BF9" s="25">
+        <v>96.99</v>
+      </c>
+      <c r="BG9" s="25">
+        <v>98.23</v>
+      </c>
       <c r="BH9" s="25"/>
       <c r="BI9" s="25"/>
       <c r="BJ9" s="25"/>
@@ -2436,175 +2451,179 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="25">
-        <v>87</v>
+        <v>87.08</v>
       </c>
       <c r="D10" s="25">
-        <v>91.52</v>
+        <v>91.73</v>
       </c>
       <c r="E10" s="25">
-        <v>94.18</v>
+        <v>94.45</v>
       </c>
       <c r="F10" s="25">
-        <v>95.36</v>
+        <v>95.58</v>
       </c>
       <c r="G10" s="25">
-        <v>96.26</v>
+        <v>96.45</v>
       </c>
       <c r="H10" s="25">
-        <v>97.37</v>
+        <v>97.55</v>
       </c>
       <c r="I10" s="25">
-        <v>97.7</v>
+        <v>97.93</v>
       </c>
       <c r="J10" s="25">
-        <v>98.3</v>
+        <v>98.55</v>
       </c>
       <c r="K10" s="25">
-        <v>98.82</v>
+        <v>99</v>
       </c>
       <c r="L10" s="25">
-        <v>99.95</v>
+        <v>99.98</v>
       </c>
       <c r="M10" s="25">
         <v>100</v>
       </c>
       <c r="N10" s="25">
-        <v>99.04</v>
+        <v>98.76</v>
       </c>
       <c r="O10" s="25">
-        <v>95.15</v>
+        <v>94</v>
       </c>
       <c r="P10" s="25">
-        <v>91.83</v>
+        <v>90.73</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.49</v>
+        <v>88.91</v>
       </c>
       <c r="R10" s="25">
-        <v>88.79</v>
+        <v>88.64</v>
       </c>
       <c r="S10" s="25">
-        <v>89.24</v>
+        <v>89.29</v>
       </c>
       <c r="T10" s="25">
-        <v>90.32</v>
+        <v>90.48</v>
       </c>
       <c r="U10" s="25">
-        <v>91.74</v>
+        <v>92.12</v>
       </c>
       <c r="V10" s="25">
-        <v>93.57</v>
+        <v>94.02</v>
       </c>
       <c r="W10" s="25">
-        <v>94.05</v>
+        <v>94.57</v>
       </c>
       <c r="X10" s="25">
-        <v>94.64</v>
+        <v>95.14</v>
       </c>
       <c r="Y10" s="25">
-        <v>95.97</v>
+        <v>96.51</v>
       </c>
       <c r="Z10" s="25">
-        <v>95.69</v>
+        <v>96.19</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.05</v>
+        <v>96.52</v>
       </c>
       <c r="AB10" s="25">
         <v>97.38</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.35</v>
+        <v>99.91</v>
       </c>
       <c r="AD10" s="25">
-        <v>100.97</v>
+        <v>100.95</v>
       </c>
       <c r="AE10" s="25">
-        <v>100.93</v>
+        <v>101.18</v>
       </c>
       <c r="AF10" s="25">
-        <v>101.45</v>
+        <v>101.72</v>
       </c>
       <c r="AG10" s="25">
-        <v>101.44</v>
+        <v>101.86</v>
       </c>
       <c r="AH10" s="25">
-        <v>101.53</v>
+        <v>102.13</v>
       </c>
       <c r="AI10" s="25">
-        <v>101.67</v>
+        <v>102.34</v>
       </c>
       <c r="AJ10" s="25">
-        <v>101.92</v>
+        <v>102.62</v>
       </c>
       <c r="AK10" s="25">
-        <v>102.08</v>
+        <v>102.79</v>
       </c>
       <c r="AL10" s="25">
-        <v>102.53</v>
+        <v>103.15</v>
       </c>
       <c r="AM10" s="25">
-        <v>103.08</v>
+        <v>103.65</v>
       </c>
       <c r="AN10" s="25">
-        <v>103.14</v>
+        <v>103.68</v>
       </c>
       <c r="AO10" s="25">
-        <v>103.17</v>
+        <v>103.46</v>
       </c>
       <c r="AP10" s="25">
-        <v>102</v>
+        <v>101.22</v>
       </c>
       <c r="AQ10" s="25">
-        <v>100.94</v>
+        <v>100.09</v>
       </c>
       <c r="AR10" s="25">
-        <v>101.16</v>
+        <v>100.88</v>
       </c>
       <c r="AS10" s="25">
-        <v>101.28</v>
+        <v>101.18</v>
       </c>
       <c r="AT10" s="25">
-        <v>101.06</v>
+        <v>101.08</v>
       </c>
       <c r="AU10" s="25">
-        <v>101.01</v>
+        <v>101.34</v>
       </c>
       <c r="AV10" s="25">
-        <v>101.54</v>
+        <v>102.1</v>
       </c>
       <c r="AW10" s="25">
-        <v>102.02</v>
+        <v>102.66</v>
       </c>
       <c r="AX10" s="25">
-        <v>102.11</v>
+        <v>102.75</v>
       </c>
       <c r="AY10" s="25">
-        <v>101.95</v>
+        <v>103.07</v>
       </c>
       <c r="AZ10" s="25">
-        <v>101.45</v>
+        <v>102.91</v>
       </c>
       <c r="BA10" s="25">
-        <v>100.17</v>
+        <v>101.4</v>
       </c>
       <c r="BB10" s="25">
-        <v>95.46</v>
+        <v>95.53</v>
       </c>
       <c r="BC10" s="25">
-        <v>89.81</v>
+        <v>89.85</v>
       </c>
       <c r="BD10" s="25">
-        <v>88.25</v>
+        <v>91.22</v>
       </c>
       <c r="BE10" s="25">
-        <v>89.46</v>
-      </c>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
+        <v>93.89</v>
+      </c>
+      <c r="BF10" s="25">
+        <v>93.75</v>
+      </c>
+      <c r="BG10" s="25">
+        <v>94.39</v>
+      </c>
       <c r="BH10" s="25"/>
       <c r="BI10" s="25"/>
       <c r="BJ10" s="25"/>
@@ -2633,172 +2652,176 @@
         <v>8</v>
       </c>
       <c r="C11" s="25">
-        <v>92.15</v>
+        <v>92.33</v>
       </c>
       <c r="D11" s="25">
-        <v>95.55</v>
+        <v>95.77</v>
       </c>
       <c r="E11" s="25">
-        <v>97.32</v>
+        <v>97.62</v>
       </c>
       <c r="F11" s="25">
-        <v>98.1</v>
+        <v>98.35</v>
       </c>
       <c r="G11" s="25">
-        <v>98.64</v>
+        <v>98.86</v>
       </c>
       <c r="H11" s="25">
-        <v>99.36</v>
+        <v>99.56</v>
       </c>
       <c r="I11" s="25">
-        <v>99.57</v>
+        <v>99.77</v>
       </c>
       <c r="J11" s="25">
-        <v>100.01</v>
+        <v>100.2</v>
       </c>
       <c r="K11" s="25">
-        <v>100.18</v>
+        <v>100.31</v>
       </c>
       <c r="L11" s="25">
-        <v>100.11</v>
+        <v>100.09</v>
       </c>
       <c r="M11" s="25">
         <v>100</v>
       </c>
       <c r="N11" s="25">
-        <v>98.42</v>
+        <v>97.96</v>
       </c>
       <c r="O11" s="25">
-        <v>93.52</v>
+        <v>92.43</v>
       </c>
       <c r="P11" s="25">
-        <v>89.84</v>
+        <v>89.01</v>
       </c>
       <c r="Q11" s="25">
-        <v>88.01</v>
+        <v>87.61</v>
       </c>
       <c r="R11" s="25">
-        <v>87.63</v>
+        <v>87.7</v>
       </c>
       <c r="S11" s="25">
-        <v>88.04</v>
+        <v>88.31</v>
       </c>
       <c r="T11" s="25">
-        <v>88.56</v>
+        <v>88.98</v>
       </c>
       <c r="U11" s="25">
-        <v>89.05</v>
+        <v>89.65</v>
       </c>
       <c r="V11" s="25">
-        <v>89.54</v>
+        <v>90.18</v>
       </c>
       <c r="W11" s="25">
-        <v>89.98</v>
+        <v>90.64</v>
       </c>
       <c r="X11" s="25">
-        <v>90.52</v>
+        <v>91.17</v>
       </c>
       <c r="Y11" s="25">
-        <v>91.52</v>
+        <v>92.25</v>
       </c>
       <c r="Z11" s="25">
-        <v>92.22</v>
+        <v>92.94</v>
       </c>
       <c r="AA11" s="25">
-        <v>92.45</v>
+        <v>93.1</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.5</v>
+        <v>92.79</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.4</v>
+        <v>93.33</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.29</v>
+        <v>94.39</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.56</v>
+        <v>94.86</v>
       </c>
       <c r="AF11" s="25">
-        <v>94.93</v>
+        <v>95.23</v>
       </c>
       <c r="AG11" s="25">
-        <v>94.98</v>
+        <v>95.34</v>
       </c>
       <c r="AH11" s="25">
-        <v>94.98</v>
+        <v>95.39</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.11</v>
+        <v>95.53</v>
       </c>
       <c r="AJ11" s="25">
-        <v>95.39</v>
+        <v>95.79</v>
       </c>
       <c r="AK11" s="25">
-        <v>95.52</v>
+        <v>95.98</v>
       </c>
       <c r="AL11" s="25">
-        <v>95.73</v>
+        <v>96.16</v>
       </c>
       <c r="AM11" s="25">
-        <v>96.03</v>
+        <v>96.42</v>
       </c>
       <c r="AN11" s="25">
-        <v>96.1</v>
+        <v>96.5</v>
       </c>
       <c r="AO11" s="25">
-        <v>96.14</v>
+        <v>96.44</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.55</v>
+        <v>95.57</v>
       </c>
       <c r="AQ11" s="25">
         <v>95.19</v>
       </c>
       <c r="AR11" s="25">
-        <v>95.95</v>
+        <v>96.05</v>
       </c>
       <c r="AS11" s="25">
-        <v>96.24</v>
+        <v>96.42</v>
       </c>
       <c r="AT11" s="25">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="AU11" s="25">
-        <v>96.31</v>
+        <v>96.41</v>
       </c>
       <c r="AV11" s="25">
-        <v>96.8</v>
+        <v>96.96</v>
       </c>
       <c r="AW11" s="25">
-        <v>97.23</v>
+        <v>97.46</v>
       </c>
       <c r="AX11" s="25">
-        <v>97.45</v>
+        <v>97.56</v>
       </c>
       <c r="AY11" s="25">
-        <v>97.7</v>
+        <v>97.81</v>
       </c>
       <c r="AZ11" s="25">
-        <v>97.84</v>
+        <v>97.78</v>
       </c>
       <c r="BA11" s="25">
-        <v>96.94</v>
+        <v>96.69</v>
       </c>
       <c r="BB11" s="25">
-        <v>93.22</v>
+        <v>92.07</v>
       </c>
       <c r="BC11" s="25">
-        <v>89.97</v>
+        <v>89.1</v>
       </c>
       <c r="BD11" s="25">
-        <v>90.78</v>
+        <v>91.72</v>
       </c>
       <c r="BE11" s="25">
-        <v>92.54</v>
-      </c>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
+        <v>94.1</v>
+      </c>
+      <c r="BF11" s="25">
+        <v>94.58</v>
+      </c>
+      <c r="BG11" s="25">
+        <v>95.5</v>
+      </c>
       <c r="BH11" s="25"/>
       <c r="BI11" s="25"/>
       <c r="BJ11" s="25"/>
@@ -2824,115 +2847,115 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="25">
-        <v>96.27</v>
+        <v>96.32</v>
       </c>
       <c r="D12" s="25">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="E12" s="25">
-        <v>97.29</v>
+        <v>97.35</v>
       </c>
       <c r="F12" s="25">
-        <v>98.09</v>
+        <v>98.13</v>
       </c>
       <c r="G12" s="25">
-        <v>98.87</v>
+        <v>98.84</v>
       </c>
       <c r="H12" s="25">
-        <v>99.06</v>
+        <v>99.01</v>
       </c>
       <c r="I12" s="25">
-        <v>100</v>
+        <v>99.95</v>
       </c>
       <c r="J12" s="25">
-        <v>99.6</v>
+        <v>99.58</v>
       </c>
       <c r="K12" s="25">
-        <v>99.31</v>
+        <v>99.29</v>
       </c>
       <c r="L12" s="25">
-        <v>99.89</v>
+        <v>99.86</v>
       </c>
       <c r="M12" s="25">
         <v>100</v>
       </c>
       <c r="N12" s="25">
-        <v>99.61</v>
+        <v>99.47</v>
       </c>
       <c r="O12" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="P12" s="25">
+        <v>95.89</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>95.05</v>
+      </c>
+      <c r="R12" s="25">
+        <v>94.76</v>
+      </c>
+      <c r="S12" s="25">
+        <v>94.83</v>
+      </c>
+      <c r="T12" s="25">
+        <v>95.03</v>
+      </c>
+      <c r="U12" s="25">
+        <v>95.48</v>
+      </c>
+      <c r="V12" s="25">
+        <v>95.83</v>
+      </c>
+      <c r="W12" s="25">
+        <v>96.31</v>
+      </c>
+      <c r="X12" s="25">
+        <v>97.02</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>98.05</v>
+      </c>
+      <c r="Z12" s="25">
         <v>97.88</v>
       </c>
-      <c r="P12" s="25">
-        <v>96.17</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>95.2</v>
-      </c>
-      <c r="R12" s="25">
-        <v>94.7</v>
-      </c>
-      <c r="S12" s="25">
-        <v>94.65</v>
-      </c>
-      <c r="T12" s="25">
-        <v>94.82</v>
-      </c>
-      <c r="U12" s="25">
-        <v>95.29</v>
-      </c>
-      <c r="V12" s="25">
-        <v>95.59</v>
-      </c>
-      <c r="W12" s="25">
-        <v>95.99</v>
-      </c>
-      <c r="X12" s="25">
-        <v>96.69</v>
-      </c>
-      <c r="Y12" s="25">
-        <v>97.68</v>
-      </c>
-      <c r="Z12" s="25">
-        <v>97.52</v>
-      </c>
       <c r="AA12" s="25">
-        <v>97.49</v>
+        <v>97.55</v>
       </c>
       <c r="AB12" s="25">
-        <v>97.23</v>
+        <v>96.87</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.43</v>
+        <v>97.03</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.21</v>
+        <v>98.11</v>
       </c>
       <c r="AE12" s="25">
-        <v>97.82</v>
+        <v>97.93</v>
       </c>
       <c r="AF12" s="25">
-        <v>97.87</v>
+        <v>97.98</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.5</v>
+        <v>98.61</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.45</v>
+        <v>98.56</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.43</v>
+        <v>98.48</v>
       </c>
       <c r="AK12" s="25">
+        <v>98.63</v>
+      </c>
+      <c r="AL12" s="25">
         <v>98.46</v>
-      </c>
-      <c r="AL12" s="25">
-        <v>98.37</v>
       </c>
       <c r="AM12" s="25">
         <v>98.66</v>
@@ -2941,58 +2964,62 @@
         <v>98.91</v>
       </c>
       <c r="AO12" s="25">
-        <v>98.82</v>
+        <v>98.73</v>
       </c>
       <c r="AP12" s="25">
-        <v>97.92</v>
+        <v>97.79</v>
       </c>
       <c r="AQ12" s="25">
-        <v>97.66</v>
+        <v>97.6</v>
       </c>
       <c r="AR12" s="25">
-        <v>98.56</v>
+        <v>98.55</v>
       </c>
       <c r="AS12" s="25">
-        <v>98.66</v>
+        <v>98.6</v>
       </c>
       <c r="AT12" s="25">
-        <v>98.56</v>
+        <v>98.47</v>
       </c>
       <c r="AU12" s="25">
-        <v>98.82</v>
+        <v>98.44</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.24</v>
+        <v>98.95</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.64</v>
+        <v>99.33</v>
       </c>
       <c r="AX12" s="25">
-        <v>99.84</v>
+        <v>99.54</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.52</v>
+        <v>100.2</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.87</v>
+        <v>100.25</v>
       </c>
       <c r="BA12" s="25">
-        <v>100.69</v>
+        <v>99.94</v>
       </c>
       <c r="BB12" s="25">
-        <v>99.19</v>
+        <v>97.67</v>
       </c>
       <c r="BC12" s="25">
-        <v>97.58</v>
+        <v>94.95</v>
       </c>
       <c r="BD12" s="25">
-        <v>96.85</v>
+        <v>95.85</v>
       </c>
       <c r="BE12" s="25">
-        <v>97.91</v>
-      </c>
-      <c r="BF12" s="25"/>
-      <c r="BG12" s="25"/>
+        <v>97.59</v>
+      </c>
+      <c r="BF12" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="BG12" s="25">
+        <v>98.94</v>
+      </c>
       <c r="BH12" s="25"/>
       <c r="BI12" s="25"/>
       <c r="BJ12" s="25"/>
@@ -3018,175 +3045,179 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="25">
-        <v>87.36</v>
+        <v>87.38</v>
       </c>
       <c r="D13" s="25">
-        <v>90.74</v>
+        <v>90.86</v>
       </c>
       <c r="E13" s="25">
-        <v>93.46</v>
+        <v>93.69</v>
       </c>
       <c r="F13" s="25">
-        <v>94.85</v>
+        <v>95.16</v>
       </c>
       <c r="G13" s="25">
-        <v>95.77</v>
+        <v>96.04</v>
       </c>
       <c r="H13" s="25">
-        <v>97.3</v>
+        <v>97.48</v>
       </c>
       <c r="I13" s="25">
-        <v>97.78</v>
+        <v>98.06</v>
       </c>
       <c r="J13" s="25">
-        <v>98.3</v>
+        <v>98.56</v>
       </c>
       <c r="K13" s="25">
-        <v>98.84</v>
+        <v>99.08</v>
       </c>
       <c r="L13" s="25">
-        <v>100</v>
+        <v>100.03</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
       </c>
       <c r="N13" s="25">
-        <v>99.2</v>
+        <v>98.74</v>
       </c>
       <c r="O13" s="25">
-        <v>95.01</v>
+        <v>93.61</v>
       </c>
       <c r="P13" s="25">
-        <v>91.56</v>
+        <v>90.2</v>
       </c>
       <c r="Q13" s="25">
-        <v>89.21</v>
+        <v>88.51</v>
       </c>
       <c r="R13" s="25">
-        <v>88.47</v>
+        <v>88.3</v>
       </c>
       <c r="S13" s="25">
-        <v>88.98</v>
+        <v>89.07</v>
       </c>
       <c r="T13" s="25">
-        <v>90.02</v>
+        <v>90.25</v>
       </c>
       <c r="U13" s="25">
-        <v>90.84</v>
+        <v>91.3</v>
       </c>
       <c r="V13" s="25">
-        <v>91.38</v>
+        <v>91.95</v>
       </c>
       <c r="W13" s="25">
-        <v>91.79</v>
+        <v>92.38</v>
       </c>
       <c r="X13" s="25">
-        <v>92.39</v>
+        <v>92.99</v>
       </c>
       <c r="Y13" s="25">
-        <v>93.73</v>
+        <v>94.39</v>
       </c>
       <c r="Z13" s="25">
-        <v>94.52</v>
+        <v>95.15</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.14</v>
+        <v>95.72</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.35</v>
+        <v>96.54</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.74</v>
+        <v>98.37</v>
       </c>
       <c r="AD13" s="25">
         <v>98.43</v>
       </c>
       <c r="AE13" s="25">
-        <v>97.92</v>
+        <v>98.08</v>
       </c>
       <c r="AF13" s="25">
-        <v>97.81</v>
+        <v>98.19</v>
       </c>
       <c r="AG13" s="25">
-        <v>97.53</v>
+        <v>98.02</v>
       </c>
       <c r="AH13" s="25">
-        <v>96.69</v>
+        <v>97.2</v>
       </c>
       <c r="AI13" s="25">
+        <v>96.54</v>
+      </c>
+      <c r="AJ13" s="25">
+        <v>96.16</v>
+      </c>
+      <c r="AK13" s="25">
+        <v>96.43</v>
+      </c>
+      <c r="AL13" s="25">
+        <v>96.57</v>
+      </c>
+      <c r="AM13" s="25">
+        <v>96.98</v>
+      </c>
+      <c r="AN13" s="25">
+        <v>97.14</v>
+      </c>
+      <c r="AO13" s="25">
+        <v>97.02</v>
+      </c>
+      <c r="AP13" s="25">
         <v>95.95</v>
       </c>
-      <c r="AJ13" s="25">
-        <v>95.39</v>
-      </c>
-      <c r="AK13" s="25">
-        <v>95.56</v>
-      </c>
-      <c r="AL13" s="25">
-        <v>95.71</v>
-      </c>
-      <c r="AM13" s="25">
-        <v>96.15</v>
-      </c>
-      <c r="AN13" s="25">
-        <v>96.33</v>
-      </c>
-      <c r="AO13" s="25">
+      <c r="AQ13" s="25">
+        <v>95.73</v>
+      </c>
+      <c r="AR13" s="25">
         <v>96.4</v>
       </c>
-      <c r="AP13" s="25">
-        <v>96.03</v>
-      </c>
-      <c r="AQ13" s="25">
-        <v>95.92</v>
-      </c>
-      <c r="AR13" s="25">
-        <v>96.18</v>
-      </c>
       <c r="AS13" s="25">
-        <v>96.37</v>
+        <v>96.74</v>
       </c>
       <c r="AT13" s="25">
-        <v>97.23</v>
+        <v>97.65</v>
       </c>
       <c r="AU13" s="25">
-        <v>97.81</v>
+        <v>98.3</v>
       </c>
       <c r="AV13" s="25">
-        <v>98.79</v>
+        <v>99.35</v>
       </c>
       <c r="AW13" s="25">
-        <v>99.37</v>
+        <v>100.03</v>
       </c>
       <c r="AX13" s="25">
-        <v>99.93</v>
+        <v>100.58</v>
       </c>
       <c r="AY13" s="25">
-        <v>100.17</v>
+        <v>101.23</v>
       </c>
       <c r="AZ13" s="25">
-        <v>100.22</v>
+        <v>101.51</v>
       </c>
       <c r="BA13" s="25">
-        <v>99.42</v>
+        <v>100.56</v>
       </c>
       <c r="BB13" s="25">
-        <v>95.76</v>
+        <v>95.74</v>
       </c>
       <c r="BC13" s="25">
-        <v>90.95</v>
+        <v>90.89</v>
       </c>
       <c r="BD13" s="25">
-        <v>88.9</v>
+        <v>91.81</v>
       </c>
       <c r="BE13" s="25">
-        <v>89.67</v>
-      </c>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25"/>
+        <v>94.24</v>
+      </c>
+      <c r="BF13" s="25">
+        <v>93.9</v>
+      </c>
+      <c r="BG13" s="25">
+        <v>94.34</v>
+      </c>
       <c r="BH13" s="25"/>
       <c r="BI13" s="25"/>
       <c r="BJ13" s="25"/>
@@ -3215,172 +3246,176 @@
         <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.39</v>
+        <v>90.53</v>
       </c>
       <c r="D14" s="25">
-        <v>93.42</v>
+        <v>93.71</v>
       </c>
       <c r="E14" s="25">
-        <v>95.68</v>
+        <v>96.04</v>
       </c>
       <c r="F14" s="25">
-        <v>96.73</v>
+        <v>97.12</v>
       </c>
       <c r="G14" s="25">
-        <v>97.53</v>
+        <v>97.81</v>
       </c>
       <c r="H14" s="25">
-        <v>99.14</v>
+        <v>99.35</v>
       </c>
       <c r="I14" s="25">
-        <v>99.28</v>
+        <v>99.49</v>
       </c>
       <c r="J14" s="25">
-        <v>99.77</v>
+        <v>100.11</v>
       </c>
       <c r="K14" s="25">
-        <v>99.91</v>
+        <v>100.21</v>
       </c>
       <c r="L14" s="25">
-        <v>100.09</v>
+        <v>100.13</v>
       </c>
       <c r="M14" s="25">
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.8</v>
+        <v>98.31</v>
       </c>
       <c r="O14" s="25">
-        <v>94.27</v>
+        <v>93.07</v>
       </c>
       <c r="P14" s="25">
-        <v>90.55</v>
+        <v>89.53</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.62</v>
+        <v>88.2</v>
       </c>
       <c r="R14" s="25">
-        <v>87.47</v>
+        <v>87.6</v>
       </c>
       <c r="S14" s="25">
-        <v>87.99</v>
+        <v>88.32</v>
       </c>
       <c r="T14" s="25">
-        <v>88.62</v>
+        <v>89.13</v>
       </c>
       <c r="U14" s="25">
-        <v>88.75</v>
+        <v>89.41</v>
       </c>
       <c r="V14" s="25">
-        <v>89.21</v>
+        <v>89.96</v>
       </c>
       <c r="W14" s="25">
-        <v>89.39</v>
+        <v>90.18</v>
       </c>
       <c r="X14" s="25">
-        <v>89.9</v>
+        <v>90.71</v>
       </c>
       <c r="Y14" s="25">
-        <v>90.39</v>
+        <v>91.29</v>
       </c>
       <c r="Z14" s="25">
-        <v>91.23</v>
+        <v>92.07</v>
       </c>
       <c r="AA14" s="25">
-        <v>91.39</v>
+        <v>92.16</v>
       </c>
       <c r="AB14" s="25">
-        <v>91.33</v>
+        <v>91.84</v>
       </c>
       <c r="AC14" s="25">
-        <v>91.9</v>
+        <v>91.99</v>
       </c>
       <c r="AD14" s="25">
-        <v>90.92</v>
+        <v>90.94</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.28</v>
+        <v>90.47</v>
       </c>
       <c r="AF14" s="25">
-        <v>90.82</v>
+        <v>91.24</v>
       </c>
       <c r="AG14" s="25">
-        <v>90.75</v>
+        <v>91.25</v>
       </c>
       <c r="AH14" s="25">
-        <v>89.65</v>
+        <v>90.18</v>
       </c>
       <c r="AI14" s="25">
-        <v>88.88</v>
+        <v>89.37</v>
       </c>
       <c r="AJ14" s="25">
-        <v>88.31</v>
+        <v>88.93</v>
       </c>
       <c r="AK14" s="25">
-        <v>88.36</v>
+        <v>89.09</v>
       </c>
       <c r="AL14" s="25">
-        <v>88.84</v>
+        <v>89.59</v>
       </c>
       <c r="AM14" s="25">
-        <v>89.5</v>
+        <v>90.27</v>
       </c>
       <c r="AN14" s="25">
-        <v>89.77</v>
+        <v>90.53</v>
       </c>
       <c r="AO14" s="25">
-        <v>89.6</v>
+        <v>90.32</v>
       </c>
       <c r="AP14" s="25">
-        <v>88.98</v>
+        <v>89.44</v>
       </c>
       <c r="AQ14" s="25">
-        <v>89.18</v>
+        <v>89.55</v>
       </c>
       <c r="AR14" s="25">
-        <v>90.45</v>
+        <v>90.95</v>
       </c>
       <c r="AS14" s="25">
-        <v>91.05</v>
+        <v>91.61</v>
       </c>
       <c r="AT14" s="25">
-        <v>91.91</v>
+        <v>92.43</v>
       </c>
       <c r="AU14" s="25">
-        <v>92.74</v>
+        <v>93.08</v>
       </c>
       <c r="AV14" s="25">
-        <v>93.85</v>
+        <v>94.11</v>
       </c>
       <c r="AW14" s="25">
-        <v>94.27</v>
+        <v>94.43</v>
       </c>
       <c r="AX14" s="25">
-        <v>95.05</v>
+        <v>95.14</v>
       </c>
       <c r="AY14" s="25">
-        <v>95.46</v>
+        <v>95.84</v>
       </c>
       <c r="AZ14" s="25">
-        <v>96.08</v>
+        <v>96.25</v>
       </c>
       <c r="BA14" s="25">
-        <v>95.33</v>
+        <v>95.37</v>
       </c>
       <c r="BB14" s="25">
-        <v>91.78</v>
+        <v>90.62</v>
       </c>
       <c r="BC14" s="25">
-        <v>89.03</v>
+        <v>87.89</v>
       </c>
       <c r="BD14" s="25">
-        <v>88.98</v>
+        <v>89.8</v>
       </c>
       <c r="BE14" s="25">
-        <v>90.66</v>
-      </c>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
+        <v>92.23</v>
+      </c>
+      <c r="BF14" s="25">
+        <v>92.49</v>
+      </c>
+      <c r="BG14" s="25">
+        <v>93.03</v>
+      </c>
       <c r="BH14" s="25"/>
       <c r="BI14" s="25"/>
       <c r="BJ14" s="25"/>
@@ -3406,175 +3441,179 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="25">
-        <v>95.81</v>
+        <v>95.97</v>
       </c>
       <c r="D15" s="25">
-        <v>96.67</v>
+        <v>96.76</v>
       </c>
       <c r="E15" s="25">
-        <v>97.92</v>
+        <v>97.97</v>
       </c>
       <c r="F15" s="25">
-        <v>98.79</v>
+        <v>98.88</v>
       </c>
       <c r="G15" s="25">
-        <v>99.22</v>
+        <v>99.3</v>
       </c>
       <c r="H15" s="25">
-        <v>99.19</v>
+        <v>99.09</v>
       </c>
       <c r="I15" s="25">
-        <v>98.93</v>
+        <v>98.87</v>
       </c>
       <c r="J15" s="25">
-        <v>99.31</v>
+        <v>99.41</v>
       </c>
       <c r="K15" s="25">
-        <v>99.52</v>
+        <v>99.6</v>
       </c>
       <c r="L15" s="25">
-        <v>99.64</v>
+        <v>99.63</v>
       </c>
       <c r="M15" s="25">
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>98.87</v>
+        <v>98.67</v>
       </c>
       <c r="O15" s="25">
-        <v>97.3</v>
+        <v>96.94</v>
       </c>
       <c r="P15" s="25">
+        <v>94.73</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="R15" s="25">
+        <v>94.49</v>
+      </c>
+      <c r="S15" s="25">
+        <v>95.18</v>
+      </c>
+      <c r="T15" s="25">
+        <v>94.59</v>
+      </c>
+      <c r="U15" s="25">
+        <v>94.58</v>
+      </c>
+      <c r="V15" s="25">
+        <v>94.43</v>
+      </c>
+      <c r="W15" s="25">
+        <v>94.6</v>
+      </c>
+      <c r="X15" s="25">
+        <v>95.34</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>96.27</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>97.48</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>95.09</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>95.52</v>
+      </c>
+      <c r="AD15" s="25">
+        <v>96.8</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>96.86</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>96.18</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>96.28</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>95.9</v>
+      </c>
+      <c r="AI15" s="25">
+        <v>95.32</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>95.12</v>
+      </c>
+      <c r="AK15" s="25">
+        <v>95.29</v>
+      </c>
+      <c r="AL15" s="25">
+        <v>95.29</v>
+      </c>
+      <c r="AM15" s="25">
+        <v>95.34</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>95.27</v>
+      </c>
+      <c r="AO15" s="25">
         <v>95.07</v>
       </c>
-      <c r="Q15" s="25">
-        <v>94.24</v>
-      </c>
-      <c r="R15" s="25">
-        <v>94.38</v>
-      </c>
-      <c r="S15" s="25">
-        <v>94.96</v>
-      </c>
-      <c r="T15" s="25">
-        <v>94.41</v>
-      </c>
-      <c r="U15" s="25">
-        <v>94.34</v>
-      </c>
-      <c r="V15" s="25">
-        <v>94.17</v>
-      </c>
-      <c r="W15" s="25">
-        <v>94.26</v>
-      </c>
-      <c r="X15" s="25">
-        <v>95</v>
-      </c>
-      <c r="Y15" s="25">
-        <v>95.85</v>
-      </c>
-      <c r="Z15" s="25">
-        <v>97.13</v>
-      </c>
-      <c r="AA15" s="25">
-        <v>97.16</v>
-      </c>
-      <c r="AB15" s="25">
-        <v>95.3</v>
-      </c>
-      <c r="AC15" s="25">
-        <v>95.94</v>
-      </c>
-      <c r="AD15" s="25">
-        <v>97.08</v>
-      </c>
-      <c r="AE15" s="25">
-        <v>96.94</v>
-      </c>
-      <c r="AF15" s="25">
-        <v>96.07</v>
-      </c>
-      <c r="AG15" s="25">
-        <v>96.1</v>
-      </c>
-      <c r="AH15" s="25">
-        <v>95.68</v>
-      </c>
-      <c r="AI15" s="25">
-        <v>95.17</v>
-      </c>
-      <c r="AJ15" s="25">
-        <v>94.93</v>
-      </c>
-      <c r="AK15" s="25">
-        <v>94.98</v>
-      </c>
-      <c r="AL15" s="25">
-        <v>95.14</v>
-      </c>
-      <c r="AM15" s="25">
-        <v>95.3</v>
-      </c>
-      <c r="AN15" s="25">
-        <v>95.28</v>
-      </c>
-      <c r="AO15" s="25">
-        <v>95.16</v>
-      </c>
       <c r="AP15" s="25">
-        <v>94.51</v>
+        <v>94.49</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.02</v>
+        <v>95.08</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.39</v>
+        <v>95.07</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.49</v>
+        <v>95.22</v>
       </c>
       <c r="AT15" s="25">
-        <v>96.1</v>
+        <v>96.18</v>
       </c>
       <c r="AU15" s="25">
-        <v>96.5</v>
+        <v>96.31</v>
       </c>
       <c r="AV15" s="25">
-        <v>97.29</v>
+        <v>96.76</v>
       </c>
       <c r="AW15" s="25">
-        <v>97.39</v>
+        <v>96.95</v>
       </c>
       <c r="AX15" s="25">
-        <v>97.68</v>
+        <v>97.32</v>
       </c>
       <c r="AY15" s="25">
-        <v>98.5</v>
+        <v>98.11</v>
       </c>
       <c r="AZ15" s="25">
-        <v>98.57</v>
+        <v>97.94</v>
       </c>
       <c r="BA15" s="25">
-        <v>98.34</v>
+        <v>97.6</v>
       </c>
       <c r="BB15" s="25">
-        <v>96.79</v>
+        <v>94.99</v>
       </c>
       <c r="BC15" s="25">
-        <v>95.47</v>
+        <v>93.4</v>
       </c>
       <c r="BD15" s="25">
-        <v>95.38</v>
+        <v>94.32</v>
       </c>
       <c r="BE15" s="25">
-        <v>96.67</v>
-      </c>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
+        <v>95.91</v>
+      </c>
+      <c r="BF15" s="25">
+        <v>96.31</v>
+      </c>
+      <c r="BG15" s="25">
+        <v>97.31</v>
+      </c>
       <c r="BH15" s="25"/>
       <c r="BI15" s="25"/>
       <c r="BJ15" s="25"/>
@@ -3600,175 +3639,179 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="25">
-        <v>86.18</v>
+        <v>86.25</v>
       </c>
       <c r="D16" s="25">
-        <v>92.27</v>
+        <v>92.54</v>
       </c>
       <c r="E16" s="25">
-        <v>95.14</v>
+        <v>95.4</v>
       </c>
       <c r="F16" s="25">
-        <v>96.23</v>
+        <v>96.41</v>
       </c>
       <c r="G16" s="25">
-        <v>96.92</v>
+        <v>97.04</v>
       </c>
       <c r="H16" s="25">
-        <v>97.71</v>
+        <v>97.77</v>
       </c>
       <c r="I16" s="25">
-        <v>97.94</v>
+        <v>98.11</v>
       </c>
       <c r="J16" s="25">
-        <v>98.5</v>
+        <v>98.69</v>
       </c>
       <c r="K16" s="25">
-        <v>99.01</v>
+        <v>99.18</v>
       </c>
       <c r="L16" s="25">
-        <v>100.03</v>
+        <v>100.08</v>
       </c>
       <c r="M16" s="25">
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>99.3</v>
+        <v>98.96</v>
       </c>
       <c r="O16" s="25">
-        <v>95.44</v>
+        <v>94.18</v>
       </c>
       <c r="P16" s="25">
-        <v>91.95</v>
+        <v>90.78</v>
       </c>
       <c r="Q16" s="25">
-        <v>89.29</v>
+        <v>88.75</v>
       </c>
       <c r="R16" s="25">
-        <v>88.77</v>
+        <v>88.73</v>
       </c>
       <c r="S16" s="25">
-        <v>89.47</v>
+        <v>89.69</v>
       </c>
       <c r="T16" s="25">
-        <v>90.51</v>
+        <v>90.81</v>
       </c>
       <c r="U16" s="25">
-        <v>91.63</v>
+        <v>92.1</v>
       </c>
       <c r="V16" s="25">
-        <v>92.55</v>
+        <v>93.1</v>
       </c>
       <c r="W16" s="25">
-        <v>93.22</v>
+        <v>93.77</v>
       </c>
       <c r="X16" s="25">
-        <v>93.49</v>
+        <v>94.03</v>
       </c>
       <c r="Y16" s="25">
-        <v>94.68</v>
+        <v>95.19</v>
       </c>
       <c r="Z16" s="25">
-        <v>95.56</v>
+        <v>96.04</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.32</v>
+        <v>96.74</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.69</v>
+        <v>97.84</v>
       </c>
       <c r="AC16" s="25">
-        <v>100.08</v>
+        <v>99.68</v>
       </c>
       <c r="AD16" s="25">
-        <v>100.65</v>
+        <v>100.63</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.05</v>
+        <v>101.27</v>
       </c>
       <c r="AF16" s="25">
-        <v>101.42</v>
+        <v>101.69</v>
       </c>
       <c r="AG16" s="25">
-        <v>101.65</v>
+        <v>101.99</v>
       </c>
       <c r="AH16" s="25">
-        <v>102</v>
+        <v>102.39</v>
       </c>
       <c r="AI16" s="25">
-        <v>102.08</v>
+        <v>102.54</v>
       </c>
       <c r="AJ16" s="25">
-        <v>102.41</v>
+        <v>102.9</v>
       </c>
       <c r="AK16" s="25">
-        <v>102.65</v>
+        <v>103.12</v>
       </c>
       <c r="AL16" s="25">
-        <v>102.88</v>
+        <v>103.28</v>
       </c>
       <c r="AM16" s="25">
-        <v>103.65</v>
+        <v>104.05</v>
       </c>
       <c r="AN16" s="25">
-        <v>103.67</v>
+        <v>104.04</v>
       </c>
       <c r="AO16" s="25">
-        <v>103.27</v>
+        <v>103.38</v>
       </c>
       <c r="AP16" s="25">
-        <v>102.66</v>
+        <v>101.96</v>
       </c>
       <c r="AQ16" s="25">
-        <v>102.44</v>
+        <v>101.89</v>
       </c>
       <c r="AR16" s="25">
-        <v>102.36</v>
+        <v>102.3</v>
       </c>
       <c r="AS16" s="25">
-        <v>102.48</v>
+        <v>102.53</v>
       </c>
       <c r="AT16" s="25">
-        <v>102.51</v>
+        <v>102.58</v>
       </c>
       <c r="AU16" s="25">
-        <v>102.57</v>
+        <v>102.67</v>
       </c>
       <c r="AV16" s="25">
-        <v>102.84</v>
+        <v>103.09</v>
       </c>
       <c r="AW16" s="25">
-        <v>102.92</v>
+        <v>103.26</v>
       </c>
       <c r="AX16" s="25">
-        <v>103.07</v>
+        <v>103.36</v>
       </c>
       <c r="AY16" s="25">
-        <v>103.21</v>
+        <v>103.61</v>
       </c>
       <c r="AZ16" s="25">
-        <v>102.86</v>
+        <v>103.36</v>
       </c>
       <c r="BA16" s="25">
-        <v>101.28</v>
+        <v>101.57</v>
       </c>
       <c r="BB16" s="25">
-        <v>95.54</v>
+        <v>94.97</v>
       </c>
       <c r="BC16" s="25">
-        <v>89.87</v>
+        <v>89.45</v>
       </c>
       <c r="BD16" s="25">
-        <v>90.88</v>
+        <v>92.82</v>
       </c>
       <c r="BE16" s="25">
-        <v>93.46</v>
-      </c>
-      <c r="BF16" s="25"/>
-      <c r="BG16" s="25"/>
+        <v>96.57</v>
+      </c>
+      <c r="BF16" s="25">
+        <v>97.12</v>
+      </c>
+      <c r="BG16" s="25">
+        <v>98.06</v>
+      </c>
       <c r="BH16" s="25"/>
       <c r="BI16" s="25"/>
       <c r="BJ16" s="25"/>
@@ -3797,172 +3840,176 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.55</v>
+        <v>91.67</v>
       </c>
       <c r="D17" s="25">
-        <v>95.92</v>
+        <v>96.16</v>
       </c>
       <c r="E17" s="25">
-        <v>97.89</v>
+        <v>98.15</v>
       </c>
       <c r="F17" s="25">
-        <v>98.6</v>
+        <v>98.78</v>
       </c>
       <c r="G17" s="25">
-        <v>98.95</v>
+        <v>99.07</v>
       </c>
       <c r="H17" s="25">
-        <v>99.23</v>
+        <v>99.29</v>
       </c>
       <c r="I17" s="25">
-        <v>99.68</v>
+        <v>99.82</v>
       </c>
       <c r="J17" s="25">
-        <v>99.79</v>
+        <v>99.96</v>
       </c>
       <c r="K17" s="25">
-        <v>100.2</v>
+        <v>100.34</v>
       </c>
       <c r="L17" s="25">
-        <v>100.28</v>
+        <v>100.25</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
       </c>
       <c r="N17" s="25">
-        <v>98.72</v>
+        <v>98.38</v>
       </c>
       <c r="O17" s="25">
-        <v>94.03</v>
+        <v>92.83</v>
       </c>
       <c r="P17" s="25">
-        <v>90.28</v>
+        <v>89.34</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.93</v>
+        <v>87.55</v>
       </c>
       <c r="R17" s="25">
-        <v>87.49</v>
+        <v>87.66</v>
       </c>
       <c r="S17" s="25">
-        <v>88.7</v>
+        <v>89.07</v>
       </c>
       <c r="T17" s="25">
-        <v>88.99</v>
+        <v>89.48</v>
       </c>
       <c r="U17" s="25">
-        <v>89.69</v>
+        <v>90.29</v>
       </c>
       <c r="V17" s="25">
-        <v>90.23</v>
+        <v>90.86</v>
       </c>
       <c r="W17" s="25">
-        <v>90.41</v>
+        <v>91.02</v>
       </c>
       <c r="X17" s="25">
-        <v>90.78</v>
+        <v>91.38</v>
       </c>
       <c r="Y17" s="25">
-        <v>91.83</v>
+        <v>92.44</v>
       </c>
       <c r="Z17" s="25">
-        <v>92.76</v>
+        <v>93.37</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.35</v>
+        <v>93.89</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.38</v>
+        <v>93.58</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.22</v>
+        <v>94.09</v>
       </c>
       <c r="AD17" s="25">
-        <v>94.99</v>
+        <v>95.12</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.64</v>
+        <v>95.9</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.01</v>
+        <v>96.23</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.07</v>
+        <v>96.31</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.15</v>
+        <v>96.41</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.21</v>
+        <v>96.55</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.45</v>
+        <v>96.79</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.58</v>
+        <v>96.9</v>
       </c>
       <c r="AL17" s="25">
-        <v>96.86</v>
+        <v>97.19</v>
       </c>
       <c r="AM17" s="25">
-        <v>97.79</v>
+        <v>98.13</v>
       </c>
       <c r="AN17" s="25">
-        <v>97.91</v>
+        <v>98.22</v>
       </c>
       <c r="AO17" s="25">
-        <v>97.39</v>
+        <v>97.55</v>
       </c>
       <c r="AP17" s="25">
-        <v>96.83</v>
+        <v>96.63</v>
       </c>
       <c r="AQ17" s="25">
-        <v>97.16</v>
+        <v>96.99</v>
       </c>
       <c r="AR17" s="25">
         <v>97.77</v>
       </c>
       <c r="AS17" s="25">
-        <v>97.96</v>
+        <v>98.02</v>
       </c>
       <c r="AT17" s="25">
-        <v>97.72</v>
+        <v>97.77</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.32</v>
+        <v>98.25</v>
       </c>
       <c r="AV17" s="25">
-        <v>98.66</v>
+        <v>98.59</v>
       </c>
       <c r="AW17" s="25">
-        <v>98.96</v>
+        <v>98.9</v>
       </c>
       <c r="AX17" s="25">
-        <v>98.87</v>
+        <v>98.7</v>
       </c>
       <c r="AY17" s="25">
-        <v>99.38</v>
+        <v>99.05</v>
       </c>
       <c r="AZ17" s="25">
-        <v>99.22</v>
+        <v>98.76</v>
       </c>
       <c r="BA17" s="25">
-        <v>97.96</v>
+        <v>97.2</v>
       </c>
       <c r="BB17" s="25">
-        <v>93.6</v>
+        <v>92.29</v>
       </c>
       <c r="BC17" s="25">
-        <v>90.5</v>
+        <v>89.52</v>
       </c>
       <c r="BD17" s="25">
-        <v>92.17</v>
+        <v>92.61</v>
       </c>
       <c r="BE17" s="25">
-        <v>94.15</v>
-      </c>
-      <c r="BF17" s="25"/>
-      <c r="BG17" s="25"/>
+        <v>95.21</v>
+      </c>
+      <c r="BF17" s="25">
+        <v>96.14</v>
+      </c>
+      <c r="BG17" s="25">
+        <v>97.45</v>
+      </c>
       <c r="BH17" s="25"/>
       <c r="BI17" s="25"/>
       <c r="BJ17" s="25"/>
@@ -3988,175 +4035,179 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="25">
-        <v>95.91</v>
+        <v>96.05</v>
       </c>
       <c r="D18" s="25">
-        <v>97.21</v>
+        <v>97.3</v>
       </c>
       <c r="E18" s="25">
-        <v>97.76</v>
+        <v>97.83</v>
       </c>
       <c r="F18" s="25">
-        <v>98.28</v>
+        <v>98.34</v>
       </c>
       <c r="G18" s="25">
-        <v>98.24</v>
+        <v>98.31</v>
       </c>
       <c r="H18" s="25">
-        <v>98.71</v>
+        <v>98.68</v>
       </c>
       <c r="I18" s="25">
-        <v>99.51</v>
+        <v>99.44</v>
       </c>
       <c r="J18" s="25">
-        <v>99.61</v>
+        <v>99.57</v>
       </c>
       <c r="K18" s="25">
-        <v>98.74</v>
+        <v>98.7</v>
       </c>
       <c r="L18" s="25">
-        <v>99.45</v>
+        <v>99.4</v>
       </c>
       <c r="M18" s="25">
         <v>100</v>
       </c>
       <c r="N18" s="25">
-        <v>100.09</v>
+        <v>99.94</v>
       </c>
       <c r="O18" s="25">
-        <v>97.63</v>
+        <v>97.31</v>
       </c>
       <c r="P18" s="25">
-        <v>96.18</v>
+        <v>95.87</v>
       </c>
       <c r="Q18" s="25">
-        <v>94.43</v>
+        <v>94.3</v>
       </c>
       <c r="R18" s="25">
-        <v>94.48</v>
+        <v>94.5</v>
       </c>
       <c r="S18" s="25">
-        <v>94.78</v>
+        <v>94.9</v>
       </c>
       <c r="T18" s="25">
-        <v>95.08</v>
+        <v>95.27</v>
       </c>
       <c r="U18" s="25">
-        <v>95.5</v>
+        <v>95.72</v>
       </c>
       <c r="V18" s="25">
-        <v>95.95</v>
+        <v>96.15</v>
       </c>
       <c r="W18" s="25">
-        <v>95.85</v>
+        <v>96.07</v>
       </c>
       <c r="X18" s="25">
-        <v>96.03</v>
+        <v>96.26</v>
       </c>
       <c r="Y18" s="25">
-        <v>96.52</v>
+        <v>96.78</v>
       </c>
       <c r="Z18" s="25">
-        <v>96.77</v>
+        <v>97.01</v>
       </c>
       <c r="AA18" s="25">
-        <v>96.37</v>
+        <v>96.39</v>
       </c>
       <c r="AB18" s="25">
-        <v>95.88</v>
+        <v>95.37</v>
       </c>
       <c r="AC18" s="25">
-        <v>96.26</v>
+        <v>95.77</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.17</v>
+        <v>97.07</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.34</v>
+        <v>97.31</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.64</v>
+        <v>97.56</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.2</v>
+        <v>97.11</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.43</v>
+        <v>97.4</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.11</v>
+        <v>97.18</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.46</v>
+        <v>97.54</v>
       </c>
       <c r="AK18" s="25">
-        <v>96.98</v>
+        <v>97.09</v>
       </c>
       <c r="AL18" s="25">
-        <v>97.35</v>
+        <v>97.38</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.72</v>
+        <v>97.7</v>
       </c>
       <c r="AN18" s="25">
-        <v>98.02</v>
+        <v>97.97</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.38</v>
+        <v>97.14</v>
       </c>
       <c r="AP18" s="25">
-        <v>96.81</v>
+        <v>96.45</v>
       </c>
       <c r="AQ18" s="25">
-        <v>96.88</v>
+        <v>96.66</v>
       </c>
       <c r="AR18" s="25">
-        <v>97.5</v>
+        <v>97.25</v>
       </c>
       <c r="AS18" s="25">
-        <v>97.27</v>
+        <v>97.08</v>
       </c>
       <c r="AT18" s="25">
-        <v>97.26</v>
+        <v>97.1</v>
       </c>
       <c r="AU18" s="25">
-        <v>97.47</v>
+        <v>97.14</v>
       </c>
       <c r="AV18" s="25">
-        <v>98.3</v>
+        <v>97.87</v>
       </c>
       <c r="AW18" s="25">
-        <v>98.22</v>
+        <v>97.77</v>
       </c>
       <c r="AX18" s="25">
-        <v>98.38</v>
+        <v>97.85</v>
       </c>
       <c r="AY18" s="25">
-        <v>98.59</v>
+        <v>98.04</v>
       </c>
       <c r="AZ18" s="25">
-        <v>98.96</v>
+        <v>97.87</v>
       </c>
       <c r="BA18" s="25">
-        <v>98.35</v>
+        <v>97.04</v>
       </c>
       <c r="BB18" s="25">
-        <v>96.12</v>
+        <v>94.06</v>
       </c>
       <c r="BC18" s="25">
-        <v>94.52</v>
+        <v>92.49</v>
       </c>
       <c r="BD18" s="25">
-        <v>94.69</v>
+        <v>93.36</v>
       </c>
       <c r="BE18" s="25">
-        <v>95.96</v>
-      </c>
-      <c r="BF18" s="25"/>
-      <c r="BG18" s="25"/>
+        <v>94.86</v>
+      </c>
+      <c r="BF18" s="25">
+        <v>95.4</v>
+      </c>
+      <c r="BG18" s="25">
+        <v>96.43</v>
+      </c>
       <c r="BH18" s="25"/>
       <c r="BI18" s="25"/>
       <c r="BJ18" s="25"/>
@@ -4182,175 +4233,179 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="25">
-        <v>87.54</v>
+        <v>87.57</v>
       </c>
       <c r="D19" s="25">
-        <v>92.92</v>
+        <v>93.13</v>
       </c>
       <c r="E19" s="25">
-        <v>95.3</v>
+        <v>95.6</v>
       </c>
       <c r="F19" s="25">
-        <v>96.27</v>
+        <v>96.5</v>
       </c>
       <c r="G19" s="25">
-        <v>96.76</v>
+        <v>96.93</v>
       </c>
       <c r="H19" s="25">
-        <v>97.87</v>
+        <v>97.98</v>
       </c>
       <c r="I19" s="25">
-        <v>98.65</v>
+        <v>98.79</v>
       </c>
       <c r="J19" s="25">
-        <v>98.88</v>
+        <v>99.03</v>
       </c>
       <c r="K19" s="25">
-        <v>99.26</v>
+        <v>99.47</v>
       </c>
       <c r="L19" s="25">
-        <v>100.13</v>
+        <v>100.15</v>
       </c>
       <c r="M19" s="25">
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>99.13</v>
+        <v>98.73</v>
       </c>
       <c r="O19" s="25">
-        <v>94.31</v>
+        <v>92.97</v>
       </c>
       <c r="P19" s="25">
-        <v>91.7</v>
+        <v>90.53</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.74</v>
+        <v>89.14</v>
       </c>
       <c r="R19" s="25">
-        <v>89.05</v>
+        <v>88.98</v>
       </c>
       <c r="S19" s="25">
-        <v>89.73</v>
+        <v>89.94</v>
       </c>
       <c r="T19" s="25">
-        <v>90.84</v>
+        <v>91.05</v>
       </c>
       <c r="U19" s="25">
-        <v>91.97</v>
+        <v>92.35</v>
       </c>
       <c r="V19" s="25">
-        <v>92.56</v>
+        <v>93.04</v>
       </c>
       <c r="W19" s="25">
-        <v>93.05</v>
+        <v>93.57</v>
       </c>
       <c r="X19" s="25">
-        <v>93.61</v>
+        <v>94.12</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.14</v>
+        <v>95.65</v>
       </c>
       <c r="Z19" s="25">
-        <v>95.98</v>
+        <v>96.5</v>
       </c>
       <c r="AA19" s="25">
-        <v>96.66</v>
+        <v>97.13</v>
       </c>
       <c r="AB19" s="25">
-        <v>97.84</v>
+        <v>97.99</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.54</v>
+        <v>99.27</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.1</v>
+        <v>100.19</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.19</v>
+        <v>100.52</v>
       </c>
       <c r="AF19" s="25">
-        <v>100.68</v>
+        <v>100.97</v>
       </c>
       <c r="AG19" s="25">
-        <v>100.95</v>
+        <v>101.32</v>
       </c>
       <c r="AH19" s="25">
-        <v>101.24</v>
+        <v>101.71</v>
       </c>
       <c r="AI19" s="25">
-        <v>101.52</v>
+        <v>102.06</v>
       </c>
       <c r="AJ19" s="25">
-        <v>101.83</v>
+        <v>102.41</v>
       </c>
       <c r="AK19" s="25">
-        <v>102.41</v>
+        <v>102.97</v>
       </c>
       <c r="AL19" s="25">
-        <v>102.79</v>
+        <v>103.23</v>
       </c>
       <c r="AM19" s="25">
+        <v>103.6</v>
+      </c>
+      <c r="AN19" s="25">
+        <v>103.52</v>
+      </c>
+      <c r="AO19" s="25">
+        <v>103.35</v>
+      </c>
+      <c r="AP19" s="25">
+        <v>102.26</v>
+      </c>
+      <c r="AQ19" s="25">
+        <v>101.9</v>
+      </c>
+      <c r="AR19" s="25">
+        <v>102.9</v>
+      </c>
+      <c r="AS19" s="25">
         <v>103.2</v>
       </c>
-      <c r="AN19" s="25">
+      <c r="AT19" s="25">
+        <v>103.18</v>
+      </c>
+      <c r="AU19" s="25">
+        <v>103.12</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>103.38</v>
+      </c>
+      <c r="AW19" s="25">
+        <v>101.64</v>
+      </c>
+      <c r="AX19" s="25">
+        <v>102.78</v>
+      </c>
+      <c r="AY19" s="25">
+        <v>104.04</v>
+      </c>
+      <c r="AZ19" s="25">
+        <v>104.47</v>
+      </c>
+      <c r="BA19" s="25">
         <v>103.13</v>
       </c>
-      <c r="AO19" s="25">
-        <v>103.21</v>
-      </c>
-      <c r="AP19" s="25">
-        <v>102.89</v>
-      </c>
-      <c r="AQ19" s="25">
-        <v>102.37</v>
-      </c>
-      <c r="AR19" s="25">
-        <v>102.93</v>
-      </c>
-      <c r="AS19" s="25">
-        <v>103.02</v>
-      </c>
-      <c r="AT19" s="25">
-        <v>102.91</v>
-      </c>
-      <c r="AU19" s="25">
-        <v>102.91</v>
-      </c>
-      <c r="AV19" s="25">
-        <v>103.08</v>
-      </c>
-      <c r="AW19" s="25">
-        <v>101.37</v>
-      </c>
-      <c r="AX19" s="25">
-        <v>102.34</v>
-      </c>
-      <c r="AY19" s="25">
-        <v>103.32</v>
-      </c>
-      <c r="AZ19" s="25">
-        <v>103.71</v>
-      </c>
-      <c r="BA19" s="25">
-        <v>102.72</v>
-      </c>
       <c r="BB19" s="25">
-        <v>98.19</v>
+        <v>97.73</v>
       </c>
       <c r="BC19" s="25">
-        <v>93.18</v>
+        <v>92.62</v>
       </c>
       <c r="BD19" s="25">
-        <v>93.92</v>
+        <v>95.65</v>
       </c>
       <c r="BE19" s="25">
-        <v>96.22</v>
-      </c>
-      <c r="BF19" s="25"/>
-      <c r="BG19" s="25"/>
+        <v>98.52</v>
+      </c>
+      <c r="BF19" s="25">
+        <v>98.78</v>
+      </c>
+      <c r="BG19" s="25">
+        <v>99.45</v>
+      </c>
       <c r="BH19" s="25"/>
       <c r="BI19" s="25"/>
       <c r="BJ19" s="25"/>
@@ -4379,172 +4434,176 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>91.66</v>
+        <v>91.86</v>
       </c>
       <c r="D20" s="25">
-        <v>95.22</v>
+        <v>95.58</v>
       </c>
       <c r="E20" s="25">
-        <v>96.93</v>
+        <v>97.43</v>
       </c>
       <c r="F20" s="25">
-        <v>97.73</v>
+        <v>98.14</v>
       </c>
       <c r="G20" s="25">
-        <v>97.88</v>
+        <v>98.18</v>
       </c>
       <c r="H20" s="25">
-        <v>98.95</v>
+        <v>99.22</v>
       </c>
       <c r="I20" s="25">
-        <v>99.42</v>
+        <v>99.67</v>
       </c>
       <c r="J20" s="25">
-        <v>99.82</v>
+        <v>100.08</v>
       </c>
       <c r="K20" s="25">
-        <v>99.8</v>
+        <v>100.07</v>
       </c>
       <c r="L20" s="25">
-        <v>100.05</v>
+        <v>100.1</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
       </c>
       <c r="N20" s="25">
-        <v>98.49</v>
+        <v>98.1</v>
       </c>
       <c r="O20" s="25">
-        <v>93.38</v>
+        <v>92.35</v>
       </c>
       <c r="P20" s="25">
-        <v>89.98</v>
+        <v>89.31</v>
       </c>
       <c r="Q20" s="25">
-        <v>88.03</v>
+        <v>87.83</v>
       </c>
       <c r="R20" s="25">
-        <v>87.81</v>
+        <v>88.04</v>
       </c>
       <c r="S20" s="25">
-        <v>88.63</v>
+        <v>89.04</v>
       </c>
       <c r="T20" s="25">
-        <v>89.11</v>
+        <v>89.62</v>
       </c>
       <c r="U20" s="25">
-        <v>90.11</v>
+        <v>90.73</v>
       </c>
       <c r="V20" s="25">
-        <v>91.67</v>
+        <v>92.32</v>
       </c>
       <c r="W20" s="25">
-        <v>91.7</v>
+        <v>92.12</v>
       </c>
       <c r="X20" s="25">
-        <v>91.95</v>
+        <v>92.2</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.44</v>
+        <v>92.87</v>
       </c>
       <c r="Z20" s="25">
-        <v>92.79</v>
+        <v>93.46</v>
       </c>
       <c r="AA20" s="25">
-        <v>92.67</v>
+        <v>93.36</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.36</v>
+        <v>92.85</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.4</v>
+        <v>93.34</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.1</v>
+        <v>94.27</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.14</v>
+        <v>94.49</v>
       </c>
       <c r="AF20" s="25">
-        <v>94.59</v>
+        <v>95</v>
       </c>
       <c r="AG20" s="25">
-        <v>94.74</v>
+        <v>95.16</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.03</v>
+        <v>95.5</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.37</v>
+        <v>95.92</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.19</v>
+        <v>95.64</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.45</v>
+        <v>95.94</v>
       </c>
       <c r="AL20" s="25">
-        <v>95.81</v>
+        <v>96.34</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.12</v>
+        <v>96.66</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.25</v>
+        <v>96.79</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.31</v>
+        <v>96.63</v>
       </c>
       <c r="AP20" s="25">
-        <v>95.87</v>
+        <v>95.9</v>
       </c>
       <c r="AQ20" s="25">
-        <v>95.73</v>
+        <v>95.65</v>
       </c>
       <c r="AR20" s="25">
-        <v>96.81</v>
+        <v>97</v>
       </c>
       <c r="AS20" s="25">
-        <v>97.08</v>
+        <v>97.36</v>
       </c>
       <c r="AT20" s="25">
-        <v>97.11</v>
+        <v>97.41</v>
       </c>
       <c r="AU20" s="25">
-        <v>97.38</v>
+        <v>97.52</v>
       </c>
       <c r="AV20" s="25">
-        <v>97.96</v>
+        <v>98.08</v>
       </c>
       <c r="AW20" s="25">
-        <v>97.37</v>
+        <v>97.35</v>
       </c>
       <c r="AX20" s="25">
-        <v>97.81</v>
+        <v>97.74</v>
       </c>
       <c r="AY20" s="25">
-        <v>98.36</v>
+        <v>98.25</v>
       </c>
       <c r="AZ20" s="25">
-        <v>98.65</v>
+        <v>98.47</v>
       </c>
       <c r="BA20" s="25">
-        <v>97.29</v>
+        <v>96.73</v>
       </c>
       <c r="BB20" s="25">
-        <v>94.11</v>
+        <v>92.83</v>
       </c>
       <c r="BC20" s="25">
-        <v>91.52</v>
+        <v>90.4</v>
       </c>
       <c r="BD20" s="25">
-        <v>92.19</v>
+        <v>92.92</v>
       </c>
       <c r="BE20" s="25">
-        <v>94.11</v>
-      </c>
-      <c r="BF20" s="25"/>
-      <c r="BG20" s="25"/>
+        <v>95.12</v>
+      </c>
+      <c r="BF20" s="25">
+        <v>96.03</v>
+      </c>
+      <c r="BG20" s="25">
+        <v>97.33</v>
+      </c>
       <c r="BH20" s="25"/>
       <c r="BI20" s="25"/>
       <c r="BJ20" s="25"/>
@@ -4570,175 +4629,179 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="25">
-        <v>96.32</v>
+        <v>96.65</v>
       </c>
       <c r="D21" s="25">
-        <v>97.26</v>
+        <v>97.56</v>
       </c>
       <c r="E21" s="25">
-        <v>98.31</v>
+        <v>98.6</v>
       </c>
       <c r="F21" s="25">
-        <v>98.77</v>
+        <v>98.95</v>
       </c>
       <c r="G21" s="25">
-        <v>98.43</v>
+        <v>98.6</v>
       </c>
       <c r="H21" s="25">
-        <v>99.54</v>
+        <v>99.65</v>
       </c>
       <c r="I21" s="25">
-        <v>100.36</v>
+        <v>100.46</v>
       </c>
       <c r="J21" s="25">
-        <v>99.31</v>
+        <v>99.39</v>
       </c>
       <c r="K21" s="25">
-        <v>98.74</v>
+        <v>98.84</v>
       </c>
       <c r="L21" s="25">
-        <v>99.9</v>
+        <v>100.01</v>
       </c>
       <c r="M21" s="25">
         <v>100</v>
       </c>
       <c r="N21" s="25">
-        <v>99.47</v>
+        <v>99.33</v>
       </c>
       <c r="O21" s="25">
-        <v>98</v>
+        <v>97.78</v>
       </c>
       <c r="P21" s="25">
-        <v>96.16</v>
+        <v>95.27</v>
       </c>
       <c r="Q21" s="25">
-        <v>94.62</v>
+        <v>94.32</v>
       </c>
       <c r="R21" s="25">
-        <v>94.3</v>
+        <v>94.47</v>
       </c>
       <c r="S21" s="25">
-        <v>94</v>
+        <v>94.18</v>
       </c>
       <c r="T21" s="25">
-        <v>94.26</v>
+        <v>94.44</v>
       </c>
       <c r="U21" s="25">
-        <v>94.6</v>
+        <v>94.93</v>
       </c>
       <c r="V21" s="25">
-        <v>95.36</v>
+        <v>95.7</v>
       </c>
       <c r="W21" s="25">
-        <v>95.56</v>
+        <v>95.92</v>
       </c>
       <c r="X21" s="25">
-        <v>96.09</v>
+        <v>96.47</v>
       </c>
       <c r="Y21" s="25">
-        <v>96.49</v>
+        <v>96.87</v>
       </c>
       <c r="Z21" s="25">
-        <v>96.23</v>
+        <v>96.66</v>
       </c>
       <c r="AA21" s="25">
-        <v>95.19</v>
+        <v>95.5</v>
       </c>
       <c r="AB21" s="25">
-        <v>93.44</v>
+        <v>93.65</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.59</v>
+        <v>94.61</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.48</v>
+        <v>96.38</v>
       </c>
       <c r="AE21" s="25">
-        <v>96.66</v>
+        <v>96.72</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.29</v>
+        <v>97.52</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.06</v>
+        <v>97.28</v>
       </c>
       <c r="AH21" s="25">
-        <v>97.43</v>
+        <v>97.66</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.4</v>
+        <v>97.63</v>
       </c>
       <c r="AJ21" s="25">
-        <v>97.81</v>
+        <v>97.92</v>
       </c>
       <c r="AK21" s="25">
-        <v>97.52</v>
+        <v>97.68</v>
       </c>
       <c r="AL21" s="25">
-        <v>97.64</v>
+        <v>97.88</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.15</v>
+        <v>98.37</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.49</v>
+        <v>98.73</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.45</v>
+        <v>98.59</v>
       </c>
       <c r="AP21" s="25">
         <v>98.06</v>
       </c>
       <c r="AQ21" s="25">
-        <v>98.61</v>
+        <v>98.56</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.2</v>
+        <v>100.17</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.96</v>
+        <v>99.89</v>
       </c>
       <c r="AT21" s="25">
-        <v>98.98</v>
+        <v>98.99</v>
       </c>
       <c r="AU21" s="25">
-        <v>99.71</v>
+        <v>99.68</v>
       </c>
       <c r="AV21" s="25">
-        <v>101.02</v>
+        <v>100.99</v>
       </c>
       <c r="AW21" s="25">
-        <v>100.67</v>
+        <v>100.42</v>
       </c>
       <c r="AX21" s="25">
-        <v>100.44</v>
+        <v>100.02</v>
       </c>
       <c r="AY21" s="25">
-        <v>101.34</v>
+        <v>101.19</v>
       </c>
       <c r="AZ21" s="25">
-        <v>101.95</v>
+        <v>101.57</v>
       </c>
       <c r="BA21" s="25">
-        <v>101.08</v>
+        <v>100.28</v>
       </c>
       <c r="BB21" s="25">
-        <v>98.74</v>
+        <v>97.01</v>
       </c>
       <c r="BC21" s="25">
-        <v>97.08</v>
+        <v>95.22</v>
       </c>
       <c r="BD21" s="25">
-        <v>96.64</v>
+        <v>96.14</v>
       </c>
       <c r="BE21" s="25">
-        <v>98.59</v>
-      </c>
-      <c r="BF21" s="25"/>
-      <c r="BG21" s="25"/>
+        <v>98.2</v>
+      </c>
+      <c r="BF21" s="25">
+        <v>98.83</v>
+      </c>
+      <c r="BG21" s="25">
+        <v>100.26</v>
+      </c>
       <c r="BH21" s="25"/>
       <c r="BI21" s="25"/>
       <c r="BJ21" s="25"/>
@@ -4764,175 +4827,179 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="25">
-        <v>89.32</v>
+        <v>89.45</v>
       </c>
       <c r="D22" s="25">
-        <v>94.03</v>
+        <v>94.07</v>
       </c>
       <c r="E22" s="25">
-        <v>95.52</v>
+        <v>95.46</v>
       </c>
       <c r="F22" s="25">
-        <v>95.47</v>
+        <v>95.72</v>
       </c>
       <c r="G22" s="25">
-        <v>95.57</v>
+        <v>96.04</v>
       </c>
       <c r="H22" s="25">
-        <v>97.15</v>
+        <v>97.49</v>
       </c>
       <c r="I22" s="25">
-        <v>97.67</v>
+        <v>98.03</v>
       </c>
       <c r="J22" s="25">
-        <v>98.04</v>
+        <v>98.4</v>
       </c>
       <c r="K22" s="25">
-        <v>98.65</v>
+        <v>98.96</v>
       </c>
       <c r="L22" s="25">
-        <v>99.66</v>
+        <v>99.67</v>
       </c>
       <c r="M22" s="25">
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>99.11</v>
+        <v>98.99</v>
       </c>
       <c r="O22" s="25">
-        <v>95.1</v>
+        <v>94.19</v>
       </c>
       <c r="P22" s="25">
-        <v>91.62</v>
+        <v>90.43</v>
       </c>
       <c r="Q22" s="25">
-        <v>88.93</v>
+        <v>88.39</v>
       </c>
       <c r="R22" s="25">
-        <v>88.09</v>
+        <v>88.19</v>
       </c>
       <c r="S22" s="25">
-        <v>88.44</v>
+        <v>88.8</v>
       </c>
       <c r="T22" s="25">
-        <v>89.62</v>
+        <v>90.13</v>
       </c>
       <c r="U22" s="25">
-        <v>90.81</v>
+        <v>91.54</v>
       </c>
       <c r="V22" s="25">
-        <v>91.74</v>
+        <v>92.51</v>
       </c>
       <c r="W22" s="25">
-        <v>92.76</v>
+        <v>93.56</v>
       </c>
       <c r="X22" s="25">
-        <v>93.35</v>
+        <v>94.09</v>
       </c>
       <c r="Y22" s="25">
-        <v>94.41</v>
+        <v>95.16</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.11</v>
+        <v>96.83</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.01</v>
+        <v>97.66</v>
       </c>
       <c r="AB22" s="25">
-        <v>97.89</v>
+        <v>98.17</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.4</v>
+        <v>100.19</v>
       </c>
       <c r="AD22" s="25">
-        <v>100.98</v>
+        <v>101.06</v>
       </c>
       <c r="AE22" s="25">
-        <v>101.05</v>
+        <v>101.4</v>
       </c>
       <c r="AF22" s="25">
-        <v>101.84</v>
+        <v>102.2</v>
       </c>
       <c r="AG22" s="25">
-        <v>102.06</v>
+        <v>102.54</v>
       </c>
       <c r="AH22" s="25">
-        <v>102.41</v>
+        <v>103.02</v>
       </c>
       <c r="AI22" s="25">
-        <v>102.8</v>
+        <v>103.47</v>
       </c>
       <c r="AJ22" s="25">
-        <v>103.13</v>
+        <v>103.82</v>
       </c>
       <c r="AK22" s="25">
-        <v>103.49</v>
+        <v>104.2</v>
       </c>
       <c r="AL22" s="25">
-        <v>103.99</v>
+        <v>104.6</v>
       </c>
       <c r="AM22" s="25">
-        <v>104.71</v>
+        <v>105.22</v>
       </c>
       <c r="AN22" s="25">
-        <v>104.74</v>
+        <v>105.2</v>
       </c>
       <c r="AO22" s="25">
-        <v>104.77</v>
+        <v>105.01</v>
       </c>
       <c r="AP22" s="25">
-        <v>103.8</v>
+        <v>103.07</v>
       </c>
       <c r="AQ22" s="25">
-        <v>103.43</v>
+        <v>102.63</v>
       </c>
       <c r="AR22" s="25">
-        <v>103.82</v>
+        <v>103.55</v>
       </c>
       <c r="AS22" s="25">
-        <v>104.27</v>
+        <v>104.23</v>
       </c>
       <c r="AT22" s="25">
-        <v>104.06</v>
+        <v>104.23</v>
       </c>
       <c r="AU22" s="25">
-        <v>104.41</v>
+        <v>104.5</v>
       </c>
       <c r="AV22" s="25">
-        <v>104.68</v>
+        <v>104.93</v>
       </c>
       <c r="AW22" s="25">
-        <v>105.06</v>
+        <v>105.22</v>
       </c>
       <c r="AX22" s="25">
-        <v>105.07</v>
+        <v>105.25</v>
       </c>
       <c r="AY22" s="25">
-        <v>105.23</v>
+        <v>105.67</v>
       </c>
       <c r="AZ22" s="25">
-        <v>105.18</v>
+        <v>105.69</v>
       </c>
       <c r="BA22" s="25">
-        <v>104.02</v>
+        <v>104.09</v>
       </c>
       <c r="BB22" s="25">
-        <v>99.24</v>
+        <v>98.29</v>
       </c>
       <c r="BC22" s="25">
-        <v>94.9</v>
+        <v>94</v>
       </c>
       <c r="BD22" s="25">
-        <v>95.1</v>
+        <v>97.4</v>
       </c>
       <c r="BE22" s="25">
-        <v>96.29</v>
-      </c>
-      <c r="BF22" s="25"/>
-      <c r="BG22" s="25"/>
+        <v>100.27</v>
+      </c>
+      <c r="BF22" s="25">
+        <v>99.87</v>
+      </c>
+      <c r="BG22" s="25">
+        <v>99.8</v>
+      </c>
       <c r="BH22" s="25"/>
       <c r="BI22" s="25"/>
       <c r="BJ22" s="25"/>
@@ -4961,172 +5028,176 @@
         <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>95.57</v>
+        <v>95.67</v>
       </c>
       <c r="D23" s="25">
-        <v>98.75</v>
+        <v>97.96</v>
       </c>
       <c r="E23" s="25">
-        <v>99.46</v>
+        <v>97.79</v>
       </c>
       <c r="F23" s="25">
-        <v>99.16</v>
+        <v>98.46</v>
       </c>
       <c r="G23" s="25">
-        <v>98.39</v>
+        <v>98.68</v>
       </c>
       <c r="H23" s="25">
-        <v>99.44</v>
+        <v>99.7</v>
       </c>
       <c r="I23" s="25">
-        <v>100.18</v>
+        <v>100.4</v>
       </c>
       <c r="J23" s="25">
-        <v>100.12</v>
+        <v>100.24</v>
       </c>
       <c r="K23" s="25">
-        <v>100.33</v>
+        <v>100.44</v>
       </c>
       <c r="L23" s="25">
-        <v>99.97</v>
+        <v>100.03</v>
       </c>
       <c r="M23" s="25">
         <v>100</v>
       </c>
       <c r="N23" s="25">
-        <v>98.93</v>
+        <v>98.63</v>
       </c>
       <c r="O23" s="25">
-        <v>94.35</v>
+        <v>93.35</v>
       </c>
       <c r="P23" s="25">
-        <v>91.03</v>
+        <v>90.02</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.24</v>
+        <v>88.81</v>
       </c>
       <c r="R23" s="25">
-        <v>88.17</v>
+        <v>88.35</v>
       </c>
       <c r="S23" s="25">
-        <v>88.3</v>
+        <v>88.73</v>
       </c>
       <c r="T23" s="25">
-        <v>89.04</v>
+        <v>89.61</v>
       </c>
       <c r="U23" s="25">
-        <v>89.82</v>
+        <v>90.52</v>
       </c>
       <c r="V23" s="25">
-        <v>90.71</v>
+        <v>91.46</v>
       </c>
       <c r="W23" s="25">
-        <v>91.03</v>
+        <v>91.81</v>
       </c>
       <c r="X23" s="25">
-        <v>91.49</v>
+        <v>92.26</v>
       </c>
       <c r="Y23" s="25">
-        <v>92.57</v>
+        <v>93.41</v>
       </c>
       <c r="Z23" s="25">
-        <v>93.72</v>
+        <v>94.5</v>
       </c>
       <c r="AA23" s="25">
-        <v>94.31</v>
+        <v>94.97</v>
       </c>
       <c r="AB23" s="25">
-        <v>93.89</v>
+        <v>94.26</v>
       </c>
       <c r="AC23" s="25">
+        <v>95.04</v>
+      </c>
+      <c r="AD23" s="25">
+        <v>96.51</v>
+      </c>
+      <c r="AE23" s="25">
+        <v>96.99</v>
+      </c>
+      <c r="AF23" s="25">
+        <v>97.43</v>
+      </c>
+      <c r="AG23" s="25">
+        <v>98.01</v>
+      </c>
+      <c r="AH23" s="25">
+        <v>98</v>
+      </c>
+      <c r="AI23" s="25">
+        <v>98.18</v>
+      </c>
+      <c r="AJ23" s="25">
+        <v>98.59</v>
+      </c>
+      <c r="AK23" s="25">
+        <v>98.84</v>
+      </c>
+      <c r="AL23" s="25">
+        <v>99.11</v>
+      </c>
+      <c r="AM23" s="25">
+        <v>99.64</v>
+      </c>
+      <c r="AN23" s="25">
+        <v>99.58</v>
+      </c>
+      <c r="AO23" s="25">
+        <v>99.38</v>
+      </c>
+      <c r="AP23" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="AQ23" s="25">
+        <v>98.64</v>
+      </c>
+      <c r="AR23" s="25">
+        <v>99.31</v>
+      </c>
+      <c r="AS23" s="25">
+        <v>99.66</v>
+      </c>
+      <c r="AT23" s="25">
+        <v>99.73</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>99.59</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>100.08</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>99.97</v>
+      </c>
+      <c r="AX23" s="25">
+        <v>100.41</v>
+      </c>
+      <c r="AY23" s="25">
+        <v>101.2</v>
+      </c>
+      <c r="AZ23" s="25">
+        <v>100.91</v>
+      </c>
+      <c r="BA23" s="25">
+        <v>99.81</v>
+      </c>
+      <c r="BB23" s="25">
         <v>95.2</v>
       </c>
-      <c r="AD23" s="25">
-        <v>96.66</v>
-      </c>
-      <c r="AE23" s="25">
-        <v>96.64</v>
-      </c>
-      <c r="AF23" s="25">
-        <v>97.05</v>
-      </c>
-      <c r="AG23" s="25">
-        <v>97.62</v>
-      </c>
-      <c r="AH23" s="25">
-        <v>97.6</v>
-      </c>
-      <c r="AI23" s="25">
-        <v>97.8</v>
-      </c>
-      <c r="AJ23" s="25">
-        <v>98.17</v>
-      </c>
-      <c r="AK23" s="25">
-        <v>98.41</v>
-      </c>
-      <c r="AL23" s="25">
-        <v>98.68</v>
-      </c>
-      <c r="AM23" s="25">
-        <v>99.27</v>
-      </c>
-      <c r="AN23" s="25">
-        <v>99.2</v>
-      </c>
-      <c r="AO23" s="25">
-        <v>99.18</v>
-      </c>
-      <c r="AP23" s="25">
-        <v>98.81</v>
-      </c>
-      <c r="AQ23" s="25">
-        <v>98.94</v>
-      </c>
-      <c r="AR23" s="25">
-        <v>99.48</v>
-      </c>
-      <c r="AS23" s="25">
-        <v>99.75</v>
-      </c>
-      <c r="AT23" s="25">
-        <v>99.85</v>
-      </c>
-      <c r="AU23" s="25">
-        <v>100</v>
-      </c>
-      <c r="AV23" s="25">
-        <v>100.2</v>
-      </c>
-      <c r="AW23" s="25">
-        <v>100.2</v>
-      </c>
-      <c r="AX23" s="25">
-        <v>100.53</v>
-      </c>
-      <c r="AY23" s="25">
-        <v>101.23</v>
-      </c>
-      <c r="AZ23" s="25">
-        <v>101.35</v>
-      </c>
-      <c r="BA23" s="25">
-        <v>100.44</v>
-      </c>
-      <c r="BB23" s="25">
-        <v>96.48</v>
-      </c>
       <c r="BC23" s="25">
-        <v>93.91</v>
+        <v>92.72</v>
       </c>
       <c r="BD23" s="25">
-        <v>94.85</v>
+        <v>95.75</v>
       </c>
       <c r="BE23" s="25">
-        <v>95.94</v>
-      </c>
-      <c r="BF23" s="25"/>
-      <c r="BG23" s="25"/>
+        <v>98.51</v>
+      </c>
+      <c r="BF23" s="25">
+        <v>98.64</v>
+      </c>
+      <c r="BG23" s="25">
+        <v>98.22</v>
+      </c>
       <c r="BH23" s="25"/>
       <c r="BI23" s="25"/>
       <c r="BJ23" s="25"/>
@@ -5152,175 +5223,179 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="25">
-        <v>95.94</v>
+        <v>96</v>
       </c>
       <c r="D24" s="25">
-        <v>97.04</v>
+        <v>97.1</v>
       </c>
       <c r="E24" s="25">
-        <v>98.07</v>
+        <v>98.15</v>
       </c>
       <c r="F24" s="25">
         <v>98.75</v>
       </c>
       <c r="G24" s="25">
-        <v>98.98</v>
+        <v>98.96</v>
       </c>
       <c r="H24" s="25">
         <v>99.69</v>
       </c>
       <c r="I24" s="25">
-        <v>100.43</v>
+        <v>100.32</v>
       </c>
       <c r="J24" s="25">
-        <v>99.78</v>
+        <v>99.68</v>
       </c>
       <c r="K24" s="25">
-        <v>98.8</v>
+        <v>98.71</v>
       </c>
       <c r="L24" s="25">
-        <v>99.55</v>
+        <v>99.52</v>
       </c>
       <c r="M24" s="25">
         <v>100</v>
       </c>
       <c r="N24" s="25">
-        <v>99.57</v>
+        <v>99.46</v>
       </c>
       <c r="O24" s="25">
-        <v>98.01</v>
+        <v>97.77</v>
       </c>
       <c r="P24" s="25">
-        <v>95.93</v>
+        <v>95.69</v>
       </c>
       <c r="Q24" s="25">
-        <v>94.79</v>
+        <v>94.64</v>
       </c>
       <c r="R24" s="25">
-        <v>94.94</v>
+        <v>94.99</v>
       </c>
       <c r="S24" s="25">
-        <v>94.81</v>
+        <v>94.98</v>
       </c>
       <c r="T24" s="25">
-        <v>95.23</v>
+        <v>95.46</v>
       </c>
       <c r="U24" s="25">
-        <v>95.74</v>
+        <v>96</v>
       </c>
       <c r="V24" s="25">
-        <v>96.16</v>
+        <v>96.44</v>
       </c>
       <c r="W24" s="25">
-        <v>96.44</v>
+        <v>96.74</v>
       </c>
       <c r="X24" s="25">
-        <v>96.64</v>
+        <v>96.9</v>
       </c>
       <c r="Y24" s="25">
-        <v>97.56</v>
+        <v>97.78</v>
       </c>
       <c r="Z24" s="25">
-        <v>97.78</v>
+        <v>98</v>
       </c>
       <c r="AA24" s="25">
-        <v>97.75</v>
+        <v>97.62</v>
       </c>
       <c r="AB24" s="25">
-        <v>97.34</v>
+        <v>96.88</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.7</v>
+        <v>98.53</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.38</v>
+        <v>99.34</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.85</v>
+        <v>98.59</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.71</v>
+        <v>98.61</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.38</v>
+        <v>99.48</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.39</v>
+        <v>99.46</v>
       </c>
       <c r="AI24" s="25">
-        <v>99.51</v>
+        <v>99.58</v>
       </c>
       <c r="AJ24" s="25">
-        <v>99.41</v>
+        <v>99.5</v>
       </c>
       <c r="AK24" s="25">
-        <v>99.55</v>
+        <v>99.64</v>
       </c>
       <c r="AL24" s="25">
-        <v>99.34</v>
+        <v>99.36</v>
       </c>
       <c r="AM24" s="25">
         <v>99.57</v>
       </c>
       <c r="AN24" s="25">
-        <v>99.7</v>
+        <v>99.61</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.59</v>
+        <v>99.39</v>
       </c>
       <c r="AP24" s="25">
-        <v>99.18</v>
+        <v>99</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.65</v>
+        <v>98.39</v>
       </c>
       <c r="AR24" s="25">
-        <v>98.89</v>
+        <v>98.62</v>
       </c>
       <c r="AS24" s="25">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="AT24" s="25">
-        <v>99.24</v>
+        <v>99.06</v>
       </c>
       <c r="AU24" s="25">
-        <v>99.68</v>
+        <v>99.4</v>
       </c>
       <c r="AV24" s="25">
-        <v>100.3</v>
+        <v>100.03</v>
       </c>
       <c r="AW24" s="25">
-        <v>100.52</v>
+        <v>100.23</v>
       </c>
       <c r="AX24" s="25">
-        <v>100.36</v>
+        <v>99.98</v>
       </c>
       <c r="AY24" s="25">
-        <v>101.32</v>
+        <v>100.89</v>
       </c>
       <c r="AZ24" s="25">
-        <v>102.17</v>
+        <v>101.42</v>
       </c>
       <c r="BA24" s="25">
-        <v>102.15</v>
+        <v>101</v>
       </c>
       <c r="BB24" s="25">
-        <v>100.03</v>
+        <v>98.36</v>
       </c>
       <c r="BC24" s="25">
-        <v>98.32</v>
+        <v>95.94</v>
       </c>
       <c r="BD24" s="25">
-        <v>98.01</v>
+        <v>96.95</v>
       </c>
       <c r="BE24" s="25">
-        <v>99.34</v>
-      </c>
-      <c r="BF24" s="25"/>
-      <c r="BG24" s="25"/>
+        <v>98.66</v>
+      </c>
+      <c r="BF24" s="25">
+        <v>99.04</v>
+      </c>
+      <c r="BG24" s="25">
+        <v>100.1</v>
+      </c>
       <c r="BH24" s="25"/>
       <c r="BI24" s="25"/>
       <c r="BJ24" s="25"/>
@@ -5346,175 +5421,179 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="25">
-        <v>91.35</v>
+        <v>91.4</v>
       </c>
       <c r="D25" s="25">
-        <v>95.7</v>
+        <v>95.91</v>
       </c>
       <c r="E25" s="25">
-        <v>97.58</v>
+        <v>97.94</v>
       </c>
       <c r="F25" s="25">
-        <v>98.09</v>
+        <v>98.3</v>
       </c>
       <c r="G25" s="25">
-        <v>98.43</v>
+        <v>98.57</v>
       </c>
       <c r="H25" s="25">
-        <v>99.26</v>
+        <v>99.22</v>
       </c>
       <c r="I25" s="25">
-        <v>99.45</v>
+        <v>99.54</v>
       </c>
       <c r="J25" s="25">
-        <v>99.49</v>
+        <v>99.47</v>
       </c>
       <c r="K25" s="25">
-        <v>99.57</v>
+        <v>99.52</v>
       </c>
       <c r="L25" s="25">
-        <v>99.71</v>
+        <v>99.7</v>
       </c>
       <c r="M25" s="25">
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>99.27</v>
+        <v>98.87</v>
       </c>
       <c r="O25" s="25">
-        <v>94.45</v>
+        <v>93.11</v>
       </c>
       <c r="P25" s="25">
-        <v>90.87</v>
+        <v>89.62</v>
       </c>
       <c r="Q25" s="25">
-        <v>88.26</v>
+        <v>87.61</v>
       </c>
       <c r="R25" s="25">
-        <v>87.36</v>
+        <v>87.15</v>
       </c>
       <c r="S25" s="25">
-        <v>87.65</v>
+        <v>87.8</v>
       </c>
       <c r="T25" s="25">
-        <v>88.43</v>
+        <v>88.64</v>
       </c>
       <c r="U25" s="25">
-        <v>89.2</v>
+        <v>89.56</v>
       </c>
       <c r="V25" s="25">
-        <v>89.56</v>
+        <v>89.91</v>
       </c>
       <c r="W25" s="25">
-        <v>90.23</v>
+        <v>90.65</v>
       </c>
       <c r="X25" s="25">
-        <v>90.63</v>
+        <v>90.95</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.53</v>
+        <v>91.92</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.49</v>
+        <v>92.87</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.23</v>
+        <v>93.57</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.38</v>
+        <v>94.53</v>
       </c>
       <c r="AC25" s="25">
-        <v>96.07</v>
+        <v>95.93</v>
       </c>
       <c r="AD25" s="25">
-        <v>96.56</v>
+        <v>96.77</v>
       </c>
       <c r="AE25" s="25">
-        <v>96.77</v>
+        <v>97.21</v>
       </c>
       <c r="AF25" s="25">
-        <v>97</v>
+        <v>97.49</v>
       </c>
       <c r="AG25" s="25">
-        <v>97.14</v>
+        <v>97.59</v>
       </c>
       <c r="AH25" s="25">
-        <v>97.27</v>
+        <v>97.85</v>
       </c>
       <c r="AI25" s="25">
-        <v>97.48</v>
+        <v>98.06</v>
       </c>
       <c r="AJ25" s="25">
-        <v>97.6</v>
+        <v>98.24</v>
       </c>
       <c r="AK25" s="25">
-        <v>97.85</v>
+        <v>98.58</v>
       </c>
       <c r="AL25" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="AM25" s="25">
+        <v>99.26</v>
+      </c>
+      <c r="AN25" s="25">
+        <v>99.54</v>
+      </c>
+      <c r="AO25" s="25">
+        <v>99.52</v>
+      </c>
+      <c r="AP25" s="25">
+        <v>98.51</v>
+      </c>
+      <c r="AQ25" s="25">
+        <v>98.21</v>
+      </c>
+      <c r="AR25" s="25">
         <v>98.23</v>
       </c>
-      <c r="AM25" s="25">
-        <v>98.65</v>
-      </c>
-      <c r="AN25" s="25">
-        <v>99.04</v>
-      </c>
-      <c r="AO25" s="25">
-        <v>99.3</v>
-      </c>
-      <c r="AP25" s="25">
-        <v>98.74</v>
-      </c>
-      <c r="AQ25" s="25">
-        <v>98.29</v>
-      </c>
-      <c r="AR25" s="25">
-        <v>98.02</v>
-      </c>
       <c r="AS25" s="25">
-        <v>98.07</v>
+        <v>98.47</v>
       </c>
       <c r="AT25" s="25">
-        <v>97.98</v>
+        <v>98.47</v>
       </c>
       <c r="AU25" s="25">
-        <v>98.25</v>
+        <v>98.79</v>
       </c>
       <c r="AV25" s="25">
-        <v>99.05</v>
+        <v>99.61</v>
       </c>
       <c r="AW25" s="25">
-        <v>99.38</v>
+        <v>99.96</v>
       </c>
       <c r="AX25" s="25">
-        <v>99.63</v>
+        <v>100.1</v>
       </c>
       <c r="AY25" s="25">
-        <v>100.33</v>
+        <v>100.73</v>
       </c>
       <c r="AZ25" s="25">
-        <v>100.61</v>
+        <v>100.91</v>
       </c>
       <c r="BA25" s="25">
-        <v>99.87</v>
+        <v>99.99</v>
       </c>
       <c r="BB25" s="25">
-        <v>96.04</v>
+        <v>95.25</v>
       </c>
       <c r="BC25" s="25">
-        <v>92.12</v>
+        <v>91.23</v>
       </c>
       <c r="BD25" s="25">
-        <v>93.18</v>
+        <v>94.33</v>
       </c>
       <c r="BE25" s="25">
-        <v>94.31</v>
-      </c>
-      <c r="BF25" s="25"/>
-      <c r="BG25" s="25"/>
+        <v>96.68</v>
+      </c>
+      <c r="BF25" s="25">
+        <v>97.1</v>
+      </c>
+      <c r="BG25" s="25">
+        <v>98.12</v>
+      </c>
       <c r="BH25" s="25"/>
       <c r="BI25" s="25"/>
       <c r="BJ25" s="25"/>
@@ -5543,172 +5622,176 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.84</v>
+        <v>94.89</v>
       </c>
       <c r="D26" s="25">
-        <v>97.22</v>
+        <v>97.39</v>
       </c>
       <c r="E26" s="25">
-        <v>97.52</v>
+        <v>97.82</v>
       </c>
       <c r="F26" s="25">
-        <v>98.75</v>
+        <v>99.06</v>
       </c>
       <c r="G26" s="25">
-        <v>99.98</v>
+        <v>100.2</v>
       </c>
       <c r="H26" s="25">
-        <v>100.77</v>
+        <v>100.71</v>
       </c>
       <c r="I26" s="25">
-        <v>100.12</v>
+        <v>100.18</v>
       </c>
       <c r="J26" s="25">
-        <v>100.05</v>
+        <v>100.11</v>
       </c>
       <c r="K26" s="25">
-        <v>99.67</v>
+        <v>99.75</v>
       </c>
       <c r="L26" s="25">
-        <v>100</v>
+        <v>99.95</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.79</v>
+        <v>98.44</v>
       </c>
       <c r="O26" s="25">
-        <v>95.08</v>
+        <v>93.86</v>
       </c>
       <c r="P26" s="25">
-        <v>92.01</v>
+        <v>90.97</v>
       </c>
       <c r="Q26" s="25">
-        <v>89.12</v>
+        <v>88.65</v>
       </c>
       <c r="R26" s="25">
-        <v>88.54</v>
+        <v>88.57</v>
       </c>
       <c r="S26" s="25">
-        <v>88.77</v>
+        <v>89</v>
       </c>
       <c r="T26" s="25">
-        <v>89.05</v>
+        <v>89.33</v>
       </c>
       <c r="U26" s="25">
-        <v>89.61</v>
+        <v>90.02</v>
       </c>
       <c r="V26" s="25">
-        <v>89.46</v>
+        <v>89.94</v>
       </c>
       <c r="W26" s="25">
-        <v>89.39</v>
+        <v>90.02</v>
       </c>
       <c r="X26" s="25">
-        <v>89.49</v>
+        <v>89.93</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.43</v>
+        <v>90.93</v>
       </c>
       <c r="Z26" s="25">
-        <v>91.61</v>
+        <v>92.14</v>
       </c>
       <c r="AA26" s="25">
-        <v>92.35</v>
+        <v>92.44</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.34</v>
+        <v>92.12</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.43</v>
+        <v>92.64</v>
       </c>
       <c r="AE26" s="25">
-        <v>92.43</v>
+        <v>92.68</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.51</v>
+        <v>92.89</v>
       </c>
       <c r="AG26" s="25">
-        <v>93.12</v>
+        <v>93.52</v>
       </c>
       <c r="AH26" s="25">
-        <v>93.53</v>
+        <v>93.89</v>
       </c>
       <c r="AI26" s="25">
-        <v>93.38</v>
+        <v>93.72</v>
       </c>
       <c r="AJ26" s="25">
-        <v>93.48</v>
+        <v>93.86</v>
       </c>
       <c r="AK26" s="25">
-        <v>93.5</v>
+        <v>93.93</v>
       </c>
       <c r="AL26" s="25">
-        <v>94.06</v>
+        <v>94.39</v>
       </c>
       <c r="AM26" s="25">
-        <v>94.53</v>
+        <v>94.85</v>
       </c>
       <c r="AN26" s="25">
-        <v>94.75</v>
+        <v>94.96</v>
       </c>
       <c r="AO26" s="25">
-        <v>94.43</v>
+        <v>94.49</v>
       </c>
       <c r="AP26" s="25">
-        <v>93.73</v>
+        <v>93.58</v>
       </c>
       <c r="AQ26" s="25">
+        <v>93.36</v>
+      </c>
+      <c r="AR26" s="25">
         <v>93.61</v>
       </c>
-      <c r="AR26" s="25">
-        <v>93.58</v>
-      </c>
       <c r="AS26" s="25">
-        <v>93.64</v>
+        <v>93.68</v>
       </c>
       <c r="AT26" s="25">
-        <v>93.42</v>
+        <v>93.3</v>
       </c>
       <c r="AU26" s="25">
-        <v>94.16</v>
+        <v>93.85</v>
       </c>
       <c r="AV26" s="25">
-        <v>94.14</v>
+        <v>93.89</v>
       </c>
       <c r="AW26" s="25">
-        <v>94.77</v>
+        <v>94.57</v>
       </c>
       <c r="AX26" s="25">
-        <v>95.67</v>
+        <v>95.42</v>
       </c>
       <c r="AY26" s="25">
-        <v>96.54</v>
+        <v>96.13</v>
       </c>
       <c r="AZ26" s="25">
-        <v>96.58</v>
+        <v>95.49</v>
       </c>
       <c r="BA26" s="25">
-        <v>96.08</v>
+        <v>94.39</v>
       </c>
       <c r="BB26" s="25">
-        <v>93.49</v>
+        <v>91.69</v>
       </c>
       <c r="BC26" s="25">
-        <v>91.19</v>
+        <v>89.02</v>
       </c>
       <c r="BD26" s="25">
-        <v>91.65</v>
+        <v>90.82</v>
       </c>
       <c r="BE26" s="25">
-        <v>92.26</v>
-      </c>
-      <c r="BF26" s="25"/>
-      <c r="BG26" s="25"/>
+        <v>92.36</v>
+      </c>
+      <c r="BF26" s="25">
+        <v>93.21</v>
+      </c>
+      <c r="BG26" s="25">
+        <v>93.6</v>
+      </c>
       <c r="BH26" s="25"/>
       <c r="BI26" s="25"/>
       <c r="BJ26" s="25"/>
@@ -5734,175 +5817,179 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="25">
-        <v>98.06</v>
+        <v>98.47</v>
       </c>
       <c r="D27" s="25">
-        <v>98.95</v>
+        <v>99.31</v>
       </c>
       <c r="E27" s="25">
-        <v>100.49</v>
+        <v>100.9</v>
       </c>
       <c r="F27" s="25">
-        <v>100.46</v>
+        <v>100.87</v>
       </c>
       <c r="G27" s="25">
-        <v>100.81</v>
+        <v>101.17</v>
       </c>
       <c r="H27" s="25">
-        <v>100.7</v>
+        <v>100.93</v>
       </c>
       <c r="I27" s="25">
-        <v>101.33</v>
+        <v>101.48</v>
       </c>
       <c r="J27" s="25">
-        <v>100.47</v>
+        <v>100.68</v>
       </c>
       <c r="K27" s="25">
-        <v>98.46</v>
+        <v>98.75</v>
       </c>
       <c r="L27" s="25">
-        <v>99.04</v>
+        <v>99.12</v>
       </c>
       <c r="M27" s="25">
         <v>100</v>
       </c>
       <c r="N27" s="25">
-        <v>99.59</v>
+        <v>99.74</v>
       </c>
       <c r="O27" s="25">
-        <v>98.13</v>
+        <v>97.83</v>
       </c>
       <c r="P27" s="25">
-        <v>95.88</v>
+        <v>95.59</v>
       </c>
       <c r="Q27" s="25">
-        <v>94.84</v>
+        <v>94.87</v>
       </c>
       <c r="R27" s="25">
-        <v>95.43</v>
+        <v>95.69</v>
       </c>
       <c r="S27" s="25">
-        <v>95.6</v>
+        <v>95.76</v>
       </c>
       <c r="T27" s="25">
-        <v>94.94</v>
+        <v>95.08</v>
       </c>
       <c r="U27" s="25">
-        <v>95.38</v>
+        <v>95.87</v>
       </c>
       <c r="V27" s="25">
-        <v>94.43</v>
+        <v>95.1</v>
       </c>
       <c r="W27" s="25">
-        <v>95.5</v>
+        <v>95.94</v>
       </c>
       <c r="X27" s="25">
-        <v>95.23</v>
+        <v>95.95</v>
       </c>
       <c r="Y27" s="25">
-        <v>96.86</v>
+        <v>97.65</v>
       </c>
       <c r="Z27" s="25">
-        <v>95.44</v>
+        <v>96.16</v>
       </c>
       <c r="AA27" s="25">
-        <v>94.32</v>
+        <v>94.97</v>
       </c>
       <c r="AB27" s="25">
-        <v>93.68</v>
+        <v>94.4</v>
       </c>
       <c r="AC27" s="25">
-        <v>94.23</v>
+        <v>94.97</v>
       </c>
       <c r="AD27" s="25">
-        <v>94.74</v>
+        <v>95.49</v>
       </c>
       <c r="AE27" s="25">
-        <v>95.45</v>
+        <v>96.27</v>
       </c>
       <c r="AF27" s="25">
-        <v>95.12</v>
+        <v>95.97</v>
       </c>
       <c r="AG27" s="25">
-        <v>96.1</v>
+        <v>97.03</v>
       </c>
       <c r="AH27" s="25">
-        <v>95.1</v>
+        <v>96</v>
       </c>
       <c r="AI27" s="25">
-        <v>95.36</v>
+        <v>96.23</v>
       </c>
       <c r="AJ27" s="25">
-        <v>94.98</v>
+        <v>95.84</v>
       </c>
       <c r="AK27" s="25">
-        <v>94.92</v>
+        <v>95.74</v>
       </c>
       <c r="AL27" s="25">
-        <v>94.87</v>
+        <v>95.63</v>
       </c>
       <c r="AM27" s="25">
-        <v>95.11</v>
+        <v>95.85</v>
       </c>
       <c r="AN27" s="25">
-        <v>95.7</v>
+        <v>96.35</v>
       </c>
       <c r="AO27" s="25">
-        <v>95.7</v>
+        <v>96.18</v>
       </c>
       <c r="AP27" s="25">
-        <v>95.01</v>
+        <v>95.61</v>
       </c>
       <c r="AQ27" s="25">
-        <v>95.62</v>
+        <v>96.29</v>
       </c>
       <c r="AR27" s="25">
-        <v>96.12</v>
+        <v>96.79</v>
       </c>
       <c r="AS27" s="25">
-        <v>95.93</v>
+        <v>96.59</v>
       </c>
       <c r="AT27" s="25">
-        <v>95.1</v>
+        <v>95.71</v>
       </c>
       <c r="AU27" s="25">
-        <v>96.01</v>
+        <v>96.49</v>
       </c>
       <c r="AV27" s="25">
-        <v>96.79</v>
+        <v>97.11</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.11</v>
+        <v>98.1</v>
       </c>
       <c r="AX27" s="25">
-        <v>97.84</v>
+        <v>98.03</v>
       </c>
       <c r="AY27" s="25">
-        <v>98.35</v>
+        <v>98.59</v>
       </c>
       <c r="AZ27" s="25">
-        <v>99.15</v>
+        <v>99.14</v>
       </c>
       <c r="BA27" s="25">
-        <v>99.53</v>
+        <v>98.98</v>
       </c>
       <c r="BB27" s="25">
-        <v>98.36</v>
+        <v>96.53</v>
       </c>
       <c r="BC27" s="25">
-        <v>96.24</v>
+        <v>93.73</v>
       </c>
       <c r="BD27" s="25">
-        <v>96.95</v>
+        <v>95.15</v>
       </c>
       <c r="BE27" s="25">
-        <v>98.29</v>
-      </c>
-      <c r="BF27" s="25"/>
-      <c r="BG27" s="25"/>
+        <v>95.83</v>
+      </c>
+      <c r="BF27" s="25">
+        <v>96.45</v>
+      </c>
+      <c r="BG27" s="25">
+        <v>98.95</v>
+      </c>
       <c r="BH27" s="25"/>
       <c r="BI27" s="25"/>
       <c r="BJ27" s="25"/>
@@ -5928,175 +6015,179 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="25">
-        <v>86.18</v>
+        <v>86.29</v>
       </c>
       <c r="D28" s="25">
-        <v>90.01</v>
+        <v>91.52</v>
       </c>
       <c r="E28" s="25">
-        <v>92.58</v>
+        <v>97.26</v>
       </c>
       <c r="F28" s="25">
-        <v>94.06</v>
+        <v>96.3</v>
       </c>
       <c r="G28" s="25">
-        <v>95.27</v>
+        <v>95.33</v>
       </c>
       <c r="H28" s="25">
-        <v>96.49</v>
+        <v>96.43</v>
       </c>
       <c r="I28" s="25">
-        <v>97.53</v>
+        <v>97.51</v>
       </c>
       <c r="J28" s="25">
-        <v>98.01</v>
+        <v>97.89</v>
       </c>
       <c r="K28" s="25">
-        <v>98.63</v>
+        <v>98.61</v>
       </c>
       <c r="L28" s="25">
-        <v>99.58</v>
+        <v>99.52</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="O28" s="25">
-        <v>96.02</v>
+        <v>94.91</v>
       </c>
       <c r="P28" s="25">
-        <v>92.87</v>
+        <v>91.44</v>
       </c>
       <c r="Q28" s="25">
-        <v>90.14</v>
+        <v>89.43</v>
       </c>
       <c r="R28" s="25">
-        <v>89.28</v>
+        <v>89.29</v>
       </c>
       <c r="S28" s="25">
-        <v>90.27</v>
+        <v>90.61</v>
       </c>
       <c r="T28" s="25">
-        <v>90.85</v>
+        <v>91.24</v>
       </c>
       <c r="U28" s="25">
-        <v>92.15</v>
+        <v>92.57</v>
       </c>
       <c r="V28" s="25">
-        <v>93.47</v>
+        <v>93.93</v>
       </c>
       <c r="W28" s="25">
-        <v>94.67</v>
+        <v>95.24</v>
       </c>
       <c r="X28" s="25">
-        <v>95.31</v>
+        <v>95.99</v>
       </c>
       <c r="Y28" s="25">
-        <v>96.55</v>
+        <v>97.08</v>
       </c>
       <c r="Z28" s="25">
-        <v>97.55</v>
+        <v>98.02</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.26</v>
+        <v>98.64</v>
       </c>
       <c r="AB28" s="25">
-        <v>98.99</v>
+        <v>98.97</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.92</v>
+        <v>101.49</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.28</v>
+        <v>102.01</v>
       </c>
       <c r="AE28" s="25">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="AF28" s="25">
-        <v>102.37</v>
+        <v>102.65</v>
       </c>
       <c r="AG28" s="25">
-        <v>102.85</v>
+        <v>103.02</v>
       </c>
       <c r="AH28" s="25">
-        <v>103.17</v>
+        <v>103.33</v>
       </c>
       <c r="AI28" s="25">
-        <v>103.64</v>
+        <v>103.75</v>
       </c>
       <c r="AJ28" s="25">
-        <v>103.76</v>
+        <v>103.92</v>
       </c>
       <c r="AK28" s="25">
-        <v>104.18</v>
+        <v>104.34</v>
       </c>
       <c r="AL28" s="25">
-        <v>104.18</v>
+        <v>104.36</v>
       </c>
       <c r="AM28" s="25">
-        <v>104.83</v>
+        <v>105.06</v>
       </c>
       <c r="AN28" s="25">
-        <v>105.7</v>
+        <v>105.65</v>
       </c>
       <c r="AO28" s="25">
-        <v>105.67</v>
+        <v>105.42</v>
       </c>
       <c r="AP28" s="25">
+        <v>103.82</v>
+      </c>
+      <c r="AQ28" s="25">
+        <v>102.84</v>
+      </c>
+      <c r="AR28" s="25">
+        <v>103.53</v>
+      </c>
+      <c r="AS28" s="25">
+        <v>103.89</v>
+      </c>
+      <c r="AT28" s="25">
+        <v>104.4</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>104.89</v>
+      </c>
+      <c r="AV28" s="25">
+        <v>105.07</v>
+      </c>
+      <c r="AW28" s="25">
+        <v>105.29</v>
+      </c>
+      <c r="AX28" s="25">
+        <v>105.36</v>
+      </c>
+      <c r="AY28" s="25">
+        <v>105.31</v>
+      </c>
+      <c r="AZ28" s="25">
         <v>104.74</v>
       </c>
-      <c r="AQ28" s="25">
-        <v>104.03</v>
-      </c>
-      <c r="AR28" s="25">
-        <v>104.19</v>
-      </c>
-      <c r="AS28" s="25">
-        <v>104.25</v>
-      </c>
-      <c r="AT28" s="25">
-        <v>104.65</v>
-      </c>
-      <c r="AU28" s="25">
-        <v>104.94</v>
-      </c>
-      <c r="AV28" s="25">
-        <v>105.13</v>
-      </c>
-      <c r="AW28" s="25">
-        <v>105.33</v>
-      </c>
-      <c r="AX28" s="25">
-        <v>105.5</v>
-      </c>
-      <c r="AY28" s="25">
-        <v>105.42</v>
-      </c>
-      <c r="AZ28" s="25">
-        <v>104.89</v>
-      </c>
       <c r="BA28" s="25">
-        <v>103.28</v>
+        <v>102.77</v>
       </c>
       <c r="BB28" s="25">
-        <v>97.62</v>
+        <v>94.79</v>
       </c>
       <c r="BC28" s="25">
-        <v>92.55</v>
+        <v>89.83</v>
       </c>
       <c r="BD28" s="25">
-        <v>92.53</v>
+        <v>93.25</v>
       </c>
       <c r="BE28" s="25">
-        <v>93.74</v>
-      </c>
-      <c r="BF28" s="25"/>
-      <c r="BG28" s="25"/>
+        <v>96.38</v>
+      </c>
+      <c r="BF28" s="25">
+        <v>97.01</v>
+      </c>
+      <c r="BG28" s="25">
+        <v>98.16</v>
+      </c>
       <c r="BH28" s="25"/>
       <c r="BI28" s="25"/>
       <c r="BJ28" s="25"/>
@@ -6125,172 +6216,176 @@
         <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>92.83</v>
+        <v>91.34</v>
       </c>
       <c r="D29" s="25">
-        <v>94.73</v>
+        <v>92.74</v>
       </c>
       <c r="E29" s="25">
-        <v>96.13</v>
+        <v>94.24</v>
       </c>
       <c r="F29" s="25">
-        <v>97.48</v>
+        <v>97.97</v>
       </c>
       <c r="G29" s="25">
-        <v>98.35</v>
+        <v>98.57</v>
       </c>
       <c r="H29" s="25">
-        <v>99.33</v>
+        <v>99.4</v>
       </c>
       <c r="I29" s="25">
-        <v>99.72</v>
+        <v>99.74</v>
       </c>
       <c r="J29" s="25">
-        <v>99.8</v>
+        <v>99.89</v>
       </c>
       <c r="K29" s="25">
-        <v>100.01</v>
+        <v>100.15</v>
       </c>
       <c r="L29" s="25">
-        <v>99.87</v>
+        <v>99.94</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.54</v>
+        <v>98.44</v>
       </c>
       <c r="O29" s="25">
-        <v>94.34</v>
+        <v>93.39</v>
       </c>
       <c r="P29" s="25">
-        <v>91.61</v>
+        <v>90.63</v>
       </c>
       <c r="Q29" s="25">
+        <v>89.64</v>
+      </c>
+      <c r="R29" s="25">
+        <v>89.72</v>
+      </c>
+      <c r="S29" s="25">
         <v>90.12</v>
       </c>
-      <c r="R29" s="25">
-        <v>89.57</v>
-      </c>
-      <c r="S29" s="25">
-        <v>89.7</v>
-      </c>
       <c r="T29" s="25">
-        <v>90.32</v>
+        <v>90.91</v>
       </c>
       <c r="U29" s="25">
-        <v>91.14</v>
+        <v>91.89</v>
       </c>
       <c r="V29" s="25">
-        <v>92.54</v>
+        <v>93.45</v>
       </c>
       <c r="W29" s="25">
-        <v>93.01</v>
+        <v>93.92</v>
       </c>
       <c r="X29" s="25">
-        <v>93.1</v>
+        <v>93.98</v>
       </c>
       <c r="Y29" s="25">
-        <v>93.79</v>
+        <v>94.46</v>
       </c>
       <c r="Z29" s="25">
-        <v>94.38</v>
+        <v>95.12</v>
       </c>
       <c r="AA29" s="25">
-        <v>95.31</v>
+        <v>96.11</v>
       </c>
       <c r="AB29" s="25">
-        <v>95.75</v>
+        <v>96.18</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.43</v>
+        <v>96.64</v>
       </c>
       <c r="AD29" s="25">
-        <v>96</v>
+        <v>96.27</v>
       </c>
       <c r="AE29" s="25">
-        <v>95.04</v>
+        <v>95.43</v>
       </c>
       <c r="AF29" s="25">
-        <v>95</v>
+        <v>95.6</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.31</v>
+        <v>95.87</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.39</v>
+        <v>96.91</v>
       </c>
       <c r="AI29" s="25">
-        <v>96.94</v>
+        <v>97.45</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.17</v>
+        <v>97.63</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.09</v>
+        <v>97.36</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.25</v>
+        <v>97.59</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.27</v>
+        <v>97.61</v>
       </c>
       <c r="AN29" s="25">
-        <v>97.73</v>
+        <v>98.13</v>
       </c>
       <c r="AO29" s="25">
-        <v>97.67</v>
+        <v>98.04</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.23</v>
+        <v>97.49</v>
       </c>
       <c r="AQ29" s="25">
-        <v>96.73</v>
+        <v>96.91</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.95</v>
+        <v>96.81</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.44</v>
+        <v>97.2</v>
       </c>
       <c r="AT29" s="25">
-        <v>97.85</v>
+        <v>97.82</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.5</v>
+        <v>98.34</v>
       </c>
       <c r="AV29" s="25">
-        <v>98.98</v>
+        <v>98.74</v>
       </c>
       <c r="AW29" s="25">
-        <v>99.55</v>
+        <v>99.19</v>
       </c>
       <c r="AX29" s="25">
-        <v>99.48</v>
+        <v>99.02</v>
       </c>
       <c r="AY29" s="25">
-        <v>99.48</v>
+        <v>99.22</v>
       </c>
       <c r="AZ29" s="25">
-        <v>99.18</v>
+        <v>98.81</v>
       </c>
       <c r="BA29" s="25">
-        <v>98.53</v>
+        <v>97.77</v>
       </c>
       <c r="BB29" s="25">
-        <v>95.44</v>
+        <v>92.42</v>
       </c>
       <c r="BC29" s="25">
-        <v>93.25</v>
+        <v>90.41</v>
       </c>
       <c r="BD29" s="25">
-        <v>93.07</v>
+        <v>92.83</v>
       </c>
       <c r="BE29" s="25">
-        <v>93.81</v>
-      </c>
-      <c r="BF29" s="25"/>
-      <c r="BG29" s="25"/>
+        <v>95.66</v>
+      </c>
+      <c r="BF29" s="25">
+        <v>96.2</v>
+      </c>
+      <c r="BG29" s="25">
+        <v>97.26</v>
+      </c>
       <c r="BH29" s="25"/>
       <c r="BI29" s="25"/>
       <c r="BJ29" s="25"/>
@@ -6316,175 +6411,179 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="25">
-        <v>95.38</v>
+        <v>96.52</v>
       </c>
       <c r="D30" s="25">
-        <v>95.77</v>
+        <v>96.64</v>
       </c>
       <c r="E30" s="25">
-        <v>96</v>
+        <v>95.46</v>
       </c>
       <c r="F30" s="25">
-        <v>96.99</v>
+        <v>96.04</v>
       </c>
       <c r="G30" s="25">
-        <v>97.51</v>
+        <v>97.62</v>
       </c>
       <c r="H30" s="25">
-        <v>99.85</v>
+        <v>99.91</v>
       </c>
       <c r="I30" s="25">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="J30" s="25">
-        <v>98.54</v>
+        <v>98.58</v>
       </c>
       <c r="K30" s="25">
-        <v>97.97</v>
+        <v>98.05</v>
       </c>
       <c r="L30" s="25">
-        <v>99.05</v>
+        <v>99.03</v>
       </c>
       <c r="M30" s="25">
         <v>100</v>
       </c>
       <c r="N30" s="25">
-        <v>98.9</v>
+        <v>98.67</v>
       </c>
       <c r="O30" s="25">
-        <v>97.48</v>
+        <v>96.98</v>
       </c>
       <c r="P30" s="25">
-        <v>96.99</v>
+        <v>96.63</v>
       </c>
       <c r="Q30" s="25">
-        <v>95.97</v>
+        <v>95.78</v>
       </c>
       <c r="R30" s="25">
-        <v>95.67</v>
+        <v>95.75</v>
       </c>
       <c r="S30" s="25">
-        <v>95.85</v>
+        <v>96.1</v>
       </c>
       <c r="T30" s="25">
-        <v>96.25</v>
+        <v>96.59</v>
       </c>
       <c r="U30" s="25">
-        <v>96.43</v>
+        <v>96.87</v>
       </c>
       <c r="V30" s="25">
-        <v>96.65</v>
+        <v>97.1</v>
       </c>
       <c r="W30" s="25">
-        <v>97.25</v>
+        <v>97.73</v>
       </c>
       <c r="X30" s="25">
+        <v>97.97</v>
+      </c>
+      <c r="Y30" s="25">
+        <v>96.32</v>
+      </c>
+      <c r="Z30" s="25">
         <v>97.41</v>
       </c>
-      <c r="Y30" s="25">
-        <v>96.39</v>
-      </c>
-      <c r="Z30" s="25">
-        <v>97.5</v>
-      </c>
       <c r="AA30" s="25">
-        <v>98.17</v>
+        <v>98.02</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.84</v>
+        <v>96.4</v>
       </c>
       <c r="AC30" s="25">
-        <v>98.17</v>
+        <v>97.89</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.86</v>
+        <v>98.82</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.55</v>
+        <v>98.58</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.47</v>
+        <v>98.77</v>
       </c>
       <c r="AG30" s="25">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.51</v>
+        <v>100.8</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.2</v>
+        <v>100.35</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.53</v>
+        <v>100.83</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.49</v>
+        <v>100.74</v>
       </c>
       <c r="AL30" s="25">
-        <v>99.78</v>
+        <v>100.08</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.03</v>
+        <v>100.21</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.15</v>
+        <v>100.22</v>
       </c>
       <c r="AP30" s="25">
         <v>99.81</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.34</v>
+        <v>99.29</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.61</v>
+        <v>99.7</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.31</v>
+        <v>100.32</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.56</v>
+        <v>100.62</v>
       </c>
       <c r="AU30" s="25">
-        <v>101.27</v>
+        <v>100.89</v>
       </c>
       <c r="AV30" s="25">
-        <v>101.24</v>
+        <v>100.92</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.72</v>
+        <v>101.21</v>
       </c>
       <c r="AX30" s="25">
-        <v>102.03</v>
+        <v>101.71</v>
       </c>
       <c r="AY30" s="25">
-        <v>102.7</v>
+        <v>102.51</v>
       </c>
       <c r="AZ30" s="25">
-        <v>103.07</v>
+        <v>102.47</v>
       </c>
       <c r="BA30" s="25">
-        <v>102.44</v>
+        <v>101.61</v>
       </c>
       <c r="BB30" s="25">
-        <v>100.52</v>
+        <v>98.65</v>
       </c>
       <c r="BC30" s="25">
-        <v>99.86</v>
+        <v>97.48</v>
       </c>
       <c r="BD30" s="25">
-        <v>99.56</v>
+        <v>98.87</v>
       </c>
       <c r="BE30" s="25">
-        <v>99.94</v>
-      </c>
-      <c r="BF30" s="25"/>
-      <c r="BG30" s="25"/>
+        <v>100.08</v>
+      </c>
+      <c r="BF30" s="25">
+        <v>100.84</v>
+      </c>
+      <c r="BG30" s="25">
+        <v>102.33</v>
+      </c>
       <c r="BH30" s="25"/>
       <c r="BI30" s="25"/>
       <c r="BJ30" s="25"/>
@@ -6510,34 +6609,34 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="25">
-        <v>84.94</v>
+        <v>84.76</v>
       </c>
       <c r="D31" s="25">
-        <v>89.89</v>
+        <v>90.03</v>
       </c>
       <c r="E31" s="25">
-        <v>93.51</v>
+        <v>93.81</v>
       </c>
       <c r="F31" s="25">
-        <v>94.65</v>
+        <v>94.72</v>
       </c>
       <c r="G31" s="25">
-        <v>95.28</v>
+        <v>95.47</v>
       </c>
       <c r="H31" s="25">
-        <v>96.99</v>
+        <v>97.16</v>
       </c>
       <c r="I31" s="25">
-        <v>98.08</v>
+        <v>98.12</v>
       </c>
       <c r="J31" s="25">
-        <v>98.58</v>
+        <v>98.6</v>
       </c>
       <c r="K31" s="25">
-        <v>99.22</v>
+        <v>99.35</v>
       </c>
       <c r="L31" s="25">
         <v>100.14</v>
@@ -6546,139 +6645,143 @@
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.52</v>
+        <v>99.07</v>
       </c>
       <c r="O31" s="25">
-        <v>95.74</v>
+        <v>94.48</v>
       </c>
       <c r="P31" s="25">
+        <v>90.91</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>89.3</v>
+      </c>
+      <c r="R31" s="25">
+        <v>89.3</v>
+      </c>
+      <c r="S31" s="25">
+        <v>89.67</v>
+      </c>
+      <c r="T31" s="25">
+        <v>90.65</v>
+      </c>
+      <c r="U31" s="25">
         <v>92.06</v>
       </c>
-      <c r="Q31" s="25">
-        <v>89.77</v>
-      </c>
-      <c r="R31" s="25">
-        <v>89.26</v>
-      </c>
-      <c r="S31" s="25">
-        <v>89.42</v>
-      </c>
-      <c r="T31" s="25">
-        <v>90.35</v>
-      </c>
-      <c r="U31" s="25">
-        <v>91.63</v>
-      </c>
       <c r="V31" s="25">
-        <v>92.18</v>
+        <v>92.81</v>
       </c>
       <c r="W31" s="25">
-        <v>92.66</v>
+        <v>93.34</v>
       </c>
       <c r="X31" s="25">
-        <v>93.85</v>
+        <v>94.4</v>
       </c>
       <c r="Y31" s="25">
-        <v>94.91</v>
+        <v>95.34</v>
       </c>
       <c r="Z31" s="25">
-        <v>95.73</v>
+        <v>96.2</v>
       </c>
       <c r="AA31" s="25">
-        <v>96.61</v>
+        <v>97.02</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.22</v>
+        <v>98.45</v>
       </c>
       <c r="AC31" s="25">
-        <v>100.74</v>
+        <v>100.42</v>
       </c>
       <c r="AD31" s="25">
-        <v>101.22</v>
+        <v>100.93</v>
       </c>
       <c r="AE31" s="25">
-        <v>101.02</v>
+        <v>100.93</v>
       </c>
       <c r="AF31" s="25">
-        <v>101.6</v>
+        <v>101.64</v>
       </c>
       <c r="AG31" s="25">
+        <v>102.6</v>
+      </c>
+      <c r="AH31" s="25">
+        <v>103.17</v>
+      </c>
+      <c r="AI31" s="25">
+        <v>103.39</v>
+      </c>
+      <c r="AJ31" s="25">
+        <v>103.53</v>
+      </c>
+      <c r="AK31" s="25">
+        <v>103.69</v>
+      </c>
+      <c r="AL31" s="25">
+        <v>104.07</v>
+      </c>
+      <c r="AM31" s="25">
+        <v>104.58</v>
+      </c>
+      <c r="AN31" s="25">
+        <v>104.55</v>
+      </c>
+      <c r="AO31" s="25">
+        <v>104.48</v>
+      </c>
+      <c r="AP31" s="25">
+        <v>102.54</v>
+      </c>
+      <c r="AQ31" s="25">
+        <v>101.55</v>
+      </c>
+      <c r="AR31" s="25">
+        <v>102.76</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>103.12</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>103.12</v>
+      </c>
+      <c r="AU31" s="25">
+        <v>102.66</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>103.21</v>
+      </c>
+      <c r="AW31" s="25">
+        <v>103.41</v>
+      </c>
+      <c r="AX31" s="25">
+        <v>103.59</v>
+      </c>
+      <c r="AY31" s="25">
+        <v>104.12</v>
+      </c>
+      <c r="AZ31" s="25">
+        <v>103.9</v>
+      </c>
+      <c r="BA31" s="25">
         <v>102.34</v>
       </c>
-      <c r="AH31" s="25">
-        <v>102.76</v>
-      </c>
-      <c r="AI31" s="25">
-        <v>102.78</v>
-      </c>
-      <c r="AJ31" s="25">
-        <v>103</v>
-      </c>
-      <c r="AK31" s="25">
-        <v>103.18</v>
-      </c>
-      <c r="AL31" s="25">
-        <v>103.7</v>
-      </c>
-      <c r="AM31" s="25">
-        <v>104.19</v>
-      </c>
-      <c r="AN31" s="25">
-        <v>104.12</v>
-      </c>
-      <c r="AO31" s="25">
-        <v>104.24</v>
-      </c>
-      <c r="AP31" s="25">
-        <v>103.23</v>
-      </c>
-      <c r="AQ31" s="25">
-        <v>102.43</v>
-      </c>
-      <c r="AR31" s="25">
-        <v>103.09</v>
-      </c>
-      <c r="AS31" s="25">
-        <v>103.23</v>
-      </c>
-      <c r="AT31" s="25">
-        <v>103.09</v>
-      </c>
-      <c r="AU31" s="25">
-        <v>102.51</v>
-      </c>
-      <c r="AV31" s="25">
-        <v>102.86</v>
-      </c>
-      <c r="AW31" s="25">
-        <v>102.96</v>
-      </c>
-      <c r="AX31" s="25">
-        <v>103.32</v>
-      </c>
-      <c r="AY31" s="25">
-        <v>103.3</v>
-      </c>
-      <c r="AZ31" s="25">
-        <v>103.15</v>
-      </c>
-      <c r="BA31" s="25">
-        <v>101.99</v>
-      </c>
       <c r="BB31" s="25">
-        <v>96.54</v>
+        <v>95.42</v>
       </c>
       <c r="BC31" s="25">
-        <v>90.5</v>
+        <v>89.67</v>
       </c>
       <c r="BD31" s="25">
-        <v>89.49</v>
+        <v>92.47</v>
       </c>
       <c r="BE31" s="25">
-        <v>90.29</v>
-      </c>
-      <c r="BF31" s="25"/>
-      <c r="BG31" s="25"/>
+        <v>95.8</v>
+      </c>
+      <c r="BF31" s="25">
+        <v>96.45</v>
+      </c>
+      <c r="BG31" s="25">
+        <v>96.05</v>
+      </c>
       <c r="BH31" s="25"/>
       <c r="BI31" s="25"/>
       <c r="BJ31" s="25"/>
@@ -6707,172 +6810,176 @@
         <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.02</v>
+        <v>91.01</v>
       </c>
       <c r="D32" s="25">
-        <v>94.46</v>
+        <v>94.8</v>
       </c>
       <c r="E32" s="25">
-        <v>96.95</v>
+        <v>97.38</v>
       </c>
       <c r="F32" s="25">
-        <v>97.06</v>
+        <v>97.44</v>
       </c>
       <c r="G32" s="25">
-        <v>97.76</v>
+        <v>98.1</v>
       </c>
       <c r="H32" s="25">
-        <v>99.39</v>
+        <v>99.59</v>
       </c>
       <c r="I32" s="25">
-        <v>99.81</v>
+        <v>100.11</v>
       </c>
       <c r="J32" s="25">
-        <v>100.83</v>
+        <v>101.22</v>
       </c>
       <c r="K32" s="25">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="L32" s="25">
-        <v>101.74</v>
+        <v>101.86</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>98.99</v>
+        <v>98.5</v>
       </c>
       <c r="O32" s="25">
-        <v>94.44</v>
+        <v>93.1</v>
       </c>
       <c r="P32" s="25">
-        <v>90.6</v>
+        <v>89.57</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.4</v>
+        <v>86.97</v>
       </c>
       <c r="R32" s="25">
-        <v>87.01</v>
+        <v>87.31</v>
       </c>
       <c r="S32" s="25">
-        <v>86.99</v>
+        <v>87.51</v>
       </c>
       <c r="T32" s="25">
-        <v>86.89</v>
+        <v>87.52</v>
       </c>
       <c r="U32" s="25">
-        <v>87.9</v>
+        <v>88.58</v>
       </c>
       <c r="V32" s="25">
-        <v>88.7</v>
+        <v>89.35</v>
       </c>
       <c r="W32" s="25">
-        <v>89.73</v>
+        <v>90.39</v>
       </c>
       <c r="X32" s="25">
-        <v>90.35</v>
+        <v>90.95</v>
       </c>
       <c r="Y32" s="25">
-        <v>91</v>
+        <v>91.64</v>
       </c>
       <c r="Z32" s="25">
-        <v>91.89</v>
+        <v>92.64</v>
       </c>
       <c r="AA32" s="25">
-        <v>92.18</v>
+        <v>93.06</v>
       </c>
       <c r="AB32" s="25">
-        <v>92.3</v>
+        <v>92.84</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.31</v>
+        <v>93.33</v>
       </c>
       <c r="AD32" s="25">
-        <v>94.93</v>
+        <v>95.1</v>
       </c>
       <c r="AE32" s="25">
-        <v>94.37</v>
+        <v>94.77</v>
       </c>
       <c r="AF32" s="25">
-        <v>94.79</v>
+        <v>95.08</v>
       </c>
       <c r="AG32" s="25">
-        <v>95.03</v>
+        <v>95.32</v>
       </c>
       <c r="AH32" s="25">
-        <v>95.3</v>
+        <v>95.83</v>
       </c>
       <c r="AI32" s="25">
-        <v>95.48</v>
+        <v>96.04</v>
       </c>
       <c r="AJ32" s="25">
-        <v>95.46</v>
+        <v>96.02</v>
       </c>
       <c r="AK32" s="25">
-        <v>94.84</v>
+        <v>95.4</v>
       </c>
       <c r="AL32" s="25">
-        <v>95.26</v>
+        <v>95.85</v>
       </c>
       <c r="AM32" s="25">
-        <v>95.84</v>
+        <v>96.39</v>
       </c>
       <c r="AN32" s="25">
-        <v>95.59</v>
+        <v>96.23</v>
       </c>
       <c r="AO32" s="25">
-        <v>95.48</v>
+        <v>95.97</v>
       </c>
       <c r="AP32" s="25">
-        <v>95.54</v>
+        <v>95.79</v>
       </c>
       <c r="AQ32" s="25">
-        <v>95.98</v>
+        <v>95.99</v>
       </c>
       <c r="AR32" s="25">
-        <v>96.68</v>
+        <v>96.82</v>
       </c>
       <c r="AS32" s="25">
-        <v>97.61</v>
+        <v>97.75</v>
       </c>
       <c r="AT32" s="25">
-        <v>97.1</v>
+        <v>97.34</v>
       </c>
       <c r="AU32" s="25">
-        <v>96.9</v>
+        <v>96.91</v>
       </c>
       <c r="AV32" s="25">
-        <v>97</v>
+        <v>96.94</v>
       </c>
       <c r="AW32" s="25">
-        <v>97.89</v>
+        <v>97.79</v>
       </c>
       <c r="AX32" s="25">
-        <v>97.98</v>
+        <v>97.72</v>
       </c>
       <c r="AY32" s="25">
-        <v>98.04</v>
+        <v>97.88</v>
       </c>
       <c r="AZ32" s="25">
-        <v>98.16</v>
+        <v>98</v>
       </c>
       <c r="BA32" s="25">
-        <v>96.93</v>
+        <v>96.29</v>
       </c>
       <c r="BB32" s="25">
-        <v>92.26</v>
+        <v>90.31</v>
       </c>
       <c r="BC32" s="25">
-        <v>89.25</v>
+        <v>87.3</v>
       </c>
       <c r="BD32" s="25">
-        <v>89.53</v>
+        <v>90.18</v>
       </c>
       <c r="BE32" s="25">
-        <v>90.16</v>
-      </c>
-      <c r="BF32" s="25"/>
-      <c r="BG32" s="25"/>
+        <v>92.74</v>
+      </c>
+      <c r="BF32" s="25">
+        <v>93.92</v>
+      </c>
+      <c r="BG32" s="25">
+        <v>94.9</v>
+      </c>
       <c r="BH32" s="25"/>
       <c r="BI32" s="25"/>
       <c r="BJ32" s="25"/>
@@ -6898,175 +7005,179 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="25">
-        <v>96.49</v>
+        <v>96.66</v>
       </c>
       <c r="D33" s="25">
-        <v>96.91</v>
+        <v>97.04</v>
       </c>
       <c r="E33" s="25">
-        <v>98.11</v>
+        <v>98.21</v>
       </c>
       <c r="F33" s="25">
-        <v>98.35</v>
+        <v>98.12</v>
       </c>
       <c r="G33" s="25">
-        <v>98.71</v>
+        <v>98.02</v>
       </c>
       <c r="H33" s="25">
-        <v>99.5</v>
+        <v>97.84</v>
       </c>
       <c r="I33" s="25">
-        <v>101.28</v>
+        <v>97.95</v>
       </c>
       <c r="J33" s="25">
-        <v>99.42</v>
+        <v>97.85</v>
       </c>
       <c r="K33" s="25">
-        <v>97.58</v>
+        <v>97.53</v>
       </c>
       <c r="L33" s="25">
-        <v>98.68</v>
+        <v>98.7</v>
       </c>
       <c r="M33" s="25">
         <v>100</v>
       </c>
       <c r="N33" s="25">
-        <v>99.25</v>
+        <v>99.19</v>
       </c>
       <c r="O33" s="25">
-        <v>97.63</v>
+        <v>97.36</v>
       </c>
       <c r="P33" s="25">
-        <v>96.35</v>
+        <v>96.08</v>
       </c>
       <c r="Q33" s="25">
-        <v>96.08</v>
+        <v>96</v>
       </c>
       <c r="R33" s="25">
-        <v>95.84</v>
+        <v>95.96</v>
       </c>
       <c r="S33" s="25">
-        <v>96.12</v>
+        <v>96.36</v>
       </c>
       <c r="T33" s="25">
-        <v>96.42</v>
+        <v>96.67</v>
       </c>
       <c r="U33" s="25">
-        <v>96.06</v>
+        <v>96.32</v>
       </c>
       <c r="V33" s="25">
+        <v>96.73</v>
+      </c>
+      <c r="W33" s="25">
+        <v>96.97</v>
+      </c>
+      <c r="X33" s="25">
+        <v>96.73</v>
+      </c>
+      <c r="Y33" s="25">
+        <v>96.54</v>
+      </c>
+      <c r="Z33" s="25">
         <v>96.4</v>
       </c>
-      <c r="W33" s="25">
-        <v>96.69</v>
-      </c>
-      <c r="X33" s="25">
-        <v>96.41</v>
-      </c>
-      <c r="Y33" s="25">
+      <c r="AA33" s="25">
+        <v>95.97</v>
+      </c>
+      <c r="AB33" s="25">
+        <v>96.17</v>
+      </c>
+      <c r="AC33" s="25">
+        <v>96.94</v>
+      </c>
+      <c r="AD33" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AE33" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="AF33" s="25">
+        <v>97.44</v>
+      </c>
+      <c r="AG33" s="25">
+        <v>97.88</v>
+      </c>
+      <c r="AH33" s="25">
+        <v>97.88</v>
+      </c>
+      <c r="AI33" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AJ33" s="25">
+        <v>97.36</v>
+      </c>
+      <c r="AK33" s="25">
+        <v>97.61</v>
+      </c>
+      <c r="AL33" s="25">
+        <v>97.74</v>
+      </c>
+      <c r="AM33" s="25">
+        <v>98.1</v>
+      </c>
+      <c r="AN33" s="25">
+        <v>98.18</v>
+      </c>
+      <c r="AO33" s="25">
+        <v>97.84</v>
+      </c>
+      <c r="AP33" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="AQ33" s="25">
+        <v>97.71</v>
+      </c>
+      <c r="AR33" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="AS33" s="25">
+        <v>98.48</v>
+      </c>
+      <c r="AT33" s="25">
+        <v>97.69</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>97.85</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>98.18</v>
+      </c>
+      <c r="AW33" s="25">
+        <v>98.23</v>
+      </c>
+      <c r="AX33" s="25">
+        <v>98.24</v>
+      </c>
+      <c r="AY33" s="25">
+        <v>98.8</v>
+      </c>
+      <c r="AZ33" s="25">
+        <v>98.43</v>
+      </c>
+      <c r="BA33" s="25">
+        <v>98.53</v>
+      </c>
+      <c r="BB33" s="25">
         <v>96.21</v>
       </c>
-      <c r="Z33" s="25">
-        <v>96.07</v>
-      </c>
-      <c r="AA33" s="25">
-        <v>95.76</v>
-      </c>
-      <c r="AB33" s="25">
-        <v>96.08</v>
-      </c>
-      <c r="AC33" s="25">
-        <v>97.06</v>
-      </c>
-      <c r="AD33" s="25">
-        <v>97.84</v>
-      </c>
-      <c r="AE33" s="25">
-        <v>97.78</v>
-      </c>
-      <c r="AF33" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="AG33" s="25">
-        <v>97.92</v>
-      </c>
-      <c r="AH33" s="25">
-        <v>97.94</v>
-      </c>
-      <c r="AI33" s="25">
-        <v>97.68</v>
-      </c>
-      <c r="AJ33" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="AK33" s="25">
-        <v>97.64</v>
-      </c>
-      <c r="AL33" s="25">
-        <v>97.7</v>
-      </c>
-      <c r="AM33" s="25">
-        <v>98.14</v>
-      </c>
-      <c r="AN33" s="25">
-        <v>98.21</v>
-      </c>
-      <c r="AO33" s="25">
-        <v>97.97</v>
-      </c>
-      <c r="AP33" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="AQ33" s="25">
-        <v>97.82</v>
-      </c>
-      <c r="AR33" s="25">
-        <v>98.33</v>
-      </c>
-      <c r="AS33" s="25">
-        <v>98.47</v>
-      </c>
-      <c r="AT33" s="25">
-        <v>97.62</v>
-      </c>
-      <c r="AU33" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AV33" s="25">
-        <v>98.23</v>
-      </c>
-      <c r="AW33" s="25">
-        <v>98.32</v>
-      </c>
-      <c r="AX33" s="25">
-        <v>98.35</v>
-      </c>
-      <c r="AY33" s="25">
-        <v>98.9</v>
-      </c>
-      <c r="AZ33" s="25">
-        <v>98.9</v>
-      </c>
-      <c r="BA33" s="25">
-        <v>99.67</v>
-      </c>
-      <c r="BB33" s="25">
-        <v>97.97</v>
-      </c>
       <c r="BC33" s="25">
-        <v>96.17</v>
+        <v>94.19</v>
       </c>
       <c r="BD33" s="25">
-        <v>95.41</v>
+        <v>94.74</v>
       </c>
       <c r="BE33" s="25">
-        <v>97.44</v>
-      </c>
-      <c r="BF33" s="25"/>
-      <c r="BG33" s="25"/>
+        <v>96.5</v>
+      </c>
+      <c r="BF33" s="25">
+        <v>96.59</v>
+      </c>
+      <c r="BG33" s="25">
+        <v>97.93</v>
+      </c>
       <c r="BH33" s="25"/>
       <c r="BI33" s="25"/>
       <c r="BJ33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 30 January 2021\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 13 February 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E535B9A3-109F-497B-BF20-CB714DEF08E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61588E-9C03-40D8-B05F-04A58688AC5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,6 +95,9 @@
     <t>8. ACT</t>
   </si>
   <si>
+    <t>Payroll jobs index by Employment size</t>
+  </si>
+  <si>
     <t>Under 20 employees</t>
   </si>
   <si>
@@ -104,10 +107,13 @@
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 16 February 2021</t>
+    <t>Week ending Saturday 13 February 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 30 January 2021</t>
+    <t>Released at 11.30am (Canberra time) 3 March 2021</t>
+  </si>
+  <si>
+    <t>State or Territory</t>
   </si>
   <si>
     <t>Employment size</t>
@@ -116,16 +122,10 @@
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment size</t>
-  </si>
-  <si>
-    <t>Payroll jobs Index by Employment size</t>
-  </si>
-  <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs Index by Employment size</t>
   </si>
   <si>
-    <t>State or Territory</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Employer characteristics</t>
   </si>
 </sst>
 </file>
@@ -1124,12 +1124,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="29"/>
     </row>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:BZ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
@@ -1572,9 +1572,9 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="5"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1832,8 +1832,12 @@
       <c r="BG6" s="24">
         <v>44226</v>
       </c>
-      <c r="BH6" s="24"/>
-      <c r="BI6" s="24"/>
+      <c r="BH6" s="24">
+        <v>44233</v>
+      </c>
+      <c r="BI6" s="24">
+        <v>44240</v>
+      </c>
       <c r="BJ6" s="24"/>
       <c r="BK6" s="24"/>
       <c r="BL6" s="24"/>
@@ -1857,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="25">
         <v>87.32</v>
@@ -1872,7 +1876,7 @@
         <v>95.75</v>
       </c>
       <c r="G7" s="25">
-        <v>96.47</v>
+        <v>96.46</v>
       </c>
       <c r="H7" s="25">
         <v>97.62</v>
@@ -1887,7 +1891,7 @@
         <v>99.09</v>
       </c>
       <c r="L7" s="25">
-        <v>99.98</v>
+        <v>99.99</v>
       </c>
       <c r="M7" s="25">
         <v>100</v>
@@ -1899,139 +1903,143 @@
         <v>93.88</v>
       </c>
       <c r="P7" s="25">
-        <v>90.54</v>
+        <v>90.55</v>
       </c>
       <c r="Q7" s="25">
-        <v>88.71</v>
+        <v>88.72</v>
       </c>
       <c r="R7" s="25">
-        <v>88.52</v>
+        <v>88.53</v>
       </c>
       <c r="S7" s="25">
-        <v>89.28</v>
+        <v>89.29</v>
       </c>
       <c r="T7" s="25">
-        <v>90.45</v>
+        <v>90.46</v>
       </c>
       <c r="U7" s="25">
-        <v>91.8</v>
+        <v>91.81</v>
       </c>
       <c r="V7" s="25">
-        <v>92.97</v>
+        <v>92.98</v>
       </c>
       <c r="W7" s="25">
-        <v>93.57</v>
+        <v>93.58</v>
       </c>
       <c r="X7" s="25">
-        <v>94.09</v>
+        <v>94.1</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.39</v>
+        <v>95.4</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.91</v>
+        <v>95.93</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.47</v>
+        <v>96.48</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.33</v>
+        <v>97.36</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.38</v>
+        <v>99.49</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.11</v>
+        <v>100.27</v>
       </c>
       <c r="AE7" s="25">
-        <v>100.28</v>
+        <v>100.45</v>
       </c>
       <c r="AF7" s="25">
-        <v>100.7</v>
+        <v>100.88</v>
       </c>
       <c r="AG7" s="25">
-        <v>100.84</v>
+        <v>101.01</v>
       </c>
       <c r="AH7" s="25">
-        <v>100.88</v>
+        <v>101.07</v>
       </c>
       <c r="AI7" s="25">
-        <v>100.88</v>
+        <v>101.08</v>
       </c>
       <c r="AJ7" s="25">
-        <v>101.01</v>
+        <v>101.21</v>
       </c>
       <c r="AK7" s="25">
-        <v>101.27</v>
+        <v>101.47</v>
       </c>
       <c r="AL7" s="25">
-        <v>101.52</v>
+        <v>101.74</v>
       </c>
       <c r="AM7" s="25">
-        <v>102.06</v>
+        <v>102.29</v>
       </c>
       <c r="AN7" s="25">
-        <v>102.11</v>
+        <v>102.36</v>
       </c>
       <c r="AO7" s="25">
-        <v>101.84</v>
+        <v>102.14</v>
       </c>
       <c r="AP7" s="25">
-        <v>100.21</v>
+        <v>100.64</v>
       </c>
       <c r="AQ7" s="25">
-        <v>99.67</v>
+        <v>100.23</v>
       </c>
       <c r="AR7" s="25">
-        <v>100.37</v>
+        <v>100.96</v>
       </c>
       <c r="AS7" s="25">
-        <v>100.7</v>
+        <v>101.32</v>
       </c>
       <c r="AT7" s="25">
-        <v>100.93</v>
+        <v>101.58</v>
       </c>
       <c r="AU7" s="25">
-        <v>101.23</v>
+        <v>101.99</v>
       </c>
       <c r="AV7" s="25">
-        <v>101.93</v>
+        <v>102.72</v>
       </c>
       <c r="AW7" s="25">
-        <v>102.26</v>
+        <v>103.05</v>
       </c>
       <c r="AX7" s="25">
-        <v>102.53</v>
+        <v>103.38</v>
       </c>
       <c r="AY7" s="25">
-        <v>103</v>
+        <v>103.94</v>
       </c>
       <c r="AZ7" s="25">
-        <v>103</v>
+        <v>104.04</v>
       </c>
       <c r="BA7" s="25">
-        <v>101.59</v>
+        <v>102.78</v>
       </c>
       <c r="BB7" s="25">
-        <v>95.89</v>
+        <v>97.21</v>
       </c>
       <c r="BC7" s="25">
-        <v>90.67</v>
+        <v>92.16</v>
       </c>
       <c r="BD7" s="25">
-        <v>92.7</v>
+        <v>93.71</v>
       </c>
       <c r="BE7" s="25">
-        <v>95.56</v>
+        <v>96.63</v>
       </c>
       <c r="BF7" s="25">
-        <v>95.52</v>
+        <v>98.14</v>
       </c>
       <c r="BG7" s="25">
-        <v>96.1</v>
-      </c>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
+        <v>98.16</v>
+      </c>
+      <c r="BH7" s="25">
+        <v>95.78</v>
+      </c>
+      <c r="BI7" s="25">
+        <v>96.19</v>
+      </c>
       <c r="BJ7" s="25"/>
       <c r="BK7" s="25"/>
       <c r="BL7" s="25"/>
@@ -2058,31 +2066,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="25">
-        <v>92.04</v>
+        <v>92.03</v>
       </c>
       <c r="D8" s="25">
-        <v>95.47</v>
+        <v>95.46</v>
       </c>
       <c r="E8" s="25">
-        <v>97.25</v>
+        <v>97.24</v>
       </c>
       <c r="F8" s="25">
         <v>98.08</v>
       </c>
       <c r="G8" s="25">
-        <v>98.56</v>
+        <v>98.55</v>
       </c>
       <c r="H8" s="25">
-        <v>99.47</v>
+        <v>99.46</v>
       </c>
       <c r="I8" s="25">
         <v>99.77</v>
       </c>
       <c r="J8" s="25">
-        <v>100.14</v>
+        <v>100.13</v>
       </c>
       <c r="K8" s="25">
-        <v>100.3</v>
+        <v>100.29</v>
       </c>
       <c r="L8" s="25">
         <v>100.15</v>
@@ -2097,139 +2105,143 @@
         <v>92.82</v>
       </c>
       <c r="P8" s="25">
-        <v>89.41</v>
+        <v>89.4</v>
       </c>
       <c r="Q8" s="25">
-        <v>87.94</v>
+        <v>87.93</v>
       </c>
       <c r="R8" s="25">
-        <v>87.79</v>
+        <v>87.78</v>
       </c>
       <c r="S8" s="25">
-        <v>88.58</v>
+        <v>88.56</v>
       </c>
       <c r="T8" s="25">
-        <v>89.23</v>
+        <v>89.22</v>
       </c>
       <c r="U8" s="25">
-        <v>89.89</v>
+        <v>89.88</v>
       </c>
       <c r="V8" s="25">
-        <v>90.55</v>
+        <v>90.54</v>
       </c>
       <c r="W8" s="25">
-        <v>90.83</v>
+        <v>90.82</v>
       </c>
       <c r="X8" s="25">
-        <v>91.27</v>
+        <v>91.26</v>
       </c>
       <c r="Y8" s="25">
-        <v>92.17</v>
+        <v>92.16</v>
       </c>
       <c r="Z8" s="25">
-        <v>92.99</v>
+        <v>92.98</v>
       </c>
       <c r="AA8" s="25">
-        <v>93.23</v>
+        <v>93.22</v>
       </c>
       <c r="AB8" s="25">
         <v>92.86</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.31</v>
+        <v>93.32</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.78</v>
+        <v>93.81</v>
       </c>
       <c r="AE8" s="25">
-        <v>94</v>
+        <v>94.02</v>
       </c>
       <c r="AF8" s="25">
+        <v>94.51</v>
+      </c>
+      <c r="AG8" s="25">
+        <v>94.65</v>
+      </c>
+      <c r="AH8" s="25">
+        <v>94.45</v>
+      </c>
+      <c r="AI8" s="25">
+        <v>94.35</v>
+      </c>
+      <c r="AJ8" s="25">
+        <v>94.38</v>
+      </c>
+      <c r="AK8" s="25">
+        <v>94.55</v>
+      </c>
+      <c r="AL8" s="25">
+        <v>94.87</v>
+      </c>
+      <c r="AM8" s="25">
+        <v>95.42</v>
+      </c>
+      <c r="AN8" s="25">
+        <v>95.56</v>
+      </c>
+      <c r="AO8" s="25">
+        <v>95.34</v>
+      </c>
+      <c r="AP8" s="25">
+        <v>94.5</v>
+      </c>
+      <c r="AQ8" s="25">
         <v>94.48</v>
       </c>
-      <c r="AG8" s="25">
-        <v>94.62</v>
-      </c>
-      <c r="AH8" s="25">
-        <v>94.41</v>
-      </c>
-      <c r="AI8" s="25">
-        <v>94.31</v>
-      </c>
-      <c r="AJ8" s="25">
-        <v>94.34</v>
-      </c>
-      <c r="AK8" s="25">
-        <v>94.5</v>
-      </c>
-      <c r="AL8" s="25">
-        <v>94.83</v>
-      </c>
-      <c r="AM8" s="25">
-        <v>95.37</v>
-      </c>
-      <c r="AN8" s="25">
-        <v>95.5</v>
-      </c>
-      <c r="AO8" s="25">
-        <v>95.25</v>
-      </c>
-      <c r="AP8" s="25">
-        <v>94.39</v>
-      </c>
-      <c r="AQ8" s="25">
-        <v>94.35</v>
-      </c>
       <c r="AR8" s="25">
+        <v>95.46</v>
+      </c>
+      <c r="AS8" s="25">
+        <v>95.9</v>
+      </c>
+      <c r="AT8" s="25">
+        <v>96.02</v>
+      </c>
+      <c r="AU8" s="25">
+        <v>96.39</v>
+      </c>
+      <c r="AV8" s="25">
+        <v>97.01</v>
+      </c>
+      <c r="AW8" s="25">
+        <v>97.28</v>
+      </c>
+      <c r="AX8" s="25">
+        <v>97.61</v>
+      </c>
+      <c r="AY8" s="25">
+        <v>98.1</v>
+      </c>
+      <c r="AZ8" s="25">
+        <v>98.15</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>97.02</v>
+      </c>
+      <c r="BB8" s="25">
+        <v>92.48</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>89.72</v>
+      </c>
+      <c r="BD8" s="25">
+        <v>91.52</v>
+      </c>
+      <c r="BE8" s="25">
+        <v>93.75</v>
+      </c>
+      <c r="BF8" s="25">
         <v>95.34</v>
       </c>
-      <c r="AS8" s="25">
-        <v>95.77</v>
-      </c>
-      <c r="AT8" s="25">
-        <v>95.88</v>
-      </c>
-      <c r="AU8" s="25">
-        <v>96.22</v>
-      </c>
-      <c r="AV8" s="25">
-        <v>96.84</v>
-      </c>
-      <c r="AW8" s="25">
-        <v>97.11</v>
-      </c>
-      <c r="AX8" s="25">
-        <v>97.39</v>
-      </c>
-      <c r="AY8" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AZ8" s="25">
-        <v>97.88</v>
-      </c>
-      <c r="BA8" s="25">
-        <v>96.71</v>
-      </c>
-      <c r="BB8" s="25">
-        <v>92.05</v>
-      </c>
-      <c r="BC8" s="25">
-        <v>89.29</v>
-      </c>
-      <c r="BD8" s="25">
-        <v>91.83</v>
-      </c>
-      <c r="BE8" s="25">
-        <v>94.28</v>
-      </c>
-      <c r="BF8" s="25">
-        <v>94.8</v>
-      </c>
       <c r="BG8" s="25">
-        <v>95.57</v>
-      </c>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
+        <v>96.08</v>
+      </c>
+      <c r="BH8" s="25">
+        <v>95.66</v>
+      </c>
+      <c r="BI8" s="25">
+        <v>96.2</v>
+      </c>
       <c r="BJ8" s="25"/>
       <c r="BK8" s="25"/>
       <c r="BL8" s="25"/>
@@ -2253,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="25">
         <v>96.2</v>
@@ -2277,10 +2289,10 @@
         <v>99.62</v>
       </c>
       <c r="J9" s="25">
-        <v>99.51</v>
+        <v>99.5</v>
       </c>
       <c r="K9" s="25">
-        <v>99.11</v>
+        <v>99.1</v>
       </c>
       <c r="L9" s="25">
         <v>99.63</v>
@@ -2292,34 +2304,34 @@
         <v>99.34</v>
       </c>
       <c r="O9" s="25">
-        <v>97.39</v>
+        <v>97.38</v>
       </c>
       <c r="P9" s="25">
-        <v>95.54</v>
+        <v>95.53</v>
       </c>
       <c r="Q9" s="25">
         <v>94.59</v>
       </c>
       <c r="R9" s="25">
-        <v>94.7</v>
+        <v>94.69</v>
       </c>
       <c r="S9" s="25">
         <v>94.97</v>
       </c>
       <c r="T9" s="25">
-        <v>95.03</v>
+        <v>95.02</v>
       </c>
       <c r="U9" s="25">
         <v>95.36</v>
       </c>
       <c r="V9" s="25">
-        <v>95.61</v>
+        <v>95.6</v>
       </c>
       <c r="W9" s="25">
         <v>95.86</v>
       </c>
       <c r="X9" s="25">
-        <v>96.38</v>
+        <v>96.37</v>
       </c>
       <c r="Y9" s="25">
         <v>97.19</v>
@@ -2334,100 +2346,104 @@
         <v>95.88</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.41</v>
+        <v>96.42</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.57</v>
+        <v>97.59</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.51</v>
+        <v>97.53</v>
       </c>
       <c r="AF9" s="25">
-        <v>97.44</v>
+        <v>97.46</v>
       </c>
       <c r="AG9" s="25">
-        <v>97.67</v>
+        <v>97.69</v>
       </c>
       <c r="AH9" s="25">
+        <v>97.7</v>
+      </c>
+      <c r="AI9" s="25">
+        <v>97.49</v>
+      </c>
+      <c r="AJ9" s="25">
+        <v>97.49</v>
+      </c>
+      <c r="AK9" s="25">
+        <v>97.5</v>
+      </c>
+      <c r="AL9" s="25">
+        <v>97.47</v>
+      </c>
+      <c r="AM9" s="25">
         <v>97.68</v>
       </c>
-      <c r="AI9" s="25">
-        <v>97.47</v>
-      </c>
-      <c r="AJ9" s="25">
-        <v>97.46</v>
-      </c>
-      <c r="AK9" s="25">
-        <v>97.48</v>
-      </c>
-      <c r="AL9" s="25">
-        <v>97.45</v>
-      </c>
-      <c r="AM9" s="25">
-        <v>97.65</v>
-      </c>
       <c r="AN9" s="25">
-        <v>97.8</v>
+        <v>97.83</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.49</v>
+        <v>97.56</v>
       </c>
       <c r="AP9" s="25">
-        <v>96.8</v>
+        <v>96.87</v>
       </c>
       <c r="AQ9" s="25">
-        <v>96.9</v>
+        <v>96.96</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.46</v>
+        <v>97.53</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.52</v>
+        <v>97.59</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.66</v>
+        <v>97.73</v>
       </c>
       <c r="AU9" s="25">
-        <v>97.79</v>
+        <v>97.91</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.37</v>
+        <v>98.5</v>
       </c>
       <c r="AW9" s="25">
-        <v>98.54</v>
+        <v>98.62</v>
       </c>
       <c r="AX9" s="25">
-        <v>98.67</v>
+        <v>98.75</v>
       </c>
       <c r="AY9" s="25">
-        <v>99.33</v>
+        <v>99.44</v>
       </c>
       <c r="AZ9" s="25">
-        <v>99.35</v>
+        <v>99.47</v>
       </c>
       <c r="BA9" s="25">
-        <v>98.87</v>
+        <v>98.97</v>
       </c>
       <c r="BB9" s="25">
-        <v>96.27</v>
+        <v>96.49</v>
       </c>
       <c r="BC9" s="25">
-        <v>94.18</v>
+        <v>94.32</v>
       </c>
       <c r="BD9" s="25">
-        <v>95.1</v>
+        <v>94.36</v>
       </c>
       <c r="BE9" s="25">
-        <v>96.74</v>
+        <v>95.48</v>
       </c>
       <c r="BF9" s="25">
-        <v>96.99</v>
+        <v>96.66</v>
       </c>
       <c r="BG9" s="25">
-        <v>98.23</v>
-      </c>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
+        <v>97.86</v>
+      </c>
+      <c r="BH9" s="25">
+        <v>97.68</v>
+      </c>
+      <c r="BI9" s="25">
+        <v>98.9</v>
+      </c>
       <c r="BJ9" s="25"/>
       <c r="BK9" s="25"/>
       <c r="BL9" s="25"/>
@@ -2451,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="25">
         <v>87.08</v>
@@ -2469,7 +2485,7 @@
         <v>96.45</v>
       </c>
       <c r="H10" s="25">
-        <v>97.55</v>
+        <v>97.56</v>
       </c>
       <c r="I10" s="25">
         <v>97.93</v>
@@ -2493,19 +2509,19 @@
         <v>94</v>
       </c>
       <c r="P10" s="25">
-        <v>90.73</v>
+        <v>90.74</v>
       </c>
       <c r="Q10" s="25">
         <v>88.91</v>
       </c>
       <c r="R10" s="25">
-        <v>88.64</v>
+        <v>88.65</v>
       </c>
       <c r="S10" s="25">
         <v>89.29</v>
       </c>
       <c r="T10" s="25">
-        <v>90.48</v>
+        <v>90.49</v>
       </c>
       <c r="U10" s="25">
         <v>92.12</v>
@@ -2514,118 +2530,122 @@
         <v>94.02</v>
       </c>
       <c r="W10" s="25">
-        <v>94.57</v>
+        <v>94.58</v>
       </c>
       <c r="X10" s="25">
-        <v>95.14</v>
+        <v>95.15</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.51</v>
+        <v>96.53</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.19</v>
+        <v>96.21</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.52</v>
+        <v>96.54</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.38</v>
+        <v>97.42</v>
       </c>
       <c r="AC10" s="25">
-        <v>99.91</v>
+        <v>100.05</v>
       </c>
       <c r="AD10" s="25">
-        <v>100.95</v>
+        <v>101.16</v>
       </c>
       <c r="AE10" s="25">
-        <v>101.18</v>
+        <v>101.39</v>
       </c>
       <c r="AF10" s="25">
-        <v>101.72</v>
+        <v>101.94</v>
       </c>
       <c r="AG10" s="25">
-        <v>101.86</v>
+        <v>102.08</v>
       </c>
       <c r="AH10" s="25">
-        <v>102.13</v>
+        <v>102.36</v>
       </c>
       <c r="AI10" s="25">
-        <v>102.34</v>
+        <v>102.59</v>
       </c>
       <c r="AJ10" s="25">
-        <v>102.62</v>
+        <v>102.87</v>
       </c>
       <c r="AK10" s="25">
-        <v>102.79</v>
+        <v>103.04</v>
       </c>
       <c r="AL10" s="25">
-        <v>103.15</v>
+        <v>103.42</v>
       </c>
       <c r="AM10" s="25">
-        <v>103.65</v>
+        <v>103.95</v>
       </c>
       <c r="AN10" s="25">
-        <v>103.68</v>
+        <v>103.98</v>
       </c>
       <c r="AO10" s="25">
-        <v>103.46</v>
+        <v>103.83</v>
       </c>
       <c r="AP10" s="25">
-        <v>101.22</v>
+        <v>101.76</v>
       </c>
       <c r="AQ10" s="25">
-        <v>100.09</v>
+        <v>100.81</v>
       </c>
       <c r="AR10" s="25">
-        <v>100.88</v>
+        <v>101.63</v>
       </c>
       <c r="AS10" s="25">
-        <v>101.18</v>
+        <v>101.95</v>
       </c>
       <c r="AT10" s="25">
-        <v>101.08</v>
+        <v>101.9</v>
       </c>
       <c r="AU10" s="25">
-        <v>101.34</v>
+        <v>102.28</v>
       </c>
       <c r="AV10" s="25">
-        <v>102.1</v>
+        <v>103.07</v>
       </c>
       <c r="AW10" s="25">
-        <v>102.66</v>
+        <v>103.6</v>
       </c>
       <c r="AX10" s="25">
-        <v>102.75</v>
+        <v>103.73</v>
       </c>
       <c r="AY10" s="25">
-        <v>103.07</v>
+        <v>104.15</v>
       </c>
       <c r="AZ10" s="25">
-        <v>102.91</v>
+        <v>104.09</v>
       </c>
       <c r="BA10" s="25">
-        <v>101.4</v>
+        <v>102.74</v>
       </c>
       <c r="BB10" s="25">
-        <v>95.53</v>
+        <v>97.05</v>
       </c>
       <c r="BC10" s="25">
-        <v>89.85</v>
+        <v>91.61</v>
       </c>
       <c r="BD10" s="25">
-        <v>91.22</v>
+        <v>92.82</v>
       </c>
       <c r="BE10" s="25">
-        <v>93.89</v>
+        <v>95.67</v>
       </c>
       <c r="BF10" s="25">
-        <v>93.75</v>
+        <v>96.94</v>
       </c>
       <c r="BG10" s="25">
-        <v>94.39</v>
-      </c>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
+        <v>96.84</v>
+      </c>
+      <c r="BH10" s="25">
+        <v>94.24</v>
+      </c>
+      <c r="BI10" s="25">
+        <v>94.63</v>
+      </c>
       <c r="BJ10" s="25"/>
       <c r="BK10" s="25"/>
       <c r="BL10" s="25"/>
@@ -2655,13 +2675,13 @@
         <v>92.33</v>
       </c>
       <c r="D11" s="25">
-        <v>95.77</v>
+        <v>95.76</v>
       </c>
       <c r="E11" s="25">
-        <v>97.62</v>
+        <v>97.61</v>
       </c>
       <c r="F11" s="25">
-        <v>98.35</v>
+        <v>98.34</v>
       </c>
       <c r="G11" s="25">
         <v>98.86</v>
@@ -2688,16 +2708,16 @@
         <v>97.96</v>
       </c>
       <c r="O11" s="25">
-        <v>92.43</v>
+        <v>92.42</v>
       </c>
       <c r="P11" s="25">
         <v>89.01</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.61</v>
+        <v>87.6</v>
       </c>
       <c r="R11" s="25">
-        <v>87.7</v>
+        <v>87.69</v>
       </c>
       <c r="S11" s="25">
         <v>88.31</v>
@@ -2724,106 +2744,110 @@
         <v>92.94</v>
       </c>
       <c r="AA11" s="25">
-        <v>93.1</v>
+        <v>93.09</v>
       </c>
       <c r="AB11" s="25">
         <v>92.79</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.33</v>
+        <v>93.35</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.39</v>
+        <v>94.41</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.86</v>
+        <v>94.88</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.23</v>
+        <v>95.26</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.34</v>
+        <v>95.38</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.39</v>
+        <v>95.42</v>
       </c>
       <c r="AI11" s="25">
+        <v>95.56</v>
+      </c>
+      <c r="AJ11" s="25">
+        <v>95.82</v>
+      </c>
+      <c r="AK11" s="25">
+        <v>96.02</v>
+      </c>
+      <c r="AL11" s="25">
+        <v>96.2</v>
+      </c>
+      <c r="AM11" s="25">
+        <v>96.46</v>
+      </c>
+      <c r="AN11" s="25">
+        <v>96.55</v>
+      </c>
+      <c r="AO11" s="25">
+        <v>96.55</v>
+      </c>
+      <c r="AP11" s="25">
+        <v>95.69</v>
+      </c>
+      <c r="AQ11" s="25">
+        <v>95.3</v>
+      </c>
+      <c r="AR11" s="25">
+        <v>96.17</v>
+      </c>
+      <c r="AS11" s="25">
+        <v>96.55</v>
+      </c>
+      <c r="AT11" s="25">
+        <v>96.34</v>
+      </c>
+      <c r="AU11" s="25">
+        <v>96.57</v>
+      </c>
+      <c r="AV11" s="25">
+        <v>97.13</v>
+      </c>
+      <c r="AW11" s="25">
+        <v>97.61</v>
+      </c>
+      <c r="AX11" s="25">
+        <v>97.76</v>
+      </c>
+      <c r="AY11" s="25">
+        <v>98.01</v>
+      </c>
+      <c r="AZ11" s="25">
+        <v>98.01</v>
+      </c>
+      <c r="BA11" s="25">
+        <v>96.96</v>
+      </c>
+      <c r="BB11" s="25">
+        <v>92.4</v>
+      </c>
+      <c r="BC11" s="25">
+        <v>89.42</v>
+      </c>
+      <c r="BD11" s="25">
+        <v>91.56</v>
+      </c>
+      <c r="BE11" s="25">
+        <v>93.79</v>
+      </c>
+      <c r="BF11" s="25">
+        <v>95.29</v>
+      </c>
+      <c r="BG11" s="25">
+        <v>95.9</v>
+      </c>
+      <c r="BH11" s="25">
         <v>95.53</v>
       </c>
-      <c r="AJ11" s="25">
-        <v>95.79</v>
-      </c>
-      <c r="AK11" s="25">
-        <v>95.98</v>
-      </c>
-      <c r="AL11" s="25">
-        <v>96.16</v>
-      </c>
-      <c r="AM11" s="25">
-        <v>96.42</v>
-      </c>
-      <c r="AN11" s="25">
-        <v>96.5</v>
-      </c>
-      <c r="AO11" s="25">
-        <v>96.44</v>
-      </c>
-      <c r="AP11" s="25">
-        <v>95.57</v>
-      </c>
-      <c r="AQ11" s="25">
-        <v>95.19</v>
-      </c>
-      <c r="AR11" s="25">
-        <v>96.05</v>
-      </c>
-      <c r="AS11" s="25">
-        <v>96.42</v>
-      </c>
-      <c r="AT11" s="25">
-        <v>96.2</v>
-      </c>
-      <c r="AU11" s="25">
-        <v>96.41</v>
-      </c>
-      <c r="AV11" s="25">
-        <v>96.96</v>
-      </c>
-      <c r="AW11" s="25">
-        <v>97.46</v>
-      </c>
-      <c r="AX11" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="AY11" s="25">
-        <v>97.81</v>
-      </c>
-      <c r="AZ11" s="25">
-        <v>97.78</v>
-      </c>
-      <c r="BA11" s="25">
-        <v>96.69</v>
-      </c>
-      <c r="BB11" s="25">
-        <v>92.07</v>
-      </c>
-      <c r="BC11" s="25">
-        <v>89.1</v>
-      </c>
-      <c r="BD11" s="25">
-        <v>91.72</v>
-      </c>
-      <c r="BE11" s="25">
-        <v>94.1</v>
-      </c>
-      <c r="BF11" s="25">
-        <v>94.58</v>
-      </c>
-      <c r="BG11" s="25">
-        <v>95.5</v>
-      </c>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
+      <c r="BI11" s="25">
+        <v>96.14</v>
+      </c>
       <c r="BJ11" s="25"/>
       <c r="BK11" s="25"/>
       <c r="BL11" s="25"/>
@@ -2847,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="25">
         <v>96.32</v>
@@ -2871,7 +2895,7 @@
         <v>99.95</v>
       </c>
       <c r="J12" s="25">
-        <v>99.58</v>
+        <v>99.57</v>
       </c>
       <c r="K12" s="25">
         <v>99.29</v>
@@ -2907,7 +2931,7 @@
         <v>95.48</v>
       </c>
       <c r="V12" s="25">
-        <v>95.83</v>
+        <v>95.82</v>
       </c>
       <c r="W12" s="25">
         <v>96.31</v>
@@ -2925,103 +2949,107 @@
         <v>97.55</v>
       </c>
       <c r="AB12" s="25">
-        <v>96.87</v>
+        <v>96.86</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.03</v>
+        <v>97.05</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.11</v>
+        <v>98.15</v>
       </c>
       <c r="AE12" s="25">
-        <v>97.93</v>
+        <v>97.97</v>
       </c>
       <c r="AF12" s="25">
-        <v>97.98</v>
+        <v>98.02</v>
       </c>
       <c r="AG12" s="25">
+        <v>98.54</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>98.65</v>
+      </c>
+      <c r="AI12" s="25">
+        <v>98.6</v>
+      </c>
+      <c r="AJ12" s="25">
+        <v>98.52</v>
+      </c>
+      <c r="AK12" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="AL12" s="25">
         <v>98.5</v>
       </c>
-      <c r="AH12" s="25">
-        <v>98.61</v>
-      </c>
-      <c r="AI12" s="25">
+      <c r="AM12" s="25">
+        <v>98.71</v>
+      </c>
+      <c r="AN12" s="25">
+        <v>98.95</v>
+      </c>
+      <c r="AO12" s="25">
+        <v>98.84</v>
+      </c>
+      <c r="AP12" s="25">
+        <v>97.89</v>
+      </c>
+      <c r="AQ12" s="25">
+        <v>97.7</v>
+      </c>
+      <c r="AR12" s="25">
+        <v>98.65</v>
+      </c>
+      <c r="AS12" s="25">
+        <v>98.7</v>
+      </c>
+      <c r="AT12" s="25">
         <v>98.56</v>
       </c>
-      <c r="AJ12" s="25">
-        <v>98.48</v>
-      </c>
-      <c r="AK12" s="25">
-        <v>98.63</v>
-      </c>
-      <c r="AL12" s="25">
-        <v>98.46</v>
-      </c>
-      <c r="AM12" s="25">
-        <v>98.66</v>
-      </c>
-      <c r="AN12" s="25">
-        <v>98.91</v>
-      </c>
-      <c r="AO12" s="25">
-        <v>98.73</v>
-      </c>
-      <c r="AP12" s="25">
-        <v>97.79</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>97.6</v>
-      </c>
-      <c r="AR12" s="25">
+      <c r="AU12" s="25">
         <v>98.55</v>
       </c>
-      <c r="AS12" s="25">
-        <v>98.6</v>
-      </c>
-      <c r="AT12" s="25">
-        <v>98.47</v>
-      </c>
-      <c r="AU12" s="25">
-        <v>98.44</v>
-      </c>
       <c r="AV12" s="25">
-        <v>98.95</v>
+        <v>99.05</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.33</v>
+        <v>99.44</v>
       </c>
       <c r="AX12" s="25">
-        <v>99.54</v>
+        <v>99.66</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.2</v>
+        <v>100.35</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.25</v>
+        <v>100.39</v>
       </c>
       <c r="BA12" s="25">
-        <v>99.94</v>
+        <v>100.07</v>
       </c>
       <c r="BB12" s="25">
-        <v>97.67</v>
+        <v>97.83</v>
       </c>
       <c r="BC12" s="25">
-        <v>94.95</v>
+        <v>95.04</v>
       </c>
       <c r="BD12" s="25">
-        <v>95.85</v>
+        <v>95.23</v>
       </c>
       <c r="BE12" s="25">
-        <v>97.59</v>
+        <v>96.46</v>
       </c>
       <c r="BF12" s="25">
-        <v>97.42</v>
+        <v>97.4</v>
       </c>
       <c r="BG12" s="25">
-        <v>98.94</v>
-      </c>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="25"/>
+        <v>98.79</v>
+      </c>
+      <c r="BH12" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="BI12" s="25">
+        <v>100.14</v>
+      </c>
       <c r="BJ12" s="25"/>
       <c r="BK12" s="25"/>
       <c r="BL12" s="25"/>
@@ -3045,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="25">
         <v>87.38</v>
@@ -3060,7 +3088,7 @@
         <v>95.16</v>
       </c>
       <c r="G13" s="25">
-        <v>96.04</v>
+        <v>96.03</v>
       </c>
       <c r="H13" s="25">
         <v>97.48</v>
@@ -3090,136 +3118,140 @@
         <v>90.2</v>
       </c>
       <c r="Q13" s="25">
-        <v>88.51</v>
+        <v>88.52</v>
       </c>
       <c r="R13" s="25">
-        <v>88.3</v>
+        <v>88.31</v>
       </c>
       <c r="S13" s="25">
-        <v>89.07</v>
+        <v>89.08</v>
       </c>
       <c r="T13" s="25">
-        <v>90.25</v>
+        <v>90.26</v>
       </c>
       <c r="U13" s="25">
-        <v>91.3</v>
+        <v>91.31</v>
       </c>
       <c r="V13" s="25">
-        <v>91.95</v>
+        <v>91.96</v>
       </c>
       <c r="W13" s="25">
-        <v>92.38</v>
+        <v>92.39</v>
       </c>
       <c r="X13" s="25">
-        <v>92.99</v>
+        <v>93</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.39</v>
+        <v>94.4</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.15</v>
+        <v>95.16</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.72</v>
+        <v>95.73</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.54</v>
+        <v>96.56</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.37</v>
+        <v>98.46</v>
       </c>
       <c r="AD13" s="25">
-        <v>98.43</v>
+        <v>98.58</v>
       </c>
       <c r="AE13" s="25">
-        <v>98.08</v>
+        <v>98.23</v>
       </c>
       <c r="AF13" s="25">
-        <v>98.19</v>
+        <v>98.35</v>
       </c>
       <c r="AG13" s="25">
-        <v>98.02</v>
+        <v>98.18</v>
       </c>
       <c r="AH13" s="25">
+        <v>97.37</v>
+      </c>
+      <c r="AI13" s="25">
+        <v>96.71</v>
+      </c>
+      <c r="AJ13" s="25">
+        <v>96.34</v>
+      </c>
+      <c r="AK13" s="25">
+        <v>96.61</v>
+      </c>
+      <c r="AL13" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="AM13" s="25">
+        <v>97.19</v>
+      </c>
+      <c r="AN13" s="25">
+        <v>97.37</v>
+      </c>
+      <c r="AO13" s="25">
+        <v>97.32</v>
+      </c>
+      <c r="AP13" s="25">
+        <v>96.38</v>
+      </c>
+      <c r="AQ13" s="25">
+        <v>96.32</v>
+      </c>
+      <c r="AR13" s="25">
+        <v>97.01</v>
+      </c>
+      <c r="AS13" s="25">
+        <v>97.38</v>
+      </c>
+      <c r="AT13" s="25">
+        <v>98.34</v>
+      </c>
+      <c r="AU13" s="25">
+        <v>99.13</v>
+      </c>
+      <c r="AV13" s="25">
+        <v>100.22</v>
+      </c>
+      <c r="AW13" s="25">
+        <v>100.92</v>
+      </c>
+      <c r="AX13" s="25">
+        <v>101.54</v>
+      </c>
+      <c r="AY13" s="25">
+        <v>102.26</v>
+      </c>
+      <c r="AZ13" s="25">
+        <v>102.65</v>
+      </c>
+      <c r="BA13" s="25">
+        <v>101.86</v>
+      </c>
+      <c r="BB13" s="25">
         <v>97.2</v>
       </c>
-      <c r="AI13" s="25">
-        <v>96.54</v>
-      </c>
-      <c r="AJ13" s="25">
-        <v>96.16</v>
-      </c>
-      <c r="AK13" s="25">
-        <v>96.43</v>
-      </c>
-      <c r="AL13" s="25">
-        <v>96.57</v>
-      </c>
-      <c r="AM13" s="25">
-        <v>96.98</v>
-      </c>
-      <c r="AN13" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="AO13" s="25">
-        <v>97.02</v>
-      </c>
-      <c r="AP13" s="25">
-        <v>95.95</v>
-      </c>
-      <c r="AQ13" s="25">
-        <v>95.73</v>
-      </c>
-      <c r="AR13" s="25">
-        <v>96.4</v>
-      </c>
-      <c r="AS13" s="25">
-        <v>96.74</v>
-      </c>
-      <c r="AT13" s="25">
-        <v>97.65</v>
-      </c>
-      <c r="AU13" s="25">
-        <v>98.3</v>
-      </c>
-      <c r="AV13" s="25">
-        <v>99.35</v>
-      </c>
-      <c r="AW13" s="25">
-        <v>100.03</v>
-      </c>
-      <c r="AX13" s="25">
-        <v>100.58</v>
-      </c>
-      <c r="AY13" s="25">
-        <v>101.23</v>
-      </c>
-      <c r="AZ13" s="25">
-        <v>101.51</v>
-      </c>
-      <c r="BA13" s="25">
-        <v>100.56</v>
-      </c>
-      <c r="BB13" s="25">
-        <v>95.74</v>
-      </c>
       <c r="BC13" s="25">
-        <v>90.89</v>
+        <v>92.51</v>
       </c>
       <c r="BD13" s="25">
-        <v>91.81</v>
+        <v>92.53</v>
       </c>
       <c r="BE13" s="25">
-        <v>94.24</v>
+        <v>95.05</v>
       </c>
       <c r="BF13" s="25">
-        <v>93.9</v>
+        <v>96.75</v>
       </c>
       <c r="BG13" s="25">
-        <v>94.34</v>
-      </c>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
+        <v>96.84</v>
+      </c>
+      <c r="BH13" s="25">
+        <v>94.51</v>
+      </c>
+      <c r="BI13" s="25">
+        <v>94.48</v>
+      </c>
       <c r="BJ13" s="25"/>
       <c r="BK13" s="25"/>
       <c r="BL13" s="25"/>
@@ -3246,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.53</v>
+        <v>90.52</v>
       </c>
       <c r="D14" s="25">
         <v>93.71</v>
@@ -3255,7 +3287,7 @@
         <v>96.04</v>
       </c>
       <c r="F14" s="25">
-        <v>97.12</v>
+        <v>97.11</v>
       </c>
       <c r="G14" s="25">
         <v>97.81</v>
@@ -3279,10 +3311,10 @@
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.31</v>
+        <v>98.32</v>
       </c>
       <c r="O14" s="25">
-        <v>93.07</v>
+        <v>93.08</v>
       </c>
       <c r="P14" s="25">
         <v>89.53</v>
@@ -3291,133 +3323,137 @@
         <v>88.2</v>
       </c>
       <c r="R14" s="25">
-        <v>87.6</v>
+        <v>87.59</v>
       </c>
       <c r="S14" s="25">
-        <v>88.32</v>
+        <v>88.3</v>
       </c>
       <c r="T14" s="25">
-        <v>89.13</v>
+        <v>89.11</v>
       </c>
       <c r="U14" s="25">
-        <v>89.41</v>
+        <v>89.4</v>
       </c>
       <c r="V14" s="25">
-        <v>89.96</v>
+        <v>89.94</v>
       </c>
       <c r="W14" s="25">
-        <v>90.18</v>
+        <v>90.17</v>
       </c>
       <c r="X14" s="25">
-        <v>90.71</v>
+        <v>90.7</v>
       </c>
       <c r="Y14" s="25">
+        <v>91.28</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>92.06</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>92.14</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>91.82</v>
+      </c>
+      <c r="AC14" s="25">
+        <v>92.01</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>90.98</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>90.52</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>91.28</v>
+      </c>
+      <c r="AG14" s="25">
         <v>91.29</v>
       </c>
-      <c r="Z14" s="25">
-        <v>92.07</v>
-      </c>
-      <c r="AA14" s="25">
-        <v>92.16</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>91.84</v>
-      </c>
-      <c r="AC14" s="25">
-        <v>91.99</v>
-      </c>
-      <c r="AD14" s="25">
-        <v>90.94</v>
-      </c>
-      <c r="AE14" s="25">
-        <v>90.47</v>
-      </c>
-      <c r="AF14" s="25">
-        <v>91.24</v>
-      </c>
-      <c r="AG14" s="25">
-        <v>91.25</v>
-      </c>
       <c r="AH14" s="25">
-        <v>90.18</v>
+        <v>90.23</v>
       </c>
       <c r="AI14" s="25">
-        <v>89.37</v>
+        <v>89.43</v>
       </c>
       <c r="AJ14" s="25">
-        <v>88.93</v>
+        <v>88.99</v>
       </c>
       <c r="AK14" s="25">
-        <v>89.09</v>
+        <v>89.15</v>
       </c>
       <c r="AL14" s="25">
+        <v>89.65</v>
+      </c>
+      <c r="AM14" s="25">
+        <v>90.34</v>
+      </c>
+      <c r="AN14" s="25">
+        <v>90.62</v>
+      </c>
+      <c r="AO14" s="25">
+        <v>90.48</v>
+      </c>
+      <c r="AP14" s="25">
         <v>89.59</v>
       </c>
-      <c r="AM14" s="25">
-        <v>90.27</v>
-      </c>
-      <c r="AN14" s="25">
-        <v>90.53</v>
-      </c>
-      <c r="AO14" s="25">
-        <v>90.32</v>
-      </c>
-      <c r="AP14" s="25">
-        <v>89.44</v>
-      </c>
       <c r="AQ14" s="25">
-        <v>89.55</v>
+        <v>89.72</v>
       </c>
       <c r="AR14" s="25">
-        <v>90.95</v>
+        <v>91.12</v>
       </c>
       <c r="AS14" s="25">
-        <v>91.61</v>
+        <v>91.79</v>
       </c>
       <c r="AT14" s="25">
-        <v>92.43</v>
+        <v>92.6</v>
       </c>
       <c r="AU14" s="25">
-        <v>93.08</v>
+        <v>93.29</v>
       </c>
       <c r="AV14" s="25">
-        <v>94.11</v>
+        <v>94.35</v>
       </c>
       <c r="AW14" s="25">
-        <v>94.43</v>
+        <v>94.67</v>
       </c>
       <c r="AX14" s="25">
-        <v>95.14</v>
+        <v>95.42</v>
       </c>
       <c r="AY14" s="25">
-        <v>95.84</v>
+        <v>96.09</v>
       </c>
       <c r="AZ14" s="25">
-        <v>96.25</v>
+        <v>96.52</v>
       </c>
       <c r="BA14" s="25">
-        <v>95.37</v>
+        <v>95.68</v>
       </c>
       <c r="BB14" s="25">
-        <v>90.62</v>
+        <v>91.11</v>
       </c>
       <c r="BC14" s="25">
-        <v>87.89</v>
+        <v>88.42</v>
       </c>
       <c r="BD14" s="25">
-        <v>89.8</v>
+        <v>89.1</v>
       </c>
       <c r="BE14" s="25">
-        <v>92.23</v>
+        <v>91.31</v>
       </c>
       <c r="BF14" s="25">
-        <v>92.49</v>
+        <v>93</v>
       </c>
       <c r="BG14" s="25">
-        <v>93.03</v>
-      </c>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
+        <v>93.9</v>
+      </c>
+      <c r="BH14" s="25">
+        <v>94.12</v>
+      </c>
+      <c r="BI14" s="25">
+        <v>94.41</v>
+      </c>
       <c r="BJ14" s="25"/>
       <c r="BK14" s="25"/>
       <c r="BL14" s="25"/>
@@ -3441,7 +3477,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="25">
         <v>95.97</v>
@@ -3453,7 +3489,7 @@
         <v>97.97</v>
       </c>
       <c r="F15" s="25">
-        <v>98.88</v>
+        <v>98.87</v>
       </c>
       <c r="G15" s="25">
         <v>99.3</v>
@@ -3462,7 +3498,7 @@
         <v>99.09</v>
       </c>
       <c r="I15" s="25">
-        <v>98.87</v>
+        <v>98.86</v>
       </c>
       <c r="J15" s="25">
         <v>99.41</v>
@@ -3480,7 +3516,7 @@
         <v>98.67</v>
       </c>
       <c r="O15" s="25">
-        <v>96.94</v>
+        <v>96.93</v>
       </c>
       <c r="P15" s="25">
         <v>94.73</v>
@@ -3489,28 +3525,28 @@
         <v>94.1</v>
       </c>
       <c r="R15" s="25">
-        <v>94.49</v>
+        <v>94.48</v>
       </c>
       <c r="S15" s="25">
-        <v>95.18</v>
+        <v>95.17</v>
       </c>
       <c r="T15" s="25">
-        <v>94.59</v>
+        <v>94.58</v>
       </c>
       <c r="U15" s="25">
         <v>94.58</v>
       </c>
       <c r="V15" s="25">
-        <v>94.43</v>
+        <v>94.42</v>
       </c>
       <c r="W15" s="25">
-        <v>94.6</v>
+        <v>94.59</v>
       </c>
       <c r="X15" s="25">
         <v>95.34</v>
       </c>
       <c r="Y15" s="25">
-        <v>96.27</v>
+        <v>96.26</v>
       </c>
       <c r="Z15" s="25">
         <v>97.57</v>
@@ -3525,22 +3561,22 @@
         <v>95.52</v>
       </c>
       <c r="AD15" s="25">
-        <v>96.8</v>
+        <v>96.81</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.86</v>
+        <v>96.87</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.18</v>
+        <v>96.19</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.28</v>
+        <v>96.29</v>
       </c>
       <c r="AH15" s="25">
         <v>95.9</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.32</v>
+        <v>95.33</v>
       </c>
       <c r="AJ15" s="25">
         <v>95.12</v>
@@ -3549,73 +3585,77 @@
         <v>95.29</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.29</v>
+        <v>95.3</v>
       </c>
       <c r="AM15" s="25">
-        <v>95.34</v>
+        <v>95.35</v>
       </c>
       <c r="AN15" s="25">
-        <v>95.27</v>
+        <v>95.28</v>
       </c>
       <c r="AO15" s="25">
-        <v>95.07</v>
+        <v>95.18</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.49</v>
+        <v>94.58</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.08</v>
+        <v>95.17</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.07</v>
+        <v>95.16</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.22</v>
+        <v>95.32</v>
       </c>
       <c r="AT15" s="25">
-        <v>96.18</v>
+        <v>96.29</v>
       </c>
       <c r="AU15" s="25">
-        <v>96.31</v>
+        <v>96.58</v>
       </c>
       <c r="AV15" s="25">
-        <v>96.76</v>
+        <v>97.02</v>
       </c>
       <c r="AW15" s="25">
-        <v>96.95</v>
+        <v>97.06</v>
       </c>
       <c r="AX15" s="25">
-        <v>97.32</v>
+        <v>97.38</v>
       </c>
       <c r="AY15" s="25">
-        <v>98.11</v>
+        <v>98.26</v>
       </c>
       <c r="AZ15" s="25">
-        <v>97.94</v>
+        <v>98.16</v>
       </c>
       <c r="BA15" s="25">
-        <v>97.6</v>
+        <v>97.77</v>
       </c>
       <c r="BB15" s="25">
-        <v>94.99</v>
+        <v>95.59</v>
       </c>
       <c r="BC15" s="25">
-        <v>93.4</v>
+        <v>93.93</v>
       </c>
       <c r="BD15" s="25">
-        <v>94.32</v>
+        <v>93.51</v>
       </c>
       <c r="BE15" s="25">
-        <v>95.91</v>
+        <v>94.54</v>
       </c>
       <c r="BF15" s="25">
-        <v>96.31</v>
+        <v>96.21</v>
       </c>
       <c r="BG15" s="25">
-        <v>97.31</v>
-      </c>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="25"/>
+        <v>97.42</v>
+      </c>
+      <c r="BH15" s="25">
+        <v>97.52</v>
+      </c>
+      <c r="BI15" s="25">
+        <v>97.58</v>
+      </c>
       <c r="BJ15" s="25"/>
       <c r="BK15" s="25"/>
       <c r="BL15" s="25"/>
@@ -3639,10 +3679,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="25">
-        <v>86.25</v>
+        <v>86.24</v>
       </c>
       <c r="D16" s="25">
         <v>92.54</v>
@@ -3651,13 +3691,13 @@
         <v>95.4</v>
       </c>
       <c r="F16" s="25">
-        <v>96.41</v>
+        <v>96.4</v>
       </c>
       <c r="G16" s="25">
         <v>97.04</v>
       </c>
       <c r="H16" s="25">
-        <v>97.77</v>
+        <v>97.76</v>
       </c>
       <c r="I16" s="25">
         <v>98.11</v>
@@ -3678,13 +3718,13 @@
         <v>98.96</v>
       </c>
       <c r="O16" s="25">
-        <v>94.18</v>
+        <v>94.17</v>
       </c>
       <c r="P16" s="25">
-        <v>90.78</v>
+        <v>90.79</v>
       </c>
       <c r="Q16" s="25">
-        <v>88.75</v>
+        <v>88.76</v>
       </c>
       <c r="R16" s="25">
         <v>88.73</v>
@@ -3708,112 +3748,116 @@
         <v>94.03</v>
       </c>
       <c r="Y16" s="25">
-        <v>95.19</v>
+        <v>95.2</v>
       </c>
       <c r="Z16" s="25">
         <v>96.04</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.74</v>
+        <v>96.75</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.84</v>
+        <v>97.86</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.68</v>
+        <v>99.77</v>
       </c>
       <c r="AD16" s="25">
-        <v>100.63</v>
+        <v>100.77</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.27</v>
+        <v>101.41</v>
       </c>
       <c r="AF16" s="25">
-        <v>101.69</v>
+        <v>101.84</v>
       </c>
       <c r="AG16" s="25">
-        <v>101.99</v>
+        <v>102.15</v>
       </c>
       <c r="AH16" s="25">
-        <v>102.39</v>
+        <v>102.55</v>
       </c>
       <c r="AI16" s="25">
-        <v>102.54</v>
+        <v>102.7</v>
       </c>
       <c r="AJ16" s="25">
-        <v>102.9</v>
+        <v>103.07</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.12</v>
+        <v>103.3</v>
       </c>
       <c r="AL16" s="25">
-        <v>103.28</v>
+        <v>103.47</v>
       </c>
       <c r="AM16" s="25">
+        <v>104.26</v>
+      </c>
+      <c r="AN16" s="25">
+        <v>104.26</v>
+      </c>
+      <c r="AO16" s="25">
+        <v>103.63</v>
+      </c>
+      <c r="AP16" s="25">
+        <v>102.3</v>
+      </c>
+      <c r="AQ16" s="25">
+        <v>102.32</v>
+      </c>
+      <c r="AR16" s="25">
+        <v>102.77</v>
+      </c>
+      <c r="AS16" s="25">
+        <v>103.03</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>103.11</v>
+      </c>
+      <c r="AU16" s="25">
+        <v>103.26</v>
+      </c>
+      <c r="AV16" s="25">
+        <v>103.71</v>
+      </c>
+      <c r="AW16" s="25">
+        <v>103.89</v>
+      </c>
+      <c r="AX16" s="25">
         <v>104.05</v>
       </c>
-      <c r="AN16" s="25">
-        <v>104.04</v>
-      </c>
-      <c r="AO16" s="25">
-        <v>103.38</v>
-      </c>
-      <c r="AP16" s="25">
-        <v>101.96</v>
-      </c>
-      <c r="AQ16" s="25">
-        <v>101.89</v>
-      </c>
-      <c r="AR16" s="25">
-        <v>102.3</v>
-      </c>
-      <c r="AS16" s="25">
-        <v>102.53</v>
-      </c>
-      <c r="AT16" s="25">
-        <v>102.58</v>
-      </c>
-      <c r="AU16" s="25">
-        <v>102.67</v>
-      </c>
-      <c r="AV16" s="25">
-        <v>103.09</v>
-      </c>
-      <c r="AW16" s="25">
-        <v>103.26</v>
-      </c>
-      <c r="AX16" s="25">
-        <v>103.36</v>
-      </c>
       <c r="AY16" s="25">
-        <v>103.61</v>
+        <v>104.39</v>
       </c>
       <c r="AZ16" s="25">
-        <v>103.36</v>
+        <v>104.22</v>
       </c>
       <c r="BA16" s="25">
-        <v>101.57</v>
+        <v>102.56</v>
       </c>
       <c r="BB16" s="25">
-        <v>94.97</v>
+        <v>96.05</v>
       </c>
       <c r="BC16" s="25">
-        <v>89.45</v>
+        <v>90.64</v>
       </c>
       <c r="BD16" s="25">
-        <v>92.82</v>
+        <v>93.75</v>
       </c>
       <c r="BE16" s="25">
-        <v>96.57</v>
+        <v>97.58</v>
       </c>
       <c r="BF16" s="25">
-        <v>97.12</v>
+        <v>99.39</v>
       </c>
       <c r="BG16" s="25">
-        <v>98.06</v>
-      </c>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="25"/>
+        <v>99.47</v>
+      </c>
+      <c r="BH16" s="25">
+        <v>97.5</v>
+      </c>
+      <c r="BI16" s="25">
+        <v>98.12</v>
+      </c>
       <c r="BJ16" s="25"/>
       <c r="BK16" s="25"/>
       <c r="BL16" s="25"/>
@@ -3852,7 +3896,7 @@
         <v>98.78</v>
       </c>
       <c r="G17" s="25">
-        <v>99.07</v>
+        <v>99.06</v>
       </c>
       <c r="H17" s="25">
         <v>99.29</v>
@@ -3861,7 +3905,7 @@
         <v>99.82</v>
       </c>
       <c r="J17" s="25">
-        <v>99.96</v>
+        <v>99.97</v>
       </c>
       <c r="K17" s="25">
         <v>100.34</v>
@@ -3879,139 +3923,143 @@
         <v>92.83</v>
       </c>
       <c r="P17" s="25">
-        <v>89.34</v>
+        <v>89.33</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.55</v>
+        <v>87.54</v>
       </c>
       <c r="R17" s="25">
-        <v>87.66</v>
+        <v>87.65</v>
       </c>
       <c r="S17" s="25">
-        <v>89.07</v>
+        <v>89.06</v>
       </c>
       <c r="T17" s="25">
-        <v>89.48</v>
+        <v>89.47</v>
       </c>
       <c r="U17" s="25">
-        <v>90.29</v>
+        <v>90.28</v>
       </c>
       <c r="V17" s="25">
-        <v>90.86</v>
+        <v>90.85</v>
       </c>
       <c r="W17" s="25">
-        <v>91.02</v>
+        <v>91.01</v>
       </c>
       <c r="X17" s="25">
-        <v>91.38</v>
+        <v>91.37</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.44</v>
+        <v>92.43</v>
       </c>
       <c r="Z17" s="25">
         <v>93.37</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.89</v>
+        <v>93.88</v>
       </c>
       <c r="AB17" s="25">
         <v>93.58</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.09</v>
+        <v>94.1</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.12</v>
+        <v>95.13</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.9</v>
+        <v>95.91</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.23</v>
+        <v>96.25</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.31</v>
+        <v>96.32</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.41</v>
+        <v>96.42</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.55</v>
+        <v>96.56</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.79</v>
+        <v>96.81</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.9</v>
+        <v>96.92</v>
       </c>
       <c r="AL17" s="25">
-        <v>97.19</v>
+        <v>97.21</v>
       </c>
       <c r="AM17" s="25">
+        <v>98.17</v>
+      </c>
+      <c r="AN17" s="25">
+        <v>98.27</v>
+      </c>
+      <c r="AO17" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="AP17" s="25">
+        <v>96.69</v>
+      </c>
+      <c r="AQ17" s="25">
+        <v>97.08</v>
+      </c>
+      <c r="AR17" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AS17" s="25">
         <v>98.13</v>
       </c>
-      <c r="AN17" s="25">
-        <v>98.22</v>
-      </c>
-      <c r="AO17" s="25">
-        <v>97.55</v>
-      </c>
-      <c r="AP17" s="25">
-        <v>96.63</v>
-      </c>
-      <c r="AQ17" s="25">
-        <v>96.99</v>
-      </c>
-      <c r="AR17" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="AS17" s="25">
-        <v>98.02</v>
-      </c>
       <c r="AT17" s="25">
-        <v>97.77</v>
+        <v>97.89</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.25</v>
+        <v>98.38</v>
       </c>
       <c r="AV17" s="25">
-        <v>98.59</v>
+        <v>98.73</v>
       </c>
       <c r="AW17" s="25">
-        <v>98.9</v>
+        <v>99.04</v>
       </c>
       <c r="AX17" s="25">
-        <v>98.7</v>
+        <v>98.88</v>
       </c>
       <c r="AY17" s="25">
-        <v>99.05</v>
+        <v>99.28</v>
       </c>
       <c r="AZ17" s="25">
-        <v>98.76</v>
+        <v>99.01</v>
       </c>
       <c r="BA17" s="25">
-        <v>97.2</v>
+        <v>97.51</v>
       </c>
       <c r="BB17" s="25">
-        <v>92.29</v>
+        <v>92.66</v>
       </c>
       <c r="BC17" s="25">
-        <v>89.52</v>
+        <v>89.85</v>
       </c>
       <c r="BD17" s="25">
-        <v>92.61</v>
+        <v>92.38</v>
       </c>
       <c r="BE17" s="25">
-        <v>95.21</v>
+        <v>94.84</v>
       </c>
       <c r="BF17" s="25">
-        <v>96.14</v>
+        <v>96.7</v>
       </c>
       <c r="BG17" s="25">
-        <v>97.45</v>
-      </c>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="25"/>
+        <v>97.51</v>
+      </c>
+      <c r="BH17" s="25">
+        <v>97</v>
+      </c>
+      <c r="BI17" s="25">
+        <v>97.82</v>
+      </c>
       <c r="BJ17" s="25"/>
       <c r="BK17" s="25"/>
       <c r="BL17" s="25"/>
@@ -4035,13 +4083,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="25">
         <v>96.05</v>
       </c>
       <c r="D18" s="25">
-        <v>97.3</v>
+        <v>97.31</v>
       </c>
       <c r="E18" s="25">
         <v>97.83</v>
@@ -4050,7 +4098,7 @@
         <v>98.34</v>
       </c>
       <c r="G18" s="25">
-        <v>98.31</v>
+        <v>98.3</v>
       </c>
       <c r="H18" s="25">
         <v>98.68</v>
@@ -4083,13 +4131,13 @@
         <v>94.3</v>
       </c>
       <c r="R18" s="25">
-        <v>94.5</v>
+        <v>94.49</v>
       </c>
       <c r="S18" s="25">
-        <v>94.9</v>
+        <v>94.89</v>
       </c>
       <c r="T18" s="25">
-        <v>95.27</v>
+        <v>95.26</v>
       </c>
       <c r="U18" s="25">
         <v>95.72</v>
@@ -4116,100 +4164,104 @@
         <v>95.37</v>
       </c>
       <c r="AC18" s="25">
+        <v>95.78</v>
+      </c>
+      <c r="AD18" s="25">
+        <v>97.08</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>97.32</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AG18" s="25">
+        <v>97.12</v>
+      </c>
+      <c r="AH18" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="AI18" s="25">
+        <v>97.19</v>
+      </c>
+      <c r="AJ18" s="25">
+        <v>97.55</v>
+      </c>
+      <c r="AK18" s="25">
+        <v>97.1</v>
+      </c>
+      <c r="AL18" s="25">
+        <v>97.39</v>
+      </c>
+      <c r="AM18" s="25">
+        <v>97.71</v>
+      </c>
+      <c r="AN18" s="25">
+        <v>97.99</v>
+      </c>
+      <c r="AO18" s="25">
+        <v>97.16</v>
+      </c>
+      <c r="AP18" s="25">
+        <v>96.47</v>
+      </c>
+      <c r="AQ18" s="25">
+        <v>96.68</v>
+      </c>
+      <c r="AR18" s="25">
+        <v>97.27</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>97.1</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>97.12</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>97.17</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>97.91</v>
+      </c>
+      <c r="AW18" s="25">
+        <v>97.8</v>
+      </c>
+      <c r="AX18" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AY18" s="25">
+        <v>98.06</v>
+      </c>
+      <c r="AZ18" s="25">
+        <v>97.88</v>
+      </c>
+      <c r="BA18" s="25">
+        <v>97.05</v>
+      </c>
+      <c r="BB18" s="25">
+        <v>94.08</v>
+      </c>
+      <c r="BC18" s="25">
+        <v>92.42</v>
+      </c>
+      <c r="BD18" s="25">
+        <v>92.58</v>
+      </c>
+      <c r="BE18" s="25">
+        <v>93.64</v>
+      </c>
+      <c r="BF18" s="25">
+        <v>94.76</v>
+      </c>
+      <c r="BG18" s="25">
+        <v>95.72</v>
+      </c>
+      <c r="BH18" s="25">
         <v>95.77</v>
       </c>
-      <c r="AD18" s="25">
-        <v>97.07</v>
-      </c>
-      <c r="AE18" s="25">
-        <v>97.31</v>
-      </c>
-      <c r="AF18" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="AG18" s="25">
-        <v>97.11</v>
-      </c>
-      <c r="AH18" s="25">
-        <v>97.4</v>
-      </c>
-      <c r="AI18" s="25">
+      <c r="BI18" s="25">
         <v>97.18</v>
       </c>
-      <c r="AJ18" s="25">
-        <v>97.54</v>
-      </c>
-      <c r="AK18" s="25">
-        <v>97.09</v>
-      </c>
-      <c r="AL18" s="25">
-        <v>97.38</v>
-      </c>
-      <c r="AM18" s="25">
-        <v>97.7</v>
-      </c>
-      <c r="AN18" s="25">
-        <v>97.97</v>
-      </c>
-      <c r="AO18" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="AP18" s="25">
-        <v>96.45</v>
-      </c>
-      <c r="AQ18" s="25">
-        <v>96.66</v>
-      </c>
-      <c r="AR18" s="25">
-        <v>97.25</v>
-      </c>
-      <c r="AS18" s="25">
-        <v>97.08</v>
-      </c>
-      <c r="AT18" s="25">
-        <v>97.1</v>
-      </c>
-      <c r="AU18" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="AV18" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AW18" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="AX18" s="25">
-        <v>97.85</v>
-      </c>
-      <c r="AY18" s="25">
-        <v>98.04</v>
-      </c>
-      <c r="AZ18" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="BA18" s="25">
-        <v>97.04</v>
-      </c>
-      <c r="BB18" s="25">
-        <v>94.06</v>
-      </c>
-      <c r="BC18" s="25">
-        <v>92.49</v>
-      </c>
-      <c r="BD18" s="25">
-        <v>93.36</v>
-      </c>
-      <c r="BE18" s="25">
-        <v>94.86</v>
-      </c>
-      <c r="BF18" s="25">
-        <v>95.4</v>
-      </c>
-      <c r="BG18" s="25">
-        <v>96.43</v>
-      </c>
-      <c r="BH18" s="25"/>
-      <c r="BI18" s="25"/>
       <c r="BJ18" s="25"/>
       <c r="BK18" s="25"/>
       <c r="BL18" s="25"/>
@@ -4233,7 +4285,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="25">
         <v>87.57</v>
@@ -4242,25 +4294,25 @@
         <v>93.13</v>
       </c>
       <c r="E19" s="25">
-        <v>95.6</v>
+        <v>95.59</v>
       </c>
       <c r="F19" s="25">
         <v>96.5</v>
       </c>
       <c r="G19" s="25">
-        <v>96.93</v>
+        <v>96.92</v>
       </c>
       <c r="H19" s="25">
-        <v>97.98</v>
+        <v>97.97</v>
       </c>
       <c r="I19" s="25">
-        <v>98.79</v>
+        <v>98.78</v>
       </c>
       <c r="J19" s="25">
-        <v>99.03</v>
+        <v>99.02</v>
       </c>
       <c r="K19" s="25">
-        <v>99.47</v>
+        <v>99.46</v>
       </c>
       <c r="L19" s="25">
         <v>100.15</v>
@@ -4272,142 +4324,146 @@
         <v>98.73</v>
       </c>
       <c r="O19" s="25">
-        <v>92.97</v>
+        <v>92.98</v>
       </c>
       <c r="P19" s="25">
-        <v>90.53</v>
+        <v>90.55</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.14</v>
+        <v>89.16</v>
       </c>
       <c r="R19" s="25">
-        <v>88.98</v>
+        <v>89</v>
       </c>
       <c r="S19" s="25">
-        <v>89.94</v>
+        <v>89.95</v>
       </c>
       <c r="T19" s="25">
-        <v>91.05</v>
+        <v>91.07</v>
       </c>
       <c r="U19" s="25">
-        <v>92.35</v>
+        <v>92.37</v>
       </c>
       <c r="V19" s="25">
-        <v>93.04</v>
+        <v>93.07</v>
       </c>
       <c r="W19" s="25">
-        <v>93.57</v>
+        <v>93.59</v>
       </c>
       <c r="X19" s="25">
-        <v>94.12</v>
+        <v>94.15</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.65</v>
+        <v>95.68</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.5</v>
+        <v>96.53</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.13</v>
+        <v>97.16</v>
       </c>
       <c r="AB19" s="25">
-        <v>97.99</v>
+        <v>98.05</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.27</v>
+        <v>99.39</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.19</v>
+        <v>100.34</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.52</v>
+        <v>100.67</v>
       </c>
       <c r="AF19" s="25">
-        <v>100.97</v>
+        <v>101.11</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.32</v>
+        <v>101.47</v>
       </c>
       <c r="AH19" s="25">
-        <v>101.71</v>
+        <v>101.87</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.06</v>
+        <v>102.22</v>
       </c>
       <c r="AJ19" s="25">
-        <v>102.41</v>
+        <v>102.58</v>
       </c>
       <c r="AK19" s="25">
-        <v>102.97</v>
+        <v>103.14</v>
       </c>
       <c r="AL19" s="25">
-        <v>103.23</v>
+        <v>103.41</v>
       </c>
       <c r="AM19" s="25">
+        <v>103.8</v>
+      </c>
+      <c r="AN19" s="25">
+        <v>103.74</v>
+      </c>
+      <c r="AO19" s="25">
+        <v>103.59</v>
+      </c>
+      <c r="AP19" s="25">
+        <v>102.58</v>
+      </c>
+      <c r="AQ19" s="25">
+        <v>102.28</v>
+      </c>
+      <c r="AR19" s="25">
+        <v>103.31</v>
+      </c>
+      <c r="AS19" s="25">
+        <v>103.62</v>
+      </c>
+      <c r="AT19" s="25">
         <v>103.6</v>
       </c>
-      <c r="AN19" s="25">
-        <v>103.52</v>
-      </c>
-      <c r="AO19" s="25">
+      <c r="AU19" s="25">
+        <v>103.61</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>103.91</v>
+      </c>
+      <c r="AW19" s="25">
+        <v>102.17</v>
+      </c>
+      <c r="AX19" s="25">
         <v>103.35</v>
       </c>
-      <c r="AP19" s="25">
-        <v>102.26</v>
-      </c>
-      <c r="AQ19" s="25">
-        <v>101.9</v>
-      </c>
-      <c r="AR19" s="25">
-        <v>102.9</v>
-      </c>
-      <c r="AS19" s="25">
-        <v>103.2</v>
-      </c>
-      <c r="AT19" s="25">
-        <v>103.18</v>
-      </c>
-      <c r="AU19" s="25">
-        <v>103.12</v>
-      </c>
-      <c r="AV19" s="25">
-        <v>103.38</v>
-      </c>
-      <c r="AW19" s="25">
-        <v>101.64</v>
-      </c>
-      <c r="AX19" s="25">
-        <v>102.78</v>
-      </c>
       <c r="AY19" s="25">
-        <v>104.04</v>
+        <v>104.71</v>
       </c>
       <c r="AZ19" s="25">
-        <v>104.47</v>
+        <v>105.23</v>
       </c>
       <c r="BA19" s="25">
-        <v>103.13</v>
+        <v>103.97</v>
       </c>
       <c r="BB19" s="25">
-        <v>97.73</v>
+        <v>98.72</v>
       </c>
       <c r="BC19" s="25">
-        <v>92.62</v>
+        <v>93.7</v>
       </c>
       <c r="BD19" s="25">
-        <v>95.65</v>
+        <v>96.24</v>
       </c>
       <c r="BE19" s="25">
-        <v>98.52</v>
+        <v>98.98</v>
       </c>
       <c r="BF19" s="25">
-        <v>98.78</v>
+        <v>100.31</v>
       </c>
       <c r="BG19" s="25">
-        <v>99.45</v>
-      </c>
-      <c r="BH19" s="25"/>
-      <c r="BI19" s="25"/>
+        <v>100.48</v>
+      </c>
+      <c r="BH19" s="25">
+        <v>99.32</v>
+      </c>
+      <c r="BI19" s="25">
+        <v>99.79</v>
+      </c>
       <c r="BJ19" s="25"/>
       <c r="BK19" s="25"/>
       <c r="BL19" s="25"/>
@@ -4434,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>91.86</v>
+        <v>91.88</v>
       </c>
       <c r="D20" s="25">
-        <v>95.58</v>
+        <v>95.59</v>
       </c>
       <c r="E20" s="25">
         <v>97.43</v>
@@ -4452,7 +4508,7 @@
         <v>99.22</v>
       </c>
       <c r="I20" s="25">
-        <v>99.67</v>
+        <v>99.66</v>
       </c>
       <c r="J20" s="25">
         <v>100.08</v>
@@ -4461,7 +4517,7 @@
         <v>100.07</v>
       </c>
       <c r="L20" s="25">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
@@ -4473,10 +4529,10 @@
         <v>92.35</v>
       </c>
       <c r="P20" s="25">
-        <v>89.31</v>
+        <v>89.3</v>
       </c>
       <c r="Q20" s="25">
-        <v>87.83</v>
+        <v>87.82</v>
       </c>
       <c r="R20" s="25">
         <v>88.04</v>
@@ -4503,109 +4559,113 @@
         <v>92.87</v>
       </c>
       <c r="Z20" s="25">
-        <v>93.46</v>
+        <v>93.45</v>
       </c>
       <c r="AA20" s="25">
         <v>93.36</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.85</v>
+        <v>92.84</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.34</v>
+        <v>93.35</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.27</v>
+        <v>94.28</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.49</v>
+        <v>94.51</v>
       </c>
       <c r="AF20" s="25">
-        <v>95</v>
+        <v>95.02</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.16</v>
+        <v>95.18</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.5</v>
+        <v>95.53</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.92</v>
+        <v>95.95</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.64</v>
+        <v>95.67</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.94</v>
+        <v>95.97</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.34</v>
+        <v>96.37</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.66</v>
+        <v>96.69</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.79</v>
+        <v>96.81</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.63</v>
+        <v>96.68</v>
       </c>
       <c r="AP20" s="25">
-        <v>95.9</v>
+        <v>95.95</v>
       </c>
       <c r="AQ20" s="25">
-        <v>95.65</v>
+        <v>95.7</v>
       </c>
       <c r="AR20" s="25">
-        <v>97</v>
+        <v>97.06</v>
       </c>
       <c r="AS20" s="25">
-        <v>97.36</v>
+        <v>97.42</v>
       </c>
       <c r="AT20" s="25">
+        <v>97.48</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>98.13</v>
+      </c>
+      <c r="AW20" s="25">
         <v>97.41</v>
       </c>
-      <c r="AU20" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AV20" s="25">
-        <v>98.08</v>
-      </c>
-      <c r="AW20" s="25">
-        <v>97.35</v>
-      </c>
       <c r="AX20" s="25">
-        <v>97.74</v>
+        <v>97.83</v>
       </c>
       <c r="AY20" s="25">
-        <v>98.25</v>
+        <v>98.38</v>
       </c>
       <c r="AZ20" s="25">
-        <v>98.47</v>
+        <v>98.64</v>
       </c>
       <c r="BA20" s="25">
-        <v>96.73</v>
+        <v>96.97</v>
       </c>
       <c r="BB20" s="25">
+        <v>93.11</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>90.69</v>
+      </c>
+      <c r="BD20" s="25">
         <v>92.83</v>
       </c>
-      <c r="BC20" s="25">
-        <v>90.4</v>
-      </c>
-      <c r="BD20" s="25">
-        <v>92.92</v>
-      </c>
       <c r="BE20" s="25">
-        <v>95.12</v>
+        <v>94.82</v>
       </c>
       <c r="BF20" s="25">
-        <v>96.03</v>
+        <v>96.17</v>
       </c>
       <c r="BG20" s="25">
-        <v>97.33</v>
-      </c>
-      <c r="BH20" s="25"/>
-      <c r="BI20" s="25"/>
+        <v>97.07</v>
+      </c>
+      <c r="BH20" s="25">
+        <v>96.78</v>
+      </c>
+      <c r="BI20" s="25">
+        <v>97.5</v>
+      </c>
       <c r="BJ20" s="25"/>
       <c r="BK20" s="25"/>
       <c r="BL20" s="25"/>
@@ -4629,7 +4689,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="25">
         <v>96.65</v>
@@ -4668,7 +4728,7 @@
         <v>99.33</v>
       </c>
       <c r="O21" s="25">
-        <v>97.78</v>
+        <v>97.77</v>
       </c>
       <c r="P21" s="25">
         <v>95.27</v>
@@ -4677,7 +4737,7 @@
         <v>94.32</v>
       </c>
       <c r="R21" s="25">
-        <v>94.47</v>
+        <v>94.46</v>
       </c>
       <c r="S21" s="25">
         <v>94.18</v>
@@ -4713,10 +4773,10 @@
         <v>94.61</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.38</v>
+        <v>96.39</v>
       </c>
       <c r="AE21" s="25">
-        <v>96.72</v>
+        <v>96.73</v>
       </c>
       <c r="AF21" s="25">
         <v>97.52</v>
@@ -4725,85 +4785,89 @@
         <v>97.28</v>
       </c>
       <c r="AH21" s="25">
-        <v>97.66</v>
+        <v>97.67</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.63</v>
+        <v>97.64</v>
       </c>
       <c r="AJ21" s="25">
-        <v>97.92</v>
+        <v>97.93</v>
       </c>
       <c r="AK21" s="25">
-        <v>97.68</v>
+        <v>97.69</v>
       </c>
       <c r="AL21" s="25">
         <v>97.88</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.37</v>
+        <v>98.39</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.73</v>
+        <v>98.74</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.59</v>
+        <v>98.61</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.06</v>
+        <v>98.08</v>
       </c>
       <c r="AQ21" s="25">
-        <v>98.56</v>
+        <v>98.57</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.17</v>
+        <v>100.19</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.89</v>
+        <v>99.91</v>
       </c>
       <c r="AT21" s="25">
-        <v>98.99</v>
+        <v>99.01</v>
       </c>
       <c r="AU21" s="25">
-        <v>99.68</v>
+        <v>99.71</v>
       </c>
       <c r="AV21" s="25">
-        <v>100.99</v>
+        <v>101.02</v>
       </c>
       <c r="AW21" s="25">
-        <v>100.42</v>
+        <v>100.46</v>
       </c>
       <c r="AX21" s="25">
-        <v>100.02</v>
+        <v>100.09</v>
       </c>
       <c r="AY21" s="25">
-        <v>101.19</v>
+        <v>101.29</v>
       </c>
       <c r="AZ21" s="25">
-        <v>101.57</v>
+        <v>101.62</v>
       </c>
       <c r="BA21" s="25">
-        <v>100.28</v>
+        <v>100.33</v>
       </c>
       <c r="BB21" s="25">
-        <v>97.01</v>
+        <v>97.07</v>
       </c>
       <c r="BC21" s="25">
-        <v>95.22</v>
+        <v>95.26</v>
       </c>
       <c r="BD21" s="25">
-        <v>96.14</v>
+        <v>95.46</v>
       </c>
       <c r="BE21" s="25">
-        <v>98.2</v>
+        <v>96.95</v>
       </c>
       <c r="BF21" s="25">
-        <v>98.83</v>
+        <v>98.28</v>
       </c>
       <c r="BG21" s="25">
-        <v>100.26</v>
-      </c>
-      <c r="BH21" s="25"/>
-      <c r="BI21" s="25"/>
+        <v>99.35</v>
+      </c>
+      <c r="BH21" s="25">
+        <v>98.98</v>
+      </c>
+      <c r="BI21" s="25">
+        <v>100.48</v>
+      </c>
       <c r="BJ21" s="25"/>
       <c r="BK21" s="25"/>
       <c r="BL21" s="25"/>
@@ -4827,7 +4891,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="25">
         <v>89.45</v>
@@ -4848,7 +4912,7 @@
         <v>97.49</v>
       </c>
       <c r="I22" s="25">
-        <v>98.03</v>
+        <v>98.04</v>
       </c>
       <c r="J22" s="25">
         <v>98.4</v>
@@ -4863,31 +4927,31 @@
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>98.99</v>
+        <v>99</v>
       </c>
       <c r="O22" s="25">
-        <v>94.19</v>
+        <v>94.18</v>
       </c>
       <c r="P22" s="25">
         <v>90.43</v>
       </c>
       <c r="Q22" s="25">
-        <v>88.39</v>
+        <v>88.4</v>
       </c>
       <c r="R22" s="25">
-        <v>88.19</v>
+        <v>88.2</v>
       </c>
       <c r="S22" s="25">
-        <v>88.8</v>
+        <v>88.81</v>
       </c>
       <c r="T22" s="25">
-        <v>90.13</v>
+        <v>90.14</v>
       </c>
       <c r="U22" s="25">
-        <v>91.54</v>
+        <v>91.55</v>
       </c>
       <c r="V22" s="25">
-        <v>92.51</v>
+        <v>92.54</v>
       </c>
       <c r="W22" s="25">
         <v>93.56</v>
@@ -4899,109 +4963,113 @@
         <v>95.16</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.83</v>
+        <v>96.84</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.66</v>
+        <v>97.68</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.17</v>
+        <v>98.2</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.19</v>
+        <v>100.28</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.06</v>
+        <v>101.2</v>
       </c>
       <c r="AE22" s="25">
-        <v>101.4</v>
+        <v>101.52</v>
       </c>
       <c r="AF22" s="25">
-        <v>102.2</v>
+        <v>102.33</v>
       </c>
       <c r="AG22" s="25">
-        <v>102.54</v>
+        <v>102.67</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.02</v>
+        <v>103.16</v>
       </c>
       <c r="AI22" s="25">
-        <v>103.47</v>
+        <v>103.62</v>
       </c>
       <c r="AJ22" s="25">
-        <v>103.82</v>
+        <v>103.98</v>
       </c>
       <c r="AK22" s="25">
-        <v>104.2</v>
+        <v>104.36</v>
       </c>
       <c r="AL22" s="25">
-        <v>104.6</v>
+        <v>104.77</v>
       </c>
       <c r="AM22" s="25">
+        <v>105.39</v>
+      </c>
+      <c r="AN22" s="25">
+        <v>105.38</v>
+      </c>
+      <c r="AO22" s="25">
         <v>105.22</v>
       </c>
-      <c r="AN22" s="25">
-        <v>105.2</v>
-      </c>
-      <c r="AO22" s="25">
-        <v>105.01</v>
-      </c>
       <c r="AP22" s="25">
-        <v>103.07</v>
+        <v>103.38</v>
       </c>
       <c r="AQ22" s="25">
-        <v>102.63</v>
+        <v>103.05</v>
       </c>
       <c r="AR22" s="25">
-        <v>103.55</v>
+        <v>104</v>
       </c>
       <c r="AS22" s="25">
-        <v>104.23</v>
+        <v>104.7</v>
       </c>
       <c r="AT22" s="25">
-        <v>104.23</v>
+        <v>104.73</v>
       </c>
       <c r="AU22" s="25">
-        <v>104.5</v>
+        <v>105.1</v>
       </c>
       <c r="AV22" s="25">
-        <v>104.93</v>
+        <v>105.55</v>
       </c>
       <c r="AW22" s="25">
-        <v>105.22</v>
+        <v>105.84</v>
       </c>
       <c r="AX22" s="25">
-        <v>105.25</v>
+        <v>105.97</v>
       </c>
       <c r="AY22" s="25">
-        <v>105.67</v>
+        <v>106.53</v>
       </c>
       <c r="AZ22" s="25">
-        <v>105.69</v>
+        <v>106.63</v>
       </c>
       <c r="BA22" s="25">
-        <v>104.09</v>
+        <v>105.14</v>
       </c>
       <c r="BB22" s="25">
-        <v>98.29</v>
+        <v>99.43</v>
       </c>
       <c r="BC22" s="25">
-        <v>94</v>
+        <v>95.2</v>
       </c>
       <c r="BD22" s="25">
-        <v>97.4</v>
+        <v>97.74</v>
       </c>
       <c r="BE22" s="25">
-        <v>100.27</v>
+        <v>100.28</v>
       </c>
       <c r="BF22" s="25">
-        <v>99.87</v>
+        <v>101.53</v>
       </c>
       <c r="BG22" s="25">
-        <v>99.8</v>
-      </c>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="25"/>
+        <v>101.46</v>
+      </c>
+      <c r="BH22" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="BI22" s="25">
+        <v>98.9</v>
+      </c>
       <c r="BJ22" s="25"/>
       <c r="BK22" s="25"/>
       <c r="BL22" s="25"/>
@@ -5028,178 +5096,182 @@
         <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>95.67</v>
+        <v>95.65</v>
       </c>
       <c r="D23" s="25">
-        <v>97.96</v>
+        <v>97.95</v>
       </c>
       <c r="E23" s="25">
-        <v>97.79</v>
+        <v>97.77</v>
       </c>
       <c r="F23" s="25">
-        <v>98.46</v>
+        <v>98.43</v>
       </c>
       <c r="G23" s="25">
-        <v>98.68</v>
+        <v>98.66</v>
       </c>
       <c r="H23" s="25">
-        <v>99.7</v>
+        <v>99.68</v>
       </c>
       <c r="I23" s="25">
-        <v>100.4</v>
+        <v>100.38</v>
       </c>
       <c r="J23" s="25">
-        <v>100.24</v>
+        <v>100.22</v>
       </c>
       <c r="K23" s="25">
-        <v>100.44</v>
+        <v>100.41</v>
       </c>
       <c r="L23" s="25">
-        <v>100.03</v>
+        <v>100.02</v>
       </c>
       <c r="M23" s="25">
         <v>100</v>
       </c>
       <c r="N23" s="25">
-        <v>98.63</v>
+        <v>98.64</v>
       </c>
       <c r="O23" s="25">
-        <v>93.35</v>
+        <v>93.34</v>
       </c>
       <c r="P23" s="25">
-        <v>90.02</v>
+        <v>89.99</v>
       </c>
       <c r="Q23" s="25">
-        <v>88.81</v>
+        <v>88.78</v>
       </c>
       <c r="R23" s="25">
-        <v>88.35</v>
+        <v>88.32</v>
       </c>
       <c r="S23" s="25">
-        <v>88.73</v>
+        <v>88.71</v>
       </c>
       <c r="T23" s="25">
-        <v>89.61</v>
+        <v>89.58</v>
       </c>
       <c r="U23" s="25">
-        <v>90.52</v>
+        <v>90.49</v>
       </c>
       <c r="V23" s="25">
-        <v>91.46</v>
+        <v>91.42</v>
       </c>
       <c r="W23" s="25">
-        <v>91.81</v>
+        <v>91.78</v>
       </c>
       <c r="X23" s="25">
-        <v>92.26</v>
+        <v>92.22</v>
       </c>
       <c r="Y23" s="25">
-        <v>93.41</v>
+        <v>93.38</v>
       </c>
       <c r="Z23" s="25">
-        <v>94.5</v>
+        <v>94.47</v>
       </c>
       <c r="AA23" s="25">
-        <v>94.97</v>
+        <v>94.95</v>
       </c>
       <c r="AB23" s="25">
-        <v>94.26</v>
+        <v>94.24</v>
       </c>
       <c r="AC23" s="25">
-        <v>95.04</v>
+        <v>95.03</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.51</v>
+        <v>96.52</v>
       </c>
       <c r="AE23" s="25">
         <v>96.99</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.43</v>
+        <v>97.44</v>
       </c>
       <c r="AG23" s="25">
+        <v>98.02</v>
+      </c>
+      <c r="AH23" s="25">
         <v>98.01</v>
       </c>
-      <c r="AH23" s="25">
-        <v>98</v>
-      </c>
       <c r="AI23" s="25">
-        <v>98.18</v>
+        <v>98.19</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.59</v>
+        <v>98.61</v>
       </c>
       <c r="AK23" s="25">
-        <v>98.84</v>
+        <v>98.88</v>
       </c>
       <c r="AL23" s="25">
-        <v>99.11</v>
+        <v>99.15</v>
       </c>
       <c r="AM23" s="25">
-        <v>99.64</v>
+        <v>99.67</v>
       </c>
       <c r="AN23" s="25">
-        <v>99.58</v>
+        <v>99.62</v>
       </c>
       <c r="AO23" s="25">
-        <v>99.38</v>
+        <v>99.44</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.57</v>
+        <v>98.65</v>
       </c>
       <c r="AQ23" s="25">
-        <v>98.64</v>
+        <v>98.74</v>
       </c>
       <c r="AR23" s="25">
-        <v>99.31</v>
+        <v>99.39</v>
       </c>
       <c r="AS23" s="25">
-        <v>99.66</v>
+        <v>99.74</v>
       </c>
       <c r="AT23" s="25">
-        <v>99.73</v>
+        <v>99.83</v>
       </c>
       <c r="AU23" s="25">
-        <v>99.59</v>
+        <v>99.71</v>
       </c>
       <c r="AV23" s="25">
-        <v>100.08</v>
+        <v>100.19</v>
       </c>
       <c r="AW23" s="25">
-        <v>99.97</v>
+        <v>100.11</v>
       </c>
       <c r="AX23" s="25">
-        <v>100.41</v>
+        <v>100.61</v>
       </c>
       <c r="AY23" s="25">
-        <v>101.2</v>
+        <v>101.49</v>
       </c>
       <c r="AZ23" s="25">
-        <v>100.91</v>
+        <v>101.31</v>
       </c>
       <c r="BA23" s="25">
-        <v>99.81</v>
+        <v>100.25</v>
       </c>
       <c r="BB23" s="25">
-        <v>95.2</v>
+        <v>95.78</v>
       </c>
       <c r="BC23" s="25">
-        <v>92.72</v>
+        <v>93.28</v>
       </c>
       <c r="BD23" s="25">
-        <v>95.75</v>
+        <v>95.62</v>
       </c>
       <c r="BE23" s="25">
-        <v>98.51</v>
+        <v>97.82</v>
       </c>
       <c r="BF23" s="25">
-        <v>98.64</v>
+        <v>98.94</v>
       </c>
       <c r="BG23" s="25">
-        <v>98.22</v>
-      </c>
-      <c r="BH23" s="25"/>
-      <c r="BI23" s="25"/>
+        <v>99.33</v>
+      </c>
+      <c r="BH23" s="25">
+        <v>96.97</v>
+      </c>
+      <c r="BI23" s="25">
+        <v>97.55</v>
+      </c>
       <c r="BJ23" s="25"/>
       <c r="BK23" s="25"/>
       <c r="BL23" s="25"/>
@@ -5223,7 +5295,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="25">
         <v>96</v>
@@ -5241,13 +5313,13 @@
         <v>98.96</v>
       </c>
       <c r="H24" s="25">
-        <v>99.69</v>
+        <v>99.68</v>
       </c>
       <c r="I24" s="25">
         <v>100.32</v>
       </c>
       <c r="J24" s="25">
-        <v>99.68</v>
+        <v>99.69</v>
       </c>
       <c r="K24" s="25">
         <v>98.71</v>
@@ -5274,7 +5346,7 @@
         <v>94.99</v>
       </c>
       <c r="S24" s="25">
-        <v>94.98</v>
+        <v>94.97</v>
       </c>
       <c r="T24" s="25">
         <v>95.46</v>
@@ -5301,103 +5373,107 @@
         <v>97.62</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.88</v>
+        <v>96.87</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.53</v>
+        <v>98.54</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.34</v>
+        <v>99.35</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.59</v>
+        <v>98.61</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.61</v>
+        <v>98.63</v>
       </c>
       <c r="AG24" s="25">
+        <v>99.5</v>
+      </c>
+      <c r="AH24" s="25">
         <v>99.48</v>
       </c>
-      <c r="AH24" s="25">
-        <v>99.46</v>
-      </c>
       <c r="AI24" s="25">
-        <v>99.58</v>
+        <v>99.6</v>
       </c>
       <c r="AJ24" s="25">
-        <v>99.5</v>
+        <v>99.52</v>
       </c>
       <c r="AK24" s="25">
+        <v>99.66</v>
+      </c>
+      <c r="AL24" s="25">
+        <v>99.38</v>
+      </c>
+      <c r="AM24" s="25">
+        <v>99.6</v>
+      </c>
+      <c r="AN24" s="25">
         <v>99.64</v>
       </c>
-      <c r="AL24" s="25">
-        <v>99.36</v>
-      </c>
-      <c r="AM24" s="25">
-        <v>99.57</v>
-      </c>
-      <c r="AN24" s="25">
-        <v>99.61</v>
-      </c>
       <c r="AO24" s="25">
-        <v>99.39</v>
+        <v>99.42</v>
       </c>
       <c r="AP24" s="25">
-        <v>99</v>
+        <v>99.02</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.39</v>
+        <v>98.42</v>
       </c>
       <c r="AR24" s="25">
-        <v>98.62</v>
+        <v>98.65</v>
       </c>
       <c r="AS24" s="25">
-        <v>99.03</v>
+        <v>99.06</v>
       </c>
       <c r="AT24" s="25">
-        <v>99.06</v>
+        <v>99.09</v>
       </c>
       <c r="AU24" s="25">
-        <v>99.4</v>
+        <v>99.49</v>
       </c>
       <c r="AV24" s="25">
+        <v>100.13</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>100.28</v>
+      </c>
+      <c r="AX24" s="25">
         <v>100.03</v>
       </c>
-      <c r="AW24" s="25">
-        <v>100.23</v>
-      </c>
-      <c r="AX24" s="25">
-        <v>99.98</v>
-      </c>
       <c r="AY24" s="25">
-        <v>100.89</v>
+        <v>100.95</v>
       </c>
       <c r="AZ24" s="25">
-        <v>101.42</v>
+        <v>101.49</v>
       </c>
       <c r="BA24" s="25">
-        <v>101</v>
+        <v>101.04</v>
       </c>
       <c r="BB24" s="25">
-        <v>98.36</v>
+        <v>98.44</v>
       </c>
       <c r="BC24" s="25">
-        <v>95.94</v>
+        <v>95.84</v>
       </c>
       <c r="BD24" s="25">
-        <v>96.95</v>
+        <v>96.11</v>
       </c>
       <c r="BE24" s="25">
-        <v>98.66</v>
+        <v>97.15</v>
       </c>
       <c r="BF24" s="25">
-        <v>99.04</v>
+        <v>98</v>
       </c>
       <c r="BG24" s="25">
-        <v>100.1</v>
-      </c>
-      <c r="BH24" s="25"/>
-      <c r="BI24" s="25"/>
+        <v>98.96</v>
+      </c>
+      <c r="BH24" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="BI24" s="25">
+        <v>100.25</v>
+      </c>
       <c r="BJ24" s="25"/>
       <c r="BK24" s="25"/>
       <c r="BL24" s="25"/>
@@ -5421,31 +5497,31 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="25">
-        <v>91.4</v>
+        <v>91.41</v>
       </c>
       <c r="D25" s="25">
         <v>95.91</v>
       </c>
       <c r="E25" s="25">
-        <v>97.94</v>
+        <v>97.96</v>
       </c>
       <c r="F25" s="25">
-        <v>98.3</v>
+        <v>98.32</v>
       </c>
       <c r="G25" s="25">
-        <v>98.57</v>
+        <v>98.59</v>
       </c>
       <c r="H25" s="25">
-        <v>99.22</v>
+        <v>99.24</v>
       </c>
       <c r="I25" s="25">
-        <v>99.54</v>
+        <v>99.55</v>
       </c>
       <c r="J25" s="25">
-        <v>99.47</v>
+        <v>99.49</v>
       </c>
       <c r="K25" s="25">
         <v>99.52</v>
@@ -5460,142 +5536,146 @@
         <v>98.87</v>
       </c>
       <c r="O25" s="25">
-        <v>93.11</v>
+        <v>93.1</v>
       </c>
       <c r="P25" s="25">
         <v>89.62</v>
       </c>
       <c r="Q25" s="25">
-        <v>87.61</v>
+        <v>87.63</v>
       </c>
       <c r="R25" s="25">
-        <v>87.15</v>
+        <v>87.17</v>
       </c>
       <c r="S25" s="25">
-        <v>87.8</v>
+        <v>87.83</v>
       </c>
       <c r="T25" s="25">
-        <v>88.64</v>
+        <v>88.66</v>
       </c>
       <c r="U25" s="25">
-        <v>89.56</v>
+        <v>89.58</v>
       </c>
       <c r="V25" s="25">
-        <v>89.91</v>
+        <v>89.92</v>
       </c>
       <c r="W25" s="25">
-        <v>90.65</v>
+        <v>90.66</v>
       </c>
       <c r="X25" s="25">
-        <v>90.95</v>
+        <v>90.96</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.92</v>
+        <v>91.93</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.87</v>
+        <v>92.88</v>
       </c>
       <c r="AA25" s="25">
         <v>93.57</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.53</v>
+        <v>94.54</v>
       </c>
       <c r="AC25" s="25">
-        <v>95.93</v>
+        <v>96.05</v>
       </c>
       <c r="AD25" s="25">
-        <v>96.77</v>
+        <v>96.96</v>
       </c>
       <c r="AE25" s="25">
-        <v>97.21</v>
+        <v>97.41</v>
       </c>
       <c r="AF25" s="25">
-        <v>97.49</v>
+        <v>97.68</v>
       </c>
       <c r="AG25" s="25">
-        <v>97.59</v>
+        <v>97.79</v>
       </c>
       <c r="AH25" s="25">
-        <v>97.85</v>
+        <v>98.04</v>
       </c>
       <c r="AI25" s="25">
-        <v>98.06</v>
+        <v>98.27</v>
       </c>
       <c r="AJ25" s="25">
-        <v>98.24</v>
+        <v>98.46</v>
       </c>
       <c r="AK25" s="25">
-        <v>98.58</v>
+        <v>98.79</v>
       </c>
       <c r="AL25" s="25">
+        <v>99.03</v>
+      </c>
+      <c r="AM25" s="25">
+        <v>99.49</v>
+      </c>
+      <c r="AN25" s="25">
+        <v>99.77</v>
+      </c>
+      <c r="AO25" s="25">
+        <v>99.75</v>
+      </c>
+      <c r="AP25" s="25">
+        <v>98.83</v>
+      </c>
+      <c r="AQ25" s="25">
+        <v>98.64</v>
+      </c>
+      <c r="AR25" s="25">
+        <v>98.66</v>
+      </c>
+      <c r="AS25" s="25">
+        <v>98.9</v>
+      </c>
+      <c r="AT25" s="25">
+        <v>98.92</v>
+      </c>
+      <c r="AU25" s="25">
+        <v>99.29</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>100.16</v>
+      </c>
+      <c r="AW25" s="25">
+        <v>100.53</v>
+      </c>
+      <c r="AX25" s="25">
+        <v>100.7</v>
+      </c>
+      <c r="AY25" s="25">
+        <v>101.43</v>
+      </c>
+      <c r="AZ25" s="25">
+        <v>101.77</v>
+      </c>
+      <c r="BA25" s="25">
+        <v>100.89</v>
+      </c>
+      <c r="BB25" s="25">
+        <v>96.27</v>
+      </c>
+      <c r="BC25" s="25">
+        <v>92.29</v>
+      </c>
+      <c r="BD25" s="25">
+        <v>94.86</v>
+      </c>
+      <c r="BE25" s="25">
+        <v>97.37</v>
+      </c>
+      <c r="BF25" s="25">
         <v>98.82</v>
       </c>
-      <c r="AM25" s="25">
-        <v>99.26</v>
-      </c>
-      <c r="AN25" s="25">
-        <v>99.54</v>
-      </c>
-      <c r="AO25" s="25">
-        <v>99.52</v>
-      </c>
-      <c r="AP25" s="25">
-        <v>98.51</v>
-      </c>
-      <c r="AQ25" s="25">
-        <v>98.21</v>
-      </c>
-      <c r="AR25" s="25">
-        <v>98.23</v>
-      </c>
-      <c r="AS25" s="25">
-        <v>98.47</v>
-      </c>
-      <c r="AT25" s="25">
-        <v>98.47</v>
-      </c>
-      <c r="AU25" s="25">
-        <v>98.79</v>
-      </c>
-      <c r="AV25" s="25">
-        <v>99.61</v>
-      </c>
-      <c r="AW25" s="25">
-        <v>99.96</v>
-      </c>
-      <c r="AX25" s="25">
-        <v>100.1</v>
-      </c>
-      <c r="AY25" s="25">
-        <v>100.73</v>
-      </c>
-      <c r="AZ25" s="25">
-        <v>100.91</v>
-      </c>
-      <c r="BA25" s="25">
-        <v>99.99</v>
-      </c>
-      <c r="BB25" s="25">
-        <v>95.25</v>
-      </c>
-      <c r="BC25" s="25">
-        <v>91.23</v>
-      </c>
-      <c r="BD25" s="25">
-        <v>94.33</v>
-      </c>
-      <c r="BE25" s="25">
-        <v>96.68</v>
-      </c>
-      <c r="BF25" s="25">
-        <v>97.1</v>
-      </c>
       <c r="BG25" s="25">
-        <v>98.12</v>
-      </c>
-      <c r="BH25" s="25"/>
-      <c r="BI25" s="25"/>
+        <v>99.23</v>
+      </c>
+      <c r="BH25" s="25">
+        <v>97.98</v>
+      </c>
+      <c r="BI25" s="25">
+        <v>98.27</v>
+      </c>
       <c r="BJ25" s="25"/>
       <c r="BK25" s="25"/>
       <c r="BL25" s="25"/>
@@ -5631,7 +5711,7 @@
         <v>97.82</v>
       </c>
       <c r="F26" s="25">
-        <v>99.06</v>
+        <v>99.07</v>
       </c>
       <c r="G26" s="25">
         <v>100.2</v>
@@ -5643,157 +5723,161 @@
         <v>100.18</v>
       </c>
       <c r="J26" s="25">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
       <c r="K26" s="25">
         <v>99.75</v>
       </c>
       <c r="L26" s="25">
-        <v>99.95</v>
+        <v>99.96</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.44</v>
+        <v>98.45</v>
       </c>
       <c r="O26" s="25">
-        <v>93.86</v>
+        <v>93.85</v>
       </c>
       <c r="P26" s="25">
         <v>90.97</v>
       </c>
       <c r="Q26" s="25">
-        <v>88.65</v>
+        <v>88.64</v>
       </c>
       <c r="R26" s="25">
-        <v>88.57</v>
+        <v>88.56</v>
       </c>
       <c r="S26" s="25">
-        <v>89</v>
+        <v>88.99</v>
       </c>
       <c r="T26" s="25">
-        <v>89.33</v>
+        <v>89.32</v>
       </c>
       <c r="U26" s="25">
         <v>90.02</v>
       </c>
       <c r="V26" s="25">
-        <v>89.94</v>
+        <v>89.93</v>
       </c>
       <c r="W26" s="25">
         <v>90.02</v>
       </c>
       <c r="X26" s="25">
-        <v>89.93</v>
+        <v>89.92</v>
       </c>
       <c r="Y26" s="25">
         <v>90.93</v>
       </c>
       <c r="Z26" s="25">
-        <v>92.14</v>
+        <v>92.13</v>
       </c>
       <c r="AA26" s="25">
         <v>92.44</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.12</v>
+        <v>92.11</v>
       </c>
       <c r="AC26" s="25">
         <v>92.5</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.64</v>
+        <v>92.65</v>
       </c>
       <c r="AE26" s="25">
-        <v>92.68</v>
+        <v>92.69</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.89</v>
+        <v>92.9</v>
       </c>
       <c r="AG26" s="25">
         <v>93.52</v>
       </c>
       <c r="AH26" s="25">
-        <v>93.89</v>
+        <v>93.9</v>
       </c>
       <c r="AI26" s="25">
-        <v>93.72</v>
+        <v>93.73</v>
       </c>
       <c r="AJ26" s="25">
-        <v>93.86</v>
+        <v>93.87</v>
       </c>
       <c r="AK26" s="25">
-        <v>93.93</v>
+        <v>93.94</v>
       </c>
       <c r="AL26" s="25">
-        <v>94.39</v>
+        <v>94.4</v>
       </c>
       <c r="AM26" s="25">
-        <v>94.85</v>
+        <v>94.86</v>
       </c>
       <c r="AN26" s="25">
-        <v>94.96</v>
+        <v>94.98</v>
       </c>
       <c r="AO26" s="25">
-        <v>94.49</v>
+        <v>94.52</v>
       </c>
       <c r="AP26" s="25">
-        <v>93.58</v>
+        <v>93.62</v>
       </c>
       <c r="AQ26" s="25">
-        <v>93.36</v>
+        <v>93.43</v>
       </c>
       <c r="AR26" s="25">
-        <v>93.61</v>
+        <v>93.69</v>
       </c>
       <c r="AS26" s="25">
-        <v>93.68</v>
+        <v>93.75</v>
       </c>
       <c r="AT26" s="25">
-        <v>93.3</v>
+        <v>93.38</v>
       </c>
       <c r="AU26" s="25">
-        <v>93.85</v>
+        <v>93.92</v>
       </c>
       <c r="AV26" s="25">
-        <v>93.89</v>
+        <v>93.95</v>
       </c>
       <c r="AW26" s="25">
-        <v>94.57</v>
+        <v>94.53</v>
       </c>
       <c r="AX26" s="25">
-        <v>95.42</v>
+        <v>95.4</v>
       </c>
       <c r="AY26" s="25">
-        <v>96.13</v>
+        <v>96.29</v>
       </c>
       <c r="AZ26" s="25">
-        <v>95.49</v>
+        <v>95.89</v>
       </c>
       <c r="BA26" s="25">
-        <v>94.39</v>
+        <v>94.99</v>
       </c>
       <c r="BB26" s="25">
-        <v>91.69</v>
+        <v>92.61</v>
       </c>
       <c r="BC26" s="25">
-        <v>89.02</v>
+        <v>89.98</v>
       </c>
       <c r="BD26" s="25">
-        <v>90.82</v>
+        <v>90.88</v>
       </c>
       <c r="BE26" s="25">
-        <v>92.36</v>
+        <v>92.43</v>
       </c>
       <c r="BF26" s="25">
-        <v>93.21</v>
+        <v>94.2</v>
       </c>
       <c r="BG26" s="25">
-        <v>93.6</v>
-      </c>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="25"/>
+        <v>94.42</v>
+      </c>
+      <c r="BH26" s="25">
+        <v>93.74</v>
+      </c>
+      <c r="BI26" s="25">
+        <v>93.15</v>
+      </c>
       <c r="BJ26" s="25"/>
       <c r="BK26" s="25"/>
       <c r="BL26" s="25"/>
@@ -5817,7 +5901,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="25">
         <v>98.47</v>
@@ -5859,19 +5943,19 @@
         <v>97.83</v>
       </c>
       <c r="P27" s="25">
-        <v>95.59</v>
+        <v>95.58</v>
       </c>
       <c r="Q27" s="25">
         <v>94.87</v>
       </c>
       <c r="R27" s="25">
-        <v>95.69</v>
+        <v>95.68</v>
       </c>
       <c r="S27" s="25">
         <v>95.76</v>
       </c>
       <c r="T27" s="25">
-        <v>95.08</v>
+        <v>95.07</v>
       </c>
       <c r="U27" s="25">
         <v>95.87</v>
@@ -5886,22 +5970,22 @@
         <v>95.95</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.65</v>
+        <v>97.64</v>
       </c>
       <c r="Z27" s="25">
         <v>96.16</v>
       </c>
       <c r="AA27" s="25">
-        <v>94.97</v>
+        <v>94.96</v>
       </c>
       <c r="AB27" s="25">
-        <v>94.4</v>
+        <v>94.39</v>
       </c>
       <c r="AC27" s="25">
-        <v>94.97</v>
+        <v>94.96</v>
       </c>
       <c r="AD27" s="25">
-        <v>95.49</v>
+        <v>95.48</v>
       </c>
       <c r="AE27" s="25">
         <v>96.27</v>
@@ -5913,10 +5997,10 @@
         <v>97.03</v>
       </c>
       <c r="AH27" s="25">
-        <v>96</v>
+        <v>96.01</v>
       </c>
       <c r="AI27" s="25">
-        <v>96.23</v>
+        <v>96.24</v>
       </c>
       <c r="AJ27" s="25">
         <v>95.84</v>
@@ -5925,73 +6009,77 @@
         <v>95.74</v>
       </c>
       <c r="AL27" s="25">
-        <v>95.63</v>
+        <v>95.64</v>
       </c>
       <c r="AM27" s="25">
         <v>95.85</v>
       </c>
       <c r="AN27" s="25">
-        <v>96.35</v>
+        <v>96.36</v>
       </c>
       <c r="AO27" s="25">
-        <v>96.18</v>
+        <v>96.21</v>
       </c>
       <c r="AP27" s="25">
-        <v>95.61</v>
+        <v>95.64</v>
       </c>
       <c r="AQ27" s="25">
-        <v>96.29</v>
+        <v>96.31</v>
       </c>
       <c r="AR27" s="25">
-        <v>96.79</v>
+        <v>96.82</v>
       </c>
       <c r="AS27" s="25">
-        <v>96.59</v>
+        <v>96.61</v>
       </c>
       <c r="AT27" s="25">
-        <v>95.71</v>
+        <v>95.73</v>
       </c>
       <c r="AU27" s="25">
-        <v>96.49</v>
+        <v>96.51</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.11</v>
+        <v>97.13</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.1</v>
+        <v>98.12</v>
       </c>
       <c r="AX27" s="25">
-        <v>98.03</v>
+        <v>98.12</v>
       </c>
       <c r="AY27" s="25">
-        <v>98.59</v>
+        <v>98.75</v>
       </c>
       <c r="AZ27" s="25">
-        <v>99.14</v>
+        <v>99.25</v>
       </c>
       <c r="BA27" s="25">
-        <v>98.98</v>
+        <v>99.05</v>
       </c>
       <c r="BB27" s="25">
-        <v>96.53</v>
+        <v>96.61</v>
       </c>
       <c r="BC27" s="25">
-        <v>93.73</v>
+        <v>93.7</v>
       </c>
       <c r="BD27" s="25">
-        <v>95.15</v>
+        <v>94.39</v>
       </c>
       <c r="BE27" s="25">
-        <v>95.83</v>
+        <v>94.8</v>
       </c>
       <c r="BF27" s="25">
-        <v>96.45</v>
+        <v>95.54</v>
       </c>
       <c r="BG27" s="25">
-        <v>98.95</v>
-      </c>
-      <c r="BH27" s="25"/>
-      <c r="BI27" s="25"/>
+        <v>97.5</v>
+      </c>
+      <c r="BH27" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="BI27" s="25">
+        <v>99.46</v>
+      </c>
       <c r="BJ27" s="25"/>
       <c r="BK27" s="25"/>
       <c r="BL27" s="25"/>
@@ -6015,52 +6103,52 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="25">
-        <v>86.29</v>
+        <v>86.28</v>
       </c>
       <c r="D28" s="25">
-        <v>91.52</v>
+        <v>91.5</v>
       </c>
       <c r="E28" s="25">
-        <v>97.26</v>
+        <v>97.22</v>
       </c>
       <c r="F28" s="25">
-        <v>96.3</v>
+        <v>96.26</v>
       </c>
       <c r="G28" s="25">
-        <v>95.33</v>
+        <v>95.31</v>
       </c>
       <c r="H28" s="25">
-        <v>96.43</v>
+        <v>96.44</v>
       </c>
       <c r="I28" s="25">
-        <v>97.51</v>
+        <v>97.49</v>
       </c>
       <c r="J28" s="25">
-        <v>97.89</v>
+        <v>97.88</v>
       </c>
       <c r="K28" s="25">
-        <v>98.61</v>
+        <v>98.6</v>
       </c>
       <c r="L28" s="25">
-        <v>99.52</v>
+        <v>99.54</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>98.8</v>
+        <v>98.82</v>
       </c>
       <c r="O28" s="25">
-        <v>94.91</v>
+        <v>94.94</v>
       </c>
       <c r="P28" s="25">
-        <v>91.44</v>
+        <v>91.48</v>
       </c>
       <c r="Q28" s="25">
-        <v>89.43</v>
+        <v>89.45</v>
       </c>
       <c r="R28" s="25">
         <v>89.29</v>
@@ -6069,127 +6157,131 @@
         <v>90.61</v>
       </c>
       <c r="T28" s="25">
-        <v>91.24</v>
+        <v>91.25</v>
       </c>
       <c r="U28" s="25">
-        <v>92.57</v>
+        <v>92.6</v>
       </c>
       <c r="V28" s="25">
-        <v>93.93</v>
+        <v>93.96</v>
       </c>
       <c r="W28" s="25">
-        <v>95.24</v>
+        <v>95.27</v>
       </c>
       <c r="X28" s="25">
-        <v>95.99</v>
+        <v>96.01</v>
       </c>
       <c r="Y28" s="25">
-        <v>97.08</v>
+        <v>97.09</v>
       </c>
       <c r="Z28" s="25">
-        <v>98.02</v>
+        <v>98.01</v>
       </c>
       <c r="AA28" s="25">
         <v>98.64</v>
       </c>
       <c r="AB28" s="25">
-        <v>98.97</v>
+        <v>98.98</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.49</v>
+        <v>101.56</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.01</v>
+        <v>102.17</v>
       </c>
       <c r="AE28" s="25">
-        <v>102.3</v>
+        <v>102.46</v>
       </c>
       <c r="AF28" s="25">
-        <v>102.65</v>
+        <v>102.79</v>
       </c>
       <c r="AG28" s="25">
-        <v>103.02</v>
+        <v>103.17</v>
       </c>
       <c r="AH28" s="25">
-        <v>103.33</v>
+        <v>103.5</v>
       </c>
       <c r="AI28" s="25">
-        <v>103.75</v>
+        <v>103.93</v>
       </c>
       <c r="AJ28" s="25">
-        <v>103.92</v>
+        <v>104.1</v>
       </c>
       <c r="AK28" s="25">
-        <v>104.34</v>
+        <v>104.5</v>
       </c>
       <c r="AL28" s="25">
-        <v>104.36</v>
+        <v>104.54</v>
       </c>
       <c r="AM28" s="25">
-        <v>105.06</v>
+        <v>105.26</v>
       </c>
       <c r="AN28" s="25">
-        <v>105.65</v>
+        <v>105.83</v>
       </c>
       <c r="AO28" s="25">
-        <v>105.42</v>
+        <v>105.63</v>
       </c>
       <c r="AP28" s="25">
-        <v>103.82</v>
+        <v>104.13</v>
       </c>
       <c r="AQ28" s="25">
-        <v>102.84</v>
+        <v>103.24</v>
       </c>
       <c r="AR28" s="25">
-        <v>103.53</v>
+        <v>103.93</v>
       </c>
       <c r="AS28" s="25">
-        <v>103.89</v>
+        <v>104.28</v>
       </c>
       <c r="AT28" s="25">
-        <v>104.4</v>
+        <v>104.85</v>
       </c>
       <c r="AU28" s="25">
-        <v>104.89</v>
+        <v>105.41</v>
       </c>
       <c r="AV28" s="25">
-        <v>105.07</v>
+        <v>105.66</v>
       </c>
       <c r="AW28" s="25">
-        <v>105.29</v>
+        <v>105.85</v>
       </c>
       <c r="AX28" s="25">
-        <v>105.36</v>
+        <v>105.97</v>
       </c>
       <c r="AY28" s="25">
-        <v>105.31</v>
+        <v>106.06</v>
       </c>
       <c r="AZ28" s="25">
-        <v>104.74</v>
+        <v>105.67</v>
       </c>
       <c r="BA28" s="25">
-        <v>102.77</v>
+        <v>103.88</v>
       </c>
       <c r="BB28" s="25">
-        <v>94.79</v>
+        <v>95.93</v>
       </c>
       <c r="BC28" s="25">
-        <v>89.83</v>
+        <v>91.03</v>
       </c>
       <c r="BD28" s="25">
-        <v>93.25</v>
+        <v>93.88</v>
       </c>
       <c r="BE28" s="25">
-        <v>96.38</v>
+        <v>97.05</v>
       </c>
       <c r="BF28" s="25">
-        <v>97.01</v>
+        <v>98.73</v>
       </c>
       <c r="BG28" s="25">
-        <v>98.16</v>
-      </c>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="25"/>
+        <v>99.54</v>
+      </c>
+      <c r="BH28" s="25">
+        <v>99.67</v>
+      </c>
+      <c r="BI28" s="25">
+        <v>101.25</v>
+      </c>
       <c r="BJ28" s="25"/>
       <c r="BK28" s="25"/>
       <c r="BL28" s="25"/>
@@ -6216,49 +6308,49 @@
         <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>91.34</v>
+        <v>91.32</v>
       </c>
       <c r="D29" s="25">
-        <v>92.74</v>
+        <v>92.71</v>
       </c>
       <c r="E29" s="25">
-        <v>94.24</v>
+        <v>94.2</v>
       </c>
       <c r="F29" s="25">
-        <v>97.97</v>
+        <v>97.94</v>
       </c>
       <c r="G29" s="25">
-        <v>98.57</v>
+        <v>98.55</v>
       </c>
       <c r="H29" s="25">
         <v>99.4</v>
       </c>
       <c r="I29" s="25">
-        <v>99.74</v>
+        <v>99.75</v>
       </c>
       <c r="J29" s="25">
-        <v>99.89</v>
+        <v>99.88</v>
       </c>
       <c r="K29" s="25">
         <v>100.15</v>
       </c>
       <c r="L29" s="25">
-        <v>99.94</v>
+        <v>99.93</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.44</v>
+        <v>98.43</v>
       </c>
       <c r="O29" s="25">
-        <v>93.39</v>
+        <v>93.38</v>
       </c>
       <c r="P29" s="25">
         <v>90.63</v>
       </c>
       <c r="Q29" s="25">
-        <v>89.64</v>
+        <v>89.63</v>
       </c>
       <c r="R29" s="25">
         <v>89.72</v>
@@ -6270,46 +6362,46 @@
         <v>90.91</v>
       </c>
       <c r="U29" s="25">
-        <v>91.89</v>
+        <v>91.88</v>
       </c>
       <c r="V29" s="25">
-        <v>93.45</v>
+        <v>93.44</v>
       </c>
       <c r="W29" s="25">
-        <v>93.92</v>
+        <v>93.9</v>
       </c>
       <c r="X29" s="25">
-        <v>93.98</v>
+        <v>93.96</v>
       </c>
       <c r="Y29" s="25">
-        <v>94.46</v>
+        <v>94.44</v>
       </c>
       <c r="Z29" s="25">
-        <v>95.12</v>
+        <v>95.11</v>
       </c>
       <c r="AA29" s="25">
-        <v>96.11</v>
+        <v>96.09</v>
       </c>
       <c r="AB29" s="25">
-        <v>96.18</v>
+        <v>96.17</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.64</v>
+        <v>96.63</v>
       </c>
       <c r="AD29" s="25">
-        <v>96.27</v>
+        <v>96.26</v>
       </c>
       <c r="AE29" s="25">
-        <v>95.43</v>
+        <v>95.41</v>
       </c>
       <c r="AF29" s="25">
-        <v>95.6</v>
+        <v>95.59</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.87</v>
+        <v>95.86</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.91</v>
+        <v>96.92</v>
       </c>
       <c r="AI29" s="25">
         <v>97.45</v>
@@ -6318,76 +6410,80 @@
         <v>97.63</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.36</v>
+        <v>97.37</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.59</v>
+        <v>97.6</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.61</v>
+        <v>97.63</v>
       </c>
       <c r="AN29" s="25">
-        <v>98.13</v>
+        <v>98.15</v>
       </c>
       <c r="AO29" s="25">
-        <v>98.04</v>
+        <v>98.05</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.49</v>
+        <v>97.53</v>
       </c>
       <c r="AQ29" s="25">
-        <v>96.91</v>
+        <v>96.97</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.81</v>
+        <v>96.86</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.2</v>
+        <v>97.26</v>
       </c>
       <c r="AT29" s="25">
-        <v>97.82</v>
+        <v>97.95</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.34</v>
+        <v>98.54</v>
       </c>
       <c r="AV29" s="25">
+        <v>98.9</v>
+      </c>
+      <c r="AW29" s="25">
+        <v>99.58</v>
+      </c>
+      <c r="AX29" s="25">
+        <v>99.45</v>
+      </c>
+      <c r="AY29" s="25">
+        <v>99.6</v>
+      </c>
+      <c r="AZ29" s="25">
+        <v>99.23</v>
+      </c>
+      <c r="BA29" s="25">
+        <v>98.2</v>
+      </c>
+      <c r="BB29" s="25">
+        <v>92.94</v>
+      </c>
+      <c r="BC29" s="25">
+        <v>90.8</v>
+      </c>
+      <c r="BD29" s="25">
+        <v>92.09</v>
+      </c>
+      <c r="BE29" s="25">
+        <v>94.47</v>
+      </c>
+      <c r="BF29" s="25">
+        <v>96.08</v>
+      </c>
+      <c r="BG29" s="25">
+        <v>97.16</v>
+      </c>
+      <c r="BH29" s="25">
+        <v>97.76</v>
+      </c>
+      <c r="BI29" s="25">
         <v>98.74</v>
       </c>
-      <c r="AW29" s="25">
-        <v>99.19</v>
-      </c>
-      <c r="AX29" s="25">
-        <v>99.02</v>
-      </c>
-      <c r="AY29" s="25">
-        <v>99.22</v>
-      </c>
-      <c r="AZ29" s="25">
-        <v>98.81</v>
-      </c>
-      <c r="BA29" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="BB29" s="25">
-        <v>92.42</v>
-      </c>
-      <c r="BC29" s="25">
-        <v>90.41</v>
-      </c>
-      <c r="BD29" s="25">
-        <v>92.83</v>
-      </c>
-      <c r="BE29" s="25">
-        <v>95.66</v>
-      </c>
-      <c r="BF29" s="25">
-        <v>96.2</v>
-      </c>
-      <c r="BG29" s="25">
-        <v>97.26</v>
-      </c>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
       <c r="BJ29" s="25"/>
       <c r="BK29" s="25"/>
       <c r="BL29" s="25"/>
@@ -6411,37 +6507,37 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="25">
-        <v>96.52</v>
+        <v>96.51</v>
       </c>
       <c r="D30" s="25">
-        <v>96.64</v>
+        <v>96.65</v>
       </c>
       <c r="E30" s="25">
-        <v>95.46</v>
+        <v>95.47</v>
       </c>
       <c r="F30" s="25">
-        <v>96.04</v>
+        <v>96.03</v>
       </c>
       <c r="G30" s="25">
         <v>97.62</v>
       </c>
       <c r="H30" s="25">
-        <v>99.91</v>
+        <v>99.9</v>
       </c>
       <c r="I30" s="25">
-        <v>100.11</v>
+        <v>100.09</v>
       </c>
       <c r="J30" s="25">
-        <v>98.58</v>
+        <v>98.57</v>
       </c>
       <c r="K30" s="25">
-        <v>98.05</v>
+        <v>98.03</v>
       </c>
       <c r="L30" s="25">
-        <v>99.03</v>
+        <v>99.02</v>
       </c>
       <c r="M30" s="25">
         <v>100</v>
@@ -6453,13 +6549,13 @@
         <v>96.98</v>
       </c>
       <c r="P30" s="25">
-        <v>96.63</v>
+        <v>96.62</v>
       </c>
       <c r="Q30" s="25">
         <v>95.78</v>
       </c>
       <c r="R30" s="25">
-        <v>95.75</v>
+        <v>95.76</v>
       </c>
       <c r="S30" s="25">
         <v>96.1</v>
@@ -6477,115 +6573,119 @@
         <v>97.73</v>
       </c>
       <c r="X30" s="25">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.32</v>
+        <v>96.33</v>
       </c>
       <c r="Z30" s="25">
         <v>97.41</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.02</v>
+        <v>98.03</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.4</v>
+        <v>96.41</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.89</v>
+        <v>97.91</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.82</v>
+        <v>98.86</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.58</v>
+        <v>98.62</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.77</v>
+        <v>98.8</v>
       </c>
       <c r="AG30" s="25">
-        <v>99.3</v>
+        <v>99.33</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.8</v>
+        <v>100.84</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.35</v>
+        <v>100.38</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.83</v>
+        <v>100.86</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.74</v>
+        <v>100.77</v>
       </c>
       <c r="AL30" s="25">
-        <v>100.08</v>
+        <v>100.11</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.7</v>
+        <v>99.73</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.21</v>
+        <v>100.24</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.22</v>
+        <v>100.25</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.81</v>
+        <v>99.84</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.29</v>
+        <v>99.31</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.7</v>
+        <v>99.72</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.32</v>
+        <v>100.34</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.62</v>
+        <v>100.65</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.89</v>
+        <v>100.91</v>
       </c>
       <c r="AV30" s="25">
-        <v>100.92</v>
+        <v>100.95</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.21</v>
+        <v>101.25</v>
       </c>
       <c r="AX30" s="25">
-        <v>101.71</v>
+        <v>101.77</v>
       </c>
       <c r="AY30" s="25">
+        <v>102.58</v>
+      </c>
+      <c r="AZ30" s="25">
         <v>102.51</v>
       </c>
-      <c r="AZ30" s="25">
-        <v>102.47</v>
-      </c>
       <c r="BA30" s="25">
-        <v>101.61</v>
+        <v>101.65</v>
       </c>
       <c r="BB30" s="25">
-        <v>98.65</v>
+        <v>98.71</v>
       </c>
       <c r="BC30" s="25">
         <v>97.48</v>
       </c>
       <c r="BD30" s="25">
-        <v>98.87</v>
+        <v>98.26</v>
       </c>
       <c r="BE30" s="25">
-        <v>100.08</v>
+        <v>98.62</v>
       </c>
       <c r="BF30" s="25">
-        <v>100.84</v>
+        <v>99.79</v>
       </c>
       <c r="BG30" s="25">
-        <v>102.33</v>
-      </c>
-      <c r="BH30" s="25"/>
-      <c r="BI30" s="25"/>
+        <v>101.24</v>
+      </c>
+      <c r="BH30" s="25">
+        <v>100.8</v>
+      </c>
+      <c r="BI30" s="25">
+        <v>102.42</v>
+      </c>
       <c r="BJ30" s="25"/>
       <c r="BK30" s="25"/>
       <c r="BL30" s="25"/>
@@ -6609,37 +6709,37 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="25">
-        <v>84.76</v>
+        <v>84.73</v>
       </c>
       <c r="D31" s="25">
-        <v>90.03</v>
+        <v>90</v>
       </c>
       <c r="E31" s="25">
-        <v>93.81</v>
+        <v>93.78</v>
       </c>
       <c r="F31" s="25">
-        <v>94.72</v>
+        <v>94.69</v>
       </c>
       <c r="G31" s="25">
-        <v>95.47</v>
+        <v>95.46</v>
       </c>
       <c r="H31" s="25">
-        <v>97.16</v>
+        <v>97.14</v>
       </c>
       <c r="I31" s="25">
-        <v>98.12</v>
+        <v>98.1</v>
       </c>
       <c r="J31" s="25">
-        <v>98.6</v>
+        <v>98.58</v>
       </c>
       <c r="K31" s="25">
-        <v>99.35</v>
+        <v>99.33</v>
       </c>
       <c r="L31" s="25">
-        <v>100.14</v>
+        <v>100.13</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
@@ -6648,142 +6748,146 @@
         <v>99.07</v>
       </c>
       <c r="O31" s="25">
-        <v>94.48</v>
+        <v>94.47</v>
       </c>
       <c r="P31" s="25">
-        <v>90.91</v>
+        <v>90.9</v>
       </c>
       <c r="Q31" s="25">
         <v>89.3</v>
       </c>
       <c r="R31" s="25">
-        <v>89.3</v>
+        <v>89.29</v>
       </c>
       <c r="S31" s="25">
-        <v>89.67</v>
+        <v>89.68</v>
       </c>
       <c r="T31" s="25">
-        <v>90.65</v>
+        <v>90.67</v>
       </c>
       <c r="U31" s="25">
-        <v>92.06</v>
+        <v>92.05</v>
       </c>
       <c r="V31" s="25">
-        <v>92.81</v>
+        <v>92.83</v>
       </c>
       <c r="W31" s="25">
-        <v>93.34</v>
+        <v>93.36</v>
       </c>
       <c r="X31" s="25">
-        <v>94.4</v>
+        <v>94.43</v>
       </c>
       <c r="Y31" s="25">
-        <v>95.34</v>
+        <v>95.39</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.2</v>
+        <v>96.25</v>
       </c>
       <c r="AA31" s="25">
-        <v>97.02</v>
+        <v>97.08</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.45</v>
+        <v>98.51</v>
       </c>
       <c r="AC31" s="25">
-        <v>100.42</v>
+        <v>100.56</v>
       </c>
       <c r="AD31" s="25">
-        <v>100.93</v>
+        <v>101.16</v>
       </c>
       <c r="AE31" s="25">
-        <v>100.93</v>
+        <v>101.17</v>
       </c>
       <c r="AF31" s="25">
-        <v>101.64</v>
+        <v>101.88</v>
       </c>
       <c r="AG31" s="25">
-        <v>102.6</v>
+        <v>102.82</v>
       </c>
       <c r="AH31" s="25">
-        <v>103.17</v>
+        <v>103.43</v>
       </c>
       <c r="AI31" s="25">
-        <v>103.39</v>
+        <v>103.65</v>
       </c>
       <c r="AJ31" s="25">
-        <v>103.53</v>
+        <v>103.79</v>
       </c>
       <c r="AK31" s="25">
-        <v>103.69</v>
+        <v>103.97</v>
       </c>
       <c r="AL31" s="25">
-        <v>104.07</v>
+        <v>104.37</v>
       </c>
       <c r="AM31" s="25">
-        <v>104.58</v>
+        <v>104.91</v>
       </c>
       <c r="AN31" s="25">
-        <v>104.55</v>
+        <v>104.9</v>
       </c>
       <c r="AO31" s="25">
-        <v>104.48</v>
+        <v>104.81</v>
       </c>
       <c r="AP31" s="25">
-        <v>102.54</v>
+        <v>102.9</v>
       </c>
       <c r="AQ31" s="25">
-        <v>101.55</v>
+        <v>102</v>
       </c>
       <c r="AR31" s="25">
-        <v>102.76</v>
+        <v>103.24</v>
       </c>
       <c r="AS31" s="25">
-        <v>103.12</v>
+        <v>103.63</v>
       </c>
       <c r="AT31" s="25">
-        <v>103.12</v>
+        <v>103.68</v>
       </c>
       <c r="AU31" s="25">
-        <v>102.66</v>
+        <v>103.32</v>
       </c>
       <c r="AV31" s="25">
-        <v>103.21</v>
+        <v>103.9</v>
       </c>
       <c r="AW31" s="25">
-        <v>103.41</v>
+        <v>104.13</v>
       </c>
       <c r="AX31" s="25">
-        <v>103.59</v>
+        <v>104.35</v>
       </c>
       <c r="AY31" s="25">
-        <v>104.12</v>
+        <v>104.97</v>
       </c>
       <c r="AZ31" s="25">
-        <v>103.9</v>
+        <v>104.84</v>
       </c>
       <c r="BA31" s="25">
-        <v>102.34</v>
+        <v>103.32</v>
       </c>
       <c r="BB31" s="25">
-        <v>95.42</v>
+        <v>96.51</v>
       </c>
       <c r="BC31" s="25">
-        <v>89.67</v>
+        <v>91.04</v>
       </c>
       <c r="BD31" s="25">
-        <v>92.47</v>
+        <v>93.55</v>
       </c>
       <c r="BE31" s="25">
-        <v>95.8</v>
+        <v>97.2</v>
       </c>
       <c r="BF31" s="25">
-        <v>96.45</v>
+        <v>99.32</v>
       </c>
       <c r="BG31" s="25">
-        <v>96.05</v>
-      </c>
-      <c r="BH31" s="25"/>
-      <c r="BI31" s="25"/>
+        <v>99.41</v>
+      </c>
+      <c r="BH31" s="25">
+        <v>96.83</v>
+      </c>
+      <c r="BI31" s="25">
+        <v>96.62</v>
+      </c>
       <c r="BJ31" s="25"/>
       <c r="BK31" s="25"/>
       <c r="BL31" s="25"/>
@@ -6813,7 +6917,7 @@
         <v>91.01</v>
       </c>
       <c r="D32" s="25">
-        <v>94.8</v>
+        <v>94.79</v>
       </c>
       <c r="E32" s="25">
         <v>97.38</v>
@@ -6834,7 +6938,7 @@
         <v>101.22</v>
       </c>
       <c r="K32" s="25">
-        <v>102.1</v>
+        <v>102.09</v>
       </c>
       <c r="L32" s="25">
         <v>101.86</v>
@@ -6843,145 +6947,149 @@
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>98.5</v>
+        <v>98.49</v>
       </c>
       <c r="O32" s="25">
         <v>93.1</v>
       </c>
       <c r="P32" s="25">
-        <v>89.57</v>
+        <v>89.56</v>
       </c>
       <c r="Q32" s="25">
-        <v>86.97</v>
+        <v>86.96</v>
       </c>
       <c r="R32" s="25">
-        <v>87.31</v>
+        <v>87.3</v>
       </c>
       <c r="S32" s="25">
+        <v>87.49</v>
+      </c>
+      <c r="T32" s="25">
         <v>87.51</v>
       </c>
-      <c r="T32" s="25">
-        <v>87.52</v>
-      </c>
       <c r="U32" s="25">
-        <v>88.58</v>
+        <v>88.57</v>
       </c>
       <c r="V32" s="25">
-        <v>89.35</v>
+        <v>89.34</v>
       </c>
       <c r="W32" s="25">
-        <v>90.39</v>
+        <v>90.38</v>
       </c>
       <c r="X32" s="25">
         <v>90.95</v>
       </c>
       <c r="Y32" s="25">
-        <v>91.64</v>
+        <v>91.65</v>
       </c>
       <c r="Z32" s="25">
         <v>92.64</v>
       </c>
       <c r="AA32" s="25">
-        <v>93.06</v>
+        <v>93.07</v>
       </c>
       <c r="AB32" s="25">
         <v>92.84</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.33</v>
+        <v>93.38</v>
       </c>
       <c r="AD32" s="25">
-        <v>95.1</v>
+        <v>95.19</v>
       </c>
       <c r="AE32" s="25">
-        <v>94.77</v>
+        <v>94.87</v>
       </c>
       <c r="AF32" s="25">
-        <v>95.08</v>
+        <v>95.19</v>
       </c>
       <c r="AG32" s="25">
-        <v>95.32</v>
+        <v>95.42</v>
       </c>
       <c r="AH32" s="25">
-        <v>95.83</v>
+        <v>95.94</v>
       </c>
       <c r="AI32" s="25">
-        <v>96.04</v>
+        <v>96.15</v>
       </c>
       <c r="AJ32" s="25">
-        <v>96.02</v>
+        <v>96.14</v>
       </c>
       <c r="AK32" s="25">
-        <v>95.4</v>
+        <v>95.52</v>
       </c>
       <c r="AL32" s="25">
-        <v>95.85</v>
+        <v>95.98</v>
       </c>
       <c r="AM32" s="25">
-        <v>96.39</v>
+        <v>96.53</v>
       </c>
       <c r="AN32" s="25">
-        <v>96.23</v>
+        <v>96.36</v>
       </c>
       <c r="AO32" s="25">
-        <v>95.97</v>
+        <v>96.11</v>
       </c>
       <c r="AP32" s="25">
-        <v>95.79</v>
+        <v>95.94</v>
       </c>
       <c r="AQ32" s="25">
-        <v>95.99</v>
+        <v>96.43</v>
       </c>
       <c r="AR32" s="25">
-        <v>96.82</v>
+        <v>97.26</v>
       </c>
       <c r="AS32" s="25">
-        <v>97.75</v>
+        <v>98.21</v>
       </c>
       <c r="AT32" s="25">
-        <v>97.34</v>
+        <v>97.83</v>
       </c>
       <c r="AU32" s="25">
-        <v>96.91</v>
+        <v>97.48</v>
       </c>
       <c r="AV32" s="25">
-        <v>96.94</v>
+        <v>97.51</v>
       </c>
       <c r="AW32" s="25">
-        <v>97.79</v>
+        <v>98.33</v>
       </c>
       <c r="AX32" s="25">
-        <v>97.72</v>
+        <v>98.26</v>
       </c>
       <c r="AY32" s="25">
-        <v>97.88</v>
+        <v>98.43</v>
       </c>
       <c r="AZ32" s="25">
-        <v>98</v>
+        <v>98.54</v>
       </c>
       <c r="BA32" s="25">
-        <v>96.29</v>
+        <v>96.99</v>
       </c>
       <c r="BB32" s="25">
-        <v>90.31</v>
+        <v>91.07</v>
       </c>
       <c r="BC32" s="25">
-        <v>87.3</v>
+        <v>88.08</v>
       </c>
       <c r="BD32" s="25">
-        <v>90.18</v>
+        <v>90.37</v>
       </c>
       <c r="BE32" s="25">
-        <v>92.74</v>
+        <v>92.81</v>
       </c>
       <c r="BF32" s="25">
-        <v>93.92</v>
+        <v>95</v>
       </c>
       <c r="BG32" s="25">
-        <v>94.9</v>
-      </c>
-      <c r="BH32" s="25"/>
-      <c r="BI32" s="25"/>
+        <v>96.46</v>
+      </c>
+      <c r="BH32" s="25">
+        <v>96.63</v>
+      </c>
+      <c r="BI32" s="25">
+        <v>97</v>
+      </c>
       <c r="BJ32" s="25"/>
       <c r="BK32" s="25"/>
       <c r="BL32" s="25"/>
@@ -7005,34 +7113,34 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="25">
-        <v>96.66</v>
+        <v>96.63</v>
       </c>
       <c r="D33" s="25">
-        <v>97.04</v>
+        <v>97.01</v>
       </c>
       <c r="E33" s="25">
-        <v>98.21</v>
+        <v>98.18</v>
       </c>
       <c r="F33" s="25">
-        <v>98.12</v>
+        <v>98.1</v>
       </c>
       <c r="G33" s="25">
-        <v>98.02</v>
+        <v>98</v>
       </c>
       <c r="H33" s="25">
-        <v>97.84</v>
+        <v>97.83</v>
       </c>
       <c r="I33" s="25">
-        <v>97.95</v>
+        <v>97.94</v>
       </c>
       <c r="J33" s="25">
         <v>97.85</v>
       </c>
       <c r="K33" s="25">
-        <v>97.53</v>
+        <v>97.52</v>
       </c>
       <c r="L33" s="25">
         <v>98.7</v>
@@ -7050,7 +7158,7 @@
         <v>96.08</v>
       </c>
       <c r="Q33" s="25">
-        <v>96</v>
+        <v>95.99</v>
       </c>
       <c r="R33" s="25">
         <v>95.96</v>
@@ -7065,121 +7173,125 @@
         <v>96.32</v>
       </c>
       <c r="V33" s="25">
-        <v>96.73</v>
+        <v>96.74</v>
       </c>
       <c r="W33" s="25">
-        <v>96.97</v>
+        <v>96.98</v>
       </c>
       <c r="X33" s="25">
-        <v>96.73</v>
+        <v>96.75</v>
       </c>
       <c r="Y33" s="25">
-        <v>96.54</v>
+        <v>96.55</v>
       </c>
       <c r="Z33" s="25">
         <v>96.4</v>
       </c>
       <c r="AA33" s="25">
-        <v>95.97</v>
+        <v>95.98</v>
       </c>
       <c r="AB33" s="25">
-        <v>96.17</v>
+        <v>96.19</v>
       </c>
       <c r="AC33" s="25">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.73</v>
+        <v>97.74</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.67</v>
+        <v>97.69</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.44</v>
+        <v>97.46</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.88</v>
+        <v>97.9</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.88</v>
+        <v>97.9</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.57</v>
+        <v>97.61</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.36</v>
+        <v>97.4</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.61</v>
+        <v>97.64</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.74</v>
+        <v>97.76</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.1</v>
+        <v>98.15</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.18</v>
+        <v>98.24</v>
       </c>
       <c r="AO33" s="25">
-        <v>97.84</v>
+        <v>97.89</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.67</v>
+        <v>97.72</v>
       </c>
       <c r="AQ33" s="25">
+        <v>97.77</v>
+      </c>
+      <c r="AR33" s="25">
+        <v>98.36</v>
+      </c>
+      <c r="AS33" s="25">
+        <v>98.53</v>
+      </c>
+      <c r="AT33" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>97.91</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>98.24</v>
+      </c>
+      <c r="AW33" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="AX33" s="25">
+        <v>98.32</v>
+      </c>
+      <c r="AY33" s="25">
+        <v>98.9</v>
+      </c>
+      <c r="AZ33" s="25">
+        <v>98.47</v>
+      </c>
+      <c r="BA33" s="25">
+        <v>98.62</v>
+      </c>
+      <c r="BB33" s="25">
+        <v>96.3</v>
+      </c>
+      <c r="BC33" s="25">
+        <v>94.27</v>
+      </c>
+      <c r="BD33" s="25">
+        <v>94.05</v>
+      </c>
+      <c r="BE33" s="25">
+        <v>95.45</v>
+      </c>
+      <c r="BF33" s="25">
+        <v>96.56</v>
+      </c>
+      <c r="BG33" s="25">
         <v>97.71</v>
       </c>
-      <c r="AR33" s="25">
-        <v>98.3</v>
-      </c>
-      <c r="AS33" s="25">
-        <v>98.48</v>
-      </c>
-      <c r="AT33" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AU33" s="25">
-        <v>97.85</v>
-      </c>
-      <c r="AV33" s="25">
-        <v>98.18</v>
-      </c>
-      <c r="AW33" s="25">
-        <v>98.23</v>
-      </c>
-      <c r="AX33" s="25">
-        <v>98.24</v>
-      </c>
-      <c r="AY33" s="25">
-        <v>98.8</v>
-      </c>
-      <c r="AZ33" s="25">
-        <v>98.43</v>
-      </c>
-      <c r="BA33" s="25">
-        <v>98.53</v>
-      </c>
-      <c r="BB33" s="25">
-        <v>96.21</v>
-      </c>
-      <c r="BC33" s="25">
-        <v>94.19</v>
-      </c>
-      <c r="BD33" s="25">
-        <v>94.74</v>
-      </c>
-      <c r="BE33" s="25">
-        <v>96.5</v>
-      </c>
-      <c r="BF33" s="25">
-        <v>96.59</v>
-      </c>
-      <c r="BG33" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="BH33" s="25"/>
-      <c r="BI33" s="25"/>
+      <c r="BH33" s="25">
+        <v>97.32</v>
+      </c>
+      <c r="BI33" s="25">
+        <v>98.84</v>
+      </c>
       <c r="BJ33" s="25"/>
       <c r="BK33" s="25"/>
       <c r="BL33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 13 February 2021\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 27 February 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61588E-9C03-40D8-B05F-04A58688AC5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D226A5-6443-4B2E-A7F6-6AC7051CBB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,10 +107,10 @@
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 13 February 2021</t>
+    <t>Released at 11.30am (Canberra time) 16 March 2021</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 3 March 2021</t>
+    <t>Week ending Saturday 27 February 2021</t>
   </si>
   <si>
     <t>State or Territory</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs Index by Employment size</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employer characteristics</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Employer characteristics</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment size</t>
   </si>
 </sst>
 </file>
@@ -1124,12 +1124,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:BZ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1572,7 +1572,7 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
@@ -1838,8 +1838,12 @@
       <c r="BI6" s="24">
         <v>44240</v>
       </c>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="24"/>
+      <c r="BJ6" s="24">
+        <v>44247</v>
+      </c>
+      <c r="BK6" s="24">
+        <v>44254</v>
+      </c>
       <c r="BL6" s="24"/>
       <c r="BM6" s="24"/>
       <c r="BN6" s="24"/>
@@ -1870,7 +1874,7 @@
         <v>92.05</v>
       </c>
       <c r="E7" s="25">
-        <v>94.7</v>
+        <v>94.69</v>
       </c>
       <c r="F7" s="25">
         <v>95.75</v>
@@ -1879,13 +1883,13 @@
         <v>96.46</v>
       </c>
       <c r="H7" s="25">
-        <v>97.62</v>
+        <v>97.61</v>
       </c>
       <c r="I7" s="25">
-        <v>98.1</v>
+        <v>98.09</v>
       </c>
       <c r="J7" s="25">
-        <v>98.61</v>
+        <v>98.6</v>
       </c>
       <c r="K7" s="25">
         <v>99.09</v>
@@ -1900,148 +1904,152 @@
         <v>98.82</v>
       </c>
       <c r="O7" s="25">
-        <v>93.88</v>
+        <v>93.89</v>
       </c>
       <c r="P7" s="25">
         <v>90.55</v>
       </c>
       <c r="Q7" s="25">
-        <v>88.72</v>
+        <v>88.73</v>
       </c>
       <c r="R7" s="25">
-        <v>88.53</v>
+        <v>88.54</v>
       </c>
       <c r="S7" s="25">
-        <v>89.29</v>
+        <v>89.3</v>
       </c>
       <c r="T7" s="25">
-        <v>90.46</v>
+        <v>90.47</v>
       </c>
       <c r="U7" s="25">
         <v>91.81</v>
       </c>
       <c r="V7" s="25">
-        <v>92.98</v>
+        <v>92.99</v>
       </c>
       <c r="W7" s="25">
-        <v>93.58</v>
+        <v>93.59</v>
       </c>
       <c r="X7" s="25">
         <v>94.1</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.4</v>
+        <v>95.41</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.93</v>
+        <v>95.94</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.48</v>
+        <v>96.5</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.36</v>
+        <v>97.39</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.49</v>
+        <v>99.59</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.27</v>
+        <v>100.42</v>
       </c>
       <c r="AE7" s="25">
-        <v>100.45</v>
+        <v>100.6</v>
       </c>
       <c r="AF7" s="25">
-        <v>100.88</v>
+        <v>101.04</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.01</v>
+        <v>101.18</v>
       </c>
       <c r="AH7" s="25">
-        <v>101.07</v>
+        <v>101.23</v>
       </c>
       <c r="AI7" s="25">
-        <v>101.08</v>
+        <v>101.25</v>
       </c>
       <c r="AJ7" s="25">
-        <v>101.21</v>
+        <v>101.39</v>
       </c>
       <c r="AK7" s="25">
-        <v>101.47</v>
+        <v>101.65</v>
       </c>
       <c r="AL7" s="25">
-        <v>101.74</v>
+        <v>101.94</v>
       </c>
       <c r="AM7" s="25">
-        <v>102.29</v>
+        <v>102.5</v>
       </c>
       <c r="AN7" s="25">
-        <v>102.36</v>
+        <v>102.58</v>
       </c>
       <c r="AO7" s="25">
-        <v>102.14</v>
+        <v>102.39</v>
       </c>
       <c r="AP7" s="25">
-        <v>100.64</v>
+        <v>101.02</v>
       </c>
       <c r="AQ7" s="25">
-        <v>100.23</v>
+        <v>100.74</v>
       </c>
       <c r="AR7" s="25">
-        <v>100.96</v>
+        <v>101.5</v>
       </c>
       <c r="AS7" s="25">
-        <v>101.32</v>
+        <v>101.88</v>
       </c>
       <c r="AT7" s="25">
-        <v>101.58</v>
+        <v>102.17</v>
       </c>
       <c r="AU7" s="25">
-        <v>101.99</v>
+        <v>102.66</v>
       </c>
       <c r="AV7" s="25">
-        <v>102.72</v>
+        <v>103.43</v>
       </c>
       <c r="AW7" s="25">
-        <v>103.05</v>
+        <v>103.8</v>
       </c>
       <c r="AX7" s="25">
-        <v>103.38</v>
+        <v>104.14</v>
       </c>
       <c r="AY7" s="25">
-        <v>103.94</v>
+        <v>104.37</v>
       </c>
       <c r="AZ7" s="25">
-        <v>104.04</v>
+        <v>104.36</v>
       </c>
       <c r="BA7" s="25">
-        <v>102.78</v>
+        <v>103.12</v>
       </c>
       <c r="BB7" s="25">
-        <v>97.21</v>
+        <v>97.58</v>
       </c>
       <c r="BC7" s="25">
-        <v>92.16</v>
+        <v>92.88</v>
       </c>
       <c r="BD7" s="25">
-        <v>93.71</v>
+        <v>94.99</v>
       </c>
       <c r="BE7" s="25">
-        <v>96.63</v>
+        <v>98.06</v>
       </c>
       <c r="BF7" s="25">
-        <v>98.14</v>
+        <v>99.06</v>
       </c>
       <c r="BG7" s="25">
-        <v>98.16</v>
+        <v>98.9</v>
       </c>
       <c r="BH7" s="25">
-        <v>95.78</v>
+        <v>98.52</v>
       </c>
       <c r="BI7" s="25">
-        <v>96.19</v>
-      </c>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
+        <v>98.67</v>
+      </c>
+      <c r="BJ7" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="BK7" s="25">
+        <v>97.88</v>
+      </c>
       <c r="BL7" s="25"/>
       <c r="BM7" s="25"/>
       <c r="BN7" s="25"/>
@@ -2075,7 +2083,7 @@
         <v>97.24</v>
       </c>
       <c r="F8" s="25">
-        <v>98.08</v>
+        <v>98.07</v>
       </c>
       <c r="G8" s="25">
         <v>98.55</v>
@@ -2111,7 +2119,7 @@
         <v>87.93</v>
       </c>
       <c r="R8" s="25">
-        <v>87.78</v>
+        <v>87.77</v>
       </c>
       <c r="S8" s="25">
         <v>88.56</v>
@@ -2141,109 +2149,113 @@
         <v>93.22</v>
       </c>
       <c r="AB8" s="25">
-        <v>92.86</v>
+        <v>92.87</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.32</v>
+        <v>93.34</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.81</v>
+        <v>93.84</v>
       </c>
       <c r="AE8" s="25">
-        <v>94.02</v>
+        <v>94.05</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.51</v>
+        <v>94.55</v>
       </c>
       <c r="AG8" s="25">
-        <v>94.65</v>
+        <v>94.69</v>
       </c>
       <c r="AH8" s="25">
-        <v>94.45</v>
+        <v>94.48</v>
       </c>
       <c r="AI8" s="25">
-        <v>94.35</v>
+        <v>94.38</v>
       </c>
       <c r="AJ8" s="25">
-        <v>94.38</v>
+        <v>94.42</v>
       </c>
       <c r="AK8" s="25">
+        <v>94.58</v>
+      </c>
+      <c r="AL8" s="25">
+        <v>94.91</v>
+      </c>
+      <c r="AM8" s="25">
+        <v>95.46</v>
+      </c>
+      <c r="AN8" s="25">
+        <v>95.6</v>
+      </c>
+      <c r="AO8" s="25">
+        <v>95.4</v>
+      </c>
+      <c r="AP8" s="25">
+        <v>94.56</v>
+      </c>
+      <c r="AQ8" s="25">
         <v>94.55</v>
       </c>
-      <c r="AL8" s="25">
-        <v>94.87</v>
-      </c>
-      <c r="AM8" s="25">
-        <v>95.42</v>
-      </c>
-      <c r="AN8" s="25">
-        <v>95.56</v>
-      </c>
-      <c r="AO8" s="25">
-        <v>95.34</v>
-      </c>
-      <c r="AP8" s="25">
-        <v>94.5</v>
-      </c>
-      <c r="AQ8" s="25">
-        <v>94.48</v>
-      </c>
       <c r="AR8" s="25">
+        <v>95.54</v>
+      </c>
+      <c r="AS8" s="25">
+        <v>95.97</v>
+      </c>
+      <c r="AT8" s="25">
+        <v>96.11</v>
+      </c>
+      <c r="AU8" s="25">
+        <v>96.49</v>
+      </c>
+      <c r="AV8" s="25">
+        <v>97.12</v>
+      </c>
+      <c r="AW8" s="25">
+        <v>97.41</v>
+      </c>
+      <c r="AX8" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="AY8" s="25">
+        <v>98.02</v>
+      </c>
+      <c r="AZ8" s="25">
+        <v>98.01</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>96.91</v>
+      </c>
+      <c r="BB8" s="25">
+        <v>92.42</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>89.83</v>
+      </c>
+      <c r="BD8" s="25">
+        <v>91.87</v>
+      </c>
+      <c r="BE8" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="BF8" s="25">
+        <v>95.09</v>
+      </c>
+      <c r="BG8" s="25">
         <v>95.46</v>
       </c>
-      <c r="AS8" s="25">
-        <v>95.9</v>
-      </c>
-      <c r="AT8" s="25">
-        <v>96.02</v>
-      </c>
-      <c r="AU8" s="25">
-        <v>96.39</v>
-      </c>
-      <c r="AV8" s="25">
-        <v>97.01</v>
-      </c>
-      <c r="AW8" s="25">
-        <v>97.28</v>
-      </c>
-      <c r="AX8" s="25">
-        <v>97.61</v>
-      </c>
-      <c r="AY8" s="25">
-        <v>98.1</v>
-      </c>
-      <c r="AZ8" s="25">
-        <v>98.15</v>
-      </c>
-      <c r="BA8" s="25">
-        <v>97.02</v>
-      </c>
-      <c r="BB8" s="25">
-        <v>92.48</v>
-      </c>
-      <c r="BC8" s="25">
-        <v>89.72</v>
-      </c>
-      <c r="BD8" s="25">
-        <v>91.52</v>
-      </c>
-      <c r="BE8" s="25">
-        <v>93.75</v>
-      </c>
-      <c r="BF8" s="25">
-        <v>95.34</v>
-      </c>
-      <c r="BG8" s="25">
-        <v>96.08</v>
-      </c>
       <c r="BH8" s="25">
-        <v>95.66</v>
+        <v>96.41</v>
       </c>
       <c r="BI8" s="25">
-        <v>96.2</v>
-      </c>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="25"/>
+        <v>97.04</v>
+      </c>
+      <c r="BJ8" s="25">
+        <v>96.64</v>
+      </c>
+      <c r="BK8" s="25">
+        <v>97.34</v>
+      </c>
       <c r="BL8" s="25"/>
       <c r="BM8" s="25"/>
       <c r="BN8" s="25"/>
@@ -2307,7 +2319,7 @@
         <v>97.38</v>
       </c>
       <c r="P9" s="25">
-        <v>95.53</v>
+        <v>95.54</v>
       </c>
       <c r="Q9" s="25">
         <v>94.59</v>
@@ -2331,49 +2343,49 @@
         <v>95.86</v>
       </c>
       <c r="X9" s="25">
-        <v>96.37</v>
+        <v>96.38</v>
       </c>
       <c r="Y9" s="25">
         <v>97.19</v>
       </c>
       <c r="Z9" s="25">
+        <v>97.52</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>97.14</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>95.89</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>96.43</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>97.61</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>97.55</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>97.48</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>97.71</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.72</v>
+      </c>
+      <c r="AI9" s="25">
         <v>97.51</v>
       </c>
-      <c r="AA9" s="25">
-        <v>97.13</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>95.88</v>
-      </c>
-      <c r="AC9" s="25">
-        <v>96.42</v>
-      </c>
-      <c r="AD9" s="25">
-        <v>97.59</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>97.46</v>
-      </c>
-      <c r="AG9" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>97.7</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>97.49</v>
-      </c>
       <c r="AJ9" s="25">
-        <v>97.49</v>
+        <v>97.51</v>
       </c>
       <c r="AK9" s="25">
-        <v>97.5</v>
+        <v>97.52</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.47</v>
+        <v>97.48</v>
       </c>
       <c r="AM9" s="25">
         <v>97.68</v>
@@ -2382,70 +2394,74 @@
         <v>97.83</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.56</v>
+        <v>97.57</v>
       </c>
       <c r="AP9" s="25">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="AQ9" s="25">
-        <v>96.96</v>
+        <v>96.98</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.53</v>
+        <v>97.55</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.59</v>
+        <v>97.61</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.73</v>
+        <v>97.75</v>
       </c>
       <c r="AU9" s="25">
-        <v>97.91</v>
+        <v>97.95</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.5</v>
+        <v>98.59</v>
       </c>
       <c r="AW9" s="25">
-        <v>98.62</v>
+        <v>98.78</v>
       </c>
       <c r="AX9" s="25">
-        <v>98.75</v>
+        <v>98.92</v>
       </c>
       <c r="AY9" s="25">
+        <v>99.49</v>
+      </c>
+      <c r="AZ9" s="25">
+        <v>99.49</v>
+      </c>
+      <c r="BA9" s="25">
+        <v>98.99</v>
+      </c>
+      <c r="BB9" s="25">
+        <v>96.51</v>
+      </c>
+      <c r="BC9" s="25">
+        <v>94.39</v>
+      </c>
+      <c r="BD9" s="25">
+        <v>94.59</v>
+      </c>
+      <c r="BE9" s="25">
+        <v>95.7</v>
+      </c>
+      <c r="BF9" s="25">
+        <v>96.16</v>
+      </c>
+      <c r="BG9" s="25">
+        <v>96.61</v>
+      </c>
+      <c r="BH9" s="25">
+        <v>97.25</v>
+      </c>
+      <c r="BI9" s="25">
+        <v>98.29</v>
+      </c>
+      <c r="BJ9" s="25">
+        <v>98.43</v>
+      </c>
+      <c r="BK9" s="25">
         <v>99.44</v>
       </c>
-      <c r="AZ9" s="25">
-        <v>99.47</v>
-      </c>
-      <c r="BA9" s="25">
-        <v>98.97</v>
-      </c>
-      <c r="BB9" s="25">
-        <v>96.49</v>
-      </c>
-      <c r="BC9" s="25">
-        <v>94.32</v>
-      </c>
-      <c r="BD9" s="25">
-        <v>94.36</v>
-      </c>
-      <c r="BE9" s="25">
-        <v>95.48</v>
-      </c>
-      <c r="BF9" s="25">
-        <v>96.66</v>
-      </c>
-      <c r="BG9" s="25">
-        <v>97.86</v>
-      </c>
-      <c r="BH9" s="25">
-        <v>97.68</v>
-      </c>
-      <c r="BI9" s="25">
-        <v>98.9</v>
-      </c>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="25"/>
       <c r="BL9" s="25"/>
       <c r="BM9" s="25"/>
       <c r="BN9" s="25"/>
@@ -2476,16 +2492,16 @@
         <v>91.73</v>
       </c>
       <c r="E10" s="25">
-        <v>94.45</v>
+        <v>94.44</v>
       </c>
       <c r="F10" s="25">
-        <v>95.58</v>
+        <v>95.57</v>
       </c>
       <c r="G10" s="25">
-        <v>96.45</v>
+        <v>96.44</v>
       </c>
       <c r="H10" s="25">
-        <v>97.56</v>
+        <v>97.55</v>
       </c>
       <c r="I10" s="25">
         <v>97.93</v>
@@ -2506,148 +2522,152 @@
         <v>98.76</v>
       </c>
       <c r="O10" s="25">
-        <v>94</v>
+        <v>94.01</v>
       </c>
       <c r="P10" s="25">
         <v>90.74</v>
       </c>
       <c r="Q10" s="25">
-        <v>88.91</v>
+        <v>88.92</v>
       </c>
       <c r="R10" s="25">
-        <v>88.65</v>
+        <v>88.66</v>
       </c>
       <c r="S10" s="25">
-        <v>89.29</v>
+        <v>89.31</v>
       </c>
       <c r="T10" s="25">
-        <v>90.49</v>
+        <v>90.5</v>
       </c>
       <c r="U10" s="25">
-        <v>92.12</v>
+        <v>92.13</v>
       </c>
       <c r="V10" s="25">
-        <v>94.02</v>
+        <v>94.03</v>
       </c>
       <c r="W10" s="25">
-        <v>94.58</v>
+        <v>94.59</v>
       </c>
       <c r="X10" s="25">
-        <v>95.15</v>
+        <v>95.16</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.53</v>
+        <v>96.54</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.21</v>
+        <v>96.23</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.54</v>
+        <v>96.56</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.42</v>
+        <v>97.45</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.05</v>
+        <v>100.19</v>
       </c>
       <c r="AD10" s="25">
-        <v>101.16</v>
+        <v>101.36</v>
       </c>
       <c r="AE10" s="25">
-        <v>101.39</v>
+        <v>101.6</v>
       </c>
       <c r="AF10" s="25">
-        <v>101.94</v>
+        <v>102.15</v>
       </c>
       <c r="AG10" s="25">
-        <v>102.08</v>
+        <v>102.3</v>
       </c>
       <c r="AH10" s="25">
-        <v>102.36</v>
+        <v>102.58</v>
       </c>
       <c r="AI10" s="25">
-        <v>102.59</v>
+        <v>102.82</v>
       </c>
       <c r="AJ10" s="25">
-        <v>102.87</v>
+        <v>103.1</v>
       </c>
       <c r="AK10" s="25">
-        <v>103.04</v>
+        <v>103.28</v>
       </c>
       <c r="AL10" s="25">
-        <v>103.42</v>
+        <v>103.68</v>
       </c>
       <c r="AM10" s="25">
-        <v>103.95</v>
+        <v>104.22</v>
       </c>
       <c r="AN10" s="25">
+        <v>104.27</v>
+      </c>
+      <c r="AO10" s="25">
+        <v>104.15</v>
+      </c>
+      <c r="AP10" s="25">
+        <v>102.26</v>
+      </c>
+      <c r="AQ10" s="25">
+        <v>101.49</v>
+      </c>
+      <c r="AR10" s="25">
+        <v>102.33</v>
+      </c>
+      <c r="AS10" s="25">
+        <v>102.67</v>
+      </c>
+      <c r="AT10" s="25">
+        <v>102.65</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>103.13</v>
+      </c>
+      <c r="AV10" s="25">
         <v>103.98</v>
       </c>
-      <c r="AO10" s="25">
-        <v>103.83</v>
-      </c>
-      <c r="AP10" s="25">
-        <v>101.76</v>
-      </c>
-      <c r="AQ10" s="25">
-        <v>100.81</v>
-      </c>
-      <c r="AR10" s="25">
-        <v>101.63</v>
-      </c>
-      <c r="AS10" s="25">
-        <v>101.95</v>
-      </c>
-      <c r="AT10" s="25">
-        <v>101.9</v>
-      </c>
-      <c r="AU10" s="25">
-        <v>102.28</v>
-      </c>
-      <c r="AV10" s="25">
-        <v>103.07</v>
-      </c>
       <c r="AW10" s="25">
-        <v>103.6</v>
+        <v>104.55</v>
       </c>
       <c r="AX10" s="25">
-        <v>103.73</v>
+        <v>104.66</v>
       </c>
       <c r="AY10" s="25">
-        <v>104.15</v>
+        <v>104.53</v>
       </c>
       <c r="AZ10" s="25">
-        <v>104.09</v>
+        <v>104.29</v>
       </c>
       <c r="BA10" s="25">
-        <v>102.74</v>
+        <v>102.96</v>
       </c>
       <c r="BB10" s="25">
-        <v>97.05</v>
+        <v>97.31</v>
       </c>
       <c r="BC10" s="25">
-        <v>91.61</v>
+        <v>92.37</v>
       </c>
       <c r="BD10" s="25">
-        <v>92.82</v>
+        <v>94.33</v>
       </c>
       <c r="BE10" s="25">
-        <v>95.67</v>
+        <v>97.37</v>
       </c>
       <c r="BF10" s="25">
-        <v>96.94</v>
+        <v>98.24</v>
       </c>
       <c r="BG10" s="25">
-        <v>96.84</v>
+        <v>98.07</v>
       </c>
       <c r="BH10" s="25">
-        <v>94.24</v>
+        <v>97.46</v>
       </c>
       <c r="BI10" s="25">
-        <v>94.63</v>
-      </c>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="25"/>
+        <v>97.51</v>
+      </c>
+      <c r="BJ10" s="25">
+        <v>96.09</v>
+      </c>
+      <c r="BK10" s="25">
+        <v>96.4</v>
+      </c>
       <c r="BL10" s="25"/>
       <c r="BM10" s="25"/>
       <c r="BN10" s="25"/>
@@ -2684,19 +2704,19 @@
         <v>98.34</v>
       </c>
       <c r="G11" s="25">
-        <v>98.86</v>
+        <v>98.85</v>
       </c>
       <c r="H11" s="25">
         <v>99.56</v>
       </c>
       <c r="I11" s="25">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="J11" s="25">
         <v>100.2</v>
       </c>
       <c r="K11" s="25">
-        <v>100.31</v>
+        <v>100.3</v>
       </c>
       <c r="L11" s="25">
         <v>100.09</v>
@@ -2711,16 +2731,16 @@
         <v>92.42</v>
       </c>
       <c r="P11" s="25">
-        <v>89.01</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.6</v>
+        <v>87.59</v>
       </c>
       <c r="R11" s="25">
-        <v>87.69</v>
+        <v>87.68</v>
       </c>
       <c r="S11" s="25">
-        <v>88.31</v>
+        <v>88.3</v>
       </c>
       <c r="T11" s="25">
         <v>88.98</v>
@@ -2744,112 +2764,116 @@
         <v>92.94</v>
       </c>
       <c r="AA11" s="25">
-        <v>93.09</v>
+        <v>93.1</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.79</v>
+        <v>92.81</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.35</v>
+        <v>93.37</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.41</v>
+        <v>94.44</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.88</v>
+        <v>94.92</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.26</v>
+        <v>95.3</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.38</v>
+        <v>95.43</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.42</v>
+        <v>95.46</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.56</v>
+        <v>95.6</v>
       </c>
       <c r="AJ11" s="25">
-        <v>95.82</v>
+        <v>95.86</v>
       </c>
       <c r="AK11" s="25">
-        <v>96.02</v>
+        <v>96.06</v>
       </c>
       <c r="AL11" s="25">
-        <v>96.2</v>
+        <v>96.24</v>
       </c>
       <c r="AM11" s="25">
-        <v>96.46</v>
+        <v>96.51</v>
       </c>
       <c r="AN11" s="25">
-        <v>96.55</v>
+        <v>96.61</v>
       </c>
       <c r="AO11" s="25">
-        <v>96.55</v>
+        <v>96.61</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.69</v>
+        <v>95.76</v>
       </c>
       <c r="AQ11" s="25">
-        <v>95.3</v>
+        <v>95.39</v>
       </c>
       <c r="AR11" s="25">
-        <v>96.17</v>
+        <v>96.27</v>
       </c>
       <c r="AS11" s="25">
-        <v>96.55</v>
+        <v>96.64</v>
       </c>
       <c r="AT11" s="25">
-        <v>96.34</v>
+        <v>96.44</v>
       </c>
       <c r="AU11" s="25">
-        <v>96.57</v>
+        <v>96.68</v>
       </c>
       <c r="AV11" s="25">
-        <v>97.13</v>
+        <v>97.25</v>
       </c>
       <c r="AW11" s="25">
-        <v>97.61</v>
+        <v>97.74</v>
       </c>
       <c r="AX11" s="25">
-        <v>97.76</v>
+        <v>97.89</v>
       </c>
       <c r="AY11" s="25">
-        <v>98.01</v>
+        <v>97.91</v>
       </c>
       <c r="AZ11" s="25">
-        <v>98.01</v>
+        <v>97.82</v>
       </c>
       <c r="BA11" s="25">
-        <v>96.96</v>
+        <v>96.8</v>
       </c>
       <c r="BB11" s="25">
-        <v>92.4</v>
+        <v>92.27</v>
       </c>
       <c r="BC11" s="25">
-        <v>89.42</v>
+        <v>89.49</v>
       </c>
       <c r="BD11" s="25">
-        <v>91.56</v>
+        <v>91.9</v>
       </c>
       <c r="BE11" s="25">
-        <v>93.79</v>
+        <v>94.15</v>
       </c>
       <c r="BF11" s="25">
-        <v>95.29</v>
+        <v>95.21</v>
       </c>
       <c r="BG11" s="25">
-        <v>95.9</v>
+        <v>95.57</v>
       </c>
       <c r="BH11" s="25">
-        <v>95.53</v>
+        <v>96.47</v>
       </c>
       <c r="BI11" s="25">
-        <v>96.14</v>
-      </c>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
+        <v>96.9</v>
+      </c>
+      <c r="BJ11" s="25">
+        <v>96.37</v>
+      </c>
+      <c r="BK11" s="25">
+        <v>97.26</v>
+      </c>
       <c r="BL11" s="25"/>
       <c r="BM11" s="25"/>
       <c r="BN11" s="25"/>
@@ -2877,7 +2901,7 @@
         <v>96.32</v>
       </c>
       <c r="D12" s="25">
-        <v>96.89</v>
+        <v>96.9</v>
       </c>
       <c r="E12" s="25">
         <v>97.35</v>
@@ -2901,7 +2925,7 @@
         <v>99.29</v>
       </c>
       <c r="L12" s="25">
-        <v>99.86</v>
+        <v>99.85</v>
       </c>
       <c r="M12" s="25">
         <v>100</v>
@@ -2934,7 +2958,7 @@
         <v>95.82</v>
       </c>
       <c r="W12" s="25">
-        <v>96.31</v>
+        <v>96.3</v>
       </c>
       <c r="X12" s="25">
         <v>97.02</v>
@@ -2949,109 +2973,113 @@
         <v>97.55</v>
       </c>
       <c r="AB12" s="25">
-        <v>96.86</v>
+        <v>96.87</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.15</v>
+        <v>98.17</v>
       </c>
       <c r="AE12" s="25">
-        <v>97.97</v>
+        <v>97.99</v>
       </c>
       <c r="AF12" s="25">
-        <v>98.02</v>
+        <v>98.04</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.54</v>
+        <v>98.56</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.65</v>
+        <v>98.67</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.6</v>
+        <v>98.62</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.52</v>
+        <v>98.55</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.5</v>
+        <v>98.49</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.71</v>
+        <v>98.69</v>
       </c>
       <c r="AN12" s="25">
-        <v>98.95</v>
+        <v>98.93</v>
       </c>
       <c r="AO12" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="AP12" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AQ12" s="25">
+        <v>97.68</v>
+      </c>
+      <c r="AR12" s="25">
+        <v>98.64</v>
+      </c>
+      <c r="AS12" s="25">
+        <v>98.69</v>
+      </c>
+      <c r="AT12" s="25">
+        <v>98.55</v>
+      </c>
+      <c r="AU12" s="25">
+        <v>98.58</v>
+      </c>
+      <c r="AV12" s="25">
+        <v>99.09</v>
+      </c>
+      <c r="AW12" s="25">
+        <v>99.48</v>
+      </c>
+      <c r="AX12" s="25">
+        <v>99.72</v>
+      </c>
+      <c r="AY12" s="25">
+        <v>100.28</v>
+      </c>
+      <c r="AZ12" s="25">
+        <v>100.29</v>
+      </c>
+      <c r="BA12" s="25">
+        <v>99.97</v>
+      </c>
+      <c r="BB12" s="25">
+        <v>97.71</v>
+      </c>
+      <c r="BC12" s="25">
+        <v>94.99</v>
+      </c>
+      <c r="BD12" s="25">
+        <v>95.24</v>
+      </c>
+      <c r="BE12" s="25">
+        <v>96.44</v>
+      </c>
+      <c r="BF12" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="BG12" s="25">
+        <v>97.23</v>
+      </c>
+      <c r="BH12" s="25">
+        <v>97.74</v>
+      </c>
+      <c r="BI12" s="25">
         <v>98.84</v>
       </c>
-      <c r="AP12" s="25">
-        <v>97.89</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>97.7</v>
-      </c>
-      <c r="AR12" s="25">
-        <v>98.65</v>
-      </c>
-      <c r="AS12" s="25">
-        <v>98.7</v>
-      </c>
-      <c r="AT12" s="25">
-        <v>98.56</v>
-      </c>
-      <c r="AU12" s="25">
-        <v>98.55</v>
-      </c>
-      <c r="AV12" s="25">
-        <v>99.05</v>
-      </c>
-      <c r="AW12" s="25">
-        <v>99.44</v>
-      </c>
-      <c r="AX12" s="25">
-        <v>99.66</v>
-      </c>
-      <c r="AY12" s="25">
-        <v>100.35</v>
-      </c>
-      <c r="AZ12" s="25">
-        <v>100.39</v>
-      </c>
-      <c r="BA12" s="25">
-        <v>100.07</v>
-      </c>
-      <c r="BB12" s="25">
-        <v>97.83</v>
-      </c>
-      <c r="BC12" s="25">
-        <v>95.04</v>
-      </c>
-      <c r="BD12" s="25">
-        <v>95.23</v>
-      </c>
-      <c r="BE12" s="25">
-        <v>96.46</v>
-      </c>
-      <c r="BF12" s="25">
-        <v>97.4</v>
-      </c>
-      <c r="BG12" s="25">
-        <v>98.79</v>
-      </c>
-      <c r="BH12" s="25">
-        <v>98.38</v>
-      </c>
-      <c r="BI12" s="25">
-        <v>100.14</v>
-      </c>
-      <c r="BJ12" s="25"/>
-      <c r="BK12" s="25"/>
+      <c r="BJ12" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="BK12" s="25">
+        <v>99.96</v>
+      </c>
       <c r="BL12" s="25"/>
       <c r="BM12" s="25"/>
       <c r="BN12" s="25"/>
@@ -3076,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="25">
-        <v>87.38</v>
+        <v>87.37</v>
       </c>
       <c r="D13" s="25">
         <v>90.86</v>
@@ -3094,13 +3122,13 @@
         <v>97.48</v>
       </c>
       <c r="I13" s="25">
-        <v>98.06</v>
+        <v>98.05</v>
       </c>
       <c r="J13" s="25">
-        <v>98.56</v>
+        <v>98.55</v>
       </c>
       <c r="K13" s="25">
-        <v>99.08</v>
+        <v>99.07</v>
       </c>
       <c r="L13" s="25">
         <v>100.03</v>
@@ -3112,10 +3140,10 @@
         <v>98.74</v>
       </c>
       <c r="O13" s="25">
-        <v>93.61</v>
+        <v>93.62</v>
       </c>
       <c r="P13" s="25">
-        <v>90.2</v>
+        <v>90.21</v>
       </c>
       <c r="Q13" s="25">
         <v>88.52</v>
@@ -3124,136 +3152,140 @@
         <v>88.31</v>
       </c>
       <c r="S13" s="25">
-        <v>89.08</v>
+        <v>89.09</v>
       </c>
       <c r="T13" s="25">
-        <v>90.26</v>
+        <v>90.27</v>
       </c>
       <c r="U13" s="25">
-        <v>91.31</v>
+        <v>91.32</v>
       </c>
       <c r="V13" s="25">
-        <v>91.96</v>
+        <v>91.97</v>
       </c>
       <c r="W13" s="25">
-        <v>92.39</v>
+        <v>92.4</v>
       </c>
       <c r="X13" s="25">
-        <v>93</v>
+        <v>93.01</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.4</v>
+        <v>94.41</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.16</v>
+        <v>95.17</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.73</v>
+        <v>95.75</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.56</v>
+        <v>96.59</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.46</v>
+        <v>98.54</v>
       </c>
       <c r="AD13" s="25">
-        <v>98.58</v>
+        <v>98.69</v>
       </c>
       <c r="AE13" s="25">
-        <v>98.23</v>
+        <v>98.34</v>
       </c>
       <c r="AF13" s="25">
-        <v>98.35</v>
+        <v>98.47</v>
       </c>
       <c r="AG13" s="25">
-        <v>98.18</v>
+        <v>98.3</v>
       </c>
       <c r="AH13" s="25">
-        <v>97.37</v>
+        <v>97.49</v>
       </c>
       <c r="AI13" s="25">
-        <v>96.71</v>
+        <v>96.84</v>
       </c>
       <c r="AJ13" s="25">
-        <v>96.34</v>
+        <v>96.47</v>
       </c>
       <c r="AK13" s="25">
-        <v>96.61</v>
+        <v>96.74</v>
       </c>
       <c r="AL13" s="25">
-        <v>96.77</v>
+        <v>96.92</v>
       </c>
       <c r="AM13" s="25">
-        <v>97.19</v>
+        <v>97.36</v>
       </c>
       <c r="AN13" s="25">
-        <v>97.37</v>
+        <v>97.54</v>
       </c>
       <c r="AO13" s="25">
-        <v>97.32</v>
+        <v>97.51</v>
       </c>
       <c r="AP13" s="25">
-        <v>96.38</v>
+        <v>96.7</v>
       </c>
       <c r="AQ13" s="25">
-        <v>96.32</v>
+        <v>96.76</v>
       </c>
       <c r="AR13" s="25">
-        <v>97.01</v>
+        <v>97.48</v>
       </c>
       <c r="AS13" s="25">
-        <v>97.38</v>
+        <v>97.87</v>
       </c>
       <c r="AT13" s="25">
-        <v>98.34</v>
+        <v>98.86</v>
       </c>
       <c r="AU13" s="25">
-        <v>99.13</v>
+        <v>99.75</v>
       </c>
       <c r="AV13" s="25">
-        <v>100.22</v>
+        <v>100.87</v>
       </c>
       <c r="AW13" s="25">
-        <v>100.92</v>
+        <v>101.62</v>
       </c>
       <c r="AX13" s="25">
-        <v>101.54</v>
+        <v>102.28</v>
       </c>
       <c r="AY13" s="25">
-        <v>102.26</v>
+        <v>102.69</v>
       </c>
       <c r="AZ13" s="25">
-        <v>102.65</v>
+        <v>102.99</v>
       </c>
       <c r="BA13" s="25">
-        <v>101.86</v>
+        <v>102.24</v>
       </c>
       <c r="BB13" s="25">
-        <v>97.2</v>
+        <v>97.61</v>
       </c>
       <c r="BC13" s="25">
-        <v>92.51</v>
+        <v>93.26</v>
       </c>
       <c r="BD13" s="25">
-        <v>92.53</v>
+        <v>93.83</v>
       </c>
       <c r="BE13" s="25">
-        <v>95.05</v>
+        <v>96.5</v>
       </c>
       <c r="BF13" s="25">
-        <v>96.75</v>
+        <v>97.64</v>
       </c>
       <c r="BG13" s="25">
-        <v>96.84</v>
+        <v>97.56</v>
       </c>
       <c r="BH13" s="25">
-        <v>94.51</v>
+        <v>97.46</v>
       </c>
       <c r="BI13" s="25">
-        <v>94.48</v>
-      </c>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="25"/>
+        <v>97.08</v>
+      </c>
+      <c r="BJ13" s="25">
+        <v>95.81</v>
+      </c>
+      <c r="BK13" s="25">
+        <v>96.18</v>
+      </c>
       <c r="BL13" s="25"/>
       <c r="BM13" s="25"/>
       <c r="BN13" s="25"/>
@@ -3311,10 +3343,10 @@
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.32</v>
+        <v>98.31</v>
       </c>
       <c r="O14" s="25">
-        <v>93.08</v>
+        <v>93.07</v>
       </c>
       <c r="P14" s="25">
         <v>89.53</v>
@@ -3323,22 +3355,22 @@
         <v>88.2</v>
       </c>
       <c r="R14" s="25">
-        <v>87.59</v>
+        <v>87.58</v>
       </c>
       <c r="S14" s="25">
-        <v>88.3</v>
+        <v>88.29</v>
       </c>
       <c r="T14" s="25">
         <v>89.11</v>
       </c>
       <c r="U14" s="25">
-        <v>89.4</v>
+        <v>89.39</v>
       </c>
       <c r="V14" s="25">
         <v>89.94</v>
       </c>
       <c r="W14" s="25">
-        <v>90.17</v>
+        <v>90.16</v>
       </c>
       <c r="X14" s="25">
         <v>90.7</v>
@@ -3347,115 +3379,119 @@
         <v>91.28</v>
       </c>
       <c r="Z14" s="25">
-        <v>92.06</v>
+        <v>92.05</v>
       </c>
       <c r="AA14" s="25">
         <v>92.14</v>
       </c>
       <c r="AB14" s="25">
+        <v>91.83</v>
+      </c>
+      <c r="AC14" s="25">
+        <v>92.03</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>91</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>90.54</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>91.31</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>91.31</v>
+      </c>
+      <c r="AH14" s="25">
+        <v>90.25</v>
+      </c>
+      <c r="AI14" s="25">
+        <v>89.45</v>
+      </c>
+      <c r="AJ14" s="25">
+        <v>89.01</v>
+      </c>
+      <c r="AK14" s="25">
+        <v>89.17</v>
+      </c>
+      <c r="AL14" s="25">
+        <v>89.67</v>
+      </c>
+      <c r="AM14" s="25">
+        <v>90.36</v>
+      </c>
+      <c r="AN14" s="25">
+        <v>90.64</v>
+      </c>
+      <c r="AO14" s="25">
+        <v>90.5</v>
+      </c>
+      <c r="AP14" s="25">
+        <v>89.63</v>
+      </c>
+      <c r="AQ14" s="25">
+        <v>89.76</v>
+      </c>
+      <c r="AR14" s="25">
+        <v>91.16</v>
+      </c>
+      <c r="AS14" s="25">
         <v>91.82</v>
       </c>
-      <c r="AC14" s="25">
-        <v>92.01</v>
-      </c>
-      <c r="AD14" s="25">
+      <c r="AT14" s="25">
+        <v>92.64</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>93.34</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>94.42</v>
+      </c>
+      <c r="AW14" s="25">
+        <v>94.76</v>
+      </c>
+      <c r="AX14" s="25">
+        <v>95.53</v>
+      </c>
+      <c r="AY14" s="25">
+        <v>95.9</v>
+      </c>
+      <c r="AZ14" s="25">
+        <v>96.25</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>95.44</v>
+      </c>
+      <c r="BB14" s="25">
         <v>90.98</v>
       </c>
-      <c r="AE14" s="25">
-        <v>90.52</v>
-      </c>
-      <c r="AF14" s="25">
-        <v>91.28</v>
-      </c>
-      <c r="AG14" s="25">
-        <v>91.29</v>
-      </c>
-      <c r="AH14" s="25">
-        <v>90.23</v>
-      </c>
-      <c r="AI14" s="25">
-        <v>89.43</v>
-      </c>
-      <c r="AJ14" s="25">
-        <v>88.99</v>
-      </c>
-      <c r="AK14" s="25">
-        <v>89.15</v>
-      </c>
-      <c r="AL14" s="25">
-        <v>89.65</v>
-      </c>
-      <c r="AM14" s="25">
-        <v>90.34</v>
-      </c>
-      <c r="AN14" s="25">
-        <v>90.62</v>
-      </c>
-      <c r="AO14" s="25">
-        <v>90.48</v>
-      </c>
-      <c r="AP14" s="25">
-        <v>89.59</v>
-      </c>
-      <c r="AQ14" s="25">
-        <v>89.72</v>
-      </c>
-      <c r="AR14" s="25">
-        <v>91.12</v>
-      </c>
-      <c r="AS14" s="25">
-        <v>91.79</v>
-      </c>
-      <c r="AT14" s="25">
-        <v>92.6</v>
-      </c>
-      <c r="AU14" s="25">
-        <v>93.29</v>
-      </c>
-      <c r="AV14" s="25">
-        <v>94.35</v>
-      </c>
-      <c r="AW14" s="25">
-        <v>94.67</v>
-      </c>
-      <c r="AX14" s="25">
-        <v>95.42</v>
-      </c>
-      <c r="AY14" s="25">
-        <v>96.09</v>
-      </c>
-      <c r="AZ14" s="25">
-        <v>96.52</v>
-      </c>
-      <c r="BA14" s="25">
-        <v>95.68</v>
-      </c>
-      <c r="BB14" s="25">
-        <v>91.11</v>
-      </c>
       <c r="BC14" s="25">
-        <v>88.42</v>
+        <v>88.51</v>
       </c>
       <c r="BD14" s="25">
-        <v>89.1</v>
+        <v>89.52</v>
       </c>
       <c r="BE14" s="25">
-        <v>91.31</v>
+        <v>91.75</v>
       </c>
       <c r="BF14" s="25">
-        <v>93</v>
+        <v>92.84</v>
       </c>
       <c r="BG14" s="25">
-        <v>93.9</v>
+        <v>93.41</v>
       </c>
       <c r="BH14" s="25">
-        <v>94.12</v>
+        <v>95</v>
       </c>
       <c r="BI14" s="25">
-        <v>94.41</v>
-      </c>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="25"/>
+        <v>95.44</v>
+      </c>
+      <c r="BJ14" s="25">
+        <v>95.01</v>
+      </c>
+      <c r="BK14" s="25">
+        <v>95.7</v>
+      </c>
       <c r="BL14" s="25"/>
       <c r="BM14" s="25"/>
       <c r="BN14" s="25"/>
@@ -3516,7 +3552,7 @@
         <v>98.67</v>
       </c>
       <c r="O15" s="25">
-        <v>96.93</v>
+        <v>96.94</v>
       </c>
       <c r="P15" s="25">
         <v>94.73</v>
@@ -3525,7 +3561,7 @@
         <v>94.1</v>
       </c>
       <c r="R15" s="25">
-        <v>94.48</v>
+        <v>94.49</v>
       </c>
       <c r="S15" s="25">
         <v>95.17</v>
@@ -3534,7 +3570,7 @@
         <v>94.58</v>
       </c>
       <c r="U15" s="25">
-        <v>94.58</v>
+        <v>94.57</v>
       </c>
       <c r="V15" s="25">
         <v>94.42</v>
@@ -3546,118 +3582,122 @@
         <v>95.34</v>
       </c>
       <c r="Y15" s="25">
-        <v>96.26</v>
+        <v>96.27</v>
       </c>
       <c r="Z15" s="25">
-        <v>97.57</v>
+        <v>97.58</v>
       </c>
       <c r="AA15" s="25">
-        <v>97.48</v>
+        <v>97.49</v>
       </c>
       <c r="AB15" s="25">
-        <v>95.09</v>
+        <v>95.11</v>
       </c>
       <c r="AC15" s="25">
-        <v>95.52</v>
+        <v>95.54</v>
       </c>
       <c r="AD15" s="25">
-        <v>96.81</v>
+        <v>96.83</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.87</v>
+        <v>96.89</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.19</v>
+        <v>96.21</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.29</v>
+        <v>96.31</v>
       </c>
       <c r="AH15" s="25">
-        <v>95.9</v>
+        <v>95.93</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.33</v>
+        <v>95.35</v>
       </c>
       <c r="AJ15" s="25">
-        <v>95.12</v>
+        <v>95.15</v>
       </c>
       <c r="AK15" s="25">
+        <v>95.31</v>
+      </c>
+      <c r="AL15" s="25">
+        <v>95.31</v>
+      </c>
+      <c r="AM15" s="25">
+        <v>95.37</v>
+      </c>
+      <c r="AN15" s="25">
         <v>95.29</v>
       </c>
-      <c r="AL15" s="25">
-        <v>95.3</v>
-      </c>
-      <c r="AM15" s="25">
-        <v>95.35</v>
-      </c>
-      <c r="AN15" s="25">
-        <v>95.28</v>
-      </c>
       <c r="AO15" s="25">
-        <v>95.18</v>
+        <v>95.2</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.58</v>
+        <v>94.61</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.17</v>
+        <v>95.2</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.16</v>
+        <v>95.2</v>
       </c>
       <c r="AS15" s="25">
+        <v>95.34</v>
+      </c>
+      <c r="AT15" s="25">
+        <v>96.31</v>
+      </c>
+      <c r="AU15" s="25">
+        <v>96.63</v>
+      </c>
+      <c r="AV15" s="25">
+        <v>97.3</v>
+      </c>
+      <c r="AW15" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="AX15" s="25">
+        <v>97.88</v>
+      </c>
+      <c r="AY15" s="25">
+        <v>98.63</v>
+      </c>
+      <c r="AZ15" s="25">
+        <v>98.49</v>
+      </c>
+      <c r="BA15" s="25">
+        <v>98.1</v>
+      </c>
+      <c r="BB15" s="25">
+        <v>95.91</v>
+      </c>
+      <c r="BC15" s="25">
+        <v>94.31</v>
+      </c>
+      <c r="BD15" s="25">
+        <v>94.29</v>
+      </c>
+      <c r="BE15" s="25">
         <v>95.32</v>
       </c>
-      <c r="AT15" s="25">
-        <v>96.29</v>
-      </c>
-      <c r="AU15" s="25">
-        <v>96.58</v>
-      </c>
-      <c r="AV15" s="25">
-        <v>97.02</v>
-      </c>
-      <c r="AW15" s="25">
-        <v>97.06</v>
-      </c>
-      <c r="AX15" s="25">
-        <v>97.38</v>
-      </c>
-      <c r="AY15" s="25">
-        <v>98.26</v>
-      </c>
-      <c r="AZ15" s="25">
-        <v>98.16</v>
-      </c>
-      <c r="BA15" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="BB15" s="25">
-        <v>95.59</v>
-      </c>
-      <c r="BC15" s="25">
-        <v>93.93</v>
-      </c>
-      <c r="BD15" s="25">
-        <v>93.51</v>
-      </c>
-      <c r="BE15" s="25">
-        <v>94.54</v>
-      </c>
       <c r="BF15" s="25">
-        <v>96.21</v>
+        <v>95.94</v>
       </c>
       <c r="BG15" s="25">
+        <v>96.5</v>
+      </c>
+      <c r="BH15" s="25">
         <v>97.42</v>
       </c>
-      <c r="BH15" s="25">
-        <v>97.52</v>
-      </c>
       <c r="BI15" s="25">
-        <v>97.58</v>
-      </c>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
+        <v>98.21</v>
+      </c>
+      <c r="BJ15" s="25">
+        <v>98.42</v>
+      </c>
+      <c r="BK15" s="25">
+        <v>99.33</v>
+      </c>
       <c r="BL15" s="25"/>
       <c r="BM15" s="25"/>
       <c r="BN15" s="25"/>
@@ -3685,7 +3725,7 @@
         <v>86.24</v>
       </c>
       <c r="D16" s="25">
-        <v>92.54</v>
+        <v>92.53</v>
       </c>
       <c r="E16" s="25">
         <v>95.4</v>
@@ -3700,13 +3740,13 @@
         <v>97.76</v>
       </c>
       <c r="I16" s="25">
-        <v>98.11</v>
+        <v>98.1</v>
       </c>
       <c r="J16" s="25">
-        <v>98.69</v>
+        <v>98.68</v>
       </c>
       <c r="K16" s="25">
-        <v>99.18</v>
+        <v>99.17</v>
       </c>
       <c r="L16" s="25">
         <v>100.08</v>
@@ -3715,10 +3755,10 @@
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>98.96</v>
+        <v>98.95</v>
       </c>
       <c r="O16" s="25">
-        <v>94.17</v>
+        <v>94.18</v>
       </c>
       <c r="P16" s="25">
         <v>90.79</v>
@@ -3727,22 +3767,22 @@
         <v>88.76</v>
       </c>
       <c r="R16" s="25">
-        <v>88.73</v>
+        <v>88.74</v>
       </c>
       <c r="S16" s="25">
-        <v>89.69</v>
+        <v>89.7</v>
       </c>
       <c r="T16" s="25">
-        <v>90.81</v>
+        <v>90.82</v>
       </c>
       <c r="U16" s="25">
         <v>92.1</v>
       </c>
       <c r="V16" s="25">
-        <v>93.1</v>
+        <v>93.11</v>
       </c>
       <c r="W16" s="25">
-        <v>93.77</v>
+        <v>93.78</v>
       </c>
       <c r="X16" s="25">
         <v>94.03</v>
@@ -3751,115 +3791,119 @@
         <v>95.2</v>
       </c>
       <c r="Z16" s="25">
-        <v>96.04</v>
+        <v>96.05</v>
       </c>
       <c r="AA16" s="25">
         <v>96.75</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.86</v>
+        <v>97.87</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.77</v>
+        <v>99.86</v>
       </c>
       <c r="AD16" s="25">
-        <v>100.77</v>
+        <v>100.9</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.41</v>
+        <v>101.55</v>
       </c>
       <c r="AF16" s="25">
-        <v>101.84</v>
+        <v>102</v>
       </c>
       <c r="AG16" s="25">
-        <v>102.15</v>
+        <v>102.33</v>
       </c>
       <c r="AH16" s="25">
-        <v>102.55</v>
+        <v>102.73</v>
       </c>
       <c r="AI16" s="25">
-        <v>102.7</v>
+        <v>102.88</v>
       </c>
       <c r="AJ16" s="25">
-        <v>103.07</v>
+        <v>103.26</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.3</v>
+        <v>103.49</v>
       </c>
       <c r="AL16" s="25">
-        <v>103.47</v>
+        <v>103.65</v>
       </c>
       <c r="AM16" s="25">
-        <v>104.26</v>
+        <v>104.47</v>
       </c>
       <c r="AN16" s="25">
-        <v>104.26</v>
+        <v>104.5</v>
       </c>
       <c r="AO16" s="25">
-        <v>103.63</v>
+        <v>103.88</v>
       </c>
       <c r="AP16" s="25">
-        <v>102.3</v>
+        <v>102.65</v>
       </c>
       <c r="AQ16" s="25">
-        <v>102.32</v>
+        <v>102.77</v>
       </c>
       <c r="AR16" s="25">
-        <v>102.77</v>
+        <v>103.26</v>
       </c>
       <c r="AS16" s="25">
-        <v>103.03</v>
+        <v>103.54</v>
       </c>
       <c r="AT16" s="25">
-        <v>103.11</v>
+        <v>103.65</v>
       </c>
       <c r="AU16" s="25">
-        <v>103.26</v>
+        <v>103.86</v>
       </c>
       <c r="AV16" s="25">
-        <v>103.71</v>
+        <v>104.34</v>
       </c>
       <c r="AW16" s="25">
-        <v>103.89</v>
+        <v>104.56</v>
       </c>
       <c r="AX16" s="25">
-        <v>104.05</v>
+        <v>104.73</v>
       </c>
       <c r="AY16" s="25">
-        <v>104.39</v>
+        <v>104.94</v>
       </c>
       <c r="AZ16" s="25">
-        <v>104.22</v>
+        <v>104.75</v>
       </c>
       <c r="BA16" s="25">
-        <v>102.56</v>
+        <v>103.09</v>
       </c>
       <c r="BB16" s="25">
-        <v>96.05</v>
+        <v>96.58</v>
       </c>
       <c r="BC16" s="25">
-        <v>90.64</v>
+        <v>91.37</v>
       </c>
       <c r="BD16" s="25">
-        <v>93.75</v>
+        <v>94.91</v>
       </c>
       <c r="BE16" s="25">
-        <v>97.58</v>
+        <v>98.92</v>
       </c>
       <c r="BF16" s="25">
-        <v>99.39</v>
+        <v>100.24</v>
       </c>
       <c r="BG16" s="25">
-        <v>99.47</v>
+        <v>100.16</v>
       </c>
       <c r="BH16" s="25">
-        <v>97.5</v>
+        <v>99.99</v>
       </c>
       <c r="BI16" s="25">
-        <v>98.12</v>
-      </c>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="25"/>
+        <v>100.06</v>
+      </c>
+      <c r="BJ16" s="25">
+        <v>99.1</v>
+      </c>
+      <c r="BK16" s="25">
+        <v>99.73</v>
+      </c>
       <c r="BL16" s="25"/>
       <c r="BM16" s="25"/>
       <c r="BN16" s="25"/>
@@ -3905,10 +3949,10 @@
         <v>99.82</v>
       </c>
       <c r="J17" s="25">
-        <v>99.97</v>
+        <v>99.96</v>
       </c>
       <c r="K17" s="25">
-        <v>100.34</v>
+        <v>100.33</v>
       </c>
       <c r="L17" s="25">
         <v>100.25</v>
@@ -3926,142 +3970,146 @@
         <v>89.33</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.54</v>
+        <v>87.55</v>
       </c>
       <c r="R17" s="25">
         <v>87.65</v>
       </c>
       <c r="S17" s="25">
-        <v>89.06</v>
+        <v>89.07</v>
       </c>
       <c r="T17" s="25">
-        <v>89.47</v>
+        <v>89.48</v>
       </c>
       <c r="U17" s="25">
-        <v>90.28</v>
+        <v>90.29</v>
       </c>
       <c r="V17" s="25">
-        <v>90.85</v>
+        <v>90.86</v>
       </c>
       <c r="W17" s="25">
-        <v>91.01</v>
+        <v>91.02</v>
       </c>
       <c r="X17" s="25">
-        <v>91.37</v>
+        <v>91.38</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.43</v>
+        <v>92.44</v>
       </c>
       <c r="Z17" s="25">
-        <v>93.37</v>
+        <v>93.38</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.88</v>
+        <v>93.89</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.58</v>
+        <v>93.59</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.1</v>
+        <v>94.13</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.13</v>
+        <v>95.17</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.91</v>
+        <v>95.95</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.25</v>
+        <v>96.3</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.32</v>
+        <v>96.37</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.42</v>
+        <v>96.46</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.56</v>
+        <v>96.61</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.81</v>
+        <v>96.86</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.92</v>
+        <v>96.99</v>
       </c>
       <c r="AL17" s="25">
-        <v>97.21</v>
+        <v>97.28</v>
       </c>
       <c r="AM17" s="25">
-        <v>98.17</v>
+        <v>98.24</v>
       </c>
       <c r="AN17" s="25">
-        <v>98.27</v>
+        <v>98.34</v>
       </c>
       <c r="AO17" s="25">
-        <v>97.6</v>
+        <v>97.67</v>
       </c>
       <c r="AP17" s="25">
-        <v>96.69</v>
+        <v>96.78</v>
       </c>
       <c r="AQ17" s="25">
-        <v>97.08</v>
+        <v>97.18</v>
       </c>
       <c r="AR17" s="25">
-        <v>97.87</v>
+        <v>97.97</v>
       </c>
       <c r="AS17" s="25">
-        <v>98.13</v>
+        <v>98.23</v>
       </c>
       <c r="AT17" s="25">
-        <v>97.89</v>
+        <v>98</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.38</v>
+        <v>98.51</v>
       </c>
       <c r="AV17" s="25">
-        <v>98.73</v>
+        <v>98.87</v>
       </c>
       <c r="AW17" s="25">
-        <v>99.04</v>
+        <v>99.19</v>
       </c>
       <c r="AX17" s="25">
-        <v>98.88</v>
+        <v>99.03</v>
       </c>
       <c r="AY17" s="25">
-        <v>99.28</v>
+        <v>99.31</v>
       </c>
       <c r="AZ17" s="25">
         <v>99.01</v>
       </c>
       <c r="BA17" s="25">
-        <v>97.51</v>
+        <v>97.53</v>
       </c>
       <c r="BB17" s="25">
-        <v>92.66</v>
+        <v>92.7</v>
       </c>
       <c r="BC17" s="25">
-        <v>89.85</v>
+        <v>90.04</v>
       </c>
       <c r="BD17" s="25">
-        <v>92.38</v>
+        <v>92.71</v>
       </c>
       <c r="BE17" s="25">
-        <v>94.84</v>
+        <v>95.14</v>
       </c>
       <c r="BF17" s="25">
-        <v>96.7</v>
+        <v>96.46</v>
       </c>
       <c r="BG17" s="25">
-        <v>97.51</v>
+        <v>96.96</v>
       </c>
       <c r="BH17" s="25">
-        <v>97</v>
+        <v>97.54</v>
       </c>
       <c r="BI17" s="25">
-        <v>97.82</v>
-      </c>
-      <c r="BJ17" s="25"/>
-      <c r="BK17" s="25"/>
+        <v>98.13</v>
+      </c>
+      <c r="BJ17" s="25">
+        <v>97.62</v>
+      </c>
+      <c r="BK17" s="25">
+        <v>98.51</v>
+      </c>
       <c r="BL17" s="25"/>
       <c r="BM17" s="25"/>
       <c r="BN17" s="25"/>
@@ -4098,10 +4146,10 @@
         <v>98.34</v>
       </c>
       <c r="G18" s="25">
-        <v>98.3</v>
+        <v>98.31</v>
       </c>
       <c r="H18" s="25">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="I18" s="25">
         <v>99.44</v>
@@ -4110,10 +4158,10 @@
         <v>99.57</v>
       </c>
       <c r="K18" s="25">
-        <v>98.7</v>
+        <v>98.69</v>
       </c>
       <c r="L18" s="25">
-        <v>99.4</v>
+        <v>99.39</v>
       </c>
       <c r="M18" s="25">
         <v>100</v>
@@ -4143,7 +4191,7 @@
         <v>95.72</v>
       </c>
       <c r="V18" s="25">
-        <v>96.15</v>
+        <v>96.14</v>
       </c>
       <c r="W18" s="25">
         <v>96.07</v>
@@ -4164,106 +4212,110 @@
         <v>95.37</v>
       </c>
       <c r="AC18" s="25">
-        <v>95.78</v>
+        <v>95.79</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.08</v>
+        <v>97.1</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.32</v>
+        <v>97.34</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.57</v>
+        <v>97.6</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.12</v>
+        <v>97.15</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.42</v>
+        <v>97.44</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.19</v>
+        <v>97.22</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.55</v>
+        <v>97.59</v>
       </c>
       <c r="AK18" s="25">
-        <v>97.1</v>
+        <v>97.13</v>
       </c>
       <c r="AL18" s="25">
-        <v>97.39</v>
+        <v>97.41</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.71</v>
+        <v>97.74</v>
       </c>
       <c r="AN18" s="25">
-        <v>97.99</v>
+        <v>98.01</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.16</v>
+        <v>97.18</v>
       </c>
       <c r="AP18" s="25">
-        <v>96.47</v>
+        <v>96.5</v>
       </c>
       <c r="AQ18" s="25">
-        <v>96.68</v>
+        <v>96.71</v>
       </c>
       <c r="AR18" s="25">
-        <v>97.27</v>
+        <v>97.3</v>
       </c>
       <c r="AS18" s="25">
-        <v>97.1</v>
+        <v>97.13</v>
       </c>
       <c r="AT18" s="25">
-        <v>97.12</v>
+        <v>97.14</v>
       </c>
       <c r="AU18" s="25">
-        <v>97.17</v>
+        <v>97.2</v>
       </c>
       <c r="AV18" s="25">
-        <v>97.91</v>
+        <v>97.93</v>
       </c>
       <c r="AW18" s="25">
-        <v>97.8</v>
+        <v>97.83</v>
       </c>
       <c r="AX18" s="25">
-        <v>97.87</v>
+        <v>97.9</v>
       </c>
       <c r="AY18" s="25">
-        <v>98.06</v>
+        <v>98</v>
       </c>
       <c r="AZ18" s="25">
-        <v>97.88</v>
+        <v>97.83</v>
       </c>
       <c r="BA18" s="25">
-        <v>97.05</v>
+        <v>96.99</v>
       </c>
       <c r="BB18" s="25">
-        <v>94.08</v>
+        <v>94.02</v>
       </c>
       <c r="BC18" s="25">
-        <v>92.42</v>
+        <v>92.4</v>
       </c>
       <c r="BD18" s="25">
-        <v>92.58</v>
+        <v>92.63</v>
       </c>
       <c r="BE18" s="25">
-        <v>93.64</v>
+        <v>93.68</v>
       </c>
       <c r="BF18" s="25">
-        <v>94.76</v>
+        <v>94.27</v>
       </c>
       <c r="BG18" s="25">
-        <v>95.72</v>
+        <v>94.69</v>
       </c>
       <c r="BH18" s="25">
-        <v>95.77</v>
+        <v>95.4</v>
       </c>
       <c r="BI18" s="25">
-        <v>97.18</v>
-      </c>
-      <c r="BJ18" s="25"/>
-      <c r="BK18" s="25"/>
+        <v>96.5</v>
+      </c>
+      <c r="BJ18" s="25">
+        <v>96.72</v>
+      </c>
+      <c r="BK18" s="25">
+        <v>97.63</v>
+      </c>
       <c r="BL18" s="25"/>
       <c r="BM18" s="25"/>
       <c r="BN18" s="25"/>
@@ -4288,7 +4340,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25">
-        <v>87.57</v>
+        <v>87.56</v>
       </c>
       <c r="D19" s="25">
         <v>93.13</v>
@@ -4300,7 +4352,7 @@
         <v>96.5</v>
       </c>
       <c r="G19" s="25">
-        <v>96.92</v>
+        <v>96.91</v>
       </c>
       <c r="H19" s="25">
         <v>97.97</v>
@@ -4324,148 +4376,152 @@
         <v>98.73</v>
       </c>
       <c r="O19" s="25">
-        <v>92.98</v>
+        <v>92.97</v>
       </c>
       <c r="P19" s="25">
-        <v>90.55</v>
+        <v>90.53</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.16</v>
+        <v>89.14</v>
       </c>
       <c r="R19" s="25">
-        <v>89</v>
+        <v>88.98</v>
       </c>
       <c r="S19" s="25">
-        <v>89.95</v>
+        <v>89.93</v>
       </c>
       <c r="T19" s="25">
-        <v>91.07</v>
+        <v>91.05</v>
       </c>
       <c r="U19" s="25">
-        <v>92.37</v>
+        <v>92.35</v>
       </c>
       <c r="V19" s="25">
-        <v>93.07</v>
+        <v>93.06</v>
       </c>
       <c r="W19" s="25">
-        <v>93.59</v>
+        <v>93.58</v>
       </c>
       <c r="X19" s="25">
-        <v>94.15</v>
+        <v>94.13</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.68</v>
+        <v>95.66</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.53</v>
+        <v>96.51</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.16</v>
+        <v>97.14</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.05</v>
+        <v>98.04</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.39</v>
+        <v>99.45</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.34</v>
+        <v>100.42</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.67</v>
+        <v>100.75</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.11</v>
+        <v>101.2</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.47</v>
+        <v>101.57</v>
       </c>
       <c r="AH19" s="25">
-        <v>101.87</v>
+        <v>101.97</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.22</v>
+        <v>102.33</v>
       </c>
       <c r="AJ19" s="25">
-        <v>102.58</v>
+        <v>102.69</v>
       </c>
       <c r="AK19" s="25">
-        <v>103.14</v>
+        <v>103.26</v>
       </c>
       <c r="AL19" s="25">
-        <v>103.41</v>
+        <v>103.54</v>
       </c>
       <c r="AM19" s="25">
-        <v>103.8</v>
+        <v>103.94</v>
       </c>
       <c r="AN19" s="25">
-        <v>103.74</v>
+        <v>103.87</v>
       </c>
       <c r="AO19" s="25">
-        <v>103.59</v>
+        <v>103.77</v>
       </c>
       <c r="AP19" s="25">
-        <v>102.58</v>
+        <v>102.86</v>
       </c>
       <c r="AQ19" s="25">
-        <v>102.28</v>
+        <v>102.67</v>
       </c>
       <c r="AR19" s="25">
-        <v>103.31</v>
+        <v>103.7</v>
       </c>
       <c r="AS19" s="25">
-        <v>103.62</v>
+        <v>104.02</v>
       </c>
       <c r="AT19" s="25">
-        <v>103.6</v>
+        <v>104.01</v>
       </c>
       <c r="AU19" s="25">
-        <v>103.61</v>
+        <v>104.04</v>
       </c>
       <c r="AV19" s="25">
-        <v>103.91</v>
+        <v>104.39</v>
       </c>
       <c r="AW19" s="25">
-        <v>102.17</v>
+        <v>102.67</v>
       </c>
       <c r="AX19" s="25">
-        <v>103.35</v>
+        <v>103.89</v>
       </c>
       <c r="AY19" s="25">
-        <v>104.71</v>
+        <v>105.1</v>
       </c>
       <c r="AZ19" s="25">
-        <v>105.23</v>
+        <v>105.58</v>
       </c>
       <c r="BA19" s="25">
-        <v>103.97</v>
+        <v>104.36</v>
       </c>
       <c r="BB19" s="25">
-        <v>98.72</v>
+        <v>99.14</v>
       </c>
       <c r="BC19" s="25">
-        <v>93.7</v>
+        <v>94.31</v>
       </c>
       <c r="BD19" s="25">
-        <v>96.24</v>
+        <v>97.14</v>
       </c>
       <c r="BE19" s="25">
-        <v>98.98</v>
+        <v>99.96</v>
       </c>
       <c r="BF19" s="25">
+        <v>100.65</v>
+      </c>
+      <c r="BG19" s="25">
+        <v>100.49</v>
+      </c>
+      <c r="BH19" s="25">
+        <v>101</v>
+      </c>
+      <c r="BI19" s="25">
+        <v>101.22</v>
+      </c>
+      <c r="BJ19" s="25">
         <v>100.31</v>
       </c>
-      <c r="BG19" s="25">
-        <v>100.48</v>
-      </c>
-      <c r="BH19" s="25">
-        <v>99.32</v>
-      </c>
-      <c r="BI19" s="25">
-        <v>99.79</v>
-      </c>
-      <c r="BJ19" s="25"/>
-      <c r="BK19" s="25"/>
+      <c r="BK19" s="25">
+        <v>100.58</v>
+      </c>
       <c r="BL19" s="25"/>
       <c r="BM19" s="25"/>
       <c r="BN19" s="25"/>
@@ -4493,13 +4549,13 @@
         <v>91.88</v>
       </c>
       <c r="D20" s="25">
-        <v>95.59</v>
+        <v>95.6</v>
       </c>
       <c r="E20" s="25">
-        <v>97.43</v>
+        <v>97.44</v>
       </c>
       <c r="F20" s="25">
-        <v>98.14</v>
+        <v>98.15</v>
       </c>
       <c r="G20" s="25">
         <v>98.18</v>
@@ -4508,7 +4564,7 @@
         <v>99.22</v>
       </c>
       <c r="I20" s="25">
-        <v>99.66</v>
+        <v>99.67</v>
       </c>
       <c r="J20" s="25">
         <v>100.08</v>
@@ -4517,7 +4573,7 @@
         <v>100.07</v>
       </c>
       <c r="L20" s="25">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
@@ -4544,7 +4600,7 @@
         <v>89.62</v>
       </c>
       <c r="U20" s="25">
-        <v>90.73</v>
+        <v>90.74</v>
       </c>
       <c r="V20" s="25">
         <v>92.32</v>
@@ -4559,115 +4615,119 @@
         <v>92.87</v>
       </c>
       <c r="Z20" s="25">
-        <v>93.45</v>
+        <v>93.46</v>
       </c>
       <c r="AA20" s="25">
+        <v>93.37</v>
+      </c>
+      <c r="AB20" s="25">
+        <v>92.85</v>
+      </c>
+      <c r="AC20" s="25">
         <v>93.36</v>
       </c>
-      <c r="AB20" s="25">
-        <v>92.84</v>
-      </c>
-      <c r="AC20" s="25">
-        <v>93.35</v>
-      </c>
       <c r="AD20" s="25">
-        <v>94.28</v>
+        <v>94.3</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.51</v>
+        <v>94.52</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.02</v>
+        <v>95.05</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.18</v>
+        <v>95.21</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.53</v>
+        <v>95.55</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.95</v>
+        <v>95.97</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.67</v>
+        <v>95.68</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.97</v>
+        <v>95.99</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.37</v>
+        <v>96.39</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.69</v>
+        <v>96.72</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.81</v>
+        <v>96.82</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.68</v>
+        <v>96.7</v>
       </c>
       <c r="AP20" s="25">
-        <v>95.95</v>
+        <v>95.98</v>
       </c>
       <c r="AQ20" s="25">
-        <v>95.7</v>
+        <v>95.73</v>
       </c>
       <c r="AR20" s="25">
-        <v>97.06</v>
+        <v>97.08</v>
       </c>
       <c r="AS20" s="25">
+        <v>97.45</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>97.51</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>97.66</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>98.19</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>97.46</v>
+      </c>
+      <c r="AX20" s="25">
+        <v>97.88</v>
+      </c>
+      <c r="AY20" s="25">
+        <v>98.34</v>
+      </c>
+      <c r="AZ20" s="25">
+        <v>98.58</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>96.94</v>
+      </c>
+      <c r="BB20" s="25">
+        <v>93.12</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>90.76</v>
+      </c>
+      <c r="BD20" s="25">
+        <v>92.98</v>
+      </c>
+      <c r="BE20" s="25">
+        <v>94.94</v>
+      </c>
+      <c r="BF20" s="25">
+        <v>95.66</v>
+      </c>
+      <c r="BG20" s="25">
+        <v>96.18</v>
+      </c>
+      <c r="BH20" s="25">
         <v>97.42</v>
       </c>
-      <c r="AT20" s="25">
-        <v>97.48</v>
-      </c>
-      <c r="AU20" s="25">
-        <v>97.6</v>
-      </c>
-      <c r="AV20" s="25">
-        <v>98.13</v>
-      </c>
-      <c r="AW20" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="AX20" s="25">
-        <v>97.83</v>
-      </c>
-      <c r="AY20" s="25">
-        <v>98.38</v>
-      </c>
-      <c r="AZ20" s="25">
-        <v>98.64</v>
-      </c>
-      <c r="BA20" s="25">
-        <v>96.97</v>
-      </c>
-      <c r="BB20" s="25">
-        <v>93.11</v>
-      </c>
-      <c r="BC20" s="25">
-        <v>90.69</v>
-      </c>
-      <c r="BD20" s="25">
-        <v>92.83</v>
-      </c>
-      <c r="BE20" s="25">
-        <v>94.82</v>
-      </c>
-      <c r="BF20" s="25">
-        <v>96.17</v>
-      </c>
-      <c r="BG20" s="25">
-        <v>97.07</v>
-      </c>
-      <c r="BH20" s="25">
-        <v>96.78</v>
-      </c>
       <c r="BI20" s="25">
-        <v>97.5</v>
-      </c>
-      <c r="BJ20" s="25"/>
-      <c r="BK20" s="25"/>
+        <v>98.15</v>
+      </c>
+      <c r="BJ20" s="25">
+        <v>98.04</v>
+      </c>
+      <c r="BK20" s="25">
+        <v>98.71</v>
+      </c>
       <c r="BL20" s="25"/>
       <c r="BM20" s="25"/>
       <c r="BN20" s="25"/>
@@ -4695,7 +4755,7 @@
         <v>96.65</v>
       </c>
       <c r="D21" s="25">
-        <v>97.56</v>
+        <v>97.57</v>
       </c>
       <c r="E21" s="25">
         <v>98.6</v>
@@ -4710,13 +4770,13 @@
         <v>99.65</v>
       </c>
       <c r="I21" s="25">
-        <v>100.46</v>
+        <v>100.45</v>
       </c>
       <c r="J21" s="25">
-        <v>99.39</v>
+        <v>99.38</v>
       </c>
       <c r="K21" s="25">
-        <v>98.84</v>
+        <v>98.83</v>
       </c>
       <c r="L21" s="25">
         <v>100.01</v>
@@ -4737,22 +4797,22 @@
         <v>94.32</v>
       </c>
       <c r="R21" s="25">
-        <v>94.46</v>
+        <v>94.47</v>
       </c>
       <c r="S21" s="25">
         <v>94.18</v>
       </c>
       <c r="T21" s="25">
-        <v>94.44</v>
+        <v>94.43</v>
       </c>
       <c r="U21" s="25">
-        <v>94.93</v>
+        <v>94.92</v>
       </c>
       <c r="V21" s="25">
         <v>95.7</v>
       </c>
       <c r="W21" s="25">
-        <v>95.92</v>
+        <v>95.91</v>
       </c>
       <c r="X21" s="25">
         <v>96.47</v>
@@ -4761,115 +4821,119 @@
         <v>96.87</v>
       </c>
       <c r="Z21" s="25">
-        <v>96.66</v>
+        <v>96.67</v>
       </c>
       <c r="AA21" s="25">
         <v>95.5</v>
       </c>
       <c r="AB21" s="25">
-        <v>93.65</v>
+        <v>93.66</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.61</v>
+        <v>94.62</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.39</v>
+        <v>96.4</v>
       </c>
       <c r="AE21" s="25">
-        <v>96.73</v>
+        <v>96.74</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.52</v>
+        <v>97.54</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.28</v>
+        <v>97.29</v>
       </c>
       <c r="AH21" s="25">
-        <v>97.67</v>
+        <v>97.68</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.64</v>
+        <v>97.65</v>
       </c>
       <c r="AJ21" s="25">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="AK21" s="25">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="AL21" s="25">
-        <v>97.88</v>
+        <v>97.89</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.39</v>
+        <v>98.4</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.74</v>
+        <v>98.75</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.61</v>
+        <v>98.62</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.08</v>
+        <v>98.1</v>
       </c>
       <c r="AQ21" s="25">
-        <v>98.57</v>
+        <v>98.59</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.19</v>
+        <v>100.22</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.91</v>
+        <v>99.95</v>
       </c>
       <c r="AT21" s="25">
-        <v>99.01</v>
+        <v>99.04</v>
       </c>
       <c r="AU21" s="25">
+        <v>99.74</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>101.05</v>
+      </c>
+      <c r="AW21" s="25">
+        <v>100.48</v>
+      </c>
+      <c r="AX21" s="25">
+        <v>100.12</v>
+      </c>
+      <c r="AY21" s="25">
+        <v>101.26</v>
+      </c>
+      <c r="AZ21" s="25">
+        <v>101.58</v>
+      </c>
+      <c r="BA21" s="25">
+        <v>100.28</v>
+      </c>
+      <c r="BB21" s="25">
+        <v>97.02</v>
+      </c>
+      <c r="BC21" s="25">
+        <v>95.27</v>
+      </c>
+      <c r="BD21" s="25">
+        <v>95.55</v>
+      </c>
+      <c r="BE21" s="25">
+        <v>96.98</v>
+      </c>
+      <c r="BF21" s="25">
+        <v>97.62</v>
+      </c>
+      <c r="BG21" s="25">
+        <v>98.06</v>
+      </c>
+      <c r="BH21" s="25">
+        <v>98.62</v>
+      </c>
+      <c r="BI21" s="25">
         <v>99.71</v>
       </c>
-      <c r="AV21" s="25">
-        <v>101.02</v>
-      </c>
-      <c r="AW21" s="25">
-        <v>100.46</v>
-      </c>
-      <c r="AX21" s="25">
-        <v>100.09</v>
-      </c>
-      <c r="AY21" s="25">
-        <v>101.29</v>
-      </c>
-      <c r="AZ21" s="25">
-        <v>101.62</v>
-      </c>
-      <c r="BA21" s="25">
-        <v>100.33</v>
-      </c>
-      <c r="BB21" s="25">
-        <v>97.07</v>
-      </c>
-      <c r="BC21" s="25">
-        <v>95.26</v>
-      </c>
-      <c r="BD21" s="25">
-        <v>95.46</v>
-      </c>
-      <c r="BE21" s="25">
-        <v>96.95</v>
-      </c>
-      <c r="BF21" s="25">
-        <v>98.28</v>
-      </c>
-      <c r="BG21" s="25">
-        <v>99.35</v>
-      </c>
-      <c r="BH21" s="25">
-        <v>98.98</v>
-      </c>
-      <c r="BI21" s="25">
-        <v>100.48</v>
-      </c>
-      <c r="BJ21" s="25"/>
-      <c r="BK21" s="25"/>
+      <c r="BJ21" s="25">
+        <v>99.75</v>
+      </c>
+      <c r="BK21" s="25">
+        <v>100.77</v>
+      </c>
       <c r="BL21" s="25"/>
       <c r="BM21" s="25"/>
       <c r="BN21" s="25"/>
@@ -4894,7 +4958,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="25">
-        <v>89.45</v>
+        <v>89.44</v>
       </c>
       <c r="D22" s="25">
         <v>94.07</v>
@@ -4912,7 +4976,7 @@
         <v>97.49</v>
       </c>
       <c r="I22" s="25">
-        <v>98.04</v>
+        <v>98.03</v>
       </c>
       <c r="J22" s="25">
         <v>98.4</v>
@@ -4930,148 +4994,152 @@
         <v>99</v>
       </c>
       <c r="O22" s="25">
-        <v>94.18</v>
+        <v>94.19</v>
       </c>
       <c r="P22" s="25">
-        <v>90.43</v>
+        <v>90.44</v>
       </c>
       <c r="Q22" s="25">
-        <v>88.4</v>
+        <v>88.41</v>
       </c>
       <c r="R22" s="25">
-        <v>88.2</v>
+        <v>88.21</v>
       </c>
       <c r="S22" s="25">
-        <v>88.81</v>
+        <v>88.82</v>
       </c>
       <c r="T22" s="25">
-        <v>90.14</v>
+        <v>90.15</v>
       </c>
       <c r="U22" s="25">
-        <v>91.55</v>
+        <v>91.56</v>
       </c>
       <c r="V22" s="25">
-        <v>92.54</v>
+        <v>92.55</v>
       </c>
       <c r="W22" s="25">
         <v>93.56</v>
       </c>
       <c r="X22" s="25">
-        <v>94.09</v>
+        <v>94.1</v>
       </c>
       <c r="Y22" s="25">
-        <v>95.16</v>
+        <v>95.17</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.84</v>
+        <v>96.85</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.68</v>
+        <v>97.69</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.2</v>
+        <v>98.22</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.28</v>
+        <v>100.37</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.2</v>
+        <v>101.34</v>
       </c>
       <c r="AE22" s="25">
-        <v>101.52</v>
+        <v>101.65</v>
       </c>
       <c r="AF22" s="25">
-        <v>102.33</v>
+        <v>102.48</v>
       </c>
       <c r="AG22" s="25">
-        <v>102.67</v>
+        <v>102.81</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.16</v>
+        <v>103.3</v>
       </c>
       <c r="AI22" s="25">
-        <v>103.62</v>
+        <v>103.77</v>
       </c>
       <c r="AJ22" s="25">
-        <v>103.98</v>
+        <v>104.14</v>
       </c>
       <c r="AK22" s="25">
-        <v>104.36</v>
+        <v>104.52</v>
       </c>
       <c r="AL22" s="25">
-        <v>104.77</v>
+        <v>104.94</v>
       </c>
       <c r="AM22" s="25">
-        <v>105.39</v>
+        <v>105.58</v>
       </c>
       <c r="AN22" s="25">
-        <v>105.38</v>
+        <v>105.57</v>
       </c>
       <c r="AO22" s="25">
-        <v>105.22</v>
+        <v>105.43</v>
       </c>
       <c r="AP22" s="25">
-        <v>103.38</v>
+        <v>103.71</v>
       </c>
       <c r="AQ22" s="25">
-        <v>103.05</v>
+        <v>103.48</v>
       </c>
       <c r="AR22" s="25">
-        <v>104</v>
+        <v>104.47</v>
       </c>
       <c r="AS22" s="25">
-        <v>104.7</v>
+        <v>105.2</v>
       </c>
       <c r="AT22" s="25">
-        <v>104.73</v>
+        <v>105.25</v>
       </c>
       <c r="AU22" s="25">
-        <v>105.1</v>
+        <v>105.65</v>
       </c>
       <c r="AV22" s="25">
-        <v>105.55</v>
+        <v>106.13</v>
       </c>
       <c r="AW22" s="25">
-        <v>105.84</v>
+        <v>106.45</v>
       </c>
       <c r="AX22" s="25">
-        <v>105.97</v>
+        <v>106.61</v>
       </c>
       <c r="AY22" s="25">
-        <v>106.53</v>
+        <v>106.85</v>
       </c>
       <c r="AZ22" s="25">
-        <v>106.63</v>
+        <v>106.87</v>
       </c>
       <c r="BA22" s="25">
-        <v>105.14</v>
+        <v>105.42</v>
       </c>
       <c r="BB22" s="25">
-        <v>99.43</v>
+        <v>99.72</v>
       </c>
       <c r="BC22" s="25">
-        <v>95.2</v>
+        <v>95.78</v>
       </c>
       <c r="BD22" s="25">
-        <v>97.74</v>
+        <v>98.74</v>
       </c>
       <c r="BE22" s="25">
-        <v>100.28</v>
+        <v>101.39</v>
       </c>
       <c r="BF22" s="25">
-        <v>101.53</v>
+        <v>101.98</v>
       </c>
       <c r="BG22" s="25">
-        <v>101.46</v>
+        <v>101.36</v>
       </c>
       <c r="BH22" s="25">
-        <v>97.75</v>
+        <v>99.74</v>
       </c>
       <c r="BI22" s="25">
-        <v>98.9</v>
-      </c>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="25"/>
+        <v>101.55</v>
+      </c>
+      <c r="BJ22" s="25">
+        <v>101.09</v>
+      </c>
+      <c r="BK22" s="25">
+        <v>101.13</v>
+      </c>
       <c r="BL22" s="25"/>
       <c r="BM22" s="25"/>
       <c r="BN22" s="25"/>
@@ -5129,151 +5197,155 @@
         <v>100</v>
       </c>
       <c r="N23" s="25">
-        <v>98.64</v>
+        <v>98.63</v>
       </c>
       <c r="O23" s="25">
-        <v>93.34</v>
+        <v>93.33</v>
       </c>
       <c r="P23" s="25">
-        <v>89.99</v>
+        <v>89.98</v>
       </c>
       <c r="Q23" s="25">
-        <v>88.78</v>
+        <v>88.77</v>
       </c>
       <c r="R23" s="25">
-        <v>88.32</v>
+        <v>88.31</v>
       </c>
       <c r="S23" s="25">
-        <v>88.71</v>
+        <v>88.7</v>
       </c>
       <c r="T23" s="25">
         <v>89.58</v>
       </c>
       <c r="U23" s="25">
-        <v>90.49</v>
+        <v>90.48</v>
       </c>
       <c r="V23" s="25">
         <v>91.42</v>
       </c>
       <c r="W23" s="25">
-        <v>91.78</v>
+        <v>91.77</v>
       </c>
       <c r="X23" s="25">
-        <v>92.22</v>
+        <v>92.21</v>
       </c>
       <c r="Y23" s="25">
-        <v>93.38</v>
+        <v>93.37</v>
       </c>
       <c r="Z23" s="25">
-        <v>94.47</v>
+        <v>94.46</v>
       </c>
       <c r="AA23" s="25">
         <v>94.95</v>
       </c>
       <c r="AB23" s="25">
-        <v>94.24</v>
+        <v>94.27</v>
       </c>
       <c r="AC23" s="25">
-        <v>95.03</v>
+        <v>95.08</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.52</v>
+        <v>96.57</v>
       </c>
       <c r="AE23" s="25">
-        <v>96.99</v>
+        <v>97.05</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.44</v>
+        <v>97.5</v>
       </c>
       <c r="AG23" s="25">
-        <v>98.02</v>
+        <v>98.07</v>
       </c>
       <c r="AH23" s="25">
-        <v>98.01</v>
+        <v>98.06</v>
       </c>
       <c r="AI23" s="25">
-        <v>98.19</v>
+        <v>98.24</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.61</v>
+        <v>98.68</v>
       </c>
       <c r="AK23" s="25">
-        <v>98.88</v>
+        <v>98.93</v>
       </c>
       <c r="AL23" s="25">
-        <v>99.15</v>
+        <v>99.2</v>
       </c>
       <c r="AM23" s="25">
+        <v>99.71</v>
+      </c>
+      <c r="AN23" s="25">
         <v>99.67</v>
       </c>
-      <c r="AN23" s="25">
-        <v>99.62</v>
-      </c>
       <c r="AO23" s="25">
-        <v>99.44</v>
+        <v>99.53</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.65</v>
+        <v>98.74</v>
       </c>
       <c r="AQ23" s="25">
-        <v>98.74</v>
+        <v>98.84</v>
       </c>
       <c r="AR23" s="25">
-        <v>99.39</v>
+        <v>99.5</v>
       </c>
       <c r="AS23" s="25">
-        <v>99.74</v>
+        <v>99.85</v>
       </c>
       <c r="AT23" s="25">
+        <v>99.94</v>
+      </c>
+      <c r="AU23" s="25">
         <v>99.83</v>
       </c>
-      <c r="AU23" s="25">
-        <v>99.71</v>
-      </c>
       <c r="AV23" s="25">
-        <v>100.19</v>
+        <v>100.32</v>
       </c>
       <c r="AW23" s="25">
-        <v>100.11</v>
+        <v>100.31</v>
       </c>
       <c r="AX23" s="25">
-        <v>100.61</v>
+        <v>100.88</v>
       </c>
       <c r="AY23" s="25">
-        <v>101.49</v>
+        <v>101.53</v>
       </c>
       <c r="AZ23" s="25">
-        <v>101.31</v>
+        <v>101.24</v>
       </c>
       <c r="BA23" s="25">
-        <v>100.25</v>
+        <v>100.21</v>
       </c>
       <c r="BB23" s="25">
-        <v>95.78</v>
+        <v>95.74</v>
       </c>
       <c r="BC23" s="25">
-        <v>93.28</v>
+        <v>93.41</v>
       </c>
       <c r="BD23" s="25">
-        <v>95.62</v>
+        <v>95.99</v>
       </c>
       <c r="BE23" s="25">
-        <v>97.82</v>
+        <v>98.14</v>
       </c>
       <c r="BF23" s="25">
-        <v>98.94</v>
+        <v>98.21</v>
       </c>
       <c r="BG23" s="25">
-        <v>99.33</v>
+        <v>97.92</v>
       </c>
       <c r="BH23" s="25">
-        <v>96.97</v>
+        <v>97.53</v>
       </c>
       <c r="BI23" s="25">
-        <v>97.55</v>
-      </c>
-      <c r="BJ23" s="25"/>
-      <c r="BK23" s="25"/>
+        <v>99.3</v>
+      </c>
+      <c r="BJ23" s="25">
+        <v>99.19</v>
+      </c>
+      <c r="BK23" s="25">
+        <v>99.16</v>
+      </c>
       <c r="BL23" s="25"/>
       <c r="BM23" s="25"/>
       <c r="BN23" s="25"/>
@@ -5313,13 +5385,13 @@
         <v>98.96</v>
       </c>
       <c r="H24" s="25">
+        <v>99.69</v>
+      </c>
+      <c r="I24" s="25">
+        <v>100.31</v>
+      </c>
+      <c r="J24" s="25">
         <v>99.68</v>
-      </c>
-      <c r="I24" s="25">
-        <v>100.32</v>
-      </c>
-      <c r="J24" s="25">
-        <v>99.69</v>
       </c>
       <c r="K24" s="25">
         <v>98.71</v>
@@ -5349,7 +5421,7 @@
         <v>94.97</v>
       </c>
       <c r="T24" s="25">
-        <v>95.46</v>
+        <v>95.45</v>
       </c>
       <c r="U24" s="25">
         <v>96</v>
@@ -5361,7 +5433,7 @@
         <v>96.74</v>
       </c>
       <c r="X24" s="25">
-        <v>96.9</v>
+        <v>96.91</v>
       </c>
       <c r="Y24" s="25">
         <v>97.78</v>
@@ -5370,112 +5442,116 @@
         <v>98</v>
       </c>
       <c r="AA24" s="25">
-        <v>97.62</v>
+        <v>97.63</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.54</v>
+        <v>98.56</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.35</v>
+        <v>99.38</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.61</v>
+        <v>98.63</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.63</v>
+        <v>98.65</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.5</v>
+        <v>99.52</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.48</v>
+        <v>99.51</v>
       </c>
       <c r="AI24" s="25">
-        <v>99.6</v>
+        <v>99.62</v>
       </c>
       <c r="AJ24" s="25">
+        <v>99.55</v>
+      </c>
+      <c r="AK24" s="25">
+        <v>99.69</v>
+      </c>
+      <c r="AL24" s="25">
+        <v>99.4</v>
+      </c>
+      <c r="AM24" s="25">
+        <v>99.62</v>
+      </c>
+      <c r="AN24" s="25">
+        <v>99.66</v>
+      </c>
+      <c r="AO24" s="25">
+        <v>99.45</v>
+      </c>
+      <c r="AP24" s="25">
+        <v>99.05</v>
+      </c>
+      <c r="AQ24" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="AR24" s="25">
+        <v>98.73</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>99.15</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>99.16</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>99.58</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>100.17</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>100.36</v>
+      </c>
+      <c r="AX24" s="25">
+        <v>100.11</v>
+      </c>
+      <c r="AY24" s="25">
+        <v>100.85</v>
+      </c>
+      <c r="AZ24" s="25">
+        <v>101.34</v>
+      </c>
+      <c r="BA24" s="25">
+        <v>100.91</v>
+      </c>
+      <c r="BB24" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="BC24" s="25">
+        <v>95.78</v>
+      </c>
+      <c r="BD24" s="25">
+        <v>96.19</v>
+      </c>
+      <c r="BE24" s="25">
+        <v>97.29</v>
+      </c>
+      <c r="BF24" s="25">
+        <v>97.35</v>
+      </c>
+      <c r="BG24" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="BH24" s="25">
+        <v>97.85</v>
+      </c>
+      <c r="BI24" s="25">
+        <v>99.01</v>
+      </c>
+      <c r="BJ24" s="25">
         <v>99.52</v>
       </c>
-      <c r="AK24" s="25">
-        <v>99.66</v>
-      </c>
-      <c r="AL24" s="25">
-        <v>99.38</v>
-      </c>
-      <c r="AM24" s="25">
-        <v>99.6</v>
-      </c>
-      <c r="AN24" s="25">
-        <v>99.64</v>
-      </c>
-      <c r="AO24" s="25">
-        <v>99.42</v>
-      </c>
-      <c r="AP24" s="25">
-        <v>99.02</v>
-      </c>
-      <c r="AQ24" s="25">
-        <v>98.42</v>
-      </c>
-      <c r="AR24" s="25">
-        <v>98.65</v>
-      </c>
-      <c r="AS24" s="25">
-        <v>99.06</v>
-      </c>
-      <c r="AT24" s="25">
-        <v>99.09</v>
-      </c>
-      <c r="AU24" s="25">
-        <v>99.49</v>
-      </c>
-      <c r="AV24" s="25">
-        <v>100.13</v>
-      </c>
-      <c r="AW24" s="25">
-        <v>100.28</v>
-      </c>
-      <c r="AX24" s="25">
-        <v>100.03</v>
-      </c>
-      <c r="AY24" s="25">
-        <v>100.95</v>
-      </c>
-      <c r="AZ24" s="25">
-        <v>101.49</v>
-      </c>
-      <c r="BA24" s="25">
-        <v>101.04</v>
-      </c>
-      <c r="BB24" s="25">
-        <v>98.44</v>
-      </c>
-      <c r="BC24" s="25">
-        <v>95.84</v>
-      </c>
-      <c r="BD24" s="25">
-        <v>96.11</v>
-      </c>
-      <c r="BE24" s="25">
-        <v>97.15</v>
-      </c>
-      <c r="BF24" s="25">
-        <v>98</v>
-      </c>
-      <c r="BG24" s="25">
-        <v>98.96</v>
-      </c>
-      <c r="BH24" s="25">
-        <v>98.57</v>
-      </c>
-      <c r="BI24" s="25">
-        <v>100.25</v>
-      </c>
-      <c r="BJ24" s="25"/>
-      <c r="BK24" s="25"/>
+      <c r="BK24" s="25">
+        <v>100.53</v>
+      </c>
       <c r="BL24" s="25"/>
       <c r="BM24" s="25"/>
       <c r="BN24" s="25"/>
@@ -5500,31 +5576,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="25">
-        <v>91.41</v>
+        <v>91.38</v>
       </c>
       <c r="D25" s="25">
-        <v>95.91</v>
+        <v>95.89</v>
       </c>
       <c r="E25" s="25">
-        <v>97.96</v>
+        <v>97.93</v>
       </c>
       <c r="F25" s="25">
-        <v>98.32</v>
+        <v>98.28</v>
       </c>
       <c r="G25" s="25">
-        <v>98.59</v>
+        <v>98.57</v>
       </c>
       <c r="H25" s="25">
-        <v>99.24</v>
+        <v>99.22</v>
       </c>
       <c r="I25" s="25">
-        <v>99.55</v>
+        <v>99.52</v>
       </c>
       <c r="J25" s="25">
-        <v>99.49</v>
+        <v>99.48</v>
       </c>
       <c r="K25" s="25">
-        <v>99.52</v>
+        <v>99.51</v>
       </c>
       <c r="L25" s="25">
         <v>99.7</v>
@@ -5536,7 +5612,7 @@
         <v>98.87</v>
       </c>
       <c r="O25" s="25">
-        <v>93.1</v>
+        <v>93.09</v>
       </c>
       <c r="P25" s="25">
         <v>89.62</v>
@@ -5548,19 +5624,19 @@
         <v>87.17</v>
       </c>
       <c r="S25" s="25">
-        <v>87.83</v>
+        <v>87.82</v>
       </c>
       <c r="T25" s="25">
-        <v>88.66</v>
+        <v>88.67</v>
       </c>
       <c r="U25" s="25">
-        <v>89.58</v>
+        <v>89.59</v>
       </c>
       <c r="V25" s="25">
         <v>89.92</v>
       </c>
       <c r="W25" s="25">
-        <v>90.66</v>
+        <v>90.65</v>
       </c>
       <c r="X25" s="25">
         <v>90.96</v>
@@ -5575,109 +5651,113 @@
         <v>93.57</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.54</v>
+        <v>94.55</v>
       </c>
       <c r="AC25" s="25">
-        <v>96.05</v>
+        <v>96.13</v>
       </c>
       <c r="AD25" s="25">
-        <v>96.96</v>
+        <v>97.08</v>
       </c>
       <c r="AE25" s="25">
-        <v>97.41</v>
+        <v>97.54</v>
       </c>
       <c r="AF25" s="25">
-        <v>97.68</v>
+        <v>97.82</v>
       </c>
       <c r="AG25" s="25">
-        <v>97.79</v>
+        <v>97.93</v>
       </c>
       <c r="AH25" s="25">
-        <v>98.04</v>
+        <v>98.18</v>
       </c>
       <c r="AI25" s="25">
-        <v>98.27</v>
+        <v>98.41</v>
       </c>
       <c r="AJ25" s="25">
-        <v>98.46</v>
+        <v>98.59</v>
       </c>
       <c r="AK25" s="25">
-        <v>98.79</v>
+        <v>98.93</v>
       </c>
       <c r="AL25" s="25">
-        <v>99.03</v>
+        <v>99.19</v>
       </c>
       <c r="AM25" s="25">
-        <v>99.49</v>
+        <v>99.65</v>
       </c>
       <c r="AN25" s="25">
-        <v>99.77</v>
+        <v>99.94</v>
       </c>
       <c r="AO25" s="25">
-        <v>99.75</v>
+        <v>99.93</v>
       </c>
       <c r="AP25" s="25">
-        <v>98.83</v>
+        <v>99.07</v>
       </c>
       <c r="AQ25" s="25">
-        <v>98.64</v>
+        <v>98.95</v>
       </c>
       <c r="AR25" s="25">
-        <v>98.66</v>
+        <v>99</v>
       </c>
       <c r="AS25" s="25">
-        <v>98.9</v>
+        <v>99.25</v>
       </c>
       <c r="AT25" s="25">
-        <v>98.92</v>
+        <v>99.27</v>
       </c>
       <c r="AU25" s="25">
+        <v>99.68</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>100.58</v>
+      </c>
+      <c r="AW25" s="25">
+        <v>100.95</v>
+      </c>
+      <c r="AX25" s="25">
+        <v>101.18</v>
+      </c>
+      <c r="AY25" s="25">
+        <v>101.79</v>
+      </c>
+      <c r="AZ25" s="25">
+        <v>102.15</v>
+      </c>
+      <c r="BA25" s="25">
+        <v>101.36</v>
+      </c>
+      <c r="BB25" s="25">
+        <v>96.79</v>
+      </c>
+      <c r="BC25" s="25">
+        <v>93.07</v>
+      </c>
+      <c r="BD25" s="25">
+        <v>95.95</v>
+      </c>
+      <c r="BE25" s="25">
+        <v>98.43</v>
+      </c>
+      <c r="BF25" s="25">
         <v>99.29</v>
       </c>
-      <c r="AV25" s="25">
-        <v>100.16</v>
-      </c>
-      <c r="AW25" s="25">
-        <v>100.53</v>
-      </c>
-      <c r="AX25" s="25">
-        <v>100.7</v>
-      </c>
-      <c r="AY25" s="25">
-        <v>101.43</v>
-      </c>
-      <c r="AZ25" s="25">
-        <v>101.77</v>
-      </c>
-      <c r="BA25" s="25">
-        <v>100.89</v>
-      </c>
-      <c r="BB25" s="25">
-        <v>96.27</v>
-      </c>
-      <c r="BC25" s="25">
-        <v>92.29</v>
-      </c>
-      <c r="BD25" s="25">
-        <v>94.86</v>
-      </c>
-      <c r="BE25" s="25">
-        <v>97.37</v>
-      </c>
-      <c r="BF25" s="25">
-        <v>98.82</v>
-      </c>
       <c r="BG25" s="25">
-        <v>99.23</v>
+        <v>99.22</v>
       </c>
       <c r="BH25" s="25">
-        <v>97.98</v>
+        <v>99.38</v>
       </c>
       <c r="BI25" s="25">
-        <v>98.27</v>
-      </c>
-      <c r="BJ25" s="25"/>
-      <c r="BK25" s="25"/>
+        <v>99.64</v>
+      </c>
+      <c r="BJ25" s="25">
+        <v>98.98</v>
+      </c>
+      <c r="BK25" s="25">
+        <v>99.13</v>
+      </c>
       <c r="BL25" s="25"/>
       <c r="BM25" s="25"/>
       <c r="BN25" s="25"/>
@@ -5702,25 +5782,25 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.89</v>
+        <v>94.88</v>
       </c>
       <c r="D26" s="25">
         <v>97.39</v>
       </c>
       <c r="E26" s="25">
-        <v>97.82</v>
+        <v>97.83</v>
       </c>
       <c r="F26" s="25">
         <v>99.07</v>
       </c>
       <c r="G26" s="25">
-        <v>100.2</v>
+        <v>100.21</v>
       </c>
       <c r="H26" s="25">
         <v>100.71</v>
       </c>
       <c r="I26" s="25">
-        <v>100.18</v>
+        <v>100.19</v>
       </c>
       <c r="J26" s="25">
         <v>100.1</v>
@@ -5735,43 +5815,43 @@
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.45</v>
+        <v>98.44</v>
       </c>
       <c r="O26" s="25">
         <v>93.85</v>
       </c>
       <c r="P26" s="25">
-        <v>90.97</v>
+        <v>90.96</v>
       </c>
       <c r="Q26" s="25">
-        <v>88.64</v>
+        <v>88.65</v>
       </c>
       <c r="R26" s="25">
-        <v>88.56</v>
+        <v>88.57</v>
       </c>
       <c r="S26" s="25">
-        <v>88.99</v>
+        <v>89</v>
       </c>
       <c r="T26" s="25">
-        <v>89.32</v>
+        <v>89.33</v>
       </c>
       <c r="U26" s="25">
-        <v>90.02</v>
+        <v>90.03</v>
       </c>
       <c r="V26" s="25">
-        <v>89.93</v>
+        <v>89.94</v>
       </c>
       <c r="W26" s="25">
-        <v>90.02</v>
+        <v>90.03</v>
       </c>
       <c r="X26" s="25">
-        <v>89.92</v>
+        <v>89.94</v>
       </c>
       <c r="Y26" s="25">
         <v>90.93</v>
       </c>
       <c r="Z26" s="25">
-        <v>92.13</v>
+        <v>92.14</v>
       </c>
       <c r="AA26" s="25">
         <v>92.44</v>
@@ -5780,106 +5860,110 @@
         <v>92.11</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.5</v>
+        <v>92.51</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.65</v>
+        <v>92.66</v>
       </c>
       <c r="AE26" s="25">
         <v>92.69</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.9</v>
+        <v>92.91</v>
       </c>
       <c r="AG26" s="25">
+        <v>93.54</v>
+      </c>
+      <c r="AH26" s="25">
+        <v>93.91</v>
+      </c>
+      <c r="AI26" s="25">
+        <v>93.75</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>93.88</v>
+      </c>
+      <c r="AK26" s="25">
+        <v>93.96</v>
+      </c>
+      <c r="AL26" s="25">
+        <v>94.42</v>
+      </c>
+      <c r="AM26" s="25">
+        <v>94.88</v>
+      </c>
+      <c r="AN26" s="25">
+        <v>95</v>
+      </c>
+      <c r="AO26" s="25">
+        <v>94.54</v>
+      </c>
+      <c r="AP26" s="25">
+        <v>93.64</v>
+      </c>
+      <c r="AQ26" s="25">
+        <v>93.46</v>
+      </c>
+      <c r="AR26" s="25">
+        <v>93.73</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>93.79</v>
+      </c>
+      <c r="AT26" s="25">
         <v>93.52</v>
       </c>
-      <c r="AH26" s="25">
-        <v>93.9</v>
-      </c>
-      <c r="AI26" s="25">
-        <v>93.73</v>
-      </c>
-      <c r="AJ26" s="25">
-        <v>93.87</v>
-      </c>
-      <c r="AK26" s="25">
-        <v>93.94</v>
-      </c>
-      <c r="AL26" s="25">
-        <v>94.4</v>
-      </c>
-      <c r="AM26" s="25">
-        <v>94.86</v>
-      </c>
-      <c r="AN26" s="25">
-        <v>94.98</v>
-      </c>
-      <c r="AO26" s="25">
-        <v>94.52</v>
-      </c>
-      <c r="AP26" s="25">
-        <v>93.62</v>
-      </c>
-      <c r="AQ26" s="25">
-        <v>93.43</v>
-      </c>
-      <c r="AR26" s="25">
-        <v>93.69</v>
-      </c>
-      <c r="AS26" s="25">
-        <v>93.75</v>
-      </c>
-      <c r="AT26" s="25">
-        <v>93.38</v>
-      </c>
       <c r="AU26" s="25">
-        <v>93.92</v>
+        <v>94.09</v>
       </c>
       <c r="AV26" s="25">
-        <v>93.95</v>
+        <v>94.1</v>
       </c>
       <c r="AW26" s="25">
-        <v>94.53</v>
+        <v>94.72</v>
       </c>
       <c r="AX26" s="25">
-        <v>95.4</v>
+        <v>95.64</v>
       </c>
       <c r="AY26" s="25">
-        <v>96.29</v>
+        <v>96.42</v>
       </c>
       <c r="AZ26" s="25">
-        <v>95.89</v>
+        <v>96.03</v>
       </c>
       <c r="BA26" s="25">
-        <v>94.99</v>
+        <v>95.14</v>
       </c>
       <c r="BB26" s="25">
-        <v>92.61</v>
+        <v>92.81</v>
       </c>
       <c r="BC26" s="25">
-        <v>89.98</v>
+        <v>90.22</v>
       </c>
       <c r="BD26" s="25">
-        <v>90.88</v>
+        <v>91.35</v>
       </c>
       <c r="BE26" s="25">
-        <v>92.43</v>
+        <v>92.86</v>
       </c>
       <c r="BF26" s="25">
-        <v>94.2</v>
+        <v>93.74</v>
       </c>
       <c r="BG26" s="25">
-        <v>94.42</v>
+        <v>93.27</v>
       </c>
       <c r="BH26" s="25">
-        <v>93.74</v>
+        <v>94.1</v>
       </c>
       <c r="BI26" s="25">
-        <v>93.15</v>
-      </c>
-      <c r="BJ26" s="25"/>
-      <c r="BK26" s="25"/>
+        <v>94.22</v>
+      </c>
+      <c r="BJ26" s="25">
+        <v>94.09</v>
+      </c>
+      <c r="BK26" s="25">
+        <v>94.38</v>
+      </c>
       <c r="BL26" s="25"/>
       <c r="BM26" s="25"/>
       <c r="BN26" s="25"/>
@@ -5904,22 +5988,22 @@
         <v>19</v>
       </c>
       <c r="C27" s="25">
-        <v>98.47</v>
+        <v>98.46</v>
       </c>
       <c r="D27" s="25">
-        <v>99.31</v>
+        <v>99.3</v>
       </c>
       <c r="E27" s="25">
-        <v>100.9</v>
+        <v>100.89</v>
       </c>
       <c r="F27" s="25">
-        <v>100.87</v>
+        <v>100.86</v>
       </c>
       <c r="G27" s="25">
         <v>101.17</v>
       </c>
       <c r="H27" s="25">
-        <v>100.93</v>
+        <v>100.94</v>
       </c>
       <c r="I27" s="25">
         <v>101.48</v>
@@ -5943,25 +6027,25 @@
         <v>97.83</v>
       </c>
       <c r="P27" s="25">
-        <v>95.58</v>
+        <v>95.59</v>
       </c>
       <c r="Q27" s="25">
         <v>94.87</v>
       </c>
       <c r="R27" s="25">
-        <v>95.68</v>
+        <v>95.69</v>
       </c>
       <c r="S27" s="25">
         <v>95.76</v>
       </c>
       <c r="T27" s="25">
-        <v>95.07</v>
+        <v>95.06</v>
       </c>
       <c r="U27" s="25">
-        <v>95.87</v>
+        <v>95.86</v>
       </c>
       <c r="V27" s="25">
-        <v>95.1</v>
+        <v>95.09</v>
       </c>
       <c r="W27" s="25">
         <v>95.94</v>
@@ -5970,7 +6054,7 @@
         <v>95.95</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.64</v>
+        <v>97.65</v>
       </c>
       <c r="Z27" s="25">
         <v>96.16</v>
@@ -5979,109 +6063,113 @@
         <v>94.96</v>
       </c>
       <c r="AB27" s="25">
-        <v>94.39</v>
+        <v>94.4</v>
       </c>
       <c r="AC27" s="25">
-        <v>94.96</v>
+        <v>94.97</v>
       </c>
       <c r="AD27" s="25">
-        <v>95.48</v>
+        <v>95.49</v>
       </c>
       <c r="AE27" s="25">
         <v>96.27</v>
       </c>
       <c r="AF27" s="25">
-        <v>95.97</v>
+        <v>95.98</v>
       </c>
       <c r="AG27" s="25">
-        <v>97.03</v>
+        <v>97.04</v>
       </c>
       <c r="AH27" s="25">
-        <v>96.01</v>
+        <v>96.02</v>
       </c>
       <c r="AI27" s="25">
-        <v>96.24</v>
+        <v>96.25</v>
       </c>
       <c r="AJ27" s="25">
-        <v>95.84</v>
+        <v>95.85</v>
       </c>
       <c r="AK27" s="25">
-        <v>95.74</v>
+        <v>95.76</v>
       </c>
       <c r="AL27" s="25">
         <v>95.64</v>
       </c>
       <c r="AM27" s="25">
-        <v>95.85</v>
+        <v>95.86</v>
       </c>
       <c r="AN27" s="25">
-        <v>96.36</v>
+        <v>96.37</v>
       </c>
       <c r="AO27" s="25">
-        <v>96.21</v>
+        <v>96.22</v>
       </c>
       <c r="AP27" s="25">
-        <v>95.64</v>
+        <v>95.66</v>
       </c>
       <c r="AQ27" s="25">
-        <v>96.31</v>
+        <v>96.34</v>
       </c>
       <c r="AR27" s="25">
-        <v>96.82</v>
+        <v>96.85</v>
       </c>
       <c r="AS27" s="25">
-        <v>96.61</v>
+        <v>96.65</v>
       </c>
       <c r="AT27" s="25">
-        <v>95.73</v>
+        <v>95.77</v>
       </c>
       <c r="AU27" s="25">
-        <v>96.51</v>
+        <v>96.56</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.13</v>
+        <v>97.17</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.12</v>
+        <v>98.16</v>
       </c>
       <c r="AX27" s="25">
-        <v>98.12</v>
+        <v>98.44</v>
       </c>
       <c r="AY27" s="25">
-        <v>98.75</v>
+        <v>99.04</v>
       </c>
       <c r="AZ27" s="25">
         <v>99.25</v>
       </c>
       <c r="BA27" s="25">
-        <v>99.05</v>
+        <v>99.01</v>
       </c>
       <c r="BB27" s="25">
-        <v>96.61</v>
+        <v>96.55</v>
       </c>
       <c r="BC27" s="25">
-        <v>93.7</v>
+        <v>93.72</v>
       </c>
       <c r="BD27" s="25">
-        <v>94.39</v>
+        <v>94.51</v>
       </c>
       <c r="BE27" s="25">
-        <v>94.8</v>
+        <v>94.87</v>
       </c>
       <c r="BF27" s="25">
-        <v>95.54</v>
+        <v>95.09</v>
       </c>
       <c r="BG27" s="25">
-        <v>97.5</v>
+        <v>96.52</v>
       </c>
       <c r="BH27" s="25">
-        <v>97.6</v>
+        <v>97.26</v>
       </c>
       <c r="BI27" s="25">
-        <v>99.46</v>
-      </c>
-      <c r="BJ27" s="25"/>
-      <c r="BK27" s="25"/>
+        <v>98.5</v>
+      </c>
+      <c r="BJ27" s="25">
+        <v>97.8</v>
+      </c>
+      <c r="BK27" s="25">
+        <v>98.75</v>
+      </c>
       <c r="BL27" s="25"/>
       <c r="BM27" s="25"/>
       <c r="BN27" s="25"/>
@@ -6106,25 +6194,25 @@
         <v>18</v>
       </c>
       <c r="C28" s="25">
-        <v>86.28</v>
+        <v>86.31</v>
       </c>
       <c r="D28" s="25">
-        <v>91.5</v>
+        <v>91.52</v>
       </c>
       <c r="E28" s="25">
-        <v>97.22</v>
+        <v>97.24</v>
       </c>
       <c r="F28" s="25">
-        <v>96.26</v>
+        <v>96.28</v>
       </c>
       <c r="G28" s="25">
         <v>95.31</v>
       </c>
       <c r="H28" s="25">
-        <v>96.44</v>
+        <v>96.45</v>
       </c>
       <c r="I28" s="25">
-        <v>97.49</v>
+        <v>97.5</v>
       </c>
       <c r="J28" s="25">
         <v>97.88</v>
@@ -6145,13 +6233,13 @@
         <v>94.94</v>
       </c>
       <c r="P28" s="25">
-        <v>91.48</v>
+        <v>91.46</v>
       </c>
       <c r="Q28" s="25">
         <v>89.45</v>
       </c>
       <c r="R28" s="25">
-        <v>89.29</v>
+        <v>89.3</v>
       </c>
       <c r="S28" s="25">
         <v>90.61</v>
@@ -6160,7 +6248,7 @@
         <v>91.25</v>
       </c>
       <c r="U28" s="25">
-        <v>92.6</v>
+        <v>92.59</v>
       </c>
       <c r="V28" s="25">
         <v>93.96</v>
@@ -6169,121 +6257,125 @@
         <v>95.27</v>
       </c>
       <c r="X28" s="25">
-        <v>96.01</v>
+        <v>96.03</v>
       </c>
       <c r="Y28" s="25">
-        <v>97.09</v>
+        <v>97.1</v>
       </c>
       <c r="Z28" s="25">
-        <v>98.01</v>
+        <v>98</v>
       </c>
       <c r="AA28" s="25">
         <v>98.64</v>
       </c>
       <c r="AB28" s="25">
-        <v>98.98</v>
+        <v>98.95</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.56</v>
+        <v>101.62</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.17</v>
+        <v>102.25</v>
       </c>
       <c r="AE28" s="25">
-        <v>102.46</v>
+        <v>102.51</v>
       </c>
       <c r="AF28" s="25">
-        <v>102.79</v>
+        <v>102.86</v>
       </c>
       <c r="AG28" s="25">
-        <v>103.17</v>
+        <v>103.26</v>
       </c>
       <c r="AH28" s="25">
-        <v>103.5</v>
+        <v>103.59</v>
       </c>
       <c r="AI28" s="25">
-        <v>103.93</v>
+        <v>104.03</v>
       </c>
       <c r="AJ28" s="25">
-        <v>104.1</v>
+        <v>104.19</v>
       </c>
       <c r="AK28" s="25">
-        <v>104.5</v>
+        <v>104.59</v>
       </c>
       <c r="AL28" s="25">
-        <v>104.54</v>
+        <v>104.67</v>
       </c>
       <c r="AM28" s="25">
-        <v>105.26</v>
+        <v>105.38</v>
       </c>
       <c r="AN28" s="25">
-        <v>105.83</v>
+        <v>105.96</v>
       </c>
       <c r="AO28" s="25">
-        <v>105.63</v>
+        <v>105.75</v>
       </c>
       <c r="AP28" s="25">
-        <v>104.13</v>
+        <v>104.35</v>
       </c>
       <c r="AQ28" s="25">
-        <v>103.24</v>
+        <v>103.47</v>
       </c>
       <c r="AR28" s="25">
-        <v>103.93</v>
+        <v>104.16</v>
       </c>
       <c r="AS28" s="25">
-        <v>104.28</v>
+        <v>104.58</v>
       </c>
       <c r="AT28" s="25">
-        <v>104.85</v>
+        <v>105.13</v>
       </c>
       <c r="AU28" s="25">
-        <v>105.41</v>
+        <v>105.73</v>
       </c>
       <c r="AV28" s="25">
-        <v>105.66</v>
+        <v>106.01</v>
       </c>
       <c r="AW28" s="25">
-        <v>105.85</v>
+        <v>106.22</v>
       </c>
       <c r="AX28" s="25">
-        <v>105.97</v>
+        <v>106.37</v>
       </c>
       <c r="AY28" s="25">
-        <v>106.06</v>
+        <v>106.32</v>
       </c>
       <c r="AZ28" s="25">
-        <v>105.67</v>
+        <v>105.93</v>
       </c>
       <c r="BA28" s="25">
-        <v>103.88</v>
+        <v>104.2</v>
       </c>
       <c r="BB28" s="25">
-        <v>95.93</v>
+        <v>96.26</v>
       </c>
       <c r="BC28" s="25">
-        <v>91.03</v>
+        <v>91.56</v>
       </c>
       <c r="BD28" s="25">
-        <v>93.88</v>
+        <v>95.03</v>
       </c>
       <c r="BE28" s="25">
-        <v>97.05</v>
+        <v>98.37</v>
       </c>
       <c r="BF28" s="25">
-        <v>98.73</v>
+        <v>99.26</v>
       </c>
       <c r="BG28" s="25">
-        <v>99.54</v>
+        <v>100.02</v>
       </c>
       <c r="BH28" s="25">
-        <v>99.67</v>
+        <v>101.93</v>
       </c>
       <c r="BI28" s="25">
-        <v>101.25</v>
-      </c>
-      <c r="BJ28" s="25"/>
-      <c r="BK28" s="25"/>
+        <v>103.54</v>
+      </c>
+      <c r="BJ28" s="25">
+        <v>102.99</v>
+      </c>
+      <c r="BK28" s="25">
+        <v>102.98</v>
+      </c>
       <c r="BL28" s="25"/>
       <c r="BM28" s="25"/>
       <c r="BN28" s="25"/>
@@ -6308,19 +6400,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>91.32</v>
+        <v>91.3</v>
       </c>
       <c r="D29" s="25">
-        <v>92.71</v>
+        <v>92.7</v>
       </c>
       <c r="E29" s="25">
-        <v>94.2</v>
+        <v>94.22</v>
       </c>
       <c r="F29" s="25">
-        <v>97.94</v>
+        <v>97.93</v>
       </c>
       <c r="G29" s="25">
-        <v>98.55</v>
+        <v>98.54</v>
       </c>
       <c r="H29" s="25">
         <v>99.4</v>
@@ -6347,145 +6439,149 @@
         <v>93.38</v>
       </c>
       <c r="P29" s="25">
-        <v>90.63</v>
+        <v>90.62</v>
       </c>
       <c r="Q29" s="25">
-        <v>89.63</v>
+        <v>89.64</v>
       </c>
       <c r="R29" s="25">
-        <v>89.72</v>
+        <v>89.73</v>
       </c>
       <c r="S29" s="25">
-        <v>90.12</v>
+        <v>90.13</v>
       </c>
       <c r="T29" s="25">
         <v>90.91</v>
       </c>
       <c r="U29" s="25">
-        <v>91.88</v>
+        <v>91.89</v>
       </c>
       <c r="V29" s="25">
-        <v>93.44</v>
+        <v>93.45</v>
       </c>
       <c r="W29" s="25">
-        <v>93.9</v>
+        <v>93.91</v>
       </c>
       <c r="X29" s="25">
-        <v>93.96</v>
+        <v>93.97</v>
       </c>
       <c r="Y29" s="25">
-        <v>94.44</v>
+        <v>94.46</v>
       </c>
       <c r="Z29" s="25">
         <v>95.11</v>
       </c>
       <c r="AA29" s="25">
-        <v>96.09</v>
+        <v>96.11</v>
       </c>
       <c r="AB29" s="25">
-        <v>96.17</v>
+        <v>96.18</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.63</v>
+        <v>96.64</v>
       </c>
       <c r="AD29" s="25">
-        <v>96.26</v>
+        <v>96.29</v>
       </c>
       <c r="AE29" s="25">
-        <v>95.41</v>
+        <v>95.44</v>
       </c>
       <c r="AF29" s="25">
-        <v>95.59</v>
+        <v>95.62</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.86</v>
+        <v>95.88</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.92</v>
+        <v>96.91</v>
       </c>
       <c r="AI29" s="25">
-        <v>97.45</v>
+        <v>97.44</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.63</v>
+        <v>97.59</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.37</v>
+        <v>97.31</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.6</v>
+        <v>97.59</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.63</v>
+        <v>97.62</v>
       </c>
       <c r="AN29" s="25">
-        <v>98.15</v>
+        <v>98.16</v>
       </c>
       <c r="AO29" s="25">
-        <v>98.05</v>
+        <v>98.12</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.53</v>
+        <v>97.66</v>
       </c>
       <c r="AQ29" s="25">
-        <v>96.97</v>
+        <v>97.12</v>
       </c>
       <c r="AR29" s="25">
-        <v>96.86</v>
+        <v>96.95</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.26</v>
+        <v>97.3</v>
       </c>
       <c r="AT29" s="25">
-        <v>97.95</v>
+        <v>98.07</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.54</v>
+        <v>98.67</v>
       </c>
       <c r="AV29" s="25">
-        <v>98.9</v>
+        <v>99.05</v>
       </c>
       <c r="AW29" s="25">
-        <v>99.58</v>
+        <v>99.7</v>
       </c>
       <c r="AX29" s="25">
-        <v>99.45</v>
+        <v>99.65</v>
       </c>
       <c r="AY29" s="25">
-        <v>99.6</v>
+        <v>99.63</v>
       </c>
       <c r="AZ29" s="25">
-        <v>99.23</v>
+        <v>99.12</v>
       </c>
       <c r="BA29" s="25">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="BB29" s="25">
-        <v>92.94</v>
+        <v>92.81</v>
       </c>
       <c r="BC29" s="25">
-        <v>90.8</v>
+        <v>90.76</v>
       </c>
       <c r="BD29" s="25">
-        <v>92.09</v>
+        <v>92.22</v>
       </c>
       <c r="BE29" s="25">
-        <v>94.47</v>
+        <v>94.49</v>
       </c>
       <c r="BF29" s="25">
-        <v>96.08</v>
+        <v>94.78</v>
       </c>
       <c r="BG29" s="25">
-        <v>97.16</v>
+        <v>94.38</v>
       </c>
       <c r="BH29" s="25">
-        <v>97.76</v>
+        <v>97.06</v>
       </c>
       <c r="BI29" s="25">
-        <v>98.74</v>
-      </c>
-      <c r="BJ29" s="25"/>
-      <c r="BK29" s="25"/>
+        <v>98.51</v>
+      </c>
+      <c r="BJ29" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="BK29" s="25">
+        <v>98.92</v>
+      </c>
       <c r="BL29" s="25"/>
       <c r="BM29" s="25"/>
       <c r="BN29" s="25"/>
@@ -6519,19 +6615,19 @@
         <v>95.47</v>
       </c>
       <c r="F30" s="25">
-        <v>96.03</v>
+        <v>96.04</v>
       </c>
       <c r="G30" s="25">
-        <v>97.62</v>
+        <v>97.63</v>
       </c>
       <c r="H30" s="25">
         <v>99.9</v>
       </c>
       <c r="I30" s="25">
-        <v>100.09</v>
+        <v>100.1</v>
       </c>
       <c r="J30" s="25">
-        <v>98.57</v>
+        <v>98.58</v>
       </c>
       <c r="K30" s="25">
         <v>98.03</v>
@@ -6549,7 +6645,7 @@
         <v>96.98</v>
       </c>
       <c r="P30" s="25">
-        <v>96.62</v>
+        <v>96.63</v>
       </c>
       <c r="Q30" s="25">
         <v>95.78</v>
@@ -6558,13 +6654,13 @@
         <v>95.76</v>
       </c>
       <c r="S30" s="25">
-        <v>96.1</v>
+        <v>96.11</v>
       </c>
       <c r="T30" s="25">
         <v>96.59</v>
       </c>
       <c r="U30" s="25">
-        <v>96.87</v>
+        <v>96.86</v>
       </c>
       <c r="V30" s="25">
         <v>97.1</v>
@@ -6573,10 +6669,10 @@
         <v>97.73</v>
       </c>
       <c r="X30" s="25">
-        <v>97.98</v>
+        <v>97.97</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.33</v>
+        <v>96.32</v>
       </c>
       <c r="Z30" s="25">
         <v>97.41</v>
@@ -6585,109 +6681,113 @@
         <v>98.03</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.41</v>
+        <v>96.4</v>
       </c>
       <c r="AC30" s="25">
         <v>97.91</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.86</v>
+        <v>98.88</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.62</v>
+        <v>98.64</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.8</v>
+        <v>98.83</v>
       </c>
       <c r="AG30" s="25">
-        <v>99.33</v>
+        <v>99.36</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.84</v>
+        <v>100.86</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.38</v>
+        <v>100.4</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.86</v>
+        <v>100.89</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.77</v>
+        <v>100.79</v>
       </c>
       <c r="AL30" s="25">
-        <v>100.11</v>
+        <v>100.13</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.73</v>
+        <v>99.75</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.24</v>
+        <v>100.26</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.25</v>
+        <v>100.27</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.84</v>
+        <v>99.87</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.31</v>
+        <v>99.35</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.72</v>
+        <v>99.78</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.34</v>
+        <v>100.4</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.65</v>
+        <v>100.68</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.91</v>
+        <v>100.93</v>
       </c>
       <c r="AV30" s="25">
-        <v>100.95</v>
+        <v>100.99</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.25</v>
+        <v>101.29</v>
       </c>
       <c r="AX30" s="25">
-        <v>101.77</v>
+        <v>101.82</v>
       </c>
       <c r="AY30" s="25">
-        <v>102.58</v>
+        <v>102.53</v>
       </c>
       <c r="AZ30" s="25">
-        <v>102.51</v>
+        <v>102.45</v>
       </c>
       <c r="BA30" s="25">
-        <v>101.65</v>
+        <v>101.57</v>
       </c>
       <c r="BB30" s="25">
-        <v>98.71</v>
+        <v>98.64</v>
       </c>
       <c r="BC30" s="25">
-        <v>97.48</v>
+        <v>97.47</v>
       </c>
       <c r="BD30" s="25">
-        <v>98.26</v>
+        <v>98.28</v>
       </c>
       <c r="BE30" s="25">
-        <v>98.62</v>
+        <v>98.55</v>
       </c>
       <c r="BF30" s="25">
-        <v>99.79</v>
+        <v>98.92</v>
       </c>
       <c r="BG30" s="25">
-        <v>101.24</v>
+        <v>99.35</v>
       </c>
       <c r="BH30" s="25">
-        <v>100.8</v>
+        <v>99.75</v>
       </c>
       <c r="BI30" s="25">
-        <v>102.42</v>
-      </c>
-      <c r="BJ30" s="25"/>
-      <c r="BK30" s="25"/>
+        <v>101.39</v>
+      </c>
+      <c r="BJ30" s="25">
+        <v>101.5</v>
+      </c>
+      <c r="BK30" s="25">
+        <v>102.41</v>
+      </c>
       <c r="BL30" s="25"/>
       <c r="BM30" s="25"/>
       <c r="BN30" s="25"/>
@@ -6712,25 +6812,25 @@
         <v>18</v>
       </c>
       <c r="C31" s="25">
-        <v>84.73</v>
+        <v>84.74</v>
       </c>
       <c r="D31" s="25">
-        <v>90</v>
+        <v>89.99</v>
       </c>
       <c r="E31" s="25">
         <v>93.78</v>
       </c>
       <c r="F31" s="25">
-        <v>94.69</v>
+        <v>94.68</v>
       </c>
       <c r="G31" s="25">
-        <v>95.46</v>
+        <v>95.45</v>
       </c>
       <c r="H31" s="25">
         <v>97.14</v>
       </c>
       <c r="I31" s="25">
-        <v>98.1</v>
+        <v>98.09</v>
       </c>
       <c r="J31" s="25">
         <v>98.58</v>
@@ -6739,28 +6839,28 @@
         <v>99.33</v>
       </c>
       <c r="L31" s="25">
-        <v>100.13</v>
+        <v>100.14</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.07</v>
+        <v>99.08</v>
       </c>
       <c r="O31" s="25">
-        <v>94.47</v>
+        <v>94.48</v>
       </c>
       <c r="P31" s="25">
         <v>90.9</v>
       </c>
       <c r="Q31" s="25">
+        <v>89.31</v>
+      </c>
+      <c r="R31" s="25">
         <v>89.3</v>
       </c>
-      <c r="R31" s="25">
-        <v>89.29</v>
-      </c>
       <c r="S31" s="25">
-        <v>89.68</v>
+        <v>89.69</v>
       </c>
       <c r="T31" s="25">
         <v>90.67</v>
@@ -6775,121 +6875,125 @@
         <v>93.36</v>
       </c>
       <c r="X31" s="25">
-        <v>94.43</v>
+        <v>94.42</v>
       </c>
       <c r="Y31" s="25">
-        <v>95.39</v>
+        <v>95.4</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.25</v>
+        <v>96.27</v>
       </c>
       <c r="AA31" s="25">
-        <v>97.08</v>
+        <v>97.1</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.51</v>
+        <v>98.55</v>
       </c>
       <c r="AC31" s="25">
-        <v>100.56</v>
+        <v>100.65</v>
       </c>
       <c r="AD31" s="25">
-        <v>101.16</v>
+        <v>101.3</v>
       </c>
       <c r="AE31" s="25">
-        <v>101.17</v>
+        <v>101.31</v>
       </c>
       <c r="AF31" s="25">
-        <v>101.88</v>
+        <v>102.02</v>
       </c>
       <c r="AG31" s="25">
-        <v>102.82</v>
+        <v>102.99</v>
       </c>
       <c r="AH31" s="25">
+        <v>103.6</v>
+      </c>
+      <c r="AI31" s="25">
+        <v>103.81</v>
+      </c>
+      <c r="AJ31" s="25">
+        <v>103.96</v>
+      </c>
+      <c r="AK31" s="25">
+        <v>104.15</v>
+      </c>
+      <c r="AL31" s="25">
+        <v>104.54</v>
+      </c>
+      <c r="AM31" s="25">
+        <v>105.08</v>
+      </c>
+      <c r="AN31" s="25">
+        <v>105.07</v>
+      </c>
+      <c r="AO31" s="25">
+        <v>105</v>
+      </c>
+      <c r="AP31" s="25">
+        <v>103.17</v>
+      </c>
+      <c r="AQ31" s="25">
+        <v>102.38</v>
+      </c>
+      <c r="AR31" s="25">
+        <v>103.65</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>104.06</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>104.12</v>
+      </c>
+      <c r="AU31" s="25">
+        <v>103.83</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>104.42</v>
+      </c>
+      <c r="AW31" s="25">
+        <v>104.71</v>
+      </c>
+      <c r="AX31" s="25">
+        <v>104.94</v>
+      </c>
+      <c r="AY31" s="25">
+        <v>105.26</v>
+      </c>
+      <c r="AZ31" s="25">
+        <v>104.91</v>
+      </c>
+      <c r="BA31" s="25">
         <v>103.43</v>
       </c>
-      <c r="AI31" s="25">
-        <v>103.65</v>
-      </c>
-      <c r="AJ31" s="25">
-        <v>103.79</v>
-      </c>
-      <c r="AK31" s="25">
-        <v>103.97</v>
-      </c>
-      <c r="AL31" s="25">
-        <v>104.37</v>
-      </c>
-      <c r="AM31" s="25">
-        <v>104.91</v>
-      </c>
-      <c r="AN31" s="25">
-        <v>104.9</v>
-      </c>
-      <c r="AO31" s="25">
-        <v>104.81</v>
-      </c>
-      <c r="AP31" s="25">
-        <v>102.9</v>
-      </c>
-      <c r="AQ31" s="25">
-        <v>102</v>
-      </c>
-      <c r="AR31" s="25">
-        <v>103.24</v>
-      </c>
-      <c r="AS31" s="25">
-        <v>103.63</v>
-      </c>
-      <c r="AT31" s="25">
-        <v>103.68</v>
-      </c>
-      <c r="AU31" s="25">
-        <v>103.32</v>
-      </c>
-      <c r="AV31" s="25">
-        <v>103.9</v>
-      </c>
-      <c r="AW31" s="25">
-        <v>104.13</v>
-      </c>
-      <c r="AX31" s="25">
-        <v>104.35</v>
-      </c>
-      <c r="AY31" s="25">
-        <v>104.97</v>
-      </c>
-      <c r="AZ31" s="25">
-        <v>104.84</v>
-      </c>
-      <c r="BA31" s="25">
-        <v>103.32</v>
-      </c>
       <c r="BB31" s="25">
-        <v>96.51</v>
+        <v>96.68</v>
       </c>
       <c r="BC31" s="25">
-        <v>91.04</v>
+        <v>91.64</v>
       </c>
       <c r="BD31" s="25">
-        <v>93.55</v>
+        <v>94.71</v>
       </c>
       <c r="BE31" s="25">
-        <v>97.2</v>
+        <v>98.44</v>
       </c>
       <c r="BF31" s="25">
-        <v>99.32</v>
+        <v>99.92</v>
       </c>
       <c r="BG31" s="25">
-        <v>99.41</v>
+        <v>99.7</v>
       </c>
       <c r="BH31" s="25">
-        <v>96.83</v>
+        <v>100.05</v>
       </c>
       <c r="BI31" s="25">
-        <v>96.62</v>
-      </c>
-      <c r="BJ31" s="25"/>
-      <c r="BK31" s="25"/>
+        <v>100.44</v>
+      </c>
+      <c r="BJ31" s="25">
+        <v>99.04</v>
+      </c>
+      <c r="BK31" s="25">
+        <v>98.54</v>
+      </c>
       <c r="BL31" s="25"/>
       <c r="BM31" s="25"/>
       <c r="BN31" s="25"/>
@@ -6917,25 +7021,25 @@
         <v>91.01</v>
       </c>
       <c r="D32" s="25">
-        <v>94.79</v>
+        <v>94.8</v>
       </c>
       <c r="E32" s="25">
         <v>97.38</v>
       </c>
       <c r="F32" s="25">
-        <v>97.44</v>
+        <v>97.45</v>
       </c>
       <c r="G32" s="25">
-        <v>98.1</v>
+        <v>98.09</v>
       </c>
       <c r="H32" s="25">
         <v>99.59</v>
       </c>
       <c r="I32" s="25">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
       <c r="J32" s="25">
-        <v>101.22</v>
+        <v>101.21</v>
       </c>
       <c r="K32" s="25">
         <v>102.09</v>
@@ -6947,7 +7051,7 @@
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>98.49</v>
+        <v>98.5</v>
       </c>
       <c r="O32" s="25">
         <v>93.1</v>
@@ -6959,13 +7063,13 @@
         <v>86.96</v>
       </c>
       <c r="R32" s="25">
-        <v>87.3</v>
+        <v>87.31</v>
       </c>
       <c r="S32" s="25">
-        <v>87.49</v>
+        <v>87.5</v>
       </c>
       <c r="T32" s="25">
-        <v>87.51</v>
+        <v>87.52</v>
       </c>
       <c r="U32" s="25">
         <v>88.57</v>
@@ -6980,118 +7084,122 @@
         <v>90.95</v>
       </c>
       <c r="Y32" s="25">
-        <v>91.65</v>
+        <v>91.64</v>
       </c>
       <c r="Z32" s="25">
         <v>92.64</v>
       </c>
       <c r="AA32" s="25">
-        <v>93.07</v>
+        <v>93.06</v>
       </c>
       <c r="AB32" s="25">
         <v>92.84</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.38</v>
+        <v>93.41</v>
       </c>
       <c r="AD32" s="25">
-        <v>95.19</v>
+        <v>95.26</v>
       </c>
       <c r="AE32" s="25">
-        <v>94.87</v>
+        <v>94.93</v>
       </c>
       <c r="AF32" s="25">
-        <v>95.19</v>
+        <v>95.25</v>
       </c>
       <c r="AG32" s="25">
-        <v>95.42</v>
+        <v>95.48</v>
       </c>
       <c r="AH32" s="25">
-        <v>95.94</v>
+        <v>96</v>
       </c>
       <c r="AI32" s="25">
-        <v>96.15</v>
+        <v>96.21</v>
       </c>
       <c r="AJ32" s="25">
-        <v>96.14</v>
+        <v>96.21</v>
       </c>
       <c r="AK32" s="25">
-        <v>95.52</v>
+        <v>95.59</v>
       </c>
       <c r="AL32" s="25">
-        <v>95.98</v>
+        <v>96.05</v>
       </c>
       <c r="AM32" s="25">
-        <v>96.53</v>
+        <v>96.59</v>
       </c>
       <c r="AN32" s="25">
-        <v>96.36</v>
+        <v>96.42</v>
       </c>
       <c r="AO32" s="25">
-        <v>96.11</v>
+        <v>96.17</v>
       </c>
       <c r="AP32" s="25">
-        <v>95.94</v>
+        <v>96.02</v>
       </c>
       <c r="AQ32" s="25">
-        <v>96.43</v>
+        <v>96.57</v>
       </c>
       <c r="AR32" s="25">
-        <v>97.26</v>
+        <v>97.4</v>
       </c>
       <c r="AS32" s="25">
-        <v>98.21</v>
+        <v>98.35</v>
       </c>
       <c r="AT32" s="25">
-        <v>97.83</v>
+        <v>98.04</v>
       </c>
       <c r="AU32" s="25">
-        <v>97.48</v>
+        <v>97.72</v>
       </c>
       <c r="AV32" s="25">
-        <v>97.51</v>
+        <v>97.76</v>
       </c>
       <c r="AW32" s="25">
-        <v>98.33</v>
+        <v>98.61</v>
       </c>
       <c r="AX32" s="25">
-        <v>98.26</v>
+        <v>98.53</v>
       </c>
       <c r="AY32" s="25">
-        <v>98.43</v>
+        <v>98.63</v>
       </c>
       <c r="AZ32" s="25">
-        <v>98.54</v>
+        <v>98.67</v>
       </c>
       <c r="BA32" s="25">
-        <v>96.99</v>
+        <v>97.24</v>
       </c>
       <c r="BB32" s="25">
-        <v>91.07</v>
+        <v>91.51</v>
       </c>
       <c r="BC32" s="25">
-        <v>88.08</v>
+        <v>88.55</v>
       </c>
       <c r="BD32" s="25">
-        <v>90.37</v>
+        <v>90.84</v>
       </c>
       <c r="BE32" s="25">
-        <v>92.81</v>
+        <v>93.27</v>
       </c>
       <c r="BF32" s="25">
-        <v>95</v>
+        <v>94.92</v>
       </c>
       <c r="BG32" s="25">
-        <v>96.46</v>
+        <v>96.1</v>
       </c>
       <c r="BH32" s="25">
-        <v>96.63</v>
+        <v>97.29</v>
       </c>
       <c r="BI32" s="25">
-        <v>97</v>
-      </c>
-      <c r="BJ32" s="25"/>
-      <c r="BK32" s="25"/>
+        <v>98.04</v>
+      </c>
+      <c r="BJ32" s="25">
+        <v>97.4</v>
+      </c>
+      <c r="BK32" s="25">
+        <v>98.03</v>
+      </c>
       <c r="BL32" s="25"/>
       <c r="BM32" s="25"/>
       <c r="BN32" s="25"/>
@@ -7125,7 +7233,7 @@
         <v>98.18</v>
       </c>
       <c r="F33" s="25">
-        <v>98.1</v>
+        <v>98.09</v>
       </c>
       <c r="G33" s="25">
         <v>98</v>
@@ -7137,7 +7245,7 @@
         <v>97.94</v>
       </c>
       <c r="J33" s="25">
-        <v>97.85</v>
+        <v>97.84</v>
       </c>
       <c r="K33" s="25">
         <v>97.52</v>
@@ -7194,106 +7302,110 @@
         <v>96.19</v>
       </c>
       <c r="AC33" s="25">
-        <v>96.95</v>
+        <v>96.96</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.74</v>
+        <v>97.75</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.46</v>
+        <v>97.47</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.9</v>
+        <v>97.91</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.9</v>
+        <v>97.91</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.61</v>
+        <v>97.62</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.4</v>
+        <v>97.41</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.64</v>
+        <v>97.66</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.76</v>
+        <v>97.77</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.15</v>
+        <v>98.16</v>
       </c>
       <c r="AN33" s="25">
         <v>98.24</v>
       </c>
       <c r="AO33" s="25">
-        <v>97.89</v>
+        <v>97.9</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.72</v>
+        <v>97.73</v>
       </c>
       <c r="AQ33" s="25">
         <v>97.77</v>
       </c>
       <c r="AR33" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AS33" s="25">
+        <v>98.55</v>
+      </c>
+      <c r="AT33" s="25">
+        <v>97.77</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>97.93</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>98.28</v>
+      </c>
+      <c r="AW33" s="25">
+        <v>98.33</v>
+      </c>
+      <c r="AX33" s="25">
         <v>98.36</v>
       </c>
-      <c r="AS33" s="25">
-        <v>98.53</v>
-      </c>
-      <c r="AT33" s="25">
-        <v>97.75</v>
-      </c>
-      <c r="AU33" s="25">
-        <v>97.91</v>
-      </c>
-      <c r="AV33" s="25">
-        <v>98.24</v>
-      </c>
-      <c r="AW33" s="25">
-        <v>98.3</v>
-      </c>
-      <c r="AX33" s="25">
-        <v>98.32</v>
-      </c>
       <c r="AY33" s="25">
-        <v>98.9</v>
+        <v>98.85</v>
       </c>
       <c r="AZ33" s="25">
-        <v>98.47</v>
+        <v>98.39</v>
       </c>
       <c r="BA33" s="25">
-        <v>98.62</v>
+        <v>98.51</v>
       </c>
       <c r="BB33" s="25">
-        <v>96.3</v>
+        <v>96.19</v>
       </c>
       <c r="BC33" s="25">
-        <v>94.27</v>
+        <v>94.18</v>
       </c>
       <c r="BD33" s="25">
-        <v>94.05</v>
+        <v>93.91</v>
       </c>
       <c r="BE33" s="25">
-        <v>95.45</v>
+        <v>95.3</v>
       </c>
       <c r="BF33" s="25">
-        <v>96.56</v>
+        <v>95.78</v>
       </c>
       <c r="BG33" s="25">
-        <v>97.71</v>
+        <v>96.29</v>
       </c>
       <c r="BH33" s="25">
-        <v>97.32</v>
+        <v>97.05</v>
       </c>
       <c r="BI33" s="25">
-        <v>98.84</v>
-      </c>
-      <c r="BJ33" s="25"/>
-      <c r="BK33" s="25"/>
+        <v>98.4</v>
+      </c>
+      <c r="BJ33" s="25">
+        <v>98.37</v>
+      </c>
+      <c r="BK33" s="25">
+        <v>99.33</v>
+      </c>
       <c r="BL33" s="25"/>
       <c r="BM33" s="25"/>
       <c r="BN33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 27 February 2021\IPE materials\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D226A5-6443-4B2E-A7F6-6AC7051CBB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E5448-0296-4288-A380-004E52C1F241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t xml:space="preserve">            Australian Bureau of Statistics</t>
   </si>
@@ -98,19 +93,19 @@
     <t>Payroll jobs index by Employment size</t>
   </si>
   <si>
-    <t>Under 20 employees</t>
-  </si>
-  <si>
-    <t>200 employees and over</t>
-  </si>
-  <si>
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 16 March 2021</t>
+    <t>Released at 11.30am (Canberra time) 30 March 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 27 February 2021</t>
+    <t>Week ending Saturday 13 March 2021</t>
+  </si>
+  <si>
+    <t>0-19 employees</t>
+  </si>
+  <si>
+    <t>200+ employees</t>
   </si>
   <si>
     <t>State or Territory</t>
@@ -119,13 +114,10 @@
     <t>Employment size</t>
   </si>
   <si>
-    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employer characteristics</t>
-  </si>
-  <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employment size</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment Size</t>
   </si>
 </sst>
 </file>
@@ -136,7 +128,7 @@
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,14 +228,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -285,7 +269,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -360,10 +344,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1129,7 +1109,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1184,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="29"/>
     </row>
@@ -1328,7 +1308,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1410,7 +1390,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1572,11 +1552,9 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="30"/>
+    <row r="5" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1844,8 +1822,12 @@
       <c r="BK6" s="24">
         <v>44254</v>
       </c>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
+      <c r="BL6" s="24">
+        <v>44261</v>
+      </c>
+      <c r="BM6" s="24">
+        <v>44268</v>
+      </c>
       <c r="BN6" s="24"/>
       <c r="BO6" s="24"/>
       <c r="BP6" s="24"/>
@@ -1865,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="25">
         <v>87.32</v>
@@ -1889,13 +1871,13 @@
         <v>98.09</v>
       </c>
       <c r="J7" s="25">
-        <v>98.6</v>
+        <v>98.61</v>
       </c>
       <c r="K7" s="25">
         <v>99.09</v>
       </c>
       <c r="L7" s="25">
-        <v>99.99</v>
+        <v>99.98</v>
       </c>
       <c r="M7" s="25">
         <v>100</v>
@@ -1904,7 +1886,7 @@
         <v>98.82</v>
       </c>
       <c r="O7" s="25">
-        <v>93.89</v>
+        <v>93.88</v>
       </c>
       <c r="P7" s="25">
         <v>90.55</v>
@@ -1913,145 +1895,149 @@
         <v>88.73</v>
       </c>
       <c r="R7" s="25">
-        <v>88.54</v>
+        <v>88.55</v>
       </c>
       <c r="S7" s="25">
-        <v>89.3</v>
+        <v>89.31</v>
       </c>
       <c r="T7" s="25">
-        <v>90.47</v>
+        <v>90.48</v>
       </c>
       <c r="U7" s="25">
-        <v>91.81</v>
+        <v>91.82</v>
       </c>
       <c r="V7" s="25">
-        <v>92.99</v>
+        <v>93</v>
       </c>
       <c r="W7" s="25">
-        <v>93.59</v>
+        <v>93.6</v>
       </c>
       <c r="X7" s="25">
-        <v>94.1</v>
+        <v>94.11</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.41</v>
+        <v>95.42</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.94</v>
+        <v>95.95</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.5</v>
+        <v>96.51</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.39</v>
+        <v>97.41</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.59</v>
+        <v>99.68</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.42</v>
+        <v>100.55</v>
       </c>
       <c r="AE7" s="25">
-        <v>100.6</v>
+        <v>100.73</v>
       </c>
       <c r="AF7" s="25">
-        <v>101.04</v>
+        <v>101.17</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.18</v>
+        <v>101.32</v>
       </c>
       <c r="AH7" s="25">
-        <v>101.23</v>
+        <v>101.37</v>
       </c>
       <c r="AI7" s="25">
-        <v>101.25</v>
+        <v>101.39</v>
       </c>
       <c r="AJ7" s="25">
-        <v>101.39</v>
+        <v>101.53</v>
       </c>
       <c r="AK7" s="25">
-        <v>101.65</v>
+        <v>101.8</v>
       </c>
       <c r="AL7" s="25">
-        <v>101.94</v>
+        <v>102.09</v>
       </c>
       <c r="AM7" s="25">
-        <v>102.5</v>
+        <v>102.67</v>
       </c>
       <c r="AN7" s="25">
+        <v>102.76</v>
+      </c>
+      <c r="AO7" s="25">
         <v>102.58</v>
       </c>
-      <c r="AO7" s="25">
-        <v>102.39</v>
-      </c>
       <c r="AP7" s="25">
-        <v>101.02</v>
+        <v>101.26</v>
       </c>
       <c r="AQ7" s="25">
-        <v>100.74</v>
+        <v>101.05</v>
       </c>
       <c r="AR7" s="25">
-        <v>101.5</v>
+        <v>101.81</v>
       </c>
       <c r="AS7" s="25">
-        <v>101.88</v>
+        <v>102.21</v>
       </c>
       <c r="AT7" s="25">
-        <v>102.17</v>
+        <v>102.51</v>
       </c>
       <c r="AU7" s="25">
-        <v>102.66</v>
+        <v>103.04</v>
       </c>
       <c r="AV7" s="25">
-        <v>103.43</v>
+        <v>103.83</v>
       </c>
       <c r="AW7" s="25">
-        <v>103.8</v>
+        <v>104.21</v>
       </c>
       <c r="AX7" s="25">
-        <v>104.14</v>
+        <v>104.58</v>
       </c>
       <c r="AY7" s="25">
-        <v>104.37</v>
+        <v>104.86</v>
       </c>
       <c r="AZ7" s="25">
-        <v>104.36</v>
+        <v>104.84</v>
       </c>
       <c r="BA7" s="25">
-        <v>103.12</v>
+        <v>103.51</v>
       </c>
       <c r="BB7" s="25">
-        <v>97.58</v>
+        <v>97.92</v>
       </c>
       <c r="BC7" s="25">
-        <v>92.88</v>
+        <v>93.25</v>
       </c>
       <c r="BD7" s="25">
-        <v>94.99</v>
+        <v>95.48</v>
       </c>
       <c r="BE7" s="25">
-        <v>98.06</v>
+        <v>98.78</v>
       </c>
       <c r="BF7" s="25">
-        <v>99.06</v>
+        <v>100.06</v>
       </c>
       <c r="BG7" s="25">
-        <v>98.9</v>
+        <v>100.09</v>
       </c>
       <c r="BH7" s="25">
-        <v>98.52</v>
+        <v>99.55</v>
       </c>
       <c r="BI7" s="25">
-        <v>98.67</v>
+        <v>99.78</v>
       </c>
       <c r="BJ7" s="25">
-        <v>97.54</v>
+        <v>99.87</v>
       </c>
       <c r="BK7" s="25">
-        <v>97.88</v>
-      </c>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="25"/>
+        <v>99.62</v>
+      </c>
+      <c r="BL7" s="25">
+        <v>97.95</v>
+      </c>
+      <c r="BM7" s="25">
+        <v>97.56</v>
+      </c>
       <c r="BN7" s="25"/>
       <c r="BO7" s="25"/>
       <c r="BP7" s="25"/>
@@ -2086,7 +2072,7 @@
         <v>98.07</v>
       </c>
       <c r="G8" s="25">
-        <v>98.55</v>
+        <v>98.54</v>
       </c>
       <c r="H8" s="25">
         <v>99.46</v>
@@ -2119,7 +2105,7 @@
         <v>87.93</v>
       </c>
       <c r="R8" s="25">
-        <v>87.77</v>
+        <v>87.78</v>
       </c>
       <c r="S8" s="25">
         <v>88.56</v>
@@ -2152,112 +2138,116 @@
         <v>92.87</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.34</v>
+        <v>93.36</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.84</v>
+        <v>93.86</v>
       </c>
       <c r="AE8" s="25">
-        <v>94.05</v>
+        <v>94.08</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.55</v>
+        <v>94.57</v>
       </c>
       <c r="AG8" s="25">
-        <v>94.69</v>
+        <v>94.72</v>
       </c>
       <c r="AH8" s="25">
-        <v>94.48</v>
+        <v>94.51</v>
       </c>
       <c r="AI8" s="25">
-        <v>94.38</v>
+        <v>94.41</v>
       </c>
       <c r="AJ8" s="25">
-        <v>94.42</v>
+        <v>94.45</v>
       </c>
       <c r="AK8" s="25">
-        <v>94.58</v>
+        <v>94.62</v>
       </c>
       <c r="AL8" s="25">
-        <v>94.91</v>
+        <v>94.95</v>
       </c>
       <c r="AM8" s="25">
-        <v>95.46</v>
+        <v>95.5</v>
       </c>
       <c r="AN8" s="25">
-        <v>95.6</v>
+        <v>95.64</v>
       </c>
       <c r="AO8" s="25">
-        <v>95.4</v>
+        <v>95.45</v>
       </c>
       <c r="AP8" s="25">
-        <v>94.56</v>
+        <v>94.62</v>
       </c>
       <c r="AQ8" s="25">
-        <v>94.55</v>
+        <v>94.62</v>
       </c>
       <c r="AR8" s="25">
-        <v>95.54</v>
+        <v>95.61</v>
       </c>
       <c r="AS8" s="25">
-        <v>95.97</v>
+        <v>96.05</v>
       </c>
       <c r="AT8" s="25">
-        <v>96.11</v>
+        <v>96.18</v>
       </c>
       <c r="AU8" s="25">
-        <v>96.49</v>
+        <v>96.58</v>
       </c>
       <c r="AV8" s="25">
-        <v>97.12</v>
+        <v>97.21</v>
       </c>
       <c r="AW8" s="25">
-        <v>97.41</v>
+        <v>97.52</v>
       </c>
       <c r="AX8" s="25">
-        <v>97.75</v>
+        <v>97.86</v>
       </c>
       <c r="AY8" s="25">
-        <v>98.02</v>
+        <v>98.16</v>
       </c>
       <c r="AZ8" s="25">
-        <v>98.01</v>
+        <v>98.14</v>
       </c>
       <c r="BA8" s="25">
-        <v>96.91</v>
+        <v>97.03</v>
       </c>
       <c r="BB8" s="25">
-        <v>92.42</v>
+        <v>92.54</v>
       </c>
       <c r="BC8" s="25">
-        <v>89.83</v>
+        <v>89.95</v>
       </c>
       <c r="BD8" s="25">
-        <v>91.87</v>
+        <v>91.98</v>
       </c>
       <c r="BE8" s="25">
-        <v>94.1</v>
+        <v>94.3</v>
       </c>
       <c r="BF8" s="25">
-        <v>95.09</v>
+        <v>95.39</v>
       </c>
       <c r="BG8" s="25">
-        <v>95.46</v>
+        <v>95.79</v>
       </c>
       <c r="BH8" s="25">
-        <v>96.41</v>
+        <v>96.27</v>
       </c>
       <c r="BI8" s="25">
-        <v>97.04</v>
+        <v>96.78</v>
       </c>
       <c r="BJ8" s="25">
-        <v>96.64</v>
+        <v>97.22</v>
       </c>
       <c r="BK8" s="25">
-        <v>97.34</v>
-      </c>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="25"/>
+        <v>97.68</v>
+      </c>
+      <c r="BL8" s="25">
+        <v>97</v>
+      </c>
+      <c r="BM8" s="25">
+        <v>97.32</v>
+      </c>
       <c r="BN8" s="25"/>
       <c r="BO8" s="25"/>
       <c r="BP8" s="25"/>
@@ -2277,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="25">
         <v>96.2</v>
@@ -2319,7 +2309,7 @@
         <v>97.38</v>
       </c>
       <c r="P9" s="25">
-        <v>95.54</v>
+        <v>95.53</v>
       </c>
       <c r="Q9" s="25">
         <v>94.59</v>
@@ -2334,7 +2324,7 @@
         <v>95.02</v>
       </c>
       <c r="U9" s="25">
-        <v>95.36</v>
+        <v>95.35</v>
       </c>
       <c r="V9" s="25">
         <v>95.6</v>
@@ -2361,109 +2351,113 @@
         <v>96.43</v>
       </c>
       <c r="AD9" s="25">
+        <v>97.63</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>97.49</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>97.72</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AI9" s="25">
+        <v>97.52</v>
+      </c>
+      <c r="AJ9" s="25">
+        <v>97.52</v>
+      </c>
+      <c r="AK9" s="25">
+        <v>97.53</v>
+      </c>
+      <c r="AL9" s="25">
+        <v>97.5</v>
+      </c>
+      <c r="AM9" s="25">
+        <v>97.7</v>
+      </c>
+      <c r="AN9" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AO9" s="25">
         <v>97.61</v>
       </c>
-      <c r="AE9" s="25">
-        <v>97.55</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>97.48</v>
-      </c>
-      <c r="AG9" s="25">
-        <v>97.71</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>97.72</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>97.51</v>
-      </c>
-      <c r="AJ9" s="25">
-        <v>97.51</v>
-      </c>
-      <c r="AK9" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AL9" s="25">
-        <v>97.48</v>
-      </c>
-      <c r="AM9" s="25">
-        <v>97.68</v>
-      </c>
-      <c r="AN9" s="25">
-        <v>97.83</v>
-      </c>
-      <c r="AO9" s="25">
+      <c r="AP9" s="25">
+        <v>96.9</v>
+      </c>
+      <c r="AQ9" s="25">
+        <v>96.99</v>
+      </c>
+      <c r="AR9" s="25">
         <v>97.57</v>
       </c>
-      <c r="AP9" s="25">
-        <v>96.88</v>
-      </c>
-      <c r="AQ9" s="25">
-        <v>96.98</v>
-      </c>
-      <c r="AR9" s="25">
-        <v>97.55</v>
-      </c>
       <c r="AS9" s="25">
-        <v>97.61</v>
+        <v>97.63</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.75</v>
+        <v>97.76</v>
       </c>
       <c r="AU9" s="25">
-        <v>97.95</v>
+        <v>97.97</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.59</v>
+        <v>98.61</v>
       </c>
       <c r="AW9" s="25">
-        <v>98.78</v>
+        <v>98.79</v>
       </c>
       <c r="AX9" s="25">
-        <v>98.92</v>
+        <v>98.94</v>
       </c>
       <c r="AY9" s="25">
-        <v>99.49</v>
+        <v>99.53</v>
       </c>
       <c r="AZ9" s="25">
-        <v>99.49</v>
+        <v>99.54</v>
       </c>
       <c r="BA9" s="25">
-        <v>98.99</v>
+        <v>99.05</v>
       </c>
       <c r="BB9" s="25">
-        <v>96.51</v>
+        <v>96.55</v>
       </c>
       <c r="BC9" s="25">
-        <v>94.39</v>
+        <v>94.4</v>
       </c>
       <c r="BD9" s="25">
-        <v>94.59</v>
+        <v>94.57</v>
       </c>
       <c r="BE9" s="25">
-        <v>95.7</v>
+        <v>95.67</v>
       </c>
       <c r="BF9" s="25">
-        <v>96.16</v>
+        <v>96.17</v>
       </c>
       <c r="BG9" s="25">
         <v>96.61</v>
       </c>
       <c r="BH9" s="25">
-        <v>97.25</v>
+        <v>96.71</v>
       </c>
       <c r="BI9" s="25">
-        <v>98.29</v>
+        <v>97.49</v>
       </c>
       <c r="BJ9" s="25">
-        <v>98.43</v>
+        <v>98.09</v>
       </c>
       <c r="BK9" s="25">
-        <v>99.44</v>
-      </c>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
+        <v>98.76</v>
+      </c>
+      <c r="BL9" s="25">
+        <v>98.89</v>
+      </c>
+      <c r="BM9" s="25">
+        <v>100.4</v>
+      </c>
       <c r="BN9" s="25"/>
       <c r="BO9" s="25"/>
       <c r="BP9" s="25"/>
@@ -2483,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="25">
         <v>87.08</v>
@@ -2522,154 +2516,158 @@
         <v>98.76</v>
       </c>
       <c r="O10" s="25">
-        <v>94.01</v>
+        <v>94</v>
       </c>
       <c r="P10" s="25">
-        <v>90.74</v>
+        <v>90.75</v>
       </c>
       <c r="Q10" s="25">
-        <v>88.92</v>
+        <v>88.93</v>
       </c>
       <c r="R10" s="25">
-        <v>88.66</v>
+        <v>88.67</v>
       </c>
       <c r="S10" s="25">
         <v>89.31</v>
       </c>
       <c r="T10" s="25">
-        <v>90.5</v>
+        <v>90.51</v>
       </c>
       <c r="U10" s="25">
-        <v>92.13</v>
+        <v>92.14</v>
       </c>
       <c r="V10" s="25">
-        <v>94.03</v>
+        <v>94.04</v>
       </c>
       <c r="W10" s="25">
         <v>94.59</v>
       </c>
       <c r="X10" s="25">
-        <v>95.16</v>
+        <v>95.17</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.54</v>
+        <v>96.55</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.23</v>
+        <v>96.24</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.56</v>
+        <v>96.57</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.45</v>
+        <v>97.47</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.19</v>
+        <v>100.3</v>
       </c>
       <c r="AD10" s="25">
-        <v>101.36</v>
+        <v>101.52</v>
       </c>
       <c r="AE10" s="25">
-        <v>101.6</v>
+        <v>101.76</v>
       </c>
       <c r="AF10" s="25">
-        <v>102.15</v>
+        <v>102.32</v>
       </c>
       <c r="AG10" s="25">
-        <v>102.3</v>
+        <v>102.47</v>
       </c>
       <c r="AH10" s="25">
-        <v>102.58</v>
+        <v>102.75</v>
       </c>
       <c r="AI10" s="25">
-        <v>102.82</v>
+        <v>102.99</v>
       </c>
       <c r="AJ10" s="25">
-        <v>103.1</v>
+        <v>103.28</v>
       </c>
       <c r="AK10" s="25">
-        <v>103.28</v>
+        <v>103.46</v>
       </c>
       <c r="AL10" s="25">
-        <v>103.68</v>
+        <v>103.87</v>
       </c>
       <c r="AM10" s="25">
-        <v>104.22</v>
+        <v>104.43</v>
       </c>
       <c r="AN10" s="25">
-        <v>104.27</v>
+        <v>104.49</v>
       </c>
       <c r="AO10" s="25">
-        <v>104.15</v>
+        <v>104.38</v>
       </c>
       <c r="AP10" s="25">
-        <v>102.26</v>
+        <v>102.57</v>
       </c>
       <c r="AQ10" s="25">
-        <v>101.49</v>
+        <v>101.88</v>
       </c>
       <c r="AR10" s="25">
-        <v>102.33</v>
+        <v>102.74</v>
       </c>
       <c r="AS10" s="25">
-        <v>102.67</v>
+        <v>103.11</v>
       </c>
       <c r="AT10" s="25">
-        <v>102.65</v>
+        <v>103.09</v>
       </c>
       <c r="AU10" s="25">
-        <v>103.13</v>
+        <v>103.6</v>
       </c>
       <c r="AV10" s="25">
-        <v>103.98</v>
+        <v>104.49</v>
       </c>
       <c r="AW10" s="25">
-        <v>104.55</v>
+        <v>105.05</v>
       </c>
       <c r="AX10" s="25">
-        <v>104.66</v>
+        <v>105.18</v>
       </c>
       <c r="AY10" s="25">
-        <v>104.53</v>
+        <v>105.12</v>
       </c>
       <c r="AZ10" s="25">
-        <v>104.29</v>
+        <v>104.79</v>
       </c>
       <c r="BA10" s="25">
-        <v>102.96</v>
+        <v>103.21</v>
       </c>
       <c r="BB10" s="25">
-        <v>97.31</v>
+        <v>97.43</v>
       </c>
       <c r="BC10" s="25">
-        <v>92.37</v>
+        <v>92.55</v>
       </c>
       <c r="BD10" s="25">
-        <v>94.33</v>
+        <v>94.67</v>
       </c>
       <c r="BE10" s="25">
-        <v>97.37</v>
+        <v>98.08</v>
       </c>
       <c r="BF10" s="25">
-        <v>98.24</v>
+        <v>99.38</v>
       </c>
       <c r="BG10" s="25">
-        <v>98.07</v>
+        <v>99.4</v>
       </c>
       <c r="BH10" s="25">
-        <v>97.46</v>
+        <v>98.81</v>
       </c>
       <c r="BI10" s="25">
-        <v>97.51</v>
+        <v>99.02</v>
       </c>
       <c r="BJ10" s="25">
-        <v>96.09</v>
+        <v>98.76</v>
       </c>
       <c r="BK10" s="25">
-        <v>96.4</v>
-      </c>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="25"/>
+        <v>98.12</v>
+      </c>
+      <c r="BL10" s="25">
+        <v>96.29</v>
+      </c>
+      <c r="BM10" s="25">
+        <v>95.84</v>
+      </c>
       <c r="BN10" s="25"/>
       <c r="BO10" s="25"/>
       <c r="BP10" s="25"/>
@@ -2692,7 +2690,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="25">
-        <v>92.33</v>
+        <v>92.32</v>
       </c>
       <c r="D11" s="25">
         <v>95.76</v>
@@ -2701,13 +2699,13 @@
         <v>97.61</v>
       </c>
       <c r="F11" s="25">
-        <v>98.34</v>
+        <v>98.33</v>
       </c>
       <c r="G11" s="25">
-        <v>98.85</v>
+        <v>98.84</v>
       </c>
       <c r="H11" s="25">
-        <v>99.56</v>
+        <v>99.55</v>
       </c>
       <c r="I11" s="25">
         <v>99.76</v>
@@ -2734,7 +2732,7 @@
         <v>89</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.59</v>
+        <v>87.6</v>
       </c>
       <c r="R11" s="25">
         <v>87.68</v>
@@ -2770,112 +2768,116 @@
         <v>92.81</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.37</v>
+        <v>93.38</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.44</v>
+        <v>94.46</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.92</v>
+        <v>94.93</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.3</v>
+        <v>95.32</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.43</v>
+        <v>95.45</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.46</v>
+        <v>95.48</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.6</v>
+        <v>95.62</v>
       </c>
       <c r="AJ11" s="25">
-        <v>95.86</v>
+        <v>95.89</v>
       </c>
       <c r="AK11" s="25">
-        <v>96.06</v>
+        <v>96.1</v>
       </c>
       <c r="AL11" s="25">
-        <v>96.24</v>
+        <v>96.28</v>
       </c>
       <c r="AM11" s="25">
-        <v>96.51</v>
+        <v>96.55</v>
       </c>
       <c r="AN11" s="25">
-        <v>96.61</v>
+        <v>96.64</v>
       </c>
       <c r="AO11" s="25">
-        <v>96.61</v>
+        <v>96.66</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.76</v>
+        <v>95.81</v>
       </c>
       <c r="AQ11" s="25">
-        <v>95.39</v>
+        <v>95.44</v>
       </c>
       <c r="AR11" s="25">
-        <v>96.27</v>
+        <v>96.31</v>
       </c>
       <c r="AS11" s="25">
-        <v>96.64</v>
+        <v>96.7</v>
       </c>
       <c r="AT11" s="25">
-        <v>96.44</v>
+        <v>96.5</v>
       </c>
       <c r="AU11" s="25">
-        <v>96.68</v>
+        <v>96.76</v>
       </c>
       <c r="AV11" s="25">
-        <v>97.25</v>
+        <v>97.33</v>
       </c>
       <c r="AW11" s="25">
-        <v>97.74</v>
+        <v>97.83</v>
       </c>
       <c r="AX11" s="25">
-        <v>97.89</v>
+        <v>97.98</v>
       </c>
       <c r="AY11" s="25">
-        <v>97.91</v>
+        <v>98.02</v>
       </c>
       <c r="AZ11" s="25">
-        <v>97.82</v>
+        <v>97.94</v>
       </c>
       <c r="BA11" s="25">
-        <v>96.8</v>
+        <v>96.91</v>
       </c>
       <c r="BB11" s="25">
-        <v>92.27</v>
+        <v>92.34</v>
       </c>
       <c r="BC11" s="25">
-        <v>89.49</v>
+        <v>89.55</v>
       </c>
       <c r="BD11" s="25">
-        <v>91.9</v>
+        <v>91.97</v>
       </c>
       <c r="BE11" s="25">
-        <v>94.15</v>
+        <v>94.28</v>
       </c>
       <c r="BF11" s="25">
-        <v>95.21</v>
+        <v>95.47</v>
       </c>
       <c r="BG11" s="25">
-        <v>95.57</v>
+        <v>95.9</v>
       </c>
       <c r="BH11" s="25">
-        <v>96.47</v>
+        <v>96.52</v>
       </c>
       <c r="BI11" s="25">
-        <v>96.9</v>
+        <v>96.89</v>
       </c>
       <c r="BJ11" s="25">
-        <v>96.37</v>
+        <v>97.02</v>
       </c>
       <c r="BK11" s="25">
-        <v>97.26</v>
-      </c>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="25"/>
+        <v>97.31</v>
+      </c>
+      <c r="BL11" s="25">
+        <v>96.48</v>
+      </c>
+      <c r="BM11" s="25">
+        <v>96.74</v>
+      </c>
       <c r="BN11" s="25"/>
       <c r="BO11" s="25"/>
       <c r="BP11" s="25"/>
@@ -2895,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="25">
         <v>96.32</v>
@@ -2943,7 +2945,7 @@
         <v>95.05</v>
       </c>
       <c r="R12" s="25">
-        <v>94.76</v>
+        <v>94.75</v>
       </c>
       <c r="S12" s="25">
         <v>94.83</v>
@@ -2979,10 +2981,10 @@
         <v>97.06</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.17</v>
+        <v>98.18</v>
       </c>
       <c r="AE12" s="25">
-        <v>97.99</v>
+        <v>98</v>
       </c>
       <c r="AF12" s="25">
         <v>98.04</v>
@@ -2991,97 +2993,101 @@
         <v>98.56</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.67</v>
+        <v>98.68</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.62</v>
+        <v>98.63</v>
       </c>
       <c r="AJ12" s="25">
         <v>98.55</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.69</v>
+        <v>98.7</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.49</v>
+        <v>98.5</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.69</v>
+        <v>98.7</v>
       </c>
       <c r="AN12" s="25">
-        <v>98.93</v>
+        <v>98.94</v>
       </c>
       <c r="AO12" s="25">
-        <v>98.82</v>
+        <v>98.83</v>
       </c>
       <c r="AP12" s="25">
-        <v>97.87</v>
+        <v>97.89</v>
       </c>
       <c r="AQ12" s="25">
-        <v>97.68</v>
+        <v>97.69</v>
       </c>
       <c r="AR12" s="25">
-        <v>98.64</v>
+        <v>98.65</v>
       </c>
       <c r="AS12" s="25">
-        <v>98.69</v>
+        <v>98.7</v>
       </c>
       <c r="AT12" s="25">
-        <v>98.55</v>
+        <v>98.56</v>
       </c>
       <c r="AU12" s="25">
-        <v>98.58</v>
+        <v>98.59</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.09</v>
+        <v>99.1</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.48</v>
+        <v>99.5</v>
       </c>
       <c r="AX12" s="25">
-        <v>99.72</v>
+        <v>99.74</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.28</v>
+        <v>100.31</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.29</v>
+        <v>100.31</v>
       </c>
       <c r="BA12" s="25">
-        <v>99.97</v>
+        <v>99.99</v>
       </c>
       <c r="BB12" s="25">
-        <v>97.71</v>
+        <v>97.72</v>
       </c>
       <c r="BC12" s="25">
-        <v>94.99</v>
+        <v>94.98</v>
       </c>
       <c r="BD12" s="25">
-        <v>95.24</v>
+        <v>95.19</v>
       </c>
       <c r="BE12" s="25">
-        <v>96.44</v>
+        <v>96.37</v>
       </c>
       <c r="BF12" s="25">
-        <v>96.81</v>
+        <v>96.74</v>
       </c>
       <c r="BG12" s="25">
-        <v>97.23</v>
+        <v>97.15</v>
       </c>
       <c r="BH12" s="25">
-        <v>97.74</v>
+        <v>97.07</v>
       </c>
       <c r="BI12" s="25">
-        <v>98.84</v>
+        <v>98</v>
       </c>
       <c r="BJ12" s="25">
-        <v>98.82</v>
+        <v>98.47</v>
       </c>
       <c r="BK12" s="25">
-        <v>99.96</v>
-      </c>
-      <c r="BL12" s="25"/>
-      <c r="BM12" s="25"/>
+        <v>99.23</v>
+      </c>
+      <c r="BL12" s="25">
+        <v>99.3</v>
+      </c>
+      <c r="BM12" s="25">
+        <v>101.02</v>
+      </c>
       <c r="BN12" s="25"/>
       <c r="BO12" s="25"/>
       <c r="BP12" s="25"/>
@@ -3101,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="25">
         <v>87.37</v>
@@ -3110,10 +3116,10 @@
         <v>90.86</v>
       </c>
       <c r="E13" s="25">
-        <v>93.69</v>
+        <v>93.68</v>
       </c>
       <c r="F13" s="25">
-        <v>95.16</v>
+        <v>95.15</v>
       </c>
       <c r="G13" s="25">
         <v>96.03</v>
@@ -3143,151 +3149,155 @@
         <v>93.62</v>
       </c>
       <c r="P13" s="25">
-        <v>90.21</v>
+        <v>90.22</v>
       </c>
       <c r="Q13" s="25">
-        <v>88.52</v>
+        <v>88.53</v>
       </c>
       <c r="R13" s="25">
-        <v>88.31</v>
+        <v>88.33</v>
       </c>
       <c r="S13" s="25">
-        <v>89.09</v>
+        <v>89.1</v>
       </c>
       <c r="T13" s="25">
-        <v>90.27</v>
+        <v>90.28</v>
       </c>
       <c r="U13" s="25">
-        <v>91.32</v>
+        <v>91.33</v>
       </c>
       <c r="V13" s="25">
-        <v>91.97</v>
+        <v>91.98</v>
       </c>
       <c r="W13" s="25">
-        <v>92.4</v>
+        <v>92.42</v>
       </c>
       <c r="X13" s="25">
-        <v>93.01</v>
+        <v>93.02</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.41</v>
+        <v>94.42</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.17</v>
+        <v>95.19</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.75</v>
+        <v>95.77</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.59</v>
+        <v>96.62</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.54</v>
+        <v>98.62</v>
       </c>
       <c r="AD13" s="25">
-        <v>98.69</v>
+        <v>98.8</v>
       </c>
       <c r="AE13" s="25">
-        <v>98.34</v>
+        <v>98.45</v>
       </c>
       <c r="AF13" s="25">
-        <v>98.47</v>
+        <v>98.58</v>
       </c>
       <c r="AG13" s="25">
-        <v>98.3</v>
+        <v>98.41</v>
       </c>
       <c r="AH13" s="25">
-        <v>97.49</v>
+        <v>97.61</v>
       </c>
       <c r="AI13" s="25">
-        <v>96.84</v>
+        <v>96.96</v>
       </c>
       <c r="AJ13" s="25">
-        <v>96.47</v>
+        <v>96.6</v>
       </c>
       <c r="AK13" s="25">
-        <v>96.74</v>
+        <v>96.87</v>
       </c>
       <c r="AL13" s="25">
-        <v>96.92</v>
+        <v>97.06</v>
       </c>
       <c r="AM13" s="25">
-        <v>97.36</v>
+        <v>97.51</v>
       </c>
       <c r="AN13" s="25">
-        <v>97.54</v>
+        <v>97.69</v>
       </c>
       <c r="AO13" s="25">
-        <v>97.51</v>
+        <v>97.68</v>
       </c>
       <c r="AP13" s="25">
-        <v>96.7</v>
+        <v>96.91</v>
       </c>
       <c r="AQ13" s="25">
-        <v>96.76</v>
+        <v>97.02</v>
       </c>
       <c r="AR13" s="25">
-        <v>97.48</v>
+        <v>97.76</v>
       </c>
       <c r="AS13" s="25">
-        <v>97.87</v>
+        <v>98.16</v>
       </c>
       <c r="AT13" s="25">
-        <v>98.86</v>
+        <v>99.17</v>
       </c>
       <c r="AU13" s="25">
-        <v>99.75</v>
+        <v>100.11</v>
       </c>
       <c r="AV13" s="25">
-        <v>100.87</v>
+        <v>101.26</v>
       </c>
       <c r="AW13" s="25">
-        <v>101.62</v>
+        <v>102.02</v>
       </c>
       <c r="AX13" s="25">
-        <v>102.28</v>
+        <v>102.72</v>
       </c>
       <c r="AY13" s="25">
-        <v>102.69</v>
+        <v>103.2</v>
       </c>
       <c r="AZ13" s="25">
-        <v>102.99</v>
+        <v>103.51</v>
       </c>
       <c r="BA13" s="25">
-        <v>102.24</v>
+        <v>102.75</v>
       </c>
       <c r="BB13" s="25">
-        <v>97.61</v>
+        <v>98.09</v>
       </c>
       <c r="BC13" s="25">
-        <v>93.26</v>
+        <v>93.79</v>
       </c>
       <c r="BD13" s="25">
-        <v>93.83</v>
+        <v>94.47</v>
       </c>
       <c r="BE13" s="25">
-        <v>96.5</v>
+        <v>97.28</v>
       </c>
       <c r="BF13" s="25">
-        <v>97.64</v>
+        <v>98.64</v>
       </c>
       <c r="BG13" s="25">
-        <v>97.56</v>
+        <v>98.8</v>
       </c>
       <c r="BH13" s="25">
-        <v>97.46</v>
+        <v>98.56</v>
       </c>
       <c r="BI13" s="25">
-        <v>97.08</v>
+        <v>98.24</v>
       </c>
       <c r="BJ13" s="25">
-        <v>95.81</v>
+        <v>98.31</v>
       </c>
       <c r="BK13" s="25">
-        <v>96.18</v>
-      </c>
-      <c r="BL13" s="25"/>
-      <c r="BM13" s="25"/>
+        <v>98.46</v>
+      </c>
+      <c r="BL13" s="25">
+        <v>96.64</v>
+      </c>
+      <c r="BM13" s="25">
+        <v>95.96</v>
+      </c>
       <c r="BN13" s="25"/>
       <c r="BO13" s="25"/>
       <c r="BP13" s="25"/>
@@ -3316,13 +3326,13 @@
         <v>93.71</v>
       </c>
       <c r="E14" s="25">
-        <v>96.04</v>
+        <v>96.03</v>
       </c>
       <c r="F14" s="25">
-        <v>97.11</v>
+        <v>97.1</v>
       </c>
       <c r="G14" s="25">
-        <v>97.81</v>
+        <v>97.8</v>
       </c>
       <c r="H14" s="25">
         <v>99.35</v>
@@ -3346,7 +3356,7 @@
         <v>98.31</v>
       </c>
       <c r="O14" s="25">
-        <v>93.07</v>
+        <v>93.08</v>
       </c>
       <c r="P14" s="25">
         <v>89.53</v>
@@ -3355,22 +3365,22 @@
         <v>88.2</v>
       </c>
       <c r="R14" s="25">
-        <v>87.58</v>
+        <v>87.59</v>
       </c>
       <c r="S14" s="25">
-        <v>88.29</v>
+        <v>88.3</v>
       </c>
       <c r="T14" s="25">
-        <v>89.11</v>
+        <v>89.12</v>
       </c>
       <c r="U14" s="25">
-        <v>89.39</v>
+        <v>89.4</v>
       </c>
       <c r="V14" s="25">
         <v>89.94</v>
       </c>
       <c r="W14" s="25">
-        <v>90.16</v>
+        <v>90.17</v>
       </c>
       <c r="X14" s="25">
         <v>90.7</v>
@@ -3379,121 +3389,125 @@
         <v>91.28</v>
       </c>
       <c r="Z14" s="25">
+        <v>92.06</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>92.15</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>91.84</v>
+      </c>
+      <c r="AC14" s="25">
         <v>92.05</v>
       </c>
-      <c r="AA14" s="25">
-        <v>92.14</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>91.83</v>
-      </c>
-      <c r="AC14" s="25">
-        <v>92.03</v>
-      </c>
       <c r="AD14" s="25">
-        <v>91</v>
+        <v>91.05</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.54</v>
+        <v>90.59</v>
       </c>
       <c r="AF14" s="25">
-        <v>91.31</v>
+        <v>91.35</v>
       </c>
       <c r="AG14" s="25">
-        <v>91.31</v>
+        <v>91.37</v>
       </c>
       <c r="AH14" s="25">
-        <v>90.25</v>
+        <v>90.32</v>
       </c>
       <c r="AI14" s="25">
-        <v>89.45</v>
+        <v>89.51</v>
       </c>
       <c r="AJ14" s="25">
-        <v>89.01</v>
+        <v>89.06</v>
       </c>
       <c r="AK14" s="25">
-        <v>89.17</v>
+        <v>89.22</v>
       </c>
       <c r="AL14" s="25">
-        <v>89.67</v>
+        <v>89.73</v>
       </c>
       <c r="AM14" s="25">
-        <v>90.36</v>
+        <v>90.42</v>
       </c>
       <c r="AN14" s="25">
-        <v>90.64</v>
+        <v>90.71</v>
       </c>
       <c r="AO14" s="25">
-        <v>90.5</v>
+        <v>90.57</v>
       </c>
       <c r="AP14" s="25">
+        <v>89.7</v>
+      </c>
+      <c r="AQ14" s="25">
+        <v>89.83</v>
+      </c>
+      <c r="AR14" s="25">
+        <v>91.23</v>
+      </c>
+      <c r="AS14" s="25">
+        <v>91.89</v>
+      </c>
+      <c r="AT14" s="25">
+        <v>92.72</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>93.42</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>94.51</v>
+      </c>
+      <c r="AW14" s="25">
+        <v>94.86</v>
+      </c>
+      <c r="AX14" s="25">
+        <v>95.66</v>
+      </c>
+      <c r="AY14" s="25">
+        <v>96.04</v>
+      </c>
+      <c r="AZ14" s="25">
+        <v>96.38</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>95.58</v>
+      </c>
+      <c r="BB14" s="25">
+        <v>91.12</v>
+      </c>
+      <c r="BC14" s="25">
+        <v>88.66</v>
+      </c>
+      <c r="BD14" s="25">
         <v>89.63</v>
       </c>
-      <c r="AQ14" s="25">
-        <v>89.76</v>
-      </c>
-      <c r="AR14" s="25">
-        <v>91.16</v>
-      </c>
-      <c r="AS14" s="25">
-        <v>91.82</v>
-      </c>
-      <c r="AT14" s="25">
-        <v>92.64</v>
-      </c>
-      <c r="AU14" s="25">
-        <v>93.34</v>
-      </c>
-      <c r="AV14" s="25">
-        <v>94.42</v>
-      </c>
-      <c r="AW14" s="25">
-        <v>94.76</v>
-      </c>
-      <c r="AX14" s="25">
-        <v>95.53</v>
-      </c>
-      <c r="AY14" s="25">
-        <v>95.9</v>
-      </c>
-      <c r="AZ14" s="25">
-        <v>96.25</v>
-      </c>
-      <c r="BA14" s="25">
-        <v>95.44</v>
-      </c>
-      <c r="BB14" s="25">
-        <v>90.98</v>
-      </c>
-      <c r="BC14" s="25">
-        <v>88.51</v>
-      </c>
-      <c r="BD14" s="25">
-        <v>89.52</v>
-      </c>
       <c r="BE14" s="25">
-        <v>91.75</v>
+        <v>91.93</v>
       </c>
       <c r="BF14" s="25">
-        <v>92.84</v>
+        <v>93.11</v>
       </c>
       <c r="BG14" s="25">
-        <v>93.41</v>
+        <v>93.69</v>
       </c>
       <c r="BH14" s="25">
-        <v>95</v>
+        <v>94.79</v>
       </c>
       <c r="BI14" s="25">
-        <v>95.44</v>
+        <v>95.02</v>
       </c>
       <c r="BJ14" s="25">
-        <v>95.01</v>
+        <v>95.61</v>
       </c>
       <c r="BK14" s="25">
-        <v>95.7</v>
-      </c>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="25"/>
+        <v>96.3</v>
+      </c>
+      <c r="BL14" s="25">
+        <v>95.71</v>
+      </c>
+      <c r="BM14" s="25">
+        <v>96.03</v>
+      </c>
       <c r="BN14" s="25"/>
       <c r="BO14" s="25"/>
       <c r="BP14" s="25"/>
@@ -3513,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" s="25">
         <v>95.97</v>
@@ -3540,7 +3554,7 @@
         <v>99.41</v>
       </c>
       <c r="K15" s="25">
-        <v>99.6</v>
+        <v>99.59</v>
       </c>
       <c r="L15" s="25">
         <v>99.63</v>
@@ -3561,7 +3575,7 @@
         <v>94.1</v>
       </c>
       <c r="R15" s="25">
-        <v>94.49</v>
+        <v>94.48</v>
       </c>
       <c r="S15" s="25">
         <v>95.17</v>
@@ -3579,10 +3593,10 @@
         <v>94.59</v>
       </c>
       <c r="X15" s="25">
-        <v>95.34</v>
+        <v>95.35</v>
       </c>
       <c r="Y15" s="25">
-        <v>96.27</v>
+        <v>96.28</v>
       </c>
       <c r="Z15" s="25">
         <v>97.58</v>
@@ -3597,16 +3611,16 @@
         <v>95.54</v>
       </c>
       <c r="AD15" s="25">
-        <v>96.83</v>
+        <v>96.84</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.89</v>
+        <v>96.9</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.21</v>
+        <v>96.22</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.31</v>
+        <v>96.32</v>
       </c>
       <c r="AH15" s="25">
         <v>95.93</v>
@@ -3615,91 +3629,95 @@
         <v>95.35</v>
       </c>
       <c r="AJ15" s="25">
-        <v>95.15</v>
+        <v>95.16</v>
       </c>
       <c r="AK15" s="25">
-        <v>95.31</v>
+        <v>95.32</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.31</v>
+        <v>95.32</v>
       </c>
       <c r="AM15" s="25">
-        <v>95.37</v>
+        <v>95.39</v>
       </c>
       <c r="AN15" s="25">
-        <v>95.29</v>
+        <v>95.41</v>
       </c>
       <c r="AO15" s="25">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.61</v>
+        <v>94.63</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.2</v>
+        <v>95.22</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.2</v>
+        <v>95.21</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.34</v>
+        <v>95.35</v>
       </c>
       <c r="AT15" s="25">
-        <v>96.31</v>
+        <v>96.33</v>
       </c>
       <c r="AU15" s="25">
-        <v>96.63</v>
+        <v>96.64</v>
       </c>
       <c r="AV15" s="25">
-        <v>97.3</v>
+        <v>97.31</v>
       </c>
       <c r="AW15" s="25">
-        <v>97.54</v>
+        <v>97.55</v>
       </c>
       <c r="AX15" s="25">
-        <v>97.88</v>
+        <v>97.89</v>
       </c>
       <c r="AY15" s="25">
-        <v>98.63</v>
+        <v>98.66</v>
       </c>
       <c r="AZ15" s="25">
-        <v>98.49</v>
+        <v>98.52</v>
       </c>
       <c r="BA15" s="25">
-        <v>98.1</v>
+        <v>98.15</v>
       </c>
       <c r="BB15" s="25">
-        <v>95.91</v>
+        <v>95.94</v>
       </c>
       <c r="BC15" s="25">
         <v>94.31</v>
       </c>
       <c r="BD15" s="25">
-        <v>94.29</v>
+        <v>94.25</v>
       </c>
       <c r="BE15" s="25">
-        <v>95.32</v>
+        <v>95.26</v>
       </c>
       <c r="BF15" s="25">
-        <v>95.94</v>
+        <v>95.89</v>
       </c>
       <c r="BG15" s="25">
-        <v>96.5</v>
+        <v>96.46</v>
       </c>
       <c r="BH15" s="25">
-        <v>97.42</v>
+        <v>96.95</v>
       </c>
       <c r="BI15" s="25">
-        <v>98.21</v>
+        <v>97.56</v>
       </c>
       <c r="BJ15" s="25">
-        <v>98.42</v>
+        <v>98.24</v>
       </c>
       <c r="BK15" s="25">
-        <v>99.33</v>
-      </c>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="25"/>
+        <v>98.97</v>
+      </c>
+      <c r="BL15" s="25">
+        <v>99.04</v>
+      </c>
+      <c r="BM15" s="25">
+        <v>100.28</v>
+      </c>
       <c r="BN15" s="25"/>
       <c r="BO15" s="25"/>
       <c r="BP15" s="25"/>
@@ -3719,7 +3737,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="25">
         <v>86.24</v>
@@ -3728,7 +3746,7 @@
         <v>92.53</v>
       </c>
       <c r="E16" s="25">
-        <v>95.4</v>
+        <v>95.39</v>
       </c>
       <c r="F16" s="25">
         <v>96.4</v>
@@ -3740,7 +3758,7 @@
         <v>97.76</v>
       </c>
       <c r="I16" s="25">
-        <v>98.1</v>
+        <v>98.11</v>
       </c>
       <c r="J16" s="25">
         <v>98.68</v>
@@ -3758,7 +3776,7 @@
         <v>98.95</v>
       </c>
       <c r="O16" s="25">
-        <v>94.18</v>
+        <v>94.17</v>
       </c>
       <c r="P16" s="25">
         <v>90.79</v>
@@ -3776,136 +3794,140 @@
         <v>90.82</v>
       </c>
       <c r="U16" s="25">
-        <v>92.1</v>
+        <v>92.11</v>
       </c>
       <c r="V16" s="25">
-        <v>93.11</v>
+        <v>93.12</v>
       </c>
       <c r="W16" s="25">
-        <v>93.78</v>
+        <v>93.79</v>
       </c>
       <c r="X16" s="25">
-        <v>94.03</v>
+        <v>94.04</v>
       </c>
       <c r="Y16" s="25">
-        <v>95.2</v>
+        <v>95.22</v>
       </c>
       <c r="Z16" s="25">
-        <v>96.05</v>
+        <v>96.06</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.75</v>
+        <v>96.77</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.87</v>
+        <v>97.9</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.86</v>
+        <v>99.94</v>
       </c>
       <c r="AD16" s="25">
+        <v>101.02</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>101.68</v>
+      </c>
+      <c r="AF16" s="25">
+        <v>102.13</v>
+      </c>
+      <c r="AG16" s="25">
+        <v>102.46</v>
+      </c>
+      <c r="AH16" s="25">
+        <v>102.86</v>
+      </c>
+      <c r="AI16" s="25">
+        <v>103.02</v>
+      </c>
+      <c r="AJ16" s="25">
+        <v>103.39</v>
+      </c>
+      <c r="AK16" s="25">
+        <v>103.62</v>
+      </c>
+      <c r="AL16" s="25">
+        <v>103.8</v>
+      </c>
+      <c r="AM16" s="25">
+        <v>104.63</v>
+      </c>
+      <c r="AN16" s="25">
+        <v>104.66</v>
+      </c>
+      <c r="AO16" s="25">
+        <v>104.06</v>
+      </c>
+      <c r="AP16" s="25">
+        <v>102.87</v>
+      </c>
+      <c r="AQ16" s="25">
+        <v>103.02</v>
+      </c>
+      <c r="AR16" s="25">
+        <v>103.52</v>
+      </c>
+      <c r="AS16" s="25">
+        <v>103.81</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>103.94</v>
+      </c>
+      <c r="AU16" s="25">
+        <v>104.18</v>
+      </c>
+      <c r="AV16" s="25">
+        <v>104.67</v>
+      </c>
+      <c r="AW16" s="25">
+        <v>104.91</v>
+      </c>
+      <c r="AX16" s="25">
+        <v>105.11</v>
+      </c>
+      <c r="AY16" s="25">
+        <v>105.36</v>
+      </c>
+      <c r="AZ16" s="25">
+        <v>105.19</v>
+      </c>
+      <c r="BA16" s="25">
+        <v>103.53</v>
+      </c>
+      <c r="BB16" s="25">
+        <v>97.01</v>
+      </c>
+      <c r="BC16" s="25">
+        <v>91.83</v>
+      </c>
+      <c r="BD16" s="25">
+        <v>95.44</v>
+      </c>
+      <c r="BE16" s="25">
+        <v>99.59</v>
+      </c>
+      <c r="BF16" s="25">
+        <v>101.11</v>
+      </c>
+      <c r="BG16" s="25">
+        <v>101.23</v>
+      </c>
+      <c r="BH16" s="25">
         <v>100.9</v>
       </c>
-      <c r="AE16" s="25">
-        <v>101.55</v>
-      </c>
-      <c r="AF16" s="25">
-        <v>102</v>
-      </c>
-      <c r="AG16" s="25">
-        <v>102.33</v>
-      </c>
-      <c r="AH16" s="25">
-        <v>102.73</v>
-      </c>
-      <c r="AI16" s="25">
-        <v>102.88</v>
-      </c>
-      <c r="AJ16" s="25">
-        <v>103.26</v>
-      </c>
-      <c r="AK16" s="25">
-        <v>103.49</v>
-      </c>
-      <c r="AL16" s="25">
-        <v>103.65</v>
-      </c>
-      <c r="AM16" s="25">
-        <v>104.47</v>
-      </c>
-      <c r="AN16" s="25">
-        <v>104.5</v>
-      </c>
-      <c r="AO16" s="25">
-        <v>103.88</v>
-      </c>
-      <c r="AP16" s="25">
-        <v>102.65</v>
-      </c>
-      <c r="AQ16" s="25">
-        <v>102.77</v>
-      </c>
-      <c r="AR16" s="25">
-        <v>103.26</v>
-      </c>
-      <c r="AS16" s="25">
-        <v>103.54</v>
-      </c>
-      <c r="AT16" s="25">
-        <v>103.65</v>
-      </c>
-      <c r="AU16" s="25">
-        <v>103.86</v>
-      </c>
-      <c r="AV16" s="25">
-        <v>104.34</v>
-      </c>
-      <c r="AW16" s="25">
-        <v>104.56</v>
-      </c>
-      <c r="AX16" s="25">
-        <v>104.73</v>
-      </c>
-      <c r="AY16" s="25">
-        <v>104.94</v>
-      </c>
-      <c r="AZ16" s="25">
-        <v>104.75</v>
-      </c>
-      <c r="BA16" s="25">
-        <v>103.09</v>
-      </c>
-      <c r="BB16" s="25">
-        <v>96.58</v>
-      </c>
-      <c r="BC16" s="25">
-        <v>91.37</v>
-      </c>
-      <c r="BD16" s="25">
-        <v>94.91</v>
-      </c>
-      <c r="BE16" s="25">
-        <v>98.92</v>
-      </c>
-      <c r="BF16" s="25">
-        <v>100.24</v>
-      </c>
-      <c r="BG16" s="25">
-        <v>100.16</v>
-      </c>
-      <c r="BH16" s="25">
-        <v>99.99</v>
-      </c>
       <c r="BI16" s="25">
-        <v>100.06</v>
+        <v>101.05</v>
       </c>
       <c r="BJ16" s="25">
-        <v>99.1</v>
+        <v>101.1</v>
       </c>
       <c r="BK16" s="25">
-        <v>99.73</v>
-      </c>
-      <c r="BL16" s="25"/>
-      <c r="BM16" s="25"/>
+        <v>100.69</v>
+      </c>
+      <c r="BL16" s="25">
+        <v>99.15</v>
+      </c>
+      <c r="BM16" s="25">
+        <v>99.14</v>
+      </c>
       <c r="BN16" s="25"/>
       <c r="BO16" s="25"/>
       <c r="BP16" s="25"/>
@@ -3928,40 +3950,40 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.67</v>
+        <v>91.68</v>
       </c>
       <c r="D17" s="25">
-        <v>96.16</v>
+        <v>96.17</v>
       </c>
       <c r="E17" s="25">
         <v>98.15</v>
       </c>
       <c r="F17" s="25">
-        <v>98.78</v>
+        <v>98.79</v>
       </c>
       <c r="G17" s="25">
         <v>99.06</v>
       </c>
       <c r="H17" s="25">
-        <v>99.29</v>
+        <v>99.3</v>
       </c>
       <c r="I17" s="25">
-        <v>99.82</v>
+        <v>99.83</v>
       </c>
       <c r="J17" s="25">
-        <v>99.96</v>
+        <v>99.97</v>
       </c>
       <c r="K17" s="25">
-        <v>100.33</v>
+        <v>100.34</v>
       </c>
       <c r="L17" s="25">
-        <v>100.25</v>
+        <v>100.26</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
       </c>
       <c r="N17" s="25">
-        <v>98.38</v>
+        <v>98.39</v>
       </c>
       <c r="O17" s="25">
         <v>92.83</v>
@@ -3973,7 +3995,7 @@
         <v>87.55</v>
       </c>
       <c r="R17" s="25">
-        <v>87.65</v>
+        <v>87.66</v>
       </c>
       <c r="S17" s="25">
         <v>89.07</v>
@@ -3994,10 +4016,10 @@
         <v>91.38</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.44</v>
+        <v>92.45</v>
       </c>
       <c r="Z17" s="25">
-        <v>93.38</v>
+        <v>93.39</v>
       </c>
       <c r="AA17" s="25">
         <v>93.89</v>
@@ -4006,112 +4028,116 @@
         <v>93.59</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.13</v>
+        <v>94.14</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.17</v>
+        <v>95.19</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.95</v>
+        <v>95.96</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.3</v>
+        <v>96.31</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.37</v>
+        <v>96.39</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.46</v>
+        <v>96.49</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.61</v>
+        <v>96.63</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.86</v>
+        <v>96.89</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.99</v>
+        <v>97.01</v>
       </c>
       <c r="AL17" s="25">
+        <v>97.31</v>
+      </c>
+      <c r="AM17" s="25">
+        <v>98.27</v>
+      </c>
+      <c r="AN17" s="25">
+        <v>98.37</v>
+      </c>
+      <c r="AO17" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AP17" s="25">
+        <v>96.87</v>
+      </c>
+      <c r="AQ17" s="25">
         <v>97.28</v>
       </c>
-      <c r="AM17" s="25">
-        <v>98.24</v>
-      </c>
-      <c r="AN17" s="25">
-        <v>98.34</v>
-      </c>
-      <c r="AO17" s="25">
-        <v>97.67</v>
-      </c>
-      <c r="AP17" s="25">
-        <v>96.78</v>
-      </c>
-      <c r="AQ17" s="25">
-        <v>97.18</v>
-      </c>
       <c r="AR17" s="25">
-        <v>97.97</v>
+        <v>98.07</v>
       </c>
       <c r="AS17" s="25">
-        <v>98.23</v>
+        <v>98.33</v>
       </c>
       <c r="AT17" s="25">
-        <v>98</v>
+        <v>98.09</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.51</v>
+        <v>98.64</v>
       </c>
       <c r="AV17" s="25">
-        <v>98.87</v>
+        <v>99</v>
       </c>
       <c r="AW17" s="25">
-        <v>99.19</v>
+        <v>99.32</v>
       </c>
       <c r="AX17" s="25">
-        <v>99.03</v>
+        <v>99.18</v>
       </c>
       <c r="AY17" s="25">
-        <v>99.31</v>
+        <v>99.48</v>
       </c>
       <c r="AZ17" s="25">
-        <v>99.01</v>
+        <v>99.15</v>
       </c>
       <c r="BA17" s="25">
-        <v>97.53</v>
+        <v>97.65</v>
       </c>
       <c r="BB17" s="25">
-        <v>92.7</v>
+        <v>92.84</v>
       </c>
       <c r="BC17" s="25">
-        <v>90.04</v>
+        <v>90.19</v>
       </c>
       <c r="BD17" s="25">
-        <v>92.71</v>
+        <v>92.89</v>
       </c>
       <c r="BE17" s="25">
-        <v>95.14</v>
+        <v>95.42</v>
       </c>
       <c r="BF17" s="25">
-        <v>96.46</v>
+        <v>96.85</v>
       </c>
       <c r="BG17" s="25">
-        <v>96.96</v>
+        <v>97.36</v>
       </c>
       <c r="BH17" s="25">
         <v>97.54</v>
       </c>
       <c r="BI17" s="25">
-        <v>98.13</v>
+        <v>98</v>
       </c>
       <c r="BJ17" s="25">
-        <v>97.62</v>
+        <v>98.1</v>
       </c>
       <c r="BK17" s="25">
-        <v>98.51</v>
-      </c>
-      <c r="BL17" s="25"/>
-      <c r="BM17" s="25"/>
+        <v>98.5</v>
+      </c>
+      <c r="BL17" s="25">
+        <v>97.76</v>
+      </c>
+      <c r="BM17" s="25">
+        <v>98.31</v>
+      </c>
       <c r="BN17" s="25"/>
       <c r="BO17" s="25"/>
       <c r="BP17" s="25"/>
@@ -4131,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" s="25">
         <v>96.05</v>
@@ -4143,19 +4169,19 @@
         <v>97.83</v>
       </c>
       <c r="F18" s="25">
-        <v>98.34</v>
+        <v>98.33</v>
       </c>
       <c r="G18" s="25">
-        <v>98.31</v>
+        <v>98.3</v>
       </c>
       <c r="H18" s="25">
-        <v>98.69</v>
+        <v>98.68</v>
       </c>
       <c r="I18" s="25">
         <v>99.44</v>
       </c>
       <c r="J18" s="25">
-        <v>99.57</v>
+        <v>99.56</v>
       </c>
       <c r="K18" s="25">
         <v>98.69</v>
@@ -4167,7 +4193,7 @@
         <v>100</v>
       </c>
       <c r="N18" s="25">
-        <v>99.94</v>
+        <v>99.93</v>
       </c>
       <c r="O18" s="25">
         <v>97.31</v>
@@ -4188,7 +4214,7 @@
         <v>95.26</v>
       </c>
       <c r="U18" s="25">
-        <v>95.72</v>
+        <v>95.71</v>
       </c>
       <c r="V18" s="25">
         <v>96.14</v>
@@ -4203,7 +4229,7 @@
         <v>96.78</v>
       </c>
       <c r="Z18" s="25">
-        <v>97.01</v>
+        <v>97.02</v>
       </c>
       <c r="AA18" s="25">
         <v>96.39</v>
@@ -4215,109 +4241,113 @@
         <v>95.79</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.1</v>
+        <v>97.11</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.34</v>
+        <v>97.35</v>
       </c>
       <c r="AF18" s="25">
         <v>97.6</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.15</v>
+        <v>97.16</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.44</v>
+        <v>97.45</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.22</v>
+        <v>97.23</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.59</v>
+        <v>97.6</v>
       </c>
       <c r="AK18" s="25">
+        <v>97.14</v>
+      </c>
+      <c r="AL18" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="AM18" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="AN18" s="25">
+        <v>98.02</v>
+      </c>
+      <c r="AO18" s="25">
+        <v>97.21</v>
+      </c>
+      <c r="AP18" s="25">
+        <v>96.53</v>
+      </c>
+      <c r="AQ18" s="25">
+        <v>96.74</v>
+      </c>
+      <c r="AR18" s="25">
+        <v>97.34</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>97.17</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>97.18</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>97.23</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>97.96</v>
+      </c>
+      <c r="AW18" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AX18" s="25">
+        <v>97.95</v>
+      </c>
+      <c r="AY18" s="25">
+        <v>98.06</v>
+      </c>
+      <c r="AZ18" s="25">
+        <v>97.93</v>
+      </c>
+      <c r="BA18" s="25">
         <v>97.13</v>
       </c>
-      <c r="AL18" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="AM18" s="25">
-        <v>97.74</v>
-      </c>
-      <c r="AN18" s="25">
-        <v>98.01</v>
-      </c>
-      <c r="AO18" s="25">
-        <v>97.18</v>
-      </c>
-      <c r="AP18" s="25">
-        <v>96.5</v>
-      </c>
-      <c r="AQ18" s="25">
-        <v>96.71</v>
-      </c>
-      <c r="AR18" s="25">
-        <v>97.3</v>
-      </c>
-      <c r="AS18" s="25">
-        <v>97.13</v>
-      </c>
-      <c r="AT18" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="AU18" s="25">
-        <v>97.2</v>
-      </c>
-      <c r="AV18" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="AW18" s="25">
-        <v>97.83</v>
-      </c>
-      <c r="AX18" s="25">
-        <v>97.9</v>
-      </c>
-      <c r="AY18" s="25">
-        <v>98</v>
-      </c>
-      <c r="AZ18" s="25">
-        <v>97.83</v>
-      </c>
-      <c r="BA18" s="25">
-        <v>96.99</v>
-      </c>
       <c r="BB18" s="25">
-        <v>94.02</v>
+        <v>94.12</v>
       </c>
       <c r="BC18" s="25">
-        <v>92.4</v>
+        <v>92.43</v>
       </c>
       <c r="BD18" s="25">
         <v>92.63</v>
       </c>
       <c r="BE18" s="25">
-        <v>93.68</v>
+        <v>93.69</v>
       </c>
       <c r="BF18" s="25">
-        <v>94.27</v>
+        <v>94.28</v>
       </c>
       <c r="BG18" s="25">
-        <v>94.69</v>
+        <v>94.65</v>
       </c>
       <c r="BH18" s="25">
-        <v>95.4</v>
+        <v>94.93</v>
       </c>
       <c r="BI18" s="25">
-        <v>96.5</v>
+        <v>95.83</v>
       </c>
       <c r="BJ18" s="25">
-        <v>96.72</v>
+        <v>96.42</v>
       </c>
       <c r="BK18" s="25">
-        <v>97.63</v>
-      </c>
-      <c r="BL18" s="25"/>
-      <c r="BM18" s="25"/>
+        <v>96.74</v>
+      </c>
+      <c r="BL18" s="25">
+        <v>97.03</v>
+      </c>
+      <c r="BM18" s="25">
+        <v>98.52</v>
+      </c>
       <c r="BN18" s="25"/>
       <c r="BO18" s="25"/>
       <c r="BP18" s="25"/>
@@ -4337,10 +4367,10 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="25">
-        <v>87.56</v>
+        <v>87.57</v>
       </c>
       <c r="D19" s="25">
         <v>93.13</v>
@@ -4349,22 +4379,22 @@
         <v>95.59</v>
       </c>
       <c r="F19" s="25">
-        <v>96.5</v>
+        <v>96.51</v>
       </c>
       <c r="G19" s="25">
-        <v>96.91</v>
+        <v>96.93</v>
       </c>
       <c r="H19" s="25">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="I19" s="25">
-        <v>98.78</v>
+        <v>98.79</v>
       </c>
       <c r="J19" s="25">
-        <v>99.02</v>
+        <v>99.03</v>
       </c>
       <c r="K19" s="25">
-        <v>99.46</v>
+        <v>99.47</v>
       </c>
       <c r="L19" s="25">
         <v>100.15</v>
@@ -4388,13 +4418,13 @@
         <v>88.98</v>
       </c>
       <c r="S19" s="25">
-        <v>89.93</v>
+        <v>89.94</v>
       </c>
       <c r="T19" s="25">
-        <v>91.05</v>
+        <v>91.06</v>
       </c>
       <c r="U19" s="25">
-        <v>92.35</v>
+        <v>92.36</v>
       </c>
       <c r="V19" s="25">
         <v>93.06</v>
@@ -4406,124 +4436,128 @@
         <v>94.13</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.66</v>
+        <v>95.67</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.51</v>
+        <v>96.52</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.14</v>
+        <v>97.15</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.04</v>
+        <v>98.06</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.45</v>
+        <v>99.52</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.42</v>
+        <v>100.51</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.75</v>
+        <v>100.85</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.57</v>
+        <v>101.67</v>
       </c>
       <c r="AH19" s="25">
-        <v>101.97</v>
+        <v>102.06</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.33</v>
+        <v>102.43</v>
       </c>
       <c r="AJ19" s="25">
-        <v>102.69</v>
+        <v>102.79</v>
       </c>
       <c r="AK19" s="25">
-        <v>103.26</v>
+        <v>103.35</v>
       </c>
       <c r="AL19" s="25">
-        <v>103.54</v>
+        <v>103.65</v>
       </c>
       <c r="AM19" s="25">
-        <v>103.94</v>
+        <v>104.05</v>
       </c>
       <c r="AN19" s="25">
-        <v>103.87</v>
+        <v>104</v>
       </c>
       <c r="AO19" s="25">
-        <v>103.77</v>
+        <v>103.91</v>
       </c>
       <c r="AP19" s="25">
-        <v>102.86</v>
+        <v>103.03</v>
       </c>
       <c r="AQ19" s="25">
-        <v>102.67</v>
+        <v>102.9</v>
       </c>
       <c r="AR19" s="25">
-        <v>103.7</v>
+        <v>103.93</v>
       </c>
       <c r="AS19" s="25">
-        <v>104.02</v>
+        <v>104.25</v>
       </c>
       <c r="AT19" s="25">
-        <v>104.01</v>
+        <v>104.24</v>
       </c>
       <c r="AU19" s="25">
-        <v>104.04</v>
+        <v>104.32</v>
       </c>
       <c r="AV19" s="25">
-        <v>104.39</v>
+        <v>104.69</v>
       </c>
       <c r="AW19" s="25">
-        <v>102.67</v>
+        <v>102.97</v>
       </c>
       <c r="AX19" s="25">
-        <v>103.89</v>
+        <v>104.2</v>
       </c>
       <c r="AY19" s="25">
-        <v>105.1</v>
+        <v>105.45</v>
       </c>
       <c r="AZ19" s="25">
-        <v>105.58</v>
+        <v>105.96</v>
       </c>
       <c r="BA19" s="25">
-        <v>104.36</v>
+        <v>104.74</v>
       </c>
       <c r="BB19" s="25">
-        <v>99.14</v>
+        <v>99.54</v>
       </c>
       <c r="BC19" s="25">
-        <v>94.31</v>
+        <v>94.7</v>
       </c>
       <c r="BD19" s="25">
-        <v>97.14</v>
+        <v>97.62</v>
       </c>
       <c r="BE19" s="25">
-        <v>99.96</v>
+        <v>100.57</v>
       </c>
       <c r="BF19" s="25">
-        <v>100.65</v>
+        <v>101.47</v>
       </c>
       <c r="BG19" s="25">
-        <v>100.49</v>
+        <v>101.47</v>
       </c>
       <c r="BH19" s="25">
-        <v>101</v>
+        <v>101.72</v>
       </c>
       <c r="BI19" s="25">
-        <v>101.22</v>
+        <v>101.86</v>
       </c>
       <c r="BJ19" s="25">
-        <v>100.31</v>
+        <v>102.13</v>
       </c>
       <c r="BK19" s="25">
-        <v>100.58</v>
-      </c>
-      <c r="BL19" s="25"/>
-      <c r="BM19" s="25"/>
+        <v>102.15</v>
+      </c>
+      <c r="BL19" s="25">
+        <v>100.89</v>
+      </c>
+      <c r="BM19" s="25">
+        <v>100.59</v>
+      </c>
       <c r="BN19" s="25"/>
       <c r="BO19" s="25"/>
       <c r="BP19" s="25"/>
@@ -4546,16 +4580,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>91.88</v>
+        <v>91.87</v>
       </c>
       <c r="D20" s="25">
-        <v>95.6</v>
+        <v>95.59</v>
       </c>
       <c r="E20" s="25">
-        <v>97.44</v>
+        <v>97.43</v>
       </c>
       <c r="F20" s="25">
-        <v>98.15</v>
+        <v>98.14</v>
       </c>
       <c r="G20" s="25">
         <v>98.18</v>
@@ -4564,16 +4598,16 @@
         <v>99.22</v>
       </c>
       <c r="I20" s="25">
-        <v>99.67</v>
+        <v>99.66</v>
       </c>
       <c r="J20" s="25">
-        <v>100.08</v>
+        <v>100.07</v>
       </c>
       <c r="K20" s="25">
         <v>100.07</v>
       </c>
       <c r="L20" s="25">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
@@ -4585,16 +4619,16 @@
         <v>92.35</v>
       </c>
       <c r="P20" s="25">
-        <v>89.3</v>
+        <v>89.31</v>
       </c>
       <c r="Q20" s="25">
-        <v>87.82</v>
+        <v>87.83</v>
       </c>
       <c r="R20" s="25">
-        <v>88.04</v>
+        <v>88.05</v>
       </c>
       <c r="S20" s="25">
-        <v>89.04</v>
+        <v>89.05</v>
       </c>
       <c r="T20" s="25">
         <v>89.62</v>
@@ -4609,10 +4643,10 @@
         <v>92.12</v>
       </c>
       <c r="X20" s="25">
-        <v>92.2</v>
+        <v>92.21</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.87</v>
+        <v>92.88</v>
       </c>
       <c r="Z20" s="25">
         <v>93.46</v>
@@ -4621,115 +4655,119 @@
         <v>93.37</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.85</v>
+        <v>92.86</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.36</v>
+        <v>93.37</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.3</v>
+        <v>94.32</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.52</v>
+        <v>94.54</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.05</v>
+        <v>95.06</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.21</v>
+        <v>95.22</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.55</v>
+        <v>95.56</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.97</v>
+        <v>95.98</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.68</v>
+        <v>95.69</v>
       </c>
       <c r="AK20" s="25">
-        <v>95.99</v>
+        <v>96</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.39</v>
+        <v>96.41</v>
       </c>
       <c r="AM20" s="25">
         <v>96.72</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.82</v>
+        <v>96.84</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.7</v>
+        <v>96.73</v>
       </c>
       <c r="AP20" s="25">
-        <v>95.98</v>
+        <v>96.01</v>
       </c>
       <c r="AQ20" s="25">
-        <v>95.73</v>
+        <v>95.77</v>
       </c>
       <c r="AR20" s="25">
-        <v>97.08</v>
+        <v>97.12</v>
       </c>
       <c r="AS20" s="25">
-        <v>97.45</v>
+        <v>97.49</v>
       </c>
       <c r="AT20" s="25">
-        <v>97.51</v>
+        <v>97.55</v>
       </c>
       <c r="AU20" s="25">
-        <v>97.66</v>
+        <v>97.71</v>
       </c>
       <c r="AV20" s="25">
-        <v>98.19</v>
+        <v>98.24</v>
       </c>
       <c r="AW20" s="25">
-        <v>97.46</v>
+        <v>97.52</v>
       </c>
       <c r="AX20" s="25">
-        <v>97.88</v>
+        <v>97.93</v>
       </c>
       <c r="AY20" s="25">
-        <v>98.34</v>
+        <v>98.41</v>
       </c>
       <c r="AZ20" s="25">
-        <v>98.58</v>
+        <v>98.66</v>
       </c>
       <c r="BA20" s="25">
-        <v>96.94</v>
+        <v>97.04</v>
       </c>
       <c r="BB20" s="25">
-        <v>93.12</v>
+        <v>93.22</v>
       </c>
       <c r="BC20" s="25">
-        <v>90.76</v>
+        <v>90.86</v>
       </c>
       <c r="BD20" s="25">
-        <v>92.98</v>
+        <v>93.1</v>
       </c>
       <c r="BE20" s="25">
-        <v>94.94</v>
+        <v>95.11</v>
       </c>
       <c r="BF20" s="25">
-        <v>95.66</v>
+        <v>95.95</v>
       </c>
       <c r="BG20" s="25">
-        <v>96.18</v>
+        <v>96.46</v>
       </c>
       <c r="BH20" s="25">
-        <v>97.42</v>
+        <v>97.1</v>
       </c>
       <c r="BI20" s="25">
-        <v>98.15</v>
+        <v>97.81</v>
       </c>
       <c r="BJ20" s="25">
-        <v>98.04</v>
+        <v>98.66</v>
       </c>
       <c r="BK20" s="25">
-        <v>98.71</v>
-      </c>
-      <c r="BL20" s="25"/>
-      <c r="BM20" s="25"/>
+        <v>98.96</v>
+      </c>
+      <c r="BL20" s="25">
+        <v>98.29</v>
+      </c>
+      <c r="BM20" s="25">
+        <v>98.66</v>
+      </c>
       <c r="BN20" s="25"/>
       <c r="BO20" s="25"/>
       <c r="BP20" s="25"/>
@@ -4749,19 +4787,19 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" s="25">
         <v>96.65</v>
       </c>
       <c r="D21" s="25">
-        <v>97.57</v>
+        <v>97.56</v>
       </c>
       <c r="E21" s="25">
         <v>98.6</v>
       </c>
       <c r="F21" s="25">
-        <v>98.95</v>
+        <v>98.94</v>
       </c>
       <c r="G21" s="25">
         <v>98.6</v>
@@ -4803,7 +4841,7 @@
         <v>94.18</v>
       </c>
       <c r="T21" s="25">
-        <v>94.43</v>
+        <v>94.44</v>
       </c>
       <c r="U21" s="25">
         <v>94.92</v>
@@ -4824,118 +4862,122 @@
         <v>96.67</v>
       </c>
       <c r="AA21" s="25">
-        <v>95.5</v>
+        <v>95.51</v>
       </c>
       <c r="AB21" s="25">
-        <v>93.66</v>
+        <v>93.68</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.62</v>
+        <v>94.66</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.4</v>
+        <v>96.47</v>
       </c>
       <c r="AE21" s="25">
-        <v>96.74</v>
+        <v>96.81</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.54</v>
+        <v>97.6</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.29</v>
+        <v>97.35</v>
       </c>
       <c r="AH21" s="25">
+        <v>97.7</v>
+      </c>
+      <c r="AI21" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="AJ21" s="25">
+        <v>97.96</v>
+      </c>
+      <c r="AK21" s="25">
+        <v>97.72</v>
+      </c>
+      <c r="AL21" s="25">
+        <v>97.97</v>
+      </c>
+      <c r="AM21" s="25">
+        <v>98.47</v>
+      </c>
+      <c r="AN21" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="AO21" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="AP21" s="25">
+        <v>98.15</v>
+      </c>
+      <c r="AQ21" s="25">
+        <v>98.62</v>
+      </c>
+      <c r="AR21" s="25">
+        <v>100.24</v>
+      </c>
+      <c r="AS21" s="25">
+        <v>99.97</v>
+      </c>
+      <c r="AT21" s="25">
+        <v>99.06</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>99.76</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>101.07</v>
+      </c>
+      <c r="AW21" s="25">
+        <v>100.51</v>
+      </c>
+      <c r="AX21" s="25">
+        <v>100.16</v>
+      </c>
+      <c r="AY21" s="25">
+        <v>101.29</v>
+      </c>
+      <c r="AZ21" s="25">
+        <v>101.63</v>
+      </c>
+      <c r="BA21" s="25">
+        <v>100.32</v>
+      </c>
+      <c r="BB21" s="25">
+        <v>97.06</v>
+      </c>
+      <c r="BC21" s="25">
+        <v>95.29</v>
+      </c>
+      <c r="BD21" s="25">
+        <v>95.58</v>
+      </c>
+      <c r="BE21" s="25">
+        <v>97.02</v>
+      </c>
+      <c r="BF21" s="25">
         <v>97.68</v>
       </c>
-      <c r="AI21" s="25">
-        <v>97.65</v>
-      </c>
-      <c r="AJ21" s="25">
-        <v>97.94</v>
-      </c>
-      <c r="AK21" s="25">
-        <v>97.7</v>
-      </c>
-      <c r="AL21" s="25">
-        <v>97.89</v>
-      </c>
-      <c r="AM21" s="25">
-        <v>98.4</v>
-      </c>
-      <c r="AN21" s="25">
-        <v>98.75</v>
-      </c>
-      <c r="AO21" s="25">
-        <v>98.62</v>
-      </c>
-      <c r="AP21" s="25">
-        <v>98.1</v>
-      </c>
-      <c r="AQ21" s="25">
-        <v>98.59</v>
-      </c>
-      <c r="AR21" s="25">
-        <v>100.22</v>
-      </c>
-      <c r="AS21" s="25">
-        <v>99.95</v>
-      </c>
-      <c r="AT21" s="25">
-        <v>99.04</v>
-      </c>
-      <c r="AU21" s="25">
-        <v>99.74</v>
-      </c>
-      <c r="AV21" s="25">
-        <v>101.05</v>
-      </c>
-      <c r="AW21" s="25">
-        <v>100.48</v>
-      </c>
-      <c r="AX21" s="25">
-        <v>100.12</v>
-      </c>
-      <c r="AY21" s="25">
-        <v>101.26</v>
-      </c>
-      <c r="AZ21" s="25">
-        <v>101.58</v>
-      </c>
-      <c r="BA21" s="25">
-        <v>100.28</v>
-      </c>
-      <c r="BB21" s="25">
-        <v>97.02</v>
-      </c>
-      <c r="BC21" s="25">
-        <v>95.27</v>
-      </c>
-      <c r="BD21" s="25">
-        <v>95.55</v>
-      </c>
-      <c r="BE21" s="25">
-        <v>96.98</v>
-      </c>
-      <c r="BF21" s="25">
-        <v>97.62</v>
-      </c>
       <c r="BG21" s="25">
-        <v>98.06</v>
+        <v>98.12</v>
       </c>
       <c r="BH21" s="25">
-        <v>98.62</v>
+        <v>98.08</v>
       </c>
       <c r="BI21" s="25">
-        <v>99.71</v>
+        <v>98.95</v>
       </c>
       <c r="BJ21" s="25">
-        <v>99.75</v>
+        <v>99.49</v>
       </c>
       <c r="BK21" s="25">
-        <v>100.77</v>
-      </c>
-      <c r="BL21" s="25"/>
-      <c r="BM21" s="25"/>
+        <v>100.4</v>
+      </c>
+      <c r="BL21" s="25">
+        <v>100.16</v>
+      </c>
+      <c r="BM21" s="25">
+        <v>101.32</v>
+      </c>
       <c r="BN21" s="25"/>
       <c r="BO21" s="25"/>
       <c r="BP21" s="25"/>
@@ -4955,25 +4997,25 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" s="25">
         <v>89.44</v>
       </c>
       <c r="D22" s="25">
-        <v>94.07</v>
+        <v>94.06</v>
       </c>
       <c r="E22" s="25">
         <v>95.46</v>
       </c>
       <c r="F22" s="25">
-        <v>95.72</v>
+        <v>95.71</v>
       </c>
       <c r="G22" s="25">
-        <v>96.04</v>
+        <v>96.03</v>
       </c>
       <c r="H22" s="25">
-        <v>97.49</v>
+        <v>97.48</v>
       </c>
       <c r="I22" s="25">
         <v>98.03</v>
@@ -5009,19 +5051,19 @@
         <v>88.82</v>
       </c>
       <c r="T22" s="25">
-        <v>90.15</v>
+        <v>90.16</v>
       </c>
       <c r="U22" s="25">
         <v>91.56</v>
       </c>
       <c r="V22" s="25">
-        <v>92.55</v>
+        <v>92.56</v>
       </c>
       <c r="W22" s="25">
-        <v>93.56</v>
+        <v>93.57</v>
       </c>
       <c r="X22" s="25">
-        <v>94.1</v>
+        <v>94.11</v>
       </c>
       <c r="Y22" s="25">
         <v>95.17</v>
@@ -5030,118 +5072,122 @@
         <v>96.85</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.22</v>
+        <v>98.23</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.37</v>
+        <v>100.43</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.34</v>
+        <v>101.43</v>
       </c>
       <c r="AE22" s="25">
-        <v>101.65</v>
+        <v>101.75</v>
       </c>
       <c r="AF22" s="25">
-        <v>102.48</v>
+        <v>102.58</v>
       </c>
       <c r="AG22" s="25">
-        <v>102.81</v>
+        <v>102.92</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AI22" s="25">
-        <v>103.77</v>
+        <v>103.87</v>
       </c>
       <c r="AJ22" s="25">
-        <v>104.14</v>
+        <v>104.25</v>
       </c>
       <c r="AK22" s="25">
-        <v>104.52</v>
+        <v>104.63</v>
       </c>
       <c r="AL22" s="25">
-        <v>104.94</v>
+        <v>105.07</v>
       </c>
       <c r="AM22" s="25">
+        <v>105.72</v>
+      </c>
+      <c r="AN22" s="25">
+        <v>105.71</v>
+      </c>
+      <c r="AO22" s="25">
         <v>105.58</v>
       </c>
-      <c r="AN22" s="25">
-        <v>105.57</v>
-      </c>
-      <c r="AO22" s="25">
+      <c r="AP22" s="25">
+        <v>103.89</v>
+      </c>
+      <c r="AQ22" s="25">
+        <v>103.7</v>
+      </c>
+      <c r="AR22" s="25">
+        <v>104.7</v>
+      </c>
+      <c r="AS22" s="25">
         <v>105.43</v>
       </c>
-      <c r="AP22" s="25">
-        <v>103.71</v>
-      </c>
-      <c r="AQ22" s="25">
-        <v>103.48</v>
-      </c>
-      <c r="AR22" s="25">
-        <v>104.47</v>
-      </c>
-      <c r="AS22" s="25">
-        <v>105.2</v>
-      </c>
       <c r="AT22" s="25">
-        <v>105.25</v>
+        <v>105.51</v>
       </c>
       <c r="AU22" s="25">
-        <v>105.65</v>
+        <v>105.94</v>
       </c>
       <c r="AV22" s="25">
-        <v>106.13</v>
+        <v>106.43</v>
       </c>
       <c r="AW22" s="25">
-        <v>106.45</v>
+        <v>106.77</v>
       </c>
       <c r="AX22" s="25">
-        <v>106.61</v>
+        <v>106.95</v>
       </c>
       <c r="AY22" s="25">
-        <v>106.85</v>
+        <v>107.25</v>
       </c>
       <c r="AZ22" s="25">
-        <v>106.87</v>
+        <v>107.29</v>
       </c>
       <c r="BA22" s="25">
-        <v>105.42</v>
+        <v>105.84</v>
       </c>
       <c r="BB22" s="25">
-        <v>99.72</v>
+        <v>100.07</v>
       </c>
       <c r="BC22" s="25">
-        <v>95.78</v>
+        <v>96.14</v>
       </c>
       <c r="BD22" s="25">
-        <v>98.74</v>
+        <v>99.23</v>
       </c>
       <c r="BE22" s="25">
-        <v>101.39</v>
+        <v>102.08</v>
       </c>
       <c r="BF22" s="25">
-        <v>101.98</v>
+        <v>102.88</v>
       </c>
       <c r="BG22" s="25">
-        <v>101.36</v>
+        <v>102.38</v>
       </c>
       <c r="BH22" s="25">
-        <v>99.74</v>
+        <v>100.09</v>
       </c>
       <c r="BI22" s="25">
-        <v>101.55</v>
+        <v>101.94</v>
       </c>
       <c r="BJ22" s="25">
-        <v>101.09</v>
+        <v>103.06</v>
       </c>
       <c r="BK22" s="25">
-        <v>101.13</v>
-      </c>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="25"/>
+        <v>103.28</v>
+      </c>
+      <c r="BL22" s="25">
+        <v>101.92</v>
+      </c>
+      <c r="BM22" s="25">
+        <v>101.76</v>
+      </c>
       <c r="BN22" s="25"/>
       <c r="BO22" s="25"/>
       <c r="BP22" s="25"/>
@@ -5164,10 +5210,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>95.65</v>
+        <v>95.64</v>
       </c>
       <c r="D23" s="25">
-        <v>97.95</v>
+        <v>97.94</v>
       </c>
       <c r="E23" s="25">
         <v>97.77</v>
@@ -5176,7 +5222,7 @@
         <v>98.43</v>
       </c>
       <c r="G23" s="25">
-        <v>98.66</v>
+        <v>98.65</v>
       </c>
       <c r="H23" s="25">
         <v>99.68</v>
@@ -5185,7 +5231,7 @@
         <v>100.38</v>
       </c>
       <c r="J23" s="25">
-        <v>100.22</v>
+        <v>100.21</v>
       </c>
       <c r="K23" s="25">
         <v>100.41</v>
@@ -5197,31 +5243,31 @@
         <v>100</v>
       </c>
       <c r="N23" s="25">
-        <v>98.63</v>
+        <v>98.64</v>
       </c>
       <c r="O23" s="25">
-        <v>93.33</v>
+        <v>93.34</v>
       </c>
       <c r="P23" s="25">
-        <v>89.98</v>
+        <v>89.99</v>
       </c>
       <c r="Q23" s="25">
-        <v>88.77</v>
+        <v>88.78</v>
       </c>
       <c r="R23" s="25">
-        <v>88.31</v>
+        <v>88.32</v>
       </c>
       <c r="S23" s="25">
         <v>88.7</v>
       </c>
       <c r="T23" s="25">
-        <v>89.58</v>
+        <v>89.57</v>
       </c>
       <c r="U23" s="25">
         <v>90.48</v>
       </c>
       <c r="V23" s="25">
-        <v>91.42</v>
+        <v>91.41</v>
       </c>
       <c r="W23" s="25">
         <v>91.77</v>
@@ -5239,115 +5285,119 @@
         <v>94.95</v>
       </c>
       <c r="AB23" s="25">
-        <v>94.27</v>
+        <v>94.26</v>
       </c>
       <c r="AC23" s="25">
         <v>95.08</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.57</v>
+        <v>96.58</v>
       </c>
       <c r="AE23" s="25">
         <v>97.05</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.5</v>
+        <v>97.51</v>
       </c>
       <c r="AG23" s="25">
+        <v>98.09</v>
+      </c>
+      <c r="AH23" s="25">
         <v>98.07</v>
       </c>
-      <c r="AH23" s="25">
-        <v>98.06</v>
-      </c>
       <c r="AI23" s="25">
-        <v>98.24</v>
+        <v>98.26</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="AK23" s="25">
-        <v>98.93</v>
+        <v>98.95</v>
       </c>
       <c r="AL23" s="25">
-        <v>99.2</v>
+        <v>99.22</v>
       </c>
       <c r="AM23" s="25">
-        <v>99.71</v>
+        <v>99.73</v>
       </c>
       <c r="AN23" s="25">
-        <v>99.67</v>
+        <v>99.69</v>
       </c>
       <c r="AO23" s="25">
-        <v>99.53</v>
+        <v>99.55</v>
       </c>
       <c r="AP23" s="25">
-        <v>98.74</v>
+        <v>98.8</v>
       </c>
       <c r="AQ23" s="25">
-        <v>98.84</v>
+        <v>98.92</v>
       </c>
       <c r="AR23" s="25">
-        <v>99.5</v>
+        <v>99.59</v>
       </c>
       <c r="AS23" s="25">
-        <v>99.85</v>
+        <v>99.94</v>
       </c>
       <c r="AT23" s="25">
-        <v>99.94</v>
+        <v>100.04</v>
       </c>
       <c r="AU23" s="25">
-        <v>99.83</v>
+        <v>99.92</v>
       </c>
       <c r="AV23" s="25">
-        <v>100.32</v>
+        <v>100.41</v>
       </c>
       <c r="AW23" s="25">
-        <v>100.31</v>
+        <v>100.45</v>
       </c>
       <c r="AX23" s="25">
-        <v>100.88</v>
+        <v>101.01</v>
       </c>
       <c r="AY23" s="25">
-        <v>101.53</v>
+        <v>101.67</v>
       </c>
       <c r="AZ23" s="25">
-        <v>101.24</v>
+        <v>101.38</v>
       </c>
       <c r="BA23" s="25">
-        <v>100.21</v>
+        <v>100.34</v>
       </c>
       <c r="BB23" s="25">
-        <v>95.74</v>
+        <v>95.9</v>
       </c>
       <c r="BC23" s="25">
-        <v>93.41</v>
+        <v>93.55</v>
       </c>
       <c r="BD23" s="25">
-        <v>95.99</v>
+        <v>96.18</v>
       </c>
       <c r="BE23" s="25">
-        <v>98.14</v>
+        <v>98.4</v>
       </c>
       <c r="BF23" s="25">
-        <v>98.21</v>
+        <v>98.57</v>
       </c>
       <c r="BG23" s="25">
-        <v>97.92</v>
+        <v>98.29</v>
       </c>
       <c r="BH23" s="25">
-        <v>97.53</v>
+        <v>97.03</v>
       </c>
       <c r="BI23" s="25">
-        <v>99.3</v>
+        <v>98.54</v>
       </c>
       <c r="BJ23" s="25">
-        <v>99.19</v>
+        <v>99.82</v>
       </c>
       <c r="BK23" s="25">
-        <v>99.16</v>
-      </c>
-      <c r="BL23" s="25"/>
-      <c r="BM23" s="25"/>
+        <v>100.16</v>
+      </c>
+      <c r="BL23" s="25">
+        <v>99.68</v>
+      </c>
+      <c r="BM23" s="25">
+        <v>99.9</v>
+      </c>
       <c r="BN23" s="25"/>
       <c r="BO23" s="25"/>
       <c r="BP23" s="25"/>
@@ -5367,7 +5417,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C24" s="25">
         <v>96</v>
@@ -5379,7 +5429,7 @@
         <v>98.15</v>
       </c>
       <c r="F24" s="25">
-        <v>98.75</v>
+        <v>98.74</v>
       </c>
       <c r="G24" s="25">
         <v>98.96</v>
@@ -5388,7 +5438,7 @@
         <v>99.69</v>
       </c>
       <c r="I24" s="25">
-        <v>100.31</v>
+        <v>100.32</v>
       </c>
       <c r="J24" s="25">
         <v>99.68</v>
@@ -5409,7 +5459,7 @@
         <v>97.77</v>
       </c>
       <c r="P24" s="25">
-        <v>95.69</v>
+        <v>95.68</v>
       </c>
       <c r="Q24" s="25">
         <v>94.64</v>
@@ -5445,115 +5495,119 @@
         <v>97.63</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="AC24" s="25">
         <v>98.56</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.38</v>
+        <v>99.4</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.63</v>
+        <v>98.65</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.65</v>
+        <v>98.67</v>
       </c>
       <c r="AG24" s="25">
+        <v>99.54</v>
+      </c>
+      <c r="AH24" s="25">
         <v>99.52</v>
       </c>
-      <c r="AH24" s="25">
-        <v>99.51</v>
-      </c>
       <c r="AI24" s="25">
-        <v>99.62</v>
+        <v>99.63</v>
       </c>
       <c r="AJ24" s="25">
-        <v>99.55</v>
+        <v>99.56</v>
       </c>
       <c r="AK24" s="25">
-        <v>99.69</v>
+        <v>99.7</v>
       </c>
       <c r="AL24" s="25">
-        <v>99.4</v>
+        <v>99.42</v>
       </c>
       <c r="AM24" s="25">
-        <v>99.62</v>
+        <v>99.64</v>
       </c>
       <c r="AN24" s="25">
-        <v>99.66</v>
+        <v>99.67</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.45</v>
+        <v>99.46</v>
       </c>
       <c r="AP24" s="25">
-        <v>99.05</v>
+        <v>99.06</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.45</v>
+        <v>98.46</v>
       </c>
       <c r="AR24" s="25">
+        <v>98.75</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>99.16</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>99.14</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>99.56</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>100.15</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>100.34</v>
+      </c>
+      <c r="AX24" s="25">
+        <v>100.13</v>
+      </c>
+      <c r="AY24" s="25">
+        <v>100.93</v>
+      </c>
+      <c r="AZ24" s="25">
+        <v>101.44</v>
+      </c>
+      <c r="BA24" s="25">
+        <v>100.99</v>
+      </c>
+      <c r="BB24" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="BC24" s="25">
+        <v>95.84</v>
+      </c>
+      <c r="BD24" s="25">
+        <v>96.22</v>
+      </c>
+      <c r="BE24" s="25">
+        <v>97.33</v>
+      </c>
+      <c r="BF24" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="BG24" s="25">
+        <v>97.94</v>
+      </c>
+      <c r="BH24" s="25">
+        <v>97.39</v>
+      </c>
+      <c r="BI24" s="25">
+        <v>97.86</v>
+      </c>
+      <c r="BJ24" s="25">
         <v>98.73</v>
       </c>
-      <c r="AS24" s="25">
-        <v>99.15</v>
-      </c>
-      <c r="AT24" s="25">
-        <v>99.16</v>
-      </c>
-      <c r="AU24" s="25">
-        <v>99.58</v>
-      </c>
-      <c r="AV24" s="25">
-        <v>100.17</v>
-      </c>
-      <c r="AW24" s="25">
-        <v>100.36</v>
-      </c>
-      <c r="AX24" s="25">
-        <v>100.11</v>
-      </c>
-      <c r="AY24" s="25">
-        <v>100.85</v>
-      </c>
-      <c r="AZ24" s="25">
-        <v>101.34</v>
-      </c>
-      <c r="BA24" s="25">
-        <v>100.91</v>
-      </c>
-      <c r="BB24" s="25">
-        <v>98.3</v>
-      </c>
-      <c r="BC24" s="25">
-        <v>95.78</v>
-      </c>
-      <c r="BD24" s="25">
-        <v>96.19</v>
-      </c>
-      <c r="BE24" s="25">
-        <v>97.29</v>
-      </c>
-      <c r="BF24" s="25">
-        <v>97.35</v>
-      </c>
-      <c r="BG24" s="25">
-        <v>97.6</v>
-      </c>
-      <c r="BH24" s="25">
-        <v>97.85</v>
-      </c>
-      <c r="BI24" s="25">
-        <v>99.01</v>
-      </c>
-      <c r="BJ24" s="25">
-        <v>99.52</v>
-      </c>
       <c r="BK24" s="25">
-        <v>100.53</v>
-      </c>
-      <c r="BL24" s="25"/>
-      <c r="BM24" s="25"/>
+        <v>99.39</v>
+      </c>
+      <c r="BL24" s="25">
+        <v>99.82</v>
+      </c>
+      <c r="BM24" s="25">
+        <v>101.64</v>
+      </c>
       <c r="BN24" s="25"/>
       <c r="BO24" s="25"/>
       <c r="BP24" s="25"/>
@@ -5573,7 +5627,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C25" s="25">
         <v>91.38</v>
@@ -5594,13 +5648,13 @@
         <v>99.22</v>
       </c>
       <c r="I25" s="25">
+        <v>99.53</v>
+      </c>
+      <c r="J25" s="25">
+        <v>99.47</v>
+      </c>
+      <c r="K25" s="25">
         <v>99.52</v>
-      </c>
-      <c r="J25" s="25">
-        <v>99.48</v>
-      </c>
-      <c r="K25" s="25">
-        <v>99.51</v>
       </c>
       <c r="L25" s="25">
         <v>99.7</v>
@@ -5612,7 +5666,7 @@
         <v>98.87</v>
       </c>
       <c r="O25" s="25">
-        <v>93.09</v>
+        <v>93.1</v>
       </c>
       <c r="P25" s="25">
         <v>89.62</v>
@@ -5633,133 +5687,137 @@
         <v>89.59</v>
       </c>
       <c r="V25" s="25">
-        <v>89.92</v>
+        <v>89.93</v>
       </c>
       <c r="W25" s="25">
-        <v>90.65</v>
+        <v>90.66</v>
       </c>
       <c r="X25" s="25">
-        <v>90.96</v>
+        <v>90.97</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.93</v>
+        <v>91.95</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.88</v>
+        <v>92.9</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.57</v>
+        <v>93.58</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.55</v>
+        <v>94.56</v>
       </c>
       <c r="AC25" s="25">
-        <v>96.13</v>
+        <v>96.24</v>
       </c>
       <c r="AD25" s="25">
-        <v>97.08</v>
+        <v>97.28</v>
       </c>
       <c r="AE25" s="25">
-        <v>97.54</v>
+        <v>97.75</v>
       </c>
       <c r="AF25" s="25">
-        <v>97.82</v>
+        <v>98.01</v>
       </c>
       <c r="AG25" s="25">
-        <v>97.93</v>
+        <v>98.15</v>
       </c>
       <c r="AH25" s="25">
-        <v>98.18</v>
+        <v>98.4</v>
       </c>
       <c r="AI25" s="25">
-        <v>98.41</v>
+        <v>98.62</v>
       </c>
       <c r="AJ25" s="25">
-        <v>98.59</v>
+        <v>98.81</v>
       </c>
       <c r="AK25" s="25">
-        <v>98.93</v>
+        <v>99.16</v>
       </c>
       <c r="AL25" s="25">
-        <v>99.19</v>
+        <v>99.44</v>
       </c>
       <c r="AM25" s="25">
-        <v>99.65</v>
+        <v>99.92</v>
       </c>
       <c r="AN25" s="25">
-        <v>99.94</v>
+        <v>100.21</v>
       </c>
       <c r="AO25" s="25">
-        <v>99.93</v>
+        <v>100.22</v>
       </c>
       <c r="AP25" s="25">
-        <v>99.07</v>
+        <v>99.38</v>
       </c>
       <c r="AQ25" s="25">
-        <v>98.95</v>
+        <v>99.27</v>
       </c>
       <c r="AR25" s="25">
-        <v>99</v>
+        <v>99.33</v>
       </c>
       <c r="AS25" s="25">
-        <v>99.25</v>
+        <v>99.61</v>
       </c>
       <c r="AT25" s="25">
-        <v>99.27</v>
+        <v>99.63</v>
       </c>
       <c r="AU25" s="25">
-        <v>99.68</v>
+        <v>100.07</v>
       </c>
       <c r="AV25" s="25">
-        <v>100.58</v>
+        <v>100.97</v>
       </c>
       <c r="AW25" s="25">
-        <v>100.95</v>
+        <v>101.36</v>
       </c>
       <c r="AX25" s="25">
-        <v>101.18</v>
+        <v>101.59</v>
       </c>
       <c r="AY25" s="25">
-        <v>101.79</v>
+        <v>102.2</v>
       </c>
       <c r="AZ25" s="25">
-        <v>102.15</v>
+        <v>102.61</v>
       </c>
       <c r="BA25" s="25">
-        <v>101.36</v>
+        <v>101.77</v>
       </c>
       <c r="BB25" s="25">
-        <v>96.79</v>
+        <v>97.18</v>
       </c>
       <c r="BC25" s="25">
-        <v>93.07</v>
+        <v>93.48</v>
       </c>
       <c r="BD25" s="25">
-        <v>95.95</v>
+        <v>96.43</v>
       </c>
       <c r="BE25" s="25">
-        <v>98.43</v>
+        <v>99.05</v>
       </c>
       <c r="BF25" s="25">
-        <v>99.29</v>
+        <v>100.1</v>
       </c>
       <c r="BG25" s="25">
-        <v>99.22</v>
+        <v>100.17</v>
       </c>
       <c r="BH25" s="25">
-        <v>99.38</v>
+        <v>99.87</v>
       </c>
       <c r="BI25" s="25">
-        <v>99.64</v>
+        <v>99.82</v>
       </c>
       <c r="BJ25" s="25">
-        <v>98.98</v>
+        <v>99.89</v>
       </c>
       <c r="BK25" s="25">
-        <v>99.13</v>
-      </c>
-      <c r="BL25" s="25"/>
-      <c r="BM25" s="25"/>
+        <v>99.5</v>
+      </c>
+      <c r="BL25" s="25">
+        <v>97.99</v>
+      </c>
+      <c r="BM25" s="25">
+        <v>98.12</v>
+      </c>
       <c r="BN25" s="25"/>
       <c r="BO25" s="25"/>
       <c r="BP25" s="25"/>
@@ -5782,25 +5840,25 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.88</v>
+        <v>94.83</v>
       </c>
       <c r="D26" s="25">
-        <v>97.39</v>
+        <v>97.36</v>
       </c>
       <c r="E26" s="25">
-        <v>97.83</v>
+        <v>97.82</v>
       </c>
       <c r="F26" s="25">
-        <v>99.07</v>
+        <v>99.01</v>
       </c>
       <c r="G26" s="25">
-        <v>100.21</v>
+        <v>100.18</v>
       </c>
       <c r="H26" s="25">
-        <v>100.71</v>
+        <v>100.7</v>
       </c>
       <c r="I26" s="25">
-        <v>100.19</v>
+        <v>100.18</v>
       </c>
       <c r="J26" s="25">
         <v>100.1</v>
@@ -5815,157 +5873,161 @@
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.44</v>
+        <v>98.45</v>
       </c>
       <c r="O26" s="25">
         <v>93.85</v>
       </c>
       <c r="P26" s="25">
-        <v>90.96</v>
+        <v>90.97</v>
       </c>
       <c r="Q26" s="25">
-        <v>88.65</v>
+        <v>88.64</v>
       </c>
       <c r="R26" s="25">
-        <v>88.57</v>
+        <v>88.56</v>
       </c>
       <c r="S26" s="25">
-        <v>89</v>
+        <v>88.98</v>
       </c>
       <c r="T26" s="25">
-        <v>89.33</v>
+        <v>89.31</v>
       </c>
       <c r="U26" s="25">
-        <v>90.03</v>
+        <v>90.01</v>
       </c>
       <c r="V26" s="25">
-        <v>89.94</v>
+        <v>89.93</v>
       </c>
       <c r="W26" s="25">
-        <v>90.03</v>
+        <v>90.01</v>
       </c>
       <c r="X26" s="25">
-        <v>89.94</v>
+        <v>89.87</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.93</v>
+        <v>90.86</v>
       </c>
       <c r="Z26" s="25">
-        <v>92.14</v>
+        <v>92.08</v>
       </c>
       <c r="AA26" s="25">
-        <v>92.44</v>
+        <v>92.42</v>
       </c>
       <c r="AB26" s="25">
         <v>92.11</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.51</v>
+        <v>92.5</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.66</v>
+        <v>92.65</v>
       </c>
       <c r="AE26" s="25">
-        <v>92.69</v>
+        <v>92.68</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.91</v>
+        <v>92.89</v>
       </c>
       <c r="AG26" s="25">
-        <v>93.54</v>
+        <v>93.51</v>
       </c>
       <c r="AH26" s="25">
-        <v>93.91</v>
+        <v>93.89</v>
       </c>
       <c r="AI26" s="25">
         <v>93.75</v>
       </c>
       <c r="AJ26" s="25">
-        <v>93.88</v>
+        <v>93.89</v>
       </c>
       <c r="AK26" s="25">
-        <v>93.96</v>
+        <v>93.95</v>
       </c>
       <c r="AL26" s="25">
-        <v>94.42</v>
+        <v>94.41</v>
       </c>
       <c r="AM26" s="25">
-        <v>94.88</v>
+        <v>94.86</v>
       </c>
       <c r="AN26" s="25">
-        <v>95</v>
+        <v>94.98</v>
       </c>
       <c r="AO26" s="25">
         <v>94.54</v>
       </c>
       <c r="AP26" s="25">
-        <v>93.64</v>
+        <v>93.65</v>
       </c>
       <c r="AQ26" s="25">
-        <v>93.46</v>
+        <v>93.48</v>
       </c>
       <c r="AR26" s="25">
-        <v>93.73</v>
+        <v>93.75</v>
       </c>
       <c r="AS26" s="25">
-        <v>93.79</v>
+        <v>93.81</v>
       </c>
       <c r="AT26" s="25">
-        <v>93.52</v>
+        <v>93.54</v>
       </c>
       <c r="AU26" s="25">
-        <v>94.09</v>
+        <v>94.11</v>
       </c>
       <c r="AV26" s="25">
-        <v>94.1</v>
+        <v>94.13</v>
       </c>
       <c r="AW26" s="25">
-        <v>94.72</v>
+        <v>94.7</v>
       </c>
       <c r="AX26" s="25">
-        <v>95.64</v>
+        <v>95.68</v>
       </c>
       <c r="AY26" s="25">
-        <v>96.42</v>
+        <v>96.66</v>
       </c>
       <c r="AZ26" s="25">
-        <v>96.03</v>
+        <v>96.34</v>
       </c>
       <c r="BA26" s="25">
-        <v>95.14</v>
+        <v>95.43</v>
       </c>
       <c r="BB26" s="25">
-        <v>92.81</v>
+        <v>93.11</v>
       </c>
       <c r="BC26" s="25">
-        <v>90.22</v>
+        <v>90.23</v>
       </c>
       <c r="BD26" s="25">
-        <v>91.35</v>
+        <v>91.32</v>
       </c>
       <c r="BE26" s="25">
-        <v>92.86</v>
+        <v>92.98</v>
       </c>
       <c r="BF26" s="25">
-        <v>93.74</v>
+        <v>93.9</v>
       </c>
       <c r="BG26" s="25">
-        <v>93.27</v>
+        <v>93.41</v>
       </c>
       <c r="BH26" s="25">
-        <v>94.1</v>
+        <v>93.53</v>
       </c>
       <c r="BI26" s="25">
-        <v>94.22</v>
+        <v>93.82</v>
       </c>
       <c r="BJ26" s="25">
-        <v>94.09</v>
+        <v>94.4</v>
       </c>
       <c r="BK26" s="25">
-        <v>94.38</v>
-      </c>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="25"/>
+        <v>95.13</v>
+      </c>
+      <c r="BL26" s="25">
+        <v>94.46</v>
+      </c>
+      <c r="BM26" s="25">
+        <v>94.64</v>
+      </c>
       <c r="BN26" s="25"/>
       <c r="BO26" s="25"/>
       <c r="BP26" s="25"/>
@@ -5985,7 +6047,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C27" s="25">
         <v>98.46</v>
@@ -6000,13 +6062,13 @@
         <v>100.86</v>
       </c>
       <c r="G27" s="25">
-        <v>101.17</v>
+        <v>101.16</v>
       </c>
       <c r="H27" s="25">
-        <v>100.94</v>
+        <v>100.93</v>
       </c>
       <c r="I27" s="25">
-        <v>101.48</v>
+        <v>101.47</v>
       </c>
       <c r="J27" s="25">
         <v>100.68</v>
@@ -6051,7 +6113,7 @@
         <v>95.94</v>
       </c>
       <c r="X27" s="25">
-        <v>95.95</v>
+        <v>95.96</v>
       </c>
       <c r="Y27" s="25">
         <v>97.65</v>
@@ -6063,19 +6125,19 @@
         <v>94.96</v>
       </c>
       <c r="AB27" s="25">
-        <v>94.4</v>
+        <v>94.41</v>
       </c>
       <c r="AC27" s="25">
-        <v>94.97</v>
+        <v>94.98</v>
       </c>
       <c r="AD27" s="25">
-        <v>95.49</v>
+        <v>95.5</v>
       </c>
       <c r="AE27" s="25">
-        <v>96.27</v>
+        <v>96.28</v>
       </c>
       <c r="AF27" s="25">
-        <v>95.98</v>
+        <v>95.99</v>
       </c>
       <c r="AG27" s="25">
         <v>97.04</v>
@@ -6087,91 +6149,95 @@
         <v>96.25</v>
       </c>
       <c r="AJ27" s="25">
-        <v>95.85</v>
+        <v>95.86</v>
       </c>
       <c r="AK27" s="25">
         <v>95.76</v>
       </c>
       <c r="AL27" s="25">
-        <v>95.64</v>
+        <v>95.65</v>
       </c>
       <c r="AM27" s="25">
-        <v>95.86</v>
+        <v>95.87</v>
       </c>
       <c r="AN27" s="25">
-        <v>96.37</v>
+        <v>96.38</v>
       </c>
       <c r="AO27" s="25">
-        <v>96.22</v>
+        <v>96.23</v>
       </c>
       <c r="AP27" s="25">
-        <v>95.66</v>
+        <v>95.68</v>
       </c>
       <c r="AQ27" s="25">
-        <v>96.34</v>
+        <v>96.36</v>
       </c>
       <c r="AR27" s="25">
-        <v>96.85</v>
+        <v>96.86</v>
       </c>
       <c r="AS27" s="25">
-        <v>96.65</v>
+        <v>96.66</v>
       </c>
       <c r="AT27" s="25">
-        <v>95.77</v>
+        <v>95.78</v>
       </c>
       <c r="AU27" s="25">
-        <v>96.56</v>
+        <v>96.58</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.17</v>
+        <v>97.19</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.16</v>
+        <v>98.23</v>
       </c>
       <c r="AX27" s="25">
-        <v>98.44</v>
+        <v>98.34</v>
       </c>
       <c r="AY27" s="25">
-        <v>99.04</v>
+        <v>99.07</v>
       </c>
       <c r="AZ27" s="25">
-        <v>99.25</v>
+        <v>99.29</v>
       </c>
       <c r="BA27" s="25">
-        <v>99.01</v>
+        <v>99.05</v>
       </c>
       <c r="BB27" s="25">
-        <v>96.55</v>
+        <v>96.6</v>
       </c>
       <c r="BC27" s="25">
-        <v>93.72</v>
+        <v>93.74</v>
       </c>
       <c r="BD27" s="25">
-        <v>94.51</v>
+        <v>94.53</v>
       </c>
       <c r="BE27" s="25">
-        <v>94.87</v>
+        <v>94.9</v>
       </c>
       <c r="BF27" s="25">
-        <v>95.09</v>
+        <v>95.18</v>
       </c>
       <c r="BG27" s="25">
-        <v>96.52</v>
+        <v>96.57</v>
       </c>
       <c r="BH27" s="25">
-        <v>97.26</v>
+        <v>96.9</v>
       </c>
       <c r="BI27" s="25">
-        <v>98.5</v>
+        <v>97.93</v>
       </c>
       <c r="BJ27" s="25">
-        <v>97.8</v>
+        <v>97.87</v>
       </c>
       <c r="BK27" s="25">
-        <v>98.75</v>
-      </c>
-      <c r="BL27" s="25"/>
-      <c r="BM27" s="25"/>
+        <v>98.71</v>
+      </c>
+      <c r="BL27" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="BM27" s="25">
+        <v>98.89</v>
+      </c>
       <c r="BN27" s="25"/>
       <c r="BO27" s="25"/>
       <c r="BP27" s="25"/>
@@ -6191,37 +6257,37 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" s="25">
-        <v>86.31</v>
+        <v>86.33</v>
       </c>
       <c r="D28" s="25">
         <v>91.52</v>
       </c>
       <c r="E28" s="25">
-        <v>97.24</v>
+        <v>97.25</v>
       </c>
       <c r="F28" s="25">
-        <v>96.28</v>
+        <v>96.31</v>
       </c>
       <c r="G28" s="25">
         <v>95.31</v>
       </c>
       <c r="H28" s="25">
-        <v>96.45</v>
+        <v>96.46</v>
       </c>
       <c r="I28" s="25">
-        <v>97.5</v>
+        <v>97.49</v>
       </c>
       <c r="J28" s="25">
-        <v>97.88</v>
+        <v>97.89</v>
       </c>
       <c r="K28" s="25">
-        <v>98.6</v>
+        <v>98.62</v>
       </c>
       <c r="L28" s="25">
-        <v>99.54</v>
+        <v>99.58</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
@@ -6230,154 +6296,158 @@
         <v>98.82</v>
       </c>
       <c r="O28" s="25">
-        <v>94.94</v>
+        <v>94.96</v>
       </c>
       <c r="P28" s="25">
-        <v>91.46</v>
+        <v>91.5</v>
       </c>
       <c r="Q28" s="25">
-        <v>89.45</v>
+        <v>89.49</v>
       </c>
       <c r="R28" s="25">
-        <v>89.3</v>
+        <v>89.34</v>
       </c>
       <c r="S28" s="25">
-        <v>90.61</v>
+        <v>90.64</v>
       </c>
       <c r="T28" s="25">
-        <v>91.25</v>
+        <v>91.27</v>
       </c>
       <c r="U28" s="25">
-        <v>92.59</v>
+        <v>92.62</v>
       </c>
       <c r="V28" s="25">
-        <v>93.96</v>
+        <v>94.01</v>
       </c>
       <c r="W28" s="25">
-        <v>95.27</v>
+        <v>95.29</v>
       </c>
       <c r="X28" s="25">
-        <v>96.03</v>
+        <v>96.04</v>
       </c>
       <c r="Y28" s="25">
         <v>97.1</v>
       </c>
       <c r="Z28" s="25">
-        <v>98</v>
+        <v>98.03</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.64</v>
+        <v>98.65</v>
       </c>
       <c r="AB28" s="25">
-        <v>98.95</v>
+        <v>98.99</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.62</v>
+        <v>101.68</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.25</v>
+        <v>102.3</v>
       </c>
       <c r="AE28" s="25">
-        <v>102.51</v>
+        <v>102.58</v>
       </c>
       <c r="AF28" s="25">
-        <v>102.86</v>
+        <v>102.93</v>
       </c>
       <c r="AG28" s="25">
-        <v>103.26</v>
+        <v>103.33</v>
       </c>
       <c r="AH28" s="25">
-        <v>103.59</v>
+        <v>103.69</v>
       </c>
       <c r="AI28" s="25">
-        <v>104.03</v>
+        <v>104.12</v>
       </c>
       <c r="AJ28" s="25">
-        <v>104.19</v>
+        <v>104.29</v>
       </c>
       <c r="AK28" s="25">
-        <v>104.59</v>
+        <v>104.73</v>
       </c>
       <c r="AL28" s="25">
-        <v>104.67</v>
+        <v>104.8</v>
       </c>
       <c r="AM28" s="25">
-        <v>105.38</v>
+        <v>105.53</v>
       </c>
       <c r="AN28" s="25">
-        <v>105.96</v>
+        <v>106.11</v>
       </c>
       <c r="AO28" s="25">
-        <v>105.75</v>
+        <v>105.92</v>
       </c>
       <c r="AP28" s="25">
-        <v>104.35</v>
+        <v>104.58</v>
       </c>
       <c r="AQ28" s="25">
-        <v>103.47</v>
+        <v>103.76</v>
       </c>
       <c r="AR28" s="25">
-        <v>104.16</v>
+        <v>104.49</v>
       </c>
       <c r="AS28" s="25">
-        <v>104.58</v>
+        <v>104.93</v>
       </c>
       <c r="AT28" s="25">
-        <v>105.13</v>
+        <v>105.5</v>
       </c>
       <c r="AU28" s="25">
-        <v>105.73</v>
+        <v>106.15</v>
       </c>
       <c r="AV28" s="25">
-        <v>106.01</v>
+        <v>106.39</v>
       </c>
       <c r="AW28" s="25">
-        <v>106.22</v>
+        <v>106.63</v>
       </c>
       <c r="AX28" s="25">
-        <v>106.37</v>
+        <v>106.87</v>
       </c>
       <c r="AY28" s="25">
-        <v>106.32</v>
+        <v>107.01</v>
       </c>
       <c r="AZ28" s="25">
-        <v>105.93</v>
+        <v>106.65</v>
       </c>
       <c r="BA28" s="25">
-        <v>104.2</v>
+        <v>104.83</v>
       </c>
       <c r="BB28" s="25">
-        <v>96.26</v>
+        <v>96.84</v>
       </c>
       <c r="BC28" s="25">
-        <v>91.56</v>
+        <v>92.13</v>
       </c>
       <c r="BD28" s="25">
-        <v>95.03</v>
+        <v>95.74</v>
       </c>
       <c r="BE28" s="25">
-        <v>98.37</v>
+        <v>99.22</v>
       </c>
       <c r="BF28" s="25">
-        <v>99.26</v>
+        <v>100.24</v>
       </c>
       <c r="BG28" s="25">
-        <v>100.02</v>
+        <v>101.07</v>
       </c>
       <c r="BH28" s="25">
-        <v>101.93</v>
+        <v>102.42</v>
       </c>
       <c r="BI28" s="25">
-        <v>103.54</v>
+        <v>104.27</v>
       </c>
       <c r="BJ28" s="25">
-        <v>102.99</v>
+        <v>104.81</v>
       </c>
       <c r="BK28" s="25">
-        <v>102.98</v>
-      </c>
-      <c r="BL28" s="25"/>
-      <c r="BM28" s="25"/>
+        <v>104.75</v>
+      </c>
+      <c r="BL28" s="25">
+        <v>103.87</v>
+      </c>
+      <c r="BM28" s="25">
+        <v>103.89</v>
+      </c>
       <c r="BN28" s="25"/>
       <c r="BO28" s="25"/>
       <c r="BP28" s="25"/>
@@ -6403,13 +6473,13 @@
         <v>91.3</v>
       </c>
       <c r="D29" s="25">
-        <v>92.7</v>
+        <v>92.71</v>
       </c>
       <c r="E29" s="25">
-        <v>94.22</v>
+        <v>94.23</v>
       </c>
       <c r="F29" s="25">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="G29" s="25">
         <v>98.54</v>
@@ -6421,22 +6491,22 @@
         <v>99.75</v>
       </c>
       <c r="J29" s="25">
-        <v>99.88</v>
+        <v>99.9</v>
       </c>
       <c r="K29" s="25">
-        <v>100.15</v>
+        <v>100.17</v>
       </c>
       <c r="L29" s="25">
-        <v>99.93</v>
+        <v>99.94</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.43</v>
+        <v>98.44</v>
       </c>
       <c r="O29" s="25">
-        <v>93.38</v>
+        <v>93.37</v>
       </c>
       <c r="P29" s="25">
         <v>90.62</v>
@@ -6445,145 +6515,149 @@
         <v>89.64</v>
       </c>
       <c r="R29" s="25">
-        <v>89.73</v>
+        <v>89.72</v>
       </c>
       <c r="S29" s="25">
-        <v>90.13</v>
+        <v>90.12</v>
       </c>
       <c r="T29" s="25">
-        <v>90.91</v>
+        <v>90.89</v>
       </c>
       <c r="U29" s="25">
-        <v>91.89</v>
+        <v>91.88</v>
       </c>
       <c r="V29" s="25">
         <v>93.45</v>
       </c>
       <c r="W29" s="25">
-        <v>93.91</v>
+        <v>93.9</v>
       </c>
       <c r="X29" s="25">
-        <v>93.97</v>
+        <v>93.95</v>
       </c>
       <c r="Y29" s="25">
-        <v>94.46</v>
+        <v>94.44</v>
       </c>
       <c r="Z29" s="25">
-        <v>95.11</v>
+        <v>95.1</v>
       </c>
       <c r="AA29" s="25">
-        <v>96.11</v>
+        <v>96.08</v>
       </c>
       <c r="AB29" s="25">
-        <v>96.18</v>
+        <v>96.15</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.64</v>
+        <v>96.66</v>
       </c>
       <c r="AD29" s="25">
-        <v>96.29</v>
+        <v>96.35</v>
       </c>
       <c r="AE29" s="25">
-        <v>95.44</v>
+        <v>95.49</v>
       </c>
       <c r="AF29" s="25">
-        <v>95.62</v>
+        <v>95.67</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.88</v>
+        <v>95.93</v>
       </c>
       <c r="AH29" s="25">
-        <v>96.91</v>
+        <v>97.01</v>
       </c>
       <c r="AI29" s="25">
-        <v>97.44</v>
+        <v>97.54</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.59</v>
+        <v>97.68</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.31</v>
+        <v>97.41</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.59</v>
+        <v>97.68</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.62</v>
+        <v>97.71</v>
       </c>
       <c r="AN29" s="25">
+        <v>98.21</v>
+      </c>
+      <c r="AO29" s="25">
+        <v>98.13</v>
+      </c>
+      <c r="AP29" s="25">
+        <v>97.69</v>
+      </c>
+      <c r="AQ29" s="25">
+        <v>97.17</v>
+      </c>
+      <c r="AR29" s="25">
+        <v>97</v>
+      </c>
+      <c r="AS29" s="25">
+        <v>97.35</v>
+      </c>
+      <c r="AT29" s="25">
+        <v>98.11</v>
+      </c>
+      <c r="AU29" s="25">
+        <v>98.73</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>99.11</v>
+      </c>
+      <c r="AW29" s="25">
+        <v>99.78</v>
+      </c>
+      <c r="AX29" s="25">
+        <v>99.74</v>
+      </c>
+      <c r="AY29" s="25">
+        <v>99.71</v>
+      </c>
+      <c r="AZ29" s="25">
+        <v>99.18</v>
+      </c>
+      <c r="BA29" s="25">
         <v>98.16</v>
       </c>
-      <c r="AO29" s="25">
-        <v>98.12</v>
-      </c>
-      <c r="AP29" s="25">
-        <v>97.66</v>
-      </c>
-      <c r="AQ29" s="25">
-        <v>97.12</v>
-      </c>
-      <c r="AR29" s="25">
-        <v>96.95</v>
-      </c>
-      <c r="AS29" s="25">
-        <v>97.3</v>
-      </c>
-      <c r="AT29" s="25">
-        <v>98.07</v>
-      </c>
-      <c r="AU29" s="25">
-        <v>98.67</v>
-      </c>
-      <c r="AV29" s="25">
-        <v>99.05</v>
-      </c>
-      <c r="AW29" s="25">
-        <v>99.7</v>
-      </c>
-      <c r="AX29" s="25">
-        <v>99.65</v>
-      </c>
-      <c r="AY29" s="25">
-        <v>99.63</v>
-      </c>
-      <c r="AZ29" s="25">
-        <v>99.12</v>
-      </c>
-      <c r="BA29" s="25">
-        <v>98.1</v>
-      </c>
       <c r="BB29" s="25">
-        <v>92.81</v>
+        <v>92.86</v>
       </c>
       <c r="BC29" s="25">
-        <v>90.76</v>
+        <v>90.8</v>
       </c>
       <c r="BD29" s="25">
-        <v>92.22</v>
+        <v>92.29</v>
       </c>
       <c r="BE29" s="25">
-        <v>94.49</v>
+        <v>94.63</v>
       </c>
       <c r="BF29" s="25">
-        <v>94.78</v>
+        <v>94.94</v>
       </c>
       <c r="BG29" s="25">
-        <v>94.38</v>
+        <v>94.57</v>
       </c>
       <c r="BH29" s="25">
-        <v>97.06</v>
+        <v>96.27</v>
       </c>
       <c r="BI29" s="25">
-        <v>98.51</v>
+        <v>97.69</v>
       </c>
       <c r="BJ29" s="25">
-        <v>98.72</v>
+        <v>99.02</v>
       </c>
       <c r="BK29" s="25">
-        <v>98.92</v>
-      </c>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
+        <v>99.52</v>
+      </c>
+      <c r="BL29" s="25">
+        <v>99.8</v>
+      </c>
+      <c r="BM29" s="25">
+        <v>99.99</v>
+      </c>
       <c r="BN29" s="25"/>
       <c r="BO29" s="25"/>
       <c r="BP29" s="25"/>
@@ -6603,31 +6677,31 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C30" s="25">
         <v>96.51</v>
       </c>
       <c r="D30" s="25">
-        <v>96.65</v>
+        <v>96.66</v>
       </c>
       <c r="E30" s="25">
-        <v>95.47</v>
+        <v>95.48</v>
       </c>
       <c r="F30" s="25">
-        <v>96.04</v>
+        <v>96.05</v>
       </c>
       <c r="G30" s="25">
-        <v>97.63</v>
+        <v>97.62</v>
       </c>
       <c r="H30" s="25">
         <v>99.9</v>
       </c>
       <c r="I30" s="25">
-        <v>100.1</v>
+        <v>100.09</v>
       </c>
       <c r="J30" s="25">
-        <v>98.58</v>
+        <v>98.57</v>
       </c>
       <c r="K30" s="25">
         <v>98.03</v>
@@ -6651,145 +6725,149 @@
         <v>95.78</v>
       </c>
       <c r="R30" s="25">
-        <v>95.76</v>
+        <v>95.75</v>
       </c>
       <c r="S30" s="25">
-        <v>96.11</v>
+        <v>96.1</v>
       </c>
       <c r="T30" s="25">
-        <v>96.59</v>
+        <v>96.58</v>
       </c>
       <c r="U30" s="25">
         <v>96.86</v>
       </c>
       <c r="V30" s="25">
-        <v>97.1</v>
+        <v>97.09</v>
       </c>
       <c r="W30" s="25">
-        <v>97.73</v>
+        <v>97.72</v>
       </c>
       <c r="X30" s="25">
-        <v>97.97</v>
+        <v>97.96</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.32</v>
+        <v>96.31</v>
       </c>
       <c r="Z30" s="25">
-        <v>97.41</v>
+        <v>97.4</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.03</v>
+        <v>98.02</v>
       </c>
       <c r="AB30" s="25">
         <v>96.4</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.91</v>
+        <v>97.92</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.88</v>
+        <v>98.9</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.64</v>
+        <v>98.66</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.83</v>
+        <v>98.85</v>
       </c>
       <c r="AG30" s="25">
-        <v>99.36</v>
+        <v>99.37</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.86</v>
+        <v>100.88</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.4</v>
+        <v>100.41</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.89</v>
+        <v>100.91</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.79</v>
+        <v>100.81</v>
       </c>
       <c r="AL30" s="25">
-        <v>100.13</v>
+        <v>100.15</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.75</v>
+        <v>99.77</v>
       </c>
       <c r="AN30" s="25">
+        <v>100.29</v>
+      </c>
+      <c r="AO30" s="25">
+        <v>100.29</v>
+      </c>
+      <c r="AP30" s="25">
+        <v>99.89</v>
+      </c>
+      <c r="AQ30" s="25">
+        <v>99.37</v>
+      </c>
+      <c r="AR30" s="25">
+        <v>99.79</v>
+      </c>
+      <c r="AS30" s="25">
+        <v>100.41</v>
+      </c>
+      <c r="AT30" s="25">
+        <v>100.7</v>
+      </c>
+      <c r="AU30" s="25">
+        <v>100.95</v>
+      </c>
+      <c r="AV30" s="25">
+        <v>101.01</v>
+      </c>
+      <c r="AW30" s="25">
+        <v>101.31</v>
+      </c>
+      <c r="AX30" s="25">
+        <v>101.83</v>
+      </c>
+      <c r="AY30" s="25">
+        <v>102.56</v>
+      </c>
+      <c r="AZ30" s="25">
+        <v>102.5</v>
+      </c>
+      <c r="BA30" s="25">
+        <v>101.62</v>
+      </c>
+      <c r="BB30" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="BC30" s="25">
+        <v>97.49</v>
+      </c>
+      <c r="BD30" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="BE30" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="BF30" s="25">
+        <v>98.98</v>
+      </c>
+      <c r="BG30" s="25">
+        <v>99.45</v>
+      </c>
+      <c r="BH30" s="25">
+        <v>99.01</v>
+      </c>
+      <c r="BI30" s="25">
         <v>100.26</v>
       </c>
-      <c r="AO30" s="25">
-        <v>100.27</v>
-      </c>
-      <c r="AP30" s="25">
-        <v>99.87</v>
-      </c>
-      <c r="AQ30" s="25">
-        <v>99.35</v>
-      </c>
-      <c r="AR30" s="25">
-        <v>99.78</v>
-      </c>
-      <c r="AS30" s="25">
-        <v>100.4</v>
-      </c>
-      <c r="AT30" s="25">
-        <v>100.68</v>
-      </c>
-      <c r="AU30" s="25">
-        <v>100.93</v>
-      </c>
-      <c r="AV30" s="25">
-        <v>100.99</v>
-      </c>
-      <c r="AW30" s="25">
-        <v>101.29</v>
-      </c>
-      <c r="AX30" s="25">
-        <v>101.82</v>
-      </c>
-      <c r="AY30" s="25">
-        <v>102.53</v>
-      </c>
-      <c r="AZ30" s="25">
-        <v>102.45</v>
-      </c>
-      <c r="BA30" s="25">
-        <v>101.57</v>
-      </c>
-      <c r="BB30" s="25">
-        <v>98.64</v>
-      </c>
-      <c r="BC30" s="25">
-        <v>97.47</v>
-      </c>
-      <c r="BD30" s="25">
-        <v>98.28</v>
-      </c>
-      <c r="BE30" s="25">
-        <v>98.55</v>
-      </c>
-      <c r="BF30" s="25">
-        <v>98.92</v>
-      </c>
-      <c r="BG30" s="25">
-        <v>99.35</v>
-      </c>
-      <c r="BH30" s="25">
-        <v>99.75</v>
-      </c>
-      <c r="BI30" s="25">
-        <v>101.39</v>
-      </c>
       <c r="BJ30" s="25">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="BK30" s="25">
-        <v>102.41</v>
-      </c>
-      <c r="BL30" s="25"/>
-      <c r="BM30" s="25"/>
+        <v>101.9</v>
+      </c>
+      <c r="BL30" s="25">
+        <v>102.02</v>
+      </c>
+      <c r="BM30" s="25">
+        <v>103.62</v>
+      </c>
       <c r="BN30" s="25"/>
       <c r="BO30" s="25"/>
       <c r="BP30" s="25"/>
@@ -6809,7 +6887,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C31" s="25">
         <v>84.74</v>
@@ -6818,37 +6896,37 @@
         <v>89.99</v>
       </c>
       <c r="E31" s="25">
-        <v>93.78</v>
+        <v>93.79</v>
       </c>
       <c r="F31" s="25">
-        <v>94.68</v>
+        <v>94.69</v>
       </c>
       <c r="G31" s="25">
-        <v>95.45</v>
+        <v>95.46</v>
       </c>
       <c r="H31" s="25">
         <v>97.14</v>
       </c>
       <c r="I31" s="25">
-        <v>98.09</v>
+        <v>98.1</v>
       </c>
       <c r="J31" s="25">
-        <v>98.58</v>
+        <v>98.59</v>
       </c>
       <c r="K31" s="25">
-        <v>99.33</v>
+        <v>99.34</v>
       </c>
       <c r="L31" s="25">
-        <v>100.14</v>
+        <v>100.13</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.08</v>
+        <v>99.09</v>
       </c>
       <c r="O31" s="25">
-        <v>94.48</v>
+        <v>94.5</v>
       </c>
       <c r="P31" s="25">
         <v>90.9</v>
@@ -6857,145 +6935,149 @@
         <v>89.31</v>
       </c>
       <c r="R31" s="25">
-        <v>89.3</v>
+        <v>89.32</v>
       </c>
       <c r="S31" s="25">
-        <v>89.69</v>
+        <v>89.7</v>
       </c>
       <c r="T31" s="25">
-        <v>90.67</v>
+        <v>90.68</v>
       </c>
       <c r="U31" s="25">
-        <v>92.05</v>
+        <v>92.07</v>
       </c>
       <c r="V31" s="25">
-        <v>92.83</v>
+        <v>92.85</v>
       </c>
       <c r="W31" s="25">
-        <v>93.36</v>
+        <v>93.39</v>
       </c>
       <c r="X31" s="25">
-        <v>94.42</v>
+        <v>94.45</v>
       </c>
       <c r="Y31" s="25">
-        <v>95.4</v>
+        <v>95.43</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.27</v>
+        <v>96.3</v>
       </c>
       <c r="AA31" s="25">
-        <v>97.1</v>
+        <v>97.13</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.55</v>
+        <v>98.59</v>
       </c>
       <c r="AC31" s="25">
-        <v>100.65</v>
+        <v>100.78</v>
       </c>
       <c r="AD31" s="25">
-        <v>101.3</v>
+        <v>101.49</v>
       </c>
       <c r="AE31" s="25">
-        <v>101.31</v>
+        <v>101.51</v>
       </c>
       <c r="AF31" s="25">
-        <v>102.02</v>
+        <v>102.22</v>
       </c>
       <c r="AG31" s="25">
-        <v>102.99</v>
+        <v>103.17</v>
       </c>
       <c r="AH31" s="25">
-        <v>103.6</v>
+        <v>103.78</v>
       </c>
       <c r="AI31" s="25">
-        <v>103.81</v>
+        <v>103.99</v>
       </c>
       <c r="AJ31" s="25">
-        <v>103.96</v>
+        <v>104.15</v>
       </c>
       <c r="AK31" s="25">
+        <v>104.33</v>
+      </c>
+      <c r="AL31" s="25">
+        <v>104.72</v>
+      </c>
+      <c r="AM31" s="25">
+        <v>105.29</v>
+      </c>
+      <c r="AN31" s="25">
+        <v>105.28</v>
+      </c>
+      <c r="AO31" s="25">
+        <v>105.23</v>
+      </c>
+      <c r="AP31" s="25">
+        <v>103.47</v>
+      </c>
+      <c r="AQ31" s="25">
+        <v>102.77</v>
+      </c>
+      <c r="AR31" s="25">
+        <v>104.06</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>104.49</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>104.55</v>
+      </c>
+      <c r="AU31" s="25">
+        <v>104.3</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>104.9</v>
+      </c>
+      <c r="AW31" s="25">
+        <v>105.23</v>
+      </c>
+      <c r="AX31" s="25">
+        <v>105.5</v>
+      </c>
+      <c r="AY31" s="25">
+        <v>105.88</v>
+      </c>
+      <c r="AZ31" s="25">
+        <v>105.61</v>
+      </c>
+      <c r="BA31" s="25">
         <v>104.15</v>
       </c>
-      <c r="AL31" s="25">
-        <v>104.54</v>
-      </c>
-      <c r="AM31" s="25">
-        <v>105.08</v>
-      </c>
-      <c r="AN31" s="25">
-        <v>105.07</v>
-      </c>
-      <c r="AO31" s="25">
-        <v>105</v>
-      </c>
-      <c r="AP31" s="25">
-        <v>103.17</v>
-      </c>
-      <c r="AQ31" s="25">
-        <v>102.38</v>
-      </c>
-      <c r="AR31" s="25">
-        <v>103.65</v>
-      </c>
-      <c r="AS31" s="25">
-        <v>104.06</v>
-      </c>
-      <c r="AT31" s="25">
-        <v>104.12</v>
-      </c>
-      <c r="AU31" s="25">
-        <v>103.83</v>
-      </c>
-      <c r="AV31" s="25">
-        <v>104.42</v>
-      </c>
-      <c r="AW31" s="25">
-        <v>104.71</v>
-      </c>
-      <c r="AX31" s="25">
-        <v>104.94</v>
-      </c>
-      <c r="AY31" s="25">
-        <v>105.26</v>
-      </c>
-      <c r="AZ31" s="25">
-        <v>104.91</v>
-      </c>
-      <c r="BA31" s="25">
-        <v>103.43</v>
-      </c>
       <c r="BB31" s="25">
-        <v>96.68</v>
+        <v>97.4</v>
       </c>
       <c r="BC31" s="25">
-        <v>91.64</v>
+        <v>92.38</v>
       </c>
       <c r="BD31" s="25">
-        <v>94.71</v>
+        <v>95.54</v>
       </c>
       <c r="BE31" s="25">
-        <v>98.44</v>
+        <v>99.44</v>
       </c>
       <c r="BF31" s="25">
-        <v>99.92</v>
+        <v>101.33</v>
       </c>
       <c r="BG31" s="25">
-        <v>99.7</v>
+        <v>101.28</v>
       </c>
       <c r="BH31" s="25">
-        <v>100.05</v>
+        <v>101.2</v>
       </c>
       <c r="BI31" s="25">
-        <v>100.44</v>
+        <v>101.6</v>
       </c>
       <c r="BJ31" s="25">
-        <v>99.04</v>
+        <v>101.78</v>
       </c>
       <c r="BK31" s="25">
-        <v>98.54</v>
-      </c>
-      <c r="BL31" s="25"/>
-      <c r="BM31" s="25"/>
+        <v>101.48</v>
+      </c>
+      <c r="BL31" s="25">
+        <v>99.72</v>
+      </c>
+      <c r="BM31" s="25">
+        <v>98.14</v>
+      </c>
       <c r="BN31" s="25"/>
       <c r="BO31" s="25"/>
       <c r="BP31" s="25"/>
@@ -7018,13 +7100,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.01</v>
+        <v>91.02</v>
       </c>
       <c r="D32" s="25">
-        <v>94.8</v>
+        <v>94.81</v>
       </c>
       <c r="E32" s="25">
-        <v>97.38</v>
+        <v>97.39</v>
       </c>
       <c r="F32" s="25">
         <v>97.45</v>
@@ -7033,16 +7115,16 @@
         <v>98.09</v>
       </c>
       <c r="H32" s="25">
-        <v>99.59</v>
+        <v>99.6</v>
       </c>
       <c r="I32" s="25">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="J32" s="25">
-        <v>101.21</v>
+        <v>101.22</v>
       </c>
       <c r="K32" s="25">
-        <v>102.09</v>
+        <v>102.1</v>
       </c>
       <c r="L32" s="25">
         <v>101.86</v>
@@ -7066,13 +7148,13 @@
         <v>87.31</v>
       </c>
       <c r="S32" s="25">
-        <v>87.5</v>
+        <v>87.51</v>
       </c>
       <c r="T32" s="25">
-        <v>87.52</v>
+        <v>87.51</v>
       </c>
       <c r="U32" s="25">
-        <v>88.57</v>
+        <v>88.58</v>
       </c>
       <c r="V32" s="25">
         <v>89.34</v>
@@ -7084,124 +7166,128 @@
         <v>90.95</v>
       </c>
       <c r="Y32" s="25">
-        <v>91.64</v>
+        <v>91.65</v>
       </c>
       <c r="Z32" s="25">
-        <v>92.64</v>
+        <v>92.62</v>
       </c>
       <c r="AA32" s="25">
-        <v>93.06</v>
+        <v>93.05</v>
       </c>
       <c r="AB32" s="25">
         <v>92.84</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.41</v>
+        <v>93.47</v>
       </c>
       <c r="AD32" s="25">
-        <v>95.26</v>
+        <v>95.36</v>
       </c>
       <c r="AE32" s="25">
-        <v>94.93</v>
+        <v>95.03</v>
       </c>
       <c r="AF32" s="25">
-        <v>95.25</v>
+        <v>95.35</v>
       </c>
       <c r="AG32" s="25">
-        <v>95.48</v>
+        <v>95.59</v>
       </c>
       <c r="AH32" s="25">
-        <v>96</v>
+        <v>96.14</v>
       </c>
       <c r="AI32" s="25">
-        <v>96.21</v>
+        <v>96.37</v>
       </c>
       <c r="AJ32" s="25">
-        <v>96.21</v>
+        <v>96.38</v>
       </c>
       <c r="AK32" s="25">
-        <v>95.59</v>
+        <v>95.76</v>
       </c>
       <c r="AL32" s="25">
-        <v>96.05</v>
+        <v>96.15</v>
       </c>
       <c r="AM32" s="25">
-        <v>96.59</v>
+        <v>96.73</v>
       </c>
       <c r="AN32" s="25">
-        <v>96.42</v>
+        <v>96.6</v>
       </c>
       <c r="AO32" s="25">
-        <v>96.17</v>
+        <v>96.34</v>
       </c>
       <c r="AP32" s="25">
-        <v>96.02</v>
+        <v>96.16</v>
       </c>
       <c r="AQ32" s="25">
-        <v>96.57</v>
+        <v>96.68</v>
       </c>
       <c r="AR32" s="25">
-        <v>97.4</v>
+        <v>97.52</v>
       </c>
       <c r="AS32" s="25">
-        <v>98.35</v>
+        <v>98.46</v>
       </c>
       <c r="AT32" s="25">
-        <v>98.04</v>
+        <v>98.2</v>
       </c>
       <c r="AU32" s="25">
-        <v>97.72</v>
+        <v>97.9</v>
       </c>
       <c r="AV32" s="25">
-        <v>97.76</v>
+        <v>97.95</v>
       </c>
       <c r="AW32" s="25">
-        <v>98.61</v>
+        <v>98.8</v>
       </c>
       <c r="AX32" s="25">
-        <v>98.53</v>
+        <v>98.59</v>
       </c>
       <c r="AY32" s="25">
-        <v>98.63</v>
+        <v>98.73</v>
       </c>
       <c r="AZ32" s="25">
-        <v>98.67</v>
+        <v>98.87</v>
       </c>
       <c r="BA32" s="25">
-        <v>97.24</v>
+        <v>97.41</v>
       </c>
       <c r="BB32" s="25">
-        <v>91.51</v>
+        <v>91.68</v>
       </c>
       <c r="BC32" s="25">
-        <v>88.55</v>
+        <v>88.74</v>
       </c>
       <c r="BD32" s="25">
-        <v>90.84</v>
+        <v>91.04</v>
       </c>
       <c r="BE32" s="25">
-        <v>93.27</v>
+        <v>93.6</v>
       </c>
       <c r="BF32" s="25">
-        <v>94.92</v>
+        <v>95.52</v>
       </c>
       <c r="BG32" s="25">
-        <v>96.1</v>
+        <v>96.8</v>
       </c>
       <c r="BH32" s="25">
-        <v>97.29</v>
+        <v>97.17</v>
       </c>
       <c r="BI32" s="25">
-        <v>98.04</v>
+        <v>97.73</v>
       </c>
       <c r="BJ32" s="25">
-        <v>97.4</v>
+        <v>98.1</v>
       </c>
       <c r="BK32" s="25">
-        <v>98.03</v>
-      </c>
-      <c r="BL32" s="25"/>
-      <c r="BM32" s="25"/>
+        <v>98.99</v>
+      </c>
+      <c r="BL32" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="BM32" s="25">
+        <v>97.92</v>
+      </c>
       <c r="BN32" s="25"/>
       <c r="BO32" s="25"/>
       <c r="BP32" s="25"/>
@@ -7221,10 +7307,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" s="25">
-        <v>96.63</v>
+        <v>96.62</v>
       </c>
       <c r="D33" s="25">
         <v>97.01</v>
@@ -7266,7 +7352,7 @@
         <v>96.08</v>
       </c>
       <c r="Q33" s="25">
-        <v>95.99</v>
+        <v>95.98</v>
       </c>
       <c r="R33" s="25">
         <v>95.96</v>
@@ -7290,7 +7376,7 @@
         <v>96.75</v>
       </c>
       <c r="Y33" s="25">
-        <v>96.55</v>
+        <v>96.54</v>
       </c>
       <c r="Z33" s="25">
         <v>96.4</v>
@@ -7302,112 +7388,116 @@
         <v>96.19</v>
       </c>
       <c r="AC33" s="25">
-        <v>96.96</v>
+        <v>96.97</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.75</v>
+        <v>97.78</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.7</v>
+        <v>97.73</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.47</v>
+        <v>97.51</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.91</v>
+        <v>97.93</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.91</v>
+        <v>97.94</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.62</v>
+        <v>97.65</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.41</v>
+        <v>97.44</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.66</v>
+        <v>97.69</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.77</v>
+        <v>97.81</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.16</v>
+        <v>98.18</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.24</v>
+        <v>98.27</v>
       </c>
       <c r="AO33" s="25">
-        <v>97.9</v>
+        <v>97.92</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.73</v>
+        <v>97.76</v>
       </c>
       <c r="AQ33" s="25">
-        <v>97.77</v>
+        <v>97.79</v>
       </c>
       <c r="AR33" s="25">
-        <v>98.38</v>
+        <v>98.39</v>
       </c>
       <c r="AS33" s="25">
-        <v>98.55</v>
+        <v>98.56</v>
       </c>
       <c r="AT33" s="25">
-        <v>97.77</v>
+        <v>97.78</v>
       </c>
       <c r="AU33" s="25">
-        <v>97.93</v>
+        <v>97.95</v>
       </c>
       <c r="AV33" s="25">
-        <v>98.28</v>
+        <v>98.29</v>
       </c>
       <c r="AW33" s="25">
-        <v>98.33</v>
+        <v>98.35</v>
       </c>
       <c r="AX33" s="25">
-        <v>98.36</v>
+        <v>98.37</v>
       </c>
       <c r="AY33" s="25">
-        <v>98.85</v>
+        <v>98.87</v>
       </c>
       <c r="AZ33" s="25">
-        <v>98.39</v>
+        <v>98.42</v>
       </c>
       <c r="BA33" s="25">
-        <v>98.51</v>
+        <v>98.53</v>
       </c>
       <c r="BB33" s="25">
-        <v>96.19</v>
+        <v>96.21</v>
       </c>
       <c r="BC33" s="25">
-        <v>94.18</v>
+        <v>94.19</v>
       </c>
       <c r="BD33" s="25">
-        <v>93.91</v>
+        <v>93.9</v>
       </c>
       <c r="BE33" s="25">
-        <v>95.3</v>
+        <v>95.28</v>
       </c>
       <c r="BF33" s="25">
-        <v>95.78</v>
+        <v>95.77</v>
       </c>
       <c r="BG33" s="25">
-        <v>96.29</v>
+        <v>96.1</v>
       </c>
       <c r="BH33" s="25">
-        <v>97.05</v>
+        <v>96.5</v>
       </c>
       <c r="BI33" s="25">
-        <v>98.4</v>
+        <v>97.1</v>
       </c>
       <c r="BJ33" s="25">
-        <v>98.37</v>
+        <v>97.86</v>
       </c>
       <c r="BK33" s="25">
-        <v>99.33</v>
-      </c>
-      <c r="BL33" s="25"/>
-      <c r="BM33" s="25"/>
+        <v>98.87</v>
+      </c>
+      <c r="BL33" s="25">
+        <v>98.98</v>
+      </c>
+      <c r="BM33" s="25">
+        <v>100.57</v>
+      </c>
       <c r="BN33" s="25"/>
       <c r="BO33" s="25"/>
       <c r="BP33" s="25"/>
@@ -7423,9 +7513,6 @@
       <c r="BZ33" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E5448-0296-4288-A380-004E52C1F241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A96C92C-CB95-492B-BBC5-794E282CFC8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t xml:space="preserve">            Australian Bureau of Statistics</t>
   </si>
@@ -90,16 +90,7 @@
     <t>8. ACT</t>
   </si>
   <si>
-    <t>Payroll jobs index by Employment size</t>
-  </si>
-  <si>
     <t>© Commonwealth of Australia 2021</t>
-  </si>
-  <si>
-    <t>Released at 11.30am (Canberra time) 30 March 2021</t>
-  </si>
-  <si>
-    <t>Week ending Saturday 13 March 2021</t>
   </si>
   <si>
     <t>0-19 employees</t>
@@ -108,16 +99,28 @@
     <t>200+ employees</t>
   </si>
   <si>
+    <t>Released at 11.30am (Canberra time) 13 April 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 27 March 2021</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employer characteristics</t>
+  </si>
+  <si>
     <t>State or Territory</t>
   </si>
   <si>
     <t>Employment size</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by employment size</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment Size</t>
+    <t>Payroll jobs index by employment size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +231,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,7 +280,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -344,6 +355,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1104,12 +1119,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1184,7 +1199,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="29"/>
     </row>
@@ -1390,7 +1405,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1552,9 +1567,11 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:78" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1828,8 +1845,12 @@
       <c r="BM6" s="24">
         <v>44268</v>
       </c>
-      <c r="BN6" s="24"/>
-      <c r="BO6" s="24"/>
+      <c r="BN6" s="24">
+        <v>44275</v>
+      </c>
+      <c r="BO6" s="24">
+        <v>44282</v>
+      </c>
       <c r="BP6" s="24"/>
       <c r="BQ6" s="24"/>
       <c r="BR6" s="24"/>
@@ -1847,34 +1868,34 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="25">
-        <v>87.32</v>
+        <v>87.92</v>
       </c>
       <c r="D7" s="25">
-        <v>92.05</v>
+        <v>92.03</v>
       </c>
       <c r="E7" s="25">
-        <v>94.69</v>
+        <v>94.66</v>
       </c>
       <c r="F7" s="25">
-        <v>95.75</v>
+        <v>95.72</v>
       </c>
       <c r="G7" s="25">
-        <v>96.46</v>
+        <v>96.43</v>
       </c>
       <c r="H7" s="25">
-        <v>97.61</v>
+        <v>97.59</v>
       </c>
       <c r="I7" s="25">
-        <v>98.09</v>
+        <v>98.06</v>
       </c>
       <c r="J7" s="25">
-        <v>98.61</v>
+        <v>98.57</v>
       </c>
       <c r="K7" s="25">
-        <v>99.09</v>
+        <v>99.06</v>
       </c>
       <c r="L7" s="25">
         <v>99.98</v>
@@ -1883,163 +1904,167 @@
         <v>100</v>
       </c>
       <c r="N7" s="25">
-        <v>98.82</v>
+        <v>98.85</v>
       </c>
       <c r="O7" s="25">
-        <v>93.88</v>
+        <v>93.97</v>
       </c>
       <c r="P7" s="25">
-        <v>90.55</v>
+        <v>90.7</v>
       </c>
       <c r="Q7" s="25">
-        <v>88.73</v>
+        <v>88.91</v>
       </c>
       <c r="R7" s="25">
-        <v>88.55</v>
+        <v>88.72</v>
       </c>
       <c r="S7" s="25">
-        <v>89.31</v>
+        <v>89.49</v>
       </c>
       <c r="T7" s="25">
-        <v>90.48</v>
+        <v>90.67</v>
       </c>
       <c r="U7" s="25">
-        <v>91.82</v>
+        <v>92.03</v>
       </c>
       <c r="V7" s="25">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="W7" s="25">
-        <v>93.6</v>
+        <v>93.8</v>
       </c>
       <c r="X7" s="25">
-        <v>94.11</v>
+        <v>94.32</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.42</v>
+        <v>95.63</v>
       </c>
       <c r="Z7" s="25">
-        <v>95.95</v>
+        <v>96.15</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.51</v>
+        <v>96.7</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.41</v>
+        <v>97.61</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.68</v>
+        <v>99.83</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.55</v>
+        <v>100.66</v>
       </c>
       <c r="AE7" s="25">
-        <v>100.73</v>
+        <v>100.86</v>
       </c>
       <c r="AF7" s="25">
-        <v>101.17</v>
+        <v>101.31</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.32</v>
+        <v>101.47</v>
       </c>
       <c r="AH7" s="25">
-        <v>101.37</v>
+        <v>101.54</v>
       </c>
       <c r="AI7" s="25">
-        <v>101.39</v>
+        <v>101.56</v>
       </c>
       <c r="AJ7" s="25">
-        <v>101.53</v>
+        <v>101.71</v>
       </c>
       <c r="AK7" s="25">
-        <v>101.8</v>
+        <v>101.98</v>
       </c>
       <c r="AL7" s="25">
-        <v>102.09</v>
+        <v>102.29</v>
       </c>
       <c r="AM7" s="25">
-        <v>102.67</v>
+        <v>102.88</v>
       </c>
       <c r="AN7" s="25">
-        <v>102.76</v>
+        <v>102.97</v>
       </c>
       <c r="AO7" s="25">
-        <v>102.58</v>
+        <v>102.8</v>
       </c>
       <c r="AP7" s="25">
-        <v>101.26</v>
+        <v>101.61</v>
       </c>
       <c r="AQ7" s="25">
-        <v>101.05</v>
+        <v>101.57</v>
       </c>
       <c r="AR7" s="25">
-        <v>101.81</v>
+        <v>102.36</v>
       </c>
       <c r="AS7" s="25">
-        <v>102.21</v>
+        <v>102.77</v>
       </c>
       <c r="AT7" s="25">
-        <v>102.51</v>
+        <v>103.08</v>
       </c>
       <c r="AU7" s="25">
-        <v>103.04</v>
+        <v>103.64</v>
       </c>
       <c r="AV7" s="25">
-        <v>103.83</v>
+        <v>104.47</v>
       </c>
       <c r="AW7" s="25">
-        <v>104.21</v>
+        <v>104.87</v>
       </c>
       <c r="AX7" s="25">
-        <v>104.58</v>
+        <v>105.26</v>
       </c>
       <c r="AY7" s="25">
-        <v>104.86</v>
+        <v>105.58</v>
       </c>
       <c r="AZ7" s="25">
-        <v>104.84</v>
+        <v>105.59</v>
       </c>
       <c r="BA7" s="25">
-        <v>103.51</v>
+        <v>104.27</v>
       </c>
       <c r="BB7" s="25">
-        <v>97.92</v>
+        <v>98.65</v>
       </c>
       <c r="BC7" s="25">
-        <v>93.25</v>
+        <v>93.67</v>
       </c>
       <c r="BD7" s="25">
-        <v>95.48</v>
+        <v>95.19</v>
       </c>
       <c r="BE7" s="25">
-        <v>98.78</v>
+        <v>98.57</v>
       </c>
       <c r="BF7" s="25">
-        <v>100.06</v>
+        <v>99.94</v>
       </c>
       <c r="BG7" s="25">
-        <v>100.09</v>
+        <v>100.12</v>
       </c>
       <c r="BH7" s="25">
-        <v>99.55</v>
+        <v>100.96</v>
       </c>
       <c r="BI7" s="25">
-        <v>99.78</v>
+        <v>101.25</v>
       </c>
       <c r="BJ7" s="25">
-        <v>99.87</v>
+        <v>100.92</v>
       </c>
       <c r="BK7" s="25">
-        <v>99.62</v>
+        <v>100.67</v>
       </c>
       <c r="BL7" s="25">
-        <v>97.95</v>
+        <v>100.48</v>
       </c>
       <c r="BM7" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="BN7" s="25"/>
-      <c r="BO7" s="25"/>
+        <v>99.94</v>
+      </c>
+      <c r="BN7" s="25">
+        <v>98.96</v>
+      </c>
+      <c r="BO7" s="25">
+        <v>98.85</v>
+      </c>
       <c r="BP7" s="25"/>
       <c r="BQ7" s="25"/>
       <c r="BR7" s="25"/>
@@ -2060,16 +2085,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="25">
-        <v>92.03</v>
+        <v>92.66</v>
       </c>
       <c r="D8" s="25">
-        <v>95.46</v>
+        <v>95.47</v>
       </c>
       <c r="E8" s="25">
-        <v>97.24</v>
+        <v>97.23</v>
       </c>
       <c r="F8" s="25">
-        <v>98.07</v>
+        <v>98.06</v>
       </c>
       <c r="G8" s="25">
         <v>98.54</v>
@@ -2078,13 +2103,13 @@
         <v>99.46</v>
       </c>
       <c r="I8" s="25">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="J8" s="25">
-        <v>100.13</v>
+        <v>100.11</v>
       </c>
       <c r="K8" s="25">
-        <v>100.29</v>
+        <v>100.28</v>
       </c>
       <c r="L8" s="25">
         <v>100.15</v>
@@ -2093,163 +2118,167 @@
         <v>100</v>
       </c>
       <c r="N8" s="25">
-        <v>98.24</v>
+        <v>98.26</v>
       </c>
       <c r="O8" s="25">
-        <v>92.82</v>
+        <v>92.9</v>
       </c>
       <c r="P8" s="25">
+        <v>89.53</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>88.08</v>
+      </c>
+      <c r="R8" s="25">
+        <v>87.94</v>
+      </c>
+      <c r="S8" s="25">
+        <v>88.73</v>
+      </c>
+      <c r="T8" s="25">
         <v>89.4</v>
       </c>
-      <c r="Q8" s="25">
-        <v>87.93</v>
-      </c>
-      <c r="R8" s="25">
-        <v>87.78</v>
-      </c>
-      <c r="S8" s="25">
-        <v>88.56</v>
-      </c>
-      <c r="T8" s="25">
-        <v>89.22</v>
-      </c>
       <c r="U8" s="25">
-        <v>89.88</v>
+        <v>90.08</v>
       </c>
       <c r="V8" s="25">
-        <v>90.54</v>
+        <v>90.75</v>
       </c>
       <c r="W8" s="25">
-        <v>90.82</v>
+        <v>91.02</v>
       </c>
       <c r="X8" s="25">
-        <v>91.26</v>
+        <v>91.46</v>
       </c>
       <c r="Y8" s="25">
-        <v>92.16</v>
+        <v>92.37</v>
       </c>
       <c r="Z8" s="25">
-        <v>92.98</v>
+        <v>93.19</v>
       </c>
       <c r="AA8" s="25">
-        <v>93.22</v>
+        <v>93.43</v>
       </c>
       <c r="AB8" s="25">
-        <v>92.87</v>
+        <v>93.08</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.36</v>
+        <v>93.58</v>
       </c>
       <c r="AD8" s="25">
-        <v>93.86</v>
+        <v>94.09</v>
       </c>
       <c r="AE8" s="25">
-        <v>94.08</v>
+        <v>94.32</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.57</v>
+        <v>94.82</v>
       </c>
       <c r="AG8" s="25">
-        <v>94.72</v>
+        <v>94.98</v>
       </c>
       <c r="AH8" s="25">
-        <v>94.51</v>
+        <v>94.77</v>
       </c>
       <c r="AI8" s="25">
-        <v>94.41</v>
+        <v>94.69</v>
       </c>
       <c r="AJ8" s="25">
-        <v>94.45</v>
+        <v>94.74</v>
       </c>
       <c r="AK8" s="25">
-        <v>94.62</v>
+        <v>94.91</v>
       </c>
       <c r="AL8" s="25">
-        <v>94.95</v>
+        <v>95.26</v>
       </c>
       <c r="AM8" s="25">
-        <v>95.5</v>
+        <v>95.83</v>
       </c>
       <c r="AN8" s="25">
-        <v>95.64</v>
+        <v>95.97</v>
       </c>
       <c r="AO8" s="25">
-        <v>95.45</v>
+        <v>95.78</v>
       </c>
       <c r="AP8" s="25">
-        <v>94.62</v>
+        <v>94.97</v>
       </c>
       <c r="AQ8" s="25">
-        <v>94.62</v>
+        <v>94.99</v>
       </c>
       <c r="AR8" s="25">
-        <v>95.61</v>
+        <v>95.99</v>
       </c>
       <c r="AS8" s="25">
-        <v>96.05</v>
+        <v>96.44</v>
       </c>
       <c r="AT8" s="25">
-        <v>96.18</v>
+        <v>96.59</v>
       </c>
       <c r="AU8" s="25">
-        <v>96.58</v>
+        <v>97</v>
       </c>
       <c r="AV8" s="25">
-        <v>97.21</v>
+        <v>97.66</v>
       </c>
       <c r="AW8" s="25">
-        <v>97.52</v>
+        <v>97.97</v>
       </c>
       <c r="AX8" s="25">
-        <v>97.86</v>
+        <v>98.31</v>
       </c>
       <c r="AY8" s="25">
-        <v>98.16</v>
+        <v>98.62</v>
       </c>
       <c r="AZ8" s="25">
-        <v>98.14</v>
+        <v>98.62</v>
       </c>
       <c r="BA8" s="25">
-        <v>97.03</v>
+        <v>97.53</v>
       </c>
       <c r="BB8" s="25">
-        <v>92.54</v>
+        <v>93.01</v>
       </c>
       <c r="BC8" s="25">
-        <v>89.95</v>
+        <v>90.37</v>
       </c>
       <c r="BD8" s="25">
-        <v>91.98</v>
+        <v>92.21</v>
       </c>
       <c r="BE8" s="25">
-        <v>94.3</v>
+        <v>94.58</v>
       </c>
       <c r="BF8" s="25">
-        <v>95.39</v>
+        <v>95.7</v>
       </c>
       <c r="BG8" s="25">
-        <v>95.79</v>
+        <v>96.17</v>
       </c>
       <c r="BH8" s="25">
-        <v>96.27</v>
+        <v>97.1</v>
       </c>
       <c r="BI8" s="25">
-        <v>96.78</v>
+        <v>97.54</v>
       </c>
       <c r="BJ8" s="25">
-        <v>97.22</v>
+        <v>97.35</v>
       </c>
       <c r="BK8" s="25">
-        <v>97.68</v>
+        <v>97.76</v>
       </c>
       <c r="BL8" s="25">
-        <v>97</v>
+        <v>98.03</v>
       </c>
       <c r="BM8" s="25">
-        <v>97.32</v>
-      </c>
-      <c r="BN8" s="25"/>
-      <c r="BO8" s="25"/>
+        <v>98.33</v>
+      </c>
+      <c r="BN8" s="25">
+        <v>98.35</v>
+      </c>
+      <c r="BO8" s="25">
+        <v>98.51</v>
+      </c>
       <c r="BP8" s="25"/>
       <c r="BQ8" s="25"/>
       <c r="BR8" s="25"/>
@@ -2267,28 +2296,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="25">
-        <v>96.2</v>
+        <v>96.59</v>
       </c>
       <c r="D9" s="25">
-        <v>97.04</v>
+        <v>97.03</v>
       </c>
       <c r="E9" s="25">
-        <v>97.82</v>
+        <v>97.81</v>
       </c>
       <c r="F9" s="25">
         <v>98.5</v>
       </c>
       <c r="G9" s="25">
-        <v>98.86</v>
+        <v>98.87</v>
       </c>
       <c r="H9" s="25">
-        <v>99.09</v>
+        <v>99.1</v>
       </c>
       <c r="I9" s="25">
-        <v>99.62</v>
+        <v>99.63</v>
       </c>
       <c r="J9" s="25">
         <v>99.5</v>
@@ -2306,160 +2335,164 @@
         <v>99.34</v>
       </c>
       <c r="O9" s="25">
-        <v>97.38</v>
+        <v>97.41</v>
       </c>
       <c r="P9" s="25">
-        <v>95.53</v>
+        <v>95.59</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.59</v>
+        <v>94.66</v>
       </c>
       <c r="R9" s="25">
-        <v>94.69</v>
+        <v>94.77</v>
       </c>
       <c r="S9" s="25">
-        <v>94.97</v>
+        <v>95.04</v>
       </c>
       <c r="T9" s="25">
-        <v>95.02</v>
+        <v>95.1</v>
       </c>
       <c r="U9" s="25">
-        <v>95.35</v>
+        <v>95.43</v>
       </c>
       <c r="V9" s="25">
-        <v>95.6</v>
+        <v>95.68</v>
       </c>
       <c r="W9" s="25">
-        <v>95.86</v>
+        <v>95.94</v>
       </c>
       <c r="X9" s="25">
-        <v>96.38</v>
+        <v>96.46</v>
       </c>
       <c r="Y9" s="25">
-        <v>97.19</v>
+        <v>97.26</v>
       </c>
       <c r="Z9" s="25">
-        <v>97.52</v>
+        <v>97.58</v>
       </c>
       <c r="AA9" s="25">
-        <v>97.14</v>
+        <v>97.2</v>
       </c>
       <c r="AB9" s="25">
-        <v>95.89</v>
+        <v>95.96</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.43</v>
+        <v>96.57</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.63</v>
+        <v>97.83</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.57</v>
+        <v>97.76</v>
       </c>
       <c r="AF9" s="25">
-        <v>97.49</v>
+        <v>97.69</v>
       </c>
       <c r="AG9" s="25">
+        <v>97.92</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.94</v>
+      </c>
+      <c r="AI9" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="AJ9" s="25">
+        <v>97.74</v>
+      </c>
+      <c r="AK9" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="AL9" s="25">
         <v>97.72</v>
       </c>
-      <c r="AH9" s="25">
-        <v>97.73</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AJ9" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AK9" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="AL9" s="25">
-        <v>97.5</v>
-      </c>
       <c r="AM9" s="25">
-        <v>97.7</v>
+        <v>97.93</v>
       </c>
       <c r="AN9" s="25">
-        <v>97.87</v>
+        <v>98.1</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.61</v>
+        <v>97.83</v>
       </c>
       <c r="AP9" s="25">
-        <v>96.9</v>
+        <v>97.12</v>
       </c>
       <c r="AQ9" s="25">
-        <v>96.99</v>
+        <v>97.21</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.57</v>
+        <v>97.79</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.63</v>
+        <v>97.85</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.76</v>
+        <v>97.99</v>
       </c>
       <c r="AU9" s="25">
-        <v>97.97</v>
+        <v>98.2</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.61</v>
+        <v>98.84</v>
       </c>
       <c r="AW9" s="25">
-        <v>98.79</v>
+        <v>99.03</v>
       </c>
       <c r="AX9" s="25">
-        <v>98.94</v>
+        <v>99.18</v>
       </c>
       <c r="AY9" s="25">
-        <v>99.53</v>
+        <v>99.78</v>
       </c>
       <c r="AZ9" s="25">
-        <v>99.54</v>
+        <v>99.79</v>
       </c>
       <c r="BA9" s="25">
-        <v>99.05</v>
+        <v>99.3</v>
       </c>
       <c r="BB9" s="25">
-        <v>96.55</v>
+        <v>96.82</v>
       </c>
       <c r="BC9" s="25">
-        <v>94.4</v>
+        <v>94.61</v>
       </c>
       <c r="BD9" s="25">
-        <v>94.57</v>
+        <v>94.61</v>
       </c>
       <c r="BE9" s="25">
-        <v>95.67</v>
+        <v>95.73</v>
       </c>
       <c r="BF9" s="25">
-        <v>96.17</v>
+        <v>96.25</v>
       </c>
       <c r="BG9" s="25">
-        <v>96.61</v>
+        <v>96.69</v>
       </c>
       <c r="BH9" s="25">
-        <v>96.71</v>
+        <v>97.05</v>
       </c>
       <c r="BI9" s="25">
-        <v>97.49</v>
+        <v>97.78</v>
       </c>
       <c r="BJ9" s="25">
-        <v>98.09</v>
+        <v>98.07</v>
       </c>
       <c r="BK9" s="25">
-        <v>98.76</v>
+        <v>98.48</v>
       </c>
       <c r="BL9" s="25">
-        <v>98.89</v>
+        <v>99.02</v>
       </c>
       <c r="BM9" s="25">
-        <v>100.4</v>
-      </c>
-      <c r="BN9" s="25"/>
-      <c r="BO9" s="25"/>
+        <v>99.76</v>
+      </c>
+      <c r="BN9" s="25">
+        <v>99.93</v>
+      </c>
+      <c r="BO9" s="25">
+        <v>100.52</v>
+      </c>
       <c r="BP9" s="25"/>
       <c r="BQ9" s="25"/>
       <c r="BR9" s="25"/>
@@ -2477,34 +2510,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="25">
-        <v>87.08</v>
+        <v>87.59</v>
       </c>
       <c r="D10" s="25">
-        <v>91.73</v>
+        <v>91.67</v>
       </c>
       <c r="E10" s="25">
-        <v>94.44</v>
+        <v>94.36</v>
       </c>
       <c r="F10" s="25">
-        <v>95.57</v>
+        <v>95.49</v>
       </c>
       <c r="G10" s="25">
-        <v>96.44</v>
+        <v>96.38</v>
       </c>
       <c r="H10" s="25">
-        <v>97.55</v>
+        <v>97.48</v>
       </c>
       <c r="I10" s="25">
-        <v>97.93</v>
+        <v>97.87</v>
       </c>
       <c r="J10" s="25">
-        <v>98.55</v>
+        <v>98.51</v>
       </c>
       <c r="K10" s="25">
-        <v>99</v>
+        <v>98.97</v>
       </c>
       <c r="L10" s="25">
         <v>99.98</v>
@@ -2513,163 +2546,167 @@
         <v>100</v>
       </c>
       <c r="N10" s="25">
-        <v>98.76</v>
+        <v>98.79</v>
       </c>
       <c r="O10" s="25">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="P10" s="25">
-        <v>90.75</v>
+        <v>90.91</v>
       </c>
       <c r="Q10" s="25">
-        <v>88.93</v>
+        <v>89.12</v>
       </c>
       <c r="R10" s="25">
-        <v>88.67</v>
+        <v>88.85</v>
       </c>
       <c r="S10" s="25">
-        <v>89.31</v>
+        <v>89.5</v>
       </c>
       <c r="T10" s="25">
-        <v>90.51</v>
+        <v>90.71</v>
       </c>
       <c r="U10" s="25">
-        <v>92.14</v>
+        <v>92.36</v>
       </c>
       <c r="V10" s="25">
-        <v>94.04</v>
+        <v>94.27</v>
       </c>
       <c r="W10" s="25">
-        <v>94.59</v>
+        <v>94.82</v>
       </c>
       <c r="X10" s="25">
-        <v>95.17</v>
+        <v>95.39</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.55</v>
+        <v>96.78</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.24</v>
+        <v>96.48</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.57</v>
+        <v>96.81</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.47</v>
+        <v>97.7</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.3</v>
+        <v>100.47</v>
       </c>
       <c r="AD10" s="25">
-        <v>101.52</v>
+        <v>101.63</v>
       </c>
       <c r="AE10" s="25">
-        <v>101.76</v>
+        <v>101.87</v>
       </c>
       <c r="AF10" s="25">
-        <v>102.32</v>
+        <v>102.44</v>
       </c>
       <c r="AG10" s="25">
-        <v>102.47</v>
+        <v>102.6</v>
       </c>
       <c r="AH10" s="25">
-        <v>102.75</v>
+        <v>102.9</v>
       </c>
       <c r="AI10" s="25">
-        <v>102.99</v>
+        <v>103.14</v>
       </c>
       <c r="AJ10" s="25">
-        <v>103.28</v>
+        <v>103.43</v>
       </c>
       <c r="AK10" s="25">
-        <v>103.46</v>
+        <v>103.62</v>
       </c>
       <c r="AL10" s="25">
-        <v>103.87</v>
+        <v>104.04</v>
       </c>
       <c r="AM10" s="25">
-        <v>104.43</v>
+        <v>104.61</v>
       </c>
       <c r="AN10" s="25">
-        <v>104.49</v>
+        <v>104.67</v>
       </c>
       <c r="AO10" s="25">
-        <v>104.38</v>
+        <v>104.58</v>
       </c>
       <c r="AP10" s="25">
-        <v>102.57</v>
+        <v>102.94</v>
       </c>
       <c r="AQ10" s="25">
-        <v>101.88</v>
+        <v>102.48</v>
       </c>
       <c r="AR10" s="25">
-        <v>102.74</v>
+        <v>103.34</v>
       </c>
       <c r="AS10" s="25">
-        <v>103.11</v>
+        <v>103.74</v>
       </c>
       <c r="AT10" s="25">
-        <v>103.09</v>
+        <v>103.74</v>
       </c>
       <c r="AU10" s="25">
-        <v>103.6</v>
+        <v>104.29</v>
       </c>
       <c r="AV10" s="25">
-        <v>104.49</v>
+        <v>105.19</v>
       </c>
       <c r="AW10" s="25">
-        <v>105.05</v>
+        <v>105.78</v>
       </c>
       <c r="AX10" s="25">
-        <v>105.18</v>
+        <v>105.94</v>
       </c>
       <c r="AY10" s="25">
-        <v>105.12</v>
+        <v>105.92</v>
       </c>
       <c r="AZ10" s="25">
-        <v>104.79</v>
+        <v>105.62</v>
       </c>
       <c r="BA10" s="25">
-        <v>103.21</v>
+        <v>104.07</v>
       </c>
       <c r="BB10" s="25">
-        <v>97.43</v>
+        <v>98.25</v>
       </c>
       <c r="BC10" s="25">
-        <v>92.55</v>
+        <v>92.91</v>
       </c>
       <c r="BD10" s="25">
-        <v>94.67</v>
+        <v>94.01</v>
       </c>
       <c r="BE10" s="25">
-        <v>98.08</v>
+        <v>97.49</v>
       </c>
       <c r="BF10" s="25">
-        <v>99.38</v>
+        <v>98.87</v>
       </c>
       <c r="BG10" s="25">
-        <v>99.4</v>
+        <v>99.08</v>
       </c>
       <c r="BH10" s="25">
-        <v>98.81</v>
+        <v>100.21</v>
       </c>
       <c r="BI10" s="25">
-        <v>99.02</v>
+        <v>100.46</v>
       </c>
       <c r="BJ10" s="25">
-        <v>98.76</v>
+        <v>99.98</v>
       </c>
       <c r="BK10" s="25">
-        <v>98.12</v>
+        <v>99.46</v>
       </c>
       <c r="BL10" s="25">
-        <v>96.29</v>
+        <v>99.1</v>
       </c>
       <c r="BM10" s="25">
-        <v>95.84</v>
-      </c>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="25"/>
+        <v>98.31</v>
+      </c>
+      <c r="BN10" s="25">
+        <v>97.16</v>
+      </c>
+      <c r="BO10" s="25">
+        <v>97.14</v>
+      </c>
       <c r="BP10" s="25"/>
       <c r="BQ10" s="25"/>
       <c r="BR10" s="25"/>
@@ -2690,196 +2727,200 @@
         <v>8</v>
       </c>
       <c r="C11" s="25">
-        <v>92.32</v>
+        <v>92.95</v>
       </c>
       <c r="D11" s="25">
-        <v>95.76</v>
+        <v>95.73</v>
       </c>
       <c r="E11" s="25">
-        <v>97.61</v>
+        <v>97.56</v>
       </c>
       <c r="F11" s="25">
-        <v>98.33</v>
+        <v>98.27</v>
       </c>
       <c r="G11" s="25">
-        <v>98.84</v>
+        <v>98.79</v>
       </c>
       <c r="H11" s="25">
-        <v>99.55</v>
+        <v>99.51</v>
       </c>
       <c r="I11" s="25">
-        <v>99.76</v>
+        <v>99.72</v>
       </c>
       <c r="J11" s="25">
-        <v>100.2</v>
+        <v>100.15</v>
       </c>
       <c r="K11" s="25">
-        <v>100.3</v>
+        <v>100.28</v>
       </c>
       <c r="L11" s="25">
-        <v>100.09</v>
+        <v>100.08</v>
       </c>
       <c r="M11" s="25">
         <v>100</v>
       </c>
       <c r="N11" s="25">
-        <v>97.96</v>
+        <v>98</v>
       </c>
       <c r="O11" s="25">
-        <v>92.42</v>
+        <v>92.53</v>
       </c>
       <c r="P11" s="25">
-        <v>89</v>
+        <v>89.14</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.6</v>
+        <v>87.76</v>
       </c>
       <c r="R11" s="25">
-        <v>87.68</v>
+        <v>87.85</v>
       </c>
       <c r="S11" s="25">
-        <v>88.3</v>
+        <v>88.48</v>
       </c>
       <c r="T11" s="25">
-        <v>88.98</v>
+        <v>89.17</v>
       </c>
       <c r="U11" s="25">
-        <v>89.65</v>
+        <v>89.88</v>
       </c>
       <c r="V11" s="25">
-        <v>90.18</v>
+        <v>90.39</v>
       </c>
       <c r="W11" s="25">
-        <v>90.64</v>
+        <v>90.84</v>
       </c>
       <c r="X11" s="25">
-        <v>91.17</v>
+        <v>91.37</v>
       </c>
       <c r="Y11" s="25">
-        <v>92.25</v>
+        <v>92.46</v>
       </c>
       <c r="Z11" s="25">
-        <v>92.94</v>
+        <v>93.16</v>
       </c>
       <c r="AA11" s="25">
-        <v>93.1</v>
+        <v>93.32</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.81</v>
+        <v>93.02</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.38</v>
+        <v>93.6</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.46</v>
+        <v>94.71</v>
       </c>
       <c r="AE11" s="25">
-        <v>94.93</v>
+        <v>95.2</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.32</v>
+        <v>95.61</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.45</v>
+        <v>95.75</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.48</v>
+        <v>95.79</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.62</v>
+        <v>95.95</v>
       </c>
       <c r="AJ11" s="25">
-        <v>95.89</v>
+        <v>96.22</v>
       </c>
       <c r="AK11" s="25">
-        <v>96.1</v>
+        <v>96.44</v>
       </c>
       <c r="AL11" s="25">
-        <v>96.28</v>
+        <v>96.66</v>
       </c>
       <c r="AM11" s="25">
-        <v>96.55</v>
+        <v>96.97</v>
       </c>
       <c r="AN11" s="25">
-        <v>96.64</v>
+        <v>97.08</v>
       </c>
       <c r="AO11" s="25">
-        <v>96.66</v>
+        <v>97.11</v>
       </c>
       <c r="AP11" s="25">
-        <v>95.81</v>
+        <v>96.26</v>
       </c>
       <c r="AQ11" s="25">
-        <v>95.44</v>
+        <v>95.91</v>
       </c>
       <c r="AR11" s="25">
-        <v>96.31</v>
+        <v>96.81</v>
       </c>
       <c r="AS11" s="25">
-        <v>96.7</v>
+        <v>97.22</v>
       </c>
       <c r="AT11" s="25">
-        <v>96.5</v>
+        <v>97.06</v>
       </c>
       <c r="AU11" s="25">
-        <v>96.76</v>
+        <v>97.35</v>
       </c>
       <c r="AV11" s="25">
-        <v>97.33</v>
+        <v>97.92</v>
       </c>
       <c r="AW11" s="25">
-        <v>97.83</v>
+        <v>98.45</v>
       </c>
       <c r="AX11" s="25">
-        <v>97.98</v>
+        <v>98.59</v>
       </c>
       <c r="AY11" s="25">
-        <v>98.02</v>
+        <v>98.64</v>
       </c>
       <c r="AZ11" s="25">
+        <v>98.58</v>
+      </c>
+      <c r="BA11" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="BB11" s="25">
+        <v>92.95</v>
+      </c>
+      <c r="BC11" s="25">
+        <v>90.15</v>
+      </c>
+      <c r="BD11" s="25">
+        <v>92.34</v>
+      </c>
+      <c r="BE11" s="25">
+        <v>94.7</v>
+      </c>
+      <c r="BF11" s="25">
+        <v>95.88</v>
+      </c>
+      <c r="BG11" s="25">
+        <v>96.43</v>
+      </c>
+      <c r="BH11" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="BI11" s="25">
+        <v>97.89</v>
+      </c>
+      <c r="BJ11" s="25">
+        <v>97.38</v>
+      </c>
+      <c r="BK11" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="BL11" s="25">
         <v>97.94</v>
       </c>
-      <c r="BA11" s="25">
-        <v>96.91</v>
-      </c>
-      <c r="BB11" s="25">
-        <v>92.34</v>
-      </c>
-      <c r="BC11" s="25">
-        <v>89.55</v>
-      </c>
-      <c r="BD11" s="25">
-        <v>91.97</v>
-      </c>
-      <c r="BE11" s="25">
-        <v>94.28</v>
-      </c>
-      <c r="BF11" s="25">
-        <v>95.47</v>
-      </c>
-      <c r="BG11" s="25">
-        <v>95.9</v>
-      </c>
-      <c r="BH11" s="25">
-        <v>96.52</v>
-      </c>
-      <c r="BI11" s="25">
-        <v>96.89</v>
-      </c>
-      <c r="BJ11" s="25">
-        <v>97.02</v>
-      </c>
-      <c r="BK11" s="25">
-        <v>97.31</v>
-      </c>
-      <c r="BL11" s="25">
-        <v>96.48</v>
-      </c>
       <c r="BM11" s="25">
-        <v>96.74</v>
-      </c>
-      <c r="BN11" s="25"/>
-      <c r="BO11" s="25"/>
+        <v>98.07</v>
+      </c>
+      <c r="BN11" s="25">
+        <v>98.09</v>
+      </c>
+      <c r="BO11" s="25">
+        <v>98.29</v>
+      </c>
       <c r="BP11" s="25"/>
       <c r="BQ11" s="25"/>
       <c r="BR11" s="25"/>
@@ -2897,199 +2938,203 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="25">
-        <v>96.32</v>
+        <v>96.68</v>
       </c>
       <c r="D12" s="25">
-        <v>96.9</v>
+        <v>96.83</v>
       </c>
       <c r="E12" s="25">
-        <v>97.35</v>
+        <v>97.29</v>
       </c>
       <c r="F12" s="25">
-        <v>98.13</v>
+        <v>98.08</v>
       </c>
       <c r="G12" s="25">
-        <v>98.84</v>
+        <v>98.83</v>
       </c>
       <c r="H12" s="25">
-        <v>99.01</v>
+        <v>99</v>
       </c>
       <c r="I12" s="25">
-        <v>99.95</v>
+        <v>99.94</v>
       </c>
       <c r="J12" s="25">
-        <v>99.57</v>
+        <v>99.56</v>
       </c>
       <c r="K12" s="25">
-        <v>99.29</v>
+        <v>99.28</v>
       </c>
       <c r="L12" s="25">
-        <v>99.85</v>
+        <v>99.84</v>
       </c>
       <c r="M12" s="25">
         <v>100</v>
       </c>
       <c r="N12" s="25">
-        <v>99.47</v>
+        <v>99.48</v>
       </c>
       <c r="O12" s="25">
-        <v>97.57</v>
+        <v>97.6</v>
       </c>
       <c r="P12" s="25">
-        <v>95.89</v>
+        <v>95.95</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.05</v>
+        <v>95.12</v>
       </c>
       <c r="R12" s="25">
-        <v>94.75</v>
+        <v>94.85</v>
       </c>
       <c r="S12" s="25">
-        <v>94.83</v>
+        <v>94.91</v>
       </c>
       <c r="T12" s="25">
-        <v>95.03</v>
+        <v>95.09</v>
       </c>
       <c r="U12" s="25">
-        <v>95.48</v>
+        <v>95.54</v>
       </c>
       <c r="V12" s="25">
-        <v>95.82</v>
+        <v>95.87</v>
       </c>
       <c r="W12" s="25">
-        <v>96.3</v>
+        <v>96.36</v>
       </c>
       <c r="X12" s="25">
-        <v>97.02</v>
+        <v>97.09</v>
       </c>
       <c r="Y12" s="25">
-        <v>98.05</v>
+        <v>98.12</v>
       </c>
       <c r="Z12" s="25">
-        <v>97.88</v>
+        <v>97.96</v>
       </c>
       <c r="AA12" s="25">
-        <v>97.55</v>
+        <v>97.64</v>
       </c>
       <c r="AB12" s="25">
-        <v>96.87</v>
+        <v>96.97</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.06</v>
+        <v>97.18</v>
       </c>
       <c r="AD12" s="25">
+        <v>98.31</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>98.11</v>
+      </c>
+      <c r="AF12" s="25">
         <v>98.18</v>
       </c>
-      <c r="AE12" s="25">
-        <v>98</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>98.04</v>
-      </c>
       <c r="AG12" s="25">
-        <v>98.56</v>
+        <v>98.7</v>
       </c>
       <c r="AH12" s="25">
+        <v>98.8</v>
+      </c>
+      <c r="AI12" s="25">
+        <v>98.75</v>
+      </c>
+      <c r="AJ12" s="25">
         <v>98.68</v>
       </c>
-      <c r="AI12" s="25">
-        <v>98.63</v>
-      </c>
-      <c r="AJ12" s="25">
-        <v>98.55</v>
-      </c>
       <c r="AK12" s="25">
-        <v>98.7</v>
+        <v>98.82</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.5</v>
+        <v>98.64</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.7</v>
+        <v>98.84</v>
       </c>
       <c r="AN12" s="25">
-        <v>98.94</v>
+        <v>99.09</v>
       </c>
       <c r="AO12" s="25">
-        <v>98.83</v>
+        <v>98.97</v>
       </c>
       <c r="AP12" s="25">
-        <v>97.89</v>
+        <v>98.03</v>
       </c>
       <c r="AQ12" s="25">
-        <v>97.69</v>
+        <v>97.83</v>
       </c>
       <c r="AR12" s="25">
-        <v>98.65</v>
+        <v>98.79</v>
       </c>
       <c r="AS12" s="25">
-        <v>98.7</v>
+        <v>98.85</v>
       </c>
       <c r="AT12" s="25">
-        <v>98.56</v>
+        <v>98.72</v>
       </c>
       <c r="AU12" s="25">
-        <v>98.59</v>
+        <v>98.75</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.1</v>
+        <v>99.25</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.5</v>
+        <v>99.65</v>
       </c>
       <c r="AX12" s="25">
-        <v>99.74</v>
+        <v>99.89</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.31</v>
+        <v>100.47</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.31</v>
+        <v>100.47</v>
       </c>
       <c r="BA12" s="25">
-        <v>99.99</v>
+        <v>100.16</v>
       </c>
       <c r="BB12" s="25">
-        <v>97.72</v>
+        <v>97.9</v>
       </c>
       <c r="BC12" s="25">
-        <v>94.98</v>
+        <v>95.1</v>
       </c>
       <c r="BD12" s="25">
-        <v>95.19</v>
+        <v>95.14</v>
       </c>
       <c r="BE12" s="25">
-        <v>96.37</v>
+        <v>96.32</v>
       </c>
       <c r="BF12" s="25">
-        <v>96.74</v>
+        <v>96.76</v>
       </c>
       <c r="BG12" s="25">
-        <v>97.15</v>
+        <v>97.17</v>
       </c>
       <c r="BH12" s="25">
-        <v>97.07</v>
+        <v>97.35</v>
       </c>
       <c r="BI12" s="25">
-        <v>98</v>
+        <v>98.21</v>
       </c>
       <c r="BJ12" s="25">
-        <v>98.47</v>
+        <v>98.41</v>
       </c>
       <c r="BK12" s="25">
-        <v>99.23</v>
+        <v>98.84</v>
       </c>
       <c r="BL12" s="25">
-        <v>99.3</v>
+        <v>99.27</v>
       </c>
       <c r="BM12" s="25">
-        <v>101.02</v>
-      </c>
-      <c r="BN12" s="25"/>
-      <c r="BO12" s="25"/>
+        <v>100.01</v>
+      </c>
+      <c r="BN12" s="25">
+        <v>100.04</v>
+      </c>
+      <c r="BO12" s="25">
+        <v>100.46</v>
+      </c>
       <c r="BP12" s="25"/>
       <c r="BQ12" s="25"/>
       <c r="BR12" s="25"/>
@@ -3107,199 +3152,203 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="25">
-        <v>87.37</v>
+        <v>87.91</v>
       </c>
       <c r="D13" s="25">
         <v>90.86</v>
       </c>
       <c r="E13" s="25">
-        <v>93.68</v>
+        <v>93.67</v>
       </c>
       <c r="F13" s="25">
-        <v>95.15</v>
+        <v>95.14</v>
       </c>
       <c r="G13" s="25">
-        <v>96.03</v>
+        <v>96.01</v>
       </c>
       <c r="H13" s="25">
-        <v>97.48</v>
+        <v>97.43</v>
       </c>
       <c r="I13" s="25">
-        <v>98.05</v>
+        <v>98.01</v>
       </c>
       <c r="J13" s="25">
-        <v>98.55</v>
+        <v>98.5</v>
       </c>
       <c r="K13" s="25">
-        <v>99.07</v>
+        <v>99.04</v>
       </c>
       <c r="L13" s="25">
-        <v>100.03</v>
+        <v>100.01</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
       </c>
       <c r="N13" s="25">
-        <v>98.74</v>
+        <v>98.77</v>
       </c>
       <c r="O13" s="25">
-        <v>93.62</v>
+        <v>93.75</v>
       </c>
       <c r="P13" s="25">
-        <v>90.22</v>
+        <v>90.45</v>
       </c>
       <c r="Q13" s="25">
-        <v>88.53</v>
+        <v>88.81</v>
       </c>
       <c r="R13" s="25">
-        <v>88.33</v>
+        <v>88.61</v>
       </c>
       <c r="S13" s="25">
-        <v>89.1</v>
+        <v>89.38</v>
       </c>
       <c r="T13" s="25">
-        <v>90.28</v>
+        <v>90.56</v>
       </c>
       <c r="U13" s="25">
-        <v>91.33</v>
+        <v>91.63</v>
       </c>
       <c r="V13" s="25">
-        <v>91.98</v>
+        <v>92.28</v>
       </c>
       <c r="W13" s="25">
-        <v>92.42</v>
+        <v>92.73</v>
       </c>
       <c r="X13" s="25">
-        <v>93.02</v>
+        <v>93.32</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.42</v>
+        <v>94.7</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.19</v>
+        <v>95.45</v>
       </c>
       <c r="AA13" s="25">
-        <v>95.77</v>
+        <v>96.02</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.62</v>
+        <v>96.87</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.62</v>
+        <v>98.8</v>
       </c>
       <c r="AD13" s="25">
+        <v>98.96</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>98.66</v>
+      </c>
+      <c r="AF13" s="25">
         <v>98.8</v>
       </c>
-      <c r="AE13" s="25">
-        <v>98.45</v>
-      </c>
-      <c r="AF13" s="25">
-        <v>98.58</v>
-      </c>
       <c r="AG13" s="25">
-        <v>98.41</v>
+        <v>98.65</v>
       </c>
       <c r="AH13" s="25">
-        <v>97.61</v>
+        <v>97.86</v>
       </c>
       <c r="AI13" s="25">
-        <v>96.96</v>
+        <v>97.22</v>
       </c>
       <c r="AJ13" s="25">
-        <v>96.6</v>
+        <v>96.88</v>
       </c>
       <c r="AK13" s="25">
-        <v>96.87</v>
+        <v>97.17</v>
       </c>
       <c r="AL13" s="25">
-        <v>97.06</v>
+        <v>97.37</v>
       </c>
       <c r="AM13" s="25">
-        <v>97.51</v>
+        <v>97.84</v>
       </c>
       <c r="AN13" s="25">
-        <v>97.69</v>
+        <v>98.03</v>
       </c>
       <c r="AO13" s="25">
-        <v>97.68</v>
+        <v>98.02</v>
       </c>
       <c r="AP13" s="25">
-        <v>96.91</v>
+        <v>97.35</v>
       </c>
       <c r="AQ13" s="25">
-        <v>97.02</v>
+        <v>97.62</v>
       </c>
       <c r="AR13" s="25">
-        <v>97.76</v>
+        <v>98.36</v>
       </c>
       <c r="AS13" s="25">
-        <v>98.16</v>
+        <v>98.77</v>
       </c>
       <c r="AT13" s="25">
-        <v>99.17</v>
+        <v>99.79</v>
       </c>
       <c r="AU13" s="25">
-        <v>100.11</v>
+        <v>100.75</v>
       </c>
       <c r="AV13" s="25">
-        <v>101.26</v>
+        <v>101.94</v>
       </c>
       <c r="AW13" s="25">
-        <v>102.02</v>
+        <v>102.72</v>
       </c>
       <c r="AX13" s="25">
-        <v>102.72</v>
+        <v>103.41</v>
       </c>
       <c r="AY13" s="25">
-        <v>103.2</v>
+        <v>103.94</v>
       </c>
       <c r="AZ13" s="25">
-        <v>103.51</v>
+        <v>104.3</v>
       </c>
       <c r="BA13" s="25">
-        <v>102.75</v>
+        <v>103.54</v>
       </c>
       <c r="BB13" s="25">
-        <v>98.09</v>
+        <v>98.84</v>
       </c>
       <c r="BC13" s="25">
-        <v>93.79</v>
+        <v>94.21</v>
       </c>
       <c r="BD13" s="25">
-        <v>94.47</v>
+        <v>94.14</v>
       </c>
       <c r="BE13" s="25">
-        <v>97.28</v>
+        <v>97.03</v>
       </c>
       <c r="BF13" s="25">
-        <v>98.64</v>
+        <v>98.48</v>
       </c>
       <c r="BG13" s="25">
-        <v>98.8</v>
+        <v>98.82</v>
       </c>
       <c r="BH13" s="25">
-        <v>98.56</v>
+        <v>100.05</v>
       </c>
       <c r="BI13" s="25">
-        <v>98.24</v>
+        <v>99.84</v>
       </c>
       <c r="BJ13" s="25">
-        <v>98.31</v>
+        <v>99.37</v>
       </c>
       <c r="BK13" s="25">
-        <v>98.46</v>
+        <v>99.51</v>
       </c>
       <c r="BL13" s="25">
-        <v>96.64</v>
+        <v>99.39</v>
       </c>
       <c r="BM13" s="25">
-        <v>95.96</v>
-      </c>
-      <c r="BN13" s="25"/>
-      <c r="BO13" s="25"/>
+        <v>98.72</v>
+      </c>
+      <c r="BN13" s="25">
+        <v>97.88</v>
+      </c>
+      <c r="BO13" s="25">
+        <v>97.56</v>
+      </c>
       <c r="BP13" s="25"/>
       <c r="BQ13" s="25"/>
       <c r="BR13" s="25"/>
@@ -3320,196 +3369,200 @@
         <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.52</v>
+        <v>90.88</v>
       </c>
       <c r="D14" s="25">
-        <v>93.71</v>
+        <v>93.67</v>
       </c>
       <c r="E14" s="25">
-        <v>96.03</v>
+        <v>95.99</v>
       </c>
       <c r="F14" s="25">
-        <v>97.1</v>
+        <v>97.08</v>
       </c>
       <c r="G14" s="25">
-        <v>97.8</v>
+        <v>97.78</v>
       </c>
       <c r="H14" s="25">
-        <v>99.35</v>
+        <v>99.33</v>
       </c>
       <c r="I14" s="25">
-        <v>99.49</v>
+        <v>99.47</v>
       </c>
       <c r="J14" s="25">
-        <v>100.11</v>
+        <v>100.08</v>
       </c>
       <c r="K14" s="25">
-        <v>100.21</v>
+        <v>100.2</v>
       </c>
       <c r="L14" s="25">
-        <v>100.13</v>
+        <v>100.12</v>
       </c>
       <c r="M14" s="25">
         <v>100</v>
       </c>
       <c r="N14" s="25">
-        <v>98.31</v>
+        <v>98.34</v>
       </c>
       <c r="O14" s="25">
-        <v>93.08</v>
+        <v>93.17</v>
       </c>
       <c r="P14" s="25">
-        <v>89.53</v>
+        <v>89.69</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.2</v>
+        <v>88.39</v>
       </c>
       <c r="R14" s="25">
-        <v>87.59</v>
+        <v>87.79</v>
       </c>
       <c r="S14" s="25">
-        <v>88.3</v>
+        <v>88.51</v>
       </c>
       <c r="T14" s="25">
-        <v>89.12</v>
+        <v>89.34</v>
       </c>
       <c r="U14" s="25">
-        <v>89.4</v>
+        <v>89.66</v>
       </c>
       <c r="V14" s="25">
-        <v>89.94</v>
+        <v>90.21</v>
       </c>
       <c r="W14" s="25">
-        <v>90.17</v>
+        <v>90.43</v>
       </c>
       <c r="X14" s="25">
-        <v>90.7</v>
+        <v>90.97</v>
       </c>
       <c r="Y14" s="25">
-        <v>91.28</v>
+        <v>91.55</v>
       </c>
       <c r="Z14" s="25">
-        <v>92.06</v>
+        <v>92.33</v>
       </c>
       <c r="AA14" s="25">
-        <v>92.15</v>
+        <v>92.41</v>
       </c>
       <c r="AB14" s="25">
-        <v>91.84</v>
+        <v>92.1</v>
       </c>
       <c r="AC14" s="25">
-        <v>92.05</v>
+        <v>92.34</v>
       </c>
       <c r="AD14" s="25">
-        <v>91.05</v>
+        <v>91.34</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.59</v>
+        <v>90.9</v>
       </c>
       <c r="AF14" s="25">
-        <v>91.35</v>
+        <v>91.66</v>
       </c>
       <c r="AG14" s="25">
-        <v>91.37</v>
+        <v>91.69</v>
       </c>
       <c r="AH14" s="25">
-        <v>90.32</v>
+        <v>90.64</v>
       </c>
       <c r="AI14" s="25">
-        <v>89.51</v>
+        <v>89.87</v>
       </c>
       <c r="AJ14" s="25">
-        <v>89.06</v>
+        <v>89.43</v>
       </c>
       <c r="AK14" s="25">
-        <v>89.22</v>
+        <v>89.59</v>
       </c>
       <c r="AL14" s="25">
-        <v>89.73</v>
+        <v>90.1</v>
       </c>
       <c r="AM14" s="25">
-        <v>90.42</v>
+        <v>90.78</v>
       </c>
       <c r="AN14" s="25">
-        <v>90.71</v>
+        <v>91.08</v>
       </c>
       <c r="AO14" s="25">
-        <v>90.57</v>
+        <v>90.94</v>
       </c>
       <c r="AP14" s="25">
-        <v>89.7</v>
+        <v>90.06</v>
       </c>
       <c r="AQ14" s="25">
-        <v>89.83</v>
+        <v>90.22</v>
       </c>
       <c r="AR14" s="25">
-        <v>91.23</v>
+        <v>91.63</v>
       </c>
       <c r="AS14" s="25">
-        <v>91.89</v>
+        <v>92.3</v>
       </c>
       <c r="AT14" s="25">
-        <v>92.72</v>
+        <v>93.12</v>
       </c>
       <c r="AU14" s="25">
-        <v>93.42</v>
+        <v>93.84</v>
       </c>
       <c r="AV14" s="25">
-        <v>94.51</v>
+        <v>94.94</v>
       </c>
       <c r="AW14" s="25">
-        <v>94.86</v>
+        <v>95.31</v>
       </c>
       <c r="AX14" s="25">
-        <v>95.66</v>
+        <v>96.1</v>
       </c>
       <c r="AY14" s="25">
-        <v>96.04</v>
+        <v>96.46</v>
       </c>
       <c r="AZ14" s="25">
-        <v>96.38</v>
+        <v>96.78</v>
       </c>
       <c r="BA14" s="25">
-        <v>95.58</v>
+        <v>96</v>
       </c>
       <c r="BB14" s="25">
-        <v>91.12</v>
+        <v>91.49</v>
       </c>
       <c r="BC14" s="25">
-        <v>88.66</v>
+        <v>88.93</v>
       </c>
       <c r="BD14" s="25">
-        <v>89.63</v>
+        <v>89.65</v>
       </c>
       <c r="BE14" s="25">
-        <v>91.93</v>
+        <v>92.02</v>
       </c>
       <c r="BF14" s="25">
-        <v>93.11</v>
+        <v>93.28</v>
       </c>
       <c r="BG14" s="25">
-        <v>93.69</v>
+        <v>93.92</v>
       </c>
       <c r="BH14" s="25">
-        <v>94.79</v>
+        <v>95.54</v>
       </c>
       <c r="BI14" s="25">
-        <v>95.02</v>
+        <v>95.74</v>
       </c>
       <c r="BJ14" s="25">
-        <v>95.61</v>
+        <v>95.78</v>
       </c>
       <c r="BK14" s="25">
-        <v>96.3</v>
+        <v>96.39</v>
       </c>
       <c r="BL14" s="25">
-        <v>95.71</v>
+        <v>96.67</v>
       </c>
       <c r="BM14" s="25">
-        <v>96.03</v>
-      </c>
-      <c r="BN14" s="25"/>
-      <c r="BO14" s="25"/>
+        <v>97.15</v>
+      </c>
+      <c r="BN14" s="25">
+        <v>97.17</v>
+      </c>
+      <c r="BO14" s="25">
+        <v>97.21</v>
+      </c>
       <c r="BP14" s="25"/>
       <c r="BQ14" s="25"/>
       <c r="BR14" s="25"/>
@@ -3527,199 +3580,203 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="25">
-        <v>95.97</v>
+        <v>96.24</v>
       </c>
       <c r="D15" s="25">
-        <v>96.76</v>
+        <v>96.75</v>
       </c>
       <c r="E15" s="25">
         <v>97.97</v>
       </c>
       <c r="F15" s="25">
-        <v>98.87</v>
+        <v>98.86</v>
       </c>
       <c r="G15" s="25">
-        <v>99.3</v>
+        <v>99.29</v>
       </c>
       <c r="H15" s="25">
         <v>99.09</v>
       </c>
       <c r="I15" s="25">
-        <v>98.86</v>
+        <v>98.85</v>
       </c>
       <c r="J15" s="25">
-        <v>99.41</v>
+        <v>99.39</v>
       </c>
       <c r="K15" s="25">
-        <v>99.59</v>
+        <v>99.58</v>
       </c>
       <c r="L15" s="25">
-        <v>99.63</v>
+        <v>99.62</v>
       </c>
       <c r="M15" s="25">
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>98.67</v>
+        <v>98.69</v>
       </c>
       <c r="O15" s="25">
-        <v>96.94</v>
+        <v>96.99</v>
       </c>
       <c r="P15" s="25">
+        <v>94.82</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>94.2</v>
+      </c>
+      <c r="R15" s="25">
+        <v>94.57</v>
+      </c>
+      <c r="S15" s="25">
+        <v>95.26</v>
+      </c>
+      <c r="T15" s="25">
+        <v>94.68</v>
+      </c>
+      <c r="U15" s="25">
+        <v>94.7</v>
+      </c>
+      <c r="V15" s="25">
+        <v>94.55</v>
+      </c>
+      <c r="W15" s="25">
         <v>94.73</v>
       </c>
-      <c r="Q15" s="25">
-        <v>94.1</v>
-      </c>
-      <c r="R15" s="25">
-        <v>94.48</v>
-      </c>
-      <c r="S15" s="25">
-        <v>95.17</v>
-      </c>
-      <c r="T15" s="25">
-        <v>94.58</v>
-      </c>
-      <c r="U15" s="25">
-        <v>94.57</v>
-      </c>
-      <c r="V15" s="25">
-        <v>94.42</v>
-      </c>
-      <c r="W15" s="25">
-        <v>94.59</v>
-      </c>
       <c r="X15" s="25">
-        <v>95.35</v>
+        <v>95.47</v>
       </c>
       <c r="Y15" s="25">
-        <v>96.28</v>
+        <v>96.36</v>
       </c>
       <c r="Z15" s="25">
-        <v>97.58</v>
+        <v>97.66</v>
       </c>
       <c r="AA15" s="25">
-        <v>97.49</v>
+        <v>97.57</v>
       </c>
       <c r="AB15" s="25">
-        <v>95.11</v>
+        <v>95.19</v>
       </c>
       <c r="AC15" s="25">
-        <v>95.54</v>
+        <v>95.85</v>
       </c>
       <c r="AD15" s="25">
-        <v>96.84</v>
+        <v>97.34</v>
       </c>
       <c r="AE15" s="25">
-        <v>96.9</v>
+        <v>97.4</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.22</v>
+        <v>96.74</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.32</v>
+        <v>96.85</v>
       </c>
       <c r="AH15" s="25">
-        <v>95.93</v>
+        <v>96.5</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.35</v>
+        <v>95.98</v>
       </c>
       <c r="AJ15" s="25">
-        <v>95.16</v>
+        <v>95.74</v>
       </c>
       <c r="AK15" s="25">
-        <v>95.32</v>
+        <v>95.88</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.32</v>
+        <v>95.87</v>
       </c>
       <c r="AM15" s="25">
-        <v>95.39</v>
+        <v>95.96</v>
       </c>
       <c r="AN15" s="25">
-        <v>95.41</v>
+        <v>95.97</v>
       </c>
       <c r="AO15" s="25">
-        <v>95.3</v>
+        <v>95.86</v>
       </c>
       <c r="AP15" s="25">
-        <v>94.63</v>
+        <v>95.18</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.22</v>
+        <v>95.76</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.21</v>
+        <v>95.77</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.35</v>
+        <v>95.91</v>
       </c>
       <c r="AT15" s="25">
-        <v>96.33</v>
+        <v>96.88</v>
       </c>
       <c r="AU15" s="25">
-        <v>96.64</v>
+        <v>97.19</v>
       </c>
       <c r="AV15" s="25">
-        <v>97.31</v>
+        <v>97.88</v>
       </c>
       <c r="AW15" s="25">
+        <v>98.12</v>
+      </c>
+      <c r="AX15" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="AY15" s="25">
+        <v>99.22</v>
+      </c>
+      <c r="AZ15" s="25">
+        <v>99.08</v>
+      </c>
+      <c r="BA15" s="25">
+        <v>98.71</v>
+      </c>
+      <c r="BB15" s="25">
+        <v>96.5</v>
+      </c>
+      <c r="BC15" s="25">
+        <v>94.78</v>
+      </c>
+      <c r="BD15" s="25">
+        <v>94.5</v>
+      </c>
+      <c r="BE15" s="25">
+        <v>95.53</v>
+      </c>
+      <c r="BF15" s="25">
+        <v>96.16</v>
+      </c>
+      <c r="BG15" s="25">
+        <v>96.74</v>
+      </c>
+      <c r="BH15" s="25">
         <v>97.55</v>
       </c>
-      <c r="AX15" s="25">
-        <v>97.89</v>
-      </c>
-      <c r="AY15" s="25">
-        <v>98.66</v>
-      </c>
-      <c r="AZ15" s="25">
-        <v>98.52</v>
-      </c>
-      <c r="BA15" s="25">
-        <v>98.15</v>
-      </c>
-      <c r="BB15" s="25">
-        <v>95.94</v>
-      </c>
-      <c r="BC15" s="25">
-        <v>94.31</v>
-      </c>
-      <c r="BD15" s="25">
-        <v>94.25</v>
-      </c>
-      <c r="BE15" s="25">
-        <v>95.26</v>
-      </c>
-      <c r="BF15" s="25">
-        <v>95.89</v>
-      </c>
-      <c r="BG15" s="25">
-        <v>96.46</v>
-      </c>
-      <c r="BH15" s="25">
-        <v>96.95</v>
-      </c>
       <c r="BI15" s="25">
-        <v>97.56</v>
+        <v>98.16</v>
       </c>
       <c r="BJ15" s="25">
-        <v>98.24</v>
+        <v>98.55</v>
       </c>
       <c r="BK15" s="25">
-        <v>98.97</v>
+        <v>99.11</v>
       </c>
       <c r="BL15" s="25">
-        <v>99.04</v>
+        <v>99.64</v>
       </c>
       <c r="BM15" s="25">
-        <v>100.28</v>
-      </c>
-      <c r="BN15" s="25"/>
-      <c r="BO15" s="25"/>
+        <v>100.56</v>
+      </c>
+      <c r="BN15" s="25">
+        <v>100.66</v>
+      </c>
+      <c r="BO15" s="25">
+        <v>101.44</v>
+      </c>
       <c r="BP15" s="25"/>
       <c r="BQ15" s="25"/>
       <c r="BR15" s="25"/>
@@ -3737,37 +3794,37 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="25">
-        <v>86.24</v>
+        <v>87.23</v>
       </c>
       <c r="D16" s="25">
-        <v>92.53</v>
+        <v>92.55</v>
       </c>
       <c r="E16" s="25">
-        <v>95.39</v>
+        <v>95.4</v>
       </c>
       <c r="F16" s="25">
-        <v>96.4</v>
+        <v>96.42</v>
       </c>
       <c r="G16" s="25">
-        <v>97.04</v>
+        <v>97.06</v>
       </c>
       <c r="H16" s="25">
-        <v>97.76</v>
+        <v>97.81</v>
       </c>
       <c r="I16" s="25">
-        <v>98.11</v>
+        <v>98.13</v>
       </c>
       <c r="J16" s="25">
         <v>98.68</v>
       </c>
       <c r="K16" s="25">
-        <v>99.17</v>
+        <v>99.15</v>
       </c>
       <c r="L16" s="25">
-        <v>100.08</v>
+        <v>100.05</v>
       </c>
       <c r="M16" s="25">
         <v>100</v>
@@ -3782,154 +3839,158 @@
         <v>90.79</v>
       </c>
       <c r="Q16" s="25">
-        <v>88.76</v>
+        <v>88.78</v>
       </c>
       <c r="R16" s="25">
-        <v>88.74</v>
+        <v>88.75</v>
       </c>
       <c r="S16" s="25">
-        <v>89.7</v>
+        <v>89.73</v>
       </c>
       <c r="T16" s="25">
-        <v>90.82</v>
+        <v>90.86</v>
       </c>
       <c r="U16" s="25">
-        <v>92.11</v>
+        <v>92.15</v>
       </c>
       <c r="V16" s="25">
-        <v>93.12</v>
+        <v>93.15</v>
       </c>
       <c r="W16" s="25">
-        <v>93.79</v>
+        <v>93.81</v>
       </c>
       <c r="X16" s="25">
-        <v>94.04</v>
+        <v>94.09</v>
       </c>
       <c r="Y16" s="25">
-        <v>95.22</v>
+        <v>95.27</v>
       </c>
       <c r="Z16" s="25">
-        <v>96.06</v>
+        <v>96.1</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.77</v>
+        <v>96.8</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.9</v>
+        <v>97.91</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.94</v>
+        <v>99.93</v>
       </c>
       <c r="AD16" s="25">
-        <v>101.02</v>
+        <v>100.95</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.68</v>
+        <v>101.59</v>
       </c>
       <c r="AF16" s="25">
-        <v>102.13</v>
+        <v>102.07</v>
       </c>
       <c r="AG16" s="25">
-        <v>102.46</v>
+        <v>102.4</v>
       </c>
       <c r="AH16" s="25">
-        <v>102.86</v>
+        <v>102.81</v>
       </c>
       <c r="AI16" s="25">
-        <v>103.02</v>
+        <v>102.96</v>
       </c>
       <c r="AJ16" s="25">
-        <v>103.39</v>
+        <v>103.31</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.62</v>
+        <v>103.54</v>
       </c>
       <c r="AL16" s="25">
-        <v>103.8</v>
+        <v>103.74</v>
       </c>
       <c r="AM16" s="25">
-        <v>104.63</v>
+        <v>104.57</v>
       </c>
       <c r="AN16" s="25">
-        <v>104.66</v>
+        <v>104.61</v>
       </c>
       <c r="AO16" s="25">
-        <v>104.06</v>
+        <v>104.05</v>
       </c>
       <c r="AP16" s="25">
-        <v>102.87</v>
+        <v>102.99</v>
       </c>
       <c r="AQ16" s="25">
-        <v>103.02</v>
+        <v>103.27</v>
       </c>
       <c r="AR16" s="25">
-        <v>103.52</v>
+        <v>103.85</v>
       </c>
       <c r="AS16" s="25">
-        <v>103.81</v>
+        <v>104.15</v>
       </c>
       <c r="AT16" s="25">
-        <v>103.94</v>
+        <v>104.31</v>
       </c>
       <c r="AU16" s="25">
-        <v>104.18</v>
+        <v>104.62</v>
       </c>
       <c r="AV16" s="25">
-        <v>104.67</v>
+        <v>105.14</v>
       </c>
       <c r="AW16" s="25">
-        <v>104.91</v>
+        <v>105.41</v>
       </c>
       <c r="AX16" s="25">
-        <v>105.11</v>
+        <v>105.65</v>
       </c>
       <c r="AY16" s="25">
-        <v>105.36</v>
+        <v>105.94</v>
       </c>
       <c r="AZ16" s="25">
-        <v>105.19</v>
+        <v>105.8</v>
       </c>
       <c r="BA16" s="25">
-        <v>103.53</v>
+        <v>104.13</v>
       </c>
       <c r="BB16" s="25">
-        <v>97.01</v>
+        <v>97.65</v>
       </c>
       <c r="BC16" s="25">
-        <v>91.83</v>
+        <v>92.3</v>
       </c>
       <c r="BD16" s="25">
-        <v>95.44</v>
+        <v>95.51</v>
       </c>
       <c r="BE16" s="25">
-        <v>99.59</v>
+        <v>99.71</v>
       </c>
       <c r="BF16" s="25">
-        <v>101.11</v>
+        <v>101.27</v>
       </c>
       <c r="BG16" s="25">
-        <v>101.23</v>
+        <v>101.49</v>
       </c>
       <c r="BH16" s="25">
-        <v>100.9</v>
+        <v>102.16</v>
       </c>
       <c r="BI16" s="25">
-        <v>101.05</v>
+        <v>102.4</v>
       </c>
       <c r="BJ16" s="25">
-        <v>101.1</v>
+        <v>102.07</v>
       </c>
       <c r="BK16" s="25">
-        <v>100.69</v>
+        <v>101.67</v>
       </c>
       <c r="BL16" s="25">
-        <v>99.15</v>
+        <v>101.37</v>
       </c>
       <c r="BM16" s="25">
-        <v>99.14</v>
-      </c>
-      <c r="BN16" s="25"/>
-      <c r="BO16" s="25"/>
+        <v>100.86</v>
+      </c>
+      <c r="BN16" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="BO16" s="25">
+        <v>99.93</v>
+      </c>
       <c r="BP16" s="25"/>
       <c r="BQ16" s="25"/>
       <c r="BR16" s="25"/>
@@ -3950,34 +4011,34 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.68</v>
+        <v>92.81</v>
       </c>
       <c r="D17" s="25">
-        <v>96.17</v>
+        <v>96.12</v>
       </c>
       <c r="E17" s="25">
-        <v>98.15</v>
+        <v>98.11</v>
       </c>
       <c r="F17" s="25">
-        <v>98.79</v>
+        <v>98.77</v>
       </c>
       <c r="G17" s="25">
-        <v>99.06</v>
+        <v>99.09</v>
       </c>
       <c r="H17" s="25">
-        <v>99.3</v>
+        <v>99.33</v>
       </c>
       <c r="I17" s="25">
         <v>99.83</v>
       </c>
       <c r="J17" s="25">
-        <v>99.97</v>
+        <v>99.95</v>
       </c>
       <c r="K17" s="25">
-        <v>100.34</v>
+        <v>100.3</v>
       </c>
       <c r="L17" s="25">
-        <v>100.26</v>
+        <v>100.23</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
@@ -3986,160 +4047,164 @@
         <v>98.39</v>
       </c>
       <c r="O17" s="25">
-        <v>92.83</v>
+        <v>92.85</v>
       </c>
       <c r="P17" s="25">
-        <v>89.33</v>
+        <v>89.39</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.55</v>
+        <v>87.62</v>
       </c>
       <c r="R17" s="25">
-        <v>87.66</v>
+        <v>87.71</v>
       </c>
       <c r="S17" s="25">
-        <v>89.07</v>
+        <v>89.09</v>
       </c>
       <c r="T17" s="25">
-        <v>89.48</v>
+        <v>89.55</v>
       </c>
       <c r="U17" s="25">
-        <v>90.29</v>
+        <v>90.36</v>
       </c>
       <c r="V17" s="25">
-        <v>90.86</v>
+        <v>90.94</v>
       </c>
       <c r="W17" s="25">
-        <v>91.02</v>
+        <v>91.12</v>
       </c>
       <c r="X17" s="25">
-        <v>91.38</v>
+        <v>91.47</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.45</v>
+        <v>92.55</v>
       </c>
       <c r="Z17" s="25">
-        <v>93.39</v>
+        <v>93.49</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.89</v>
+        <v>93.96</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.59</v>
+        <v>93.68</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.14</v>
+        <v>94.22</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.19</v>
+        <v>95.23</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.96</v>
+        <v>95.97</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.31</v>
+        <v>96.34</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.39</v>
+        <v>96.42</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.49</v>
+        <v>96.53</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.63</v>
+        <v>96.66</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.89</v>
+        <v>96.91</v>
       </c>
       <c r="AK17" s="25">
-        <v>97.01</v>
+        <v>97.04</v>
       </c>
       <c r="AL17" s="25">
-        <v>97.31</v>
+        <v>97.35</v>
       </c>
       <c r="AM17" s="25">
-        <v>98.27</v>
+        <v>98.32</v>
       </c>
       <c r="AN17" s="25">
-        <v>98.37</v>
+        <v>98.39</v>
       </c>
       <c r="AO17" s="25">
-        <v>97.73</v>
+        <v>97.77</v>
       </c>
       <c r="AP17" s="25">
-        <v>96.87</v>
+        <v>96.97</v>
       </c>
       <c r="AQ17" s="25">
-        <v>97.28</v>
+        <v>97.4</v>
       </c>
       <c r="AR17" s="25">
-        <v>98.07</v>
+        <v>98.19</v>
       </c>
       <c r="AS17" s="25">
-        <v>98.33</v>
+        <v>98.51</v>
       </c>
       <c r="AT17" s="25">
-        <v>98.09</v>
+        <v>98.3</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.64</v>
+        <v>98.84</v>
       </c>
       <c r="AV17" s="25">
-        <v>99</v>
+        <v>99.26</v>
       </c>
       <c r="AW17" s="25">
-        <v>99.32</v>
+        <v>99.56</v>
       </c>
       <c r="AX17" s="25">
-        <v>99.18</v>
+        <v>99.45</v>
       </c>
       <c r="AY17" s="25">
-        <v>99.48</v>
+        <v>99.78</v>
       </c>
       <c r="AZ17" s="25">
-        <v>99.15</v>
+        <v>99.52</v>
       </c>
       <c r="BA17" s="25">
-        <v>97.65</v>
+        <v>98.06</v>
       </c>
       <c r="BB17" s="25">
-        <v>92.84</v>
+        <v>93.24</v>
       </c>
       <c r="BC17" s="25">
-        <v>90.19</v>
+        <v>90.54</v>
       </c>
       <c r="BD17" s="25">
-        <v>92.89</v>
+        <v>93.12</v>
       </c>
       <c r="BE17" s="25">
-        <v>95.42</v>
+        <v>95.71</v>
       </c>
       <c r="BF17" s="25">
-        <v>96.85</v>
+        <v>97.14</v>
       </c>
       <c r="BG17" s="25">
-        <v>97.36</v>
+        <v>97.68</v>
       </c>
       <c r="BH17" s="25">
-        <v>97.54</v>
+        <v>98.17</v>
       </c>
       <c r="BI17" s="25">
-        <v>98</v>
+        <v>98.56</v>
       </c>
       <c r="BJ17" s="25">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="BK17" s="25">
-        <v>98.5</v>
+        <v>98.38</v>
       </c>
       <c r="BL17" s="25">
-        <v>97.76</v>
+        <v>98.46</v>
       </c>
       <c r="BM17" s="25">
-        <v>98.31</v>
-      </c>
-      <c r="BN17" s="25"/>
-      <c r="BO17" s="25"/>
+        <v>98.6</v>
+      </c>
+      <c r="BN17" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="BO17" s="25">
+        <v>98.55</v>
+      </c>
       <c r="BP17" s="25"/>
       <c r="BQ17" s="25"/>
       <c r="BR17" s="25"/>
@@ -4157,199 +4222,203 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="25">
-        <v>96.05</v>
+        <v>96.84</v>
       </c>
       <c r="D18" s="25">
-        <v>97.31</v>
+        <v>97.37</v>
       </c>
       <c r="E18" s="25">
-        <v>97.83</v>
+        <v>97.92</v>
       </c>
       <c r="F18" s="25">
-        <v>98.33</v>
+        <v>98.44</v>
       </c>
       <c r="G18" s="25">
-        <v>98.3</v>
+        <v>98.41</v>
       </c>
       <c r="H18" s="25">
-        <v>98.68</v>
+        <v>98.76</v>
       </c>
       <c r="I18" s="25">
-        <v>99.44</v>
+        <v>99.51</v>
       </c>
       <c r="J18" s="25">
-        <v>99.56</v>
+        <v>99.63</v>
       </c>
       <c r="K18" s="25">
-        <v>98.69</v>
+        <v>98.77</v>
       </c>
       <c r="L18" s="25">
-        <v>99.39</v>
+        <v>99.43</v>
       </c>
       <c r="M18" s="25">
         <v>100</v>
       </c>
       <c r="N18" s="25">
-        <v>99.93</v>
+        <v>99.92</v>
       </c>
       <c r="O18" s="25">
-        <v>97.31</v>
+        <v>97.32</v>
       </c>
       <c r="P18" s="25">
-        <v>95.87</v>
+        <v>95.88</v>
       </c>
       <c r="Q18" s="25">
-        <v>94.3</v>
+        <v>94.34</v>
       </c>
       <c r="R18" s="25">
-        <v>94.49</v>
+        <v>94.56</v>
       </c>
       <c r="S18" s="25">
-        <v>94.89</v>
+        <v>94.95</v>
       </c>
       <c r="T18" s="25">
-        <v>95.26</v>
+        <v>95.3</v>
       </c>
       <c r="U18" s="25">
-        <v>95.71</v>
+        <v>95.75</v>
       </c>
       <c r="V18" s="25">
-        <v>96.14</v>
+        <v>96.15</v>
       </c>
       <c r="W18" s="25">
-        <v>96.07</v>
+        <v>96.09</v>
       </c>
       <c r="X18" s="25">
-        <v>96.26</v>
+        <v>96.31</v>
       </c>
       <c r="Y18" s="25">
-        <v>96.78</v>
+        <v>96.86</v>
       </c>
       <c r="Z18" s="25">
-        <v>97.02</v>
+        <v>97.08</v>
       </c>
       <c r="AA18" s="25">
-        <v>96.39</v>
+        <v>96.43</v>
       </c>
       <c r="AB18" s="25">
-        <v>95.37</v>
+        <v>95.4</v>
       </c>
       <c r="AC18" s="25">
-        <v>95.79</v>
+        <v>95.85</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.11</v>
+        <v>97.22</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.35</v>
+        <v>97.43</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.6</v>
+        <v>97.64</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.16</v>
+        <v>97.22</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.45</v>
+        <v>97.5</v>
       </c>
       <c r="AI18" s="25">
+        <v>97.27</v>
+      </c>
+      <c r="AJ18" s="25">
+        <v>97.64</v>
+      </c>
+      <c r="AK18" s="25">
         <v>97.23</v>
       </c>
-      <c r="AJ18" s="25">
-        <v>97.6</v>
-      </c>
-      <c r="AK18" s="25">
-        <v>97.14</v>
-      </c>
       <c r="AL18" s="25">
-        <v>97.42</v>
+        <v>97.52</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.75</v>
+        <v>97.78</v>
       </c>
       <c r="AN18" s="25">
-        <v>98.02</v>
+        <v>98.08</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.21</v>
+        <v>97.28</v>
       </c>
       <c r="AP18" s="25">
-        <v>96.53</v>
+        <v>96.6</v>
       </c>
       <c r="AQ18" s="25">
-        <v>96.74</v>
+        <v>96.79</v>
       </c>
       <c r="AR18" s="25">
+        <v>97.39</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>97.24</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>97.26</v>
+      </c>
+      <c r="AU18" s="25">
         <v>97.34</v>
       </c>
-      <c r="AS18" s="25">
-        <v>97.17</v>
-      </c>
-      <c r="AT18" s="25">
-        <v>97.18</v>
-      </c>
-      <c r="AU18" s="25">
-        <v>97.23</v>
-      </c>
       <c r="AV18" s="25">
-        <v>97.96</v>
+        <v>98.09</v>
       </c>
       <c r="AW18" s="25">
-        <v>97.87</v>
+        <v>98.01</v>
       </c>
       <c r="AX18" s="25">
-        <v>97.95</v>
+        <v>98.11</v>
       </c>
       <c r="AY18" s="25">
-        <v>98.06</v>
+        <v>98.27</v>
       </c>
       <c r="AZ18" s="25">
-        <v>97.93</v>
+        <v>98.15</v>
       </c>
       <c r="BA18" s="25">
-        <v>97.13</v>
+        <v>97.39</v>
       </c>
       <c r="BB18" s="25">
-        <v>94.12</v>
+        <v>94.45</v>
       </c>
       <c r="BC18" s="25">
-        <v>92.43</v>
+        <v>92.64</v>
       </c>
       <c r="BD18" s="25">
-        <v>92.63</v>
+        <v>92.74</v>
       </c>
       <c r="BE18" s="25">
-        <v>93.69</v>
+        <v>93.84</v>
       </c>
       <c r="BF18" s="25">
-        <v>94.28</v>
+        <v>94.44</v>
       </c>
       <c r="BG18" s="25">
-        <v>94.65</v>
+        <v>94.79</v>
       </c>
       <c r="BH18" s="25">
-        <v>94.93</v>
+        <v>95.18</v>
       </c>
       <c r="BI18" s="25">
-        <v>95.83</v>
+        <v>96.03</v>
       </c>
       <c r="BJ18" s="25">
-        <v>96.42</v>
+        <v>96.28</v>
       </c>
       <c r="BK18" s="25">
-        <v>96.74</v>
+        <v>96.47</v>
       </c>
       <c r="BL18" s="25">
-        <v>97.03</v>
+        <v>97.12</v>
       </c>
       <c r="BM18" s="25">
-        <v>98.52</v>
-      </c>
-      <c r="BN18" s="25"/>
-      <c r="BO18" s="25"/>
+        <v>97.56</v>
+      </c>
+      <c r="BN18" s="25">
+        <v>98.04</v>
+      </c>
+      <c r="BO18" s="25">
+        <v>98.68</v>
+      </c>
       <c r="BP18" s="25"/>
       <c r="BQ18" s="25"/>
       <c r="BR18" s="25"/>
@@ -4367,199 +4436,203 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="25">
-        <v>87.57</v>
+        <v>87.99</v>
       </c>
       <c r="D19" s="25">
-        <v>93.13</v>
+        <v>93.06</v>
       </c>
       <c r="E19" s="25">
-        <v>95.59</v>
+        <v>95.54</v>
       </c>
       <c r="F19" s="25">
-        <v>96.51</v>
+        <v>96.47</v>
       </c>
       <c r="G19" s="25">
-        <v>96.93</v>
+        <v>96.88</v>
       </c>
       <c r="H19" s="25">
-        <v>97.98</v>
+        <v>97.96</v>
       </c>
       <c r="I19" s="25">
-        <v>98.79</v>
+        <v>98.76</v>
       </c>
       <c r="J19" s="25">
-        <v>99.03</v>
+        <v>98.98</v>
       </c>
       <c r="K19" s="25">
-        <v>99.47</v>
+        <v>99.43</v>
       </c>
       <c r="L19" s="25">
-        <v>100.15</v>
+        <v>100.13</v>
       </c>
       <c r="M19" s="25">
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>98.73</v>
+        <v>98.77</v>
       </c>
       <c r="O19" s="25">
-        <v>92.97</v>
+        <v>93.08</v>
       </c>
       <c r="P19" s="25">
-        <v>90.53</v>
+        <v>90.62</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.14</v>
+        <v>89.25</v>
       </c>
       <c r="R19" s="25">
-        <v>88.98</v>
+        <v>89.08</v>
       </c>
       <c r="S19" s="25">
-        <v>89.94</v>
+        <v>90</v>
       </c>
       <c r="T19" s="25">
-        <v>91.06</v>
+        <v>91.12</v>
       </c>
       <c r="U19" s="25">
-        <v>92.36</v>
+        <v>92.44</v>
       </c>
       <c r="V19" s="25">
-        <v>93.06</v>
+        <v>93.17</v>
       </c>
       <c r="W19" s="25">
-        <v>93.58</v>
+        <v>93.69</v>
       </c>
       <c r="X19" s="25">
-        <v>94.13</v>
+        <v>94.26</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.67</v>
+        <v>95.76</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.52</v>
+        <v>96.61</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.15</v>
+        <v>97.26</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.06</v>
+        <v>98.17</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.52</v>
+        <v>99.6</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.51</v>
+        <v>100.59</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.85</v>
+        <v>100.95</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.3</v>
+        <v>101.43</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.67</v>
+        <v>101.81</v>
       </c>
       <c r="AH19" s="25">
-        <v>102.06</v>
+        <v>102.22</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.43</v>
+        <v>102.61</v>
       </c>
       <c r="AJ19" s="25">
-        <v>102.79</v>
+        <v>102.98</v>
       </c>
       <c r="AK19" s="25">
-        <v>103.35</v>
+        <v>103.51</v>
       </c>
       <c r="AL19" s="25">
-        <v>103.65</v>
+        <v>103.83</v>
       </c>
       <c r="AM19" s="25">
-        <v>104.05</v>
+        <v>104.25</v>
       </c>
       <c r="AN19" s="25">
-        <v>104</v>
+        <v>104.22</v>
       </c>
       <c r="AO19" s="25">
-        <v>103.91</v>
+        <v>104.13</v>
       </c>
       <c r="AP19" s="25">
-        <v>103.03</v>
+        <v>103.29</v>
       </c>
       <c r="AQ19" s="25">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="AR19" s="25">
-        <v>103.93</v>
+        <v>104.38</v>
       </c>
       <c r="AS19" s="25">
-        <v>104.25</v>
+        <v>104.72</v>
       </c>
       <c r="AT19" s="25">
-        <v>104.24</v>
+        <v>104.72</v>
       </c>
       <c r="AU19" s="25">
-        <v>104.32</v>
+        <v>104.84</v>
       </c>
       <c r="AV19" s="25">
-        <v>104.69</v>
+        <v>105.25</v>
       </c>
       <c r="AW19" s="25">
-        <v>102.97</v>
+        <v>103.54</v>
       </c>
       <c r="AX19" s="25">
-        <v>104.2</v>
+        <v>104.79</v>
       </c>
       <c r="AY19" s="25">
-        <v>105.45</v>
+        <v>106.05</v>
       </c>
       <c r="AZ19" s="25">
-        <v>105.96</v>
+        <v>106.52</v>
       </c>
       <c r="BA19" s="25">
-        <v>104.74</v>
+        <v>105.33</v>
       </c>
       <c r="BB19" s="25">
-        <v>99.54</v>
+        <v>100.16</v>
       </c>
       <c r="BC19" s="25">
-        <v>94.7</v>
+        <v>95.16</v>
       </c>
       <c r="BD19" s="25">
-        <v>97.62</v>
+        <v>97.74</v>
       </c>
       <c r="BE19" s="25">
-        <v>100.57</v>
+        <v>100.79</v>
       </c>
       <c r="BF19" s="25">
-        <v>101.47</v>
+        <v>101.74</v>
       </c>
       <c r="BG19" s="25">
-        <v>101.47</v>
+        <v>101.82</v>
       </c>
       <c r="BH19" s="25">
-        <v>101.72</v>
+        <v>102.88</v>
       </c>
       <c r="BI19" s="25">
-        <v>101.86</v>
+        <v>103.08</v>
       </c>
       <c r="BJ19" s="25">
-        <v>102.13</v>
+        <v>102.91</v>
       </c>
       <c r="BK19" s="25">
-        <v>102.15</v>
+        <v>102.77</v>
       </c>
       <c r="BL19" s="25">
-        <v>100.89</v>
+        <v>102.77</v>
       </c>
       <c r="BM19" s="25">
-        <v>100.59</v>
-      </c>
-      <c r="BN19" s="25"/>
-      <c r="BO19" s="25"/>
+        <v>102.6</v>
+      </c>
+      <c r="BN19" s="25">
+        <v>102</v>
+      </c>
+      <c r="BO19" s="25">
+        <v>102.11</v>
+      </c>
       <c r="BP19" s="25"/>
       <c r="BQ19" s="25"/>
       <c r="BR19" s="25"/>
@@ -4580,196 +4653,200 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>91.87</v>
+        <v>92.45</v>
       </c>
       <c r="D20" s="25">
-        <v>95.59</v>
+        <v>95.71</v>
       </c>
       <c r="E20" s="25">
-        <v>97.43</v>
+        <v>97.49</v>
       </c>
       <c r="F20" s="25">
-        <v>98.14</v>
+        <v>98.18</v>
       </c>
       <c r="G20" s="25">
-        <v>98.18</v>
+        <v>98.26</v>
       </c>
       <c r="H20" s="25">
-        <v>99.22</v>
+        <v>99.29</v>
       </c>
       <c r="I20" s="25">
-        <v>99.66</v>
+        <v>99.71</v>
       </c>
       <c r="J20" s="25">
-        <v>100.07</v>
+        <v>100.14</v>
       </c>
       <c r="K20" s="25">
-        <v>100.07</v>
+        <v>100.15</v>
       </c>
       <c r="L20" s="25">
-        <v>100.11</v>
+        <v>100.15</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
       </c>
       <c r="N20" s="25">
-        <v>98.1</v>
+        <v>98.15</v>
       </c>
       <c r="O20" s="25">
+        <v>92.46</v>
+      </c>
+      <c r="P20" s="25">
+        <v>89.46</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>88</v>
+      </c>
+      <c r="R20" s="25">
+        <v>88.24</v>
+      </c>
+      <c r="S20" s="25">
+        <v>89.27</v>
+      </c>
+      <c r="T20" s="25">
+        <v>89.81</v>
+      </c>
+      <c r="U20" s="25">
+        <v>90.97</v>
+      </c>
+      <c r="V20" s="25">
+        <v>92.54</v>
+      </c>
+      <c r="W20" s="25">
         <v>92.35</v>
       </c>
-      <c r="P20" s="25">
-        <v>89.31</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>87.83</v>
-      </c>
-      <c r="R20" s="25">
-        <v>88.05</v>
-      </c>
-      <c r="S20" s="25">
-        <v>89.05</v>
-      </c>
-      <c r="T20" s="25">
-        <v>89.62</v>
-      </c>
-      <c r="U20" s="25">
-        <v>90.74</v>
-      </c>
-      <c r="V20" s="25">
-        <v>92.32</v>
-      </c>
-      <c r="W20" s="25">
-        <v>92.12</v>
-      </c>
       <c r="X20" s="25">
-        <v>92.21</v>
+        <v>92.42</v>
       </c>
       <c r="Y20" s="25">
-        <v>92.88</v>
+        <v>93.12</v>
       </c>
       <c r="Z20" s="25">
-        <v>93.46</v>
+        <v>93.67</v>
       </c>
       <c r="AA20" s="25">
-        <v>93.37</v>
+        <v>93.57</v>
       </c>
       <c r="AB20" s="25">
-        <v>92.86</v>
+        <v>93.09</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.37</v>
+        <v>93.63</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.32</v>
+        <v>94.56</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.54</v>
+        <v>94.78</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.06</v>
+        <v>95.32</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.22</v>
+        <v>95.48</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.56</v>
+        <v>95.84</v>
       </c>
       <c r="AI20" s="25">
-        <v>95.98</v>
+        <v>96.3</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.69</v>
+        <v>96.02</v>
       </c>
       <c r="AK20" s="25">
-        <v>96</v>
+        <v>96.32</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.41</v>
+        <v>96.73</v>
       </c>
       <c r="AM20" s="25">
-        <v>96.72</v>
+        <v>97.08</v>
       </c>
       <c r="AN20" s="25">
-        <v>96.84</v>
+        <v>97.21</v>
       </c>
       <c r="AO20" s="25">
-        <v>96.73</v>
+        <v>97.12</v>
       </c>
       <c r="AP20" s="25">
-        <v>96.01</v>
+        <v>96.39</v>
       </c>
       <c r="AQ20" s="25">
-        <v>95.77</v>
+        <v>96.18</v>
       </c>
       <c r="AR20" s="25">
-        <v>97.12</v>
+        <v>97.53</v>
       </c>
       <c r="AS20" s="25">
-        <v>97.49</v>
+        <v>97.87</v>
       </c>
       <c r="AT20" s="25">
-        <v>97.55</v>
+        <v>97.93</v>
       </c>
       <c r="AU20" s="25">
-        <v>97.71</v>
+        <v>98.12</v>
       </c>
       <c r="AV20" s="25">
-        <v>98.24</v>
+        <v>98.68</v>
       </c>
       <c r="AW20" s="25">
-        <v>97.52</v>
+        <v>97.97</v>
       </c>
       <c r="AX20" s="25">
-        <v>97.93</v>
+        <v>98.41</v>
       </c>
       <c r="AY20" s="25">
-        <v>98.41</v>
+        <v>98.92</v>
       </c>
       <c r="AZ20" s="25">
-        <v>98.66</v>
+        <v>99.18</v>
       </c>
       <c r="BA20" s="25">
-        <v>97.04</v>
+        <v>97.58</v>
       </c>
       <c r="BB20" s="25">
-        <v>93.22</v>
+        <v>93.7</v>
       </c>
       <c r="BC20" s="25">
-        <v>90.86</v>
+        <v>91.27</v>
       </c>
       <c r="BD20" s="25">
-        <v>93.1</v>
+        <v>93.35</v>
       </c>
       <c r="BE20" s="25">
-        <v>95.11</v>
+        <v>95.41</v>
       </c>
       <c r="BF20" s="25">
-        <v>95.95</v>
+        <v>96.25</v>
       </c>
       <c r="BG20" s="25">
-        <v>96.46</v>
+        <v>96.8</v>
       </c>
       <c r="BH20" s="25">
-        <v>97.1</v>
+        <v>97.77</v>
       </c>
       <c r="BI20" s="25">
-        <v>97.81</v>
+        <v>98.37</v>
       </c>
       <c r="BJ20" s="25">
-        <v>98.66</v>
+        <v>98.72</v>
       </c>
       <c r="BK20" s="25">
-        <v>98.96</v>
+        <v>98.92</v>
       </c>
       <c r="BL20" s="25">
-        <v>98.29</v>
+        <v>99.25</v>
       </c>
       <c r="BM20" s="25">
-        <v>98.66</v>
-      </c>
-      <c r="BN20" s="25"/>
-      <c r="BO20" s="25"/>
+        <v>99.52</v>
+      </c>
+      <c r="BN20" s="25">
+        <v>99.52</v>
+      </c>
+      <c r="BO20" s="25">
+        <v>99.88</v>
+      </c>
       <c r="BP20" s="25"/>
       <c r="BQ20" s="25"/>
       <c r="BR20" s="25"/>
@@ -4787,199 +4864,203 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="25">
-        <v>96.65</v>
+        <v>96.94</v>
       </c>
       <c r="D21" s="25">
-        <v>97.56</v>
+        <v>97.54</v>
       </c>
       <c r="E21" s="25">
-        <v>98.6</v>
+        <v>98.59</v>
       </c>
       <c r="F21" s="25">
-        <v>98.94</v>
+        <v>98.98</v>
       </c>
       <c r="G21" s="25">
         <v>98.6</v>
       </c>
       <c r="H21" s="25">
-        <v>99.65</v>
+        <v>99.64</v>
       </c>
       <c r="I21" s="25">
-        <v>100.45</v>
+        <v>100.44</v>
       </c>
       <c r="J21" s="25">
-        <v>99.38</v>
+        <v>99.36</v>
       </c>
       <c r="K21" s="25">
-        <v>98.83</v>
+        <v>98.82</v>
       </c>
       <c r="L21" s="25">
-        <v>100.01</v>
+        <v>99.99</v>
       </c>
       <c r="M21" s="25">
         <v>100</v>
       </c>
       <c r="N21" s="25">
-        <v>99.33</v>
+        <v>99.32</v>
       </c>
       <c r="O21" s="25">
-        <v>97.77</v>
+        <v>97.79</v>
       </c>
       <c r="P21" s="25">
-        <v>95.27</v>
+        <v>95.31</v>
       </c>
       <c r="Q21" s="25">
-        <v>94.32</v>
+        <v>94.39</v>
       </c>
       <c r="R21" s="25">
-        <v>94.47</v>
+        <v>94.54</v>
       </c>
       <c r="S21" s="25">
-        <v>94.18</v>
+        <v>94.28</v>
       </c>
       <c r="T21" s="25">
-        <v>94.44</v>
+        <v>94.55</v>
       </c>
       <c r="U21" s="25">
-        <v>94.92</v>
+        <v>95.04</v>
       </c>
       <c r="V21" s="25">
-        <v>95.7</v>
+        <v>95.82</v>
       </c>
       <c r="W21" s="25">
-        <v>95.91</v>
+        <v>96.04</v>
       </c>
       <c r="X21" s="25">
-        <v>96.47</v>
+        <v>96.61</v>
       </c>
       <c r="Y21" s="25">
-        <v>96.87</v>
+        <v>96.94</v>
       </c>
       <c r="Z21" s="25">
-        <v>96.67</v>
+        <v>96.73</v>
       </c>
       <c r="AA21" s="25">
-        <v>95.51</v>
+        <v>95.6</v>
       </c>
       <c r="AB21" s="25">
-        <v>93.68</v>
+        <v>93.79</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.66</v>
+        <v>94.8</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.47</v>
+        <v>96.63</v>
       </c>
       <c r="AE21" s="25">
-        <v>96.81</v>
+        <v>96.96</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.6</v>
+        <v>97.73</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.35</v>
+        <v>97.48</v>
       </c>
       <c r="AH21" s="25">
-        <v>97.7</v>
+        <v>97.84</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.67</v>
+        <v>97.85</v>
       </c>
       <c r="AJ21" s="25">
-        <v>97.96</v>
+        <v>98.14</v>
       </c>
       <c r="AK21" s="25">
-        <v>97.72</v>
+        <v>97.9</v>
       </c>
       <c r="AL21" s="25">
-        <v>97.97</v>
+        <v>98.14</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.47</v>
+        <v>98.74</v>
       </c>
       <c r="AN21" s="25">
-        <v>98.82</v>
+        <v>99.03</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.68</v>
+        <v>98.85</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.15</v>
+        <v>98.29</v>
       </c>
       <c r="AQ21" s="25">
-        <v>98.62</v>
+        <v>98.79</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.24</v>
+        <v>100.45</v>
       </c>
       <c r="AS21" s="25">
-        <v>99.97</v>
+        <v>100.23</v>
       </c>
       <c r="AT21" s="25">
-        <v>99.06</v>
+        <v>99.31</v>
       </c>
       <c r="AU21" s="25">
-        <v>99.76</v>
+        <v>100.01</v>
       </c>
       <c r="AV21" s="25">
-        <v>101.07</v>
+        <v>101.31</v>
       </c>
       <c r="AW21" s="25">
-        <v>100.51</v>
+        <v>100.72</v>
       </c>
       <c r="AX21" s="25">
-        <v>100.16</v>
+        <v>100.39</v>
       </c>
       <c r="AY21" s="25">
-        <v>101.29</v>
+        <v>101.55</v>
       </c>
       <c r="AZ21" s="25">
-        <v>101.63</v>
+        <v>101.89</v>
       </c>
       <c r="BA21" s="25">
-        <v>100.32</v>
+        <v>100.56</v>
       </c>
       <c r="BB21" s="25">
-        <v>97.06</v>
+        <v>97.31</v>
       </c>
       <c r="BC21" s="25">
-        <v>95.29</v>
+        <v>95.46</v>
       </c>
       <c r="BD21" s="25">
-        <v>95.58</v>
+        <v>95.63</v>
       </c>
       <c r="BE21" s="25">
-        <v>97.02</v>
+        <v>97.07</v>
       </c>
       <c r="BF21" s="25">
-        <v>97.68</v>
+        <v>97.76</v>
       </c>
       <c r="BG21" s="25">
-        <v>98.12</v>
+        <v>98.2</v>
       </c>
       <c r="BH21" s="25">
-        <v>98.08</v>
+        <v>98.4</v>
       </c>
       <c r="BI21" s="25">
-        <v>98.95</v>
+        <v>99.25</v>
       </c>
       <c r="BJ21" s="25">
-        <v>99.49</v>
+        <v>99.53</v>
       </c>
       <c r="BK21" s="25">
-        <v>100.4</v>
+        <v>100.02</v>
       </c>
       <c r="BL21" s="25">
-        <v>100.16</v>
+        <v>100.09</v>
       </c>
       <c r="BM21" s="25">
-        <v>101.32</v>
-      </c>
-      <c r="BN21" s="25"/>
-      <c r="BO21" s="25"/>
+        <v>100.74</v>
+      </c>
+      <c r="BN21" s="25">
+        <v>100.9</v>
+      </c>
+      <c r="BO21" s="25">
+        <v>101.46</v>
+      </c>
       <c r="BP21" s="25"/>
       <c r="BQ21" s="25"/>
       <c r="BR21" s="25"/>
@@ -4997,199 +5078,203 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="25">
-        <v>89.44</v>
+        <v>89.99</v>
       </c>
       <c r="D22" s="25">
-        <v>94.06</v>
+        <v>94</v>
       </c>
       <c r="E22" s="25">
-        <v>95.46</v>
+        <v>95.36</v>
       </c>
       <c r="F22" s="25">
-        <v>95.71</v>
+        <v>95.6</v>
       </c>
       <c r="G22" s="25">
-        <v>96.03</v>
+        <v>95.92</v>
       </c>
       <c r="H22" s="25">
-        <v>97.48</v>
+        <v>97.39</v>
       </c>
       <c r="I22" s="25">
-        <v>98.03</v>
+        <v>97.94</v>
       </c>
       <c r="J22" s="25">
-        <v>98.4</v>
+        <v>98.31</v>
       </c>
       <c r="K22" s="25">
-        <v>98.96</v>
+        <v>98.86</v>
       </c>
       <c r="L22" s="25">
-        <v>99.67</v>
+        <v>99.65</v>
       </c>
       <c r="M22" s="25">
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>99</v>
+        <v>99.04</v>
       </c>
       <c r="O22" s="25">
-        <v>94.19</v>
+        <v>94.26</v>
       </c>
       <c r="P22" s="25">
-        <v>90.44</v>
+        <v>90.6</v>
       </c>
       <c r="Q22" s="25">
-        <v>88.41</v>
+        <v>88.63</v>
       </c>
       <c r="R22" s="25">
-        <v>88.21</v>
+        <v>88.43</v>
       </c>
       <c r="S22" s="25">
-        <v>88.82</v>
+        <v>89.04</v>
       </c>
       <c r="T22" s="25">
-        <v>90.16</v>
+        <v>90.38</v>
       </c>
       <c r="U22" s="25">
-        <v>91.56</v>
+        <v>91.8</v>
       </c>
       <c r="V22" s="25">
-        <v>92.56</v>
+        <v>92.8</v>
       </c>
       <c r="W22" s="25">
-        <v>93.57</v>
+        <v>93.8</v>
       </c>
       <c r="X22" s="25">
-        <v>94.11</v>
+        <v>94.34</v>
       </c>
       <c r="Y22" s="25">
-        <v>95.17</v>
+        <v>95.44</v>
       </c>
       <c r="Z22" s="25">
-        <v>96.85</v>
+        <v>97.04</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.7</v>
+        <v>97.87</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.23</v>
+        <v>98.51</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.43</v>
+        <v>100.72</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.43</v>
+        <v>101.69</v>
       </c>
       <c r="AE22" s="25">
-        <v>101.75</v>
+        <v>102.05</v>
       </c>
       <c r="AF22" s="25">
-        <v>102.58</v>
+        <v>102.87</v>
       </c>
       <c r="AG22" s="25">
-        <v>102.92</v>
+        <v>103.2</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="AI22" s="25">
-        <v>103.87</v>
+        <v>104.17</v>
       </c>
       <c r="AJ22" s="25">
-        <v>104.25</v>
+        <v>104.56</v>
       </c>
       <c r="AK22" s="25">
-        <v>104.63</v>
+        <v>104.97</v>
       </c>
       <c r="AL22" s="25">
-        <v>105.07</v>
+        <v>105.42</v>
       </c>
       <c r="AM22" s="25">
-        <v>105.72</v>
+        <v>106.05</v>
       </c>
       <c r="AN22" s="25">
-        <v>105.71</v>
+        <v>106.06</v>
       </c>
       <c r="AO22" s="25">
-        <v>105.58</v>
+        <v>105.92</v>
       </c>
       <c r="AP22" s="25">
-        <v>103.89</v>
+        <v>104.3</v>
       </c>
       <c r="AQ22" s="25">
-        <v>103.7</v>
+        <v>104.23</v>
       </c>
       <c r="AR22" s="25">
-        <v>104.7</v>
+        <v>105.25</v>
       </c>
       <c r="AS22" s="25">
-        <v>105.43</v>
+        <v>106.01</v>
       </c>
       <c r="AT22" s="25">
-        <v>105.51</v>
+        <v>106.1</v>
       </c>
       <c r="AU22" s="25">
-        <v>105.94</v>
+        <v>106.54</v>
       </c>
       <c r="AV22" s="25">
-        <v>106.43</v>
+        <v>107.11</v>
       </c>
       <c r="AW22" s="25">
-        <v>106.77</v>
+        <v>107.49</v>
       </c>
       <c r="AX22" s="25">
-        <v>106.95</v>
+        <v>107.7</v>
       </c>
       <c r="AY22" s="25">
-        <v>107.25</v>
+        <v>108.04</v>
       </c>
       <c r="AZ22" s="25">
-        <v>107.29</v>
+        <v>108.12</v>
       </c>
       <c r="BA22" s="25">
-        <v>105.84</v>
+        <v>106.72</v>
       </c>
       <c r="BB22" s="25">
-        <v>100.07</v>
+        <v>100.9</v>
       </c>
       <c r="BC22" s="25">
-        <v>96.14</v>
+        <v>96.7</v>
       </c>
       <c r="BD22" s="25">
-        <v>99.23</v>
+        <v>99.22</v>
       </c>
       <c r="BE22" s="25">
-        <v>102.08</v>
+        <v>102.15</v>
       </c>
       <c r="BF22" s="25">
-        <v>102.88</v>
+        <v>103.04</v>
       </c>
       <c r="BG22" s="25">
-        <v>102.38</v>
+        <v>102.72</v>
       </c>
       <c r="BH22" s="25">
-        <v>100.09</v>
+        <v>101.69</v>
       </c>
       <c r="BI22" s="25">
-        <v>101.94</v>
+        <v>103.58</v>
       </c>
       <c r="BJ22" s="25">
-        <v>103.06</v>
+        <v>104.18</v>
       </c>
       <c r="BK22" s="25">
-        <v>103.28</v>
+        <v>104.11</v>
       </c>
       <c r="BL22" s="25">
-        <v>101.92</v>
+        <v>104.32</v>
       </c>
       <c r="BM22" s="25">
-        <v>101.76</v>
-      </c>
-      <c r="BN22" s="25"/>
-      <c r="BO22" s="25"/>
+        <v>104.5</v>
+      </c>
+      <c r="BN22" s="25">
+        <v>103.48</v>
+      </c>
+      <c r="BO22" s="25">
+        <v>103.26</v>
+      </c>
       <c r="BP22" s="25"/>
       <c r="BQ22" s="25"/>
       <c r="BR22" s="25"/>
@@ -5210,196 +5295,200 @@
         <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>95.64</v>
+        <v>96.31</v>
       </c>
       <c r="D23" s="25">
-        <v>97.94</v>
+        <v>98.04</v>
       </c>
       <c r="E23" s="25">
-        <v>97.77</v>
+        <v>97.84</v>
       </c>
       <c r="F23" s="25">
-        <v>98.43</v>
+        <v>98.47</v>
       </c>
       <c r="G23" s="25">
-        <v>98.65</v>
+        <v>98.71</v>
       </c>
       <c r="H23" s="25">
-        <v>99.68</v>
+        <v>99.7</v>
       </c>
       <c r="I23" s="25">
-        <v>100.38</v>
+        <v>100.41</v>
       </c>
       <c r="J23" s="25">
-        <v>100.21</v>
+        <v>100.23</v>
       </c>
       <c r="K23" s="25">
-        <v>100.41</v>
+        <v>100.42</v>
       </c>
       <c r="L23" s="25">
-        <v>100.02</v>
+        <v>100.05</v>
       </c>
       <c r="M23" s="25">
         <v>100</v>
       </c>
       <c r="N23" s="25">
+        <v>98.63</v>
+      </c>
+      <c r="O23" s="25">
+        <v>93.44</v>
+      </c>
+      <c r="P23" s="25">
+        <v>90.15</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>89.02</v>
+      </c>
+      <c r="R23" s="25">
+        <v>88.57</v>
+      </c>
+      <c r="S23" s="25">
+        <v>88.93</v>
+      </c>
+      <c r="T23" s="25">
+        <v>89.78</v>
+      </c>
+      <c r="U23" s="25">
+        <v>90.69</v>
+      </c>
+      <c r="V23" s="25">
+        <v>91.67</v>
+      </c>
+      <c r="W23" s="25">
+        <v>91.99</v>
+      </c>
+      <c r="X23" s="25">
+        <v>92.45</v>
+      </c>
+      <c r="Y23" s="25">
+        <v>93.58</v>
+      </c>
+      <c r="Z23" s="25">
+        <v>94.66</v>
+      </c>
+      <c r="AA23" s="25">
+        <v>95.17</v>
+      </c>
+      <c r="AB23" s="25">
+        <v>94.48</v>
+      </c>
+      <c r="AC23" s="25">
+        <v>95.3</v>
+      </c>
+      <c r="AD23" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="AE23" s="25">
+        <v>97.28</v>
+      </c>
+      <c r="AF23" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AG23" s="25">
+        <v>98.34</v>
+      </c>
+      <c r="AH23" s="25">
+        <v>98.32</v>
+      </c>
+      <c r="AI23" s="25">
+        <v>98.52</v>
+      </c>
+      <c r="AJ23" s="25">
+        <v>98.93</v>
+      </c>
+      <c r="AK23" s="25">
+        <v>99.2</v>
+      </c>
+      <c r="AL23" s="25">
+        <v>99.49</v>
+      </c>
+      <c r="AM23" s="25">
+        <v>100.01</v>
+      </c>
+      <c r="AN23" s="25">
+        <v>99.99</v>
+      </c>
+      <c r="AO23" s="25">
+        <v>99.87</v>
+      </c>
+      <c r="AP23" s="25">
+        <v>99.17</v>
+      </c>
+      <c r="AQ23" s="25">
+        <v>99.3</v>
+      </c>
+      <c r="AR23" s="25">
+        <v>99.97</v>
+      </c>
+      <c r="AS23" s="25">
+        <v>100.31</v>
+      </c>
+      <c r="AT23" s="25">
+        <v>100.44</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>100.32</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>100.81</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>100.86</v>
+      </c>
+      <c r="AX23" s="25">
+        <v>101.42</v>
+      </c>
+      <c r="AY23" s="25">
+        <v>102.09</v>
+      </c>
+      <c r="AZ23" s="25">
+        <v>101.84</v>
+      </c>
+      <c r="BA23" s="25">
+        <v>100.84</v>
+      </c>
+      <c r="BB23" s="25">
+        <v>96.39</v>
+      </c>
+      <c r="BC23" s="25">
+        <v>94</v>
+      </c>
+      <c r="BD23" s="25">
+        <v>96.4</v>
+      </c>
+      <c r="BE23" s="25">
+        <v>98.67</v>
+      </c>
+      <c r="BF23" s="25">
+        <v>98.9</v>
+      </c>
+      <c r="BG23" s="25">
         <v>98.64</v>
       </c>
-      <c r="O23" s="25">
-        <v>93.34</v>
-      </c>
-      <c r="P23" s="25">
-        <v>89.99</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>88.78</v>
-      </c>
-      <c r="R23" s="25">
-        <v>88.32</v>
-      </c>
-      <c r="S23" s="25">
-        <v>88.7</v>
-      </c>
-      <c r="T23" s="25">
-        <v>89.57</v>
-      </c>
-      <c r="U23" s="25">
-        <v>90.48</v>
-      </c>
-      <c r="V23" s="25">
-        <v>91.41</v>
-      </c>
-      <c r="W23" s="25">
-        <v>91.77</v>
-      </c>
-      <c r="X23" s="25">
-        <v>92.21</v>
-      </c>
-      <c r="Y23" s="25">
-        <v>93.37</v>
-      </c>
-      <c r="Z23" s="25">
-        <v>94.46</v>
-      </c>
-      <c r="AA23" s="25">
-        <v>94.95</v>
-      </c>
-      <c r="AB23" s="25">
-        <v>94.26</v>
-      </c>
-      <c r="AC23" s="25">
-        <v>95.08</v>
-      </c>
-      <c r="AD23" s="25">
-        <v>96.58</v>
-      </c>
-      <c r="AE23" s="25">
-        <v>97.05</v>
-      </c>
-      <c r="AF23" s="25">
-        <v>97.51</v>
-      </c>
-      <c r="AG23" s="25">
-        <v>98.09</v>
-      </c>
-      <c r="AH23" s="25">
-        <v>98.07</v>
-      </c>
-      <c r="AI23" s="25">
-        <v>98.26</v>
-      </c>
-      <c r="AJ23" s="25">
-        <v>98.69</v>
-      </c>
-      <c r="AK23" s="25">
-        <v>98.95</v>
-      </c>
-      <c r="AL23" s="25">
-        <v>99.22</v>
-      </c>
-      <c r="AM23" s="25">
-        <v>99.73</v>
-      </c>
-      <c r="AN23" s="25">
-        <v>99.69</v>
-      </c>
-      <c r="AO23" s="25">
-        <v>99.55</v>
-      </c>
-      <c r="AP23" s="25">
-        <v>98.8</v>
-      </c>
-      <c r="AQ23" s="25">
-        <v>98.92</v>
-      </c>
-      <c r="AR23" s="25">
-        <v>99.59</v>
-      </c>
-      <c r="AS23" s="25">
-        <v>99.94</v>
-      </c>
-      <c r="AT23" s="25">
-        <v>100.04</v>
-      </c>
-      <c r="AU23" s="25">
-        <v>99.92</v>
-      </c>
-      <c r="AV23" s="25">
-        <v>100.41</v>
-      </c>
-      <c r="AW23" s="25">
-        <v>100.45</v>
-      </c>
-      <c r="AX23" s="25">
-        <v>101.01</v>
-      </c>
-      <c r="AY23" s="25">
-        <v>101.67</v>
-      </c>
-      <c r="AZ23" s="25">
-        <v>101.38</v>
-      </c>
-      <c r="BA23" s="25">
-        <v>100.34</v>
-      </c>
-      <c r="BB23" s="25">
-        <v>95.9</v>
-      </c>
-      <c r="BC23" s="25">
-        <v>93.55</v>
-      </c>
-      <c r="BD23" s="25">
-        <v>96.18</v>
-      </c>
-      <c r="BE23" s="25">
-        <v>98.4</v>
-      </c>
-      <c r="BF23" s="25">
-        <v>98.57</v>
-      </c>
-      <c r="BG23" s="25">
-        <v>98.29</v>
-      </c>
       <c r="BH23" s="25">
-        <v>97.03</v>
+        <v>97.81</v>
       </c>
       <c r="BI23" s="25">
-        <v>98.54</v>
+        <v>99.29</v>
       </c>
       <c r="BJ23" s="25">
-        <v>99.82</v>
+        <v>99.93</v>
       </c>
       <c r="BK23" s="25">
-        <v>100.16</v>
+        <v>99.98</v>
       </c>
       <c r="BL23" s="25">
-        <v>99.68</v>
+        <v>100.65</v>
       </c>
       <c r="BM23" s="25">
-        <v>99.9</v>
-      </c>
-      <c r="BN23" s="25"/>
-      <c r="BO23" s="25"/>
+        <v>101.27</v>
+      </c>
+      <c r="BN23" s="25">
+        <v>101.57</v>
+      </c>
+      <c r="BO23" s="25">
+        <v>102.31</v>
+      </c>
       <c r="BP23" s="25"/>
       <c r="BQ23" s="25"/>
       <c r="BR23" s="25"/>
@@ -5417,34 +5506,34 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="25">
-        <v>96</v>
+        <v>96.13</v>
       </c>
       <c r="D24" s="25">
-        <v>97.1</v>
+        <v>97.07</v>
       </c>
       <c r="E24" s="25">
-        <v>98.15</v>
+        <v>98.12</v>
       </c>
       <c r="F24" s="25">
-        <v>98.74</v>
+        <v>98.7</v>
       </c>
       <c r="G24" s="25">
-        <v>98.96</v>
+        <v>98.91</v>
       </c>
       <c r="H24" s="25">
-        <v>99.69</v>
+        <v>99.65</v>
       </c>
       <c r="I24" s="25">
-        <v>100.32</v>
+        <v>100.3</v>
       </c>
       <c r="J24" s="25">
-        <v>99.68</v>
+        <v>99.66</v>
       </c>
       <c r="K24" s="25">
-        <v>98.71</v>
+        <v>98.68</v>
       </c>
       <c r="L24" s="25">
         <v>99.52</v>
@@ -5453,13 +5542,13 @@
         <v>100</v>
       </c>
       <c r="N24" s="25">
-        <v>99.46</v>
+        <v>99.45</v>
       </c>
       <c r="O24" s="25">
-        <v>97.77</v>
+        <v>97.78</v>
       </c>
       <c r="P24" s="25">
-        <v>95.68</v>
+        <v>95.7</v>
       </c>
       <c r="Q24" s="25">
         <v>94.64</v>
@@ -5471,145 +5560,149 @@
         <v>94.97</v>
       </c>
       <c r="T24" s="25">
-        <v>95.45</v>
+        <v>95.47</v>
       </c>
       <c r="U24" s="25">
-        <v>96</v>
+        <v>96.01</v>
       </c>
       <c r="V24" s="25">
-        <v>96.44</v>
+        <v>96.46</v>
       </c>
       <c r="W24" s="25">
-        <v>96.74</v>
+        <v>96.76</v>
       </c>
       <c r="X24" s="25">
-        <v>96.91</v>
+        <v>96.92</v>
       </c>
       <c r="Y24" s="25">
-        <v>97.78</v>
+        <v>97.81</v>
       </c>
       <c r="Z24" s="25">
-        <v>98</v>
+        <v>98.03</v>
       </c>
       <c r="AA24" s="25">
-        <v>97.63</v>
+        <v>97.66</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.89</v>
+        <v>96.92</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.56</v>
+        <v>98.62</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.4</v>
+        <v>99.44</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.65</v>
+        <v>98.69</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.67</v>
+        <v>98.71</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.54</v>
+        <v>99.59</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.52</v>
+        <v>99.59</v>
       </c>
       <c r="AI24" s="25">
+        <v>99.71</v>
+      </c>
+      <c r="AJ24" s="25">
         <v>99.63</v>
       </c>
-      <c r="AJ24" s="25">
-        <v>99.56</v>
-      </c>
       <c r="AK24" s="25">
-        <v>99.7</v>
+        <v>99.76</v>
       </c>
       <c r="AL24" s="25">
-        <v>99.42</v>
+        <v>99.48</v>
       </c>
       <c r="AM24" s="25">
+        <v>99.69</v>
+      </c>
+      <c r="AN24" s="25">
+        <v>99.73</v>
+      </c>
+      <c r="AO24" s="25">
+        <v>99.51</v>
+      </c>
+      <c r="AP24" s="25">
+        <v>99.11</v>
+      </c>
+      <c r="AQ24" s="25">
+        <v>98.52</v>
+      </c>
+      <c r="AR24" s="25">
+        <v>98.8</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="AU24" s="25">
         <v>99.64</v>
       </c>
-      <c r="AN24" s="25">
-        <v>99.67</v>
-      </c>
-      <c r="AO24" s="25">
-        <v>99.46</v>
-      </c>
-      <c r="AP24" s="25">
-        <v>99.06</v>
-      </c>
-      <c r="AQ24" s="25">
-        <v>98.46</v>
-      </c>
-      <c r="AR24" s="25">
-        <v>98.75</v>
-      </c>
-      <c r="AS24" s="25">
-        <v>99.16</v>
-      </c>
-      <c r="AT24" s="25">
-        <v>99.14</v>
-      </c>
-      <c r="AU24" s="25">
-        <v>99.56</v>
-      </c>
       <c r="AV24" s="25">
-        <v>100.15</v>
+        <v>100.22</v>
       </c>
       <c r="AW24" s="25">
-        <v>100.34</v>
+        <v>100.41</v>
       </c>
       <c r="AX24" s="25">
-        <v>100.13</v>
+        <v>100.22</v>
       </c>
       <c r="AY24" s="25">
-        <v>100.93</v>
+        <v>101.03</v>
       </c>
       <c r="AZ24" s="25">
-        <v>101.44</v>
+        <v>101.49</v>
       </c>
       <c r="BA24" s="25">
-        <v>100.99</v>
+        <v>101.05</v>
       </c>
       <c r="BB24" s="25">
-        <v>98.38</v>
+        <v>98.5</v>
       </c>
       <c r="BC24" s="25">
-        <v>95.84</v>
+        <v>95.93</v>
       </c>
       <c r="BD24" s="25">
-        <v>96.22</v>
+        <v>96.13</v>
       </c>
       <c r="BE24" s="25">
-        <v>97.33</v>
+        <v>97.27</v>
       </c>
       <c r="BF24" s="25">
-        <v>97.67</v>
+        <v>97.59</v>
       </c>
       <c r="BG24" s="25">
-        <v>97.94</v>
+        <v>97.84</v>
       </c>
       <c r="BH24" s="25">
-        <v>97.39</v>
+        <v>97.66</v>
       </c>
       <c r="BI24" s="25">
-        <v>97.86</v>
+        <v>98.03</v>
       </c>
       <c r="BJ24" s="25">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="BK24" s="25">
-        <v>99.39</v>
+        <v>98.9</v>
       </c>
       <c r="BL24" s="25">
-        <v>99.82</v>
+        <v>99.79</v>
       </c>
       <c r="BM24" s="25">
-        <v>101.64</v>
-      </c>
-      <c r="BN24" s="25"/>
-      <c r="BO24" s="25"/>
+        <v>100.6</v>
+      </c>
+      <c r="BN24" s="25">
+        <v>100.81</v>
+      </c>
+      <c r="BO24" s="25">
+        <v>101.33</v>
+      </c>
       <c r="BP24" s="25"/>
       <c r="BQ24" s="25"/>
       <c r="BR24" s="25"/>
@@ -5627,199 +5720,203 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="25">
-        <v>91.38</v>
+        <v>91.6</v>
       </c>
       <c r="D25" s="25">
-        <v>95.89</v>
+        <v>96.01</v>
       </c>
       <c r="E25" s="25">
-        <v>97.93</v>
+        <v>98.01</v>
       </c>
       <c r="F25" s="25">
-        <v>98.28</v>
+        <v>98.32</v>
       </c>
       <c r="G25" s="25">
-        <v>98.57</v>
+        <v>98.59</v>
       </c>
       <c r="H25" s="25">
-        <v>99.22</v>
+        <v>99.33</v>
       </c>
       <c r="I25" s="25">
-        <v>99.53</v>
+        <v>99.66</v>
       </c>
       <c r="J25" s="25">
-        <v>99.47</v>
+        <v>99.6</v>
       </c>
       <c r="K25" s="25">
-        <v>99.52</v>
+        <v>99.67</v>
       </c>
       <c r="L25" s="25">
-        <v>99.7</v>
+        <v>99.83</v>
       </c>
       <c r="M25" s="25">
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>98.87</v>
+        <v>98.93</v>
       </c>
       <c r="O25" s="25">
-        <v>93.1</v>
+        <v>93.27</v>
       </c>
       <c r="P25" s="25">
-        <v>89.62</v>
+        <v>89.73</v>
       </c>
       <c r="Q25" s="25">
-        <v>87.63</v>
+        <v>87.74</v>
       </c>
       <c r="R25" s="25">
-        <v>87.17</v>
+        <v>87.34</v>
       </c>
       <c r="S25" s="25">
-        <v>87.82</v>
+        <v>87.96</v>
       </c>
       <c r="T25" s="25">
-        <v>88.67</v>
+        <v>88.85</v>
       </c>
       <c r="U25" s="25">
-        <v>89.59</v>
+        <v>89.75</v>
       </c>
       <c r="V25" s="25">
-        <v>89.93</v>
+        <v>90.09</v>
       </c>
       <c r="W25" s="25">
-        <v>90.66</v>
+        <v>90.9</v>
       </c>
       <c r="X25" s="25">
-        <v>90.97</v>
+        <v>91.21</v>
       </c>
       <c r="Y25" s="25">
-        <v>91.95</v>
+        <v>92.27</v>
       </c>
       <c r="Z25" s="25">
-        <v>92.9</v>
+        <v>93.3</v>
       </c>
       <c r="AA25" s="25">
-        <v>93.58</v>
+        <v>94.04</v>
       </c>
       <c r="AB25" s="25">
-        <v>94.56</v>
+        <v>95.01</v>
       </c>
       <c r="AC25" s="25">
-        <v>96.24</v>
+        <v>96.69</v>
       </c>
       <c r="AD25" s="25">
-        <v>97.28</v>
+        <v>97.69</v>
       </c>
       <c r="AE25" s="25">
-        <v>97.75</v>
+        <v>98.16</v>
       </c>
       <c r="AF25" s="25">
-        <v>98.01</v>
+        <v>98.36</v>
       </c>
       <c r="AG25" s="25">
-        <v>98.15</v>
+        <v>98.57</v>
       </c>
       <c r="AH25" s="25">
-        <v>98.4</v>
+        <v>98.82</v>
       </c>
       <c r="AI25" s="25">
-        <v>98.62</v>
+        <v>99.03</v>
       </c>
       <c r="AJ25" s="25">
-        <v>98.81</v>
+        <v>99.28</v>
       </c>
       <c r="AK25" s="25">
-        <v>99.16</v>
+        <v>99.61</v>
       </c>
       <c r="AL25" s="25">
-        <v>99.44</v>
+        <v>99.88</v>
       </c>
       <c r="AM25" s="25">
-        <v>99.92</v>
+        <v>100.37</v>
       </c>
       <c r="AN25" s="25">
-        <v>100.21</v>
+        <v>100.75</v>
       </c>
       <c r="AO25" s="25">
-        <v>100.22</v>
+        <v>100.83</v>
       </c>
       <c r="AP25" s="25">
-        <v>99.38</v>
+        <v>100.07</v>
       </c>
       <c r="AQ25" s="25">
-        <v>99.27</v>
+        <v>100.11</v>
       </c>
       <c r="AR25" s="25">
-        <v>99.33</v>
+        <v>100.17</v>
       </c>
       <c r="AS25" s="25">
-        <v>99.61</v>
+        <v>100.42</v>
       </c>
       <c r="AT25" s="25">
-        <v>99.63</v>
+        <v>100.47</v>
       </c>
       <c r="AU25" s="25">
-        <v>100.07</v>
+        <v>100.97</v>
       </c>
       <c r="AV25" s="25">
-        <v>100.97</v>
+        <v>101.83</v>
       </c>
       <c r="AW25" s="25">
-        <v>101.36</v>
+        <v>102.26</v>
       </c>
       <c r="AX25" s="25">
-        <v>101.59</v>
+        <v>102.46</v>
       </c>
       <c r="AY25" s="25">
-        <v>102.2</v>
+        <v>103.1</v>
       </c>
       <c r="AZ25" s="25">
-        <v>102.61</v>
+        <v>103.51</v>
       </c>
       <c r="BA25" s="25">
-        <v>101.77</v>
+        <v>102.77</v>
       </c>
       <c r="BB25" s="25">
-        <v>97.18</v>
+        <v>98.16</v>
       </c>
       <c r="BC25" s="25">
-        <v>93.48</v>
+        <v>94.2</v>
       </c>
       <c r="BD25" s="25">
-        <v>96.43</v>
+        <v>96.94</v>
       </c>
       <c r="BE25" s="25">
-        <v>99.05</v>
+        <v>99.67</v>
       </c>
       <c r="BF25" s="25">
-        <v>100.1</v>
+        <v>100.81</v>
       </c>
       <c r="BG25" s="25">
-        <v>100.17</v>
+        <v>100.95</v>
       </c>
       <c r="BH25" s="25">
-        <v>99.87</v>
+        <v>101.27</v>
       </c>
       <c r="BI25" s="25">
-        <v>99.82</v>
+        <v>101.15</v>
       </c>
       <c r="BJ25" s="25">
-        <v>99.89</v>
+        <v>100.31</v>
       </c>
       <c r="BK25" s="25">
-        <v>99.5</v>
+        <v>99.65</v>
       </c>
       <c r="BL25" s="25">
-        <v>97.99</v>
+        <v>99.71</v>
       </c>
       <c r="BM25" s="25">
-        <v>98.12</v>
-      </c>
-      <c r="BN25" s="25"/>
-      <c r="BO25" s="25"/>
+        <v>99.79</v>
+      </c>
+      <c r="BN25" s="25">
+        <v>99.03</v>
+      </c>
+      <c r="BO25" s="25">
+        <v>98.99</v>
+      </c>
       <c r="BP25" s="25"/>
       <c r="BQ25" s="25"/>
       <c r="BR25" s="25"/>
@@ -5840,34 +5937,34 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.83</v>
+        <v>94.87</v>
       </c>
       <c r="D26" s="25">
-        <v>97.36</v>
+        <v>97.41</v>
       </c>
       <c r="E26" s="25">
         <v>97.82</v>
       </c>
       <c r="F26" s="25">
-        <v>99.01</v>
+        <v>99.02</v>
       </c>
       <c r="G26" s="25">
-        <v>100.18</v>
+        <v>100.1</v>
       </c>
       <c r="H26" s="25">
-        <v>100.7</v>
+        <v>100.68</v>
       </c>
       <c r="I26" s="25">
-        <v>100.18</v>
+        <v>100.11</v>
       </c>
       <c r="J26" s="25">
-        <v>100.1</v>
+        <v>100.03</v>
       </c>
       <c r="K26" s="25">
-        <v>99.75</v>
+        <v>99.74</v>
       </c>
       <c r="L26" s="25">
-        <v>99.96</v>
+        <v>99.98</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
@@ -5876,160 +5973,164 @@
         <v>98.45</v>
       </c>
       <c r="O26" s="25">
-        <v>93.85</v>
+        <v>93.78</v>
       </c>
       <c r="P26" s="25">
-        <v>90.97</v>
+        <v>90.98</v>
       </c>
       <c r="Q26" s="25">
         <v>88.64</v>
       </c>
       <c r="R26" s="25">
-        <v>88.56</v>
+        <v>88.61</v>
       </c>
       <c r="S26" s="25">
-        <v>88.98</v>
+        <v>88.93</v>
       </c>
       <c r="T26" s="25">
-        <v>89.31</v>
+        <v>89.27</v>
       </c>
       <c r="U26" s="25">
-        <v>90.01</v>
+        <v>89.95</v>
       </c>
       <c r="V26" s="25">
-        <v>89.93</v>
+        <v>89.95</v>
       </c>
       <c r="W26" s="25">
-        <v>90.01</v>
+        <v>90.02</v>
       </c>
       <c r="X26" s="25">
-        <v>89.87</v>
+        <v>89.91</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.86</v>
+        <v>90.99</v>
       </c>
       <c r="Z26" s="25">
-        <v>92.08</v>
+        <v>92.25</v>
       </c>
       <c r="AA26" s="25">
-        <v>92.42</v>
+        <v>92.55</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.11</v>
+        <v>92.27</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.5</v>
+        <v>92.67</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.65</v>
+        <v>92.83</v>
       </c>
       <c r="AE26" s="25">
-        <v>92.68</v>
+        <v>93.01</v>
       </c>
       <c r="AF26" s="25">
-        <v>92.89</v>
+        <v>93.21</v>
       </c>
       <c r="AG26" s="25">
-        <v>93.51</v>
+        <v>93.82</v>
       </c>
       <c r="AH26" s="25">
-        <v>93.89</v>
+        <v>94.2</v>
       </c>
       <c r="AI26" s="25">
+        <v>93.99</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="AK26" s="25">
+        <v>94.19</v>
+      </c>
+      <c r="AL26" s="25">
+        <v>94.65</v>
+      </c>
+      <c r="AM26" s="25">
+        <v>95.21</v>
+      </c>
+      <c r="AN26" s="25">
+        <v>95.25</v>
+      </c>
+      <c r="AO26" s="25">
+        <v>94.7</v>
+      </c>
+      <c r="AP26" s="25">
+        <v>93.86</v>
+      </c>
+      <c r="AQ26" s="25">
+        <v>93.8</v>
+      </c>
+      <c r="AR26" s="25">
+        <v>94.07</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>94.11</v>
+      </c>
+      <c r="AT26" s="25">
+        <v>93.83</v>
+      </c>
+      <c r="AU26" s="25">
+        <v>94.43</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>94.43</v>
+      </c>
+      <c r="AW26" s="25">
+        <v>95.03</v>
+      </c>
+      <c r="AX26" s="25">
+        <v>96.04</v>
+      </c>
+      <c r="AY26" s="25">
+        <v>97</v>
+      </c>
+      <c r="AZ26" s="25">
+        <v>96.78</v>
+      </c>
+      <c r="BA26" s="25">
+        <v>95.95</v>
+      </c>
+      <c r="BB26" s="25">
         <v>93.75</v>
       </c>
-      <c r="AJ26" s="25">
-        <v>93.89</v>
-      </c>
-      <c r="AK26" s="25">
-        <v>93.95</v>
-      </c>
-      <c r="AL26" s="25">
+      <c r="BC26" s="25">
+        <v>91.07</v>
+      </c>
+      <c r="BD26" s="25">
+        <v>92.01</v>
+      </c>
+      <c r="BE26" s="25">
+        <v>93.63</v>
+      </c>
+      <c r="BF26" s="25">
+        <v>94.53</v>
+      </c>
+      <c r="BG26" s="25">
+        <v>93.97</v>
+      </c>
+      <c r="BH26" s="25">
+        <v>94.6</v>
+      </c>
+      <c r="BI26" s="25">
+        <v>94.84</v>
+      </c>
+      <c r="BJ26" s="25">
         <v>94.41</v>
       </c>
-      <c r="AM26" s="25">
-        <v>94.86</v>
-      </c>
-      <c r="AN26" s="25">
-        <v>94.98</v>
-      </c>
-      <c r="AO26" s="25">
-        <v>94.54</v>
-      </c>
-      <c r="AP26" s="25">
-        <v>93.65</v>
-      </c>
-      <c r="AQ26" s="25">
-        <v>93.48</v>
-      </c>
-      <c r="AR26" s="25">
-        <v>93.75</v>
-      </c>
-      <c r="AS26" s="25">
-        <v>93.81</v>
-      </c>
-      <c r="AT26" s="25">
-        <v>93.54</v>
-      </c>
-      <c r="AU26" s="25">
-        <v>94.11</v>
-      </c>
-      <c r="AV26" s="25">
-        <v>94.13</v>
-      </c>
-      <c r="AW26" s="25">
-        <v>94.7</v>
-      </c>
-      <c r="AX26" s="25">
-        <v>95.68</v>
-      </c>
-      <c r="AY26" s="25">
-        <v>96.66</v>
-      </c>
-      <c r="AZ26" s="25">
-        <v>96.34</v>
-      </c>
-      <c r="BA26" s="25">
-        <v>95.43</v>
-      </c>
-      <c r="BB26" s="25">
-        <v>93.11</v>
-      </c>
-      <c r="BC26" s="25">
-        <v>90.23</v>
-      </c>
-      <c r="BD26" s="25">
-        <v>91.32</v>
-      </c>
-      <c r="BE26" s="25">
-        <v>92.98</v>
-      </c>
-      <c r="BF26" s="25">
-        <v>93.9</v>
-      </c>
-      <c r="BG26" s="25">
-        <v>93.41</v>
-      </c>
-      <c r="BH26" s="25">
-        <v>93.53</v>
-      </c>
-      <c r="BI26" s="25">
-        <v>93.82</v>
-      </c>
-      <c r="BJ26" s="25">
-        <v>94.4</v>
-      </c>
       <c r="BK26" s="25">
-        <v>95.13</v>
+        <v>94.64</v>
       </c>
       <c r="BL26" s="25">
-        <v>94.46</v>
+        <v>94.97</v>
       </c>
       <c r="BM26" s="25">
-        <v>94.64</v>
-      </c>
-      <c r="BN26" s="25"/>
-      <c r="BO26" s="25"/>
+        <v>96.04</v>
+      </c>
+      <c r="BN26" s="25">
+        <v>96.01</v>
+      </c>
+      <c r="BO26" s="25">
+        <v>95.28</v>
+      </c>
       <c r="BP26" s="25"/>
       <c r="BQ26" s="25"/>
       <c r="BR26" s="25"/>
@@ -6047,199 +6148,203 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C27" s="25">
-        <v>98.46</v>
+        <v>99.16</v>
       </c>
       <c r="D27" s="25">
-        <v>99.3</v>
+        <v>99.47</v>
       </c>
       <c r="E27" s="25">
-        <v>100.89</v>
+        <v>101.02</v>
       </c>
       <c r="F27" s="25">
-        <v>100.86</v>
+        <v>100.99</v>
       </c>
       <c r="G27" s="25">
-        <v>101.16</v>
+        <v>101.31</v>
       </c>
       <c r="H27" s="25">
-        <v>100.93</v>
+        <v>101.05</v>
       </c>
       <c r="I27" s="25">
-        <v>101.47</v>
+        <v>101.56</v>
       </c>
       <c r="J27" s="25">
-        <v>100.68</v>
+        <v>100.74</v>
       </c>
       <c r="K27" s="25">
-        <v>98.75</v>
+        <v>98.81</v>
       </c>
       <c r="L27" s="25">
-        <v>99.12</v>
+        <v>99.15</v>
       </c>
       <c r="M27" s="25">
         <v>100</v>
       </c>
       <c r="N27" s="25">
-        <v>99.74</v>
+        <v>99.7</v>
       </c>
       <c r="O27" s="25">
-        <v>97.83</v>
+        <v>97.8</v>
       </c>
       <c r="P27" s="25">
-        <v>95.59</v>
+        <v>95.52</v>
       </c>
       <c r="Q27" s="25">
-        <v>94.87</v>
+        <v>94.84</v>
       </c>
       <c r="R27" s="25">
-        <v>95.69</v>
+        <v>95.71</v>
       </c>
       <c r="S27" s="25">
-        <v>95.76</v>
+        <v>95.82</v>
       </c>
       <c r="T27" s="25">
-        <v>95.06</v>
+        <v>95.2</v>
       </c>
       <c r="U27" s="25">
-        <v>95.86</v>
+        <v>96.13</v>
       </c>
       <c r="V27" s="25">
-        <v>95.09</v>
+        <v>95.38</v>
       </c>
       <c r="W27" s="25">
-        <v>95.94</v>
+        <v>96.24</v>
       </c>
       <c r="X27" s="25">
-        <v>95.96</v>
+        <v>96.18</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.65</v>
+        <v>97.75</v>
       </c>
       <c r="Z27" s="25">
-        <v>96.16</v>
+        <v>96.26</v>
       </c>
       <c r="AA27" s="25">
-        <v>94.96</v>
+        <v>95.07</v>
       </c>
       <c r="AB27" s="25">
-        <v>94.41</v>
+        <v>94.56</v>
       </c>
       <c r="AC27" s="25">
-        <v>94.98</v>
+        <v>95.13</v>
       </c>
       <c r="AD27" s="25">
+        <v>95.62</v>
+      </c>
+      <c r="AE27" s="25">
+        <v>96.46</v>
+      </c>
+      <c r="AF27" s="25">
+        <v>96.19</v>
+      </c>
+      <c r="AG27" s="25">
+        <v>97.27</v>
+      </c>
+      <c r="AH27" s="25">
+        <v>96.25</v>
+      </c>
+      <c r="AI27" s="25">
+        <v>96.6</v>
+      </c>
+      <c r="AJ27" s="25">
+        <v>96.23</v>
+      </c>
+      <c r="AK27" s="25">
+        <v>96.1</v>
+      </c>
+      <c r="AL27" s="25">
+        <v>96.01</v>
+      </c>
+      <c r="AM27" s="25">
+        <v>96.34</v>
+      </c>
+      <c r="AN27" s="25">
+        <v>96.87</v>
+      </c>
+      <c r="AO27" s="25">
+        <v>96.66</v>
+      </c>
+      <c r="AP27" s="25">
+        <v>96.12</v>
+      </c>
+      <c r="AQ27" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="AR27" s="25">
+        <v>97.34</v>
+      </c>
+      <c r="AS27" s="25">
+        <v>97.15</v>
+      </c>
+      <c r="AT27" s="25">
+        <v>96.26</v>
+      </c>
+      <c r="AU27" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="AV27" s="25">
+        <v>97.68</v>
+      </c>
+      <c r="AW27" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="AX27" s="25">
+        <v>98.83</v>
+      </c>
+      <c r="AY27" s="25">
+        <v>99.68</v>
+      </c>
+      <c r="AZ27" s="25">
+        <v>99.93</v>
+      </c>
+      <c r="BA27" s="25">
+        <v>99.53</v>
+      </c>
+      <c r="BB27" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="BC27" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="BD27" s="25">
+        <v>94.82</v>
+      </c>
+      <c r="BE27" s="25">
+        <v>95.21</v>
+      </c>
+      <c r="BF27" s="25">
         <v>95.5</v>
       </c>
-      <c r="AE27" s="25">
-        <v>96.28</v>
-      </c>
-      <c r="AF27" s="25">
-        <v>95.99</v>
-      </c>
-      <c r="AG27" s="25">
-        <v>97.04</v>
-      </c>
-      <c r="AH27" s="25">
-        <v>96.02</v>
-      </c>
-      <c r="AI27" s="25">
-        <v>96.25</v>
-      </c>
-      <c r="AJ27" s="25">
-        <v>95.86</v>
-      </c>
-      <c r="AK27" s="25">
-        <v>95.76</v>
-      </c>
-      <c r="AL27" s="25">
-        <v>95.65</v>
-      </c>
-      <c r="AM27" s="25">
-        <v>95.87</v>
-      </c>
-      <c r="AN27" s="25">
-        <v>96.38</v>
-      </c>
-      <c r="AO27" s="25">
-        <v>96.23</v>
-      </c>
-      <c r="AP27" s="25">
-        <v>95.68</v>
-      </c>
-      <c r="AQ27" s="25">
-        <v>96.36</v>
-      </c>
-      <c r="AR27" s="25">
-        <v>96.86</v>
-      </c>
-      <c r="AS27" s="25">
-        <v>96.66</v>
-      </c>
-      <c r="AT27" s="25">
-        <v>95.78</v>
-      </c>
-      <c r="AU27" s="25">
-        <v>96.58</v>
-      </c>
-      <c r="AV27" s="25">
-        <v>97.19</v>
-      </c>
-      <c r="AW27" s="25">
-        <v>98.23</v>
-      </c>
-      <c r="AX27" s="25">
-        <v>98.34</v>
-      </c>
-      <c r="AY27" s="25">
-        <v>99.07</v>
-      </c>
-      <c r="AZ27" s="25">
-        <v>99.29</v>
-      </c>
-      <c r="BA27" s="25">
-        <v>99.05</v>
-      </c>
-      <c r="BB27" s="25">
-        <v>96.6</v>
-      </c>
-      <c r="BC27" s="25">
-        <v>93.74</v>
-      </c>
-      <c r="BD27" s="25">
-        <v>94.53</v>
-      </c>
-      <c r="BE27" s="25">
-        <v>94.9</v>
-      </c>
-      <c r="BF27" s="25">
-        <v>95.18</v>
-      </c>
       <c r="BG27" s="25">
-        <v>96.57</v>
+        <v>96.99</v>
       </c>
       <c r="BH27" s="25">
-        <v>96.9</v>
+        <v>97.45</v>
       </c>
       <c r="BI27" s="25">
-        <v>97.93</v>
+        <v>98.5</v>
       </c>
       <c r="BJ27" s="25">
-        <v>97.87</v>
+        <v>97.96</v>
       </c>
       <c r="BK27" s="25">
-        <v>98.71</v>
+        <v>98.1</v>
       </c>
       <c r="BL27" s="25">
-        <v>98.3</v>
+        <v>98.48</v>
       </c>
       <c r="BM27" s="25">
-        <v>98.89</v>
-      </c>
-      <c r="BN27" s="25"/>
-      <c r="BO27" s="25"/>
+        <v>99.95</v>
+      </c>
+      <c r="BN27" s="25">
+        <v>100.16</v>
+      </c>
+      <c r="BO27" s="25">
+        <v>101</v>
+      </c>
       <c r="BP27" s="25"/>
       <c r="BQ27" s="25"/>
       <c r="BR27" s="25"/>
@@ -6257,199 +6362,203 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" s="25">
-        <v>86.33</v>
+        <v>86.79</v>
       </c>
       <c r="D28" s="25">
-        <v>91.52</v>
+        <v>91.55</v>
       </c>
       <c r="E28" s="25">
-        <v>97.25</v>
+        <v>97.19</v>
       </c>
       <c r="F28" s="25">
-        <v>96.31</v>
+        <v>96.41</v>
       </c>
       <c r="G28" s="25">
-        <v>95.31</v>
+        <v>95.46</v>
       </c>
       <c r="H28" s="25">
-        <v>96.46</v>
+        <v>96.58</v>
       </c>
       <c r="I28" s="25">
-        <v>97.49</v>
+        <v>97.56</v>
       </c>
       <c r="J28" s="25">
-        <v>97.89</v>
+        <v>97.97</v>
       </c>
       <c r="K28" s="25">
-        <v>98.62</v>
+        <v>98.8</v>
       </c>
       <c r="L28" s="25">
-        <v>99.58</v>
+        <v>99.84</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>98.82</v>
+        <v>98.58</v>
       </c>
       <c r="O28" s="25">
-        <v>94.96</v>
+        <v>94.76</v>
       </c>
       <c r="P28" s="25">
-        <v>91.5</v>
+        <v>91.44</v>
       </c>
       <c r="Q28" s="25">
-        <v>89.49</v>
+        <v>89.54</v>
       </c>
       <c r="R28" s="25">
-        <v>89.34</v>
+        <v>89.39</v>
       </c>
       <c r="S28" s="25">
-        <v>90.64</v>
+        <v>90.83</v>
       </c>
       <c r="T28" s="25">
-        <v>91.27</v>
+        <v>91.51</v>
       </c>
       <c r="U28" s="25">
-        <v>92.62</v>
+        <v>92.92</v>
       </c>
       <c r="V28" s="25">
-        <v>94.01</v>
+        <v>94.24</v>
       </c>
       <c r="W28" s="25">
-        <v>95.29</v>
+        <v>95.64</v>
       </c>
       <c r="X28" s="25">
-        <v>96.04</v>
+        <v>96.28</v>
       </c>
       <c r="Y28" s="25">
-        <v>97.1</v>
+        <v>97.28</v>
       </c>
       <c r="Z28" s="25">
-        <v>98.03</v>
+        <v>98.21</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.65</v>
+        <v>98.71</v>
       </c>
       <c r="AB28" s="25">
-        <v>98.99</v>
+        <v>99.07</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.68</v>
+        <v>101.87</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.3</v>
+        <v>102.55</v>
       </c>
       <c r="AE28" s="25">
-        <v>102.58</v>
+        <v>102.89</v>
       </c>
       <c r="AF28" s="25">
-        <v>102.93</v>
+        <v>103.32</v>
       </c>
       <c r="AG28" s="25">
-        <v>103.33</v>
+        <v>103.79</v>
       </c>
       <c r="AH28" s="25">
-        <v>103.69</v>
+        <v>104.18</v>
       </c>
       <c r="AI28" s="25">
-        <v>104.12</v>
+        <v>104.61</v>
       </c>
       <c r="AJ28" s="25">
-        <v>104.29</v>
+        <v>104.86</v>
       </c>
       <c r="AK28" s="25">
-        <v>104.73</v>
+        <v>105.24</v>
       </c>
       <c r="AL28" s="25">
-        <v>104.8</v>
+        <v>105.14</v>
       </c>
       <c r="AM28" s="25">
+        <v>105.8</v>
+      </c>
+      <c r="AN28" s="25">
+        <v>106.49</v>
+      </c>
+      <c r="AO28" s="25">
+        <v>106.35</v>
+      </c>
+      <c r="AP28" s="25">
+        <v>105.18</v>
+      </c>
+      <c r="AQ28" s="25">
+        <v>104.85</v>
+      </c>
+      <c r="AR28" s="25">
+        <v>105.32</v>
+      </c>
+      <c r="AS28" s="25">
+        <v>105.64</v>
+      </c>
+      <c r="AT28" s="25">
+        <v>106.22</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>106.86</v>
+      </c>
+      <c r="AV28" s="25">
+        <v>107.18</v>
+      </c>
+      <c r="AW28" s="25">
+        <v>107.39</v>
+      </c>
+      <c r="AX28" s="25">
+        <v>107.68</v>
+      </c>
+      <c r="AY28" s="25">
+        <v>107.73</v>
+      </c>
+      <c r="AZ28" s="25">
+        <v>107.2</v>
+      </c>
+      <c r="BA28" s="25">
+        <v>105.34</v>
+      </c>
+      <c r="BB28" s="25">
+        <v>97.39</v>
+      </c>
+      <c r="BC28" s="25">
+        <v>92.69</v>
+      </c>
+      <c r="BD28" s="25">
+        <v>95.88</v>
+      </c>
+      <c r="BE28" s="25">
+        <v>99.58</v>
+      </c>
+      <c r="BF28" s="25">
+        <v>100.86</v>
+      </c>
+      <c r="BG28" s="25">
+        <v>101.56</v>
+      </c>
+      <c r="BH28" s="25">
+        <v>103.53</v>
+      </c>
+      <c r="BI28" s="25">
         <v>105.53</v>
       </c>
-      <c r="AN28" s="25">
-        <v>106.11</v>
-      </c>
-      <c r="AO28" s="25">
-        <v>105.92</v>
-      </c>
-      <c r="AP28" s="25">
-        <v>104.58</v>
-      </c>
-      <c r="AQ28" s="25">
-        <v>103.76</v>
-      </c>
-      <c r="AR28" s="25">
-        <v>104.49</v>
-      </c>
-      <c r="AS28" s="25">
-        <v>104.93</v>
-      </c>
-      <c r="AT28" s="25">
+      <c r="BJ28" s="25">
+        <v>105.34</v>
+      </c>
+      <c r="BK28" s="25">
+        <v>105.46</v>
+      </c>
+      <c r="BL28" s="25">
+        <v>105.45</v>
+      </c>
+      <c r="BM28" s="25">
         <v>105.5</v>
       </c>
-      <c r="AU28" s="25">
-        <v>106.15</v>
-      </c>
-      <c r="AV28" s="25">
-        <v>106.39</v>
-      </c>
-      <c r="AW28" s="25">
-        <v>106.63</v>
-      </c>
-      <c r="AX28" s="25">
-        <v>106.87</v>
-      </c>
-      <c r="AY28" s="25">
-        <v>107.01</v>
-      </c>
-      <c r="AZ28" s="25">
-        <v>106.65</v>
-      </c>
-      <c r="BA28" s="25">
-        <v>104.83</v>
-      </c>
-      <c r="BB28" s="25">
-        <v>96.84</v>
-      </c>
-      <c r="BC28" s="25">
-        <v>92.13</v>
-      </c>
-      <c r="BD28" s="25">
-        <v>95.74</v>
-      </c>
-      <c r="BE28" s="25">
-        <v>99.22</v>
-      </c>
-      <c r="BF28" s="25">
-        <v>100.24</v>
-      </c>
-      <c r="BG28" s="25">
-        <v>101.07</v>
-      </c>
-      <c r="BH28" s="25">
-        <v>102.42</v>
-      </c>
-      <c r="BI28" s="25">
-        <v>104.27</v>
-      </c>
-      <c r="BJ28" s="25">
-        <v>104.81</v>
-      </c>
-      <c r="BK28" s="25">
-        <v>104.75</v>
-      </c>
-      <c r="BL28" s="25">
-        <v>103.87</v>
-      </c>
-      <c r="BM28" s="25">
-        <v>103.89</v>
-      </c>
-      <c r="BN28" s="25"/>
-      <c r="BO28" s="25"/>
+      <c r="BN28" s="25">
+        <v>105.26</v>
+      </c>
+      <c r="BO28" s="25">
+        <v>105.1</v>
+      </c>
       <c r="BP28" s="25"/>
       <c r="BQ28" s="25"/>
       <c r="BR28" s="25"/>
@@ -6470,196 +6579,200 @@
         <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>91.3</v>
+        <v>91.43</v>
       </c>
       <c r="D29" s="25">
-        <v>92.71</v>
+        <v>93.04</v>
       </c>
       <c r="E29" s="25">
-        <v>94.23</v>
+        <v>94.33</v>
       </c>
       <c r="F29" s="25">
-        <v>97.94</v>
+        <v>98.01</v>
       </c>
       <c r="G29" s="25">
-        <v>98.54</v>
+        <v>98.69</v>
       </c>
       <c r="H29" s="25">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="I29" s="25">
-        <v>99.75</v>
+        <v>99.91</v>
       </c>
       <c r="J29" s="25">
-        <v>99.9</v>
+        <v>100.04</v>
       </c>
       <c r="K29" s="25">
-        <v>100.17</v>
+        <v>100.29</v>
       </c>
       <c r="L29" s="25">
-        <v>99.94</v>
+        <v>100.06</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.44</v>
+        <v>98.39</v>
       </c>
       <c r="O29" s="25">
-        <v>93.37</v>
+        <v>93.25</v>
       </c>
       <c r="P29" s="25">
-        <v>90.62</v>
+        <v>90.48</v>
       </c>
       <c r="Q29" s="25">
-        <v>89.64</v>
+        <v>89.55</v>
       </c>
       <c r="R29" s="25">
-        <v>89.72</v>
+        <v>89.67</v>
       </c>
       <c r="S29" s="25">
-        <v>90.12</v>
+        <v>90.07</v>
       </c>
       <c r="T29" s="25">
-        <v>90.89</v>
+        <v>90.81</v>
       </c>
       <c r="U29" s="25">
-        <v>91.88</v>
+        <v>91.84</v>
       </c>
       <c r="V29" s="25">
-        <v>93.45</v>
+        <v>93.46</v>
       </c>
       <c r="W29" s="25">
-        <v>93.9</v>
+        <v>93.94</v>
       </c>
       <c r="X29" s="25">
-        <v>93.95</v>
+        <v>94.07</v>
       </c>
       <c r="Y29" s="25">
-        <v>94.44</v>
+        <v>94.6</v>
       </c>
       <c r="Z29" s="25">
-        <v>95.1</v>
+        <v>95.3</v>
       </c>
       <c r="AA29" s="25">
-        <v>96.08</v>
+        <v>96.33</v>
       </c>
       <c r="AB29" s="25">
-        <v>96.15</v>
+        <v>96.37</v>
       </c>
       <c r="AC29" s="25">
+        <v>96.98</v>
+      </c>
+      <c r="AD29" s="25">
         <v>96.66</v>
       </c>
-      <c r="AD29" s="25">
-        <v>96.35</v>
-      </c>
       <c r="AE29" s="25">
-        <v>95.49</v>
+        <v>95.72</v>
       </c>
       <c r="AF29" s="25">
-        <v>95.67</v>
+        <v>95.87</v>
       </c>
       <c r="AG29" s="25">
-        <v>95.93</v>
+        <v>96.05</v>
       </c>
       <c r="AH29" s="25">
-        <v>97.01</v>
+        <v>97.07</v>
       </c>
       <c r="AI29" s="25">
-        <v>97.54</v>
+        <v>97.64</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.68</v>
+        <v>97.86</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.41</v>
+        <v>97.73</v>
       </c>
       <c r="AL29" s="25">
-        <v>97.68</v>
+        <v>98.07</v>
       </c>
       <c r="AM29" s="25">
-        <v>97.71</v>
+        <v>98.21</v>
       </c>
       <c r="AN29" s="25">
+        <v>98.46</v>
+      </c>
+      <c r="AO29" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="AP29" s="25">
+        <v>97.92</v>
+      </c>
+      <c r="AQ29" s="25">
+        <v>97.31</v>
+      </c>
+      <c r="AR29" s="25">
+        <v>97.34</v>
+      </c>
+      <c r="AS29" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="AT29" s="25">
+        <v>98.28</v>
+      </c>
+      <c r="AU29" s="25">
+        <v>98.92</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>99.23</v>
+      </c>
+      <c r="AW29" s="25">
+        <v>99.92</v>
+      </c>
+      <c r="AX29" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="AY29" s="25">
+        <v>99.95</v>
+      </c>
+      <c r="AZ29" s="25">
+        <v>99.34</v>
+      </c>
+      <c r="BA29" s="25">
+        <v>98.42</v>
+      </c>
+      <c r="BB29" s="25">
+        <v>93.39</v>
+      </c>
+      <c r="BC29" s="25">
+        <v>91.28</v>
+      </c>
+      <c r="BD29" s="25">
+        <v>92.73</v>
+      </c>
+      <c r="BE29" s="25">
+        <v>94.85</v>
+      </c>
+      <c r="BF29" s="25">
+        <v>95.05</v>
+      </c>
+      <c r="BG29" s="25">
+        <v>94.75</v>
+      </c>
+      <c r="BH29" s="25">
+        <v>96.71</v>
+      </c>
+      <c r="BI29" s="25">
+        <v>97.8</v>
+      </c>
+      <c r="BJ29" s="25">
         <v>98.21</v>
       </c>
-      <c r="AO29" s="25">
-        <v>98.13</v>
-      </c>
-      <c r="AP29" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AQ29" s="25">
-        <v>97.17</v>
-      </c>
-      <c r="AR29" s="25">
-        <v>97</v>
-      </c>
-      <c r="AS29" s="25">
-        <v>97.35</v>
-      </c>
-      <c r="AT29" s="25">
-        <v>98.11</v>
-      </c>
-      <c r="AU29" s="25">
-        <v>98.73</v>
-      </c>
-      <c r="AV29" s="25">
-        <v>99.11</v>
-      </c>
-      <c r="AW29" s="25">
-        <v>99.78</v>
-      </c>
-      <c r="AX29" s="25">
-        <v>99.74</v>
-      </c>
-      <c r="AY29" s="25">
-        <v>99.71</v>
-      </c>
-      <c r="AZ29" s="25">
-        <v>99.18</v>
-      </c>
-      <c r="BA29" s="25">
-        <v>98.16</v>
-      </c>
-      <c r="BB29" s="25">
-        <v>92.86</v>
-      </c>
-      <c r="BC29" s="25">
-        <v>90.8</v>
-      </c>
-      <c r="BD29" s="25">
-        <v>92.29</v>
-      </c>
-      <c r="BE29" s="25">
-        <v>94.63</v>
-      </c>
-      <c r="BF29" s="25">
-        <v>94.94</v>
-      </c>
-      <c r="BG29" s="25">
-        <v>94.57</v>
-      </c>
-      <c r="BH29" s="25">
-        <v>96.27</v>
-      </c>
-      <c r="BI29" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="BJ29" s="25">
-        <v>99.02</v>
-      </c>
       <c r="BK29" s="25">
-        <v>99.52</v>
+        <v>98.52</v>
       </c>
       <c r="BL29" s="25">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="BM29" s="25">
-        <v>99.99</v>
-      </c>
-      <c r="BN29" s="25"/>
-      <c r="BO29" s="25"/>
+        <v>99.86</v>
+      </c>
+      <c r="BN29" s="25">
+        <v>100.3</v>
+      </c>
+      <c r="BO29" s="25">
+        <v>100.37</v>
+      </c>
       <c r="BP29" s="25"/>
       <c r="BQ29" s="25"/>
       <c r="BR29" s="25"/>
@@ -6677,34 +6790,34 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="25">
-        <v>96.51</v>
+        <v>96.47</v>
       </c>
       <c r="D30" s="25">
-        <v>96.66</v>
+        <v>96.57</v>
       </c>
       <c r="E30" s="25">
-        <v>95.48</v>
+        <v>94.82</v>
       </c>
       <c r="F30" s="25">
-        <v>96.05</v>
+        <v>95.78</v>
       </c>
       <c r="G30" s="25">
-        <v>97.62</v>
+        <v>97.61</v>
       </c>
       <c r="H30" s="25">
-        <v>99.9</v>
+        <v>99.96</v>
       </c>
       <c r="I30" s="25">
-        <v>100.09</v>
+        <v>100.18</v>
       </c>
       <c r="J30" s="25">
-        <v>98.57</v>
+        <v>98.51</v>
       </c>
       <c r="K30" s="25">
-        <v>98.03</v>
+        <v>98</v>
       </c>
       <c r="L30" s="25">
         <v>99.02</v>
@@ -6713,163 +6826,167 @@
         <v>100</v>
       </c>
       <c r="N30" s="25">
-        <v>98.67</v>
+        <v>98.8</v>
       </c>
       <c r="O30" s="25">
-        <v>96.98</v>
+        <v>97.12</v>
       </c>
       <c r="P30" s="25">
-        <v>96.63</v>
+        <v>96.84</v>
       </c>
       <c r="Q30" s="25">
-        <v>95.78</v>
+        <v>96.11</v>
       </c>
       <c r="R30" s="25">
-        <v>95.75</v>
+        <v>95.92</v>
       </c>
       <c r="S30" s="25">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="T30" s="25">
-        <v>96.58</v>
+        <v>96.68</v>
       </c>
       <c r="U30" s="25">
-        <v>96.86</v>
+        <v>96.94</v>
       </c>
       <c r="V30" s="25">
         <v>97.09</v>
       </c>
       <c r="W30" s="25">
-        <v>97.72</v>
+        <v>97.76</v>
       </c>
       <c r="X30" s="25">
-        <v>97.96</v>
+        <v>97.97</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.31</v>
+        <v>96.38</v>
       </c>
       <c r="Z30" s="25">
-        <v>97.4</v>
+        <v>97.42</v>
       </c>
       <c r="AA30" s="25">
-        <v>98.02</v>
+        <v>97.83</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.4</v>
+        <v>96.02</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.92</v>
+        <v>97.58</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.9</v>
+        <v>98.49</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.66</v>
+        <v>98.3</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.85</v>
+        <v>98.46</v>
       </c>
       <c r="AG30" s="25">
-        <v>99.37</v>
+        <v>98.98</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.88</v>
+        <v>100.59</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.41</v>
+        <v>100.14</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.91</v>
+        <v>100.68</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.81</v>
+        <v>100.65</v>
       </c>
       <c r="AL30" s="25">
-        <v>100.15</v>
+        <v>100.03</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.77</v>
+        <v>99.66</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.29</v>
+        <v>100.1</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.29</v>
+        <v>99.98</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.89</v>
+        <v>99.66</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.37</v>
+        <v>99.1</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.79</v>
+        <v>99.6</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.41</v>
+        <v>100.19</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.95</v>
+        <v>100.52</v>
       </c>
       <c r="AV30" s="25">
-        <v>101.01</v>
+        <v>100.47</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.31</v>
+        <v>100.96</v>
       </c>
       <c r="AX30" s="25">
-        <v>101.83</v>
+        <v>101.52</v>
       </c>
       <c r="AY30" s="25">
-        <v>102.56</v>
+        <v>102.27</v>
       </c>
       <c r="AZ30" s="25">
-        <v>102.5</v>
+        <v>102.25</v>
       </c>
       <c r="BA30" s="25">
-        <v>101.62</v>
+        <v>101.25</v>
       </c>
       <c r="BB30" s="25">
-        <v>98.68</v>
+        <v>98.34</v>
       </c>
       <c r="BC30" s="25">
-        <v>97.49</v>
+        <v>97.11</v>
       </c>
       <c r="BD30" s="25">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="BE30" s="25">
-        <v>98.57</v>
+        <v>97.97</v>
       </c>
       <c r="BF30" s="25">
-        <v>98.98</v>
+        <v>98.45</v>
       </c>
       <c r="BG30" s="25">
-        <v>99.45</v>
+        <v>98.91</v>
       </c>
       <c r="BH30" s="25">
-        <v>99.01</v>
+        <v>98.83</v>
       </c>
       <c r="BI30" s="25">
-        <v>100.26</v>
+        <v>99.75</v>
       </c>
       <c r="BJ30" s="25">
-        <v>101.1</v>
+        <v>100.25</v>
       </c>
       <c r="BK30" s="25">
-        <v>101.9</v>
+        <v>100.46</v>
       </c>
       <c r="BL30" s="25">
-        <v>102.02</v>
+        <v>101.12</v>
       </c>
       <c r="BM30" s="25">
-        <v>103.62</v>
-      </c>
-      <c r="BN30" s="25"/>
-      <c r="BO30" s="25"/>
+        <v>101.57</v>
+      </c>
+      <c r="BN30" s="25">
+        <v>101.77</v>
+      </c>
+      <c r="BO30" s="25">
+        <v>101.44</v>
+      </c>
       <c r="BP30" s="25"/>
       <c r="BQ30" s="25"/>
       <c r="BR30" s="25"/>
@@ -6887,34 +7004,34 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31" s="25">
-        <v>84.74</v>
+        <v>85.59</v>
       </c>
       <c r="D31" s="25">
-        <v>89.99</v>
+        <v>90.3</v>
       </c>
       <c r="E31" s="25">
-        <v>93.79</v>
+        <v>94.01</v>
       </c>
       <c r="F31" s="25">
-        <v>94.69</v>
+        <v>94.91</v>
       </c>
       <c r="G31" s="25">
-        <v>95.46</v>
+        <v>95.68</v>
       </c>
       <c r="H31" s="25">
-        <v>97.14</v>
+        <v>97.24</v>
       </c>
       <c r="I31" s="25">
-        <v>98.1</v>
+        <v>98.03</v>
       </c>
       <c r="J31" s="25">
-        <v>98.59</v>
+        <v>98.47</v>
       </c>
       <c r="K31" s="25">
-        <v>99.34</v>
+        <v>99.19</v>
       </c>
       <c r="L31" s="25">
         <v>100.13</v>
@@ -6923,163 +7040,167 @@
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.09</v>
+        <v>99.21</v>
       </c>
       <c r="O31" s="25">
-        <v>94.5</v>
+        <v>94.88</v>
       </c>
       <c r="P31" s="25">
-        <v>90.9</v>
+        <v>91.52</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.31</v>
+        <v>89.93</v>
       </c>
       <c r="R31" s="25">
-        <v>89.32</v>
+        <v>90.01</v>
       </c>
       <c r="S31" s="25">
-        <v>89.7</v>
+        <v>90.38</v>
       </c>
       <c r="T31" s="25">
-        <v>90.68</v>
+        <v>91.32</v>
       </c>
       <c r="U31" s="25">
-        <v>92.07</v>
+        <v>92.74</v>
       </c>
       <c r="V31" s="25">
-        <v>92.85</v>
+        <v>93.54</v>
       </c>
       <c r="W31" s="25">
-        <v>93.39</v>
+        <v>94.04</v>
       </c>
       <c r="X31" s="25">
-        <v>94.45</v>
+        <v>95.02</v>
       </c>
       <c r="Y31" s="25">
-        <v>95.43</v>
+        <v>96.05</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.3</v>
+        <v>96.81</v>
       </c>
       <c r="AA31" s="25">
-        <v>97.13</v>
+        <v>97.62</v>
       </c>
       <c r="AB31" s="25">
-        <v>98.59</v>
+        <v>99.01</v>
       </c>
       <c r="AC31" s="25">
-        <v>100.78</v>
+        <v>101.22</v>
       </c>
       <c r="AD31" s="25">
-        <v>101.49</v>
+        <v>101.84</v>
       </c>
       <c r="AE31" s="25">
-        <v>101.51</v>
+        <v>101.86</v>
       </c>
       <c r="AF31" s="25">
-        <v>102.22</v>
+        <v>102.7</v>
       </c>
       <c r="AG31" s="25">
-        <v>103.17</v>
+        <v>103.54</v>
       </c>
       <c r="AH31" s="25">
-        <v>103.78</v>
+        <v>104</v>
       </c>
       <c r="AI31" s="25">
-        <v>103.99</v>
+        <v>104.26</v>
       </c>
       <c r="AJ31" s="25">
-        <v>104.15</v>
+        <v>104.36</v>
       </c>
       <c r="AK31" s="25">
-        <v>104.33</v>
+        <v>104.43</v>
       </c>
       <c r="AL31" s="25">
-        <v>104.72</v>
+        <v>104.92</v>
       </c>
       <c r="AM31" s="25">
-        <v>105.29</v>
+        <v>105.54</v>
       </c>
       <c r="AN31" s="25">
-        <v>105.28</v>
+        <v>105.46</v>
       </c>
       <c r="AO31" s="25">
-        <v>105.23</v>
+        <v>105.39</v>
       </c>
       <c r="AP31" s="25">
-        <v>103.47</v>
+        <v>103.75</v>
       </c>
       <c r="AQ31" s="25">
-        <v>102.77</v>
+        <v>103.1</v>
       </c>
       <c r="AR31" s="25">
-        <v>104.06</v>
+        <v>104.45</v>
       </c>
       <c r="AS31" s="25">
-        <v>104.49</v>
+        <v>104.85</v>
       </c>
       <c r="AT31" s="25">
-        <v>104.55</v>
+        <v>104.85</v>
       </c>
       <c r="AU31" s="25">
-        <v>104.3</v>
+        <v>104.56</v>
       </c>
       <c r="AV31" s="25">
-        <v>104.9</v>
+        <v>105.18</v>
       </c>
       <c r="AW31" s="25">
-        <v>105.23</v>
+        <v>105.52</v>
       </c>
       <c r="AX31" s="25">
-        <v>105.5</v>
+        <v>105.77</v>
       </c>
       <c r="AY31" s="25">
-        <v>105.88</v>
+        <v>106.19</v>
       </c>
       <c r="AZ31" s="25">
-        <v>105.61</v>
+        <v>105.9</v>
       </c>
       <c r="BA31" s="25">
-        <v>104.15</v>
+        <v>104.54</v>
       </c>
       <c r="BB31" s="25">
-        <v>97.4</v>
+        <v>97.97</v>
       </c>
       <c r="BC31" s="25">
-        <v>92.38</v>
+        <v>92.67</v>
       </c>
       <c r="BD31" s="25">
-        <v>95.54</v>
+        <v>94.76</v>
       </c>
       <c r="BE31" s="25">
-        <v>99.44</v>
+        <v>98.7</v>
       </c>
       <c r="BF31" s="25">
-        <v>101.33</v>
+        <v>100.61</v>
       </c>
       <c r="BG31" s="25">
-        <v>101.28</v>
+        <v>100.67</v>
       </c>
       <c r="BH31" s="25">
-        <v>101.2</v>
+        <v>101.95</v>
       </c>
       <c r="BI31" s="25">
-        <v>101.6</v>
+        <v>102.37</v>
       </c>
       <c r="BJ31" s="25">
-        <v>101.78</v>
+        <v>101.87</v>
       </c>
       <c r="BK31" s="25">
-        <v>101.48</v>
+        <v>101.36</v>
       </c>
       <c r="BL31" s="25">
-        <v>99.72</v>
+        <v>101.04</v>
       </c>
       <c r="BM31" s="25">
-        <v>98.14</v>
-      </c>
-      <c r="BN31" s="25"/>
-      <c r="BO31" s="25"/>
+        <v>100.22</v>
+      </c>
+      <c r="BN31" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="BO31" s="25">
+        <v>97.63</v>
+      </c>
       <c r="BP31" s="25"/>
       <c r="BQ31" s="25"/>
       <c r="BR31" s="25"/>
@@ -7100,196 +7221,200 @@
         <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.02</v>
+        <v>91.72</v>
       </c>
       <c r="D32" s="25">
-        <v>94.81</v>
+        <v>95.1</v>
       </c>
       <c r="E32" s="25">
-        <v>97.39</v>
+        <v>97.66</v>
       </c>
       <c r="F32" s="25">
-        <v>97.45</v>
+        <v>97.6</v>
       </c>
       <c r="G32" s="25">
-        <v>98.09</v>
+        <v>98.23</v>
       </c>
       <c r="H32" s="25">
-        <v>99.6</v>
+        <v>99.74</v>
       </c>
       <c r="I32" s="25">
-        <v>100.11</v>
+        <v>100.08</v>
       </c>
       <c r="J32" s="25">
-        <v>101.22</v>
+        <v>101.21</v>
       </c>
       <c r="K32" s="25">
-        <v>102.1</v>
+        <v>102.24</v>
       </c>
       <c r="L32" s="25">
-        <v>101.86</v>
+        <v>101.88</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
       </c>
       <c r="N32" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="O32" s="25">
+        <v>93.29</v>
+      </c>
+      <c r="P32" s="25">
+        <v>90.03</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>87.46</v>
+      </c>
+      <c r="R32" s="25">
+        <v>87.9</v>
+      </c>
+      <c r="S32" s="25">
+        <v>88.16</v>
+      </c>
+      <c r="T32" s="25">
+        <v>88.01</v>
+      </c>
+      <c r="U32" s="25">
+        <v>88.95</v>
+      </c>
+      <c r="V32" s="25">
+        <v>89.87</v>
+      </c>
+      <c r="W32" s="25">
+        <v>90.87</v>
+      </c>
+      <c r="X32" s="25">
+        <v>91.38</v>
+      </c>
+      <c r="Y32" s="25">
+        <v>92.04</v>
+      </c>
+      <c r="Z32" s="25">
+        <v>93.05</v>
+      </c>
+      <c r="AA32" s="25">
+        <v>93.41</v>
+      </c>
+      <c r="AB32" s="25">
+        <v>93.19</v>
+      </c>
+      <c r="AC32" s="25">
+        <v>93.83</v>
+      </c>
+      <c r="AD32" s="25">
+        <v>95.71</v>
+      </c>
+      <c r="AE32" s="25">
+        <v>95.44</v>
+      </c>
+      <c r="AF32" s="25">
+        <v>95.77</v>
+      </c>
+      <c r="AG32" s="25">
+        <v>96.05</v>
+      </c>
+      <c r="AH32" s="25">
+        <v>96.59</v>
+      </c>
+      <c r="AI32" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="AJ32" s="25">
+        <v>96.69</v>
+      </c>
+      <c r="AK32" s="25">
+        <v>96.13</v>
+      </c>
+      <c r="AL32" s="25">
+        <v>96.47</v>
+      </c>
+      <c r="AM32" s="25">
+        <v>96.96</v>
+      </c>
+      <c r="AN32" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="AO32" s="25">
+        <v>96.5</v>
+      </c>
+      <c r="AP32" s="25">
+        <v>96.22</v>
+      </c>
+      <c r="AQ32" s="25">
+        <v>96.78</v>
+      </c>
+      <c r="AR32" s="25">
+        <v>97.59</v>
+      </c>
+      <c r="AS32" s="25">
+        <v>98.47</v>
+      </c>
+      <c r="AT32" s="25">
+        <v>98.08</v>
+      </c>
+      <c r="AU32" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="AV32" s="25">
+        <v>98.02</v>
+      </c>
+      <c r="AW32" s="25">
+        <v>98.84</v>
+      </c>
+      <c r="AX32" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="AY32" s="25">
+        <v>98.84</v>
+      </c>
+      <c r="AZ32" s="25">
+        <v>98.96</v>
+      </c>
+      <c r="BA32" s="25">
+        <v>97.64</v>
+      </c>
+      <c r="BB32" s="25">
+        <v>91.81</v>
+      </c>
+      <c r="BC32" s="25">
+        <v>88.81</v>
+      </c>
+      <c r="BD32" s="25">
+        <v>90.99</v>
+      </c>
+      <c r="BE32" s="25">
+        <v>93.54</v>
+      </c>
+      <c r="BF32" s="25">
+        <v>95.5</v>
+      </c>
+      <c r="BG32" s="25">
+        <v>96.74</v>
+      </c>
+      <c r="BH32" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="BI32" s="25">
+        <v>97.89</v>
+      </c>
+      <c r="BJ32" s="25">
+        <v>97.81</v>
+      </c>
+      <c r="BK32" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="BL32" s="25">
         <v>98.5</v>
       </c>
-      <c r="O32" s="25">
-        <v>93.1</v>
-      </c>
-      <c r="P32" s="25">
-        <v>89.56</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>86.96</v>
-      </c>
-      <c r="R32" s="25">
-        <v>87.31</v>
-      </c>
-      <c r="S32" s="25">
-        <v>87.51</v>
-      </c>
-      <c r="T32" s="25">
-        <v>87.51</v>
-      </c>
-      <c r="U32" s="25">
-        <v>88.58</v>
-      </c>
-      <c r="V32" s="25">
-        <v>89.34</v>
-      </c>
-      <c r="W32" s="25">
-        <v>90.38</v>
-      </c>
-      <c r="X32" s="25">
-        <v>90.95</v>
-      </c>
-      <c r="Y32" s="25">
-        <v>91.65</v>
-      </c>
-      <c r="Z32" s="25">
-        <v>92.62</v>
-      </c>
-      <c r="AA32" s="25">
-        <v>93.05</v>
-      </c>
-      <c r="AB32" s="25">
-        <v>92.84</v>
-      </c>
-      <c r="AC32" s="25">
-        <v>93.47</v>
-      </c>
-      <c r="AD32" s="25">
-        <v>95.36</v>
-      </c>
-      <c r="AE32" s="25">
-        <v>95.03</v>
-      </c>
-      <c r="AF32" s="25">
-        <v>95.35</v>
-      </c>
-      <c r="AG32" s="25">
-        <v>95.59</v>
-      </c>
-      <c r="AH32" s="25">
-        <v>96.14</v>
-      </c>
-      <c r="AI32" s="25">
-        <v>96.37</v>
-      </c>
-      <c r="AJ32" s="25">
-        <v>96.38</v>
-      </c>
-      <c r="AK32" s="25">
-        <v>95.76</v>
-      </c>
-      <c r="AL32" s="25">
-        <v>96.15</v>
-      </c>
-      <c r="AM32" s="25">
-        <v>96.73</v>
-      </c>
-      <c r="AN32" s="25">
-        <v>96.6</v>
-      </c>
-      <c r="AO32" s="25">
-        <v>96.34</v>
-      </c>
-      <c r="AP32" s="25">
-        <v>96.16</v>
-      </c>
-      <c r="AQ32" s="25">
-        <v>96.68</v>
-      </c>
-      <c r="AR32" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AS32" s="25">
-        <v>98.46</v>
-      </c>
-      <c r="AT32" s="25">
-        <v>98.2</v>
-      </c>
-      <c r="AU32" s="25">
-        <v>97.9</v>
-      </c>
-      <c r="AV32" s="25">
-        <v>97.95</v>
-      </c>
-      <c r="AW32" s="25">
-        <v>98.8</v>
-      </c>
-      <c r="AX32" s="25">
-        <v>98.59</v>
-      </c>
-      <c r="AY32" s="25">
-        <v>98.73</v>
-      </c>
-      <c r="AZ32" s="25">
-        <v>98.87</v>
-      </c>
-      <c r="BA32" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="BB32" s="25">
-        <v>91.68</v>
-      </c>
-      <c r="BC32" s="25">
-        <v>88.74</v>
-      </c>
-      <c r="BD32" s="25">
-        <v>91.04</v>
-      </c>
-      <c r="BE32" s="25">
-        <v>93.6</v>
-      </c>
-      <c r="BF32" s="25">
-        <v>95.52</v>
-      </c>
-      <c r="BG32" s="25">
-        <v>96.8</v>
-      </c>
-      <c r="BH32" s="25">
-        <v>97.17</v>
-      </c>
-      <c r="BI32" s="25">
-        <v>97.73</v>
-      </c>
-      <c r="BJ32" s="25">
-        <v>98.1</v>
-      </c>
-      <c r="BK32" s="25">
-        <v>98.99</v>
-      </c>
-      <c r="BL32" s="25">
-        <v>98.4</v>
-      </c>
       <c r="BM32" s="25">
-        <v>97.92</v>
-      </c>
-      <c r="BN32" s="25"/>
-      <c r="BO32" s="25"/>
+        <v>98.57</v>
+      </c>
+      <c r="BN32" s="25">
+        <v>97.19</v>
+      </c>
+      <c r="BO32" s="25">
+        <v>97.65</v>
+      </c>
       <c r="BP32" s="25"/>
       <c r="BQ32" s="25"/>
       <c r="BR32" s="25"/>
@@ -7307,199 +7432,203 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C33" s="25">
-        <v>96.62</v>
+        <v>96.87</v>
       </c>
       <c r="D33" s="25">
-        <v>97.01</v>
+        <v>97.15</v>
       </c>
       <c r="E33" s="25">
-        <v>98.18</v>
+        <v>98.22</v>
       </c>
       <c r="F33" s="25">
-        <v>98.09</v>
+        <v>98.15</v>
       </c>
       <c r="G33" s="25">
         <v>98</v>
       </c>
       <c r="H33" s="25">
-        <v>97.83</v>
+        <v>97.8</v>
       </c>
       <c r="I33" s="25">
-        <v>97.94</v>
+        <v>97.88</v>
       </c>
       <c r="J33" s="25">
-        <v>97.84</v>
+        <v>97.77</v>
       </c>
       <c r="K33" s="25">
-        <v>97.52</v>
+        <v>97.5</v>
       </c>
       <c r="L33" s="25">
-        <v>98.7</v>
+        <v>98.68</v>
       </c>
       <c r="M33" s="25">
         <v>100</v>
       </c>
       <c r="N33" s="25">
-        <v>99.19</v>
+        <v>99.14</v>
       </c>
       <c r="O33" s="25">
+        <v>97.41</v>
+      </c>
+      <c r="P33" s="25">
+        <v>96.19</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>96.15</v>
+      </c>
+      <c r="R33" s="25">
+        <v>96.14</v>
+      </c>
+      <c r="S33" s="25">
+        <v>96.53</v>
+      </c>
+      <c r="T33" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="U33" s="25">
+        <v>96.42</v>
+      </c>
+      <c r="V33" s="25">
+        <v>96.88</v>
+      </c>
+      <c r="W33" s="25">
+        <v>97.13</v>
+      </c>
+      <c r="X33" s="25">
+        <v>96.85</v>
+      </c>
+      <c r="Y33" s="25">
+        <v>96.63</v>
+      </c>
+      <c r="Z33" s="25">
+        <v>96.45</v>
+      </c>
+      <c r="AA33" s="25">
+        <v>96.04</v>
+      </c>
+      <c r="AB33" s="25">
+        <v>96.24</v>
+      </c>
+      <c r="AC33" s="25">
+        <v>97.05</v>
+      </c>
+      <c r="AD33" s="25">
+        <v>97.84</v>
+      </c>
+      <c r="AE33" s="25">
+        <v>97.78</v>
+      </c>
+      <c r="AF33" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AG33" s="25">
+        <v>97.95</v>
+      </c>
+      <c r="AH33" s="25">
+        <v>97.97</v>
+      </c>
+      <c r="AI33" s="25">
+        <v>97.71</v>
+      </c>
+      <c r="AJ33" s="25">
+        <v>97.51</v>
+      </c>
+      <c r="AK33" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AL33" s="25">
+        <v>97.84</v>
+      </c>
+      <c r="AM33" s="25">
+        <v>98.21</v>
+      </c>
+      <c r="AN33" s="25">
+        <v>98.29</v>
+      </c>
+      <c r="AO33" s="25">
+        <v>97.97</v>
+      </c>
+      <c r="AP33" s="25">
+        <v>97.8</v>
+      </c>
+      <c r="AQ33" s="25">
+        <v>97.83</v>
+      </c>
+      <c r="AR33" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AS33" s="25">
+        <v>98.51</v>
+      </c>
+      <c r="AT33" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>97.89</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>98.22</v>
+      </c>
+      <c r="AW33" s="25">
+        <v>98.29</v>
+      </c>
+      <c r="AX33" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="AY33" s="25">
+        <v>98.73</v>
+      </c>
+      <c r="AZ33" s="25">
+        <v>98.28</v>
+      </c>
+      <c r="BA33" s="25">
+        <v>98.43</v>
+      </c>
+      <c r="BB33" s="25">
+        <v>96.2</v>
+      </c>
+      <c r="BC33" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="BD33" s="25">
+        <v>93.73</v>
+      </c>
+      <c r="BE33" s="25">
+        <v>95.03</v>
+      </c>
+      <c r="BF33" s="25">
+        <v>95.58</v>
+      </c>
+      <c r="BG33" s="25">
+        <v>95.92</v>
+      </c>
+      <c r="BH33" s="25">
+        <v>96.55</v>
+      </c>
+      <c r="BI33" s="25">
+        <v>97.07</v>
+      </c>
+      <c r="BJ33" s="25">
         <v>97.36</v>
       </c>
-      <c r="P33" s="25">
-        <v>96.08</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>95.98</v>
-      </c>
-      <c r="R33" s="25">
-        <v>95.96</v>
-      </c>
-      <c r="S33" s="25">
-        <v>96.36</v>
-      </c>
-      <c r="T33" s="25">
-        <v>96.67</v>
-      </c>
-      <c r="U33" s="25">
-        <v>96.32</v>
-      </c>
-      <c r="V33" s="25">
-        <v>96.74</v>
-      </c>
-      <c r="W33" s="25">
-        <v>96.98</v>
-      </c>
-      <c r="X33" s="25">
-        <v>96.75</v>
-      </c>
-      <c r="Y33" s="25">
-        <v>96.54</v>
-      </c>
-      <c r="Z33" s="25">
-        <v>96.4</v>
-      </c>
-      <c r="AA33" s="25">
-        <v>95.98</v>
-      </c>
-      <c r="AB33" s="25">
-        <v>96.19</v>
-      </c>
-      <c r="AC33" s="25">
-        <v>96.97</v>
-      </c>
-      <c r="AD33" s="25">
-        <v>97.78</v>
-      </c>
-      <c r="AE33" s="25">
-        <v>97.73</v>
-      </c>
-      <c r="AF33" s="25">
-        <v>97.51</v>
-      </c>
-      <c r="AG33" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="AH33" s="25">
-        <v>97.94</v>
-      </c>
-      <c r="AI33" s="25">
-        <v>97.65</v>
-      </c>
-      <c r="AJ33" s="25">
-        <v>97.44</v>
-      </c>
-      <c r="AK33" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AL33" s="25">
-        <v>97.81</v>
-      </c>
-      <c r="AM33" s="25">
-        <v>98.18</v>
-      </c>
-      <c r="AN33" s="25">
-        <v>98.27</v>
-      </c>
-      <c r="AO33" s="25">
-        <v>97.92</v>
-      </c>
-      <c r="AP33" s="25">
-        <v>97.76</v>
-      </c>
-      <c r="AQ33" s="25">
-        <v>97.79</v>
-      </c>
-      <c r="AR33" s="25">
-        <v>98.39</v>
-      </c>
-      <c r="AS33" s="25">
-        <v>98.56</v>
-      </c>
-      <c r="AT33" s="25">
-        <v>97.78</v>
-      </c>
-      <c r="AU33" s="25">
-        <v>97.95</v>
-      </c>
-      <c r="AV33" s="25">
-        <v>98.29</v>
-      </c>
-      <c r="AW33" s="25">
-        <v>98.35</v>
-      </c>
-      <c r="AX33" s="25">
-        <v>98.37</v>
-      </c>
-      <c r="AY33" s="25">
-        <v>98.87</v>
-      </c>
-      <c r="AZ33" s="25">
-        <v>98.42</v>
-      </c>
-      <c r="BA33" s="25">
-        <v>98.53</v>
-      </c>
-      <c r="BB33" s="25">
-        <v>96.21</v>
-      </c>
-      <c r="BC33" s="25">
-        <v>94.19</v>
-      </c>
-      <c r="BD33" s="25">
-        <v>93.9</v>
-      </c>
-      <c r="BE33" s="25">
-        <v>95.28</v>
-      </c>
-      <c r="BF33" s="25">
-        <v>95.77</v>
-      </c>
-      <c r="BG33" s="25">
-        <v>96.1</v>
-      </c>
-      <c r="BH33" s="25">
-        <v>96.5</v>
-      </c>
-      <c r="BI33" s="25">
-        <v>97.1</v>
-      </c>
-      <c r="BJ33" s="25">
-        <v>97.86</v>
-      </c>
       <c r="BK33" s="25">
-        <v>98.87</v>
+        <v>97.91</v>
       </c>
       <c r="BL33" s="25">
-        <v>98.98</v>
+        <v>98.54</v>
       </c>
       <c r="BM33" s="25">
-        <v>100.57</v>
-      </c>
-      <c r="BN33" s="25"/>
-      <c r="BO33" s="25"/>
+        <v>99.48</v>
+      </c>
+      <c r="BN33" s="25">
+        <v>99.47</v>
+      </c>
+      <c r="BO33" s="25">
+        <v>100.25</v>
+      </c>
       <c r="BP33" s="25"/>
       <c r="BQ33" s="25"/>
       <c r="BR33" s="25"/>
@@ -7513,6 +7642,9 @@
       <c r="BZ33" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A96C92C-CB95-492B-BBC5-794E282CFC8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897651E1-DAC6-4835-A39B-C04780BE127E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,6 +90,9 @@
     <t>8. ACT</t>
   </si>
   <si>
+    <t>Payroll jobs index by Employment size</t>
+  </si>
+  <si>
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
@@ -99,28 +102,25 @@
     <t>200+ employees</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 13 April 2021</t>
+    <t>Week ending Saturday 10 April 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 27 March 2021</t>
+    <t>Released at 11.30am (Canberra time) 28 April 2021</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employer characteristics</t>
+    <t>Employment size</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
   </si>
   <si>
     <t>State or Territory</t>
   </si>
   <si>
-    <t>Employment size</t>
+    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by employment size</t>
-  </si>
-  <si>
-    <t>Payroll jobs index by employment size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs indexes by Employer characteristics</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1119,12 +1119,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="29"/>
     </row>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1567,9 +1567,9 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="5"/>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1851,8 +1851,12 @@
       <c r="BO6" s="24">
         <v>44282</v>
       </c>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="24"/>
+      <c r="BP6" s="24">
+        <v>44289</v>
+      </c>
+      <c r="BQ6" s="24">
+        <v>44296</v>
+      </c>
       <c r="BR6" s="24"/>
       <c r="BS6" s="24"/>
       <c r="BT6" s="24"/>
@@ -1868,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="25">
         <v>87.92</v>
@@ -1877,7 +1881,7 @@
         <v>92.03</v>
       </c>
       <c r="E7" s="25">
-        <v>94.66</v>
+        <v>94.67</v>
       </c>
       <c r="F7" s="25">
         <v>95.72</v>
@@ -1886,7 +1890,7 @@
         <v>96.43</v>
       </c>
       <c r="H7" s="25">
-        <v>97.59</v>
+        <v>97.58</v>
       </c>
       <c r="I7" s="25">
         <v>98.06</v>
@@ -1904,169 +1908,173 @@
         <v>100</v>
       </c>
       <c r="N7" s="25">
-        <v>98.85</v>
+        <v>98.84</v>
       </c>
       <c r="O7" s="25">
         <v>93.97</v>
       </c>
       <c r="P7" s="25">
-        <v>90.7</v>
+        <v>90.77</v>
       </c>
       <c r="Q7" s="25">
-        <v>88.91</v>
+        <v>89.02</v>
       </c>
       <c r="R7" s="25">
-        <v>88.72</v>
+        <v>88.84</v>
       </c>
       <c r="S7" s="25">
-        <v>89.49</v>
+        <v>89.6</v>
       </c>
       <c r="T7" s="25">
-        <v>90.67</v>
+        <v>90.78</v>
       </c>
       <c r="U7" s="25">
-        <v>92.03</v>
+        <v>92.14</v>
       </c>
       <c r="V7" s="25">
-        <v>93.2</v>
+        <v>93.31</v>
       </c>
       <c r="W7" s="25">
-        <v>93.8</v>
+        <v>93.91</v>
       </c>
       <c r="X7" s="25">
-        <v>94.32</v>
+        <v>94.43</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.63</v>
+        <v>95.73</v>
       </c>
       <c r="Z7" s="25">
-        <v>96.15</v>
+        <v>96.25</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.7</v>
+        <v>96.81</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.61</v>
+        <v>97.73</v>
       </c>
       <c r="AC7" s="25">
-        <v>99.83</v>
+        <v>100.09</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.66</v>
+        <v>100.97</v>
       </c>
       <c r="AE7" s="25">
-        <v>100.86</v>
+        <v>101.16</v>
       </c>
       <c r="AF7" s="25">
-        <v>101.31</v>
+        <v>101.61</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.47</v>
+        <v>101.77</v>
       </c>
       <c r="AH7" s="25">
-        <v>101.54</v>
+        <v>101.83</v>
       </c>
       <c r="AI7" s="25">
-        <v>101.56</v>
+        <v>101.85</v>
       </c>
       <c r="AJ7" s="25">
-        <v>101.71</v>
+        <v>102.01</v>
       </c>
       <c r="AK7" s="25">
-        <v>101.98</v>
+        <v>102.29</v>
       </c>
       <c r="AL7" s="25">
-        <v>102.29</v>
+        <v>102.77</v>
       </c>
       <c r="AM7" s="25">
-        <v>102.88</v>
+        <v>103.45</v>
       </c>
       <c r="AN7" s="25">
-        <v>102.97</v>
+        <v>103.55</v>
       </c>
       <c r="AO7" s="25">
-        <v>102.8</v>
+        <v>103.39</v>
       </c>
       <c r="AP7" s="25">
-        <v>101.61</v>
+        <v>102.24</v>
       </c>
       <c r="AQ7" s="25">
-        <v>101.57</v>
+        <v>102.26</v>
       </c>
       <c r="AR7" s="25">
-        <v>102.36</v>
+        <v>103.05</v>
       </c>
       <c r="AS7" s="25">
-        <v>102.77</v>
+        <v>103.46</v>
       </c>
       <c r="AT7" s="25">
-        <v>103.08</v>
+        <v>103.71</v>
       </c>
       <c r="AU7" s="25">
-        <v>103.64</v>
+        <v>104.19</v>
       </c>
       <c r="AV7" s="25">
-        <v>104.47</v>
+        <v>105.02</v>
       </c>
       <c r="AW7" s="25">
-        <v>104.87</v>
+        <v>105.44</v>
       </c>
       <c r="AX7" s="25">
-        <v>105.26</v>
+        <v>105.85</v>
       </c>
       <c r="AY7" s="25">
-        <v>105.58</v>
+        <v>106.26</v>
       </c>
       <c r="AZ7" s="25">
-        <v>105.59</v>
+        <v>106.35</v>
       </c>
       <c r="BA7" s="25">
-        <v>104.27</v>
+        <v>105.1</v>
       </c>
       <c r="BB7" s="25">
-        <v>98.65</v>
+        <v>99.54</v>
       </c>
       <c r="BC7" s="25">
-        <v>93.67</v>
+        <v>94.89</v>
       </c>
       <c r="BD7" s="25">
-        <v>95.19</v>
+        <v>97.64</v>
       </c>
       <c r="BE7" s="25">
-        <v>98.57</v>
+        <v>101.24</v>
       </c>
       <c r="BF7" s="25">
-        <v>99.94</v>
+        <v>102.43</v>
       </c>
       <c r="BG7" s="25">
-        <v>100.12</v>
+        <v>102.75</v>
       </c>
       <c r="BH7" s="25">
-        <v>100.96</v>
+        <v>102.9</v>
       </c>
       <c r="BI7" s="25">
-        <v>101.25</v>
+        <v>103.35</v>
       </c>
       <c r="BJ7" s="25">
-        <v>100.92</v>
+        <v>103.19</v>
       </c>
       <c r="BK7" s="25">
-        <v>100.67</v>
+        <v>103.38</v>
       </c>
       <c r="BL7" s="25">
-        <v>100.48</v>
+        <v>104.18</v>
       </c>
       <c r="BM7" s="25">
-        <v>99.94</v>
+        <v>103.77</v>
       </c>
       <c r="BN7" s="25">
-        <v>98.96</v>
+        <v>103.55</v>
       </c>
       <c r="BO7" s="25">
-        <v>98.85</v>
-      </c>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="25"/>
+        <v>103.51</v>
+      </c>
+      <c r="BP7" s="25">
+        <v>101.1</v>
+      </c>
+      <c r="BQ7" s="25">
+        <v>98.36</v>
+      </c>
       <c r="BR7" s="25"/>
       <c r="BS7" s="25"/>
       <c r="BT7" s="25"/>
@@ -2085,31 +2093,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="25">
-        <v>92.66</v>
+        <v>92.68</v>
       </c>
       <c r="D8" s="25">
-        <v>95.47</v>
+        <v>95.49</v>
       </c>
       <c r="E8" s="25">
-        <v>97.23</v>
+        <v>97.25</v>
       </c>
       <c r="F8" s="25">
-        <v>98.06</v>
+        <v>98.08</v>
       </c>
       <c r="G8" s="25">
-        <v>98.54</v>
+        <v>98.56</v>
       </c>
       <c r="H8" s="25">
-        <v>99.46</v>
+        <v>99.47</v>
       </c>
       <c r="I8" s="25">
-        <v>99.76</v>
+        <v>99.77</v>
       </c>
       <c r="J8" s="25">
-        <v>100.11</v>
+        <v>100.12</v>
       </c>
       <c r="K8" s="25">
-        <v>100.28</v>
+        <v>100.29</v>
       </c>
       <c r="L8" s="25">
         <v>100.15</v>
@@ -2121,166 +2129,170 @@
         <v>98.26</v>
       </c>
       <c r="O8" s="25">
-        <v>92.9</v>
+        <v>92.89</v>
       </c>
       <c r="P8" s="25">
-        <v>89.53</v>
+        <v>89.52</v>
       </c>
       <c r="Q8" s="25">
-        <v>88.08</v>
+        <v>88.06</v>
       </c>
       <c r="R8" s="25">
-        <v>87.94</v>
+        <v>87.92</v>
       </c>
       <c r="S8" s="25">
-        <v>88.73</v>
+        <v>88.72</v>
       </c>
       <c r="T8" s="25">
-        <v>89.4</v>
+        <v>89.39</v>
       </c>
       <c r="U8" s="25">
-        <v>90.08</v>
+        <v>90.05</v>
       </c>
       <c r="V8" s="25">
-        <v>90.75</v>
+        <v>90.72</v>
       </c>
       <c r="W8" s="25">
-        <v>91.02</v>
+        <v>90.99</v>
       </c>
       <c r="X8" s="25">
-        <v>91.46</v>
+        <v>91.43</v>
       </c>
       <c r="Y8" s="25">
-        <v>92.37</v>
+        <v>92.33</v>
       </c>
       <c r="Z8" s="25">
-        <v>93.19</v>
+        <v>93.15</v>
       </c>
       <c r="AA8" s="25">
-        <v>93.43</v>
+        <v>93.38</v>
       </c>
       <c r="AB8" s="25">
+        <v>93.03</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>93.55</v>
+      </c>
+      <c r="AD8" s="25">
+        <v>94.07</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>94.3</v>
+      </c>
+      <c r="AF8" s="25">
+        <v>94.8</v>
+      </c>
+      <c r="AG8" s="25">
+        <v>94.96</v>
+      </c>
+      <c r="AH8" s="25">
+        <v>94.75</v>
+      </c>
+      <c r="AI8" s="25">
+        <v>94.66</v>
+      </c>
+      <c r="AJ8" s="25">
+        <v>94.71</v>
+      </c>
+      <c r="AK8" s="25">
+        <v>94.89</v>
+      </c>
+      <c r="AL8" s="25">
+        <v>95.36</v>
+      </c>
+      <c r="AM8" s="25">
+        <v>95.99</v>
+      </c>
+      <c r="AN8" s="25">
+        <v>96.11</v>
+      </c>
+      <c r="AO8" s="25">
+        <v>95.92</v>
+      </c>
+      <c r="AP8" s="25">
+        <v>95.16</v>
+      </c>
+      <c r="AQ8" s="25">
+        <v>95.22</v>
+      </c>
+      <c r="AR8" s="25">
+        <v>96.21</v>
+      </c>
+      <c r="AS8" s="25">
+        <v>96.66</v>
+      </c>
+      <c r="AT8" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="AU8" s="25">
+        <v>97.2</v>
+      </c>
+      <c r="AV8" s="25">
+        <v>97.85</v>
+      </c>
+      <c r="AW8" s="25">
+        <v>98.16</v>
+      </c>
+      <c r="AX8" s="25">
+        <v>98.51</v>
+      </c>
+      <c r="AY8" s="25">
+        <v>98.83</v>
+      </c>
+      <c r="AZ8" s="25">
+        <v>98.85</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>97.77</v>
+      </c>
+      <c r="BB8" s="25">
+        <v>93.27</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>90.7</v>
+      </c>
+      <c r="BD8" s="25">
         <v>93.08</v>
       </c>
-      <c r="AC8" s="25">
-        <v>93.58</v>
-      </c>
-      <c r="AD8" s="25">
-        <v>94.09</v>
-      </c>
-      <c r="AE8" s="25">
-        <v>94.32</v>
-      </c>
-      <c r="AF8" s="25">
-        <v>94.82</v>
-      </c>
-      <c r="AG8" s="25">
-        <v>94.98</v>
-      </c>
-      <c r="AH8" s="25">
-        <v>94.77</v>
-      </c>
-      <c r="AI8" s="25">
-        <v>94.69</v>
-      </c>
-      <c r="AJ8" s="25">
-        <v>94.74</v>
-      </c>
-      <c r="AK8" s="25">
-        <v>94.91</v>
-      </c>
-      <c r="AL8" s="25">
-        <v>95.26</v>
-      </c>
-      <c r="AM8" s="25">
-        <v>95.83</v>
-      </c>
-      <c r="AN8" s="25">
-        <v>95.97</v>
-      </c>
-      <c r="AO8" s="25">
-        <v>95.78</v>
-      </c>
-      <c r="AP8" s="25">
-        <v>94.97</v>
-      </c>
-      <c r="AQ8" s="25">
-        <v>94.99</v>
-      </c>
-      <c r="AR8" s="25">
-        <v>95.99</v>
-      </c>
-      <c r="AS8" s="25">
-        <v>96.44</v>
-      </c>
-      <c r="AT8" s="25">
-        <v>96.59</v>
-      </c>
-      <c r="AU8" s="25">
-        <v>97</v>
-      </c>
-      <c r="AV8" s="25">
-        <v>97.66</v>
-      </c>
-      <c r="AW8" s="25">
-        <v>97.97</v>
-      </c>
-      <c r="AX8" s="25">
-        <v>98.31</v>
-      </c>
-      <c r="AY8" s="25">
-        <v>98.62</v>
-      </c>
-      <c r="AZ8" s="25">
-        <v>98.62</v>
-      </c>
-      <c r="BA8" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="BB8" s="25">
-        <v>93.01</v>
-      </c>
-      <c r="BC8" s="25">
-        <v>90.37</v>
-      </c>
-      <c r="BD8" s="25">
-        <v>92.21</v>
-      </c>
       <c r="BE8" s="25">
-        <v>94.58</v>
+        <v>95.67</v>
       </c>
       <c r="BF8" s="25">
-        <v>95.7</v>
+        <v>96.76</v>
       </c>
       <c r="BG8" s="25">
-        <v>96.17</v>
+        <v>97.32</v>
       </c>
       <c r="BH8" s="25">
-        <v>97.1</v>
+        <v>98.07</v>
       </c>
       <c r="BI8" s="25">
-        <v>97.54</v>
+        <v>98.58</v>
       </c>
       <c r="BJ8" s="25">
-        <v>97.35</v>
+        <v>98.49</v>
       </c>
       <c r="BK8" s="25">
-        <v>97.76</v>
+        <v>99.04</v>
       </c>
       <c r="BL8" s="25">
-        <v>98.03</v>
+        <v>99.65</v>
       </c>
       <c r="BM8" s="25">
-        <v>98.33</v>
+        <v>99.79</v>
       </c>
       <c r="BN8" s="25">
-        <v>98.35</v>
+        <v>100.21</v>
       </c>
       <c r="BO8" s="25">
-        <v>98.51</v>
-      </c>
-      <c r="BP8" s="25"/>
-      <c r="BQ8" s="25"/>
+        <v>100.5</v>
+      </c>
+      <c r="BP8" s="25">
+        <v>99.57</v>
+      </c>
+      <c r="BQ8" s="25">
+        <v>98.6</v>
+      </c>
       <c r="BR8" s="25"/>
       <c r="BS8" s="25"/>
       <c r="BT8" s="25"/>
@@ -2296,10 +2308,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="25">
-        <v>96.59</v>
+        <v>96.58</v>
       </c>
       <c r="D9" s="25">
         <v>97.03</v>
@@ -2341,16 +2353,16 @@
         <v>95.59</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.66</v>
+        <v>94.65</v>
       </c>
       <c r="R9" s="25">
-        <v>94.77</v>
+        <v>94.76</v>
       </c>
       <c r="S9" s="25">
         <v>95.04</v>
       </c>
       <c r="T9" s="25">
-        <v>95.1</v>
+        <v>95.09</v>
       </c>
       <c r="U9" s="25">
         <v>95.43</v>
@@ -2362,7 +2374,7 @@
         <v>95.94</v>
       </c>
       <c r="X9" s="25">
-        <v>96.46</v>
+        <v>96.45</v>
       </c>
       <c r="Y9" s="25">
         <v>97.26</v>
@@ -2371,130 +2383,134 @@
         <v>97.58</v>
       </c>
       <c r="AA9" s="25">
-        <v>97.2</v>
+        <v>97.19</v>
       </c>
       <c r="AB9" s="25">
-        <v>95.96</v>
+        <v>95.95</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.57</v>
+        <v>96.58</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.83</v>
+        <v>97.84</v>
       </c>
       <c r="AE9" s="25">
+        <v>97.78</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>97.71</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>97.93</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.95</v>
+      </c>
+      <c r="AI9" s="25">
         <v>97.76</v>
       </c>
-      <c r="AF9" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AG9" s="25">
-        <v>97.92</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>97.94</v>
-      </c>
-      <c r="AI9" s="25">
+      <c r="AJ9" s="25">
         <v>97.75</v>
       </c>
-      <c r="AJ9" s="25">
-        <v>97.74</v>
-      </c>
       <c r="AK9" s="25">
-        <v>97.75</v>
+        <v>97.76</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.72</v>
+        <v>97.85</v>
       </c>
       <c r="AM9" s="25">
-        <v>97.93</v>
+        <v>98.11</v>
       </c>
       <c r="AN9" s="25">
-        <v>98.1</v>
+        <v>98.32</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.83</v>
+        <v>98.02</v>
       </c>
       <c r="AP9" s="25">
-        <v>97.12</v>
+        <v>97.3</v>
       </c>
       <c r="AQ9" s="25">
-        <v>97.21</v>
+        <v>97.41</v>
       </c>
       <c r="AR9" s="25">
-        <v>97.79</v>
+        <v>97.98</v>
       </c>
       <c r="AS9" s="25">
-        <v>97.85</v>
+        <v>98.04</v>
       </c>
       <c r="AT9" s="25">
-        <v>97.99</v>
+        <v>98.15</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.2</v>
+        <v>98.35</v>
       </c>
       <c r="AV9" s="25">
-        <v>98.84</v>
+        <v>99.02</v>
       </c>
       <c r="AW9" s="25">
-        <v>99.03</v>
+        <v>99.21</v>
       </c>
       <c r="AX9" s="25">
-        <v>99.18</v>
+        <v>99.36</v>
       </c>
       <c r="AY9" s="25">
-        <v>99.78</v>
+        <v>99.97</v>
       </c>
       <c r="AZ9" s="25">
-        <v>99.79</v>
+        <v>99.97</v>
       </c>
       <c r="BA9" s="25">
-        <v>99.3</v>
+        <v>99.48</v>
       </c>
       <c r="BB9" s="25">
-        <v>96.82</v>
+        <v>97</v>
       </c>
       <c r="BC9" s="25">
-        <v>94.61</v>
+        <v>94.83</v>
       </c>
       <c r="BD9" s="25">
-        <v>94.61</v>
+        <v>95.24</v>
       </c>
       <c r="BE9" s="25">
-        <v>95.73</v>
+        <v>96.61</v>
       </c>
       <c r="BF9" s="25">
-        <v>96.25</v>
+        <v>97.16</v>
       </c>
       <c r="BG9" s="25">
-        <v>96.69</v>
+        <v>97.76</v>
       </c>
       <c r="BH9" s="25">
-        <v>97.05</v>
+        <v>97.98</v>
       </c>
       <c r="BI9" s="25">
-        <v>97.78</v>
+        <v>98.76</v>
       </c>
       <c r="BJ9" s="25">
-        <v>98.07</v>
+        <v>99.01</v>
       </c>
       <c r="BK9" s="25">
-        <v>98.48</v>
+        <v>99.33</v>
       </c>
       <c r="BL9" s="25">
-        <v>99.02</v>
+        <v>99.88</v>
       </c>
       <c r="BM9" s="25">
-        <v>99.76</v>
+        <v>100.33</v>
       </c>
       <c r="BN9" s="25">
-        <v>99.93</v>
+        <v>100.71</v>
       </c>
       <c r="BO9" s="25">
-        <v>100.52</v>
-      </c>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
+        <v>100.47</v>
+      </c>
+      <c r="BP9" s="25">
+        <v>100.23</v>
+      </c>
+      <c r="BQ9" s="25">
+        <v>100.53</v>
+      </c>
       <c r="BR9" s="25"/>
       <c r="BS9" s="25"/>
       <c r="BT9" s="25"/>
@@ -2510,10 +2526,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="25">
-        <v>87.59</v>
+        <v>87.6</v>
       </c>
       <c r="D10" s="25">
         <v>91.67</v>
@@ -2525,16 +2541,16 @@
         <v>95.49</v>
       </c>
       <c r="G10" s="25">
-        <v>96.38</v>
+        <v>96.37</v>
       </c>
       <c r="H10" s="25">
-        <v>97.48</v>
+        <v>97.47</v>
       </c>
       <c r="I10" s="25">
         <v>97.87</v>
       </c>
       <c r="J10" s="25">
-        <v>98.51</v>
+        <v>98.5</v>
       </c>
       <c r="K10" s="25">
         <v>98.97</v>
@@ -2546,169 +2562,173 @@
         <v>100</v>
       </c>
       <c r="N10" s="25">
-        <v>98.79</v>
+        <v>98.78</v>
       </c>
       <c r="O10" s="25">
-        <v>94.1</v>
+        <v>94.09</v>
       </c>
       <c r="P10" s="25">
-        <v>90.91</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.12</v>
+        <v>89.28</v>
       </c>
       <c r="R10" s="25">
-        <v>88.85</v>
+        <v>89.01</v>
       </c>
       <c r="S10" s="25">
-        <v>89.5</v>
+        <v>89.67</v>
       </c>
       <c r="T10" s="25">
-        <v>90.71</v>
+        <v>90.88</v>
       </c>
       <c r="U10" s="25">
-        <v>92.36</v>
+        <v>92.52</v>
       </c>
       <c r="V10" s="25">
-        <v>94.27</v>
+        <v>94.43</v>
       </c>
       <c r="W10" s="25">
-        <v>94.82</v>
+        <v>94.98</v>
       </c>
       <c r="X10" s="25">
-        <v>95.39</v>
+        <v>95.54</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.78</v>
+        <v>96.94</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.48</v>
+        <v>96.64</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.81</v>
+        <v>96.96</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.7</v>
+        <v>97.88</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.47</v>
+        <v>100.82</v>
       </c>
       <c r="AD10" s="25">
-        <v>101.63</v>
+        <v>102.05</v>
       </c>
       <c r="AE10" s="25">
-        <v>101.87</v>
+        <v>102.28</v>
       </c>
       <c r="AF10" s="25">
-        <v>102.44</v>
+        <v>102.84</v>
       </c>
       <c r="AG10" s="25">
-        <v>102.6</v>
+        <v>103</v>
       </c>
       <c r="AH10" s="25">
-        <v>102.9</v>
+        <v>103.29</v>
       </c>
       <c r="AI10" s="25">
-        <v>103.14</v>
+        <v>103.53</v>
       </c>
       <c r="AJ10" s="25">
-        <v>103.43</v>
+        <v>103.84</v>
       </c>
       <c r="AK10" s="25">
-        <v>103.62</v>
+        <v>104.03</v>
       </c>
       <c r="AL10" s="25">
-        <v>104.04</v>
+        <v>104.66</v>
       </c>
       <c r="AM10" s="25">
-        <v>104.61</v>
+        <v>105.34</v>
       </c>
       <c r="AN10" s="25">
-        <v>104.67</v>
+        <v>105.42</v>
       </c>
       <c r="AO10" s="25">
-        <v>104.58</v>
+        <v>105.34</v>
       </c>
       <c r="AP10" s="25">
-        <v>102.94</v>
+        <v>103.77</v>
       </c>
       <c r="AQ10" s="25">
-        <v>102.48</v>
+        <v>103.4</v>
       </c>
       <c r="AR10" s="25">
-        <v>103.34</v>
+        <v>104.28</v>
       </c>
       <c r="AS10" s="25">
-        <v>103.74</v>
+        <v>104.68</v>
       </c>
       <c r="AT10" s="25">
-        <v>103.74</v>
+        <v>104.59</v>
       </c>
       <c r="AU10" s="25">
-        <v>104.29</v>
+        <v>104.99</v>
       </c>
       <c r="AV10" s="25">
-        <v>105.19</v>
+        <v>105.91</v>
       </c>
       <c r="AW10" s="25">
-        <v>105.78</v>
+        <v>106.52</v>
       </c>
       <c r="AX10" s="25">
-        <v>105.94</v>
+        <v>106.72</v>
       </c>
       <c r="AY10" s="25">
-        <v>105.92</v>
+        <v>106.89</v>
       </c>
       <c r="AZ10" s="25">
-        <v>105.62</v>
+        <v>106.78</v>
       </c>
       <c r="BA10" s="25">
-        <v>104.07</v>
+        <v>105.39</v>
       </c>
       <c r="BB10" s="25">
-        <v>98.25</v>
+        <v>99.67</v>
       </c>
       <c r="BC10" s="25">
-        <v>92.91</v>
+        <v>94.7</v>
       </c>
       <c r="BD10" s="25">
-        <v>94.01</v>
+        <v>97.11</v>
       </c>
       <c r="BE10" s="25">
-        <v>97.49</v>
+        <v>100.64</v>
       </c>
       <c r="BF10" s="25">
-        <v>98.87</v>
+        <v>101.76</v>
       </c>
       <c r="BG10" s="25">
-        <v>99.08</v>
+        <v>102.13</v>
       </c>
       <c r="BH10" s="25">
-        <v>100.21</v>
+        <v>102.28</v>
       </c>
       <c r="BI10" s="25">
-        <v>100.46</v>
+        <v>102.68</v>
       </c>
       <c r="BJ10" s="25">
-        <v>99.98</v>
+        <v>102.32</v>
       </c>
       <c r="BK10" s="25">
-        <v>99.46</v>
+        <v>102.28</v>
       </c>
       <c r="BL10" s="25">
-        <v>99.1</v>
+        <v>103.15</v>
       </c>
       <c r="BM10" s="25">
-        <v>98.31</v>
+        <v>102.59</v>
       </c>
       <c r="BN10" s="25">
-        <v>97.16</v>
+        <v>102.06</v>
       </c>
       <c r="BO10" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="BP10" s="25"/>
-      <c r="BQ10" s="25"/>
+        <v>101.86</v>
+      </c>
+      <c r="BP10" s="25">
+        <v>99.38</v>
+      </c>
+      <c r="BQ10" s="25">
+        <v>95.91</v>
+      </c>
       <c r="BR10" s="25"/>
       <c r="BS10" s="25"/>
       <c r="BT10" s="25"/>
@@ -2727,34 +2747,34 @@
         <v>8</v>
       </c>
       <c r="C11" s="25">
-        <v>92.95</v>
+        <v>92.99</v>
       </c>
       <c r="D11" s="25">
-        <v>95.73</v>
+        <v>95.77</v>
       </c>
       <c r="E11" s="25">
-        <v>97.56</v>
+        <v>97.59</v>
       </c>
       <c r="F11" s="25">
-        <v>98.27</v>
+        <v>98.3</v>
       </c>
       <c r="G11" s="25">
-        <v>98.79</v>
+        <v>98.81</v>
       </c>
       <c r="H11" s="25">
-        <v>99.51</v>
+        <v>99.54</v>
       </c>
       <c r="I11" s="25">
-        <v>99.72</v>
+        <v>99.74</v>
       </c>
       <c r="J11" s="25">
-        <v>100.15</v>
+        <v>100.17</v>
       </c>
       <c r="K11" s="25">
-        <v>100.28</v>
+        <v>100.29</v>
       </c>
       <c r="L11" s="25">
-        <v>100.08</v>
+        <v>100.09</v>
       </c>
       <c r="M11" s="25">
         <v>100</v>
@@ -2763,166 +2783,170 @@
         <v>98</v>
       </c>
       <c r="O11" s="25">
-        <v>92.53</v>
+        <v>92.52</v>
       </c>
       <c r="P11" s="25">
-        <v>89.14</v>
+        <v>89.13</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.76</v>
+        <v>87.75</v>
       </c>
       <c r="R11" s="25">
-        <v>87.85</v>
+        <v>87.84</v>
       </c>
       <c r="S11" s="25">
-        <v>88.48</v>
+        <v>88.47</v>
       </c>
       <c r="T11" s="25">
         <v>89.17</v>
       </c>
       <c r="U11" s="25">
-        <v>89.88</v>
+        <v>89.86</v>
       </c>
       <c r="V11" s="25">
-        <v>90.39</v>
+        <v>90.36</v>
       </c>
       <c r="W11" s="25">
-        <v>90.84</v>
+        <v>90.81</v>
       </c>
       <c r="X11" s="25">
-        <v>91.37</v>
+        <v>91.35</v>
       </c>
       <c r="Y11" s="25">
-        <v>92.46</v>
+        <v>92.43</v>
       </c>
       <c r="Z11" s="25">
-        <v>93.16</v>
+        <v>93.13</v>
       </c>
       <c r="AA11" s="25">
-        <v>93.32</v>
+        <v>93.29</v>
       </c>
       <c r="AB11" s="25">
-        <v>93.02</v>
+        <v>92.98</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.6</v>
+        <v>93.59</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.71</v>
+        <v>94.72</v>
       </c>
       <c r="AE11" s="25">
-        <v>95.2</v>
+        <v>95.21</v>
       </c>
       <c r="AF11" s="25">
         <v>95.61</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.75</v>
+        <v>95.74</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.79</v>
+        <v>95.78</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.95</v>
+        <v>95.94</v>
       </c>
       <c r="AJ11" s="25">
-        <v>96.22</v>
+        <v>96.23</v>
       </c>
       <c r="AK11" s="25">
-        <v>96.44</v>
+        <v>96.45</v>
       </c>
       <c r="AL11" s="25">
-        <v>96.66</v>
+        <v>96.85</v>
       </c>
       <c r="AM11" s="25">
-        <v>96.97</v>
+        <v>97.24</v>
       </c>
       <c r="AN11" s="25">
-        <v>97.08</v>
+        <v>97.36</v>
       </c>
       <c r="AO11" s="25">
-        <v>97.11</v>
+        <v>97.39</v>
       </c>
       <c r="AP11" s="25">
-        <v>96.26</v>
+        <v>96.56</v>
       </c>
       <c r="AQ11" s="25">
-        <v>95.91</v>
+        <v>96.21</v>
       </c>
       <c r="AR11" s="25">
-        <v>96.81</v>
+        <v>97.1</v>
       </c>
       <c r="AS11" s="25">
-        <v>97.22</v>
+        <v>97.51</v>
       </c>
       <c r="AT11" s="25">
-        <v>97.06</v>
+        <v>97.32</v>
       </c>
       <c r="AU11" s="25">
-        <v>97.35</v>
+        <v>97.65</v>
       </c>
       <c r="AV11" s="25">
-        <v>97.92</v>
+        <v>98.21</v>
       </c>
       <c r="AW11" s="25">
-        <v>98.45</v>
+        <v>98.74</v>
       </c>
       <c r="AX11" s="25">
-        <v>98.59</v>
+        <v>98.89</v>
       </c>
       <c r="AY11" s="25">
-        <v>98.64</v>
+        <v>98.97</v>
       </c>
       <c r="AZ11" s="25">
-        <v>98.58</v>
+        <v>98.94</v>
       </c>
       <c r="BA11" s="25">
-        <v>97.54</v>
+        <v>97.93</v>
       </c>
       <c r="BB11" s="25">
-        <v>92.95</v>
+        <v>93.36</v>
       </c>
       <c r="BC11" s="25">
-        <v>90.15</v>
+        <v>90.6</v>
       </c>
       <c r="BD11" s="25">
-        <v>92.34</v>
+        <v>93.19</v>
       </c>
       <c r="BE11" s="25">
-        <v>94.7</v>
+        <v>95.73</v>
       </c>
       <c r="BF11" s="25">
-        <v>95.88</v>
+        <v>96.87</v>
       </c>
       <c r="BG11" s="25">
-        <v>96.43</v>
+        <v>97.5</v>
       </c>
       <c r="BH11" s="25">
-        <v>97.6</v>
+        <v>98.4</v>
       </c>
       <c r="BI11" s="25">
-        <v>97.89</v>
+        <v>98.76</v>
       </c>
       <c r="BJ11" s="25">
-        <v>97.38</v>
+        <v>98.33</v>
       </c>
       <c r="BK11" s="25">
-        <v>97.73</v>
+        <v>98.87</v>
       </c>
       <c r="BL11" s="25">
-        <v>97.94</v>
+        <v>99.54</v>
       </c>
       <c r="BM11" s="25">
-        <v>98.07</v>
+        <v>99.54</v>
       </c>
       <c r="BN11" s="25">
-        <v>98.09</v>
+        <v>99.96</v>
       </c>
       <c r="BO11" s="25">
-        <v>98.29</v>
-      </c>
-      <c r="BP11" s="25"/>
-      <c r="BQ11" s="25"/>
+        <v>100.13</v>
+      </c>
+      <c r="BP11" s="25">
+        <v>99.43</v>
+      </c>
+      <c r="BQ11" s="25">
+        <v>97.96</v>
+      </c>
       <c r="BR11" s="25"/>
       <c r="BS11" s="25"/>
       <c r="BT11" s="25"/>
@@ -2938,10 +2962,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="25">
-        <v>96.68</v>
+        <v>96.67</v>
       </c>
       <c r="D12" s="25">
         <v>96.83</v>
@@ -2983,49 +3007,49 @@
         <v>95.95</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.12</v>
+        <v>95.11</v>
       </c>
       <c r="R12" s="25">
-        <v>94.85</v>
+        <v>94.84</v>
       </c>
       <c r="S12" s="25">
-        <v>94.91</v>
+        <v>94.9</v>
       </c>
       <c r="T12" s="25">
         <v>95.09</v>
       </c>
       <c r="U12" s="25">
-        <v>95.54</v>
+        <v>95.53</v>
       </c>
       <c r="V12" s="25">
         <v>95.87</v>
       </c>
       <c r="W12" s="25">
-        <v>96.36</v>
+        <v>96.35</v>
       </c>
       <c r="X12" s="25">
-        <v>97.09</v>
+        <v>97.08</v>
       </c>
       <c r="Y12" s="25">
-        <v>98.12</v>
+        <v>98.11</v>
       </c>
       <c r="Z12" s="25">
         <v>97.96</v>
       </c>
       <c r="AA12" s="25">
-        <v>97.64</v>
+        <v>97.63</v>
       </c>
       <c r="AB12" s="25">
         <v>96.97</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.18</v>
+        <v>97.19</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.31</v>
+        <v>98.32</v>
       </c>
       <c r="AE12" s="25">
-        <v>98.11</v>
+        <v>98.12</v>
       </c>
       <c r="AF12" s="25">
         <v>98.18</v>
@@ -3034,109 +3058,113 @@
         <v>98.7</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.8</v>
+        <v>98.81</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.75</v>
+        <v>98.76</v>
       </c>
       <c r="AJ12" s="25">
         <v>98.68</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.82</v>
+        <v>98.84</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.64</v>
+        <v>98.8</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.84</v>
+        <v>99.06</v>
       </c>
       <c r="AN12" s="25">
-        <v>99.09</v>
+        <v>99.32</v>
       </c>
       <c r="AO12" s="25">
-        <v>98.97</v>
+        <v>99.2</v>
       </c>
       <c r="AP12" s="25">
+        <v>98.23</v>
+      </c>
+      <c r="AQ12" s="25">
         <v>98.03</v>
       </c>
-      <c r="AQ12" s="25">
-        <v>97.83</v>
-      </c>
       <c r="AR12" s="25">
-        <v>98.79</v>
+        <v>98.99</v>
       </c>
       <c r="AS12" s="25">
-        <v>98.85</v>
+        <v>99.05</v>
       </c>
       <c r="AT12" s="25">
-        <v>98.72</v>
+        <v>98.89</v>
       </c>
       <c r="AU12" s="25">
-        <v>98.75</v>
+        <v>98.93</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.25</v>
+        <v>99.43</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.65</v>
+        <v>99.84</v>
       </c>
       <c r="AX12" s="25">
-        <v>99.89</v>
+        <v>100.07</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.47</v>
+        <v>100.65</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.47</v>
+        <v>100.66</v>
       </c>
       <c r="BA12" s="25">
-        <v>100.16</v>
+        <v>100.34</v>
       </c>
       <c r="BB12" s="25">
-        <v>97.9</v>
+        <v>98.08</v>
       </c>
       <c r="BC12" s="25">
-        <v>95.1</v>
+        <v>95.32</v>
       </c>
       <c r="BD12" s="25">
-        <v>95.14</v>
+        <v>95.73</v>
       </c>
       <c r="BE12" s="25">
-        <v>96.32</v>
+        <v>97.16</v>
       </c>
       <c r="BF12" s="25">
-        <v>96.76</v>
+        <v>97.66</v>
       </c>
       <c r="BG12" s="25">
-        <v>97.17</v>
+        <v>98.38</v>
       </c>
       <c r="BH12" s="25">
-        <v>97.35</v>
+        <v>98.35</v>
       </c>
       <c r="BI12" s="25">
-        <v>98.21</v>
+        <v>99.14</v>
       </c>
       <c r="BJ12" s="25">
-        <v>98.41</v>
+        <v>99.26</v>
       </c>
       <c r="BK12" s="25">
-        <v>98.84</v>
+        <v>99.64</v>
       </c>
       <c r="BL12" s="25">
-        <v>99.27</v>
+        <v>100.11</v>
       </c>
       <c r="BM12" s="25">
-        <v>100.01</v>
+        <v>100.58</v>
       </c>
       <c r="BN12" s="25">
-        <v>100.04</v>
+        <v>100.84</v>
       </c>
       <c r="BO12" s="25">
-        <v>100.46</v>
-      </c>
-      <c r="BP12" s="25"/>
-      <c r="BQ12" s="25"/>
+        <v>100.68</v>
+      </c>
+      <c r="BP12" s="25">
+        <v>100.51</v>
+      </c>
+      <c r="BQ12" s="25">
+        <v>100.91</v>
+      </c>
       <c r="BR12" s="25"/>
       <c r="BS12" s="25"/>
       <c r="BT12" s="25"/>
@@ -3152,10 +3180,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="25">
-        <v>87.91</v>
+        <v>87.9</v>
       </c>
       <c r="D13" s="25">
         <v>90.86</v>
@@ -3164,25 +3192,25 @@
         <v>93.67</v>
       </c>
       <c r="F13" s="25">
-        <v>95.14</v>
+        <v>95.13</v>
       </c>
       <c r="G13" s="25">
-        <v>96.01</v>
+        <v>96</v>
       </c>
       <c r="H13" s="25">
-        <v>97.43</v>
+        <v>97.42</v>
       </c>
       <c r="I13" s="25">
-        <v>98.01</v>
+        <v>98</v>
       </c>
       <c r="J13" s="25">
-        <v>98.5</v>
+        <v>98.49</v>
       </c>
       <c r="K13" s="25">
         <v>99.04</v>
       </c>
       <c r="L13" s="25">
-        <v>100.01</v>
+        <v>100.02</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
@@ -3194,163 +3222,167 @@
         <v>93.75</v>
       </c>
       <c r="P13" s="25">
-        <v>90.45</v>
+        <v>90.53</v>
       </c>
       <c r="Q13" s="25">
-        <v>88.81</v>
+        <v>88.94</v>
       </c>
       <c r="R13" s="25">
-        <v>88.61</v>
+        <v>88.74</v>
       </c>
       <c r="S13" s="25">
-        <v>89.38</v>
+        <v>89.52</v>
       </c>
       <c r="T13" s="25">
-        <v>90.56</v>
+        <v>90.69</v>
       </c>
       <c r="U13" s="25">
-        <v>91.63</v>
+        <v>91.76</v>
       </c>
       <c r="V13" s="25">
-        <v>92.28</v>
+        <v>92.41</v>
       </c>
       <c r="W13" s="25">
-        <v>92.73</v>
+        <v>92.86</v>
       </c>
       <c r="X13" s="25">
-        <v>93.32</v>
+        <v>93.45</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.7</v>
+        <v>94.83</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.45</v>
+        <v>95.58</v>
       </c>
       <c r="AA13" s="25">
-        <v>96.02</v>
+        <v>96.15</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.87</v>
+        <v>97.02</v>
       </c>
       <c r="AC13" s="25">
-        <v>98.8</v>
+        <v>99.1</v>
       </c>
       <c r="AD13" s="25">
-        <v>98.96</v>
+        <v>99.3</v>
       </c>
       <c r="AE13" s="25">
-        <v>98.66</v>
+        <v>98.99</v>
       </c>
       <c r="AF13" s="25">
-        <v>98.8</v>
+        <v>99.14</v>
       </c>
       <c r="AG13" s="25">
-        <v>98.65</v>
+        <v>98.97</v>
       </c>
       <c r="AH13" s="25">
-        <v>97.86</v>
+        <v>98.18</v>
       </c>
       <c r="AI13" s="25">
-        <v>97.22</v>
+        <v>97.54</v>
       </c>
       <c r="AJ13" s="25">
-        <v>96.88</v>
+        <v>97.21</v>
       </c>
       <c r="AK13" s="25">
-        <v>97.17</v>
+        <v>97.5</v>
       </c>
       <c r="AL13" s="25">
-        <v>97.37</v>
+        <v>97.89</v>
       </c>
       <c r="AM13" s="25">
-        <v>97.84</v>
+        <v>98.44</v>
       </c>
       <c r="AN13" s="25">
-        <v>98.03</v>
+        <v>98.64</v>
       </c>
       <c r="AO13" s="25">
-        <v>98.02</v>
+        <v>98.63</v>
       </c>
       <c r="AP13" s="25">
-        <v>97.35</v>
+        <v>98</v>
       </c>
       <c r="AQ13" s="25">
-        <v>97.62</v>
+        <v>98.3</v>
       </c>
       <c r="AR13" s="25">
-        <v>98.36</v>
+        <v>99.05</v>
       </c>
       <c r="AS13" s="25">
-        <v>98.77</v>
+        <v>99.47</v>
       </c>
       <c r="AT13" s="25">
-        <v>99.79</v>
+        <v>100.43</v>
       </c>
       <c r="AU13" s="25">
-        <v>100.75</v>
+        <v>101.34</v>
       </c>
       <c r="AV13" s="25">
-        <v>101.94</v>
+        <v>102.52</v>
       </c>
       <c r="AW13" s="25">
-        <v>102.72</v>
+        <v>103.33</v>
       </c>
       <c r="AX13" s="25">
-        <v>103.41</v>
+        <v>104.04</v>
       </c>
       <c r="AY13" s="25">
-        <v>103.94</v>
+        <v>104.61</v>
       </c>
       <c r="AZ13" s="25">
-        <v>104.3</v>
+        <v>105.02</v>
       </c>
       <c r="BA13" s="25">
-        <v>103.54</v>
+        <v>104.28</v>
       </c>
       <c r="BB13" s="25">
-        <v>98.84</v>
+        <v>99.63</v>
       </c>
       <c r="BC13" s="25">
-        <v>94.21</v>
+        <v>95.36</v>
       </c>
       <c r="BD13" s="25">
-        <v>94.14</v>
+        <v>96.76</v>
       </c>
       <c r="BE13" s="25">
-        <v>97.03</v>
+        <v>99.94</v>
       </c>
       <c r="BF13" s="25">
-        <v>98.48</v>
+        <v>101.12</v>
       </c>
       <c r="BG13" s="25">
-        <v>98.82</v>
+        <v>101.56</v>
       </c>
       <c r="BH13" s="25">
-        <v>100.05</v>
+        <v>102.07</v>
       </c>
       <c r="BI13" s="25">
-        <v>99.84</v>
+        <v>102.06</v>
       </c>
       <c r="BJ13" s="25">
-        <v>99.37</v>
+        <v>101.84</v>
       </c>
       <c r="BK13" s="25">
-        <v>99.51</v>
+        <v>102.37</v>
       </c>
       <c r="BL13" s="25">
-        <v>99.39</v>
+        <v>103.19</v>
       </c>
       <c r="BM13" s="25">
-        <v>98.72</v>
+        <v>102.76</v>
       </c>
       <c r="BN13" s="25">
-        <v>97.88</v>
+        <v>102.8</v>
       </c>
       <c r="BO13" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="BP13" s="25"/>
-      <c r="BQ13" s="25"/>
+        <v>102.81</v>
+      </c>
+      <c r="BP13" s="25">
+        <v>100.57</v>
+      </c>
+      <c r="BQ13" s="25">
+        <v>97.53</v>
+      </c>
       <c r="BR13" s="25"/>
       <c r="BS13" s="25"/>
       <c r="BT13" s="25"/>
@@ -3369,28 +3401,28 @@
         <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.88</v>
+        <v>90.9</v>
       </c>
       <c r="D14" s="25">
-        <v>93.67</v>
+        <v>93.7</v>
       </c>
       <c r="E14" s="25">
-        <v>95.99</v>
+        <v>96</v>
       </c>
       <c r="F14" s="25">
-        <v>97.08</v>
+        <v>97.09</v>
       </c>
       <c r="G14" s="25">
-        <v>97.78</v>
+        <v>97.79</v>
       </c>
       <c r="H14" s="25">
         <v>99.33</v>
       </c>
       <c r="I14" s="25">
-        <v>99.47</v>
+        <v>99.48</v>
       </c>
       <c r="J14" s="25">
-        <v>100.08</v>
+        <v>100.09</v>
       </c>
       <c r="K14" s="25">
         <v>100.2</v>
@@ -3408,64 +3440,64 @@
         <v>93.17</v>
       </c>
       <c r="P14" s="25">
-        <v>89.69</v>
+        <v>89.68</v>
       </c>
       <c r="Q14" s="25">
-        <v>88.39</v>
+        <v>88.37</v>
       </c>
       <c r="R14" s="25">
-        <v>87.79</v>
+        <v>87.77</v>
       </c>
       <c r="S14" s="25">
-        <v>88.51</v>
+        <v>88.49</v>
       </c>
       <c r="T14" s="25">
-        <v>89.34</v>
+        <v>89.33</v>
       </c>
       <c r="U14" s="25">
-        <v>89.66</v>
+        <v>89.63</v>
       </c>
       <c r="V14" s="25">
-        <v>90.21</v>
+        <v>90.18</v>
       </c>
       <c r="W14" s="25">
-        <v>90.43</v>
+        <v>90.4</v>
       </c>
       <c r="X14" s="25">
-        <v>90.97</v>
+        <v>90.93</v>
       </c>
       <c r="Y14" s="25">
-        <v>91.55</v>
+        <v>91.51</v>
       </c>
       <c r="Z14" s="25">
-        <v>92.33</v>
+        <v>92.29</v>
       </c>
       <c r="AA14" s="25">
-        <v>92.41</v>
+        <v>92.37</v>
       </c>
       <c r="AB14" s="25">
-        <v>92.1</v>
+        <v>92.06</v>
       </c>
       <c r="AC14" s="25">
-        <v>92.34</v>
+        <v>92.32</v>
       </c>
       <c r="AD14" s="25">
-        <v>91.34</v>
+        <v>91.32</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.9</v>
+        <v>90.88</v>
       </c>
       <c r="AF14" s="25">
-        <v>91.66</v>
+        <v>91.65</v>
       </c>
       <c r="AG14" s="25">
-        <v>91.69</v>
+        <v>91.68</v>
       </c>
       <c r="AH14" s="25">
-        <v>90.64</v>
+        <v>90.63</v>
       </c>
       <c r="AI14" s="25">
-        <v>89.87</v>
+        <v>89.85</v>
       </c>
       <c r="AJ14" s="25">
         <v>89.43</v>
@@ -3474,97 +3506,101 @@
         <v>89.59</v>
       </c>
       <c r="AL14" s="25">
-        <v>90.1</v>
+        <v>90.22</v>
       </c>
       <c r="AM14" s="25">
-        <v>90.78</v>
+        <v>90.95</v>
       </c>
       <c r="AN14" s="25">
-        <v>91.08</v>
+        <v>91.17</v>
       </c>
       <c r="AO14" s="25">
-        <v>90.94</v>
+        <v>91.02</v>
       </c>
       <c r="AP14" s="25">
-        <v>90.06</v>
+        <v>90.24</v>
       </c>
       <c r="AQ14" s="25">
-        <v>90.22</v>
+        <v>90.45</v>
       </c>
       <c r="AR14" s="25">
-        <v>91.63</v>
+        <v>91.86</v>
       </c>
       <c r="AS14" s="25">
-        <v>92.3</v>
+        <v>92.53</v>
       </c>
       <c r="AT14" s="25">
-        <v>93.12</v>
+        <v>93.33</v>
       </c>
       <c r="AU14" s="25">
-        <v>93.84</v>
+        <v>94.06</v>
       </c>
       <c r="AV14" s="25">
-        <v>94.94</v>
+        <v>95.17</v>
       </c>
       <c r="AW14" s="25">
-        <v>95.31</v>
+        <v>95.52</v>
       </c>
       <c r="AX14" s="25">
-        <v>96.1</v>
+        <v>96.32</v>
       </c>
       <c r="AY14" s="25">
-        <v>96.46</v>
+        <v>96.71</v>
       </c>
       <c r="AZ14" s="25">
-        <v>96.78</v>
+        <v>97.05</v>
       </c>
       <c r="BA14" s="25">
-        <v>96</v>
+        <v>96.27</v>
       </c>
       <c r="BB14" s="25">
-        <v>91.49</v>
+        <v>91.81</v>
       </c>
       <c r="BC14" s="25">
-        <v>88.93</v>
+        <v>89.31</v>
       </c>
       <c r="BD14" s="25">
-        <v>89.65</v>
+        <v>90.75</v>
       </c>
       <c r="BE14" s="25">
-        <v>92.02</v>
+        <v>93.31</v>
       </c>
       <c r="BF14" s="25">
-        <v>93.28</v>
+        <v>94.39</v>
       </c>
       <c r="BG14" s="25">
-        <v>93.92</v>
+        <v>95.05</v>
       </c>
       <c r="BH14" s="25">
-        <v>95.54</v>
+        <v>96.48</v>
       </c>
       <c r="BI14" s="25">
-        <v>95.74</v>
+        <v>96.77</v>
       </c>
       <c r="BJ14" s="25">
-        <v>95.78</v>
+        <v>96.93</v>
       </c>
       <c r="BK14" s="25">
-        <v>96.39</v>
+        <v>97.65</v>
       </c>
       <c r="BL14" s="25">
-        <v>96.67</v>
+        <v>98.27</v>
       </c>
       <c r="BM14" s="25">
-        <v>97.15</v>
+        <v>98.62</v>
       </c>
       <c r="BN14" s="25">
-        <v>97.17</v>
+        <v>99.09</v>
       </c>
       <c r="BO14" s="25">
-        <v>97.21</v>
-      </c>
-      <c r="BP14" s="25"/>
-      <c r="BQ14" s="25"/>
+        <v>99.24</v>
+      </c>
+      <c r="BP14" s="25">
+        <v>98.24</v>
+      </c>
+      <c r="BQ14" s="25">
+        <v>97.13</v>
+      </c>
       <c r="BR14" s="25"/>
       <c r="BS14" s="25"/>
       <c r="BT14" s="25"/>
@@ -3580,10 +3616,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="25">
-        <v>96.24</v>
+        <v>96.23</v>
       </c>
       <c r="D15" s="25">
         <v>96.75</v>
@@ -3643,7 +3679,7 @@
         <v>94.55</v>
       </c>
       <c r="W15" s="25">
-        <v>94.73</v>
+        <v>94.72</v>
       </c>
       <c r="X15" s="25">
         <v>95.47</v>
@@ -3655,7 +3691,7 @@
         <v>97.66</v>
       </c>
       <c r="AA15" s="25">
-        <v>97.57</v>
+        <v>97.56</v>
       </c>
       <c r="AB15" s="25">
         <v>95.19</v>
@@ -3667,7 +3703,7 @@
         <v>97.34</v>
       </c>
       <c r="AE15" s="25">
-        <v>97.4</v>
+        <v>97.41</v>
       </c>
       <c r="AF15" s="25">
         <v>96.74</v>
@@ -3682,103 +3718,107 @@
         <v>95.98</v>
       </c>
       <c r="AJ15" s="25">
-        <v>95.74</v>
+        <v>95.75</v>
       </c>
       <c r="AK15" s="25">
-        <v>95.88</v>
+        <v>95.9</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.87</v>
+        <v>96.01</v>
       </c>
       <c r="AM15" s="25">
+        <v>96.15</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>96.24</v>
+      </c>
+      <c r="AO15" s="25">
+        <v>96.08</v>
+      </c>
+      <c r="AP15" s="25">
+        <v>95.36</v>
+      </c>
+      <c r="AQ15" s="25">
         <v>95.96</v>
       </c>
-      <c r="AN15" s="25">
-        <v>95.97</v>
-      </c>
-      <c r="AO15" s="25">
-        <v>95.86</v>
-      </c>
-      <c r="AP15" s="25">
-        <v>95.18</v>
-      </c>
-      <c r="AQ15" s="25">
-        <v>95.76</v>
-      </c>
       <c r="AR15" s="25">
-        <v>95.77</v>
+        <v>95.96</v>
       </c>
       <c r="AS15" s="25">
-        <v>95.91</v>
+        <v>96.1</v>
       </c>
       <c r="AT15" s="25">
-        <v>96.88</v>
+        <v>97.05</v>
       </c>
       <c r="AU15" s="25">
-        <v>97.19</v>
+        <v>97.35</v>
       </c>
       <c r="AV15" s="25">
-        <v>97.88</v>
+        <v>98.09</v>
       </c>
       <c r="AW15" s="25">
-        <v>98.12</v>
+        <v>98.34</v>
       </c>
       <c r="AX15" s="25">
-        <v>98.45</v>
+        <v>98.68</v>
       </c>
       <c r="AY15" s="25">
-        <v>99.22</v>
+        <v>99.46</v>
       </c>
       <c r="AZ15" s="25">
-        <v>99.08</v>
+        <v>99.3</v>
       </c>
       <c r="BA15" s="25">
-        <v>98.71</v>
+        <v>98.91</v>
       </c>
       <c r="BB15" s="25">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="BC15" s="25">
-        <v>94.78</v>
+        <v>95.01</v>
       </c>
       <c r="BD15" s="25">
-        <v>94.5</v>
+        <v>95.26</v>
       </c>
       <c r="BE15" s="25">
-        <v>95.53</v>
+        <v>96.56</v>
       </c>
       <c r="BF15" s="25">
-        <v>96.16</v>
+        <v>97.13</v>
       </c>
       <c r="BG15" s="25">
-        <v>96.74</v>
+        <v>97.73</v>
       </c>
       <c r="BH15" s="25">
-        <v>97.55</v>
+        <v>98.46</v>
       </c>
       <c r="BI15" s="25">
-        <v>98.16</v>
+        <v>99.18</v>
       </c>
       <c r="BJ15" s="25">
-        <v>98.55</v>
+        <v>99.43</v>
       </c>
       <c r="BK15" s="25">
-        <v>99.11</v>
+        <v>99.81</v>
       </c>
       <c r="BL15" s="25">
-        <v>99.64</v>
+        <v>100.22</v>
       </c>
       <c r="BM15" s="25">
-        <v>100.56</v>
+        <v>100.83</v>
       </c>
       <c r="BN15" s="25">
-        <v>100.66</v>
+        <v>101.29</v>
       </c>
       <c r="BO15" s="25">
-        <v>101.44</v>
-      </c>
-      <c r="BP15" s="25"/>
-      <c r="BQ15" s="25"/>
+        <v>101.12</v>
+      </c>
+      <c r="BP15" s="25">
+        <v>100.83</v>
+      </c>
+      <c r="BQ15" s="25">
+        <v>100.86</v>
+      </c>
       <c r="BR15" s="25"/>
       <c r="BS15" s="25"/>
       <c r="BT15" s="25"/>
@@ -3794,7 +3834,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25">
         <v>87.23</v>
@@ -3803,7 +3843,7 @@
         <v>92.55</v>
       </c>
       <c r="E16" s="25">
-        <v>95.4</v>
+        <v>95.41</v>
       </c>
       <c r="F16" s="25">
         <v>96.42</v>
@@ -3815,7 +3855,7 @@
         <v>97.81</v>
       </c>
       <c r="I16" s="25">
-        <v>98.13</v>
+        <v>98.14</v>
       </c>
       <c r="J16" s="25">
         <v>98.68</v>
@@ -3830,169 +3870,173 @@
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>98.95</v>
+        <v>98.94</v>
       </c>
       <c r="O16" s="25">
-        <v>94.17</v>
+        <v>94.16</v>
       </c>
       <c r="P16" s="25">
-        <v>90.79</v>
+        <v>90.81</v>
       </c>
       <c r="Q16" s="25">
-        <v>88.78</v>
+        <v>88.83</v>
       </c>
       <c r="R16" s="25">
-        <v>88.75</v>
+        <v>88.81</v>
       </c>
       <c r="S16" s="25">
-        <v>89.73</v>
+        <v>89.78</v>
       </c>
       <c r="T16" s="25">
-        <v>90.86</v>
+        <v>90.92</v>
       </c>
       <c r="U16" s="25">
-        <v>92.15</v>
+        <v>92.21</v>
       </c>
       <c r="V16" s="25">
-        <v>93.15</v>
+        <v>93.21</v>
       </c>
       <c r="W16" s="25">
-        <v>93.81</v>
+        <v>93.87</v>
       </c>
       <c r="X16" s="25">
-        <v>94.09</v>
+        <v>94.14</v>
       </c>
       <c r="Y16" s="25">
-        <v>95.27</v>
+        <v>95.32</v>
       </c>
       <c r="Z16" s="25">
-        <v>96.1</v>
+        <v>96.15</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.8</v>
+        <v>96.85</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.91</v>
+        <v>97.97</v>
       </c>
       <c r="AC16" s="25">
-        <v>99.93</v>
+        <v>100.07</v>
       </c>
       <c r="AD16" s="25">
-        <v>100.95</v>
+        <v>101.13</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.59</v>
+        <v>101.77</v>
       </c>
       <c r="AF16" s="25">
-        <v>102.07</v>
+        <v>102.24</v>
       </c>
       <c r="AG16" s="25">
-        <v>102.4</v>
+        <v>102.58</v>
       </c>
       <c r="AH16" s="25">
-        <v>102.81</v>
+        <v>102.98</v>
       </c>
       <c r="AI16" s="25">
-        <v>102.96</v>
+        <v>103.14</v>
       </c>
       <c r="AJ16" s="25">
-        <v>103.31</v>
+        <v>103.5</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.54</v>
+        <v>103.74</v>
       </c>
       <c r="AL16" s="25">
-        <v>103.74</v>
+        <v>104.06</v>
       </c>
       <c r="AM16" s="25">
+        <v>104.95</v>
+      </c>
+      <c r="AN16" s="25">
+        <v>104.99</v>
+      </c>
+      <c r="AO16" s="25">
+        <v>104.45</v>
+      </c>
+      <c r="AP16" s="25">
+        <v>103.4</v>
+      </c>
+      <c r="AQ16" s="25">
+        <v>103.73</v>
+      </c>
+      <c r="AR16" s="25">
+        <v>104.3</v>
+      </c>
+      <c r="AS16" s="25">
+        <v>104.61</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>104.73</v>
+      </c>
+      <c r="AU16" s="25">
+        <v>104.97</v>
+      </c>
+      <c r="AV16" s="25">
+        <v>105.5</v>
+      </c>
+      <c r="AW16" s="25">
+        <v>105.78</v>
+      </c>
+      <c r="AX16" s="25">
+        <v>106.04</v>
+      </c>
+      <c r="AY16" s="25">
+        <v>106.35</v>
+      </c>
+      <c r="AZ16" s="25">
+        <v>106.22</v>
+      </c>
+      <c r="BA16" s="25">
         <v>104.57</v>
       </c>
-      <c r="AN16" s="25">
-        <v>104.61</v>
-      </c>
-      <c r="AO16" s="25">
-        <v>104.05</v>
-      </c>
-      <c r="AP16" s="25">
-        <v>102.99</v>
-      </c>
-      <c r="AQ16" s="25">
-        <v>103.27</v>
-      </c>
-      <c r="AR16" s="25">
-        <v>103.85</v>
-      </c>
-      <c r="AS16" s="25">
-        <v>104.15</v>
-      </c>
-      <c r="AT16" s="25">
-        <v>104.31</v>
-      </c>
-      <c r="AU16" s="25">
-        <v>104.62</v>
-      </c>
-      <c r="AV16" s="25">
-        <v>105.14</v>
-      </c>
-      <c r="AW16" s="25">
-        <v>105.41</v>
-      </c>
-      <c r="AX16" s="25">
-        <v>105.65</v>
-      </c>
-      <c r="AY16" s="25">
-        <v>105.94</v>
-      </c>
-      <c r="AZ16" s="25">
-        <v>105.8</v>
-      </c>
-      <c r="BA16" s="25">
-        <v>104.13</v>
-      </c>
       <c r="BB16" s="25">
-        <v>97.65</v>
+        <v>98.13</v>
       </c>
       <c r="BC16" s="25">
-        <v>92.3</v>
+        <v>93.05</v>
       </c>
       <c r="BD16" s="25">
-        <v>95.51</v>
+        <v>97.17</v>
       </c>
       <c r="BE16" s="25">
-        <v>99.71</v>
+        <v>101.61</v>
       </c>
       <c r="BF16" s="25">
-        <v>101.27</v>
+        <v>103.17</v>
       </c>
       <c r="BG16" s="25">
-        <v>101.49</v>
+        <v>103.53</v>
       </c>
       <c r="BH16" s="25">
-        <v>102.16</v>
+        <v>103.78</v>
       </c>
       <c r="BI16" s="25">
-        <v>102.4</v>
+        <v>104.16</v>
       </c>
       <c r="BJ16" s="25">
-        <v>102.07</v>
+        <v>103.99</v>
       </c>
       <c r="BK16" s="25">
-        <v>101.67</v>
+        <v>104.03</v>
       </c>
       <c r="BL16" s="25">
-        <v>101.37</v>
+        <v>104.8</v>
       </c>
       <c r="BM16" s="25">
-        <v>100.86</v>
+        <v>104.38</v>
       </c>
       <c r="BN16" s="25">
-        <v>99.85</v>
+        <v>104.08</v>
       </c>
       <c r="BO16" s="25">
-        <v>99.93</v>
-      </c>
-      <c r="BP16" s="25"/>
-      <c r="BQ16" s="25"/>
+        <v>104.08</v>
+      </c>
+      <c r="BP16" s="25">
+        <v>101.35</v>
+      </c>
+      <c r="BQ16" s="25">
+        <v>99.47</v>
+      </c>
       <c r="BR16" s="25"/>
       <c r="BS16" s="25"/>
       <c r="BT16" s="25"/>
@@ -4011,34 +4055,34 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>92.81</v>
+        <v>92.83</v>
       </c>
       <c r="D17" s="25">
-        <v>96.12</v>
+        <v>96.14</v>
       </c>
       <c r="E17" s="25">
-        <v>98.11</v>
+        <v>98.13</v>
       </c>
       <c r="F17" s="25">
-        <v>98.77</v>
+        <v>98.8</v>
       </c>
       <c r="G17" s="25">
-        <v>99.09</v>
+        <v>99.1</v>
       </c>
       <c r="H17" s="25">
-        <v>99.33</v>
+        <v>99.34</v>
       </c>
       <c r="I17" s="25">
         <v>99.83</v>
       </c>
       <c r="J17" s="25">
-        <v>99.95</v>
+        <v>99.97</v>
       </c>
       <c r="K17" s="25">
-        <v>100.3</v>
+        <v>100.31</v>
       </c>
       <c r="L17" s="25">
-        <v>100.23</v>
+        <v>100.25</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
@@ -4047,166 +4091,170 @@
         <v>98.39</v>
       </c>
       <c r="O17" s="25">
-        <v>92.85</v>
+        <v>92.84</v>
       </c>
       <c r="P17" s="25">
-        <v>89.39</v>
+        <v>89.37</v>
       </c>
       <c r="Q17" s="25">
-        <v>87.62</v>
+        <v>87.59</v>
       </c>
       <c r="R17" s="25">
-        <v>87.71</v>
+        <v>87.67</v>
       </c>
       <c r="S17" s="25">
-        <v>89.09</v>
+        <v>89.06</v>
       </c>
       <c r="T17" s="25">
-        <v>89.55</v>
+        <v>89.52</v>
       </c>
       <c r="U17" s="25">
-        <v>90.36</v>
+        <v>90.32</v>
       </c>
       <c r="V17" s="25">
-        <v>90.94</v>
+        <v>90.89</v>
       </c>
       <c r="W17" s="25">
-        <v>91.12</v>
+        <v>91.08</v>
       </c>
       <c r="X17" s="25">
-        <v>91.47</v>
+        <v>91.42</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.55</v>
+        <v>92.49</v>
       </c>
       <c r="Z17" s="25">
-        <v>93.49</v>
+        <v>93.44</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.96</v>
+        <v>93.9</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.68</v>
+        <v>93.61</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.22</v>
+        <v>94.15</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.23</v>
+        <v>95.18</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.97</v>
+        <v>95.92</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.34</v>
+        <v>96.28</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.42</v>
+        <v>96.36</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.53</v>
+        <v>96.47</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.66</v>
+        <v>96.59</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.91</v>
+        <v>96.85</v>
       </c>
       <c r="AK17" s="25">
+        <v>96.98</v>
+      </c>
+      <c r="AL17" s="25">
+        <v>97.37</v>
+      </c>
+      <c r="AM17" s="25">
+        <v>98.37</v>
+      </c>
+      <c r="AN17" s="25">
+        <v>98.44</v>
+      </c>
+      <c r="AO17" s="25">
+        <v>97.82</v>
+      </c>
+      <c r="AP17" s="25">
         <v>97.04</v>
       </c>
-      <c r="AL17" s="25">
-        <v>97.35</v>
-      </c>
-      <c r="AM17" s="25">
-        <v>98.32</v>
-      </c>
-      <c r="AN17" s="25">
-        <v>98.39</v>
-      </c>
-      <c r="AO17" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="AP17" s="25">
-        <v>96.97</v>
-      </c>
       <c r="AQ17" s="25">
-        <v>97.4</v>
+        <v>97.49</v>
       </c>
       <c r="AR17" s="25">
-        <v>98.19</v>
+        <v>98.28</v>
       </c>
       <c r="AS17" s="25">
-        <v>98.51</v>
+        <v>98.59</v>
       </c>
       <c r="AT17" s="25">
-        <v>98.3</v>
+        <v>98.36</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.84</v>
+        <v>98.9</v>
       </c>
       <c r="AV17" s="25">
-        <v>99.26</v>
+        <v>99.32</v>
       </c>
       <c r="AW17" s="25">
+        <v>99.6</v>
+      </c>
+      <c r="AX17" s="25">
+        <v>99.5</v>
+      </c>
+      <c r="AY17" s="25">
+        <v>99.83</v>
+      </c>
+      <c r="AZ17" s="25">
         <v>99.56</v>
       </c>
-      <c r="AX17" s="25">
-        <v>99.45</v>
-      </c>
-      <c r="AY17" s="25">
-        <v>99.78</v>
-      </c>
-      <c r="AZ17" s="25">
-        <v>99.52</v>
-      </c>
       <c r="BA17" s="25">
-        <v>98.06</v>
+        <v>98.11</v>
       </c>
       <c r="BB17" s="25">
-        <v>93.24</v>
+        <v>93.3</v>
       </c>
       <c r="BC17" s="25">
-        <v>90.54</v>
+        <v>90.68</v>
       </c>
       <c r="BD17" s="25">
-        <v>93.12</v>
+        <v>93.74</v>
       </c>
       <c r="BE17" s="25">
-        <v>95.71</v>
+        <v>96.51</v>
       </c>
       <c r="BF17" s="25">
-        <v>97.14</v>
+        <v>97.95</v>
       </c>
       <c r="BG17" s="25">
-        <v>97.68</v>
+        <v>98.57</v>
       </c>
       <c r="BH17" s="25">
-        <v>98.17</v>
+        <v>98.99</v>
       </c>
       <c r="BI17" s="25">
-        <v>98.56</v>
+        <v>99.46</v>
       </c>
       <c r="BJ17" s="25">
-        <v>97.9</v>
+        <v>99.01</v>
       </c>
       <c r="BK17" s="25">
-        <v>98.38</v>
+        <v>99.65</v>
       </c>
       <c r="BL17" s="25">
-        <v>98.46</v>
+        <v>100.11</v>
       </c>
       <c r="BM17" s="25">
-        <v>98.6</v>
+        <v>100.06</v>
       </c>
       <c r="BN17" s="25">
-        <v>98.57</v>
+        <v>100.34</v>
       </c>
       <c r="BO17" s="25">
-        <v>98.55</v>
-      </c>
-      <c r="BP17" s="25"/>
-      <c r="BQ17" s="25"/>
+        <v>100.56</v>
+      </c>
+      <c r="BP17" s="25">
+        <v>99.36</v>
+      </c>
+      <c r="BQ17" s="25">
+        <v>99.12</v>
+      </c>
       <c r="BR17" s="25"/>
       <c r="BS17" s="25"/>
       <c r="BT17" s="25"/>
@@ -4222,13 +4270,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="25">
-        <v>96.84</v>
+        <v>96.83</v>
       </c>
       <c r="D18" s="25">
-        <v>97.37</v>
+        <v>97.36</v>
       </c>
       <c r="E18" s="25">
         <v>97.92</v>
@@ -4282,16 +4330,16 @@
         <v>95.75</v>
       </c>
       <c r="V18" s="25">
-        <v>96.15</v>
+        <v>96.16</v>
       </c>
       <c r="W18" s="25">
         <v>96.09</v>
       </c>
       <c r="X18" s="25">
-        <v>96.31</v>
+        <v>96.32</v>
       </c>
       <c r="Y18" s="25">
-        <v>96.86</v>
+        <v>96.87</v>
       </c>
       <c r="Z18" s="25">
         <v>97.08</v>
@@ -4303,124 +4351,128 @@
         <v>95.4</v>
       </c>
       <c r="AC18" s="25">
-        <v>95.85</v>
+        <v>95.86</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.22</v>
+        <v>97.24</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.43</v>
+        <v>97.45</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.64</v>
+        <v>97.67</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.22</v>
+        <v>97.25</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.5</v>
+        <v>97.51</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.27</v>
+        <v>97.28</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.64</v>
+        <v>97.67</v>
       </c>
       <c r="AK18" s="25">
-        <v>97.23</v>
+        <v>97.26</v>
       </c>
       <c r="AL18" s="25">
+        <v>97.63</v>
+      </c>
+      <c r="AM18" s="25">
+        <v>97.92</v>
+      </c>
+      <c r="AN18" s="25">
+        <v>98.23</v>
+      </c>
+      <c r="AO18" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="AP18" s="25">
+        <v>96.74</v>
+      </c>
+      <c r="AQ18" s="25">
+        <v>97</v>
+      </c>
+      <c r="AR18" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>97.4</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>97.4</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>97.46</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>98.21</v>
+      </c>
+      <c r="AW18" s="25">
+        <v>98.14</v>
+      </c>
+      <c r="AX18" s="25">
+        <v>98.24</v>
+      </c>
+      <c r="AY18" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="AZ18" s="25">
+        <v>98.29</v>
+      </c>
+      <c r="BA18" s="25">
         <v>97.52</v>
       </c>
-      <c r="AM18" s="25">
-        <v>97.78</v>
-      </c>
-      <c r="AN18" s="25">
-        <v>98.08</v>
-      </c>
-      <c r="AO18" s="25">
+      <c r="BB18" s="25">
+        <v>94.59</v>
+      </c>
+      <c r="BC18" s="25">
+        <v>92.82</v>
+      </c>
+      <c r="BD18" s="25">
+        <v>93.27</v>
+      </c>
+      <c r="BE18" s="25">
+        <v>94.6</v>
+      </c>
+      <c r="BF18" s="25">
+        <v>95.24</v>
+      </c>
+      <c r="BG18" s="25">
+        <v>95.68</v>
+      </c>
+      <c r="BH18" s="25">
+        <v>95.99</v>
+      </c>
+      <c r="BI18" s="25">
+        <v>96.83</v>
+      </c>
+      <c r="BJ18" s="25">
+        <v>97.12</v>
+      </c>
+      <c r="BK18" s="25">
         <v>97.28</v>
       </c>
-      <c r="AP18" s="25">
-        <v>96.6</v>
-      </c>
-      <c r="AQ18" s="25">
-        <v>96.79</v>
-      </c>
-      <c r="AR18" s="25">
-        <v>97.39</v>
-      </c>
-      <c r="AS18" s="25">
-        <v>97.24</v>
-      </c>
-      <c r="AT18" s="25">
-        <v>97.26</v>
-      </c>
-      <c r="AU18" s="25">
-        <v>97.34</v>
-      </c>
-      <c r="AV18" s="25">
-        <v>98.09</v>
-      </c>
-      <c r="AW18" s="25">
-        <v>98.01</v>
-      </c>
-      <c r="AX18" s="25">
-        <v>98.11</v>
-      </c>
-      <c r="AY18" s="25">
-        <v>98.27</v>
-      </c>
-      <c r="AZ18" s="25">
-        <v>98.15</v>
-      </c>
-      <c r="BA18" s="25">
-        <v>97.39</v>
-      </c>
-      <c r="BB18" s="25">
-        <v>94.45</v>
-      </c>
-      <c r="BC18" s="25">
-        <v>92.64</v>
-      </c>
-      <c r="BD18" s="25">
-        <v>92.74</v>
-      </c>
-      <c r="BE18" s="25">
-        <v>93.84</v>
-      </c>
-      <c r="BF18" s="25">
-        <v>94.44</v>
-      </c>
-      <c r="BG18" s="25">
-        <v>94.79</v>
-      </c>
-      <c r="BH18" s="25">
-        <v>95.18</v>
-      </c>
-      <c r="BI18" s="25">
-        <v>96.03</v>
-      </c>
-      <c r="BJ18" s="25">
-        <v>96.28</v>
-      </c>
-      <c r="BK18" s="25">
-        <v>96.47</v>
-      </c>
       <c r="BL18" s="25">
-        <v>97.12</v>
+        <v>98</v>
       </c>
       <c r="BM18" s="25">
-        <v>97.56</v>
+        <v>98.06</v>
       </c>
       <c r="BN18" s="25">
-        <v>98.04</v>
+        <v>98.68</v>
       </c>
       <c r="BO18" s="25">
-        <v>98.68</v>
-      </c>
-      <c r="BP18" s="25"/>
-      <c r="BQ18" s="25"/>
+        <v>98.26</v>
+      </c>
+      <c r="BP18" s="25">
+        <v>98.22</v>
+      </c>
+      <c r="BQ18" s="25">
+        <v>98.51</v>
+      </c>
       <c r="BR18" s="25"/>
       <c r="BS18" s="25"/>
       <c r="BT18" s="25"/>
@@ -4436,16 +4488,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="25">
-        <v>87.99</v>
+        <v>88</v>
       </c>
       <c r="D19" s="25">
-        <v>93.06</v>
+        <v>93.07</v>
       </c>
       <c r="E19" s="25">
-        <v>95.54</v>
+        <v>95.57</v>
       </c>
       <c r="F19" s="25">
         <v>96.47</v>
@@ -4454,187 +4506,191 @@
         <v>96.88</v>
       </c>
       <c r="H19" s="25">
-        <v>97.96</v>
+        <v>97.95</v>
       </c>
       <c r="I19" s="25">
-        <v>98.76</v>
+        <v>98.75</v>
       </c>
       <c r="J19" s="25">
-        <v>98.98</v>
+        <v>98.97</v>
       </c>
       <c r="K19" s="25">
-        <v>99.43</v>
+        <v>99.42</v>
       </c>
       <c r="L19" s="25">
-        <v>100.13</v>
+        <v>100.12</v>
       </c>
       <c r="M19" s="25">
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>98.77</v>
+        <v>98.78</v>
       </c>
       <c r="O19" s="25">
-        <v>93.08</v>
+        <v>93.09</v>
       </c>
       <c r="P19" s="25">
-        <v>90.62</v>
+        <v>90.69</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.25</v>
+        <v>89.35</v>
       </c>
       <c r="R19" s="25">
-        <v>89.08</v>
+        <v>89.16</v>
       </c>
       <c r="S19" s="25">
-        <v>90</v>
+        <v>90.08</v>
       </c>
       <c r="T19" s="25">
-        <v>91.12</v>
+        <v>91.2</v>
       </c>
       <c r="U19" s="25">
-        <v>92.44</v>
+        <v>92.52</v>
       </c>
       <c r="V19" s="25">
-        <v>93.17</v>
+        <v>93.26</v>
       </c>
       <c r="W19" s="25">
-        <v>93.69</v>
+        <v>93.77</v>
       </c>
       <c r="X19" s="25">
-        <v>94.26</v>
+        <v>94.33</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.76</v>
+        <v>95.82</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.61</v>
+        <v>96.67</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.26</v>
+        <v>97.31</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.17</v>
+        <v>98.23</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.6</v>
+        <v>99.77</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.59</v>
+        <v>100.78</v>
       </c>
       <c r="AE19" s="25">
-        <v>100.95</v>
+        <v>101.14</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.43</v>
+        <v>101.62</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.81</v>
+        <v>102</v>
       </c>
       <c r="AH19" s="25">
-        <v>102.22</v>
+        <v>102.42</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.61</v>
+        <v>102.8</v>
       </c>
       <c r="AJ19" s="25">
-        <v>102.98</v>
+        <v>103.18</v>
       </c>
       <c r="AK19" s="25">
-        <v>103.51</v>
+        <v>103.72</v>
       </c>
       <c r="AL19" s="25">
-        <v>103.83</v>
+        <v>104.14</v>
       </c>
       <c r="AM19" s="25">
-        <v>104.25</v>
+        <v>104.62</v>
       </c>
       <c r="AN19" s="25">
-        <v>104.22</v>
+        <v>104.61</v>
       </c>
       <c r="AO19" s="25">
-        <v>104.13</v>
+        <v>104.54</v>
       </c>
       <c r="AP19" s="25">
-        <v>103.29</v>
+        <v>103.73</v>
       </c>
       <c r="AQ19" s="25">
-        <v>103.3</v>
+        <v>103.76</v>
       </c>
       <c r="AR19" s="25">
-        <v>104.38</v>
+        <v>104.79</v>
       </c>
       <c r="AS19" s="25">
-        <v>104.72</v>
+        <v>105.14</v>
       </c>
       <c r="AT19" s="25">
-        <v>104.72</v>
+        <v>105.1</v>
       </c>
       <c r="AU19" s="25">
-        <v>104.84</v>
+        <v>105.2</v>
       </c>
       <c r="AV19" s="25">
-        <v>105.25</v>
+        <v>105.61</v>
       </c>
       <c r="AW19" s="25">
-        <v>103.54</v>
+        <v>103.91</v>
       </c>
       <c r="AX19" s="25">
-        <v>104.79</v>
+        <v>105.15</v>
       </c>
       <c r="AY19" s="25">
-        <v>106.05</v>
+        <v>106.41</v>
       </c>
       <c r="AZ19" s="25">
-        <v>106.52</v>
+        <v>106.9</v>
       </c>
       <c r="BA19" s="25">
-        <v>105.33</v>
+        <v>105.72</v>
       </c>
       <c r="BB19" s="25">
-        <v>100.16</v>
+        <v>100.58</v>
       </c>
       <c r="BC19" s="25">
-        <v>95.16</v>
+        <v>95.85</v>
       </c>
       <c r="BD19" s="25">
-        <v>97.74</v>
+        <v>99.35</v>
       </c>
       <c r="BE19" s="25">
-        <v>100.79</v>
+        <v>102.71</v>
       </c>
       <c r="BF19" s="25">
-        <v>101.74</v>
+        <v>103.65</v>
       </c>
       <c r="BG19" s="25">
-        <v>101.82</v>
+        <v>103.9</v>
       </c>
       <c r="BH19" s="25">
-        <v>102.88</v>
+        <v>104.61</v>
       </c>
       <c r="BI19" s="25">
-        <v>103.08</v>
+        <v>104.91</v>
       </c>
       <c r="BJ19" s="25">
-        <v>102.91</v>
+        <v>104.87</v>
       </c>
       <c r="BK19" s="25">
-        <v>102.77</v>
+        <v>105.15</v>
       </c>
       <c r="BL19" s="25">
-        <v>102.77</v>
+        <v>105.85</v>
       </c>
       <c r="BM19" s="25">
-        <v>102.6</v>
+        <v>105.56</v>
       </c>
       <c r="BN19" s="25">
-        <v>102</v>
+        <v>105.71</v>
       </c>
       <c r="BO19" s="25">
-        <v>102.11</v>
-      </c>
-      <c r="BP19" s="25"/>
-      <c r="BQ19" s="25"/>
+        <v>105.86</v>
+      </c>
+      <c r="BP19" s="25">
+        <v>103.86</v>
+      </c>
+      <c r="BQ19" s="25">
+        <v>102.26</v>
+      </c>
       <c r="BR19" s="25"/>
       <c r="BS19" s="25"/>
       <c r="BT19" s="25"/>
@@ -4653,7 +4709,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>92.45</v>
+        <v>92.46</v>
       </c>
       <c r="D20" s="25">
         <v>95.71</v>
@@ -4665,19 +4721,19 @@
         <v>98.18</v>
       </c>
       <c r="G20" s="25">
-        <v>98.26</v>
+        <v>98.25</v>
       </c>
       <c r="H20" s="25">
-        <v>99.29</v>
+        <v>99.28</v>
       </c>
       <c r="I20" s="25">
-        <v>99.71</v>
+        <v>99.7</v>
       </c>
       <c r="J20" s="25">
-        <v>100.14</v>
+        <v>100.13</v>
       </c>
       <c r="K20" s="25">
-        <v>100.15</v>
+        <v>100.13</v>
       </c>
       <c r="L20" s="25">
         <v>100.15</v>
@@ -4686,169 +4742,173 @@
         <v>100</v>
       </c>
       <c r="N20" s="25">
-        <v>98.15</v>
+        <v>98.13</v>
       </c>
       <c r="O20" s="25">
-        <v>92.46</v>
+        <v>92.45</v>
       </c>
       <c r="P20" s="25">
-        <v>89.46</v>
+        <v>89.45</v>
       </c>
       <c r="Q20" s="25">
-        <v>88</v>
+        <v>87.99</v>
       </c>
       <c r="R20" s="25">
-        <v>88.24</v>
+        <v>88.22</v>
       </c>
       <c r="S20" s="25">
-        <v>89.27</v>
+        <v>89.24</v>
       </c>
       <c r="T20" s="25">
-        <v>89.81</v>
+        <v>89.8</v>
       </c>
       <c r="U20" s="25">
-        <v>90.97</v>
+        <v>90.93</v>
       </c>
       <c r="V20" s="25">
-        <v>92.54</v>
+        <v>92.51</v>
       </c>
       <c r="W20" s="25">
-        <v>92.35</v>
+        <v>92.32</v>
       </c>
       <c r="X20" s="25">
-        <v>92.42</v>
+        <v>92.38</v>
       </c>
       <c r="Y20" s="25">
-        <v>93.12</v>
+        <v>93.08</v>
       </c>
       <c r="Z20" s="25">
-        <v>93.67</v>
+        <v>93.63</v>
       </c>
       <c r="AA20" s="25">
-        <v>93.57</v>
+        <v>93.52</v>
       </c>
       <c r="AB20" s="25">
-        <v>93.09</v>
+        <v>93.03</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.63</v>
+        <v>93.56</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.56</v>
+        <v>94.51</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.78</v>
+        <v>94.72</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.32</v>
+        <v>95.27</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.48</v>
+        <v>95.43</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.84</v>
+        <v>95.78</v>
       </c>
       <c r="AI20" s="25">
-        <v>96.3</v>
+        <v>96.23</v>
       </c>
       <c r="AJ20" s="25">
-        <v>96.02</v>
+        <v>95.96</v>
       </c>
       <c r="AK20" s="25">
-        <v>96.32</v>
+        <v>96.25</v>
       </c>
       <c r="AL20" s="25">
         <v>96.73</v>
       </c>
       <c r="AM20" s="25">
-        <v>97.08</v>
+        <v>97.1</v>
       </c>
       <c r="AN20" s="25">
-        <v>97.21</v>
+        <v>97.23</v>
       </c>
       <c r="AO20" s="25">
-        <v>97.12</v>
+        <v>97.14</v>
       </c>
       <c r="AP20" s="25">
-        <v>96.39</v>
+        <v>96.45</v>
       </c>
       <c r="AQ20" s="25">
+        <v>96.27</v>
+      </c>
+      <c r="AR20" s="25">
+        <v>97.61</v>
+      </c>
+      <c r="AS20" s="25">
+        <v>97.96</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>98</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>98.17</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>98.73</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>98.02</v>
+      </c>
+      <c r="AX20" s="25">
+        <v>98.47</v>
+      </c>
+      <c r="AY20" s="25">
+        <v>98.96</v>
+      </c>
+      <c r="AZ20" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>97.62</v>
+      </c>
+      <c r="BB20" s="25">
+        <v>93.77</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>91.42</v>
+      </c>
+      <c r="BD20" s="25">
+        <v>93.95</v>
+      </c>
+      <c r="BE20" s="25">
         <v>96.18</v>
       </c>
-      <c r="AR20" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="AS20" s="25">
-        <v>97.87</v>
-      </c>
-      <c r="AT20" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="AU20" s="25">
-        <v>98.12</v>
-      </c>
-      <c r="AV20" s="25">
-        <v>98.68</v>
-      </c>
-      <c r="AW20" s="25">
-        <v>97.97</v>
-      </c>
-      <c r="AX20" s="25">
-        <v>98.41</v>
-      </c>
-      <c r="AY20" s="25">
-        <v>98.92</v>
-      </c>
-      <c r="AZ20" s="25">
-        <v>99.18</v>
-      </c>
-      <c r="BA20" s="25">
-        <v>97.58</v>
-      </c>
-      <c r="BB20" s="25">
-        <v>93.7</v>
-      </c>
-      <c r="BC20" s="25">
-        <v>91.27</v>
-      </c>
-      <c r="BD20" s="25">
-        <v>93.35</v>
-      </c>
-      <c r="BE20" s="25">
-        <v>95.41</v>
-      </c>
       <c r="BF20" s="25">
-        <v>96.25</v>
+        <v>97.1</v>
       </c>
       <c r="BG20" s="25">
-        <v>96.8</v>
+        <v>97.81</v>
       </c>
       <c r="BH20" s="25">
-        <v>97.77</v>
+        <v>98.65</v>
       </c>
       <c r="BI20" s="25">
-        <v>98.37</v>
+        <v>99.34</v>
       </c>
       <c r="BJ20" s="25">
-        <v>98.72</v>
+        <v>99.73</v>
       </c>
       <c r="BK20" s="25">
-        <v>98.92</v>
+        <v>100.05</v>
       </c>
       <c r="BL20" s="25">
-        <v>99.25</v>
+        <v>100.49</v>
       </c>
       <c r="BM20" s="25">
-        <v>99.52</v>
+        <v>100.6</v>
       </c>
       <c r="BN20" s="25">
-        <v>99.52</v>
+        <v>100.99</v>
       </c>
       <c r="BO20" s="25">
-        <v>99.88</v>
-      </c>
-      <c r="BP20" s="25"/>
-      <c r="BQ20" s="25"/>
+        <v>101.26</v>
+      </c>
+      <c r="BP20" s="25">
+        <v>100.41</v>
+      </c>
+      <c r="BQ20" s="25">
+        <v>99.85</v>
+      </c>
       <c r="BR20" s="25"/>
       <c r="BS20" s="25"/>
       <c r="BT20" s="25"/>
@@ -4864,13 +4924,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="25">
-        <v>96.94</v>
+        <v>96.93</v>
       </c>
       <c r="D21" s="25">
-        <v>97.54</v>
+        <v>97.53</v>
       </c>
       <c r="E21" s="25">
         <v>98.59</v>
@@ -4906,7 +4966,7 @@
         <v>97.79</v>
       </c>
       <c r="P21" s="25">
-        <v>95.31</v>
+        <v>95.32</v>
       </c>
       <c r="Q21" s="25">
         <v>94.39</v>
@@ -4915,7 +4975,7 @@
         <v>94.54</v>
       </c>
       <c r="S21" s="25">
-        <v>94.28</v>
+        <v>94.29</v>
       </c>
       <c r="T21" s="25">
         <v>94.55</v>
@@ -4927,7 +4987,7 @@
         <v>95.82</v>
       </c>
       <c r="W21" s="25">
-        <v>96.04</v>
+        <v>96.05</v>
       </c>
       <c r="X21" s="25">
         <v>96.61</v>
@@ -4936,7 +4996,7 @@
         <v>96.94</v>
       </c>
       <c r="Z21" s="25">
-        <v>96.73</v>
+        <v>96.74</v>
       </c>
       <c r="AA21" s="25">
         <v>95.6</v>
@@ -4954,7 +5014,7 @@
         <v>96.96</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.73</v>
+        <v>97.74</v>
       </c>
       <c r="AG21" s="25">
         <v>97.48</v>
@@ -4963,106 +5023,110 @@
         <v>97.84</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.85</v>
+        <v>97.86</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.14</v>
+        <v>98.15</v>
       </c>
       <c r="AK21" s="25">
         <v>97.9</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.14</v>
+        <v>98.23</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.74</v>
+        <v>98.86</v>
       </c>
       <c r="AN21" s="25">
-        <v>99.03</v>
+        <v>99.16</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.85</v>
+        <v>98.97</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.29</v>
+        <v>98.47</v>
       </c>
       <c r="AQ21" s="25">
-        <v>98.79</v>
+        <v>99.04</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.45</v>
+        <v>100.69</v>
       </c>
       <c r="AS21" s="25">
-        <v>100.23</v>
+        <v>100.47</v>
       </c>
       <c r="AT21" s="25">
-        <v>99.31</v>
+        <v>99.53</v>
       </c>
       <c r="AU21" s="25">
-        <v>100.01</v>
+        <v>100.13</v>
       </c>
       <c r="AV21" s="25">
+        <v>101.43</v>
+      </c>
+      <c r="AW21" s="25">
+        <v>100.85</v>
+      </c>
+      <c r="AX21" s="25">
+        <v>100.52</v>
+      </c>
+      <c r="AY21" s="25">
+        <v>101.68</v>
+      </c>
+      <c r="AZ21" s="25">
+        <v>102.02</v>
+      </c>
+      <c r="BA21" s="25">
+        <v>100.69</v>
+      </c>
+      <c r="BB21" s="25">
+        <v>97.45</v>
+      </c>
+      <c r="BC21" s="25">
+        <v>95.65</v>
+      </c>
+      <c r="BD21" s="25">
+        <v>96.22</v>
+      </c>
+      <c r="BE21" s="25">
+        <v>97.93</v>
+      </c>
+      <c r="BF21" s="25">
+        <v>98.71</v>
+      </c>
+      <c r="BG21" s="25">
+        <v>99.21</v>
+      </c>
+      <c r="BH21" s="25">
+        <v>99.24</v>
+      </c>
+      <c r="BI21" s="25">
+        <v>100.04</v>
+      </c>
+      <c r="BJ21" s="25">
+        <v>100.46</v>
+      </c>
+      <c r="BK21" s="25">
+        <v>101.15</v>
+      </c>
+      <c r="BL21" s="25">
+        <v>101.37</v>
+      </c>
+      <c r="BM21" s="25">
+        <v>101.76</v>
+      </c>
+      <c r="BN21" s="25">
+        <v>102.22</v>
+      </c>
+      <c r="BO21" s="25">
+        <v>101.95</v>
+      </c>
+      <c r="BP21" s="25">
         <v>101.31</v>
       </c>
-      <c r="AW21" s="25">
-        <v>100.72</v>
-      </c>
-      <c r="AX21" s="25">
-        <v>100.39</v>
-      </c>
-      <c r="AY21" s="25">
-        <v>101.55</v>
-      </c>
-      <c r="AZ21" s="25">
-        <v>101.89</v>
-      </c>
-      <c r="BA21" s="25">
-        <v>100.56</v>
-      </c>
-      <c r="BB21" s="25">
-        <v>97.31</v>
-      </c>
-      <c r="BC21" s="25">
-        <v>95.46</v>
-      </c>
-      <c r="BD21" s="25">
-        <v>95.63</v>
-      </c>
-      <c r="BE21" s="25">
-        <v>97.07</v>
-      </c>
-      <c r="BF21" s="25">
-        <v>97.76</v>
-      </c>
-      <c r="BG21" s="25">
-        <v>98.2</v>
-      </c>
-      <c r="BH21" s="25">
-        <v>98.4</v>
-      </c>
-      <c r="BI21" s="25">
-        <v>99.25</v>
-      </c>
-      <c r="BJ21" s="25">
-        <v>99.53</v>
-      </c>
-      <c r="BK21" s="25">
-        <v>100.02</v>
-      </c>
-      <c r="BL21" s="25">
-        <v>100.09</v>
-      </c>
-      <c r="BM21" s="25">
-        <v>100.74</v>
-      </c>
-      <c r="BN21" s="25">
-        <v>100.9</v>
-      </c>
-      <c r="BO21" s="25">
-        <v>101.46</v>
-      </c>
-      <c r="BP21" s="25"/>
-      <c r="BQ21" s="25"/>
+      <c r="BQ21" s="25">
+        <v>101.28</v>
+      </c>
       <c r="BR21" s="25"/>
       <c r="BS21" s="25"/>
       <c r="BT21" s="25"/>
@@ -5078,19 +5142,19 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="25">
-        <v>89.99</v>
+        <v>90.01</v>
       </c>
       <c r="D22" s="25">
-        <v>94</v>
+        <v>94.02</v>
       </c>
       <c r="E22" s="25">
-        <v>95.36</v>
+        <v>95.38</v>
       </c>
       <c r="F22" s="25">
-        <v>95.6</v>
+        <v>95.61</v>
       </c>
       <c r="G22" s="25">
         <v>95.92</v>
@@ -5102,7 +5166,7 @@
         <v>97.94</v>
       </c>
       <c r="J22" s="25">
-        <v>98.31</v>
+        <v>98.32</v>
       </c>
       <c r="K22" s="25">
         <v>98.86</v>
@@ -5114,169 +5178,173 @@
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>99.04</v>
+        <v>99.03</v>
       </c>
       <c r="O22" s="25">
         <v>94.26</v>
       </c>
       <c r="P22" s="25">
-        <v>90.6</v>
+        <v>90.63</v>
       </c>
       <c r="Q22" s="25">
-        <v>88.63</v>
+        <v>88.67</v>
       </c>
       <c r="R22" s="25">
-        <v>88.43</v>
+        <v>88.48</v>
       </c>
       <c r="S22" s="25">
-        <v>89.04</v>
+        <v>89.08</v>
       </c>
       <c r="T22" s="25">
-        <v>90.38</v>
+        <v>90.42</v>
       </c>
       <c r="U22" s="25">
-        <v>91.8</v>
+        <v>91.84</v>
       </c>
       <c r="V22" s="25">
-        <v>92.8</v>
+        <v>92.83</v>
       </c>
       <c r="W22" s="25">
-        <v>93.8</v>
+        <v>93.85</v>
       </c>
       <c r="X22" s="25">
-        <v>94.34</v>
+        <v>94.39</v>
       </c>
       <c r="Y22" s="25">
-        <v>95.44</v>
+        <v>95.48</v>
       </c>
       <c r="Z22" s="25">
-        <v>97.04</v>
+        <v>97.09</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.87</v>
+        <v>97.92</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.51</v>
+        <v>98.58</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.72</v>
+        <v>100.88</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.69</v>
+        <v>101.9</v>
       </c>
       <c r="AE22" s="25">
-        <v>102.05</v>
+        <v>102.24</v>
       </c>
       <c r="AF22" s="25">
-        <v>102.87</v>
+        <v>103.05</v>
       </c>
       <c r="AG22" s="25">
-        <v>103.2</v>
+        <v>103.38</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.7</v>
+        <v>103.88</v>
       </c>
       <c r="AI22" s="25">
-        <v>104.17</v>
+        <v>104.35</v>
       </c>
       <c r="AJ22" s="25">
-        <v>104.56</v>
+        <v>104.76</v>
       </c>
       <c r="AK22" s="25">
-        <v>104.97</v>
+        <v>105.19</v>
       </c>
       <c r="AL22" s="25">
-        <v>105.42</v>
+        <v>105.82</v>
       </c>
       <c r="AM22" s="25">
-        <v>106.05</v>
+        <v>106.53</v>
       </c>
       <c r="AN22" s="25">
-        <v>106.06</v>
+        <v>106.56</v>
       </c>
       <c r="AO22" s="25">
-        <v>105.92</v>
+        <v>106.42</v>
       </c>
       <c r="AP22" s="25">
-        <v>104.3</v>
+        <v>104.85</v>
       </c>
       <c r="AQ22" s="25">
-        <v>104.23</v>
+        <v>104.85</v>
       </c>
       <c r="AR22" s="25">
-        <v>105.25</v>
+        <v>105.89</v>
       </c>
       <c r="AS22" s="25">
-        <v>106.01</v>
+        <v>106.62</v>
       </c>
       <c r="AT22" s="25">
-        <v>106.1</v>
+        <v>106.64</v>
       </c>
       <c r="AU22" s="25">
-        <v>106.54</v>
+        <v>107.01</v>
       </c>
       <c r="AV22" s="25">
-        <v>107.11</v>
+        <v>107.59</v>
       </c>
       <c r="AW22" s="25">
-        <v>107.49</v>
+        <v>107.96</v>
       </c>
       <c r="AX22" s="25">
-        <v>107.7</v>
+        <v>108.19</v>
       </c>
       <c r="AY22" s="25">
-        <v>108.04</v>
+        <v>108.57</v>
       </c>
       <c r="AZ22" s="25">
-        <v>108.12</v>
+        <v>108.69</v>
       </c>
       <c r="BA22" s="25">
-        <v>106.72</v>
+        <v>107.31</v>
       </c>
       <c r="BB22" s="25">
-        <v>100.9</v>
+        <v>101.53</v>
       </c>
       <c r="BC22" s="25">
-        <v>96.7</v>
+        <v>97.67</v>
       </c>
       <c r="BD22" s="25">
-        <v>99.22</v>
+        <v>101.48</v>
       </c>
       <c r="BE22" s="25">
-        <v>102.15</v>
+        <v>104.87</v>
       </c>
       <c r="BF22" s="25">
-        <v>103.04</v>
+        <v>105.6</v>
       </c>
       <c r="BG22" s="25">
-        <v>102.72</v>
+        <v>105.37</v>
       </c>
       <c r="BH22" s="25">
-        <v>101.69</v>
+        <v>103.83</v>
       </c>
       <c r="BI22" s="25">
-        <v>103.58</v>
+        <v>105.88</v>
       </c>
       <c r="BJ22" s="25">
-        <v>104.18</v>
+        <v>106.55</v>
       </c>
       <c r="BK22" s="25">
-        <v>104.11</v>
+        <v>106.88</v>
       </c>
       <c r="BL22" s="25">
-        <v>104.32</v>
+        <v>107.75</v>
       </c>
       <c r="BM22" s="25">
-        <v>104.5</v>
+        <v>107.76</v>
       </c>
       <c r="BN22" s="25">
-        <v>103.48</v>
+        <v>107.75</v>
       </c>
       <c r="BO22" s="25">
-        <v>103.26</v>
-      </c>
-      <c r="BP22" s="25"/>
-      <c r="BQ22" s="25"/>
+        <v>107.87</v>
+      </c>
+      <c r="BP22" s="25">
+        <v>105.39</v>
+      </c>
+      <c r="BQ22" s="25">
+        <v>103.18</v>
+      </c>
       <c r="BR22" s="25"/>
       <c r="BS22" s="25"/>
       <c r="BT22" s="25"/>
@@ -5295,7 +5363,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>96.31</v>
+        <v>96.3</v>
       </c>
       <c r="D23" s="25">
         <v>98.04</v>
@@ -5307,7 +5375,7 @@
         <v>98.47</v>
       </c>
       <c r="G23" s="25">
-        <v>98.71</v>
+        <v>98.7</v>
       </c>
       <c r="H23" s="25">
         <v>99.7</v>
@@ -5316,10 +5384,10 @@
         <v>100.41</v>
       </c>
       <c r="J23" s="25">
-        <v>100.23</v>
+        <v>100.24</v>
       </c>
       <c r="K23" s="25">
-        <v>100.42</v>
+        <v>100.43</v>
       </c>
       <c r="L23" s="25">
         <v>100.05</v>
@@ -5334,163 +5402,167 @@
         <v>93.44</v>
       </c>
       <c r="P23" s="25">
-        <v>90.15</v>
+        <v>90.14</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.02</v>
+        <v>89.01</v>
       </c>
       <c r="R23" s="25">
-        <v>88.57</v>
+        <v>88.55</v>
       </c>
       <c r="S23" s="25">
-        <v>88.93</v>
+        <v>88.91</v>
       </c>
       <c r="T23" s="25">
-        <v>89.78</v>
+        <v>89.77</v>
       </c>
       <c r="U23" s="25">
-        <v>90.69</v>
+        <v>90.67</v>
       </c>
       <c r="V23" s="25">
-        <v>91.67</v>
+        <v>91.65</v>
       </c>
       <c r="W23" s="25">
         <v>91.99</v>
       </c>
       <c r="X23" s="25">
-        <v>92.45</v>
+        <v>92.42</v>
       </c>
       <c r="Y23" s="25">
-        <v>93.58</v>
+        <v>93.54</v>
       </c>
       <c r="Z23" s="25">
-        <v>94.66</v>
+        <v>94.62</v>
       </c>
       <c r="AA23" s="25">
-        <v>95.17</v>
+        <v>95.13</v>
       </c>
       <c r="AB23" s="25">
-        <v>94.48</v>
+        <v>94.45</v>
       </c>
       <c r="AC23" s="25">
-        <v>95.3</v>
+        <v>95.27</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.81</v>
+        <v>96.79</v>
       </c>
       <c r="AE23" s="25">
-        <v>97.28</v>
+        <v>97.25</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.73</v>
+        <v>97.71</v>
       </c>
       <c r="AG23" s="25">
-        <v>98.34</v>
+        <v>98.33</v>
       </c>
       <c r="AH23" s="25">
-        <v>98.32</v>
+        <v>98.29</v>
       </c>
       <c r="AI23" s="25">
-        <v>98.52</v>
+        <v>98.48</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.93</v>
+        <v>98.91</v>
       </c>
       <c r="AK23" s="25">
-        <v>99.2</v>
+        <v>99.17</v>
       </c>
       <c r="AL23" s="25">
-        <v>99.49</v>
+        <v>99.57</v>
       </c>
       <c r="AM23" s="25">
-        <v>100.01</v>
+        <v>100.14</v>
       </c>
       <c r="AN23" s="25">
-        <v>99.99</v>
+        <v>100.14</v>
       </c>
       <c r="AO23" s="25">
-        <v>99.87</v>
+        <v>100.03</v>
       </c>
       <c r="AP23" s="25">
-        <v>99.17</v>
+        <v>99.39</v>
       </c>
       <c r="AQ23" s="25">
-        <v>99.3</v>
+        <v>99.62</v>
       </c>
       <c r="AR23" s="25">
-        <v>99.97</v>
+        <v>100.3</v>
       </c>
       <c r="AS23" s="25">
-        <v>100.31</v>
+        <v>100.65</v>
       </c>
       <c r="AT23" s="25">
-        <v>100.44</v>
+        <v>100.69</v>
       </c>
       <c r="AU23" s="25">
-        <v>100.32</v>
+        <v>100.51</v>
       </c>
       <c r="AV23" s="25">
-        <v>100.81</v>
+        <v>100.99</v>
       </c>
       <c r="AW23" s="25">
-        <v>100.86</v>
+        <v>101.04</v>
       </c>
       <c r="AX23" s="25">
-        <v>101.42</v>
+        <v>101.6</v>
       </c>
       <c r="AY23" s="25">
-        <v>102.09</v>
+        <v>102.3</v>
       </c>
       <c r="AZ23" s="25">
-        <v>101.84</v>
+        <v>102.05</v>
       </c>
       <c r="BA23" s="25">
-        <v>100.84</v>
+        <v>101.04</v>
       </c>
       <c r="BB23" s="25">
-        <v>96.39</v>
+        <v>96.61</v>
       </c>
       <c r="BC23" s="25">
-        <v>94</v>
+        <v>94.32</v>
       </c>
       <c r="BD23" s="25">
-        <v>96.4</v>
+        <v>97.41</v>
       </c>
       <c r="BE23" s="25">
-        <v>98.67</v>
+        <v>100.15</v>
       </c>
       <c r="BF23" s="25">
-        <v>98.9</v>
+        <v>100.53</v>
       </c>
       <c r="BG23" s="25">
-        <v>98.64</v>
+        <v>100.47</v>
       </c>
       <c r="BH23" s="25">
-        <v>97.81</v>
+        <v>99.39</v>
       </c>
       <c r="BI23" s="25">
-        <v>99.29</v>
+        <v>100.97</v>
       </c>
       <c r="BJ23" s="25">
-        <v>99.93</v>
+        <v>101.64</v>
       </c>
       <c r="BK23" s="25">
-        <v>99.98</v>
+        <v>101.71</v>
       </c>
       <c r="BL23" s="25">
-        <v>100.65</v>
+        <v>102.59</v>
       </c>
       <c r="BM23" s="25">
-        <v>101.27</v>
+        <v>102.94</v>
       </c>
       <c r="BN23" s="25">
-        <v>101.57</v>
+        <v>103.51</v>
       </c>
       <c r="BO23" s="25">
-        <v>102.31</v>
-      </c>
-      <c r="BP23" s="25"/>
-      <c r="BQ23" s="25"/>
+        <v>104.8</v>
+      </c>
+      <c r="BP23" s="25">
+        <v>103.96</v>
+      </c>
+      <c r="BQ23" s="25">
+        <v>102.99</v>
+      </c>
       <c r="BR23" s="25"/>
       <c r="BS23" s="25"/>
       <c r="BT23" s="25"/>
@@ -5506,7 +5578,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="25">
         <v>96.13</v>
@@ -5584,127 +5656,131 @@
         <v>97.66</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.92</v>
+        <v>96.91</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.62</v>
+        <v>98.63</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.44</v>
+        <v>99.46</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.69</v>
+        <v>98.74</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.71</v>
+        <v>98.76</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.59</v>
+        <v>99.61</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.59</v>
+        <v>99.6</v>
       </c>
       <c r="AI24" s="25">
-        <v>99.71</v>
+        <v>99.72</v>
       </c>
       <c r="AJ24" s="25">
-        <v>99.63</v>
+        <v>99.65</v>
       </c>
       <c r="AK24" s="25">
-        <v>99.76</v>
+        <v>99.78</v>
       </c>
       <c r="AL24" s="25">
+        <v>99.6</v>
+      </c>
+      <c r="AM24" s="25">
+        <v>99.86</v>
+      </c>
+      <c r="AN24" s="25">
+        <v>99.93</v>
+      </c>
+      <c r="AO24" s="25">
+        <v>99.72</v>
+      </c>
+      <c r="AP24" s="25">
+        <v>99.29</v>
+      </c>
+      <c r="AQ24" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="AR24" s="25">
+        <v>99</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>99.41</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>99.4</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>99.83</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>100.41</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>100.6</v>
+      </c>
+      <c r="AX24" s="25">
+        <v>100.41</v>
+      </c>
+      <c r="AY24" s="25">
+        <v>101.22</v>
+      </c>
+      <c r="AZ24" s="25">
+        <v>101.68</v>
+      </c>
+      <c r="BA24" s="25">
+        <v>101.24</v>
+      </c>
+      <c r="BB24" s="25">
+        <v>98.7</v>
+      </c>
+      <c r="BC24" s="25">
+        <v>96.19</v>
+      </c>
+      <c r="BD24" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="BE24" s="25">
+        <v>98.19</v>
+      </c>
+      <c r="BF24" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="BG24" s="25">
+        <v>99.02</v>
+      </c>
+      <c r="BH24" s="25">
+        <v>98.73</v>
+      </c>
+      <c r="BI24" s="25">
         <v>99.48</v>
       </c>
-      <c r="AM24" s="25">
-        <v>99.69</v>
-      </c>
-      <c r="AN24" s="25">
-        <v>99.73</v>
-      </c>
-      <c r="AO24" s="25">
-        <v>99.51</v>
-      </c>
-      <c r="AP24" s="25">
-        <v>99.11</v>
-      </c>
-      <c r="AQ24" s="25">
-        <v>98.52</v>
-      </c>
-      <c r="AR24" s="25">
-        <v>98.8</v>
-      </c>
-      <c r="AS24" s="25">
-        <v>99.21</v>
-      </c>
-      <c r="AT24" s="25">
-        <v>99.21</v>
-      </c>
-      <c r="AU24" s="25">
-        <v>99.64</v>
-      </c>
-      <c r="AV24" s="25">
-        <v>100.22</v>
-      </c>
-      <c r="AW24" s="25">
-        <v>100.41</v>
-      </c>
-      <c r="AX24" s="25">
-        <v>100.22</v>
-      </c>
-      <c r="AY24" s="25">
-        <v>101.03</v>
-      </c>
-      <c r="AZ24" s="25">
-        <v>101.49</v>
-      </c>
-      <c r="BA24" s="25">
-        <v>101.05</v>
-      </c>
-      <c r="BB24" s="25">
-        <v>98.5</v>
-      </c>
-      <c r="BC24" s="25">
-        <v>95.93</v>
-      </c>
-      <c r="BD24" s="25">
-        <v>96.13</v>
-      </c>
-      <c r="BE24" s="25">
-        <v>97.27</v>
-      </c>
-      <c r="BF24" s="25">
-        <v>97.59</v>
-      </c>
-      <c r="BG24" s="25">
-        <v>97.84</v>
-      </c>
-      <c r="BH24" s="25">
-        <v>97.66</v>
-      </c>
-      <c r="BI24" s="25">
-        <v>98.03</v>
-      </c>
       <c r="BJ24" s="25">
-        <v>98.53</v>
+        <v>100.03</v>
       </c>
       <c r="BK24" s="25">
-        <v>98.9</v>
+        <v>100.11</v>
       </c>
       <c r="BL24" s="25">
-        <v>99.79</v>
+        <v>101.1</v>
       </c>
       <c r="BM24" s="25">
-        <v>100.6</v>
+        <v>101.82</v>
       </c>
       <c r="BN24" s="25">
-        <v>100.81</v>
+        <v>101.92</v>
       </c>
       <c r="BO24" s="25">
-        <v>101.33</v>
-      </c>
-      <c r="BP24" s="25"/>
-      <c r="BQ24" s="25"/>
+        <v>101.65</v>
+      </c>
+      <c r="BP24" s="25">
+        <v>101.16</v>
+      </c>
+      <c r="BQ24" s="25">
+        <v>101.68</v>
+      </c>
       <c r="BR24" s="25"/>
       <c r="BS24" s="25"/>
       <c r="BT24" s="25"/>
@@ -5720,25 +5796,25 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="25">
-        <v>91.6</v>
+        <v>91.61</v>
       </c>
       <c r="D25" s="25">
-        <v>96.01</v>
+        <v>96.05</v>
       </c>
       <c r="E25" s="25">
-        <v>98.01</v>
+        <v>98.04</v>
       </c>
       <c r="F25" s="25">
-        <v>98.32</v>
+        <v>98.34</v>
       </c>
       <c r="G25" s="25">
-        <v>98.59</v>
+        <v>98.6</v>
       </c>
       <c r="H25" s="25">
-        <v>99.33</v>
+        <v>99.34</v>
       </c>
       <c r="I25" s="25">
         <v>99.66</v>
@@ -5756,169 +5832,173 @@
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>98.93</v>
+        <v>98.94</v>
       </c>
       <c r="O25" s="25">
         <v>93.27</v>
       </c>
       <c r="P25" s="25">
-        <v>89.73</v>
+        <v>89.8</v>
       </c>
       <c r="Q25" s="25">
-        <v>87.74</v>
+        <v>87.86</v>
       </c>
       <c r="R25" s="25">
-        <v>87.34</v>
+        <v>87.45</v>
       </c>
       <c r="S25" s="25">
-        <v>87.96</v>
+        <v>88.09</v>
       </c>
       <c r="T25" s="25">
-        <v>88.85</v>
+        <v>88.94</v>
       </c>
       <c r="U25" s="25">
-        <v>89.75</v>
+        <v>89.85</v>
       </c>
       <c r="V25" s="25">
-        <v>90.09</v>
+        <v>90.22</v>
       </c>
       <c r="W25" s="25">
-        <v>90.9</v>
+        <v>91.01</v>
       </c>
       <c r="X25" s="25">
-        <v>91.21</v>
+        <v>91.34</v>
       </c>
       <c r="Y25" s="25">
-        <v>92.27</v>
+        <v>92.37</v>
       </c>
       <c r="Z25" s="25">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="AA25" s="25">
-        <v>94.04</v>
+        <v>94.13</v>
       </c>
       <c r="AB25" s="25">
-        <v>95.01</v>
+        <v>95.1</v>
       </c>
       <c r="AC25" s="25">
-        <v>96.69</v>
+        <v>96.92</v>
       </c>
       <c r="AD25" s="25">
-        <v>97.69</v>
+        <v>98</v>
       </c>
       <c r="AE25" s="25">
-        <v>98.16</v>
+        <v>98.44</v>
       </c>
       <c r="AF25" s="25">
-        <v>98.36</v>
+        <v>98.65</v>
       </c>
       <c r="AG25" s="25">
-        <v>98.57</v>
+        <v>98.85</v>
       </c>
       <c r="AH25" s="25">
-        <v>98.82</v>
+        <v>99.1</v>
       </c>
       <c r="AI25" s="25">
-        <v>99.03</v>
+        <v>99.33</v>
       </c>
       <c r="AJ25" s="25">
-        <v>99.28</v>
+        <v>99.57</v>
       </c>
       <c r="AK25" s="25">
-        <v>99.61</v>
+        <v>99.93</v>
       </c>
       <c r="AL25" s="25">
-        <v>99.88</v>
+        <v>100.3</v>
       </c>
       <c r="AM25" s="25">
-        <v>100.37</v>
+        <v>100.94</v>
       </c>
       <c r="AN25" s="25">
-        <v>100.75</v>
+        <v>101.33</v>
       </c>
       <c r="AO25" s="25">
-        <v>100.83</v>
+        <v>101.4</v>
       </c>
       <c r="AP25" s="25">
-        <v>100.07</v>
+        <v>100.6</v>
       </c>
       <c r="AQ25" s="25">
-        <v>100.11</v>
+        <v>100.65</v>
       </c>
       <c r="AR25" s="25">
-        <v>100.17</v>
+        <v>100.54</v>
       </c>
       <c r="AS25" s="25">
-        <v>100.42</v>
+        <v>100.77</v>
       </c>
       <c r="AT25" s="25">
-        <v>100.47</v>
+        <v>100.8</v>
       </c>
       <c r="AU25" s="25">
-        <v>100.97</v>
+        <v>101.26</v>
       </c>
       <c r="AV25" s="25">
-        <v>101.83</v>
+        <v>102.13</v>
       </c>
       <c r="AW25" s="25">
-        <v>102.26</v>
+        <v>102.71</v>
       </c>
       <c r="AX25" s="25">
-        <v>102.46</v>
+        <v>102.83</v>
       </c>
       <c r="AY25" s="25">
-        <v>103.1</v>
+        <v>103.49</v>
       </c>
       <c r="AZ25" s="25">
-        <v>103.51</v>
+        <v>103.88</v>
       </c>
       <c r="BA25" s="25">
-        <v>102.77</v>
+        <v>103.32</v>
       </c>
       <c r="BB25" s="25">
-        <v>98.16</v>
+        <v>98.74</v>
       </c>
       <c r="BC25" s="25">
-        <v>94.2</v>
+        <v>95</v>
       </c>
       <c r="BD25" s="25">
-        <v>96.94</v>
+        <v>98.48</v>
       </c>
       <c r="BE25" s="25">
-        <v>99.67</v>
+        <v>101.45</v>
       </c>
       <c r="BF25" s="25">
-        <v>100.81</v>
+        <v>102.59</v>
       </c>
       <c r="BG25" s="25">
-        <v>100.95</v>
+        <v>102.88</v>
       </c>
       <c r="BH25" s="25">
-        <v>101.27</v>
+        <v>102.95</v>
       </c>
       <c r="BI25" s="25">
-        <v>101.15</v>
+        <v>102.9</v>
       </c>
       <c r="BJ25" s="25">
-        <v>100.31</v>
+        <v>102.59</v>
       </c>
       <c r="BK25" s="25">
-        <v>99.65</v>
+        <v>102.37</v>
       </c>
       <c r="BL25" s="25">
-        <v>99.71</v>
+        <v>102.36</v>
       </c>
       <c r="BM25" s="25">
-        <v>99.79</v>
+        <v>102.19</v>
       </c>
       <c r="BN25" s="25">
-        <v>99.03</v>
+        <v>102.22</v>
       </c>
       <c r="BO25" s="25">
-        <v>98.99</v>
-      </c>
-      <c r="BP25" s="25"/>
-      <c r="BQ25" s="25"/>
+        <v>102.4</v>
+      </c>
+      <c r="BP25" s="25">
+        <v>101.22</v>
+      </c>
+      <c r="BQ25" s="25">
+        <v>100.01</v>
+      </c>
       <c r="BR25" s="25"/>
       <c r="BS25" s="25"/>
       <c r="BT25" s="25"/>
@@ -5937,25 +6017,25 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.87</v>
+        <v>94.92</v>
       </c>
       <c r="D26" s="25">
-        <v>97.41</v>
+        <v>97.47</v>
       </c>
       <c r="E26" s="25">
-        <v>97.82</v>
+        <v>97.84</v>
       </c>
       <c r="F26" s="25">
-        <v>99.02</v>
+        <v>99.04</v>
       </c>
       <c r="G26" s="25">
-        <v>100.1</v>
+        <v>100.13</v>
       </c>
       <c r="H26" s="25">
-        <v>100.68</v>
+        <v>100.7</v>
       </c>
       <c r="I26" s="25">
-        <v>100.11</v>
+        <v>100.13</v>
       </c>
       <c r="J26" s="25">
         <v>100.03</v>
@@ -5976,43 +6056,43 @@
         <v>93.78</v>
       </c>
       <c r="P26" s="25">
-        <v>90.98</v>
+        <v>90.97</v>
       </c>
       <c r="Q26" s="25">
         <v>88.64</v>
       </c>
       <c r="R26" s="25">
-        <v>88.61</v>
+        <v>88.59</v>
       </c>
       <c r="S26" s="25">
         <v>88.93</v>
       </c>
       <c r="T26" s="25">
-        <v>89.27</v>
+        <v>89.25</v>
       </c>
       <c r="U26" s="25">
-        <v>89.95</v>
+        <v>89.93</v>
       </c>
       <c r="V26" s="25">
-        <v>89.95</v>
+        <v>89.93</v>
       </c>
       <c r="W26" s="25">
-        <v>90.02</v>
+        <v>90.01</v>
       </c>
       <c r="X26" s="25">
-        <v>89.91</v>
+        <v>89.9</v>
       </c>
       <c r="Y26" s="25">
         <v>90.99</v>
       </c>
       <c r="Z26" s="25">
-        <v>92.25</v>
+        <v>92.24</v>
       </c>
       <c r="AA26" s="25">
         <v>92.55</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.27</v>
+        <v>92.26</v>
       </c>
       <c r="AC26" s="25">
         <v>92.67</v>
@@ -6021,118 +6101,122 @@
         <v>92.83</v>
       </c>
       <c r="AE26" s="25">
-        <v>93.01</v>
+        <v>93.02</v>
       </c>
       <c r="AF26" s="25">
-        <v>93.21</v>
+        <v>93.24</v>
       </c>
       <c r="AG26" s="25">
         <v>93.82</v>
       </c>
       <c r="AH26" s="25">
+        <v>94.22</v>
+      </c>
+      <c r="AI26" s="25">
+        <v>94</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>94.11</v>
+      </c>
+      <c r="AK26" s="25">
         <v>94.2</v>
       </c>
-      <c r="AI26" s="25">
-        <v>93.99</v>
-      </c>
-      <c r="AJ26" s="25">
-        <v>94.1</v>
-      </c>
-      <c r="AK26" s="25">
-        <v>94.19</v>
-      </c>
       <c r="AL26" s="25">
-        <v>94.65</v>
+        <v>94.74</v>
       </c>
       <c r="AM26" s="25">
-        <v>95.21</v>
+        <v>95.45</v>
       </c>
       <c r="AN26" s="25">
-        <v>95.25</v>
+        <v>95.51</v>
       </c>
       <c r="AO26" s="25">
-        <v>94.7</v>
+        <v>94.94</v>
       </c>
       <c r="AP26" s="25">
-        <v>93.86</v>
+        <v>94.08</v>
       </c>
       <c r="AQ26" s="25">
-        <v>93.8</v>
+        <v>94.06</v>
       </c>
       <c r="AR26" s="25">
-        <v>94.07</v>
+        <v>94.2</v>
       </c>
       <c r="AS26" s="25">
-        <v>94.11</v>
+        <v>94.22</v>
       </c>
       <c r="AT26" s="25">
-        <v>93.83</v>
+        <v>93.89</v>
       </c>
       <c r="AU26" s="25">
-        <v>94.43</v>
+        <v>94.46</v>
       </c>
       <c r="AV26" s="25">
-        <v>94.43</v>
+        <v>94.46</v>
       </c>
       <c r="AW26" s="25">
-        <v>95.03</v>
+        <v>95.2</v>
       </c>
       <c r="AX26" s="25">
-        <v>96.04</v>
+        <v>96.1</v>
       </c>
       <c r="AY26" s="25">
-        <v>97</v>
+        <v>97.09</v>
       </c>
       <c r="AZ26" s="25">
-        <v>96.78</v>
+        <v>96.85</v>
       </c>
       <c r="BA26" s="25">
+        <v>96.14</v>
+      </c>
+      <c r="BB26" s="25">
+        <v>93.92</v>
+      </c>
+      <c r="BC26" s="25">
+        <v>91.37</v>
+      </c>
+      <c r="BD26" s="25">
+        <v>92.83</v>
+      </c>
+      <c r="BE26" s="25">
+        <v>94.81</v>
+      </c>
+      <c r="BF26" s="25">
+        <v>95.69</v>
+      </c>
+      <c r="BG26" s="25">
+        <v>95.15</v>
+      </c>
+      <c r="BH26" s="25">
         <v>95.95</v>
       </c>
-      <c r="BB26" s="25">
-        <v>93.75</v>
-      </c>
-      <c r="BC26" s="25">
-        <v>91.07</v>
-      </c>
-      <c r="BD26" s="25">
-        <v>92.01</v>
-      </c>
-      <c r="BE26" s="25">
-        <v>93.63</v>
-      </c>
-      <c r="BF26" s="25">
-        <v>94.53</v>
-      </c>
-      <c r="BG26" s="25">
-        <v>93.97</v>
-      </c>
-      <c r="BH26" s="25">
-        <v>94.6</v>
-      </c>
       <c r="BI26" s="25">
-        <v>94.84</v>
+        <v>96.3</v>
       </c>
       <c r="BJ26" s="25">
-        <v>94.41</v>
+        <v>95.79</v>
       </c>
       <c r="BK26" s="25">
-        <v>94.64</v>
+        <v>96.43</v>
       </c>
       <c r="BL26" s="25">
-        <v>94.97</v>
+        <v>96.73</v>
       </c>
       <c r="BM26" s="25">
-        <v>96.04</v>
+        <v>97.42</v>
       </c>
       <c r="BN26" s="25">
-        <v>96.01</v>
+        <v>98.1</v>
       </c>
       <c r="BO26" s="25">
-        <v>95.28</v>
-      </c>
-      <c r="BP26" s="25"/>
-      <c r="BQ26" s="25"/>
+        <v>97.48</v>
+      </c>
+      <c r="BP26" s="25">
+        <v>96.3</v>
+      </c>
+      <c r="BQ26" s="25">
+        <v>96.29</v>
+      </c>
       <c r="BR26" s="25"/>
       <c r="BS26" s="25"/>
       <c r="BT26" s="25"/>
@@ -6148,7 +6232,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="25">
         <v>99.16</v>
@@ -6157,10 +6241,10 @@
         <v>99.47</v>
       </c>
       <c r="E27" s="25">
-        <v>101.02</v>
+        <v>101.03</v>
       </c>
       <c r="F27" s="25">
-        <v>100.99</v>
+        <v>100.98</v>
       </c>
       <c r="G27" s="25">
         <v>101.31</v>
@@ -6172,7 +6256,7 @@
         <v>101.56</v>
       </c>
       <c r="J27" s="25">
-        <v>100.74</v>
+        <v>100.73</v>
       </c>
       <c r="K27" s="25">
         <v>98.81</v>
@@ -6190,22 +6274,22 @@
         <v>97.8</v>
       </c>
       <c r="P27" s="25">
-        <v>95.52</v>
+        <v>95.51</v>
       </c>
       <c r="Q27" s="25">
-        <v>94.84</v>
+        <v>94.83</v>
       </c>
       <c r="R27" s="25">
-        <v>95.71</v>
+        <v>95.7</v>
       </c>
       <c r="S27" s="25">
-        <v>95.82</v>
+        <v>95.81</v>
       </c>
       <c r="T27" s="25">
-        <v>95.2</v>
+        <v>95.19</v>
       </c>
       <c r="U27" s="25">
-        <v>96.13</v>
+        <v>96.12</v>
       </c>
       <c r="V27" s="25">
         <v>95.38</v>
@@ -6214,139 +6298,143 @@
         <v>96.24</v>
       </c>
       <c r="X27" s="25">
-        <v>96.18</v>
+        <v>96.17</v>
       </c>
       <c r="Y27" s="25">
         <v>97.75</v>
       </c>
       <c r="Z27" s="25">
-        <v>96.26</v>
+        <v>96.25</v>
       </c>
       <c r="AA27" s="25">
-        <v>95.07</v>
+        <v>95.06</v>
       </c>
       <c r="AB27" s="25">
         <v>94.56</v>
       </c>
       <c r="AC27" s="25">
-        <v>95.13</v>
+        <v>95.12</v>
       </c>
       <c r="AD27" s="25">
         <v>95.62</v>
       </c>
       <c r="AE27" s="25">
-        <v>96.46</v>
+        <v>96.45</v>
       </c>
       <c r="AF27" s="25">
         <v>96.19</v>
       </c>
       <c r="AG27" s="25">
-        <v>97.27</v>
+        <v>97.26</v>
       </c>
       <c r="AH27" s="25">
-        <v>96.25</v>
+        <v>96.24</v>
       </c>
       <c r="AI27" s="25">
         <v>96.6</v>
       </c>
       <c r="AJ27" s="25">
-        <v>96.23</v>
+        <v>96.22</v>
       </c>
       <c r="AK27" s="25">
-        <v>96.1</v>
+        <v>96.09</v>
       </c>
       <c r="AL27" s="25">
-        <v>96.01</v>
+        <v>96.07</v>
       </c>
       <c r="AM27" s="25">
+        <v>96.57</v>
+      </c>
+      <c r="AN27" s="25">
+        <v>97.1</v>
+      </c>
+      <c r="AO27" s="25">
+        <v>96.89</v>
+      </c>
+      <c r="AP27" s="25">
         <v>96.34</v>
       </c>
-      <c r="AN27" s="25">
-        <v>96.87</v>
-      </c>
-      <c r="AO27" s="25">
-        <v>96.66</v>
-      </c>
-      <c r="AP27" s="25">
-        <v>96.12</v>
-      </c>
       <c r="AQ27" s="25">
-        <v>96.81</v>
+        <v>97.03</v>
       </c>
       <c r="AR27" s="25">
-        <v>97.34</v>
+        <v>97.41</v>
       </c>
       <c r="AS27" s="25">
-        <v>97.15</v>
+        <v>97.22</v>
       </c>
       <c r="AT27" s="25">
-        <v>96.26</v>
+        <v>96.32</v>
       </c>
       <c r="AU27" s="25">
-        <v>97.09</v>
+        <v>97.16</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.68</v>
+        <v>97.76</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.72</v>
+        <v>98.93</v>
       </c>
       <c r="AX27" s="25">
-        <v>98.83</v>
+        <v>98.91</v>
       </c>
       <c r="AY27" s="25">
-        <v>99.68</v>
+        <v>99.79</v>
       </c>
       <c r="AZ27" s="25">
-        <v>99.93</v>
+        <v>100.03</v>
       </c>
       <c r="BA27" s="25">
-        <v>99.53</v>
+        <v>99.78</v>
       </c>
       <c r="BB27" s="25">
-        <v>97.09</v>
+        <v>97.35</v>
       </c>
       <c r="BC27" s="25">
-        <v>94.1</v>
+        <v>94.4</v>
       </c>
       <c r="BD27" s="25">
-        <v>94.82</v>
+        <v>95.5</v>
       </c>
       <c r="BE27" s="25">
-        <v>95.21</v>
+        <v>96.19</v>
       </c>
       <c r="BF27" s="25">
-        <v>95.5</v>
+        <v>96.52</v>
       </c>
       <c r="BG27" s="25">
-        <v>96.99</v>
+        <v>98.02</v>
       </c>
       <c r="BH27" s="25">
-        <v>97.45</v>
+        <v>98.3</v>
       </c>
       <c r="BI27" s="25">
-        <v>98.5</v>
+        <v>99.38</v>
       </c>
       <c r="BJ27" s="25">
-        <v>97.96</v>
+        <v>98.84</v>
       </c>
       <c r="BK27" s="25">
-        <v>98.1</v>
+        <v>99.2</v>
       </c>
       <c r="BL27" s="25">
-        <v>98.48</v>
+        <v>99.52</v>
       </c>
       <c r="BM27" s="25">
-        <v>99.95</v>
+        <v>100.79</v>
       </c>
       <c r="BN27" s="25">
-        <v>100.16</v>
+        <v>101.04</v>
       </c>
       <c r="BO27" s="25">
-        <v>101</v>
-      </c>
-      <c r="BP27" s="25"/>
-      <c r="BQ27" s="25"/>
+        <v>100.48</v>
+      </c>
+      <c r="BP27" s="25">
+        <v>99.84</v>
+      </c>
+      <c r="BQ27" s="25">
+        <v>100.48</v>
+      </c>
       <c r="BR27" s="25"/>
       <c r="BS27" s="25"/>
       <c r="BT27" s="25"/>
@@ -6362,205 +6450,209 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="25">
-        <v>86.79</v>
+        <v>86.76</v>
       </c>
       <c r="D28" s="25">
-        <v>91.55</v>
+        <v>91.57</v>
       </c>
       <c r="E28" s="25">
-        <v>97.19</v>
+        <v>97.22</v>
       </c>
       <c r="F28" s="25">
-        <v>96.41</v>
+        <v>96.44</v>
       </c>
       <c r="G28" s="25">
-        <v>95.46</v>
+        <v>95.48</v>
       </c>
       <c r="H28" s="25">
-        <v>96.58</v>
+        <v>96.61</v>
       </c>
       <c r="I28" s="25">
-        <v>97.56</v>
+        <v>97.59</v>
       </c>
       <c r="J28" s="25">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="K28" s="25">
-        <v>98.8</v>
+        <v>98.79</v>
       </c>
       <c r="L28" s="25">
-        <v>99.84</v>
+        <v>99.82</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>98.58</v>
+        <v>98.59</v>
       </c>
       <c r="O28" s="25">
-        <v>94.76</v>
+        <v>94.74</v>
       </c>
       <c r="P28" s="25">
-        <v>91.44</v>
+        <v>91.46</v>
       </c>
       <c r="Q28" s="25">
-        <v>89.54</v>
+        <v>89.58</v>
       </c>
       <c r="R28" s="25">
-        <v>89.39</v>
+        <v>89.41</v>
       </c>
       <c r="S28" s="25">
-        <v>90.83</v>
+        <v>90.86</v>
       </c>
       <c r="T28" s="25">
-        <v>91.51</v>
+        <v>91.52</v>
       </c>
       <c r="U28" s="25">
-        <v>92.92</v>
+        <v>92.94</v>
       </c>
       <c r="V28" s="25">
-        <v>94.24</v>
+        <v>94.26</v>
       </c>
       <c r="W28" s="25">
-        <v>95.64</v>
+        <v>95.66</v>
       </c>
       <c r="X28" s="25">
-        <v>96.28</v>
+        <v>96.31</v>
       </c>
       <c r="Y28" s="25">
-        <v>97.28</v>
+        <v>97.3</v>
       </c>
       <c r="Z28" s="25">
-        <v>98.21</v>
+        <v>98.24</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.71</v>
+        <v>98.74</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.07</v>
+        <v>99.13</v>
       </c>
       <c r="AC28" s="25">
-        <v>101.87</v>
+        <v>102.06</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.55</v>
+        <v>102.77</v>
       </c>
       <c r="AE28" s="25">
-        <v>102.89</v>
+        <v>103.12</v>
       </c>
       <c r="AF28" s="25">
-        <v>103.32</v>
+        <v>103.52</v>
       </c>
       <c r="AG28" s="25">
-        <v>103.79</v>
+        <v>104.01</v>
       </c>
       <c r="AH28" s="25">
-        <v>104.18</v>
+        <v>104.43</v>
       </c>
       <c r="AI28" s="25">
-        <v>104.61</v>
+        <v>104.83</v>
       </c>
       <c r="AJ28" s="25">
-        <v>104.86</v>
+        <v>105.08</v>
       </c>
       <c r="AK28" s="25">
-        <v>105.24</v>
+        <v>105.44</v>
       </c>
       <c r="AL28" s="25">
-        <v>105.14</v>
+        <v>105.44</v>
       </c>
       <c r="AM28" s="25">
-        <v>105.8</v>
+        <v>106.14</v>
       </c>
       <c r="AN28" s="25">
-        <v>106.49</v>
+        <v>106.85</v>
       </c>
       <c r="AO28" s="25">
-        <v>106.35</v>
+        <v>106.69</v>
       </c>
       <c r="AP28" s="25">
-        <v>105.18</v>
+        <v>105.61</v>
       </c>
       <c r="AQ28" s="25">
-        <v>104.85</v>
+        <v>105.4</v>
       </c>
       <c r="AR28" s="25">
-        <v>105.32</v>
+        <v>105.88</v>
       </c>
       <c r="AS28" s="25">
-        <v>105.64</v>
+        <v>106.23</v>
       </c>
       <c r="AT28" s="25">
-        <v>106.22</v>
+        <v>106.74</v>
       </c>
       <c r="AU28" s="25">
-        <v>106.86</v>
+        <v>107.24</v>
       </c>
       <c r="AV28" s="25">
-        <v>107.18</v>
+        <v>107.57</v>
       </c>
       <c r="AW28" s="25">
-        <v>107.39</v>
+        <v>107.75</v>
       </c>
       <c r="AX28" s="25">
-        <v>107.68</v>
+        <v>108.03</v>
       </c>
       <c r="AY28" s="25">
-        <v>107.73</v>
+        <v>108.09</v>
       </c>
       <c r="AZ28" s="25">
-        <v>107.2</v>
+        <v>107.6</v>
       </c>
       <c r="BA28" s="25">
-        <v>105.34</v>
+        <v>105.74</v>
       </c>
       <c r="BB28" s="25">
-        <v>97.39</v>
+        <v>97.84</v>
       </c>
       <c r="BC28" s="25">
-        <v>92.69</v>
+        <v>93.37</v>
       </c>
       <c r="BD28" s="25">
-        <v>95.88</v>
+        <v>97.26</v>
       </c>
       <c r="BE28" s="25">
-        <v>99.58</v>
+        <v>101.28</v>
       </c>
       <c r="BF28" s="25">
-        <v>100.86</v>
+        <v>102.82</v>
       </c>
       <c r="BG28" s="25">
-        <v>101.56</v>
+        <v>103.76</v>
       </c>
       <c r="BH28" s="25">
-        <v>103.53</v>
+        <v>105.57</v>
       </c>
       <c r="BI28" s="25">
-        <v>105.53</v>
+        <v>107.79</v>
       </c>
       <c r="BJ28" s="25">
-        <v>105.34</v>
+        <v>107.77</v>
       </c>
       <c r="BK28" s="25">
-        <v>105.46</v>
+        <v>108.32</v>
       </c>
       <c r="BL28" s="25">
-        <v>105.45</v>
+        <v>109.31</v>
       </c>
       <c r="BM28" s="25">
-        <v>105.5</v>
+        <v>109.24</v>
       </c>
       <c r="BN28" s="25">
-        <v>105.26</v>
+        <v>109.3</v>
       </c>
       <c r="BO28" s="25">
-        <v>105.1</v>
-      </c>
-      <c r="BP28" s="25"/>
-      <c r="BQ28" s="25"/>
+        <v>109.52</v>
+      </c>
+      <c r="BP28" s="25">
+        <v>107.51</v>
+      </c>
+      <c r="BQ28" s="25">
+        <v>105.19</v>
+      </c>
       <c r="BR28" s="25"/>
       <c r="BS28" s="25"/>
       <c r="BT28" s="25"/>
@@ -6579,202 +6671,206 @@
         <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>91.43</v>
+        <v>91.54</v>
       </c>
       <c r="D29" s="25">
-        <v>93.04</v>
+        <v>93.09</v>
       </c>
       <c r="E29" s="25">
-        <v>94.33</v>
+        <v>94.32</v>
       </c>
       <c r="F29" s="25">
-        <v>98.01</v>
+        <v>98.07</v>
       </c>
       <c r="G29" s="25">
-        <v>98.69</v>
+        <v>98.8</v>
       </c>
       <c r="H29" s="25">
-        <v>99.5</v>
+        <v>99.56</v>
       </c>
       <c r="I29" s="25">
-        <v>99.91</v>
+        <v>99.97</v>
       </c>
       <c r="J29" s="25">
-        <v>100.04</v>
+        <v>100.07</v>
       </c>
       <c r="K29" s="25">
-        <v>100.29</v>
+        <v>100.32</v>
       </c>
       <c r="L29" s="25">
-        <v>100.06</v>
+        <v>100.05</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.39</v>
+        <v>98.38</v>
       </c>
       <c r="O29" s="25">
         <v>93.25</v>
       </c>
       <c r="P29" s="25">
-        <v>90.48</v>
+        <v>90.51</v>
       </c>
       <c r="Q29" s="25">
-        <v>89.55</v>
+        <v>89.56</v>
       </c>
       <c r="R29" s="25">
-        <v>89.67</v>
+        <v>89.69</v>
       </c>
       <c r="S29" s="25">
-        <v>90.07</v>
+        <v>90.06</v>
       </c>
       <c r="T29" s="25">
-        <v>90.81</v>
+        <v>90.82</v>
       </c>
       <c r="U29" s="25">
         <v>91.84</v>
       </c>
       <c r="V29" s="25">
-        <v>93.46</v>
+        <v>93.44</v>
       </c>
       <c r="W29" s="25">
         <v>93.94</v>
       </c>
       <c r="X29" s="25">
-        <v>94.07</v>
+        <v>94.04</v>
       </c>
       <c r="Y29" s="25">
-        <v>94.6</v>
+        <v>94.58</v>
       </c>
       <c r="Z29" s="25">
-        <v>95.3</v>
+        <v>95.27</v>
       </c>
       <c r="AA29" s="25">
-        <v>96.33</v>
+        <v>96.27</v>
       </c>
       <c r="AB29" s="25">
-        <v>96.37</v>
+        <v>96.36</v>
       </c>
       <c r="AC29" s="25">
-        <v>96.98</v>
+        <v>97</v>
       </c>
       <c r="AD29" s="25">
         <v>96.66</v>
       </c>
       <c r="AE29" s="25">
-        <v>95.72</v>
+        <v>95.73</v>
       </c>
       <c r="AF29" s="25">
-        <v>95.87</v>
+        <v>95.88</v>
       </c>
       <c r="AG29" s="25">
-        <v>96.05</v>
+        <v>96.03</v>
       </c>
       <c r="AH29" s="25">
-        <v>97.07</v>
+        <v>97.02</v>
       </c>
       <c r="AI29" s="25">
-        <v>97.64</v>
+        <v>97.57</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.86</v>
+        <v>97.81</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.73</v>
+        <v>97.68</v>
       </c>
       <c r="AL29" s="25">
-        <v>98.07</v>
+        <v>98.06</v>
       </c>
       <c r="AM29" s="25">
-        <v>98.21</v>
+        <v>98.22</v>
       </c>
       <c r="AN29" s="25">
-        <v>98.46</v>
+        <v>98.48</v>
       </c>
       <c r="AO29" s="25">
         <v>98.4</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.92</v>
+        <v>97.95</v>
       </c>
       <c r="AQ29" s="25">
-        <v>97.31</v>
+        <v>97.3</v>
       </c>
       <c r="AR29" s="25">
-        <v>97.34</v>
+        <v>97.3</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.6</v>
+        <v>97.56</v>
       </c>
       <c r="AT29" s="25">
-        <v>98.28</v>
+        <v>98.21</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.92</v>
+        <v>98.96</v>
       </c>
       <c r="AV29" s="25">
-        <v>99.23</v>
+        <v>99.32</v>
       </c>
       <c r="AW29" s="25">
-        <v>99.92</v>
+        <v>99.97</v>
       </c>
       <c r="AX29" s="25">
-        <v>99.85</v>
+        <v>99.89</v>
       </c>
       <c r="AY29" s="25">
-        <v>99.95</v>
+        <v>100.06</v>
       </c>
       <c r="AZ29" s="25">
-        <v>99.34</v>
+        <v>99.45</v>
       </c>
       <c r="BA29" s="25">
-        <v>98.42</v>
+        <v>98.51</v>
       </c>
       <c r="BB29" s="25">
-        <v>93.39</v>
+        <v>93.38</v>
       </c>
       <c r="BC29" s="25">
-        <v>91.28</v>
+        <v>91.37</v>
       </c>
       <c r="BD29" s="25">
-        <v>92.73</v>
+        <v>93.38</v>
       </c>
       <c r="BE29" s="25">
-        <v>94.85</v>
+        <v>95.98</v>
       </c>
       <c r="BF29" s="25">
-        <v>95.05</v>
+        <v>96.53</v>
       </c>
       <c r="BG29" s="25">
-        <v>94.75</v>
+        <v>97.28</v>
       </c>
       <c r="BH29" s="25">
-        <v>96.71</v>
+        <v>98.91</v>
       </c>
       <c r="BI29" s="25">
-        <v>97.8</v>
+        <v>99.52</v>
       </c>
       <c r="BJ29" s="25">
-        <v>98.21</v>
+        <v>99.97</v>
       </c>
       <c r="BK29" s="25">
-        <v>98.52</v>
+        <v>100.21</v>
       </c>
       <c r="BL29" s="25">
-        <v>99.5</v>
+        <v>100.88</v>
       </c>
       <c r="BM29" s="25">
-        <v>99.86</v>
+        <v>101.06</v>
       </c>
       <c r="BN29" s="25">
-        <v>100.3</v>
+        <v>101.82</v>
       </c>
       <c r="BO29" s="25">
-        <v>100.37</v>
-      </c>
-      <c r="BP29" s="25"/>
-      <c r="BQ29" s="25"/>
+        <v>102.38</v>
+      </c>
+      <c r="BP29" s="25">
+        <v>101.44</v>
+      </c>
+      <c r="BQ29" s="25">
+        <v>100.34</v>
+      </c>
       <c r="BR29" s="25"/>
       <c r="BS29" s="25"/>
       <c r="BT29" s="25"/>
@@ -6790,7 +6886,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="25">
         <v>96.47</v>
@@ -6799,7 +6895,7 @@
         <v>96.57</v>
       </c>
       <c r="E30" s="25">
-        <v>94.82</v>
+        <v>94.81</v>
       </c>
       <c r="F30" s="25">
         <v>95.78</v>
@@ -6829,7 +6925,7 @@
         <v>98.8</v>
       </c>
       <c r="O30" s="25">
-        <v>97.12</v>
+        <v>97.13</v>
       </c>
       <c r="P30" s="25">
         <v>96.84</v>
@@ -6844,7 +6940,7 @@
         <v>96.2</v>
       </c>
       <c r="T30" s="25">
-        <v>96.68</v>
+        <v>96.69</v>
       </c>
       <c r="U30" s="25">
         <v>96.94</v>
@@ -6853,142 +6949,146 @@
         <v>97.09</v>
       </c>
       <c r="W30" s="25">
-        <v>97.76</v>
+        <v>97.77</v>
       </c>
       <c r="X30" s="25">
         <v>97.97</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.38</v>
+        <v>96.37</v>
       </c>
       <c r="Z30" s="25">
-        <v>97.42</v>
+        <v>97.41</v>
       </c>
       <c r="AA30" s="25">
         <v>97.83</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.02</v>
+        <v>96.01</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.58</v>
+        <v>97.59</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.49</v>
+        <v>98.51</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.3</v>
+        <v>98.31</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.46</v>
+        <v>98.48</v>
       </c>
       <c r="AG30" s="25">
-        <v>98.98</v>
+        <v>98.99</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.59</v>
+        <v>100.6</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.14</v>
+        <v>100.15</v>
       </c>
       <c r="AJ30" s="25">
+        <v>100.71</v>
+      </c>
+      <c r="AK30" s="25">
         <v>100.68</v>
       </c>
-      <c r="AK30" s="25">
-        <v>100.65</v>
-      </c>
       <c r="AL30" s="25">
-        <v>100.03</v>
+        <v>100.11</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.66</v>
+        <v>99.74</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.1</v>
+        <v>100.19</v>
       </c>
       <c r="AO30" s="25">
-        <v>99.98</v>
+        <v>100.06</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.66</v>
+        <v>99.76</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.1</v>
+        <v>99.25</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.6</v>
+        <v>99.75</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.19</v>
+        <v>100.34</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.3</v>
+        <v>100.43</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.52</v>
+        <v>100.67</v>
       </c>
       <c r="AV30" s="25">
-        <v>100.47</v>
+        <v>100.69</v>
       </c>
       <c r="AW30" s="25">
-        <v>100.96</v>
+        <v>101.09</v>
       </c>
       <c r="AX30" s="25">
-        <v>101.52</v>
+        <v>101.64</v>
       </c>
       <c r="AY30" s="25">
-        <v>102.27</v>
+        <v>102.37</v>
       </c>
       <c r="AZ30" s="25">
-        <v>102.25</v>
+        <v>102.34</v>
       </c>
       <c r="BA30" s="25">
-        <v>101.25</v>
+        <v>101.34</v>
       </c>
       <c r="BB30" s="25">
-        <v>98.34</v>
+        <v>98.44</v>
       </c>
       <c r="BC30" s="25">
-        <v>97.11</v>
+        <v>97.28</v>
       </c>
       <c r="BD30" s="25">
-        <v>97.8</v>
+        <v>98.38</v>
       </c>
       <c r="BE30" s="25">
-        <v>97.97</v>
+        <v>99.11</v>
       </c>
       <c r="BF30" s="25">
-        <v>98.45</v>
+        <v>99.61</v>
       </c>
       <c r="BG30" s="25">
-        <v>98.91</v>
+        <v>100.35</v>
       </c>
       <c r="BH30" s="25">
-        <v>98.83</v>
+        <v>100.02</v>
       </c>
       <c r="BI30" s="25">
-        <v>99.75</v>
+        <v>101.05</v>
       </c>
       <c r="BJ30" s="25">
-        <v>100.25</v>
+        <v>101.63</v>
       </c>
       <c r="BK30" s="25">
-        <v>100.46</v>
+        <v>101.89</v>
       </c>
       <c r="BL30" s="25">
-        <v>101.12</v>
+        <v>102.42</v>
       </c>
       <c r="BM30" s="25">
-        <v>101.57</v>
+        <v>102.4</v>
       </c>
       <c r="BN30" s="25">
-        <v>101.77</v>
+        <v>102.7</v>
       </c>
       <c r="BO30" s="25">
-        <v>101.44</v>
-      </c>
-      <c r="BP30" s="25"/>
-      <c r="BQ30" s="25"/>
+        <v>102.04</v>
+      </c>
+      <c r="BP30" s="25">
+        <v>102.67</v>
+      </c>
+      <c r="BQ30" s="25">
+        <v>104.42</v>
+      </c>
       <c r="BR30" s="25"/>
       <c r="BS30" s="25"/>
       <c r="BT30" s="25"/>
@@ -7004,37 +7104,37 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="25">
-        <v>85.59</v>
+        <v>85.54</v>
       </c>
       <c r="D31" s="25">
         <v>90.3</v>
       </c>
       <c r="E31" s="25">
-        <v>94.01</v>
+        <v>93.99</v>
       </c>
       <c r="F31" s="25">
-        <v>94.91</v>
+        <v>94.89</v>
       </c>
       <c r="G31" s="25">
-        <v>95.68</v>
+        <v>95.64</v>
       </c>
       <c r="H31" s="25">
-        <v>97.24</v>
+        <v>97.23</v>
       </c>
       <c r="I31" s="25">
-        <v>98.03</v>
+        <v>98.01</v>
       </c>
       <c r="J31" s="25">
         <v>98.47</v>
       </c>
       <c r="K31" s="25">
-        <v>99.19</v>
+        <v>99.18</v>
       </c>
       <c r="L31" s="25">
-        <v>100.13</v>
+        <v>100.12</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
@@ -7043,166 +7143,170 @@
         <v>99.21</v>
       </c>
       <c r="O31" s="25">
-        <v>94.88</v>
+        <v>94.87</v>
       </c>
       <c r="P31" s="25">
-        <v>91.52</v>
+        <v>91.56</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.93</v>
+        <v>89.98</v>
       </c>
       <c r="R31" s="25">
-        <v>90.01</v>
+        <v>90.07</v>
       </c>
       <c r="S31" s="25">
-        <v>90.38</v>
+        <v>90.43</v>
       </c>
       <c r="T31" s="25">
-        <v>91.32</v>
+        <v>91.39</v>
       </c>
       <c r="U31" s="25">
-        <v>92.74</v>
+        <v>92.8</v>
       </c>
       <c r="V31" s="25">
-        <v>93.54</v>
+        <v>93.59</v>
       </c>
       <c r="W31" s="25">
-        <v>94.04</v>
+        <v>94.08</v>
       </c>
       <c r="X31" s="25">
-        <v>95.02</v>
+        <v>95.05</v>
       </c>
       <c r="Y31" s="25">
-        <v>96.05</v>
+        <v>96.09</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.81</v>
+        <v>96.86</v>
       </c>
       <c r="AA31" s="25">
-        <v>97.62</v>
+        <v>97.65</v>
       </c>
       <c r="AB31" s="25">
-        <v>99.01</v>
+        <v>99.06</v>
       </c>
       <c r="AC31" s="25">
-        <v>101.22</v>
+        <v>101.38</v>
       </c>
       <c r="AD31" s="25">
-        <v>101.84</v>
+        <v>102.09</v>
       </c>
       <c r="AE31" s="25">
-        <v>101.86</v>
+        <v>102.11</v>
       </c>
       <c r="AF31" s="25">
-        <v>102.7</v>
+        <v>102.94</v>
       </c>
       <c r="AG31" s="25">
-        <v>103.54</v>
+        <v>103.78</v>
       </c>
       <c r="AH31" s="25">
-        <v>104</v>
+        <v>104.22</v>
       </c>
       <c r="AI31" s="25">
-        <v>104.26</v>
+        <v>104.49</v>
       </c>
       <c r="AJ31" s="25">
-        <v>104.36</v>
+        <v>104.62</v>
       </c>
       <c r="AK31" s="25">
-        <v>104.43</v>
+        <v>104.72</v>
       </c>
       <c r="AL31" s="25">
-        <v>104.92</v>
+        <v>105.43</v>
       </c>
       <c r="AM31" s="25">
-        <v>105.54</v>
+        <v>106.13</v>
       </c>
       <c r="AN31" s="25">
-        <v>105.46</v>
+        <v>106.04</v>
       </c>
       <c r="AO31" s="25">
-        <v>105.39</v>
+        <v>105.99</v>
       </c>
       <c r="AP31" s="25">
-        <v>103.75</v>
+        <v>104.41</v>
       </c>
       <c r="AQ31" s="25">
-        <v>103.1</v>
+        <v>103.87</v>
       </c>
       <c r="AR31" s="25">
-        <v>104.45</v>
+        <v>105.25</v>
       </c>
       <c r="AS31" s="25">
-        <v>104.85</v>
+        <v>105.64</v>
       </c>
       <c r="AT31" s="25">
-        <v>104.85</v>
+        <v>105.56</v>
       </c>
       <c r="AU31" s="25">
-        <v>104.56</v>
+        <v>105.24</v>
       </c>
       <c r="AV31" s="25">
-        <v>105.18</v>
+        <v>105.86</v>
       </c>
       <c r="AW31" s="25">
-        <v>105.52</v>
+        <v>106.19</v>
       </c>
       <c r="AX31" s="25">
-        <v>105.77</v>
+        <v>106.45</v>
       </c>
       <c r="AY31" s="25">
-        <v>106.19</v>
+        <v>106.9</v>
       </c>
       <c r="AZ31" s="25">
-        <v>105.9</v>
+        <v>106.68</v>
       </c>
       <c r="BA31" s="25">
+        <v>105.35</v>
+      </c>
+      <c r="BB31" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="BC31" s="25">
+        <v>93.85</v>
+      </c>
+      <c r="BD31" s="25">
+        <v>97.08</v>
+      </c>
+      <c r="BE31" s="25">
+        <v>101.3</v>
+      </c>
+      <c r="BF31" s="25">
+        <v>103.23</v>
+      </c>
+      <c r="BG31" s="25">
+        <v>103.74</v>
+      </c>
+      <c r="BH31" s="25">
+        <v>104.31</v>
+      </c>
+      <c r="BI31" s="25">
+        <v>104.93</v>
+      </c>
+      <c r="BJ31" s="25">
         <v>104.54</v>
       </c>
-      <c r="BB31" s="25">
-        <v>97.97</v>
-      </c>
-      <c r="BC31" s="25">
-        <v>92.67</v>
-      </c>
-      <c r="BD31" s="25">
-        <v>94.76</v>
-      </c>
-      <c r="BE31" s="25">
-        <v>98.7</v>
-      </c>
-      <c r="BF31" s="25">
-        <v>100.61</v>
-      </c>
-      <c r="BG31" s="25">
-        <v>100.67</v>
-      </c>
-      <c r="BH31" s="25">
-        <v>101.95</v>
-      </c>
-      <c r="BI31" s="25">
-        <v>102.37</v>
-      </c>
-      <c r="BJ31" s="25">
-        <v>101.87</v>
-      </c>
       <c r="BK31" s="25">
-        <v>101.36</v>
+        <v>104.38</v>
       </c>
       <c r="BL31" s="25">
-        <v>101.04</v>
+        <v>105.06</v>
       </c>
       <c r="BM31" s="25">
-        <v>100.22</v>
+        <v>104.29</v>
       </c>
       <c r="BN31" s="25">
-        <v>98.72</v>
+        <v>104.03</v>
       </c>
       <c r="BO31" s="25">
-        <v>97.63</v>
-      </c>
-      <c r="BP31" s="25"/>
-      <c r="BQ31" s="25"/>
+        <v>103.94</v>
+      </c>
+      <c r="BP31" s="25">
+        <v>101.14</v>
+      </c>
+      <c r="BQ31" s="25">
+        <v>97.67</v>
+      </c>
       <c r="BR31" s="25"/>
       <c r="BS31" s="25"/>
       <c r="BT31" s="25"/>
@@ -7221,49 +7325,49 @@
         <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.72</v>
+        <v>91.78</v>
       </c>
       <c r="D32" s="25">
-        <v>95.1</v>
+        <v>95.15</v>
       </c>
       <c r="E32" s="25">
-        <v>97.66</v>
+        <v>97.71</v>
       </c>
       <c r="F32" s="25">
-        <v>97.6</v>
+        <v>97.64</v>
       </c>
       <c r="G32" s="25">
-        <v>98.23</v>
+        <v>98.25</v>
       </c>
       <c r="H32" s="25">
-        <v>99.74</v>
+        <v>99.77</v>
       </c>
       <c r="I32" s="25">
-        <v>100.08</v>
+        <v>100.1</v>
       </c>
       <c r="J32" s="25">
-        <v>101.21</v>
+        <v>101.25</v>
       </c>
       <c r="K32" s="25">
-        <v>102.24</v>
+        <v>102.26</v>
       </c>
       <c r="L32" s="25">
-        <v>101.88</v>
+        <v>101.9</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
       </c>
       <c r="N32" s="25">
-        <v>98.4</v>
+        <v>98.41</v>
       </c>
       <c r="O32" s="25">
         <v>93.29</v>
       </c>
       <c r="P32" s="25">
-        <v>90.03</v>
+        <v>90.02</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.46</v>
+        <v>87.5</v>
       </c>
       <c r="R32" s="25">
         <v>87.9</v>
@@ -7272,151 +7376,155 @@
         <v>88.16</v>
       </c>
       <c r="T32" s="25">
-        <v>88.01</v>
+        <v>88</v>
       </c>
       <c r="U32" s="25">
         <v>88.95</v>
       </c>
       <c r="V32" s="25">
-        <v>89.87</v>
+        <v>89.85</v>
       </c>
       <c r="W32" s="25">
-        <v>90.87</v>
+        <v>90.85</v>
       </c>
       <c r="X32" s="25">
-        <v>91.38</v>
+        <v>91.36</v>
       </c>
       <c r="Y32" s="25">
-        <v>92.04</v>
+        <v>92.03</v>
       </c>
       <c r="Z32" s="25">
-        <v>93.05</v>
+        <v>93.03</v>
       </c>
       <c r="AA32" s="25">
-        <v>93.41</v>
+        <v>93.38</v>
       </c>
       <c r="AB32" s="25">
-        <v>93.19</v>
+        <v>93.15</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.83</v>
+        <v>93.82</v>
       </c>
       <c r="AD32" s="25">
-        <v>95.71</v>
+        <v>95.74</v>
       </c>
       <c r="AE32" s="25">
-        <v>95.44</v>
+        <v>95.46</v>
       </c>
       <c r="AF32" s="25">
-        <v>95.77</v>
+        <v>95.8</v>
       </c>
       <c r="AG32" s="25">
-        <v>96.05</v>
+        <v>96.07</v>
       </c>
       <c r="AH32" s="25">
-        <v>96.59</v>
+        <v>96.6</v>
       </c>
       <c r="AI32" s="25">
-        <v>96.77</v>
+        <v>96.79</v>
       </c>
       <c r="AJ32" s="25">
         <v>96.69</v>
       </c>
       <c r="AK32" s="25">
-        <v>96.13</v>
+        <v>96.16</v>
       </c>
       <c r="AL32" s="25">
-        <v>96.47</v>
+        <v>96.68</v>
       </c>
       <c r="AM32" s="25">
-        <v>96.96</v>
+        <v>97.24</v>
       </c>
       <c r="AN32" s="25">
-        <v>96.77</v>
+        <v>97.06</v>
       </c>
       <c r="AO32" s="25">
-        <v>96.5</v>
+        <v>96.76</v>
       </c>
       <c r="AP32" s="25">
-        <v>96.22</v>
+        <v>96.49</v>
       </c>
       <c r="AQ32" s="25">
-        <v>96.78</v>
+        <v>97.09</v>
       </c>
       <c r="AR32" s="25">
-        <v>97.59</v>
+        <v>97.91</v>
       </c>
       <c r="AS32" s="25">
-        <v>98.47</v>
+        <v>98.79</v>
       </c>
       <c r="AT32" s="25">
-        <v>98.08</v>
+        <v>98.41</v>
       </c>
       <c r="AU32" s="25">
-        <v>97.87</v>
+        <v>98.28</v>
       </c>
       <c r="AV32" s="25">
-        <v>98.02</v>
+        <v>98.41</v>
       </c>
       <c r="AW32" s="25">
-        <v>98.84</v>
+        <v>99.24</v>
       </c>
       <c r="AX32" s="25">
-        <v>98.68</v>
+        <v>99.13</v>
       </c>
       <c r="AY32" s="25">
-        <v>98.84</v>
+        <v>99.24</v>
       </c>
       <c r="AZ32" s="25">
-        <v>98.96</v>
+        <v>99.32</v>
       </c>
       <c r="BA32" s="25">
-        <v>97.64</v>
+        <v>97.94</v>
       </c>
       <c r="BB32" s="25">
-        <v>91.81</v>
+        <v>92.13</v>
       </c>
       <c r="BC32" s="25">
-        <v>88.81</v>
+        <v>89.26</v>
       </c>
       <c r="BD32" s="25">
-        <v>90.99</v>
+        <v>91.99</v>
       </c>
       <c r="BE32" s="25">
-        <v>93.54</v>
+        <v>94.88</v>
       </c>
       <c r="BF32" s="25">
-        <v>95.5</v>
+        <v>96.83</v>
       </c>
       <c r="BG32" s="25">
-        <v>96.74</v>
+        <v>98.11</v>
       </c>
       <c r="BH32" s="25">
-        <v>97.42</v>
+        <v>98.82</v>
       </c>
       <c r="BI32" s="25">
-        <v>97.89</v>
+        <v>99.44</v>
       </c>
       <c r="BJ32" s="25">
-        <v>97.81</v>
+        <v>99.31</v>
       </c>
       <c r="BK32" s="25">
-        <v>98.3</v>
+        <v>99.9</v>
       </c>
       <c r="BL32" s="25">
-        <v>98.5</v>
+        <v>100.45</v>
       </c>
       <c r="BM32" s="25">
-        <v>98.57</v>
+        <v>100.33</v>
       </c>
       <c r="BN32" s="25">
-        <v>97.19</v>
+        <v>99.92</v>
       </c>
       <c r="BO32" s="25">
-        <v>97.65</v>
-      </c>
-      <c r="BP32" s="25"/>
-      <c r="BQ32" s="25"/>
+        <v>100.91</v>
+      </c>
+      <c r="BP32" s="25">
+        <v>99.27</v>
+      </c>
+      <c r="BQ32" s="25">
+        <v>98.27</v>
+      </c>
       <c r="BR32" s="25"/>
       <c r="BS32" s="25"/>
       <c r="BT32" s="25"/>
@@ -7432,7 +7540,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="25">
         <v>96.87</v>
@@ -7441,7 +7549,7 @@
         <v>97.15</v>
       </c>
       <c r="E33" s="25">
-        <v>98.22</v>
+        <v>98.23</v>
       </c>
       <c r="F33" s="25">
         <v>98.15</v>
@@ -7474,31 +7582,31 @@
         <v>97.41</v>
       </c>
       <c r="P33" s="25">
-        <v>96.19</v>
+        <v>96.18</v>
       </c>
       <c r="Q33" s="25">
-        <v>96.15</v>
+        <v>96.14</v>
       </c>
       <c r="R33" s="25">
-        <v>96.14</v>
+        <v>96.13</v>
       </c>
       <c r="S33" s="25">
-        <v>96.53</v>
+        <v>96.52</v>
       </c>
       <c r="T33" s="25">
-        <v>96.81</v>
+        <v>96.8</v>
       </c>
       <c r="U33" s="25">
-        <v>96.42</v>
+        <v>96.41</v>
       </c>
       <c r="V33" s="25">
-        <v>96.88</v>
+        <v>96.87</v>
       </c>
       <c r="W33" s="25">
         <v>97.13</v>
       </c>
       <c r="X33" s="25">
-        <v>96.85</v>
+        <v>96.84</v>
       </c>
       <c r="Y33" s="25">
         <v>96.63</v>
@@ -7516,121 +7624,125 @@
         <v>97.05</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.84</v>
+        <v>97.85</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.78</v>
+        <v>97.79</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.57</v>
+        <v>97.58</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.95</v>
+        <v>97.96</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.71</v>
+        <v>97.72</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.51</v>
+        <v>97.52</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.73</v>
+        <v>97.74</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.84</v>
+        <v>97.94</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.21</v>
+        <v>98.36</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.29</v>
+        <v>98.44</v>
       </c>
       <c r="AO33" s="25">
-        <v>97.97</v>
+        <v>98.12</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.8</v>
+        <v>97.94</v>
       </c>
       <c r="AQ33" s="25">
-        <v>97.83</v>
+        <v>97.99</v>
       </c>
       <c r="AR33" s="25">
-        <v>98.38</v>
+        <v>98.53</v>
       </c>
       <c r="AS33" s="25">
-        <v>98.51</v>
+        <v>98.67</v>
       </c>
       <c r="AT33" s="25">
-        <v>97.73</v>
+        <v>97.87</v>
       </c>
       <c r="AU33" s="25">
-        <v>97.89</v>
+        <v>98.02</v>
       </c>
       <c r="AV33" s="25">
-        <v>98.22</v>
+        <v>98.35</v>
       </c>
       <c r="AW33" s="25">
-        <v>98.29</v>
+        <v>98.42</v>
       </c>
       <c r="AX33" s="25">
-        <v>98.3</v>
+        <v>98.43</v>
       </c>
       <c r="AY33" s="25">
-        <v>98.73</v>
+        <v>98.84</v>
       </c>
       <c r="AZ33" s="25">
-        <v>98.28</v>
+        <v>98.4</v>
       </c>
       <c r="BA33" s="25">
-        <v>98.43</v>
+        <v>98.54</v>
       </c>
       <c r="BB33" s="25">
-        <v>96.2</v>
+        <v>96.31</v>
       </c>
       <c r="BC33" s="25">
-        <v>94.1</v>
+        <v>94.23</v>
       </c>
       <c r="BD33" s="25">
-        <v>93.73</v>
+        <v>94.23</v>
       </c>
       <c r="BE33" s="25">
-        <v>95.03</v>
+        <v>95.84</v>
       </c>
       <c r="BF33" s="25">
-        <v>95.58</v>
+        <v>96.48</v>
       </c>
       <c r="BG33" s="25">
-        <v>95.92</v>
+        <v>97.02</v>
       </c>
       <c r="BH33" s="25">
-        <v>96.55</v>
+        <v>97.39</v>
       </c>
       <c r="BI33" s="25">
-        <v>97.07</v>
+        <v>98.02</v>
       </c>
       <c r="BJ33" s="25">
-        <v>97.36</v>
+        <v>98.25</v>
       </c>
       <c r="BK33" s="25">
-        <v>97.91</v>
+        <v>98.79</v>
       </c>
       <c r="BL33" s="25">
-        <v>98.54</v>
+        <v>99.2</v>
       </c>
       <c r="BM33" s="25">
-        <v>99.48</v>
+        <v>99.72</v>
       </c>
       <c r="BN33" s="25">
-        <v>99.47</v>
+        <v>100.05</v>
       </c>
       <c r="BO33" s="25">
-        <v>100.25</v>
-      </c>
-      <c r="BP33" s="25"/>
-      <c r="BQ33" s="25"/>
+        <v>100</v>
+      </c>
+      <c r="BP33" s="25">
+        <v>99.49</v>
+      </c>
+      <c r="BQ33" s="25">
+        <v>100.73</v>
+      </c>
       <c r="BR33" s="25"/>
       <c r="BS33" s="25"/>
       <c r="BT33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897651E1-DAC6-4835-A39B-C04780BE127E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056C514F-5EC5-4DF3-A7B9-416FE73187F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,25 +102,25 @@
     <t>200+ employees</t>
   </si>
   <si>
-    <t>Week ending Saturday 10 April 2021</t>
+    <t>Released at 11.30am (Canberra time) 11 May 2021</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 28 April 2021</t>
+    <t>Week ending Saturday 24 April 2021</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs indexes by Employer characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+  </si>
+  <si>
+    <t>State or Territory</t>
   </si>
   <si>
     <t>Employment size</t>
   </si>
   <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by Employment size</t>
-  </si>
-  <si>
-    <t>State or Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
-  </si>
-  <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs indexes by Employer characteristics</t>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by employment size</t>
   </si>
 </sst>
 </file>
@@ -1119,12 +1119,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1567,9 +1567,9 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="5"/>
@@ -1654,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1857,8 +1857,12 @@
       <c r="BQ6" s="24">
         <v>44296</v>
       </c>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="24"/>
+      <c r="BR6" s="24">
+        <v>44303</v>
+      </c>
+      <c r="BS6" s="24">
+        <v>44310</v>
+      </c>
       <c r="BT6" s="24"/>
       <c r="BU6" s="24"/>
       <c r="BV6" s="24"/>
@@ -1875,7 +1879,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="25">
-        <v>87.92</v>
+        <v>87.28</v>
       </c>
       <c r="D7" s="25">
         <v>92.03</v>
@@ -1896,10 +1900,10 @@
         <v>98.06</v>
       </c>
       <c r="J7" s="25">
-        <v>98.57</v>
+        <v>98.56</v>
       </c>
       <c r="K7" s="25">
-        <v>99.06</v>
+        <v>99.05</v>
       </c>
       <c r="L7" s="25">
         <v>99.98</v>
@@ -1914,70 +1918,70 @@
         <v>93.97</v>
       </c>
       <c r="P7" s="25">
-        <v>90.77</v>
+        <v>90.74</v>
       </c>
       <c r="Q7" s="25">
-        <v>89.02</v>
+        <v>88.95</v>
       </c>
       <c r="R7" s="25">
-        <v>88.84</v>
+        <v>88.77</v>
       </c>
       <c r="S7" s="25">
-        <v>89.6</v>
+        <v>89.53</v>
       </c>
       <c r="T7" s="25">
-        <v>90.78</v>
+        <v>90.71</v>
       </c>
       <c r="U7" s="25">
-        <v>92.14</v>
+        <v>92.06</v>
       </c>
       <c r="V7" s="25">
-        <v>93.31</v>
+        <v>93.24</v>
       </c>
       <c r="W7" s="25">
-        <v>93.91</v>
+        <v>93.84</v>
       </c>
       <c r="X7" s="25">
-        <v>94.43</v>
+        <v>94.35</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.73</v>
+        <v>95.66</v>
       </c>
       <c r="Z7" s="25">
-        <v>96.25</v>
+        <v>96.18</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.81</v>
+        <v>96.73</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.73</v>
+        <v>97.66</v>
       </c>
       <c r="AC7" s="25">
-        <v>100.09</v>
+        <v>100.07</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.97</v>
+        <v>100.98</v>
       </c>
       <c r="AE7" s="25">
-        <v>101.16</v>
+        <v>101.17</v>
       </c>
       <c r="AF7" s="25">
-        <v>101.61</v>
+        <v>101.63</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.77</v>
+        <v>101.78</v>
       </c>
       <c r="AH7" s="25">
-        <v>101.83</v>
+        <v>101.84</v>
       </c>
       <c r="AI7" s="25">
-        <v>101.85</v>
+        <v>101.87</v>
       </c>
       <c r="AJ7" s="25">
-        <v>102.01</v>
+        <v>102.02</v>
       </c>
       <c r="AK7" s="25">
-        <v>102.29</v>
+        <v>102.3</v>
       </c>
       <c r="AL7" s="25">
         <v>102.77</v>
@@ -1986,97 +1990,101 @@
         <v>103.45</v>
       </c>
       <c r="AN7" s="25">
-        <v>103.55</v>
+        <v>103.56</v>
       </c>
       <c r="AO7" s="25">
-        <v>103.39</v>
+        <v>103.42</v>
       </c>
       <c r="AP7" s="25">
-        <v>102.24</v>
+        <v>102.3</v>
       </c>
       <c r="AQ7" s="25">
-        <v>102.26</v>
+        <v>102.33</v>
       </c>
       <c r="AR7" s="25">
-        <v>103.05</v>
+        <v>103.14</v>
       </c>
       <c r="AS7" s="25">
-        <v>103.46</v>
+        <v>103.56</v>
       </c>
       <c r="AT7" s="25">
-        <v>103.71</v>
+        <v>103.81</v>
       </c>
       <c r="AU7" s="25">
-        <v>104.19</v>
+        <v>104.29</v>
       </c>
       <c r="AV7" s="25">
-        <v>105.02</v>
+        <v>105.13</v>
       </c>
       <c r="AW7" s="25">
-        <v>105.44</v>
+        <v>105.55</v>
       </c>
       <c r="AX7" s="25">
-        <v>105.85</v>
+        <v>105.96</v>
       </c>
       <c r="AY7" s="25">
-        <v>106.26</v>
+        <v>106.39</v>
       </c>
       <c r="AZ7" s="25">
-        <v>106.35</v>
+        <v>106.49</v>
       </c>
       <c r="BA7" s="25">
-        <v>105.1</v>
+        <v>105.24</v>
       </c>
       <c r="BB7" s="25">
-        <v>99.54</v>
+        <v>99.71</v>
       </c>
       <c r="BC7" s="25">
-        <v>94.89</v>
+        <v>95.09</v>
       </c>
       <c r="BD7" s="25">
-        <v>97.64</v>
+        <v>97.49</v>
       </c>
       <c r="BE7" s="25">
-        <v>101.24</v>
+        <v>100.96</v>
       </c>
       <c r="BF7" s="25">
-        <v>102.43</v>
+        <v>102.74</v>
       </c>
       <c r="BG7" s="25">
-        <v>102.75</v>
+        <v>103.38</v>
       </c>
       <c r="BH7" s="25">
-        <v>102.9</v>
+        <v>103.67</v>
       </c>
       <c r="BI7" s="25">
-        <v>103.35</v>
+        <v>104.18</v>
       </c>
       <c r="BJ7" s="25">
-        <v>103.19</v>
+        <v>104.12</v>
       </c>
       <c r="BK7" s="25">
-        <v>103.38</v>
+        <v>104.24</v>
       </c>
       <c r="BL7" s="25">
-        <v>104.18</v>
+        <v>104.53</v>
       </c>
       <c r="BM7" s="25">
-        <v>103.77</v>
+        <v>104.89</v>
       </c>
       <c r="BN7" s="25">
-        <v>103.55</v>
+        <v>105.38</v>
       </c>
       <c r="BO7" s="25">
-        <v>103.51</v>
+        <v>105.22</v>
       </c>
       <c r="BP7" s="25">
-        <v>101.1</v>
+        <v>103.42</v>
       </c>
       <c r="BQ7" s="25">
-        <v>98.36</v>
-      </c>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="25"/>
+        <v>101</v>
+      </c>
+      <c r="BR7" s="25">
+        <v>99.99</v>
+      </c>
+      <c r="BS7" s="25">
+        <v>99.71</v>
+      </c>
       <c r="BT7" s="25"/>
       <c r="BU7" s="25"/>
       <c r="BV7" s="25"/>
@@ -2093,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="25">
-        <v>92.68</v>
+        <v>92.07</v>
       </c>
       <c r="D8" s="25">
         <v>95.49</v>
@@ -2120,7 +2128,7 @@
         <v>100.29</v>
       </c>
       <c r="L8" s="25">
-        <v>100.15</v>
+        <v>100.16</v>
       </c>
       <c r="M8" s="25">
         <v>100</v>
@@ -2129,13 +2137,13 @@
         <v>98.26</v>
       </c>
       <c r="O8" s="25">
-        <v>92.89</v>
+        <v>92.9</v>
       </c>
       <c r="P8" s="25">
         <v>89.52</v>
       </c>
       <c r="Q8" s="25">
-        <v>88.06</v>
+        <v>88.07</v>
       </c>
       <c r="R8" s="25">
         <v>87.92</v>
@@ -2147,7 +2155,7 @@
         <v>89.39</v>
       </c>
       <c r="U8" s="25">
-        <v>90.05</v>
+        <v>90.06</v>
       </c>
       <c r="V8" s="25">
         <v>90.72</v>
@@ -2168,133 +2176,137 @@
         <v>93.38</v>
       </c>
       <c r="AB8" s="25">
-        <v>93.03</v>
+        <v>93.04</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.55</v>
+        <v>93.56</v>
       </c>
       <c r="AD8" s="25">
-        <v>94.07</v>
+        <v>94.09</v>
       </c>
       <c r="AE8" s="25">
-        <v>94.3</v>
+        <v>94.32</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.8</v>
+        <v>94.82</v>
       </c>
       <c r="AG8" s="25">
-        <v>94.96</v>
+        <v>94.98</v>
       </c>
       <c r="AH8" s="25">
-        <v>94.75</v>
+        <v>94.77</v>
       </c>
       <c r="AI8" s="25">
-        <v>94.66</v>
+        <v>94.69</v>
       </c>
       <c r="AJ8" s="25">
-        <v>94.71</v>
+        <v>94.73</v>
       </c>
       <c r="AK8" s="25">
-        <v>94.89</v>
+        <v>94.91</v>
       </c>
       <c r="AL8" s="25">
-        <v>95.36</v>
+        <v>95.37</v>
       </c>
       <c r="AM8" s="25">
-        <v>95.99</v>
+        <v>96</v>
       </c>
       <c r="AN8" s="25">
-        <v>96.11</v>
+        <v>96.13</v>
       </c>
       <c r="AO8" s="25">
-        <v>95.92</v>
+        <v>95.96</v>
       </c>
       <c r="AP8" s="25">
-        <v>95.16</v>
+        <v>95.2</v>
       </c>
       <c r="AQ8" s="25">
-        <v>95.22</v>
+        <v>95.27</v>
       </c>
       <c r="AR8" s="25">
-        <v>96.21</v>
+        <v>96.26</v>
       </c>
       <c r="AS8" s="25">
-        <v>96.66</v>
+        <v>96.73</v>
       </c>
       <c r="AT8" s="25">
-        <v>96.77</v>
+        <v>96.84</v>
       </c>
       <c r="AU8" s="25">
-        <v>97.2</v>
+        <v>97.25</v>
       </c>
       <c r="AV8" s="25">
-        <v>97.85</v>
+        <v>97.9</v>
       </c>
       <c r="AW8" s="25">
+        <v>98.21</v>
+      </c>
+      <c r="AX8" s="25">
+        <v>98.56</v>
+      </c>
+      <c r="AY8" s="25">
+        <v>98.92</v>
+      </c>
+      <c r="AZ8" s="25">
+        <v>98.95</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>97.88</v>
+      </c>
+      <c r="BB8" s="25">
+        <v>93.38</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>90.74</v>
+      </c>
+      <c r="BD8" s="25">
+        <v>92.67</v>
+      </c>
+      <c r="BE8" s="25">
+        <v>95.06</v>
+      </c>
+      <c r="BF8" s="25">
+        <v>96.6</v>
+      </c>
+      <c r="BG8" s="25">
+        <v>97.45</v>
+      </c>
+      <c r="BH8" s="25">
         <v>98.16</v>
       </c>
-      <c r="AX8" s="25">
-        <v>98.51</v>
-      </c>
-      <c r="AY8" s="25">
-        <v>98.83</v>
-      </c>
-      <c r="AZ8" s="25">
-        <v>98.85</v>
-      </c>
-      <c r="BA8" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="BB8" s="25">
-        <v>93.27</v>
-      </c>
-      <c r="BC8" s="25">
-        <v>90.7</v>
-      </c>
-      <c r="BD8" s="25">
-        <v>93.08</v>
-      </c>
-      <c r="BE8" s="25">
-        <v>95.67</v>
-      </c>
-      <c r="BF8" s="25">
-        <v>96.76</v>
-      </c>
-      <c r="BG8" s="25">
-        <v>97.32</v>
-      </c>
-      <c r="BH8" s="25">
-        <v>98.07</v>
-      </c>
       <c r="BI8" s="25">
+        <v>98.66</v>
+      </c>
+      <c r="BJ8" s="25">
         <v>98.58</v>
       </c>
-      <c r="BJ8" s="25">
-        <v>98.49</v>
-      </c>
       <c r="BK8" s="25">
-        <v>99.04</v>
+        <v>99.06</v>
       </c>
       <c r="BL8" s="25">
-        <v>99.65</v>
+        <v>99.15</v>
       </c>
       <c r="BM8" s="25">
-        <v>99.79</v>
+        <v>99.75</v>
       </c>
       <c r="BN8" s="25">
-        <v>100.21</v>
+        <v>100.58</v>
       </c>
       <c r="BO8" s="25">
-        <v>100.5</v>
+        <v>100.75</v>
       </c>
       <c r="BP8" s="25">
-        <v>99.57</v>
+        <v>100.05</v>
       </c>
       <c r="BQ8" s="25">
-        <v>98.6</v>
-      </c>
-      <c r="BR8" s="25"/>
-      <c r="BS8" s="25"/>
+        <v>98.92</v>
+      </c>
+      <c r="BR8" s="25">
+        <v>98.78</v>
+      </c>
+      <c r="BS8" s="25">
+        <v>99.16</v>
+      </c>
       <c r="BT8" s="25"/>
       <c r="BU8" s="25"/>
       <c r="BV8" s="25"/>
@@ -2311,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="25">
-        <v>96.58</v>
+        <v>96.21</v>
       </c>
       <c r="D9" s="25">
         <v>97.03</v>
@@ -2329,7 +2341,7 @@
         <v>99.1</v>
       </c>
       <c r="I9" s="25">
-        <v>99.63</v>
+        <v>99.62</v>
       </c>
       <c r="J9" s="25">
         <v>99.5</v>
@@ -2353,16 +2365,16 @@
         <v>95.59</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.65</v>
+        <v>94.66</v>
       </c>
       <c r="R9" s="25">
-        <v>94.76</v>
+        <v>94.77</v>
       </c>
       <c r="S9" s="25">
         <v>95.04</v>
       </c>
       <c r="T9" s="25">
-        <v>95.09</v>
+        <v>95.1</v>
       </c>
       <c r="U9" s="25">
         <v>95.43</v>
@@ -2374,7 +2386,7 @@
         <v>95.94</v>
       </c>
       <c r="X9" s="25">
-        <v>96.45</v>
+        <v>96.46</v>
       </c>
       <c r="Y9" s="25">
         <v>97.26</v>
@@ -2386,133 +2398,137 @@
         <v>97.19</v>
       </c>
       <c r="AB9" s="25">
-        <v>95.95</v>
+        <v>95.96</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.58</v>
+        <v>96.6</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.84</v>
+        <v>97.86</v>
       </c>
       <c r="AE9" s="25">
+        <v>97.8</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>97.73</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>97.96</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>97.97</v>
+      </c>
+      <c r="AI9" s="25">
         <v>97.78</v>
       </c>
-      <c r="AF9" s="25">
-        <v>97.71</v>
-      </c>
-      <c r="AG9" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>97.95</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>97.76</v>
-      </c>
       <c r="AJ9" s="25">
-        <v>97.75</v>
+        <v>97.77</v>
       </c>
       <c r="AK9" s="25">
-        <v>97.76</v>
+        <v>97.78</v>
       </c>
       <c r="AL9" s="25">
         <v>97.85</v>
       </c>
       <c r="AM9" s="25">
+        <v>98.1</v>
+      </c>
+      <c r="AN9" s="25">
+        <v>98.31</v>
+      </c>
+      <c r="AO9" s="25">
+        <v>98.04</v>
+      </c>
+      <c r="AP9" s="25">
+        <v>97.32</v>
+      </c>
+      <c r="AQ9" s="25">
+        <v>97.45</v>
+      </c>
+      <c r="AR9" s="25">
+        <v>98.03</v>
+      </c>
+      <c r="AS9" s="25">
         <v>98.11</v>
       </c>
-      <c r="AN9" s="25">
-        <v>98.32</v>
-      </c>
-      <c r="AO9" s="25">
-        <v>98.02</v>
-      </c>
-      <c r="AP9" s="25">
-        <v>97.3</v>
-      </c>
-      <c r="AQ9" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="AR9" s="25">
-        <v>97.98</v>
-      </c>
-      <c r="AS9" s="25">
-        <v>98.04</v>
-      </c>
       <c r="AT9" s="25">
-        <v>98.15</v>
+        <v>98.21</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.35</v>
+        <v>98.4</v>
       </c>
       <c r="AV9" s="25">
-        <v>99.02</v>
+        <v>99.06</v>
       </c>
       <c r="AW9" s="25">
-        <v>99.21</v>
+        <v>99.27</v>
       </c>
       <c r="AX9" s="25">
-        <v>99.36</v>
+        <v>99.46</v>
       </c>
       <c r="AY9" s="25">
-        <v>99.97</v>
+        <v>100.04</v>
       </c>
       <c r="AZ9" s="25">
-        <v>99.97</v>
+        <v>100.05</v>
       </c>
       <c r="BA9" s="25">
-        <v>99.48</v>
+        <v>99.56</v>
       </c>
       <c r="BB9" s="25">
-        <v>97</v>
+        <v>97.08</v>
       </c>
       <c r="BC9" s="25">
-        <v>94.83</v>
+        <v>94.88</v>
       </c>
       <c r="BD9" s="25">
-        <v>95.24</v>
+        <v>94.99</v>
       </c>
       <c r="BE9" s="25">
-        <v>96.61</v>
+        <v>96.13</v>
       </c>
       <c r="BF9" s="25">
-        <v>97.16</v>
+        <v>96.98</v>
       </c>
       <c r="BG9" s="25">
-        <v>97.76</v>
+        <v>97.81</v>
       </c>
       <c r="BH9" s="25">
-        <v>97.98</v>
+        <v>98.06</v>
       </c>
       <c r="BI9" s="25">
-        <v>98.76</v>
+        <v>98.84</v>
       </c>
       <c r="BJ9" s="25">
-        <v>99.01</v>
+        <v>99.1</v>
       </c>
       <c r="BK9" s="25">
-        <v>99.33</v>
+        <v>99.44</v>
       </c>
       <c r="BL9" s="25">
-        <v>99.88</v>
+        <v>99.6</v>
       </c>
       <c r="BM9" s="25">
-        <v>100.33</v>
+        <v>99.77</v>
       </c>
       <c r="BN9" s="25">
-        <v>100.71</v>
+        <v>100.21</v>
       </c>
       <c r="BO9" s="25">
-        <v>100.47</v>
+        <v>100.03</v>
       </c>
       <c r="BP9" s="25">
+        <v>99.69</v>
+      </c>
+      <c r="BQ9" s="25">
+        <v>99.82</v>
+      </c>
+      <c r="BR9" s="25">
         <v>100.23</v>
       </c>
-      <c r="BQ9" s="25">
-        <v>100.53</v>
-      </c>
-      <c r="BR9" s="25"/>
-      <c r="BS9" s="25"/>
+      <c r="BS9" s="25">
+        <v>101.14</v>
+      </c>
       <c r="BT9" s="25"/>
       <c r="BU9" s="25"/>
       <c r="BV9" s="25"/>
@@ -2529,7 +2545,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="25">
-        <v>87.6</v>
+        <v>86.99</v>
       </c>
       <c r="D10" s="25">
         <v>91.67</v>
@@ -2538,7 +2554,7 @@
         <v>94.36</v>
       </c>
       <c r="F10" s="25">
-        <v>95.49</v>
+        <v>95.48</v>
       </c>
       <c r="G10" s="25">
         <v>96.37</v>
@@ -2553,10 +2569,10 @@
         <v>98.5</v>
       </c>
       <c r="K10" s="25">
-        <v>98.97</v>
+        <v>98.96</v>
       </c>
       <c r="L10" s="25">
-        <v>99.98</v>
+        <v>99.97</v>
       </c>
       <c r="M10" s="25">
         <v>100</v>
@@ -2565,172 +2581,176 @@
         <v>98.78</v>
       </c>
       <c r="O10" s="25">
-        <v>94.09</v>
+        <v>94.1</v>
       </c>
       <c r="P10" s="25">
-        <v>91</v>
+        <v>90.97</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.28</v>
+        <v>89.19</v>
       </c>
       <c r="R10" s="25">
-        <v>89.01</v>
+        <v>88.91</v>
       </c>
       <c r="S10" s="25">
-        <v>89.67</v>
+        <v>89.57</v>
       </c>
       <c r="T10" s="25">
-        <v>90.88</v>
+        <v>90.78</v>
       </c>
       <c r="U10" s="25">
-        <v>92.52</v>
+        <v>92.42</v>
       </c>
       <c r="V10" s="25">
-        <v>94.43</v>
+        <v>94.33</v>
       </c>
       <c r="W10" s="25">
-        <v>94.98</v>
+        <v>94.87</v>
       </c>
       <c r="X10" s="25">
-        <v>95.54</v>
+        <v>95.44</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.94</v>
+        <v>96.84</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.64</v>
+        <v>96.54</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.96</v>
+        <v>96.86</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.88</v>
+        <v>97.78</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.82</v>
+        <v>100.79</v>
       </c>
       <c r="AD10" s="25">
-        <v>102.05</v>
+        <v>102.07</v>
       </c>
       <c r="AE10" s="25">
-        <v>102.28</v>
+        <v>102.3</v>
       </c>
       <c r="AF10" s="25">
-        <v>102.84</v>
+        <v>102.86</v>
       </c>
       <c r="AG10" s="25">
-        <v>103</v>
+        <v>103.03</v>
       </c>
       <c r="AH10" s="25">
-        <v>103.29</v>
+        <v>103.32</v>
       </c>
       <c r="AI10" s="25">
-        <v>103.53</v>
+        <v>103.56</v>
       </c>
       <c r="AJ10" s="25">
-        <v>103.84</v>
+        <v>103.85</v>
       </c>
       <c r="AK10" s="25">
-        <v>104.03</v>
+        <v>104.04</v>
       </c>
       <c r="AL10" s="25">
-        <v>104.66</v>
+        <v>104.67</v>
       </c>
       <c r="AM10" s="25">
         <v>105.34</v>
       </c>
       <c r="AN10" s="25">
-        <v>105.42</v>
+        <v>105.45</v>
       </c>
       <c r="AO10" s="25">
-        <v>105.34</v>
+        <v>105.39</v>
       </c>
       <c r="AP10" s="25">
-        <v>103.77</v>
+        <v>103.84</v>
       </c>
       <c r="AQ10" s="25">
-        <v>103.4</v>
+        <v>103.48</v>
       </c>
       <c r="AR10" s="25">
-        <v>104.28</v>
+        <v>104.37</v>
       </c>
       <c r="AS10" s="25">
-        <v>104.68</v>
+        <v>104.78</v>
       </c>
       <c r="AT10" s="25">
-        <v>104.59</v>
+        <v>104.71</v>
       </c>
       <c r="AU10" s="25">
-        <v>104.99</v>
+        <v>105.13</v>
       </c>
       <c r="AV10" s="25">
-        <v>105.91</v>
+        <v>106.05</v>
       </c>
       <c r="AW10" s="25">
-        <v>106.52</v>
+        <v>106.65</v>
       </c>
       <c r="AX10" s="25">
-        <v>106.72</v>
+        <v>106.85</v>
       </c>
       <c r="AY10" s="25">
-        <v>106.89</v>
+        <v>107.03</v>
       </c>
       <c r="AZ10" s="25">
-        <v>106.78</v>
+        <v>106.9</v>
       </c>
       <c r="BA10" s="25">
-        <v>105.39</v>
+        <v>105.48</v>
       </c>
       <c r="BB10" s="25">
-        <v>99.67</v>
+        <v>99.81</v>
       </c>
       <c r="BC10" s="25">
-        <v>94.7</v>
+        <v>94.9</v>
       </c>
       <c r="BD10" s="25">
-        <v>97.11</v>
+        <v>97.1</v>
       </c>
       <c r="BE10" s="25">
-        <v>100.64</v>
+        <v>100.59</v>
       </c>
       <c r="BF10" s="25">
-        <v>101.76</v>
+        <v>102.27</v>
       </c>
       <c r="BG10" s="25">
-        <v>102.13</v>
+        <v>102.92</v>
       </c>
       <c r="BH10" s="25">
-        <v>102.28</v>
+        <v>103.24</v>
       </c>
       <c r="BI10" s="25">
-        <v>102.68</v>
+        <v>103.68</v>
       </c>
       <c r="BJ10" s="25">
-        <v>102.32</v>
+        <v>103.44</v>
       </c>
       <c r="BK10" s="25">
-        <v>102.28</v>
+        <v>103.35</v>
       </c>
       <c r="BL10" s="25">
-        <v>103.15</v>
+        <v>103.76</v>
       </c>
       <c r="BM10" s="25">
-        <v>102.59</v>
+        <v>104.05</v>
       </c>
       <c r="BN10" s="25">
-        <v>102.06</v>
+        <v>104.23</v>
       </c>
       <c r="BO10" s="25">
-        <v>101.86</v>
+        <v>103.98</v>
       </c>
       <c r="BP10" s="25">
-        <v>99.38</v>
+        <v>102.38</v>
       </c>
       <c r="BQ10" s="25">
-        <v>95.91</v>
-      </c>
-      <c r="BR10" s="25"/>
-      <c r="BS10" s="25"/>
+        <v>99.28</v>
+      </c>
+      <c r="BR10" s="25">
+        <v>98.11</v>
+      </c>
+      <c r="BS10" s="25">
+        <v>97.89</v>
+      </c>
       <c r="BT10" s="25"/>
       <c r="BU10" s="25"/>
       <c r="BV10" s="25"/>
@@ -2747,19 +2767,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="25">
-        <v>92.99</v>
+        <v>92.37</v>
       </c>
       <c r="D11" s="25">
         <v>95.77</v>
       </c>
       <c r="E11" s="25">
-        <v>97.59</v>
+        <v>97.6</v>
       </c>
       <c r="F11" s="25">
-        <v>98.3</v>
+        <v>98.31</v>
       </c>
       <c r="G11" s="25">
-        <v>98.81</v>
+        <v>98.82</v>
       </c>
       <c r="H11" s="25">
         <v>99.54</v>
@@ -2768,10 +2788,10 @@
         <v>99.74</v>
       </c>
       <c r="J11" s="25">
-        <v>100.17</v>
+        <v>100.18</v>
       </c>
       <c r="K11" s="25">
-        <v>100.29</v>
+        <v>100.3</v>
       </c>
       <c r="L11" s="25">
         <v>100.09</v>
@@ -2789,13 +2809,13 @@
         <v>89.13</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.75</v>
+        <v>87.76</v>
       </c>
       <c r="R11" s="25">
-        <v>87.84</v>
+        <v>87.85</v>
       </c>
       <c r="S11" s="25">
-        <v>88.47</v>
+        <v>88.48</v>
       </c>
       <c r="T11" s="25">
         <v>89.17</v>
@@ -2804,16 +2824,16 @@
         <v>89.86</v>
       </c>
       <c r="V11" s="25">
-        <v>90.36</v>
+        <v>90.37</v>
       </c>
       <c r="W11" s="25">
-        <v>90.81</v>
+        <v>90.82</v>
       </c>
       <c r="X11" s="25">
         <v>91.35</v>
       </c>
       <c r="Y11" s="25">
-        <v>92.43</v>
+        <v>92.44</v>
       </c>
       <c r="Z11" s="25">
         <v>93.13</v>
@@ -2822,133 +2842,137 @@
         <v>93.29</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.98</v>
+        <v>92.99</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.59</v>
+        <v>93.62</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.72</v>
+        <v>94.76</v>
       </c>
       <c r="AE11" s="25">
-        <v>95.21</v>
+        <v>95.25</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.61</v>
+        <v>95.65</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.74</v>
+        <v>95.78</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.78</v>
+        <v>95.81</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.94</v>
+        <v>95.97</v>
       </c>
       <c r="AJ11" s="25">
-        <v>96.23</v>
+        <v>96.26</v>
       </c>
       <c r="AK11" s="25">
-        <v>96.45</v>
+        <v>96.48</v>
       </c>
       <c r="AL11" s="25">
-        <v>96.85</v>
+        <v>96.87</v>
       </c>
       <c r="AM11" s="25">
-        <v>97.24</v>
+        <v>97.27</v>
       </c>
       <c r="AN11" s="25">
-        <v>97.36</v>
+        <v>97.4</v>
       </c>
       <c r="AO11" s="25">
-        <v>97.39</v>
+        <v>97.45</v>
       </c>
       <c r="AP11" s="25">
-        <v>96.56</v>
+        <v>96.63</v>
       </c>
       <c r="AQ11" s="25">
-        <v>96.21</v>
+        <v>96.31</v>
       </c>
       <c r="AR11" s="25">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="AS11" s="25">
-        <v>97.51</v>
+        <v>97.63</v>
       </c>
       <c r="AT11" s="25">
-        <v>97.32</v>
+        <v>97.43</v>
       </c>
       <c r="AU11" s="25">
-        <v>97.65</v>
+        <v>97.72</v>
       </c>
       <c r="AV11" s="25">
-        <v>98.21</v>
+        <v>98.29</v>
       </c>
       <c r="AW11" s="25">
-        <v>98.74</v>
+        <v>98.81</v>
       </c>
       <c r="AX11" s="25">
-        <v>98.89</v>
+        <v>98.97</v>
       </c>
       <c r="AY11" s="25">
-        <v>98.97</v>
+        <v>99.09</v>
       </c>
       <c r="AZ11" s="25">
+        <v>99.08</v>
+      </c>
+      <c r="BA11" s="25">
+        <v>98.05</v>
+      </c>
+      <c r="BB11" s="25">
+        <v>93.48</v>
+      </c>
+      <c r="BC11" s="25">
+        <v>90.66</v>
+      </c>
+      <c r="BD11" s="25">
+        <v>92.92</v>
+      </c>
+      <c r="BE11" s="25">
+        <v>95.31</v>
+      </c>
+      <c r="BF11" s="25">
+        <v>96.79</v>
+      </c>
+      <c r="BG11" s="25">
+        <v>97.63</v>
+      </c>
+      <c r="BH11" s="25">
+        <v>98.46</v>
+      </c>
+      <c r="BI11" s="25">
+        <v>98.83</v>
+      </c>
+      <c r="BJ11" s="25">
+        <v>98.42</v>
+      </c>
+      <c r="BK11" s="25">
+        <v>98.91</v>
+      </c>
+      <c r="BL11" s="25">
+        <v>99.07</v>
+      </c>
+      <c r="BM11" s="25">
+        <v>99.57</v>
+      </c>
+      <c r="BN11" s="25">
+        <v>100.32</v>
+      </c>
+      <c r="BO11" s="25">
+        <v>100.35</v>
+      </c>
+      <c r="BP11" s="25">
+        <v>100.03</v>
+      </c>
+      <c r="BQ11" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="BR11" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="BS11" s="25">
         <v>98.94</v>
       </c>
-      <c r="BA11" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="BB11" s="25">
-        <v>93.36</v>
-      </c>
-      <c r="BC11" s="25">
-        <v>90.6</v>
-      </c>
-      <c r="BD11" s="25">
-        <v>93.19</v>
-      </c>
-      <c r="BE11" s="25">
-        <v>95.73</v>
-      </c>
-      <c r="BF11" s="25">
-        <v>96.87</v>
-      </c>
-      <c r="BG11" s="25">
-        <v>97.5</v>
-      </c>
-      <c r="BH11" s="25">
-        <v>98.4</v>
-      </c>
-      <c r="BI11" s="25">
-        <v>98.76</v>
-      </c>
-      <c r="BJ11" s="25">
-        <v>98.33</v>
-      </c>
-      <c r="BK11" s="25">
-        <v>98.87</v>
-      </c>
-      <c r="BL11" s="25">
-        <v>99.54</v>
-      </c>
-      <c r="BM11" s="25">
-        <v>99.54</v>
-      </c>
-      <c r="BN11" s="25">
-        <v>99.96</v>
-      </c>
-      <c r="BO11" s="25">
-        <v>100.13</v>
-      </c>
-      <c r="BP11" s="25">
-        <v>99.43</v>
-      </c>
-      <c r="BQ11" s="25">
-        <v>97.96</v>
-      </c>
-      <c r="BR11" s="25"/>
-      <c r="BS11" s="25"/>
       <c r="BT11" s="25"/>
       <c r="BU11" s="25"/>
       <c r="BV11" s="25"/>
@@ -2965,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="25">
-        <v>96.67</v>
+        <v>96.29</v>
       </c>
       <c r="D12" s="25">
         <v>96.83</v>
@@ -2986,7 +3010,7 @@
         <v>99.94</v>
       </c>
       <c r="J12" s="25">
-        <v>99.56</v>
+        <v>99.55</v>
       </c>
       <c r="K12" s="25">
         <v>99.28</v>
@@ -3001,25 +3025,25 @@
         <v>99.48</v>
       </c>
       <c r="O12" s="25">
-        <v>97.6</v>
+        <v>97.61</v>
       </c>
       <c r="P12" s="25">
         <v>95.95</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.11</v>
+        <v>95.12</v>
       </c>
       <c r="R12" s="25">
-        <v>94.84</v>
+        <v>94.85</v>
       </c>
       <c r="S12" s="25">
-        <v>94.9</v>
+        <v>94.91</v>
       </c>
       <c r="T12" s="25">
         <v>95.09</v>
       </c>
       <c r="U12" s="25">
-        <v>95.53</v>
+        <v>95.54</v>
       </c>
       <c r="V12" s="25">
         <v>95.87</v>
@@ -3028,34 +3052,34 @@
         <v>96.35</v>
       </c>
       <c r="X12" s="25">
-        <v>97.08</v>
+        <v>97.09</v>
       </c>
       <c r="Y12" s="25">
-        <v>98.11</v>
+        <v>98.12</v>
       </c>
       <c r="Z12" s="25">
         <v>97.96</v>
       </c>
       <c r="AA12" s="25">
-        <v>97.63</v>
+        <v>97.64</v>
       </c>
       <c r="AB12" s="25">
-        <v>96.97</v>
+        <v>96.98</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.19</v>
+        <v>97.2</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.32</v>
+        <v>98.33</v>
       </c>
       <c r="AE12" s="25">
-        <v>98.12</v>
+        <v>98.13</v>
       </c>
       <c r="AF12" s="25">
-        <v>98.18</v>
+        <v>98.19</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.7</v>
+        <v>98.71</v>
       </c>
       <c r="AH12" s="25">
         <v>98.81</v>
@@ -3064,109 +3088,113 @@
         <v>98.76</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="AK12" s="25">
         <v>98.84</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.8</v>
+        <v>98.78</v>
       </c>
       <c r="AM12" s="25">
-        <v>99.06</v>
+        <v>99.04</v>
       </c>
       <c r="AN12" s="25">
-        <v>99.32</v>
+        <v>99.3</v>
       </c>
       <c r="AO12" s="25">
         <v>99.2</v>
       </c>
       <c r="AP12" s="25">
-        <v>98.23</v>
+        <v>98.25</v>
       </c>
       <c r="AQ12" s="25">
-        <v>98.03</v>
+        <v>98.09</v>
       </c>
       <c r="AR12" s="25">
+        <v>99.05</v>
+      </c>
+      <c r="AS12" s="25">
+        <v>99.13</v>
+      </c>
+      <c r="AT12" s="25">
         <v>98.99</v>
       </c>
-      <c r="AS12" s="25">
-        <v>99.05</v>
-      </c>
-      <c r="AT12" s="25">
-        <v>98.89</v>
-      </c>
       <c r="AU12" s="25">
-        <v>98.93</v>
+        <v>98.99</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.43</v>
+        <v>99.5</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.84</v>
+        <v>99.93</v>
       </c>
       <c r="AX12" s="25">
-        <v>100.07</v>
+        <v>100.16</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.65</v>
+        <v>100.7</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.66</v>
+        <v>100.69</v>
       </c>
       <c r="BA12" s="25">
-        <v>100.34</v>
+        <v>100.37</v>
       </c>
       <c r="BB12" s="25">
-        <v>98.08</v>
+        <v>98.12</v>
       </c>
       <c r="BC12" s="25">
-        <v>95.32</v>
+        <v>95.36</v>
       </c>
       <c r="BD12" s="25">
-        <v>95.73</v>
+        <v>95.53</v>
       </c>
       <c r="BE12" s="25">
-        <v>97.16</v>
+        <v>96.74</v>
       </c>
       <c r="BF12" s="25">
-        <v>97.66</v>
+        <v>97.51</v>
       </c>
       <c r="BG12" s="25">
-        <v>98.38</v>
+        <v>98.47</v>
       </c>
       <c r="BH12" s="25">
-        <v>98.35</v>
+        <v>98.48</v>
       </c>
       <c r="BI12" s="25">
-        <v>99.14</v>
+        <v>99.28</v>
       </c>
       <c r="BJ12" s="25">
-        <v>99.26</v>
+        <v>99.41</v>
       </c>
       <c r="BK12" s="25">
-        <v>99.64</v>
+        <v>99.77</v>
       </c>
       <c r="BL12" s="25">
-        <v>100.11</v>
+        <v>99.85</v>
       </c>
       <c r="BM12" s="25">
-        <v>100.58</v>
+        <v>100</v>
       </c>
       <c r="BN12" s="25">
-        <v>100.84</v>
+        <v>100.32</v>
       </c>
       <c r="BO12" s="25">
-        <v>100.68</v>
+        <v>100.22</v>
       </c>
       <c r="BP12" s="25">
-        <v>100.51</v>
+        <v>99.99</v>
       </c>
       <c r="BQ12" s="25">
-        <v>100.91</v>
-      </c>
-      <c r="BR12" s="25"/>
-      <c r="BS12" s="25"/>
+        <v>100.15</v>
+      </c>
+      <c r="BR12" s="25">
+        <v>100.36</v>
+      </c>
+      <c r="BS12" s="25">
+        <v>101.19</v>
+      </c>
       <c r="BT12" s="25"/>
       <c r="BU12" s="25"/>
       <c r="BV12" s="25"/>
@@ -3183,10 +3211,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="25">
-        <v>87.9</v>
+        <v>87.33</v>
       </c>
       <c r="D13" s="25">
-        <v>90.86</v>
+        <v>90.87</v>
       </c>
       <c r="E13" s="25">
         <v>93.67</v>
@@ -3198,7 +3226,7 @@
         <v>96</v>
       </c>
       <c r="H13" s="25">
-        <v>97.42</v>
+        <v>97.43</v>
       </c>
       <c r="I13" s="25">
         <v>98</v>
@@ -3207,7 +3235,7 @@
         <v>98.49</v>
       </c>
       <c r="K13" s="25">
-        <v>99.04</v>
+        <v>99.03</v>
       </c>
       <c r="L13" s="25">
         <v>100.02</v>
@@ -3222,55 +3250,55 @@
         <v>93.75</v>
       </c>
       <c r="P13" s="25">
-        <v>90.53</v>
+        <v>90.5</v>
       </c>
       <c r="Q13" s="25">
-        <v>88.94</v>
+        <v>88.86</v>
       </c>
       <c r="R13" s="25">
-        <v>88.74</v>
+        <v>88.66</v>
       </c>
       <c r="S13" s="25">
-        <v>89.52</v>
+        <v>89.43</v>
       </c>
       <c r="T13" s="25">
-        <v>90.69</v>
+        <v>90.6</v>
       </c>
       <c r="U13" s="25">
-        <v>91.76</v>
+        <v>91.67</v>
       </c>
       <c r="V13" s="25">
-        <v>92.41</v>
+        <v>92.33</v>
       </c>
       <c r="W13" s="25">
-        <v>92.86</v>
+        <v>92.77</v>
       </c>
       <c r="X13" s="25">
-        <v>93.45</v>
+        <v>93.37</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.83</v>
+        <v>94.75</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.58</v>
+        <v>95.5</v>
       </c>
       <c r="AA13" s="25">
-        <v>96.15</v>
+        <v>96.07</v>
       </c>
       <c r="AB13" s="25">
-        <v>97.02</v>
+        <v>96.94</v>
       </c>
       <c r="AC13" s="25">
-        <v>99.1</v>
+        <v>99.06</v>
       </c>
       <c r="AD13" s="25">
-        <v>99.3</v>
+        <v>99.29</v>
       </c>
       <c r="AE13" s="25">
         <v>98.99</v>
       </c>
       <c r="AF13" s="25">
-        <v>99.14</v>
+        <v>99.13</v>
       </c>
       <c r="AG13" s="25">
         <v>98.97</v>
@@ -3282,109 +3310,113 @@
         <v>97.54</v>
       </c>
       <c r="AJ13" s="25">
-        <v>97.21</v>
+        <v>97.2</v>
       </c>
       <c r="AK13" s="25">
-        <v>97.5</v>
+        <v>97.49</v>
       </c>
       <c r="AL13" s="25">
-        <v>97.89</v>
+        <v>97.87</v>
       </c>
       <c r="AM13" s="25">
-        <v>98.44</v>
+        <v>98.41</v>
       </c>
       <c r="AN13" s="25">
-        <v>98.64</v>
+        <v>98.63</v>
       </c>
       <c r="AO13" s="25">
-        <v>98.63</v>
+        <v>98.65</v>
       </c>
       <c r="AP13" s="25">
-        <v>98</v>
+        <v>98.04</v>
       </c>
       <c r="AQ13" s="25">
-        <v>98.3</v>
+        <v>98.35</v>
       </c>
       <c r="AR13" s="25">
-        <v>99.05</v>
+        <v>99.11</v>
       </c>
       <c r="AS13" s="25">
-        <v>99.47</v>
+        <v>99.53</v>
       </c>
       <c r="AT13" s="25">
-        <v>100.43</v>
+        <v>100.5</v>
       </c>
       <c r="AU13" s="25">
-        <v>101.34</v>
+        <v>101.42</v>
       </c>
       <c r="AV13" s="25">
-        <v>102.52</v>
+        <v>102.62</v>
       </c>
       <c r="AW13" s="25">
-        <v>103.33</v>
+        <v>103.43</v>
       </c>
       <c r="AX13" s="25">
+        <v>104.15</v>
+      </c>
+      <c r="AY13" s="25">
+        <v>104.77</v>
+      </c>
+      <c r="AZ13" s="25">
+        <v>105.19</v>
+      </c>
+      <c r="BA13" s="25">
+        <v>104.46</v>
+      </c>
+      <c r="BB13" s="25">
+        <v>99.86</v>
+      </c>
+      <c r="BC13" s="25">
+        <v>95.63</v>
+      </c>
+      <c r="BD13" s="25">
+        <v>96.53</v>
+      </c>
+      <c r="BE13" s="25">
+        <v>99.54</v>
+      </c>
+      <c r="BF13" s="25">
+        <v>101.44</v>
+      </c>
+      <c r="BG13" s="25">
+        <v>102.21</v>
+      </c>
+      <c r="BH13" s="25">
+        <v>102.9</v>
+      </c>
+      <c r="BI13" s="25">
+        <v>102.95</v>
+      </c>
+      <c r="BJ13" s="25">
+        <v>102.84</v>
+      </c>
+      <c r="BK13" s="25">
+        <v>103.34</v>
+      </c>
+      <c r="BL13" s="25">
+        <v>103.74</v>
+      </c>
+      <c r="BM13" s="25">
         <v>104.04</v>
       </c>
-      <c r="AY13" s="25">
-        <v>104.61</v>
-      </c>
-      <c r="AZ13" s="25">
-        <v>105.02</v>
-      </c>
-      <c r="BA13" s="25">
-        <v>104.28</v>
-      </c>
-      <c r="BB13" s="25">
-        <v>99.63</v>
-      </c>
-      <c r="BC13" s="25">
-        <v>95.36</v>
-      </c>
-      <c r="BD13" s="25">
-        <v>96.76</v>
-      </c>
-      <c r="BE13" s="25">
-        <v>99.94</v>
-      </c>
-      <c r="BF13" s="25">
-        <v>101.12</v>
-      </c>
-      <c r="BG13" s="25">
-        <v>101.56</v>
-      </c>
-      <c r="BH13" s="25">
-        <v>102.07</v>
-      </c>
-      <c r="BI13" s="25">
-        <v>102.06</v>
-      </c>
-      <c r="BJ13" s="25">
-        <v>101.84</v>
-      </c>
-      <c r="BK13" s="25">
-        <v>102.37</v>
-      </c>
-      <c r="BL13" s="25">
-        <v>103.19</v>
-      </c>
-      <c r="BM13" s="25">
-        <v>102.76</v>
-      </c>
       <c r="BN13" s="25">
-        <v>102.8</v>
+        <v>104.78</v>
       </c>
       <c r="BO13" s="25">
-        <v>102.81</v>
+        <v>104.66</v>
       </c>
       <c r="BP13" s="25">
-        <v>100.57</v>
+        <v>102.88</v>
       </c>
       <c r="BQ13" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="BR13" s="25"/>
-      <c r="BS13" s="25"/>
+        <v>100.36</v>
+      </c>
+      <c r="BR13" s="25">
+        <v>98.95</v>
+      </c>
+      <c r="BS13" s="25">
+        <v>98.42</v>
+      </c>
       <c r="BT13" s="25"/>
       <c r="BU13" s="25"/>
       <c r="BV13" s="25"/>
@@ -3401,7 +3433,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.9</v>
+        <v>90.52</v>
       </c>
       <c r="D14" s="25">
         <v>93.7</v>
@@ -3413,7 +3445,7 @@
         <v>97.09</v>
       </c>
       <c r="G14" s="25">
-        <v>97.79</v>
+        <v>97.78</v>
       </c>
       <c r="H14" s="25">
         <v>99.33</v>
@@ -3422,10 +3454,10 @@
         <v>99.48</v>
       </c>
       <c r="J14" s="25">
-        <v>100.09</v>
+        <v>100.08</v>
       </c>
       <c r="K14" s="25">
-        <v>100.2</v>
+        <v>100.19</v>
       </c>
       <c r="L14" s="25">
         <v>100.12</v>
@@ -3437,37 +3469,37 @@
         <v>98.34</v>
       </c>
       <c r="O14" s="25">
-        <v>93.17</v>
+        <v>93.18</v>
       </c>
       <c r="P14" s="25">
-        <v>89.68</v>
+        <v>89.69</v>
       </c>
       <c r="Q14" s="25">
         <v>88.37</v>
       </c>
       <c r="R14" s="25">
-        <v>87.77</v>
+        <v>87.78</v>
       </c>
       <c r="S14" s="25">
-        <v>88.49</v>
+        <v>88.5</v>
       </c>
       <c r="T14" s="25">
-        <v>89.33</v>
+        <v>89.34</v>
       </c>
       <c r="U14" s="25">
-        <v>89.63</v>
+        <v>89.64</v>
       </c>
       <c r="V14" s="25">
-        <v>90.18</v>
+        <v>90.19</v>
       </c>
       <c r="W14" s="25">
-        <v>90.4</v>
+        <v>90.41</v>
       </c>
       <c r="X14" s="25">
-        <v>90.93</v>
+        <v>90.94</v>
       </c>
       <c r="Y14" s="25">
-        <v>91.51</v>
+        <v>91.52</v>
       </c>
       <c r="Z14" s="25">
         <v>92.29</v>
@@ -3479,31 +3511,31 @@
         <v>92.06</v>
       </c>
       <c r="AC14" s="25">
-        <v>92.32</v>
+        <v>92.33</v>
       </c>
       <c r="AD14" s="25">
-        <v>91.32</v>
+        <v>91.34</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.88</v>
+        <v>90.9</v>
       </c>
       <c r="AF14" s="25">
-        <v>91.65</v>
+        <v>91.67</v>
       </c>
       <c r="AG14" s="25">
-        <v>91.68</v>
+        <v>91.7</v>
       </c>
       <c r="AH14" s="25">
-        <v>90.63</v>
+        <v>90.66</v>
       </c>
       <c r="AI14" s="25">
-        <v>89.85</v>
+        <v>89.88</v>
       </c>
       <c r="AJ14" s="25">
-        <v>89.43</v>
+        <v>89.44</v>
       </c>
       <c r="AK14" s="25">
-        <v>89.59</v>
+        <v>89.6</v>
       </c>
       <c r="AL14" s="25">
         <v>90.22</v>
@@ -3512,97 +3544,101 @@
         <v>90.95</v>
       </c>
       <c r="AN14" s="25">
-        <v>91.17</v>
+        <v>91.18</v>
       </c>
       <c r="AO14" s="25">
-        <v>91.02</v>
+        <v>91.05</v>
       </c>
       <c r="AP14" s="25">
-        <v>90.24</v>
+        <v>90.28</v>
       </c>
       <c r="AQ14" s="25">
-        <v>90.45</v>
+        <v>90.47</v>
       </c>
       <c r="AR14" s="25">
-        <v>91.86</v>
+        <v>91.89</v>
       </c>
       <c r="AS14" s="25">
-        <v>92.53</v>
+        <v>92.58</v>
       </c>
       <c r="AT14" s="25">
-        <v>93.33</v>
+        <v>93.37</v>
       </c>
       <c r="AU14" s="25">
-        <v>94.06</v>
+        <v>94.09</v>
       </c>
       <c r="AV14" s="25">
-        <v>95.17</v>
+        <v>95.19</v>
       </c>
       <c r="AW14" s="25">
-        <v>95.52</v>
+        <v>95.55</v>
       </c>
       <c r="AX14" s="25">
-        <v>96.32</v>
+        <v>96.35</v>
       </c>
       <c r="AY14" s="25">
-        <v>96.71</v>
+        <v>96.78</v>
       </c>
       <c r="AZ14" s="25">
-        <v>97.05</v>
+        <v>97.15</v>
       </c>
       <c r="BA14" s="25">
-        <v>96.27</v>
+        <v>96.37</v>
       </c>
       <c r="BB14" s="25">
-        <v>91.81</v>
+        <v>91.91</v>
       </c>
       <c r="BC14" s="25">
-        <v>89.31</v>
+        <v>89.36</v>
       </c>
       <c r="BD14" s="25">
-        <v>90.75</v>
+        <v>90.19</v>
       </c>
       <c r="BE14" s="25">
-        <v>93.31</v>
+        <v>92.56</v>
       </c>
       <c r="BF14" s="25">
-        <v>94.39</v>
+        <v>94.22</v>
       </c>
       <c r="BG14" s="25">
-        <v>95.05</v>
+        <v>95.2</v>
       </c>
       <c r="BH14" s="25">
-        <v>96.48</v>
+        <v>96.56</v>
       </c>
       <c r="BI14" s="25">
-        <v>96.77</v>
+        <v>96.81</v>
       </c>
       <c r="BJ14" s="25">
-        <v>96.93</v>
+        <v>97</v>
       </c>
       <c r="BK14" s="25">
         <v>97.65</v>
       </c>
       <c r="BL14" s="25">
-        <v>98.27</v>
+        <v>97.81</v>
       </c>
       <c r="BM14" s="25">
-        <v>98.62</v>
+        <v>98.56</v>
       </c>
       <c r="BN14" s="25">
-        <v>99.09</v>
+        <v>99.45</v>
       </c>
       <c r="BO14" s="25">
-        <v>99.24</v>
+        <v>99.52</v>
       </c>
       <c r="BP14" s="25">
-        <v>98.24</v>
+        <v>98.7</v>
       </c>
       <c r="BQ14" s="25">
-        <v>97.13</v>
-      </c>
-      <c r="BR14" s="25"/>
-      <c r="BS14" s="25"/>
+        <v>97.65</v>
+      </c>
+      <c r="BR14" s="25">
+        <v>97.3</v>
+      </c>
+      <c r="BS14" s="25">
+        <v>97.79</v>
+      </c>
       <c r="BT14" s="25"/>
       <c r="BU14" s="25"/>
       <c r="BV14" s="25"/>
@@ -3619,16 +3655,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="25">
-        <v>96.23</v>
+        <v>96</v>
       </c>
       <c r="D15" s="25">
         <v>96.75</v>
       </c>
       <c r="E15" s="25">
-        <v>97.97</v>
+        <v>97.96</v>
       </c>
       <c r="F15" s="25">
-        <v>98.86</v>
+        <v>98.85</v>
       </c>
       <c r="G15" s="25">
         <v>99.29</v>
@@ -3658,19 +3694,19 @@
         <v>96.99</v>
       </c>
       <c r="P15" s="25">
-        <v>94.82</v>
+        <v>94.83</v>
       </c>
       <c r="Q15" s="25">
-        <v>94.2</v>
+        <v>94.21</v>
       </c>
       <c r="R15" s="25">
         <v>94.57</v>
       </c>
       <c r="S15" s="25">
-        <v>95.26</v>
+        <v>95.27</v>
       </c>
       <c r="T15" s="25">
-        <v>94.68</v>
+        <v>94.69</v>
       </c>
       <c r="U15" s="25">
         <v>94.7</v>
@@ -3679,7 +3715,7 @@
         <v>94.55</v>
       </c>
       <c r="W15" s="25">
-        <v>94.72</v>
+        <v>94.73</v>
       </c>
       <c r="X15" s="25">
         <v>95.47</v>
@@ -3721,25 +3757,25 @@
         <v>95.75</v>
       </c>
       <c r="AK15" s="25">
-        <v>95.9</v>
+        <v>95.89</v>
       </c>
       <c r="AL15" s="25">
-        <v>96.01</v>
+        <v>95.97</v>
       </c>
       <c r="AM15" s="25">
-        <v>96.15</v>
+        <v>96.1</v>
       </c>
       <c r="AN15" s="25">
-        <v>96.24</v>
+        <v>96.19</v>
       </c>
       <c r="AO15" s="25">
-        <v>96.08</v>
+        <v>96.06</v>
       </c>
       <c r="AP15" s="25">
-        <v>95.36</v>
+        <v>95.35</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.96</v>
+        <v>95.95</v>
       </c>
       <c r="AR15" s="25">
         <v>95.96</v>
@@ -3748,79 +3784,83 @@
         <v>96.1</v>
       </c>
       <c r="AT15" s="25">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="AU15" s="25">
-        <v>97.35</v>
+        <v>97.37</v>
       </c>
       <c r="AV15" s="25">
         <v>98.09</v>
       </c>
       <c r="AW15" s="25">
-        <v>98.34</v>
+        <v>98.37</v>
       </c>
       <c r="AX15" s="25">
-        <v>98.68</v>
+        <v>98.86</v>
       </c>
       <c r="AY15" s="25">
+        <v>99.61</v>
+      </c>
+      <c r="AZ15" s="25">
         <v>99.46</v>
       </c>
-      <c r="AZ15" s="25">
-        <v>99.3</v>
-      </c>
       <c r="BA15" s="25">
-        <v>98.91</v>
+        <v>99.09</v>
       </c>
       <c r="BB15" s="25">
-        <v>96.7</v>
+        <v>96.84</v>
       </c>
       <c r="BC15" s="25">
-        <v>95.01</v>
+        <v>95.13</v>
       </c>
       <c r="BD15" s="25">
-        <v>95.26</v>
+        <v>94.99</v>
       </c>
       <c r="BE15" s="25">
-        <v>96.56</v>
+        <v>96.04</v>
       </c>
       <c r="BF15" s="25">
-        <v>97.13</v>
+        <v>96.94</v>
       </c>
       <c r="BG15" s="25">
-        <v>97.73</v>
+        <v>97.75</v>
       </c>
       <c r="BH15" s="25">
-        <v>98.46</v>
+        <v>98.52</v>
       </c>
       <c r="BI15" s="25">
-        <v>99.18</v>
+        <v>99.29</v>
       </c>
       <c r="BJ15" s="25">
-        <v>99.43</v>
+        <v>99.53</v>
       </c>
       <c r="BK15" s="25">
-        <v>99.81</v>
+        <v>99.86</v>
       </c>
       <c r="BL15" s="25">
-        <v>100.22</v>
+        <v>99.89</v>
       </c>
       <c r="BM15" s="25">
-        <v>100.83</v>
+        <v>100.16</v>
       </c>
       <c r="BN15" s="25">
-        <v>101.29</v>
+        <v>100.61</v>
       </c>
       <c r="BO15" s="25">
-        <v>101.12</v>
+        <v>100.37</v>
       </c>
       <c r="BP15" s="25">
-        <v>100.83</v>
+        <v>99.97</v>
       </c>
       <c r="BQ15" s="25">
-        <v>100.86</v>
-      </c>
-      <c r="BR15" s="25"/>
-      <c r="BS15" s="25"/>
+        <v>100.25</v>
+      </c>
+      <c r="BR15" s="25">
+        <v>100.87</v>
+      </c>
+      <c r="BS15" s="25">
+        <v>101.99</v>
+      </c>
       <c r="BT15" s="25"/>
       <c r="BU15" s="25"/>
       <c r="BV15" s="25"/>
@@ -3837,7 +3877,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="25">
-        <v>87.23</v>
+        <v>86.31</v>
       </c>
       <c r="D16" s="25">
         <v>92.55</v>
@@ -3852,13 +3892,13 @@
         <v>97.06</v>
       </c>
       <c r="H16" s="25">
-        <v>97.81</v>
+        <v>97.8</v>
       </c>
       <c r="I16" s="25">
-        <v>98.14</v>
+        <v>98.13</v>
       </c>
       <c r="J16" s="25">
-        <v>98.68</v>
+        <v>98.67</v>
       </c>
       <c r="K16" s="25">
         <v>99.15</v>
@@ -3870,175 +3910,179 @@
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>98.94</v>
+        <v>98.95</v>
       </c>
       <c r="O16" s="25">
         <v>94.16</v>
       </c>
       <c r="P16" s="25">
-        <v>90.81</v>
+        <v>90.8</v>
       </c>
       <c r="Q16" s="25">
-        <v>88.83</v>
+        <v>88.79</v>
       </c>
       <c r="R16" s="25">
-        <v>88.81</v>
+        <v>88.77</v>
       </c>
       <c r="S16" s="25">
-        <v>89.78</v>
+        <v>89.74</v>
       </c>
       <c r="T16" s="25">
-        <v>90.92</v>
+        <v>90.87</v>
       </c>
       <c r="U16" s="25">
-        <v>92.21</v>
+        <v>92.16</v>
       </c>
       <c r="V16" s="25">
-        <v>93.21</v>
+        <v>93.17</v>
       </c>
       <c r="W16" s="25">
-        <v>93.87</v>
+        <v>93.82</v>
       </c>
       <c r="X16" s="25">
-        <v>94.14</v>
+        <v>94.09</v>
       </c>
       <c r="Y16" s="25">
-        <v>95.32</v>
+        <v>95.28</v>
       </c>
       <c r="Z16" s="25">
-        <v>96.15</v>
+        <v>96.1</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.85</v>
+        <v>96.81</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.97</v>
+        <v>97.93</v>
       </c>
       <c r="AC16" s="25">
         <v>100.07</v>
       </c>
       <c r="AD16" s="25">
-        <v>101.13</v>
+        <v>101.16</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.77</v>
+        <v>101.8</v>
       </c>
       <c r="AF16" s="25">
-        <v>102.24</v>
+        <v>102.27</v>
       </c>
       <c r="AG16" s="25">
-        <v>102.58</v>
+        <v>102.61</v>
       </c>
       <c r="AH16" s="25">
-        <v>102.98</v>
+        <v>103.02</v>
       </c>
       <c r="AI16" s="25">
-        <v>103.14</v>
+        <v>103.17</v>
       </c>
       <c r="AJ16" s="25">
-        <v>103.5</v>
+        <v>103.52</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.74</v>
+        <v>103.75</v>
       </c>
       <c r="AL16" s="25">
-        <v>104.06</v>
+        <v>104.07</v>
       </c>
       <c r="AM16" s="25">
-        <v>104.95</v>
+        <v>104.97</v>
       </c>
       <c r="AN16" s="25">
-        <v>104.99</v>
+        <v>105.01</v>
       </c>
       <c r="AO16" s="25">
-        <v>104.45</v>
+        <v>104.49</v>
       </c>
       <c r="AP16" s="25">
-        <v>103.4</v>
+        <v>103.46</v>
       </c>
       <c r="AQ16" s="25">
-        <v>103.73</v>
+        <v>103.79</v>
       </c>
       <c r="AR16" s="25">
-        <v>104.3</v>
+        <v>104.38</v>
       </c>
       <c r="AS16" s="25">
-        <v>104.61</v>
+        <v>104.69</v>
       </c>
       <c r="AT16" s="25">
-        <v>104.73</v>
+        <v>104.81</v>
       </c>
       <c r="AU16" s="25">
-        <v>104.97</v>
+        <v>105.06</v>
       </c>
       <c r="AV16" s="25">
-        <v>105.5</v>
+        <v>105.59</v>
       </c>
       <c r="AW16" s="25">
-        <v>105.78</v>
+        <v>105.88</v>
       </c>
       <c r="AX16" s="25">
-        <v>106.04</v>
+        <v>106.13</v>
       </c>
       <c r="AY16" s="25">
-        <v>106.35</v>
+        <v>106.46</v>
       </c>
       <c r="AZ16" s="25">
-        <v>106.22</v>
+        <v>106.34</v>
       </c>
       <c r="BA16" s="25">
-        <v>104.57</v>
+        <v>104.7</v>
       </c>
       <c r="BB16" s="25">
-        <v>98.13</v>
+        <v>98.29</v>
       </c>
       <c r="BC16" s="25">
-        <v>93.05</v>
+        <v>93.21</v>
       </c>
       <c r="BD16" s="25">
-        <v>97.17</v>
+        <v>97.04</v>
       </c>
       <c r="BE16" s="25">
-        <v>101.61</v>
+        <v>101.35</v>
       </c>
       <c r="BF16" s="25">
-        <v>103.17</v>
+        <v>103.36</v>
       </c>
       <c r="BG16" s="25">
-        <v>103.53</v>
+        <v>104.01</v>
       </c>
       <c r="BH16" s="25">
-        <v>103.78</v>
+        <v>104.37</v>
       </c>
       <c r="BI16" s="25">
-        <v>104.16</v>
+        <v>104.8</v>
       </c>
       <c r="BJ16" s="25">
-        <v>103.99</v>
+        <v>104.72</v>
       </c>
       <c r="BK16" s="25">
-        <v>104.03</v>
+        <v>104.66</v>
       </c>
       <c r="BL16" s="25">
-        <v>104.8</v>
+        <v>104.71</v>
       </c>
       <c r="BM16" s="25">
-        <v>104.38</v>
+        <v>105.1</v>
       </c>
       <c r="BN16" s="25">
-        <v>104.08</v>
+        <v>105.63</v>
       </c>
       <c r="BO16" s="25">
-        <v>104.08</v>
+        <v>105.43</v>
       </c>
       <c r="BP16" s="25">
-        <v>101.35</v>
+        <v>102.97</v>
       </c>
       <c r="BQ16" s="25">
-        <v>99.47</v>
-      </c>
-      <c r="BR16" s="25"/>
-      <c r="BS16" s="25"/>
+        <v>101.12</v>
+      </c>
+      <c r="BR16" s="25">
+        <v>100.68</v>
+      </c>
+      <c r="BS16" s="25">
+        <v>100.37</v>
+      </c>
       <c r="BT16" s="25"/>
       <c r="BU16" s="25"/>
       <c r="BV16" s="25"/>
@@ -4055,7 +4099,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>92.83</v>
+        <v>91.69</v>
       </c>
       <c r="D17" s="25">
         <v>96.14</v>
@@ -4064,10 +4108,10 @@
         <v>98.13</v>
       </c>
       <c r="F17" s="25">
-        <v>98.8</v>
+        <v>98.79</v>
       </c>
       <c r="G17" s="25">
-        <v>99.1</v>
+        <v>99.09</v>
       </c>
       <c r="H17" s="25">
         <v>99.34</v>
@@ -4091,7 +4135,7 @@
         <v>98.39</v>
       </c>
       <c r="O17" s="25">
-        <v>92.84</v>
+        <v>92.83</v>
       </c>
       <c r="P17" s="25">
         <v>89.37</v>
@@ -4115,7 +4159,7 @@
         <v>90.89</v>
       </c>
       <c r="W17" s="25">
-        <v>91.08</v>
+        <v>91.07</v>
       </c>
       <c r="X17" s="25">
         <v>91.42</v>
@@ -4124,139 +4168,143 @@
         <v>92.49</v>
       </c>
       <c r="Z17" s="25">
-        <v>93.44</v>
+        <v>93.43</v>
       </c>
       <c r="AA17" s="25">
         <v>93.9</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.61</v>
+        <v>93.6</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.15</v>
+        <v>94.17</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.18</v>
+        <v>95.21</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.92</v>
+        <v>95.95</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.28</v>
+        <v>96.31</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.36</v>
+        <v>96.39</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.47</v>
+        <v>96.5</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.59</v>
+        <v>96.62</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.85</v>
+        <v>96.87</v>
       </c>
       <c r="AK17" s="25">
-        <v>96.98</v>
+        <v>97</v>
       </c>
       <c r="AL17" s="25">
-        <v>97.37</v>
+        <v>97.38</v>
       </c>
       <c r="AM17" s="25">
-        <v>98.37</v>
+        <v>98.38</v>
       </c>
       <c r="AN17" s="25">
-        <v>98.44</v>
+        <v>98.46</v>
       </c>
       <c r="AO17" s="25">
-        <v>97.82</v>
+        <v>97.86</v>
       </c>
       <c r="AP17" s="25">
-        <v>97.04</v>
+        <v>97.07</v>
       </c>
       <c r="AQ17" s="25">
-        <v>97.49</v>
+        <v>97.52</v>
       </c>
       <c r="AR17" s="25">
-        <v>98.28</v>
+        <v>98.31</v>
       </c>
       <c r="AS17" s="25">
-        <v>98.59</v>
+        <v>98.63</v>
       </c>
       <c r="AT17" s="25">
-        <v>98.36</v>
+        <v>98.4</v>
       </c>
       <c r="AU17" s="25">
-        <v>98.9</v>
+        <v>98.95</v>
       </c>
       <c r="AV17" s="25">
-        <v>99.32</v>
+        <v>99.37</v>
       </c>
       <c r="AW17" s="25">
-        <v>99.6</v>
+        <v>99.66</v>
       </c>
       <c r="AX17" s="25">
-        <v>99.5</v>
+        <v>99.56</v>
       </c>
       <c r="AY17" s="25">
-        <v>99.83</v>
+        <v>99.91</v>
       </c>
       <c r="AZ17" s="25">
-        <v>99.56</v>
+        <v>99.66</v>
       </c>
       <c r="BA17" s="25">
-        <v>98.11</v>
+        <v>98.21</v>
       </c>
       <c r="BB17" s="25">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="BC17" s="25">
-        <v>90.68</v>
+        <v>90.69</v>
       </c>
       <c r="BD17" s="25">
-        <v>93.74</v>
+        <v>93.34</v>
       </c>
       <c r="BE17" s="25">
-        <v>96.51</v>
+        <v>95.94</v>
       </c>
       <c r="BF17" s="25">
-        <v>97.95</v>
+        <v>97.79</v>
       </c>
       <c r="BG17" s="25">
-        <v>98.57</v>
+        <v>98.66</v>
       </c>
       <c r="BH17" s="25">
+        <v>99.07</v>
+      </c>
+      <c r="BI17" s="25">
+        <v>99.53</v>
+      </c>
+      <c r="BJ17" s="25">
+        <v>99.1</v>
+      </c>
+      <c r="BK17" s="25">
+        <v>99.64</v>
+      </c>
+      <c r="BL17" s="25">
+        <v>99.46</v>
+      </c>
+      <c r="BM17" s="25">
+        <v>99.97</v>
+      </c>
+      <c r="BN17" s="25">
+        <v>100.82</v>
+      </c>
+      <c r="BO17" s="25">
+        <v>100.83</v>
+      </c>
+      <c r="BP17" s="25">
+        <v>99.68</v>
+      </c>
+      <c r="BQ17" s="25">
+        <v>98.76</v>
+      </c>
+      <c r="BR17" s="25">
         <v>98.99</v>
       </c>
-      <c r="BI17" s="25">
-        <v>99.46</v>
-      </c>
-      <c r="BJ17" s="25">
-        <v>99.01</v>
-      </c>
-      <c r="BK17" s="25">
-        <v>99.65</v>
-      </c>
-      <c r="BL17" s="25">
-        <v>100.11</v>
-      </c>
-      <c r="BM17" s="25">
-        <v>100.06</v>
-      </c>
-      <c r="BN17" s="25">
-        <v>100.34</v>
-      </c>
-      <c r="BO17" s="25">
-        <v>100.56</v>
-      </c>
-      <c r="BP17" s="25">
-        <v>99.36</v>
-      </c>
-      <c r="BQ17" s="25">
-        <v>99.12</v>
-      </c>
-      <c r="BR17" s="25"/>
-      <c r="BS17" s="25"/>
+      <c r="BS17" s="25">
+        <v>99.72</v>
+      </c>
       <c r="BT17" s="25"/>
       <c r="BU17" s="25"/>
       <c r="BV17" s="25"/>
@@ -4273,10 +4321,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="25">
-        <v>96.83</v>
+        <v>96.12</v>
       </c>
       <c r="D18" s="25">
-        <v>97.36</v>
+        <v>97.37</v>
       </c>
       <c r="E18" s="25">
         <v>97.92</v>
@@ -4291,13 +4339,13 @@
         <v>98.76</v>
       </c>
       <c r="I18" s="25">
-        <v>99.51</v>
+        <v>99.52</v>
       </c>
       <c r="J18" s="25">
         <v>99.63</v>
       </c>
       <c r="K18" s="25">
-        <v>98.77</v>
+        <v>98.76</v>
       </c>
       <c r="L18" s="25">
         <v>99.43</v>
@@ -4336,10 +4384,10 @@
         <v>96.09</v>
       </c>
       <c r="X18" s="25">
-        <v>96.32</v>
+        <v>96.31</v>
       </c>
       <c r="Y18" s="25">
-        <v>96.87</v>
+        <v>96.86</v>
       </c>
       <c r="Z18" s="25">
         <v>97.08</v>
@@ -4351,130 +4399,134 @@
         <v>95.4</v>
       </c>
       <c r="AC18" s="25">
-        <v>95.86</v>
+        <v>95.89</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.24</v>
+        <v>97.27</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.45</v>
+        <v>97.48</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.67</v>
+        <v>97.7</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.25</v>
+        <v>97.29</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.51</v>
+        <v>97.54</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.28</v>
+        <v>97.3</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.67</v>
+        <v>97.68</v>
       </c>
       <c r="AK18" s="25">
-        <v>97.26</v>
+        <v>97.27</v>
       </c>
       <c r="AL18" s="25">
-        <v>97.63</v>
+        <v>97.65</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.92</v>
+        <v>97.94</v>
       </c>
       <c r="AN18" s="25">
-        <v>98.23</v>
+        <v>98.25</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.42</v>
+        <v>97.46</v>
       </c>
       <c r="AP18" s="25">
-        <v>96.74</v>
+        <v>96.79</v>
       </c>
       <c r="AQ18" s="25">
-        <v>97</v>
+        <v>97.05</v>
       </c>
       <c r="AR18" s="25">
-        <v>97.57</v>
+        <v>97.61</v>
       </c>
       <c r="AS18" s="25">
-        <v>97.4</v>
+        <v>97.44</v>
       </c>
       <c r="AT18" s="25">
-        <v>97.4</v>
+        <v>97.43</v>
       </c>
       <c r="AU18" s="25">
-        <v>97.46</v>
+        <v>97.49</v>
       </c>
       <c r="AV18" s="25">
-        <v>98.21</v>
+        <v>98.25</v>
       </c>
       <c r="AW18" s="25">
-        <v>98.14</v>
+        <v>98.2</v>
       </c>
       <c r="AX18" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="AY18" s="25">
+        <v>98.46</v>
+      </c>
+      <c r="AZ18" s="25">
+        <v>98.35</v>
+      </c>
+      <c r="BA18" s="25">
+        <v>97.59</v>
+      </c>
+      <c r="BB18" s="25">
+        <v>94.64</v>
+      </c>
+      <c r="BC18" s="25">
+        <v>92.83</v>
+      </c>
+      <c r="BD18" s="25">
+        <v>92.99</v>
+      </c>
+      <c r="BE18" s="25">
+        <v>94.12</v>
+      </c>
+      <c r="BF18" s="25">
+        <v>95.04</v>
+      </c>
+      <c r="BG18" s="25">
+        <v>95.71</v>
+      </c>
+      <c r="BH18" s="25">
+        <v>96.04</v>
+      </c>
+      <c r="BI18" s="25">
+        <v>96.87</v>
+      </c>
+      <c r="BJ18" s="25">
+        <v>97.15</v>
+      </c>
+      <c r="BK18" s="25">
+        <v>97.27</v>
+      </c>
+      <c r="BL18" s="25">
+        <v>97.62</v>
+      </c>
+      <c r="BM18" s="25">
+        <v>97.5</v>
+      </c>
+      <c r="BN18" s="25">
+        <v>98.29</v>
+      </c>
+      <c r="BO18" s="25">
+        <v>97.99</v>
+      </c>
+      <c r="BP18" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="BQ18" s="25">
+        <v>97.56</v>
+      </c>
+      <c r="BR18" s="25">
         <v>98.24</v>
       </c>
-      <c r="AY18" s="25">
-        <v>98.4</v>
-      </c>
-      <c r="AZ18" s="25">
-        <v>98.29</v>
-      </c>
-      <c r="BA18" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="BB18" s="25">
-        <v>94.59</v>
-      </c>
-      <c r="BC18" s="25">
-        <v>92.82</v>
-      </c>
-      <c r="BD18" s="25">
-        <v>93.27</v>
-      </c>
-      <c r="BE18" s="25">
-        <v>94.6</v>
-      </c>
-      <c r="BF18" s="25">
-        <v>95.24</v>
-      </c>
-      <c r="BG18" s="25">
-        <v>95.68</v>
-      </c>
-      <c r="BH18" s="25">
-        <v>95.99</v>
-      </c>
-      <c r="BI18" s="25">
-        <v>96.83</v>
-      </c>
-      <c r="BJ18" s="25">
-        <v>97.12</v>
-      </c>
-      <c r="BK18" s="25">
-        <v>97.28</v>
-      </c>
-      <c r="BL18" s="25">
-        <v>98</v>
-      </c>
-      <c r="BM18" s="25">
-        <v>98.06</v>
-      </c>
-      <c r="BN18" s="25">
-        <v>98.68</v>
-      </c>
-      <c r="BO18" s="25">
-        <v>98.26</v>
-      </c>
-      <c r="BP18" s="25">
-        <v>98.22</v>
-      </c>
-      <c r="BQ18" s="25">
-        <v>98.51</v>
-      </c>
-      <c r="BR18" s="25"/>
-      <c r="BS18" s="25"/>
+      <c r="BS18" s="25">
+        <v>98.91</v>
+      </c>
       <c r="BT18" s="25"/>
       <c r="BU18" s="25"/>
       <c r="BV18" s="25"/>
@@ -4491,7 +4543,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="25">
-        <v>88</v>
+        <v>87.5</v>
       </c>
       <c r="D19" s="25">
         <v>93.07</v>
@@ -4503,19 +4555,19 @@
         <v>96.47</v>
       </c>
       <c r="G19" s="25">
-        <v>96.88</v>
+        <v>96.87</v>
       </c>
       <c r="H19" s="25">
-        <v>97.95</v>
+        <v>97.94</v>
       </c>
       <c r="I19" s="25">
         <v>98.75</v>
       </c>
       <c r="J19" s="25">
-        <v>98.97</v>
+        <v>98.96</v>
       </c>
       <c r="K19" s="25">
-        <v>99.42</v>
+        <v>99.41</v>
       </c>
       <c r="L19" s="25">
         <v>100.12</v>
@@ -4524,175 +4576,179 @@
         <v>100</v>
       </c>
       <c r="N19" s="25">
-        <v>98.78</v>
+        <v>98.77</v>
       </c>
       <c r="O19" s="25">
-        <v>93.09</v>
+        <v>93.08</v>
       </c>
       <c r="P19" s="25">
-        <v>90.69</v>
+        <v>90.65</v>
       </c>
       <c r="Q19" s="25">
-        <v>89.35</v>
+        <v>89.28</v>
       </c>
       <c r="R19" s="25">
-        <v>89.16</v>
+        <v>89.09</v>
       </c>
       <c r="S19" s="25">
-        <v>90.08</v>
+        <v>90.01</v>
       </c>
       <c r="T19" s="25">
-        <v>91.2</v>
+        <v>91.14</v>
       </c>
       <c r="U19" s="25">
-        <v>92.52</v>
+        <v>92.45</v>
       </c>
       <c r="V19" s="25">
-        <v>93.26</v>
+        <v>93.18</v>
       </c>
       <c r="W19" s="25">
-        <v>93.77</v>
+        <v>93.71</v>
       </c>
       <c r="X19" s="25">
-        <v>94.33</v>
+        <v>94.26</v>
       </c>
       <c r="Y19" s="25">
-        <v>95.82</v>
+        <v>95.75</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.67</v>
+        <v>96.6</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.31</v>
+        <v>97.24</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.23</v>
+        <v>98.16</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.77</v>
+        <v>99.72</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.78</v>
+        <v>100.77</v>
       </c>
       <c r="AE19" s="25">
-        <v>101.14</v>
+        <v>101.13</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.62</v>
+        <v>101.61</v>
       </c>
       <c r="AG19" s="25">
-        <v>102</v>
+        <v>101.98</v>
       </c>
       <c r="AH19" s="25">
-        <v>102.42</v>
+        <v>102.39</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.8</v>
+        <v>102.78</v>
       </c>
       <c r="AJ19" s="25">
-        <v>103.18</v>
+        <v>103.15</v>
       </c>
       <c r="AK19" s="25">
+        <v>103.69</v>
+      </c>
+      <c r="AL19" s="25">
+        <v>104.08</v>
+      </c>
+      <c r="AM19" s="25">
+        <v>104.57</v>
+      </c>
+      <c r="AN19" s="25">
+        <v>104.57</v>
+      </c>
+      <c r="AO19" s="25">
+        <v>104.5</v>
+      </c>
+      <c r="AP19" s="25">
         <v>103.72</v>
       </c>
-      <c r="AL19" s="25">
-        <v>104.14</v>
-      </c>
-      <c r="AM19" s="25">
-        <v>104.62</v>
-      </c>
-      <c r="AN19" s="25">
-        <v>104.61</v>
-      </c>
-      <c r="AO19" s="25">
-        <v>104.54</v>
-      </c>
-      <c r="AP19" s="25">
-        <v>103.73</v>
-      </c>
       <c r="AQ19" s="25">
-        <v>103.76</v>
+        <v>103.77</v>
       </c>
       <c r="AR19" s="25">
-        <v>104.79</v>
+        <v>104.81</v>
       </c>
       <c r="AS19" s="25">
-        <v>105.14</v>
+        <v>105.16</v>
       </c>
       <c r="AT19" s="25">
-        <v>105.1</v>
+        <v>105.13</v>
       </c>
       <c r="AU19" s="25">
-        <v>105.2</v>
+        <v>105.24</v>
       </c>
       <c r="AV19" s="25">
+        <v>105.65</v>
+      </c>
+      <c r="AW19" s="25">
+        <v>103.96</v>
+      </c>
+      <c r="AX19" s="25">
+        <v>105.21</v>
+      </c>
+      <c r="AY19" s="25">
+        <v>106.48</v>
+      </c>
+      <c r="AZ19" s="25">
+        <v>106.99</v>
+      </c>
+      <c r="BA19" s="25">
+        <v>105.82</v>
+      </c>
+      <c r="BB19" s="25">
+        <v>100.69</v>
+      </c>
+      <c r="BC19" s="25">
+        <v>95.98</v>
+      </c>
+      <c r="BD19" s="25">
+        <v>99.2</v>
+      </c>
+      <c r="BE19" s="25">
+        <v>102.37</v>
+      </c>
+      <c r="BF19" s="25">
+        <v>103.82</v>
+      </c>
+      <c r="BG19" s="25">
+        <v>104.39</v>
+      </c>
+      <c r="BH19" s="25">
+        <v>105.22</v>
+      </c>
+      <c r="BI19" s="25">
+        <v>105.55</v>
+      </c>
+      <c r="BJ19" s="25">
         <v>105.61</v>
       </c>
-      <c r="AW19" s="25">
+      <c r="BK19" s="25">
+        <v>105.84</v>
+      </c>
+      <c r="BL19" s="25">
+        <v>105.95</v>
+      </c>
+      <c r="BM19" s="25">
+        <v>106.26</v>
+      </c>
+      <c r="BN19" s="25">
+        <v>107.08</v>
+      </c>
+      <c r="BO19" s="25">
+        <v>106.99</v>
+      </c>
+      <c r="BP19" s="25">
+        <v>105.48</v>
+      </c>
+      <c r="BQ19" s="25">
         <v>103.91</v>
       </c>
-      <c r="AX19" s="25">
-        <v>105.15</v>
-      </c>
-      <c r="AY19" s="25">
-        <v>106.41</v>
-      </c>
-      <c r="AZ19" s="25">
-        <v>106.9</v>
-      </c>
-      <c r="BA19" s="25">
-        <v>105.72</v>
-      </c>
-      <c r="BB19" s="25">
-        <v>100.58</v>
-      </c>
-      <c r="BC19" s="25">
-        <v>95.85</v>
-      </c>
-      <c r="BD19" s="25">
-        <v>99.35</v>
-      </c>
-      <c r="BE19" s="25">
-        <v>102.71</v>
-      </c>
-      <c r="BF19" s="25">
-        <v>103.65</v>
-      </c>
-      <c r="BG19" s="25">
-        <v>103.9</v>
-      </c>
-      <c r="BH19" s="25">
-        <v>104.61</v>
-      </c>
-      <c r="BI19" s="25">
-        <v>104.91</v>
-      </c>
-      <c r="BJ19" s="25">
-        <v>104.87</v>
-      </c>
-      <c r="BK19" s="25">
-        <v>105.15</v>
-      </c>
-      <c r="BL19" s="25">
-        <v>105.85</v>
-      </c>
-      <c r="BM19" s="25">
-        <v>105.56</v>
-      </c>
-      <c r="BN19" s="25">
-        <v>105.71</v>
-      </c>
-      <c r="BO19" s="25">
-        <v>105.86</v>
-      </c>
-      <c r="BP19" s="25">
-        <v>103.86</v>
-      </c>
-      <c r="BQ19" s="25">
-        <v>102.26</v>
-      </c>
-      <c r="BR19" s="25"/>
-      <c r="BS19" s="25"/>
+      <c r="BR19" s="25">
+        <v>103.45</v>
+      </c>
+      <c r="BS19" s="25">
+        <v>103.33</v>
+      </c>
       <c r="BT19" s="25"/>
       <c r="BU19" s="25"/>
       <c r="BV19" s="25"/>
@@ -4709,7 +4765,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>92.46</v>
+        <v>92.02</v>
       </c>
       <c r="D20" s="25">
         <v>95.71</v>
@@ -4724,7 +4780,7 @@
         <v>98.25</v>
       </c>
       <c r="H20" s="25">
-        <v>99.28</v>
+        <v>99.27</v>
       </c>
       <c r="I20" s="25">
         <v>99.7</v>
@@ -4736,7 +4792,7 @@
         <v>100.13</v>
       </c>
       <c r="L20" s="25">
-        <v>100.15</v>
+        <v>100.14</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
@@ -4751,10 +4807,10 @@
         <v>89.45</v>
       </c>
       <c r="Q20" s="25">
-        <v>87.99</v>
+        <v>87.98</v>
       </c>
       <c r="R20" s="25">
-        <v>88.22</v>
+        <v>88.21</v>
       </c>
       <c r="S20" s="25">
         <v>89.24</v>
@@ -4766,52 +4822,52 @@
         <v>90.93</v>
       </c>
       <c r="V20" s="25">
-        <v>92.51</v>
+        <v>92.5</v>
       </c>
       <c r="W20" s="25">
         <v>92.32</v>
       </c>
       <c r="X20" s="25">
-        <v>92.38</v>
+        <v>92.37</v>
       </c>
       <c r="Y20" s="25">
-        <v>93.08</v>
+        <v>93.07</v>
       </c>
       <c r="Z20" s="25">
-        <v>93.63</v>
+        <v>93.62</v>
       </c>
       <c r="AA20" s="25">
-        <v>93.52</v>
+        <v>93.51</v>
       </c>
       <c r="AB20" s="25">
-        <v>93.03</v>
+        <v>93.02</v>
       </c>
       <c r="AC20" s="25">
         <v>93.56</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.51</v>
+        <v>94.5</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.72</v>
+        <v>94.73</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.27</v>
+        <v>95.28</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.43</v>
+        <v>95.44</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.78</v>
+        <v>95.79</v>
       </c>
       <c r="AI20" s="25">
-        <v>96.23</v>
+        <v>96.25</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.96</v>
+        <v>95.97</v>
       </c>
       <c r="AK20" s="25">
-        <v>96.25</v>
+        <v>96.26</v>
       </c>
       <c r="AL20" s="25">
         <v>96.73</v>
@@ -4820,97 +4876,101 @@
         <v>97.1</v>
       </c>
       <c r="AN20" s="25">
-        <v>97.23</v>
+        <v>97.24</v>
       </c>
       <c r="AO20" s="25">
-        <v>97.14</v>
+        <v>97.15</v>
       </c>
       <c r="AP20" s="25">
-        <v>96.45</v>
+        <v>96.48</v>
       </c>
       <c r="AQ20" s="25">
-        <v>96.27</v>
+        <v>96.31</v>
       </c>
       <c r="AR20" s="25">
-        <v>97.61</v>
+        <v>97.65</v>
       </c>
       <c r="AS20" s="25">
-        <v>97.96</v>
+        <v>97.99</v>
       </c>
       <c r="AT20" s="25">
-        <v>98</v>
+        <v>98.04</v>
       </c>
       <c r="AU20" s="25">
-        <v>98.17</v>
+        <v>98.22</v>
       </c>
       <c r="AV20" s="25">
+        <v>98.78</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>98.07</v>
+      </c>
+      <c r="AX20" s="25">
+        <v>98.52</v>
+      </c>
+      <c r="AY20" s="25">
+        <v>99.02</v>
+      </c>
+      <c r="AZ20" s="25">
+        <v>99.26</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="BB20" s="25">
+        <v>93.82</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>91.41</v>
+      </c>
+      <c r="BD20" s="25">
+        <v>93.56</v>
+      </c>
+      <c r="BE20" s="25">
+        <v>95.67</v>
+      </c>
+      <c r="BF20" s="25">
+        <v>96.95</v>
+      </c>
+      <c r="BG20" s="25">
+        <v>97.85</v>
+      </c>
+      <c r="BH20" s="25">
         <v>98.73</v>
       </c>
-      <c r="AW20" s="25">
-        <v>98.02</v>
-      </c>
-      <c r="AX20" s="25">
-        <v>98.47</v>
-      </c>
-      <c r="AY20" s="25">
-        <v>98.96</v>
-      </c>
-      <c r="AZ20" s="25">
-        <v>99.21</v>
-      </c>
-      <c r="BA20" s="25">
-        <v>97.62</v>
-      </c>
-      <c r="BB20" s="25">
-        <v>93.77</v>
-      </c>
-      <c r="BC20" s="25">
-        <v>91.42</v>
-      </c>
-      <c r="BD20" s="25">
-        <v>93.95</v>
-      </c>
-      <c r="BE20" s="25">
-        <v>96.18</v>
-      </c>
-      <c r="BF20" s="25">
-        <v>97.1</v>
-      </c>
-      <c r="BG20" s="25">
-        <v>97.81</v>
-      </c>
-      <c r="BH20" s="25">
-        <v>98.65</v>
-      </c>
       <c r="BI20" s="25">
-        <v>99.34</v>
+        <v>99.43</v>
       </c>
       <c r="BJ20" s="25">
-        <v>99.73</v>
+        <v>99.84</v>
       </c>
       <c r="BK20" s="25">
-        <v>100.05</v>
+        <v>100.11</v>
       </c>
       <c r="BL20" s="25">
+        <v>100.08</v>
+      </c>
+      <c r="BM20" s="25">
+        <v>100.53</v>
+      </c>
+      <c r="BN20" s="25">
+        <v>101.28</v>
+      </c>
+      <c r="BO20" s="25">
+        <v>101.36</v>
+      </c>
+      <c r="BP20" s="25">
+        <v>100.6</v>
+      </c>
+      <c r="BQ20" s="25">
+        <v>99.9</v>
+      </c>
+      <c r="BR20" s="25">
+        <v>99.89</v>
+      </c>
+      <c r="BS20" s="25">
         <v>100.49</v>
       </c>
-      <c r="BM20" s="25">
-        <v>100.6</v>
-      </c>
-      <c r="BN20" s="25">
-        <v>100.99</v>
-      </c>
-      <c r="BO20" s="25">
-        <v>101.26</v>
-      </c>
-      <c r="BP20" s="25">
-        <v>100.41</v>
-      </c>
-      <c r="BQ20" s="25">
-        <v>99.85</v>
-      </c>
-      <c r="BR20" s="25"/>
-      <c r="BS20" s="25"/>
       <c r="BT20" s="25"/>
       <c r="BU20" s="25"/>
       <c r="BV20" s="25"/>
@@ -4927,7 +4987,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="25">
-        <v>96.93</v>
+        <v>96.66</v>
       </c>
       <c r="D21" s="25">
         <v>97.53</v>
@@ -4978,10 +5038,10 @@
         <v>94.29</v>
       </c>
       <c r="T21" s="25">
-        <v>94.55</v>
+        <v>94.56</v>
       </c>
       <c r="U21" s="25">
-        <v>95.04</v>
+        <v>95.05</v>
       </c>
       <c r="V21" s="25">
         <v>95.82</v>
@@ -5005,130 +5065,134 @@
         <v>93.79</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.8</v>
+        <v>94.92</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.63</v>
+        <v>96.85</v>
       </c>
       <c r="AE21" s="25">
-        <v>96.96</v>
+        <v>97.18</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.74</v>
+        <v>97.95</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.48</v>
+        <v>97.69</v>
       </c>
       <c r="AH21" s="25">
-        <v>97.84</v>
+        <v>98.05</v>
       </c>
       <c r="AI21" s="25">
-        <v>97.86</v>
+        <v>98.07</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.15</v>
+        <v>98.36</v>
       </c>
       <c r="AK21" s="25">
-        <v>97.9</v>
+        <v>98.11</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.23</v>
+        <v>98.43</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.86</v>
+        <v>99.05</v>
       </c>
       <c r="AN21" s="25">
-        <v>99.16</v>
+        <v>99.36</v>
       </c>
       <c r="AO21" s="25">
-        <v>98.97</v>
+        <v>99.17</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.47</v>
+        <v>98.67</v>
       </c>
       <c r="AQ21" s="25">
-        <v>99.04</v>
+        <v>99.25</v>
       </c>
       <c r="AR21" s="25">
+        <v>100.91</v>
+      </c>
+      <c r="AS21" s="25">
         <v>100.69</v>
       </c>
-      <c r="AS21" s="25">
-        <v>100.47</v>
-      </c>
       <c r="AT21" s="25">
-        <v>99.53</v>
+        <v>99.74</v>
       </c>
       <c r="AU21" s="25">
-        <v>100.13</v>
+        <v>100.35</v>
       </c>
       <c r="AV21" s="25">
-        <v>101.43</v>
+        <v>101.64</v>
       </c>
       <c r="AW21" s="25">
-        <v>100.85</v>
+        <v>101.06</v>
       </c>
       <c r="AX21" s="25">
-        <v>100.52</v>
+        <v>100.74</v>
       </c>
       <c r="AY21" s="25">
-        <v>101.68</v>
+        <v>101.88</v>
       </c>
       <c r="AZ21" s="25">
-        <v>102.02</v>
+        <v>102.21</v>
       </c>
       <c r="BA21" s="25">
+        <v>100.89</v>
+      </c>
+      <c r="BB21" s="25">
+        <v>97.64</v>
+      </c>
+      <c r="BC21" s="25">
+        <v>95.81</v>
+      </c>
+      <c r="BD21" s="25">
+        <v>96.06</v>
+      </c>
+      <c r="BE21" s="25">
+        <v>97.55</v>
+      </c>
+      <c r="BF21" s="25">
+        <v>98.63</v>
+      </c>
+      <c r="BG21" s="25">
+        <v>99.39</v>
+      </c>
+      <c r="BH21" s="25">
+        <v>99.46</v>
+      </c>
+      <c r="BI21" s="25">
+        <v>100.28</v>
+      </c>
+      <c r="BJ21" s="25">
         <v>100.69</v>
       </c>
-      <c r="BB21" s="25">
-        <v>97.45</v>
-      </c>
-      <c r="BC21" s="25">
-        <v>95.65</v>
-      </c>
-      <c r="BD21" s="25">
-        <v>96.22</v>
-      </c>
-      <c r="BE21" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="BF21" s="25">
-        <v>98.71</v>
-      </c>
-      <c r="BG21" s="25">
-        <v>99.21</v>
-      </c>
-      <c r="BH21" s="25">
-        <v>99.24</v>
-      </c>
-      <c r="BI21" s="25">
-        <v>100.04</v>
-      </c>
-      <c r="BJ21" s="25">
-        <v>100.46</v>
-      </c>
       <c r="BK21" s="25">
-        <v>101.15</v>
+        <v>101.34</v>
       </c>
       <c r="BL21" s="25">
-        <v>101.37</v>
+        <v>101.08</v>
       </c>
       <c r="BM21" s="25">
-        <v>101.76</v>
+        <v>101.08</v>
       </c>
       <c r="BN21" s="25">
-        <v>102.22</v>
+        <v>101.7</v>
       </c>
       <c r="BO21" s="25">
-        <v>101.95</v>
+        <v>101.65</v>
       </c>
       <c r="BP21" s="25">
-        <v>101.31</v>
+        <v>100.97</v>
       </c>
       <c r="BQ21" s="25">
-        <v>101.28</v>
-      </c>
-      <c r="BR21" s="25"/>
-      <c r="BS21" s="25"/>
+        <v>101.11</v>
+      </c>
+      <c r="BR21" s="25">
+        <v>101.22</v>
+      </c>
+      <c r="BS21" s="25">
+        <v>101.74</v>
+      </c>
       <c r="BT21" s="25"/>
       <c r="BU21" s="25"/>
       <c r="BV21" s="25"/>
@@ -5145,25 +5209,25 @@
         <v>19</v>
       </c>
       <c r="C22" s="25">
-        <v>90.01</v>
+        <v>89.39</v>
       </c>
       <c r="D22" s="25">
-        <v>94.02</v>
+        <v>94.03</v>
       </c>
       <c r="E22" s="25">
-        <v>95.38</v>
+        <v>95.39</v>
       </c>
       <c r="F22" s="25">
-        <v>95.61</v>
+        <v>95.62</v>
       </c>
       <c r="G22" s="25">
-        <v>95.92</v>
+        <v>95.93</v>
       </c>
       <c r="H22" s="25">
-        <v>97.39</v>
+        <v>97.4</v>
       </c>
       <c r="I22" s="25">
-        <v>97.94</v>
+        <v>97.95</v>
       </c>
       <c r="J22" s="25">
         <v>98.32</v>
@@ -5184,169 +5248,173 @@
         <v>94.26</v>
       </c>
       <c r="P22" s="25">
-        <v>90.63</v>
+        <v>90.62</v>
       </c>
       <c r="Q22" s="25">
-        <v>88.67</v>
+        <v>88.65</v>
       </c>
       <c r="R22" s="25">
-        <v>88.48</v>
+        <v>88.46</v>
       </c>
       <c r="S22" s="25">
-        <v>89.08</v>
+        <v>89.06</v>
       </c>
       <c r="T22" s="25">
-        <v>90.42</v>
+        <v>90.4</v>
       </c>
       <c r="U22" s="25">
-        <v>91.84</v>
+        <v>91.81</v>
       </c>
       <c r="V22" s="25">
-        <v>92.83</v>
+        <v>92.8</v>
       </c>
       <c r="W22" s="25">
-        <v>93.85</v>
+        <v>93.81</v>
       </c>
       <c r="X22" s="25">
-        <v>94.39</v>
+        <v>94.36</v>
       </c>
       <c r="Y22" s="25">
-        <v>95.48</v>
+        <v>95.45</v>
       </c>
       <c r="Z22" s="25">
-        <v>97.09</v>
+        <v>97.06</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.92</v>
+        <v>97.9</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.58</v>
+        <v>98.55</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.88</v>
+        <v>100.9</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.9</v>
+        <v>101.94</v>
       </c>
       <c r="AE22" s="25">
-        <v>102.24</v>
+        <v>102.28</v>
       </c>
       <c r="AF22" s="25">
-        <v>103.05</v>
+        <v>103.09</v>
       </c>
       <c r="AG22" s="25">
-        <v>103.38</v>
+        <v>103.42</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.88</v>
+        <v>103.92</v>
       </c>
       <c r="AI22" s="25">
-        <v>104.35</v>
+        <v>104.4</v>
       </c>
       <c r="AJ22" s="25">
-        <v>104.76</v>
+        <v>104.8</v>
       </c>
       <c r="AK22" s="25">
-        <v>105.19</v>
+        <v>105.23</v>
       </c>
       <c r="AL22" s="25">
-        <v>105.82</v>
+        <v>105.84</v>
       </c>
       <c r="AM22" s="25">
-        <v>106.53</v>
+        <v>106.56</v>
       </c>
       <c r="AN22" s="25">
-        <v>106.56</v>
+        <v>106.59</v>
       </c>
       <c r="AO22" s="25">
-        <v>106.42</v>
+        <v>106.48</v>
       </c>
       <c r="AP22" s="25">
-        <v>104.85</v>
+        <v>104.95</v>
       </c>
       <c r="AQ22" s="25">
-        <v>104.85</v>
+        <v>104.96</v>
       </c>
       <c r="AR22" s="25">
-        <v>105.89</v>
+        <v>106.09</v>
       </c>
       <c r="AS22" s="25">
-        <v>106.62</v>
+        <v>106.84</v>
       </c>
       <c r="AT22" s="25">
-        <v>106.64</v>
+        <v>106.8</v>
       </c>
       <c r="AU22" s="25">
-        <v>107.01</v>
+        <v>107.14</v>
       </c>
       <c r="AV22" s="25">
-        <v>107.59</v>
+        <v>107.72</v>
       </c>
       <c r="AW22" s="25">
-        <v>107.96</v>
+        <v>108.09</v>
       </c>
       <c r="AX22" s="25">
-        <v>108.19</v>
+        <v>108.32</v>
       </c>
       <c r="AY22" s="25">
-        <v>108.57</v>
+        <v>108.72</v>
       </c>
       <c r="AZ22" s="25">
-        <v>108.69</v>
+        <v>108.85</v>
       </c>
       <c r="BA22" s="25">
-        <v>107.31</v>
+        <v>107.48</v>
       </c>
       <c r="BB22" s="25">
-        <v>101.53</v>
+        <v>101.72</v>
       </c>
       <c r="BC22" s="25">
-        <v>97.67</v>
+        <v>97.83</v>
       </c>
       <c r="BD22" s="25">
-        <v>101.48</v>
+        <v>101.08</v>
       </c>
       <c r="BE22" s="25">
-        <v>104.87</v>
+        <v>104.16</v>
       </c>
       <c r="BF22" s="25">
-        <v>105.6</v>
+        <v>105.61</v>
       </c>
       <c r="BG22" s="25">
-        <v>105.37</v>
+        <v>105.81</v>
       </c>
       <c r="BH22" s="25">
-        <v>103.83</v>
+        <v>104.41</v>
       </c>
       <c r="BI22" s="25">
-        <v>105.88</v>
+        <v>106.54</v>
       </c>
       <c r="BJ22" s="25">
-        <v>106.55</v>
+        <v>107.27</v>
       </c>
       <c r="BK22" s="25">
-        <v>106.88</v>
+        <v>107.53</v>
       </c>
       <c r="BL22" s="25">
-        <v>107.75</v>
+        <v>107.9</v>
       </c>
       <c r="BM22" s="25">
-        <v>107.76</v>
+        <v>108.6</v>
       </c>
       <c r="BN22" s="25">
-        <v>107.75</v>
+        <v>109.17</v>
       </c>
       <c r="BO22" s="25">
-        <v>107.87</v>
+        <v>109.17</v>
       </c>
       <c r="BP22" s="25">
-        <v>105.39</v>
+        <v>107.65</v>
       </c>
       <c r="BQ22" s="25">
-        <v>103.18</v>
-      </c>
-      <c r="BR22" s="25"/>
-      <c r="BS22" s="25"/>
+        <v>105.8</v>
+      </c>
+      <c r="BR22" s="25">
+        <v>104.82</v>
+      </c>
+      <c r="BS22" s="25">
+        <v>104.94</v>
+      </c>
       <c r="BT22" s="25"/>
       <c r="BU22" s="25"/>
       <c r="BV22" s="25"/>
@@ -5363,16 +5431,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="25">
-        <v>96.3</v>
+        <v>95.75</v>
       </c>
       <c r="D23" s="25">
-        <v>98.04</v>
+        <v>98.03</v>
       </c>
       <c r="E23" s="25">
-        <v>97.84</v>
+        <v>97.83</v>
       </c>
       <c r="F23" s="25">
-        <v>98.47</v>
+        <v>98.46</v>
       </c>
       <c r="G23" s="25">
         <v>98.7</v>
@@ -5387,19 +5455,19 @@
         <v>100.24</v>
       </c>
       <c r="K23" s="25">
-        <v>100.43</v>
+        <v>100.42</v>
       </c>
       <c r="L23" s="25">
-        <v>100.05</v>
+        <v>100.06</v>
       </c>
       <c r="M23" s="25">
         <v>100</v>
       </c>
       <c r="N23" s="25">
-        <v>98.63</v>
+        <v>98.64</v>
       </c>
       <c r="O23" s="25">
-        <v>93.44</v>
+        <v>93.45</v>
       </c>
       <c r="P23" s="25">
         <v>90.14</v>
@@ -5420,19 +5488,19 @@
         <v>90.67</v>
       </c>
       <c r="V23" s="25">
-        <v>91.65</v>
+        <v>91.64</v>
       </c>
       <c r="W23" s="25">
-        <v>91.99</v>
+        <v>91.98</v>
       </c>
       <c r="X23" s="25">
-        <v>92.42</v>
+        <v>92.41</v>
       </c>
       <c r="Y23" s="25">
         <v>93.54</v>
       </c>
       <c r="Z23" s="25">
-        <v>94.62</v>
+        <v>94.61</v>
       </c>
       <c r="AA23" s="25">
         <v>95.13</v>
@@ -5441,130 +5509,134 @@
         <v>94.45</v>
       </c>
       <c r="AC23" s="25">
-        <v>95.27</v>
+        <v>95.26</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.79</v>
+        <v>96.78</v>
       </c>
       <c r="AE23" s="25">
-        <v>97.25</v>
+        <v>97.24</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.71</v>
+        <v>97.7</v>
       </c>
       <c r="AG23" s="25">
-        <v>98.33</v>
+        <v>98.32</v>
       </c>
       <c r="AH23" s="25">
-        <v>98.29</v>
+        <v>98.28</v>
       </c>
       <c r="AI23" s="25">
         <v>98.48</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.91</v>
+        <v>98.9</v>
       </c>
       <c r="AK23" s="25">
-        <v>99.17</v>
+        <v>99.15</v>
       </c>
       <c r="AL23" s="25">
-        <v>99.57</v>
+        <v>99.54</v>
       </c>
       <c r="AM23" s="25">
-        <v>100.14</v>
+        <v>100.1</v>
       </c>
       <c r="AN23" s="25">
-        <v>100.14</v>
+        <v>100.12</v>
       </c>
       <c r="AO23" s="25">
-        <v>100.03</v>
+        <v>100.02</v>
       </c>
       <c r="AP23" s="25">
         <v>99.39</v>
       </c>
       <c r="AQ23" s="25">
-        <v>99.62</v>
+        <v>99.63</v>
       </c>
       <c r="AR23" s="25">
-        <v>100.3</v>
+        <v>100.32</v>
       </c>
       <c r="AS23" s="25">
+        <v>100.7</v>
+      </c>
+      <c r="AT23" s="25">
+        <v>100.74</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>100.54</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>101.01</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>101.06</v>
+      </c>
+      <c r="AX23" s="25">
+        <v>101.65</v>
+      </c>
+      <c r="AY23" s="25">
+        <v>102.37</v>
+      </c>
+      <c r="AZ23" s="25">
+        <v>102.16</v>
+      </c>
+      <c r="BA23" s="25">
+        <v>101.17</v>
+      </c>
+      <c r="BB23" s="25">
+        <v>96.76</v>
+      </c>
+      <c r="BC23" s="25">
+        <v>94.38</v>
+      </c>
+      <c r="BD23" s="25">
+        <v>96.92</v>
+      </c>
+      <c r="BE23" s="25">
+        <v>99.33</v>
+      </c>
+      <c r="BF23" s="25">
+        <v>100.25</v>
+      </c>
+      <c r="BG23" s="25">
         <v>100.65</v>
       </c>
-      <c r="AT23" s="25">
-        <v>100.69</v>
-      </c>
-      <c r="AU23" s="25">
-        <v>100.51</v>
-      </c>
-      <c r="AV23" s="25">
-        <v>100.99</v>
-      </c>
-      <c r="AW23" s="25">
-        <v>101.04</v>
-      </c>
-      <c r="AX23" s="25">
-        <v>101.6</v>
-      </c>
-      <c r="AY23" s="25">
-        <v>102.3</v>
-      </c>
-      <c r="AZ23" s="25">
-        <v>102.05</v>
-      </c>
-      <c r="BA23" s="25">
-        <v>101.04</v>
-      </c>
-      <c r="BB23" s="25">
-        <v>96.61</v>
-      </c>
-      <c r="BC23" s="25">
-        <v>94.32</v>
-      </c>
-      <c r="BD23" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="BE23" s="25">
-        <v>100.15</v>
-      </c>
-      <c r="BF23" s="25">
-        <v>100.53</v>
-      </c>
-      <c r="BG23" s="25">
-        <v>100.47</v>
-      </c>
       <c r="BH23" s="25">
-        <v>99.39</v>
+        <v>99.56</v>
       </c>
       <c r="BI23" s="25">
-        <v>100.97</v>
+        <v>101.08</v>
       </c>
       <c r="BJ23" s="25">
-        <v>101.64</v>
+        <v>101.75</v>
       </c>
       <c r="BK23" s="25">
-        <v>101.71</v>
+        <v>101.74</v>
       </c>
       <c r="BL23" s="25">
-        <v>102.59</v>
+        <v>102.09</v>
       </c>
       <c r="BM23" s="25">
-        <v>102.94</v>
+        <v>102.85</v>
       </c>
       <c r="BN23" s="25">
-        <v>103.51</v>
+        <v>103.94</v>
       </c>
       <c r="BO23" s="25">
-        <v>104.8</v>
+        <v>105.2</v>
       </c>
       <c r="BP23" s="25">
-        <v>103.96</v>
+        <v>104.74</v>
       </c>
       <c r="BQ23" s="25">
-        <v>102.99</v>
-      </c>
-      <c r="BR23" s="25"/>
-      <c r="BS23" s="25"/>
+        <v>103.87</v>
+      </c>
+      <c r="BR23" s="25">
+        <v>103.22</v>
+      </c>
+      <c r="BS23" s="25">
+        <v>102.11</v>
+      </c>
       <c r="BT23" s="25"/>
       <c r="BU23" s="25"/>
       <c r="BV23" s="25"/>
@@ -5581,7 +5653,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="25">
-        <v>96.13</v>
+        <v>95.97</v>
       </c>
       <c r="D24" s="25">
         <v>97.07</v>
@@ -5602,7 +5674,7 @@
         <v>100.3</v>
       </c>
       <c r="J24" s="25">
-        <v>99.66</v>
+        <v>99.65</v>
       </c>
       <c r="K24" s="25">
         <v>98.68</v>
@@ -5623,7 +5695,7 @@
         <v>95.7</v>
       </c>
       <c r="Q24" s="25">
-        <v>94.64</v>
+        <v>94.65</v>
       </c>
       <c r="R24" s="25">
         <v>94.99</v>
@@ -5635,10 +5707,10 @@
         <v>95.47</v>
       </c>
       <c r="U24" s="25">
-        <v>96.01</v>
+        <v>96.02</v>
       </c>
       <c r="V24" s="25">
-        <v>96.46</v>
+        <v>96.47</v>
       </c>
       <c r="W24" s="25">
         <v>96.76</v>
@@ -5656,133 +5728,137 @@
         <v>97.66</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.91</v>
+        <v>96.92</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.63</v>
+        <v>98.64</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.46</v>
+        <v>99.47</v>
       </c>
       <c r="AE24" s="25">
         <v>98.74</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.76</v>
+        <v>98.77</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.61</v>
+        <v>99.63</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.6</v>
+        <v>99.62</v>
       </c>
       <c r="AI24" s="25">
-        <v>99.72</v>
+        <v>99.73</v>
       </c>
       <c r="AJ24" s="25">
         <v>99.65</v>
       </c>
       <c r="AK24" s="25">
-        <v>99.78</v>
+        <v>99.79</v>
       </c>
       <c r="AL24" s="25">
         <v>99.6</v>
       </c>
       <c r="AM24" s="25">
-        <v>99.86</v>
+        <v>99.85</v>
       </c>
       <c r="AN24" s="25">
-        <v>99.93</v>
+        <v>99.92</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.72</v>
+        <v>99.73</v>
       </c>
       <c r="AP24" s="25">
-        <v>99.29</v>
+        <v>99.31</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.72</v>
+        <v>98.74</v>
       </c>
       <c r="AR24" s="25">
-        <v>99</v>
+        <v>99.13</v>
       </c>
       <c r="AS24" s="25">
-        <v>99.41</v>
+        <v>99.57</v>
       </c>
       <c r="AT24" s="25">
-        <v>99.4</v>
+        <v>99.45</v>
       </c>
       <c r="AU24" s="25">
-        <v>99.83</v>
+        <v>99.85</v>
       </c>
       <c r="AV24" s="25">
-        <v>100.41</v>
+        <v>100.42</v>
       </c>
       <c r="AW24" s="25">
-        <v>100.6</v>
+        <v>100.62</v>
       </c>
       <c r="AX24" s="25">
-        <v>100.41</v>
+        <v>100.43</v>
       </c>
       <c r="AY24" s="25">
         <v>101.22</v>
       </c>
       <c r="AZ24" s="25">
-        <v>101.68</v>
+        <v>101.69</v>
       </c>
       <c r="BA24" s="25">
-        <v>101.24</v>
+        <v>101.26</v>
       </c>
       <c r="BB24" s="25">
-        <v>98.7</v>
+        <v>98.72</v>
       </c>
       <c r="BC24" s="25">
-        <v>96.19</v>
+        <v>96.17</v>
       </c>
       <c r="BD24" s="25">
-        <v>96.81</v>
+        <v>96.45</v>
       </c>
       <c r="BE24" s="25">
-        <v>98.19</v>
+        <v>97.61</v>
       </c>
       <c r="BF24" s="25">
-        <v>98.57</v>
+        <v>98.34</v>
       </c>
       <c r="BG24" s="25">
-        <v>99.02</v>
+        <v>99.06</v>
       </c>
       <c r="BH24" s="25">
-        <v>98.73</v>
+        <v>98.75</v>
       </c>
       <c r="BI24" s="25">
-        <v>99.48</v>
+        <v>99.38</v>
       </c>
       <c r="BJ24" s="25">
-        <v>100.03</v>
+        <v>99.98</v>
       </c>
       <c r="BK24" s="25">
-        <v>100.11</v>
+        <v>100.49</v>
       </c>
       <c r="BL24" s="25">
-        <v>101.1</v>
+        <v>101.17</v>
       </c>
       <c r="BM24" s="25">
-        <v>101.82</v>
+        <v>101.67</v>
       </c>
       <c r="BN24" s="25">
-        <v>101.92</v>
+        <v>101.77</v>
       </c>
       <c r="BO24" s="25">
-        <v>101.65</v>
+        <v>101.64</v>
       </c>
       <c r="BP24" s="25">
-        <v>101.16</v>
+        <v>101.08</v>
       </c>
       <c r="BQ24" s="25">
-        <v>101.68</v>
-      </c>
-      <c r="BR24" s="25"/>
-      <c r="BS24" s="25"/>
+        <v>101.17</v>
+      </c>
+      <c r="BR24" s="25">
+        <v>101.43</v>
+      </c>
+      <c r="BS24" s="25">
+        <v>102.58</v>
+      </c>
       <c r="BT24" s="25"/>
       <c r="BU24" s="25"/>
       <c r="BV24" s="25"/>
@@ -5799,25 +5875,25 @@
         <v>19</v>
       </c>
       <c r="C25" s="25">
-        <v>91.61</v>
+        <v>91.48</v>
       </c>
       <c r="D25" s="25">
-        <v>96.05</v>
+        <v>96.01</v>
       </c>
       <c r="E25" s="25">
-        <v>98.04</v>
+        <v>98.01</v>
       </c>
       <c r="F25" s="25">
-        <v>98.34</v>
+        <v>98.31</v>
       </c>
       <c r="G25" s="25">
-        <v>98.6</v>
+        <v>98.59</v>
       </c>
       <c r="H25" s="25">
         <v>99.34</v>
       </c>
       <c r="I25" s="25">
-        <v>99.66</v>
+        <v>99.67</v>
       </c>
       <c r="J25" s="25">
         <v>99.6</v>
@@ -5826,181 +5902,185 @@
         <v>99.67</v>
       </c>
       <c r="L25" s="25">
-        <v>99.83</v>
+        <v>99.84</v>
       </c>
       <c r="M25" s="25">
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>98.94</v>
+        <v>98.95</v>
       </c>
       <c r="O25" s="25">
         <v>93.27</v>
       </c>
       <c r="P25" s="25">
+        <v>89.78</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>87.81</v>
+      </c>
+      <c r="R25" s="25">
+        <v>87.4</v>
+      </c>
+      <c r="S25" s="25">
+        <v>88.02</v>
+      </c>
+      <c r="T25" s="25">
+        <v>88.88</v>
+      </c>
+      <c r="U25" s="25">
         <v>89.8</v>
       </c>
-      <c r="Q25" s="25">
-        <v>87.86</v>
-      </c>
-      <c r="R25" s="25">
-        <v>87.45</v>
-      </c>
-      <c r="S25" s="25">
-        <v>88.09</v>
-      </c>
-      <c r="T25" s="25">
-        <v>88.94</v>
-      </c>
-      <c r="U25" s="25">
-        <v>89.85</v>
-      </c>
       <c r="V25" s="25">
-        <v>90.22</v>
+        <v>90.17</v>
       </c>
       <c r="W25" s="25">
-        <v>91.01</v>
+        <v>90.97</v>
       </c>
       <c r="X25" s="25">
-        <v>91.34</v>
+        <v>91.29</v>
       </c>
       <c r="Y25" s="25">
-        <v>92.37</v>
+        <v>92.32</v>
       </c>
       <c r="Z25" s="25">
-        <v>93.4</v>
+        <v>93.33</v>
       </c>
       <c r="AA25" s="25">
-        <v>94.13</v>
+        <v>94.06</v>
       </c>
       <c r="AB25" s="25">
-        <v>95.1</v>
+        <v>95.05</v>
       </c>
       <c r="AC25" s="25">
         <v>96.92</v>
       </c>
       <c r="AD25" s="25">
-        <v>98</v>
+        <v>98.06</v>
       </c>
       <c r="AE25" s="25">
-        <v>98.44</v>
+        <v>98.49</v>
       </c>
       <c r="AF25" s="25">
-        <v>98.65</v>
+        <v>98.68</v>
       </c>
       <c r="AG25" s="25">
-        <v>98.85</v>
+        <v>98.88</v>
       </c>
       <c r="AH25" s="25">
-        <v>99.1</v>
+        <v>99.15</v>
       </c>
       <c r="AI25" s="25">
-        <v>99.33</v>
+        <v>99.36</v>
       </c>
       <c r="AJ25" s="25">
-        <v>99.57</v>
+        <v>99.6</v>
       </c>
       <c r="AK25" s="25">
-        <v>99.93</v>
+        <v>99.96</v>
       </c>
       <c r="AL25" s="25">
+        <v>100.43</v>
+      </c>
+      <c r="AM25" s="25">
+        <v>100.98</v>
+      </c>
+      <c r="AN25" s="25">
+        <v>101.37</v>
+      </c>
+      <c r="AO25" s="25">
+        <v>101.48</v>
+      </c>
+      <c r="AP25" s="25">
+        <v>100.71</v>
+      </c>
+      <c r="AQ25" s="25">
+        <v>100.77</v>
+      </c>
+      <c r="AR25" s="25">
+        <v>100.65</v>
+      </c>
+      <c r="AS25" s="25">
+        <v>100.85</v>
+      </c>
+      <c r="AT25" s="25">
+        <v>100.89</v>
+      </c>
+      <c r="AU25" s="25">
+        <v>101.37</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>102.36</v>
+      </c>
+      <c r="AW25" s="25">
+        <v>102.82</v>
+      </c>
+      <c r="AX25" s="25">
+        <v>102.98</v>
+      </c>
+      <c r="AY25" s="25">
+        <v>103.63</v>
+      </c>
+      <c r="AZ25" s="25">
+        <v>104.13</v>
+      </c>
+      <c r="BA25" s="25">
+        <v>103.47</v>
+      </c>
+      <c r="BB25" s="25">
+        <v>98.93</v>
+      </c>
+      <c r="BC25" s="25">
+        <v>95.14</v>
+      </c>
+      <c r="BD25" s="25">
+        <v>98.25</v>
+      </c>
+      <c r="BE25" s="25">
+        <v>101.05</v>
+      </c>
+      <c r="BF25" s="25">
+        <v>102.68</v>
+      </c>
+      <c r="BG25" s="25">
+        <v>103.34</v>
+      </c>
+      <c r="BH25" s="25">
+        <v>103.54</v>
+      </c>
+      <c r="BI25" s="25">
+        <v>103.52</v>
+      </c>
+      <c r="BJ25" s="25">
+        <v>103.19</v>
+      </c>
+      <c r="BK25" s="25">
+        <v>102.85</v>
+      </c>
+      <c r="BL25" s="25">
+        <v>102.22</v>
+      </c>
+      <c r="BM25" s="25">
+        <v>102.73</v>
+      </c>
+      <c r="BN25" s="25">
+        <v>103.41</v>
+      </c>
+      <c r="BO25" s="25">
+        <v>103.44</v>
+      </c>
+      <c r="BP25" s="25">
+        <v>102.5</v>
+      </c>
+      <c r="BQ25" s="25">
+        <v>101.01</v>
+      </c>
+      <c r="BR25" s="25">
         <v>100.3</v>
       </c>
-      <c r="AM25" s="25">
-        <v>100.94</v>
-      </c>
-      <c r="AN25" s="25">
-        <v>101.33</v>
-      </c>
-      <c r="AO25" s="25">
-        <v>101.4</v>
-      </c>
-      <c r="AP25" s="25">
-        <v>100.6</v>
-      </c>
-      <c r="AQ25" s="25">
-        <v>100.65</v>
-      </c>
-      <c r="AR25" s="25">
-        <v>100.54</v>
-      </c>
-      <c r="AS25" s="25">
-        <v>100.77</v>
-      </c>
-      <c r="AT25" s="25">
-        <v>100.8</v>
-      </c>
-      <c r="AU25" s="25">
-        <v>101.26</v>
-      </c>
-      <c r="AV25" s="25">
-        <v>102.13</v>
-      </c>
-      <c r="AW25" s="25">
-        <v>102.71</v>
-      </c>
-      <c r="AX25" s="25">
-        <v>102.83</v>
-      </c>
-      <c r="AY25" s="25">
-        <v>103.49</v>
-      </c>
-      <c r="AZ25" s="25">
-        <v>103.88</v>
-      </c>
-      <c r="BA25" s="25">
-        <v>103.32</v>
-      </c>
-      <c r="BB25" s="25">
-        <v>98.74</v>
-      </c>
-      <c r="BC25" s="25">
-        <v>95</v>
-      </c>
-      <c r="BD25" s="25">
-        <v>98.48</v>
-      </c>
-      <c r="BE25" s="25">
-        <v>101.45</v>
-      </c>
-      <c r="BF25" s="25">
-        <v>102.59</v>
-      </c>
-      <c r="BG25" s="25">
-        <v>102.88</v>
-      </c>
-      <c r="BH25" s="25">
-        <v>102.95</v>
-      </c>
-      <c r="BI25" s="25">
-        <v>102.9</v>
-      </c>
-      <c r="BJ25" s="25">
-        <v>102.59</v>
-      </c>
-      <c r="BK25" s="25">
-        <v>102.37</v>
-      </c>
-      <c r="BL25" s="25">
-        <v>102.36</v>
-      </c>
-      <c r="BM25" s="25">
-        <v>102.19</v>
-      </c>
-      <c r="BN25" s="25">
-        <v>102.22</v>
-      </c>
-      <c r="BO25" s="25">
-        <v>102.4</v>
-      </c>
-      <c r="BP25" s="25">
-        <v>101.22</v>
-      </c>
-      <c r="BQ25" s="25">
-        <v>100.01</v>
-      </c>
-      <c r="BR25" s="25"/>
-      <c r="BS25" s="25"/>
+      <c r="BS25" s="25">
+        <v>100.46</v>
+      </c>
       <c r="BT25" s="25"/>
       <c r="BU25" s="25"/>
       <c r="BV25" s="25"/>
@@ -6017,7 +6097,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.92</v>
+        <v>94.97</v>
       </c>
       <c r="D26" s="25">
         <v>97.47</v>
@@ -6029,10 +6109,10 @@
         <v>99.04</v>
       </c>
       <c r="G26" s="25">
-        <v>100.13</v>
+        <v>100.12</v>
       </c>
       <c r="H26" s="25">
-        <v>100.7</v>
+        <v>100.69</v>
       </c>
       <c r="I26" s="25">
         <v>100.13</v>
@@ -6041,10 +6121,10 @@
         <v>100.03</v>
       </c>
       <c r="K26" s="25">
-        <v>99.74</v>
+        <v>99.73</v>
       </c>
       <c r="L26" s="25">
-        <v>99.98</v>
+        <v>99.97</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
@@ -6059,7 +6139,7 @@
         <v>90.97</v>
       </c>
       <c r="Q26" s="25">
-        <v>88.64</v>
+        <v>88.63</v>
       </c>
       <c r="R26" s="25">
         <v>88.59</v>
@@ -6068,22 +6148,22 @@
         <v>88.93</v>
       </c>
       <c r="T26" s="25">
-        <v>89.25</v>
+        <v>89.24</v>
       </c>
       <c r="U26" s="25">
-        <v>89.93</v>
+        <v>89.92</v>
       </c>
       <c r="V26" s="25">
-        <v>89.93</v>
+        <v>89.92</v>
       </c>
       <c r="W26" s="25">
-        <v>90.01</v>
+        <v>90</v>
       </c>
       <c r="X26" s="25">
-        <v>89.9</v>
+        <v>89.89</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.99</v>
+        <v>90.98</v>
       </c>
       <c r="Z26" s="25">
         <v>92.24</v>
@@ -6092,133 +6172,137 @@
         <v>92.55</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.26</v>
+        <v>92.25</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.67</v>
+        <v>92.68</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.83</v>
+        <v>92.86</v>
       </c>
       <c r="AE26" s="25">
-        <v>93.02</v>
+        <v>93.05</v>
       </c>
       <c r="AF26" s="25">
-        <v>93.24</v>
+        <v>93.26</v>
       </c>
       <c r="AG26" s="25">
-        <v>93.82</v>
+        <v>93.85</v>
       </c>
       <c r="AH26" s="25">
+        <v>94.24</v>
+      </c>
+      <c r="AI26" s="25">
+        <v>94.02</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>94.13</v>
+      </c>
+      <c r="AK26" s="25">
         <v>94.22</v>
       </c>
-      <c r="AI26" s="25">
-        <v>94</v>
-      </c>
-      <c r="AJ26" s="25">
-        <v>94.11</v>
-      </c>
-      <c r="AK26" s="25">
-        <v>94.2</v>
-      </c>
       <c r="AL26" s="25">
-        <v>94.74</v>
+        <v>94.87</v>
       </c>
       <c r="AM26" s="25">
-        <v>95.45</v>
+        <v>95.46</v>
       </c>
       <c r="AN26" s="25">
-        <v>95.51</v>
+        <v>95.55</v>
       </c>
       <c r="AO26" s="25">
-        <v>94.94</v>
+        <v>95.01</v>
       </c>
       <c r="AP26" s="25">
-        <v>94.08</v>
+        <v>94.15</v>
       </c>
       <c r="AQ26" s="25">
-        <v>94.06</v>
+        <v>94.14</v>
       </c>
       <c r="AR26" s="25">
-        <v>94.2</v>
+        <v>94.26</v>
       </c>
       <c r="AS26" s="25">
-        <v>94.22</v>
+        <v>94.26</v>
       </c>
       <c r="AT26" s="25">
-        <v>93.89</v>
+        <v>93.94</v>
       </c>
       <c r="AU26" s="25">
-        <v>94.46</v>
+        <v>94.5</v>
       </c>
       <c r="AV26" s="25">
-        <v>94.46</v>
+        <v>94.62</v>
       </c>
       <c r="AW26" s="25">
-        <v>95.2</v>
+        <v>95.24</v>
       </c>
       <c r="AX26" s="25">
-        <v>96.1</v>
+        <v>96.17</v>
       </c>
       <c r="AY26" s="25">
-        <v>97.09</v>
+        <v>97.14</v>
       </c>
       <c r="AZ26" s="25">
-        <v>96.85</v>
+        <v>97.02</v>
       </c>
       <c r="BA26" s="25">
-        <v>96.14</v>
+        <v>96.19</v>
       </c>
       <c r="BB26" s="25">
-        <v>93.92</v>
+        <v>93.96</v>
       </c>
       <c r="BC26" s="25">
-        <v>91.37</v>
+        <v>91.3</v>
       </c>
       <c r="BD26" s="25">
-        <v>92.83</v>
+        <v>92.25</v>
       </c>
       <c r="BE26" s="25">
-        <v>94.81</v>
+        <v>93.96</v>
       </c>
       <c r="BF26" s="25">
-        <v>95.69</v>
+        <v>95.32</v>
       </c>
       <c r="BG26" s="25">
-        <v>95.15</v>
+        <v>95.16</v>
       </c>
       <c r="BH26" s="25">
-        <v>95.95</v>
+        <v>95.96</v>
       </c>
       <c r="BI26" s="25">
-        <v>96.3</v>
+        <v>96.33</v>
       </c>
       <c r="BJ26" s="25">
-        <v>95.79</v>
+        <v>95.84</v>
       </c>
       <c r="BK26" s="25">
-        <v>96.43</v>
+        <v>96.32</v>
       </c>
       <c r="BL26" s="25">
-        <v>96.73</v>
+        <v>96.15</v>
       </c>
       <c r="BM26" s="25">
-        <v>97.42</v>
+        <v>97.28</v>
       </c>
       <c r="BN26" s="25">
-        <v>98.1</v>
+        <v>98.02</v>
       </c>
       <c r="BO26" s="25">
-        <v>97.48</v>
+        <v>97.24</v>
       </c>
       <c r="BP26" s="25">
-        <v>96.3</v>
+        <v>96.65</v>
       </c>
       <c r="BQ26" s="25">
-        <v>96.29</v>
-      </c>
-      <c r="BR26" s="25"/>
-      <c r="BS26" s="25"/>
+        <v>96.61</v>
+      </c>
+      <c r="BR26" s="25">
+        <v>96.11</v>
+      </c>
+      <c r="BS26" s="25">
+        <v>96.5</v>
+      </c>
       <c r="BT26" s="25"/>
       <c r="BU26" s="25"/>
       <c r="BV26" s="25"/>
@@ -6235,13 +6319,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="25">
-        <v>99.16</v>
+        <v>98.65</v>
       </c>
       <c r="D27" s="25">
         <v>99.47</v>
       </c>
       <c r="E27" s="25">
-        <v>101.03</v>
+        <v>101.02</v>
       </c>
       <c r="F27" s="25">
         <v>100.98</v>
@@ -6250,7 +6334,7 @@
         <v>101.31</v>
       </c>
       <c r="H27" s="25">
-        <v>101.05</v>
+        <v>101.04</v>
       </c>
       <c r="I27" s="25">
         <v>101.56</v>
@@ -6268,10 +6352,10 @@
         <v>100</v>
       </c>
       <c r="N27" s="25">
-        <v>99.7</v>
+        <v>99.69</v>
       </c>
       <c r="O27" s="25">
-        <v>97.8</v>
+        <v>97.79</v>
       </c>
       <c r="P27" s="25">
         <v>95.51</v>
@@ -6292,16 +6376,16 @@
         <v>96.12</v>
       </c>
       <c r="V27" s="25">
-        <v>95.38</v>
+        <v>95.37</v>
       </c>
       <c r="W27" s="25">
-        <v>96.24</v>
+        <v>96.23</v>
       </c>
       <c r="X27" s="25">
         <v>96.17</v>
       </c>
       <c r="Y27" s="25">
-        <v>97.75</v>
+        <v>97.74</v>
       </c>
       <c r="Z27" s="25">
         <v>96.25</v>
@@ -6322,7 +6406,7 @@
         <v>96.45</v>
       </c>
       <c r="AF27" s="25">
-        <v>96.19</v>
+        <v>96.18</v>
       </c>
       <c r="AG27" s="25">
         <v>97.26</v>
@@ -6331,112 +6415,116 @@
         <v>96.24</v>
       </c>
       <c r="AI27" s="25">
-        <v>96.6</v>
+        <v>96.59</v>
       </c>
       <c r="AJ27" s="25">
-        <v>96.22</v>
+        <v>96.21</v>
       </c>
       <c r="AK27" s="25">
-        <v>96.09</v>
+        <v>96.08</v>
       </c>
       <c r="AL27" s="25">
-        <v>96.07</v>
+        <v>96.17</v>
       </c>
       <c r="AM27" s="25">
-        <v>96.57</v>
+        <v>96.53</v>
       </c>
       <c r="AN27" s="25">
-        <v>97.1</v>
+        <v>97.11</v>
       </c>
       <c r="AO27" s="25">
-        <v>96.89</v>
+        <v>96.95</v>
       </c>
       <c r="AP27" s="25">
-        <v>96.34</v>
+        <v>96.41</v>
       </c>
       <c r="AQ27" s="25">
-        <v>97.03</v>
+        <v>97.11</v>
       </c>
       <c r="AR27" s="25">
-        <v>97.41</v>
+        <v>97.47</v>
       </c>
       <c r="AS27" s="25">
-        <v>97.22</v>
+        <v>97.25</v>
       </c>
       <c r="AT27" s="25">
-        <v>96.32</v>
+        <v>96.36</v>
       </c>
       <c r="AU27" s="25">
-        <v>97.16</v>
+        <v>97.2</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.76</v>
+        <v>97.91</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.93</v>
+        <v>98.96</v>
       </c>
       <c r="AX27" s="25">
-        <v>98.91</v>
+        <v>98.97</v>
       </c>
       <c r="AY27" s="25">
+        <v>99.81</v>
+      </c>
+      <c r="AZ27" s="25">
+        <v>100.17</v>
+      </c>
+      <c r="BA27" s="25">
         <v>99.79</v>
       </c>
-      <c r="AZ27" s="25">
-        <v>100.03</v>
-      </c>
-      <c r="BA27" s="25">
-        <v>99.78</v>
-      </c>
       <c r="BB27" s="25">
-        <v>97.35</v>
+        <v>97.36</v>
       </c>
       <c r="BC27" s="25">
-        <v>94.4</v>
+        <v>94.38</v>
       </c>
       <c r="BD27" s="25">
-        <v>95.5</v>
+        <v>95.16</v>
       </c>
       <c r="BE27" s="25">
-        <v>96.19</v>
+        <v>95.59</v>
       </c>
       <c r="BF27" s="25">
-        <v>96.52</v>
+        <v>96.24</v>
       </c>
       <c r="BG27" s="25">
-        <v>98.02</v>
+        <v>97.97</v>
       </c>
       <c r="BH27" s="25">
-        <v>98.3</v>
+        <v>98.34</v>
       </c>
       <c r="BI27" s="25">
-        <v>99.38</v>
+        <v>99.42</v>
       </c>
       <c r="BJ27" s="25">
-        <v>98.84</v>
+        <v>98.88</v>
       </c>
       <c r="BK27" s="25">
-        <v>99.2</v>
+        <v>99.18</v>
       </c>
       <c r="BL27" s="25">
-        <v>99.52</v>
+        <v>99.07</v>
       </c>
       <c r="BM27" s="25">
-        <v>100.79</v>
+        <v>99.9</v>
       </c>
       <c r="BN27" s="25">
-        <v>101.04</v>
+        <v>100.2</v>
       </c>
       <c r="BO27" s="25">
-        <v>100.48</v>
+        <v>99.98</v>
       </c>
       <c r="BP27" s="25">
-        <v>99.84</v>
+        <v>99.6</v>
       </c>
       <c r="BQ27" s="25">
-        <v>100.48</v>
-      </c>
-      <c r="BR27" s="25"/>
-      <c r="BS27" s="25"/>
+        <v>99.61</v>
+      </c>
+      <c r="BR27" s="25">
+        <v>99.77</v>
+      </c>
+      <c r="BS27" s="25">
+        <v>100.58</v>
+      </c>
       <c r="BT27" s="25"/>
       <c r="BU27" s="25"/>
       <c r="BV27" s="25"/>
@@ -6453,208 +6541,212 @@
         <v>19</v>
       </c>
       <c r="C28" s="25">
-        <v>86.76</v>
+        <v>86.51</v>
       </c>
       <c r="D28" s="25">
-        <v>91.57</v>
+        <v>91.56</v>
       </c>
       <c r="E28" s="25">
         <v>97.22</v>
       </c>
       <c r="F28" s="25">
-        <v>96.44</v>
+        <v>96.42</v>
       </c>
       <c r="G28" s="25">
-        <v>95.48</v>
+        <v>95.43</v>
       </c>
       <c r="H28" s="25">
-        <v>96.61</v>
+        <v>96.6</v>
       </c>
       <c r="I28" s="25">
-        <v>97.59</v>
+        <v>97.58</v>
       </c>
       <c r="J28" s="25">
-        <v>97.98</v>
+        <v>97.99</v>
       </c>
       <c r="K28" s="25">
-        <v>98.79</v>
+        <v>98.81</v>
       </c>
       <c r="L28" s="25">
-        <v>99.82</v>
+        <v>99.86</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>98.59</v>
+        <v>98.57</v>
       </c>
       <c r="O28" s="25">
-        <v>94.74</v>
+        <v>94.73</v>
       </c>
       <c r="P28" s="25">
-        <v>91.46</v>
+        <v>91.44</v>
       </c>
       <c r="Q28" s="25">
-        <v>89.58</v>
+        <v>89.52</v>
       </c>
       <c r="R28" s="25">
-        <v>89.41</v>
+        <v>89.34</v>
       </c>
       <c r="S28" s="25">
-        <v>90.86</v>
+        <v>90.8</v>
       </c>
       <c r="T28" s="25">
-        <v>91.52</v>
+        <v>91.45</v>
       </c>
       <c r="U28" s="25">
-        <v>92.94</v>
+        <v>92.84</v>
       </c>
       <c r="V28" s="25">
-        <v>94.26</v>
+        <v>94.19</v>
       </c>
       <c r="W28" s="25">
-        <v>95.66</v>
+        <v>95.59</v>
       </c>
       <c r="X28" s="25">
-        <v>96.31</v>
+        <v>96.25</v>
       </c>
       <c r="Y28" s="25">
-        <v>97.3</v>
+        <v>97.23</v>
       </c>
       <c r="Z28" s="25">
-        <v>98.24</v>
+        <v>98.14</v>
       </c>
       <c r="AA28" s="25">
-        <v>98.74</v>
+        <v>98.65</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.13</v>
+        <v>99.04</v>
       </c>
       <c r="AC28" s="25">
-        <v>102.06</v>
+        <v>102.02</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.77</v>
+        <v>102.71</v>
       </c>
       <c r="AE28" s="25">
-        <v>103.12</v>
+        <v>103.05</v>
       </c>
       <c r="AF28" s="25">
-        <v>103.52</v>
+        <v>103.47</v>
       </c>
       <c r="AG28" s="25">
-        <v>104.01</v>
+        <v>103.97</v>
       </c>
       <c r="AH28" s="25">
-        <v>104.43</v>
+        <v>104.39</v>
       </c>
       <c r="AI28" s="25">
-        <v>104.83</v>
+        <v>104.82</v>
       </c>
       <c r="AJ28" s="25">
-        <v>105.08</v>
+        <v>105.05</v>
       </c>
       <c r="AK28" s="25">
-        <v>105.44</v>
+        <v>105.38</v>
       </c>
       <c r="AL28" s="25">
-        <v>105.44</v>
+        <v>105.37</v>
       </c>
       <c r="AM28" s="25">
-        <v>106.14</v>
+        <v>106.07</v>
       </c>
       <c r="AN28" s="25">
-        <v>106.85</v>
+        <v>106.78</v>
       </c>
       <c r="AO28" s="25">
-        <v>106.69</v>
+        <v>106.65</v>
       </c>
       <c r="AP28" s="25">
-        <v>105.61</v>
+        <v>105.57</v>
       </c>
       <c r="AQ28" s="25">
-        <v>105.4</v>
+        <v>105.37</v>
       </c>
       <c r="AR28" s="25">
+        <v>105.89</v>
+      </c>
+      <c r="AS28" s="25">
+        <v>106.24</v>
+      </c>
+      <c r="AT28" s="25">
+        <v>106.76</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>107.26</v>
+      </c>
+      <c r="AV28" s="25">
+        <v>107.59</v>
+      </c>
+      <c r="AW28" s="25">
+        <v>107.79</v>
+      </c>
+      <c r="AX28" s="25">
+        <v>108.08</v>
+      </c>
+      <c r="AY28" s="25">
+        <v>108.14</v>
+      </c>
+      <c r="AZ28" s="25">
+        <v>107.66</v>
+      </c>
+      <c r="BA28" s="25">
+        <v>105.79</v>
+      </c>
+      <c r="BB28" s="25">
+        <v>97.89</v>
+      </c>
+      <c r="BC28" s="25">
+        <v>93.43</v>
+      </c>
+      <c r="BD28" s="25">
+        <v>97.02</v>
+      </c>
+      <c r="BE28" s="25">
+        <v>100.83</v>
+      </c>
+      <c r="BF28" s="25">
+        <v>102.73</v>
+      </c>
+      <c r="BG28" s="25">
+        <v>103.93</v>
+      </c>
+      <c r="BH28" s="25">
         <v>105.88</v>
       </c>
-      <c r="AS28" s="25">
-        <v>106.23</v>
-      </c>
-      <c r="AT28" s="25">
-        <v>106.74</v>
-      </c>
-      <c r="AU28" s="25">
-        <v>107.24</v>
-      </c>
-      <c r="AV28" s="25">
-        <v>107.57</v>
-      </c>
-      <c r="AW28" s="25">
-        <v>107.75</v>
-      </c>
-      <c r="AX28" s="25">
-        <v>108.03</v>
-      </c>
-      <c r="AY28" s="25">
-        <v>108.09</v>
-      </c>
-      <c r="AZ28" s="25">
-        <v>107.6</v>
-      </c>
-      <c r="BA28" s="25">
-        <v>105.74</v>
-      </c>
-      <c r="BB28" s="25">
-        <v>97.84</v>
-      </c>
-      <c r="BC28" s="25">
-        <v>93.37</v>
-      </c>
-      <c r="BD28" s="25">
-        <v>97.26</v>
-      </c>
-      <c r="BE28" s="25">
-        <v>101.28</v>
-      </c>
-      <c r="BF28" s="25">
-        <v>102.82</v>
-      </c>
-      <c r="BG28" s="25">
-        <v>103.76</v>
-      </c>
-      <c r="BH28" s="25">
-        <v>105.57</v>
-      </c>
       <c r="BI28" s="25">
-        <v>107.79</v>
+        <v>108.1</v>
       </c>
       <c r="BJ28" s="25">
-        <v>107.77</v>
+        <v>108.12</v>
       </c>
       <c r="BK28" s="25">
-        <v>108.32</v>
+        <v>108.51</v>
       </c>
       <c r="BL28" s="25">
-        <v>109.31</v>
+        <v>108.77</v>
       </c>
       <c r="BM28" s="25">
-        <v>109.24</v>
+        <v>109.45</v>
       </c>
       <c r="BN28" s="25">
-        <v>109.3</v>
+        <v>110.51</v>
       </c>
       <c r="BO28" s="25">
-        <v>109.52</v>
+        <v>110.31</v>
       </c>
       <c r="BP28" s="25">
-        <v>107.51</v>
+        <v>108.44</v>
       </c>
       <c r="BQ28" s="25">
-        <v>105.19</v>
-      </c>
-      <c r="BR28" s="25"/>
-      <c r="BS28" s="25"/>
+        <v>106.59</v>
+      </c>
+      <c r="BR28" s="25">
+        <v>105.82</v>
+      </c>
+      <c r="BS28" s="25">
+        <v>105.46</v>
+      </c>
       <c r="BT28" s="25"/>
       <c r="BU28" s="25"/>
       <c r="BV28" s="25"/>
@@ -6671,28 +6763,28 @@
         <v>8</v>
       </c>
       <c r="C29" s="25">
-        <v>91.54</v>
+        <v>91.68</v>
       </c>
       <c r="D29" s="25">
-        <v>93.09</v>
+        <v>93.11</v>
       </c>
       <c r="E29" s="25">
-        <v>94.32</v>
+        <v>94.33</v>
       </c>
       <c r="F29" s="25">
-        <v>98.07</v>
+        <v>98.08</v>
       </c>
       <c r="G29" s="25">
-        <v>98.8</v>
+        <v>98.81</v>
       </c>
       <c r="H29" s="25">
-        <v>99.56</v>
+        <v>99.58</v>
       </c>
       <c r="I29" s="25">
-        <v>99.97</v>
+        <v>99.98</v>
       </c>
       <c r="J29" s="25">
-        <v>100.07</v>
+        <v>100.08</v>
       </c>
       <c r="K29" s="25">
         <v>100.32</v>
@@ -6704,13 +6796,13 @@
         <v>100</v>
       </c>
       <c r="N29" s="25">
-        <v>98.38</v>
+        <v>98.39</v>
       </c>
       <c r="O29" s="25">
-        <v>93.25</v>
+        <v>93.26</v>
       </c>
       <c r="P29" s="25">
-        <v>90.51</v>
+        <v>90.52</v>
       </c>
       <c r="Q29" s="25">
         <v>89.56</v>
@@ -6725,13 +6817,13 @@
         <v>90.82</v>
       </c>
       <c r="U29" s="25">
-        <v>91.84</v>
+        <v>91.83</v>
       </c>
       <c r="V29" s="25">
         <v>93.44</v>
       </c>
       <c r="W29" s="25">
-        <v>93.94</v>
+        <v>93.93</v>
       </c>
       <c r="X29" s="25">
         <v>94.04</v>
@@ -6749,130 +6841,134 @@
         <v>96.36</v>
       </c>
       <c r="AC29" s="25">
-        <v>97</v>
+        <v>97.02</v>
       </c>
       <c r="AD29" s="25">
-        <v>96.66</v>
+        <v>96.69</v>
       </c>
       <c r="AE29" s="25">
-        <v>95.73</v>
+        <v>95.76</v>
       </c>
       <c r="AF29" s="25">
-        <v>95.88</v>
+        <v>95.9</v>
       </c>
       <c r="AG29" s="25">
-        <v>96.03</v>
+        <v>96.05</v>
       </c>
       <c r="AH29" s="25">
-        <v>97.02</v>
+        <v>97.04</v>
       </c>
       <c r="AI29" s="25">
-        <v>97.57</v>
+        <v>97.59</v>
       </c>
       <c r="AJ29" s="25">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="AK29" s="25">
         <v>97.68</v>
       </c>
       <c r="AL29" s="25">
-        <v>98.06</v>
+        <v>98.07</v>
       </c>
       <c r="AM29" s="25">
-        <v>98.22</v>
+        <v>98.23</v>
       </c>
       <c r="AN29" s="25">
-        <v>98.48</v>
+        <v>98.49</v>
       </c>
       <c r="AO29" s="25">
-        <v>98.4</v>
+        <v>98.42</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.95</v>
+        <v>97.97</v>
       </c>
       <c r="AQ29" s="25">
-        <v>97.3</v>
+        <v>97.32</v>
       </c>
       <c r="AR29" s="25">
-        <v>97.3</v>
+        <v>97.32</v>
       </c>
       <c r="AS29" s="25">
-        <v>97.56</v>
+        <v>97.59</v>
       </c>
       <c r="AT29" s="25">
-        <v>98.21</v>
+        <v>98.24</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.96</v>
+        <v>98.98</v>
       </c>
       <c r="AV29" s="25">
-        <v>99.32</v>
+        <v>99.33</v>
       </c>
       <c r="AW29" s="25">
         <v>99.97</v>
       </c>
       <c r="AX29" s="25">
-        <v>99.89</v>
+        <v>99.91</v>
       </c>
       <c r="AY29" s="25">
-        <v>100.06</v>
+        <v>100.08</v>
       </c>
       <c r="AZ29" s="25">
-        <v>99.45</v>
+        <v>99.47</v>
       </c>
       <c r="BA29" s="25">
-        <v>98.51</v>
+        <v>98.53</v>
       </c>
       <c r="BB29" s="25">
-        <v>93.38</v>
+        <v>93.4</v>
       </c>
       <c r="BC29" s="25">
-        <v>91.37</v>
+        <v>91.31</v>
       </c>
       <c r="BD29" s="25">
-        <v>93.38</v>
+        <v>92.71</v>
       </c>
       <c r="BE29" s="25">
-        <v>95.98</v>
+        <v>95.05</v>
       </c>
       <c r="BF29" s="25">
-        <v>96.53</v>
+        <v>96.24</v>
       </c>
       <c r="BG29" s="25">
         <v>97.28</v>
       </c>
       <c r="BH29" s="25">
-        <v>98.91</v>
+        <v>99.34</v>
       </c>
       <c r="BI29" s="25">
-        <v>99.52</v>
+        <v>100.1</v>
       </c>
       <c r="BJ29" s="25">
-        <v>99.97</v>
+        <v>100.13</v>
       </c>
       <c r="BK29" s="25">
-        <v>100.21</v>
+        <v>100.1</v>
       </c>
       <c r="BL29" s="25">
-        <v>100.88</v>
+        <v>100.26</v>
       </c>
       <c r="BM29" s="25">
-        <v>101.06</v>
+        <v>100.68</v>
       </c>
       <c r="BN29" s="25">
-        <v>101.82</v>
+        <v>101.73</v>
       </c>
       <c r="BO29" s="25">
-        <v>102.38</v>
+        <v>102.23</v>
       </c>
       <c r="BP29" s="25">
-        <v>101.44</v>
+        <v>101.62</v>
       </c>
       <c r="BQ29" s="25">
-        <v>100.34</v>
-      </c>
-      <c r="BR29" s="25"/>
-      <c r="BS29" s="25"/>
+        <v>100.43</v>
+      </c>
+      <c r="BR29" s="25">
+        <v>100.61</v>
+      </c>
+      <c r="BS29" s="25">
+        <v>100.46</v>
+      </c>
       <c r="BT29" s="25"/>
       <c r="BU29" s="25"/>
       <c r="BV29" s="25"/>
@@ -6889,13 +6985,13 @@
         <v>20</v>
       </c>
       <c r="C30" s="25">
-        <v>96.47</v>
+        <v>96.75</v>
       </c>
       <c r="D30" s="25">
-        <v>96.57</v>
+        <v>96.58</v>
       </c>
       <c r="E30" s="25">
-        <v>94.81</v>
+        <v>94.82</v>
       </c>
       <c r="F30" s="25">
         <v>95.78</v>
@@ -6913,10 +7009,10 @@
         <v>98.51</v>
       </c>
       <c r="K30" s="25">
-        <v>98</v>
+        <v>97.99</v>
       </c>
       <c r="L30" s="25">
-        <v>99.02</v>
+        <v>99.01</v>
       </c>
       <c r="M30" s="25">
         <v>100</v>
@@ -6949,7 +7045,7 @@
         <v>97.09</v>
       </c>
       <c r="W30" s="25">
-        <v>97.77</v>
+        <v>97.78</v>
       </c>
       <c r="X30" s="25">
         <v>97.97</v>
@@ -6967,130 +7063,134 @@
         <v>96.01</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.59</v>
+        <v>97.61</v>
       </c>
       <c r="AD30" s="25">
+        <v>98.53</v>
+      </c>
+      <c r="AE30" s="25">
+        <v>98.34</v>
+      </c>
+      <c r="AF30" s="25">
         <v>98.51</v>
       </c>
-      <c r="AE30" s="25">
-        <v>98.31</v>
-      </c>
-      <c r="AF30" s="25">
-        <v>98.48</v>
-      </c>
       <c r="AG30" s="25">
-        <v>98.99</v>
+        <v>99.02</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.6</v>
+        <v>100.62</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.15</v>
+        <v>100.17</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.71</v>
+        <v>100.72</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.68</v>
+        <v>100.69</v>
       </c>
       <c r="AL30" s="25">
-        <v>100.11</v>
+        <v>100.12</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.74</v>
+        <v>99.75</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.19</v>
+        <v>100.2</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.06</v>
+        <v>100.07</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.76</v>
+        <v>99.78</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.25</v>
+        <v>99.27</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.75</v>
+        <v>99.77</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.34</v>
+        <v>100.37</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.43</v>
+        <v>100.47</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.67</v>
+        <v>100.7</v>
       </c>
       <c r="AV30" s="25">
-        <v>100.69</v>
+        <v>100.72</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.09</v>
+        <v>101.12</v>
       </c>
       <c r="AX30" s="25">
-        <v>101.64</v>
+        <v>101.67</v>
       </c>
       <c r="AY30" s="25">
-        <v>102.37</v>
+        <v>102.39</v>
       </c>
       <c r="AZ30" s="25">
-        <v>102.34</v>
+        <v>102.35</v>
       </c>
       <c r="BA30" s="25">
-        <v>101.34</v>
+        <v>101.35</v>
       </c>
       <c r="BB30" s="25">
-        <v>98.44</v>
+        <v>98.45</v>
       </c>
       <c r="BC30" s="25">
-        <v>97.28</v>
+        <v>97.27</v>
       </c>
       <c r="BD30" s="25">
-        <v>98.38</v>
+        <v>98</v>
       </c>
       <c r="BE30" s="25">
-        <v>99.11</v>
+        <v>98.34</v>
       </c>
       <c r="BF30" s="25">
-        <v>99.61</v>
+        <v>99.2</v>
       </c>
       <c r="BG30" s="25">
-        <v>100.35</v>
+        <v>100.3</v>
       </c>
       <c r="BH30" s="25">
         <v>100.02</v>
       </c>
       <c r="BI30" s="25">
-        <v>101.05</v>
+        <v>101.04</v>
       </c>
       <c r="BJ30" s="25">
-        <v>101.63</v>
+        <v>101.62</v>
       </c>
       <c r="BK30" s="25">
-        <v>101.89</v>
+        <v>101.84</v>
       </c>
       <c r="BL30" s="25">
-        <v>102.42</v>
+        <v>101.92</v>
       </c>
       <c r="BM30" s="25">
-        <v>102.4</v>
+        <v>101.65</v>
       </c>
       <c r="BN30" s="25">
-        <v>102.7</v>
+        <v>101.94</v>
       </c>
       <c r="BO30" s="25">
-        <v>102.04</v>
+        <v>101.58</v>
       </c>
       <c r="BP30" s="25">
-        <v>102.67</v>
+        <v>101.92</v>
       </c>
       <c r="BQ30" s="25">
-        <v>104.42</v>
-      </c>
-      <c r="BR30" s="25"/>
-      <c r="BS30" s="25"/>
+        <v>103.27</v>
+      </c>
+      <c r="BR30" s="25">
+        <v>104.26</v>
+      </c>
+      <c r="BS30" s="25">
+        <v>105.7</v>
+      </c>
       <c r="BT30" s="25"/>
       <c r="BU30" s="25"/>
       <c r="BV30" s="25"/>
@@ -7107,208 +7207,212 @@
         <v>19</v>
       </c>
       <c r="C31" s="25">
-        <v>85.54</v>
+        <v>85.11</v>
       </c>
       <c r="D31" s="25">
-        <v>90.3</v>
+        <v>90.29</v>
       </c>
       <c r="E31" s="25">
-        <v>93.99</v>
+        <v>93.98</v>
       </c>
       <c r="F31" s="25">
-        <v>94.89</v>
+        <v>94.88</v>
       </c>
       <c r="G31" s="25">
-        <v>95.64</v>
+        <v>95.63</v>
       </c>
       <c r="H31" s="25">
         <v>97.23</v>
       </c>
       <c r="I31" s="25">
-        <v>98.01</v>
+        <v>98</v>
       </c>
       <c r="J31" s="25">
-        <v>98.47</v>
+        <v>98.45</v>
       </c>
       <c r="K31" s="25">
-        <v>99.18</v>
+        <v>99.16</v>
       </c>
       <c r="L31" s="25">
-        <v>100.12</v>
+        <v>100.11</v>
       </c>
       <c r="M31" s="25">
         <v>100</v>
       </c>
       <c r="N31" s="25">
-        <v>99.21</v>
+        <v>99.2</v>
       </c>
       <c r="O31" s="25">
-        <v>94.87</v>
+        <v>94.86</v>
       </c>
       <c r="P31" s="25">
-        <v>91.56</v>
+        <v>91.53</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.98</v>
+        <v>89.93</v>
       </c>
       <c r="R31" s="25">
-        <v>90.07</v>
+        <v>90.01</v>
       </c>
       <c r="S31" s="25">
-        <v>90.43</v>
+        <v>90.38</v>
       </c>
       <c r="T31" s="25">
-        <v>91.39</v>
+        <v>91.32</v>
       </c>
       <c r="U31" s="25">
-        <v>92.8</v>
+        <v>92.74</v>
       </c>
       <c r="V31" s="25">
-        <v>93.59</v>
+        <v>93.52</v>
       </c>
       <c r="W31" s="25">
-        <v>94.08</v>
+        <v>94.02</v>
       </c>
       <c r="X31" s="25">
-        <v>95.05</v>
+        <v>94.99</v>
       </c>
       <c r="Y31" s="25">
-        <v>96.09</v>
+        <v>96.03</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.86</v>
+        <v>96.81</v>
       </c>
       <c r="AA31" s="25">
-        <v>97.65</v>
+        <v>97.6</v>
       </c>
       <c r="AB31" s="25">
-        <v>99.06</v>
+        <v>99.01</v>
       </c>
       <c r="AC31" s="25">
-        <v>101.38</v>
+        <v>101.37</v>
       </c>
       <c r="AD31" s="25">
-        <v>102.09</v>
+        <v>102.12</v>
       </c>
       <c r="AE31" s="25">
-        <v>102.11</v>
+        <v>102.14</v>
       </c>
       <c r="AF31" s="25">
-        <v>102.94</v>
+        <v>102.97</v>
       </c>
       <c r="AG31" s="25">
-        <v>103.78</v>
+        <v>103.81</v>
       </c>
       <c r="AH31" s="25">
-        <v>104.22</v>
+        <v>104.26</v>
       </c>
       <c r="AI31" s="25">
-        <v>104.49</v>
+        <v>104.54</v>
       </c>
       <c r="AJ31" s="25">
-        <v>104.62</v>
+        <v>104.66</v>
       </c>
       <c r="AK31" s="25">
-        <v>104.72</v>
+        <v>104.74</v>
       </c>
       <c r="AL31" s="25">
+        <v>105.45</v>
+      </c>
+      <c r="AM31" s="25">
+        <v>106.17</v>
+      </c>
+      <c r="AN31" s="25">
+        <v>106.09</v>
+      </c>
+      <c r="AO31" s="25">
+        <v>106.07</v>
+      </c>
+      <c r="AP31" s="25">
+        <v>104.53</v>
+      </c>
+      <c r="AQ31" s="25">
+        <v>104.01</v>
+      </c>
+      <c r="AR31" s="25">
+        <v>105.42</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>105.81</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>105.72</v>
+      </c>
+      <c r="AU31" s="25">
         <v>105.43</v>
       </c>
-      <c r="AM31" s="25">
-        <v>106.13</v>
-      </c>
-      <c r="AN31" s="25">
-        <v>106.04</v>
-      </c>
-      <c r="AO31" s="25">
-        <v>105.99</v>
-      </c>
-      <c r="AP31" s="25">
-        <v>104.41</v>
-      </c>
-      <c r="AQ31" s="25">
-        <v>103.87</v>
-      </c>
-      <c r="AR31" s="25">
-        <v>105.25</v>
-      </c>
-      <c r="AS31" s="25">
+      <c r="AV31" s="25">
+        <v>106.06</v>
+      </c>
+      <c r="AW31" s="25">
+        <v>106.39</v>
+      </c>
+      <c r="AX31" s="25">
+        <v>106.65</v>
+      </c>
+      <c r="AY31" s="25">
+        <v>107.1</v>
+      </c>
+      <c r="AZ31" s="25">
+        <v>106.91</v>
+      </c>
+      <c r="BA31" s="25">
+        <v>105.55</v>
+      </c>
+      <c r="BB31" s="25">
+        <v>99.07</v>
+      </c>
+      <c r="BC31" s="25">
+        <v>94.09</v>
+      </c>
+      <c r="BD31" s="25">
+        <v>97.15</v>
+      </c>
+      <c r="BE31" s="25">
+        <v>101.22</v>
+      </c>
+      <c r="BF31" s="25">
+        <v>103.69</v>
+      </c>
+      <c r="BG31" s="25">
+        <v>104.47</v>
+      </c>
+      <c r="BH31" s="25">
+        <v>104.99</v>
+      </c>
+      <c r="BI31" s="25">
+        <v>105.7</v>
+      </c>
+      <c r="BJ31" s="25">
+        <v>105.45</v>
+      </c>
+      <c r="BK31" s="25">
+        <v>105.29</v>
+      </c>
+      <c r="BL31" s="25">
+        <v>105.47</v>
+      </c>
+      <c r="BM31" s="25">
         <v>105.64</v>
       </c>
-      <c r="AT31" s="25">
-        <v>105.56</v>
-      </c>
-      <c r="AU31" s="25">
-        <v>105.24</v>
-      </c>
-      <c r="AV31" s="25">
-        <v>105.86</v>
-      </c>
-      <c r="AW31" s="25">
-        <v>106.19</v>
-      </c>
-      <c r="AX31" s="25">
-        <v>106.45</v>
-      </c>
-      <c r="AY31" s="25">
-        <v>106.9</v>
-      </c>
-      <c r="AZ31" s="25">
-        <v>106.68</v>
-      </c>
-      <c r="BA31" s="25">
-        <v>105.35</v>
-      </c>
-      <c r="BB31" s="25">
-        <v>98.82</v>
-      </c>
-      <c r="BC31" s="25">
-        <v>93.85</v>
-      </c>
-      <c r="BD31" s="25">
-        <v>97.08</v>
-      </c>
-      <c r="BE31" s="25">
-        <v>101.3</v>
-      </c>
-      <c r="BF31" s="25">
-        <v>103.23</v>
-      </c>
-      <c r="BG31" s="25">
-        <v>103.74</v>
-      </c>
-      <c r="BH31" s="25">
-        <v>104.31</v>
-      </c>
-      <c r="BI31" s="25">
-        <v>104.93</v>
-      </c>
-      <c r="BJ31" s="25">
-        <v>104.54</v>
-      </c>
-      <c r="BK31" s="25">
-        <v>104.38</v>
-      </c>
-      <c r="BL31" s="25">
-        <v>105.06</v>
-      </c>
-      <c r="BM31" s="25">
-        <v>104.29</v>
-      </c>
       <c r="BN31" s="25">
-        <v>104.03</v>
+        <v>105.97</v>
       </c>
       <c r="BO31" s="25">
-        <v>103.94</v>
+        <v>105.64</v>
       </c>
       <c r="BP31" s="25">
-        <v>101.14</v>
+        <v>103.91</v>
       </c>
       <c r="BQ31" s="25">
-        <v>97.67</v>
-      </c>
-      <c r="BR31" s="25"/>
-      <c r="BS31" s="25"/>
+        <v>101.46</v>
+      </c>
+      <c r="BR31" s="25">
+        <v>100.07</v>
+      </c>
+      <c r="BS31" s="25">
+        <v>99.31</v>
+      </c>
       <c r="BT31" s="25"/>
       <c r="BU31" s="25"/>
       <c r="BV31" s="25"/>
@@ -7325,19 +7429,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.78</v>
+        <v>91.38</v>
       </c>
       <c r="D32" s="25">
-        <v>95.15</v>
+        <v>95.14</v>
       </c>
       <c r="E32" s="25">
-        <v>97.71</v>
+        <v>97.69</v>
       </c>
       <c r="F32" s="25">
-        <v>97.64</v>
+        <v>97.62</v>
       </c>
       <c r="G32" s="25">
-        <v>98.25</v>
+        <v>98.23</v>
       </c>
       <c r="H32" s="25">
         <v>99.77</v>
@@ -7346,13 +7450,13 @@
         <v>100.1</v>
       </c>
       <c r="J32" s="25">
-        <v>101.25</v>
+        <v>101.23</v>
       </c>
       <c r="K32" s="25">
-        <v>102.26</v>
+        <v>102.25</v>
       </c>
       <c r="L32" s="25">
-        <v>101.9</v>
+        <v>101.91</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
@@ -7364,169 +7468,173 @@
         <v>93.29</v>
       </c>
       <c r="P32" s="25">
-        <v>90.02</v>
+        <v>90.01</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.5</v>
+        <v>87.49</v>
       </c>
       <c r="R32" s="25">
-        <v>87.9</v>
+        <v>87.89</v>
       </c>
       <c r="S32" s="25">
-        <v>88.16</v>
+        <v>88.14</v>
       </c>
       <c r="T32" s="25">
-        <v>88</v>
+        <v>87.99</v>
       </c>
       <c r="U32" s="25">
         <v>88.95</v>
       </c>
       <c r="V32" s="25">
-        <v>89.85</v>
+        <v>89.84</v>
       </c>
       <c r="W32" s="25">
-        <v>90.85</v>
+        <v>90.84</v>
       </c>
       <c r="X32" s="25">
-        <v>91.36</v>
+        <v>91.35</v>
       </c>
       <c r="Y32" s="25">
-        <v>92.03</v>
+        <v>92.02</v>
       </c>
       <c r="Z32" s="25">
-        <v>93.03</v>
+        <v>93.01</v>
       </c>
       <c r="AA32" s="25">
-        <v>93.38</v>
+        <v>93.35</v>
       </c>
       <c r="AB32" s="25">
-        <v>93.15</v>
+        <v>93.13</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.82</v>
+        <v>93.86</v>
       </c>
       <c r="AD32" s="25">
-        <v>95.74</v>
+        <v>95.79</v>
       </c>
       <c r="AE32" s="25">
-        <v>95.46</v>
+        <v>95.52</v>
       </c>
       <c r="AF32" s="25">
-        <v>95.8</v>
+        <v>95.86</v>
       </c>
       <c r="AG32" s="25">
-        <v>96.07</v>
+        <v>96.14</v>
       </c>
       <c r="AH32" s="25">
-        <v>96.6</v>
+        <v>96.67</v>
       </c>
       <c r="AI32" s="25">
-        <v>96.79</v>
+        <v>96.86</v>
       </c>
       <c r="AJ32" s="25">
-        <v>96.69</v>
+        <v>96.74</v>
       </c>
       <c r="AK32" s="25">
-        <v>96.16</v>
+        <v>96.21</v>
       </c>
       <c r="AL32" s="25">
+        <v>96.73</v>
+      </c>
+      <c r="AM32" s="25">
+        <v>97.28</v>
+      </c>
+      <c r="AN32" s="25">
+        <v>97.1</v>
+      </c>
+      <c r="AO32" s="25">
+        <v>96.83</v>
+      </c>
+      <c r="AP32" s="25">
+        <v>96.62</v>
+      </c>
+      <c r="AQ32" s="25">
+        <v>97.26</v>
+      </c>
+      <c r="AR32" s="25">
+        <v>98.08</v>
+      </c>
+      <c r="AS32" s="25">
+        <v>98.96</v>
+      </c>
+      <c r="AT32" s="25">
+        <v>98.58</v>
+      </c>
+      <c r="AU32" s="25">
+        <v>98.44</v>
+      </c>
+      <c r="AV32" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="AW32" s="25">
+        <v>99.4</v>
+      </c>
+      <c r="AX32" s="25">
+        <v>99.31</v>
+      </c>
+      <c r="AY32" s="25">
+        <v>99.44</v>
+      </c>
+      <c r="AZ32" s="25">
+        <v>99.54</v>
+      </c>
+      <c r="BA32" s="25">
+        <v>98.12</v>
+      </c>
+      <c r="BB32" s="25">
+        <v>92.32</v>
+      </c>
+      <c r="BC32" s="25">
+        <v>89.36</v>
+      </c>
+      <c r="BD32" s="25">
+        <v>91.75</v>
+      </c>
+      <c r="BE32" s="25">
+        <v>94.31</v>
+      </c>
+      <c r="BF32" s="25">
         <v>96.68</v>
       </c>
-      <c r="AM32" s="25">
-        <v>97.24</v>
-      </c>
-      <c r="AN32" s="25">
-        <v>97.06</v>
-      </c>
-      <c r="AO32" s="25">
-        <v>96.76</v>
-      </c>
-      <c r="AP32" s="25">
-        <v>96.49</v>
-      </c>
-      <c r="AQ32" s="25">
-        <v>97.09</v>
-      </c>
-      <c r="AR32" s="25">
-        <v>97.91</v>
-      </c>
-      <c r="AS32" s="25">
-        <v>98.79</v>
-      </c>
-      <c r="AT32" s="25">
-        <v>98.41</v>
-      </c>
-      <c r="AU32" s="25">
-        <v>98.28</v>
-      </c>
-      <c r="AV32" s="25">
-        <v>98.41</v>
-      </c>
-      <c r="AW32" s="25">
-        <v>99.24</v>
-      </c>
-      <c r="AX32" s="25">
-        <v>99.13</v>
-      </c>
-      <c r="AY32" s="25">
-        <v>99.24</v>
-      </c>
-      <c r="AZ32" s="25">
-        <v>99.32</v>
-      </c>
-      <c r="BA32" s="25">
-        <v>97.94</v>
-      </c>
-      <c r="BB32" s="25">
-        <v>92.13</v>
-      </c>
-      <c r="BC32" s="25">
-        <v>89.26</v>
-      </c>
-      <c r="BD32" s="25">
-        <v>91.99</v>
-      </c>
-      <c r="BE32" s="25">
-        <v>94.88</v>
-      </c>
-      <c r="BF32" s="25">
-        <v>96.83</v>
-      </c>
       <c r="BG32" s="25">
-        <v>98.11</v>
+        <v>98.39</v>
       </c>
       <c r="BH32" s="25">
-        <v>98.82</v>
+        <v>99.03</v>
       </c>
       <c r="BI32" s="25">
-        <v>99.44</v>
+        <v>99.63</v>
       </c>
       <c r="BJ32" s="25">
-        <v>99.31</v>
+        <v>99.53</v>
       </c>
       <c r="BK32" s="25">
-        <v>99.9</v>
+        <v>99.98</v>
       </c>
       <c r="BL32" s="25">
-        <v>100.45</v>
+        <v>100.02</v>
       </c>
       <c r="BM32" s="25">
-        <v>100.33</v>
+        <v>100.39</v>
       </c>
       <c r="BN32" s="25">
-        <v>99.92</v>
+        <v>100.31</v>
       </c>
       <c r="BO32" s="25">
-        <v>100.91</v>
+        <v>101.13</v>
       </c>
       <c r="BP32" s="25">
-        <v>99.27</v>
+        <v>99.75</v>
       </c>
       <c r="BQ32" s="25">
-        <v>98.27</v>
-      </c>
-      <c r="BR32" s="25"/>
-      <c r="BS32" s="25"/>
+        <v>98.95</v>
+      </c>
+      <c r="BR32" s="25">
+        <v>98.31</v>
+      </c>
+      <c r="BS32" s="25">
+        <v>97.8</v>
+      </c>
       <c r="BT32" s="25"/>
       <c r="BU32" s="25"/>
       <c r="BV32" s="25"/>
@@ -7543,13 +7651,13 @@
         <v>20</v>
       </c>
       <c r="C33" s="25">
-        <v>96.87</v>
+        <v>96.73</v>
       </c>
       <c r="D33" s="25">
         <v>97.15</v>
       </c>
       <c r="E33" s="25">
-        <v>98.23</v>
+        <v>98.22</v>
       </c>
       <c r="F33" s="25">
         <v>98.15</v>
@@ -7585,7 +7693,7 @@
         <v>96.18</v>
       </c>
       <c r="Q33" s="25">
-        <v>96.14</v>
+        <v>96.15</v>
       </c>
       <c r="R33" s="25">
         <v>96.13</v>
@@ -7612,7 +7720,7 @@
         <v>96.63</v>
       </c>
       <c r="Z33" s="25">
-        <v>96.45</v>
+        <v>96.44</v>
       </c>
       <c r="AA33" s="25">
         <v>96.04</v>
@@ -7624,7 +7732,7 @@
         <v>97.05</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.85</v>
+        <v>97.84</v>
       </c>
       <c r="AE33" s="25">
         <v>97.79</v>
@@ -7645,16 +7753,16 @@
         <v>97.52</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.74</v>
+        <v>97.73</v>
       </c>
       <c r="AL33" s="25">
         <v>97.94</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.36</v>
+        <v>98.35</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.44</v>
+        <v>98.43</v>
       </c>
       <c r="AO33" s="25">
         <v>98.12</v>
@@ -7666,25 +7774,25 @@
         <v>97.99</v>
       </c>
       <c r="AR33" s="25">
-        <v>98.53</v>
+        <v>98.54</v>
       </c>
       <c r="AS33" s="25">
-        <v>98.67</v>
+        <v>98.68</v>
       </c>
       <c r="AT33" s="25">
-        <v>97.87</v>
+        <v>97.88</v>
       </c>
       <c r="AU33" s="25">
-        <v>98.02</v>
+        <v>98.03</v>
       </c>
       <c r="AV33" s="25">
-        <v>98.35</v>
+        <v>98.36</v>
       </c>
       <c r="AW33" s="25">
-        <v>98.42</v>
+        <v>98.43</v>
       </c>
       <c r="AX33" s="25">
-        <v>98.43</v>
+        <v>98.44</v>
       </c>
       <c r="AY33" s="25">
         <v>98.84</v>
@@ -7693,58 +7801,62 @@
         <v>98.4</v>
       </c>
       <c r="BA33" s="25">
-        <v>98.54</v>
+        <v>98.53</v>
       </c>
       <c r="BB33" s="25">
         <v>96.31</v>
       </c>
       <c r="BC33" s="25">
-        <v>94.23</v>
+        <v>94.21</v>
       </c>
       <c r="BD33" s="25">
-        <v>94.23</v>
+        <v>93.97</v>
       </c>
       <c r="BE33" s="25">
-        <v>95.84</v>
+        <v>95.28</v>
       </c>
       <c r="BF33" s="25">
-        <v>96.48</v>
+        <v>96.24</v>
       </c>
       <c r="BG33" s="25">
-        <v>97.02</v>
+        <v>97.05</v>
       </c>
       <c r="BH33" s="25">
-        <v>97.39</v>
+        <v>97.41</v>
       </c>
       <c r="BI33" s="25">
-        <v>98.02</v>
+        <v>98.03</v>
       </c>
       <c r="BJ33" s="25">
         <v>98.25</v>
       </c>
       <c r="BK33" s="25">
-        <v>98.79</v>
+        <v>98.78</v>
       </c>
       <c r="BL33" s="25">
-        <v>99.2</v>
+        <v>98.84</v>
       </c>
       <c r="BM33" s="25">
-        <v>99.72</v>
+        <v>99.14</v>
       </c>
       <c r="BN33" s="25">
-        <v>100.05</v>
+        <v>99.47</v>
       </c>
       <c r="BO33" s="25">
-        <v>100</v>
+        <v>99.48</v>
       </c>
       <c r="BP33" s="25">
-        <v>99.49</v>
+        <v>98.93</v>
       </c>
       <c r="BQ33" s="25">
-        <v>100.73</v>
-      </c>
-      <c r="BR33" s="25"/>
-      <c r="BS33" s="25"/>
+        <v>99.42</v>
+      </c>
+      <c r="BR33" s="25">
+        <v>99.37</v>
+      </c>
+      <c r="BS33" s="25">
+        <v>100.97</v>
+      </c>
       <c r="BT33" s="25"/>
       <c r="BU33" s="25"/>
       <c r="BV33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056C514F-5EC5-4DF3-A7B9-416FE73187F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2D04C-C1F9-4F0D-9E12-6EBC5BFE6567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,10 +110,10 @@
     <t>200+ employees</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 11 May 2021</t>
+    <t>Released at 11.30am (Canberra time) 25 May 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 24 April 2021</t>
+    <t>Week ending Saturday 08 May 2021</t>
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs indexes by Employer characteristics</t>
@@ -1567,7 +1575,7 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>24</v>
       </c>
@@ -1863,8 +1871,12 @@
       <c r="BS6" s="24">
         <v>44310</v>
       </c>
-      <c r="BT6" s="24"/>
-      <c r="BU6" s="24"/>
+      <c r="BT6" s="24">
+        <v>44317</v>
+      </c>
+      <c r="BU6" s="24">
+        <v>44324</v>
+      </c>
       <c r="BV6" s="24"/>
       <c r="BW6" s="24"/>
       <c r="BX6" s="24"/>
@@ -1879,16 +1891,16 @@
         <v>19</v>
       </c>
       <c r="C7" s="25">
-        <v>87.28</v>
+        <v>87.27</v>
       </c>
       <c r="D7" s="25">
         <v>92.03</v>
       </c>
       <c r="E7" s="25">
-        <v>94.67</v>
+        <v>94.66</v>
       </c>
       <c r="F7" s="25">
-        <v>95.72</v>
+        <v>95.71</v>
       </c>
       <c r="G7" s="25">
         <v>96.43</v>
@@ -1951,142 +1963,146 @@
         <v>96.18</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.73</v>
+        <v>96.74</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.66</v>
+        <v>97.67</v>
       </c>
       <c r="AC7" s="25">
-        <v>100.07</v>
+        <v>100.12</v>
       </c>
       <c r="AD7" s="25">
-        <v>100.98</v>
+        <v>101.06</v>
       </c>
       <c r="AE7" s="25">
-        <v>101.17</v>
+        <v>101.26</v>
       </c>
       <c r="AF7" s="25">
-        <v>101.63</v>
+        <v>101.71</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.78</v>
+        <v>101.87</v>
       </c>
       <c r="AH7" s="25">
-        <v>101.84</v>
+        <v>101.93</v>
       </c>
       <c r="AI7" s="25">
-        <v>101.87</v>
+        <v>101.96</v>
       </c>
       <c r="AJ7" s="25">
-        <v>102.02</v>
+        <v>102.11</v>
       </c>
       <c r="AK7" s="25">
-        <v>102.3</v>
+        <v>102.39</v>
       </c>
       <c r="AL7" s="25">
-        <v>102.77</v>
+        <v>102.71</v>
       </c>
       <c r="AM7" s="25">
-        <v>103.45</v>
+        <v>103.32</v>
       </c>
       <c r="AN7" s="25">
-        <v>103.56</v>
+        <v>103.43</v>
       </c>
       <c r="AO7" s="25">
-        <v>103.42</v>
+        <v>103.29</v>
       </c>
       <c r="AP7" s="25">
-        <v>102.3</v>
+        <v>102.27</v>
       </c>
       <c r="AQ7" s="25">
-        <v>102.33</v>
+        <v>102.45</v>
       </c>
       <c r="AR7" s="25">
-        <v>103.14</v>
+        <v>103.28</v>
       </c>
       <c r="AS7" s="25">
-        <v>103.56</v>
+        <v>103.71</v>
       </c>
       <c r="AT7" s="25">
-        <v>103.81</v>
+        <v>103.97</v>
       </c>
       <c r="AU7" s="25">
-        <v>104.29</v>
+        <v>104.47</v>
       </c>
       <c r="AV7" s="25">
-        <v>105.13</v>
+        <v>105.31</v>
       </c>
       <c r="AW7" s="25">
-        <v>105.55</v>
+        <v>105.74</v>
       </c>
       <c r="AX7" s="25">
-        <v>105.96</v>
+        <v>106.16</v>
       </c>
       <c r="AY7" s="25">
-        <v>106.39</v>
+        <v>106.6</v>
       </c>
       <c r="AZ7" s="25">
-        <v>106.49</v>
+        <v>106.71</v>
       </c>
       <c r="BA7" s="25">
-        <v>105.24</v>
+        <v>105.47</v>
       </c>
       <c r="BB7" s="25">
-        <v>99.71</v>
+        <v>99.95</v>
       </c>
       <c r="BC7" s="25">
-        <v>95.09</v>
+        <v>95.4</v>
       </c>
       <c r="BD7" s="25">
-        <v>97.49</v>
+        <v>97.9</v>
       </c>
       <c r="BE7" s="25">
-        <v>100.96</v>
+        <v>101.35</v>
       </c>
       <c r="BF7" s="25">
-        <v>102.74</v>
+        <v>102.79</v>
       </c>
       <c r="BG7" s="25">
-        <v>103.38</v>
+        <v>103.17</v>
       </c>
       <c r="BH7" s="25">
-        <v>103.67</v>
+        <v>103.92</v>
       </c>
       <c r="BI7" s="25">
-        <v>104.18</v>
+        <v>104.75</v>
       </c>
       <c r="BJ7" s="25">
-        <v>104.12</v>
+        <v>104.77</v>
       </c>
       <c r="BK7" s="25">
-        <v>104.24</v>
+        <v>104.94</v>
       </c>
       <c r="BL7" s="25">
-        <v>104.53</v>
+        <v>105.33</v>
       </c>
       <c r="BM7" s="25">
-        <v>104.89</v>
+        <v>105.67</v>
       </c>
       <c r="BN7" s="25">
-        <v>105.38</v>
+        <v>105.57</v>
       </c>
       <c r="BO7" s="25">
-        <v>105.22</v>
+        <v>105.49</v>
       </c>
       <c r="BP7" s="25">
-        <v>103.42</v>
+        <v>104.58</v>
       </c>
       <c r="BQ7" s="25">
-        <v>101</v>
+        <v>102.65</v>
       </c>
       <c r="BR7" s="25">
-        <v>99.99</v>
+        <v>102.1</v>
       </c>
       <c r="BS7" s="25">
-        <v>99.71</v>
-      </c>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="25"/>
+        <v>101.99</v>
+      </c>
+      <c r="BT7" s="25">
+        <v>100.94</v>
+      </c>
+      <c r="BU7" s="25">
+        <v>98.65</v>
+      </c>
       <c r="BV7" s="25"/>
       <c r="BW7" s="25"/>
       <c r="BX7" s="25"/>
@@ -2107,7 +2123,7 @@
         <v>95.49</v>
       </c>
       <c r="E8" s="25">
-        <v>97.25</v>
+        <v>97.24</v>
       </c>
       <c r="F8" s="25">
         <v>98.08</v>
@@ -2128,7 +2144,7 @@
         <v>100.29</v>
       </c>
       <c r="L8" s="25">
-        <v>100.16</v>
+        <v>100.15</v>
       </c>
       <c r="M8" s="25">
         <v>100</v>
@@ -2161,154 +2177,158 @@
         <v>90.72</v>
       </c>
       <c r="W8" s="25">
-        <v>90.99</v>
+        <v>91</v>
       </c>
       <c r="X8" s="25">
         <v>91.43</v>
       </c>
       <c r="Y8" s="25">
-        <v>92.33</v>
+        <v>92.34</v>
       </c>
       <c r="Z8" s="25">
         <v>93.15</v>
       </c>
       <c r="AA8" s="25">
-        <v>93.38</v>
+        <v>93.39</v>
       </c>
       <c r="AB8" s="25">
         <v>93.04</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.56</v>
+        <v>93.58</v>
       </c>
       <c r="AD8" s="25">
-        <v>94.09</v>
+        <v>94.13</v>
       </c>
       <c r="AE8" s="25">
-        <v>94.32</v>
+        <v>94.36</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.82</v>
+        <v>94.86</v>
       </c>
       <c r="AG8" s="25">
-        <v>94.98</v>
+        <v>95.01</v>
       </c>
       <c r="AH8" s="25">
+        <v>94.8</v>
+      </c>
+      <c r="AI8" s="25">
+        <v>94.72</v>
+      </c>
+      <c r="AJ8" s="25">
         <v>94.77</v>
       </c>
-      <c r="AI8" s="25">
-        <v>94.69</v>
-      </c>
-      <c r="AJ8" s="25">
-        <v>94.73</v>
-      </c>
       <c r="AK8" s="25">
-        <v>94.91</v>
+        <v>94.95</v>
       </c>
       <c r="AL8" s="25">
-        <v>95.37</v>
+        <v>95.29</v>
       </c>
       <c r="AM8" s="25">
-        <v>96</v>
+        <v>95.87</v>
       </c>
       <c r="AN8" s="25">
-        <v>96.13</v>
+        <v>95.99</v>
       </c>
       <c r="AO8" s="25">
-        <v>95.96</v>
+        <v>95.81</v>
       </c>
       <c r="AP8" s="25">
-        <v>95.2</v>
+        <v>95.13</v>
       </c>
       <c r="AQ8" s="25">
-        <v>95.27</v>
+        <v>95.29</v>
       </c>
       <c r="AR8" s="25">
-        <v>96.26</v>
+        <v>96.34</v>
       </c>
       <c r="AS8" s="25">
-        <v>96.73</v>
+        <v>96.79</v>
       </c>
       <c r="AT8" s="25">
-        <v>96.84</v>
+        <v>96.87</v>
       </c>
       <c r="AU8" s="25">
-        <v>97.25</v>
+        <v>97.28</v>
       </c>
       <c r="AV8" s="25">
-        <v>97.9</v>
+        <v>97.94</v>
       </c>
       <c r="AW8" s="25">
-        <v>98.21</v>
+        <v>98.25</v>
       </c>
       <c r="AX8" s="25">
-        <v>98.56</v>
+        <v>98.6</v>
       </c>
       <c r="AY8" s="25">
+        <v>98.97</v>
+      </c>
+      <c r="AZ8" s="25">
+        <v>99</v>
+      </c>
+      <c r="BA8" s="25">
+        <v>97.94</v>
+      </c>
+      <c r="BB8" s="25">
+        <v>93.44</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>90.8</v>
+      </c>
+      <c r="BD8" s="25">
+        <v>92.77</v>
+      </c>
+      <c r="BE8" s="25">
+        <v>95.12</v>
+      </c>
+      <c r="BF8" s="25">
+        <v>96.27</v>
+      </c>
+      <c r="BG8" s="25">
+        <v>96.86</v>
+      </c>
+      <c r="BH8" s="25">
+        <v>97.93</v>
+      </c>
+      <c r="BI8" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="BJ8" s="25">
+        <v>98.69</v>
+      </c>
+      <c r="BK8" s="25">
+        <v>99.2</v>
+      </c>
+      <c r="BL8" s="25">
+        <v>99.28</v>
+      </c>
+      <c r="BM8" s="25">
+        <v>99.8</v>
+      </c>
+      <c r="BN8" s="25">
+        <v>100.14</v>
+      </c>
+      <c r="BO8" s="25">
+        <v>100.49</v>
+      </c>
+      <c r="BP8" s="25">
+        <v>100.17</v>
+      </c>
+      <c r="BQ8" s="25">
+        <v>99.14</v>
+      </c>
+      <c r="BR8" s="25">
+        <v>99.09</v>
+      </c>
+      <c r="BS8" s="25">
+        <v>99.51</v>
+      </c>
+      <c r="BT8" s="25">
+        <v>99.36</v>
+      </c>
+      <c r="BU8" s="25">
         <v>98.92</v>
       </c>
-      <c r="AZ8" s="25">
-        <v>98.95</v>
-      </c>
-      <c r="BA8" s="25">
-        <v>97.88</v>
-      </c>
-      <c r="BB8" s="25">
-        <v>93.38</v>
-      </c>
-      <c r="BC8" s="25">
-        <v>90.74</v>
-      </c>
-      <c r="BD8" s="25">
-        <v>92.67</v>
-      </c>
-      <c r="BE8" s="25">
-        <v>95.06</v>
-      </c>
-      <c r="BF8" s="25">
-        <v>96.6</v>
-      </c>
-      <c r="BG8" s="25">
-        <v>97.45</v>
-      </c>
-      <c r="BH8" s="25">
-        <v>98.16</v>
-      </c>
-      <c r="BI8" s="25">
-        <v>98.66</v>
-      </c>
-      <c r="BJ8" s="25">
-        <v>98.58</v>
-      </c>
-      <c r="BK8" s="25">
-        <v>99.06</v>
-      </c>
-      <c r="BL8" s="25">
-        <v>99.15</v>
-      </c>
-      <c r="BM8" s="25">
-        <v>99.75</v>
-      </c>
-      <c r="BN8" s="25">
-        <v>100.58</v>
-      </c>
-      <c r="BO8" s="25">
-        <v>100.75</v>
-      </c>
-      <c r="BP8" s="25">
-        <v>100.05</v>
-      </c>
-      <c r="BQ8" s="25">
-        <v>98.92</v>
-      </c>
-      <c r="BR8" s="25">
-        <v>98.78</v>
-      </c>
-      <c r="BS8" s="25">
-        <v>99.16</v>
-      </c>
-      <c r="BT8" s="25"/>
-      <c r="BU8" s="25"/>
       <c r="BV8" s="25"/>
       <c r="BW8" s="25"/>
       <c r="BX8" s="25"/>
@@ -2341,7 +2361,7 @@
         <v>99.1</v>
       </c>
       <c r="I9" s="25">
-        <v>99.62</v>
+        <v>99.63</v>
       </c>
       <c r="J9" s="25">
         <v>99.5</v>
@@ -2374,7 +2394,7 @@
         <v>95.04</v>
       </c>
       <c r="T9" s="25">
-        <v>95.1</v>
+        <v>95.09</v>
       </c>
       <c r="U9" s="25">
         <v>95.43</v>
@@ -2404,133 +2424,137 @@
         <v>96.6</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.86</v>
+        <v>97.9</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.8</v>
+        <v>97.84</v>
       </c>
       <c r="AF9" s="25">
-        <v>97.73</v>
+        <v>97.76</v>
       </c>
       <c r="AG9" s="25">
-        <v>97.96</v>
+        <v>97.99</v>
       </c>
       <c r="AH9" s="25">
-        <v>97.97</v>
+        <v>98</v>
       </c>
       <c r="AI9" s="25">
-        <v>97.78</v>
+        <v>97.81</v>
       </c>
       <c r="AJ9" s="25">
-        <v>97.77</v>
+        <v>97.81</v>
       </c>
       <c r="AK9" s="25">
-        <v>97.78</v>
+        <v>97.81</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.85</v>
+        <v>97.79</v>
       </c>
       <c r="AM9" s="25">
-        <v>98.1</v>
+        <v>98</v>
       </c>
       <c r="AN9" s="25">
-        <v>98.31</v>
+        <v>98.19</v>
       </c>
       <c r="AO9" s="25">
-        <v>98.04</v>
+        <v>97.92</v>
       </c>
       <c r="AP9" s="25">
-        <v>97.32</v>
+        <v>97.25</v>
       </c>
       <c r="AQ9" s="25">
-        <v>97.45</v>
+        <v>97.47</v>
       </c>
       <c r="AR9" s="25">
-        <v>98.03</v>
+        <v>98.16</v>
       </c>
       <c r="AS9" s="25">
-        <v>98.11</v>
+        <v>98.23</v>
       </c>
       <c r="AT9" s="25">
-        <v>98.21</v>
+        <v>98.24</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.4</v>
+        <v>98.43</v>
       </c>
       <c r="AV9" s="25">
-        <v>99.06</v>
+        <v>99.1</v>
       </c>
       <c r="AW9" s="25">
-        <v>99.27</v>
+        <v>99.31</v>
       </c>
       <c r="AX9" s="25">
-        <v>99.46</v>
+        <v>99.49</v>
       </c>
       <c r="AY9" s="25">
-        <v>100.04</v>
+        <v>100.06</v>
       </c>
       <c r="AZ9" s="25">
-        <v>100.05</v>
+        <v>100.07</v>
       </c>
       <c r="BA9" s="25">
-        <v>99.56</v>
+        <v>99.57</v>
       </c>
       <c r="BB9" s="25">
-        <v>97.08</v>
+        <v>97.09</v>
       </c>
       <c r="BC9" s="25">
-        <v>94.88</v>
+        <v>94.89</v>
       </c>
       <c r="BD9" s="25">
-        <v>94.99</v>
+        <v>95.12</v>
       </c>
       <c r="BE9" s="25">
-        <v>96.13</v>
+        <v>96.23</v>
       </c>
       <c r="BF9" s="25">
-        <v>96.98</v>
+        <v>96.73</v>
       </c>
       <c r="BG9" s="25">
-        <v>97.81</v>
+        <v>97.2</v>
       </c>
       <c r="BH9" s="25">
-        <v>98.06</v>
+        <v>97.68</v>
       </c>
       <c r="BI9" s="25">
-        <v>98.84</v>
+        <v>98.83</v>
       </c>
       <c r="BJ9" s="25">
-        <v>99.1</v>
+        <v>99.09</v>
       </c>
       <c r="BK9" s="25">
-        <v>99.44</v>
+        <v>99.4</v>
       </c>
       <c r="BL9" s="25">
-        <v>99.6</v>
+        <v>99.49</v>
       </c>
       <c r="BM9" s="25">
-        <v>99.77</v>
+        <v>99.66</v>
       </c>
       <c r="BN9" s="25">
-        <v>100.21</v>
+        <v>99.8</v>
       </c>
       <c r="BO9" s="25">
-        <v>100.03</v>
+        <v>99.59</v>
       </c>
       <c r="BP9" s="25">
-        <v>99.69</v>
+        <v>99.47</v>
       </c>
       <c r="BQ9" s="25">
-        <v>99.82</v>
+        <v>99.36</v>
       </c>
       <c r="BR9" s="25">
-        <v>100.23</v>
+        <v>99.54</v>
       </c>
       <c r="BS9" s="25">
-        <v>101.14</v>
-      </c>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
+        <v>99.75</v>
+      </c>
+      <c r="BT9" s="25">
+        <v>100.02</v>
+      </c>
+      <c r="BU9" s="25">
+        <v>100.75</v>
+      </c>
       <c r="BV9" s="25"/>
       <c r="BW9" s="25"/>
       <c r="BX9" s="25"/>
@@ -2554,7 +2578,7 @@
         <v>94.36</v>
       </c>
       <c r="F10" s="25">
-        <v>95.48</v>
+        <v>95.49</v>
       </c>
       <c r="G10" s="25">
         <v>96.37</v>
@@ -2590,7 +2614,7 @@
         <v>89.19</v>
       </c>
       <c r="R10" s="25">
-        <v>88.91</v>
+        <v>88.92</v>
       </c>
       <c r="S10" s="25">
         <v>89.57</v>
@@ -2605,10 +2629,10 @@
         <v>94.33</v>
       </c>
       <c r="W10" s="25">
-        <v>94.87</v>
+        <v>94.88</v>
       </c>
       <c r="X10" s="25">
-        <v>95.44</v>
+        <v>95.45</v>
       </c>
       <c r="Y10" s="25">
         <v>96.84</v>
@@ -2617,142 +2641,146 @@
         <v>96.54</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.86</v>
+        <v>96.87</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.78</v>
+        <v>97.8</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.79</v>
+        <v>100.86</v>
       </c>
       <c r="AD10" s="25">
-        <v>102.07</v>
+        <v>102.17</v>
       </c>
       <c r="AE10" s="25">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AF10" s="25">
-        <v>102.86</v>
+        <v>102.97</v>
       </c>
       <c r="AG10" s="25">
-        <v>103.03</v>
+        <v>103.13</v>
       </c>
       <c r="AH10" s="25">
-        <v>103.32</v>
+        <v>103.43</v>
       </c>
       <c r="AI10" s="25">
-        <v>103.56</v>
+        <v>103.67</v>
       </c>
       <c r="AJ10" s="25">
-        <v>103.85</v>
+        <v>103.97</v>
       </c>
       <c r="AK10" s="25">
-        <v>104.04</v>
+        <v>104.16</v>
       </c>
       <c r="AL10" s="25">
-        <v>104.67</v>
+        <v>104.6</v>
       </c>
       <c r="AM10" s="25">
-        <v>105.34</v>
+        <v>105.17</v>
       </c>
       <c r="AN10" s="25">
-        <v>105.45</v>
+        <v>105.27</v>
       </c>
       <c r="AO10" s="25">
-        <v>105.39</v>
+        <v>105.22</v>
       </c>
       <c r="AP10" s="25">
-        <v>103.84</v>
+        <v>103.8</v>
       </c>
       <c r="AQ10" s="25">
-        <v>103.48</v>
+        <v>103.64</v>
       </c>
       <c r="AR10" s="25">
-        <v>104.37</v>
+        <v>104.55</v>
       </c>
       <c r="AS10" s="25">
-        <v>104.78</v>
+        <v>104.96</v>
       </c>
       <c r="AT10" s="25">
-        <v>104.71</v>
+        <v>104.91</v>
       </c>
       <c r="AU10" s="25">
-        <v>105.13</v>
+        <v>105.35</v>
       </c>
       <c r="AV10" s="25">
-        <v>106.05</v>
+        <v>106.28</v>
       </c>
       <c r="AW10" s="25">
-        <v>106.65</v>
+        <v>106.89</v>
       </c>
       <c r="AX10" s="25">
-        <v>106.85</v>
+        <v>107.09</v>
       </c>
       <c r="AY10" s="25">
-        <v>107.03</v>
+        <v>107.28</v>
       </c>
       <c r="AZ10" s="25">
-        <v>106.9</v>
+        <v>107.16</v>
       </c>
       <c r="BA10" s="25">
-        <v>105.48</v>
+        <v>105.75</v>
       </c>
       <c r="BB10" s="25">
-        <v>99.81</v>
+        <v>100.07</v>
       </c>
       <c r="BC10" s="25">
-        <v>94.9</v>
+        <v>95.26</v>
       </c>
       <c r="BD10" s="25">
-        <v>97.1</v>
+        <v>97.58</v>
       </c>
       <c r="BE10" s="25">
-        <v>100.59</v>
+        <v>101.08</v>
       </c>
       <c r="BF10" s="25">
-        <v>102.27</v>
+        <v>102.47</v>
       </c>
       <c r="BG10" s="25">
-        <v>102.92</v>
+        <v>102.9</v>
       </c>
       <c r="BH10" s="25">
-        <v>103.24</v>
+        <v>103.64</v>
       </c>
       <c r="BI10" s="25">
-        <v>103.68</v>
+        <v>104.36</v>
       </c>
       <c r="BJ10" s="25">
-        <v>103.44</v>
+        <v>104.25</v>
       </c>
       <c r="BK10" s="25">
-        <v>103.35</v>
+        <v>104.18</v>
       </c>
       <c r="BL10" s="25">
-        <v>103.76</v>
+        <v>104.72</v>
       </c>
       <c r="BM10" s="25">
-        <v>104.05</v>
+        <v>105.03</v>
       </c>
       <c r="BN10" s="25">
-        <v>104.23</v>
+        <v>104.65</v>
       </c>
       <c r="BO10" s="25">
-        <v>103.98</v>
+        <v>104.48</v>
       </c>
       <c r="BP10" s="25">
-        <v>102.38</v>
+        <v>103.82</v>
       </c>
       <c r="BQ10" s="25">
-        <v>99.28</v>
+        <v>101.31</v>
       </c>
       <c r="BR10" s="25">
-        <v>98.11</v>
+        <v>100.71</v>
       </c>
       <c r="BS10" s="25">
-        <v>97.89</v>
-      </c>
-      <c r="BT10" s="25"/>
-      <c r="BU10" s="25"/>
+        <v>100.54</v>
+      </c>
+      <c r="BT10" s="25">
+        <v>99.44</v>
+      </c>
+      <c r="BU10" s="25">
+        <v>96.48</v>
+      </c>
       <c r="BV10" s="25"/>
       <c r="BW10" s="25"/>
       <c r="BX10" s="25"/>
@@ -2785,7 +2813,7 @@
         <v>99.54</v>
       </c>
       <c r="I11" s="25">
-        <v>99.74</v>
+        <v>99.75</v>
       </c>
       <c r="J11" s="25">
         <v>100.18</v>
@@ -2803,13 +2831,13 @@
         <v>98</v>
       </c>
       <c r="O11" s="25">
-        <v>92.52</v>
+        <v>92.53</v>
       </c>
       <c r="P11" s="25">
         <v>89.13</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.76</v>
+        <v>87.75</v>
       </c>
       <c r="R11" s="25">
         <v>87.85</v>
@@ -2830,151 +2858,155 @@
         <v>90.82</v>
       </c>
       <c r="X11" s="25">
-        <v>91.35</v>
+        <v>91.36</v>
       </c>
       <c r="Y11" s="25">
         <v>92.44</v>
       </c>
       <c r="Z11" s="25">
-        <v>93.13</v>
+        <v>93.14</v>
       </c>
       <c r="AA11" s="25">
-        <v>93.29</v>
+        <v>93.3</v>
       </c>
       <c r="AB11" s="25">
-        <v>92.99</v>
+        <v>93</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.62</v>
+        <v>93.66</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.76</v>
+        <v>94.81</v>
       </c>
       <c r="AE11" s="25">
-        <v>95.25</v>
+        <v>95.3</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.65</v>
+        <v>95.7</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.78</v>
+        <v>95.83</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.81</v>
+        <v>95.87</v>
       </c>
       <c r="AI11" s="25">
-        <v>95.97</v>
+        <v>96.03</v>
       </c>
       <c r="AJ11" s="25">
-        <v>96.26</v>
+        <v>96.32</v>
       </c>
       <c r="AK11" s="25">
-        <v>96.48</v>
+        <v>96.54</v>
       </c>
       <c r="AL11" s="25">
-        <v>96.87</v>
+        <v>96.76</v>
       </c>
       <c r="AM11" s="25">
+        <v>97.08</v>
+      </c>
+      <c r="AN11" s="25">
+        <v>97.2</v>
+      </c>
+      <c r="AO11" s="25">
+        <v>97.25</v>
+      </c>
+      <c r="AP11" s="25">
+        <v>96.53</v>
+      </c>
+      <c r="AQ11" s="25">
+        <v>96.37</v>
+      </c>
+      <c r="AR11" s="25">
         <v>97.27</v>
       </c>
-      <c r="AN11" s="25">
-        <v>97.4</v>
-      </c>
-      <c r="AO11" s="25">
-        <v>97.45</v>
-      </c>
-      <c r="AP11" s="25">
-        <v>96.63</v>
-      </c>
-      <c r="AQ11" s="25">
-        <v>96.31</v>
-      </c>
-      <c r="AR11" s="25">
-        <v>97.2</v>
-      </c>
       <c r="AS11" s="25">
-        <v>97.63</v>
+        <v>97.7</v>
       </c>
       <c r="AT11" s="25">
-        <v>97.43</v>
+        <v>97.5</v>
       </c>
       <c r="AU11" s="25">
-        <v>97.72</v>
+        <v>97.79</v>
       </c>
       <c r="AV11" s="25">
-        <v>98.29</v>
+        <v>98.36</v>
       </c>
       <c r="AW11" s="25">
-        <v>98.81</v>
+        <v>98.89</v>
       </c>
       <c r="AX11" s="25">
-        <v>98.97</v>
+        <v>99.04</v>
       </c>
       <c r="AY11" s="25">
-        <v>99.09</v>
+        <v>99.16</v>
       </c>
       <c r="AZ11" s="25">
-        <v>99.08</v>
+        <v>99.16</v>
       </c>
       <c r="BA11" s="25">
-        <v>98.05</v>
+        <v>98.14</v>
       </c>
       <c r="BB11" s="25">
-        <v>93.48</v>
+        <v>93.56</v>
       </c>
       <c r="BC11" s="25">
-        <v>90.66</v>
+        <v>90.76</v>
       </c>
       <c r="BD11" s="25">
-        <v>92.92</v>
+        <v>93.03</v>
       </c>
       <c r="BE11" s="25">
-        <v>95.31</v>
+        <v>95.38</v>
       </c>
       <c r="BF11" s="25">
-        <v>96.79</v>
+        <v>96.57</v>
       </c>
       <c r="BG11" s="25">
-        <v>97.63</v>
+        <v>97.21</v>
       </c>
       <c r="BH11" s="25">
-        <v>98.46</v>
+        <v>98.34</v>
       </c>
       <c r="BI11" s="25">
-        <v>98.83</v>
+        <v>98.94</v>
       </c>
       <c r="BJ11" s="25">
-        <v>98.42</v>
+        <v>98.57</v>
       </c>
       <c r="BK11" s="25">
-        <v>98.91</v>
+        <v>99.1</v>
       </c>
       <c r="BL11" s="25">
-        <v>99.07</v>
+        <v>99.24</v>
       </c>
       <c r="BM11" s="25">
-        <v>99.57</v>
+        <v>99.65</v>
       </c>
       <c r="BN11" s="25">
-        <v>100.32</v>
+        <v>99.9</v>
       </c>
       <c r="BO11" s="25">
-        <v>100.35</v>
+        <v>100.56</v>
       </c>
       <c r="BP11" s="25">
-        <v>100.03</v>
+        <v>100.2</v>
       </c>
       <c r="BQ11" s="25">
-        <v>98.4</v>
+        <v>98.69</v>
       </c>
       <c r="BR11" s="25">
-        <v>98.4</v>
+        <v>98.96</v>
       </c>
       <c r="BS11" s="25">
-        <v>98.94</v>
-      </c>
-      <c r="BT11" s="25"/>
-      <c r="BU11" s="25"/>
+        <v>99.45</v>
+      </c>
+      <c r="BT11" s="25">
+        <v>99.39</v>
+      </c>
+      <c r="BU11" s="25">
+        <v>98.52</v>
+      </c>
       <c r="BV11" s="25"/>
       <c r="BW11" s="25"/>
       <c r="BX11" s="25"/>
@@ -3034,7 +3066,7 @@
         <v>95.12</v>
       </c>
       <c r="R12" s="25">
-        <v>94.85</v>
+        <v>94.84</v>
       </c>
       <c r="S12" s="25">
         <v>94.91</v>
@@ -3061,7 +3093,7 @@
         <v>97.96</v>
       </c>
       <c r="AA12" s="25">
-        <v>97.64</v>
+        <v>97.63</v>
       </c>
       <c r="AB12" s="25">
         <v>96.98</v>
@@ -3070,22 +3102,22 @@
         <v>97.2</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.33</v>
+        <v>98.35</v>
       </c>
       <c r="AE12" s="25">
-        <v>98.13</v>
+        <v>98.15</v>
       </c>
       <c r="AF12" s="25">
         <v>98.19</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.71</v>
+        <v>98.72</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.81</v>
+        <v>98.82</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.76</v>
+        <v>98.77</v>
       </c>
       <c r="AJ12" s="25">
         <v>98.69</v>
@@ -3094,55 +3126,55 @@
         <v>98.84</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.78</v>
+        <v>98.66</v>
       </c>
       <c r="AM12" s="25">
-        <v>99.04</v>
+        <v>98.87</v>
       </c>
       <c r="AN12" s="25">
-        <v>99.3</v>
+        <v>99.13</v>
       </c>
       <c r="AO12" s="25">
-        <v>99.2</v>
+        <v>99.03</v>
       </c>
       <c r="AP12" s="25">
-        <v>98.25</v>
+        <v>98.15</v>
       </c>
       <c r="AQ12" s="25">
         <v>98.09</v>
       </c>
       <c r="AR12" s="25">
-        <v>99.05</v>
+        <v>99.06</v>
       </c>
       <c r="AS12" s="25">
-        <v>99.13</v>
+        <v>99.14</v>
       </c>
       <c r="AT12" s="25">
-        <v>98.99</v>
+        <v>99</v>
       </c>
       <c r="AU12" s="25">
-        <v>98.99</v>
+        <v>99</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.5</v>
+        <v>99.51</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.93</v>
+        <v>99.94</v>
       </c>
       <c r="AX12" s="25">
-        <v>100.16</v>
+        <v>100.17</v>
       </c>
       <c r="AY12" s="25">
+        <v>100.71</v>
+      </c>
+      <c r="AZ12" s="25">
         <v>100.7</v>
       </c>
-      <c r="AZ12" s="25">
-        <v>100.69</v>
-      </c>
       <c r="BA12" s="25">
-        <v>100.37</v>
+        <v>100.38</v>
       </c>
       <c r="BB12" s="25">
-        <v>98.12</v>
+        <v>98.13</v>
       </c>
       <c r="BC12" s="25">
         <v>95.36</v>
@@ -3151,52 +3183,56 @@
         <v>95.53</v>
       </c>
       <c r="BE12" s="25">
-        <v>96.74</v>
+        <v>96.71</v>
       </c>
       <c r="BF12" s="25">
-        <v>97.51</v>
+        <v>97.15</v>
       </c>
       <c r="BG12" s="25">
-        <v>98.47</v>
+        <v>97.59</v>
       </c>
       <c r="BH12" s="25">
-        <v>98.48</v>
+        <v>97.92</v>
       </c>
       <c r="BI12" s="25">
-        <v>99.28</v>
+        <v>99.21</v>
       </c>
       <c r="BJ12" s="25">
-        <v>99.41</v>
+        <v>99.35</v>
       </c>
       <c r="BK12" s="25">
-        <v>99.77</v>
+        <v>99.7</v>
       </c>
       <c r="BL12" s="25">
-        <v>99.85</v>
+        <v>99.73</v>
       </c>
       <c r="BM12" s="25">
-        <v>100</v>
+        <v>99.97</v>
       </c>
       <c r="BN12" s="25">
-        <v>100.32</v>
+        <v>100.02</v>
       </c>
       <c r="BO12" s="25">
-        <v>100.22</v>
+        <v>99.91</v>
       </c>
       <c r="BP12" s="25">
-        <v>99.99</v>
+        <v>99.82</v>
       </c>
       <c r="BQ12" s="25">
-        <v>100.15</v>
+        <v>99.66</v>
       </c>
       <c r="BR12" s="25">
-        <v>100.36</v>
+        <v>99.82</v>
       </c>
       <c r="BS12" s="25">
-        <v>101.19</v>
-      </c>
-      <c r="BT12" s="25"/>
-      <c r="BU12" s="25"/>
+        <v>99.97</v>
+      </c>
+      <c r="BT12" s="25">
+        <v>100.42</v>
+      </c>
+      <c r="BU12" s="25">
+        <v>101.55</v>
+      </c>
       <c r="BV12" s="25"/>
       <c r="BW12" s="25"/>
       <c r="BX12" s="25"/>
@@ -3211,10 +3247,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="25">
-        <v>87.33</v>
+        <v>87.32</v>
       </c>
       <c r="D13" s="25">
-        <v>90.87</v>
+        <v>90.86</v>
       </c>
       <c r="E13" s="25">
         <v>93.67</v>
@@ -3223,10 +3259,10 @@
         <v>95.13</v>
       </c>
       <c r="G13" s="25">
-        <v>96</v>
+        <v>95.99</v>
       </c>
       <c r="H13" s="25">
-        <v>97.43</v>
+        <v>97.42</v>
       </c>
       <c r="I13" s="25">
         <v>98</v>
@@ -3244,7 +3280,7 @@
         <v>100</v>
       </c>
       <c r="N13" s="25">
-        <v>98.77</v>
+        <v>98.76</v>
       </c>
       <c r="O13" s="25">
         <v>93.75</v>
@@ -3253,16 +3289,16 @@
         <v>90.5</v>
       </c>
       <c r="Q13" s="25">
-        <v>88.86</v>
+        <v>88.87</v>
       </c>
       <c r="R13" s="25">
-        <v>88.66</v>
+        <v>88.67</v>
       </c>
       <c r="S13" s="25">
-        <v>89.43</v>
+        <v>89.44</v>
       </c>
       <c r="T13" s="25">
-        <v>90.6</v>
+        <v>90.61</v>
       </c>
       <c r="U13" s="25">
         <v>91.67</v>
@@ -3286,139 +3322,143 @@
         <v>96.07</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.94</v>
+        <v>96.96</v>
       </c>
       <c r="AC13" s="25">
-        <v>99.06</v>
+        <v>99.12</v>
       </c>
       <c r="AD13" s="25">
-        <v>99.29</v>
+        <v>99.39</v>
       </c>
       <c r="AE13" s="25">
-        <v>98.99</v>
+        <v>99.08</v>
       </c>
       <c r="AF13" s="25">
-        <v>99.13</v>
+        <v>99.23</v>
       </c>
       <c r="AG13" s="25">
-        <v>98.97</v>
+        <v>99.07</v>
       </c>
       <c r="AH13" s="25">
-        <v>98.18</v>
+        <v>98.28</v>
       </c>
       <c r="AI13" s="25">
-        <v>97.54</v>
+        <v>97.64</v>
       </c>
       <c r="AJ13" s="25">
-        <v>97.2</v>
+        <v>97.31</v>
       </c>
       <c r="AK13" s="25">
-        <v>97.49</v>
+        <v>97.6</v>
       </c>
       <c r="AL13" s="25">
-        <v>97.87</v>
+        <v>97.82</v>
       </c>
       <c r="AM13" s="25">
-        <v>98.41</v>
+        <v>98.29</v>
       </c>
       <c r="AN13" s="25">
-        <v>98.63</v>
+        <v>98.5</v>
       </c>
       <c r="AO13" s="25">
-        <v>98.65</v>
+        <v>98.51</v>
       </c>
       <c r="AP13" s="25">
-        <v>98.04</v>
+        <v>98.01</v>
       </c>
       <c r="AQ13" s="25">
-        <v>98.35</v>
+        <v>98.47</v>
       </c>
       <c r="AR13" s="25">
-        <v>99.11</v>
+        <v>99.27</v>
       </c>
       <c r="AS13" s="25">
-        <v>99.53</v>
+        <v>99.7</v>
       </c>
       <c r="AT13" s="25">
-        <v>100.5</v>
+        <v>100.66</v>
       </c>
       <c r="AU13" s="25">
-        <v>101.42</v>
+        <v>101.59</v>
       </c>
       <c r="AV13" s="25">
-        <v>102.62</v>
+        <v>102.8</v>
       </c>
       <c r="AW13" s="25">
-        <v>103.43</v>
+        <v>103.62</v>
       </c>
       <c r="AX13" s="25">
-        <v>104.15</v>
+        <v>104.35</v>
       </c>
       <c r="AY13" s="25">
-        <v>104.77</v>
+        <v>104.99</v>
       </c>
       <c r="AZ13" s="25">
-        <v>105.19</v>
+        <v>105.43</v>
       </c>
       <c r="BA13" s="25">
-        <v>104.46</v>
+        <v>104.71</v>
       </c>
       <c r="BB13" s="25">
-        <v>99.86</v>
+        <v>100.12</v>
       </c>
       <c r="BC13" s="25">
-        <v>95.63</v>
+        <v>95.98</v>
       </c>
       <c r="BD13" s="25">
-        <v>96.53</v>
+        <v>97.01</v>
       </c>
       <c r="BE13" s="25">
-        <v>99.54</v>
+        <v>100.01</v>
       </c>
       <c r="BF13" s="25">
-        <v>101.44</v>
+        <v>101.57</v>
       </c>
       <c r="BG13" s="25">
-        <v>102.21</v>
+        <v>102.09</v>
       </c>
       <c r="BH13" s="25">
-        <v>102.9</v>
+        <v>103.24</v>
       </c>
       <c r="BI13" s="25">
-        <v>102.95</v>
+        <v>103.61</v>
       </c>
       <c r="BJ13" s="25">
-        <v>102.84</v>
+        <v>103.54</v>
       </c>
       <c r="BK13" s="25">
-        <v>103.34</v>
+        <v>104.12</v>
       </c>
       <c r="BL13" s="25">
-        <v>103.74</v>
+        <v>104.62</v>
       </c>
       <c r="BM13" s="25">
-        <v>104.04</v>
+        <v>104.9</v>
       </c>
       <c r="BN13" s="25">
-        <v>104.78</v>
+        <v>105.11</v>
       </c>
       <c r="BO13" s="25">
-        <v>104.66</v>
+        <v>105.08</v>
       </c>
       <c r="BP13" s="25">
-        <v>102.88</v>
+        <v>104.18</v>
       </c>
       <c r="BQ13" s="25">
-        <v>100.36</v>
+        <v>102.13</v>
       </c>
       <c r="BR13" s="25">
-        <v>98.95</v>
+        <v>101.11</v>
       </c>
       <c r="BS13" s="25">
-        <v>98.42</v>
-      </c>
-      <c r="BT13" s="25"/>
-      <c r="BU13" s="25"/>
+        <v>100.97</v>
+      </c>
+      <c r="BT13" s="25">
+        <v>100.06</v>
+      </c>
+      <c r="BU13" s="25">
+        <v>97.33</v>
+      </c>
       <c r="BV13" s="25"/>
       <c r="BW13" s="25"/>
       <c r="BX13" s="25"/>
@@ -3436,7 +3476,7 @@
         <v>90.52</v>
       </c>
       <c r="D14" s="25">
-        <v>93.7</v>
+        <v>93.69</v>
       </c>
       <c r="E14" s="25">
         <v>96</v>
@@ -3484,7 +3524,7 @@
         <v>88.5</v>
       </c>
       <c r="T14" s="25">
-        <v>89.34</v>
+        <v>89.33</v>
       </c>
       <c r="U14" s="25">
         <v>89.64</v>
@@ -3511,55 +3551,55 @@
         <v>92.06</v>
       </c>
       <c r="AC14" s="25">
-        <v>92.33</v>
+        <v>92.35</v>
       </c>
       <c r="AD14" s="25">
-        <v>91.34</v>
+        <v>91.37</v>
       </c>
       <c r="AE14" s="25">
+        <v>90.93</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>91.7</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>91.73</v>
+      </c>
+      <c r="AH14" s="25">
+        <v>90.69</v>
+      </c>
+      <c r="AI14" s="25">
+        <v>89.91</v>
+      </c>
+      <c r="AJ14" s="25">
+        <v>89.48</v>
+      </c>
+      <c r="AK14" s="25">
+        <v>89.64</v>
+      </c>
+      <c r="AL14" s="25">
+        <v>90.15</v>
+      </c>
+      <c r="AM14" s="25">
+        <v>90.82</v>
+      </c>
+      <c r="AN14" s="25">
+        <v>91.02</v>
+      </c>
+      <c r="AO14" s="25">
         <v>90.9</v>
       </c>
-      <c r="AF14" s="25">
-        <v>91.67</v>
-      </c>
-      <c r="AG14" s="25">
-        <v>91.7</v>
-      </c>
-      <c r="AH14" s="25">
-        <v>90.66</v>
-      </c>
-      <c r="AI14" s="25">
-        <v>89.88</v>
-      </c>
-      <c r="AJ14" s="25">
-        <v>89.44</v>
-      </c>
-      <c r="AK14" s="25">
-        <v>89.6</v>
-      </c>
-      <c r="AL14" s="25">
-        <v>90.22</v>
-      </c>
-      <c r="AM14" s="25">
-        <v>90.95</v>
-      </c>
-      <c r="AN14" s="25">
-        <v>91.18</v>
-      </c>
-      <c r="AO14" s="25">
-        <v>91.05</v>
-      </c>
       <c r="AP14" s="25">
-        <v>90.28</v>
+        <v>90.19</v>
       </c>
       <c r="AQ14" s="25">
-        <v>90.47</v>
+        <v>90.48</v>
       </c>
       <c r="AR14" s="25">
-        <v>91.89</v>
+        <v>92.03</v>
       </c>
       <c r="AS14" s="25">
-        <v>92.58</v>
+        <v>92.67</v>
       </c>
       <c r="AT14" s="25">
         <v>93.37</v>
@@ -3568,10 +3608,10 @@
         <v>94.09</v>
       </c>
       <c r="AV14" s="25">
-        <v>95.19</v>
+        <v>95.2</v>
       </c>
       <c r="AW14" s="25">
-        <v>95.55</v>
+        <v>95.56</v>
       </c>
       <c r="AX14" s="25">
         <v>96.35</v>
@@ -3580,67 +3620,71 @@
         <v>96.78</v>
       </c>
       <c r="AZ14" s="25">
-        <v>97.15</v>
+        <v>97.14</v>
       </c>
       <c r="BA14" s="25">
-        <v>96.37</v>
+        <v>96.41</v>
       </c>
       <c r="BB14" s="25">
-        <v>91.91</v>
+        <v>91.96</v>
       </c>
       <c r="BC14" s="25">
-        <v>89.36</v>
+        <v>89.41</v>
       </c>
       <c r="BD14" s="25">
-        <v>90.19</v>
+        <v>90.35</v>
       </c>
       <c r="BE14" s="25">
-        <v>92.56</v>
+        <v>92.69</v>
       </c>
       <c r="BF14" s="25">
-        <v>94.22</v>
+        <v>93.96</v>
       </c>
       <c r="BG14" s="25">
-        <v>95.2</v>
+        <v>94.73</v>
       </c>
       <c r="BH14" s="25">
-        <v>96.56</v>
+        <v>96.36</v>
       </c>
       <c r="BI14" s="25">
-        <v>96.81</v>
+        <v>96.87</v>
       </c>
       <c r="BJ14" s="25">
-        <v>97</v>
+        <v>97.09</v>
       </c>
       <c r="BK14" s="25">
-        <v>97.65</v>
+        <v>97.79</v>
       </c>
       <c r="BL14" s="25">
-        <v>97.81</v>
+        <v>97.94</v>
       </c>
       <c r="BM14" s="25">
-        <v>98.56</v>
+        <v>98.63</v>
       </c>
       <c r="BN14" s="25">
-        <v>99.45</v>
+        <v>99.05</v>
       </c>
       <c r="BO14" s="25">
-        <v>99.52</v>
+        <v>99.11</v>
       </c>
       <c r="BP14" s="25">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BQ14" s="25">
-        <v>97.65</v>
+        <v>97.88</v>
       </c>
       <c r="BR14" s="25">
-        <v>97.3</v>
+        <v>97.29</v>
       </c>
       <c r="BS14" s="25">
-        <v>97.79</v>
-      </c>
-      <c r="BT14" s="25"/>
-      <c r="BU14" s="25"/>
+        <v>97.91</v>
+      </c>
+      <c r="BT14" s="25">
+        <v>97.98</v>
+      </c>
+      <c r="BU14" s="25">
+        <v>97.41</v>
+      </c>
       <c r="BV14" s="25"/>
       <c r="BW14" s="25"/>
       <c r="BX14" s="25"/>
@@ -3688,25 +3732,25 @@
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>98.69</v>
+        <v>98.68</v>
       </c>
       <c r="O15" s="25">
         <v>96.99</v>
       </c>
       <c r="P15" s="25">
-        <v>94.83</v>
+        <v>94.82</v>
       </c>
       <c r="Q15" s="25">
-        <v>94.21</v>
+        <v>94.2</v>
       </c>
       <c r="R15" s="25">
         <v>94.57</v>
       </c>
       <c r="S15" s="25">
-        <v>95.27</v>
+        <v>95.26</v>
       </c>
       <c r="T15" s="25">
-        <v>94.69</v>
+        <v>94.68</v>
       </c>
       <c r="U15" s="25">
         <v>94.7</v>
@@ -3733,136 +3777,140 @@
         <v>95.19</v>
       </c>
       <c r="AC15" s="25">
-        <v>95.85</v>
+        <v>95.86</v>
       </c>
       <c r="AD15" s="25">
-        <v>97.34</v>
+        <v>97.36</v>
       </c>
       <c r="AE15" s="25">
-        <v>97.41</v>
+        <v>97.42</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.74</v>
+        <v>96.76</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.85</v>
+        <v>96.87</v>
       </c>
       <c r="AH15" s="25">
-        <v>96.5</v>
+        <v>96.52</v>
       </c>
       <c r="AI15" s="25">
+        <v>95.99</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>95.76</v>
+      </c>
+      <c r="AK15" s="25">
+        <v>95.91</v>
+      </c>
+      <c r="AL15" s="25">
+        <v>95.89</v>
+      </c>
+      <c r="AM15" s="25">
         <v>95.98</v>
       </c>
-      <c r="AJ15" s="25">
-        <v>95.75</v>
-      </c>
-      <c r="AK15" s="25">
-        <v>95.89</v>
-      </c>
-      <c r="AL15" s="25">
-        <v>95.97</v>
-      </c>
-      <c r="AM15" s="25">
-        <v>96.1</v>
-      </c>
       <c r="AN15" s="25">
-        <v>96.19</v>
+        <v>96</v>
       </c>
       <c r="AO15" s="25">
-        <v>96.06</v>
+        <v>95.86</v>
       </c>
       <c r="AP15" s="25">
-        <v>95.35</v>
+        <v>95.2</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.95</v>
+        <v>95.88</v>
       </c>
       <c r="AR15" s="25">
-        <v>95.96</v>
+        <v>96.32</v>
       </c>
       <c r="AS15" s="25">
-        <v>96.1</v>
+        <v>96.45</v>
       </c>
       <c r="AT15" s="25">
-        <v>97.06</v>
+        <v>97.04</v>
       </c>
       <c r="AU15" s="25">
-        <v>97.37</v>
+        <v>97.35</v>
       </c>
       <c r="AV15" s="25">
-        <v>98.09</v>
+        <v>98.1</v>
       </c>
       <c r="AW15" s="25">
-        <v>98.37</v>
+        <v>98.38</v>
       </c>
       <c r="AX15" s="25">
-        <v>98.86</v>
+        <v>98.8</v>
       </c>
       <c r="AY15" s="25">
-        <v>99.61</v>
+        <v>99.55</v>
       </c>
       <c r="AZ15" s="25">
-        <v>99.46</v>
+        <v>99.4</v>
       </c>
       <c r="BA15" s="25">
-        <v>99.09</v>
+        <v>99.02</v>
       </c>
       <c r="BB15" s="25">
-        <v>96.84</v>
+        <v>96.77</v>
       </c>
       <c r="BC15" s="25">
-        <v>95.13</v>
+        <v>95.06</v>
       </c>
       <c r="BD15" s="25">
-        <v>94.99</v>
+        <v>95.37</v>
       </c>
       <c r="BE15" s="25">
-        <v>96.04</v>
+        <v>96.39</v>
       </c>
       <c r="BF15" s="25">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="BG15" s="25">
-        <v>97.75</v>
+        <v>97.48</v>
       </c>
       <c r="BH15" s="25">
-        <v>98.52</v>
+        <v>98.2</v>
       </c>
       <c r="BI15" s="25">
-        <v>99.29</v>
+        <v>99.24</v>
       </c>
       <c r="BJ15" s="25">
-        <v>99.53</v>
+        <v>99.49</v>
       </c>
       <c r="BK15" s="25">
-        <v>99.86</v>
+        <v>99.76</v>
       </c>
       <c r="BL15" s="25">
-        <v>99.89</v>
+        <v>99.64</v>
       </c>
       <c r="BM15" s="25">
-        <v>100.16</v>
+        <v>99.93</v>
       </c>
       <c r="BN15" s="25">
-        <v>100.61</v>
+        <v>100.1</v>
       </c>
       <c r="BO15" s="25">
-        <v>100.37</v>
+        <v>99.83</v>
       </c>
       <c r="BP15" s="25">
-        <v>99.97</v>
+        <v>99.69</v>
       </c>
       <c r="BQ15" s="25">
-        <v>100.25</v>
+        <v>99.74</v>
       </c>
       <c r="BR15" s="25">
-        <v>100.87</v>
+        <v>100.06</v>
       </c>
       <c r="BS15" s="25">
-        <v>101.99</v>
-      </c>
-      <c r="BT15" s="25"/>
-      <c r="BU15" s="25"/>
+        <v>100.56</v>
+      </c>
+      <c r="BT15" s="25">
+        <v>100.4</v>
+      </c>
+      <c r="BU15" s="25">
+        <v>101.05</v>
+      </c>
       <c r="BV15" s="25"/>
       <c r="BW15" s="25"/>
       <c r="BX15" s="25"/>
@@ -3877,7 +3925,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="25">
-        <v>86.31</v>
+        <v>86.3</v>
       </c>
       <c r="D16" s="25">
         <v>92.55</v>
@@ -3922,7 +3970,7 @@
         <v>88.79</v>
       </c>
       <c r="R16" s="25">
-        <v>88.77</v>
+        <v>88.76</v>
       </c>
       <c r="S16" s="25">
         <v>89.74</v>
@@ -3934,7 +3982,7 @@
         <v>92.16</v>
       </c>
       <c r="V16" s="25">
-        <v>93.17</v>
+        <v>93.16</v>
       </c>
       <c r="W16" s="25">
         <v>93.82</v>
@@ -3949,142 +3997,146 @@
         <v>96.1</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.81</v>
+        <v>96.8</v>
       </c>
       <c r="AB16" s="25">
         <v>97.93</v>
       </c>
       <c r="AC16" s="25">
-        <v>100.07</v>
+        <v>100.11</v>
       </c>
       <c r="AD16" s="25">
-        <v>101.16</v>
+        <v>101.23</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.8</v>
+        <v>101.87</v>
       </c>
       <c r="AF16" s="25">
-        <v>102.27</v>
+        <v>102.35</v>
       </c>
       <c r="AG16" s="25">
-        <v>102.61</v>
+        <v>102.69</v>
       </c>
       <c r="AH16" s="25">
-        <v>103.02</v>
+        <v>103.09</v>
       </c>
       <c r="AI16" s="25">
-        <v>103.17</v>
+        <v>103.24</v>
       </c>
       <c r="AJ16" s="25">
-        <v>103.52</v>
+        <v>103.6</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.75</v>
+        <v>103.84</v>
       </c>
       <c r="AL16" s="25">
-        <v>104.07</v>
+        <v>104.05</v>
       </c>
       <c r="AM16" s="25">
-        <v>104.97</v>
+        <v>104.89</v>
       </c>
       <c r="AN16" s="25">
-        <v>105.01</v>
+        <v>104.93</v>
       </c>
       <c r="AO16" s="25">
-        <v>104.49</v>
+        <v>104.41</v>
       </c>
       <c r="AP16" s="25">
         <v>103.46</v>
       </c>
       <c r="AQ16" s="25">
-        <v>103.79</v>
+        <v>103.9</v>
       </c>
       <c r="AR16" s="25">
-        <v>104.38</v>
+        <v>104.5</v>
       </c>
       <c r="AS16" s="25">
-        <v>104.69</v>
+        <v>104.81</v>
       </c>
       <c r="AT16" s="25">
-        <v>104.81</v>
+        <v>104.94</v>
       </c>
       <c r="AU16" s="25">
-        <v>105.06</v>
+        <v>105.21</v>
       </c>
       <c r="AV16" s="25">
-        <v>105.59</v>
+        <v>105.75</v>
       </c>
       <c r="AW16" s="25">
-        <v>105.88</v>
+        <v>106.04</v>
       </c>
       <c r="AX16" s="25">
-        <v>106.13</v>
+        <v>106.31</v>
       </c>
       <c r="AY16" s="25">
-        <v>106.46</v>
+        <v>106.65</v>
       </c>
       <c r="AZ16" s="25">
-        <v>106.34</v>
+        <v>106.53</v>
       </c>
       <c r="BA16" s="25">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="BB16" s="25">
-        <v>98.29</v>
+        <v>98.5</v>
       </c>
       <c r="BC16" s="25">
-        <v>93.21</v>
+        <v>93.47</v>
       </c>
       <c r="BD16" s="25">
-        <v>97.04</v>
+        <v>97.37</v>
       </c>
       <c r="BE16" s="25">
-        <v>101.35</v>
+        <v>101.66</v>
       </c>
       <c r="BF16" s="25">
-        <v>103.36</v>
+        <v>103.34</v>
       </c>
       <c r="BG16" s="25">
-        <v>104.01</v>
+        <v>103.76</v>
       </c>
       <c r="BH16" s="25">
-        <v>104.37</v>
+        <v>104.53</v>
       </c>
       <c r="BI16" s="25">
-        <v>104.8</v>
+        <v>105.26</v>
       </c>
       <c r="BJ16" s="25">
-        <v>104.72</v>
+        <v>105.22</v>
       </c>
       <c r="BK16" s="25">
-        <v>104.66</v>
+        <v>105.24</v>
       </c>
       <c r="BL16" s="25">
-        <v>104.71</v>
+        <v>105.39</v>
       </c>
       <c r="BM16" s="25">
-        <v>105.1</v>
+        <v>105.71</v>
       </c>
       <c r="BN16" s="25">
-        <v>105.63</v>
+        <v>105.52</v>
       </c>
       <c r="BO16" s="25">
-        <v>105.43</v>
+        <v>105.44</v>
       </c>
       <c r="BP16" s="25">
-        <v>102.97</v>
+        <v>103.9</v>
       </c>
       <c r="BQ16" s="25">
-        <v>101.12</v>
+        <v>102.5</v>
       </c>
       <c r="BR16" s="25">
-        <v>100.68</v>
+        <v>102.5</v>
       </c>
       <c r="BS16" s="25">
-        <v>100.37</v>
-      </c>
-      <c r="BT16" s="25"/>
-      <c r="BU16" s="25"/>
+        <v>102.62</v>
+      </c>
+      <c r="BT16" s="25">
+        <v>101.38</v>
+      </c>
+      <c r="BU16" s="25">
+        <v>99.72</v>
+      </c>
       <c r="BV16" s="25"/>
       <c r="BW16" s="25"/>
       <c r="BX16" s="25"/>
@@ -4099,25 +4151,25 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.69</v>
+        <v>91.68</v>
       </c>
       <c r="D17" s="25">
-        <v>96.14</v>
+        <v>96.13</v>
       </c>
       <c r="E17" s="25">
         <v>98.13</v>
       </c>
       <c r="F17" s="25">
-        <v>98.79</v>
+        <v>98.8</v>
       </c>
       <c r="G17" s="25">
-        <v>99.09</v>
+        <v>99.1</v>
       </c>
       <c r="H17" s="25">
         <v>99.34</v>
       </c>
       <c r="I17" s="25">
-        <v>99.83</v>
+        <v>99.84</v>
       </c>
       <c r="J17" s="25">
         <v>99.97</v>
@@ -4126,7 +4178,7 @@
         <v>100.31</v>
       </c>
       <c r="L17" s="25">
-        <v>100.25</v>
+        <v>100.24</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
@@ -4135,7 +4187,7 @@
         <v>98.39</v>
       </c>
       <c r="O17" s="25">
-        <v>92.83</v>
+        <v>92.84</v>
       </c>
       <c r="P17" s="25">
         <v>89.37</v>
@@ -4147,7 +4199,7 @@
         <v>87.67</v>
       </c>
       <c r="S17" s="25">
-        <v>89.06</v>
+        <v>89.07</v>
       </c>
       <c r="T17" s="25">
         <v>89.52</v>
@@ -4156,157 +4208,161 @@
         <v>90.32</v>
       </c>
       <c r="V17" s="25">
-        <v>90.89</v>
+        <v>90.9</v>
       </c>
       <c r="W17" s="25">
-        <v>91.07</v>
+        <v>91.08</v>
       </c>
       <c r="X17" s="25">
         <v>91.42</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.49</v>
+        <v>92.5</v>
       </c>
       <c r="Z17" s="25">
-        <v>93.43</v>
+        <v>93.44</v>
       </c>
       <c r="AA17" s="25">
         <v>93.9</v>
       </c>
       <c r="AB17" s="25">
-        <v>93.6</v>
+        <v>93.61</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.17</v>
+        <v>94.19</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.21</v>
+        <v>95.24</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.95</v>
+        <v>95.98</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.31</v>
+        <v>96.34</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.39</v>
+        <v>96.42</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.5</v>
+        <v>96.51</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.62</v>
+        <v>96.64</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.87</v>
+        <v>96.92</v>
       </c>
       <c r="AK17" s="25">
-        <v>97</v>
+        <v>97.05</v>
       </c>
       <c r="AL17" s="25">
-        <v>97.38</v>
+        <v>97.35</v>
       </c>
       <c r="AM17" s="25">
+        <v>98.32</v>
+      </c>
+      <c r="AN17" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="AO17" s="25">
+        <v>97.78</v>
+      </c>
+      <c r="AP17" s="25">
+        <v>97.05</v>
+      </c>
+      <c r="AQ17" s="25">
+        <v>97.57</v>
+      </c>
+      <c r="AR17" s="25">
         <v>98.38</v>
       </c>
-      <c r="AN17" s="25">
+      <c r="AS17" s="25">
+        <v>98.69</v>
+      </c>
+      <c r="AT17" s="25">
         <v>98.46</v>
       </c>
-      <c r="AO17" s="25">
-        <v>97.86</v>
-      </c>
-      <c r="AP17" s="25">
-        <v>97.07</v>
-      </c>
-      <c r="AQ17" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AR17" s="25">
-        <v>98.31</v>
-      </c>
-      <c r="AS17" s="25">
-        <v>98.63</v>
-      </c>
-      <c r="AT17" s="25">
-        <v>98.4</v>
-      </c>
       <c r="AU17" s="25">
-        <v>98.95</v>
+        <v>99.02</v>
       </c>
       <c r="AV17" s="25">
-        <v>99.37</v>
+        <v>99.43</v>
       </c>
       <c r="AW17" s="25">
-        <v>99.66</v>
+        <v>99.72</v>
       </c>
       <c r="AX17" s="25">
-        <v>99.56</v>
+        <v>99.63</v>
       </c>
       <c r="AY17" s="25">
+        <v>100.01</v>
+      </c>
+      <c r="AZ17" s="25">
+        <v>99.75</v>
+      </c>
+      <c r="BA17" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="BB17" s="25">
+        <v>93.49</v>
+      </c>
+      <c r="BC17" s="25">
+        <v>90.77</v>
+      </c>
+      <c r="BD17" s="25">
+        <v>93.42</v>
+      </c>
+      <c r="BE17" s="25">
+        <v>95.98</v>
+      </c>
+      <c r="BF17" s="25">
+        <v>97.44</v>
+      </c>
+      <c r="BG17" s="25">
+        <v>98.09</v>
+      </c>
+      <c r="BH17" s="25">
+        <v>98.9</v>
+      </c>
+      <c r="BI17" s="25">
+        <v>99.65</v>
+      </c>
+      <c r="BJ17" s="25">
+        <v>99.27</v>
+      </c>
+      <c r="BK17" s="25">
+        <v>99.79</v>
+      </c>
+      <c r="BL17" s="25">
+        <v>99.63</v>
+      </c>
+      <c r="BM17" s="25">
+        <v>100.06</v>
+      </c>
+      <c r="BN17" s="25">
+        <v>100.33</v>
+      </c>
+      <c r="BO17" s="25">
+        <v>100.43</v>
+      </c>
+      <c r="BP17" s="25">
         <v>99.91</v>
       </c>
-      <c r="AZ17" s="25">
-        <v>99.66</v>
-      </c>
-      <c r="BA17" s="25">
-        <v>98.21</v>
-      </c>
-      <c r="BB17" s="25">
-        <v>93.4</v>
-      </c>
-      <c r="BC17" s="25">
-        <v>90.69</v>
-      </c>
-      <c r="BD17" s="25">
-        <v>93.34</v>
-      </c>
-      <c r="BE17" s="25">
-        <v>95.94</v>
-      </c>
-      <c r="BF17" s="25">
-        <v>97.79</v>
-      </c>
-      <c r="BG17" s="25">
-        <v>98.66</v>
-      </c>
-      <c r="BH17" s="25">
-        <v>99.07</v>
-      </c>
-      <c r="BI17" s="25">
-        <v>99.53</v>
-      </c>
-      <c r="BJ17" s="25">
-        <v>99.1</v>
-      </c>
-      <c r="BK17" s="25">
-        <v>99.64</v>
-      </c>
-      <c r="BL17" s="25">
-        <v>99.46</v>
-      </c>
-      <c r="BM17" s="25">
-        <v>99.97</v>
-      </c>
-      <c r="BN17" s="25">
-        <v>100.82</v>
-      </c>
-      <c r="BO17" s="25">
-        <v>100.83</v>
-      </c>
-      <c r="BP17" s="25">
-        <v>99.68</v>
-      </c>
       <c r="BQ17" s="25">
-        <v>98.76</v>
+        <v>98.99</v>
       </c>
       <c r="BR17" s="25">
-        <v>98.99</v>
+        <v>99.34</v>
       </c>
       <c r="BS17" s="25">
-        <v>99.72</v>
-      </c>
-      <c r="BT17" s="25"/>
-      <c r="BU17" s="25"/>
+        <v>100.25</v>
+      </c>
+      <c r="BT17" s="25">
+        <v>99.77</v>
+      </c>
+      <c r="BU17" s="25">
+        <v>99.9</v>
+      </c>
       <c r="BV17" s="25"/>
       <c r="BW17" s="25"/>
       <c r="BX17" s="25"/>
@@ -4345,7 +4401,7 @@
         <v>99.63</v>
       </c>
       <c r="K18" s="25">
-        <v>98.76</v>
+        <v>98.77</v>
       </c>
       <c r="L18" s="25">
         <v>99.43</v>
@@ -4369,7 +4425,7 @@
         <v>94.56</v>
       </c>
       <c r="S18" s="25">
-        <v>94.95</v>
+        <v>94.94</v>
       </c>
       <c r="T18" s="25">
         <v>95.3</v>
@@ -4378,7 +4434,7 @@
         <v>95.75</v>
       </c>
       <c r="V18" s="25">
-        <v>96.16</v>
+        <v>96.15</v>
       </c>
       <c r="W18" s="25">
         <v>96.09</v>
@@ -4399,136 +4455,140 @@
         <v>95.4</v>
       </c>
       <c r="AC18" s="25">
-        <v>95.89</v>
+        <v>95.93</v>
       </c>
       <c r="AD18" s="25">
-        <v>97.27</v>
+        <v>97.35</v>
       </c>
       <c r="AE18" s="25">
-        <v>97.48</v>
+        <v>97.55</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.7</v>
+        <v>97.77</v>
       </c>
       <c r="AG18" s="25">
-        <v>97.29</v>
+        <v>97.37</v>
       </c>
       <c r="AH18" s="25">
-        <v>97.54</v>
+        <v>97.62</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.3</v>
+        <v>97.38</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.68</v>
+        <v>97.76</v>
       </c>
       <c r="AK18" s="25">
-        <v>97.27</v>
+        <v>97.35</v>
       </c>
       <c r="AL18" s="25">
-        <v>97.65</v>
+        <v>97.66</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.94</v>
+        <v>97.92</v>
       </c>
       <c r="AN18" s="25">
-        <v>98.25</v>
+        <v>98.23</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.46</v>
+        <v>97.44</v>
       </c>
       <c r="AP18" s="25">
-        <v>96.79</v>
+        <v>96.81</v>
       </c>
       <c r="AQ18" s="25">
-        <v>97.05</v>
+        <v>97.13</v>
       </c>
       <c r="AR18" s="25">
-        <v>97.61</v>
+        <v>97.69</v>
       </c>
       <c r="AS18" s="25">
-        <v>97.44</v>
+        <v>97.53</v>
       </c>
       <c r="AT18" s="25">
-        <v>97.43</v>
+        <v>97.52</v>
       </c>
       <c r="AU18" s="25">
-        <v>97.49</v>
+        <v>97.57</v>
       </c>
       <c r="AV18" s="25">
-        <v>98.25</v>
+        <v>98.32</v>
       </c>
       <c r="AW18" s="25">
-        <v>98.2</v>
+        <v>98.27</v>
       </c>
       <c r="AX18" s="25">
-        <v>98.3</v>
+        <v>98.38</v>
       </c>
       <c r="AY18" s="25">
-        <v>98.46</v>
+        <v>98.53</v>
       </c>
       <c r="AZ18" s="25">
-        <v>98.35</v>
+        <v>98.43</v>
       </c>
       <c r="BA18" s="25">
-        <v>97.59</v>
+        <v>97.66</v>
       </c>
       <c r="BB18" s="25">
-        <v>94.64</v>
+        <v>94.72</v>
       </c>
       <c r="BC18" s="25">
-        <v>92.83</v>
+        <v>92.91</v>
       </c>
       <c r="BD18" s="25">
-        <v>92.99</v>
+        <v>93.07</v>
       </c>
       <c r="BE18" s="25">
-        <v>94.12</v>
+        <v>94.17</v>
       </c>
       <c r="BF18" s="25">
-        <v>95.04</v>
+        <v>94.77</v>
       </c>
       <c r="BG18" s="25">
-        <v>95.71</v>
+        <v>95.17</v>
       </c>
       <c r="BH18" s="25">
-        <v>96.04</v>
+        <v>95.78</v>
       </c>
       <c r="BI18" s="25">
-        <v>96.87</v>
+        <v>96.92</v>
       </c>
       <c r="BJ18" s="25">
-        <v>97.15</v>
+        <v>97.2</v>
       </c>
       <c r="BK18" s="25">
-        <v>97.27</v>
+        <v>97.34</v>
       </c>
       <c r="BL18" s="25">
         <v>97.62</v>
       </c>
       <c r="BM18" s="25">
+        <v>97.44</v>
+      </c>
+      <c r="BN18" s="25">
+        <v>97.87</v>
+      </c>
+      <c r="BO18" s="25">
         <v>97.5</v>
       </c>
-      <c r="BN18" s="25">
-        <v>98.29</v>
-      </c>
-      <c r="BO18" s="25">
-        <v>97.99</v>
-      </c>
       <c r="BP18" s="25">
+        <v>97.56</v>
+      </c>
+      <c r="BQ18" s="25">
+        <v>97.12</v>
+      </c>
+      <c r="BR18" s="25">
+        <v>97.31</v>
+      </c>
+      <c r="BS18" s="25">
+        <v>97.44</v>
+      </c>
+      <c r="BT18" s="25">
+        <v>97.92</v>
+      </c>
+      <c r="BU18" s="25">
         <v>97.75</v>
       </c>
-      <c r="BQ18" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="BR18" s="25">
-        <v>98.24</v>
-      </c>
-      <c r="BS18" s="25">
-        <v>98.91</v>
-      </c>
-      <c r="BT18" s="25"/>
-      <c r="BU18" s="25"/>
       <c r="BV18" s="25"/>
       <c r="BW18" s="25"/>
       <c r="BX18" s="25"/>
@@ -4543,13 +4603,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="25">
-        <v>87.5</v>
+        <v>87.49</v>
       </c>
       <c r="D19" s="25">
-        <v>93.07</v>
+        <v>93.06</v>
       </c>
       <c r="E19" s="25">
-        <v>95.57</v>
+        <v>95.56</v>
       </c>
       <c r="F19" s="25">
         <v>96.47</v>
@@ -4558,16 +4618,16 @@
         <v>96.87</v>
       </c>
       <c r="H19" s="25">
-        <v>97.94</v>
+        <v>97.95</v>
       </c>
       <c r="I19" s="25">
         <v>98.75</v>
       </c>
       <c r="J19" s="25">
-        <v>98.96</v>
+        <v>98.97</v>
       </c>
       <c r="K19" s="25">
-        <v>99.41</v>
+        <v>99.42</v>
       </c>
       <c r="L19" s="25">
         <v>100.12</v>
@@ -4594,163 +4654,167 @@
         <v>90.01</v>
       </c>
       <c r="T19" s="25">
-        <v>91.14</v>
+        <v>91.13</v>
       </c>
       <c r="U19" s="25">
-        <v>92.45</v>
+        <v>92.44</v>
       </c>
       <c r="V19" s="25">
         <v>93.18</v>
       </c>
       <c r="W19" s="25">
-        <v>93.71</v>
+        <v>93.7</v>
       </c>
       <c r="X19" s="25">
-        <v>94.26</v>
+        <v>94.25</v>
       </c>
       <c r="Y19" s="25">
         <v>95.75</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.6</v>
+        <v>96.59</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.24</v>
+        <v>97.23</v>
       </c>
       <c r="AB19" s="25">
         <v>98.16</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.72</v>
+        <v>99.76</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.77</v>
+        <v>100.82</v>
       </c>
       <c r="AE19" s="25">
-        <v>101.13</v>
+        <v>101.18</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.61</v>
+        <v>101.66</v>
       </c>
       <c r="AG19" s="25">
-        <v>101.98</v>
+        <v>102.03</v>
       </c>
       <c r="AH19" s="25">
-        <v>102.39</v>
+        <v>102.44</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.78</v>
+        <v>102.83</v>
       </c>
       <c r="AJ19" s="25">
-        <v>103.15</v>
+        <v>103.2</v>
       </c>
       <c r="AK19" s="25">
-        <v>103.69</v>
+        <v>103.74</v>
       </c>
       <c r="AL19" s="25">
-        <v>104.08</v>
+        <v>104.04</v>
       </c>
       <c r="AM19" s="25">
-        <v>104.57</v>
+        <v>104.48</v>
       </c>
       <c r="AN19" s="25">
-        <v>104.57</v>
+        <v>104.48</v>
       </c>
       <c r="AO19" s="25">
-        <v>104.5</v>
+        <v>104.42</v>
       </c>
       <c r="AP19" s="25">
-        <v>103.72</v>
+        <v>103.7</v>
       </c>
       <c r="AQ19" s="25">
-        <v>103.77</v>
+        <v>103.85</v>
       </c>
       <c r="AR19" s="25">
-        <v>104.81</v>
+        <v>104.89</v>
       </c>
       <c r="AS19" s="25">
-        <v>105.16</v>
+        <v>105.25</v>
       </c>
       <c r="AT19" s="25">
-        <v>105.13</v>
+        <v>105.22</v>
       </c>
       <c r="AU19" s="25">
-        <v>105.24</v>
+        <v>105.34</v>
       </c>
       <c r="AV19" s="25">
-        <v>105.65</v>
+        <v>105.76</v>
       </c>
       <c r="AW19" s="25">
-        <v>103.96</v>
+        <v>104.06</v>
       </c>
       <c r="AX19" s="25">
-        <v>105.21</v>
+        <v>105.33</v>
       </c>
       <c r="AY19" s="25">
+        <v>106.6</v>
+      </c>
+      <c r="AZ19" s="25">
+        <v>107.12</v>
+      </c>
+      <c r="BA19" s="25">
+        <v>105.96</v>
+      </c>
+      <c r="BB19" s="25">
+        <v>100.84</v>
+      </c>
+      <c r="BC19" s="25">
+        <v>96.19</v>
+      </c>
+      <c r="BD19" s="25">
+        <v>99.48</v>
+      </c>
+      <c r="BE19" s="25">
+        <v>102.61</v>
+      </c>
+      <c r="BF19" s="25">
+        <v>103.66</v>
+      </c>
+      <c r="BG19" s="25">
+        <v>103.98</v>
+      </c>
+      <c r="BH19" s="25">
+        <v>105.31</v>
+      </c>
+      <c r="BI19" s="25">
+        <v>105.95</v>
+      </c>
+      <c r="BJ19" s="25">
+        <v>106.08</v>
+      </c>
+      <c r="BK19" s="25">
+        <v>106.31</v>
+      </c>
+      <c r="BL19" s="25">
         <v>106.48</v>
       </c>
-      <c r="AZ19" s="25">
-        <v>106.99</v>
-      </c>
-      <c r="BA19" s="25">
-        <v>105.82</v>
-      </c>
-      <c r="BB19" s="25">
-        <v>100.69</v>
-      </c>
-      <c r="BC19" s="25">
-        <v>95.98</v>
-      </c>
-      <c r="BD19" s="25">
-        <v>99.2</v>
-      </c>
-      <c r="BE19" s="25">
-        <v>102.37</v>
-      </c>
-      <c r="BF19" s="25">
-        <v>103.82</v>
-      </c>
-      <c r="BG19" s="25">
-        <v>104.39</v>
-      </c>
-      <c r="BH19" s="25">
-        <v>105.22</v>
-      </c>
-      <c r="BI19" s="25">
-        <v>105.55</v>
-      </c>
-      <c r="BJ19" s="25">
-        <v>105.61</v>
-      </c>
-      <c r="BK19" s="25">
-        <v>105.84</v>
-      </c>
-      <c r="BL19" s="25">
-        <v>105.95</v>
-      </c>
       <c r="BM19" s="25">
-        <v>106.26</v>
+        <v>106.81</v>
       </c>
       <c r="BN19" s="25">
-        <v>107.08</v>
+        <v>107</v>
       </c>
       <c r="BO19" s="25">
         <v>106.99</v>
       </c>
       <c r="BP19" s="25">
-        <v>105.48</v>
+        <v>106.21</v>
       </c>
       <c r="BQ19" s="25">
-        <v>103.91</v>
+        <v>105.04</v>
       </c>
       <c r="BR19" s="25">
-        <v>103.45</v>
+        <v>104.89</v>
       </c>
       <c r="BS19" s="25">
-        <v>103.33</v>
-      </c>
-      <c r="BT19" s="25"/>
-      <c r="BU19" s="25"/>
+        <v>104.32</v>
+      </c>
+      <c r="BT19" s="25">
+        <v>103.65</v>
+      </c>
+      <c r="BU19" s="25">
+        <v>102.84</v>
+      </c>
       <c r="BV19" s="25"/>
       <c r="BW19" s="25"/>
       <c r="BX19" s="25"/>
@@ -4765,13 +4829,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>92.02</v>
+        <v>92.01</v>
       </c>
       <c r="D20" s="25">
-        <v>95.71</v>
+        <v>95.7</v>
       </c>
       <c r="E20" s="25">
-        <v>97.49</v>
+        <v>97.48</v>
       </c>
       <c r="F20" s="25">
         <v>98.18</v>
@@ -4783,7 +4847,7 @@
         <v>99.27</v>
       </c>
       <c r="I20" s="25">
-        <v>99.7</v>
+        <v>99.69</v>
       </c>
       <c r="J20" s="25">
         <v>100.13</v>
@@ -4801,13 +4865,13 @@
         <v>98.13</v>
       </c>
       <c r="O20" s="25">
-        <v>92.45</v>
+        <v>92.44</v>
       </c>
       <c r="P20" s="25">
-        <v>89.45</v>
+        <v>89.44</v>
       </c>
       <c r="Q20" s="25">
-        <v>87.98</v>
+        <v>87.97</v>
       </c>
       <c r="R20" s="25">
         <v>88.21</v>
@@ -4819,28 +4883,28 @@
         <v>89.8</v>
       </c>
       <c r="U20" s="25">
-        <v>90.93</v>
+        <v>90.92</v>
       </c>
       <c r="V20" s="25">
         <v>92.5</v>
       </c>
       <c r="W20" s="25">
-        <v>92.32</v>
+        <v>92.31</v>
       </c>
       <c r="X20" s="25">
         <v>92.37</v>
       </c>
       <c r="Y20" s="25">
-        <v>93.07</v>
+        <v>93.06</v>
       </c>
       <c r="Z20" s="25">
-        <v>93.62</v>
+        <v>93.61</v>
       </c>
       <c r="AA20" s="25">
         <v>93.51</v>
       </c>
       <c r="AB20" s="25">
-        <v>93.02</v>
+        <v>93.03</v>
       </c>
       <c r="AC20" s="25">
         <v>93.56</v>
@@ -4849,130 +4913,134 @@
         <v>94.5</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.73</v>
+        <v>94.75</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.28</v>
+        <v>95.29</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.44</v>
+        <v>95.45</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.79</v>
+        <v>95.8</v>
       </c>
       <c r="AI20" s="25">
         <v>96.25</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.97</v>
+        <v>95.98</v>
       </c>
       <c r="AK20" s="25">
-        <v>96.26</v>
+        <v>96.27</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.73</v>
+        <v>96.68</v>
       </c>
       <c r="AM20" s="25">
-        <v>97.1</v>
+        <v>97.02</v>
       </c>
       <c r="AN20" s="25">
+        <v>97.15</v>
+      </c>
+      <c r="AO20" s="25">
+        <v>97.06</v>
+      </c>
+      <c r="AP20" s="25">
+        <v>96.43</v>
+      </c>
+      <c r="AQ20" s="25">
+        <v>96.32</v>
+      </c>
+      <c r="AR20" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="AS20" s="25">
+        <v>98.01</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>98.06</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>98.25</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>98.09</v>
+      </c>
+      <c r="AX20" s="25">
+        <v>98.54</v>
+      </c>
+      <c r="AY20" s="25">
+        <v>99.03</v>
+      </c>
+      <c r="AZ20" s="25">
+        <v>99.28</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>97.7</v>
+      </c>
+      <c r="BB20" s="25">
+        <v>93.87</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>91.46</v>
+      </c>
+      <c r="BD20" s="25">
+        <v>93.63</v>
+      </c>
+      <c r="BE20" s="25">
+        <v>95.68</v>
+      </c>
+      <c r="BF20" s="25">
+        <v>96.57</v>
+      </c>
+      <c r="BG20" s="25">
         <v>97.24</v>
       </c>
-      <c r="AO20" s="25">
-        <v>97.15</v>
-      </c>
-      <c r="AP20" s="25">
-        <v>96.48</v>
-      </c>
-      <c r="AQ20" s="25">
-        <v>96.31</v>
-      </c>
-      <c r="AR20" s="25">
-        <v>97.65</v>
-      </c>
-      <c r="AS20" s="25">
-        <v>97.99</v>
-      </c>
-      <c r="AT20" s="25">
-        <v>98.04</v>
-      </c>
-      <c r="AU20" s="25">
-        <v>98.22</v>
-      </c>
-      <c r="AV20" s="25">
-        <v>98.78</v>
-      </c>
-      <c r="AW20" s="25">
-        <v>98.07</v>
-      </c>
-      <c r="AX20" s="25">
-        <v>98.52</v>
-      </c>
-      <c r="AY20" s="25">
-        <v>99.02</v>
-      </c>
-      <c r="AZ20" s="25">
-        <v>99.26</v>
-      </c>
-      <c r="BA20" s="25">
-        <v>97.67</v>
-      </c>
-      <c r="BB20" s="25">
-        <v>93.82</v>
-      </c>
-      <c r="BC20" s="25">
-        <v>91.41</v>
-      </c>
-      <c r="BD20" s="25">
-        <v>93.56</v>
-      </c>
-      <c r="BE20" s="25">
-        <v>95.67</v>
-      </c>
-      <c r="BF20" s="25">
-        <v>96.95</v>
-      </c>
-      <c r="BG20" s="25">
-        <v>97.85</v>
-      </c>
       <c r="BH20" s="25">
-        <v>98.73</v>
+        <v>98.49</v>
       </c>
       <c r="BI20" s="25">
-        <v>99.43</v>
+        <v>99.46</v>
       </c>
       <c r="BJ20" s="25">
-        <v>99.84</v>
+        <v>99.87</v>
       </c>
       <c r="BK20" s="25">
-        <v>100.11</v>
+        <v>100.18</v>
       </c>
       <c r="BL20" s="25">
-        <v>100.08</v>
+        <v>100.15</v>
       </c>
       <c r="BM20" s="25">
-        <v>100.53</v>
+        <v>100.54</v>
       </c>
       <c r="BN20" s="25">
-        <v>101.28</v>
+        <v>100.88</v>
       </c>
       <c r="BO20" s="25">
-        <v>101.36</v>
+        <v>100.88</v>
       </c>
       <c r="BP20" s="25">
-        <v>100.6</v>
+        <v>100.65</v>
       </c>
       <c r="BQ20" s="25">
-        <v>99.9</v>
+        <v>100.15</v>
       </c>
       <c r="BR20" s="25">
-        <v>99.89</v>
+        <v>100.07</v>
       </c>
       <c r="BS20" s="25">
-        <v>100.49</v>
-      </c>
-      <c r="BT20" s="25"/>
-      <c r="BU20" s="25"/>
+        <v>100.02</v>
+      </c>
+      <c r="BT20" s="25">
+        <v>100.12</v>
+      </c>
+      <c r="BU20" s="25">
+        <v>100.41</v>
+      </c>
       <c r="BV20" s="25"/>
       <c r="BW20" s="25"/>
       <c r="BX20" s="25"/>
@@ -4987,10 +5055,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="25">
-        <v>96.66</v>
+        <v>96.67</v>
       </c>
       <c r="D21" s="25">
-        <v>97.53</v>
+        <v>97.54</v>
       </c>
       <c r="E21" s="25">
         <v>98.59</v>
@@ -5020,7 +5088,7 @@
         <v>100</v>
       </c>
       <c r="N21" s="25">
-        <v>99.32</v>
+        <v>99.31</v>
       </c>
       <c r="O21" s="25">
         <v>97.79</v>
@@ -5032,169 +5100,173 @@
         <v>94.39</v>
       </c>
       <c r="R21" s="25">
-        <v>94.54</v>
+        <v>94.55</v>
       </c>
       <c r="S21" s="25">
-        <v>94.29</v>
+        <v>94.3</v>
       </c>
       <c r="T21" s="25">
         <v>94.56</v>
       </c>
       <c r="U21" s="25">
-        <v>95.05</v>
+        <v>95.06</v>
       </c>
       <c r="V21" s="25">
-        <v>95.82</v>
+        <v>95.83</v>
       </c>
       <c r="W21" s="25">
         <v>96.05</v>
       </c>
       <c r="X21" s="25">
-        <v>96.61</v>
+        <v>96.62</v>
       </c>
       <c r="Y21" s="25">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="Z21" s="25">
-        <v>96.74</v>
+        <v>96.75</v>
       </c>
       <c r="AA21" s="25">
-        <v>95.6</v>
+        <v>95.61</v>
       </c>
       <c r="AB21" s="25">
-        <v>93.79</v>
+        <v>93.8</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.92</v>
+        <v>94.94</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.85</v>
+        <v>96.87</v>
       </c>
       <c r="AE21" s="25">
-        <v>97.18</v>
+        <v>97.2</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.95</v>
+        <v>97.97</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.69</v>
+        <v>97.72</v>
       </c>
       <c r="AH21" s="25">
-        <v>98.05</v>
+        <v>98.07</v>
       </c>
       <c r="AI21" s="25">
-        <v>98.07</v>
+        <v>98.1</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.36</v>
+        <v>98.38</v>
       </c>
       <c r="AK21" s="25">
-        <v>98.11</v>
+        <v>98.15</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.43</v>
+        <v>98.39</v>
       </c>
       <c r="AM21" s="25">
-        <v>99.05</v>
+        <v>98.98</v>
       </c>
       <c r="AN21" s="25">
-        <v>99.36</v>
+        <v>99.29</v>
       </c>
       <c r="AO21" s="25">
-        <v>99.17</v>
+        <v>99.1</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.67</v>
+        <v>98.64</v>
       </c>
       <c r="AQ21" s="25">
-        <v>99.25</v>
+        <v>99.28</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.91</v>
+        <v>100.95</v>
       </c>
       <c r="AS21" s="25">
-        <v>100.69</v>
+        <v>100.72</v>
       </c>
       <c r="AT21" s="25">
-        <v>99.74</v>
+        <v>99.78</v>
       </c>
       <c r="AU21" s="25">
-        <v>100.35</v>
+        <v>100.39</v>
       </c>
       <c r="AV21" s="25">
-        <v>101.64</v>
+        <v>101.69</v>
       </c>
       <c r="AW21" s="25">
-        <v>101.06</v>
+        <v>101.1</v>
       </c>
       <c r="AX21" s="25">
+        <v>100.78</v>
+      </c>
+      <c r="AY21" s="25">
+        <v>101.92</v>
+      </c>
+      <c r="AZ21" s="25">
+        <v>102.26</v>
+      </c>
+      <c r="BA21" s="25">
+        <v>100.93</v>
+      </c>
+      <c r="BB21" s="25">
+        <v>97.68</v>
+      </c>
+      <c r="BC21" s="25">
+        <v>95.86</v>
+      </c>
+      <c r="BD21" s="25">
+        <v>96.12</v>
+      </c>
+      <c r="BE21" s="25">
+        <v>97.56</v>
+      </c>
+      <c r="BF21" s="25">
+        <v>98.24</v>
+      </c>
+      <c r="BG21" s="25">
+        <v>98.75</v>
+      </c>
+      <c r="BH21" s="25">
+        <v>99.18</v>
+      </c>
+      <c r="BI21" s="25">
+        <v>100.31</v>
+      </c>
+      <c r="BJ21" s="25">
+        <v>100.71</v>
+      </c>
+      <c r="BK21" s="25">
+        <v>101.32</v>
+      </c>
+      <c r="BL21" s="25">
+        <v>101.03</v>
+      </c>
+      <c r="BM21" s="25">
+        <v>101</v>
+      </c>
+      <c r="BN21" s="25">
+        <v>101.24</v>
+      </c>
+      <c r="BO21" s="25">
+        <v>101.07</v>
+      </c>
+      <c r="BP21" s="25">
         <v>100.74</v>
       </c>
-      <c r="AY21" s="25">
-        <v>101.88</v>
-      </c>
-      <c r="AZ21" s="25">
-        <v>102.21</v>
-      </c>
-      <c r="BA21" s="25">
-        <v>100.89</v>
-      </c>
-      <c r="BB21" s="25">
-        <v>97.64</v>
-      </c>
-      <c r="BC21" s="25">
-        <v>95.81</v>
-      </c>
-      <c r="BD21" s="25">
-        <v>96.06</v>
-      </c>
-      <c r="BE21" s="25">
-        <v>97.55</v>
-      </c>
-      <c r="BF21" s="25">
-        <v>98.63</v>
-      </c>
-      <c r="BG21" s="25">
-        <v>99.39</v>
-      </c>
-      <c r="BH21" s="25">
-        <v>99.46</v>
-      </c>
-      <c r="BI21" s="25">
-        <v>100.28</v>
-      </c>
-      <c r="BJ21" s="25">
-        <v>100.69</v>
-      </c>
-      <c r="BK21" s="25">
-        <v>101.34</v>
-      </c>
-      <c r="BL21" s="25">
-        <v>101.08</v>
-      </c>
-      <c r="BM21" s="25">
-        <v>101.08</v>
-      </c>
-      <c r="BN21" s="25">
-        <v>101.7</v>
-      </c>
-      <c r="BO21" s="25">
-        <v>101.65</v>
-      </c>
-      <c r="BP21" s="25">
-        <v>100.97</v>
-      </c>
       <c r="BQ21" s="25">
-        <v>101.11</v>
+        <v>100.94</v>
       </c>
       <c r="BR21" s="25">
-        <v>101.22</v>
+        <v>100.96</v>
       </c>
       <c r="BS21" s="25">
-        <v>101.74</v>
-      </c>
-      <c r="BT21" s="25"/>
-      <c r="BU21" s="25"/>
+        <v>100.76</v>
+      </c>
+      <c r="BT21" s="25">
+        <v>100.86</v>
+      </c>
+      <c r="BU21" s="25">
+        <v>102.07</v>
+      </c>
       <c r="BV21" s="25"/>
       <c r="BW21" s="25"/>
       <c r="BX21" s="25"/>
@@ -5209,7 +5281,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="25">
-        <v>89.39</v>
+        <v>89.4</v>
       </c>
       <c r="D22" s="25">
         <v>94.03</v>
@@ -5221,10 +5293,10 @@
         <v>95.62</v>
       </c>
       <c r="G22" s="25">
-        <v>95.93</v>
+        <v>95.92</v>
       </c>
       <c r="H22" s="25">
-        <v>97.4</v>
+        <v>97.39</v>
       </c>
       <c r="I22" s="25">
         <v>97.95</v>
@@ -5242,181 +5314,185 @@
         <v>100</v>
       </c>
       <c r="N22" s="25">
-        <v>99.03</v>
+        <v>99.04</v>
       </c>
       <c r="O22" s="25">
-        <v>94.26</v>
+        <v>94.27</v>
       </c>
       <c r="P22" s="25">
-        <v>90.62</v>
+        <v>90.63</v>
       </c>
       <c r="Q22" s="25">
         <v>88.65</v>
       </c>
       <c r="R22" s="25">
-        <v>88.46</v>
+        <v>88.47</v>
       </c>
       <c r="S22" s="25">
-        <v>89.06</v>
+        <v>89.07</v>
       </c>
       <c r="T22" s="25">
-        <v>90.4</v>
+        <v>90.41</v>
       </c>
       <c r="U22" s="25">
-        <v>91.81</v>
+        <v>91.82</v>
       </c>
       <c r="V22" s="25">
-        <v>92.8</v>
+        <v>92.82</v>
       </c>
       <c r="W22" s="25">
-        <v>93.81</v>
+        <v>93.82</v>
       </c>
       <c r="X22" s="25">
-        <v>94.36</v>
+        <v>94.37</v>
       </c>
       <c r="Y22" s="25">
-        <v>95.45</v>
+        <v>95.46</v>
       </c>
       <c r="Z22" s="25">
-        <v>97.06</v>
+        <v>97.07</v>
       </c>
       <c r="AA22" s="25">
         <v>97.9</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.55</v>
+        <v>98.56</v>
       </c>
       <c r="AC22" s="25">
         <v>100.9</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.94</v>
+        <v>101.96</v>
       </c>
       <c r="AE22" s="25">
-        <v>102.28</v>
+        <v>102.31</v>
       </c>
       <c r="AF22" s="25">
-        <v>103.09</v>
+        <v>103.12</v>
       </c>
       <c r="AG22" s="25">
-        <v>103.42</v>
+        <v>103.45</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.92</v>
+        <v>103.95</v>
       </c>
       <c r="AI22" s="25">
-        <v>104.4</v>
+        <v>104.43</v>
       </c>
       <c r="AJ22" s="25">
-        <v>104.8</v>
+        <v>104.84</v>
       </c>
       <c r="AK22" s="25">
-        <v>105.23</v>
+        <v>105.27</v>
       </c>
       <c r="AL22" s="25">
-        <v>105.84</v>
+        <v>105.72</v>
       </c>
       <c r="AM22" s="25">
-        <v>106.56</v>
+        <v>106.37</v>
       </c>
       <c r="AN22" s="25">
-        <v>106.59</v>
+        <v>106.4</v>
       </c>
       <c r="AO22" s="25">
-        <v>106.48</v>
+        <v>106.3</v>
       </c>
       <c r="AP22" s="25">
-        <v>104.95</v>
+        <v>104.87</v>
       </c>
       <c r="AQ22" s="25">
-        <v>104.96</v>
+        <v>105.04</v>
       </c>
       <c r="AR22" s="25">
-        <v>106.09</v>
+        <v>106.17</v>
       </c>
       <c r="AS22" s="25">
-        <v>106.84</v>
+        <v>106.92</v>
       </c>
       <c r="AT22" s="25">
-        <v>106.8</v>
+        <v>106.89</v>
       </c>
       <c r="AU22" s="25">
-        <v>107.14</v>
+        <v>107.26</v>
       </c>
       <c r="AV22" s="25">
+        <v>107.83</v>
+      </c>
+      <c r="AW22" s="25">
+        <v>108.22</v>
+      </c>
+      <c r="AX22" s="25">
+        <v>108.44</v>
+      </c>
+      <c r="AY22" s="25">
+        <v>108.84</v>
+      </c>
+      <c r="AZ22" s="25">
+        <v>108.98</v>
+      </c>
+      <c r="BA22" s="25">
+        <v>107.63</v>
+      </c>
+      <c r="BB22" s="25">
+        <v>101.89</v>
+      </c>
+      <c r="BC22" s="25">
+        <v>98.03</v>
+      </c>
+      <c r="BD22" s="25">
+        <v>101.34</v>
+      </c>
+      <c r="BE22" s="25">
+        <v>104.34</v>
+      </c>
+      <c r="BF22" s="25">
+        <v>105.31</v>
+      </c>
+      <c r="BG22" s="25">
+        <v>105.15</v>
+      </c>
+      <c r="BH22" s="25">
+        <v>104.33</v>
+      </c>
+      <c r="BI22" s="25">
+        <v>106.94</v>
+      </c>
+      <c r="BJ22" s="25">
         <v>107.72</v>
       </c>
-      <c r="AW22" s="25">
-        <v>108.09</v>
-      </c>
-      <c r="AX22" s="25">
+      <c r="BK22" s="25">
+        <v>108.01</v>
+      </c>
+      <c r="BL22" s="25">
+        <v>108.42</v>
+      </c>
+      <c r="BM22" s="25">
+        <v>109.07</v>
+      </c>
+      <c r="BN22" s="25">
+        <v>109.07</v>
+      </c>
+      <c r="BO22" s="25">
+        <v>109.04</v>
+      </c>
+      <c r="BP22" s="25">
         <v>108.32</v>
       </c>
-      <c r="AY22" s="25">
-        <v>108.72</v>
-      </c>
-      <c r="AZ22" s="25">
-        <v>108.85</v>
-      </c>
-      <c r="BA22" s="25">
-        <v>107.48</v>
-      </c>
-      <c r="BB22" s="25">
-        <v>101.72</v>
-      </c>
-      <c r="BC22" s="25">
-        <v>97.83</v>
-      </c>
-      <c r="BD22" s="25">
-        <v>101.08</v>
-      </c>
-      <c r="BE22" s="25">
-        <v>104.16</v>
-      </c>
-      <c r="BF22" s="25">
-        <v>105.61</v>
-      </c>
-      <c r="BG22" s="25">
-        <v>105.81</v>
-      </c>
-      <c r="BH22" s="25">
-        <v>104.41</v>
-      </c>
-      <c r="BI22" s="25">
-        <v>106.54</v>
-      </c>
-      <c r="BJ22" s="25">
-        <v>107.27</v>
-      </c>
-      <c r="BK22" s="25">
-        <v>107.53</v>
-      </c>
-      <c r="BL22" s="25">
-        <v>107.9</v>
-      </c>
-      <c r="BM22" s="25">
-        <v>108.6</v>
-      </c>
-      <c r="BN22" s="25">
-        <v>109.17</v>
-      </c>
-      <c r="BO22" s="25">
-        <v>109.17</v>
-      </c>
-      <c r="BP22" s="25">
-        <v>107.65</v>
-      </c>
       <c r="BQ22" s="25">
-        <v>105.8</v>
+        <v>106.86</v>
       </c>
       <c r="BR22" s="25">
-        <v>104.82</v>
+        <v>106.25</v>
       </c>
       <c r="BS22" s="25">
-        <v>104.94</v>
-      </c>
-      <c r="BT22" s="25"/>
-      <c r="BU22" s="25"/>
+        <v>106.23</v>
+      </c>
+      <c r="BT22" s="25">
+        <v>105</v>
+      </c>
+      <c r="BU22" s="25">
+        <v>103.68</v>
+      </c>
       <c r="BV22" s="25"/>
       <c r="BW22" s="25"/>
       <c r="BX22" s="25"/>
@@ -5452,13 +5528,13 @@
         <v>100.41</v>
       </c>
       <c r="J23" s="25">
-        <v>100.24</v>
+        <v>100.23</v>
       </c>
       <c r="K23" s="25">
         <v>100.42</v>
       </c>
       <c r="L23" s="25">
-        <v>100.06</v>
+        <v>100.05</v>
       </c>
       <c r="M23" s="25">
         <v>100</v>
@@ -5467,19 +5543,19 @@
         <v>98.64</v>
       </c>
       <c r="O23" s="25">
-        <v>93.45</v>
+        <v>93.44</v>
       </c>
       <c r="P23" s="25">
         <v>90.14</v>
       </c>
       <c r="Q23" s="25">
-        <v>89.01</v>
+        <v>89</v>
       </c>
       <c r="R23" s="25">
         <v>88.55</v>
       </c>
       <c r="S23" s="25">
-        <v>88.91</v>
+        <v>88.9</v>
       </c>
       <c r="T23" s="25">
         <v>89.77</v>
@@ -5503,142 +5579,146 @@
         <v>94.61</v>
       </c>
       <c r="AA23" s="25">
-        <v>95.13</v>
+        <v>95.12</v>
       </c>
       <c r="AB23" s="25">
-        <v>94.45</v>
+        <v>94.44</v>
       </c>
       <c r="AC23" s="25">
-        <v>95.26</v>
+        <v>95.22</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.78</v>
+        <v>96.76</v>
       </c>
       <c r="AE23" s="25">
-        <v>97.24</v>
+        <v>97.22</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.7</v>
+        <v>97.67</v>
       </c>
       <c r="AG23" s="25">
-        <v>98.32</v>
+        <v>98.25</v>
       </c>
       <c r="AH23" s="25">
-        <v>98.28</v>
+        <v>98.21</v>
       </c>
       <c r="AI23" s="25">
-        <v>98.48</v>
+        <v>98.42</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.9</v>
+        <v>98.84</v>
       </c>
       <c r="AK23" s="25">
-        <v>99.15</v>
+        <v>99.1</v>
       </c>
       <c r="AL23" s="25">
-        <v>99.54</v>
+        <v>99.39</v>
       </c>
       <c r="AM23" s="25">
-        <v>100.1</v>
+        <v>99.91</v>
       </c>
       <c r="AN23" s="25">
-        <v>100.12</v>
+        <v>99.92</v>
       </c>
       <c r="AO23" s="25">
-        <v>100.02</v>
+        <v>99.83</v>
       </c>
       <c r="AP23" s="25">
-        <v>99.39</v>
+        <v>99.26</v>
       </c>
       <c r="AQ23" s="25">
-        <v>99.63</v>
+        <v>99.57</v>
       </c>
       <c r="AR23" s="25">
-        <v>100.32</v>
+        <v>100.27</v>
       </c>
       <c r="AS23" s="25">
+        <v>100.66</v>
+      </c>
+      <c r="AT23" s="25">
         <v>100.7</v>
       </c>
-      <c r="AT23" s="25">
-        <v>100.74</v>
-      </c>
       <c r="AU23" s="25">
-        <v>100.54</v>
+        <v>100.5</v>
       </c>
       <c r="AV23" s="25">
-        <v>101.01</v>
+        <v>100.98</v>
       </c>
       <c r="AW23" s="25">
-        <v>101.06</v>
+        <v>101.04</v>
       </c>
       <c r="AX23" s="25">
-        <v>101.65</v>
+        <v>101.64</v>
       </c>
       <c r="AY23" s="25">
-        <v>102.37</v>
+        <v>102.36</v>
       </c>
       <c r="AZ23" s="25">
-        <v>102.16</v>
+        <v>102.15</v>
       </c>
       <c r="BA23" s="25">
         <v>101.17</v>
       </c>
       <c r="BB23" s="25">
-        <v>96.76</v>
+        <v>96.77</v>
       </c>
       <c r="BC23" s="25">
-        <v>94.38</v>
+        <v>94.41</v>
       </c>
       <c r="BD23" s="25">
-        <v>96.92</v>
+        <v>96.93</v>
       </c>
       <c r="BE23" s="25">
-        <v>99.33</v>
+        <v>99.22</v>
       </c>
       <c r="BF23" s="25">
-        <v>100.25</v>
+        <v>99.49</v>
       </c>
       <c r="BG23" s="25">
-        <v>100.65</v>
+        <v>99.43</v>
       </c>
       <c r="BH23" s="25">
-        <v>99.56</v>
+        <v>98.99</v>
       </c>
       <c r="BI23" s="25">
-        <v>101.08</v>
+        <v>100.96</v>
       </c>
       <c r="BJ23" s="25">
-        <v>101.75</v>
+        <v>101.67</v>
       </c>
       <c r="BK23" s="25">
-        <v>101.74</v>
+        <v>101.81</v>
       </c>
       <c r="BL23" s="25">
-        <v>102.09</v>
+        <v>102.11</v>
       </c>
       <c r="BM23" s="25">
-        <v>102.85</v>
+        <v>102.82</v>
       </c>
       <c r="BN23" s="25">
-        <v>103.94</v>
+        <v>103.35</v>
       </c>
       <c r="BO23" s="25">
-        <v>105.2</v>
+        <v>104.56</v>
       </c>
       <c r="BP23" s="25">
-        <v>104.74</v>
+        <v>104.71</v>
       </c>
       <c r="BQ23" s="25">
-        <v>103.87</v>
+        <v>103.91</v>
       </c>
       <c r="BR23" s="25">
-        <v>103.22</v>
+        <v>103.55</v>
       </c>
       <c r="BS23" s="25">
-        <v>102.11</v>
-      </c>
-      <c r="BT23" s="25"/>
-      <c r="BU23" s="25"/>
+        <v>102.48</v>
+      </c>
+      <c r="BT23" s="25">
+        <v>102.06</v>
+      </c>
+      <c r="BU23" s="25">
+        <v>101.71</v>
+      </c>
       <c r="BV23" s="25"/>
       <c r="BW23" s="25"/>
       <c r="BX23" s="25"/>
@@ -5674,7 +5754,7 @@
         <v>100.3</v>
       </c>
       <c r="J24" s="25">
-        <v>99.65</v>
+        <v>99.66</v>
       </c>
       <c r="K24" s="25">
         <v>98.68</v>
@@ -5695,7 +5775,7 @@
         <v>95.7</v>
       </c>
       <c r="Q24" s="25">
-        <v>94.65</v>
+        <v>94.64</v>
       </c>
       <c r="R24" s="25">
         <v>94.99</v>
@@ -5710,7 +5790,7 @@
         <v>96.02</v>
       </c>
       <c r="V24" s="25">
-        <v>96.47</v>
+        <v>96.46</v>
       </c>
       <c r="W24" s="25">
         <v>96.76</v>
@@ -5728,139 +5808,143 @@
         <v>97.66</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.92</v>
+        <v>96.91</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.64</v>
+        <v>98.54</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.47</v>
+        <v>99.55</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.74</v>
+        <v>98.83</v>
       </c>
       <c r="AF24" s="25">
-        <v>98.77</v>
+        <v>98.86</v>
       </c>
       <c r="AG24" s="25">
-        <v>99.63</v>
+        <v>99.71</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.62</v>
+        <v>99.7</v>
       </c>
       <c r="AI24" s="25">
-        <v>99.73</v>
+        <v>99.82</v>
       </c>
       <c r="AJ24" s="25">
-        <v>99.65</v>
+        <v>99.75</v>
       </c>
       <c r="AK24" s="25">
-        <v>99.79</v>
+        <v>99.88</v>
       </c>
       <c r="AL24" s="25">
         <v>99.6</v>
       </c>
       <c r="AM24" s="25">
-        <v>99.85</v>
+        <v>99.81</v>
       </c>
       <c r="AN24" s="25">
-        <v>99.92</v>
+        <v>99.88</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.73</v>
+        <v>99.68</v>
       </c>
       <c r="AP24" s="25">
         <v>99.31</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.74</v>
+        <v>98.83</v>
       </c>
       <c r="AR24" s="25">
-        <v>99.13</v>
+        <v>99.22</v>
       </c>
       <c r="AS24" s="25">
-        <v>99.57</v>
+        <v>99.65</v>
       </c>
       <c r="AT24" s="25">
+        <v>99.54</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>99.94</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>100.52</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>100.72</v>
+      </c>
+      <c r="AX24" s="25">
+        <v>100.58</v>
+      </c>
+      <c r="AY24" s="25">
+        <v>101.33</v>
+      </c>
+      <c r="AZ24" s="25">
+        <v>101.79</v>
+      </c>
+      <c r="BA24" s="25">
+        <v>101.35</v>
+      </c>
+      <c r="BB24" s="25">
+        <v>98.8</v>
+      </c>
+      <c r="BC24" s="25">
+        <v>96.26</v>
+      </c>
+      <c r="BD24" s="25">
+        <v>96.55</v>
+      </c>
+      <c r="BE24" s="25">
+        <v>97.68</v>
+      </c>
+      <c r="BF24" s="25">
+        <v>98</v>
+      </c>
+      <c r="BG24" s="25">
+        <v>98.36</v>
+      </c>
+      <c r="BH24" s="25">
+        <v>98.48</v>
+      </c>
+      <c r="BI24" s="25">
         <v>99.45</v>
       </c>
-      <c r="AU24" s="25">
-        <v>99.85</v>
-      </c>
-      <c r="AV24" s="25">
-        <v>100.42</v>
-      </c>
-      <c r="AW24" s="25">
-        <v>100.62</v>
-      </c>
-      <c r="AX24" s="25">
-        <v>100.43</v>
-      </c>
-      <c r="AY24" s="25">
-        <v>101.22</v>
-      </c>
-      <c r="AZ24" s="25">
-        <v>101.69</v>
-      </c>
-      <c r="BA24" s="25">
+      <c r="BJ24" s="25">
+        <v>100.04</v>
+      </c>
+      <c r="BK24" s="25">
+        <v>100.53</v>
+      </c>
+      <c r="BL24" s="25">
+        <v>101.09</v>
+      </c>
+      <c r="BM24" s="25">
+        <v>101.46</v>
+      </c>
+      <c r="BN24" s="25">
         <v>101.26</v>
       </c>
-      <c r="BB24" s="25">
-        <v>98.72</v>
-      </c>
-      <c r="BC24" s="25">
-        <v>96.17</v>
-      </c>
-      <c r="BD24" s="25">
-        <v>96.45</v>
-      </c>
-      <c r="BE24" s="25">
-        <v>97.61</v>
-      </c>
-      <c r="BF24" s="25">
-        <v>98.34</v>
-      </c>
-      <c r="BG24" s="25">
-        <v>99.06</v>
-      </c>
-      <c r="BH24" s="25">
-        <v>98.75</v>
-      </c>
-      <c r="BI24" s="25">
-        <v>99.38</v>
-      </c>
-      <c r="BJ24" s="25">
-        <v>99.98</v>
-      </c>
-      <c r="BK24" s="25">
-        <v>100.49</v>
-      </c>
-      <c r="BL24" s="25">
-        <v>101.17</v>
-      </c>
-      <c r="BM24" s="25">
-        <v>101.67</v>
-      </c>
-      <c r="BN24" s="25">
-        <v>101.77</v>
-      </c>
       <c r="BO24" s="25">
-        <v>101.64</v>
+        <v>101.14</v>
       </c>
       <c r="BP24" s="25">
-        <v>101.08</v>
+        <v>100.83</v>
       </c>
       <c r="BQ24" s="25">
-        <v>101.17</v>
+        <v>100.76</v>
       </c>
       <c r="BR24" s="25">
-        <v>101.43</v>
+        <v>100.76</v>
       </c>
       <c r="BS24" s="25">
-        <v>102.58</v>
-      </c>
-      <c r="BT24" s="25"/>
-      <c r="BU24" s="25"/>
+        <v>100.9</v>
+      </c>
+      <c r="BT24" s="25">
+        <v>101.21</v>
+      </c>
+      <c r="BU24" s="25">
+        <v>102.31</v>
+      </c>
       <c r="BV24" s="25"/>
       <c r="BW24" s="25"/>
       <c r="BX24" s="25"/>
@@ -5878,22 +5962,22 @@
         <v>91.48</v>
       </c>
       <c r="D25" s="25">
-        <v>96.01</v>
+        <v>96.02</v>
       </c>
       <c r="E25" s="25">
-        <v>98.01</v>
+        <v>98.02</v>
       </c>
       <c r="F25" s="25">
         <v>98.31</v>
       </c>
       <c r="G25" s="25">
-        <v>98.59</v>
+        <v>98.6</v>
       </c>
       <c r="H25" s="25">
         <v>99.34</v>
       </c>
       <c r="I25" s="25">
-        <v>99.67</v>
+        <v>99.66</v>
       </c>
       <c r="J25" s="25">
         <v>99.6</v>
@@ -5902,13 +5986,13 @@
         <v>99.67</v>
       </c>
       <c r="L25" s="25">
-        <v>99.84</v>
+        <v>99.83</v>
       </c>
       <c r="M25" s="25">
         <v>100</v>
       </c>
       <c r="N25" s="25">
-        <v>98.95</v>
+        <v>98.94</v>
       </c>
       <c r="O25" s="25">
         <v>93.27</v>
@@ -5917,172 +6001,176 @@
         <v>89.78</v>
       </c>
       <c r="Q25" s="25">
-        <v>87.81</v>
+        <v>87.8</v>
       </c>
       <c r="R25" s="25">
-        <v>87.4</v>
+        <v>87.39</v>
       </c>
       <c r="S25" s="25">
-        <v>88.02</v>
+        <v>88.03</v>
       </c>
       <c r="T25" s="25">
         <v>88.88</v>
       </c>
       <c r="U25" s="25">
-        <v>89.8</v>
+        <v>89.79</v>
       </c>
       <c r="V25" s="25">
-        <v>90.17</v>
+        <v>90.16</v>
       </c>
       <c r="W25" s="25">
-        <v>90.97</v>
+        <v>90.95</v>
       </c>
       <c r="X25" s="25">
         <v>91.29</v>
       </c>
       <c r="Y25" s="25">
-        <v>92.32</v>
+        <v>92.31</v>
       </c>
       <c r="Z25" s="25">
-        <v>93.33</v>
+        <v>93.34</v>
       </c>
       <c r="AA25" s="25">
-        <v>94.06</v>
+        <v>94.07</v>
       </c>
       <c r="AB25" s="25">
         <v>95.05</v>
       </c>
       <c r="AC25" s="25">
-        <v>96.92</v>
+        <v>96.95</v>
       </c>
       <c r="AD25" s="25">
-        <v>98.06</v>
+        <v>98.09</v>
       </c>
       <c r="AE25" s="25">
-        <v>98.49</v>
+        <v>98.53</v>
       </c>
       <c r="AF25" s="25">
-        <v>98.68</v>
+        <v>98.74</v>
       </c>
       <c r="AG25" s="25">
-        <v>98.88</v>
+        <v>98.95</v>
       </c>
       <c r="AH25" s="25">
+        <v>99.23</v>
+      </c>
+      <c r="AI25" s="25">
+        <v>99.45</v>
+      </c>
+      <c r="AJ25" s="25">
+        <v>99.68</v>
+      </c>
+      <c r="AK25" s="25">
+        <v>100.05</v>
+      </c>
+      <c r="AL25" s="25">
+        <v>100.45</v>
+      </c>
+      <c r="AM25" s="25">
+        <v>100.95</v>
+      </c>
+      <c r="AN25" s="25">
+        <v>101.38</v>
+      </c>
+      <c r="AO25" s="25">
+        <v>101.51</v>
+      </c>
+      <c r="AP25" s="25">
+        <v>100.77</v>
+      </c>
+      <c r="AQ25" s="25">
+        <v>100.9</v>
+      </c>
+      <c r="AR25" s="25">
+        <v>100.81</v>
+      </c>
+      <c r="AS25" s="25">
+        <v>101.01</v>
+      </c>
+      <c r="AT25" s="25">
+        <v>101.05</v>
+      </c>
+      <c r="AU25" s="25">
+        <v>101.52</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>102.52</v>
+      </c>
+      <c r="AW25" s="25">
+        <v>103</v>
+      </c>
+      <c r="AX25" s="25">
+        <v>103.19</v>
+      </c>
+      <c r="AY25" s="25">
+        <v>103.87</v>
+      </c>
+      <c r="AZ25" s="25">
+        <v>104.36</v>
+      </c>
+      <c r="BA25" s="25">
+        <v>103.7</v>
+      </c>
+      <c r="BB25" s="25">
         <v>99.15</v>
       </c>
-      <c r="AI25" s="25">
-        <v>99.36</v>
-      </c>
-      <c r="AJ25" s="25">
-        <v>99.6</v>
-      </c>
-      <c r="AK25" s="25">
-        <v>99.96</v>
-      </c>
-      <c r="AL25" s="25">
-        <v>100.43</v>
-      </c>
-      <c r="AM25" s="25">
-        <v>100.98</v>
-      </c>
-      <c r="AN25" s="25">
-        <v>101.37</v>
-      </c>
-      <c r="AO25" s="25">
-        <v>101.48</v>
-      </c>
-      <c r="AP25" s="25">
-        <v>100.71</v>
-      </c>
-      <c r="AQ25" s="25">
-        <v>100.77</v>
-      </c>
-      <c r="AR25" s="25">
-        <v>100.65</v>
-      </c>
-      <c r="AS25" s="25">
-        <v>100.85</v>
-      </c>
-      <c r="AT25" s="25">
-        <v>100.89</v>
-      </c>
-      <c r="AU25" s="25">
-        <v>101.37</v>
-      </c>
-      <c r="AV25" s="25">
-        <v>102.36</v>
-      </c>
-      <c r="AW25" s="25">
-        <v>102.82</v>
-      </c>
-      <c r="AX25" s="25">
-        <v>102.98</v>
-      </c>
-      <c r="AY25" s="25">
-        <v>103.63</v>
-      </c>
-      <c r="AZ25" s="25">
-        <v>104.13</v>
-      </c>
-      <c r="BA25" s="25">
-        <v>103.47</v>
-      </c>
-      <c r="BB25" s="25">
-        <v>98.93</v>
-      </c>
       <c r="BC25" s="25">
-        <v>95.14</v>
+        <v>95.42</v>
       </c>
       <c r="BD25" s="25">
-        <v>98.25</v>
+        <v>98.56</v>
       </c>
       <c r="BE25" s="25">
-        <v>101.05</v>
+        <v>101.31</v>
       </c>
       <c r="BF25" s="25">
-        <v>102.68</v>
+        <v>102.55</v>
       </c>
       <c r="BG25" s="25">
+        <v>102.86</v>
+      </c>
+      <c r="BH25" s="25">
+        <v>103.48</v>
+      </c>
+      <c r="BI25" s="25">
+        <v>103.85</v>
+      </c>
+      <c r="BJ25" s="25">
+        <v>103.6</v>
+      </c>
+      <c r="BK25" s="25">
+        <v>103.31</v>
+      </c>
+      <c r="BL25" s="25">
+        <v>102.75</v>
+      </c>
+      <c r="BM25" s="25">
+        <v>103.17</v>
+      </c>
+      <c r="BN25" s="25">
+        <v>103.29</v>
+      </c>
+      <c r="BO25" s="25">
         <v>103.34</v>
       </c>
-      <c r="BH25" s="25">
-        <v>103.54</v>
-      </c>
-      <c r="BI25" s="25">
-        <v>103.52</v>
-      </c>
-      <c r="BJ25" s="25">
-        <v>103.19</v>
-      </c>
-      <c r="BK25" s="25">
-        <v>102.85</v>
-      </c>
-      <c r="BL25" s="25">
-        <v>102.22</v>
-      </c>
-      <c r="BM25" s="25">
-        <v>102.73</v>
-      </c>
-      <c r="BN25" s="25">
-        <v>103.41</v>
-      </c>
-      <c r="BO25" s="25">
-        <v>103.44</v>
-      </c>
       <c r="BP25" s="25">
-        <v>102.5</v>
+        <v>103.03</v>
       </c>
       <c r="BQ25" s="25">
-        <v>101.01</v>
+        <v>101.74</v>
       </c>
       <c r="BR25" s="25">
-        <v>100.3</v>
+        <v>101.68</v>
       </c>
       <c r="BS25" s="25">
-        <v>100.46</v>
-      </c>
-      <c r="BT25" s="25"/>
-      <c r="BU25" s="25"/>
+        <v>101.71</v>
+      </c>
+      <c r="BT25" s="25">
+        <v>101.16</v>
+      </c>
+      <c r="BU25" s="25">
+        <v>100.38</v>
+      </c>
       <c r="BV25" s="25"/>
       <c r="BW25" s="25"/>
       <c r="BX25" s="25"/>
@@ -6097,55 +6185,55 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.97</v>
+        <v>94.94</v>
       </c>
       <c r="D26" s="25">
-        <v>97.47</v>
+        <v>97.44</v>
       </c>
       <c r="E26" s="25">
-        <v>97.84</v>
+        <v>97.82</v>
       </c>
       <c r="F26" s="25">
-        <v>99.04</v>
+        <v>99.02</v>
       </c>
       <c r="G26" s="25">
-        <v>100.12</v>
+        <v>100.16</v>
       </c>
       <c r="H26" s="25">
-        <v>100.69</v>
+        <v>100.7</v>
       </c>
       <c r="I26" s="25">
         <v>100.13</v>
       </c>
       <c r="J26" s="25">
-        <v>100.03</v>
+        <v>100.02</v>
       </c>
       <c r="K26" s="25">
-        <v>99.73</v>
+        <v>99.72</v>
       </c>
       <c r="L26" s="25">
-        <v>99.97</v>
+        <v>99.96</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.45</v>
+        <v>98.5</v>
       </c>
       <c r="O26" s="25">
-        <v>93.78</v>
+        <v>93.82</v>
       </c>
       <c r="P26" s="25">
         <v>90.97</v>
       </c>
       <c r="Q26" s="25">
-        <v>88.63</v>
+        <v>88.64</v>
       </c>
       <c r="R26" s="25">
-        <v>88.59</v>
+        <v>88.6</v>
       </c>
       <c r="S26" s="25">
-        <v>88.93</v>
+        <v>88.94</v>
       </c>
       <c r="T26" s="25">
         <v>89.24</v>
@@ -6154,13 +6242,13 @@
         <v>89.92</v>
       </c>
       <c r="V26" s="25">
-        <v>89.92</v>
+        <v>89.93</v>
       </c>
       <c r="W26" s="25">
         <v>90</v>
       </c>
       <c r="X26" s="25">
-        <v>89.89</v>
+        <v>89.9</v>
       </c>
       <c r="Y26" s="25">
         <v>90.98</v>
@@ -6172,139 +6260,143 @@
         <v>92.55</v>
       </c>
       <c r="AB26" s="25">
-        <v>92.25</v>
+        <v>92.31</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.68</v>
+        <v>92.73</v>
       </c>
       <c r="AD26" s="25">
-        <v>92.86</v>
+        <v>92.92</v>
       </c>
       <c r="AE26" s="25">
-        <v>93.05</v>
+        <v>93.11</v>
       </c>
       <c r="AF26" s="25">
-        <v>93.26</v>
+        <v>93.32</v>
       </c>
       <c r="AG26" s="25">
-        <v>93.85</v>
+        <v>93.91</v>
       </c>
       <c r="AH26" s="25">
-        <v>94.24</v>
+        <v>94.3</v>
       </c>
       <c r="AI26" s="25">
-        <v>94.02</v>
+        <v>94.08</v>
       </c>
       <c r="AJ26" s="25">
-        <v>94.13</v>
+        <v>94.19</v>
       </c>
       <c r="AK26" s="25">
-        <v>94.22</v>
+        <v>94.28</v>
       </c>
       <c r="AL26" s="25">
-        <v>94.87</v>
+        <v>94.88</v>
       </c>
       <c r="AM26" s="25">
-        <v>95.46</v>
+        <v>95.45</v>
       </c>
       <c r="AN26" s="25">
         <v>95.55</v>
       </c>
       <c r="AO26" s="25">
-        <v>95.01</v>
+        <v>95</v>
       </c>
       <c r="AP26" s="25">
-        <v>94.15</v>
+        <v>94.17</v>
       </c>
       <c r="AQ26" s="25">
+        <v>94.2</v>
+      </c>
+      <c r="AR26" s="25">
+        <v>94.37</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>94.37</v>
+      </c>
+      <c r="AT26" s="25">
+        <v>94</v>
+      </c>
+      <c r="AU26" s="25">
+        <v>94.55</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>94.67</v>
+      </c>
+      <c r="AW26" s="25">
+        <v>95.29</v>
+      </c>
+      <c r="AX26" s="25">
+        <v>96.22</v>
+      </c>
+      <c r="AY26" s="25">
+        <v>97.18</v>
+      </c>
+      <c r="AZ26" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="BA26" s="25">
+        <v>96.25</v>
+      </c>
+      <c r="BB26" s="25">
+        <v>93.99</v>
+      </c>
+      <c r="BC26" s="25">
+        <v>91.37</v>
+      </c>
+      <c r="BD26" s="25">
+        <v>92.43</v>
+      </c>
+      <c r="BE26" s="25">
         <v>94.14</v>
       </c>
-      <c r="AR26" s="25">
-        <v>94.26</v>
-      </c>
-      <c r="AS26" s="25">
-        <v>94.26</v>
-      </c>
-      <c r="AT26" s="25">
-        <v>93.94</v>
-      </c>
-      <c r="AU26" s="25">
-        <v>94.5</v>
-      </c>
-      <c r="AV26" s="25">
+      <c r="BF26" s="25">
+        <v>95.11</v>
+      </c>
+      <c r="BG26" s="25">
         <v>94.62</v>
       </c>
-      <c r="AW26" s="25">
-        <v>95.24</v>
-      </c>
-      <c r="AX26" s="25">
-        <v>96.17</v>
-      </c>
-      <c r="AY26" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="AZ26" s="25">
-        <v>97.02</v>
-      </c>
-      <c r="BA26" s="25">
-        <v>96.19</v>
-      </c>
-      <c r="BB26" s="25">
-        <v>93.96</v>
-      </c>
-      <c r="BC26" s="25">
-        <v>91.3</v>
-      </c>
-      <c r="BD26" s="25">
-        <v>92.25</v>
-      </c>
-      <c r="BE26" s="25">
-        <v>93.96</v>
-      </c>
-      <c r="BF26" s="25">
-        <v>95.32</v>
-      </c>
-      <c r="BG26" s="25">
-        <v>95.16</v>
-      </c>
       <c r="BH26" s="25">
-        <v>95.96</v>
+        <v>95.88</v>
       </c>
       <c r="BI26" s="25">
+        <v>96.61</v>
+      </c>
+      <c r="BJ26" s="25">
+        <v>96.05</v>
+      </c>
+      <c r="BK26" s="25">
+        <v>96.54</v>
+      </c>
+      <c r="BL26" s="25">
         <v>96.33</v>
       </c>
-      <c r="BJ26" s="25">
-        <v>95.84</v>
-      </c>
-      <c r="BK26" s="25">
-        <v>96.32</v>
-      </c>
-      <c r="BL26" s="25">
-        <v>96.15</v>
-      </c>
       <c r="BM26" s="25">
-        <v>97.28</v>
+        <v>97.23</v>
       </c>
       <c r="BN26" s="25">
-        <v>98.02</v>
+        <v>97.65</v>
       </c>
       <c r="BO26" s="25">
-        <v>97.24</v>
+        <v>96.81</v>
       </c>
       <c r="BP26" s="25">
-        <v>96.65</v>
+        <v>96.73</v>
       </c>
       <c r="BQ26" s="25">
-        <v>96.61</v>
+        <v>96.72</v>
       </c>
       <c r="BR26" s="25">
-        <v>96.11</v>
+        <v>96.48</v>
       </c>
       <c r="BS26" s="25">
-        <v>96.5</v>
-      </c>
-      <c r="BT26" s="25"/>
-      <c r="BU26" s="25"/>
+        <v>96.91</v>
+      </c>
+      <c r="BT26" s="25">
+        <v>96.33</v>
+      </c>
+      <c r="BU26" s="25">
+        <v>95.85</v>
+      </c>
       <c r="BV26" s="25"/>
       <c r="BW26" s="25"/>
       <c r="BX26" s="25"/>
@@ -6328,10 +6420,10 @@
         <v>101.02</v>
       </c>
       <c r="F27" s="25">
-        <v>100.98</v>
+        <v>100.97</v>
       </c>
       <c r="G27" s="25">
-        <v>101.31</v>
+        <v>101.3</v>
       </c>
       <c r="H27" s="25">
         <v>101.04</v>
@@ -6373,7 +6465,7 @@
         <v>95.19</v>
       </c>
       <c r="U27" s="25">
-        <v>96.12</v>
+        <v>96.13</v>
       </c>
       <c r="V27" s="25">
         <v>95.37</v>
@@ -6391,7 +6483,7 @@
         <v>96.25</v>
       </c>
       <c r="AA27" s="25">
-        <v>95.06</v>
+        <v>95.07</v>
       </c>
       <c r="AB27" s="25">
         <v>94.56</v>
@@ -6412,7 +6504,7 @@
         <v>97.26</v>
       </c>
       <c r="AH27" s="25">
-        <v>96.24</v>
+        <v>96.25</v>
       </c>
       <c r="AI27" s="25">
         <v>96.59</v>
@@ -6424,109 +6516,113 @@
         <v>96.08</v>
       </c>
       <c r="AL27" s="25">
-        <v>96.17</v>
+        <v>96.13</v>
       </c>
       <c r="AM27" s="25">
-        <v>96.53</v>
+        <v>96.49</v>
       </c>
       <c r="AN27" s="25">
-        <v>97.11</v>
+        <v>97.07</v>
       </c>
       <c r="AO27" s="25">
-        <v>96.95</v>
+        <v>96.92</v>
       </c>
       <c r="AP27" s="25">
-        <v>96.41</v>
+        <v>96.39</v>
       </c>
       <c r="AQ27" s="25">
-        <v>97.11</v>
+        <v>97.12</v>
       </c>
       <c r="AR27" s="25">
-        <v>97.47</v>
+        <v>97.53</v>
       </c>
       <c r="AS27" s="25">
-        <v>97.25</v>
+        <v>97.32</v>
       </c>
       <c r="AT27" s="25">
-        <v>96.36</v>
+        <v>96.37</v>
       </c>
       <c r="AU27" s="25">
         <v>97.2</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.91</v>
+        <v>97.9</v>
       </c>
       <c r="AW27" s="25">
+        <v>98.95</v>
+      </c>
+      <c r="AX27" s="25">
         <v>98.96</v>
       </c>
-      <c r="AX27" s="25">
-        <v>98.97</v>
-      </c>
       <c r="AY27" s="25">
-        <v>99.81</v>
+        <v>99.8</v>
       </c>
       <c r="AZ27" s="25">
         <v>100.17</v>
       </c>
       <c r="BA27" s="25">
-        <v>99.79</v>
+        <v>99.8</v>
       </c>
       <c r="BB27" s="25">
-        <v>97.36</v>
+        <v>97.32</v>
       </c>
       <c r="BC27" s="25">
-        <v>94.38</v>
+        <v>94.35</v>
       </c>
       <c r="BD27" s="25">
-        <v>95.16</v>
+        <v>95.12</v>
       </c>
       <c r="BE27" s="25">
-        <v>95.59</v>
+        <v>95.52</v>
       </c>
       <c r="BF27" s="25">
-        <v>96.24</v>
+        <v>95.85</v>
       </c>
       <c r="BG27" s="25">
-        <v>97.97</v>
+        <v>97.29</v>
       </c>
       <c r="BH27" s="25">
-        <v>98.34</v>
+        <v>98.02</v>
       </c>
       <c r="BI27" s="25">
-        <v>99.42</v>
+        <v>99.38</v>
       </c>
       <c r="BJ27" s="25">
-        <v>98.88</v>
+        <v>98.76</v>
       </c>
       <c r="BK27" s="25">
-        <v>99.18</v>
+        <v>99.02</v>
       </c>
       <c r="BL27" s="25">
-        <v>99.07</v>
+        <v>98.91</v>
       </c>
       <c r="BM27" s="25">
-        <v>99.9</v>
+        <v>99.65</v>
       </c>
       <c r="BN27" s="25">
-        <v>100.2</v>
+        <v>99.59</v>
       </c>
       <c r="BO27" s="25">
-        <v>99.98</v>
+        <v>99.31</v>
       </c>
       <c r="BP27" s="25">
-        <v>99.6</v>
+        <v>99.05</v>
       </c>
       <c r="BQ27" s="25">
-        <v>99.61</v>
+        <v>99</v>
       </c>
       <c r="BR27" s="25">
-        <v>99.77</v>
+        <v>98.97</v>
       </c>
       <c r="BS27" s="25">
-        <v>100.58</v>
-      </c>
-      <c r="BT27" s="25"/>
-      <c r="BU27" s="25"/>
+        <v>99.24</v>
+      </c>
+      <c r="BT27" s="25">
+        <v>99.73</v>
+      </c>
+      <c r="BU27" s="25">
+        <v>100.31</v>
+      </c>
       <c r="BV27" s="25"/>
       <c r="BW27" s="25"/>
       <c r="BX27" s="25"/>
@@ -6541,28 +6637,28 @@
         <v>19</v>
       </c>
       <c r="C28" s="25">
-        <v>86.51</v>
+        <v>86.52</v>
       </c>
       <c r="D28" s="25">
-        <v>91.56</v>
+        <v>91.58</v>
       </c>
       <c r="E28" s="25">
-        <v>97.22</v>
+        <v>97.21</v>
       </c>
       <c r="F28" s="25">
         <v>96.42</v>
       </c>
       <c r="G28" s="25">
-        <v>95.43</v>
+        <v>95.44</v>
       </c>
       <c r="H28" s="25">
-        <v>96.6</v>
+        <v>96.63</v>
       </c>
       <c r="I28" s="25">
-        <v>97.58</v>
+        <v>97.6</v>
       </c>
       <c r="J28" s="25">
-        <v>97.99</v>
+        <v>98</v>
       </c>
       <c r="K28" s="25">
         <v>98.81</v>
@@ -6574,181 +6670,185 @@
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>98.57</v>
+        <v>98.58</v>
       </c>
       <c r="O28" s="25">
-        <v>94.73</v>
+        <v>94.74</v>
       </c>
       <c r="P28" s="25">
-        <v>91.44</v>
+        <v>91.46</v>
       </c>
       <c r="Q28" s="25">
-        <v>89.52</v>
+        <v>89.54</v>
       </c>
       <c r="R28" s="25">
-        <v>89.34</v>
+        <v>89.36</v>
       </c>
       <c r="S28" s="25">
-        <v>90.8</v>
+        <v>90.82</v>
       </c>
       <c r="T28" s="25">
-        <v>91.45</v>
+        <v>91.46</v>
       </c>
       <c r="U28" s="25">
-        <v>92.84</v>
+        <v>92.83</v>
       </c>
       <c r="V28" s="25">
-        <v>94.19</v>
+        <v>94.16</v>
       </c>
       <c r="W28" s="25">
-        <v>95.59</v>
+        <v>95.6</v>
       </c>
       <c r="X28" s="25">
-        <v>96.25</v>
+        <v>96.26</v>
       </c>
       <c r="Y28" s="25">
-        <v>97.23</v>
+        <v>97.25</v>
       </c>
       <c r="Z28" s="25">
-        <v>98.14</v>
+        <v>98.16</v>
       </c>
       <c r="AA28" s="25">
         <v>98.65</v>
       </c>
       <c r="AB28" s="25">
-        <v>99.04</v>
+        <v>99.05</v>
       </c>
       <c r="AC28" s="25">
-        <v>102.02</v>
+        <v>102.09</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.71</v>
+        <v>102.84</v>
       </c>
       <c r="AE28" s="25">
-        <v>103.05</v>
+        <v>103.21</v>
       </c>
       <c r="AF28" s="25">
-        <v>103.47</v>
+        <v>103.65</v>
       </c>
       <c r="AG28" s="25">
-        <v>103.97</v>
+        <v>104.14</v>
       </c>
       <c r="AH28" s="25">
-        <v>104.39</v>
+        <v>104.55</v>
       </c>
       <c r="AI28" s="25">
-        <v>104.82</v>
+        <v>105</v>
       </c>
       <c r="AJ28" s="25">
-        <v>105.05</v>
+        <v>105.22</v>
       </c>
       <c r="AK28" s="25">
-        <v>105.38</v>
+        <v>105.55</v>
       </c>
       <c r="AL28" s="25">
-        <v>105.37</v>
+        <v>105.49</v>
       </c>
       <c r="AM28" s="25">
-        <v>106.07</v>
+        <v>106.15</v>
       </c>
       <c r="AN28" s="25">
-        <v>106.78</v>
+        <v>106.86</v>
       </c>
       <c r="AO28" s="25">
-        <v>106.65</v>
+        <v>106.79</v>
       </c>
       <c r="AP28" s="25">
-        <v>105.57</v>
+        <v>105.75</v>
       </c>
       <c r="AQ28" s="25">
-        <v>105.37</v>
+        <v>105.61</v>
       </c>
       <c r="AR28" s="25">
-        <v>105.89</v>
+        <v>106.14</v>
       </c>
       <c r="AS28" s="25">
-        <v>106.24</v>
+        <v>106.49</v>
       </c>
       <c r="AT28" s="25">
-        <v>106.76</v>
+        <v>107.01</v>
       </c>
       <c r="AU28" s="25">
-        <v>107.26</v>
+        <v>107.51</v>
       </c>
       <c r="AV28" s="25">
-        <v>107.59</v>
+        <v>107.9</v>
       </c>
       <c r="AW28" s="25">
-        <v>107.79</v>
+        <v>108.11</v>
       </c>
       <c r="AX28" s="25">
-        <v>108.08</v>
+        <v>108.44</v>
       </c>
       <c r="AY28" s="25">
-        <v>108.14</v>
+        <v>108.54</v>
       </c>
       <c r="AZ28" s="25">
-        <v>107.66</v>
+        <v>108.05</v>
       </c>
       <c r="BA28" s="25">
-        <v>105.79</v>
+        <v>106.17</v>
       </c>
       <c r="BB28" s="25">
-        <v>97.89</v>
+        <v>98.27</v>
       </c>
       <c r="BC28" s="25">
-        <v>93.43</v>
+        <v>93.79</v>
       </c>
       <c r="BD28" s="25">
-        <v>97.02</v>
+        <v>97.41</v>
       </c>
       <c r="BE28" s="25">
-        <v>100.83</v>
+        <v>101.17</v>
       </c>
       <c r="BF28" s="25">
-        <v>102.73</v>
+        <v>102.5</v>
       </c>
       <c r="BG28" s="25">
-        <v>103.93</v>
+        <v>103.33</v>
       </c>
       <c r="BH28" s="25">
-        <v>105.88</v>
+        <v>106.01</v>
       </c>
       <c r="BI28" s="25">
-        <v>108.1</v>
+        <v>108.58</v>
       </c>
       <c r="BJ28" s="25">
-        <v>108.12</v>
+        <v>108.73</v>
       </c>
       <c r="BK28" s="25">
-        <v>108.51</v>
+        <v>109.22</v>
       </c>
       <c r="BL28" s="25">
-        <v>108.77</v>
+        <v>109.45</v>
       </c>
       <c r="BM28" s="25">
-        <v>109.45</v>
+        <v>110</v>
       </c>
       <c r="BN28" s="25">
-        <v>110.51</v>
+        <v>110.22</v>
       </c>
       <c r="BO28" s="25">
-        <v>110.31</v>
+        <v>110.12</v>
       </c>
       <c r="BP28" s="25">
-        <v>108.44</v>
+        <v>109.21</v>
       </c>
       <c r="BQ28" s="25">
-        <v>106.59</v>
+        <v>107.83</v>
       </c>
       <c r="BR28" s="25">
-        <v>105.82</v>
+        <v>107.35</v>
       </c>
       <c r="BS28" s="25">
-        <v>105.46</v>
-      </c>
-      <c r="BT28" s="25"/>
-      <c r="BU28" s="25"/>
+        <v>107.43</v>
+      </c>
+      <c r="BT28" s="25">
+        <v>106.87</v>
+      </c>
+      <c r="BU28" s="25">
+        <v>105.21</v>
+      </c>
       <c r="BV28" s="25"/>
       <c r="BW28" s="25"/>
       <c r="BX28" s="25"/>
@@ -6778,19 +6878,19 @@
         <v>98.81</v>
       </c>
       <c r="H29" s="25">
-        <v>99.58</v>
+        <v>99.57</v>
       </c>
       <c r="I29" s="25">
         <v>99.98</v>
       </c>
       <c r="J29" s="25">
-        <v>100.08</v>
+        <v>100.07</v>
       </c>
       <c r="K29" s="25">
         <v>100.32</v>
       </c>
       <c r="L29" s="25">
-        <v>100.05</v>
+        <v>100.04</v>
       </c>
       <c r="M29" s="25">
         <v>100</v>
@@ -6805,7 +6905,7 @@
         <v>90.52</v>
       </c>
       <c r="Q29" s="25">
-        <v>89.56</v>
+        <v>89.57</v>
       </c>
       <c r="R29" s="25">
         <v>89.69</v>
@@ -6817,10 +6917,10 @@
         <v>90.82</v>
       </c>
       <c r="U29" s="25">
-        <v>91.83</v>
+        <v>91.82</v>
       </c>
       <c r="V29" s="25">
-        <v>93.44</v>
+        <v>93.43</v>
       </c>
       <c r="W29" s="25">
         <v>93.93</v>
@@ -6832,7 +6932,7 @@
         <v>94.58</v>
       </c>
       <c r="Z29" s="25">
-        <v>95.27</v>
+        <v>95.28</v>
       </c>
       <c r="AA29" s="25">
         <v>96.27</v>
@@ -6844,133 +6944,137 @@
         <v>97.02</v>
       </c>
       <c r="AD29" s="25">
-        <v>96.69</v>
+        <v>96.7</v>
       </c>
       <c r="AE29" s="25">
         <v>95.76</v>
       </c>
       <c r="AF29" s="25">
-        <v>95.9</v>
+        <v>95.91</v>
       </c>
       <c r="AG29" s="25">
-        <v>96.05</v>
+        <v>96.06</v>
       </c>
       <c r="AH29" s="25">
-        <v>97.04</v>
+        <v>97.05</v>
       </c>
       <c r="AI29" s="25">
-        <v>97.59</v>
+        <v>97.6</v>
       </c>
       <c r="AJ29" s="25">
         <v>97.82</v>
       </c>
       <c r="AK29" s="25">
-        <v>97.68</v>
+        <v>97.69</v>
       </c>
       <c r="AL29" s="25">
-        <v>98.07</v>
+        <v>98.04</v>
       </c>
       <c r="AM29" s="25">
-        <v>98.23</v>
+        <v>98.18</v>
       </c>
       <c r="AN29" s="25">
-        <v>98.49</v>
+        <v>98.43</v>
       </c>
       <c r="AO29" s="25">
-        <v>98.42</v>
+        <v>98.36</v>
       </c>
       <c r="AP29" s="25">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="AQ29" s="25">
         <v>97.32</v>
       </c>
       <c r="AR29" s="25">
-        <v>97.32</v>
+        <v>97.33</v>
       </c>
       <c r="AS29" s="25">
         <v>97.59</v>
       </c>
       <c r="AT29" s="25">
-        <v>98.24</v>
+        <v>98.25</v>
       </c>
       <c r="AU29" s="25">
-        <v>98.98</v>
+        <v>99</v>
       </c>
       <c r="AV29" s="25">
-        <v>99.33</v>
+        <v>99.36</v>
       </c>
       <c r="AW29" s="25">
-        <v>99.97</v>
+        <v>100</v>
       </c>
       <c r="AX29" s="25">
-        <v>99.91</v>
+        <v>99.94</v>
       </c>
       <c r="AY29" s="25">
-        <v>100.08</v>
+        <v>100.11</v>
       </c>
       <c r="AZ29" s="25">
-        <v>99.47</v>
+        <v>99.51</v>
       </c>
       <c r="BA29" s="25">
-        <v>98.53</v>
+        <v>98.56</v>
       </c>
       <c r="BB29" s="25">
-        <v>93.4</v>
+        <v>93.41</v>
       </c>
       <c r="BC29" s="25">
-        <v>91.31</v>
+        <v>91.32</v>
       </c>
       <c r="BD29" s="25">
-        <v>92.71</v>
+        <v>92.74</v>
       </c>
       <c r="BE29" s="25">
-        <v>95.05</v>
+        <v>94.97</v>
       </c>
       <c r="BF29" s="25">
-        <v>96.24</v>
+        <v>95.42</v>
       </c>
       <c r="BG29" s="25">
-        <v>97.28</v>
+        <v>95.57</v>
       </c>
       <c r="BH29" s="25">
-        <v>99.34</v>
+        <v>98.08</v>
       </c>
       <c r="BI29" s="25">
-        <v>100.1</v>
+        <v>99.46</v>
       </c>
       <c r="BJ29" s="25">
-        <v>100.13</v>
+        <v>99.89</v>
       </c>
       <c r="BK29" s="25">
-        <v>100.1</v>
+        <v>100.07</v>
       </c>
       <c r="BL29" s="25">
-        <v>100.26</v>
+        <v>100.28</v>
       </c>
       <c r="BM29" s="25">
-        <v>100.68</v>
+        <v>100.57</v>
       </c>
       <c r="BN29" s="25">
-        <v>101.73</v>
+        <v>101.25</v>
       </c>
       <c r="BO29" s="25">
-        <v>102.23</v>
+        <v>101.51</v>
       </c>
       <c r="BP29" s="25">
-        <v>101.62</v>
+        <v>101.15</v>
       </c>
       <c r="BQ29" s="25">
-        <v>100.43</v>
+        <v>100.31</v>
       </c>
       <c r="BR29" s="25">
-        <v>100.61</v>
+        <v>100.55</v>
       </c>
       <c r="BS29" s="25">
-        <v>100.46</v>
-      </c>
-      <c r="BT29" s="25"/>
-      <c r="BU29" s="25"/>
+        <v>101.53</v>
+      </c>
+      <c r="BT29" s="25">
+        <v>101.46</v>
+      </c>
+      <c r="BU29" s="25">
+        <v>100.88</v>
+      </c>
       <c r="BV29" s="25"/>
       <c r="BW29" s="25"/>
       <c r="BX29" s="25"/>
@@ -6985,10 +7089,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="25">
-        <v>96.75</v>
+        <v>96.76</v>
       </c>
       <c r="D30" s="25">
-        <v>96.58</v>
+        <v>96.59</v>
       </c>
       <c r="E30" s="25">
         <v>94.82</v>
@@ -6997,7 +7101,7 @@
         <v>95.78</v>
       </c>
       <c r="G30" s="25">
-        <v>97.61</v>
+        <v>97.62</v>
       </c>
       <c r="H30" s="25">
         <v>99.96</v>
@@ -7024,25 +7128,25 @@
         <v>97.13</v>
       </c>
       <c r="P30" s="25">
-        <v>96.84</v>
+        <v>96.85</v>
       </c>
       <c r="Q30" s="25">
-        <v>96.11</v>
+        <v>96.12</v>
       </c>
       <c r="R30" s="25">
         <v>95.92</v>
       </c>
       <c r="S30" s="25">
-        <v>96.2</v>
+        <v>96.21</v>
       </c>
       <c r="T30" s="25">
         <v>96.69</v>
       </c>
       <c r="U30" s="25">
-        <v>96.94</v>
+        <v>96.95</v>
       </c>
       <c r="V30" s="25">
-        <v>97.09</v>
+        <v>97.1</v>
       </c>
       <c r="W30" s="25">
         <v>97.78</v>
@@ -7060,139 +7164,143 @@
         <v>97.83</v>
       </c>
       <c r="AB30" s="25">
-        <v>96.01</v>
+        <v>96</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.61</v>
+        <v>97.62</v>
       </c>
       <c r="AD30" s="25">
-        <v>98.53</v>
+        <v>98.57</v>
       </c>
       <c r="AE30" s="25">
-        <v>98.34</v>
+        <v>98.37</v>
       </c>
       <c r="AF30" s="25">
-        <v>98.51</v>
+        <v>98.54</v>
       </c>
       <c r="AG30" s="25">
-        <v>99.02</v>
+        <v>99.06</v>
       </c>
       <c r="AH30" s="25">
-        <v>100.62</v>
+        <v>100.67</v>
       </c>
       <c r="AI30" s="25">
-        <v>100.17</v>
+        <v>100.21</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.72</v>
+        <v>100.76</v>
       </c>
       <c r="AK30" s="25">
-        <v>100.69</v>
+        <v>100.73</v>
       </c>
       <c r="AL30" s="25">
-        <v>100.12</v>
+        <v>100.11</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.75</v>
+        <v>99.74</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.2</v>
+        <v>100.18</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.07</v>
+        <v>100.06</v>
       </c>
       <c r="AP30" s="25">
         <v>99.78</v>
       </c>
       <c r="AQ30" s="25">
-        <v>99.27</v>
+        <v>99.3</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.77</v>
+        <v>99.8</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.37</v>
+        <v>100.39</v>
       </c>
       <c r="AT30" s="25">
-        <v>100.47</v>
+        <v>100.5</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.7</v>
+        <v>100.73</v>
       </c>
       <c r="AV30" s="25">
-        <v>100.72</v>
+        <v>100.75</v>
       </c>
       <c r="AW30" s="25">
+        <v>101.16</v>
+      </c>
+      <c r="AX30" s="25">
+        <v>101.72</v>
+      </c>
+      <c r="AY30" s="25">
+        <v>102.43</v>
+      </c>
+      <c r="AZ30" s="25">
+        <v>102.39</v>
+      </c>
+      <c r="BA30" s="25">
+        <v>101.39</v>
+      </c>
+      <c r="BB30" s="25">
+        <v>98.48</v>
+      </c>
+      <c r="BC30" s="25">
+        <v>97.3</v>
+      </c>
+      <c r="BD30" s="25">
+        <v>98.03</v>
+      </c>
+      <c r="BE30" s="25">
+        <v>98.36</v>
+      </c>
+      <c r="BF30" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="BG30" s="25">
+        <v>99.2</v>
+      </c>
+      <c r="BH30" s="25">
+        <v>99.49</v>
+      </c>
+      <c r="BI30" s="25">
+        <v>101.03</v>
+      </c>
+      <c r="BJ30" s="25">
+        <v>101.6</v>
+      </c>
+      <c r="BK30" s="25">
+        <v>101.8</v>
+      </c>
+      <c r="BL30" s="25">
+        <v>101.86</v>
+      </c>
+      <c r="BM30" s="25">
+        <v>101.58</v>
+      </c>
+      <c r="BN30" s="25">
+        <v>101.55</v>
+      </c>
+      <c r="BO30" s="25">
         <v>101.12</v>
       </c>
-      <c r="AX30" s="25">
-        <v>101.67</v>
-      </c>
-      <c r="AY30" s="25">
-        <v>102.39</v>
-      </c>
-      <c r="AZ30" s="25">
-        <v>102.35</v>
-      </c>
-      <c r="BA30" s="25">
-        <v>101.35</v>
-      </c>
-      <c r="BB30" s="25">
-        <v>98.45</v>
-      </c>
-      <c r="BC30" s="25">
-        <v>97.27</v>
-      </c>
-      <c r="BD30" s="25">
-        <v>98</v>
-      </c>
-      <c r="BE30" s="25">
-        <v>98.34</v>
-      </c>
-      <c r="BF30" s="25">
-        <v>99.2</v>
-      </c>
-      <c r="BG30" s="25">
-        <v>100.3</v>
-      </c>
-      <c r="BH30" s="25">
-        <v>100.02</v>
-      </c>
-      <c r="BI30" s="25">
-        <v>101.04</v>
-      </c>
-      <c r="BJ30" s="25">
-        <v>101.62</v>
-      </c>
-      <c r="BK30" s="25">
-        <v>101.84</v>
-      </c>
-      <c r="BL30" s="25">
-        <v>101.92</v>
-      </c>
-      <c r="BM30" s="25">
-        <v>101.65</v>
-      </c>
-      <c r="BN30" s="25">
-        <v>101.94</v>
-      </c>
-      <c r="BO30" s="25">
-        <v>101.58</v>
-      </c>
       <c r="BP30" s="25">
-        <v>101.92</v>
+        <v>101.68</v>
       </c>
       <c r="BQ30" s="25">
-        <v>103.27</v>
+        <v>102.76</v>
       </c>
       <c r="BR30" s="25">
-        <v>104.26</v>
+        <v>103.06</v>
       </c>
       <c r="BS30" s="25">
-        <v>105.7</v>
-      </c>
-      <c r="BT30" s="25"/>
-      <c r="BU30" s="25"/>
+        <v>102.73</v>
+      </c>
+      <c r="BT30" s="25">
+        <v>103.76</v>
+      </c>
+      <c r="BU30" s="25">
+        <v>103.4</v>
+      </c>
       <c r="BV30" s="25"/>
       <c r="BW30" s="25"/>
       <c r="BX30" s="25"/>
@@ -7210,13 +7318,13 @@
         <v>85.11</v>
       </c>
       <c r="D31" s="25">
-        <v>90.29</v>
+        <v>90.3</v>
       </c>
       <c r="E31" s="25">
-        <v>93.98</v>
+        <v>93.99</v>
       </c>
       <c r="F31" s="25">
-        <v>94.88</v>
+        <v>94.89</v>
       </c>
       <c r="G31" s="25">
         <v>95.63</v>
@@ -7252,169 +7360,173 @@
         <v>89.93</v>
       </c>
       <c r="R31" s="25">
-        <v>90.01</v>
+        <v>90</v>
       </c>
       <c r="S31" s="25">
         <v>90.38</v>
       </c>
       <c r="T31" s="25">
-        <v>91.32</v>
+        <v>91.33</v>
       </c>
       <c r="U31" s="25">
         <v>92.74</v>
       </c>
       <c r="V31" s="25">
-        <v>93.52</v>
+        <v>93.53</v>
       </c>
       <c r="W31" s="25">
         <v>94.02</v>
       </c>
       <c r="X31" s="25">
-        <v>94.99</v>
+        <v>95</v>
       </c>
       <c r="Y31" s="25">
         <v>96.03</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.81</v>
+        <v>96.8</v>
       </c>
       <c r="AA31" s="25">
         <v>97.6</v>
       </c>
       <c r="AB31" s="25">
-        <v>99.01</v>
+        <v>99</v>
       </c>
       <c r="AC31" s="25">
-        <v>101.37</v>
+        <v>101.45</v>
       </c>
       <c r="AD31" s="25">
-        <v>102.12</v>
+        <v>102.26</v>
       </c>
       <c r="AE31" s="25">
-        <v>102.14</v>
+        <v>102.27</v>
       </c>
       <c r="AF31" s="25">
-        <v>102.97</v>
+        <v>103.08</v>
       </c>
       <c r="AG31" s="25">
-        <v>103.81</v>
+        <v>103.95</v>
       </c>
       <c r="AH31" s="25">
-        <v>104.26</v>
+        <v>104.39</v>
       </c>
       <c r="AI31" s="25">
-        <v>104.54</v>
+        <v>104.67</v>
       </c>
       <c r="AJ31" s="25">
-        <v>104.66</v>
+        <v>104.81</v>
       </c>
       <c r="AK31" s="25">
-        <v>104.74</v>
+        <v>104.89</v>
       </c>
       <c r="AL31" s="25">
-        <v>105.45</v>
+        <v>105.4</v>
       </c>
       <c r="AM31" s="25">
-        <v>106.17</v>
+        <v>106.02</v>
       </c>
       <c r="AN31" s="25">
-        <v>106.09</v>
+        <v>105.94</v>
       </c>
       <c r="AO31" s="25">
-        <v>106.07</v>
+        <v>105.93</v>
       </c>
       <c r="AP31" s="25">
         <v>104.53</v>
       </c>
       <c r="AQ31" s="25">
-        <v>104.01</v>
+        <v>104.2</v>
       </c>
       <c r="AR31" s="25">
-        <v>105.42</v>
+        <v>105.61</v>
       </c>
       <c r="AS31" s="25">
-        <v>105.81</v>
+        <v>106.01</v>
       </c>
       <c r="AT31" s="25">
-        <v>105.72</v>
+        <v>105.92</v>
       </c>
       <c r="AU31" s="25">
-        <v>105.43</v>
+        <v>105.63</v>
       </c>
       <c r="AV31" s="25">
-        <v>106.06</v>
+        <v>106.28</v>
       </c>
       <c r="AW31" s="25">
-        <v>106.39</v>
+        <v>106.6</v>
       </c>
       <c r="AX31" s="25">
-        <v>106.65</v>
+        <v>106.88</v>
       </c>
       <c r="AY31" s="25">
-        <v>107.1</v>
+        <v>107.32</v>
       </c>
       <c r="AZ31" s="25">
-        <v>106.91</v>
+        <v>107.17</v>
       </c>
       <c r="BA31" s="25">
-        <v>105.55</v>
+        <v>105.8</v>
       </c>
       <c r="BB31" s="25">
-        <v>99.07</v>
+        <v>99.33</v>
       </c>
       <c r="BC31" s="25">
-        <v>94.09</v>
+        <v>94.37</v>
       </c>
       <c r="BD31" s="25">
-        <v>97.15</v>
+        <v>97.54</v>
       </c>
       <c r="BE31" s="25">
-        <v>101.22</v>
+        <v>101.58</v>
       </c>
       <c r="BF31" s="25">
-        <v>103.69</v>
+        <v>103.57</v>
       </c>
       <c r="BG31" s="25">
-        <v>104.47</v>
+        <v>103.94</v>
       </c>
       <c r="BH31" s="25">
-        <v>104.99</v>
+        <v>105.06</v>
       </c>
       <c r="BI31" s="25">
-        <v>105.7</v>
+        <v>106.29</v>
       </c>
       <c r="BJ31" s="25">
-        <v>105.45</v>
+        <v>106.13</v>
       </c>
       <c r="BK31" s="25">
-        <v>105.29</v>
+        <v>106.02</v>
       </c>
       <c r="BL31" s="25">
-        <v>105.47</v>
+        <v>106.31</v>
       </c>
       <c r="BM31" s="25">
-        <v>105.64</v>
+        <v>106.55</v>
       </c>
       <c r="BN31" s="25">
-        <v>105.97</v>
+        <v>106.36</v>
       </c>
       <c r="BO31" s="25">
-        <v>105.64</v>
+        <v>106.23</v>
       </c>
       <c r="BP31" s="25">
-        <v>103.91</v>
+        <v>105.62</v>
       </c>
       <c r="BQ31" s="25">
-        <v>101.46</v>
+        <v>103.75</v>
       </c>
       <c r="BR31" s="25">
-        <v>100.07</v>
+        <v>103.1</v>
       </c>
       <c r="BS31" s="25">
-        <v>99.31</v>
-      </c>
-      <c r="BT31" s="25"/>
-      <c r="BU31" s="25"/>
+        <v>103.09</v>
+      </c>
+      <c r="BT31" s="25">
+        <v>101.95</v>
+      </c>
+      <c r="BU31" s="25">
+        <v>98.15</v>
+      </c>
       <c r="BV31" s="25"/>
       <c r="BW31" s="25"/>
       <c r="BX31" s="25"/>
@@ -7429,31 +7541,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.38</v>
+        <v>91.35</v>
       </c>
       <c r="D32" s="25">
-        <v>95.14</v>
+        <v>95.15</v>
       </c>
       <c r="E32" s="25">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="F32" s="25">
-        <v>97.62</v>
+        <v>97.61</v>
       </c>
       <c r="G32" s="25">
-        <v>98.23</v>
+        <v>98.22</v>
       </c>
       <c r="H32" s="25">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="I32" s="25">
-        <v>100.1</v>
+        <v>100.09</v>
       </c>
       <c r="J32" s="25">
-        <v>101.23</v>
+        <v>101.21</v>
       </c>
       <c r="K32" s="25">
-        <v>102.25</v>
+        <v>102.23</v>
       </c>
       <c r="L32" s="25">
         <v>101.91</v>
@@ -7468,19 +7580,19 @@
         <v>93.29</v>
       </c>
       <c r="P32" s="25">
-        <v>90.01</v>
+        <v>90.03</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.49</v>
+        <v>87.5</v>
       </c>
       <c r="R32" s="25">
-        <v>87.89</v>
+        <v>87.91</v>
       </c>
       <c r="S32" s="25">
-        <v>88.14</v>
+        <v>88.16</v>
       </c>
       <c r="T32" s="25">
-        <v>87.99</v>
+        <v>88</v>
       </c>
       <c r="U32" s="25">
         <v>88.95</v>
@@ -7489,154 +7601,158 @@
         <v>89.84</v>
       </c>
       <c r="W32" s="25">
-        <v>90.84</v>
+        <v>90.85</v>
       </c>
       <c r="X32" s="25">
         <v>91.35</v>
       </c>
       <c r="Y32" s="25">
-        <v>92.02</v>
+        <v>92.03</v>
       </c>
       <c r="Z32" s="25">
-        <v>93.01</v>
+        <v>93.02</v>
       </c>
       <c r="AA32" s="25">
-        <v>93.35</v>
+        <v>93.36</v>
       </c>
       <c r="AB32" s="25">
-        <v>93.13</v>
+        <v>93.14</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.86</v>
+        <v>93.92</v>
       </c>
       <c r="AD32" s="25">
-        <v>95.79</v>
+        <v>95.87</v>
       </c>
       <c r="AE32" s="25">
-        <v>95.52</v>
+        <v>95.61</v>
       </c>
       <c r="AF32" s="25">
-        <v>95.86</v>
+        <v>95.94</v>
       </c>
       <c r="AG32" s="25">
-        <v>96.14</v>
+        <v>96.23</v>
       </c>
       <c r="AH32" s="25">
-        <v>96.67</v>
+        <v>96.76</v>
       </c>
       <c r="AI32" s="25">
+        <v>96.97</v>
+      </c>
+      <c r="AJ32" s="25">
         <v>96.86</v>
       </c>
-      <c r="AJ32" s="25">
-        <v>96.74</v>
-      </c>
       <c r="AK32" s="25">
-        <v>96.21</v>
+        <v>96.32</v>
       </c>
       <c r="AL32" s="25">
-        <v>96.73</v>
+        <v>96.66</v>
       </c>
       <c r="AM32" s="25">
-        <v>97.28</v>
+        <v>97.12</v>
       </c>
       <c r="AN32" s="25">
-        <v>97.1</v>
+        <v>96.95</v>
       </c>
       <c r="AO32" s="25">
-        <v>96.83</v>
+        <v>96.68</v>
       </c>
       <c r="AP32" s="25">
-        <v>96.62</v>
+        <v>96.56</v>
       </c>
       <c r="AQ32" s="25">
-        <v>97.26</v>
+        <v>97.36</v>
       </c>
       <c r="AR32" s="25">
-        <v>98.08</v>
+        <v>98.18</v>
       </c>
       <c r="AS32" s="25">
-        <v>98.96</v>
+        <v>99.05</v>
       </c>
       <c r="AT32" s="25">
-        <v>98.58</v>
+        <v>98.68</v>
       </c>
       <c r="AU32" s="25">
-        <v>98.44</v>
+        <v>98.54</v>
       </c>
       <c r="AV32" s="25">
-        <v>98.57</v>
+        <v>98.67</v>
       </c>
       <c r="AW32" s="25">
-        <v>99.4</v>
+        <v>99.51</v>
       </c>
       <c r="AX32" s="25">
-        <v>99.31</v>
+        <v>99.42</v>
       </c>
       <c r="AY32" s="25">
-        <v>99.44</v>
+        <v>99.55</v>
       </c>
       <c r="AZ32" s="25">
-        <v>99.54</v>
+        <v>99.65</v>
       </c>
       <c r="BA32" s="25">
-        <v>98.12</v>
+        <v>98.24</v>
       </c>
       <c r="BB32" s="25">
-        <v>92.32</v>
+        <v>92.41</v>
       </c>
       <c r="BC32" s="25">
-        <v>89.36</v>
+        <v>89.45</v>
       </c>
       <c r="BD32" s="25">
-        <v>91.75</v>
+        <v>91.86</v>
       </c>
       <c r="BE32" s="25">
-        <v>94.31</v>
+        <v>94.36</v>
       </c>
       <c r="BF32" s="25">
-        <v>96.68</v>
+        <v>96.29</v>
       </c>
       <c r="BG32" s="25">
-        <v>98.39</v>
+        <v>97.63</v>
       </c>
       <c r="BH32" s="25">
-        <v>99.03</v>
+        <v>98.74</v>
       </c>
       <c r="BI32" s="25">
-        <v>99.63</v>
+        <v>99.73</v>
       </c>
       <c r="BJ32" s="25">
-        <v>99.53</v>
+        <v>99.62</v>
       </c>
       <c r="BK32" s="25">
-        <v>99.98</v>
+        <v>100.12</v>
       </c>
       <c r="BL32" s="25">
         <v>100.02</v>
       </c>
       <c r="BM32" s="25">
-        <v>100.39</v>
+        <v>100.24</v>
       </c>
       <c r="BN32" s="25">
-        <v>100.31</v>
+        <v>99.95</v>
       </c>
       <c r="BO32" s="25">
-        <v>101.13</v>
+        <v>100.68</v>
       </c>
       <c r="BP32" s="25">
-        <v>99.75</v>
+        <v>99.89</v>
       </c>
       <c r="BQ32" s="25">
-        <v>98.95</v>
+        <v>99.07</v>
       </c>
       <c r="BR32" s="25">
-        <v>98.31</v>
+        <v>99.03</v>
       </c>
       <c r="BS32" s="25">
-        <v>97.8</v>
-      </c>
-      <c r="BT32" s="25"/>
-      <c r="BU32" s="25"/>
+        <v>99.32</v>
+      </c>
+      <c r="BT32" s="25">
+        <v>99.26</v>
+      </c>
+      <c r="BU32" s="25">
+        <v>98.67</v>
+      </c>
       <c r="BV32" s="25"/>
       <c r="BW32" s="25"/>
       <c r="BX32" s="25"/>
@@ -7657,16 +7773,16 @@
         <v>97.15</v>
       </c>
       <c r="E33" s="25">
-        <v>98.22</v>
+        <v>98.23</v>
       </c>
       <c r="F33" s="25">
-        <v>98.15</v>
+        <v>98.16</v>
       </c>
       <c r="G33" s="25">
         <v>98</v>
       </c>
       <c r="H33" s="25">
-        <v>97.8</v>
+        <v>97.81</v>
       </c>
       <c r="I33" s="25">
         <v>97.88</v>
@@ -7687,13 +7803,13 @@
         <v>99.14</v>
       </c>
       <c r="O33" s="25">
-        <v>97.41</v>
+        <v>97.42</v>
       </c>
       <c r="P33" s="25">
         <v>96.18</v>
       </c>
       <c r="Q33" s="25">
-        <v>96.15</v>
+        <v>96.14</v>
       </c>
       <c r="R33" s="25">
         <v>96.13</v>
@@ -7720,145 +7836,149 @@
         <v>96.63</v>
       </c>
       <c r="Z33" s="25">
-        <v>96.44</v>
+        <v>96.45</v>
       </c>
       <c r="AA33" s="25">
         <v>96.04</v>
       </c>
       <c r="AB33" s="25">
-        <v>96.24</v>
+        <v>96.25</v>
       </c>
       <c r="AC33" s="25">
-        <v>97.05</v>
+        <v>97.08</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.84</v>
+        <v>97.87</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.79</v>
+        <v>97.81</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.58</v>
+        <v>97.6</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.96</v>
+        <v>97.98</v>
       </c>
       <c r="AH33" s="25">
-        <v>97.98</v>
+        <v>98.01</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.72</v>
+        <v>97.75</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.52</v>
+        <v>97.54</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.73</v>
+        <v>97.76</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.94</v>
+        <v>97.88</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.35</v>
+        <v>98.25</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.43</v>
+        <v>98.33</v>
       </c>
       <c r="AO33" s="25">
-        <v>98.12</v>
+        <v>98.02</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.94</v>
+        <v>97.89</v>
       </c>
       <c r="AQ33" s="25">
-        <v>97.99</v>
+        <v>98.02</v>
       </c>
       <c r="AR33" s="25">
-        <v>98.54</v>
+        <v>98.56</v>
       </c>
       <c r="AS33" s="25">
-        <v>98.68</v>
+        <v>98.7</v>
       </c>
       <c r="AT33" s="25">
-        <v>97.88</v>
+        <v>97.9</v>
       </c>
       <c r="AU33" s="25">
-        <v>98.03</v>
+        <v>98.05</v>
       </c>
       <c r="AV33" s="25">
-        <v>98.36</v>
+        <v>98.38</v>
       </c>
       <c r="AW33" s="25">
-        <v>98.43</v>
+        <v>98.45</v>
       </c>
       <c r="AX33" s="25">
-        <v>98.44</v>
+        <v>98.46</v>
       </c>
       <c r="AY33" s="25">
-        <v>98.84</v>
+        <v>98.86</v>
       </c>
       <c r="AZ33" s="25">
-        <v>98.4</v>
+        <v>98.42</v>
       </c>
       <c r="BA33" s="25">
-        <v>98.53</v>
+        <v>98.56</v>
       </c>
       <c r="BB33" s="25">
-        <v>96.31</v>
+        <v>96.33</v>
       </c>
       <c r="BC33" s="25">
-        <v>94.21</v>
+        <v>94.24</v>
       </c>
       <c r="BD33" s="25">
-        <v>93.97</v>
+        <v>93.99</v>
       </c>
       <c r="BE33" s="25">
         <v>95.28</v>
       </c>
       <c r="BF33" s="25">
-        <v>96.24</v>
+        <v>95.82</v>
       </c>
       <c r="BG33" s="25">
-        <v>97.05</v>
+        <v>96.19</v>
       </c>
       <c r="BH33" s="25">
-        <v>97.41</v>
+        <v>97</v>
       </c>
       <c r="BI33" s="25">
-        <v>98.03</v>
+        <v>98.01</v>
       </c>
       <c r="BJ33" s="25">
-        <v>98.25</v>
+        <v>98.23</v>
       </c>
       <c r="BK33" s="25">
-        <v>98.78</v>
+        <v>98.76</v>
       </c>
       <c r="BL33" s="25">
-        <v>98.84</v>
+        <v>98.76</v>
       </c>
       <c r="BM33" s="25">
-        <v>99.14</v>
+        <v>99.03</v>
       </c>
       <c r="BN33" s="25">
-        <v>99.47</v>
+        <v>99.17</v>
       </c>
       <c r="BO33" s="25">
-        <v>99.48</v>
+        <v>99.13</v>
       </c>
       <c r="BP33" s="25">
-        <v>98.93</v>
+        <v>98.73</v>
       </c>
       <c r="BQ33" s="25">
-        <v>99.42</v>
+        <v>99.05</v>
       </c>
       <c r="BR33" s="25">
-        <v>99.37</v>
+        <v>99.08</v>
       </c>
       <c r="BS33" s="25">
-        <v>100.97</v>
-      </c>
-      <c r="BT33" s="25"/>
-      <c r="BU33" s="25"/>
+        <v>99.44</v>
+      </c>
+      <c r="BT33" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="BU33" s="25">
+        <v>101.49</v>
+      </c>
       <c r="BV33" s="25"/>
       <c r="BW33" s="25"/>
       <c r="BX33" s="25"/>

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2D04C-C1F9-4F0D-9E12-6EBC5BFE6567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3505C-595E-470F-AFBE-EC1BE6FDCDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t xml:space="preserve">            Australian Bureau of Statistics</t>
   </si>
@@ -110,13 +110,10 @@
     <t>200+ employees</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 25 May 2021</t>
+    <t>Week ending Saturday 22 May 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 08 May 2021</t>
-  </si>
-  <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs indexes by Employer characteristics</t>
+    <t>Released at 11.30am (Canberra time) 09 June 2021</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs index by employment size</t>
+  </si>
+  <si>
+    <t>NA = Not available</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employer characteristics</t>
   </si>
 </sst>
 </file>
@@ -1127,12 +1130,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1234,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4094C99-52A4-42B0-93AC-5A2FCEEC722B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:BZ33"/>
+  <dimension ref="A1:BZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1575,9 +1578,9 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="5"/>
@@ -1659,10 +1662,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1877,8 +1880,12 @@
       <c r="BU6" s="24">
         <v>44324</v>
       </c>
-      <c r="BV6" s="24"/>
-      <c r="BW6" s="24"/>
+      <c r="BV6" s="24">
+        <v>44331</v>
+      </c>
+      <c r="BW6" s="24">
+        <v>44338</v>
+      </c>
       <c r="BX6" s="24"/>
       <c r="BY6" s="24"/>
       <c r="BZ6" s="24"/>
@@ -1891,7 +1898,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="25">
-        <v>87.27</v>
+        <v>87.28</v>
       </c>
       <c r="D7" s="25">
         <v>92.03</v>
@@ -1900,7 +1907,7 @@
         <v>94.66</v>
       </c>
       <c r="F7" s="25">
-        <v>95.71</v>
+        <v>95.72</v>
       </c>
       <c r="G7" s="25">
         <v>96.43</v>
@@ -1933,178 +1940,182 @@
         <v>90.74</v>
       </c>
       <c r="Q7" s="25">
-        <v>88.95</v>
+        <v>88.96</v>
       </c>
       <c r="R7" s="25">
         <v>88.77</v>
       </c>
       <c r="S7" s="25">
-        <v>89.53</v>
+        <v>89.54</v>
       </c>
       <c r="T7" s="25">
         <v>90.71</v>
       </c>
       <c r="U7" s="25">
-        <v>92.06</v>
+        <v>92.07</v>
       </c>
       <c r="V7" s="25">
-        <v>93.24</v>
+        <v>93.25</v>
       </c>
       <c r="W7" s="25">
         <v>93.84</v>
       </c>
       <c r="X7" s="25">
-        <v>94.35</v>
+        <v>94.36</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.66</v>
+        <v>95.67</v>
       </c>
       <c r="Z7" s="25">
-        <v>96.18</v>
+        <v>96.19</v>
       </c>
       <c r="AA7" s="25">
-        <v>96.74</v>
+        <v>96.75</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.67</v>
+        <v>97.69</v>
       </c>
       <c r="AC7" s="25">
-        <v>100.12</v>
+        <v>100.2</v>
       </c>
       <c r="AD7" s="25">
-        <v>101.06</v>
+        <v>101.17</v>
       </c>
       <c r="AE7" s="25">
-        <v>101.26</v>
+        <v>101.37</v>
       </c>
       <c r="AF7" s="25">
-        <v>101.71</v>
+        <v>101.82</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.87</v>
+        <v>101.98</v>
       </c>
       <c r="AH7" s="25">
-        <v>101.93</v>
+        <v>102.05</v>
       </c>
       <c r="AI7" s="25">
-        <v>101.96</v>
+        <v>102.04</v>
       </c>
       <c r="AJ7" s="25">
-        <v>102.11</v>
+        <v>102.24</v>
       </c>
       <c r="AK7" s="25">
+        <v>102.51</v>
+      </c>
+      <c r="AL7" s="25">
+        <v>102.84</v>
+      </c>
+      <c r="AM7" s="25">
+        <v>103.45</v>
+      </c>
+      <c r="AN7" s="25">
+        <v>103.55</v>
+      </c>
+      <c r="AO7" s="25">
+        <v>103.4</v>
+      </c>
+      <c r="AP7" s="25">
         <v>102.39</v>
       </c>
-      <c r="AL7" s="25">
-        <v>102.71</v>
-      </c>
-      <c r="AM7" s="25">
-        <v>103.32</v>
-      </c>
-      <c r="AN7" s="25">
-        <v>103.43</v>
-      </c>
-      <c r="AO7" s="25">
-        <v>103.29</v>
-      </c>
-      <c r="AP7" s="25">
-        <v>102.27</v>
-      </c>
       <c r="AQ7" s="25">
-        <v>102.45</v>
+        <v>102.58</v>
       </c>
       <c r="AR7" s="25">
-        <v>103.28</v>
+        <v>103.42</v>
       </c>
       <c r="AS7" s="25">
-        <v>103.71</v>
+        <v>103.87</v>
       </c>
       <c r="AT7" s="25">
-        <v>103.97</v>
+        <v>104.15</v>
       </c>
       <c r="AU7" s="25">
-        <v>104.47</v>
+        <v>104.67</v>
       </c>
       <c r="AV7" s="25">
-        <v>105.31</v>
+        <v>105.52</v>
       </c>
       <c r="AW7" s="25">
-        <v>105.74</v>
+        <v>105.95</v>
       </c>
       <c r="AX7" s="25">
-        <v>106.16</v>
+        <v>106.39</v>
       </c>
       <c r="AY7" s="25">
+        <v>106.84</v>
+      </c>
+      <c r="AZ7" s="25">
+        <v>106.95</v>
+      </c>
+      <c r="BA7" s="25">
+        <v>105.72</v>
+      </c>
+      <c r="BB7" s="25">
+        <v>100.21</v>
+      </c>
+      <c r="BC7" s="25">
+        <v>95.74</v>
+      </c>
+      <c r="BD7" s="25">
+        <v>98.37</v>
+      </c>
+      <c r="BE7" s="25">
+        <v>101.85</v>
+      </c>
+      <c r="BF7" s="25">
+        <v>103.31</v>
+      </c>
+      <c r="BG7" s="25">
+        <v>103.66</v>
+      </c>
+      <c r="BH7" s="25">
+        <v>104.1</v>
+      </c>
+      <c r="BI7" s="25">
+        <v>104.7</v>
+      </c>
+      <c r="BJ7" s="25">
+        <v>105.19</v>
+      </c>
+      <c r="BK7" s="25">
+        <v>105.72</v>
+      </c>
+      <c r="BL7" s="25">
+        <v>106.2</v>
+      </c>
+      <c r="BM7" s="25">
         <v>106.6</v>
       </c>
-      <c r="AZ7" s="25">
-        <v>106.71</v>
-      </c>
-      <c r="BA7" s="25">
-        <v>105.47</v>
-      </c>
-      <c r="BB7" s="25">
-        <v>99.95</v>
-      </c>
-      <c r="BC7" s="25">
-        <v>95.4</v>
-      </c>
-      <c r="BD7" s="25">
-        <v>97.9</v>
-      </c>
-      <c r="BE7" s="25">
-        <v>101.35</v>
-      </c>
-      <c r="BF7" s="25">
-        <v>102.79</v>
-      </c>
-      <c r="BG7" s="25">
-        <v>103.17</v>
-      </c>
-      <c r="BH7" s="25">
-        <v>103.92</v>
-      </c>
-      <c r="BI7" s="25">
-        <v>104.75</v>
-      </c>
-      <c r="BJ7" s="25">
-        <v>104.77</v>
-      </c>
-      <c r="BK7" s="25">
-        <v>104.94</v>
-      </c>
-      <c r="BL7" s="25">
-        <v>105.33</v>
-      </c>
-      <c r="BM7" s="25">
-        <v>105.67</v>
-      </c>
       <c r="BN7" s="25">
-        <v>105.57</v>
+        <v>106.57</v>
       </c>
       <c r="BO7" s="25">
-        <v>105.49</v>
+        <v>106.37</v>
       </c>
       <c r="BP7" s="25">
-        <v>104.58</v>
+        <v>104.29</v>
       </c>
       <c r="BQ7" s="25">
-        <v>102.65</v>
+        <v>103.22</v>
       </c>
       <c r="BR7" s="25">
-        <v>102.1</v>
+        <v>103.56</v>
       </c>
       <c r="BS7" s="25">
-        <v>101.99</v>
+        <v>103.63</v>
       </c>
       <c r="BT7" s="25">
-        <v>100.94</v>
+        <v>103.13</v>
       </c>
       <c r="BU7" s="25">
-        <v>98.65</v>
-      </c>
-      <c r="BV7" s="25"/>
-      <c r="BW7" s="25"/>
+        <v>101.42</v>
+      </c>
+      <c r="BV7" s="25">
+        <v>100.51</v>
+      </c>
+      <c r="BW7" s="25">
+        <v>100.17</v>
+      </c>
       <c r="BX7" s="25"/>
       <c r="BY7" s="25"/>
       <c r="BZ7" s="25"/>
@@ -2123,7 +2134,7 @@
         <v>95.49</v>
       </c>
       <c r="E8" s="25">
-        <v>97.24</v>
+        <v>97.25</v>
       </c>
       <c r="F8" s="25">
         <v>98.08</v>
@@ -2138,13 +2149,13 @@
         <v>99.77</v>
       </c>
       <c r="J8" s="25">
-        <v>100.12</v>
+        <v>100.13</v>
       </c>
       <c r="K8" s="25">
-        <v>100.29</v>
+        <v>100.3</v>
       </c>
       <c r="L8" s="25">
-        <v>100.15</v>
+        <v>100.16</v>
       </c>
       <c r="M8" s="25">
         <v>100</v>
@@ -2186,151 +2197,155 @@
         <v>92.34</v>
       </c>
       <c r="Z8" s="25">
-        <v>93.15</v>
+        <v>93.16</v>
       </c>
       <c r="AA8" s="25">
         <v>93.39</v>
       </c>
       <c r="AB8" s="25">
-        <v>93.04</v>
+        <v>93.05</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.58</v>
+        <v>93.61</v>
       </c>
       <c r="AD8" s="25">
-        <v>94.13</v>
+        <v>94.16</v>
       </c>
       <c r="AE8" s="25">
-        <v>94.36</v>
+        <v>94.39</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.86</v>
+        <v>94.89</v>
       </c>
       <c r="AG8" s="25">
-        <v>95.01</v>
+        <v>95.04</v>
       </c>
       <c r="AH8" s="25">
+        <v>94.83</v>
+      </c>
+      <c r="AI8" s="25">
+        <v>94.73</v>
+      </c>
+      <c r="AJ8" s="25">
         <v>94.8</v>
       </c>
-      <c r="AI8" s="25">
-        <v>94.72</v>
-      </c>
-      <c r="AJ8" s="25">
-        <v>94.77</v>
-      </c>
       <c r="AK8" s="25">
-        <v>94.95</v>
+        <v>94.98</v>
       </c>
       <c r="AL8" s="25">
-        <v>95.29</v>
+        <v>95.33</v>
       </c>
       <c r="AM8" s="25">
-        <v>95.87</v>
+        <v>95.91</v>
       </c>
       <c r="AN8" s="25">
-        <v>95.99</v>
+        <v>96.01</v>
       </c>
       <c r="AO8" s="25">
-        <v>95.81</v>
+        <v>95.83</v>
       </c>
       <c r="AP8" s="25">
-        <v>95.13</v>
+        <v>95.15</v>
       </c>
       <c r="AQ8" s="25">
-        <v>95.29</v>
+        <v>95.31</v>
       </c>
       <c r="AR8" s="25">
-        <v>96.34</v>
+        <v>96.37</v>
       </c>
       <c r="AS8" s="25">
-        <v>96.79</v>
+        <v>96.83</v>
       </c>
       <c r="AT8" s="25">
-        <v>96.87</v>
+        <v>96.93</v>
       </c>
       <c r="AU8" s="25">
-        <v>97.28</v>
+        <v>97.35</v>
       </c>
       <c r="AV8" s="25">
-        <v>97.94</v>
+        <v>98</v>
       </c>
       <c r="AW8" s="25">
-        <v>98.25</v>
+        <v>98.3</v>
       </c>
       <c r="AX8" s="25">
-        <v>98.6</v>
+        <v>98.66</v>
       </c>
       <c r="AY8" s="25">
-        <v>98.97</v>
+        <v>99.03</v>
       </c>
       <c r="AZ8" s="25">
-        <v>99</v>
+        <v>99.07</v>
       </c>
       <c r="BA8" s="25">
-        <v>97.94</v>
+        <v>98.01</v>
       </c>
       <c r="BB8" s="25">
-        <v>93.44</v>
+        <v>93.51</v>
       </c>
       <c r="BC8" s="25">
-        <v>90.8</v>
+        <v>90.89</v>
       </c>
       <c r="BD8" s="25">
-        <v>92.77</v>
+        <v>92.86</v>
       </c>
       <c r="BE8" s="25">
-        <v>95.12</v>
+        <v>95.22</v>
       </c>
       <c r="BF8" s="25">
-        <v>96.27</v>
+        <v>96.39</v>
       </c>
       <c r="BG8" s="25">
-        <v>96.86</v>
+        <v>96.94</v>
       </c>
       <c r="BH8" s="25">
-        <v>97.93</v>
+        <v>97.57</v>
       </c>
       <c r="BI8" s="25">
-        <v>98.72</v>
+        <v>98.11</v>
       </c>
       <c r="BJ8" s="25">
-        <v>98.69</v>
+        <v>98.53</v>
       </c>
       <c r="BK8" s="25">
-        <v>99.2</v>
+        <v>99.37</v>
       </c>
       <c r="BL8" s="25">
+        <v>99.45</v>
+      </c>
+      <c r="BM8" s="25">
+        <v>99.99</v>
+      </c>
+      <c r="BN8" s="25">
+        <v>100.32</v>
+      </c>
+      <c r="BO8" s="25">
+        <v>100.6</v>
+      </c>
+      <c r="BP8" s="25">
+        <v>99.6</v>
+      </c>
+      <c r="BQ8" s="25">
+        <v>98.88</v>
+      </c>
+      <c r="BR8" s="25">
         <v>99.28</v>
       </c>
-      <c r="BM8" s="25">
-        <v>99.8</v>
-      </c>
-      <c r="BN8" s="25">
-        <v>100.14</v>
-      </c>
-      <c r="BO8" s="25">
-        <v>100.49</v>
-      </c>
-      <c r="BP8" s="25">
-        <v>100.17</v>
-      </c>
-      <c r="BQ8" s="25">
-        <v>99.14</v>
-      </c>
-      <c r="BR8" s="25">
-        <v>99.09</v>
-      </c>
       <c r="BS8" s="25">
-        <v>99.51</v>
+        <v>99.74</v>
       </c>
       <c r="BT8" s="25">
-        <v>99.36</v>
+        <v>99.89</v>
       </c>
       <c r="BU8" s="25">
-        <v>98.92</v>
-      </c>
-      <c r="BV8" s="25"/>
-      <c r="BW8" s="25"/>
+        <v>99.88</v>
+      </c>
+      <c r="BV8" s="25">
+        <v>99.74</v>
+      </c>
+      <c r="BW8" s="25">
+        <v>100.07</v>
+      </c>
       <c r="BX8" s="25"/>
       <c r="BY8" s="25"/>
       <c r="BZ8" s="25"/>
@@ -2385,10 +2400,10 @@
         <v>95.59</v>
       </c>
       <c r="Q9" s="25">
-        <v>94.66</v>
+        <v>94.65</v>
       </c>
       <c r="R9" s="25">
-        <v>94.77</v>
+        <v>94.76</v>
       </c>
       <c r="S9" s="25">
         <v>95.04</v>
@@ -2421,142 +2436,146 @@
         <v>95.96</v>
       </c>
       <c r="AC9" s="25">
-        <v>96.6</v>
+        <v>96.63</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.9</v>
+        <v>97.91</v>
       </c>
       <c r="AE9" s="25">
-        <v>97.84</v>
+        <v>97.85</v>
       </c>
       <c r="AF9" s="25">
-        <v>97.76</v>
+        <v>97.77</v>
       </c>
       <c r="AG9" s="25">
-        <v>97.99</v>
+        <v>98</v>
       </c>
       <c r="AH9" s="25">
-        <v>98</v>
+        <v>98.01</v>
       </c>
       <c r="AI9" s="25">
-        <v>97.81</v>
+        <v>97.8</v>
       </c>
       <c r="AJ9" s="25">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="AK9" s="25">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="AL9" s="25">
-        <v>97.79</v>
+        <v>97.8</v>
       </c>
       <c r="AM9" s="25">
-        <v>98</v>
+        <v>98.01</v>
       </c>
       <c r="AN9" s="25">
         <v>98.19</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.92</v>
+        <v>97.91</v>
       </c>
       <c r="AP9" s="25">
-        <v>97.25</v>
+        <v>97.26</v>
       </c>
       <c r="AQ9" s="25">
         <v>97.47</v>
       </c>
       <c r="AR9" s="25">
-        <v>98.16</v>
+        <v>98.17</v>
       </c>
       <c r="AS9" s="25">
-        <v>98.23</v>
+        <v>98.24</v>
       </c>
       <c r="AT9" s="25">
-        <v>98.24</v>
+        <v>98.25</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.43</v>
+        <v>98.45</v>
       </c>
       <c r="AV9" s="25">
-        <v>99.1</v>
+        <v>99.12</v>
       </c>
       <c r="AW9" s="25">
-        <v>99.31</v>
+        <v>99.33</v>
       </c>
       <c r="AX9" s="25">
-        <v>99.49</v>
+        <v>99.52</v>
       </c>
       <c r="AY9" s="25">
-        <v>100.06</v>
+        <v>100.1</v>
       </c>
       <c r="AZ9" s="25">
-        <v>100.07</v>
+        <v>100.09</v>
       </c>
       <c r="BA9" s="25">
+        <v>99.6</v>
+      </c>
+      <c r="BB9" s="25">
+        <v>97.11</v>
+      </c>
+      <c r="BC9" s="25">
+        <v>94.91</v>
+      </c>
+      <c r="BD9" s="25">
+        <v>95.14</v>
+      </c>
+      <c r="BE9" s="25">
+        <v>96.26</v>
+      </c>
+      <c r="BF9" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="BG9" s="25">
+        <v>97.22</v>
+      </c>
+      <c r="BH9" s="25">
+        <v>97.25</v>
+      </c>
+      <c r="BI9" s="25">
+        <v>98.06</v>
+      </c>
+      <c r="BJ9" s="25">
+        <v>98.72</v>
+      </c>
+      <c r="BK9" s="25">
+        <v>99.39</v>
+      </c>
+      <c r="BL9" s="25">
+        <v>99.5</v>
+      </c>
+      <c r="BM9" s="25">
+        <v>99.69</v>
+      </c>
+      <c r="BN9" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="BO9" s="25">
         <v>99.57</v>
       </c>
-      <c r="BB9" s="25">
-        <v>97.09</v>
-      </c>
-      <c r="BC9" s="25">
-        <v>94.89</v>
-      </c>
-      <c r="BD9" s="25">
-        <v>95.12</v>
-      </c>
-      <c r="BE9" s="25">
-        <v>96.23</v>
-      </c>
-      <c r="BF9" s="25">
-        <v>96.73</v>
-      </c>
-      <c r="BG9" s="25">
-        <v>97.2</v>
-      </c>
-      <c r="BH9" s="25">
-        <v>97.68</v>
-      </c>
-      <c r="BI9" s="25">
-        <v>98.83</v>
-      </c>
-      <c r="BJ9" s="25">
-        <v>99.09</v>
-      </c>
-      <c r="BK9" s="25">
-        <v>99.4</v>
-      </c>
-      <c r="BL9" s="25">
-        <v>99.49</v>
-      </c>
-      <c r="BM9" s="25">
-        <v>99.66</v>
-      </c>
-      <c r="BN9" s="25">
-        <v>99.8</v>
-      </c>
-      <c r="BO9" s="25">
-        <v>99.59</v>
-      </c>
       <c r="BP9" s="25">
-        <v>99.47</v>
+        <v>99.11</v>
       </c>
       <c r="BQ9" s="25">
-        <v>99.36</v>
+        <v>98.95</v>
       </c>
       <c r="BR9" s="25">
-        <v>99.54</v>
+        <v>99.29</v>
       </c>
       <c r="BS9" s="25">
-        <v>99.75</v>
+        <v>99.41</v>
       </c>
       <c r="BT9" s="25">
-        <v>100.02</v>
+        <v>99.78</v>
       </c>
       <c r="BU9" s="25">
-        <v>100.75</v>
-      </c>
-      <c r="BV9" s="25"/>
-      <c r="BW9" s="25"/>
+        <v>100.22</v>
+      </c>
+      <c r="BV9" s="25">
+        <v>100.6</v>
+      </c>
+      <c r="BW9" s="25">
+        <v>101.47</v>
+      </c>
       <c r="BX9" s="25"/>
       <c r="BY9" s="25"/>
       <c r="BZ9" s="25"/>
@@ -2569,10 +2588,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="25">
-        <v>86.99</v>
+        <v>87</v>
       </c>
       <c r="D10" s="25">
-        <v>91.67</v>
+        <v>91.68</v>
       </c>
       <c r="E10" s="25">
         <v>94.36</v>
@@ -2602,187 +2621,191 @@
         <v>100</v>
       </c>
       <c r="N10" s="25">
-        <v>98.78</v>
+        <v>98.79</v>
       </c>
       <c r="O10" s="25">
-        <v>94.1</v>
+        <v>94.11</v>
       </c>
       <c r="P10" s="25">
         <v>90.97</v>
       </c>
       <c r="Q10" s="25">
-        <v>89.19</v>
+        <v>89.2</v>
       </c>
       <c r="R10" s="25">
-        <v>88.92</v>
+        <v>88.93</v>
       </c>
       <c r="S10" s="25">
-        <v>89.57</v>
+        <v>89.58</v>
       </c>
       <c r="T10" s="25">
-        <v>90.78</v>
+        <v>90.79</v>
       </c>
       <c r="U10" s="25">
-        <v>92.42</v>
+        <v>92.43</v>
       </c>
       <c r="V10" s="25">
-        <v>94.33</v>
+        <v>94.34</v>
       </c>
       <c r="W10" s="25">
-        <v>94.88</v>
+        <v>94.89</v>
       </c>
       <c r="X10" s="25">
-        <v>95.45</v>
+        <v>95.46</v>
       </c>
       <c r="Y10" s="25">
-        <v>96.84</v>
+        <v>96.85</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.54</v>
+        <v>96.55</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.8</v>
+        <v>97.82</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.86</v>
+        <v>100.95</v>
       </c>
       <c r="AD10" s="25">
-        <v>102.17</v>
+        <v>102.31</v>
       </c>
       <c r="AE10" s="25">
-        <v>102.4</v>
+        <v>102.54</v>
       </c>
       <c r="AF10" s="25">
-        <v>102.97</v>
+        <v>103.11</v>
       </c>
       <c r="AG10" s="25">
-        <v>103.13</v>
+        <v>103.27</v>
       </c>
       <c r="AH10" s="25">
-        <v>103.43</v>
+        <v>103.57</v>
       </c>
       <c r="AI10" s="25">
+        <v>103.81</v>
+      </c>
+      <c r="AJ10" s="25">
+        <v>104.12</v>
+      </c>
+      <c r="AK10" s="25">
+        <v>104.31</v>
+      </c>
+      <c r="AL10" s="25">
+        <v>104.75</v>
+      </c>
+      <c r="AM10" s="25">
+        <v>105.33</v>
+      </c>
+      <c r="AN10" s="25">
+        <v>105.42</v>
+      </c>
+      <c r="AO10" s="25">
+        <v>105.35</v>
+      </c>
+      <c r="AP10" s="25">
+        <v>103.94</v>
+      </c>
+      <c r="AQ10" s="25">
+        <v>103.8</v>
+      </c>
+      <c r="AR10" s="25">
+        <v>104.71</v>
+      </c>
+      <c r="AS10" s="25">
+        <v>105.15</v>
+      </c>
+      <c r="AT10" s="25">
+        <v>105.12</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>105.58</v>
+      </c>
+      <c r="AV10" s="25">
+        <v>106.51</v>
+      </c>
+      <c r="AW10" s="25">
+        <v>107.14</v>
+      </c>
+      <c r="AX10" s="25">
+        <v>107.36</v>
+      </c>
+      <c r="AY10" s="25">
+        <v>107.55</v>
+      </c>
+      <c r="AZ10" s="25">
+        <v>107.45</v>
+      </c>
+      <c r="BA10" s="25">
+        <v>106.06</v>
+      </c>
+      <c r="BB10" s="25">
+        <v>100.38</v>
+      </c>
+      <c r="BC10" s="25">
+        <v>95.68</v>
+      </c>
+      <c r="BD10" s="25">
+        <v>98.16</v>
+      </c>
+      <c r="BE10" s="25">
+        <v>101.69</v>
+      </c>
+      <c r="BF10" s="25">
+        <v>103.1</v>
+      </c>
+      <c r="BG10" s="25">
+        <v>103.51</v>
+      </c>
+      <c r="BH10" s="25">
+        <v>104.02</v>
+      </c>
+      <c r="BI10" s="25">
+        <v>104.57</v>
+      </c>
+      <c r="BJ10" s="25">
+        <v>104.89</v>
+      </c>
+      <c r="BK10" s="25">
+        <v>105.14</v>
+      </c>
+      <c r="BL10" s="25">
+        <v>105.77</v>
+      </c>
+      <c r="BM10" s="25">
+        <v>106.14</v>
+      </c>
+      <c r="BN10" s="25">
+        <v>105.85</v>
+      </c>
+      <c r="BO10" s="25">
+        <v>105.57</v>
+      </c>
+      <c r="BP10" s="25">
         <v>103.67</v>
       </c>
-      <c r="AJ10" s="25">
-        <v>103.97</v>
-      </c>
-      <c r="AK10" s="25">
-        <v>104.16</v>
-      </c>
-      <c r="AL10" s="25">
-        <v>104.6</v>
-      </c>
-      <c r="AM10" s="25">
-        <v>105.17</v>
-      </c>
-      <c r="AN10" s="25">
-        <v>105.27</v>
-      </c>
-      <c r="AO10" s="25">
-        <v>105.22</v>
-      </c>
-      <c r="AP10" s="25">
-        <v>103.8</v>
-      </c>
-      <c r="AQ10" s="25">
-        <v>103.64</v>
-      </c>
-      <c r="AR10" s="25">
-        <v>104.55</v>
-      </c>
-      <c r="AS10" s="25">
-        <v>104.96</v>
-      </c>
-      <c r="AT10" s="25">
-        <v>104.91</v>
-      </c>
-      <c r="AU10" s="25">
-        <v>105.35</v>
-      </c>
-      <c r="AV10" s="25">
-        <v>106.28</v>
-      </c>
-      <c r="AW10" s="25">
-        <v>106.89</v>
-      </c>
-      <c r="AX10" s="25">
-        <v>107.09</v>
-      </c>
-      <c r="AY10" s="25">
-        <v>107.28</v>
-      </c>
-      <c r="AZ10" s="25">
-        <v>107.16</v>
-      </c>
-      <c r="BA10" s="25">
-        <v>105.75</v>
-      </c>
-      <c r="BB10" s="25">
-        <v>100.07</v>
-      </c>
-      <c r="BC10" s="25">
-        <v>95.26</v>
-      </c>
-      <c r="BD10" s="25">
-        <v>97.58</v>
-      </c>
-      <c r="BE10" s="25">
-        <v>101.08</v>
-      </c>
-      <c r="BF10" s="25">
-        <v>102.47</v>
-      </c>
-      <c r="BG10" s="25">
-        <v>102.9</v>
-      </c>
-      <c r="BH10" s="25">
-        <v>103.64</v>
-      </c>
-      <c r="BI10" s="25">
-        <v>104.36</v>
-      </c>
-      <c r="BJ10" s="25">
-        <v>104.25</v>
-      </c>
-      <c r="BK10" s="25">
-        <v>104.18</v>
-      </c>
-      <c r="BL10" s="25">
-        <v>104.72</v>
-      </c>
-      <c r="BM10" s="25">
-        <v>105.03</v>
-      </c>
-      <c r="BN10" s="25">
-        <v>104.65</v>
-      </c>
-      <c r="BO10" s="25">
-        <v>104.48</v>
-      </c>
-      <c r="BP10" s="25">
-        <v>103.82</v>
-      </c>
       <c r="BQ10" s="25">
-        <v>101.31</v>
+        <v>102.21</v>
       </c>
       <c r="BR10" s="25">
-        <v>100.71</v>
+        <v>102.5</v>
       </c>
       <c r="BS10" s="25">
-        <v>100.54</v>
+        <v>102.66</v>
       </c>
       <c r="BT10" s="25">
-        <v>99.44</v>
+        <v>101.98</v>
       </c>
       <c r="BU10" s="25">
-        <v>96.48</v>
-      </c>
-      <c r="BV10" s="25"/>
-      <c r="BW10" s="25"/>
+        <v>99.58</v>
+      </c>
+      <c r="BV10" s="25">
+        <v>98.43</v>
+      </c>
+      <c r="BW10" s="25">
+        <v>98.1</v>
+      </c>
       <c r="BX10" s="25"/>
       <c r="BY10" s="25"/>
       <c r="BZ10" s="25"/>
@@ -2795,31 +2818,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="25">
-        <v>92.37</v>
+        <v>92.38</v>
       </c>
       <c r="D11" s="25">
-        <v>95.77</v>
+        <v>95.79</v>
       </c>
       <c r="E11" s="25">
-        <v>97.6</v>
+        <v>97.61</v>
       </c>
       <c r="F11" s="25">
-        <v>98.31</v>
+        <v>98.32</v>
       </c>
       <c r="G11" s="25">
-        <v>98.82</v>
+        <v>98.83</v>
       </c>
       <c r="H11" s="25">
-        <v>99.54</v>
+        <v>99.55</v>
       </c>
       <c r="I11" s="25">
-        <v>99.75</v>
+        <v>99.76</v>
       </c>
       <c r="J11" s="25">
-        <v>100.18</v>
+        <v>100.19</v>
       </c>
       <c r="K11" s="25">
-        <v>100.3</v>
+        <v>100.31</v>
       </c>
       <c r="L11" s="25">
         <v>100.09</v>
@@ -2834,181 +2857,185 @@
         <v>92.53</v>
       </c>
       <c r="P11" s="25">
-        <v>89.13</v>
+        <v>89.14</v>
       </c>
       <c r="Q11" s="25">
-        <v>87.75</v>
+        <v>87.76</v>
       </c>
       <c r="R11" s="25">
         <v>87.85</v>
       </c>
       <c r="S11" s="25">
-        <v>88.48</v>
+        <v>88.49</v>
       </c>
       <c r="T11" s="25">
-        <v>89.17</v>
+        <v>89.19</v>
       </c>
       <c r="U11" s="25">
-        <v>89.86</v>
+        <v>89.87</v>
       </c>
       <c r="V11" s="25">
-        <v>90.37</v>
+        <v>90.38</v>
       </c>
       <c r="W11" s="25">
-        <v>90.82</v>
+        <v>90.83</v>
       </c>
       <c r="X11" s="25">
-        <v>91.36</v>
+        <v>91.37</v>
       </c>
       <c r="Y11" s="25">
-        <v>92.44</v>
+        <v>92.45</v>
       </c>
       <c r="Z11" s="25">
-        <v>93.14</v>
+        <v>93.15</v>
       </c>
       <c r="AA11" s="25">
-        <v>93.3</v>
+        <v>93.31</v>
       </c>
       <c r="AB11" s="25">
-        <v>93</v>
+        <v>93.01</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.66</v>
+        <v>93.68</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.81</v>
+        <v>94.84</v>
       </c>
       <c r="AE11" s="25">
-        <v>95.3</v>
+        <v>95.33</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.7</v>
+        <v>95.73</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.83</v>
+        <v>95.86</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.87</v>
+        <v>95.9</v>
       </c>
       <c r="AI11" s="25">
-        <v>96.03</v>
+        <v>96.06</v>
       </c>
       <c r="AJ11" s="25">
-        <v>96.32</v>
+        <v>96.35</v>
       </c>
       <c r="AK11" s="25">
+        <v>96.57</v>
+      </c>
+      <c r="AL11" s="25">
+        <v>96.8</v>
+      </c>
+      <c r="AM11" s="25">
+        <v>97.13</v>
+      </c>
+      <c r="AN11" s="25">
+        <v>97.22</v>
+      </c>
+      <c r="AO11" s="25">
+        <v>97.26</v>
+      </c>
+      <c r="AP11" s="25">
         <v>96.54</v>
       </c>
-      <c r="AL11" s="25">
-        <v>96.76</v>
-      </c>
-      <c r="AM11" s="25">
-        <v>97.08</v>
-      </c>
-      <c r="AN11" s="25">
-        <v>97.2</v>
-      </c>
-      <c r="AO11" s="25">
-        <v>97.25</v>
-      </c>
-      <c r="AP11" s="25">
-        <v>96.53</v>
-      </c>
       <c r="AQ11" s="25">
-        <v>96.37</v>
+        <v>96.36</v>
       </c>
       <c r="AR11" s="25">
-        <v>97.27</v>
+        <v>97.28</v>
       </c>
       <c r="AS11" s="25">
-        <v>97.7</v>
+        <v>97.73</v>
       </c>
       <c r="AT11" s="25">
-        <v>97.5</v>
+        <v>97.54</v>
       </c>
       <c r="AU11" s="25">
-        <v>97.79</v>
+        <v>97.85</v>
       </c>
       <c r="AV11" s="25">
-        <v>98.36</v>
+        <v>98.41</v>
       </c>
       <c r="AW11" s="25">
-        <v>98.89</v>
+        <v>98.94</v>
       </c>
       <c r="AX11" s="25">
-        <v>99.04</v>
+        <v>99.09</v>
       </c>
       <c r="AY11" s="25">
-        <v>99.16</v>
+        <v>99.21</v>
       </c>
       <c r="AZ11" s="25">
-        <v>99.16</v>
+        <v>99.21</v>
       </c>
       <c r="BA11" s="25">
-        <v>98.14</v>
+        <v>98.21</v>
       </c>
       <c r="BB11" s="25">
-        <v>93.56</v>
+        <v>93.64</v>
       </c>
       <c r="BC11" s="25">
-        <v>90.76</v>
+        <v>90.83</v>
       </c>
       <c r="BD11" s="25">
-        <v>93.03</v>
+        <v>93.11</v>
       </c>
       <c r="BE11" s="25">
-        <v>95.38</v>
+        <v>95.47</v>
       </c>
       <c r="BF11" s="25">
-        <v>96.57</v>
+        <v>96.66</v>
       </c>
       <c r="BG11" s="25">
-        <v>97.21</v>
+        <v>97.28</v>
       </c>
       <c r="BH11" s="25">
-        <v>98.34</v>
+        <v>98.09</v>
       </c>
       <c r="BI11" s="25">
-        <v>98.94</v>
+        <v>98.57</v>
       </c>
       <c r="BJ11" s="25">
-        <v>98.57</v>
+        <v>98.48</v>
       </c>
       <c r="BK11" s="25">
-        <v>99.1</v>
+        <v>99.26</v>
       </c>
       <c r="BL11" s="25">
-        <v>99.24</v>
+        <v>99.4</v>
       </c>
       <c r="BM11" s="25">
-        <v>99.65</v>
+        <v>99.84</v>
       </c>
       <c r="BN11" s="25">
-        <v>99.9</v>
+        <v>100.08</v>
       </c>
       <c r="BO11" s="25">
-        <v>100.56</v>
+        <v>100.61</v>
       </c>
       <c r="BP11" s="25">
-        <v>100.2</v>
+        <v>99.55</v>
       </c>
       <c r="BQ11" s="25">
-        <v>98.69</v>
+        <v>98.32</v>
       </c>
       <c r="BR11" s="25">
-        <v>98.96</v>
+        <v>99.07</v>
       </c>
       <c r="BS11" s="25">
-        <v>99.45</v>
+        <v>99.74</v>
       </c>
       <c r="BT11" s="25">
-        <v>99.39</v>
+        <v>99.94</v>
       </c>
       <c r="BU11" s="25">
-        <v>98.52</v>
-      </c>
-      <c r="BV11" s="25"/>
-      <c r="BW11" s="25"/>
+        <v>99.68</v>
+      </c>
+      <c r="BV11" s="25">
+        <v>99.37</v>
+      </c>
+      <c r="BW11" s="25">
+        <v>99.81</v>
+      </c>
       <c r="BX11" s="25"/>
       <c r="BY11" s="25"/>
       <c r="BZ11" s="25"/>
@@ -3057,7 +3084,7 @@
         <v>99.48</v>
       </c>
       <c r="O12" s="25">
-        <v>97.61</v>
+        <v>97.6</v>
       </c>
       <c r="P12" s="25">
         <v>95.95</v>
@@ -3069,16 +3096,16 @@
         <v>94.84</v>
       </c>
       <c r="S12" s="25">
-        <v>94.91</v>
+        <v>94.9</v>
       </c>
       <c r="T12" s="25">
-        <v>95.09</v>
+        <v>95.08</v>
       </c>
       <c r="U12" s="25">
-        <v>95.54</v>
+        <v>95.53</v>
       </c>
       <c r="V12" s="25">
-        <v>95.87</v>
+        <v>95.86</v>
       </c>
       <c r="W12" s="25">
         <v>96.35</v>
@@ -3087,55 +3114,55 @@
         <v>97.09</v>
       </c>
       <c r="Y12" s="25">
-        <v>98.12</v>
+        <v>98.11</v>
       </c>
       <c r="Z12" s="25">
         <v>97.96</v>
       </c>
       <c r="AA12" s="25">
-        <v>97.63</v>
+        <v>97.64</v>
       </c>
       <c r="AB12" s="25">
         <v>96.98</v>
       </c>
       <c r="AC12" s="25">
-        <v>97.2</v>
+        <v>97.22</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.35</v>
+        <v>98.37</v>
       </c>
       <c r="AE12" s="25">
-        <v>98.15</v>
+        <v>98.17</v>
       </c>
       <c r="AF12" s="25">
-        <v>98.19</v>
+        <v>98.21</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.72</v>
+        <v>98.74</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.82</v>
+        <v>98.84</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.77</v>
+        <v>98.79</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.69</v>
+        <v>98.71</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.84</v>
+        <v>98.86</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.66</v>
+        <v>98.67</v>
       </c>
       <c r="AM12" s="25">
-        <v>98.87</v>
+        <v>98.88</v>
       </c>
       <c r="AN12" s="25">
         <v>99.13</v>
       </c>
       <c r="AO12" s="25">
-        <v>99.03</v>
+        <v>99.01</v>
       </c>
       <c r="AP12" s="25">
         <v>98.15</v>
@@ -3153,88 +3180,92 @@
         <v>99</v>
       </c>
       <c r="AU12" s="25">
-        <v>99</v>
+        <v>99.02</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.51</v>
+        <v>99.53</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.94</v>
+        <v>99.96</v>
       </c>
       <c r="AX12" s="25">
-        <v>100.17</v>
+        <v>100.19</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.71</v>
+        <v>100.75</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.7</v>
+        <v>100.74</v>
       </c>
       <c r="BA12" s="25">
-        <v>100.38</v>
+        <v>100.41</v>
       </c>
       <c r="BB12" s="25">
-        <v>98.13</v>
+        <v>98.17</v>
       </c>
       <c r="BC12" s="25">
-        <v>95.36</v>
+        <v>95.4</v>
       </c>
       <c r="BD12" s="25">
-        <v>95.53</v>
+        <v>95.57</v>
       </c>
       <c r="BE12" s="25">
-        <v>96.71</v>
+        <v>96.76</v>
       </c>
       <c r="BF12" s="25">
-        <v>97.15</v>
+        <v>97.17</v>
       </c>
       <c r="BG12" s="25">
         <v>97.59</v>
       </c>
       <c r="BH12" s="25">
-        <v>97.92</v>
+        <v>97.51</v>
       </c>
       <c r="BI12" s="25">
-        <v>99.21</v>
+        <v>98.43</v>
       </c>
       <c r="BJ12" s="25">
-        <v>99.35</v>
+        <v>98.93</v>
       </c>
       <c r="BK12" s="25">
-        <v>99.7</v>
+        <v>99.66</v>
       </c>
       <c r="BL12" s="25">
-        <v>99.73</v>
+        <v>99.71</v>
       </c>
       <c r="BM12" s="25">
-        <v>99.97</v>
+        <v>99.96</v>
       </c>
       <c r="BN12" s="25">
-        <v>100.02</v>
+        <v>99.99</v>
       </c>
       <c r="BO12" s="25">
-        <v>99.91</v>
+        <v>99.82</v>
       </c>
       <c r="BP12" s="25">
-        <v>99.82</v>
+        <v>99.42</v>
       </c>
       <c r="BQ12" s="25">
-        <v>99.66</v>
+        <v>99.2</v>
       </c>
       <c r="BR12" s="25">
-        <v>99.82</v>
+        <v>99.5</v>
       </c>
       <c r="BS12" s="25">
-        <v>99.97</v>
+        <v>99.54</v>
       </c>
       <c r="BT12" s="25">
-        <v>100.42</v>
+        <v>100</v>
       </c>
       <c r="BU12" s="25">
-        <v>101.55</v>
-      </c>
-      <c r="BV12" s="25"/>
-      <c r="BW12" s="25"/>
+        <v>100.49</v>
+      </c>
+      <c r="BV12" s="25">
+        <v>100.71</v>
+      </c>
+      <c r="BW12" s="25">
+        <v>101.71</v>
+      </c>
       <c r="BX12" s="25"/>
       <c r="BY12" s="25"/>
       <c r="BZ12" s="25"/>
@@ -3250,16 +3281,16 @@
         <v>87.32</v>
       </c>
       <c r="D13" s="25">
-        <v>90.86</v>
+        <v>90.87</v>
       </c>
       <c r="E13" s="25">
-        <v>93.67</v>
+        <v>93.68</v>
       </c>
       <c r="F13" s="25">
-        <v>95.13</v>
+        <v>95.14</v>
       </c>
       <c r="G13" s="25">
-        <v>95.99</v>
+        <v>96</v>
       </c>
       <c r="H13" s="25">
         <v>97.42</v>
@@ -3274,7 +3305,7 @@
         <v>99.03</v>
       </c>
       <c r="L13" s="25">
-        <v>100.02</v>
+        <v>100.01</v>
       </c>
       <c r="M13" s="25">
         <v>100</v>
@@ -3301,7 +3332,7 @@
         <v>90.61</v>
       </c>
       <c r="U13" s="25">
-        <v>91.67</v>
+        <v>91.68</v>
       </c>
       <c r="V13" s="25">
         <v>92.33</v>
@@ -3313,154 +3344,158 @@
         <v>93.37</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.75</v>
+        <v>94.76</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.5</v>
+        <v>95.51</v>
       </c>
       <c r="AA13" s="25">
-        <v>96.07</v>
+        <v>96.08</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.96</v>
+        <v>96.98</v>
       </c>
       <c r="AC13" s="25">
-        <v>99.12</v>
+        <v>99.2</v>
       </c>
       <c r="AD13" s="25">
-        <v>99.39</v>
+        <v>99.49</v>
       </c>
       <c r="AE13" s="25">
-        <v>99.08</v>
+        <v>99.19</v>
       </c>
       <c r="AF13" s="25">
-        <v>99.23</v>
+        <v>99.33</v>
       </c>
       <c r="AG13" s="25">
-        <v>99.07</v>
+        <v>99.18</v>
       </c>
       <c r="AH13" s="25">
-        <v>98.28</v>
+        <v>98.39</v>
       </c>
       <c r="AI13" s="25">
-        <v>97.64</v>
+        <v>97.62</v>
       </c>
       <c r="AJ13" s="25">
-        <v>97.31</v>
+        <v>97.42</v>
       </c>
       <c r="AK13" s="25">
-        <v>97.6</v>
+        <v>97.72</v>
       </c>
       <c r="AL13" s="25">
-        <v>97.82</v>
+        <v>97.94</v>
       </c>
       <c r="AM13" s="25">
-        <v>98.29</v>
+        <v>98.42</v>
       </c>
       <c r="AN13" s="25">
-        <v>98.5</v>
+        <v>98.61</v>
       </c>
       <c r="AO13" s="25">
-        <v>98.51</v>
+        <v>98.62</v>
       </c>
       <c r="AP13" s="25">
-        <v>98.01</v>
+        <v>98.12</v>
       </c>
       <c r="AQ13" s="25">
-        <v>98.47</v>
+        <v>98.59</v>
       </c>
       <c r="AR13" s="25">
-        <v>99.27</v>
+        <v>99.41</v>
       </c>
       <c r="AS13" s="25">
-        <v>99.7</v>
+        <v>99.86</v>
       </c>
       <c r="AT13" s="25">
-        <v>100.66</v>
+        <v>100.84</v>
       </c>
       <c r="AU13" s="25">
-        <v>101.59</v>
+        <v>101.79</v>
       </c>
       <c r="AV13" s="25">
-        <v>102.8</v>
+        <v>103.01</v>
       </c>
       <c r="AW13" s="25">
-        <v>103.62</v>
+        <v>103.83</v>
       </c>
       <c r="AX13" s="25">
-        <v>104.35</v>
+        <v>104.57</v>
       </c>
       <c r="AY13" s="25">
+        <v>105.22</v>
+      </c>
+      <c r="AZ13" s="25">
+        <v>105.67</v>
+      </c>
+      <c r="BA13" s="25">
+        <v>104.96</v>
+      </c>
+      <c r="BB13" s="25">
+        <v>100.38</v>
+      </c>
+      <c r="BC13" s="25">
+        <v>96.32</v>
+      </c>
+      <c r="BD13" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="BE13" s="25">
+        <v>100.57</v>
+      </c>
+      <c r="BF13" s="25">
+        <v>102.14</v>
+      </c>
+      <c r="BG13" s="25">
+        <v>102.65</v>
+      </c>
+      <c r="BH13" s="25">
+        <v>103.49</v>
+      </c>
+      <c r="BI13" s="25">
+        <v>103.6</v>
+      </c>
+      <c r="BJ13" s="25">
+        <v>104.02</v>
+      </c>
+      <c r="BK13" s="25">
         <v>104.99</v>
       </c>
-      <c r="AZ13" s="25">
-        <v>105.43</v>
-      </c>
-      <c r="BA13" s="25">
-        <v>104.71</v>
-      </c>
-      <c r="BB13" s="25">
-        <v>100.12</v>
-      </c>
-      <c r="BC13" s="25">
-        <v>95.98</v>
-      </c>
-      <c r="BD13" s="25">
-        <v>97.01</v>
-      </c>
-      <c r="BE13" s="25">
-        <v>100.01</v>
-      </c>
-      <c r="BF13" s="25">
-        <v>101.57</v>
-      </c>
-      <c r="BG13" s="25">
-        <v>102.09</v>
-      </c>
-      <c r="BH13" s="25">
-        <v>103.24</v>
-      </c>
-      <c r="BI13" s="25">
-        <v>103.61</v>
-      </c>
-      <c r="BJ13" s="25">
-        <v>103.54</v>
-      </c>
-      <c r="BK13" s="25">
-        <v>104.12</v>
-      </c>
       <c r="BL13" s="25">
-        <v>104.62</v>
+        <v>105.61</v>
       </c>
       <c r="BM13" s="25">
-        <v>104.9</v>
+        <v>105.93</v>
       </c>
       <c r="BN13" s="25">
-        <v>105.11</v>
+        <v>106.18</v>
       </c>
       <c r="BO13" s="25">
-        <v>105.08</v>
+        <v>106.05</v>
       </c>
       <c r="BP13" s="25">
-        <v>104.18</v>
+        <v>104</v>
       </c>
       <c r="BQ13" s="25">
-        <v>102.13</v>
+        <v>102.79</v>
       </c>
       <c r="BR13" s="25">
-        <v>101.11</v>
+        <v>102.62</v>
       </c>
       <c r="BS13" s="25">
-        <v>100.97</v>
+        <v>102.6</v>
       </c>
       <c r="BT13" s="25">
-        <v>100.06</v>
+        <v>102.35</v>
       </c>
       <c r="BU13" s="25">
-        <v>97.33</v>
-      </c>
-      <c r="BV13" s="25"/>
-      <c r="BW13" s="25"/>
+        <v>100.21</v>
+      </c>
+      <c r="BV13" s="25">
+        <v>99.29</v>
+      </c>
+      <c r="BW13" s="25">
+        <v>98.82</v>
+      </c>
       <c r="BX13" s="25"/>
       <c r="BY13" s="25"/>
       <c r="BZ13" s="25"/>
@@ -3473,10 +3508,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="25">
-        <v>90.52</v>
+        <v>90.53</v>
       </c>
       <c r="D14" s="25">
-        <v>93.69</v>
+        <v>93.7</v>
       </c>
       <c r="E14" s="25">
         <v>96</v>
@@ -3497,7 +3532,7 @@
         <v>100.08</v>
       </c>
       <c r="K14" s="25">
-        <v>100.19</v>
+        <v>100.2</v>
       </c>
       <c r="L14" s="25">
         <v>100.12</v>
@@ -3509,7 +3544,7 @@
         <v>98.34</v>
       </c>
       <c r="O14" s="25">
-        <v>93.18</v>
+        <v>93.17</v>
       </c>
       <c r="P14" s="25">
         <v>89.69</v>
@@ -3530,7 +3565,7 @@
         <v>89.64</v>
       </c>
       <c r="V14" s="25">
-        <v>90.19</v>
+        <v>90.18</v>
       </c>
       <c r="W14" s="25">
         <v>90.41</v>
@@ -3551,142 +3586,146 @@
         <v>92.06</v>
       </c>
       <c r="AC14" s="25">
-        <v>92.35</v>
+        <v>92.37</v>
       </c>
       <c r="AD14" s="25">
-        <v>91.37</v>
+        <v>91.4</v>
       </c>
       <c r="AE14" s="25">
-        <v>90.93</v>
+        <v>90.97</v>
       </c>
       <c r="AF14" s="25">
-        <v>91.7</v>
+        <v>91.73</v>
       </c>
       <c r="AG14" s="25">
-        <v>91.73</v>
+        <v>91.77</v>
       </c>
       <c r="AH14" s="25">
-        <v>90.69</v>
+        <v>90.72</v>
       </c>
       <c r="AI14" s="25">
-        <v>89.91</v>
+        <v>89.85</v>
       </c>
       <c r="AJ14" s="25">
-        <v>89.48</v>
+        <v>89.51</v>
       </c>
       <c r="AK14" s="25">
-        <v>89.64</v>
+        <v>89.67</v>
       </c>
       <c r="AL14" s="25">
-        <v>90.15</v>
+        <v>90.18</v>
       </c>
       <c r="AM14" s="25">
-        <v>90.82</v>
+        <v>90.85</v>
       </c>
       <c r="AN14" s="25">
-        <v>91.02</v>
+        <v>91.04</v>
       </c>
       <c r="AO14" s="25">
-        <v>90.9</v>
+        <v>90.92</v>
       </c>
       <c r="AP14" s="25">
-        <v>90.19</v>
+        <v>90.2</v>
       </c>
       <c r="AQ14" s="25">
-        <v>90.48</v>
+        <v>90.5</v>
       </c>
       <c r="AR14" s="25">
+        <v>92.05</v>
+      </c>
+      <c r="AS14" s="25">
+        <v>92.69</v>
+      </c>
+      <c r="AT14" s="25">
+        <v>93.41</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>94.14</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>95.25</v>
+      </c>
+      <c r="AW14" s="25">
+        <v>95.6</v>
+      </c>
+      <c r="AX14" s="25">
+        <v>96.39</v>
+      </c>
+      <c r="AY14" s="25">
+        <v>96.82</v>
+      </c>
+      <c r="AZ14" s="25">
+        <v>97.2</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>96.47</v>
+      </c>
+      <c r="BB14" s="25">
         <v>92.03</v>
       </c>
-      <c r="AS14" s="25">
-        <v>92.67</v>
-      </c>
-      <c r="AT14" s="25">
-        <v>93.37</v>
-      </c>
-      <c r="AU14" s="25">
+      <c r="BC14" s="25">
+        <v>89.49</v>
+      </c>
+      <c r="BD14" s="25">
+        <v>90.46</v>
+      </c>
+      <c r="BE14" s="25">
+        <v>92.79</v>
+      </c>
+      <c r="BF14" s="25">
         <v>94.09</v>
       </c>
-      <c r="AV14" s="25">
-        <v>95.2</v>
-      </c>
-      <c r="AW14" s="25">
-        <v>95.56</v>
-      </c>
-      <c r="AX14" s="25">
-        <v>96.35</v>
-      </c>
-      <c r="AY14" s="25">
-        <v>96.78</v>
-      </c>
-      <c r="AZ14" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="BA14" s="25">
-        <v>96.41</v>
-      </c>
-      <c r="BB14" s="25">
-        <v>91.96</v>
-      </c>
-      <c r="BC14" s="25">
-        <v>89.41</v>
-      </c>
-      <c r="BD14" s="25">
-        <v>90.35</v>
-      </c>
-      <c r="BE14" s="25">
-        <v>92.69</v>
-      </c>
-      <c r="BF14" s="25">
-        <v>93.96</v>
-      </c>
       <c r="BG14" s="25">
-        <v>94.73</v>
+        <v>94.81</v>
       </c>
       <c r="BH14" s="25">
-        <v>96.36</v>
+        <v>95.94</v>
       </c>
       <c r="BI14" s="25">
-        <v>96.87</v>
+        <v>96.18</v>
       </c>
       <c r="BJ14" s="25">
-        <v>97.09</v>
+        <v>96.92</v>
       </c>
       <c r="BK14" s="25">
-        <v>97.79</v>
+        <v>97.97</v>
       </c>
       <c r="BL14" s="25">
-        <v>97.94</v>
+        <v>98.1</v>
       </c>
       <c r="BM14" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="BN14" s="25">
+        <v>99.22</v>
+      </c>
+      <c r="BO14" s="25">
+        <v>99.29</v>
+      </c>
+      <c r="BP14" s="25">
+        <v>98.37</v>
+      </c>
+      <c r="BQ14" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="BR14" s="25">
+        <v>97.53</v>
+      </c>
+      <c r="BS14" s="25">
+        <v>98.11</v>
+      </c>
+      <c r="BT14" s="25">
         <v>98.63</v>
       </c>
-      <c r="BN14" s="25">
-        <v>99.05</v>
-      </c>
-      <c r="BO14" s="25">
-        <v>99.11</v>
-      </c>
-      <c r="BP14" s="25">
-        <v>98.8</v>
-      </c>
-      <c r="BQ14" s="25">
-        <v>97.88</v>
-      </c>
-      <c r="BR14" s="25">
-        <v>97.29</v>
-      </c>
-      <c r="BS14" s="25">
-        <v>97.91</v>
-      </c>
-      <c r="BT14" s="25">
-        <v>97.98</v>
-      </c>
       <c r="BU14" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="BV14" s="25"/>
-      <c r="BW14" s="25"/>
+        <v>98.26</v>
+      </c>
+      <c r="BV14" s="25">
+        <v>98.34</v>
+      </c>
+      <c r="BW14" s="25">
+        <v>98.6</v>
+      </c>
       <c r="BX14" s="25"/>
       <c r="BY14" s="25"/>
       <c r="BZ14" s="25"/>
@@ -3732,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="N15" s="25">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="O15" s="25">
         <v>96.99</v>
@@ -3759,7 +3798,7 @@
         <v>94.55</v>
       </c>
       <c r="W15" s="25">
-        <v>94.73</v>
+        <v>94.72</v>
       </c>
       <c r="X15" s="25">
         <v>95.47</v>
@@ -3777,142 +3816,146 @@
         <v>95.19</v>
       </c>
       <c r="AC15" s="25">
-        <v>95.86</v>
+        <v>95.87</v>
       </c>
       <c r="AD15" s="25">
-        <v>97.36</v>
+        <v>97.38</v>
       </c>
       <c r="AE15" s="25">
-        <v>97.42</v>
+        <v>97.44</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.76</v>
+        <v>96.77</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="AH15" s="25">
-        <v>96.52</v>
+        <v>96.53</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.99</v>
+        <v>95.93</v>
       </c>
       <c r="AJ15" s="25">
-        <v>95.76</v>
+        <v>95.78</v>
       </c>
       <c r="AK15" s="25">
+        <v>95.93</v>
+      </c>
+      <c r="AL15" s="25">
         <v>95.91</v>
       </c>
-      <c r="AL15" s="25">
-        <v>95.89</v>
-      </c>
       <c r="AM15" s="25">
-        <v>95.98</v>
+        <v>96</v>
       </c>
       <c r="AN15" s="25">
         <v>96</v>
       </c>
       <c r="AO15" s="25">
-        <v>95.86</v>
+        <v>95.85</v>
       </c>
       <c r="AP15" s="25">
-        <v>95.2</v>
+        <v>95.22</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.88</v>
+        <v>95.9</v>
       </c>
       <c r="AR15" s="25">
-        <v>96.32</v>
+        <v>96.33</v>
       </c>
       <c r="AS15" s="25">
-        <v>96.45</v>
+        <v>96.47</v>
       </c>
       <c r="AT15" s="25">
-        <v>97.04</v>
+        <v>97.05</v>
       </c>
       <c r="AU15" s="25">
-        <v>97.35</v>
+        <v>97.37</v>
       </c>
       <c r="AV15" s="25">
-        <v>98.1</v>
+        <v>98.13</v>
       </c>
       <c r="AW15" s="25">
-        <v>98.38</v>
+        <v>98.4</v>
       </c>
       <c r="AX15" s="25">
-        <v>98.8</v>
+        <v>98.83</v>
       </c>
       <c r="AY15" s="25">
-        <v>99.55</v>
+        <v>99.58</v>
       </c>
       <c r="AZ15" s="25">
-        <v>99.4</v>
+        <v>99.43</v>
       </c>
       <c r="BA15" s="25">
-        <v>99.02</v>
+        <v>99.04</v>
       </c>
       <c r="BB15" s="25">
-        <v>96.77</v>
+        <v>96.79</v>
       </c>
       <c r="BC15" s="25">
-        <v>95.06</v>
+        <v>95.08</v>
       </c>
       <c r="BD15" s="25">
-        <v>95.37</v>
+        <v>95.4</v>
       </c>
       <c r="BE15" s="25">
-        <v>96.39</v>
+        <v>96.42</v>
       </c>
       <c r="BF15" s="25">
-        <v>96.95</v>
+        <v>97.02</v>
       </c>
       <c r="BG15" s="25">
-        <v>97.48</v>
+        <v>97.55</v>
       </c>
       <c r="BH15" s="25">
-        <v>98.2</v>
+        <v>97.59</v>
       </c>
       <c r="BI15" s="25">
-        <v>99.24</v>
+        <v>98.3</v>
       </c>
       <c r="BJ15" s="25">
-        <v>99.49</v>
+        <v>99.09</v>
       </c>
       <c r="BK15" s="25">
-        <v>99.76</v>
+        <v>99.74</v>
       </c>
       <c r="BL15" s="25">
-        <v>99.64</v>
+        <v>99.66</v>
       </c>
       <c r="BM15" s="25">
-        <v>99.93</v>
+        <v>99.99</v>
       </c>
       <c r="BN15" s="25">
-        <v>100.1</v>
+        <v>100.25</v>
       </c>
       <c r="BO15" s="25">
-        <v>99.83</v>
+        <v>99.91</v>
       </c>
       <c r="BP15" s="25">
-        <v>99.69</v>
+        <v>99.37</v>
       </c>
       <c r="BQ15" s="25">
-        <v>99.74</v>
+        <v>99.36</v>
       </c>
       <c r="BR15" s="25">
-        <v>100.06</v>
+        <v>99.77</v>
       </c>
       <c r="BS15" s="25">
-        <v>100.56</v>
+        <v>100.18</v>
       </c>
       <c r="BT15" s="25">
-        <v>100.4</v>
+        <v>100.28</v>
       </c>
       <c r="BU15" s="25">
-        <v>101.05</v>
-      </c>
-      <c r="BV15" s="25"/>
-      <c r="BW15" s="25"/>
+        <v>100.88</v>
+      </c>
+      <c r="BV15" s="25">
+        <v>101.51</v>
+      </c>
+      <c r="BW15" s="25">
+        <v>102.34</v>
+      </c>
       <c r="BX15" s="25"/>
       <c r="BY15" s="25"/>
       <c r="BZ15" s="25"/>
@@ -3928,16 +3971,16 @@
         <v>86.3</v>
       </c>
       <c r="D16" s="25">
-        <v>92.55</v>
+        <v>92.54</v>
       </c>
       <c r="E16" s="25">
-        <v>95.41</v>
+        <v>95.4</v>
       </c>
       <c r="F16" s="25">
         <v>96.42</v>
       </c>
       <c r="G16" s="25">
-        <v>97.06</v>
+        <v>97.05</v>
       </c>
       <c r="H16" s="25">
         <v>97.8</v>
@@ -3961,7 +4004,7 @@
         <v>98.95</v>
       </c>
       <c r="O16" s="25">
-        <v>94.16</v>
+        <v>94.17</v>
       </c>
       <c r="P16" s="25">
         <v>90.8</v>
@@ -3976,169 +4019,173 @@
         <v>89.74</v>
       </c>
       <c r="T16" s="25">
-        <v>90.87</v>
+        <v>90.88</v>
       </c>
       <c r="U16" s="25">
         <v>92.16</v>
       </c>
       <c r="V16" s="25">
-        <v>93.16</v>
+        <v>93.17</v>
       </c>
       <c r="W16" s="25">
-        <v>93.82</v>
+        <v>93.83</v>
       </c>
       <c r="X16" s="25">
-        <v>94.09</v>
+        <v>94.1</v>
       </c>
       <c r="Y16" s="25">
         <v>95.28</v>
       </c>
       <c r="Z16" s="25">
-        <v>96.1</v>
+        <v>96.11</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.8</v>
+        <v>96.81</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="AC16" s="25">
-        <v>100.11</v>
+        <v>100.16</v>
       </c>
       <c r="AD16" s="25">
-        <v>101.23</v>
+        <v>101.31</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.87</v>
+        <v>101.95</v>
       </c>
       <c r="AF16" s="25">
-        <v>102.35</v>
+        <v>102.43</v>
       </c>
       <c r="AG16" s="25">
-        <v>102.69</v>
+        <v>102.78</v>
       </c>
       <c r="AH16" s="25">
-        <v>103.09</v>
+        <v>103.18</v>
       </c>
       <c r="AI16" s="25">
-        <v>103.24</v>
+        <v>103.33</v>
       </c>
       <c r="AJ16" s="25">
-        <v>103.6</v>
+        <v>103.69</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.84</v>
+        <v>103.93</v>
       </c>
       <c r="AL16" s="25">
-        <v>104.05</v>
+        <v>104.14</v>
       </c>
       <c r="AM16" s="25">
-        <v>104.89</v>
+        <v>104.99</v>
       </c>
       <c r="AN16" s="25">
-        <v>104.93</v>
+        <v>105.03</v>
       </c>
       <c r="AO16" s="25">
-        <v>104.41</v>
+        <v>104.5</v>
       </c>
       <c r="AP16" s="25">
-        <v>103.46</v>
+        <v>103.56</v>
       </c>
       <c r="AQ16" s="25">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AR16" s="25">
-        <v>104.5</v>
+        <v>104.61</v>
       </c>
       <c r="AS16" s="25">
-        <v>104.81</v>
+        <v>104.95</v>
       </c>
       <c r="AT16" s="25">
-        <v>104.94</v>
+        <v>105.09</v>
       </c>
       <c r="AU16" s="25">
-        <v>105.21</v>
+        <v>105.37</v>
       </c>
       <c r="AV16" s="25">
-        <v>105.75</v>
+        <v>105.91</v>
       </c>
       <c r="AW16" s="25">
-        <v>106.04</v>
+        <v>106.21</v>
       </c>
       <c r="AX16" s="25">
-        <v>106.31</v>
+        <v>106.49</v>
       </c>
       <c r="AY16" s="25">
-        <v>106.65</v>
+        <v>106.84</v>
       </c>
       <c r="AZ16" s="25">
-        <v>106.53</v>
+        <v>106.73</v>
       </c>
       <c r="BA16" s="25">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="BB16" s="25">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="BC16" s="25">
-        <v>93.47</v>
+        <v>93.75</v>
       </c>
       <c r="BD16" s="25">
-        <v>97.37</v>
+        <v>97.71</v>
       </c>
       <c r="BE16" s="25">
-        <v>101.66</v>
+        <v>102.03</v>
       </c>
       <c r="BF16" s="25">
-        <v>103.34</v>
+        <v>103.73</v>
       </c>
       <c r="BG16" s="25">
-        <v>103.76</v>
+        <v>104.12</v>
       </c>
       <c r="BH16" s="25">
-        <v>104.53</v>
+        <v>104.6</v>
       </c>
       <c r="BI16" s="25">
-        <v>105.26</v>
+        <v>105.13</v>
       </c>
       <c r="BJ16" s="25">
-        <v>105.22</v>
+        <v>105.52</v>
       </c>
       <c r="BK16" s="25">
-        <v>105.24</v>
+        <v>105.85</v>
       </c>
       <c r="BL16" s="25">
-        <v>105.39</v>
+        <v>106.07</v>
       </c>
       <c r="BM16" s="25">
-        <v>105.71</v>
+        <v>106.45</v>
       </c>
       <c r="BN16" s="25">
-        <v>105.52</v>
+        <v>106.33</v>
       </c>
       <c r="BO16" s="25">
-        <v>105.44</v>
+        <v>106.08</v>
       </c>
       <c r="BP16" s="25">
-        <v>103.9</v>
+        <v>103.3</v>
       </c>
       <c r="BQ16" s="25">
-        <v>102.5</v>
+        <v>102.76</v>
       </c>
       <c r="BR16" s="25">
-        <v>102.5</v>
+        <v>103.8</v>
       </c>
       <c r="BS16" s="25">
-        <v>102.62</v>
+        <v>104.03</v>
       </c>
       <c r="BT16" s="25">
-        <v>101.38</v>
+        <v>103.37</v>
       </c>
       <c r="BU16" s="25">
-        <v>99.72</v>
-      </c>
-      <c r="BV16" s="25"/>
-      <c r="BW16" s="25"/>
+        <v>102.45</v>
+      </c>
+      <c r="BV16" s="25">
+        <v>101.75</v>
+      </c>
+      <c r="BW16" s="25">
+        <v>101.59</v>
+      </c>
       <c r="BX16" s="25"/>
       <c r="BY16" s="25"/>
       <c r="BZ16" s="25"/>
@@ -4151,13 +4198,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.68</v>
+        <v>91.69</v>
       </c>
       <c r="D17" s="25">
-        <v>96.13</v>
+        <v>96.14</v>
       </c>
       <c r="E17" s="25">
-        <v>98.13</v>
+        <v>98.14</v>
       </c>
       <c r="F17" s="25">
         <v>98.8</v>
@@ -4178,7 +4225,7 @@
         <v>100.31</v>
       </c>
       <c r="L17" s="25">
-        <v>100.24</v>
+        <v>100.25</v>
       </c>
       <c r="M17" s="25">
         <v>100</v>
@@ -4199,7 +4246,7 @@
         <v>87.67</v>
       </c>
       <c r="S17" s="25">
-        <v>89.07</v>
+        <v>89.06</v>
       </c>
       <c r="T17" s="25">
         <v>89.52</v>
@@ -4217,7 +4264,7 @@
         <v>91.42</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.5</v>
+        <v>92.49</v>
       </c>
       <c r="Z17" s="25">
         <v>93.44</v>
@@ -4229,142 +4276,146 @@
         <v>93.61</v>
       </c>
       <c r="AC17" s="25">
-        <v>94.19</v>
+        <v>94.2</v>
       </c>
       <c r="AD17" s="25">
-        <v>95.24</v>
+        <v>95.25</v>
       </c>
       <c r="AE17" s="25">
-        <v>95.98</v>
+        <v>96</v>
       </c>
       <c r="AF17" s="25">
-        <v>96.34</v>
+        <v>96.36</v>
       </c>
       <c r="AG17" s="25">
-        <v>96.42</v>
+        <v>96.43</v>
       </c>
       <c r="AH17" s="25">
-        <v>96.51</v>
+        <v>96.52</v>
       </c>
       <c r="AI17" s="25">
-        <v>96.64</v>
+        <v>96.65</v>
       </c>
       <c r="AJ17" s="25">
-        <v>96.92</v>
+        <v>96.94</v>
       </c>
       <c r="AK17" s="25">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="AL17" s="25">
-        <v>97.35</v>
+        <v>97.36</v>
       </c>
       <c r="AM17" s="25">
-        <v>98.32</v>
+        <v>98.33</v>
       </c>
       <c r="AN17" s="25">
-        <v>98.4</v>
+        <v>98.41</v>
       </c>
       <c r="AO17" s="25">
-        <v>97.78</v>
+        <v>97.79</v>
       </c>
       <c r="AP17" s="25">
-        <v>97.05</v>
+        <v>97.07</v>
       </c>
       <c r="AQ17" s="25">
-        <v>97.57</v>
+        <v>97.59</v>
       </c>
       <c r="AR17" s="25">
+        <v>98.42</v>
+      </c>
+      <c r="AS17" s="25">
+        <v>98.74</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>98.54</v>
+      </c>
+      <c r="AU17" s="25">
+        <v>99.08</v>
+      </c>
+      <c r="AV17" s="25">
+        <v>99.47</v>
+      </c>
+      <c r="AW17" s="25">
+        <v>99.77</v>
+      </c>
+      <c r="AX17" s="25">
+        <v>99.68</v>
+      </c>
+      <c r="AY17" s="25">
+        <v>100.07</v>
+      </c>
+      <c r="AZ17" s="25">
+        <v>99.82</v>
+      </c>
+      <c r="BA17" s="25">
         <v>98.38</v>
       </c>
-      <c r="AS17" s="25">
-        <v>98.69</v>
-      </c>
-      <c r="AT17" s="25">
-        <v>98.46</v>
-      </c>
-      <c r="AU17" s="25">
-        <v>99.02</v>
-      </c>
-      <c r="AV17" s="25">
-        <v>99.43</v>
-      </c>
-      <c r="AW17" s="25">
-        <v>99.72</v>
-      </c>
-      <c r="AX17" s="25">
-        <v>99.63</v>
-      </c>
-      <c r="AY17" s="25">
-        <v>100.01</v>
-      </c>
-      <c r="AZ17" s="25">
-        <v>99.75</v>
-      </c>
-      <c r="BA17" s="25">
-        <v>98.3</v>
-      </c>
       <c r="BB17" s="25">
-        <v>93.49</v>
+        <v>93.55</v>
       </c>
       <c r="BC17" s="25">
-        <v>90.77</v>
+        <v>90.84</v>
       </c>
       <c r="BD17" s="25">
-        <v>93.42</v>
+        <v>93.5</v>
       </c>
       <c r="BE17" s="25">
-        <v>95.98</v>
+        <v>96.07</v>
       </c>
       <c r="BF17" s="25">
-        <v>97.44</v>
+        <v>97.54</v>
       </c>
       <c r="BG17" s="25">
-        <v>98.09</v>
+        <v>98.12</v>
       </c>
       <c r="BH17" s="25">
-        <v>98.9</v>
+        <v>98.52</v>
       </c>
       <c r="BI17" s="25">
-        <v>99.65</v>
+        <v>99.05</v>
       </c>
       <c r="BJ17" s="25">
-        <v>99.27</v>
+        <v>99.08</v>
       </c>
       <c r="BK17" s="25">
-        <v>99.79</v>
+        <v>99.91</v>
       </c>
       <c r="BL17" s="25">
-        <v>99.63</v>
+        <v>99.78</v>
       </c>
       <c r="BM17" s="25">
-        <v>100.06</v>
+        <v>100.22</v>
       </c>
       <c r="BN17" s="25">
-        <v>100.33</v>
+        <v>100.49</v>
       </c>
       <c r="BO17" s="25">
-        <v>100.43</v>
+        <v>100.45</v>
       </c>
       <c r="BP17" s="25">
-        <v>99.91</v>
+        <v>99.17</v>
       </c>
       <c r="BQ17" s="25">
-        <v>98.99</v>
+        <v>98.64</v>
       </c>
       <c r="BR17" s="25">
-        <v>99.34</v>
+        <v>99.59</v>
       </c>
       <c r="BS17" s="25">
-        <v>100.25</v>
+        <v>100.5</v>
       </c>
       <c r="BT17" s="25">
-        <v>99.77</v>
+        <v>100.23</v>
       </c>
       <c r="BU17" s="25">
-        <v>99.9</v>
-      </c>
-      <c r="BV17" s="25"/>
-      <c r="BW17" s="25"/>
+        <v>100.79</v>
+      </c>
+      <c r="BV17" s="25">
+        <v>100.65</v>
+      </c>
+      <c r="BW17" s="25">
+        <v>101.21</v>
+      </c>
       <c r="BX17" s="25"/>
       <c r="BY17" s="25"/>
       <c r="BZ17" s="25"/>
@@ -4383,19 +4434,19 @@
         <v>97.37</v>
       </c>
       <c r="E18" s="25">
-        <v>97.92</v>
+        <v>97.91</v>
       </c>
       <c r="F18" s="25">
-        <v>98.44</v>
+        <v>98.43</v>
       </c>
       <c r="G18" s="25">
-        <v>98.41</v>
+        <v>98.4</v>
       </c>
       <c r="H18" s="25">
         <v>98.76</v>
       </c>
       <c r="I18" s="25">
-        <v>99.52</v>
+        <v>99.51</v>
       </c>
       <c r="J18" s="25">
         <v>99.63</v>
@@ -4434,13 +4485,13 @@
         <v>95.75</v>
       </c>
       <c r="V18" s="25">
-        <v>96.15</v>
+        <v>96.16</v>
       </c>
       <c r="W18" s="25">
         <v>96.09</v>
       </c>
       <c r="X18" s="25">
-        <v>96.31</v>
+        <v>96.32</v>
       </c>
       <c r="Y18" s="25">
         <v>96.86</v>
@@ -4455,7 +4506,7 @@
         <v>95.4</v>
       </c>
       <c r="AC18" s="25">
-        <v>95.93</v>
+        <v>95.94</v>
       </c>
       <c r="AD18" s="25">
         <v>97.35</v>
@@ -4464,7 +4515,7 @@
         <v>97.55</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.77</v>
+        <v>97.78</v>
       </c>
       <c r="AG18" s="25">
         <v>97.37</v>
@@ -4473,124 +4524,128 @@
         <v>97.62</v>
       </c>
       <c r="AI18" s="25">
-        <v>97.38</v>
+        <v>97.39</v>
       </c>
       <c r="AJ18" s="25">
-        <v>97.76</v>
+        <v>97.77</v>
       </c>
       <c r="AK18" s="25">
-        <v>97.35</v>
+        <v>97.36</v>
       </c>
       <c r="AL18" s="25">
-        <v>97.66</v>
+        <v>97.67</v>
       </c>
       <c r="AM18" s="25">
-        <v>97.92</v>
+        <v>97.93</v>
       </c>
       <c r="AN18" s="25">
         <v>98.23</v>
       </c>
       <c r="AO18" s="25">
-        <v>97.44</v>
+        <v>97.43</v>
       </c>
       <c r="AP18" s="25">
         <v>96.81</v>
       </c>
       <c r="AQ18" s="25">
-        <v>97.13</v>
+        <v>97.14</v>
       </c>
       <c r="AR18" s="25">
+        <v>97.7</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>97.54</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>97.53</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>97.58</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>98.34</v>
+      </c>
+      <c r="AW18" s="25">
+        <v>98.29</v>
+      </c>
+      <c r="AX18" s="25">
+        <v>98.4</v>
+      </c>
+      <c r="AY18" s="25">
+        <v>98.56</v>
+      </c>
+      <c r="AZ18" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="BA18" s="25">
         <v>97.69</v>
       </c>
-      <c r="AS18" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="AT18" s="25">
-        <v>97.52</v>
-      </c>
-      <c r="AU18" s="25">
-        <v>97.57</v>
-      </c>
-      <c r="AV18" s="25">
-        <v>98.32</v>
-      </c>
-      <c r="AW18" s="25">
-        <v>98.27</v>
-      </c>
-      <c r="AX18" s="25">
-        <v>98.38</v>
-      </c>
-      <c r="AY18" s="25">
-        <v>98.53</v>
-      </c>
-      <c r="AZ18" s="25">
-        <v>98.43</v>
-      </c>
-      <c r="BA18" s="25">
-        <v>97.66</v>
-      </c>
       <c r="BB18" s="25">
-        <v>94.72</v>
+        <v>94.74</v>
       </c>
       <c r="BC18" s="25">
-        <v>92.91</v>
+        <v>92.94</v>
       </c>
       <c r="BD18" s="25">
-        <v>93.07</v>
+        <v>93.09</v>
       </c>
       <c r="BE18" s="25">
-        <v>94.17</v>
+        <v>94.19</v>
       </c>
       <c r="BF18" s="25">
-        <v>94.77</v>
+        <v>94.79</v>
       </c>
       <c r="BG18" s="25">
-        <v>95.17</v>
+        <v>95.16</v>
       </c>
       <c r="BH18" s="25">
-        <v>95.78</v>
+        <v>95.45</v>
       </c>
       <c r="BI18" s="25">
-        <v>96.92</v>
+        <v>96.34</v>
       </c>
       <c r="BJ18" s="25">
-        <v>97.2</v>
+        <v>96.91</v>
       </c>
       <c r="BK18" s="25">
-        <v>97.34</v>
+        <v>97.33</v>
       </c>
       <c r="BL18" s="25">
         <v>97.62</v>
       </c>
       <c r="BM18" s="25">
-        <v>97.44</v>
+        <v>97.46</v>
       </c>
       <c r="BN18" s="25">
-        <v>97.87</v>
+        <v>97.92</v>
       </c>
       <c r="BO18" s="25">
-        <v>97.5</v>
+        <v>97.48</v>
       </c>
       <c r="BP18" s="25">
-        <v>97.56</v>
+        <v>97.22</v>
       </c>
       <c r="BQ18" s="25">
-        <v>97.12</v>
+        <v>96.74</v>
       </c>
       <c r="BR18" s="25">
-        <v>97.31</v>
+        <v>97.1</v>
       </c>
       <c r="BS18" s="25">
-        <v>97.44</v>
+        <v>97.14</v>
       </c>
       <c r="BT18" s="25">
-        <v>97.92</v>
+        <v>97.66</v>
       </c>
       <c r="BU18" s="25">
-        <v>97.75</v>
-      </c>
-      <c r="BV18" s="25"/>
-      <c r="BW18" s="25"/>
+        <v>97.67</v>
+      </c>
+      <c r="BV18" s="25">
+        <v>98.2</v>
+      </c>
+      <c r="BW18" s="25">
+        <v>99.06</v>
+      </c>
       <c r="BX18" s="25"/>
       <c r="BY18" s="25"/>
       <c r="BZ18" s="25"/>
@@ -4603,28 +4658,28 @@
         <v>19</v>
       </c>
       <c r="C19" s="25">
-        <v>87.49</v>
+        <v>87.48</v>
       </c>
       <c r="D19" s="25">
         <v>93.06</v>
       </c>
       <c r="E19" s="25">
-        <v>95.56</v>
+        <v>95.55</v>
       </c>
       <c r="F19" s="25">
-        <v>96.47</v>
+        <v>96.46</v>
       </c>
       <c r="G19" s="25">
         <v>96.87</v>
       </c>
       <c r="H19" s="25">
-        <v>97.95</v>
+        <v>97.94</v>
       </c>
       <c r="I19" s="25">
-        <v>98.75</v>
+        <v>98.74</v>
       </c>
       <c r="J19" s="25">
-        <v>98.97</v>
+        <v>98.96</v>
       </c>
       <c r="K19" s="25">
         <v>99.42</v>
@@ -4639,7 +4694,7 @@
         <v>98.77</v>
       </c>
       <c r="O19" s="25">
-        <v>93.08</v>
+        <v>93.07</v>
       </c>
       <c r="P19" s="25">
         <v>90.65</v>
@@ -4648,19 +4703,19 @@
         <v>89.28</v>
       </c>
       <c r="R19" s="25">
-        <v>89.09</v>
+        <v>89.1</v>
       </c>
       <c r="S19" s="25">
-        <v>90.01</v>
+        <v>90.02</v>
       </c>
       <c r="T19" s="25">
-        <v>91.13</v>
+        <v>91.14</v>
       </c>
       <c r="U19" s="25">
         <v>92.44</v>
       </c>
       <c r="V19" s="25">
-        <v>93.18</v>
+        <v>93.19</v>
       </c>
       <c r="W19" s="25">
         <v>93.7</v>
@@ -4675,148 +4730,152 @@
         <v>96.59</v>
       </c>
       <c r="AA19" s="25">
-        <v>97.23</v>
+        <v>97.24</v>
       </c>
       <c r="AB19" s="25">
-        <v>98.16</v>
+        <v>98.17</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.76</v>
+        <v>99.82</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.82</v>
+        <v>100.9</v>
       </c>
       <c r="AE19" s="25">
-        <v>101.18</v>
+        <v>101.27</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.66</v>
+        <v>101.77</v>
       </c>
       <c r="AG19" s="25">
-        <v>102.03</v>
+        <v>102.13</v>
       </c>
       <c r="AH19" s="25">
-        <v>102.44</v>
+        <v>102.54</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.83</v>
+        <v>102.93</v>
       </c>
       <c r="AJ19" s="25">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AK19" s="25">
-        <v>103.74</v>
+        <v>103.85</v>
       </c>
       <c r="AL19" s="25">
+        <v>104.15</v>
+      </c>
+      <c r="AM19" s="25">
+        <v>104.59</v>
+      </c>
+      <c r="AN19" s="25">
+        <v>104.58</v>
+      </c>
+      <c r="AO19" s="25">
+        <v>104.52</v>
+      </c>
+      <c r="AP19" s="25">
+        <v>103.81</v>
+      </c>
+      <c r="AQ19" s="25">
+        <v>103.94</v>
+      </c>
+      <c r="AR19" s="25">
+        <v>105.01</v>
+      </c>
+      <c r="AS19" s="25">
+        <v>105.38</v>
+      </c>
+      <c r="AT19" s="25">
+        <v>105.37</v>
+      </c>
+      <c r="AU19" s="25">
+        <v>105.49</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>105.91</v>
+      </c>
+      <c r="AW19" s="25">
+        <v>104.23</v>
+      </c>
+      <c r="AX19" s="25">
+        <v>105.5</v>
+      </c>
+      <c r="AY19" s="25">
+        <v>106.79</v>
+      </c>
+      <c r="AZ19" s="25">
+        <v>107.31</v>
+      </c>
+      <c r="BA19" s="25">
+        <v>106.15</v>
+      </c>
+      <c r="BB19" s="25">
+        <v>101.04</v>
+      </c>
+      <c r="BC19" s="25">
+        <v>96.45</v>
+      </c>
+      <c r="BD19" s="25">
+        <v>99.81</v>
+      </c>
+      <c r="BE19" s="25">
+        <v>102.98</v>
+      </c>
+      <c r="BF19" s="25">
         <v>104.04</v>
       </c>
-      <c r="AM19" s="25">
-        <v>104.48</v>
-      </c>
-      <c r="AN19" s="25">
-        <v>104.48</v>
-      </c>
-      <c r="AO19" s="25">
-        <v>104.42</v>
-      </c>
-      <c r="AP19" s="25">
-        <v>103.7</v>
-      </c>
-      <c r="AQ19" s="25">
-        <v>103.85</v>
-      </c>
-      <c r="AR19" s="25">
-        <v>104.89</v>
-      </c>
-      <c r="AS19" s="25">
-        <v>105.25</v>
-      </c>
-      <c r="AT19" s="25">
-        <v>105.22</v>
-      </c>
-      <c r="AU19" s="25">
+      <c r="BG19" s="25">
+        <v>104.31</v>
+      </c>
+      <c r="BH19" s="25">
+        <v>105.29</v>
+      </c>
+      <c r="BI19" s="25">
+        <v>105.74</v>
+      </c>
+      <c r="BJ19" s="25">
+        <v>106.31</v>
+      </c>
+      <c r="BK19" s="25">
+        <v>106.88</v>
+      </c>
+      <c r="BL19" s="25">
+        <v>107.13</v>
+      </c>
+      <c r="BM19" s="25">
+        <v>107.53</v>
+      </c>
+      <c r="BN19" s="25">
+        <v>107.77</v>
+      </c>
+      <c r="BO19" s="25">
+        <v>107.64</v>
+      </c>
+      <c r="BP19" s="25">
+        <v>105.8</v>
+      </c>
+      <c r="BQ19" s="25">
+        <v>105.3</v>
+      </c>
+      <c r="BR19" s="25">
+        <v>105.84</v>
+      </c>
+      <c r="BS19" s="25">
         <v>105.34</v>
       </c>
-      <c r="AV19" s="25">
-        <v>105.76</v>
-      </c>
-      <c r="AW19" s="25">
-        <v>104.06</v>
-      </c>
-      <c r="AX19" s="25">
-        <v>105.33</v>
-      </c>
-      <c r="AY19" s="25">
-        <v>106.6</v>
-      </c>
-      <c r="AZ19" s="25">
-        <v>107.12</v>
-      </c>
-      <c r="BA19" s="25">
-        <v>105.96</v>
-      </c>
-      <c r="BB19" s="25">
-        <v>100.84</v>
-      </c>
-      <c r="BC19" s="25">
-        <v>96.19</v>
-      </c>
-      <c r="BD19" s="25">
-        <v>99.48</v>
-      </c>
-      <c r="BE19" s="25">
-        <v>102.61</v>
-      </c>
-      <c r="BF19" s="25">
-        <v>103.66</v>
-      </c>
-      <c r="BG19" s="25">
-        <v>103.98</v>
-      </c>
-      <c r="BH19" s="25">
-        <v>105.31</v>
-      </c>
-      <c r="BI19" s="25">
-        <v>105.95</v>
-      </c>
-      <c r="BJ19" s="25">
-        <v>106.08</v>
-      </c>
-      <c r="BK19" s="25">
-        <v>106.31</v>
-      </c>
-      <c r="BL19" s="25">
-        <v>106.48</v>
-      </c>
-      <c r="BM19" s="25">
-        <v>106.81</v>
-      </c>
-      <c r="BN19" s="25">
-        <v>107</v>
-      </c>
-      <c r="BO19" s="25">
-        <v>106.99</v>
-      </c>
-      <c r="BP19" s="25">
-        <v>106.21</v>
-      </c>
-      <c r="BQ19" s="25">
-        <v>105.04</v>
-      </c>
-      <c r="BR19" s="25">
-        <v>104.89</v>
-      </c>
-      <c r="BS19" s="25">
-        <v>104.32</v>
-      </c>
       <c r="BT19" s="25">
-        <v>103.65</v>
+        <v>105.13</v>
       </c>
       <c r="BU19" s="25">
-        <v>102.84</v>
-      </c>
-      <c r="BV19" s="25"/>
-      <c r="BW19" s="25"/>
+        <v>104.3</v>
+      </c>
+      <c r="BV19" s="25">
+        <v>103.67</v>
+      </c>
+      <c r="BW19" s="25">
+        <v>103.61</v>
+      </c>
       <c r="BX19" s="25"/>
       <c r="BY19" s="25"/>
       <c r="BZ19" s="25"/>
@@ -4829,7 +4888,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>92.01</v>
+        <v>92.02</v>
       </c>
       <c r="D20" s="25">
         <v>95.7</v>
@@ -4865,7 +4924,7 @@
         <v>98.13</v>
       </c>
       <c r="O20" s="25">
-        <v>92.44</v>
+        <v>92.45</v>
       </c>
       <c r="P20" s="25">
         <v>89.44</v>
@@ -4880,7 +4939,7 @@
         <v>89.24</v>
       </c>
       <c r="T20" s="25">
-        <v>89.8</v>
+        <v>89.79</v>
       </c>
       <c r="U20" s="25">
         <v>90.92</v>
@@ -4892,7 +4951,7 @@
         <v>92.31</v>
       </c>
       <c r="X20" s="25">
-        <v>92.37</v>
+        <v>92.36</v>
       </c>
       <c r="Y20" s="25">
         <v>93.06</v>
@@ -4904,145 +4963,149 @@
         <v>93.51</v>
       </c>
       <c r="AB20" s="25">
-        <v>93.03</v>
+        <v>93.02</v>
       </c>
       <c r="AC20" s="25">
-        <v>93.56</v>
+        <v>93.59</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.5</v>
+        <v>94.53</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.75</v>
+        <v>94.77</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.29</v>
+        <v>95.32</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.45</v>
+        <v>95.48</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.8</v>
+        <v>95.83</v>
       </c>
       <c r="AI20" s="25">
-        <v>96.25</v>
+        <v>96.28</v>
       </c>
       <c r="AJ20" s="25">
-        <v>95.98</v>
+        <v>96.01</v>
       </c>
       <c r="AK20" s="25">
-        <v>96.27</v>
+        <v>96.3</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.68</v>
+        <v>96.71</v>
       </c>
       <c r="AM20" s="25">
-        <v>97.02</v>
+        <v>97.05</v>
       </c>
       <c r="AN20" s="25">
-        <v>97.15</v>
+        <v>97.18</v>
       </c>
       <c r="AO20" s="25">
-        <v>97.06</v>
+        <v>97.09</v>
       </c>
       <c r="AP20" s="25">
-        <v>96.43</v>
+        <v>96.46</v>
       </c>
       <c r="AQ20" s="25">
-        <v>96.32</v>
+        <v>96.35</v>
       </c>
       <c r="AR20" s="25">
-        <v>97.67</v>
+        <v>97.7</v>
       </c>
       <c r="AS20" s="25">
-        <v>98.01</v>
+        <v>98.05</v>
       </c>
       <c r="AT20" s="25">
-        <v>98.06</v>
+        <v>98.11</v>
       </c>
       <c r="AU20" s="25">
-        <v>98.25</v>
+        <v>98.3</v>
       </c>
       <c r="AV20" s="25">
-        <v>98.82</v>
+        <v>98.86</v>
       </c>
       <c r="AW20" s="25">
-        <v>98.09</v>
+        <v>98.13</v>
       </c>
       <c r="AX20" s="25">
-        <v>98.54</v>
+        <v>98.58</v>
       </c>
       <c r="AY20" s="25">
-        <v>99.03</v>
+        <v>99.07</v>
       </c>
       <c r="AZ20" s="25">
-        <v>99.28</v>
+        <v>99.32</v>
       </c>
       <c r="BA20" s="25">
-        <v>97.7</v>
+        <v>97.74</v>
       </c>
       <c r="BB20" s="25">
-        <v>93.87</v>
+        <v>93.91</v>
       </c>
       <c r="BC20" s="25">
-        <v>91.46</v>
+        <v>91.51</v>
       </c>
       <c r="BD20" s="25">
-        <v>93.63</v>
+        <v>93.69</v>
       </c>
       <c r="BE20" s="25">
-        <v>95.68</v>
+        <v>95.74</v>
       </c>
       <c r="BF20" s="25">
-        <v>96.57</v>
+        <v>96.64</v>
       </c>
       <c r="BG20" s="25">
-        <v>97.24</v>
+        <v>97.26</v>
       </c>
       <c r="BH20" s="25">
-        <v>98.49</v>
+        <v>98.07</v>
       </c>
       <c r="BI20" s="25">
-        <v>99.46</v>
+        <v>98.77</v>
       </c>
       <c r="BJ20" s="25">
-        <v>99.87</v>
+        <v>99.61</v>
       </c>
       <c r="BK20" s="25">
-        <v>100.18</v>
+        <v>100.24</v>
       </c>
       <c r="BL20" s="25">
-        <v>100.15</v>
+        <v>100.2</v>
       </c>
       <c r="BM20" s="25">
-        <v>100.54</v>
+        <v>100.57</v>
       </c>
       <c r="BN20" s="25">
-        <v>100.88</v>
+        <v>100.86</v>
       </c>
       <c r="BO20" s="25">
-        <v>100.88</v>
+        <v>100.78</v>
       </c>
       <c r="BP20" s="25">
-        <v>100.65</v>
+        <v>99.98</v>
       </c>
       <c r="BQ20" s="25">
-        <v>100.15</v>
+        <v>99.77</v>
       </c>
       <c r="BR20" s="25">
-        <v>100.07</v>
+        <v>100.09</v>
       </c>
       <c r="BS20" s="25">
-        <v>100.02</v>
+        <v>99.96</v>
       </c>
       <c r="BT20" s="25">
-        <v>100.12</v>
+        <v>100.3</v>
       </c>
       <c r="BU20" s="25">
-        <v>100.41</v>
-      </c>
-      <c r="BV20" s="25"/>
-      <c r="BW20" s="25"/>
+        <v>100.36</v>
+      </c>
+      <c r="BV20" s="25">
+        <v>100.63</v>
+      </c>
+      <c r="BW20" s="25">
+        <v>101.3</v>
+      </c>
       <c r="BX20" s="25"/>
       <c r="BY20" s="25"/>
       <c r="BZ20" s="25"/>
@@ -5055,7 +5118,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="25">
-        <v>96.67</v>
+        <v>96.66</v>
       </c>
       <c r="D21" s="25">
         <v>97.54</v>
@@ -5100,43 +5163,43 @@
         <v>94.39</v>
       </c>
       <c r="R21" s="25">
-        <v>94.55</v>
+        <v>94.54</v>
       </c>
       <c r="S21" s="25">
-        <v>94.3</v>
+        <v>94.29</v>
       </c>
       <c r="T21" s="25">
         <v>94.56</v>
       </c>
       <c r="U21" s="25">
-        <v>95.06</v>
+        <v>95.05</v>
       </c>
       <c r="V21" s="25">
-        <v>95.83</v>
+        <v>95.82</v>
       </c>
       <c r="W21" s="25">
-        <v>96.05</v>
+        <v>96.04</v>
       </c>
       <c r="X21" s="25">
-        <v>96.62</v>
+        <v>96.61</v>
       </c>
       <c r="Y21" s="25">
-        <v>96.95</v>
+        <v>96.94</v>
       </c>
       <c r="Z21" s="25">
-        <v>96.75</v>
+        <v>96.74</v>
       </c>
       <c r="AA21" s="25">
-        <v>95.61</v>
+        <v>95.6</v>
       </c>
       <c r="AB21" s="25">
-        <v>93.8</v>
+        <v>93.79</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.94</v>
+        <v>94.93</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.87</v>
+        <v>96.86</v>
       </c>
       <c r="AE21" s="25">
         <v>97.2</v>
@@ -5145,76 +5208,76 @@
         <v>97.97</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.72</v>
+        <v>97.7</v>
       </c>
       <c r="AH21" s="25">
-        <v>98.07</v>
+        <v>98.06</v>
       </c>
       <c r="AI21" s="25">
-        <v>98.1</v>
+        <v>98.09</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.38</v>
+        <v>98.37</v>
       </c>
       <c r="AK21" s="25">
-        <v>98.15</v>
+        <v>98.14</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.39</v>
+        <v>98.37</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.98</v>
+        <v>98.96</v>
       </c>
       <c r="AN21" s="25">
-        <v>99.29</v>
+        <v>99.27</v>
       </c>
       <c r="AO21" s="25">
-        <v>99.1</v>
+        <v>99.09</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.64</v>
+        <v>98.62</v>
       </c>
       <c r="AQ21" s="25">
         <v>99.28</v>
       </c>
       <c r="AR21" s="25">
-        <v>100.95</v>
+        <v>100.93</v>
       </c>
       <c r="AS21" s="25">
-        <v>100.72</v>
+        <v>100.71</v>
       </c>
       <c r="AT21" s="25">
-        <v>99.78</v>
+        <v>99.77</v>
       </c>
       <c r="AU21" s="25">
-        <v>100.39</v>
+        <v>100.43</v>
       </c>
       <c r="AV21" s="25">
-        <v>101.69</v>
+        <v>101.73</v>
       </c>
       <c r="AW21" s="25">
-        <v>101.1</v>
+        <v>101.14</v>
       </c>
       <c r="AX21" s="25">
-        <v>100.78</v>
+        <v>100.82</v>
       </c>
       <c r="AY21" s="25">
-        <v>101.92</v>
+        <v>101.96</v>
       </c>
       <c r="AZ21" s="25">
-        <v>102.26</v>
+        <v>102.25</v>
       </c>
       <c r="BA21" s="25">
-        <v>100.93</v>
+        <v>100.92</v>
       </c>
       <c r="BB21" s="25">
-        <v>97.68</v>
+        <v>97.66</v>
       </c>
       <c r="BC21" s="25">
-        <v>95.86</v>
+        <v>95.84</v>
       </c>
       <c r="BD21" s="25">
-        <v>96.12</v>
+        <v>96.11</v>
       </c>
       <c r="BE21" s="25">
         <v>97.56</v>
@@ -5223,52 +5286,56 @@
         <v>98.24</v>
       </c>
       <c r="BG21" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="BH21" s="25">
         <v>98.75</v>
       </c>
-      <c r="BH21" s="25">
-        <v>99.18</v>
-      </c>
       <c r="BI21" s="25">
-        <v>100.31</v>
+        <v>99.64</v>
       </c>
       <c r="BJ21" s="25">
-        <v>100.71</v>
+        <v>100.38</v>
       </c>
       <c r="BK21" s="25">
-        <v>101.32</v>
+        <v>101.29</v>
       </c>
       <c r="BL21" s="25">
+        <v>101.02</v>
+      </c>
+      <c r="BM21" s="25">
+        <v>101.01</v>
+      </c>
+      <c r="BN21" s="25">
+        <v>101.23</v>
+      </c>
+      <c r="BO21" s="25">
+        <v>101.01</v>
+      </c>
+      <c r="BP21" s="25">
+        <v>100.23</v>
+      </c>
+      <c r="BQ21" s="25">
+        <v>100.33</v>
+      </c>
+      <c r="BR21" s="25">
+        <v>100.7</v>
+      </c>
+      <c r="BS21" s="25">
+        <v>100.29</v>
+      </c>
+      <c r="BT21" s="25">
+        <v>100.64</v>
+      </c>
+      <c r="BU21" s="25">
         <v>101.03</v>
       </c>
-      <c r="BM21" s="25">
-        <v>101</v>
-      </c>
-      <c r="BN21" s="25">
-        <v>101.24</v>
-      </c>
-      <c r="BO21" s="25">
-        <v>101.07</v>
-      </c>
-      <c r="BP21" s="25">
-        <v>100.74</v>
-      </c>
-      <c r="BQ21" s="25">
-        <v>100.94</v>
-      </c>
-      <c r="BR21" s="25">
-        <v>100.96</v>
-      </c>
-      <c r="BS21" s="25">
-        <v>100.76</v>
-      </c>
-      <c r="BT21" s="25">
-        <v>100.86</v>
-      </c>
-      <c r="BU21" s="25">
-        <v>102.07</v>
-      </c>
-      <c r="BV21" s="25"/>
-      <c r="BW21" s="25"/>
+      <c r="BV21" s="25">
+        <v>101.09</v>
+      </c>
+      <c r="BW21" s="25">
+        <v>101.36</v>
+      </c>
       <c r="BX21" s="25"/>
       <c r="BY21" s="25"/>
       <c r="BZ21" s="25"/>
@@ -5281,7 +5348,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="25">
-        <v>89.4</v>
+        <v>89.39</v>
       </c>
       <c r="D22" s="25">
         <v>94.03</v>
@@ -5299,7 +5366,7 @@
         <v>97.39</v>
       </c>
       <c r="I22" s="25">
-        <v>97.95</v>
+        <v>97.94</v>
       </c>
       <c r="J22" s="25">
         <v>98.32</v>
@@ -5323,7 +5390,7 @@
         <v>90.63</v>
       </c>
       <c r="Q22" s="25">
-        <v>88.65</v>
+        <v>88.66</v>
       </c>
       <c r="R22" s="25">
         <v>88.47</v>
@@ -5341,10 +5408,10 @@
         <v>92.82</v>
       </c>
       <c r="W22" s="25">
-        <v>93.82</v>
+        <v>93.83</v>
       </c>
       <c r="X22" s="25">
-        <v>94.37</v>
+        <v>94.38</v>
       </c>
       <c r="Y22" s="25">
         <v>95.46</v>
@@ -5353,148 +5420,152 @@
         <v>97.07</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.9</v>
+        <v>97.91</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.56</v>
+        <v>98.58</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.9</v>
+        <v>100.98</v>
       </c>
       <c r="AD22" s="25">
-        <v>101.96</v>
+        <v>102.06</v>
       </c>
       <c r="AE22" s="25">
-        <v>102.31</v>
+        <v>102.4</v>
       </c>
       <c r="AF22" s="25">
-        <v>103.12</v>
+        <v>103.22</v>
       </c>
       <c r="AG22" s="25">
-        <v>103.45</v>
+        <v>103.55</v>
       </c>
       <c r="AH22" s="25">
-        <v>103.95</v>
+        <v>104.06</v>
       </c>
       <c r="AI22" s="25">
-        <v>104.43</v>
+        <v>104.53</v>
       </c>
       <c r="AJ22" s="25">
-        <v>104.84</v>
+        <v>104.94</v>
       </c>
       <c r="AK22" s="25">
-        <v>105.27</v>
+        <v>105.38</v>
       </c>
       <c r="AL22" s="25">
-        <v>105.72</v>
+        <v>105.84</v>
       </c>
       <c r="AM22" s="25">
-        <v>106.37</v>
+        <v>106.5</v>
       </c>
       <c r="AN22" s="25">
-        <v>106.4</v>
+        <v>106.52</v>
       </c>
       <c r="AO22" s="25">
-        <v>106.3</v>
+        <v>106.39</v>
       </c>
       <c r="AP22" s="25">
-        <v>104.87</v>
+        <v>104.95</v>
       </c>
       <c r="AQ22" s="25">
-        <v>105.04</v>
+        <v>105.12</v>
       </c>
       <c r="AR22" s="25">
-        <v>106.17</v>
+        <v>106.28</v>
       </c>
       <c r="AS22" s="25">
-        <v>106.92</v>
+        <v>107.05</v>
       </c>
       <c r="AT22" s="25">
-        <v>106.89</v>
+        <v>107.05</v>
       </c>
       <c r="AU22" s="25">
-        <v>107.26</v>
+        <v>107.44</v>
       </c>
       <c r="AV22" s="25">
-        <v>107.83</v>
+        <v>108.01</v>
       </c>
       <c r="AW22" s="25">
-        <v>108.22</v>
+        <v>108.41</v>
       </c>
       <c r="AX22" s="25">
-        <v>108.44</v>
+        <v>108.65</v>
       </c>
       <c r="AY22" s="25">
-        <v>108.84</v>
+        <v>109.05</v>
       </c>
       <c r="AZ22" s="25">
-        <v>108.98</v>
+        <v>109.21</v>
       </c>
       <c r="BA22" s="25">
-        <v>107.63</v>
+        <v>107.86</v>
       </c>
       <c r="BB22" s="25">
-        <v>101.89</v>
+        <v>102.12</v>
       </c>
       <c r="BC22" s="25">
-        <v>98.03</v>
+        <v>98.31</v>
       </c>
       <c r="BD22" s="25">
-        <v>101.34</v>
+        <v>101.68</v>
       </c>
       <c r="BE22" s="25">
-        <v>104.34</v>
+        <v>104.72</v>
       </c>
       <c r="BF22" s="25">
-        <v>105.31</v>
+        <v>105.68</v>
       </c>
       <c r="BG22" s="25">
-        <v>105.15</v>
+        <v>105.45</v>
       </c>
       <c r="BH22" s="25">
-        <v>104.33</v>
+        <v>104.06</v>
       </c>
       <c r="BI22" s="25">
-        <v>106.94</v>
+        <v>106.31</v>
       </c>
       <c r="BJ22" s="25">
-        <v>107.72</v>
+        <v>107.76</v>
       </c>
       <c r="BK22" s="25">
-        <v>108.01</v>
+        <v>108.53</v>
       </c>
       <c r="BL22" s="25">
-        <v>108.42</v>
+        <v>109</v>
       </c>
       <c r="BM22" s="25">
-        <v>109.07</v>
+        <v>109.76</v>
       </c>
       <c r="BN22" s="25">
-        <v>109.07</v>
+        <v>109.85</v>
       </c>
       <c r="BO22" s="25">
-        <v>109.04</v>
+        <v>109.68</v>
       </c>
       <c r="BP22" s="25">
-        <v>108.32</v>
+        <v>108.07</v>
       </c>
       <c r="BQ22" s="25">
-        <v>106.86</v>
+        <v>107.11</v>
       </c>
       <c r="BR22" s="25">
-        <v>106.25</v>
+        <v>107.28</v>
       </c>
       <c r="BS22" s="25">
-        <v>106.23</v>
+        <v>107.4</v>
       </c>
       <c r="BT22" s="25">
-        <v>105</v>
+        <v>106.84</v>
       </c>
       <c r="BU22" s="25">
-        <v>103.68</v>
-      </c>
-      <c r="BV22" s="25"/>
-      <c r="BW22" s="25"/>
+        <v>106.1</v>
+      </c>
+      <c r="BV22" s="25">
+        <v>105.41</v>
+      </c>
+      <c r="BW22" s="25">
+        <v>104.97</v>
+      </c>
       <c r="BX22" s="25"/>
       <c r="BY22" s="25"/>
       <c r="BZ22" s="25"/>
@@ -5519,7 +5590,7 @@
         <v>98.46</v>
       </c>
       <c r="G23" s="25">
-        <v>98.7</v>
+        <v>98.69</v>
       </c>
       <c r="H23" s="25">
         <v>99.7</v>
@@ -5555,7 +5626,7 @@
         <v>88.55</v>
       </c>
       <c r="S23" s="25">
-        <v>88.9</v>
+        <v>88.91</v>
       </c>
       <c r="T23" s="25">
         <v>89.77</v>
@@ -5570,157 +5641,161 @@
         <v>91.98</v>
       </c>
       <c r="X23" s="25">
-        <v>92.41</v>
+        <v>92.42</v>
       </c>
       <c r="Y23" s="25">
         <v>93.54</v>
       </c>
       <c r="Z23" s="25">
-        <v>94.61</v>
+        <v>94.62</v>
       </c>
       <c r="AA23" s="25">
-        <v>95.12</v>
+        <v>95.13</v>
       </c>
       <c r="AB23" s="25">
-        <v>94.44</v>
+        <v>94.45</v>
       </c>
       <c r="AC23" s="25">
-        <v>95.22</v>
+        <v>95.32</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.76</v>
+        <v>96.83</v>
       </c>
       <c r="AE23" s="25">
-        <v>97.22</v>
+        <v>97.29</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.67</v>
+        <v>97.73</v>
       </c>
       <c r="AG23" s="25">
-        <v>98.25</v>
+        <v>98.3</v>
       </c>
       <c r="AH23" s="25">
-        <v>98.21</v>
+        <v>98.28</v>
       </c>
       <c r="AI23" s="25">
-        <v>98.42</v>
+        <v>98.5</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.84</v>
+        <v>98.92</v>
       </c>
       <c r="AK23" s="25">
-        <v>99.1</v>
+        <v>99.18</v>
       </c>
       <c r="AL23" s="25">
-        <v>99.39</v>
+        <v>99.46</v>
       </c>
       <c r="AM23" s="25">
-        <v>99.91</v>
+        <v>99.99</v>
       </c>
       <c r="AN23" s="25">
-        <v>99.92</v>
+        <v>99.98</v>
       </c>
       <c r="AO23" s="25">
-        <v>99.83</v>
+        <v>99.89</v>
       </c>
       <c r="AP23" s="25">
-        <v>99.26</v>
+        <v>99.35</v>
       </c>
       <c r="AQ23" s="25">
-        <v>99.57</v>
+        <v>99.67</v>
       </c>
       <c r="AR23" s="25">
-        <v>100.27</v>
+        <v>100.37</v>
       </c>
       <c r="AS23" s="25">
-        <v>100.66</v>
+        <v>100.77</v>
       </c>
       <c r="AT23" s="25">
-        <v>100.7</v>
+        <v>100.82</v>
       </c>
       <c r="AU23" s="25">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AV23" s="25">
-        <v>100.98</v>
+        <v>101.08</v>
       </c>
       <c r="AW23" s="25">
-        <v>101.04</v>
+        <v>101.13</v>
       </c>
       <c r="AX23" s="25">
-        <v>101.64</v>
+        <v>101.73</v>
       </c>
       <c r="AY23" s="25">
-        <v>102.36</v>
+        <v>102.45</v>
       </c>
       <c r="AZ23" s="25">
-        <v>102.15</v>
+        <v>102.26</v>
       </c>
       <c r="BA23" s="25">
-        <v>101.17</v>
+        <v>101.25</v>
       </c>
       <c r="BB23" s="25">
-        <v>96.77</v>
+        <v>96.86</v>
       </c>
       <c r="BC23" s="25">
-        <v>94.41</v>
+        <v>94.53</v>
       </c>
       <c r="BD23" s="25">
-        <v>96.93</v>
+        <v>97.05</v>
       </c>
       <c r="BE23" s="25">
-        <v>99.22</v>
+        <v>99.36</v>
       </c>
       <c r="BF23" s="25">
-        <v>99.49</v>
+        <v>99.72</v>
       </c>
       <c r="BG23" s="25">
-        <v>99.43</v>
+        <v>99.66</v>
       </c>
       <c r="BH23" s="25">
-        <v>98.99</v>
+        <v>98.58</v>
       </c>
       <c r="BI23" s="25">
-        <v>100.96</v>
+        <v>100.12</v>
       </c>
       <c r="BJ23" s="25">
-        <v>101.67</v>
+        <v>101.53</v>
       </c>
       <c r="BK23" s="25">
-        <v>101.81</v>
+        <v>102.16</v>
       </c>
       <c r="BL23" s="25">
-        <v>102.11</v>
+        <v>102.47</v>
       </c>
       <c r="BM23" s="25">
-        <v>102.82</v>
+        <v>103.2</v>
       </c>
       <c r="BN23" s="25">
-        <v>103.35</v>
+        <v>103.79</v>
       </c>
       <c r="BO23" s="25">
-        <v>104.56</v>
+        <v>104.93</v>
       </c>
       <c r="BP23" s="25">
-        <v>104.71</v>
+        <v>104.37</v>
       </c>
       <c r="BQ23" s="25">
-        <v>103.91</v>
+        <v>103.85</v>
       </c>
       <c r="BR23" s="25">
-        <v>103.55</v>
+        <v>103.97</v>
       </c>
       <c r="BS23" s="25">
-        <v>102.48</v>
+        <v>102.92</v>
       </c>
       <c r="BT23" s="25">
-        <v>102.06</v>
+        <v>102.74</v>
       </c>
       <c r="BU23" s="25">
-        <v>101.71</v>
-      </c>
-      <c r="BV23" s="25"/>
-      <c r="BW23" s="25"/>
+        <v>103.25</v>
+      </c>
+      <c r="BV23" s="25">
+        <v>102.86</v>
+      </c>
+      <c r="BW23" s="25">
+        <v>102.39</v>
+      </c>
       <c r="BX23" s="25"/>
       <c r="BY23" s="25"/>
       <c r="BZ23" s="25"/>
@@ -5733,7 +5808,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="25">
-        <v>95.97</v>
+        <v>95.96</v>
       </c>
       <c r="D24" s="25">
         <v>97.07</v>
@@ -5751,10 +5826,10 @@
         <v>99.65</v>
       </c>
       <c r="I24" s="25">
-        <v>100.3</v>
+        <v>100.29</v>
       </c>
       <c r="J24" s="25">
-        <v>99.66</v>
+        <v>99.65</v>
       </c>
       <c r="K24" s="25">
         <v>98.68</v>
@@ -5775,10 +5850,10 @@
         <v>95.7</v>
       </c>
       <c r="Q24" s="25">
-        <v>94.64</v>
+        <v>94.65</v>
       </c>
       <c r="R24" s="25">
-        <v>94.99</v>
+        <v>95</v>
       </c>
       <c r="S24" s="25">
         <v>94.97</v>
@@ -5790,52 +5865,52 @@
         <v>96.02</v>
       </c>
       <c r="V24" s="25">
-        <v>96.46</v>
+        <v>96.47</v>
       </c>
       <c r="W24" s="25">
-        <v>96.76</v>
+        <v>96.77</v>
       </c>
       <c r="X24" s="25">
-        <v>96.92</v>
+        <v>96.93</v>
       </c>
       <c r="Y24" s="25">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="Z24" s="25">
         <v>98.03</v>
       </c>
       <c r="AA24" s="25">
-        <v>97.66</v>
+        <v>97.67</v>
       </c>
       <c r="AB24" s="25">
-        <v>96.91</v>
+        <v>96.92</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.54</v>
+        <v>98.69</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.55</v>
+        <v>99.57</v>
       </c>
       <c r="AE24" s="25">
-        <v>98.83</v>
+        <v>98.84</v>
       </c>
       <c r="AF24" s="25">
         <v>98.86</v>
       </c>
       <c r="AG24" s="25">
+        <v>99.73</v>
+      </c>
+      <c r="AH24" s="25">
         <v>99.71</v>
       </c>
-      <c r="AH24" s="25">
-        <v>99.7</v>
-      </c>
       <c r="AI24" s="25">
-        <v>99.82</v>
+        <v>99.83</v>
       </c>
       <c r="AJ24" s="25">
         <v>99.75</v>
       </c>
       <c r="AK24" s="25">
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
       <c r="AL24" s="25">
         <v>99.6</v>
@@ -5844,10 +5919,10 @@
         <v>99.81</v>
       </c>
       <c r="AN24" s="25">
-        <v>99.88</v>
+        <v>99.85</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.68</v>
+        <v>99.64</v>
       </c>
       <c r="AP24" s="25">
         <v>99.31</v>
@@ -5859,94 +5934,98 @@
         <v>99.22</v>
       </c>
       <c r="AS24" s="25">
-        <v>99.65</v>
+        <v>99.66</v>
       </c>
       <c r="AT24" s="25">
-        <v>99.54</v>
+        <v>99.55</v>
       </c>
       <c r="AU24" s="25">
-        <v>99.94</v>
+        <v>99.95</v>
       </c>
       <c r="AV24" s="25">
-        <v>100.52</v>
+        <v>100.53</v>
       </c>
       <c r="AW24" s="25">
-        <v>100.72</v>
+        <v>100.74</v>
       </c>
       <c r="AX24" s="25">
-        <v>100.58</v>
+        <v>100.63</v>
       </c>
       <c r="AY24" s="25">
-        <v>101.33</v>
+        <v>101.43</v>
       </c>
       <c r="AZ24" s="25">
-        <v>101.79</v>
+        <v>101.81</v>
       </c>
       <c r="BA24" s="25">
-        <v>101.35</v>
+        <v>101.36</v>
       </c>
       <c r="BB24" s="25">
-        <v>98.8</v>
+        <v>98.82</v>
       </c>
       <c r="BC24" s="25">
-        <v>96.26</v>
+        <v>96.27</v>
       </c>
       <c r="BD24" s="25">
-        <v>96.55</v>
+        <v>96.56</v>
       </c>
       <c r="BE24" s="25">
-        <v>97.68</v>
+        <v>97.69</v>
       </c>
       <c r="BF24" s="25">
-        <v>98</v>
+        <v>98.04</v>
       </c>
       <c r="BG24" s="25">
-        <v>98.36</v>
+        <v>98.47</v>
       </c>
       <c r="BH24" s="25">
-        <v>98.48</v>
+        <v>98.18</v>
       </c>
       <c r="BI24" s="25">
-        <v>99.45</v>
+        <v>98.76</v>
       </c>
       <c r="BJ24" s="25">
-        <v>100.04</v>
+        <v>99.8</v>
       </c>
       <c r="BK24" s="25">
-        <v>100.53</v>
+        <v>100.67</v>
       </c>
       <c r="BL24" s="25">
-        <v>101.09</v>
+        <v>101.22</v>
       </c>
       <c r="BM24" s="25">
-        <v>101.46</v>
+        <v>101.58</v>
       </c>
       <c r="BN24" s="25">
-        <v>101.26</v>
+        <v>101.36</v>
       </c>
       <c r="BO24" s="25">
-        <v>101.14</v>
+        <v>101.21</v>
       </c>
       <c r="BP24" s="25">
-        <v>100.83</v>
+        <v>100.54</v>
       </c>
       <c r="BQ24" s="25">
-        <v>100.76</v>
+        <v>100.49</v>
       </c>
       <c r="BR24" s="25">
-        <v>100.76</v>
+        <v>100.74</v>
       </c>
       <c r="BS24" s="25">
-        <v>100.9</v>
+        <v>100.84</v>
       </c>
       <c r="BT24" s="25">
-        <v>101.21</v>
+        <v>101.17</v>
       </c>
       <c r="BU24" s="25">
-        <v>102.31</v>
-      </c>
-      <c r="BV24" s="25"/>
-      <c r="BW24" s="25"/>
+        <v>101.82</v>
+      </c>
+      <c r="BV24" s="25">
+        <v>102.17</v>
+      </c>
+      <c r="BW24" s="25">
+        <v>103.05</v>
+      </c>
       <c r="BX24" s="25"/>
       <c r="BY24" s="25"/>
       <c r="BZ24" s="25"/>
@@ -5959,34 +6038,34 @@
         <v>19</v>
       </c>
       <c r="C25" s="25">
-        <v>91.48</v>
+        <v>91.47</v>
       </c>
       <c r="D25" s="25">
-        <v>96.02</v>
+        <v>96.03</v>
       </c>
       <c r="E25" s="25">
-        <v>98.02</v>
+        <v>98.01</v>
       </c>
       <c r="F25" s="25">
-        <v>98.31</v>
+        <v>98.32</v>
       </c>
       <c r="G25" s="25">
-        <v>98.6</v>
+        <v>98.59</v>
       </c>
       <c r="H25" s="25">
-        <v>99.34</v>
+        <v>99.33</v>
       </c>
       <c r="I25" s="25">
         <v>99.66</v>
       </c>
       <c r="J25" s="25">
-        <v>99.6</v>
+        <v>99.59</v>
       </c>
       <c r="K25" s="25">
-        <v>99.67</v>
+        <v>99.66</v>
       </c>
       <c r="L25" s="25">
-        <v>99.83</v>
+        <v>99.84</v>
       </c>
       <c r="M25" s="25">
         <v>100</v>
@@ -5995,10 +6074,10 @@
         <v>98.94</v>
       </c>
       <c r="O25" s="25">
-        <v>93.27</v>
+        <v>93.28</v>
       </c>
       <c r="P25" s="25">
-        <v>89.78</v>
+        <v>89.77</v>
       </c>
       <c r="Q25" s="25">
         <v>87.8</v>
@@ -6010,169 +6089,173 @@
         <v>88.03</v>
       </c>
       <c r="T25" s="25">
-        <v>88.88</v>
+        <v>88.87</v>
       </c>
       <c r="U25" s="25">
         <v>89.79</v>
       </c>
       <c r="V25" s="25">
-        <v>90.16</v>
+        <v>90.15</v>
       </c>
       <c r="W25" s="25">
-        <v>90.95</v>
+        <v>90.94</v>
       </c>
       <c r="X25" s="25">
-        <v>91.29</v>
+        <v>91.28</v>
       </c>
       <c r="Y25" s="25">
-        <v>92.31</v>
+        <v>92.3</v>
       </c>
       <c r="Z25" s="25">
-        <v>93.34</v>
+        <v>93.32</v>
       </c>
       <c r="AA25" s="25">
-        <v>94.07</v>
+        <v>94.05</v>
       </c>
       <c r="AB25" s="25">
-        <v>95.05</v>
+        <v>95.04</v>
       </c>
       <c r="AC25" s="25">
-        <v>96.95</v>
+        <v>97.01</v>
       </c>
       <c r="AD25" s="25">
-        <v>98.09</v>
+        <v>98.2</v>
       </c>
       <c r="AE25" s="25">
-        <v>98.53</v>
+        <v>98.63</v>
       </c>
       <c r="AF25" s="25">
-        <v>98.74</v>
+        <v>98.83</v>
       </c>
       <c r="AG25" s="25">
-        <v>98.95</v>
+        <v>99.04</v>
       </c>
       <c r="AH25" s="25">
-        <v>99.23</v>
+        <v>99.32</v>
       </c>
       <c r="AI25" s="25">
-        <v>99.45</v>
+        <v>99.54</v>
       </c>
       <c r="AJ25" s="25">
-        <v>99.68</v>
+        <v>99.77</v>
       </c>
       <c r="AK25" s="25">
-        <v>100.05</v>
+        <v>100.14</v>
       </c>
       <c r="AL25" s="25">
-        <v>100.45</v>
+        <v>100.54</v>
       </c>
       <c r="AM25" s="25">
-        <v>100.95</v>
+        <v>101.05</v>
       </c>
       <c r="AN25" s="25">
-        <v>101.38</v>
+        <v>101.46</v>
       </c>
       <c r="AO25" s="25">
-        <v>101.51</v>
+        <v>101.58</v>
       </c>
       <c r="AP25" s="25">
-        <v>100.77</v>
+        <v>100.85</v>
       </c>
       <c r="AQ25" s="25">
-        <v>100.9</v>
+        <v>100.98</v>
       </c>
       <c r="AR25" s="25">
-        <v>100.81</v>
+        <v>100.91</v>
       </c>
       <c r="AS25" s="25">
-        <v>101.01</v>
+        <v>101.13</v>
       </c>
       <c r="AT25" s="25">
-        <v>101.05</v>
+        <v>101.23</v>
       </c>
       <c r="AU25" s="25">
-        <v>101.52</v>
+        <v>101.71</v>
       </c>
       <c r="AV25" s="25">
-        <v>102.52</v>
+        <v>102.71</v>
       </c>
       <c r="AW25" s="25">
-        <v>103</v>
+        <v>103.17</v>
       </c>
       <c r="AX25" s="25">
-        <v>103.19</v>
+        <v>103.39</v>
       </c>
       <c r="AY25" s="25">
-        <v>103.87</v>
+        <v>104.07</v>
       </c>
       <c r="AZ25" s="25">
-        <v>104.36</v>
+        <v>104.59</v>
       </c>
       <c r="BA25" s="25">
-        <v>103.7</v>
+        <v>103.91</v>
       </c>
       <c r="BB25" s="25">
-        <v>99.15</v>
+        <v>99.35</v>
       </c>
       <c r="BC25" s="25">
-        <v>95.42</v>
+        <v>95.67</v>
       </c>
       <c r="BD25" s="25">
-        <v>98.56</v>
+        <v>98.91</v>
       </c>
       <c r="BE25" s="25">
-        <v>101.31</v>
+        <v>101.66</v>
       </c>
       <c r="BF25" s="25">
-        <v>102.55</v>
+        <v>102.95</v>
       </c>
       <c r="BG25" s="25">
-        <v>102.86</v>
+        <v>103.18</v>
       </c>
       <c r="BH25" s="25">
-        <v>103.48</v>
+        <v>103.42</v>
       </c>
       <c r="BI25" s="25">
-        <v>103.85</v>
+        <v>103.49</v>
       </c>
       <c r="BJ25" s="25">
-        <v>103.6</v>
+        <v>103.68</v>
       </c>
       <c r="BK25" s="25">
-        <v>103.31</v>
+        <v>103.75</v>
       </c>
       <c r="BL25" s="25">
-        <v>102.75</v>
+        <v>103.23</v>
       </c>
       <c r="BM25" s="25">
-        <v>103.17</v>
+        <v>103.74</v>
       </c>
       <c r="BN25" s="25">
-        <v>103.29</v>
+        <v>104.04</v>
       </c>
       <c r="BO25" s="25">
-        <v>103.34</v>
+        <v>103.98</v>
       </c>
       <c r="BP25" s="25">
-        <v>103.03</v>
+        <v>102.7</v>
       </c>
       <c r="BQ25" s="25">
-        <v>101.74</v>
+        <v>101.78</v>
       </c>
       <c r="BR25" s="25">
-        <v>101.68</v>
+        <v>102.48</v>
       </c>
       <c r="BS25" s="25">
-        <v>101.71</v>
+        <v>102.5</v>
       </c>
       <c r="BT25" s="25">
-        <v>101.16</v>
+        <v>102.34</v>
       </c>
       <c r="BU25" s="25">
-        <v>100.38</v>
-      </c>
-      <c r="BV25" s="25"/>
-      <c r="BW25" s="25"/>
+        <v>101.53</v>
+      </c>
+      <c r="BV25" s="25">
+        <v>100.46</v>
+      </c>
+      <c r="BW25" s="25">
+        <v>100.22</v>
+      </c>
       <c r="BX25" s="25"/>
       <c r="BY25" s="25"/>
       <c r="BZ25" s="25"/>
@@ -6185,16 +6268,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="25">
-        <v>94.94</v>
+        <v>94.95</v>
       </c>
       <c r="D26" s="25">
-        <v>97.44</v>
+        <v>97.45</v>
       </c>
       <c r="E26" s="25">
         <v>97.82</v>
       </c>
       <c r="F26" s="25">
-        <v>99.02</v>
+        <v>99.03</v>
       </c>
       <c r="G26" s="25">
         <v>100.16</v>
@@ -6209,16 +6292,16 @@
         <v>100.02</v>
       </c>
       <c r="K26" s="25">
-        <v>99.72</v>
+        <v>99.73</v>
       </c>
       <c r="L26" s="25">
-        <v>99.96</v>
+        <v>99.97</v>
       </c>
       <c r="M26" s="25">
         <v>100</v>
       </c>
       <c r="N26" s="25">
-        <v>98.5</v>
+        <v>98.49</v>
       </c>
       <c r="O26" s="25">
         <v>93.82</v>
@@ -6251,154 +6334,158 @@
         <v>89.9</v>
       </c>
       <c r="Y26" s="25">
-        <v>90.98</v>
+        <v>90.99</v>
       </c>
       <c r="Z26" s="25">
         <v>92.24</v>
       </c>
       <c r="AA26" s="25">
-        <v>92.55</v>
+        <v>92.56</v>
       </c>
       <c r="AB26" s="25">
         <v>92.31</v>
       </c>
       <c r="AC26" s="25">
-        <v>92.73</v>
+        <v>92.74</v>
       </c>
       <c r="AD26" s="25">
         <v>92.92</v>
       </c>
       <c r="AE26" s="25">
-        <v>93.11</v>
+        <v>93.12</v>
       </c>
       <c r="AF26" s="25">
         <v>93.32</v>
       </c>
       <c r="AG26" s="25">
-        <v>93.91</v>
+        <v>93.92</v>
       </c>
       <c r="AH26" s="25">
+        <v>94.31</v>
+      </c>
+      <c r="AI26" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>94.21</v>
+      </c>
+      <c r="AK26" s="25">
         <v>94.3</v>
       </c>
-      <c r="AI26" s="25">
-        <v>94.08</v>
-      </c>
-      <c r="AJ26" s="25">
-        <v>94.19</v>
-      </c>
-      <c r="AK26" s="25">
-        <v>94.28</v>
-      </c>
       <c r="AL26" s="25">
-        <v>94.88</v>
+        <v>94.89</v>
       </c>
       <c r="AM26" s="25">
-        <v>95.45</v>
+        <v>95.47</v>
       </c>
       <c r="AN26" s="25">
-        <v>95.55</v>
+        <v>95.57</v>
       </c>
       <c r="AO26" s="25">
         <v>95</v>
       </c>
       <c r="AP26" s="25">
-        <v>94.17</v>
+        <v>94.19</v>
       </c>
       <c r="AQ26" s="25">
-        <v>94.2</v>
+        <v>94.23</v>
       </c>
       <c r="AR26" s="25">
-        <v>94.37</v>
+        <v>94.4</v>
       </c>
       <c r="AS26" s="25">
-        <v>94.37</v>
+        <v>94.41</v>
       </c>
       <c r="AT26" s="25">
-        <v>94</v>
+        <v>94.08</v>
       </c>
       <c r="AU26" s="25">
-        <v>94.55</v>
+        <v>94.65</v>
       </c>
       <c r="AV26" s="25">
-        <v>94.67</v>
+        <v>94.76</v>
       </c>
       <c r="AW26" s="25">
-        <v>95.29</v>
+        <v>95.39</v>
       </c>
       <c r="AX26" s="25">
-        <v>96.22</v>
+        <v>96.33</v>
       </c>
       <c r="AY26" s="25">
-        <v>97.18</v>
+        <v>97.28</v>
       </c>
       <c r="AZ26" s="25">
-        <v>97.09</v>
+        <v>97.21</v>
       </c>
       <c r="BA26" s="25">
-        <v>96.25</v>
+        <v>96.4</v>
       </c>
       <c r="BB26" s="25">
-        <v>93.99</v>
+        <v>94.13</v>
       </c>
       <c r="BC26" s="25">
-        <v>91.37</v>
+        <v>91.57</v>
       </c>
       <c r="BD26" s="25">
-        <v>92.43</v>
+        <v>92.61</v>
       </c>
       <c r="BE26" s="25">
-        <v>94.14</v>
+        <v>94.3</v>
       </c>
       <c r="BF26" s="25">
-        <v>95.11</v>
+        <v>95.31</v>
       </c>
       <c r="BG26" s="25">
-        <v>94.62</v>
+        <v>94.78</v>
       </c>
       <c r="BH26" s="25">
-        <v>95.88</v>
+        <v>95.37</v>
       </c>
       <c r="BI26" s="25">
-        <v>96.61</v>
+        <v>95.69</v>
       </c>
       <c r="BJ26" s="25">
-        <v>96.05</v>
+        <v>95.83</v>
       </c>
       <c r="BK26" s="25">
-        <v>96.54</v>
+        <v>96.66</v>
       </c>
       <c r="BL26" s="25">
-        <v>96.33</v>
+        <v>96.46</v>
       </c>
       <c r="BM26" s="25">
-        <v>97.23</v>
+        <v>97.36</v>
       </c>
       <c r="BN26" s="25">
-        <v>97.65</v>
+        <v>97.94</v>
       </c>
       <c r="BO26" s="25">
-        <v>96.81</v>
+        <v>97.25</v>
       </c>
       <c r="BP26" s="25">
-        <v>96.73</v>
+        <v>96.36</v>
       </c>
       <c r="BQ26" s="25">
-        <v>96.72</v>
+        <v>96.67</v>
       </c>
       <c r="BR26" s="25">
-        <v>96.48</v>
+        <v>96.49</v>
       </c>
       <c r="BS26" s="25">
-        <v>96.91</v>
+        <v>96.63</v>
       </c>
       <c r="BT26" s="25">
-        <v>96.33</v>
+        <v>96.53</v>
       </c>
       <c r="BU26" s="25">
-        <v>95.85</v>
-      </c>
-      <c r="BV26" s="25"/>
-      <c r="BW26" s="25"/>
+        <v>96.36</v>
+      </c>
+      <c r="BV26" s="25">
+        <v>95.95</v>
+      </c>
+      <c r="BW26" s="25">
+        <v>96.13</v>
+      </c>
       <c r="BX26" s="25"/>
       <c r="BY26" s="25"/>
       <c r="BZ26" s="25"/>
@@ -6414,10 +6501,10 @@
         <v>98.65</v>
       </c>
       <c r="D27" s="25">
-        <v>99.47</v>
+        <v>99.46</v>
       </c>
       <c r="E27" s="25">
-        <v>101.02</v>
+        <v>101.01</v>
       </c>
       <c r="F27" s="25">
         <v>100.97</v>
@@ -6432,7 +6519,7 @@
         <v>101.56</v>
       </c>
       <c r="J27" s="25">
-        <v>100.73</v>
+        <v>100.72</v>
       </c>
       <c r="K27" s="25">
         <v>98.81</v>
@@ -6465,13 +6552,13 @@
         <v>95.19</v>
       </c>
       <c r="U27" s="25">
-        <v>96.13</v>
+        <v>96.12</v>
       </c>
       <c r="V27" s="25">
         <v>95.37</v>
       </c>
       <c r="W27" s="25">
-        <v>96.23</v>
+        <v>96.22</v>
       </c>
       <c r="X27" s="25">
         <v>96.17</v>
@@ -6498,13 +6585,13 @@
         <v>96.45</v>
       </c>
       <c r="AF27" s="25">
-        <v>96.18</v>
+        <v>96.19</v>
       </c>
       <c r="AG27" s="25">
         <v>97.26</v>
       </c>
       <c r="AH27" s="25">
-        <v>96.25</v>
+        <v>96.24</v>
       </c>
       <c r="AI27" s="25">
         <v>96.59</v>
@@ -6513,118 +6600,122 @@
         <v>96.21</v>
       </c>
       <c r="AK27" s="25">
-        <v>96.08</v>
+        <v>96.07</v>
       </c>
       <c r="AL27" s="25">
         <v>96.13</v>
       </c>
       <c r="AM27" s="25">
-        <v>96.49</v>
+        <v>96.48</v>
       </c>
       <c r="AN27" s="25">
         <v>97.07</v>
       </c>
       <c r="AO27" s="25">
-        <v>96.92</v>
+        <v>96.91</v>
       </c>
       <c r="AP27" s="25">
         <v>96.39</v>
       </c>
       <c r="AQ27" s="25">
-        <v>97.12</v>
+        <v>97.11</v>
       </c>
       <c r="AR27" s="25">
-        <v>97.53</v>
+        <v>97.51</v>
       </c>
       <c r="AS27" s="25">
-        <v>97.32</v>
+        <v>97.31</v>
       </c>
       <c r="AT27" s="25">
-        <v>96.37</v>
+        <v>96.42</v>
       </c>
       <c r="AU27" s="25">
-        <v>97.2</v>
+        <v>97.26</v>
       </c>
       <c r="AV27" s="25">
-        <v>97.9</v>
+        <v>97.96</v>
       </c>
       <c r="AW27" s="25">
-        <v>98.95</v>
+        <v>99.02</v>
       </c>
       <c r="AX27" s="25">
+        <v>99.03</v>
+      </c>
+      <c r="AY27" s="25">
+        <v>99.88</v>
+      </c>
+      <c r="AZ27" s="25">
+        <v>100.25</v>
+      </c>
+      <c r="BA27" s="25">
+        <v>99.87</v>
+      </c>
+      <c r="BB27" s="25">
+        <v>97.39</v>
+      </c>
+      <c r="BC27" s="25">
+        <v>94.41</v>
+      </c>
+      <c r="BD27" s="25">
+        <v>95.19</v>
+      </c>
+      <c r="BE27" s="25">
+        <v>95.59</v>
+      </c>
+      <c r="BF27" s="25">
+        <v>95.92</v>
+      </c>
+      <c r="BG27" s="25">
+        <v>97.3</v>
+      </c>
+      <c r="BH27" s="25">
+        <v>97.69</v>
+      </c>
+      <c r="BI27" s="25">
+        <v>98.78</v>
+      </c>
+      <c r="BJ27" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="BK27" s="25">
         <v>98.96</v>
-      </c>
-      <c r="AY27" s="25">
-        <v>99.8</v>
-      </c>
-      <c r="AZ27" s="25">
-        <v>100.17</v>
-      </c>
-      <c r="BA27" s="25">
-        <v>99.8</v>
-      </c>
-      <c r="BB27" s="25">
-        <v>97.32</v>
-      </c>
-      <c r="BC27" s="25">
-        <v>94.35</v>
-      </c>
-      <c r="BD27" s="25">
-        <v>95.12</v>
-      </c>
-      <c r="BE27" s="25">
-        <v>95.52</v>
-      </c>
-      <c r="BF27" s="25">
-        <v>95.85</v>
-      </c>
-      <c r="BG27" s="25">
-        <v>97.29</v>
-      </c>
-      <c r="BH27" s="25">
-        <v>98.02</v>
-      </c>
-      <c r="BI27" s="25">
-        <v>99.38</v>
-      </c>
-      <c r="BJ27" s="25">
-        <v>98.76</v>
-      </c>
-      <c r="BK27" s="25">
-        <v>99.02</v>
       </c>
       <c r="BL27" s="25">
         <v>98.91</v>
       </c>
       <c r="BM27" s="25">
-        <v>99.65</v>
+        <v>99.64</v>
       </c>
       <c r="BN27" s="25">
-        <v>99.59</v>
+        <v>99.43</v>
       </c>
       <c r="BO27" s="25">
-        <v>99.31</v>
+        <v>99.12</v>
       </c>
       <c r="BP27" s="25">
-        <v>99.05</v>
+        <v>98.7</v>
       </c>
       <c r="BQ27" s="25">
-        <v>99</v>
+        <v>98.71</v>
       </c>
       <c r="BR27" s="25">
-        <v>98.97</v>
+        <v>98.86</v>
       </c>
       <c r="BS27" s="25">
-        <v>99.24</v>
+        <v>99.02</v>
       </c>
       <c r="BT27" s="25">
-        <v>99.73</v>
+        <v>100.08</v>
       </c>
       <c r="BU27" s="25">
-        <v>100.31</v>
-      </c>
-      <c r="BV27" s="25"/>
-      <c r="BW27" s="25"/>
+        <v>101.46</v>
+      </c>
+      <c r="BV27" s="25">
+        <v>101.09</v>
+      </c>
+      <c r="BW27" s="25">
+        <v>101.86</v>
+      </c>
       <c r="BX27" s="25"/>
       <c r="BY27" s="25"/>
       <c r="BZ27" s="25"/>
@@ -6637,13 +6728,13 @@
         <v>19</v>
       </c>
       <c r="C28" s="25">
-        <v>86.52</v>
+        <v>86.51</v>
       </c>
       <c r="D28" s="25">
-        <v>91.58</v>
+        <v>91.55</v>
       </c>
       <c r="E28" s="25">
-        <v>97.21</v>
+        <v>97.2</v>
       </c>
       <c r="F28" s="25">
         <v>96.42</v>
@@ -6652,61 +6743,61 @@
         <v>95.44</v>
       </c>
       <c r="H28" s="25">
-        <v>96.63</v>
+        <v>96.62</v>
       </c>
       <c r="I28" s="25">
-        <v>97.6</v>
+        <v>97.58</v>
       </c>
       <c r="J28" s="25">
-        <v>98</v>
+        <v>97.96</v>
       </c>
       <c r="K28" s="25">
-        <v>98.81</v>
+        <v>98.79</v>
       </c>
       <c r="L28" s="25">
-        <v>99.86</v>
+        <v>99.84</v>
       </c>
       <c r="M28" s="25">
         <v>100</v>
       </c>
       <c r="N28" s="25">
-        <v>98.58</v>
+        <v>98.57</v>
       </c>
       <c r="O28" s="25">
-        <v>94.74</v>
+        <v>94.73</v>
       </c>
       <c r="P28" s="25">
-        <v>91.46</v>
+        <v>91.45</v>
       </c>
       <c r="Q28" s="25">
-        <v>89.54</v>
+        <v>89.53</v>
       </c>
       <c r="R28" s="25">
         <v>89.36</v>
       </c>
       <c r="S28" s="25">
-        <v>90.82</v>
+        <v>90.81</v>
       </c>
       <c r="T28" s="25">
-        <v>91.46</v>
+        <v>91.45</v>
       </c>
       <c r="U28" s="25">
-        <v>92.83</v>
+        <v>92.84</v>
       </c>
       <c r="V28" s="25">
-        <v>94.16</v>
+        <v>94.2</v>
       </c>
       <c r="W28" s="25">
-        <v>95.6</v>
+        <v>95.61</v>
       </c>
       <c r="X28" s="25">
-        <v>96.26</v>
+        <v>96.27</v>
       </c>
       <c r="Y28" s="25">
-        <v>97.25</v>
+        <v>97.24</v>
       </c>
       <c r="Z28" s="25">
-        <v>98.16</v>
+        <v>98.17</v>
       </c>
       <c r="AA28" s="25">
         <v>98.65</v>
@@ -6715,142 +6806,146 @@
         <v>99.05</v>
       </c>
       <c r="AC28" s="25">
-        <v>102.09</v>
+        <v>102.17</v>
       </c>
       <c r="AD28" s="25">
-        <v>102.84</v>
+        <v>102.96</v>
       </c>
       <c r="AE28" s="25">
-        <v>103.21</v>
+        <v>103.33</v>
       </c>
       <c r="AF28" s="25">
-        <v>103.65</v>
+        <v>103.77</v>
       </c>
       <c r="AG28" s="25">
-        <v>104.14</v>
+        <v>104.26</v>
       </c>
       <c r="AH28" s="25">
-        <v>104.55</v>
+        <v>104.7</v>
       </c>
       <c r="AI28" s="25">
-        <v>105</v>
+        <v>105.14</v>
       </c>
       <c r="AJ28" s="25">
-        <v>105.22</v>
+        <v>105.39</v>
       </c>
       <c r="AK28" s="25">
-        <v>105.55</v>
+        <v>105.71</v>
       </c>
       <c r="AL28" s="25">
-        <v>105.49</v>
+        <v>105.66</v>
       </c>
       <c r="AM28" s="25">
-        <v>106.15</v>
+        <v>106.35</v>
       </c>
       <c r="AN28" s="25">
-        <v>106.86</v>
+        <v>107.04</v>
       </c>
       <c r="AO28" s="25">
-        <v>106.79</v>
+        <v>106.95</v>
       </c>
       <c r="AP28" s="25">
-        <v>105.75</v>
+        <v>105.9</v>
       </c>
       <c r="AQ28" s="25">
-        <v>105.61</v>
+        <v>105.71</v>
       </c>
       <c r="AR28" s="25">
-        <v>106.14</v>
+        <v>106.26</v>
       </c>
       <c r="AS28" s="25">
-        <v>106.49</v>
+        <v>106.61</v>
       </c>
       <c r="AT28" s="25">
-        <v>107.01</v>
+        <v>107.18</v>
       </c>
       <c r="AU28" s="25">
-        <v>107.51</v>
+        <v>107.73</v>
       </c>
       <c r="AV28" s="25">
-        <v>107.9</v>
+        <v>108.13</v>
       </c>
       <c r="AW28" s="25">
-        <v>108.11</v>
+        <v>108.36</v>
       </c>
       <c r="AX28" s="25">
+        <v>108.67</v>
+      </c>
+      <c r="AY28" s="25">
+        <v>108.83</v>
+      </c>
+      <c r="AZ28" s="25">
+        <v>108.37</v>
+      </c>
+      <c r="BA28" s="25">
+        <v>106.52</v>
+      </c>
+      <c r="BB28" s="25">
+        <v>98.55</v>
+      </c>
+      <c r="BC28" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="BD28" s="25">
+        <v>97.75</v>
+      </c>
+      <c r="BE28" s="25">
+        <v>101.61</v>
+      </c>
+      <c r="BF28" s="25">
+        <v>103</v>
+      </c>
+      <c r="BG28" s="25">
+        <v>103.73</v>
+      </c>
+      <c r="BH28" s="25">
+        <v>105.84</v>
+      </c>
+      <c r="BI28" s="25">
+        <v>108.04</v>
+      </c>
+      <c r="BJ28" s="25">
+        <v>108.94</v>
+      </c>
+      <c r="BK28" s="25">
+        <v>109.89</v>
+      </c>
+      <c r="BL28" s="25">
+        <v>110.16</v>
+      </c>
+      <c r="BM28" s="25">
+        <v>110.7</v>
+      </c>
+      <c r="BN28" s="25">
+        <v>110.96</v>
+      </c>
+      <c r="BO28" s="25">
+        <v>110.7</v>
+      </c>
+      <c r="BP28" s="25">
+        <v>108.62</v>
+      </c>
+      <c r="BQ28" s="25">
+        <v>108.19</v>
+      </c>
+      <c r="BR28" s="25">
+        <v>108.54</v>
+      </c>
+      <c r="BS28" s="25">
+        <v>108.75</v>
+      </c>
+      <c r="BT28" s="25">
+        <v>108.87</v>
+      </c>
+      <c r="BU28" s="25">
         <v>108.44</v>
       </c>
-      <c r="AY28" s="25">
-        <v>108.54</v>
-      </c>
-      <c r="AZ28" s="25">
-        <v>108.05</v>
-      </c>
-      <c r="BA28" s="25">
-        <v>106.17</v>
-      </c>
-      <c r="BB28" s="25">
-        <v>98.27</v>
-      </c>
-      <c r="BC28" s="25">
-        <v>93.79</v>
-      </c>
-      <c r="BD28" s="25">
-        <v>97.41</v>
-      </c>
-      <c r="BE28" s="25">
-        <v>101.17</v>
-      </c>
-      <c r="BF28" s="25">
-        <v>102.5</v>
-      </c>
-      <c r="BG28" s="25">
-        <v>103.33</v>
-      </c>
-      <c r="BH28" s="25">
-        <v>106.01</v>
-      </c>
-      <c r="BI28" s="25">
-        <v>108.58</v>
-      </c>
-      <c r="BJ28" s="25">
-        <v>108.73</v>
-      </c>
-      <c r="BK28" s="25">
-        <v>109.22</v>
-      </c>
-      <c r="BL28" s="25">
-        <v>109.45</v>
-      </c>
-      <c r="BM28" s="25">
-        <v>110</v>
-      </c>
-      <c r="BN28" s="25">
-        <v>110.22</v>
-      </c>
-      <c r="BO28" s="25">
-        <v>110.12</v>
-      </c>
-      <c r="BP28" s="25">
-        <v>109.21</v>
-      </c>
-      <c r="BQ28" s="25">
-        <v>107.83</v>
-      </c>
-      <c r="BR28" s="25">
-        <v>107.35</v>
-      </c>
-      <c r="BS28" s="25">
-        <v>107.43</v>
-      </c>
-      <c r="BT28" s="25">
-        <v>106.87</v>
-      </c>
-      <c r="BU28" s="25">
-        <v>105.21</v>
-      </c>
-      <c r="BV28" s="25"/>
-      <c r="BW28" s="25"/>
+      <c r="BV28" s="25">
+        <v>108.04</v>
+      </c>
+      <c r="BW28" s="25">
+        <v>108.08</v>
+      </c>
       <c r="BX28" s="25"/>
       <c r="BY28" s="25"/>
       <c r="BZ28" s="25"/>
@@ -6869,7 +6964,7 @@
         <v>93.11</v>
       </c>
       <c r="E29" s="25">
-        <v>94.33</v>
+        <v>94.34</v>
       </c>
       <c r="F29" s="25">
         <v>98.08</v>
@@ -6878,7 +6973,7 @@
         <v>98.81</v>
       </c>
       <c r="H29" s="25">
-        <v>99.57</v>
+        <v>99.58</v>
       </c>
       <c r="I29" s="25">
         <v>99.98</v>
@@ -6902,7 +6997,7 @@
         <v>93.26</v>
       </c>
       <c r="P29" s="25">
-        <v>90.52</v>
+        <v>90.53</v>
       </c>
       <c r="Q29" s="25">
         <v>89.57</v>
@@ -6935,148 +7030,152 @@
         <v>95.28</v>
       </c>
       <c r="AA29" s="25">
-        <v>96.27</v>
+        <v>96.28</v>
       </c>
       <c r="AB29" s="25">
-        <v>96.36</v>
+        <v>96.4</v>
       </c>
       <c r="AC29" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="AD29" s="25">
+        <v>96.77</v>
+      </c>
+      <c r="AE29" s="25">
+        <v>95.79</v>
+      </c>
+      <c r="AF29" s="25">
+        <v>95.96</v>
+      </c>
+      <c r="AG29" s="25">
+        <v>96.08</v>
+      </c>
+      <c r="AH29" s="25">
+        <v>97.1</v>
+      </c>
+      <c r="AI29" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="AJ29" s="25">
+        <v>97.89</v>
+      </c>
+      <c r="AK29" s="25">
+        <v>97.78</v>
+      </c>
+      <c r="AL29" s="25">
+        <v>98.12</v>
+      </c>
+      <c r="AM29" s="25">
+        <v>98.28</v>
+      </c>
+      <c r="AN29" s="25">
+        <v>98.48</v>
+      </c>
+      <c r="AO29" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AP29" s="25">
+        <v>97.95</v>
+      </c>
+      <c r="AQ29" s="25">
+        <v>97.36</v>
+      </c>
+      <c r="AR29" s="25">
+        <v>97.41</v>
+      </c>
+      <c r="AS29" s="25">
+        <v>97.67</v>
+      </c>
+      <c r="AT29" s="25">
+        <v>98.35</v>
+      </c>
+      <c r="AU29" s="25">
+        <v>99.1</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>99.43</v>
+      </c>
+      <c r="AW29" s="25">
+        <v>100.07</v>
+      </c>
+      <c r="AX29" s="25">
+        <v>100.01</v>
+      </c>
+      <c r="AY29" s="25">
+        <v>100.18</v>
+      </c>
+      <c r="AZ29" s="25">
+        <v>99.58</v>
+      </c>
+      <c r="BA29" s="25">
+        <v>98.64</v>
+      </c>
+      <c r="BB29" s="25">
+        <v>93.46</v>
+      </c>
+      <c r="BC29" s="25">
+        <v>91.36</v>
+      </c>
+      <c r="BD29" s="25">
+        <v>92.79</v>
+      </c>
+      <c r="BE29" s="25">
+        <v>94.96</v>
+      </c>
+      <c r="BF29" s="25">
+        <v>95.41</v>
+      </c>
+      <c r="BG29" s="25">
+        <v>95.44</v>
+      </c>
+      <c r="BH29" s="25">
         <v>97.02</v>
       </c>
-      <c r="AD29" s="25">
-        <v>96.7</v>
-      </c>
-      <c r="AE29" s="25">
-        <v>95.76</v>
-      </c>
-      <c r="AF29" s="25">
-        <v>95.91</v>
-      </c>
-      <c r="AG29" s="25">
-        <v>96.06</v>
-      </c>
-      <c r="AH29" s="25">
-        <v>97.05</v>
-      </c>
-      <c r="AI29" s="25">
-        <v>97.6</v>
-      </c>
-      <c r="AJ29" s="25">
-        <v>97.82</v>
-      </c>
-      <c r="AK29" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="AL29" s="25">
-        <v>98.04</v>
-      </c>
-      <c r="AM29" s="25">
-        <v>98.18</v>
-      </c>
-      <c r="AN29" s="25">
-        <v>98.43</v>
-      </c>
-      <c r="AO29" s="25">
-        <v>98.36</v>
-      </c>
-      <c r="AP29" s="25">
-        <v>97.92</v>
-      </c>
-      <c r="AQ29" s="25">
-        <v>97.32</v>
-      </c>
-      <c r="AR29" s="25">
-        <v>97.33</v>
-      </c>
-      <c r="AS29" s="25">
-        <v>97.59</v>
-      </c>
-      <c r="AT29" s="25">
-        <v>98.25</v>
-      </c>
-      <c r="AU29" s="25">
-        <v>99</v>
-      </c>
-      <c r="AV29" s="25">
-        <v>99.36</v>
-      </c>
-      <c r="AW29" s="25">
-        <v>100</v>
-      </c>
-      <c r="AX29" s="25">
-        <v>99.94</v>
-      </c>
-      <c r="AY29" s="25">
-        <v>100.11</v>
-      </c>
-      <c r="AZ29" s="25">
-        <v>99.51</v>
-      </c>
-      <c r="BA29" s="25">
-        <v>98.56</v>
-      </c>
-      <c r="BB29" s="25">
-        <v>93.41</v>
-      </c>
-      <c r="BC29" s="25">
-        <v>91.32</v>
-      </c>
-      <c r="BD29" s="25">
-        <v>92.74</v>
-      </c>
-      <c r="BE29" s="25">
-        <v>94.97</v>
-      </c>
-      <c r="BF29" s="25">
-        <v>95.42</v>
-      </c>
-      <c r="BG29" s="25">
-        <v>95.57</v>
-      </c>
-      <c r="BH29" s="25">
-        <v>98.08</v>
-      </c>
       <c r="BI29" s="25">
-        <v>99.46</v>
+        <v>98.07</v>
       </c>
       <c r="BJ29" s="25">
-        <v>99.89</v>
+        <v>99.45</v>
       </c>
       <c r="BK29" s="25">
         <v>100.07</v>
       </c>
       <c r="BL29" s="25">
-        <v>100.28</v>
+        <v>100.32</v>
       </c>
       <c r="BM29" s="25">
-        <v>100.57</v>
+        <v>100.36</v>
       </c>
       <c r="BN29" s="25">
-        <v>101.25</v>
+        <v>100.99</v>
       </c>
       <c r="BO29" s="25">
-        <v>101.51</v>
+        <v>101.18</v>
       </c>
       <c r="BP29" s="25">
-        <v>101.15</v>
+        <v>100.33</v>
       </c>
       <c r="BQ29" s="25">
+        <v>99.9</v>
+      </c>
+      <c r="BR29" s="25">
         <v>100.31</v>
       </c>
-      <c r="BR29" s="25">
-        <v>100.55</v>
-      </c>
       <c r="BS29" s="25">
-        <v>101.53</v>
+        <v>101.88</v>
       </c>
       <c r="BT29" s="25">
-        <v>101.46</v>
+        <v>101.94</v>
       </c>
       <c r="BU29" s="25">
-        <v>100.88</v>
-      </c>
-      <c r="BV29" s="25"/>
-      <c r="BW29" s="25"/>
+        <v>101.98</v>
+      </c>
+      <c r="BV29" s="25">
+        <v>102.08</v>
+      </c>
+      <c r="BW29" s="25">
+        <v>102.05</v>
+      </c>
       <c r="BX29" s="25"/>
       <c r="BY29" s="25"/>
       <c r="BZ29" s="25"/>
@@ -7089,10 +7188,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="25">
-        <v>96.76</v>
+        <v>96.75</v>
       </c>
       <c r="D30" s="25">
-        <v>96.59</v>
+        <v>96.58</v>
       </c>
       <c r="E30" s="25">
         <v>94.82</v>
@@ -7101,16 +7200,16 @@
         <v>95.78</v>
       </c>
       <c r="G30" s="25">
-        <v>97.62</v>
+        <v>97.61</v>
       </c>
       <c r="H30" s="25">
         <v>99.96</v>
       </c>
       <c r="I30" s="25">
-        <v>100.18</v>
+        <v>100.19</v>
       </c>
       <c r="J30" s="25">
-        <v>98.51</v>
+        <v>98.5</v>
       </c>
       <c r="K30" s="25">
         <v>97.99</v>
@@ -7125,22 +7224,22 @@
         <v>98.8</v>
       </c>
       <c r="O30" s="25">
-        <v>97.13</v>
+        <v>97.14</v>
       </c>
       <c r="P30" s="25">
-        <v>96.85</v>
+        <v>96.87</v>
       </c>
       <c r="Q30" s="25">
-        <v>96.12</v>
+        <v>96.13</v>
       </c>
       <c r="R30" s="25">
-        <v>95.92</v>
+        <v>95.93</v>
       </c>
       <c r="S30" s="25">
-        <v>96.21</v>
+        <v>96.22</v>
       </c>
       <c r="T30" s="25">
-        <v>96.69</v>
+        <v>96.71</v>
       </c>
       <c r="U30" s="25">
         <v>96.95</v>
@@ -7155,19 +7254,19 @@
         <v>97.97</v>
       </c>
       <c r="Y30" s="25">
-        <v>96.37</v>
+        <v>96.38</v>
       </c>
       <c r="Z30" s="25">
         <v>97.41</v>
       </c>
       <c r="AA30" s="25">
-        <v>97.83</v>
+        <v>97.84</v>
       </c>
       <c r="AB30" s="25">
         <v>96</v>
       </c>
       <c r="AC30" s="25">
-        <v>97.62</v>
+        <v>97.63</v>
       </c>
       <c r="AD30" s="25">
         <v>98.57</v>
@@ -7188,7 +7287,7 @@
         <v>100.21</v>
       </c>
       <c r="AJ30" s="25">
-        <v>100.76</v>
+        <v>100.77</v>
       </c>
       <c r="AK30" s="25">
         <v>100.73</v>
@@ -7197,112 +7296,116 @@
         <v>100.11</v>
       </c>
       <c r="AM30" s="25">
-        <v>99.74</v>
+        <v>99.73</v>
       </c>
       <c r="AN30" s="25">
-        <v>100.18</v>
+        <v>100.17</v>
       </c>
       <c r="AO30" s="25">
-        <v>100.06</v>
+        <v>100.05</v>
       </c>
       <c r="AP30" s="25">
-        <v>99.78</v>
+        <v>99.79</v>
       </c>
       <c r="AQ30" s="25">
         <v>99.3</v>
       </c>
       <c r="AR30" s="25">
-        <v>99.8</v>
+        <v>99.81</v>
       </c>
       <c r="AS30" s="25">
-        <v>100.39</v>
+        <v>100.4</v>
       </c>
       <c r="AT30" s="25">
         <v>100.5</v>
       </c>
       <c r="AU30" s="25">
-        <v>100.73</v>
+        <v>100.75</v>
       </c>
       <c r="AV30" s="25">
-        <v>100.75</v>
+        <v>100.77</v>
       </c>
       <c r="AW30" s="25">
-        <v>101.16</v>
+        <v>101.17</v>
       </c>
       <c r="AX30" s="25">
-        <v>101.72</v>
+        <v>101.73</v>
       </c>
       <c r="AY30" s="25">
-        <v>102.43</v>
+        <v>102.46</v>
       </c>
       <c r="AZ30" s="25">
-        <v>102.39</v>
+        <v>102.42</v>
       </c>
       <c r="BA30" s="25">
-        <v>101.39</v>
+        <v>101.41</v>
       </c>
       <c r="BB30" s="25">
-        <v>98.48</v>
+        <v>98.49</v>
       </c>
       <c r="BC30" s="25">
-        <v>97.3</v>
+        <v>97.31</v>
       </c>
       <c r="BD30" s="25">
-        <v>98.03</v>
+        <v>98.05</v>
       </c>
       <c r="BE30" s="25">
-        <v>98.36</v>
+        <v>98.38</v>
       </c>
       <c r="BF30" s="25">
-        <v>98.68</v>
+        <v>98.7</v>
       </c>
       <c r="BG30" s="25">
-        <v>99.2</v>
+        <v>99.21</v>
       </c>
       <c r="BH30" s="25">
-        <v>99.49</v>
+        <v>99.03</v>
       </c>
       <c r="BI30" s="25">
-        <v>101.03</v>
+        <v>100.07</v>
       </c>
       <c r="BJ30" s="25">
-        <v>101.6</v>
+        <v>101.12</v>
       </c>
       <c r="BK30" s="25">
-        <v>101.8</v>
+        <v>101.79</v>
       </c>
       <c r="BL30" s="25">
-        <v>101.86</v>
+        <v>101.85</v>
       </c>
       <c r="BM30" s="25">
-        <v>101.58</v>
+        <v>101.55</v>
       </c>
       <c r="BN30" s="25">
-        <v>101.55</v>
+        <v>101.51</v>
       </c>
       <c r="BO30" s="25">
-        <v>101.12</v>
+        <v>101.07</v>
       </c>
       <c r="BP30" s="25">
-        <v>101.68</v>
+        <v>101.2</v>
       </c>
       <c r="BQ30" s="25">
-        <v>102.76</v>
+        <v>102.2</v>
       </c>
       <c r="BR30" s="25">
-        <v>103.06</v>
+        <v>102.83</v>
       </c>
       <c r="BS30" s="25">
-        <v>102.73</v>
+        <v>102.27</v>
       </c>
       <c r="BT30" s="25">
-        <v>103.76</v>
+        <v>103.11</v>
       </c>
       <c r="BU30" s="25">
-        <v>103.4</v>
-      </c>
-      <c r="BV30" s="25"/>
-      <c r="BW30" s="25"/>
+        <v>103.14</v>
+      </c>
+      <c r="BV30" s="25">
+        <v>103.46</v>
+      </c>
+      <c r="BW30" s="25">
+        <v>104.21</v>
+      </c>
       <c r="BX30" s="25"/>
       <c r="BY30" s="25"/>
       <c r="BZ30" s="25"/>
@@ -7318,25 +7421,25 @@
         <v>85.11</v>
       </c>
       <c r="D31" s="25">
-        <v>90.3</v>
+        <v>90.31</v>
       </c>
       <c r="E31" s="25">
-        <v>93.99</v>
+        <v>94.01</v>
       </c>
       <c r="F31" s="25">
-        <v>94.89</v>
+        <v>94.9</v>
       </c>
       <c r="G31" s="25">
-        <v>95.63</v>
+        <v>95.65</v>
       </c>
       <c r="H31" s="25">
-        <v>97.23</v>
+        <v>97.24</v>
       </c>
       <c r="I31" s="25">
         <v>98</v>
       </c>
       <c r="J31" s="25">
-        <v>98.45</v>
+        <v>98.46</v>
       </c>
       <c r="K31" s="25">
         <v>99.16</v>
@@ -7354,181 +7457,185 @@
         <v>94.86</v>
       </c>
       <c r="P31" s="25">
-        <v>91.53</v>
+        <v>91.54</v>
       </c>
       <c r="Q31" s="25">
-        <v>89.93</v>
+        <v>89.94</v>
       </c>
       <c r="R31" s="25">
-        <v>90</v>
+        <v>90.02</v>
       </c>
       <c r="S31" s="25">
-        <v>90.38</v>
+        <v>90.4</v>
       </c>
       <c r="T31" s="25">
-        <v>91.33</v>
+        <v>91.34</v>
       </c>
       <c r="U31" s="25">
-        <v>92.74</v>
+        <v>92.75</v>
       </c>
       <c r="V31" s="25">
-        <v>93.53</v>
+        <v>93.54</v>
       </c>
       <c r="W31" s="25">
-        <v>94.02</v>
+        <v>94.03</v>
       </c>
       <c r="X31" s="25">
-        <v>95</v>
+        <v>95.01</v>
       </c>
       <c r="Y31" s="25">
-        <v>96.03</v>
+        <v>96.05</v>
       </c>
       <c r="Z31" s="25">
-        <v>96.8</v>
+        <v>96.82</v>
       </c>
       <c r="AA31" s="25">
-        <v>97.6</v>
+        <v>97.62</v>
       </c>
       <c r="AB31" s="25">
-        <v>99</v>
+        <v>99.02</v>
       </c>
       <c r="AC31" s="25">
-        <v>101.45</v>
+        <v>101.56</v>
       </c>
       <c r="AD31" s="25">
-        <v>102.26</v>
+        <v>102.43</v>
       </c>
       <c r="AE31" s="25">
-        <v>102.27</v>
+        <v>102.48</v>
       </c>
       <c r="AF31" s="25">
-        <v>103.08</v>
+        <v>103.28</v>
       </c>
       <c r="AG31" s="25">
-        <v>103.95</v>
+        <v>104.15</v>
       </c>
       <c r="AH31" s="25">
-        <v>104.39</v>
+        <v>104.59</v>
       </c>
       <c r="AI31" s="25">
-        <v>104.67</v>
+        <v>104.87</v>
       </c>
       <c r="AJ31" s="25">
-        <v>104.81</v>
+        <v>105.01</v>
       </c>
       <c r="AK31" s="25">
-        <v>104.89</v>
+        <v>105.12</v>
       </c>
       <c r="AL31" s="25">
-        <v>105.4</v>
+        <v>105.63</v>
       </c>
       <c r="AM31" s="25">
-        <v>106.02</v>
+        <v>106.25</v>
       </c>
       <c r="AN31" s="25">
+        <v>106.15</v>
+      </c>
+      <c r="AO31" s="25">
+        <v>106.12</v>
+      </c>
+      <c r="AP31" s="25">
+        <v>104.72</v>
+      </c>
+      <c r="AQ31" s="25">
+        <v>104.42</v>
+      </c>
+      <c r="AR31" s="25">
+        <v>105.87</v>
+      </c>
+      <c r="AS31" s="25">
+        <v>106.3</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>106.23</v>
+      </c>
+      <c r="AU31" s="25">
+        <v>105.97</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>106.63</v>
+      </c>
+      <c r="AW31" s="25">
+        <v>106.95</v>
+      </c>
+      <c r="AX31" s="25">
+        <v>107.22</v>
+      </c>
+      <c r="AY31" s="25">
+        <v>107.69</v>
+      </c>
+      <c r="AZ31" s="25">
+        <v>107.55</v>
+      </c>
+      <c r="BA31" s="25">
+        <v>106.19</v>
+      </c>
+      <c r="BB31" s="25">
+        <v>99.73</v>
+      </c>
+      <c r="BC31" s="25">
+        <v>94.79</v>
+      </c>
+      <c r="BD31" s="25">
+        <v>97.98</v>
+      </c>
+      <c r="BE31" s="25">
+        <v>102.08</v>
+      </c>
+      <c r="BF31" s="25">
+        <v>104.11</v>
+      </c>
+      <c r="BG31" s="25">
+        <v>104.41</v>
+      </c>
+      <c r="BH31" s="25">
+        <v>105.09</v>
+      </c>
+      <c r="BI31" s="25">
         <v>105.94</v>
       </c>
-      <c r="AO31" s="25">
-        <v>105.93</v>
-      </c>
-      <c r="AP31" s="25">
-        <v>104.53</v>
-      </c>
-      <c r="AQ31" s="25">
-        <v>104.2</v>
-      </c>
-      <c r="AR31" s="25">
-        <v>105.61</v>
-      </c>
-      <c r="AS31" s="25">
-        <v>106.01</v>
-      </c>
-      <c r="AT31" s="25">
-        <v>105.92</v>
-      </c>
-      <c r="AU31" s="25">
-        <v>105.63</v>
-      </c>
-      <c r="AV31" s="25">
-        <v>106.28</v>
-      </c>
-      <c r="AW31" s="25">
-        <v>106.6</v>
-      </c>
-      <c r="AX31" s="25">
-        <v>106.88</v>
-      </c>
-      <c r="AY31" s="25">
-        <v>107.32</v>
-      </c>
-      <c r="AZ31" s="25">
-        <v>107.17</v>
-      </c>
-      <c r="BA31" s="25">
-        <v>105.8</v>
-      </c>
-      <c r="BB31" s="25">
-        <v>99.33</v>
-      </c>
-      <c r="BC31" s="25">
-        <v>94.37</v>
-      </c>
-      <c r="BD31" s="25">
-        <v>97.54</v>
-      </c>
-      <c r="BE31" s="25">
-        <v>101.58</v>
-      </c>
-      <c r="BF31" s="25">
-        <v>103.57</v>
-      </c>
-      <c r="BG31" s="25">
-        <v>103.94</v>
-      </c>
-      <c r="BH31" s="25">
-        <v>105.06</v>
-      </c>
-      <c r="BI31" s="25">
-        <v>106.29</v>
-      </c>
       <c r="BJ31" s="25">
-        <v>106.13</v>
+        <v>106.41</v>
       </c>
       <c r="BK31" s="25">
-        <v>106.02</v>
+        <v>106.69</v>
       </c>
       <c r="BL31" s="25">
-        <v>106.31</v>
+        <v>107.18</v>
       </c>
       <c r="BM31" s="25">
-        <v>106.55</v>
+        <v>107.47</v>
       </c>
       <c r="BN31" s="25">
-        <v>106.36</v>
+        <v>107.29</v>
       </c>
       <c r="BO31" s="25">
-        <v>106.23</v>
+        <v>107.1</v>
       </c>
       <c r="BP31" s="25">
-        <v>105.62</v>
+        <v>105.42</v>
       </c>
       <c r="BQ31" s="25">
-        <v>103.75</v>
+        <v>104.36</v>
       </c>
       <c r="BR31" s="25">
-        <v>103.1</v>
+        <v>104.42</v>
       </c>
       <c r="BS31" s="25">
-        <v>103.09</v>
+        <v>104.68</v>
       </c>
       <c r="BT31" s="25">
-        <v>101.95</v>
+        <v>104.15</v>
       </c>
       <c r="BU31" s="25">
-        <v>98.15</v>
-      </c>
-      <c r="BV31" s="25"/>
-      <c r="BW31" s="25"/>
+        <v>101.92</v>
+      </c>
+      <c r="BV31" s="25">
+        <v>100.98</v>
+      </c>
+      <c r="BW31" s="25">
+        <v>99.51</v>
+      </c>
       <c r="BX31" s="25"/>
       <c r="BY31" s="25"/>
       <c r="BZ31" s="25"/>
@@ -7541,34 +7648,34 @@
         <v>8</v>
       </c>
       <c r="C32" s="25">
-        <v>91.35</v>
+        <v>91.37</v>
       </c>
       <c r="D32" s="25">
-        <v>95.15</v>
+        <v>95.16</v>
       </c>
       <c r="E32" s="25">
         <v>97.7</v>
       </c>
       <c r="F32" s="25">
-        <v>97.61</v>
+        <v>97.62</v>
       </c>
       <c r="G32" s="25">
-        <v>98.22</v>
+        <v>98.23</v>
       </c>
       <c r="H32" s="25">
-        <v>99.76</v>
+        <v>99.77</v>
       </c>
       <c r="I32" s="25">
-        <v>100.09</v>
+        <v>100.1</v>
       </c>
       <c r="J32" s="25">
-        <v>101.21</v>
+        <v>101.24</v>
       </c>
       <c r="K32" s="25">
-        <v>102.23</v>
+        <v>102.26</v>
       </c>
       <c r="L32" s="25">
-        <v>101.91</v>
+        <v>101.92</v>
       </c>
       <c r="M32" s="25">
         <v>100</v>
@@ -7577,184 +7684,188 @@
         <v>98.41</v>
       </c>
       <c r="O32" s="25">
-        <v>93.29</v>
+        <v>93.28</v>
       </c>
       <c r="P32" s="25">
-        <v>90.03</v>
+        <v>90.02</v>
       </c>
       <c r="Q32" s="25">
-        <v>87.5</v>
+        <v>87.49</v>
       </c>
       <c r="R32" s="25">
-        <v>87.91</v>
+        <v>87.9</v>
       </c>
       <c r="S32" s="25">
-        <v>88.16</v>
+        <v>88.15</v>
       </c>
       <c r="T32" s="25">
-        <v>88</v>
+        <v>87.99</v>
       </c>
       <c r="U32" s="25">
-        <v>88.95</v>
+        <v>88.94</v>
       </c>
       <c r="V32" s="25">
         <v>89.84</v>
       </c>
       <c r="W32" s="25">
-        <v>90.85</v>
+        <v>90.84</v>
       </c>
       <c r="X32" s="25">
         <v>91.35</v>
       </c>
       <c r="Y32" s="25">
-        <v>92.03</v>
+        <v>92.02</v>
       </c>
       <c r="Z32" s="25">
-        <v>93.02</v>
+        <v>93.01</v>
       </c>
       <c r="AA32" s="25">
-        <v>93.36</v>
+        <v>93.35</v>
       </c>
       <c r="AB32" s="25">
         <v>93.14</v>
       </c>
       <c r="AC32" s="25">
-        <v>93.92</v>
+        <v>93.96</v>
       </c>
       <c r="AD32" s="25">
-        <v>95.87</v>
+        <v>95.96</v>
       </c>
       <c r="AE32" s="25">
-        <v>95.61</v>
+        <v>95.71</v>
       </c>
       <c r="AF32" s="25">
-        <v>95.94</v>
+        <v>96.04</v>
       </c>
       <c r="AG32" s="25">
-        <v>96.23</v>
+        <v>96.34</v>
       </c>
       <c r="AH32" s="25">
-        <v>96.76</v>
+        <v>96.88</v>
       </c>
       <c r="AI32" s="25">
+        <v>97.08</v>
+      </c>
+      <c r="AJ32" s="25">
         <v>96.97</v>
       </c>
-      <c r="AJ32" s="25">
-        <v>96.86</v>
-      </c>
       <c r="AK32" s="25">
-        <v>96.32</v>
+        <v>96.43</v>
       </c>
       <c r="AL32" s="25">
+        <v>96.79</v>
+      </c>
+      <c r="AM32" s="25">
+        <v>97.27</v>
+      </c>
+      <c r="AN32" s="25">
+        <v>97.07</v>
+      </c>
+      <c r="AO32" s="25">
+        <v>96.78</v>
+      </c>
+      <c r="AP32" s="25">
         <v>96.66</v>
       </c>
-      <c r="AM32" s="25">
-        <v>97.12</v>
-      </c>
-      <c r="AN32" s="25">
-        <v>96.95</v>
-      </c>
-      <c r="AO32" s="25">
-        <v>96.68</v>
-      </c>
-      <c r="AP32" s="25">
-        <v>96.56</v>
-      </c>
       <c r="AQ32" s="25">
-        <v>97.36</v>
+        <v>97.45</v>
       </c>
       <c r="AR32" s="25">
-        <v>98.18</v>
+        <v>98.28</v>
       </c>
       <c r="AS32" s="25">
-        <v>99.05</v>
+        <v>99.15</v>
       </c>
       <c r="AT32" s="25">
-        <v>98.68</v>
+        <v>98.77</v>
       </c>
       <c r="AU32" s="25">
-        <v>98.54</v>
+        <v>98.66</v>
       </c>
       <c r="AV32" s="25">
-        <v>98.67</v>
+        <v>98.8</v>
       </c>
       <c r="AW32" s="25">
-        <v>99.51</v>
+        <v>99.64</v>
       </c>
       <c r="AX32" s="25">
-        <v>99.42</v>
+        <v>99.56</v>
       </c>
       <c r="AY32" s="25">
-        <v>99.55</v>
+        <v>99.68</v>
       </c>
       <c r="AZ32" s="25">
-        <v>99.65</v>
+        <v>99.78</v>
       </c>
       <c r="BA32" s="25">
-        <v>98.24</v>
+        <v>98.37</v>
       </c>
       <c r="BB32" s="25">
-        <v>92.41</v>
+        <v>92.55</v>
       </c>
       <c r="BC32" s="25">
-        <v>89.45</v>
+        <v>89.6</v>
       </c>
       <c r="BD32" s="25">
-        <v>91.86</v>
+        <v>91.99</v>
       </c>
       <c r="BE32" s="25">
-        <v>94.36</v>
+        <v>94.5</v>
       </c>
       <c r="BF32" s="25">
-        <v>96.29</v>
+        <v>96.43</v>
       </c>
       <c r="BG32" s="25">
-        <v>97.63</v>
+        <v>97.72</v>
       </c>
       <c r="BH32" s="25">
-        <v>98.74</v>
+        <v>98.26</v>
       </c>
       <c r="BI32" s="25">
-        <v>99.73</v>
+        <v>98.82</v>
       </c>
       <c r="BJ32" s="25">
-        <v>99.62</v>
+        <v>99.35</v>
       </c>
       <c r="BK32" s="25">
-        <v>100.12</v>
+        <v>100.21</v>
       </c>
       <c r="BL32" s="25">
-        <v>100.02</v>
+        <v>100.2</v>
       </c>
       <c r="BM32" s="25">
-        <v>100.24</v>
+        <v>100.38</v>
       </c>
       <c r="BN32" s="25">
-        <v>99.95</v>
+        <v>100.09</v>
       </c>
       <c r="BO32" s="25">
-        <v>100.68</v>
+        <v>100.74</v>
       </c>
       <c r="BP32" s="25">
-        <v>99.89</v>
+        <v>99.38</v>
       </c>
       <c r="BQ32" s="25">
-        <v>99.07</v>
+        <v>98.79</v>
       </c>
       <c r="BR32" s="25">
-        <v>99.03</v>
+        <v>99.08</v>
       </c>
       <c r="BS32" s="25">
-        <v>99.32</v>
+        <v>99.9</v>
       </c>
       <c r="BT32" s="25">
-        <v>99.26</v>
+        <v>99.64</v>
       </c>
       <c r="BU32" s="25">
-        <v>98.67</v>
-      </c>
-      <c r="BV32" s="25"/>
-      <c r="BW32" s="25"/>
+        <v>99.48</v>
+      </c>
+      <c r="BV32" s="25">
+        <v>99.17</v>
+      </c>
+      <c r="BW32" s="25">
+        <v>99.69</v>
+      </c>
       <c r="BX32" s="25"/>
       <c r="BY32" s="25"/>
       <c r="BZ32" s="25"/>
@@ -7770,7 +7881,7 @@
         <v>96.73</v>
       </c>
       <c r="D33" s="25">
-        <v>97.15</v>
+        <v>97.16</v>
       </c>
       <c r="E33" s="25">
         <v>98.23</v>
@@ -7779,22 +7890,22 @@
         <v>98.16</v>
       </c>
       <c r="G33" s="25">
-        <v>98</v>
+        <v>98.01</v>
       </c>
       <c r="H33" s="25">
         <v>97.81</v>
       </c>
       <c r="I33" s="25">
-        <v>97.88</v>
+        <v>97.89</v>
       </c>
       <c r="J33" s="25">
-        <v>97.77</v>
+        <v>97.78</v>
       </c>
       <c r="K33" s="25">
-        <v>97.5</v>
+        <v>97.51</v>
       </c>
       <c r="L33" s="25">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="M33" s="25">
         <v>100</v>
@@ -7803,13 +7914,13 @@
         <v>99.14</v>
       </c>
       <c r="O33" s="25">
-        <v>97.42</v>
+        <v>97.41</v>
       </c>
       <c r="P33" s="25">
         <v>96.18</v>
       </c>
       <c r="Q33" s="25">
-        <v>96.14</v>
+        <v>96.15</v>
       </c>
       <c r="R33" s="25">
         <v>96.13</v>
@@ -7830,7 +7941,7 @@
         <v>97.13</v>
       </c>
       <c r="X33" s="25">
-        <v>96.84</v>
+        <v>96.85</v>
       </c>
       <c r="Y33" s="25">
         <v>96.63</v>
@@ -7842,148 +7953,157 @@
         <v>96.04</v>
       </c>
       <c r="AB33" s="25">
-        <v>96.25</v>
+        <v>96.24</v>
       </c>
       <c r="AC33" s="25">
-        <v>97.08</v>
+        <v>97.09</v>
       </c>
       <c r="AD33" s="25">
-        <v>97.87</v>
+        <v>97.89</v>
       </c>
       <c r="AE33" s="25">
-        <v>97.81</v>
+        <v>97.83</v>
       </c>
       <c r="AF33" s="25">
-        <v>97.6</v>
+        <v>97.63</v>
       </c>
       <c r="AG33" s="25">
-        <v>97.98</v>
+        <v>98.01</v>
       </c>
       <c r="AH33" s="25">
-        <v>98.01</v>
+        <v>98.03</v>
       </c>
       <c r="AI33" s="25">
-        <v>97.75</v>
+        <v>97.77</v>
       </c>
       <c r="AJ33" s="25">
-        <v>97.54</v>
+        <v>97.57</v>
       </c>
       <c r="AK33" s="25">
-        <v>97.76</v>
+        <v>97.79</v>
       </c>
       <c r="AL33" s="25">
-        <v>97.88</v>
+        <v>97.9</v>
       </c>
       <c r="AM33" s="25">
-        <v>98.25</v>
+        <v>98.28</v>
       </c>
       <c r="AN33" s="25">
-        <v>98.33</v>
+        <v>98.35</v>
       </c>
       <c r="AO33" s="25">
-        <v>98.02</v>
+        <v>98.04</v>
       </c>
       <c r="AP33" s="25">
-        <v>97.89</v>
+        <v>97.92</v>
       </c>
       <c r="AQ33" s="25">
-        <v>98.02</v>
+        <v>98.03</v>
       </c>
       <c r="AR33" s="25">
-        <v>98.56</v>
+        <v>98.58</v>
       </c>
       <c r="AS33" s="25">
-        <v>98.7</v>
+        <v>98.72</v>
       </c>
       <c r="AT33" s="25">
-        <v>97.9</v>
+        <v>97.92</v>
       </c>
       <c r="AU33" s="25">
-        <v>98.05</v>
+        <v>98.09</v>
       </c>
       <c r="AV33" s="25">
-        <v>98.38</v>
+        <v>98.42</v>
       </c>
       <c r="AW33" s="25">
-        <v>98.45</v>
+        <v>98.48</v>
       </c>
       <c r="AX33" s="25">
+        <v>98.49</v>
+      </c>
+      <c r="AY33" s="25">
+        <v>98.9</v>
+      </c>
+      <c r="AZ33" s="25">
         <v>98.46</v>
       </c>
-      <c r="AY33" s="25">
-        <v>98.86</v>
-      </c>
-      <c r="AZ33" s="25">
-        <v>98.42</v>
-      </c>
       <c r="BA33" s="25">
-        <v>98.56</v>
+        <v>98.6</v>
       </c>
       <c r="BB33" s="25">
-        <v>96.33</v>
+        <v>96.36</v>
       </c>
       <c r="BC33" s="25">
-        <v>94.24</v>
+        <v>94.27</v>
       </c>
       <c r="BD33" s="25">
-        <v>93.99</v>
+        <v>94.01</v>
       </c>
       <c r="BE33" s="25">
-        <v>95.28</v>
+        <v>95.3</v>
       </c>
       <c r="BF33" s="25">
-        <v>95.82</v>
+        <v>95.86</v>
       </c>
       <c r="BG33" s="25">
         <v>96.19</v>
       </c>
       <c r="BH33" s="25">
-        <v>97</v>
+        <v>96.61</v>
       </c>
       <c r="BI33" s="25">
-        <v>98.01</v>
+        <v>97.15</v>
       </c>
       <c r="BJ33" s="25">
-        <v>98.23</v>
+        <v>97.83</v>
       </c>
       <c r="BK33" s="25">
-        <v>98.76</v>
+        <v>98.72</v>
       </c>
       <c r="BL33" s="25">
-        <v>98.76</v>
+        <v>98.77</v>
       </c>
       <c r="BM33" s="25">
-        <v>99.03</v>
+        <v>99.05</v>
       </c>
       <c r="BN33" s="25">
-        <v>99.17</v>
+        <v>99.19</v>
       </c>
       <c r="BO33" s="25">
-        <v>99.13</v>
+        <v>99.05</v>
       </c>
       <c r="BP33" s="25">
-        <v>98.73</v>
+        <v>98.33</v>
       </c>
       <c r="BQ33" s="25">
-        <v>99.05</v>
+        <v>98.62</v>
       </c>
       <c r="BR33" s="25">
-        <v>99.08</v>
+        <v>98.77</v>
       </c>
       <c r="BS33" s="25">
+        <v>98.96</v>
+      </c>
+      <c r="BT33" s="25">
         <v>99.44</v>
       </c>
-      <c r="BT33" s="25">
-        <v>99.85</v>
-      </c>
       <c r="BU33" s="25">
-        <v>101.49</v>
-      </c>
-      <c r="BV33" s="25"/>
-      <c r="BW33" s="25"/>
+        <v>99.57</v>
+      </c>
+      <c r="BV33" s="25">
+        <v>99.59</v>
+      </c>
+      <c r="BW33" s="25">
+        <v>100.74</v>
+      </c>
       <c r="BX33" s="25"/>
       <c r="BY33" s="25"/>
       <c r="BZ33" s="25"/>
+    </row>
+    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data-raw/abs/payrolls/6160055001_DO007.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO007.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3505C-595E-470F-AFBE-EC1BE6FDCDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51093BED-63D7-49C5-8569-DE2A775020C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
@@ -110,10 +110,13 @@
     <t>200+ employees</t>
   </si>
   <si>
-    <t>Week ending Saturday 22 May 2021</t>
+    <t>Released at 11.30am (Canberra time) 22 June 2021</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 09 June 2021</t>
+    <t>Week ending Saturday 05 June 2021</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs by Employer characteristics</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>NA = Not available</t>
-  </si>
-  <si>
-    <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Employer characteristics</t>
   </si>
 </sst>
 </file>
@@ -1130,12 +1130,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1578,9 +1578,9 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="5"/>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="24">
         <v>43834</v>
@@ -1886,8 +1886,12 @@
       <c r="BW6" s="24">
         <v>44338</v>
       </c>
-      <c r="BX6" s="24"/>
-      <c r="BY6" s="24"/>
+      <c r="BX6" s="24">
+        <v>44345</v>
+      </c>
+      <c r="BY6" s="24">
+        <v>44352</v>
+      </c>
       <c r="BZ6" s="24"/>
     </row>
     <row r="7" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1943,13 +1947,13 @@
         <v>88.96</v>
       </c>
       <c r="R7" s="25">
-        <v>88.77</v>
+        <v>88.78</v>
       </c>
       <c r="S7" s="25">
         <v>89.54</v>
       </c>
       <c r="T7" s="25">
-        <v>90.71</v>
+        <v>90.72</v>
       </c>
       <c r="U7" s="25">
         <v>92.07</v>
@@ -1958,166 +1962,170 @@
         <v>93.25</v>
       </c>
       <c r="W7" s="25">
-        <v>93.84</v>
+        <v>93.85</v>
       </c>
       <c r="X7" s="25">
         <v>94.36</v>
       </c>
       <c r="Y7" s="25">
-        <v>95.67</v>
+        <v>95.68</v>
       </c>
       <c r="Z7" s="25">
-        <v>96.19</v>
+        <v>96.2</v>
       </c>
       <c r="AA7" s="25">
         <v>96.75</v>
       </c>
       <c r="AB7" s="25">
-        <v>97.69</v>
+        <v>97.7</v>
       </c>
       <c r="AC7" s="25">
-        <v>100.2</v>
+        <v>100.27</v>
       </c>
       <c r="AD7" s="25">
-        <v>101.17</v>
+        <v>101.29</v>
       </c>
       <c r="AE7" s="25">
-        <v>101.37</v>
+        <v>101.5</v>
       </c>
       <c r="AF7" s="25">
-        <v>101.82</v>
+        <v>101.95</v>
       </c>
       <c r="AG7" s="25">
-        <v>101.98</v>
+        <v>102.11</v>
       </c>
       <c r="AH7" s="25">
-        <v>102.05</v>
+        <v>102.18</v>
       </c>
       <c r="AI7" s="25">
+        <v>102.18</v>
+      </c>
+      <c r="AJ7" s="25">
+        <v>102.37</v>
+      </c>
+      <c r="AK7" s="25">
+        <v>102.65</v>
+      </c>
+      <c r="AL7" s="25">
+        <v>102.99</v>
+      </c>
+      <c r="AM7" s="25">
+        <v>103.6</v>
+      </c>
+      <c r="AN7" s="25">
+        <v>103.7</v>
+      </c>
+      <c r="AO7" s="25">
+        <v>103.56</v>
+      </c>
+      <c r="AP7" s="25">
+        <v>102.37</v>
+      </c>
+      <c r="AQ7" s="25">
+        <v>102.31</v>
+      </c>
+      <c r="AR7" s="25">
+        <v>103.15</v>
+      </c>
+      <c r="AS7" s="25">
+        <v>103.61</v>
+      </c>
+      <c r="AT7" s="25">
+        <v>103.96</v>
+      </c>
+      <c r="AU7" s="25">
+        <v>104.86</v>
+      </c>
+      <c r="AV7" s="25">
+        <v>105.73</v>
+      </c>
+      <c r="AW7" s="25">
+        <v>106.17</v>
+      </c>
+      <c r="AX7" s="25">
+        <v>106.61</v>
+      </c>
+      <c r="AY7" s="25">
+        <v>107.07</v>
+      </c>
+      <c r="AZ7" s="25">
+        <v>107.2</v>
+      </c>
+      <c r="BA7" s="25">
+        <v>105.97</v>
+      </c>
+      <c r="BB7" s="25">
+        <v>100.47</v>
+      </c>
+      <c r="BC7" s="25">
+        <v>96.04</v>
+      </c>
+      <c r="BD7" s="25">
+        <v>98.73</v>
+      </c>
+      <c r="BE7" s="25">
+        <v>102.23</v>
+      </c>
+      <c r="BF7" s="25">
+        <v>103.7</v>
+      </c>
+      <c r="BG7" s="25">
+        <v>104.06</v>
+      </c>
+      <c r="BH7" s="25">
+        <v>104.56</v>
+      </c>
+      <c r="BI7" s="25">
+        <v>105.12</v>
+      </c>
+      <c r="BJ7" s="25">
+        <v>105.22</v>
+      </c>
+      <c r="BK7" s="25">
+        <v>105.52</v>
+      </c>
+      <c r="BL7" s="25">
+        <v>106.43</v>
+      </c>
+      <c r="BM7" s="25">
+        <v>107.16</v>
+      </c>
+      <c r="BN7" s="25">
+        <v>107.17</v>
+      </c>
+      <c r="BO7" s="25">
+        <v>107.02</v>
+      </c>
+      <c r="BP7" s="25">
+        <v>105.05</v>
+      </c>
+      <c r="BQ7" s="25">
+        <v>103.99</v>
+      </c>
+      <c r="BR7" s="25">
+        <v>103.74</v>
+      </c>
+      <c r="BS7" s="25">
+        <v>103.96</v>
+      </c>
+      <c r="BT7" s="25">
+        <v>104.33</v>
+      </c>
+      <c r="BU7" s="25">
+        <v>103.26</v>
+      </c>
+      <c r="BV7" s="25">
+        <v>103</v>
+      </c>
+      <c r="BW7" s="25">
+        <v>102.9</v>
+      </c>
+      <c r="BX7" s="25">
         <v>102.04</v>
       </c>
-      <c r="AJ7" s="25">
-        <v>102.24</v>
-      </c>
-      <c r="AK7" s="25">
-        <v>102.51</v>
-      </c>
-      <c r="AL7" s="25">
-        <v>102.84</v>
-      </c>
-      <c r="AM7" s="25">
-        <v>103.45</v>
-      </c>
-      <c r="AN7" s="25">
-        <v>103.55</v>
-      </c>
-      <c r="AO7" s="25">
-        <v>103.4</v>
-      </c>
-      <c r="AP7" s="25">
-        <v>102.39</v>
-      </c>
-      <c r="AQ7" s="25">
-        <v>102.58</v>
-      </c>
-      <c r="AR7" s="25">
-        <v>103.42</v>
-      </c>
-      <c r="AS7" s="25">
-        <v>103.87</v>
-      </c>
-      <c r="AT7" s="25">
-        <v>104.15</v>
-      </c>
-      <c r="AU7" s="25">
-        <v>104.67</v>
-      </c>
-      <c r="AV7" s="25">
-        <v>105.52</v>
-      </c>
-      <c r="AW7" s="25">
-        <v>105.95</v>
-      </c>
-      <c r="AX7" s="25">
-        <v>106.39</v>
-      </c>
-      <c r="AY7" s="25">
-        <v>106.84</v>
-      </c>
-      <c r="AZ7" s="25">
-        <v>106.95</v>
-      </c>
-      <c r="BA7" s="25">
-        <v>105.72</v>
-      </c>
-      <c r="BB7" s="25">
-        <v>100.21</v>
-      </c>
-      <c r="BC7" s="25">
-        <v>95.74</v>
-      </c>
-      <c r="BD7" s="25">
-        <v>98.37</v>
-      </c>
-      <c r="BE7" s="25">
-        <v>101.85</v>
-      </c>
-      <c r="BF7" s="25">
-        <v>103.31</v>
-      </c>
-      <c r="BG7" s="25">
-        <v>103.66</v>
-      </c>
-      <c r="BH7" s="25">
-        <v>104.1</v>
-      </c>
-      <c r="BI7" s="25">
-        <v>104.7</v>
-      </c>
-      <c r="BJ7" s="25">
-        <v>105.19</v>
-      </c>
-      <c r="BK7" s="25">
-        <v>105.72</v>
-      </c>
-      <c r="BL7" s="25">
-        <v>106.2</v>
-      </c>
-      <c r="BM7" s="25">
-        <v>106.6</v>
-      </c>
-      <c r="BN7" s="25">
-        <v>106.57</v>
-      </c>
-      <c r="BO7" s="25">
-        <v>106.37</v>
-      </c>
-      <c r="BP7" s="25">
-        <v>104.29</v>
-      </c>
-      <c r="BQ7" s="25">
-        <v>103.22</v>
-      </c>
-      <c r="BR7" s="25">
-        <v>103.56</v>
-      </c>
-      <c r="BS7" s="25">
-        <v>103.63</v>
-      </c>
-      <c r="BT7" s="25">
-        <v>103.13</v>
-      </c>
-      <c r="BU7" s="25">
-        <v>101.42</v>
-      </c>
-      <c r="BV7" s="25">
-        <v>100.51</v>
-      </c>
-      <c r="BW7" s="25">
-        <v>100.17</v>
-      </c>
-      <c r="BX7" s="25"/>
-      <c r="BY7" s="25"/>
+      <c r="BY7" s="25">
+        <v>99.41</v>
+      </c>
       <c r="BZ7" s="25"/>
     </row>
     <row r="8" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2161,13 +2169,13 @@
         <v>100</v>
       </c>
       <c r="N8" s="25">
-        <v>98.26</v>
+        <v>98.27</v>
       </c>
       <c r="O8" s="25">
         <v>92.9</v>
       </c>
       <c r="P8" s="25">
-        <v>89.52</v>
+        <v>89.53</v>
       </c>
       <c r="Q8" s="25">
         <v>88.07</v>
@@ -2191,7 +2199,7 @@
         <v>91</v>
       </c>
       <c r="X8" s="25">
-        <v>91.43</v>
+        <v>91.44</v>
       </c>
       <c r="Y8" s="25">
         <v>92.34</v>
@@ -2206,148 +2214,152 @@
         <v>93.05</v>
       </c>
       <c r="AC8" s="25">
-        <v>93.61</v>
+        <v>93.63</v>
       </c>
       <c r="AD8" s="25">
-        <v>94.16</v>
+        <v>94.19</v>
       </c>
       <c r="AE8" s="25">
-        <v>94.39</v>
+        <v>94.42</v>
       </c>
       <c r="AF8" s="25">
-        <v>94.89</v>
+        <v>94.92</v>
       </c>
       <c r="AG8" s="25">
-        <v>95.04</v>
+        <v>95.07</v>
       </c>
       <c r="AH8" s="25">
-        <v>94.83</v>
+        <v>94.87</v>
       </c>
       <c r="AI8" s="25">
-        <v>94.73</v>
+        <v>94.77</v>
       </c>
       <c r="AJ8" s="25">
-        <v>94.8</v>
+        <v>94.84</v>
       </c>
       <c r="AK8" s="25">
-        <v>94.98</v>
+        <v>95.02</v>
       </c>
       <c r="AL8" s="25">
-        <v>95.33</v>
+        <v>95.37</v>
       </c>
       <c r="AM8" s="25">
-        <v>95.91</v>
+        <v>95.95</v>
       </c>
       <c r="AN8" s="25">
-        <v>96.01</v>
+        <v>96.05</v>
       </c>
       <c r="AO8" s="25">
-        <v>95.83</v>
+        <v>95.87</v>
       </c>
       <c r="AP8" s="25">
-        <v>95.15</v>
+        <v>95.11</v>
       </c>
       <c r="AQ8" s="25">
-        <v>95.31</v>
+        <v>95.14</v>
       </c>
       <c r="AR8" s="25">
-        <v>96.37</v>
+        <v>96.19</v>
       </c>
       <c r="AS8" s="25">
-        <v>96.83</v>
+        <v>96.65</v>
       </c>
       <c r="AT8" s="25">
-        <v>96.93</v>
+        <v>96.79</v>
       </c>
       <c r="AU8" s="25">
-        <v>97.35</v>
+        <v>97.39</v>
       </c>
       <c r="AV8" s="25">
-        <v>98</v>
+        <v>98.06</v>
       </c>
       <c r="AW8" s="25">
-        <v>98.3</v>
+        <v>98.37</v>
       </c>
       <c r="AX8" s="25">
-        <v>98.66</v>
+        <v>98.72</v>
       </c>
       <c r="AY8" s="25">
-        <v>99.03</v>
+        <v>99.1</v>
       </c>
       <c r="AZ8" s="25">
-        <v>99.07</v>
+        <v>99.15</v>
       </c>
       <c r="BA8" s="25">
-        <v>98.01</v>
+        <v>98.09</v>
       </c>
       <c r="BB8" s="25">
-        <v>93.51</v>
+        <v>93.6</v>
       </c>
       <c r="BC8" s="25">
-        <v>90.89</v>
+        <v>90.97</v>
       </c>
       <c r="BD8" s="25">
-        <v>92.86</v>
+        <v>92.95</v>
       </c>
       <c r="BE8" s="25">
-        <v>95.22</v>
+        <v>95.3</v>
       </c>
       <c r="BF8" s="25">
-        <v>96.39</v>
+        <v>96.47</v>
       </c>
       <c r="BG8" s="25">
-        <v>96.94</v>
+        <v>97.03</v>
       </c>
       <c r="BH8" s="25">
-        <v>97.57</v>
+        <v>97.66</v>
       </c>
       <c r="BI8" s="25">
-        <v>98.11</v>
+        <v>98.16</v>
       </c>
       <c r="BJ8" s="25">
-        <v>98.53</v>
+        <v>98.18</v>
       </c>
       <c r="BK8" s="25">
-        <v>99.37</v>
+        <v>98.76</v>
       </c>
       <c r="BL8" s="25">
-        <v>99.45</v>
+        <v>99.24</v>
       </c>
       <c r="BM8" s="25">
-        <v>99.99</v>
+        <v>100.08</v>
       </c>
       <c r="BN8" s="25">
-        <v>100.32</v>
+        <v>100.42</v>
       </c>
       <c r="BO8" s="25">
-        <v>100.6</v>
+        <v>100.72</v>
       </c>
       <c r="BP8" s="25">
-        <v>99.6</v>
+        <v>99.76</v>
       </c>
       <c r="BQ8" s="25">
+        <v>98.96</v>
+      </c>
+      <c r="BR8" s="25">
         <v>98.88</v>
       </c>
-      <c r="BR8" s="25">
-        <v>99.28</v>
-      </c>
       <c r="BS8" s="25">
-        <v>99.74</v>
+        <v>99.38</v>
       </c>
       <c r="BT8" s="25">
-        <v>99.89</v>
+        <v>100.04</v>
       </c>
       <c r="BU8" s="25">
-        <v>99.88</v>
+        <v>100.28</v>
       </c>
       <c r="BV8" s="25">
-        <v>99.74</v>
+        <v>100.39</v>
       </c>
       <c r="BW8" s="25">
-        <v>100.07</v>
-      </c>
-      <c r="BX8" s="25"/>
-      <c r="BY8" s="25"/>
+        <v>100.65</v>
+      </c>
+      <c r="BX8" s="25">
+        <v>100.34</v>
+      </c>
+      <c r="BY8" s="25">
+        <v>99.49</v>
+      </c>
       <c r="BZ8" s="25"/>
     </row>
     <row r="9" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2430,7 +2442,7 @@
         <v>97.58</v>
       </c>
       <c r="AA9" s="25">
-        <v>97.19</v>
+        <v>97.2</v>
       </c>
       <c r="AB9" s="25">
         <v>95.96</v>
@@ -2439,145 +2451,149 @@
         <v>96.63</v>
       </c>
       <c r="AD9" s="25">
-        <v>97.91</v>
+        <v>97.92</v>
       </c>
       <c r="AE9" s="25">
         <v>97.85</v>
       </c>
       <c r="AF9" s="25">
-        <v>97.77</v>
+        <v>97.78</v>
       </c>
       <c r="AG9" s="25">
-        <v>98</v>
+        <v>98.03</v>
       </c>
       <c r="AH9" s="25">
-        <v>98.01</v>
+        <v>98.04</v>
       </c>
       <c r="AI9" s="25">
-        <v>97.8</v>
+        <v>97.83</v>
       </c>
       <c r="AJ9" s="25">
+        <v>97.84</v>
+      </c>
+      <c r="AK9" s="25">
+        <v>97.85</v>
+      </c>
+      <c r="AL9" s="25">
         <v>97.82</v>
       </c>
-      <c r="AK9" s="25">
-        <v>97.82</v>
-      </c>
-      <c r="AL9" s="25">
-        <v>97.8</v>
-      </c>
       <c r="AM9" s="25">
-        <v>98.01</v>
+        <v>98.03</v>
       </c>
       <c r="AN9" s="25">
-        <v>98.19</v>
+        <v>98.2</v>
       </c>
       <c r="AO9" s="25">
-        <v>97.91</v>
+        <v>97.92</v>
       </c>
       <c r="AP9" s="25">
-        <v>97.26</v>
+        <v>97.21</v>
       </c>
       <c r="AQ9" s="25">
-        <v>97.47</v>
+        <v>97.32</v>
       </c>
       <c r="AR9" s="25">
-        <v>98.17</v>
+        <v>97.98</v>
       </c>
       <c r="AS9" s="25">
-        <v>98.24</v>
+        <v>98.05</v>
       </c>
       <c r="AT9" s="25">
-        <v>98.25</v>
+        <v>98.09</v>
       </c>
       <c r="AU9" s="25">
-        <v>98.45</v>
+        <v>98.44</v>
       </c>
       <c r="AV9" s="25">
-        <v>99.12</v>
+        <v>99.15</v>
       </c>
       <c r="AW9" s="25">
-        <v>99.33</v>
+        <v>99.36</v>
       </c>
       <c r="AX9" s="25">
-        <v>99.52</v>
+        <v>99.54</v>
       </c>
       <c r="AY9" s="25">
-        <v>100.1</v>
+        <v>100.13</v>
       </c>
       <c r="AZ9" s="25">
-        <v>100.09</v>
+        <v>100.12</v>
       </c>
       <c r="BA9" s="25">
-        <v>99.6</v>
+        <v>99.62</v>
       </c>
       <c r="BB9" s="25">
-        <v>97.11</v>
+        <v>97.14</v>
       </c>
       <c r="BC9" s="25">
-        <v>94.91</v>
+        <v>94.94</v>
       </c>
       <c r="BD9" s="25">
-        <v>95.14</v>
+        <v>95.17</v>
       </c>
       <c r="BE9" s="25">
-        <v>96.26</v>
+        <v>96.28</v>
       </c>
       <c r="BF9" s="25">
-        <v>96.77</v>
+        <v>96.8</v>
       </c>
       <c r="BG9" s="25">
-        <v>97.22</v>
+        <v>97.25</v>
       </c>
       <c r="BH9" s="25">
-        <v>97.25</v>
+        <v>97.28</v>
       </c>
       <c r="BI9" s="25">
-        <v>98.06</v>
+        <v>98.07</v>
       </c>
       <c r="BJ9" s="25">
-        <v>98.72</v>
+        <v>98.41</v>
       </c>
       <c r="BK9" s="25">
-        <v>99.39</v>
+        <v>98.8</v>
       </c>
       <c r="BL9" s="25">
-        <v>99.5</v>
+        <v>99.21</v>
       </c>
       <c r="BM9" s="25">
         <v>99.69</v>
       </c>
       <c r="BN9" s="25">
-        <v>99.85</v>
+        <v>99.71</v>
       </c>
       <c r="BO9" s="25">
-        <v>99.57</v>
+        <v>99.42</v>
       </c>
       <c r="BP9" s="25">
-        <v>99.11</v>
+        <v>99.08</v>
       </c>
       <c r="BQ9" s="25">
+        <v>98.87</v>
+      </c>
+      <c r="BR9" s="25">
+        <v>98.86</v>
+      </c>
+      <c r="BS9" s="25">
         <v>98.95</v>
       </c>
-      <c r="BR9" s="25">
-        <v>99.29</v>
-      </c>
-      <c r="BS9" s="25">
-        <v>99.41</v>
-      </c>
       <c r="BT9" s="25">
-        <v>99.78</v>
+        <v>99.68</v>
       </c>
       <c r="BU9" s="25">
-        <v>100.22</v>
+        <v>100.05</v>
       </c>
       <c r="BV9" s="25">
-        <v>100.6</v>
+        <v>100.26</v>
       </c>
       <c r="BW9" s="25">
-        <v>101.47</v>
-      </c>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
+        <v>100.77</v>
+      </c>
+      <c r="BX9" s="25">
+        <v>100.86</v>
+      </c>
+      <c r="BY9" s="25">
+        <v>101.41</v>
+      </c>
       <c r="BZ9" s="25"/>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
@@ -2588,16 +2604,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="25">
-        <v>87</v>
+        <v>86.99</v>
       </c>
       <c r="D10" s="25">
-        <v>91.68</v>
+        <v>91.67</v>
       </c>
       <c r="E10" s="25">
         <v>94.36</v>
       </c>
       <c r="F10" s="25">
-        <v>95.49</v>
+        <v>95.48</v>
       </c>
       <c r="G10" s="25">
         <v>96.37</v>
@@ -2615,7 +2631,7 @@
         <v>98.96</v>
       </c>
       <c r="L10" s="25">
-        <v>99.97</v>
+        <v>99.98</v>
       </c>
       <c r="M10" s="25">
         <v>100</v>
@@ -2636,7 +2652,7 @@
         <v>88.93</v>
       </c>
       <c r="S10" s="25">
-        <v>89.58</v>
+        <v>89.59</v>
       </c>
       <c r="T10" s="25">
         <v>90.79</v>
@@ -2651,163 +2667,167 @@
         <v>94.89</v>
       </c>
       <c r="X10" s="25">
-        <v>95.46</v>
+        <v>95.45</v>
       </c>
       <c r="Y10" s="25">
         <v>96.85</v>
       </c>
       <c r="Z10" s="25">
-        <v>96.55</v>
+        <v>96.56</v>
       </c>
       <c r="AA10" s="25">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="AB10" s="25">
-        <v>97.82</v>
+        <v>97.83</v>
       </c>
       <c r="AC10" s="25">
-        <v>100.95</v>
+        <v>101.05</v>
       </c>
       <c r="AD10" s="25">
-        <v>102.31</v>
+        <v>102.46</v>
       </c>
       <c r="AE10" s="25">
-        <v>102.54</v>
+        <v>102.71</v>
       </c>
       <c r="AF10" s="25">
-        <v>103.11</v>
+        <v>103.27</v>
       </c>
       <c r="AG10" s="25">
-        <v>103.27</v>
+        <v>103.44</v>
       </c>
       <c r="AH10" s="25">
-        <v>103.57</v>
+        <v>103.73</v>
       </c>
       <c r="AI10" s="25">
-        <v>103.81</v>
+        <v>103.97</v>
       </c>
       <c r="AJ10" s="25">
-        <v>104.12</v>
+        <v>104.28</v>
       </c>
       <c r="AK10" s="25">
-        <v>104.31</v>
+        <v>104.48</v>
       </c>
       <c r="AL10" s="25">
-        <v>104.75</v>
+        <v>104.92</v>
       </c>
       <c r="AM10" s="25">
-        <v>105.33</v>
+        <v>105.52</v>
       </c>
       <c r="AN10" s="25">
-        <v>105.42</v>
+        <v>105.6</v>
       </c>
       <c r="AO10" s="25">
-        <v>105.35</v>
+        <v>105.54</v>
       </c>
       <c r="AP10" s="25">
-        <v>103.94</v>
+        <v>103.89</v>
       </c>
       <c r="AQ10" s="25">
-        <v>103.8</v>
+        <v>103.41</v>
       </c>
       <c r="AR10" s="25">
-        <v>104.71</v>
+        <v>104.32</v>
       </c>
       <c r="AS10" s="25">
+        <v>104.77</v>
+      </c>
+      <c r="AT10" s="25">
+        <v>104.83</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>105.8</v>
+      </c>
+      <c r="AV10" s="25">
+        <v>106.75</v>
+      </c>
+      <c r="AW10" s="25">
+        <v>107.39</v>
+      </c>
+      <c r="AX10" s="25">
+        <v>107.61</v>
+      </c>
+      <c r="AY10" s="25">
+        <v>107.82</v>
+      </c>
+      <c r="AZ10" s="25">
+        <v>107.72</v>
+      </c>
+      <c r="BA10" s="25">
+        <v>106.34</v>
+      </c>
+      <c r="BB10" s="25">
+        <v>100.68</v>
+      </c>
+      <c r="BC10" s="25">
+        <v>96.03</v>
+      </c>
+      <c r="BD10" s="25">
+        <v>98.57</v>
+      </c>
+      <c r="BE10" s="25">
+        <v>102.13</v>
+      </c>
+      <c r="BF10" s="25">
+        <v>103.56</v>
+      </c>
+      <c r="BG10" s="25">
+        <v>103.98</v>
+      </c>
+      <c r="BH10" s="25">
+        <v>104.58</v>
+      </c>
+      <c r="BI10" s="25">
+        <v>105.1</v>
+      </c>
+      <c r="BJ10" s="25">
+        <v>105.11</v>
+      </c>
+      <c r="BK10" s="25">
         <v>105.15</v>
       </c>
-      <c r="AT10" s="25">
-        <v>105.12</v>
-      </c>
-      <c r="AU10" s="25">
-        <v>105.58</v>
-      </c>
-      <c r="AV10" s="25">
-        <v>106.51</v>
-      </c>
-      <c r="AW10" s="25">
-        <v>107.14</v>
-      </c>
-      <c r="AX10" s="25">
-        <v>107.36</v>
-      </c>
-      <c r="AY10" s="25">
-        <v>107.55</v>
-      </c>
-      <c r="AZ10" s="25">
-        <v>107.45</v>
-      </c>
-      <c r="BA10" s="25">
-        <v>106.06</v>
-      </c>
-      <c r="BB10" s="25">
-        <v>100.38</v>
-      </c>
-      <c r="BC10" s="25">
-        <v>95.68</v>
-      </c>
-      <c r="BD10" s="25">
-        <v>98.16</v>
-      </c>
-      <c r="BE10" s="25">
-        <v>101.69</v>
-      </c>
-      <c r="BF10" s="25">
-        <v>103.1</v>
-      </c>
-      <c r="BG10" s="25">
-        <v>103.51</v>
-      </c>
-      <c r="BH10" s="25">
-        <v>104.02</v>
-      </c>
-      <c r="BI10" s="25">
-        <v>104.57</v>
-      </c>
-      <c r="BJ10" s="25">
-        <v>104.89</v>
-      </c>
-      <c r="BK10" s="25">
-        <v>105.14</v>
-      </c>
       <c r="BL10" s="25">
-        <v>105.77</v>
+        <v>106.14</v>
       </c>
       <c r="BM10" s="25">
-        <v>106.14</v>
+        <v>106.82</v>
       </c>
       <c r="BN10" s="25">
-        <v>105.85</v>
+        <v>106.57</v>
       </c>
       <c r="BO10" s="25">
-        <v>105.57</v>
+        <v>106.36</v>
       </c>
       <c r="BP10" s="25">
-        <v>103.67</v>
+        <v>104.59</v>
       </c>
       <c r="BQ10" s="25">
-        <v>102.21</v>
+        <v>103.16</v>
       </c>
       <c r="BR10" s="25">
-        <v>102.5</v>
+        <v>102.91</v>
       </c>
       <c r="BS10" s="25">
-        <v>102.66</v>
+        <v>103.19</v>
       </c>
       <c r="BT10" s="25">
-        <v>101.98</v>
+        <v>103.35</v>
       </c>
       <c r="BU10" s="25">
-        <v>99.58</v>
+        <v>101.57</v>
       </c>
       <c r="BV10" s="25">
-        <v>98.43</v>
+        <v>101.11</v>
       </c>
       <c r="BW10" s="25">
-        <v>98.1</v>
-      </c>
-      <c r="BX10" s="25"/>
-      <c r="BY10" s="25"/>
+        <v>100.96</v>
+      </c>
+      <c r="BX10" s="25">
+        <v>100.11</v>
+      </c>
+      <c r="BY10" s="25">
+        <v>97.61</v>
+      </c>
       <c r="BZ10" s="25"/>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
@@ -2821,7 +2841,7 @@
         <v>92.38</v>
       </c>
       <c r="D11" s="25">
-        <v>95.79</v>
+        <v>95.78</v>
       </c>
       <c r="E11" s="25">
         <v>97.61</v>
@@ -2896,148 +2916,152 @@
         <v>93.01</v>
       </c>
       <c r="AC11" s="25">
-        <v>93.68</v>
+        <v>93.69</v>
       </c>
       <c r="AD11" s="25">
-        <v>94.84</v>
+        <v>94.87</v>
       </c>
       <c r="AE11" s="25">
-        <v>95.33</v>
+        <v>95.37</v>
       </c>
       <c r="AF11" s="25">
-        <v>95.73</v>
+        <v>95.76</v>
       </c>
       <c r="AG11" s="25">
-        <v>95.86</v>
+        <v>95.89</v>
       </c>
       <c r="AH11" s="25">
-        <v>95.9</v>
+        <v>95.92</v>
       </c>
       <c r="AI11" s="25">
-        <v>96.06</v>
+        <v>96.08</v>
       </c>
       <c r="AJ11" s="25">
-        <v>96.35</v>
+        <v>96.38</v>
       </c>
       <c r="AK11" s="25">
-        <v>96.57</v>
+        <v>96.6</v>
       </c>
       <c r="AL11" s="25">
-        <v>96.8</v>
+        <v>96.84</v>
       </c>
       <c r="AM11" s="25">
-        <v>97.13</v>
+        <v>97.16</v>
       </c>
       <c r="AN11" s="25">
-        <v>97.22</v>
+        <v>97.24</v>
       </c>
       <c r="AO11" s="25">
-        <v>97.26</v>
+        <v>97.28</v>
       </c>
       <c r="AP11" s="25">
-        <v>96.54</v>
+        <v>96.45</v>
       </c>
       <c r="AQ11" s="25">
-        <v>96.36</v>
+        <v>96.12</v>
       </c>
       <c r="AR11" s="25">
-        <v>97.28</v>
+        <v>97.02</v>
       </c>
       <c r="AS11" s="25">
-        <v>97.73</v>
+        <v>97.48</v>
       </c>
       <c r="AT11" s="25">
-        <v>97.54</v>
+        <v>97.34</v>
       </c>
       <c r="AU11" s="25">
-        <v>97.85</v>
+        <v>97.88</v>
       </c>
       <c r="AV11" s="25">
-        <v>98.41</v>
+        <v>98.46</v>
       </c>
       <c r="AW11" s="25">
-        <v>98.94</v>
+        <v>99</v>
       </c>
       <c r="AX11" s="25">
-        <v>99.09</v>
+        <v>99.15</v>
       </c>
       <c r="AY11" s="25">
-        <v>99.21</v>
+        <v>99.28</v>
       </c>
       <c r="AZ11" s="25">
-        <v>99.21</v>
+        <v>99.27</v>
       </c>
       <c r="BA11" s="25">
-        <v>98.21</v>
+        <v>98.27</v>
       </c>
       <c r="BB11" s="25">
-        <v>93.64</v>
+        <v>93.69</v>
       </c>
       <c r="BC11" s="25">
-        <v>90.83</v>
+        <v>90.88</v>
       </c>
       <c r="BD11" s="25">
-        <v>93.11</v>
+        <v>93.17</v>
       </c>
       <c r="BE11" s="25">
-        <v>95.47</v>
+        <v>95.53</v>
       </c>
       <c r="BF11" s="25">
-        <v>96.66</v>
+        <v>96.7</v>
       </c>
       <c r="BG11" s="25">
-        <v>97.28</v>
+        <v>97.33</v>
       </c>
       <c r="BH11" s="25">
-        <v>98.09</v>
+        <v>98.16</v>
       </c>
       <c r="BI11" s="25">
-        <v>98.57</v>
+        <v>98.58</v>
       </c>
       <c r="BJ11" s="25">
-        <v>98.48</v>
+        <v>98.16</v>
       </c>
       <c r="BK11" s="25">
-        <v>99.26</v>
+        <v>98.73</v>
       </c>
       <c r="BL11" s="25">
-        <v>99.4</v>
+        <v>99.2</v>
       </c>
       <c r="BM11" s="25">
-        <v>99.84</v>
+        <v>99.89</v>
       </c>
       <c r="BN11" s="25">
-        <v>100.08</v>
+        <v>100.11</v>
       </c>
       <c r="BO11" s="25">
-        <v>100.61</v>
+        <v>100.67</v>
       </c>
       <c r="BP11" s="25">
-        <v>99.55</v>
+        <v>99.69</v>
       </c>
       <c r="BQ11" s="25">
-        <v>98.32</v>
+        <v>98.37</v>
       </c>
       <c r="BR11" s="25">
-        <v>99.07</v>
+        <v>98.66</v>
       </c>
       <c r="BS11" s="25">
-        <v>99.74</v>
+        <v>99.36</v>
       </c>
       <c r="BT11" s="25">
-        <v>99.94</v>
+        <v>99.93</v>
       </c>
       <c r="BU11" s="25">
-        <v>99.68</v>
+        <v>99.89</v>
       </c>
       <c r="BV11" s="25">
-        <v>99.37</v>
+        <v>99.92</v>
       </c>
       <c r="BW11" s="25">
-        <v>99.81</v>
-      </c>
-      <c r="BX11" s="25"/>
-      <c r="BY11" s="25"/>
+        <v>100.29</v>
+      </c>
+      <c r="BX11" s="25">
+        <v>99.96</v>
+      </c>
+      <c r="BY11" s="25">
+        <v>99.39</v>
+      </c>
       <c r="BZ11" s="25"/>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
@@ -3069,7 +3093,7 @@
         <v>99.94</v>
       </c>
       <c r="J12" s="25">
-        <v>99.55</v>
+        <v>99.56</v>
       </c>
       <c r="K12" s="25">
         <v>99.28</v>
@@ -3090,7 +3114,7 @@
         <v>95.95</v>
       </c>
       <c r="Q12" s="25">
-        <v>95.12</v>
+        <v>95.11</v>
       </c>
       <c r="R12" s="25">
         <v>94.84</v>
@@ -3120,7 +3144,7 @@
         <v>97.96</v>
       </c>
       <c r="AA12" s="25">
-        <v>97.64</v>
+        <v>97.63</v>
       </c>
       <c r="AB12" s="25">
         <v>96.98</v>
@@ -3129,145 +3153,149 @@
         <v>97.22</v>
       </c>
       <c r="AD12" s="25">
-        <v>98.37</v>
+        <v>98.38</v>
       </c>
       <c r="AE12" s="25">
         <v>98.17</v>
       </c>
       <c r="AF12" s="25">
-        <v>98.21</v>
+        <v>98.22</v>
       </c>
       <c r="AG12" s="25">
-        <v>98.74</v>
+        <v>98.75</v>
       </c>
       <c r="AH12" s="25">
-        <v>98.84</v>
+        <v>98.85</v>
       </c>
       <c r="AI12" s="25">
-        <v>98.79</v>
+        <v>98.8</v>
       </c>
       <c r="AJ12" s="25">
-        <v>98.71</v>
+        <v>98.72</v>
       </c>
       <c r="AK12" s="25">
-        <v>98.86</v>
+        <v>98.88</v>
       </c>
       <c r="AL12" s="25">
-        <v>98.67</v>
+        <v>98.7</v>
       </c>
       <c r="AM12" s="25">
+        <v>98.91</v>
+      </c>
+      <c r="AN12" s="25">
+        <v>99.15</v>
+      </c>
+      <c r="AO12" s="25">
+        <v>99.04</v>
+      </c>
+      <c r="AP12" s="25">
+        <v>98.1</v>
+      </c>
+      <c r="AQ12" s="25">
+        <v>97.93</v>
+      </c>
+      <c r="AR12" s="25">
+        <v>98.89</v>
+      </c>
+      <c r="AS12" s="25">
+        <v>98.98</v>
+      </c>
+      <c r="AT12" s="25">
         <v>98.88</v>
       </c>
-      <c r="AN12" s="25">
-        <v>99.13</v>
-      </c>
-      <c r="AO12" s="25">
-        <v>99.01</v>
-      </c>
-      <c r="AP12" s="25">
-        <v>98.15</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>98.09</v>
-      </c>
-      <c r="AR12" s="25">
-        <v>99.06</v>
-      </c>
-      <c r="AS12" s="25">
-        <v>99.14</v>
-      </c>
-      <c r="AT12" s="25">
-        <v>99</v>
-      </c>
       <c r="AU12" s="25">
-        <v>99.02</v>
+        <v>99.05</v>
       </c>
       <c r="AV12" s="25">
-        <v>99.53</v>
+        <v>99.56</v>
       </c>
       <c r="AW12" s="25">
-        <v>99.96</v>
+        <v>99.99</v>
       </c>
       <c r="AX12" s="25">
-        <v>100.19</v>
+        <v>100.21</v>
       </c>
       <c r="AY12" s="25">
-        <v>100.75</v>
+        <v>100.76</v>
       </c>
       <c r="AZ12" s="25">
-        <v>100.74</v>
+        <v>100.76</v>
       </c>
       <c r="BA12" s="25">
-        <v>100.41</v>
+        <v>100.43</v>
       </c>
       <c r="BB12" s="25">
-        <v>98.17</v>
+        <v>98.18</v>
       </c>
       <c r="BC12" s="25">
-        <v>95.4</v>
+        <v>95.42</v>
       </c>
       <c r="BD12" s="25">
-        <v>95.57</v>
+        <v>95.59</v>
       </c>
       <c r="BE12" s="25">
-        <v>96.76</v>
+        <v>96.77</v>
       </c>
       <c r="BF12" s="25">
-        <v>97.17</v>
+        <v>97.2</v>
       </c>
       <c r="BG12" s="25">
-        <v>97.59</v>
+        <v>97.62</v>
       </c>
       <c r="BH12" s="25">
-        <v>97.51</v>
+        <v>97.54</v>
       </c>
       <c r="BI12" s="25">
-        <v>98.43</v>
+        <v>98.44</v>
       </c>
       <c r="BJ12" s="25">
-        <v>98.93</v>
+        <v>98.66</v>
       </c>
       <c r="BK12" s="25">
-        <v>99.66</v>
+        <v>99.11</v>
       </c>
       <c r="BL12" s="25">
-        <v>99.71</v>
+        <v>99.42</v>
       </c>
       <c r="BM12" s="25">
-        <v>99.96</v>
+        <v>99.98</v>
       </c>
       <c r="BN12" s="25">
-        <v>99.99</v>
+        <v>99.87</v>
       </c>
       <c r="BO12" s="25">
-        <v>99.82</v>
+        <v>99.65</v>
       </c>
       <c r="BP12" s="25">
-        <v>99.42</v>
+        <v>99.41</v>
       </c>
       <c r="BQ12" s="25">
-        <v>99.2</v>
+        <v>99.12</v>
       </c>
       <c r="BR12" s="25">
-        <v>99.5</v>
+        <v>99.08</v>
       </c>
       <c r="BS12" s="25">
-        <v>99.54</v>
+        <v>99.05</v>
       </c>
       <c r="BT12" s="25">
-        <v>100</v>
+        <v>99.85</v>
       </c>
       <c r="BU12" s="25">
-        <v>100.49</v>
+        <v>100.27</v>
       </c>
       <c r="BV12" s="25">
-        <v>100.71</v>
+        <v>100.23</v>
       </c>
       <c r="BW12" s="25">
-        <v>101.71</v>
-      </c>
-      <c r="BX12" s="25"/>
-      <c r="BY12" s="25"/>
+        <v>100.82</v>
+      </c>
+      <c r="BX12" s="25">
+        <v>100.85</v>
+      </c>
+      <c r="BY12" s="25">
+        <v>101.87</v>
+      </c>
       <c r="BZ12" s="25"/>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
@@ -3278,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="25">
-        <v>87.32</v>
+        <v>87.33</v>
       </c>
       <c r="D13" s="25">
         <v>90.87</v>
@@ -3317,19 +3345,19 @@
         <v>93.75</v>
       </c>
       <c r="P13" s="25">
-        <v>90.5</v>
+        <v>90.51</v>
       </c>
       <c r="Q13" s="25">
-        <v>88.87</v>
+        <v>88.88</v>
       </c>
       <c r="R13" s="25">
-        <v>88.67</v>
+        <v>88.68</v>
       </c>
       <c r="S13" s="25">
-        <v>89.44</v>
+        <v>89.45</v>
       </c>
       <c r="T13" s="25">
-        <v>90.61</v>
+        <v>90.62</v>
       </c>
       <c r="U13" s="25">
         <v>91.68</v>
@@ -3338,166 +3366,170 @@
         <v>92.33</v>
       </c>
       <c r="W13" s="25">
-        <v>92.77</v>
+        <v>92.78</v>
       </c>
       <c r="X13" s="25">
-        <v>93.37</v>
+        <v>93.38</v>
       </c>
       <c r="Y13" s="25">
-        <v>94.76</v>
+        <v>94.77</v>
       </c>
       <c r="Z13" s="25">
-        <v>95.51</v>
+        <v>95.52</v>
       </c>
       <c r="AA13" s="25">
-        <v>96.08</v>
+        <v>96.09</v>
       </c>
       <c r="AB13" s="25">
-        <v>96.98</v>
+        <v>96.99</v>
       </c>
       <c r="AC13" s="25">
-        <v>99.2</v>
+        <v>99.28</v>
       </c>
       <c r="AD13" s="25">
-        <v>99.49</v>
+        <v>99.61</v>
       </c>
       <c r="AE13" s="25">
-        <v>99.19</v>
+        <v>99.32</v>
       </c>
       <c r="AF13" s="25">
-        <v>99.33</v>
+        <v>99.46</v>
       </c>
       <c r="AG13" s="25">
-        <v>99.18</v>
+        <v>99.31</v>
       </c>
       <c r="AH13" s="25">
-        <v>98.39</v>
+        <v>98.53</v>
       </c>
       <c r="AI13" s="25">
-        <v>97.62</v>
+        <v>97.76</v>
       </c>
       <c r="AJ13" s="25">
-        <v>97.42</v>
+        <v>97.57</v>
       </c>
       <c r="AK13" s="25">
-        <v>97.72</v>
+        <v>97.87</v>
       </c>
       <c r="AL13" s="25">
-        <v>97.94</v>
+        <v>98.1</v>
       </c>
       <c r="AM13" s="25">
-        <v>98.42</v>
+        <v>98.58</v>
       </c>
       <c r="AN13" s="25">
-        <v>98.61</v>
+        <v>98.77</v>
       </c>
       <c r="AO13" s="25">
-        <v>98.62</v>
+        <v>98.78</v>
       </c>
       <c r="AP13" s="25">
         <v>98.12</v>
       </c>
       <c r="AQ13" s="25">
-        <v>98.59</v>
+        <v>98.33</v>
       </c>
       <c r="AR13" s="25">
-        <v>99.41</v>
+        <v>99.14</v>
       </c>
       <c r="AS13" s="25">
-        <v>99.86</v>
+        <v>99.6</v>
       </c>
       <c r="AT13" s="25">
-        <v>100.84</v>
+        <v>100.66</v>
       </c>
       <c r="AU13" s="25">
-        <v>101.79</v>
+        <v>102</v>
       </c>
       <c r="AV13" s="25">
-        <v>103.01</v>
+        <v>103.24</v>
       </c>
       <c r="AW13" s="25">
-        <v>103.83</v>
+        <v>104.07</v>
       </c>
       <c r="AX13" s="25">
-        <v>104.57</v>
+        <v>104.82</v>
       </c>
       <c r="AY13" s="25">
-        <v>105.22</v>
+        <v>105.48</v>
       </c>
       <c r="AZ13" s="25">
-        <v>105.67</v>
+        <v>105.95</v>
       </c>
       <c r="BA13" s="25">
-        <v>104.96</v>
+        <v>105.23</v>
       </c>
       <c r="BB13" s="25">
-        <v>100.38</v>
+        <v>100.66</v>
       </c>
       <c r="BC13" s="25">
-        <v>96.32</v>
+        <v>96.65</v>
       </c>
       <c r="BD13" s="25">
-        <v>97.54</v>
+        <v>97.93</v>
       </c>
       <c r="BE13" s="25">
-        <v>100.57</v>
+        <v>100.97</v>
       </c>
       <c r="BF13" s="25">
-        <v>102.14</v>
+        <v>102.57</v>
       </c>
       <c r="BG13" s="25">
-        <v>102.65</v>
+        <v>103.08</v>
       </c>
       <c r="BH13" s="25">
-        <v>103.49</v>
+        <v>103.98</v>
       </c>
       <c r="BI13" s="25">
-        <v>103.6</v>
+        <v>104.06</v>
       </c>
       <c r="BJ13" s="25">
-        <v>104.02</v>
+        <v>104.04</v>
       </c>
       <c r="BK13" s="25">
-        <v>104.99</v>
+        <v>104.8</v>
       </c>
       <c r="BL13" s="25">
-        <v>105.61</v>
+        <v>105.88</v>
       </c>
       <c r="BM13" s="25">
-        <v>105.93</v>
+        <v>106.51</v>
       </c>
       <c r="BN13" s="25">
-        <v>106.18</v>
+        <v>106.8</v>
       </c>
       <c r="BO13" s="25">
-        <v>106.05</v>
+        <v>106.72</v>
       </c>
       <c r="BP13" s="25">
-        <v>104</v>
+        <v>104.77</v>
       </c>
       <c r="BQ13" s="25">
-        <v>102.79</v>
+        <v>103.62</v>
       </c>
       <c r="BR13" s="25">
-        <v>102.62</v>
+        <v>102.83</v>
       </c>
       <c r="BS13" s="25">
-        <v>102.6</v>
+        <v>103.02</v>
       </c>
       <c r="BT13" s="25">
-        <v>102.35</v>
+        <v>103.65</v>
       </c>
       <c r="BU13" s="25">
-        <v>100.21</v>
+        <v>102.3</v>
       </c>
       <c r="BV13" s="25">
-        <v>99.29</v>
+        <v>102.09</v>
       </c>
       <c r="BW13" s="25">
-        <v>98.82</v>
-      </c>
-      <c r="BX13" s="25"/>
-      <c r="BY13" s="25"/>
+        <v>101.99</v>
+      </c>
+      <c r="BX13" s="25">
+        <v>100.83</v>
+      </c>
+      <c r="BY13" s="25">
+        <v>96.52</v>
+      </c>
       <c r="BZ13" s="25"/>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
@@ -3520,7 +3552,7 @@
         <v>97.09</v>
       </c>
       <c r="G14" s="25">
-        <v>97.78</v>
+        <v>97.79</v>
       </c>
       <c r="H14" s="25">
         <v>99.33</v>
@@ -3529,13 +3561,13 @@
         <v>99.48</v>
       </c>
       <c r="J14" s="25">
-        <v>100.08</v>
+        <v>100.09</v>
       </c>
       <c r="K14" s="25">
-        <v>100.2</v>
+        <v>100.21</v>
       </c>
       <c r="L14" s="25">
-        <v>100.12</v>
+        <v>100.13</v>
       </c>
       <c r="M14" s="25">
         <v>100</v>
@@ -3547,13 +3579,13 @@
         <v>93.17</v>
       </c>
       <c r="P14" s="25">
-        <v>89.69</v>
+        <v>89.7</v>
       </c>
       <c r="Q14" s="25">
         <v>88.37</v>
       </c>
       <c r="R14" s="25">
-        <v>87.78</v>
+        <v>87.77</v>
       </c>
       <c r="S14" s="25">
         <v>88.5</v>
@@ -3562,7 +3594,7 @@
         <v>89.33</v>
       </c>
       <c r="U14" s="25">
-        <v>89.64</v>
+        <v>89.63</v>
       </c>
       <c r="V14" s="25">
         <v>90.18</v>
@@ -3583,151 +3615,155 @@
         <v>92.37</v>
       </c>
       <c r="AB14" s="25">
-        <v>92.06</v>
+        <v>92.07</v>
       </c>
       <c r="AC14" s="25">
-        <v>92.37</v>
+        <v>92.4</v>
       </c>
       <c r="AD14" s="25">
-        <v>91.4</v>
+        <v>91.44</v>
       </c>
       <c r="AE14" s="25">
+        <v>91</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>91.78</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>91.81</v>
+      </c>
+      <c r="AH14" s="25">
+        <v>90.76</v>
+      </c>
+      <c r="AI14" s="25">
+        <v>89.91</v>
+      </c>
+      <c r="AJ14" s="25">
+        <v>89.56</v>
+      </c>
+      <c r="AK14" s="25">
+        <v>89.72</v>
+      </c>
+      <c r="AL14" s="25">
+        <v>90.24</v>
+      </c>
+      <c r="AM14" s="25">
+        <v>90.9</v>
+      </c>
+      <c r="AN14" s="25">
+        <v>91.09</v>
+      </c>
+      <c r="AO14" s="25">
         <v>90.97</v>
       </c>
-      <c r="AF14" s="25">
-        <v>91.73</v>
-      </c>
-      <c r="AG14" s="25">
-        <v>91.77</v>
-      </c>
-      <c r="AH14" s="25">
-        <v>90.72</v>
-      </c>
-      <c r="AI14" s="25">
-        <v>89.85</v>
-      </c>
-      <c r="AJ14" s="25">
-        <v>89.51</v>
-      </c>
-      <c r="AK14" s="25">
-        <v>89.67</v>
-      </c>
-      <c r="AL14" s="25">
-        <v>90.18</v>
-      </c>
-      <c r="AM14" s="25">
-        <v>90.85</v>
-      </c>
-      <c r="AN14" s="25">
-        <v>91.04</v>
-      </c>
-      <c r="AO14" s="25">
-        <v>90.92</v>
-      </c>
       <c r="AP14" s="25">
-        <v>90.2</v>
+        <v>90.17</v>
       </c>
       <c r="AQ14" s="25">
-        <v>90.5</v>
+        <v>90.33</v>
       </c>
       <c r="AR14" s="25">
-        <v>92.05</v>
+        <v>91.88</v>
       </c>
       <c r="AS14" s="25">
-        <v>92.69</v>
+        <v>92.52</v>
       </c>
       <c r="AT14" s="25">
-        <v>93.41</v>
+        <v>93.28</v>
       </c>
       <c r="AU14" s="25">
-        <v>94.14</v>
+        <v>94.2</v>
       </c>
       <c r="AV14" s="25">
-        <v>95.25</v>
+        <v>95.31</v>
       </c>
       <c r="AW14" s="25">
-        <v>95.6</v>
+        <v>95.67</v>
       </c>
       <c r="AX14" s="25">
-        <v>96.39</v>
+        <v>96.46</v>
       </c>
       <c r="AY14" s="25">
-        <v>96.82</v>
+        <v>96.9</v>
       </c>
       <c r="AZ14" s="25">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="BA14" s="25">
-        <v>96.47</v>
+        <v>96.57</v>
       </c>
       <c r="BB14" s="25">
-        <v>92.03</v>
+        <v>92.12</v>
       </c>
       <c r="BC14" s="25">
-        <v>89.49</v>
+        <v>89.58</v>
       </c>
       <c r="BD14" s="25">
-        <v>90.46</v>
+        <v>90.55</v>
       </c>
       <c r="BE14" s="25">
-        <v>92.79</v>
+        <v>92.89</v>
       </c>
       <c r="BF14" s="25">
-        <v>94.09</v>
+        <v>94.19</v>
       </c>
       <c r="BG14" s="25">
-        <v>94.81</v>
+        <v>94.92</v>
       </c>
       <c r="BH14" s="25">
-        <v>95.94</v>
+        <v>96.06</v>
       </c>
       <c r="BI14" s="25">
-        <v>96.18</v>
+        <v>96.26</v>
       </c>
       <c r="BJ14" s="25">
-        <v>96.92</v>
+        <v>96.63</v>
       </c>
       <c r="BK14" s="25">
-        <v>97.97</v>
+        <v>97.39</v>
       </c>
       <c r="BL14" s="25">
-        <v>98.1</v>
+        <v>97.89</v>
       </c>
       <c r="BM14" s="25">
-        <v>98.82</v>
+        <v>98.92</v>
       </c>
       <c r="BN14" s="25">
-        <v>99.22</v>
+        <v>99.36</v>
       </c>
       <c r="BO14" s="25">
-        <v>99.29</v>
+        <v>99.46</v>
       </c>
       <c r="BP14" s="25">
-        <v>98.37</v>
+        <v>98.52</v>
       </c>
       <c r="BQ14" s="25">
-        <v>97.75</v>
+        <v>97.83</v>
       </c>
       <c r="BR14" s="25">
-        <v>97.53</v>
+        <v>97.17</v>
       </c>
       <c r="BS14" s="25">
-        <v>98.11</v>
+        <v>97.8</v>
       </c>
       <c r="BT14" s="25">
-        <v>98.63</v>
+        <v>98.92</v>
       </c>
       <c r="BU14" s="25">
-        <v>98.26</v>
+        <v>98.87</v>
       </c>
       <c r="BV14" s="25">
-        <v>98.34</v>
+        <v>99.13</v>
       </c>
       <c r="BW14" s="25">
-        <v>98.6</v>
-      </c>
-      <c r="BX14" s="25"/>
-      <c r="BY14" s="25"/>
+        <v>99.26</v>
+      </c>
+      <c r="BX14" s="25">
+        <v>98.81</v>
+      </c>
+      <c r="BY14" s="25">
+        <v>97.18</v>
+      </c>
       <c r="BZ14" s="25"/>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
@@ -3738,10 +3774,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="25">
-        <v>96</v>
+        <v>95.99</v>
       </c>
       <c r="D15" s="25">
-        <v>96.75</v>
+        <v>96.74</v>
       </c>
       <c r="E15" s="25">
         <v>97.96</v>
@@ -3792,19 +3828,19 @@
         <v>94.68</v>
       </c>
       <c r="U15" s="25">
-        <v>94.7</v>
+        <v>94.69</v>
       </c>
       <c r="V15" s="25">
         <v>94.55</v>
       </c>
       <c r="W15" s="25">
-        <v>94.72</v>
+        <v>94.73</v>
       </c>
       <c r="X15" s="25">
-        <v>95.47</v>
+        <v>95.48</v>
       </c>
       <c r="Y15" s="25">
-        <v>96.36</v>
+        <v>96.37</v>
       </c>
       <c r="Z15" s="25">
         <v>97.66</v>
@@ -3816,34 +3852,34 @@
         <v>95.19</v>
       </c>
       <c r="AC15" s="25">
-        <v>95.87</v>
+        <v>95.88</v>
       </c>
       <c r="AD15" s="25">
-        <v>97.38</v>
+        <v>97.39</v>
       </c>
       <c r="AE15" s="25">
-        <v>97.44</v>
+        <v>97.46</v>
       </c>
       <c r="AF15" s="25">
-        <v>96.77</v>
+        <v>96.81</v>
       </c>
       <c r="AG15" s="25">
-        <v>96.88</v>
+        <v>96.95</v>
       </c>
       <c r="AH15" s="25">
-        <v>96.53</v>
+        <v>96.59</v>
       </c>
       <c r="AI15" s="25">
-        <v>95.93</v>
+        <v>95.97</v>
       </c>
       <c r="AJ15" s="25">
-        <v>95.78</v>
+        <v>95.83</v>
       </c>
       <c r="AK15" s="25">
-        <v>95.93</v>
+        <v>95.95</v>
       </c>
       <c r="AL15" s="25">
-        <v>95.91</v>
+        <v>95.92</v>
       </c>
       <c r="AM15" s="25">
         <v>96</v>
@@ -3855,109 +3891,113 @@
         <v>95.85</v>
       </c>
       <c r="AP15" s="25">
-        <v>95.22</v>
+        <v>95.17</v>
       </c>
       <c r="AQ15" s="25">
-        <v>95.9</v>
+        <v>95.74</v>
       </c>
       <c r="AR15" s="25">
-        <v>96.33</v>
+        <v>96.04</v>
       </c>
       <c r="AS15" s="25">
-        <v>96.47</v>
+        <v>96.16</v>
       </c>
       <c r="AT15" s="25">
-        <v>97.05</v>
+        <v>96.78</v>
       </c>
       <c r="AU15" s="25">
-        <v>97.37</v>
+        <v>97.27</v>
       </c>
       <c r="AV15" s="25">
-        <v>98.13</v>
+        <v>98.15</v>
       </c>
       <c r="AW15" s="25">
-        <v>98.4</v>
+        <v>98.42</v>
       </c>
       <c r="AX15" s="25">
-        <v>98.83</v>
+        <v>98.85</v>
       </c>
       <c r="AY15" s="25">
-        <v>99.58</v>
+        <v>99.6</v>
       </c>
       <c r="AZ15" s="25">
-        <v>99.43</v>
+        <v>99.45</v>
       </c>
       <c r="BA15" s="25">
-        <v>99.04</v>
+        <v>99.06</v>
       </c>
       <c r="BB15" s="25">
-        <v>96.79</v>
+        <v>96.82</v>
       </c>
       <c r="BC15" s="25">
-        <v>95.08</v>
+        <v>95.1</v>
       </c>
       <c r="BD15" s="25">
-        <v>95.4</v>
+        <v>95.42</v>
       </c>
       <c r="BE15" s="25">
-        <v>96.42</v>
+        <v>96.44</v>
       </c>
       <c r="BF15" s="25">
-        <v>97.02</v>
+        <v>97.04</v>
       </c>
       <c r="BG15" s="25">
-        <v>97.55</v>
+        <v>97.56</v>
       </c>
       <c r="BH15" s="25">
-        <v>97.59</v>
+        <v>97.61</v>
       </c>
       <c r="BI15" s="25">
-        <v>98.3</v>
+        <v>98.29</v>
       </c>
       <c r="BJ15" s="25">
-        <v>99.09</v>
+        <v>98.74</v>
       </c>
       <c r="BK15" s="25">
-        <v>99.74</v>
+        <v>99.11</v>
       </c>
       <c r="BL15" s="25">
-        <v>99.66</v>
+        <v>99.37</v>
       </c>
       <c r="BM15" s="25">
-        <v>99.99</v>
+        <v>99.96</v>
       </c>
       <c r="BN15" s="25">
-        <v>100.25</v>
+        <v>100.05</v>
       </c>
       <c r="BO15" s="25">
-        <v>99.91</v>
+        <v>99.7</v>
       </c>
       <c r="BP15" s="25">
-        <v>99.37</v>
+        <v>99.31</v>
       </c>
       <c r="BQ15" s="25">
-        <v>99.36</v>
+        <v>99.25</v>
       </c>
       <c r="BR15" s="25">
-        <v>99.77</v>
+        <v>99.31</v>
       </c>
       <c r="BS15" s="25">
-        <v>100.18</v>
+        <v>99.76</v>
       </c>
       <c r="BT15" s="25">
-        <v>100.28</v>
+        <v>100.24</v>
       </c>
       <c r="BU15" s="25">
-        <v>100.88</v>
+        <v>100.8</v>
       </c>
       <c r="BV15" s="25">
-        <v>101.51</v>
+        <v>101.14</v>
       </c>
       <c r="BW15" s="25">
-        <v>102.34</v>
-      </c>
-      <c r="BX15" s="25"/>
-      <c r="BY15" s="25"/>
+        <v>101.66</v>
+      </c>
+      <c r="BX15" s="25">
+        <v>101.75</v>
+      </c>
+      <c r="BY15" s="25">
+        <v>101.78</v>
+      </c>
       <c r="BZ15" s="25"/>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
@@ -3974,13 +4014,13 @@
         <v>92.54</v>
       </c>
       <c r="E16" s="25">
-        <v>95.4</v>
+        <v>95.41</v>
       </c>
       <c r="F16" s="25">
         <v>96.42</v>
       </c>
       <c r="G16" s="25">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="H16" s="25">
         <v>97.8</v>
@@ -4001,19 +4041,19 @@
         <v>100</v>
       </c>
       <c r="N16" s="25">
-        <v>98.95</v>
+        <v>98.94</v>
       </c>
       <c r="O16" s="25">
-        <v>94.17</v>
+        <v>94.16</v>
       </c>
       <c r="P16" s="25">
-        <v>90.8</v>
+        <v>90.79</v>
       </c>
       <c r="Q16" s="25">
         <v>88.79</v>
       </c>
       <c r="R16" s="25">
-        <v>88.76</v>
+        <v>88.77</v>
       </c>
       <c r="S16" s="25">
         <v>89.74</v>
@@ -4025,7 +4065,7 @@
         <v>92.16</v>
       </c>
       <c r="V16" s="25">
-        <v>93.17</v>
+        <v>93.16</v>
       </c>
       <c r="W16" s="25">
         <v>93.83</v>
@@ -4040,154 +4080,158 @@
         <v>96.11</v>
       </c>
       <c r="AA16" s="25">
-        <v>96.81</v>
+        <v>96.82</v>
       </c>
       <c r="AB16" s="25">
-        <v>97.94</v>
+        <v>97.95</v>
       </c>
       <c r="AC16" s="25">
-        <v>100.16</v>
+        <v>100.22</v>
       </c>
       <c r="AD16" s="25">
-        <v>101.31</v>
+        <v>101.4</v>
       </c>
       <c r="AE16" s="25">
-        <v>101.95</v>
+        <v>102.04</v>
       </c>
       <c r="AF16" s="25">
-        <v>102.43</v>
+        <v>102.52</v>
       </c>
       <c r="AG16" s="25">
-        <v>102.78</v>
+        <v>102.87</v>
       </c>
       <c r="AH16" s="25">
-        <v>103.18</v>
+        <v>103.27</v>
       </c>
       <c r="AI16" s="25">
-        <v>103.33</v>
+        <v>103.43</v>
       </c>
       <c r="AJ16" s="25">
-        <v>103.69</v>
+        <v>103.79</v>
       </c>
       <c r="AK16" s="25">
-        <v>103.93</v>
+        <v>104.03</v>
       </c>
       <c r="AL16" s="25">
-        <v>104.14</v>
+        <v>104.25</v>
       </c>
       <c r="AM16" s="25">
-        <v>104.99</v>
+        <v>105.1</v>
       </c>
       <c r="AN16" s="25">
-        <v>105.03</v>
+        <v>105.14</v>
       </c>
       <c r="AO16" s="25">
-        <v>104.5</v>
+        <v>104.62</v>
       </c>
       <c r="AP16" s="25">
         <v>103.56</v>
       </c>
       <c r="AQ16" s="25">
-        <v>104</v>
+        <v>103.85</v>
       </c>
       <c r="AR16" s="25">
-        <v>104.61</v>
+        <v>104.44</v>
       </c>
       <c r="AS16" s="25">
-        <v>104.95</v>
+        <v>104.79</v>
       </c>
       <c r="AT16" s="25">
-        <v>105.09</v>
+        <v>104.99</v>
       </c>
       <c r="AU16" s="25">
-        <v>105.37</v>
+        <v>105.53</v>
       </c>
       <c r="AV16" s="25">
-        <v>105.91</v>
+        <v>106.08</v>
       </c>
       <c r="AW16" s="25">
-        <v>106.21</v>
+        <v>106.38</v>
       </c>
       <c r="AX16" s="25">
-        <v>106.49</v>
+        <v>106.66</v>
       </c>
       <c r="AY16" s="25">
-        <v>106.84</v>
+        <v>107.03</v>
       </c>
       <c r="AZ16" s="25">
-        <v>106.73</v>
+        <v>106.94</v>
       </c>
       <c r="BA16" s="25">
-        <v>105.1</v>
+        <v>105.31</v>
       </c>
       <c r="BB16" s="25">
-        <v>98.7</v>
+        <v>98.92</v>
       </c>
       <c r="BC16" s="25">
-        <v>93.75</v>
+        <v>93.98</v>
       </c>
       <c r="BD16" s="25">
-        <v>97.71</v>
+        <v>98.01</v>
       </c>
       <c r="BE16" s="25">
-        <v>102.03</v>
+        <v>102.34</v>
       </c>
       <c r="BF16" s="25">
-        <v>103.73</v>
+        <v>104.06</v>
       </c>
       <c r="BG16" s="25">
-        <v>104.12</v>
+        <v>104.46</v>
       </c>
       <c r="BH16" s="25">
-        <v>104.6</v>
+        <v>104.96</v>
       </c>
       <c r="BI16" s="25">
-        <v>105.13</v>
+        <v>105.46</v>
       </c>
       <c r="BJ16" s="25">
-        <v>105.52</v>
+        <v>105.48</v>
       </c>
       <c r="BK16" s="25">
-        <v>105.85</v>
+        <v>105.58</v>
       </c>
       <c r="BL16" s="25">
-        <v>106.07</v>
+        <v>106.2</v>
       </c>
       <c r="BM16" s="25">
-        <v>106.45</v>
+        <v>106.93</v>
       </c>
       <c r="BN16" s="25">
-        <v>106.33</v>
+        <v>106.81</v>
       </c>
       <c r="BO16" s="25">
-        <v>106.08</v>
+        <v>106.61</v>
       </c>
       <c r="BP16" s="25">
-        <v>103.3</v>
+        <v>103.95</v>
       </c>
       <c r="BQ16" s="25">
-        <v>102.76</v>
+        <v>103.36</v>
       </c>
       <c r="BR16" s="25">
-        <v>103.8</v>
+        <v>103.77</v>
       </c>
       <c r="BS16" s="25">
-        <v>104.03</v>
+        <v>104.11</v>
       </c>
       <c r="BT16" s="25">
-        <v>103.37</v>
+        <v>104.45</v>
       </c>
       <c r="BU16" s="25">
-        <v>102.45</v>
+        <v>104.04</v>
       </c>
       <c r="BV16" s="25">
-        <v>101.75</v>
+        <v>103.95</v>
       </c>
       <c r="BW16" s="25">
-        <v>101.59</v>
-      </c>
-      <c r="BX16" s="25"/>
-      <c r="BY16" s="25"/>
+        <v>103.96</v>
+      </c>
+      <c r="BX16" s="25">
+        <v>103.32</v>
+      </c>
+      <c r="BY16" s="25">
+        <v>101.62</v>
+      </c>
       <c r="BZ16" s="25"/>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.25">
@@ -4198,16 +4242,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="25">
-        <v>91.69</v>
+        <v>91.68</v>
       </c>
       <c r="D17" s="25">
-        <v>96.14</v>
+        <v>96.13</v>
       </c>
       <c r="E17" s="25">
-        <v>98.14</v>
+        <v>98.13</v>
       </c>
       <c r="F17" s="25">
-        <v>98.8</v>
+        <v>98.79</v>
       </c>
       <c r="G17" s="25">
         <v>99.1</v>
@@ -4231,7 +4275,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="25">
-        <v>98.39</v>
+        <v>98.4</v>
       </c>
       <c r="O17" s="25">
         <v>92.84</v>
@@ -4246,7 +4290,7 @@
         <v>87.67</v>
       </c>
       <c r="S17" s="25">
-        <v>89.06</v>
+        <v>89.07</v>
       </c>
       <c r="T17" s="25">
         <v>89.52</v>
@@ -4261,163 +4305,167 @@
         <v>91.08</v>
       </c>
       <c r="X17" s="25">
-        <v>91.42</v>
+        <v>91.43</v>
       </c>
       <c r="Y17" s="25">
-        <v>92.49</v>
+        <v>92.5</v>
       </c>
       <c r="Z17" s="25">
         <v>93.44</v>
       </c>
       <c r="AA17" s="25">
-        <v>93.9</v>
+        <v>93.91</v>
       </c>
       <c r="AB17" s="25">
+        <v>93.63</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>94.22</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>95.28</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>96.02</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>96.38</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>96.46</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>96.56</v>
+      </c>
+      <c r="AI17" s="25">
+        <v>96.69</v>
+      </c>
+      <c r="AJ17" s="25">
+        <v>96.97</v>
+      </c>
+      <c r="AK17" s="25">
+        <v>97.09</v>
+      </c>
+      <c r="AL17" s="25">
+        <v>97.41</v>
+      </c>
+      <c r="AM17" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AN17" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="AO17" s="25">
+        <v>97.84</v>
+      </c>
+      <c r="AP17" s="25">
+        <v>97.06</v>
+      </c>
+      <c r="AQ17" s="25">
+        <v>97.5</v>
+      </c>
+      <c r="AR17" s="25">
+        <v>98.32</v>
+      </c>
+      <c r="AS17" s="25">
+        <v>98.65</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>98.46</v>
+      </c>
+      <c r="AU17" s="25">
+        <v>99.11</v>
+      </c>
+      <c r="AV17" s="25">
+        <v>99.54</v>
+      </c>
+      <c r="AW17" s="25">
+        <v>99.83</v>
+      </c>
+      <c r="AX17" s="25">
+        <v>99.74</v>
+      </c>
+      <c r="AY17" s="25">
+        <v>100.16</v>
+      </c>
+      <c r="AZ17" s="25">
+        <v>99.91</v>
+      </c>
+      <c r="BA17" s="25">
+        <v>98.47</v>
+      </c>
+      <c r="BB17" s="25">
+        <v>93.64</v>
+      </c>
+      <c r="BC17" s="25">
+        <v>90.94</v>
+      </c>
+      <c r="BD17" s="25">
         <v>93.61</v>
       </c>
-      <c r="AC17" s="25">
-        <v>94.2</v>
-      </c>
-      <c r="AD17" s="25">
-        <v>95.25</v>
-      </c>
-      <c r="AE17" s="25">
-        <v>96</v>
-      </c>
-      <c r="AF17" s="25">
-        <v>96.36</v>
-      </c>
-      <c r="AG17" s="25">
-        <v>96.43</v>
-      </c>
-      <c r="AH17" s="25">
-        <v>96.52</v>
-      </c>
-      <c r="AI17" s="25">
-        <v>96.65</v>
-      </c>
-      <c r="AJ17" s="25">
-        <v>96.94</v>
-      </c>
-      <c r="AK17" s="25">
-        <v>97.06</v>
-      </c>
-      <c r="AL17" s="25">
-        <v>97.36</v>
-      </c>
-      <c r="AM17" s="25">
-        <v>98.33</v>
-      </c>
-      <c r="AN17" s="25">
-        <v>98.41</v>
-      </c>
-      <c r="AO17" s="25">
-        <v>97.79</v>
-      </c>
-      <c r="AP17" s="25">
-        <v>97.07</v>
-      </c>
-      <c r="AQ17" s="25">
-        <v>97.59</v>
-      </c>
-      <c r="AR17" s="25">
-        <v>98.42</v>
-      </c>
-      <c r="AS17" s="25">
-        <v>98.74</v>
-      </c>
-      <c r="AT17" s="25">
-        <v>98.54</v>
-      </c>
-      <c r="AU17" s="25">
+      <c r="BE17" s="25">
+        <v>96.17</v>
+      </c>
+      <c r="BF17" s="25">
+        <v>97.64</v>
+      </c>
+      <c r="BG17" s="25">
+        <v>98.23</v>
+      </c>
+      <c r="BH17" s="25">
+        <v>98.63</v>
+      </c>
+      <c r="BI17" s="25">
         <v>99.08</v>
       </c>
-      <c r="AV17" s="25">
-        <v>99.47</v>
-      </c>
-      <c r="AW17" s="25">
-        <v>99.77</v>
-      </c>
-      <c r="AX17" s="25">
-        <v>99.68</v>
-      </c>
-      <c r="AY17" s="25">
-        <v>100.07</v>
-      </c>
-      <c r="AZ17" s="25">
-        <v>99.82</v>
-      </c>
-      <c r="BA17" s="25">
-        <v>98.38</v>
-      </c>
-      <c r="BB17" s="25">
-        <v>93.55</v>
-      </c>
-      <c r="BC17" s="25">
-        <v>90.84</v>
-      </c>
-      <c r="BD17" s="25">
-        <v>93.5</v>
-      </c>
-      <c r="BE17" s="25">
-        <v>96.07</v>
-      </c>
-      <c r="BF17" s="25">
-        <v>97.54</v>
-      </c>
-      <c r="BG17" s="25">
-        <v>98.12</v>
-      </c>
-      <c r="BH17" s="25">
-        <v>98.52</v>
-      </c>
-      <c r="BI17" s="25">
-        <v>99.05</v>
-      </c>
       <c r="BJ17" s="25">
-        <v>99.08</v>
+        <v>98.73</v>
       </c>
       <c r="BK17" s="25">
-        <v>99.91</v>
+        <v>99.33</v>
       </c>
       <c r="BL17" s="25">
-        <v>99.78</v>
+        <v>99.62</v>
       </c>
       <c r="BM17" s="25">
-        <v>100.22</v>
+        <v>100.37</v>
       </c>
       <c r="BN17" s="25">
-        <v>100.49</v>
+        <v>100.65</v>
       </c>
       <c r="BO17" s="25">
-        <v>100.45</v>
+        <v>100.65</v>
       </c>
       <c r="BP17" s="25">
-        <v>99.17</v>
+        <v>99.42</v>
       </c>
       <c r="BQ17" s="25">
-        <v>98.64</v>
+        <v>98.79</v>
       </c>
       <c r="BR17" s="25">
-        <v>99.59</v>
+        <v>99.18</v>
       </c>
       <c r="BS17" s="25">
-        <v>100.5</v>
+        <v>100.11</v>
       </c>
       <c r="BT17" s="25">
-        <v>100.23</v>
+        <v>100.54</v>
       </c>
       <c r="BU17" s="25">
-        <v>100.79</v>
+        <v>101.25</v>
       </c>
       <c r="BV17" s="25">
-        <v>100.65</v>
+        <v>101.34</v>
       </c>
       <c r="BW17" s="25">
-        <v>101.21</v>
-      </c>
-      <c r="BX17" s="25"/>
-      <c r="BY17" s="25"/>
+        <v>101.78</v>
+      </c>
+      <c r="BX17" s="25">
+        <v>101.6</v>
+      </c>
+      <c r="BY17" s="25">
+        <v>101.34</v>
+      </c>
       <c r="BZ17" s="25"/>
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.25">
@@ -4452,7 +4500,7 @@
         <v>99.63</v>
       </c>
       <c r="K18" s="25">
-        <v>98.77</v>
+        <v>98.76</v>
       </c>
       <c r="L18" s="25">
         <v>99.43</v>
@@ -4506,7 +4554,7 @@
         <v>95.4</v>
       </c>
       <c r="AC18" s="25">
-        <v>95.94</v>
+        <v>95.95</v>
       </c>
       <c r="AD18" s="25">
         <v>97.35</v>
@@ -4515,139 +4563,143 @@
         <v>97.55</v>
       </c>
       <c r="AF18" s="25">
-        <v>97.78</v>
+        <v>97.77</v>
       </c>
       <c r="AG18" s="25">
+        <v>97.39</v>
+      </c>
+      <c r="AH18" s="25">
+        <v>97.65</v>
+      </c>
+      <c r="AI18" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="AJ18" s="25">
+        <v>97.79</v>
+      </c>
+      <c r="AK18" s="25">
+        <v>97.38</v>
+      </c>
+      <c r="AL18" s="25">
+        <v>97.7</v>
+      </c>
+      <c r="AM18" s="25">
+        <v>97.96</v>
+      </c>
+      <c r="AN18" s="25">
+        <v>98.26</v>
+      </c>
+      <c r="AO18" s="25">
+        <v>97.47</v>
+      </c>
+      <c r="AP18" s="25">
+        <v>96.79</v>
+      </c>
+      <c r="AQ18" s="25">
+        <v>97.03</v>
+      </c>
+      <c r="AR18" s="25">
+        <v>97.59</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>97.43</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>97.44</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>97.62</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>98.38</v>
+      </c>
+      <c r="AW18" s="25">
+        <v>98.34</v>
+      </c>
+      <c r="AX18" s="25">
+        <v>98.45</v>
+      </c>
+      <c r="AY18" s="25">
+        <v>98.61</v>
+      </c>
+      <c r="AZ18" s="25">
+        <v>98.5</v>
+      </c>
+      <c r="BA18" s="25">
+        <v>97.74</v>
+      </c>
+      <c r="BB18" s="25">
+        <v>94.79</v>
+      </c>
+      <c r="BC18" s="25">
+        <v>92.98</v>
+      </c>
+      <c r="BD18" s="25">
+        <v>93.14</v>
+      </c>
+      <c r="BE18" s="25">
+        <v>94.24</v>
+      </c>
+      <c r="BF18" s="25">
+        <v>94.84</v>
+      </c>
+      <c r="BG18" s="25">
+        <v>95.22</v>
+      </c>
+      <c r="BH18" s="25">
+        <v>95.5</v>
+      </c>
+      <c r="BI18" s="25">
+        <v>96.37</v>
+      </c>
+      <c r="BJ18" s="25">
+        <v>96.64</v>
+      </c>
+      <c r="BK18" s="25">
+        <v>96.81</v>
+      </c>
+      <c r="BL18" s="25">
         <v>97.37</v>
       </c>
-      <c r="AH18" s="25">
-        <v>97.62</v>
-      </c>
-      <c r="AI18" s="25">
-        <v>97.39</v>
-      </c>
-      <c r="AJ18" s="25">
-        <v>97.77</v>
-      </c>
-      <c r="AK18" s="25">
-        <v>97.36</v>
-      </c>
-      <c r="AL18" s="25">
-        <v>97.67</v>
-      </c>
-      <c r="AM18" s="25">
-        <v>97.93</v>
-      </c>
-      <c r="AN18" s="25">
-        <v>98.23</v>
-      </c>
-      <c r="AO18" s="25">
-        <v>97.43</v>
-      </c>
-      <c r="AP18" s="25">
-        <v>96.81</v>
-      </c>
-      <c r="AQ18" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="AR18" s="25">
-        <v>97.7</v>
-      </c>
-      <c r="AS18" s="25">
+      <c r="BM18" s="25">
+        <v>97.47</v>
+      </c>
+      <c r="BN18" s="25">
+        <v>97.86</v>
+      </c>
+      <c r="BO18" s="25">
+        <v>97.42</v>
+      </c>
+      <c r="BP18" s="25">
+        <v>97.2</v>
+      </c>
+      <c r="BQ18" s="25">
+        <v>96.67</v>
+      </c>
+      <c r="BR18" s="25">
+        <v>96.63</v>
+      </c>
+      <c r="BS18" s="25">
+        <v>96.66</v>
+      </c>
+      <c r="BT18" s="25">
+        <v>97.53</v>
+      </c>
+      <c r="BU18" s="25">
         <v>97.54</v>
       </c>
-      <c r="AT18" s="25">
-        <v>97.53</v>
-      </c>
-      <c r="AU18" s="25">
-        <v>97.58</v>
-      </c>
-      <c r="AV18" s="25">
-        <v>98.34</v>
-      </c>
-      <c r="AW18" s="25">
-        <v>98.29</v>
-      </c>
-      <c r="AX18" s="25">
-        <v>98.4</v>
-      </c>
-      <c r="AY18" s="25">
-        <v>98.56</v>
-      </c>
-      <c r="AZ18" s="25">
-        <v>98.45</v>
-      </c>
-      <c r="BA18" s="25">
-        <v>97.69</v>
-      </c>
-      <c r="BB18" s="25">
-        <v>94.74</v>
-      </c>
-      <c r="BC18" s="25">
-        <v>92.94</v>
-      </c>
-      <c r="BD18" s="25">
-        <v>93.09</v>
-      </c>
-      <c r="BE18" s="25">
-        <v>94.19</v>
-      </c>
-      <c r="BF18" s="25">
-        <v>94.79</v>
-      </c>
-      <c r="BG18" s="25">
-        <v>95.16</v>
-      </c>
-      <c r="BH18" s="25">
-        <v>95.45</v>
-      </c>
-      <c r="BI18" s="25">
-        <v>96.34</v>
-      </c>
-      <c r="BJ18" s="25">
-        <v>96.91</v>
-      </c>
-      <c r="BK18" s="25">
-        <v>97.33</v>
-      </c>
-      <c r="BL18" s="25">
-        <v>97.62</v>
-      </c>
-      <c r="BM18" s="25">
-        <v>97.46</v>
-      </c>
-      <c r="BN18" s="25">
-        <v>97.92</v>
-      </c>
-      <c r="BO18" s="25">
-        <v>97.48</v>
-      </c>
-      <c r="BP18" s="25">
-        <v>97.22</v>
-      </c>
-      <c r="BQ18" s="25">
-        <v>96.74</v>
-      </c>
-      <c r="BR18" s="25">
-        <v>97.1</v>
-      </c>
-      <c r="BS18" s="25">
-        <v>97.14</v>
-      </c>
-      <c r="BT18" s="25">
-        <v>97.66</v>
-      </c>
-      <c r="BU18" s="25">
-        <v>97.67</v>
-      </c>
       <c r="BV18" s="25">
-        <v>98.2</v>
+        <v>98.03</v>
       </c>
       <c r="BW18" s="25">
-        <v>99.06</v>
-      </c>
-      <c r="BX18" s="25"/>
-      <c r="BY18" s="25"/>
+        <v>98.55</v>
+      </c>
+      <c r="BX18" s="25">
+        <v>98.82</v>
+      </c>
+      <c r="BY18" s="25">
+        <v>99.23</v>
+      </c>
       <c r="BZ18" s="25"/>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.25">
@@ -4661,7 +4713,7 @@
         <v>87.48</v>
       </c>
       <c r="D19" s="25">
-        <v>93.06</v>
+        <v>93.05</v>
       </c>
       <c r="E19" s="25">
         <v>95.55</v>
@@ -4670,7 +4722,7 @@
         <v>96.46</v>
       </c>
       <c r="G19" s="25">
-        <v>96.87</v>
+        <v>96.86</v>
       </c>
       <c r="H19" s="25">
         <v>97.94</v>
@@ -4706,7 +4758,7 @@
         <v>89.1</v>
       </c>
       <c r="S19" s="25">
-        <v>90.02</v>
+        <v>90.01</v>
       </c>
       <c r="T19" s="25">
         <v>91.14</v>
@@ -4715,19 +4767,19 @@
         <v>92.44</v>
       </c>
       <c r="V19" s="25">
-        <v>93.19</v>
+        <v>93.18</v>
       </c>
       <c r="W19" s="25">
         <v>93.7</v>
       </c>
       <c r="X19" s="25">
-        <v>94.25</v>
+        <v>94.24</v>
       </c>
       <c r="Y19" s="25">
         <v>95.75</v>
       </c>
       <c r="Z19" s="25">
-        <v>96.59</v>
+        <v>96.6</v>
       </c>
       <c r="AA19" s="25">
         <v>97.24</v>
@@ -4736,148 +4788,152 @@
         <v>98.17</v>
       </c>
       <c r="AC19" s="25">
-        <v>99.82</v>
+        <v>99.86</v>
       </c>
       <c r="AD19" s="25">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AE19" s="25">
-        <v>101.27</v>
+        <v>101.37</v>
       </c>
       <c r="AF19" s="25">
-        <v>101.77</v>
+        <v>101.86</v>
       </c>
       <c r="AG19" s="25">
-        <v>102.13</v>
+        <v>102.23</v>
       </c>
       <c r="AH19" s="25">
-        <v>102.54</v>
+        <v>102.64</v>
       </c>
       <c r="AI19" s="25">
-        <v>102.93</v>
+        <v>103.03</v>
       </c>
       <c r="AJ19" s="25">
-        <v>103.3</v>
+        <v>103.41</v>
       </c>
       <c r="AK19" s="25">
-        <v>103.85</v>
+        <v>103.95</v>
       </c>
       <c r="AL19" s="25">
-        <v>104.15</v>
+        <v>104.26</v>
       </c>
       <c r="AM19" s="25">
+        <v>104.7</v>
+      </c>
+      <c r="AN19" s="25">
+        <v>104.7</v>
+      </c>
+      <c r="AO19" s="25">
+        <v>104.64</v>
+      </c>
+      <c r="AP19" s="25">
+        <v>103.82</v>
+      </c>
+      <c r="AQ19" s="25">
+        <v>103.83</v>
+      </c>
+      <c r="AR19" s="25">
+        <v>104.92</v>
+      </c>
+      <c r="AS19" s="25">
+        <v>105.31</v>
+      </c>
+      <c r="AT19" s="25">
+        <v>105.34</v>
+      </c>
+      <c r="AU19" s="25">
+        <v>105.7</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>106.12</v>
+      </c>
+      <c r="AW19" s="25">
+        <v>104.44</v>
+      </c>
+      <c r="AX19" s="25">
+        <v>105.72</v>
+      </c>
+      <c r="AY19" s="25">
+        <v>107.01</v>
+      </c>
+      <c r="AZ19" s="25">
+        <v>107.56</v>
+      </c>
+      <c r="BA19" s="25">
+        <v>106.42</v>
+      </c>
+      <c r="BB19" s="25">
+        <v>101.31</v>
+      </c>
+      <c r="BC19" s="25">
+        <v>96.72</v>
+      </c>
+      <c r="BD19" s="25">
+        <v>100.1</v>
+      </c>
+      <c r="BE19" s="25">
+        <v>103.29</v>
+      </c>
+      <c r="BF19" s="25">
+        <v>104.36</v>
+      </c>
+      <c r="BG19" s="25">
+        <v>104.65</v>
+      </c>
+      <c r="BH19" s="25">
+        <v>105.65</v>
+      </c>
+      <c r="BI19" s="25">
+        <v>106.04</v>
+      </c>
+      <c r="BJ19" s="25">
+        <v>106.24</v>
+      </c>
+      <c r="BK19" s="25">
+        <v>106.61</v>
+      </c>
+      <c r="BL19" s="25">
+        <v>107.27</v>
+      </c>
+      <c r="BM19" s="25">
+        <v>107.97</v>
+      </c>
+      <c r="BN19" s="25">
+        <v>108.23</v>
+      </c>
+      <c r="BO19" s="25">
+        <v>108.16</v>
+      </c>
+      <c r="BP19" s="25">
+        <v>106.39</v>
+      </c>
+      <c r="BQ19" s="25">
+        <v>105.85</v>
+      </c>
+      <c r="BR19" s="25">
+        <v>105.75</v>
+      </c>
+      <c r="BS19" s="25">
+        <v>105.43</v>
+      </c>
+      <c r="BT19" s="25">
+        <v>105.89</v>
+      </c>
+      <c r="BU19" s="25">
+        <v>105.47</v>
+      </c>
+      <c r="BV19" s="25">
+        <v>105.17</v>
+      </c>
+      <c r="BW19" s="25">
+        <v>105.02</v>
+      </c>
+      <c r="BX19" s="25">
         <v>104.59</v>
       </c>
-      <c r="AN19" s="25">
-        <v>104.58</v>
-      </c>
-      <c r="AO19" s="25">
-        <v>104.52</v>
-      </c>
-      <c r="AP19" s="25">
-        <v>103.81</v>
-      </c>
-      <c r="AQ19" s="25">
-        <v>103.94</v>
-      </c>
-      <c r="AR19" s="25">
-        <v>105.01</v>
-      </c>
-      <c r="AS19" s="25">
-        <v>105.38</v>
-      </c>
-      <c r="AT19" s="25">
-        <v>105.37</v>
-      </c>
-      <c r="AU19" s="25">
-        <v>105.49</v>
-      </c>
-      <c r="AV19" s="25">
-        <v>105.91</v>
-      </c>
-      <c r="AW19" s="25">
-        <v>104.23</v>
-      </c>
-      <c r="AX19" s="25">
-        <v>105.5</v>
-      </c>
-      <c r="AY19" s="25">
-        <v>106.79</v>
-      </c>
-      <c r="AZ19" s="25">
-        <v>107.31</v>
-      </c>
-      <c r="BA19" s="25">
-        <v>106.15</v>
-      </c>
-      <c r="BB19" s="25">
-        <v>101.04</v>
-      </c>
-      <c r="BC19" s="25">
-        <v>96.45</v>
-      </c>
-      <c r="BD19" s="25">
-        <v>99.81</v>
-      </c>
-      <c r="BE19" s="25">
-        <v>102.98</v>
-      </c>
-      <c r="BF19" s="25">
-        <v>104.04</v>
-      </c>
-      <c r="BG19" s="25">
-        <v>104.31</v>
-      </c>
-      <c r="BH19" s="25">
-        <v>105.29</v>
-      </c>
-      <c r="BI19" s="25">
-        <v>105.74</v>
-      </c>
-      <c r="BJ19" s="25">
-        <v>106.31</v>
-      </c>
-      <c r="BK19" s="25">
-        <v>106.88</v>
-      </c>
-      <c r="BL19" s="25">
-        <v>107.13</v>
-      </c>
-      <c r="BM19" s="25">
-        <v>107.53</v>
-      </c>
-      <c r="BN19" s="25">
-        <v>107.77</v>
-      </c>
-      <c r="BO19" s="25">
-        <v>107.64</v>
-      </c>
-      <c r="BP19" s="25">
-        <v>105.8</v>
-      </c>
-      <c r="BQ19" s="25">
-        <v>105.3</v>
-      </c>
-      <c r="BR19" s="25">
-        <v>105.84</v>
-      </c>
-      <c r="BS19" s="25">
-        <v>105.34</v>
-      </c>
-      <c r="BT19" s="25">
-        <v>105.13</v>
-      </c>
-      <c r="BU19" s="25">
-        <v>104.3</v>
-      </c>
-      <c r="BV19" s="25">
-        <v>103.67</v>
-      </c>
-      <c r="BW19" s="25">
-        <v>103.61</v>
-      </c>
-      <c r="BX19" s="25"/>
-      <c r="BY19" s="25"/>
+      <c r="BY19" s="25">
+        <v>103.17</v>
+      </c>
       <c r="BZ19" s="25"/>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.25">
@@ -4888,13 +4944,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="25">
-        <v>92.02</v>
+        <v>92.03</v>
       </c>
       <c r="D20" s="25">
-        <v>95.7</v>
+        <v>95.71</v>
       </c>
       <c r="E20" s="25">
-        <v>97.48</v>
+        <v>97.49</v>
       </c>
       <c r="F20" s="25">
         <v>98.18</v>
@@ -4903,7 +4959,7 @@
         <v>98.25</v>
       </c>
       <c r="H20" s="25">
-        <v>99.27</v>
+        <v>99.28</v>
       </c>
       <c r="I20" s="25">
         <v>99.69</v>
@@ -4915,7 +4971,7 @@
         <v>100.13</v>
       </c>
       <c r="L20" s="25">
-        <v>100.14</v>
+        <v>100.15</v>
       </c>
       <c r="M20" s="25">
         <v>100</v>
@@ -4951,7 +5007,7 @@
         <v>92.31</v>
       </c>
       <c r="X20" s="25">
-        <v>92.36</v>
+        <v>92.37</v>
       </c>
       <c r="Y20" s="25">
         <v>93.06</v>
@@ -4963,151 +5019,155 @@
         <v>93.51</v>
       </c>
       <c r="AB20" s="25">
-        <v>93.02</v>
+        <v>93.03</v>
       </c>
       <c r="AC20" s="25">
         <v>93.59</v>
       </c>
       <c r="AD20" s="25">
-        <v>94.53</v>
+        <v>94.54</v>
       </c>
       <c r="AE20" s="25">
-        <v>94.77</v>
+        <v>94.78</v>
       </c>
       <c r="AF20" s="25">
-        <v>95.32</v>
+        <v>95.35</v>
       </c>
       <c r="AG20" s="25">
-        <v>95.48</v>
+        <v>95.5</v>
       </c>
       <c r="AH20" s="25">
-        <v>95.83</v>
+        <v>95.85</v>
       </c>
       <c r="AI20" s="25">
-        <v>96.28</v>
+        <v>96.3</v>
       </c>
       <c r="AJ20" s="25">
-        <v>96.01</v>
+        <v>96.02</v>
       </c>
       <c r="AK20" s="25">
-        <v>96.3</v>
+        <v>96.31</v>
       </c>
       <c r="AL20" s="25">
-        <v>96.71</v>
+        <v>96.72</v>
       </c>
       <c r="AM20" s="25">
-        <v>97.05</v>
+        <v>97.06</v>
       </c>
       <c r="AN20" s="25">
-        <v>97.18</v>
+        <v>97.19</v>
       </c>
       <c r="AO20" s="25">
-        <v>97.09</v>
+        <v>97.11</v>
       </c>
       <c r="AP20" s="25">
-        <v>96.46</v>
+        <v>96.44</v>
       </c>
       <c r="AQ20" s="25">
-        <v>96.35</v>
+        <v>96.23</v>
       </c>
       <c r="AR20" s="25">
-        <v>97.7</v>
+        <v>97.57</v>
       </c>
       <c r="AS20" s="25">
-        <v>98.05</v>
+        <v>97.93</v>
       </c>
       <c r="AT20" s="25">
+        <v>98</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>98.33</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>98.89</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>98.16</v>
+      </c>
+      <c r="AX20" s="25">
+        <v>98.61</v>
+      </c>
+      <c r="AY20" s="25">
+        <v>99.11</v>
+      </c>
+      <c r="AZ20" s="25">
+        <v>99.35</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>97.79</v>
+      </c>
+      <c r="BB20" s="25">
+        <v>93.95</v>
+      </c>
+      <c r="BC20" s="25">
+        <v>91.55</v>
+      </c>
+      <c r="BD20" s="25">
+        <v>93.73</v>
+      </c>
+      <c r="BE20" s="25">
+        <v>95.79</v>
+      </c>
+      <c r="BF20" s="25">
+        <v>96.69</v>
+      </c>
+      <c r="BG20" s="25">
+        <v>97.3</v>
+      </c>
+      <c r="BH20" s="25">
         <v>98.11</v>
       </c>
-      <c r="AU20" s="25">
-        <v>98.3</v>
-      </c>
-      <c r="AV20" s="25">
-        <v>98.86</v>
-      </c>
-      <c r="AW20" s="25">
-        <v>98.13</v>
-      </c>
-      <c r="AX20" s="25">
-        <v>98.58</v>
-      </c>
-      <c r="AY20" s="25">
-        <v>99.07</v>
-      </c>
-      <c r="AZ20" s="25">
-        <v>99.32</v>
-      </c>
-      <c r="BA20" s="25">
-        <v>97.74</v>
-      </c>
-      <c r="BB20" s="25">
-        <v>93.91</v>
-      </c>
-      <c r="BC20" s="25">
-        <v>91.51</v>
-      </c>
-      <c r="BD20" s="25">
-        <v>93.69</v>
-      </c>
-      <c r="BE20" s="25">
-        <v>95.74</v>
-      </c>
-      <c r="BF20" s="25">
-        <v>96.64</v>
-      </c>
-      <c r="BG20" s="25">
-        <v>97.26</v>
-      </c>
-      <c r="BH20" s="25">
-        <v>98.07</v>
-      </c>
       <c r="BI20" s="25">
-        <v>98.77</v>
+        <v>98.76</v>
       </c>
       <c r="BJ20" s="25">
-        <v>99.61</v>
+        <v>99.21</v>
       </c>
       <c r="BK20" s="25">
-        <v>100.24</v>
+        <v>99.64</v>
       </c>
       <c r="BL20" s="25">
-        <v>100.2</v>
+        <v>99.95</v>
       </c>
       <c r="BM20" s="25">
-        <v>100.57</v>
+        <v>100.56</v>
       </c>
       <c r="BN20" s="25">
         <v>100.86</v>
       </c>
       <c r="BO20" s="25">
-        <v>100.78</v>
+        <v>100.79</v>
       </c>
       <c r="BP20" s="25">
-        <v>99.98</v>
+        <v>100.03</v>
       </c>
       <c r="BQ20" s="25">
-        <v>99.77</v>
+        <v>99.74</v>
       </c>
       <c r="BR20" s="25">
-        <v>100.09</v>
+        <v>99.65</v>
       </c>
       <c r="BS20" s="25">
-        <v>99.96</v>
+        <v>99.47</v>
       </c>
       <c r="BT20" s="25">
-        <v>100.3</v>
+        <v>100.08</v>
       </c>
       <c r="BU20" s="25">
-        <v>100.36</v>
+        <v>100.38</v>
       </c>
       <c r="BV20" s="25">
-        <v>100.63</v>
+        <v>100.69</v>
       </c>
       <c r="BW20" s="25">
-        <v>101.3</v>
-      </c>
-      <c r="BX20" s="25"/>
-      <c r="BY20" s="25"/>
+        <v>100.81</v>
+      </c>
+      <c r="BX20" s="25">
+        <v>100.86</v>
+      </c>
+      <c r="BY20" s="25">
+        <v>100.22</v>
+      </c>
       <c r="BZ20" s="25"/>
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.25">
@@ -5118,13 +5178,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="25">
-        <v>96.66</v>
+        <v>96.67</v>
       </c>
       <c r="D21" s="25">
         <v>97.54</v>
       </c>
       <c r="E21" s="25">
-        <v>98.59</v>
+        <v>98.6</v>
       </c>
       <c r="F21" s="25">
         <v>98.98</v>
@@ -5178,7 +5238,7 @@
         <v>95.82</v>
       </c>
       <c r="W21" s="25">
-        <v>96.04</v>
+        <v>96.05</v>
       </c>
       <c r="X21" s="25">
         <v>96.61</v>
@@ -5196,148 +5256,152 @@
         <v>93.79</v>
       </c>
       <c r="AC21" s="25">
-        <v>94.93</v>
+        <v>94.94</v>
       </c>
       <c r="AD21" s="25">
-        <v>96.86</v>
+        <v>96.87</v>
       </c>
       <c r="AE21" s="25">
         <v>97.2</v>
       </c>
       <c r="AF21" s="25">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="AG21" s="25">
-        <v>97.7</v>
+        <v>97.71</v>
       </c>
       <c r="AH21" s="25">
-        <v>98.06</v>
+        <v>98.07</v>
       </c>
       <c r="AI21" s="25">
-        <v>98.09</v>
+        <v>98.1</v>
       </c>
       <c r="AJ21" s="25">
-        <v>98.37</v>
+        <v>98.39</v>
       </c>
       <c r="AK21" s="25">
-        <v>98.14</v>
+        <v>98.15</v>
       </c>
       <c r="AL21" s="25">
-        <v>98.37</v>
+        <v>98.39</v>
       </c>
       <c r="AM21" s="25">
-        <v>98.96</v>
+        <v>98.98</v>
       </c>
       <c r="AN21" s="25">
-        <v>99.27</v>
+        <v>99.28</v>
       </c>
       <c r="AO21" s="25">
-        <v>99.09</v>
+        <v>99.1</v>
       </c>
       <c r="AP21" s="25">
-        <v>98.62</v>
+        <v>98.56</v>
       </c>
       <c r="AQ21" s="25">
-        <v>99.28</v>
+        <v>99.11</v>
       </c>
       <c r="AR21" s="25">
+        <v>100.76</v>
+      </c>
+      <c r="AS21" s="25">
+        <v>100.53</v>
+      </c>
+      <c r="AT21" s="25">
+        <v>99.62</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>100.44</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>101.75</v>
+      </c>
+      <c r="AW21" s="25">
+        <v>101.15</v>
+      </c>
+      <c r="AX21" s="25">
+        <v>100.83</v>
+      </c>
+      <c r="AY21" s="25">
+        <v>101.97</v>
+      </c>
+      <c r="AZ21" s="25">
+        <v>102.26</v>
+      </c>
+      <c r="BA21" s="25">
         <v>100.93</v>
       </c>
-      <c r="AS21" s="25">
+      <c r="BB21" s="25">
+        <v>97.68</v>
+      </c>
+      <c r="BC21" s="25">
+        <v>95.86</v>
+      </c>
+      <c r="BD21" s="25">
+        <v>96.13</v>
+      </c>
+      <c r="BE21" s="25">
+        <v>97.61</v>
+      </c>
+      <c r="BF21" s="25">
+        <v>98.27</v>
+      </c>
+      <c r="BG21" s="25">
+        <v>98.71</v>
+      </c>
+      <c r="BH21" s="25">
+        <v>98.77</v>
+      </c>
+      <c r="BI21" s="25">
+        <v>99.62</v>
+      </c>
+      <c r="BJ21" s="25">
+        <v>99.98</v>
+      </c>
+      <c r="BK21" s="25">
+        <v>100.68</v>
+      </c>
+      <c r="BL21" s="25">
         <v>100.71</v>
       </c>
-      <c r="AT21" s="25">
-        <v>99.77</v>
-      </c>
-      <c r="AU21" s="25">
-        <v>100.43</v>
-      </c>
-      <c r="AV21" s="25">
-        <v>101.73</v>
-      </c>
-      <c r="AW21" s="25">
-        <v>101.14</v>
-      </c>
-      <c r="AX21" s="25">
-        <v>100.82</v>
-      </c>
-      <c r="AY21" s="25">
-        <v>101.96</v>
-      </c>
-      <c r="AZ21" s="25">
-        <v>102.25</v>
-      </c>
-      <c r="BA21" s="25">
-        <v>100.92</v>
-      </c>
-      <c r="BB21" s="25">
-        <v>97.66</v>
-      </c>
-      <c r="BC21" s="25">
-        <v>95.84</v>
-      </c>
-      <c r="BD21" s="25">
-        <v>96.11</v>
-      </c>
-      <c r="BE21" s="25">
-        <v>97.56</v>
-      </c>
-      <c r="BF21" s="25">
-        <v>98.24</v>
-      </c>
-      <c r="BG21" s="25">
-        <v>98.68</v>
-      </c>
-      <c r="BH21" s="25">
-        <v>98.75</v>
-      </c>
-      <c r="BI21" s="25">
-        <v>99.64</v>
-      </c>
-      <c r="BJ21" s="25">
-        <v>100.38</v>
-      </c>
-      <c r="BK21" s="25">
-        <v>101.29</v>
-      </c>
-      <c r="BL21" s="25">
-        <v>101.02</v>
-      </c>
       <c r="BM21" s="25">
-        <v>101.01</v>
+        <v>100.95</v>
       </c>
       <c r="BN21" s="25">
-        <v>101.23</v>
+        <v>100.95</v>
       </c>
       <c r="BO21" s="25">
-        <v>101.01</v>
+        <v>100.7</v>
       </c>
       <c r="BP21" s="25">
-        <v>100.23</v>
+        <v>100.16</v>
       </c>
       <c r="BQ21" s="25">
-        <v>100.33</v>
+        <v>100.26</v>
       </c>
       <c r="BR21" s="25">
-        <v>100.7</v>
+        <v>100.26</v>
       </c>
       <c r="BS21" s="25">
-        <v>100.29</v>
+        <v>99.82</v>
       </c>
       <c r="BT21" s="25">
-        <v>100.64</v>
+        <v>100.54</v>
       </c>
       <c r="BU21" s="25">
-        <v>101.03</v>
+        <v>100.83</v>
       </c>
       <c r="BV21" s="25">
-        <v>101.09</v>
+        <v>101.08</v>
       </c>
       <c r="BW21" s="25">
-        <v>101.36</v>
-      </c>
-      <c r="BX21" s="25"/>
-      <c r="BY21" s="25"/>
+        <v>101.28</v>
+      </c>
+      <c r="BX21" s="25">
+        <v>101.49</v>
+      </c>
+      <c r="BY21" s="25">
+        <v>102.1</v>
+      </c>
       <c r="BZ21" s="25"/>
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.25">
@@ -5396,178 +5460,182 @@
         <v>88.47</v>
       </c>
       <c r="S22" s="25">
-        <v>89.07</v>
+        <v>89.08</v>
       </c>
       <c r="T22" s="25">
         <v>90.41</v>
       </c>
       <c r="U22" s="25">
-        <v>91.82</v>
+        <v>91.83</v>
       </c>
       <c r="V22" s="25">
-        <v>92.82</v>
+        <v>92.83</v>
       </c>
       <c r="W22" s="25">
         <v>93.83</v>
       </c>
       <c r="X22" s="25">
-        <v>94.38</v>
+        <v>94.39</v>
       </c>
       <c r="Y22" s="25">
-        <v>95.46</v>
+        <v>95.48</v>
       </c>
       <c r="Z22" s="25">
-        <v>97.07</v>
+        <v>97.09</v>
       </c>
       <c r="AA22" s="25">
-        <v>97.91</v>
+        <v>97.92</v>
       </c>
       <c r="AB22" s="25">
-        <v>98.58</v>
+        <v>98.59</v>
       </c>
       <c r="AC22" s="25">
-        <v>100.98</v>
+        <v>101.04</v>
       </c>
       <c r="AD22" s="25">
-        <v>102.06</v>
+        <v>102.14</v>
       </c>
       <c r="AE22" s="25">
-        <v>102.4</v>
+        <v>102.49</v>
       </c>
       <c r="AF22" s="25">
-        <v>103.22</v>
+        <v>103.31</v>
       </c>
       <c r="AG22" s="25">
-        <v>103.55</v>
+        <v>103.64</v>
       </c>
       <c r="AH22" s="25">
-        <v>104.06</v>
+        <v>104.15</v>
       </c>
       <c r="AI22" s="25">
-        <v>104.53</v>
+        <v>104.64</v>
       </c>
       <c r="AJ22" s="25">
+        <v>105.06</v>
+      </c>
+      <c r="AK22" s="25">
+        <v>105.49</v>
+      </c>
+      <c r="AL22" s="25">
+        <v>105.95</v>
+      </c>
+      <c r="AM22" s="25">
+        <v>106.62</v>
+      </c>
+      <c r="AN22" s="25">
+        <v>106.65</v>
+      </c>
+      <c r="AO22" s="25">
+        <v>106.53</v>
+      </c>
+      <c r="AP22" s="25">
         <v>104.94</v>
       </c>
-      <c r="AK22" s="25">
-        <v>105.38</v>
-      </c>
-      <c r="AL22" s="25">
-        <v>105.84</v>
-      </c>
-      <c r="AM22" s="25">
-        <v>106.5</v>
-      </c>
-      <c r="AN22" s="25">
-        <v>106.52</v>
-      </c>
-      <c r="AO22" s="25">
-        <v>106.39</v>
-      </c>
-      <c r="AP22" s="25">
-        <v>104.95</v>
-      </c>
       <c r="AQ22" s="25">
-        <v>105.12</v>
+        <v>104.88</v>
       </c>
       <c r="AR22" s="25">
-        <v>106.28</v>
+        <v>106.02</v>
       </c>
       <c r="AS22" s="25">
-        <v>107.05</v>
+        <v>106.79</v>
       </c>
       <c r="AT22" s="25">
-        <v>107.05</v>
+        <v>106.86</v>
       </c>
       <c r="AU22" s="25">
-        <v>107.44</v>
+        <v>107.61</v>
       </c>
       <c r="AV22" s="25">
-        <v>108.01</v>
+        <v>108.21</v>
       </c>
       <c r="AW22" s="25">
-        <v>108.41</v>
+        <v>108.61</v>
       </c>
       <c r="AX22" s="25">
-        <v>108.65</v>
+        <v>108.84</v>
       </c>
       <c r="AY22" s="25">
-        <v>109.05</v>
+        <v>109.24</v>
       </c>
       <c r="AZ22" s="25">
-        <v>109.21</v>
+        <v>109.41</v>
       </c>
       <c r="BA22" s="25">
-        <v>107.86</v>
+        <v>108.06</v>
       </c>
       <c r="BB22" s="25">
-        <v>102.12</v>
+        <v>102.32</v>
       </c>
       <c r="BC22" s="25">
-        <v>98.31</v>
+        <v>98.54</v>
       </c>
       <c r="BD22" s="25">
-        <v>101.68</v>
+        <v>101.96</v>
       </c>
       <c r="BE22" s="25">
-        <v>104.72</v>
+        <v>105.02</v>
       </c>
       <c r="BF22" s="25">
-        <v>105.68</v>
+        <v>105.99</v>
       </c>
       <c r="BG22" s="25">
-        <v>105.45</v>
+        <v>105.77</v>
       </c>
       <c r="BH22" s="25">
-        <v>104.06</v>
+        <v>104.42</v>
       </c>
       <c r="BI22" s="25">
-        <v>106.31</v>
+        <v>106.61</v>
       </c>
       <c r="BJ22" s="25">
-        <v>107.76</v>
+        <v>107.58</v>
       </c>
       <c r="BK22" s="25">
-        <v>108.53</v>
+        <v>108</v>
       </c>
       <c r="BL22" s="25">
-        <v>109</v>
+        <v>108.98</v>
       </c>
       <c r="BM22" s="25">
-        <v>109.76</v>
+        <v>110.19</v>
       </c>
       <c r="BN22" s="25">
-        <v>109.85</v>
+        <v>110.32</v>
       </c>
       <c r="BO22" s="25">
-        <v>109.68</v>
+        <v>110.22</v>
       </c>
       <c r="BP22" s="25">
-        <v>108.07</v>
+        <v>108.68</v>
       </c>
       <c r="BQ22" s="25">
-        <v>107.11</v>
+        <v>107.68</v>
       </c>
       <c r="BR22" s="25">
-        <v>107.28</v>
+        <v>107.36</v>
       </c>
       <c r="BS22" s="25">
-        <v>107.4</v>
+        <v>107.55</v>
       </c>
       <c r="BT22" s="25">
-        <v>106.84</v>
+        <v>107.85</v>
       </c>
       <c r="BU22" s="25">
-        <v>106.1</v>
+        <v>107.88</v>
       </c>
       <c r="BV22" s="25">
-        <v>105.41</v>
+        <v>107.92</v>
       </c>
       <c r="BW22" s="25">
-        <v>104.97</v>
-      </c>
-      <c r="BX22" s="25"/>
-      <c r="BY22" s="25"/>
+        <v>107.75</v>
+      </c>
+      <c r="BX22" s="25">
+        <v>106.82</v>
+      </c>
+      <c r="BY22" s="25">
+        <v>105.33</v>
+      </c>
       <c r="BZ22" s="25"/>
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.25">
@@ -5590,7 +5658,7 @@
         <v>98.46</v>
       </c>
       <c r="G23" s="25">
-        <v>98.69</v>
+        <v>98.7</v>
       </c>
       <c r="H23" s="25">
         <v>99.7</v>
@@ -5605,7 +5673,7 @@
         <v>100.42</v>
       </c>
       <c r="L23" s="25">
-        <v>100.05</v>
+        <v>100.06</v>
       </c>
       <c r="M23" s="25">
         <v>100</v>
@@ -5641,7 +5709,7 @@
         <v>91.98</v>
       </c>
       <c r="X23" s="25">
-        <v>92.42</v>
+        <v>92.41</v>
       </c>
       <c r="Y23" s="25">
         <v>93.54</v>
@@ -5656,148 +5724,152 @@
         <v>94.45</v>
       </c>
       <c r="AC23" s="25">
-        <v>95.32</v>
+        <v>95.33</v>
       </c>
       <c r="AD23" s="25">
-        <v>96.83</v>
+        <v>96.85</v>
       </c>
       <c r="AE23" s="25">
-        <v>97.29</v>
+        <v>97.3</v>
       </c>
       <c r="AF23" s="25">
-        <v>97.73</v>
+        <v>97.74</v>
       </c>
       <c r="AG23" s="25">
-        <v>98.3</v>
+        <v>98.35</v>
       </c>
       <c r="AH23" s="25">
-        <v>98.28</v>
+        <v>98.33</v>
       </c>
       <c r="AI23" s="25">
-        <v>98.5</v>
+        <v>98.55</v>
       </c>
       <c r="AJ23" s="25">
-        <v>98.92</v>
+        <v>98.97</v>
       </c>
       <c r="AK23" s="25">
-        <v>99.18</v>
+        <v>99.23</v>
       </c>
       <c r="AL23" s="25">
+        <v>99.52</v>
+      </c>
+      <c r="AM23" s="25">
+        <v>100.05</v>
+      </c>
+      <c r="AN23" s="25">
+        <v>100.04</v>
+      </c>
+      <c r="AO23" s="25">
+        <v>99.95</v>
+      </c>
+      <c r="AP23" s="25">
+        <v>99.3</v>
+      </c>
+      <c r="AQ23" s="25">
+        <v>99.45</v>
+      </c>
+      <c r="AR23" s="25">
+        <v>100.14</v>
+      </c>
+      <c r="AS23" s="25">
+        <v>100.55</v>
+      </c>
+      <c r="AT23" s="25">
+        <v>100.64</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>100.65</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>101.14</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>101.2</v>
+      </c>
+      <c r="AX23" s="25">
+        <v>101.82</v>
+      </c>
+      <c r="AY23" s="25">
+        <v>102.55</v>
+      </c>
+      <c r="AZ23" s="25">
+        <v>102.36</v>
+      </c>
+      <c r="BA23" s="25">
+        <v>101.38</v>
+      </c>
+      <c r="BB23" s="25">
+        <v>97</v>
+      </c>
+      <c r="BC23" s="25">
+        <v>94.63</v>
+      </c>
+      <c r="BD23" s="25">
+        <v>97.16</v>
+      </c>
+      <c r="BE23" s="25">
         <v>99.46</v>
       </c>
-      <c r="AM23" s="25">
-        <v>99.99</v>
-      </c>
-      <c r="AN23" s="25">
-        <v>99.98</v>
-      </c>
-      <c r="AO23" s="25">
-        <v>99.89</v>
-      </c>
-      <c r="AP23" s="25">
-        <v>99.35</v>
-      </c>
-      <c r="AQ23" s="25">
-        <v>99.67</v>
-      </c>
-      <c r="AR23" s="25">
-        <v>100.37</v>
-      </c>
-      <c r="AS23" s="25">
-        <v>100.77</v>
-      </c>
-      <c r="AT23" s="25">
-        <v>100.82</v>
-      </c>
-      <c r="AU23" s="25">
-        <v>100.6</v>
-      </c>
-      <c r="AV23" s="25">
+      <c r="BF23" s="25">
+        <v>99.82</v>
+      </c>
+      <c r="BG23" s="25">
+        <v>99.75</v>
+      </c>
+      <c r="BH23" s="25">
+        <v>98.68</v>
+      </c>
+      <c r="BI23" s="25">
+        <v>100.19</v>
+      </c>
+      <c r="BJ23" s="25">
         <v>101.08</v>
       </c>
-      <c r="AW23" s="25">
-        <v>101.13</v>
-      </c>
-      <c r="AX23" s="25">
-        <v>101.73</v>
-      </c>
-      <c r="AY23" s="25">
-        <v>102.45</v>
-      </c>
-      <c r="AZ23" s="25">
-        <v>102.26</v>
-      </c>
-      <c r="BA23" s="25">
-        <v>101.25</v>
-      </c>
-      <c r="BB23" s="25">
-        <v>96.86</v>
-      </c>
-      <c r="BC23" s="25">
-        <v>94.53</v>
-      </c>
-      <c r="BD23" s="25">
-        <v>97.05</v>
-      </c>
-      <c r="BE23" s="25">
-        <v>99.36</v>
-      </c>
-      <c r="BF23" s="25">
-        <v>99.72</v>
-      </c>
-      <c r="BG23" s="25">
-        <v>99.66</v>
-      </c>
-      <c r="BH23" s="25">
-        <v>98.58</v>
-      </c>
-      <c r="BI23" s="25">
-        <v>100.12</v>
-      </c>
-      <c r="BJ23" s="25">
-        <v>101.53</v>
-      </c>
       <c r="BK23" s="25">
-        <v>102.16</v>
+        <v>101.33</v>
       </c>
       <c r="BL23" s="25">
-        <v>102.47</v>
+        <v>102.23</v>
       </c>
       <c r="BM23" s="25">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="BN23" s="25">
-        <v>103.79</v>
+        <v>103.91</v>
       </c>
       <c r="BO23" s="25">
-        <v>104.93</v>
+        <v>104.98</v>
       </c>
       <c r="BP23" s="25">
-        <v>104.37</v>
+        <v>104.44</v>
       </c>
       <c r="BQ23" s="25">
-        <v>103.85</v>
+        <v>103.89</v>
       </c>
       <c r="BR23" s="25">
-        <v>103.97</v>
+        <v>103.5</v>
       </c>
       <c r="BS23" s="25">
-        <v>102.92</v>
+        <v>102.43</v>
       </c>
       <c r="BT23" s="25">
-        <v>102.74</v>
+        <v>102.84</v>
       </c>
       <c r="BU23" s="25">
-        <v>103.25</v>
+        <v>103.72</v>
       </c>
       <c r="BV23" s="25">
-        <v>102.86</v>
+        <v>103.67</v>
       </c>
       <c r="BW23" s="25">
-        <v>102.39</v>
-      </c>
-      <c r="BX23" s="25"/>
-      <c r="BY23" s="25"/>
+        <v>103.4</v>
+      </c>
+      <c r="BX23" s="25">
+        <v>103.12</v>
+      </c>
+      <c r="BY23" s="25">
+        <v>102.25</v>
+      </c>
       <c r="BZ23" s="25"/>
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.25">
@@ -5826,7 +5898,7 @@
         <v>99.65</v>
       </c>
       <c r="I24" s="25">
-        <v>100.29</v>
+        <v>100.3</v>
       </c>
       <c r="J24" s="25">
         <v>99.65</v>
@@ -5886,10 +5958,10 @@
         <v>96.92</v>
       </c>
       <c r="AC24" s="25">
-        <v>98.69</v>
+        <v>98.7</v>
       </c>
       <c r="AD24" s="25">
-        <v>99.57</v>
+        <v>99.56</v>
       </c>
       <c r="AE24" s="25">
         <v>98.84</v>
@@ -5901,43 +5973,43 @@
         <v>99.73</v>
       </c>
       <c r="AH24" s="25">
-        <v>99.71</v>
+        <v>99.73</v>
       </c>
       <c r="AI24" s="25">
+        <v>99.85</v>
+      </c>
+      <c r="AJ24" s="25">
+        <v>99.77</v>
+      </c>
+      <c r="AK24" s="25">
+        <v>99.9</v>
+      </c>
+      <c r="AL24" s="25">
+        <v>99.62</v>
+      </c>
+      <c r="AM24" s="25">
         <v>99.83</v>
       </c>
-      <c r="AJ24" s="25">
-        <v>99.75</v>
-      </c>
-      <c r="AK24" s="25">
-        <v>99.89</v>
-      </c>
-      <c r="AL24" s="25">
-        <v>99.6</v>
-      </c>
-      <c r="AM24" s="25">
-        <v>99.81</v>
-      </c>
       <c r="AN24" s="25">
-        <v>99.85</v>
+        <v>99.87</v>
       </c>
       <c r="AO24" s="25">
-        <v>99.64</v>
+        <v>99.65</v>
       </c>
       <c r="AP24" s="25">
-        <v>99.31</v>
+        <v>99.25</v>
       </c>
       <c r="AQ24" s="25">
-        <v>98.83</v>
+        <v>98.66</v>
       </c>
       <c r="AR24" s="25">
-        <v>99.22</v>
+        <v>99.04</v>
       </c>
       <c r="AS24" s="25">
-        <v>99.66</v>
+        <v>99.48</v>
       </c>
       <c r="AT24" s="25">
-        <v>99.55</v>
+        <v>99.4</v>
       </c>
       <c r="AU24" s="25">
         <v>99.95</v>
@@ -5949,85 +6021,89 @@
         <v>100.74</v>
       </c>
       <c r="AX24" s="25">
-        <v>100.63</v>
+        <v>100.62</v>
       </c>
       <c r="AY24" s="25">
-        <v>101.43</v>
+        <v>101.44</v>
       </c>
       <c r="AZ24" s="25">
-        <v>101.81</v>
+        <v>101.84</v>
       </c>
       <c r="BA24" s="25">
-        <v>101.36</v>
+        <v>101.37</v>
       </c>
       <c r="BB24" s="25">
-        <v>98.82</v>
+        <v>98.83</v>
       </c>
       <c r="BC24" s="25">
-        <v>96.27</v>
+        <v>96.29</v>
       </c>
       <c r="BD24" s="25">
-        <v>96.56</v>
+        <v>96.58</v>
       </c>
       <c r="BE24" s="25">
-        <v>97.69</v>
+        <v>97.71</v>
       </c>
       <c r="BF24" s="25">
-        <v>98.04</v>
+        <v>98.07</v>
       </c>
       <c r="BG24" s="25">
-        <v>98.47</v>
+        <v>98.51</v>
       </c>
       <c r="BH24" s="25">
-        <v>98.18</v>
+        <v>98.2</v>
       </c>
       <c r="BI24" s="25">
-        <v>98.76</v>
+        <v>98.75</v>
       </c>
       <c r="BJ24" s="25">
-        <v>99.8</v>
+        <v>99.44</v>
       </c>
       <c r="BK24" s="25">
-        <v>100.67</v>
+        <v>100</v>
       </c>
       <c r="BL24" s="25">
-        <v>101.22</v>
+        <v>100.92</v>
       </c>
       <c r="BM24" s="25">
-        <v>101.58</v>
+        <v>101.57</v>
       </c>
       <c r="BN24" s="25">
-        <v>101.36</v>
+        <v>101.26</v>
       </c>
       <c r="BO24" s="25">
-        <v>101.21</v>
+        <v>101.12</v>
       </c>
       <c r="BP24" s="25">
-        <v>100.54</v>
+        <v>100.55</v>
       </c>
       <c r="BQ24" s="25">
-        <v>100.49</v>
+        <v>100.43</v>
       </c>
       <c r="BR24" s="25">
-        <v>100.74</v>
+        <v>100.42</v>
       </c>
       <c r="BS24" s="25">
-        <v>100.84</v>
+        <v>100.44</v>
       </c>
       <c r="BT24" s="25">
-        <v>101.17</v>
+        <v>101.12</v>
       </c>
       <c r="BU24" s="25">
-        <v>101.82</v>
+        <v>101.62</v>
       </c>
       <c r="BV24" s="25">
-        <v>102.17</v>
+        <v>101.78</v>
       </c>
       <c r="BW24" s="25">
-        <v>103.05</v>
-      </c>
-      <c r="BX24" s="25"/>
-      <c r="BY24" s="25"/>
+        <v>102.1</v>
+      </c>
+      <c r="BX24" s="25">
+        <v>102.11</v>
+      </c>
+      <c r="BY24" s="25">
+        <v>102.77</v>
+      </c>
       <c r="BZ24" s="25"/>
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.25">
@@ -6074,28 +6150,28 @@
         <v>98.94</v>
       </c>
       <c r="O25" s="25">
-        <v>93.28</v>
+        <v>93.27</v>
       </c>
       <c r="P25" s="25">
         <v>89.77</v>
       </c>
       <c r="Q25" s="25">
-        <v>87.8</v>
+        <v>87.79</v>
       </c>
       <c r="R25" s="25">
-        <v>87.39</v>
+        <v>87.38</v>
       </c>
       <c r="S25" s="25">
-        <v>88.03</v>
+        <v>88.01</v>
       </c>
       <c r="T25" s="25">
-        <v>88.87</v>
+        <v>88.86</v>
       </c>
       <c r="U25" s="25">
-        <v>89.79</v>
+        <v>89.77</v>
       </c>
       <c r="V25" s="25">
-        <v>90.15</v>
+        <v>90.14</v>
       </c>
       <c r="W25" s="25">
         <v>90.94</v>
@@ -6107,157 +6183,161 @@
         <v>92.3</v>
       </c>
       <c r="Z25" s="25">
-        <v>93.32</v>
+        <v>93.33</v>
       </c>
       <c r="AA25" s="25">
-        <v>94.05</v>
+        <v>94.06</v>
       </c>
       <c r="AB25" s="25">
-        <v>95.04</v>
+        <v>95.05</v>
       </c>
       <c r="AC25" s="25">
-        <v>97.01</v>
+        <v>97.08</v>
       </c>
       <c r="AD25" s="25">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AE25" s="25">
-        <v>98.63</v>
+        <v>98.77</v>
       </c>
       <c r="AF25" s="25">
-        <v>98.83</v>
+        <v>98.96</v>
       </c>
       <c r="AG25" s="25">
-        <v>99.04</v>
+        <v>99.17</v>
       </c>
       <c r="AH25" s="25">
-        <v>99.32</v>
+        <v>99.46</v>
       </c>
       <c r="AI25" s="25">
-        <v>99.54</v>
+        <v>99.67</v>
       </c>
       <c r="AJ25" s="25">
-        <v>99.77</v>
+        <v>99.91</v>
       </c>
       <c r="AK25" s="25">
-        <v>100.14</v>
+        <v>100.28</v>
       </c>
       <c r="AL25" s="25">
-        <v>100.54</v>
+        <v>100.68</v>
       </c>
       <c r="AM25" s="25">
-        <v>101.05</v>
+        <v>101.19</v>
       </c>
       <c r="AN25" s="25">
-        <v>101.46</v>
+        <v>101.59</v>
       </c>
       <c r="AO25" s="25">
-        <v>101.58</v>
+        <v>101.73</v>
       </c>
       <c r="AP25" s="25">
-        <v>100.85</v>
+        <v>100.93</v>
       </c>
       <c r="AQ25" s="25">
         <v>100.98</v>
       </c>
       <c r="AR25" s="25">
-        <v>100.91</v>
+        <v>100.9</v>
       </c>
       <c r="AS25" s="25">
         <v>101.13</v>
       </c>
       <c r="AT25" s="25">
-        <v>101.23</v>
+        <v>101.26</v>
       </c>
       <c r="AU25" s="25">
-        <v>101.71</v>
+        <v>101.91</v>
       </c>
       